--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="3" r:id="rId1"/>
@@ -457,7 +457,7 @@
     <definedName name="x0713t6a">#REF!</definedName>
     <definedName name="x0713t8a">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -629,13 +629,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -782,6 +782,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,7 +798,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -23707,18 +23715,18 @@
   </sheetPr>
   <dimension ref="A1:EX160"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A5" colorId="22" zoomScale="75" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A5" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH29" sqref="CH29"/>
+      <selection pane="topRight" activeCell="CO23" sqref="CO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
     <col min="2" max="81" width="8" style="10" customWidth="1"/>
-    <col min="82" max="87" width="8" style="28" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="10"/>
+    <col min="82" max="88" width="10.36328125" style="28" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23731,6 +23739,7 @@
       <c r="CG1" s="19"/>
       <c r="CH1" s="19"/>
       <c r="CI1" s="19"/>
+      <c r="CJ1" s="19"/>
     </row>
     <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -23742,6 +23751,7 @@
       <c r="CG2" s="19"/>
       <c r="CH2" s="19"/>
       <c r="CI2" s="19"/>
+      <c r="CJ2" s="19"/>
     </row>
     <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -23753,6 +23763,7 @@
       <c r="CG3" s="19"/>
       <c r="CH3" s="19"/>
       <c r="CI3" s="19"/>
+      <c r="CJ3" s="19"/>
     </row>
     <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD4" s="19"/>
@@ -23761,6 +23772,7 @@
       <c r="CG4" s="19"/>
       <c r="CH4" s="19"/>
       <c r="CI4" s="19"/>
+      <c r="CJ4" s="19"/>
     </row>
     <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -23772,6 +23784,7 @@
       <c r="CG5" s="19"/>
       <c r="CH5" s="19"/>
       <c r="CI5" s="19"/>
+      <c r="CJ5" s="19"/>
     </row>
     <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -23783,6 +23796,7 @@
       <c r="CG6" s="19"/>
       <c r="CH6" s="19"/>
       <c r="CI6" s="19"/>
+      <c r="CJ6" s="19"/>
     </row>
     <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -23794,6 +23808,7 @@
       <c r="CG7" s="19"/>
       <c r="CH7" s="19"/>
       <c r="CI7" s="19"/>
+      <c r="CJ7" s="19"/>
     </row>
     <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD8" s="19"/>
@@ -23802,139 +23817,141 @@
       <c r="CG8" s="19"/>
       <c r="CH8" s="19"/>
       <c r="CI8" s="19"/>
+      <c r="CJ8" s="19"/>
     </row>
     <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="32">
+      <c r="B9" s="33">
         <v>2000</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>2001</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>2002</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33">
         <v>2003</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32">
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33">
         <v>2004</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32">
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>2005</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33">
         <v>2006</v>
       </c>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32">
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33">
         <v>2007</v>
       </c>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33">
         <v>2008</v>
       </c>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32">
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33">
         <v>2009</v>
       </c>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32">
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33">
         <v>2011</v>
       </c>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32">
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33">
         <v>2012</v>
       </c>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32">
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33">
         <v>2013</v>
       </c>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32">
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33">
         <v>2014</v>
       </c>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32">
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33">
         <v>2015</v>
       </c>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32">
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33">
         <v>2016</v>
       </c>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32">
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33">
         <v>2017</v>
       </c>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="32"/>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="32">
+      <c r="BS9" s="33"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="33">
         <v>2018</v>
       </c>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="32">
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="33"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="33">
         <v>2019</v>
       </c>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="32"/>
-      <c r="CD9" s="31">
+      <c r="CA9" s="33"/>
+      <c r="CB9" s="33"/>
+      <c r="CC9" s="33"/>
+      <c r="CD9" s="32">
         <v>2020</v>
       </c>
-      <c r="CE9" s="31"/>
-      <c r="CF9" s="31"/>
-      <c r="CG9" s="31"/>
-      <c r="CH9" s="31">
+      <c r="CE9" s="32"/>
+      <c r="CF9" s="32"/>
+      <c r="CG9" s="32"/>
+      <c r="CH9" s="32">
         <v>2021</v>
       </c>
-      <c r="CI9" s="31"/>
+      <c r="CI9" s="32"/>
+      <c r="CJ9" s="32"/>
     </row>
     <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24197,6 +24214,9 @@
       </c>
       <c r="CI10" s="20" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ10" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24207,6 +24227,7 @@
       <c r="CG11" s="19"/>
       <c r="CH11" s="19"/>
       <c r="CI11" s="19"/>
+      <c r="CJ11" s="19"/>
     </row>
     <row r="12" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -24468,9 +24489,11 @@
         <v>4282.4307130630841</v>
       </c>
       <c r="CI12" s="21">
-        <v>7358.0961155404439</v>
-      </c>
-      <c r="CJ12" s="9"/>
+        <v>7397.8127227129307</v>
+      </c>
+      <c r="CJ12" s="21">
+        <v>6580.2035266207022</v>
+      </c>
       <c r="CK12" s="9"/>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
@@ -24798,9 +24821,11 @@
         <v>7699.8596182378133</v>
       </c>
       <c r="CI13" s="21">
-        <v>7548.1955924223548</v>
-      </c>
-      <c r="CJ13" s="9"/>
+        <v>7682.1898180305152</v>
+      </c>
+      <c r="CJ13" s="21">
+        <v>8814.9651541289895</v>
+      </c>
       <c r="CK13" s="9"/>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
@@ -25130,7 +25155,9 @@
       <c r="CI14" s="21">
         <v>8716.508025910065</v>
       </c>
-      <c r="CJ14" s="9"/>
+      <c r="CJ14" s="21">
+        <v>8580.0974425486802</v>
+      </c>
       <c r="CK14" s="9"/>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
@@ -25458,9 +25485,11 @@
         <v>7733.200967622688</v>
       </c>
       <c r="CI15" s="21">
-        <v>12703.704625916562</v>
-      </c>
-      <c r="CJ15" s="9"/>
+        <v>11608.216618064422</v>
+      </c>
+      <c r="CJ15" s="21">
+        <v>7098.528375383582</v>
+      </c>
       <c r="CK15" s="9"/>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
@@ -25790,7 +25819,9 @@
       <c r="CI16" s="21">
         <v>2147.3760604424911</v>
       </c>
-      <c r="CJ16" s="9"/>
+      <c r="CJ16" s="21">
+        <v>2943.3120736579103</v>
+      </c>
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
@@ -26118,9 +26149,11 @@
         <v>12598.520105493759</v>
       </c>
       <c r="CI17" s="21">
-        <v>7870.8988859007613</v>
-      </c>
-      <c r="CJ17" s="9"/>
+        <v>7957.0884944429436</v>
+      </c>
+      <c r="CJ17" s="21">
+        <v>10585.206161110144</v>
+      </c>
       <c r="CK17" s="9"/>
       <c r="CL17" s="9"/>
       <c r="CM17" s="9"/>
@@ -26275,7 +26308,7 @@
       <c r="CG18" s="22"/>
       <c r="CH18" s="22"/>
       <c r="CI18" s="22"/>
-      <c r="CJ18" s="9"/>
+      <c r="CJ18" s="22"/>
       <c r="CK18" s="9"/>
       <c r="CL18" s="9"/>
       <c r="CM18" s="9"/>
@@ -26603,9 +26636,11 @@
         <v>41761.463495498712</v>
       </c>
       <c r="CI19" s="23">
-        <v>46344.779306132674</v>
-      </c>
-      <c r="CJ19" s="9"/>
+        <v>45509.19173960336</v>
+      </c>
+      <c r="CJ19" s="23">
+        <v>44602.31273345001</v>
+      </c>
       <c r="CK19" s="9"/>
       <c r="CL19" s="9"/>
       <c r="CM19" s="9"/>
@@ -26761,6 +26796,7 @@
       <c r="CG20" s="24"/>
       <c r="CH20" s="24"/>
       <c r="CI20" s="24"/>
+      <c r="CJ20" s="24"/>
     </row>
     <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -26772,6 +26808,7 @@
       <c r="CG21" s="19"/>
       <c r="CH21" s="19"/>
       <c r="CI21" s="19"/>
+      <c r="CJ21" s="19"/>
     </row>
     <row r="22" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
@@ -26860,7 +26897,7 @@
       <c r="CG22" s="22"/>
       <c r="CH22" s="22"/>
       <c r="CI22" s="22"/>
-      <c r="CJ22" s="9"/>
+      <c r="CJ22" s="22"/>
       <c r="CK22" s="9"/>
       <c r="CL22" s="9"/>
       <c r="CM22" s="9"/>
@@ -27015,7 +27052,7 @@
       <c r="CG23" s="22"/>
       <c r="CH23" s="22"/>
       <c r="CI23" s="22"/>
-      <c r="CJ23" s="9"/>
+      <c r="CJ23" s="22"/>
       <c r="CK23" s="9"/>
       <c r="CL23" s="9"/>
       <c r="CM23" s="9"/>
@@ -27093,6 +27130,7 @@
       <c r="CG24" s="19"/>
       <c r="CH24" s="19"/>
       <c r="CI24" s="19"/>
+      <c r="CJ24" s="19"/>
     </row>
     <row r="25" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -27104,6 +27142,7 @@
       <c r="CG25" s="19"/>
       <c r="CH25" s="19"/>
       <c r="CI25" s="19"/>
+      <c r="CJ25" s="19"/>
     </row>
     <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -27115,6 +27154,7 @@
       <c r="CG26" s="19"/>
       <c r="CH26" s="19"/>
       <c r="CI26" s="19"/>
+      <c r="CJ26" s="19"/>
     </row>
     <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD27" s="19"/>
@@ -27123,6 +27163,7 @@
       <c r="CG27" s="19"/>
       <c r="CH27" s="19"/>
       <c r="CI27" s="19"/>
+      <c r="CJ27" s="19"/>
     </row>
     <row r="28" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -27134,6 +27175,7 @@
       <c r="CG28" s="19"/>
       <c r="CH28" s="19"/>
       <c r="CI28" s="19"/>
+      <c r="CJ28" s="19"/>
     </row>
     <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -27145,6 +27187,7 @@
       <c r="CG29" s="19"/>
       <c r="CH29" s="19"/>
       <c r="CI29" s="19"/>
+      <c r="CJ29" s="19"/>
     </row>
     <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -27156,6 +27199,7 @@
       <c r="CG30" s="19"/>
       <c r="CH30" s="19"/>
       <c r="CI30" s="19"/>
+      <c r="CJ30" s="19"/>
     </row>
     <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD31" s="19"/>
@@ -27164,141 +27208,143 @@
       <c r="CG31" s="19"/>
       <c r="CH31" s="19"/>
       <c r="CI31" s="19"/>
+      <c r="CJ31" s="19"/>
     </row>
     <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="32">
+      <c r="B32" s="33">
         <v>2000</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32">
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33">
         <v>2001</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32">
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33">
         <v>2002</v>
       </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32">
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33">
         <v>2003</v>
       </c>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32">
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33">
         <v>2004</v>
       </c>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32">
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33">
         <v>2005</v>
       </c>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32">
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33">
         <v>2006</v>
       </c>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32">
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33">
         <v>2007</v>
       </c>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32">
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="33"/>
+      <c r="AH32" s="33">
         <v>2008</v>
       </c>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32">
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="33"/>
+      <c r="AK32" s="33"/>
+      <c r="AL32" s="33">
         <v>2009</v>
       </c>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="32">
+      <c r="AM32" s="33"/>
+      <c r="AN32" s="33"/>
+      <c r="AO32" s="33"/>
+      <c r="AP32" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="32"/>
-      <c r="AS32" s="32"/>
-      <c r="AT32" s="32">
+      <c r="AQ32" s="33"/>
+      <c r="AR32" s="33"/>
+      <c r="AS32" s="33"/>
+      <c r="AT32" s="33">
         <v>2011</v>
       </c>
-      <c r="AU32" s="32"/>
-      <c r="AV32" s="32"/>
-      <c r="AW32" s="32"/>
-      <c r="AX32" s="32">
+      <c r="AU32" s="33"/>
+      <c r="AV32" s="33"/>
+      <c r="AW32" s="33"/>
+      <c r="AX32" s="33">
         <v>2012</v>
       </c>
-      <c r="AY32" s="32"/>
-      <c r="AZ32" s="32"/>
-      <c r="BA32" s="32"/>
-      <c r="BB32" s="32">
+      <c r="AY32" s="33"/>
+      <c r="AZ32" s="33"/>
+      <c r="BA32" s="33"/>
+      <c r="BB32" s="33">
         <v>2013</v>
       </c>
-      <c r="BC32" s="32"/>
-      <c r="BD32" s="32"/>
-      <c r="BE32" s="32"/>
-      <c r="BF32" s="32">
+      <c r="BC32" s="33"/>
+      <c r="BD32" s="33"/>
+      <c r="BE32" s="33"/>
+      <c r="BF32" s="33">
         <v>2014</v>
       </c>
-      <c r="BG32" s="32"/>
-      <c r="BH32" s="32"/>
-      <c r="BI32" s="32"/>
-      <c r="BJ32" s="32">
+      <c r="BG32" s="33"/>
+      <c r="BH32" s="33"/>
+      <c r="BI32" s="33"/>
+      <c r="BJ32" s="33">
         <v>2015</v>
       </c>
-      <c r="BK32" s="32"/>
-      <c r="BL32" s="32"/>
-      <c r="BM32" s="32"/>
-      <c r="BN32" s="32">
+      <c r="BK32" s="33"/>
+      <c r="BL32" s="33"/>
+      <c r="BM32" s="33"/>
+      <c r="BN32" s="33">
         <v>2016</v>
       </c>
-      <c r="BO32" s="32"/>
-      <c r="BP32" s="32"/>
-      <c r="BQ32" s="32"/>
-      <c r="BR32" s="32">
+      <c r="BO32" s="33"/>
+      <c r="BP32" s="33"/>
+      <c r="BQ32" s="33"/>
+      <c r="BR32" s="33">
         <v>2017</v>
       </c>
-      <c r="BS32" s="32"/>
-      <c r="BT32" s="32"/>
-      <c r="BU32" s="32"/>
-      <c r="BV32" s="32">
+      <c r="BS32" s="33"/>
+      <c r="BT32" s="33"/>
+      <c r="BU32" s="33"/>
+      <c r="BV32" s="33">
         <v>2018</v>
       </c>
-      <c r="BW32" s="32"/>
-      <c r="BX32" s="32"/>
-      <c r="BY32" s="32"/>
-      <c r="BZ32" s="32">
+      <c r="BW32" s="33"/>
+      <c r="BX32" s="33"/>
+      <c r="BY32" s="33"/>
+      <c r="BZ32" s="33">
         <v>2019</v>
       </c>
-      <c r="CA32" s="32"/>
-      <c r="CB32" s="32"/>
-      <c r="CC32" s="32"/>
-      <c r="CD32" s="31">
+      <c r="CA32" s="33"/>
+      <c r="CB32" s="33"/>
+      <c r="CC32" s="33"/>
+      <c r="CD32" s="32">
         <v>2020</v>
       </c>
-      <c r="CE32" s="31"/>
-      <c r="CF32" s="31"/>
-      <c r="CG32" s="31"/>
-      <c r="CH32" s="31">
+      <c r="CE32" s="32"/>
+      <c r="CF32" s="32"/>
+      <c r="CG32" s="32"/>
+      <c r="CH32" s="32">
         <v>2021</v>
       </c>
-      <c r="CI32" s="31">
+      <c r="CI32" s="32">
         <v>0</v>
       </c>
+      <c r="CJ32" s="32"/>
     </row>
     <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -27561,6 +27607,9 @@
       </c>
       <c r="CI33" s="20" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ33" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27571,6 +27620,7 @@
       <c r="CG34" s="19"/>
       <c r="CH34" s="19"/>
       <c r="CI34" s="19"/>
+      <c r="CJ34" s="19"/>
     </row>
     <row r="35" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -27832,9 +27882,11 @@
         <v>7338.8001369750036</v>
       </c>
       <c r="CI35" s="21">
-        <v>7932.3695073007739</v>
-      </c>
-      <c r="CJ35" s="9"/>
+        <v>7975.185855269252</v>
+      </c>
+      <c r="CJ35" s="21">
+        <v>1938.6540172117454</v>
+      </c>
       <c r="CK35" s="9"/>
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
@@ -28162,9 +28214,11 @@
         <v>5489.642902099733</v>
       </c>
       <c r="CI36" s="21">
-        <v>13680.694965268773</v>
-      </c>
-      <c r="CJ36" s="9"/>
+        <v>13932.906736033503</v>
+      </c>
+      <c r="CJ36" s="21">
+        <v>3843.7268342808356</v>
+      </c>
       <c r="CK36" s="9"/>
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
@@ -28494,7 +28548,9 @@
       <c r="CI37" s="21">
         <v>5209.386294729502</v>
       </c>
-      <c r="CJ37" s="9"/>
+      <c r="CJ37" s="21">
+        <v>4766.3340134765203</v>
+      </c>
       <c r="CK37" s="9"/>
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
@@ -28822,9 +28878,11 @@
         <v>4552.1348510406633</v>
       </c>
       <c r="CI38" s="21">
-        <v>10237.986401266298</v>
-      </c>
-      <c r="CJ38" s="9"/>
+        <v>9511.9033660344339</v>
+      </c>
+      <c r="CJ38" s="21">
+        <v>5873.8412256385873</v>
+      </c>
       <c r="CK38" s="9"/>
       <c r="CL38" s="9"/>
       <c r="CM38" s="9"/>
@@ -29154,7 +29212,9 @@
       <c r="CI39" s="21">
         <v>896.98542678971489</v>
       </c>
-      <c r="CJ39" s="9"/>
+      <c r="CJ39" s="21">
+        <v>1199.3326437335306</v>
+      </c>
       <c r="CK39" s="9"/>
       <c r="CL39" s="9"/>
       <c r="CM39" s="9"/>
@@ -29482,9 +29542,11 @@
         <v>11106.154475899573</v>
       </c>
       <c r="CI40" s="21">
-        <v>6930.105774959522</v>
-      </c>
-      <c r="CJ40" s="9"/>
+        <v>7005.9933085892117</v>
+      </c>
+      <c r="CJ40" s="21">
+        <v>7775.385176269252</v>
+      </c>
       <c r="CK40" s="9"/>
       <c r="CL40" s="9"/>
       <c r="CM40" s="9"/>
@@ -29639,7 +29701,7 @@
       <c r="CG41" s="23"/>
       <c r="CH41" s="23"/>
       <c r="CI41" s="23"/>
-      <c r="CJ41" s="9"/>
+      <c r="CJ41" s="23"/>
       <c r="CK41" s="9"/>
       <c r="CL41" s="9"/>
       <c r="CM41" s="9"/>
@@ -29967,9 +30029,11 @@
         <v>36253.961579089097</v>
       </c>
       <c r="CI42" s="23">
-        <v>44887.528370314583</v>
-      </c>
-      <c r="CJ42" s="9"/>
+        <v>44532.360987445616</v>
+      </c>
+      <c r="CJ42" s="23">
+        <v>25397.273910610471</v>
+      </c>
       <c r="CK42" s="9"/>
       <c r="CL42" s="9"/>
       <c r="CM42" s="9"/>
@@ -30125,6 +30189,7 @@
       <c r="CG43" s="24"/>
       <c r="CH43" s="24"/>
       <c r="CI43" s="24"/>
+      <c r="CJ43" s="24"/>
     </row>
     <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
@@ -30136,6 +30201,7 @@
       <c r="CG44" s="19"/>
       <c r="CH44" s="19"/>
       <c r="CI44" s="19"/>
+      <c r="CJ44" s="19"/>
     </row>
     <row r="45" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
@@ -30224,7 +30290,7 @@
       <c r="CG45" s="22"/>
       <c r="CH45" s="22"/>
       <c r="CI45" s="22"/>
-      <c r="CJ45" s="9"/>
+      <c r="CJ45" s="22"/>
       <c r="CK45" s="9"/>
       <c r="CL45" s="9"/>
       <c r="CM45" s="9"/>
@@ -30379,7 +30445,7 @@
       <c r="CG46" s="22"/>
       <c r="CH46" s="22"/>
       <c r="CI46" s="22"/>
-      <c r="CJ46" s="9"/>
+      <c r="CJ46" s="22"/>
       <c r="CK46" s="9"/>
       <c r="CL46" s="9"/>
       <c r="CM46" s="9"/>
@@ -30457,6 +30523,7 @@
       <c r="CG47" s="19"/>
       <c r="CH47" s="19"/>
       <c r="CI47" s="19"/>
+      <c r="CJ47" s="19"/>
     </row>
     <row r="48" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -30468,6 +30535,7 @@
       <c r="CG48" s="19"/>
       <c r="CH48" s="19"/>
       <c r="CI48" s="19"/>
+      <c r="CJ48" s="19"/>
     </row>
     <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -30479,6 +30547,7 @@
       <c r="CG49" s="19"/>
       <c r="CH49" s="19"/>
       <c r="CI49" s="19"/>
+      <c r="CJ49" s="19"/>
     </row>
     <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD50" s="19"/>
@@ -30487,6 +30556,7 @@
       <c r="CG50" s="19"/>
       <c r="CH50" s="19"/>
       <c r="CI50" s="19"/>
+      <c r="CJ50" s="19"/>
     </row>
     <row r="51" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -30498,6 +30568,7 @@
       <c r="CG51" s="19"/>
       <c r="CH51" s="19"/>
       <c r="CI51" s="19"/>
+      <c r="CJ51" s="19"/>
     </row>
     <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -30509,6 +30580,7 @@
       <c r="CG52" s="19"/>
       <c r="CH52" s="19"/>
       <c r="CI52" s="19"/>
+      <c r="CJ52" s="19"/>
     </row>
     <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -30520,6 +30592,7 @@
       <c r="CG53" s="19"/>
       <c r="CH53" s="19"/>
       <c r="CI53" s="19"/>
+      <c r="CJ53" s="19"/>
     </row>
     <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD54" s="19"/>
@@ -30528,137 +30601,139 @@
       <c r="CG54" s="19"/>
       <c r="CH54" s="19"/>
       <c r="CI54" s="19"/>
+      <c r="CJ54" s="19"/>
     </row>
     <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32" t="s">
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32" t="s">
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32" t="s">
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32" t="s">
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="32"/>
-      <c r="V55" s="32" t="s">
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="W55" s="32"/>
-      <c r="X55" s="32"/>
-      <c r="Y55" s="32"/>
-      <c r="Z55" s="32" t="s">
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AA55" s="32"/>
-      <c r="AB55" s="32"/>
-      <c r="AC55" s="32"/>
-      <c r="AD55" s="32" t="s">
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="33"/>
+      <c r="AD55" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="32"/>
-      <c r="AF55" s="32"/>
-      <c r="AG55" s="32"/>
-      <c r="AH55" s="32" t="s">
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="33"/>
+      <c r="AG55" s="33"/>
+      <c r="AH55" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="32"/>
-      <c r="AJ55" s="32"/>
-      <c r="AK55" s="32"/>
-      <c r="AL55" s="32" t="s">
+      <c r="AI55" s="33"/>
+      <c r="AJ55" s="33"/>
+      <c r="AK55" s="33"/>
+      <c r="AL55" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AM55" s="32"/>
-      <c r="AN55" s="32"/>
-      <c r="AO55" s="32"/>
-      <c r="AP55" s="32" t="s">
+      <c r="AM55" s="33"/>
+      <c r="AN55" s="33"/>
+      <c r="AO55" s="33"/>
+      <c r="AP55" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AQ55" s="32"/>
-      <c r="AR55" s="32"/>
-      <c r="AS55" s="32"/>
-      <c r="AT55" s="32" t="s">
+      <c r="AQ55" s="33"/>
+      <c r="AR55" s="33"/>
+      <c r="AS55" s="33"/>
+      <c r="AT55" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AU55" s="32"/>
-      <c r="AV55" s="32"/>
-      <c r="AW55" s="32"/>
-      <c r="AX55" s="32" t="s">
+      <c r="AU55" s="33"/>
+      <c r="AV55" s="33"/>
+      <c r="AW55" s="33"/>
+      <c r="AX55" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AY55" s="32"/>
-      <c r="AZ55" s="32"/>
-      <c r="BA55" s="32"/>
-      <c r="BB55" s="32" t="s">
+      <c r="AY55" s="33"/>
+      <c r="AZ55" s="33"/>
+      <c r="BA55" s="33"/>
+      <c r="BB55" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="BC55" s="32"/>
-      <c r="BD55" s="32"/>
-      <c r="BE55" s="32"/>
-      <c r="BF55" s="32" t="s">
+      <c r="BC55" s="33"/>
+      <c r="BD55" s="33"/>
+      <c r="BE55" s="33"/>
+      <c r="BF55" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="BG55" s="32"/>
-      <c r="BH55" s="32"/>
-      <c r="BI55" s="32"/>
-      <c r="BJ55" s="32" t="s">
+      <c r="BG55" s="33"/>
+      <c r="BH55" s="33"/>
+      <c r="BI55" s="33"/>
+      <c r="BJ55" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="BK55" s="32"/>
-      <c r="BL55" s="32"/>
-      <c r="BM55" s="32"/>
-      <c r="BN55" s="32" t="s">
+      <c r="BK55" s="33"/>
+      <c r="BL55" s="33"/>
+      <c r="BM55" s="33"/>
+      <c r="BN55" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="BO55" s="32"/>
-      <c r="BP55" s="32"/>
-      <c r="BQ55" s="32"/>
-      <c r="BR55" s="32" t="s">
+      <c r="BO55" s="33"/>
+      <c r="BP55" s="33"/>
+      <c r="BQ55" s="33"/>
+      <c r="BR55" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="BS55" s="32"/>
-      <c r="BT55" s="32"/>
-      <c r="BU55" s="32"/>
-      <c r="BV55" s="32" t="s">
+      <c r="BS55" s="33"/>
+      <c r="BT55" s="33"/>
+      <c r="BU55" s="33"/>
+      <c r="BV55" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="BW55" s="32"/>
-      <c r="BX55" s="32"/>
-      <c r="BY55" s="32"/>
-      <c r="BZ55" s="32" t="s">
+      <c r="BW55" s="33"/>
+      <c r="BX55" s="33"/>
+      <c r="BY55" s="33"/>
+      <c r="BZ55" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="CA55" s="32"/>
-      <c r="CB55" s="32"/>
-      <c r="CC55" s="32"/>
-      <c r="CD55" s="31" t="s">
+      <c r="CA55" s="33"/>
+      <c r="CB55" s="33"/>
+      <c r="CC55" s="33"/>
+      <c r="CD55" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="CE55" s="31"/>
-      <c r="CF55" s="25"/>
+      <c r="CE55" s="32"/>
+      <c r="CF55" s="32"/>
       <c r="CG55" s="25"/>
       <c r="CH55" s="25"/>
       <c r="CI55" s="25"/>
+      <c r="CJ55" s="25"/>
     </row>
     <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
@@ -30910,10 +30985,13 @@
       <c r="CE56" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CF56" s="26"/>
+      <c r="CF56" s="30" t="s">
+        <v>10</v>
+      </c>
       <c r="CG56" s="26"/>
       <c r="CH56" s="26"/>
       <c r="CI56" s="26"/>
+      <c r="CJ56" s="26"/>
     </row>
     <row r="57" spans="1:149" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
@@ -30923,6 +31001,7 @@
       <c r="CG57" s="19"/>
       <c r="CH57" s="19"/>
       <c r="CI57" s="19"/>
+      <c r="CJ57" s="19"/>
     </row>
     <row r="58" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -31172,13 +31251,15 @@
         <v>72.408181463032662</v>
       </c>
       <c r="CE58" s="27">
-        <v>82.69035707819765</v>
-      </c>
-      <c r="CF58" s="22"/>
+        <v>83.676460145124366</v>
+      </c>
+      <c r="CF58" s="27">
+        <v>110.93986144275937</v>
+      </c>
       <c r="CG58" s="22"/>
       <c r="CH58" s="22"/>
       <c r="CI58" s="22"/>
-      <c r="CJ58" s="9"/>
+      <c r="CJ58" s="22"/>
       <c r="CK58" s="9"/>
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
@@ -31433,13 +31514,15 @@
         <v>27.770302074560391</v>
       </c>
       <c r="CE59" s="27">
-        <v>59.850131285609507</v>
-      </c>
-      <c r="CF59" s="22"/>
+        <v>62.687762384687062</v>
+      </c>
+      <c r="CF59" s="27">
+        <v>91.229938292722579</v>
+      </c>
       <c r="CG59" s="22"/>
       <c r="CH59" s="22"/>
       <c r="CI59" s="22"/>
-      <c r="CJ59" s="9"/>
+      <c r="CJ59" s="22"/>
       <c r="CK59" s="9"/>
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
@@ -31752,11 +31835,13 @@
       <c r="CE60" s="27">
         <v>5.9974575720309815</v>
       </c>
-      <c r="CF60" s="22"/>
+      <c r="CF60" s="27">
+        <v>2.9971838777792499</v>
+      </c>
       <c r="CG60" s="22"/>
       <c r="CH60" s="22"/>
       <c r="CI60" s="22"/>
-      <c r="CJ60" s="9"/>
+      <c r="CJ60" s="22"/>
       <c r="CK60" s="9"/>
       <c r="CL60" s="9"/>
       <c r="CM60" s="9"/>
@@ -32067,13 +32152,15 @@
         <v>105.5125870929281</v>
       </c>
       <c r="CE61" s="27">
-        <v>68.720466555767018</v>
-      </c>
-      <c r="CF61" s="22"/>
+        <v>54.17106909780108</v>
+      </c>
+      <c r="CF61" s="27">
+        <v>21.318860518978596</v>
+      </c>
       <c r="CG61" s="22"/>
       <c r="CH61" s="22"/>
       <c r="CI61" s="22"/>
-      <c r="CJ61" s="9"/>
+      <c r="CJ61" s="22"/>
       <c r="CK61" s="9"/>
       <c r="CL61" s="9"/>
       <c r="CM61" s="9"/>
@@ -32386,11 +32473,13 @@
       <c r="CE62" s="27">
         <v>17.991416518440516</v>
       </c>
-      <c r="CF62" s="22"/>
+      <c r="CF62" s="27">
+        <v>25.048633366343793</v>
+      </c>
       <c r="CG62" s="22"/>
       <c r="CH62" s="22"/>
       <c r="CI62" s="22"/>
-      <c r="CJ62" s="9"/>
+      <c r="CJ62" s="22"/>
       <c r="CK62" s="9"/>
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
@@ -32701,13 +32790,15 @@
         <v>-4.6665219500198987</v>
       </c>
       <c r="CE63" s="27">
-        <v>28.441095018864758</v>
-      </c>
-      <c r="CF63" s="22"/>
+        <v>29.847578301255226</v>
+      </c>
+      <c r="CF63" s="27">
+        <v>22.514645158458052</v>
+      </c>
       <c r="CG63" s="22"/>
       <c r="CH63" s="22"/>
       <c r="CI63" s="22"/>
-      <c r="CJ63" s="9"/>
+      <c r="CJ63" s="22"/>
       <c r="CK63" s="9"/>
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
@@ -32857,7 +32948,7 @@
       <c r="CG64" s="22"/>
       <c r="CH64" s="22"/>
       <c r="CI64" s="22"/>
-      <c r="CJ64" s="9"/>
+      <c r="CJ64" s="22"/>
       <c r="CK64" s="9"/>
       <c r="CL64" s="9"/>
       <c r="CM64" s="9"/>
@@ -33168,13 +33259,15 @@
         <v>24.543860922872838</v>
       </c>
       <c r="CE65" s="27">
-        <v>42.817283714065297</v>
-      </c>
-      <c r="CF65" s="22"/>
+        <v>40.242315220447495</v>
+      </c>
+      <c r="CF65" s="27">
+        <v>35.55152810097141</v>
+      </c>
       <c r="CG65" s="22"/>
       <c r="CH65" s="22"/>
       <c r="CI65" s="22"/>
-      <c r="CJ65" s="9"/>
+      <c r="CJ65" s="22"/>
       <c r="CK65" s="9"/>
       <c r="CL65" s="9"/>
       <c r="CM65" s="9"/>
@@ -33325,6 +33418,7 @@
       <c r="CG66" s="24"/>
       <c r="CH66" s="24"/>
       <c r="CI66" s="24"/>
+      <c r="CJ66" s="24"/>
     </row>
     <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -33336,6 +33430,7 @@
       <c r="CG67" s="19"/>
       <c r="CH67" s="19"/>
       <c r="CI67" s="19"/>
+      <c r="CJ67" s="19"/>
     </row>
     <row r="68" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
@@ -33427,7 +33522,7 @@
       <c r="CG68" s="22"/>
       <c r="CH68" s="22"/>
       <c r="CI68" s="22"/>
-      <c r="CJ68" s="9"/>
+      <c r="CJ68" s="22"/>
       <c r="CK68" s="9"/>
       <c r="CL68" s="9"/>
       <c r="CM68" s="9"/>
@@ -33577,7 +33672,7 @@
       <c r="CG69" s="22"/>
       <c r="CH69" s="22"/>
       <c r="CI69" s="22"/>
-      <c r="CJ69" s="9"/>
+      <c r="CJ69" s="22"/>
       <c r="CK69" s="9"/>
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
@@ -33650,6 +33745,7 @@
       <c r="CG70" s="19"/>
       <c r="CH70" s="19"/>
       <c r="CI70" s="19"/>
+      <c r="CJ70" s="19"/>
     </row>
     <row r="71" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -33661,6 +33757,7 @@
       <c r="CG71" s="19"/>
       <c r="CH71" s="19"/>
       <c r="CI71" s="19"/>
+      <c r="CJ71" s="19"/>
     </row>
     <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -33672,6 +33769,7 @@
       <c r="CG72" s="19"/>
       <c r="CH72" s="19"/>
       <c r="CI72" s="19"/>
+      <c r="CJ72" s="19"/>
     </row>
     <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD73" s="19"/>
@@ -33680,6 +33778,7 @@
       <c r="CG73" s="19"/>
       <c r="CH73" s="19"/>
       <c r="CI73" s="19"/>
+      <c r="CJ73" s="19"/>
     </row>
     <row r="74" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -33691,6 +33790,7 @@
       <c r="CG74" s="19"/>
       <c r="CH74" s="19"/>
       <c r="CI74" s="19"/>
+      <c r="CJ74" s="19"/>
     </row>
     <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -33702,6 +33802,7 @@
       <c r="CG75" s="19"/>
       <c r="CH75" s="19"/>
       <c r="CI75" s="19"/>
+      <c r="CJ75" s="19"/>
     </row>
     <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -33713,6 +33814,7 @@
       <c r="CG76" s="19"/>
       <c r="CH76" s="19"/>
       <c r="CI76" s="19"/>
+      <c r="CJ76" s="19"/>
     </row>
     <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD77" s="19"/>
@@ -33721,137 +33823,139 @@
       <c r="CG77" s="19"/>
       <c r="CH77" s="19"/>
       <c r="CI77" s="19"/>
+      <c r="CJ77" s="19"/>
     </row>
     <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="32" t="s">
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="32" t="s">
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="32" t="s">
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="O78" s="33"/>
-      <c r="P78" s="33"/>
-      <c r="Q78" s="33"/>
-      <c r="R78" s="32" t="s">
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="33"/>
-      <c r="T78" s="33"/>
-      <c r="U78" s="33"/>
-      <c r="V78" s="32" t="s">
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="W78" s="33"/>
-      <c r="X78" s="33"/>
-      <c r="Y78" s="33"/>
-      <c r="Z78" s="32" t="s">
+      <c r="W78" s="34"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AA78" s="33"/>
-      <c r="AB78" s="33"/>
-      <c r="AC78" s="33"/>
-      <c r="AD78" s="32" t="s">
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="34"/>
+      <c r="AC78" s="34"/>
+      <c r="AD78" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="33"/>
-      <c r="AF78" s="33"/>
-      <c r="AG78" s="33"/>
-      <c r="AH78" s="32" t="s">
+      <c r="AE78" s="34"/>
+      <c r="AF78" s="34"/>
+      <c r="AG78" s="34"/>
+      <c r="AH78" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AI78" s="33"/>
-      <c r="AJ78" s="33"/>
-      <c r="AK78" s="33"/>
-      <c r="AL78" s="32" t="s">
+      <c r="AI78" s="34"/>
+      <c r="AJ78" s="34"/>
+      <c r="AK78" s="34"/>
+      <c r="AL78" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AM78" s="33"/>
-      <c r="AN78" s="33"/>
-      <c r="AO78" s="33"/>
-      <c r="AP78" s="32" t="s">
+      <c r="AM78" s="34"/>
+      <c r="AN78" s="34"/>
+      <c r="AO78" s="34"/>
+      <c r="AP78" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AQ78" s="33"/>
-      <c r="AR78" s="33"/>
-      <c r="AS78" s="33"/>
-      <c r="AT78" s="32" t="s">
+      <c r="AQ78" s="34"/>
+      <c r="AR78" s="34"/>
+      <c r="AS78" s="34"/>
+      <c r="AT78" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AU78" s="33"/>
-      <c r="AV78" s="33"/>
-      <c r="AW78" s="33"/>
-      <c r="AX78" s="32" t="s">
+      <c r="AU78" s="34"/>
+      <c r="AV78" s="34"/>
+      <c r="AW78" s="34"/>
+      <c r="AX78" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AY78" s="33"/>
-      <c r="AZ78" s="33"/>
-      <c r="BA78" s="33"/>
-      <c r="BB78" s="32" t="s">
+      <c r="AY78" s="34"/>
+      <c r="AZ78" s="34"/>
+      <c r="BA78" s="34"/>
+      <c r="BB78" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="BC78" s="33"/>
-      <c r="BD78" s="33"/>
-      <c r="BE78" s="33"/>
-      <c r="BF78" s="32" t="s">
+      <c r="BC78" s="34"/>
+      <c r="BD78" s="34"/>
+      <c r="BE78" s="34"/>
+      <c r="BF78" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="BG78" s="33"/>
-      <c r="BH78" s="33"/>
-      <c r="BI78" s="33"/>
-      <c r="BJ78" s="32" t="s">
+      <c r="BG78" s="34"/>
+      <c r="BH78" s="34"/>
+      <c r="BI78" s="34"/>
+      <c r="BJ78" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="BK78" s="33"/>
-      <c r="BL78" s="33"/>
-      <c r="BM78" s="33"/>
-      <c r="BN78" s="32" t="s">
+      <c r="BK78" s="34"/>
+      <c r="BL78" s="34"/>
+      <c r="BM78" s="34"/>
+      <c r="BN78" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="BO78" s="33"/>
-      <c r="BP78" s="33"/>
-      <c r="BQ78" s="33"/>
-      <c r="BR78" s="32" t="s">
+      <c r="BO78" s="34"/>
+      <c r="BP78" s="34"/>
+      <c r="BQ78" s="34"/>
+      <c r="BR78" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="BS78" s="33"/>
-      <c r="BT78" s="33"/>
-      <c r="BU78" s="33"/>
-      <c r="BV78" s="32" t="s">
+      <c r="BS78" s="34"/>
+      <c r="BT78" s="34"/>
+      <c r="BU78" s="34"/>
+      <c r="BV78" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="BW78" s="33"/>
-      <c r="BX78" s="33"/>
-      <c r="BY78" s="33"/>
-      <c r="BZ78" s="32" t="s">
+      <c r="BW78" s="34"/>
+      <c r="BX78" s="34"/>
+      <c r="BY78" s="34"/>
+      <c r="BZ78" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="CA78" s="32"/>
-      <c r="CB78" s="32"/>
-      <c r="CC78" s="32"/>
-      <c r="CD78" s="31" t="s">
+      <c r="CA78" s="33"/>
+      <c r="CB78" s="33"/>
+      <c r="CC78" s="33"/>
+      <c r="CD78" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="CE78" s="31"/>
-      <c r="CF78" s="25"/>
+      <c r="CE78" s="32"/>
+      <c r="CF78" s="32"/>
       <c r="CG78" s="25"/>
       <c r="CH78" s="25"/>
       <c r="CI78" s="25"/>
+      <c r="CJ78" s="25"/>
     </row>
     <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -34103,10 +34207,13 @@
       <c r="CE79" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CF79" s="26"/>
+      <c r="CF79" s="30" t="s">
+        <v>10</v>
+      </c>
       <c r="CG79" s="26"/>
       <c r="CH79" s="26"/>
       <c r="CI79" s="26"/>
+      <c r="CJ79" s="26"/>
     </row>
     <row r="80" spans="1:149" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
@@ -34116,6 +34223,7 @@
       <c r="CG80" s="19"/>
       <c r="CH80" s="19"/>
       <c r="CI80" s="19"/>
+      <c r="CJ80" s="19"/>
     </row>
     <row r="81" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -34365,13 +34473,15 @@
         <v>41.513871769367512</v>
       </c>
       <c r="CE81" s="27">
-        <v>-3.2183499809025022</v>
-      </c>
-      <c r="CF81" s="22"/>
+        <v>-2.6959541444040553</v>
+      </c>
+      <c r="CF81" s="27">
+        <v>-39.467722773414323</v>
+      </c>
       <c r="CG81" s="22"/>
       <c r="CH81" s="22"/>
       <c r="CI81" s="22"/>
-      <c r="CJ81" s="9"/>
+      <c r="CJ81" s="22"/>
       <c r="CK81" s="9"/>
       <c r="CL81" s="9"/>
       <c r="CM81" s="9"/>
@@ -34682,13 +34792,15 @@
         <v>-19.128862284949705</v>
       </c>
       <c r="CE82" s="27">
-        <v>-14.275743157237642</v>
-      </c>
-      <c r="CF82" s="22"/>
+        <v>-12.695365356936406</v>
+      </c>
+      <c r="CF82" s="27">
+        <v>-8.8465080979616033</v>
+      </c>
       <c r="CG82" s="22"/>
       <c r="CH82" s="22"/>
       <c r="CI82" s="22"/>
-      <c r="CJ82" s="9"/>
+      <c r="CJ82" s="22"/>
       <c r="CK82" s="9"/>
       <c r="CL82" s="9"/>
       <c r="CM82" s="9"/>
@@ -35001,11 +35113,13 @@
       <c r="CE83" s="27">
         <v>1.6699212113083064</v>
       </c>
-      <c r="CF83" s="22"/>
+      <c r="CF83" s="27">
+        <v>15.84388936208336</v>
+      </c>
       <c r="CG83" s="22"/>
       <c r="CH83" s="22"/>
       <c r="CI83" s="22"/>
-      <c r="CJ83" s="9"/>
+      <c r="CJ83" s="22"/>
       <c r="CK83" s="9"/>
       <c r="CL83" s="9"/>
       <c r="CM83" s="9"/>
@@ -35316,13 +35430,15 @@
         <v>48.021949685556336</v>
       </c>
       <c r="CE84" s="27">
-        <v>20.835473752916172</v>
-      </c>
-      <c r="CF84" s="22"/>
+        <v>12.265762473035409</v>
+      </c>
+      <c r="CF84" s="27">
+        <v>-2.4342776039986944</v>
+      </c>
       <c r="CG84" s="22"/>
       <c r="CH84" s="22"/>
       <c r="CI84" s="22"/>
-      <c r="CJ84" s="9"/>
+      <c r="CJ84" s="22"/>
       <c r="CK84" s="9"/>
       <c r="CL84" s="9"/>
       <c r="CM84" s="9"/>
@@ -35635,11 +35751,13 @@
       <c r="CE85" s="27">
         <v>-23.533670674738218</v>
       </c>
-      <c r="CF85" s="22"/>
+      <c r="CF85" s="27">
+        <v>-3.7260011875701053</v>
+      </c>
       <c r="CG85" s="22"/>
       <c r="CH85" s="22"/>
       <c r="CI85" s="22"/>
-      <c r="CJ85" s="9"/>
+      <c r="CJ85" s="22"/>
       <c r="CK85" s="9"/>
       <c r="CL85" s="9"/>
       <c r="CM85" s="9"/>
@@ -35950,13 +36068,15 @@
         <v>-8.0704676077755124</v>
       </c>
       <c r="CE86" s="27">
-        <v>23.305925998361005</v>
-      </c>
-      <c r="CF86" s="22"/>
+        <v>24.656177049326431</v>
+      </c>
+      <c r="CF86" s="27">
+        <v>20.488795825431751</v>
+      </c>
       <c r="CG86" s="22"/>
       <c r="CH86" s="22"/>
       <c r="CI86" s="22"/>
-      <c r="CJ86" s="9"/>
+      <c r="CJ86" s="22"/>
       <c r="CK86" s="9"/>
       <c r="CL86" s="9"/>
       <c r="CM86" s="9"/>
@@ -36106,7 +36226,7 @@
       <c r="CG87" s="22"/>
       <c r="CH87" s="22"/>
       <c r="CI87" s="22"/>
-      <c r="CJ87" s="9"/>
+      <c r="CJ87" s="22"/>
       <c r="CK87" s="9"/>
       <c r="CL87" s="9"/>
       <c r="CM87" s="9"/>
@@ -36416,14 +36536,16 @@
       <c r="CD88" s="27">
         <v>1.0023477224451653</v>
       </c>
-      <c r="CE88" s="27">
-        <v>0.76919059157940239</v>
-      </c>
-      <c r="CF88" s="22"/>
+      <c r="CE88" s="31">
+        <v>-2.8133988223132178E-2</v>
+      </c>
+      <c r="CF88" s="27">
+        <v>0.57038802635358365</v>
+      </c>
       <c r="CG88" s="22"/>
       <c r="CH88" s="22"/>
       <c r="CI88" s="22"/>
-      <c r="CJ88" s="9"/>
+      <c r="CJ88" s="22"/>
       <c r="CK88" s="9"/>
       <c r="CL88" s="9"/>
       <c r="CM88" s="9"/>
@@ -36574,6 +36696,7 @@
       <c r="CG89" s="24"/>
       <c r="CH89" s="24"/>
       <c r="CI89" s="24"/>
+      <c r="CJ89" s="24"/>
     </row>
     <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
@@ -36585,6 +36708,7 @@
       <c r="CG90" s="19"/>
       <c r="CH90" s="19"/>
       <c r="CI90" s="19"/>
+      <c r="CJ90" s="19"/>
     </row>
     <row r="91" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
@@ -36676,7 +36800,7 @@
       <c r="CG91" s="22"/>
       <c r="CH91" s="22"/>
       <c r="CI91" s="22"/>
-      <c r="CJ91" s="9"/>
+      <c r="CJ91" s="22"/>
       <c r="CK91" s="9"/>
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
@@ -36826,7 +36950,7 @@
       <c r="CG92" s="22"/>
       <c r="CH92" s="22"/>
       <c r="CI92" s="22"/>
-      <c r="CJ92" s="9"/>
+      <c r="CJ92" s="22"/>
       <c r="CK92" s="9"/>
       <c r="CL92" s="9"/>
       <c r="CM92" s="9"/>
@@ -36904,6 +37028,7 @@
       <c r="CG93" s="19"/>
       <c r="CH93" s="19"/>
       <c r="CI93" s="19"/>
+      <c r="CJ93" s="19"/>
     </row>
     <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -36915,6 +37040,7 @@
       <c r="CG94" s="19"/>
       <c r="CH94" s="19"/>
       <c r="CI94" s="19"/>
+      <c r="CJ94" s="19"/>
     </row>
     <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD95" s="19"/>
@@ -36923,6 +37049,7 @@
       <c r="CG95" s="19"/>
       <c r="CH95" s="19"/>
       <c r="CI95" s="19"/>
+      <c r="CJ95" s="19"/>
     </row>
     <row r="96" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -36934,6 +37061,7 @@
       <c r="CG96" s="19"/>
       <c r="CH96" s="19"/>
       <c r="CI96" s="19"/>
+      <c r="CJ96" s="19"/>
     </row>
     <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -36945,6 +37073,7 @@
       <c r="CG97" s="19"/>
       <c r="CH97" s="19"/>
       <c r="CI97" s="19"/>
+      <c r="CJ97" s="19"/>
     </row>
     <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -36956,6 +37085,7 @@
       <c r="CG98" s="19"/>
       <c r="CH98" s="19"/>
       <c r="CI98" s="19"/>
+      <c r="CJ98" s="19"/>
     </row>
     <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD99" s="19"/>
@@ -36964,141 +37094,143 @@
       <c r="CG99" s="19"/>
       <c r="CH99" s="19"/>
       <c r="CI99" s="19"/>
+      <c r="CJ99" s="19"/>
     </row>
     <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="32">
+      <c r="B100" s="33">
         <v>2000</v>
       </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32">
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33">
         <v>2001</v>
       </c>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32">
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33">
         <v>2002</v>
       </c>
-      <c r="K100" s="32"/>
-      <c r="L100" s="32"/>
-      <c r="M100" s="32"/>
-      <c r="N100" s="32">
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="33">
         <v>2003</v>
       </c>
-      <c r="O100" s="32"/>
-      <c r="P100" s="32"/>
-      <c r="Q100" s="32"/>
-      <c r="R100" s="32">
+      <c r="O100" s="33"/>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="33">
         <v>2004</v>
       </c>
-      <c r="S100" s="32"/>
-      <c r="T100" s="32"/>
-      <c r="U100" s="32"/>
-      <c r="V100" s="32">
+      <c r="S100" s="33"/>
+      <c r="T100" s="33"/>
+      <c r="U100" s="33"/>
+      <c r="V100" s="33">
         <v>2005</v>
       </c>
-      <c r="W100" s="32"/>
-      <c r="X100" s="32"/>
-      <c r="Y100" s="32"/>
-      <c r="Z100" s="32">
+      <c r="W100" s="33"/>
+      <c r="X100" s="33"/>
+      <c r="Y100" s="33"/>
+      <c r="Z100" s="33">
         <v>2006</v>
       </c>
-      <c r="AA100" s="32"/>
-      <c r="AB100" s="32"/>
-      <c r="AC100" s="32"/>
-      <c r="AD100" s="32">
+      <c r="AA100" s="33"/>
+      <c r="AB100" s="33"/>
+      <c r="AC100" s="33"/>
+      <c r="AD100" s="33">
         <v>2007</v>
       </c>
-      <c r="AE100" s="32"/>
-      <c r="AF100" s="32"/>
-      <c r="AG100" s="32"/>
-      <c r="AH100" s="32">
+      <c r="AE100" s="33"/>
+      <c r="AF100" s="33"/>
+      <c r="AG100" s="33"/>
+      <c r="AH100" s="33">
         <v>2008</v>
       </c>
-      <c r="AI100" s="32"/>
-      <c r="AJ100" s="32"/>
-      <c r="AK100" s="32"/>
-      <c r="AL100" s="32">
+      <c r="AI100" s="33"/>
+      <c r="AJ100" s="33"/>
+      <c r="AK100" s="33"/>
+      <c r="AL100" s="33">
         <v>2009</v>
       </c>
-      <c r="AM100" s="32"/>
-      <c r="AN100" s="32"/>
-      <c r="AO100" s="32"/>
-      <c r="AP100" s="32">
+      <c r="AM100" s="33"/>
+      <c r="AN100" s="33"/>
+      <c r="AO100" s="33"/>
+      <c r="AP100" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ100" s="32"/>
-      <c r="AR100" s="32"/>
-      <c r="AS100" s="32"/>
-      <c r="AT100" s="32">
+      <c r="AQ100" s="33"/>
+      <c r="AR100" s="33"/>
+      <c r="AS100" s="33"/>
+      <c r="AT100" s="33">
         <v>2011</v>
       </c>
-      <c r="AU100" s="32"/>
-      <c r="AV100" s="32"/>
-      <c r="AW100" s="32"/>
-      <c r="AX100" s="32">
+      <c r="AU100" s="33"/>
+      <c r="AV100" s="33"/>
+      <c r="AW100" s="33"/>
+      <c r="AX100" s="33">
         <v>2012</v>
       </c>
-      <c r="AY100" s="32"/>
-      <c r="AZ100" s="32"/>
-      <c r="BA100" s="32"/>
-      <c r="BB100" s="32">
+      <c r="AY100" s="33"/>
+      <c r="AZ100" s="33"/>
+      <c r="BA100" s="33"/>
+      <c r="BB100" s="33">
         <v>2013</v>
       </c>
-      <c r="BC100" s="32"/>
-      <c r="BD100" s="32"/>
-      <c r="BE100" s="32"/>
-      <c r="BF100" s="32">
+      <c r="BC100" s="33"/>
+      <c r="BD100" s="33"/>
+      <c r="BE100" s="33"/>
+      <c r="BF100" s="33">
         <v>2014</v>
       </c>
-      <c r="BG100" s="32"/>
-      <c r="BH100" s="32"/>
-      <c r="BI100" s="32"/>
-      <c r="BJ100" s="32">
+      <c r="BG100" s="33"/>
+      <c r="BH100" s="33"/>
+      <c r="BI100" s="33"/>
+      <c r="BJ100" s="33">
         <v>2015</v>
       </c>
-      <c r="BK100" s="32"/>
-      <c r="BL100" s="32"/>
-      <c r="BM100" s="32"/>
-      <c r="BN100" s="32">
+      <c r="BK100" s="33"/>
+      <c r="BL100" s="33"/>
+      <c r="BM100" s="33"/>
+      <c r="BN100" s="33">
         <v>2016</v>
       </c>
-      <c r="BO100" s="32"/>
-      <c r="BP100" s="32"/>
-      <c r="BQ100" s="32"/>
-      <c r="BR100" s="32">
+      <c r="BO100" s="33"/>
+      <c r="BP100" s="33"/>
+      <c r="BQ100" s="33"/>
+      <c r="BR100" s="33">
         <v>2017</v>
       </c>
-      <c r="BS100" s="32"/>
-      <c r="BT100" s="32"/>
-      <c r="BU100" s="32"/>
-      <c r="BV100" s="32">
+      <c r="BS100" s="33"/>
+      <c r="BT100" s="33"/>
+      <c r="BU100" s="33"/>
+      <c r="BV100" s="33">
         <v>2018</v>
       </c>
-      <c r="BW100" s="32"/>
-      <c r="BX100" s="32"/>
-      <c r="BY100" s="32"/>
-      <c r="BZ100" s="32">
+      <c r="BW100" s="33"/>
+      <c r="BX100" s="33"/>
+      <c r="BY100" s="33"/>
+      <c r="BZ100" s="33">
         <v>2019</v>
       </c>
-      <c r="CA100" s="32"/>
-      <c r="CB100" s="32"/>
-      <c r="CC100" s="32"/>
-      <c r="CD100" s="31">
+      <c r="CA100" s="33"/>
+      <c r="CB100" s="33"/>
+      <c r="CC100" s="33"/>
+      <c r="CD100" s="32">
         <v>2020</v>
       </c>
-      <c r="CE100" s="31"/>
-      <c r="CF100" s="31"/>
-      <c r="CG100" s="31"/>
-      <c r="CH100" s="31">
+      <c r="CE100" s="32"/>
+      <c r="CF100" s="32"/>
+      <c r="CG100" s="32"/>
+      <c r="CH100" s="32">
         <v>2021</v>
       </c>
-      <c r="CI100" s="31">
+      <c r="CI100" s="32">
         <v>0</v>
       </c>
+      <c r="CJ100" s="32"/>
     </row>
     <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
@@ -37361,6 +37493,9 @@
       </c>
       <c r="CI101" s="20" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ101" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -37371,6 +37506,7 @@
       <c r="CG102" s="19"/>
       <c r="CH102" s="19"/>
       <c r="CI102" s="19"/>
+      <c r="CJ102" s="19"/>
     </row>
     <row r="103" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
@@ -37632,9 +37768,11 @@
         <v>58.353281641871625</v>
       </c>
       <c r="CI103" s="27">
-        <v>92.760380221423347</v>
-      </c>
-      <c r="CJ103" s="9"/>
+        <v>92.760380221423333</v>
+      </c>
+      <c r="CJ103" s="27">
+        <v>339.42124113949069</v>
+      </c>
       <c r="CK103" s="9"/>
       <c r="CL103" s="9"/>
       <c r="CM103" s="9"/>
@@ -37962,9 +38100,11 @@
         <v>140.26157539851445</v>
       </c>
       <c r="CI104" s="27">
-        <v>55.174065437355225</v>
-      </c>
-      <c r="CJ104" s="9"/>
+        <v>55.137021754137741</v>
+      </c>
+      <c r="CJ104" s="27">
+        <v>229.33380893541769</v>
+      </c>
       <c r="CK104" s="9"/>
       <c r="CL104" s="9"/>
       <c r="CM104" s="9"/>
@@ -38294,7 +38434,9 @@
       <c r="CI105" s="27">
         <v>167.32312661721454</v>
       </c>
-      <c r="CJ105" s="9"/>
+      <c r="CJ105" s="27">
+        <v>180.01460699751581</v>
+      </c>
       <c r="CK105" s="9"/>
       <c r="CL105" s="9"/>
       <c r="CM105" s="9"/>
@@ -38622,9 +38764,11 @@
         <v>169.88075311202175</v>
       </c>
       <c r="CI106" s="27">
-        <v>124.08401543046872</v>
-      </c>
-      <c r="CJ106" s="9"/>
+        <v>122.03884092762765</v>
+      </c>
+      <c r="CJ106" s="27">
+        <v>120.84985110594049</v>
+      </c>
       <c r="CK106" s="9"/>
       <c r="CL106" s="9"/>
       <c r="CM106" s="9"/>
@@ -38954,7 +39098,9 @@
       <c r="CI107" s="27">
         <v>239.3992138900058</v>
       </c>
-      <c r="CJ107" s="9"/>
+      <c r="CJ107" s="27">
+        <v>245.41248743929458</v>
+      </c>
       <c r="CK107" s="9"/>
       <c r="CL107" s="9"/>
       <c r="CM107" s="9"/>
@@ -39284,7 +39430,9 @@
       <c r="CI108" s="27">
         <v>113.57545095979049</v>
       </c>
-      <c r="CJ108" s="9"/>
+      <c r="CJ108" s="27">
+        <v>136.13738639490896</v>
+      </c>
       <c r="CK108" s="9"/>
       <c r="CL108" s="9"/>
       <c r="CM108" s="9"/>
@@ -39439,7 +39587,7 @@
       <c r="CG109" s="22"/>
       <c r="CH109" s="22"/>
       <c r="CI109" s="22"/>
-      <c r="CJ109" s="9"/>
+      <c r="CJ109" s="22"/>
       <c r="CK109" s="9"/>
       <c r="CL109" s="9"/>
       <c r="CM109" s="9"/>
@@ -39767,9 +39915,11 @@
         <v>115.19144853837513</v>
       </c>
       <c r="CI110" s="27">
-        <v>103.24644948992517</v>
-      </c>
-      <c r="CJ110" s="9"/>
+        <v>102.19353012168639</v>
+      </c>
+      <c r="CJ110" s="27">
+        <v>175.61850492471973</v>
+      </c>
       <c r="CK110" s="9"/>
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
@@ -39925,6 +40075,7 @@
       <c r="CG111" s="24"/>
       <c r="CH111" s="24"/>
       <c r="CI111" s="24"/>
+      <c r="CJ111" s="24"/>
     </row>
     <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
@@ -39936,6 +40087,7 @@
       <c r="CG112" s="19"/>
       <c r="CH112" s="19"/>
       <c r="CI112" s="19"/>
+      <c r="CJ112" s="19"/>
     </row>
     <row r="115" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -39947,6 +40099,7 @@
       <c r="CG115" s="19"/>
       <c r="CH115" s="19"/>
       <c r="CI115" s="19"/>
+      <c r="CJ115" s="19"/>
     </row>
     <row r="116" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -39958,6 +40111,7 @@
       <c r="CG116" s="19"/>
       <c r="CH116" s="19"/>
       <c r="CI116" s="19"/>
+      <c r="CJ116" s="19"/>
     </row>
     <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
@@ -39969,6 +40123,7 @@
       <c r="CG117" s="19"/>
       <c r="CH117" s="19"/>
       <c r="CI117" s="19"/>
+      <c r="CJ117" s="19"/>
     </row>
     <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD118" s="19"/>
@@ -39977,6 +40132,7 @@
       <c r="CG118" s="19"/>
       <c r="CH118" s="19"/>
       <c r="CI118" s="19"/>
+      <c r="CJ118" s="19"/>
     </row>
     <row r="119" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -39988,6 +40144,7 @@
       <c r="CG119" s="19"/>
       <c r="CH119" s="19"/>
       <c r="CI119" s="19"/>
+      <c r="CJ119" s="19"/>
     </row>
     <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -39999,6 +40156,7 @@
       <c r="CG120" s="19"/>
       <c r="CH120" s="19"/>
       <c r="CI120" s="19"/>
+      <c r="CJ120" s="19"/>
     </row>
     <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -40010,6 +40168,7 @@
       <c r="CG121" s="19"/>
       <c r="CH121" s="19"/>
       <c r="CI121" s="19"/>
+      <c r="CJ121" s="19"/>
     </row>
     <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD122" s="19"/>
@@ -40018,141 +40177,143 @@
       <c r="CG122" s="19"/>
       <c r="CH122" s="19"/>
       <c r="CI122" s="19"/>
+      <c r="CJ122" s="19"/>
     </row>
     <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" s="32">
+      <c r="B123" s="33">
         <v>2000</v>
       </c>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32">
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33">
         <v>2001</v>
       </c>
-      <c r="G123" s="32"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="32"/>
-      <c r="J123" s="32">
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="33">
         <v>2002</v>
       </c>
-      <c r="K123" s="32"/>
-      <c r="L123" s="32"/>
-      <c r="M123" s="32"/>
-      <c r="N123" s="32">
+      <c r="K123" s="33"/>
+      <c r="L123" s="33"/>
+      <c r="M123" s="33"/>
+      <c r="N123" s="33">
         <v>2003</v>
       </c>
-      <c r="O123" s="32"/>
-      <c r="P123" s="32"/>
-      <c r="Q123" s="32"/>
-      <c r="R123" s="32">
+      <c r="O123" s="33"/>
+      <c r="P123" s="33"/>
+      <c r="Q123" s="33"/>
+      <c r="R123" s="33">
         <v>2004</v>
       </c>
-      <c r="S123" s="32"/>
-      <c r="T123" s="32"/>
-      <c r="U123" s="32"/>
-      <c r="V123" s="32">
+      <c r="S123" s="33"/>
+      <c r="T123" s="33"/>
+      <c r="U123" s="33"/>
+      <c r="V123" s="33">
         <v>2005</v>
       </c>
-      <c r="W123" s="32"/>
-      <c r="X123" s="32"/>
-      <c r="Y123" s="32"/>
-      <c r="Z123" s="32">
+      <c r="W123" s="33"/>
+      <c r="X123" s="33"/>
+      <c r="Y123" s="33"/>
+      <c r="Z123" s="33">
         <v>2006</v>
       </c>
-      <c r="AA123" s="32"/>
-      <c r="AB123" s="32"/>
-      <c r="AC123" s="32"/>
-      <c r="AD123" s="32">
+      <c r="AA123" s="33"/>
+      <c r="AB123" s="33"/>
+      <c r="AC123" s="33"/>
+      <c r="AD123" s="33">
         <v>2007</v>
       </c>
-      <c r="AE123" s="32"/>
-      <c r="AF123" s="32"/>
-      <c r="AG123" s="32"/>
-      <c r="AH123" s="32">
+      <c r="AE123" s="33"/>
+      <c r="AF123" s="33"/>
+      <c r="AG123" s="33"/>
+      <c r="AH123" s="33">
         <v>2008</v>
       </c>
-      <c r="AI123" s="32"/>
-      <c r="AJ123" s="32"/>
-      <c r="AK123" s="32"/>
-      <c r="AL123" s="32">
+      <c r="AI123" s="33"/>
+      <c r="AJ123" s="33"/>
+      <c r="AK123" s="33"/>
+      <c r="AL123" s="33">
         <v>2009</v>
       </c>
-      <c r="AM123" s="32"/>
-      <c r="AN123" s="32"/>
-      <c r="AO123" s="32"/>
-      <c r="AP123" s="32">
+      <c r="AM123" s="33"/>
+      <c r="AN123" s="33"/>
+      <c r="AO123" s="33"/>
+      <c r="AP123" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ123" s="32"/>
-      <c r="AR123" s="32"/>
-      <c r="AS123" s="32"/>
-      <c r="AT123" s="32">
+      <c r="AQ123" s="33"/>
+      <c r="AR123" s="33"/>
+      <c r="AS123" s="33"/>
+      <c r="AT123" s="33">
         <v>2011</v>
       </c>
-      <c r="AU123" s="32"/>
-      <c r="AV123" s="32"/>
-      <c r="AW123" s="32"/>
-      <c r="AX123" s="32">
+      <c r="AU123" s="33"/>
+      <c r="AV123" s="33"/>
+      <c r="AW123" s="33"/>
+      <c r="AX123" s="33">
         <v>2012</v>
       </c>
-      <c r="AY123" s="32"/>
-      <c r="AZ123" s="32"/>
-      <c r="BA123" s="32"/>
-      <c r="BB123" s="32">
+      <c r="AY123" s="33"/>
+      <c r="AZ123" s="33"/>
+      <c r="BA123" s="33"/>
+      <c r="BB123" s="33">
         <v>2013</v>
       </c>
-      <c r="BC123" s="32"/>
-      <c r="BD123" s="32"/>
-      <c r="BE123" s="32"/>
-      <c r="BF123" s="32">
+      <c r="BC123" s="33"/>
+      <c r="BD123" s="33"/>
+      <c r="BE123" s="33"/>
+      <c r="BF123" s="33">
         <v>2014</v>
       </c>
-      <c r="BG123" s="32"/>
-      <c r="BH123" s="32"/>
-      <c r="BI123" s="32"/>
-      <c r="BJ123" s="32">
+      <c r="BG123" s="33"/>
+      <c r="BH123" s="33"/>
+      <c r="BI123" s="33"/>
+      <c r="BJ123" s="33">
         <v>2015</v>
       </c>
-      <c r="BK123" s="32"/>
-      <c r="BL123" s="32"/>
-      <c r="BM123" s="32"/>
-      <c r="BN123" s="32">
+      <c r="BK123" s="33"/>
+      <c r="BL123" s="33"/>
+      <c r="BM123" s="33"/>
+      <c r="BN123" s="33">
         <v>2016</v>
       </c>
-      <c r="BO123" s="32"/>
-      <c r="BP123" s="32"/>
-      <c r="BQ123" s="32"/>
-      <c r="BR123" s="32">
+      <c r="BO123" s="33"/>
+      <c r="BP123" s="33"/>
+      <c r="BQ123" s="33"/>
+      <c r="BR123" s="33">
         <v>2017</v>
       </c>
-      <c r="BS123" s="32"/>
-      <c r="BT123" s="32"/>
-      <c r="BU123" s="32"/>
-      <c r="BV123" s="32">
+      <c r="BS123" s="33"/>
+      <c r="BT123" s="33"/>
+      <c r="BU123" s="33"/>
+      <c r="BV123" s="33">
         <v>2018</v>
       </c>
-      <c r="BW123" s="32"/>
-      <c r="BX123" s="32"/>
-      <c r="BY123" s="32"/>
-      <c r="BZ123" s="32">
+      <c r="BW123" s="33"/>
+      <c r="BX123" s="33"/>
+      <c r="BY123" s="33"/>
+      <c r="BZ123" s="33">
         <v>2019</v>
       </c>
-      <c r="CA123" s="32"/>
-      <c r="CB123" s="32"/>
-      <c r="CC123" s="32"/>
-      <c r="CD123" s="31">
+      <c r="CA123" s="33"/>
+      <c r="CB123" s="33"/>
+      <c r="CC123" s="33"/>
+      <c r="CD123" s="32">
         <v>2020</v>
       </c>
-      <c r="CE123" s="31"/>
-      <c r="CF123" s="31"/>
-      <c r="CG123" s="31"/>
-      <c r="CH123" s="31">
+      <c r="CE123" s="32"/>
+      <c r="CF123" s="32"/>
+      <c r="CG123" s="32"/>
+      <c r="CH123" s="32">
         <v>2021</v>
       </c>
-      <c r="CI123" s="31">
+      <c r="CI123" s="32">
         <v>0</v>
       </c>
+      <c r="CJ123" s="32"/>
     </row>
     <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
@@ -40415,6 +40576,9 @@
       </c>
       <c r="CI124" s="20" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ124" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -40425,6 +40589,7 @@
       <c r="CG125" s="19"/>
       <c r="CH125" s="19"/>
       <c r="CI125" s="19"/>
+      <c r="CJ125" s="19"/>
     </row>
     <row r="126" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -40686,9 +40851,11 @@
         <v>10.254503445562124</v>
       </c>
       <c r="CI126" s="29">
-        <v>15.876860836764775</v>
-      </c>
-      <c r="CJ126" s="9"/>
+        <v>16.255645156350138</v>
+      </c>
+      <c r="CJ126" s="29">
+        <v>14.753054546621758</v>
+      </c>
       <c r="CK126" s="9"/>
       <c r="CL126" s="9"/>
       <c r="CM126" s="9"/>
@@ -41016,9 +41183,11 @@
         <v>18.43771499786579</v>
       </c>
       <c r="CI127" s="29">
-        <v>16.287046147231351</v>
-      </c>
-      <c r="CJ127" s="9"/>
+        <v>16.880523525855683</v>
+      </c>
+      <c r="CJ127" s="29">
+        <v>19.763471026286279</v>
+      </c>
       <c r="CK127" s="9"/>
       <c r="CL127" s="9"/>
       <c r="CM127" s="9"/>
@@ -41346,9 +41515,11 @@
         <v>19.678592641005888</v>
       </c>
       <c r="CI128" s="29">
-        <v>18.807961018290218</v>
-      </c>
-      <c r="CJ128" s="9"/>
+        <v>19.153291220342016</v>
+      </c>
+      <c r="CJ128" s="29">
+        <v>19.236889113406754</v>
+      </c>
       <c r="CK128" s="9"/>
       <c r="CL128" s="9"/>
       <c r="CM128" s="9"/>
@@ -41676,9 +41847,11 @@
         <v>18.517552595962584</v>
       </c>
       <c r="CI129" s="29">
-        <v>27.411295977917227</v>
-      </c>
-      <c r="CJ129" s="9"/>
+        <v>25.507411084083547</v>
+      </c>
+      <c r="CJ129" s="29">
+        <v>15.915157623788328</v>
+      </c>
       <c r="CK129" s="9"/>
       <c r="CL129" s="9"/>
       <c r="CM129" s="9"/>
@@ -42006,9 +42179,11 @@
         <v>2.9438235779555599</v>
       </c>
       <c r="CI130" s="29">
-        <v>4.6334799573818124</v>
-      </c>
-      <c r="CJ130" s="9"/>
+        <v>4.7185546004188534</v>
+      </c>
+      <c r="CJ130" s="29">
+        <v>6.5990122333960048</v>
+      </c>
       <c r="CK130" s="9"/>
       <c r="CL130" s="9"/>
       <c r="CM130" s="9"/>
@@ -42336,9 +42511,11 @@
         <v>30.167812741648049</v>
       </c>
       <c r="CI131" s="29">
-        <v>16.983356062414622</v>
-      </c>
-      <c r="CJ131" s="9"/>
+        <v>17.48457441294978</v>
+      </c>
+      <c r="CJ131" s="29">
+        <v>23.732415456500867</v>
+      </c>
       <c r="CK131" s="9"/>
       <c r="CL131" s="9"/>
       <c r="CM131" s="9"/>
@@ -42493,7 +42670,7 @@
       <c r="CG132" s="22"/>
       <c r="CH132" s="22"/>
       <c r="CI132" s="22"/>
-      <c r="CJ132" s="9"/>
+      <c r="CJ132" s="22"/>
       <c r="CK132" s="9"/>
       <c r="CL132" s="9"/>
       <c r="CM132" s="9"/>
@@ -42823,7 +43000,9 @@
       <c r="CI133" s="29">
         <v>100</v>
       </c>
-      <c r="CJ133" s="9"/>
+      <c r="CJ133" s="29">
+        <v>100</v>
+      </c>
       <c r="CK133" s="9"/>
       <c r="CL133" s="9"/>
       <c r="CM133" s="9"/>
@@ -42979,6 +43158,7 @@
       <c r="CG134" s="24"/>
       <c r="CH134" s="24"/>
       <c r="CI134" s="24"/>
+      <c r="CJ134" s="24"/>
     </row>
     <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
@@ -42990,6 +43170,7 @@
       <c r="CG135" s="19"/>
       <c r="CH135" s="19"/>
       <c r="CI135" s="19"/>
+      <c r="CJ135" s="19"/>
     </row>
     <row r="136" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="9"/>
@@ -43078,7 +43259,7 @@
       <c r="CG136" s="22"/>
       <c r="CH136" s="22"/>
       <c r="CI136" s="22"/>
-      <c r="CJ136" s="9"/>
+      <c r="CJ136" s="22"/>
       <c r="CK136" s="9"/>
       <c r="CL136" s="9"/>
       <c r="CM136" s="9"/>
@@ -43233,7 +43414,7 @@
       <c r="CG137" s="22"/>
       <c r="CH137" s="22"/>
       <c r="CI137" s="22"/>
-      <c r="CJ137" s="9"/>
+      <c r="CJ137" s="22"/>
       <c r="CK137" s="9"/>
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
@@ -43311,6 +43492,7 @@
       <c r="CG138" s="19"/>
       <c r="CH138" s="19"/>
       <c r="CI138" s="19"/>
+      <c r="CJ138" s="19"/>
     </row>
     <row r="139" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -43322,6 +43504,7 @@
       <c r="CG139" s="19"/>
       <c r="CH139" s="19"/>
       <c r="CI139" s="19"/>
+      <c r="CJ139" s="19"/>
     </row>
     <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -43333,6 +43516,7 @@
       <c r="CG140" s="19"/>
       <c r="CH140" s="19"/>
       <c r="CI140" s="19"/>
+      <c r="CJ140" s="19"/>
     </row>
     <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD141" s="19"/>
@@ -43341,6 +43525,7 @@
       <c r="CG141" s="19"/>
       <c r="CH141" s="19"/>
       <c r="CI141" s="19"/>
+      <c r="CJ141" s="19"/>
     </row>
     <row r="142" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -43352,6 +43537,7 @@
       <c r="CG142" s="19"/>
       <c r="CH142" s="19"/>
       <c r="CI142" s="19"/>
+      <c r="CJ142" s="19"/>
     </row>
     <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -43363,6 +43549,7 @@
       <c r="CG143" s="19"/>
       <c r="CH143" s="19"/>
       <c r="CI143" s="19"/>
+      <c r="CJ143" s="19"/>
     </row>
     <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -43374,6 +43561,7 @@
       <c r="CG144" s="19"/>
       <c r="CH144" s="19"/>
       <c r="CI144" s="19"/>
+      <c r="CJ144" s="19"/>
     </row>
     <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD145" s="19"/>
@@ -43382,141 +43570,143 @@
       <c r="CG145" s="19"/>
       <c r="CH145" s="19"/>
       <c r="CI145" s="19"/>
+      <c r="CJ145" s="19"/>
     </row>
     <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
-      <c r="B146" s="32">
+      <c r="B146" s="33">
         <v>2000</v>
       </c>
-      <c r="C146" s="32"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32">
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33">
         <v>2001</v>
       </c>
-      <c r="G146" s="32"/>
-      <c r="H146" s="32"/>
-      <c r="I146" s="32"/>
-      <c r="J146" s="32">
+      <c r="G146" s="33"/>
+      <c r="H146" s="33"/>
+      <c r="I146" s="33"/>
+      <c r="J146" s="33">
         <v>2002</v>
       </c>
-      <c r="K146" s="32"/>
-      <c r="L146" s="32"/>
-      <c r="M146" s="32"/>
-      <c r="N146" s="32">
+      <c r="K146" s="33"/>
+      <c r="L146" s="33"/>
+      <c r="M146" s="33"/>
+      <c r="N146" s="33">
         <v>2003</v>
       </c>
-      <c r="O146" s="32"/>
-      <c r="P146" s="32"/>
-      <c r="Q146" s="32"/>
-      <c r="R146" s="32">
+      <c r="O146" s="33"/>
+      <c r="P146" s="33"/>
+      <c r="Q146" s="33"/>
+      <c r="R146" s="33">
         <v>2004</v>
       </c>
-      <c r="S146" s="32"/>
-      <c r="T146" s="32"/>
-      <c r="U146" s="32"/>
-      <c r="V146" s="32">
+      <c r="S146" s="33"/>
+      <c r="T146" s="33"/>
+      <c r="U146" s="33"/>
+      <c r="V146" s="33">
         <v>2005</v>
       </c>
-      <c r="W146" s="32"/>
-      <c r="X146" s="32"/>
-      <c r="Y146" s="32"/>
-      <c r="Z146" s="32">
+      <c r="W146" s="33"/>
+      <c r="X146" s="33"/>
+      <c r="Y146" s="33"/>
+      <c r="Z146" s="33">
         <v>2006</v>
       </c>
-      <c r="AA146" s="32"/>
-      <c r="AB146" s="32"/>
-      <c r="AC146" s="32"/>
-      <c r="AD146" s="32">
+      <c r="AA146" s="33"/>
+      <c r="AB146" s="33"/>
+      <c r="AC146" s="33"/>
+      <c r="AD146" s="33">
         <v>2007</v>
       </c>
-      <c r="AE146" s="32"/>
-      <c r="AF146" s="32"/>
-      <c r="AG146" s="32"/>
-      <c r="AH146" s="32">
+      <c r="AE146" s="33"/>
+      <c r="AF146" s="33"/>
+      <c r="AG146" s="33"/>
+      <c r="AH146" s="33">
         <v>2008</v>
       </c>
-      <c r="AI146" s="32"/>
-      <c r="AJ146" s="32"/>
-      <c r="AK146" s="32"/>
-      <c r="AL146" s="32">
+      <c r="AI146" s="33"/>
+      <c r="AJ146" s="33"/>
+      <c r="AK146" s="33"/>
+      <c r="AL146" s="33">
         <v>2009</v>
       </c>
-      <c r="AM146" s="32"/>
-      <c r="AN146" s="32"/>
-      <c r="AO146" s="32"/>
-      <c r="AP146" s="32">
+      <c r="AM146" s="33"/>
+      <c r="AN146" s="33"/>
+      <c r="AO146" s="33"/>
+      <c r="AP146" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ146" s="32"/>
-      <c r="AR146" s="32"/>
-      <c r="AS146" s="32"/>
-      <c r="AT146" s="32">
+      <c r="AQ146" s="33"/>
+      <c r="AR146" s="33"/>
+      <c r="AS146" s="33"/>
+      <c r="AT146" s="33">
         <v>2011</v>
       </c>
-      <c r="AU146" s="32"/>
-      <c r="AV146" s="32"/>
-      <c r="AW146" s="32"/>
-      <c r="AX146" s="32">
+      <c r="AU146" s="33"/>
+      <c r="AV146" s="33"/>
+      <c r="AW146" s="33"/>
+      <c r="AX146" s="33">
         <v>2012</v>
       </c>
-      <c r="AY146" s="32"/>
-      <c r="AZ146" s="32"/>
-      <c r="BA146" s="32"/>
-      <c r="BB146" s="32">
+      <c r="AY146" s="33"/>
+      <c r="AZ146" s="33"/>
+      <c r="BA146" s="33"/>
+      <c r="BB146" s="33">
         <v>2013</v>
       </c>
-      <c r="BC146" s="32"/>
-      <c r="BD146" s="32"/>
-      <c r="BE146" s="32"/>
-      <c r="BF146" s="32">
+      <c r="BC146" s="33"/>
+      <c r="BD146" s="33"/>
+      <c r="BE146" s="33"/>
+      <c r="BF146" s="33">
         <v>2014</v>
       </c>
-      <c r="BG146" s="32"/>
-      <c r="BH146" s="32"/>
-      <c r="BI146" s="32"/>
-      <c r="BJ146" s="32">
+      <c r="BG146" s="33"/>
+      <c r="BH146" s="33"/>
+      <c r="BI146" s="33"/>
+      <c r="BJ146" s="33">
         <v>2015</v>
       </c>
-      <c r="BK146" s="32"/>
-      <c r="BL146" s="32"/>
-      <c r="BM146" s="32"/>
-      <c r="BN146" s="32">
+      <c r="BK146" s="33"/>
+      <c r="BL146" s="33"/>
+      <c r="BM146" s="33"/>
+      <c r="BN146" s="33">
         <v>2016</v>
       </c>
-      <c r="BO146" s="32"/>
-      <c r="BP146" s="32"/>
-      <c r="BQ146" s="32"/>
-      <c r="BR146" s="32">
+      <c r="BO146" s="33"/>
+      <c r="BP146" s="33"/>
+      <c r="BQ146" s="33"/>
+      <c r="BR146" s="33">
         <v>2017</v>
       </c>
-      <c r="BS146" s="32"/>
-      <c r="BT146" s="32"/>
-      <c r="BU146" s="32"/>
-      <c r="BV146" s="32">
+      <c r="BS146" s="33"/>
+      <c r="BT146" s="33"/>
+      <c r="BU146" s="33"/>
+      <c r="BV146" s="33">
         <v>2018</v>
       </c>
-      <c r="BW146" s="32"/>
-      <c r="BX146" s="32"/>
-      <c r="BY146" s="32"/>
-      <c r="BZ146" s="32">
+      <c r="BW146" s="33"/>
+      <c r="BX146" s="33"/>
+      <c r="BY146" s="33"/>
+      <c r="BZ146" s="33">
         <v>2019</v>
       </c>
-      <c r="CA146" s="32"/>
-      <c r="CB146" s="32"/>
-      <c r="CC146" s="32"/>
-      <c r="CD146" s="31">
+      <c r="CA146" s="33"/>
+      <c r="CB146" s="33"/>
+      <c r="CC146" s="33"/>
+      <c r="CD146" s="32">
         <v>2020</v>
       </c>
-      <c r="CE146" s="31"/>
-      <c r="CF146" s="31"/>
-      <c r="CG146" s="31"/>
-      <c r="CH146" s="31">
+      <c r="CE146" s="32"/>
+      <c r="CF146" s="32"/>
+      <c r="CG146" s="32"/>
+      <c r="CH146" s="32">
         <v>2021</v>
       </c>
-      <c r="CI146" s="31">
+      <c r="CI146" s="32">
         <v>0</v>
       </c>
+      <c r="CJ146" s="32"/>
     </row>
     <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
@@ -43779,6 +43969,9 @@
       </c>
       <c r="CI147" s="20" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ147" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -43789,6 +43982,7 @@
       <c r="CG148" s="19"/>
       <c r="CH148" s="19"/>
       <c r="CI148" s="19"/>
+      <c r="CJ148" s="19"/>
     </row>
     <row r="149" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
@@ -44050,9 +44244,11 @@
         <v>20.242753666975659</v>
       </c>
       <c r="CI149" s="29">
-        <v>17.671655792361868</v>
-      </c>
-      <c r="CJ149" s="9"/>
+        <v>17.908742492942569</v>
+      </c>
+      <c r="CJ149" s="29">
+        <v>7.6333153866636643</v>
+      </c>
       <c r="CK149" s="9"/>
       <c r="CL149" s="9"/>
       <c r="CM149" s="9"/>
@@ -44380,9 +44576,11 @@
         <v>15.142187675473517</v>
       </c>
       <c r="CI150" s="29">
-        <v>30.477719451169893</v>
-      </c>
-      <c r="CJ150" s="9"/>
+        <v>31.287150348847238</v>
+      </c>
+      <c r="CJ150" s="29">
+        <v>15.134407132865563</v>
+      </c>
       <c r="CK150" s="9"/>
       <c r="CL150" s="9"/>
       <c r="CM150" s="9"/>
@@ -44710,9 +44908,11 @@
         <v>14.004978060360115</v>
       </c>
       <c r="CI151" s="29">
-        <v>11.605420222189421</v>
-      </c>
-      <c r="CJ151" s="9"/>
+        <v>11.697979130722738</v>
+      </c>
+      <c r="CJ151" s="29">
+        <v>18.767108746601508</v>
+      </c>
       <c r="CK151" s="9"/>
       <c r="CL151" s="9"/>
       <c r="CM151" s="9"/>
@@ -45040,9 +45240,11 @@
         <v>12.55624117411292</v>
       </c>
       <c r="CI152" s="29">
-        <v>22.808086729134711</v>
-      </c>
-      <c r="CJ152" s="9"/>
+        <v>21.359530811124053</v>
+      </c>
+      <c r="CJ152" s="29">
+        <v>23.127841382947068</v>
+      </c>
       <c r="CK152" s="9"/>
       <c r="CL152" s="9"/>
       <c r="CM152" s="9"/>
@@ -45370,9 +45572,11 @@
         <v>7.4195197731516362</v>
       </c>
       <c r="CI153" s="29">
-        <v>1.9982954271612718</v>
-      </c>
-      <c r="CJ153" s="9"/>
+        <v>2.01423281160096</v>
+      </c>
+      <c r="CJ153" s="29">
+        <v>4.7222888879915317</v>
+      </c>
       <c r="CK153" s="9"/>
       <c r="CL153" s="9"/>
       <c r="CM153" s="9"/>
@@ -45700,9 +45904,11 @@
         <v>30.634319649926166</v>
       </c>
       <c r="CI154" s="29">
-        <v>15.438822377982836</v>
-      </c>
-      <c r="CJ154" s="9"/>
+        <v>15.732364404762444</v>
+      </c>
+      <c r="CJ154" s="29">
+        <v>30.61503846293067</v>
+      </c>
       <c r="CK154" s="9"/>
       <c r="CL154" s="9"/>
       <c r="CM154" s="9"/>
@@ -45857,7 +46063,7 @@
       <c r="CG155" s="22"/>
       <c r="CH155" s="22"/>
       <c r="CI155" s="22"/>
-      <c r="CJ155" s="9"/>
+      <c r="CJ155" s="22"/>
       <c r="CK155" s="9"/>
       <c r="CL155" s="9"/>
       <c r="CM155" s="9"/>
@@ -46187,7 +46393,9 @@
       <c r="CI156" s="29">
         <v>100</v>
       </c>
-      <c r="CJ156" s="9"/>
+      <c r="CJ156" s="29">
+        <v>100</v>
+      </c>
       <c r="CK156" s="9"/>
       <c r="CL156" s="9"/>
       <c r="CM156" s="9"/>
@@ -46343,6 +46551,7 @@
       <c r="CG157" s="24"/>
       <c r="CH157" s="24"/>
       <c r="CI157" s="24"/>
+      <c r="CJ157" s="24"/>
     </row>
     <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
@@ -46354,6 +46563,7 @@
       <c r="CG158" s="19"/>
       <c r="CH158" s="19"/>
       <c r="CI158" s="19"/>
+      <c r="CJ158" s="19"/>
     </row>
     <row r="159" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
@@ -46428,7 +46638,6 @@
       <c r="BS159" s="9"/>
       <c r="BT159" s="9"/>
       <c r="BU159" s="9"/>
-      <c r="CJ159" s="9"/>
       <c r="CK159" s="9"/>
       <c r="CL159" s="9"/>
       <c r="CM159" s="9"/>
@@ -46564,7 +46773,6 @@
       <c r="BS160" s="9"/>
       <c r="BT160" s="9"/>
       <c r="BU160" s="9"/>
-      <c r="CJ160" s="9"/>
       <c r="CK160" s="9"/>
       <c r="CL160" s="9"/>
       <c r="CM160" s="9"/>
@@ -46757,13 +46965,13 @@
     <mergeCell ref="AX146:BA146"/>
     <mergeCell ref="BB146:BE146"/>
     <mergeCell ref="BF123:BI123"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH32:CI32"/>
-    <mergeCell ref="CD55:CE55"/>
-    <mergeCell ref="CD78:CE78"/>
-    <mergeCell ref="CH100:CI100"/>
-    <mergeCell ref="CH123:CI123"/>
-    <mergeCell ref="CH146:CI146"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH32:CJ32"/>
+    <mergeCell ref="CD55:CF55"/>
+    <mergeCell ref="CD78:CF78"/>
+    <mergeCell ref="CH100:CJ100"/>
+    <mergeCell ref="CH123:CJ123"/>
+    <mergeCell ref="CH146:CJ146"/>
     <mergeCell ref="B123:E123"/>
     <mergeCell ref="F123:I123"/>
     <mergeCell ref="J123:M123"/>
@@ -46783,51 +46991,56 @@
     <mergeCell ref="Z146:AC146"/>
   </mergeCells>
   <conditionalFormatting sqref="BR58:BU65 BR81:BU88 BR103:BU110">
-    <cfRule type="cellIs" dxfId="9" priority="35" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="40" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV58:BY65 BV81:BY88 BV103:BY110">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA103:CC110">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ103:BZ110">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ58:CC65">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ81:CC88">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD103:CE110 CH103:CI110">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD58:CF65">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD58:CE65">
+  <conditionalFormatting sqref="CD81:CF88">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD81:CE88">
+  <conditionalFormatting sqref="CF103:CG110">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF103:CG110">
+  <conditionalFormatting sqref="CJ103:CJ110">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="3" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CI$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CK$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -629,13 +629,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -782,7 +782,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -798,7 +797,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -23715,18 +23735,18 @@
   </sheetPr>
   <dimension ref="A1:EX160"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A5" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CO23" sqref="CO23"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
     <col min="2" max="81" width="8" style="10" customWidth="1"/>
-    <col min="82" max="88" width="10.36328125" style="28" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="10"/>
+    <col min="82" max="89" width="9.54296875" style="28" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23740,6 +23760,7 @@
       <c r="CH1" s="19"/>
       <c r="CI1" s="19"/>
       <c r="CJ1" s="19"/>
+      <c r="CK1" s="19"/>
     </row>
     <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -23752,6 +23773,7 @@
       <c r="CH2" s="19"/>
       <c r="CI2" s="19"/>
       <c r="CJ2" s="19"/>
+      <c r="CK2" s="19"/>
     </row>
     <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -23764,6 +23786,7 @@
       <c r="CH3" s="19"/>
       <c r="CI3" s="19"/>
       <c r="CJ3" s="19"/>
+      <c r="CK3" s="19"/>
     </row>
     <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD4" s="19"/>
@@ -23773,6 +23796,7 @@
       <c r="CH4" s="19"/>
       <c r="CI4" s="19"/>
       <c r="CJ4" s="19"/>
+      <c r="CK4" s="19"/>
     </row>
     <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -23785,6 +23809,7 @@
       <c r="CH5" s="19"/>
       <c r="CI5" s="19"/>
       <c r="CJ5" s="19"/>
+      <c r="CK5" s="19"/>
     </row>
     <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -23797,6 +23822,7 @@
       <c r="CH6" s="19"/>
       <c r="CI6" s="19"/>
       <c r="CJ6" s="19"/>
+      <c r="CK6" s="19"/>
     </row>
     <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -23809,6 +23835,7 @@
       <c r="CH7" s="19"/>
       <c r="CI7" s="19"/>
       <c r="CJ7" s="19"/>
+      <c r="CK7" s="19"/>
     </row>
     <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD8" s="19"/>
@@ -23818,140 +23845,142 @@
       <c r="CH8" s="19"/>
       <c r="CI8" s="19"/>
       <c r="CJ8" s="19"/>
+      <c r="CK8" s="19"/>
     </row>
     <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>2000</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32">
         <v>2001</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32">
         <v>2002</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33">
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32">
         <v>2003</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33">
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32">
         <v>2004</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32">
         <v>2005</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33">
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32">
         <v>2006</v>
       </c>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33">
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32">
         <v>2007</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33">
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32">
         <v>2008</v>
       </c>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33">
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32">
         <v>2009</v>
       </c>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33">
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33">
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32">
         <v>2011</v>
       </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33">
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32">
         <v>2012</v>
       </c>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33">
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32">
         <v>2013</v>
       </c>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33">
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="32">
         <v>2014</v>
       </c>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33">
+      <c r="BG9" s="32"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="32"/>
+      <c r="BJ9" s="32">
         <v>2015</v>
       </c>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="33">
+      <c r="BK9" s="32"/>
+      <c r="BL9" s="32"/>
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="32">
         <v>2016</v>
       </c>
-      <c r="BO9" s="33"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="33">
+      <c r="BO9" s="32"/>
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="32">
         <v>2017</v>
       </c>
-      <c r="BS9" s="33"/>
-      <c r="BT9" s="33"/>
-      <c r="BU9" s="33"/>
-      <c r="BV9" s="33">
+      <c r="BS9" s="32"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="32"/>
+      <c r="BV9" s="32">
         <v>2018</v>
       </c>
-      <c r="BW9" s="33"/>
-      <c r="BX9" s="33"/>
-      <c r="BY9" s="33"/>
-      <c r="BZ9" s="33">
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="32"/>
+      <c r="BY9" s="32"/>
+      <c r="BZ9" s="32">
         <v>2019</v>
       </c>
-      <c r="CA9" s="33"/>
-      <c r="CB9" s="33"/>
-      <c r="CC9" s="33"/>
-      <c r="CD9" s="32">
+      <c r="CA9" s="32"/>
+      <c r="CB9" s="32"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="31">
         <v>2020</v>
       </c>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="32"/>
-      <c r="CG9" s="32"/>
-      <c r="CH9" s="32">
+      <c r="CE9" s="31"/>
+      <c r="CF9" s="31"/>
+      <c r="CG9" s="31"/>
+      <c r="CH9" s="31">
         <v>2021</v>
       </c>
-      <c r="CI9" s="32"/>
-      <c r="CJ9" s="32"/>
+      <c r="CI9" s="31"/>
+      <c r="CJ9" s="31"/>
+      <c r="CK9" s="31"/>
     </row>
     <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24217,6 +24246,9 @@
       </c>
       <c r="CJ10" s="20" t="s">
         <v>10</v>
+      </c>
+      <c r="CK10" s="20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24228,6 +24260,7 @@
       <c r="CH11" s="19"/>
       <c r="CI11" s="19"/>
       <c r="CJ11" s="19"/>
+      <c r="CK11" s="19"/>
     </row>
     <row r="12" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -24492,9 +24525,11 @@
         <v>7397.8127227129307</v>
       </c>
       <c r="CJ12" s="21">
-        <v>6580.2035266207022</v>
-      </c>
-      <c r="CK12" s="9"/>
+        <v>6548.8203398110809</v>
+      </c>
+      <c r="CK12" s="21">
+        <v>3934.8093069781885</v>
+      </c>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
@@ -24824,9 +24859,11 @@
         <v>7682.1898180305152</v>
       </c>
       <c r="CJ13" s="21">
-        <v>8814.9651541289895</v>
-      </c>
-      <c r="CK13" s="9"/>
+        <v>8804.3018066501972</v>
+      </c>
+      <c r="CK13" s="21">
+        <v>13138.469564276311</v>
+      </c>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
@@ -25156,9 +25193,11 @@
         <v>8716.508025910065</v>
       </c>
       <c r="CJ14" s="21">
-        <v>8580.0974425486802</v>
-      </c>
-      <c r="CK14" s="9"/>
+        <v>8526.442525045768</v>
+      </c>
+      <c r="CK14" s="21">
+        <v>7583.9953721042857</v>
+      </c>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
@@ -25488,9 +25527,11 @@
         <v>11608.216618064422</v>
       </c>
       <c r="CJ15" s="21">
-        <v>7098.528375383582</v>
-      </c>
-      <c r="CK15" s="9"/>
+        <v>8927.104704027648</v>
+      </c>
+      <c r="CK15" s="21">
+        <v>3720.176175800606</v>
+      </c>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
@@ -25820,9 +25861,11 @@
         <v>2147.3760604424911</v>
       </c>
       <c r="CJ16" s="21">
-        <v>2943.3120736579103</v>
-      </c>
-      <c r="CK16" s="9"/>
+        <v>2853.7049691362208</v>
+      </c>
+      <c r="CK16" s="21">
+        <v>3830.8461549807125</v>
+      </c>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
@@ -26152,9 +26195,11 @@
         <v>7957.0884944429436</v>
       </c>
       <c r="CJ17" s="21">
-        <v>10585.206161110144</v>
-      </c>
-      <c r="CK17" s="9"/>
+        <v>10333.453069522493</v>
+      </c>
+      <c r="CK17" s="21">
+        <v>14392.837532863046</v>
+      </c>
       <c r="CL17" s="9"/>
       <c r="CM17" s="9"/>
       <c r="CN17" s="9"/>
@@ -26309,7 +26354,7 @@
       <c r="CH18" s="22"/>
       <c r="CI18" s="22"/>
       <c r="CJ18" s="22"/>
-      <c r="CK18" s="9"/>
+      <c r="CK18" s="22"/>
       <c r="CL18" s="9"/>
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
@@ -26639,9 +26684,11 @@
         <v>45509.19173960336</v>
       </c>
       <c r="CJ19" s="23">
-        <v>44602.31273345001</v>
-      </c>
-      <c r="CK19" s="9"/>
+        <v>45993.827414193409</v>
+      </c>
+      <c r="CK19" s="23">
+        <v>46601.134107003149</v>
+      </c>
       <c r="CL19" s="9"/>
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
@@ -26797,6 +26844,7 @@
       <c r="CH20" s="24"/>
       <c r="CI20" s="24"/>
       <c r="CJ20" s="24"/>
+      <c r="CK20" s="24"/>
     </row>
     <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -26809,6 +26857,7 @@
       <c r="CH21" s="19"/>
       <c r="CI21" s="19"/>
       <c r="CJ21" s="19"/>
+      <c r="CK21" s="19"/>
     </row>
     <row r="22" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
@@ -26898,7 +26947,7 @@
       <c r="CH22" s="22"/>
       <c r="CI22" s="22"/>
       <c r="CJ22" s="22"/>
-      <c r="CK22" s="9"/>
+      <c r="CK22" s="22"/>
       <c r="CL22" s="9"/>
       <c r="CM22" s="9"/>
       <c r="CN22" s="9"/>
@@ -27053,7 +27102,7 @@
       <c r="CH23" s="22"/>
       <c r="CI23" s="22"/>
       <c r="CJ23" s="22"/>
-      <c r="CK23" s="9"/>
+      <c r="CK23" s="22"/>
       <c r="CL23" s="9"/>
       <c r="CM23" s="9"/>
       <c r="CN23" s="9"/>
@@ -27131,6 +27180,7 @@
       <c r="CH24" s="19"/>
       <c r="CI24" s="19"/>
       <c r="CJ24" s="19"/>
+      <c r="CK24" s="19"/>
     </row>
     <row r="25" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -27143,6 +27193,7 @@
       <c r="CH25" s="19"/>
       <c r="CI25" s="19"/>
       <c r="CJ25" s="19"/>
+      <c r="CK25" s="19"/>
     </row>
     <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -27155,6 +27206,7 @@
       <c r="CH26" s="19"/>
       <c r="CI26" s="19"/>
       <c r="CJ26" s="19"/>
+      <c r="CK26" s="19"/>
     </row>
     <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD27" s="19"/>
@@ -27164,6 +27216,7 @@
       <c r="CH27" s="19"/>
       <c r="CI27" s="19"/>
       <c r="CJ27" s="19"/>
+      <c r="CK27" s="19"/>
     </row>
     <row r="28" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -27176,6 +27229,7 @@
       <c r="CH28" s="19"/>
       <c r="CI28" s="19"/>
       <c r="CJ28" s="19"/>
+      <c r="CK28" s="19"/>
     </row>
     <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -27188,6 +27242,7 @@
       <c r="CH29" s="19"/>
       <c r="CI29" s="19"/>
       <c r="CJ29" s="19"/>
+      <c r="CK29" s="19"/>
     </row>
     <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -27200,6 +27255,7 @@
       <c r="CH30" s="19"/>
       <c r="CI30" s="19"/>
       <c r="CJ30" s="19"/>
+      <c r="CK30" s="19"/>
     </row>
     <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD31" s="19"/>
@@ -27209,142 +27265,142 @@
       <c r="CH31" s="19"/>
       <c r="CI31" s="19"/>
       <c r="CJ31" s="19"/>
+      <c r="CK31" s="19"/>
     </row>
     <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <v>2000</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33">
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32">
         <v>2001</v>
       </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33">
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32">
         <v>2002</v>
       </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33">
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32">
         <v>2003</v>
       </c>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33">
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32">
         <v>2004</v>
       </c>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33">
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32">
         <v>2005</v>
       </c>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33">
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32">
         <v>2006</v>
       </c>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33">
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="32">
         <v>2007</v>
       </c>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="33">
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="32">
         <v>2008</v>
       </c>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="33">
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="32"/>
+      <c r="AK32" s="32"/>
+      <c r="AL32" s="32">
         <v>2009</v>
       </c>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="33"/>
-      <c r="AO32" s="33"/>
-      <c r="AP32" s="33">
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="32"/>
+      <c r="AP32" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ32" s="33"/>
-      <c r="AR32" s="33"/>
-      <c r="AS32" s="33"/>
-      <c r="AT32" s="33">
+      <c r="AQ32" s="32"/>
+      <c r="AR32" s="32"/>
+      <c r="AS32" s="32"/>
+      <c r="AT32" s="32">
         <v>2011</v>
       </c>
-      <c r="AU32" s="33"/>
-      <c r="AV32" s="33"/>
-      <c r="AW32" s="33"/>
-      <c r="AX32" s="33">
+      <c r="AU32" s="32"/>
+      <c r="AV32" s="32"/>
+      <c r="AW32" s="32"/>
+      <c r="AX32" s="32">
         <v>2012</v>
       </c>
-      <c r="AY32" s="33"/>
-      <c r="AZ32" s="33"/>
-      <c r="BA32" s="33"/>
-      <c r="BB32" s="33">
+      <c r="AY32" s="32"/>
+      <c r="AZ32" s="32"/>
+      <c r="BA32" s="32"/>
+      <c r="BB32" s="32">
         <v>2013</v>
       </c>
-      <c r="BC32" s="33"/>
-      <c r="BD32" s="33"/>
-      <c r="BE32" s="33"/>
-      <c r="BF32" s="33">
+      <c r="BC32" s="32"/>
+      <c r="BD32" s="32"/>
+      <c r="BE32" s="32"/>
+      <c r="BF32" s="32">
         <v>2014</v>
       </c>
-      <c r="BG32" s="33"/>
-      <c r="BH32" s="33"/>
-      <c r="BI32" s="33"/>
-      <c r="BJ32" s="33">
+      <c r="BG32" s="32"/>
+      <c r="BH32" s="32"/>
+      <c r="BI32" s="32"/>
+      <c r="BJ32" s="32">
         <v>2015</v>
       </c>
-      <c r="BK32" s="33"/>
-      <c r="BL32" s="33"/>
-      <c r="BM32" s="33"/>
-      <c r="BN32" s="33">
+      <c r="BK32" s="32"/>
+      <c r="BL32" s="32"/>
+      <c r="BM32" s="32"/>
+      <c r="BN32" s="32">
         <v>2016</v>
       </c>
-      <c r="BO32" s="33"/>
-      <c r="BP32" s="33"/>
-      <c r="BQ32" s="33"/>
-      <c r="BR32" s="33">
+      <c r="BO32" s="32"/>
+      <c r="BP32" s="32"/>
+      <c r="BQ32" s="32"/>
+      <c r="BR32" s="32">
         <v>2017</v>
       </c>
-      <c r="BS32" s="33"/>
-      <c r="BT32" s="33"/>
-      <c r="BU32" s="33"/>
-      <c r="BV32" s="33">
+      <c r="BS32" s="32"/>
+      <c r="BT32" s="32"/>
+      <c r="BU32" s="32"/>
+      <c r="BV32" s="32">
         <v>2018</v>
       </c>
-      <c r="BW32" s="33"/>
-      <c r="BX32" s="33"/>
-      <c r="BY32" s="33"/>
-      <c r="BZ32" s="33">
+      <c r="BW32" s="32"/>
+      <c r="BX32" s="32"/>
+      <c r="BY32" s="32"/>
+      <c r="BZ32" s="32">
         <v>2019</v>
       </c>
-      <c r="CA32" s="33"/>
-      <c r="CB32" s="33"/>
-      <c r="CC32" s="33"/>
-      <c r="CD32" s="32">
+      <c r="CA32" s="32"/>
+      <c r="CB32" s="32"/>
+      <c r="CC32" s="32"/>
+      <c r="CD32" s="31">
         <v>2020</v>
       </c>
-      <c r="CE32" s="32"/>
-      <c r="CF32" s="32"/>
-      <c r="CG32" s="32"/>
-      <c r="CH32" s="32">
+      <c r="CE32" s="31"/>
+      <c r="CF32" s="31"/>
+      <c r="CG32" s="31"/>
+      <c r="CH32" s="31">
         <v>2021</v>
       </c>
-      <c r="CI32" s="32">
-        <v>0</v>
-      </c>
-      <c r="CJ32" s="32"/>
+      <c r="CI32" s="31"/>
+      <c r="CJ32" s="31"/>
+      <c r="CK32" s="31"/>
     </row>
     <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -27610,6 +27666,9 @@
       </c>
       <c r="CJ33" s="20" t="s">
         <v>10</v>
+      </c>
+      <c r="CK33" s="20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27621,6 +27680,7 @@
       <c r="CH34" s="19"/>
       <c r="CI34" s="19"/>
       <c r="CJ34" s="19"/>
+      <c r="CK34" s="19"/>
     </row>
     <row r="35" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -27887,7 +27947,9 @@
       <c r="CJ35" s="21">
         <v>1938.6540172117454</v>
       </c>
-      <c r="CK35" s="9"/>
+      <c r="CK35" s="21">
+        <v>3198.895190396885</v>
+      </c>
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
@@ -28217,9 +28279,11 @@
         <v>13932.906736033503</v>
       </c>
       <c r="CJ36" s="21">
-        <v>3843.7268342808356</v>
-      </c>
-      <c r="CK36" s="9"/>
+        <v>3841.6111361355879</v>
+      </c>
+      <c r="CK36" s="21">
+        <v>5921.3393027229449</v>
+      </c>
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
       <c r="CN36" s="9"/>
@@ -28551,7 +28615,9 @@
       <c r="CJ37" s="21">
         <v>4766.3340134765203</v>
       </c>
-      <c r="CK37" s="9"/>
+      <c r="CK37" s="21">
+        <v>4983.8114497615161</v>
+      </c>
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
@@ -28881,9 +28947,11 @@
         <v>9511.9033660344339</v>
       </c>
       <c r="CJ38" s="21">
-        <v>5873.8412256385873</v>
-      </c>
-      <c r="CK38" s="9"/>
+        <v>6444.8331563933561</v>
+      </c>
+      <c r="CK38" s="21">
+        <v>1910.6473079814352</v>
+      </c>
       <c r="CL38" s="9"/>
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
@@ -29215,7 +29283,9 @@
       <c r="CJ39" s="21">
         <v>1199.3326437335306</v>
       </c>
-      <c r="CK39" s="9"/>
+      <c r="CK39" s="21">
+        <v>944.90545873476117</v>
+      </c>
       <c r="CL39" s="9"/>
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
@@ -29545,9 +29615,11 @@
         <v>7005.9933085892117</v>
       </c>
       <c r="CJ40" s="21">
-        <v>7775.385176269252</v>
-      </c>
-      <c r="CK40" s="9"/>
+        <v>7819.4956998061134</v>
+      </c>
+      <c r="CK40" s="21">
+        <v>16749.429517541848</v>
+      </c>
       <c r="CL40" s="9"/>
       <c r="CM40" s="9"/>
       <c r="CN40" s="9"/>
@@ -29702,7 +29774,7 @@
       <c r="CH41" s="23"/>
       <c r="CI41" s="23"/>
       <c r="CJ41" s="23"/>
-      <c r="CK41" s="9"/>
+      <c r="CK41" s="23"/>
       <c r="CL41" s="9"/>
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
@@ -30032,9 +30104,11 @@
         <v>44532.360987445616</v>
       </c>
       <c r="CJ42" s="23">
-        <v>25397.273910610471</v>
-      </c>
-      <c r="CK42" s="9"/>
+        <v>26010.260666756854</v>
+      </c>
+      <c r="CK42" s="23">
+        <v>33709.028227139388</v>
+      </c>
       <c r="CL42" s="9"/>
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
@@ -30190,6 +30264,7 @@
       <c r="CH43" s="24"/>
       <c r="CI43" s="24"/>
       <c r="CJ43" s="24"/>
+      <c r="CK43" s="24"/>
     </row>
     <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
@@ -30202,6 +30277,7 @@
       <c r="CH44" s="19"/>
       <c r="CI44" s="19"/>
       <c r="CJ44" s="19"/>
+      <c r="CK44" s="19"/>
     </row>
     <row r="45" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
@@ -30291,7 +30367,7 @@
       <c r="CH45" s="22"/>
       <c r="CI45" s="22"/>
       <c r="CJ45" s="22"/>
-      <c r="CK45" s="9"/>
+      <c r="CK45" s="22"/>
       <c r="CL45" s="9"/>
       <c r="CM45" s="9"/>
       <c r="CN45" s="9"/>
@@ -30446,7 +30522,7 @@
       <c r="CH46" s="22"/>
       <c r="CI46" s="22"/>
       <c r="CJ46" s="22"/>
-      <c r="CK46" s="9"/>
+      <c r="CK46" s="22"/>
       <c r="CL46" s="9"/>
       <c r="CM46" s="9"/>
       <c r="CN46" s="9"/>
@@ -30524,6 +30600,7 @@
       <c r="CH47" s="19"/>
       <c r="CI47" s="19"/>
       <c r="CJ47" s="19"/>
+      <c r="CK47" s="19"/>
     </row>
     <row r="48" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -30536,6 +30613,7 @@
       <c r="CH48" s="19"/>
       <c r="CI48" s="19"/>
       <c r="CJ48" s="19"/>
+      <c r="CK48" s="19"/>
     </row>
     <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -30548,6 +30626,7 @@
       <c r="CH49" s="19"/>
       <c r="CI49" s="19"/>
       <c r="CJ49" s="19"/>
+      <c r="CK49" s="19"/>
     </row>
     <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD50" s="19"/>
@@ -30557,6 +30636,7 @@
       <c r="CH50" s="19"/>
       <c r="CI50" s="19"/>
       <c r="CJ50" s="19"/>
+      <c r="CK50" s="19"/>
     </row>
     <row r="51" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -30569,6 +30649,7 @@
       <c r="CH51" s="19"/>
       <c r="CI51" s="19"/>
       <c r="CJ51" s="19"/>
+      <c r="CK51" s="19"/>
     </row>
     <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -30581,6 +30662,7 @@
       <c r="CH52" s="19"/>
       <c r="CI52" s="19"/>
       <c r="CJ52" s="19"/>
+      <c r="CK52" s="19"/>
     </row>
     <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -30593,6 +30675,7 @@
       <c r="CH53" s="19"/>
       <c r="CI53" s="19"/>
       <c r="CJ53" s="19"/>
+      <c r="CK53" s="19"/>
     </row>
     <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD54" s="19"/>
@@ -30602,138 +30685,140 @@
       <c r="CH54" s="19"/>
       <c r="CI54" s="19"/>
       <c r="CJ54" s="19"/>
+      <c r="CK54" s="19"/>
     </row>
     <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33" t="s">
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33" t="s">
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33" t="s">
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33" t="s">
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33" t="s">
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33" t="s">
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="33"/>
-      <c r="AD55" s="33" t="s">
+      <c r="AA55" s="32"/>
+      <c r="AB55" s="32"/>
+      <c r="AC55" s="32"/>
+      <c r="AD55" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="33"/>
-      <c r="AG55" s="33"/>
-      <c r="AH55" s="33" t="s">
+      <c r="AE55" s="32"/>
+      <c r="AF55" s="32"/>
+      <c r="AG55" s="32"/>
+      <c r="AH55" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="33"/>
-      <c r="AJ55" s="33"/>
-      <c r="AK55" s="33"/>
-      <c r="AL55" s="33" t="s">
+      <c r="AI55" s="32"/>
+      <c r="AJ55" s="32"/>
+      <c r="AK55" s="32"/>
+      <c r="AL55" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AM55" s="33"/>
-      <c r="AN55" s="33"/>
-      <c r="AO55" s="33"/>
-      <c r="AP55" s="33" t="s">
+      <c r="AM55" s="32"/>
+      <c r="AN55" s="32"/>
+      <c r="AO55" s="32"/>
+      <c r="AP55" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AQ55" s="33"/>
-      <c r="AR55" s="33"/>
-      <c r="AS55" s="33"/>
-      <c r="AT55" s="33" t="s">
+      <c r="AQ55" s="32"/>
+      <c r="AR55" s="32"/>
+      <c r="AS55" s="32"/>
+      <c r="AT55" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AU55" s="33"/>
-      <c r="AV55" s="33"/>
-      <c r="AW55" s="33"/>
-      <c r="AX55" s="33" t="s">
+      <c r="AU55" s="32"/>
+      <c r="AV55" s="32"/>
+      <c r="AW55" s="32"/>
+      <c r="AX55" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AY55" s="33"/>
-      <c r="AZ55" s="33"/>
-      <c r="BA55" s="33"/>
-      <c r="BB55" s="33" t="s">
+      <c r="AY55" s="32"/>
+      <c r="AZ55" s="32"/>
+      <c r="BA55" s="32"/>
+      <c r="BB55" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="BC55" s="33"/>
-      <c r="BD55" s="33"/>
-      <c r="BE55" s="33"/>
-      <c r="BF55" s="33" t="s">
+      <c r="BC55" s="32"/>
+      <c r="BD55" s="32"/>
+      <c r="BE55" s="32"/>
+      <c r="BF55" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="BG55" s="33"/>
-      <c r="BH55" s="33"/>
-      <c r="BI55" s="33"/>
-      <c r="BJ55" s="33" t="s">
+      <c r="BG55" s="32"/>
+      <c r="BH55" s="32"/>
+      <c r="BI55" s="32"/>
+      <c r="BJ55" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="BK55" s="33"/>
-      <c r="BL55" s="33"/>
-      <c r="BM55" s="33"/>
-      <c r="BN55" s="33" t="s">
+      <c r="BK55" s="32"/>
+      <c r="BL55" s="32"/>
+      <c r="BM55" s="32"/>
+      <c r="BN55" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="BO55" s="33"/>
-      <c r="BP55" s="33"/>
-      <c r="BQ55" s="33"/>
-      <c r="BR55" s="33" t="s">
+      <c r="BO55" s="32"/>
+      <c r="BP55" s="32"/>
+      <c r="BQ55" s="32"/>
+      <c r="BR55" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="BS55" s="33"/>
-      <c r="BT55" s="33"/>
-      <c r="BU55" s="33"/>
-      <c r="BV55" s="33" t="s">
+      <c r="BS55" s="32"/>
+      <c r="BT55" s="32"/>
+      <c r="BU55" s="32"/>
+      <c r="BV55" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="BW55" s="33"/>
-      <c r="BX55" s="33"/>
-      <c r="BY55" s="33"/>
-      <c r="BZ55" s="33" t="s">
+      <c r="BW55" s="32"/>
+      <c r="BX55" s="32"/>
+      <c r="BY55" s="32"/>
+      <c r="BZ55" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="CA55" s="33"/>
-      <c r="CB55" s="33"/>
-      <c r="CC55" s="33"/>
-      <c r="CD55" s="32" t="s">
+      <c r="CA55" s="32"/>
+      <c r="CB55" s="32"/>
+      <c r="CC55" s="32"/>
+      <c r="CD55" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="CE55" s="32"/>
-      <c r="CF55" s="32"/>
-      <c r="CG55" s="25"/>
+      <c r="CE55" s="31"/>
+      <c r="CF55" s="31"/>
+      <c r="CG55" s="31"/>
       <c r="CH55" s="25"/>
       <c r="CI55" s="25"/>
       <c r="CJ55" s="25"/>
+      <c r="CK55" s="25"/>
     </row>
     <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
@@ -30988,10 +31073,13 @@
       <c r="CF56" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="CG56" s="26"/>
+      <c r="CG56" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="CH56" s="26"/>
       <c r="CI56" s="26"/>
       <c r="CJ56" s="26"/>
+      <c r="CK56" s="26"/>
     </row>
     <row r="57" spans="1:149" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
@@ -31002,6 +31090,7 @@
       <c r="CH57" s="19"/>
       <c r="CI57" s="19"/>
       <c r="CJ57" s="19"/>
+      <c r="CK57" s="19"/>
     </row>
     <row r="58" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -31254,13 +31343,15 @@
         <v>83.676460145124366</v>
       </c>
       <c r="CF58" s="27">
-        <v>110.93986144275937</v>
-      </c>
-      <c r="CG58" s="22"/>
+        <v>109.93381884081367</v>
+      </c>
+      <c r="CG58" s="27">
+        <v>157.40650673392952</v>
+      </c>
       <c r="CH58" s="22"/>
       <c r="CI58" s="22"/>
       <c r="CJ58" s="22"/>
-      <c r="CK58" s="9"/>
+      <c r="CK58" s="22"/>
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
@@ -31517,13 +31608,15 @@
         <v>62.687762384687062</v>
       </c>
       <c r="CF59" s="27">
-        <v>91.229938292722579</v>
-      </c>
-      <c r="CG59" s="22"/>
+        <v>90.99860994998852</v>
+      </c>
+      <c r="CG59" s="27">
+        <v>83.087489285886619</v>
+      </c>
       <c r="CH59" s="22"/>
       <c r="CI59" s="22"/>
       <c r="CJ59" s="22"/>
-      <c r="CK59" s="9"/>
+      <c r="CK59" s="22"/>
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
       <c r="CN59" s="9"/>
@@ -31836,13 +31929,15 @@
         <v>5.9974575720309815</v>
       </c>
       <c r="CF60" s="27">
-        <v>2.9971838777792499</v>
-      </c>
-      <c r="CG60" s="22"/>
+        <v>2.3530996536782993</v>
+      </c>
+      <c r="CG60" s="27">
+        <v>-5.7740568041735116</v>
+      </c>
       <c r="CH60" s="22"/>
       <c r="CI60" s="22"/>
       <c r="CJ60" s="22"/>
-      <c r="CK60" s="9"/>
+      <c r="CK60" s="22"/>
       <c r="CL60" s="9"/>
       <c r="CM60" s="9"/>
       <c r="CN60" s="9"/>
@@ -32155,13 +32250,15 @@
         <v>54.17106909780108</v>
       </c>
       <c r="CF61" s="27">
-        <v>21.318860518978596</v>
-      </c>
-      <c r="CG61" s="22"/>
+        <v>52.570520698626439</v>
+      </c>
+      <c r="CG61" s="27">
+        <v>28.406731309485963</v>
+      </c>
       <c r="CH61" s="22"/>
       <c r="CI61" s="22"/>
       <c r="CJ61" s="22"/>
-      <c r="CK61" s="9"/>
+      <c r="CK61" s="22"/>
       <c r="CL61" s="9"/>
       <c r="CM61" s="9"/>
       <c r="CN61" s="9"/>
@@ -32474,13 +32571,15 @@
         <v>17.991416518440516</v>
       </c>
       <c r="CF62" s="27">
-        <v>25.048633366343793</v>
-      </c>
-      <c r="CG62" s="22"/>
+        <v>21.24161403576133</v>
+      </c>
+      <c r="CG62" s="27">
+        <v>16.293767522684917</v>
+      </c>
       <c r="CH62" s="22"/>
       <c r="CI62" s="22"/>
       <c r="CJ62" s="22"/>
-      <c r="CK62" s="9"/>
+      <c r="CK62" s="22"/>
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
       <c r="CN62" s="9"/>
@@ -32793,13 +32892,15 @@
         <v>29.847578301255226</v>
       </c>
       <c r="CF63" s="27">
-        <v>22.514645158458052</v>
-      </c>
-      <c r="CG63" s="22"/>
+        <v>19.600819937299491</v>
+      </c>
+      <c r="CG63" s="27">
+        <v>1.3035987340590793</v>
+      </c>
       <c r="CH63" s="22"/>
       <c r="CI63" s="22"/>
       <c r="CJ63" s="22"/>
-      <c r="CK63" s="9"/>
+      <c r="CK63" s="22"/>
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
@@ -32949,7 +33050,7 @@
       <c r="CH64" s="22"/>
       <c r="CI64" s="22"/>
       <c r="CJ64" s="22"/>
-      <c r="CK64" s="9"/>
+      <c r="CK64" s="22"/>
       <c r="CL64" s="9"/>
       <c r="CM64" s="9"/>
       <c r="CN64" s="9"/>
@@ -33262,13 +33363,15 @@
         <v>40.242315220447495</v>
       </c>
       <c r="CF65" s="27">
-        <v>35.55152810097141</v>
-      </c>
-      <c r="CG65" s="22"/>
+        <v>39.78050031765747</v>
+      </c>
+      <c r="CG65" s="27">
+        <v>25.432531007881138</v>
+      </c>
       <c r="CH65" s="22"/>
       <c r="CI65" s="22"/>
       <c r="CJ65" s="22"/>
-      <c r="CK65" s="9"/>
+      <c r="CK65" s="22"/>
       <c r="CL65" s="9"/>
       <c r="CM65" s="9"/>
       <c r="CN65" s="9"/>
@@ -33419,6 +33522,7 @@
       <c r="CH66" s="24"/>
       <c r="CI66" s="24"/>
       <c r="CJ66" s="24"/>
+      <c r="CK66" s="24"/>
     </row>
     <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -33431,6 +33535,7 @@
       <c r="CH67" s="19"/>
       <c r="CI67" s="19"/>
       <c r="CJ67" s="19"/>
+      <c r="CK67" s="19"/>
     </row>
     <row r="68" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
@@ -33523,7 +33628,7 @@
       <c r="CH68" s="22"/>
       <c r="CI68" s="22"/>
       <c r="CJ68" s="22"/>
-      <c r="CK68" s="9"/>
+      <c r="CK68" s="22"/>
       <c r="CL68" s="9"/>
       <c r="CM68" s="9"/>
       <c r="CN68" s="9"/>
@@ -33673,7 +33778,7 @@
       <c r="CH69" s="22"/>
       <c r="CI69" s="22"/>
       <c r="CJ69" s="22"/>
-      <c r="CK69" s="9"/>
+      <c r="CK69" s="22"/>
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
       <c r="CN69" s="9"/>
@@ -33746,6 +33851,7 @@
       <c r="CH70" s="19"/>
       <c r="CI70" s="19"/>
       <c r="CJ70" s="19"/>
+      <c r="CK70" s="19"/>
     </row>
     <row r="71" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -33758,6 +33864,7 @@
       <c r="CH71" s="19"/>
       <c r="CI71" s="19"/>
       <c r="CJ71" s="19"/>
+      <c r="CK71" s="19"/>
     </row>
     <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -33770,6 +33877,7 @@
       <c r="CH72" s="19"/>
       <c r="CI72" s="19"/>
       <c r="CJ72" s="19"/>
+      <c r="CK72" s="19"/>
     </row>
     <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD73" s="19"/>
@@ -33779,6 +33887,7 @@
       <c r="CH73" s="19"/>
       <c r="CI73" s="19"/>
       <c r="CJ73" s="19"/>
+      <c r="CK73" s="19"/>
     </row>
     <row r="74" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -33791,6 +33900,7 @@
       <c r="CH74" s="19"/>
       <c r="CI74" s="19"/>
       <c r="CJ74" s="19"/>
+      <c r="CK74" s="19"/>
     </row>
     <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -33803,6 +33913,7 @@
       <c r="CH75" s="19"/>
       <c r="CI75" s="19"/>
       <c r="CJ75" s="19"/>
+      <c r="CK75" s="19"/>
     </row>
     <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -33815,6 +33926,7 @@
       <c r="CH76" s="19"/>
       <c r="CI76" s="19"/>
       <c r="CJ76" s="19"/>
+      <c r="CK76" s="19"/>
     </row>
     <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD77" s="19"/>
@@ -33824,138 +33936,140 @@
       <c r="CH77" s="19"/>
       <c r="CI77" s="19"/>
       <c r="CJ77" s="19"/>
+      <c r="CK77" s="19"/>
     </row>
     <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="33" t="s">
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="33" t="s">
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="33" t="s">
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="33" t="s">
+      <c r="O78" s="33"/>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="33"/>
+      <c r="R78" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="34"/>
-      <c r="T78" s="34"/>
-      <c r="U78" s="34"/>
-      <c r="V78" s="33" t="s">
+      <c r="S78" s="33"/>
+      <c r="T78" s="33"/>
+      <c r="U78" s="33"/>
+      <c r="V78" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="W78" s="34"/>
-      <c r="X78" s="34"/>
-      <c r="Y78" s="34"/>
-      <c r="Z78" s="33" t="s">
+      <c r="W78" s="33"/>
+      <c r="X78" s="33"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AA78" s="34"/>
-      <c r="AB78" s="34"/>
-      <c r="AC78" s="34"/>
-      <c r="AD78" s="33" t="s">
+      <c r="AA78" s="33"/>
+      <c r="AB78" s="33"/>
+      <c r="AC78" s="33"/>
+      <c r="AD78" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="34"/>
-      <c r="AF78" s="34"/>
-      <c r="AG78" s="34"/>
-      <c r="AH78" s="33" t="s">
+      <c r="AE78" s="33"/>
+      <c r="AF78" s="33"/>
+      <c r="AG78" s="33"/>
+      <c r="AH78" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AI78" s="34"/>
-      <c r="AJ78" s="34"/>
-      <c r="AK78" s="34"/>
-      <c r="AL78" s="33" t="s">
+      <c r="AI78" s="33"/>
+      <c r="AJ78" s="33"/>
+      <c r="AK78" s="33"/>
+      <c r="AL78" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AM78" s="34"/>
-      <c r="AN78" s="34"/>
-      <c r="AO78" s="34"/>
-      <c r="AP78" s="33" t="s">
+      <c r="AM78" s="33"/>
+      <c r="AN78" s="33"/>
+      <c r="AO78" s="33"/>
+      <c r="AP78" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AQ78" s="34"/>
-      <c r="AR78" s="34"/>
-      <c r="AS78" s="34"/>
-      <c r="AT78" s="33" t="s">
+      <c r="AQ78" s="33"/>
+      <c r="AR78" s="33"/>
+      <c r="AS78" s="33"/>
+      <c r="AT78" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AU78" s="34"/>
-      <c r="AV78" s="34"/>
-      <c r="AW78" s="34"/>
-      <c r="AX78" s="33" t="s">
+      <c r="AU78" s="33"/>
+      <c r="AV78" s="33"/>
+      <c r="AW78" s="33"/>
+      <c r="AX78" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AY78" s="34"/>
-      <c r="AZ78" s="34"/>
-      <c r="BA78" s="34"/>
-      <c r="BB78" s="33" t="s">
+      <c r="AY78" s="33"/>
+      <c r="AZ78" s="33"/>
+      <c r="BA78" s="33"/>
+      <c r="BB78" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="BC78" s="34"/>
-      <c r="BD78" s="34"/>
-      <c r="BE78" s="34"/>
-      <c r="BF78" s="33" t="s">
+      <c r="BC78" s="33"/>
+      <c r="BD78" s="33"/>
+      <c r="BE78" s="33"/>
+      <c r="BF78" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="BG78" s="34"/>
-      <c r="BH78" s="34"/>
-      <c r="BI78" s="34"/>
-      <c r="BJ78" s="33" t="s">
+      <c r="BG78" s="33"/>
+      <c r="BH78" s="33"/>
+      <c r="BI78" s="33"/>
+      <c r="BJ78" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="BK78" s="34"/>
-      <c r="BL78" s="34"/>
-      <c r="BM78" s="34"/>
-      <c r="BN78" s="33" t="s">
+      <c r="BK78" s="33"/>
+      <c r="BL78" s="33"/>
+      <c r="BM78" s="33"/>
+      <c r="BN78" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="BO78" s="34"/>
-      <c r="BP78" s="34"/>
-      <c r="BQ78" s="34"/>
-      <c r="BR78" s="33" t="s">
+      <c r="BO78" s="33"/>
+      <c r="BP78" s="33"/>
+      <c r="BQ78" s="33"/>
+      <c r="BR78" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="BS78" s="34"/>
-      <c r="BT78" s="34"/>
-      <c r="BU78" s="34"/>
-      <c r="BV78" s="33" t="s">
+      <c r="BS78" s="33"/>
+      <c r="BT78" s="33"/>
+      <c r="BU78" s="33"/>
+      <c r="BV78" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="BW78" s="34"/>
-      <c r="BX78" s="34"/>
-      <c r="BY78" s="34"/>
-      <c r="BZ78" s="33" t="s">
+      <c r="BW78" s="33"/>
+      <c r="BX78" s="33"/>
+      <c r="BY78" s="33"/>
+      <c r="BZ78" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="CA78" s="33"/>
-      <c r="CB78" s="33"/>
-      <c r="CC78" s="33"/>
-      <c r="CD78" s="32" t="s">
+      <c r="CA78" s="32"/>
+      <c r="CB78" s="32"/>
+      <c r="CC78" s="32"/>
+      <c r="CD78" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="CE78" s="32"/>
-      <c r="CF78" s="32"/>
-      <c r="CG78" s="25"/>
+      <c r="CE78" s="31"/>
+      <c r="CF78" s="31"/>
+      <c r="CG78" s="31"/>
       <c r="CH78" s="25"/>
       <c r="CI78" s="25"/>
       <c r="CJ78" s="25"/>
+      <c r="CK78" s="25"/>
     </row>
     <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -34210,10 +34324,13 @@
       <c r="CF79" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="CG79" s="26"/>
+      <c r="CG79" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="CH79" s="26"/>
       <c r="CI79" s="26"/>
       <c r="CJ79" s="26"/>
+      <c r="CK79" s="26"/>
     </row>
     <row r="80" spans="1:149" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
@@ -34224,6 +34341,7 @@
       <c r="CH80" s="19"/>
       <c r="CI80" s="19"/>
       <c r="CJ80" s="19"/>
+      <c r="CK80" s="19"/>
     </row>
     <row r="81" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -34478,11 +34596,13 @@
       <c r="CF81" s="27">
         <v>-39.467722773414323</v>
       </c>
-      <c r="CG81" s="22"/>
+      <c r="CG81" s="27">
+        <v>-14.272644093247735</v>
+      </c>
       <c r="CH81" s="22"/>
       <c r="CI81" s="22"/>
       <c r="CJ81" s="22"/>
-      <c r="CK81" s="9"/>
+      <c r="CK81" s="22"/>
       <c r="CL81" s="9"/>
       <c r="CM81" s="9"/>
       <c r="CN81" s="9"/>
@@ -34795,13 +34915,15 @@
         <v>-12.695365356936406</v>
       </c>
       <c r="CF82" s="27">
-        <v>-8.8465080979616033</v>
-      </c>
-      <c r="CG82" s="22"/>
+        <v>-8.8966816097809129</v>
+      </c>
+      <c r="CG82" s="27">
+        <v>-6.9100306881362883</v>
+      </c>
       <c r="CH82" s="22"/>
       <c r="CI82" s="22"/>
       <c r="CJ82" s="22"/>
-      <c r="CK82" s="9"/>
+      <c r="CK82" s="22"/>
       <c r="CL82" s="9"/>
       <c r="CM82" s="9"/>
       <c r="CN82" s="9"/>
@@ -35116,11 +35238,13 @@
       <c r="CF83" s="27">
         <v>15.84388936208336</v>
       </c>
-      <c r="CG83" s="22"/>
+      <c r="CG83" s="27">
+        <v>8.1108661100133048</v>
+      </c>
       <c r="CH83" s="22"/>
       <c r="CI83" s="22"/>
       <c r="CJ83" s="22"/>
-      <c r="CK83" s="9"/>
+      <c r="CK83" s="22"/>
       <c r="CL83" s="9"/>
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
@@ -35433,13 +35557,15 @@
         <v>12.265762473035409</v>
       </c>
       <c r="CF84" s="27">
-        <v>-2.4342776039986944</v>
-      </c>
-      <c r="CG84" s="22"/>
+        <v>7.0500169259951804</v>
+      </c>
+      <c r="CG84" s="27">
+        <v>5.2372480178958654</v>
+      </c>
       <c r="CH84" s="22"/>
       <c r="CI84" s="22"/>
       <c r="CJ84" s="22"/>
-      <c r="CK84" s="9"/>
+      <c r="CK84" s="22"/>
       <c r="CL84" s="9"/>
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
@@ -35754,11 +35880,13 @@
       <c r="CF85" s="27">
         <v>-3.7260011875701053</v>
       </c>
-      <c r="CG85" s="22"/>
+      <c r="CG85" s="27">
+        <v>-2.608053082538305</v>
+      </c>
       <c r="CH85" s="22"/>
       <c r="CI85" s="22"/>
       <c r="CJ85" s="22"/>
-      <c r="CK85" s="9"/>
+      <c r="CK85" s="22"/>
       <c r="CL85" s="9"/>
       <c r="CM85" s="9"/>
       <c r="CN85" s="9"/>
@@ -36071,13 +36199,15 @@
         <v>24.656177049326431</v>
       </c>
       <c r="CF86" s="27">
-        <v>20.488795825431751</v>
-      </c>
-      <c r="CG86" s="22"/>
+        <v>21.172340594430068</v>
+      </c>
+      <c r="CG86" s="27">
+        <v>21.729166382382402</v>
+      </c>
       <c r="CH86" s="22"/>
       <c r="CI86" s="22"/>
       <c r="CJ86" s="22"/>
-      <c r="CK86" s="9"/>
+      <c r="CK86" s="22"/>
       <c r="CL86" s="9"/>
       <c r="CM86" s="9"/>
       <c r="CN86" s="9"/>
@@ -36227,7 +36357,7 @@
       <c r="CH87" s="22"/>
       <c r="CI87" s="22"/>
       <c r="CJ87" s="22"/>
-      <c r="CK87" s="9"/>
+      <c r="CK87" s="22"/>
       <c r="CL87" s="9"/>
       <c r="CM87" s="9"/>
       <c r="CN87" s="9"/>
@@ -36536,17 +36666,19 @@
       <c r="CD88" s="27">
         <v>1.0023477224451653</v>
       </c>
-      <c r="CE88" s="31">
+      <c r="CE88" s="27">
         <v>-2.8133988223132178E-2</v>
       </c>
       <c r="CF88" s="27">
-        <v>0.57038802635358365</v>
-      </c>
-      <c r="CG88" s="22"/>
+        <v>2.9977475980004442</v>
+      </c>
+      <c r="CG88" s="27">
+        <v>7.8771121042389609</v>
+      </c>
       <c r="CH88" s="22"/>
       <c r="CI88" s="22"/>
       <c r="CJ88" s="22"/>
-      <c r="CK88" s="9"/>
+      <c r="CK88" s="22"/>
       <c r="CL88" s="9"/>
       <c r="CM88" s="9"/>
       <c r="CN88" s="9"/>
@@ -36697,6 +36829,7 @@
       <c r="CH89" s="24"/>
       <c r="CI89" s="24"/>
       <c r="CJ89" s="24"/>
+      <c r="CK89" s="24"/>
     </row>
     <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
@@ -36709,6 +36842,7 @@
       <c r="CH90" s="19"/>
       <c r="CI90" s="19"/>
       <c r="CJ90" s="19"/>
+      <c r="CK90" s="19"/>
     </row>
     <row r="91" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
@@ -36801,7 +36935,7 @@
       <c r="CH91" s="22"/>
       <c r="CI91" s="22"/>
       <c r="CJ91" s="22"/>
-      <c r="CK91" s="9"/>
+      <c r="CK91" s="22"/>
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
@@ -36951,7 +37085,7 @@
       <c r="CH92" s="22"/>
       <c r="CI92" s="22"/>
       <c r="CJ92" s="22"/>
-      <c r="CK92" s="9"/>
+      <c r="CK92" s="22"/>
       <c r="CL92" s="9"/>
       <c r="CM92" s="9"/>
       <c r="CN92" s="9"/>
@@ -37029,6 +37163,7 @@
       <c r="CH93" s="19"/>
       <c r="CI93" s="19"/>
       <c r="CJ93" s="19"/>
+      <c r="CK93" s="19"/>
     </row>
     <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -37041,6 +37176,7 @@
       <c r="CH94" s="19"/>
       <c r="CI94" s="19"/>
       <c r="CJ94" s="19"/>
+      <c r="CK94" s="19"/>
     </row>
     <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD95" s="19"/>
@@ -37050,6 +37186,7 @@
       <c r="CH95" s="19"/>
       <c r="CI95" s="19"/>
       <c r="CJ95" s="19"/>
+      <c r="CK95" s="19"/>
     </row>
     <row r="96" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -37062,6 +37199,7 @@
       <c r="CH96" s="19"/>
       <c r="CI96" s="19"/>
       <c r="CJ96" s="19"/>
+      <c r="CK96" s="19"/>
     </row>
     <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -37074,6 +37212,7 @@
       <c r="CH97" s="19"/>
       <c r="CI97" s="19"/>
       <c r="CJ97" s="19"/>
+      <c r="CK97" s="19"/>
     </row>
     <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -37086,6 +37225,7 @@
       <c r="CH98" s="19"/>
       <c r="CI98" s="19"/>
       <c r="CJ98" s="19"/>
+      <c r="CK98" s="19"/>
     </row>
     <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD99" s="19"/>
@@ -37095,142 +37235,142 @@
       <c r="CH99" s="19"/>
       <c r="CI99" s="19"/>
       <c r="CJ99" s="19"/>
+      <c r="CK99" s="19"/>
     </row>
     <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="33">
+      <c r="B100" s="32">
         <v>2000</v>
       </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33">
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32">
         <v>2001</v>
       </c>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33">
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32">
         <v>2002</v>
       </c>
-      <c r="K100" s="33"/>
-      <c r="L100" s="33"/>
-      <c r="M100" s="33"/>
-      <c r="N100" s="33">
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="32">
         <v>2003</v>
       </c>
-      <c r="O100" s="33"/>
-      <c r="P100" s="33"/>
-      <c r="Q100" s="33"/>
-      <c r="R100" s="33">
+      <c r="O100" s="32"/>
+      <c r="P100" s="32"/>
+      <c r="Q100" s="32"/>
+      <c r="R100" s="32">
         <v>2004</v>
       </c>
-      <c r="S100" s="33"/>
-      <c r="T100" s="33"/>
-      <c r="U100" s="33"/>
-      <c r="V100" s="33">
+      <c r="S100" s="32"/>
+      <c r="T100" s="32"/>
+      <c r="U100" s="32"/>
+      <c r="V100" s="32">
         <v>2005</v>
       </c>
-      <c r="W100" s="33"/>
-      <c r="X100" s="33"/>
-      <c r="Y100" s="33"/>
-      <c r="Z100" s="33">
+      <c r="W100" s="32"/>
+      <c r="X100" s="32"/>
+      <c r="Y100" s="32"/>
+      <c r="Z100" s="32">
         <v>2006</v>
       </c>
-      <c r="AA100" s="33"/>
-      <c r="AB100" s="33"/>
-      <c r="AC100" s="33"/>
-      <c r="AD100" s="33">
+      <c r="AA100" s="32"/>
+      <c r="AB100" s="32"/>
+      <c r="AC100" s="32"/>
+      <c r="AD100" s="32">
         <v>2007</v>
       </c>
-      <c r="AE100" s="33"/>
-      <c r="AF100" s="33"/>
-      <c r="AG100" s="33"/>
-      <c r="AH100" s="33">
+      <c r="AE100" s="32"/>
+      <c r="AF100" s="32"/>
+      <c r="AG100" s="32"/>
+      <c r="AH100" s="32">
         <v>2008</v>
       </c>
-      <c r="AI100" s="33"/>
-      <c r="AJ100" s="33"/>
-      <c r="AK100" s="33"/>
-      <c r="AL100" s="33">
+      <c r="AI100" s="32"/>
+      <c r="AJ100" s="32"/>
+      <c r="AK100" s="32"/>
+      <c r="AL100" s="32">
         <v>2009</v>
       </c>
-      <c r="AM100" s="33"/>
-      <c r="AN100" s="33"/>
-      <c r="AO100" s="33"/>
-      <c r="AP100" s="33">
+      <c r="AM100" s="32"/>
+      <c r="AN100" s="32"/>
+      <c r="AO100" s="32"/>
+      <c r="AP100" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ100" s="33"/>
-      <c r="AR100" s="33"/>
-      <c r="AS100" s="33"/>
-      <c r="AT100" s="33">
+      <c r="AQ100" s="32"/>
+      <c r="AR100" s="32"/>
+      <c r="AS100" s="32"/>
+      <c r="AT100" s="32">
         <v>2011</v>
       </c>
-      <c r="AU100" s="33"/>
-      <c r="AV100" s="33"/>
-      <c r="AW100" s="33"/>
-      <c r="AX100" s="33">
+      <c r="AU100" s="32"/>
+      <c r="AV100" s="32"/>
+      <c r="AW100" s="32"/>
+      <c r="AX100" s="32">
         <v>2012</v>
       </c>
-      <c r="AY100" s="33"/>
-      <c r="AZ100" s="33"/>
-      <c r="BA100" s="33"/>
-      <c r="BB100" s="33">
+      <c r="AY100" s="32"/>
+      <c r="AZ100" s="32"/>
+      <c r="BA100" s="32"/>
+      <c r="BB100" s="32">
         <v>2013</v>
       </c>
-      <c r="BC100" s="33"/>
-      <c r="BD100" s="33"/>
-      <c r="BE100" s="33"/>
-      <c r="BF100" s="33">
+      <c r="BC100" s="32"/>
+      <c r="BD100" s="32"/>
+      <c r="BE100" s="32"/>
+      <c r="BF100" s="32">
         <v>2014</v>
       </c>
-      <c r="BG100" s="33"/>
-      <c r="BH100" s="33"/>
-      <c r="BI100" s="33"/>
-      <c r="BJ100" s="33">
+      <c r="BG100" s="32"/>
+      <c r="BH100" s="32"/>
+      <c r="BI100" s="32"/>
+      <c r="BJ100" s="32">
         <v>2015</v>
       </c>
-      <c r="BK100" s="33"/>
-      <c r="BL100" s="33"/>
-      <c r="BM100" s="33"/>
-      <c r="BN100" s="33">
+      <c r="BK100" s="32"/>
+      <c r="BL100" s="32"/>
+      <c r="BM100" s="32"/>
+      <c r="BN100" s="32">
         <v>2016</v>
       </c>
-      <c r="BO100" s="33"/>
-      <c r="BP100" s="33"/>
-      <c r="BQ100" s="33"/>
-      <c r="BR100" s="33">
+      <c r="BO100" s="32"/>
+      <c r="BP100" s="32"/>
+      <c r="BQ100" s="32"/>
+      <c r="BR100" s="32">
         <v>2017</v>
       </c>
-      <c r="BS100" s="33"/>
-      <c r="BT100" s="33"/>
-      <c r="BU100" s="33"/>
-      <c r="BV100" s="33">
+      <c r="BS100" s="32"/>
+      <c r="BT100" s="32"/>
+      <c r="BU100" s="32"/>
+      <c r="BV100" s="32">
         <v>2018</v>
       </c>
-      <c r="BW100" s="33"/>
-      <c r="BX100" s="33"/>
-      <c r="BY100" s="33"/>
-      <c r="BZ100" s="33">
+      <c r="BW100" s="32"/>
+      <c r="BX100" s="32"/>
+      <c r="BY100" s="32"/>
+      <c r="BZ100" s="32">
         <v>2019</v>
       </c>
-      <c r="CA100" s="33"/>
-      <c r="CB100" s="33"/>
-      <c r="CC100" s="33"/>
-      <c r="CD100" s="32">
+      <c r="CA100" s="32"/>
+      <c r="CB100" s="32"/>
+      <c r="CC100" s="32"/>
+      <c r="CD100" s="31">
         <v>2020</v>
       </c>
-      <c r="CE100" s="32"/>
-      <c r="CF100" s="32"/>
-      <c r="CG100" s="32"/>
-      <c r="CH100" s="32">
+      <c r="CE100" s="31"/>
+      <c r="CF100" s="31"/>
+      <c r="CG100" s="31"/>
+      <c r="CH100" s="31">
         <v>2021</v>
       </c>
-      <c r="CI100" s="32">
-        <v>0</v>
-      </c>
-      <c r="CJ100" s="32"/>
+      <c r="CI100" s="31"/>
+      <c r="CJ100" s="31"/>
+      <c r="CK100" s="31"/>
     </row>
     <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
@@ -37496,6 +37636,9 @@
       </c>
       <c r="CJ101" s="20" t="s">
         <v>10</v>
+      </c>
+      <c r="CK101" s="20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -37507,6 +37650,7 @@
       <c r="CH102" s="19"/>
       <c r="CI102" s="19"/>
       <c r="CJ102" s="19"/>
+      <c r="CK102" s="19"/>
     </row>
     <row r="103" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
@@ -37771,9 +37915,11 @@
         <v>92.760380221423333</v>
       </c>
       <c r="CJ103" s="27">
-        <v>339.42124113949069</v>
-      </c>
-      <c r="CK103" s="9"/>
+        <v>337.80242795616891</v>
+      </c>
+      <c r="CK103" s="27">
+        <v>123.00525877779694</v>
+      </c>
       <c r="CL103" s="9"/>
       <c r="CM103" s="9"/>
       <c r="CN103" s="9"/>
@@ -38103,9 +38249,11 @@
         <v>55.137021754137741</v>
       </c>
       <c r="CJ104" s="27">
-        <v>229.33380893541769</v>
-      </c>
-      <c r="CK104" s="9"/>
+        <v>229.18253552093654</v>
+      </c>
+      <c r="CK104" s="27">
+        <v>221.88341002912208</v>
+      </c>
       <c r="CL104" s="9"/>
       <c r="CM104" s="9"/>
       <c r="CN104" s="9"/>
@@ -38435,9 +38583,11 @@
         <v>167.32312661721454</v>
       </c>
       <c r="CJ105" s="27">
-        <v>180.01460699751581</v>
-      </c>
-      <c r="CK105" s="9"/>
+        <v>178.88890079750536</v>
+      </c>
+      <c r="CK105" s="27">
+        <v>152.17259819223685</v>
+      </c>
       <c r="CL105" s="9"/>
       <c r="CM105" s="9"/>
       <c r="CN105" s="9"/>
@@ -38767,9 +38917,11 @@
         <v>122.03884092762765</v>
       </c>
       <c r="CJ106" s="27">
-        <v>120.84985110594049</v>
-      </c>
-      <c r="CK106" s="9"/>
+        <v>138.51568360884326</v>
+      </c>
+      <c r="CK106" s="27">
+        <v>194.7076344367766</v>
+      </c>
       <c r="CL106" s="9"/>
       <c r="CM106" s="9"/>
       <c r="CN106" s="9"/>
@@ -39099,9 +39251,11 @@
         <v>239.3992138900058</v>
       </c>
       <c r="CJ107" s="27">
-        <v>245.41248743929458</v>
-      </c>
-      <c r="CK107" s="9"/>
+        <v>237.94107365014412</v>
+      </c>
+      <c r="CK107" s="27">
+        <v>405.42110531462663</v>
+      </c>
       <c r="CL107" s="9"/>
       <c r="CM107" s="9"/>
       <c r="CN107" s="9"/>
@@ -39431,9 +39585,11 @@
         <v>113.57545095979049</v>
       </c>
       <c r="CJ108" s="27">
-        <v>136.13738639490896</v>
-      </c>
-      <c r="CK108" s="9"/>
+        <v>132.14986574874277</v>
+      </c>
+      <c r="CK108" s="27">
+        <v>85.930314926781719</v>
+      </c>
       <c r="CL108" s="9"/>
       <c r="CM108" s="9"/>
       <c r="CN108" s="9"/>
@@ -39588,7 +39744,7 @@
       <c r="CH109" s="22"/>
       <c r="CI109" s="22"/>
       <c r="CJ109" s="22"/>
-      <c r="CK109" s="9"/>
+      <c r="CK109" s="22"/>
       <c r="CL109" s="9"/>
       <c r="CM109" s="9"/>
       <c r="CN109" s="9"/>
@@ -39918,9 +40074,11 @@
         <v>102.19353012168639</v>
       </c>
       <c r="CJ110" s="27">
-        <v>175.61850492471973</v>
-      </c>
-      <c r="CK110" s="9"/>
+        <v>176.82955201205311</v>
+      </c>
+      <c r="CK110" s="27">
+        <v>138.24526115969203</v>
+      </c>
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
@@ -40076,6 +40234,7 @@
       <c r="CH111" s="24"/>
       <c r="CI111" s="24"/>
       <c r="CJ111" s="24"/>
+      <c r="CK111" s="24"/>
     </row>
     <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
@@ -40088,6 +40247,7 @@
       <c r="CH112" s="19"/>
       <c r="CI112" s="19"/>
       <c r="CJ112" s="19"/>
+      <c r="CK112" s="19"/>
     </row>
     <row r="115" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -40100,6 +40260,7 @@
       <c r="CH115" s="19"/>
       <c r="CI115" s="19"/>
       <c r="CJ115" s="19"/>
+      <c r="CK115" s="19"/>
     </row>
     <row r="116" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -40112,6 +40273,7 @@
       <c r="CH116" s="19"/>
       <c r="CI116" s="19"/>
       <c r="CJ116" s="19"/>
+      <c r="CK116" s="19"/>
     </row>
     <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
@@ -40124,6 +40286,7 @@
       <c r="CH117" s="19"/>
       <c r="CI117" s="19"/>
       <c r="CJ117" s="19"/>
+      <c r="CK117" s="19"/>
     </row>
     <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD118" s="19"/>
@@ -40133,6 +40296,7 @@
       <c r="CH118" s="19"/>
       <c r="CI118" s="19"/>
       <c r="CJ118" s="19"/>
+      <c r="CK118" s="19"/>
     </row>
     <row r="119" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -40145,6 +40309,7 @@
       <c r="CH119" s="19"/>
       <c r="CI119" s="19"/>
       <c r="CJ119" s="19"/>
+      <c r="CK119" s="19"/>
     </row>
     <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -40157,6 +40322,7 @@
       <c r="CH120" s="19"/>
       <c r="CI120" s="19"/>
       <c r="CJ120" s="19"/>
+      <c r="CK120" s="19"/>
     </row>
     <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -40169,6 +40335,7 @@
       <c r="CH121" s="19"/>
       <c r="CI121" s="19"/>
       <c r="CJ121" s="19"/>
+      <c r="CK121" s="19"/>
     </row>
     <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD122" s="19"/>
@@ -40178,142 +40345,142 @@
       <c r="CH122" s="19"/>
       <c r="CI122" s="19"/>
       <c r="CJ122" s="19"/>
+      <c r="CK122" s="19"/>
     </row>
     <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" s="33">
+      <c r="B123" s="32">
         <v>2000</v>
       </c>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33">
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32">
         <v>2001</v>
       </c>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
-      <c r="I123" s="33"/>
-      <c r="J123" s="33">
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="32"/>
+      <c r="J123" s="32">
         <v>2002</v>
       </c>
-      <c r="K123" s="33"/>
-      <c r="L123" s="33"/>
-      <c r="M123" s="33"/>
-      <c r="N123" s="33">
+      <c r="K123" s="32"/>
+      <c r="L123" s="32"/>
+      <c r="M123" s="32"/>
+      <c r="N123" s="32">
         <v>2003</v>
       </c>
-      <c r="O123" s="33"/>
-      <c r="P123" s="33"/>
-      <c r="Q123" s="33"/>
-      <c r="R123" s="33">
+      <c r="O123" s="32"/>
+      <c r="P123" s="32"/>
+      <c r="Q123" s="32"/>
+      <c r="R123" s="32">
         <v>2004</v>
       </c>
-      <c r="S123" s="33"/>
-      <c r="T123" s="33"/>
-      <c r="U123" s="33"/>
-      <c r="V123" s="33">
+      <c r="S123" s="32"/>
+      <c r="T123" s="32"/>
+      <c r="U123" s="32"/>
+      <c r="V123" s="32">
         <v>2005</v>
       </c>
-      <c r="W123" s="33"/>
-      <c r="X123" s="33"/>
-      <c r="Y123" s="33"/>
-      <c r="Z123" s="33">
+      <c r="W123" s="32"/>
+      <c r="X123" s="32"/>
+      <c r="Y123" s="32"/>
+      <c r="Z123" s="32">
         <v>2006</v>
       </c>
-      <c r="AA123" s="33"/>
-      <c r="AB123" s="33"/>
-      <c r="AC123" s="33"/>
-      <c r="AD123" s="33">
+      <c r="AA123" s="32"/>
+      <c r="AB123" s="32"/>
+      <c r="AC123" s="32"/>
+      <c r="AD123" s="32">
         <v>2007</v>
       </c>
-      <c r="AE123" s="33"/>
-      <c r="AF123" s="33"/>
-      <c r="AG123" s="33"/>
-      <c r="AH123" s="33">
+      <c r="AE123" s="32"/>
+      <c r="AF123" s="32"/>
+      <c r="AG123" s="32"/>
+      <c r="AH123" s="32">
         <v>2008</v>
       </c>
-      <c r="AI123" s="33"/>
-      <c r="AJ123" s="33"/>
-      <c r="AK123" s="33"/>
-      <c r="AL123" s="33">
+      <c r="AI123" s="32"/>
+      <c r="AJ123" s="32"/>
+      <c r="AK123" s="32"/>
+      <c r="AL123" s="32">
         <v>2009</v>
       </c>
-      <c r="AM123" s="33"/>
-      <c r="AN123" s="33"/>
-      <c r="AO123" s="33"/>
-      <c r="AP123" s="33">
+      <c r="AM123" s="32"/>
+      <c r="AN123" s="32"/>
+      <c r="AO123" s="32"/>
+      <c r="AP123" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ123" s="33"/>
-      <c r="AR123" s="33"/>
-      <c r="AS123" s="33"/>
-      <c r="AT123" s="33">
+      <c r="AQ123" s="32"/>
+      <c r="AR123" s="32"/>
+      <c r="AS123" s="32"/>
+      <c r="AT123" s="32">
         <v>2011</v>
       </c>
-      <c r="AU123" s="33"/>
-      <c r="AV123" s="33"/>
-      <c r="AW123" s="33"/>
-      <c r="AX123" s="33">
+      <c r="AU123" s="32"/>
+      <c r="AV123" s="32"/>
+      <c r="AW123" s="32"/>
+      <c r="AX123" s="32">
         <v>2012</v>
       </c>
-      <c r="AY123" s="33"/>
-      <c r="AZ123" s="33"/>
-      <c r="BA123" s="33"/>
-      <c r="BB123" s="33">
+      <c r="AY123" s="32"/>
+      <c r="AZ123" s="32"/>
+      <c r="BA123" s="32"/>
+      <c r="BB123" s="32">
         <v>2013</v>
       </c>
-      <c r="BC123" s="33"/>
-      <c r="BD123" s="33"/>
-      <c r="BE123" s="33"/>
-      <c r="BF123" s="33">
+      <c r="BC123" s="32"/>
+      <c r="BD123" s="32"/>
+      <c r="BE123" s="32"/>
+      <c r="BF123" s="32">
         <v>2014</v>
       </c>
-      <c r="BG123" s="33"/>
-      <c r="BH123" s="33"/>
-      <c r="BI123" s="33"/>
-      <c r="BJ123" s="33">
+      <c r="BG123" s="32"/>
+      <c r="BH123" s="32"/>
+      <c r="BI123" s="32"/>
+      <c r="BJ123" s="32">
         <v>2015</v>
       </c>
-      <c r="BK123" s="33"/>
-      <c r="BL123" s="33"/>
-      <c r="BM123" s="33"/>
-      <c r="BN123" s="33">
+      <c r="BK123" s="32"/>
+      <c r="BL123" s="32"/>
+      <c r="BM123" s="32"/>
+      <c r="BN123" s="32">
         <v>2016</v>
       </c>
-      <c r="BO123" s="33"/>
-      <c r="BP123" s="33"/>
-      <c r="BQ123" s="33"/>
-      <c r="BR123" s="33">
+      <c r="BO123" s="32"/>
+      <c r="BP123" s="32"/>
+      <c r="BQ123" s="32"/>
+      <c r="BR123" s="32">
         <v>2017</v>
       </c>
-      <c r="BS123" s="33"/>
-      <c r="BT123" s="33"/>
-      <c r="BU123" s="33"/>
-      <c r="BV123" s="33">
+      <c r="BS123" s="32"/>
+      <c r="BT123" s="32"/>
+      <c r="BU123" s="32"/>
+      <c r="BV123" s="32">
         <v>2018</v>
       </c>
-      <c r="BW123" s="33"/>
-      <c r="BX123" s="33"/>
-      <c r="BY123" s="33"/>
-      <c r="BZ123" s="33">
+      <c r="BW123" s="32"/>
+      <c r="BX123" s="32"/>
+      <c r="BY123" s="32"/>
+      <c r="BZ123" s="32">
         <v>2019</v>
       </c>
-      <c r="CA123" s="33"/>
-      <c r="CB123" s="33"/>
-      <c r="CC123" s="33"/>
-      <c r="CD123" s="32">
+      <c r="CA123" s="32"/>
+      <c r="CB123" s="32"/>
+      <c r="CC123" s="32"/>
+      <c r="CD123" s="31">
         <v>2020</v>
       </c>
-      <c r="CE123" s="32"/>
-      <c r="CF123" s="32"/>
-      <c r="CG123" s="32"/>
-      <c r="CH123" s="32">
+      <c r="CE123" s="31"/>
+      <c r="CF123" s="31"/>
+      <c r="CG123" s="31"/>
+      <c r="CH123" s="31">
         <v>2021</v>
       </c>
-      <c r="CI123" s="32">
-        <v>0</v>
-      </c>
-      <c r="CJ123" s="32"/>
+      <c r="CI123" s="31"/>
+      <c r="CJ123" s="31"/>
+      <c r="CK123" s="31"/>
     </row>
     <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
@@ -40579,6 +40746,9 @@
       </c>
       <c r="CJ124" s="20" t="s">
         <v>10</v>
+      </c>
+      <c r="CK124" s="20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -40590,6 +40760,7 @@
       <c r="CH125" s="19"/>
       <c r="CI125" s="19"/>
       <c r="CJ125" s="19"/>
+      <c r="CK125" s="19"/>
     </row>
     <row r="126" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -40854,9 +41025,11 @@
         <v>16.255645156350138</v>
       </c>
       <c r="CJ126" s="29">
-        <v>14.753054546621758</v>
-      </c>
-      <c r="CK126" s="9"/>
+        <v>14.238476569554104</v>
+      </c>
+      <c r="CK126" s="29">
+        <v>8.4435913039010586</v>
+      </c>
       <c r="CL126" s="9"/>
       <c r="CM126" s="9"/>
       <c r="CN126" s="9"/>
@@ -41186,9 +41359,11 @@
         <v>16.880523525855683</v>
       </c>
       <c r="CJ127" s="29">
-        <v>19.763471026286279</v>
-      </c>
-      <c r="CK127" s="9"/>
+        <v>19.142355184672553</v>
+      </c>
+      <c r="CK127" s="29">
+        <v>28.193454550072595</v>
+      </c>
       <c r="CL127" s="9"/>
       <c r="CM127" s="9"/>
       <c r="CN127" s="9"/>
@@ -41518,9 +41693,11 @@
         <v>19.153291220342016</v>
       </c>
       <c r="CJ128" s="29">
-        <v>19.236889113406754</v>
-      </c>
-      <c r="CK128" s="9"/>
+        <v>18.538232202903298</v>
+      </c>
+      <c r="CK128" s="29">
+        <v>16.274272112541944</v>
+      </c>
       <c r="CL128" s="9"/>
       <c r="CM128" s="9"/>
       <c r="CN128" s="9"/>
@@ -41850,9 +42027,11 @@
         <v>25.507411084083547</v>
       </c>
       <c r="CJ129" s="29">
-        <v>15.915157623788328</v>
-      </c>
-      <c r="CK129" s="9"/>
+        <v>19.409353832711908</v>
+      </c>
+      <c r="CK129" s="29">
+        <v>7.9830163945335038</v>
+      </c>
       <c r="CL129" s="9"/>
       <c r="CM129" s="9"/>
       <c r="CN129" s="9"/>
@@ -42182,9 +42361,11 @@
         <v>4.7185546004188534</v>
       </c>
       <c r="CJ130" s="29">
-        <v>6.5990122333960048</v>
-      </c>
-      <c r="CK130" s="9"/>
+        <v>6.2045390209373732</v>
+      </c>
+      <c r="CK130" s="29">
+        <v>8.220499840592975</v>
+      </c>
       <c r="CL130" s="9"/>
       <c r="CM130" s="9"/>
       <c r="CN130" s="9"/>
@@ -42514,9 +42695,11 @@
         <v>17.48457441294978</v>
       </c>
       <c r="CJ131" s="29">
-        <v>23.732415456500867</v>
-      </c>
-      <c r="CK131" s="9"/>
+        <v>22.467043189220764</v>
+      </c>
+      <c r="CK131" s="29">
+        <v>30.885165798357928</v>
+      </c>
       <c r="CL131" s="9"/>
       <c r="CM131" s="9"/>
       <c r="CN131" s="9"/>
@@ -42671,7 +42854,7 @@
       <c r="CH132" s="22"/>
       <c r="CI132" s="22"/>
       <c r="CJ132" s="22"/>
-      <c r="CK132" s="9"/>
+      <c r="CK132" s="22"/>
       <c r="CL132" s="9"/>
       <c r="CM132" s="9"/>
       <c r="CN132" s="9"/>
@@ -43003,7 +43186,9 @@
       <c r="CJ133" s="29">
         <v>100</v>
       </c>
-      <c r="CK133" s="9"/>
+      <c r="CK133" s="29">
+        <v>100</v>
+      </c>
       <c r="CL133" s="9"/>
       <c r="CM133" s="9"/>
       <c r="CN133" s="9"/>
@@ -43159,6 +43344,7 @@
       <c r="CH134" s="24"/>
       <c r="CI134" s="24"/>
       <c r="CJ134" s="24"/>
+      <c r="CK134" s="24"/>
     </row>
     <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
@@ -43171,6 +43357,7 @@
       <c r="CH135" s="19"/>
       <c r="CI135" s="19"/>
       <c r="CJ135" s="19"/>
+      <c r="CK135" s="19"/>
     </row>
     <row r="136" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="9"/>
@@ -43260,7 +43447,7 @@
       <c r="CH136" s="22"/>
       <c r="CI136" s="22"/>
       <c r="CJ136" s="22"/>
-      <c r="CK136" s="9"/>
+      <c r="CK136" s="22"/>
       <c r="CL136" s="9"/>
       <c r="CM136" s="9"/>
       <c r="CN136" s="9"/>
@@ -43415,7 +43602,7 @@
       <c r="CH137" s="22"/>
       <c r="CI137" s="22"/>
       <c r="CJ137" s="22"/>
-      <c r="CK137" s="9"/>
+      <c r="CK137" s="22"/>
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
       <c r="CN137" s="9"/>
@@ -43493,6 +43680,7 @@
       <c r="CH138" s="19"/>
       <c r="CI138" s="19"/>
       <c r="CJ138" s="19"/>
+      <c r="CK138" s="19"/>
     </row>
     <row r="139" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -43505,6 +43693,7 @@
       <c r="CH139" s="19"/>
       <c r="CI139" s="19"/>
       <c r="CJ139" s="19"/>
+      <c r="CK139" s="19"/>
     </row>
     <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -43517,6 +43706,7 @@
       <c r="CH140" s="19"/>
       <c r="CI140" s="19"/>
       <c r="CJ140" s="19"/>
+      <c r="CK140" s="19"/>
     </row>
     <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD141" s="19"/>
@@ -43526,6 +43716,7 @@
       <c r="CH141" s="19"/>
       <c r="CI141" s="19"/>
       <c r="CJ141" s="19"/>
+      <c r="CK141" s="19"/>
     </row>
     <row r="142" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -43538,6 +43729,7 @@
       <c r="CH142" s="19"/>
       <c r="CI142" s="19"/>
       <c r="CJ142" s="19"/>
+      <c r="CK142" s="19"/>
     </row>
     <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -43550,6 +43742,7 @@
       <c r="CH143" s="19"/>
       <c r="CI143" s="19"/>
       <c r="CJ143" s="19"/>
+      <c r="CK143" s="19"/>
     </row>
     <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -43562,6 +43755,7 @@
       <c r="CH144" s="19"/>
       <c r="CI144" s="19"/>
       <c r="CJ144" s="19"/>
+      <c r="CK144" s="19"/>
     </row>
     <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD145" s="19"/>
@@ -43571,142 +43765,142 @@
       <c r="CH145" s="19"/>
       <c r="CI145" s="19"/>
       <c r="CJ145" s="19"/>
+      <c r="CK145" s="19"/>
     </row>
     <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
-      <c r="B146" s="33">
+      <c r="B146" s="32">
         <v>2000</v>
       </c>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33">
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32">
         <v>2001</v>
       </c>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
-      <c r="I146" s="33"/>
-      <c r="J146" s="33">
+      <c r="G146" s="32"/>
+      <c r="H146" s="32"/>
+      <c r="I146" s="32"/>
+      <c r="J146" s="32">
         <v>2002</v>
       </c>
-      <c r="K146" s="33"/>
-      <c r="L146" s="33"/>
-      <c r="M146" s="33"/>
-      <c r="N146" s="33">
+      <c r="K146" s="32"/>
+      <c r="L146" s="32"/>
+      <c r="M146" s="32"/>
+      <c r="N146" s="32">
         <v>2003</v>
       </c>
-      <c r="O146" s="33"/>
-      <c r="P146" s="33"/>
-      <c r="Q146" s="33"/>
-      <c r="R146" s="33">
+      <c r="O146" s="32"/>
+      <c r="P146" s="32"/>
+      <c r="Q146" s="32"/>
+      <c r="R146" s="32">
         <v>2004</v>
       </c>
-      <c r="S146" s="33"/>
-      <c r="T146" s="33"/>
-      <c r="U146" s="33"/>
-      <c r="V146" s="33">
+      <c r="S146" s="32"/>
+      <c r="T146" s="32"/>
+      <c r="U146" s="32"/>
+      <c r="V146" s="32">
         <v>2005</v>
       </c>
-      <c r="W146" s="33"/>
-      <c r="X146" s="33"/>
-      <c r="Y146" s="33"/>
-      <c r="Z146" s="33">
+      <c r="W146" s="32"/>
+      <c r="X146" s="32"/>
+      <c r="Y146" s="32"/>
+      <c r="Z146" s="32">
         <v>2006</v>
       </c>
-      <c r="AA146" s="33"/>
-      <c r="AB146" s="33"/>
-      <c r="AC146" s="33"/>
-      <c r="AD146" s="33">
+      <c r="AA146" s="32"/>
+      <c r="AB146" s="32"/>
+      <c r="AC146" s="32"/>
+      <c r="AD146" s="32">
         <v>2007</v>
       </c>
-      <c r="AE146" s="33"/>
-      <c r="AF146" s="33"/>
-      <c r="AG146" s="33"/>
-      <c r="AH146" s="33">
+      <c r="AE146" s="32"/>
+      <c r="AF146" s="32"/>
+      <c r="AG146" s="32"/>
+      <c r="AH146" s="32">
         <v>2008</v>
       </c>
-      <c r="AI146" s="33"/>
-      <c r="AJ146" s="33"/>
-      <c r="AK146" s="33"/>
-      <c r="AL146" s="33">
+      <c r="AI146" s="32"/>
+      <c r="AJ146" s="32"/>
+      <c r="AK146" s="32"/>
+      <c r="AL146" s="32">
         <v>2009</v>
       </c>
-      <c r="AM146" s="33"/>
-      <c r="AN146" s="33"/>
-      <c r="AO146" s="33"/>
-      <c r="AP146" s="33">
+      <c r="AM146" s="32"/>
+      <c r="AN146" s="32"/>
+      <c r="AO146" s="32"/>
+      <c r="AP146" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ146" s="33"/>
-      <c r="AR146" s="33"/>
-      <c r="AS146" s="33"/>
-      <c r="AT146" s="33">
+      <c r="AQ146" s="32"/>
+      <c r="AR146" s="32"/>
+      <c r="AS146" s="32"/>
+      <c r="AT146" s="32">
         <v>2011</v>
       </c>
-      <c r="AU146" s="33"/>
-      <c r="AV146" s="33"/>
-      <c r="AW146" s="33"/>
-      <c r="AX146" s="33">
+      <c r="AU146" s="32"/>
+      <c r="AV146" s="32"/>
+      <c r="AW146" s="32"/>
+      <c r="AX146" s="32">
         <v>2012</v>
       </c>
-      <c r="AY146" s="33"/>
-      <c r="AZ146" s="33"/>
-      <c r="BA146" s="33"/>
-      <c r="BB146" s="33">
+      <c r="AY146" s="32"/>
+      <c r="AZ146" s="32"/>
+      <c r="BA146" s="32"/>
+      <c r="BB146" s="32">
         <v>2013</v>
       </c>
-      <c r="BC146" s="33"/>
-      <c r="BD146" s="33"/>
-      <c r="BE146" s="33"/>
-      <c r="BF146" s="33">
+      <c r="BC146" s="32"/>
+      <c r="BD146" s="32"/>
+      <c r="BE146" s="32"/>
+      <c r="BF146" s="32">
         <v>2014</v>
       </c>
-      <c r="BG146" s="33"/>
-      <c r="BH146" s="33"/>
-      <c r="BI146" s="33"/>
-      <c r="BJ146" s="33">
+      <c r="BG146" s="32"/>
+      <c r="BH146" s="32"/>
+      <c r="BI146" s="32"/>
+      <c r="BJ146" s="32">
         <v>2015</v>
       </c>
-      <c r="BK146" s="33"/>
-      <c r="BL146" s="33"/>
-      <c r="BM146" s="33"/>
-      <c r="BN146" s="33">
+      <c r="BK146" s="32"/>
+      <c r="BL146" s="32"/>
+      <c r="BM146" s="32"/>
+      <c r="BN146" s="32">
         <v>2016</v>
       </c>
-      <c r="BO146" s="33"/>
-      <c r="BP146" s="33"/>
-      <c r="BQ146" s="33"/>
-      <c r="BR146" s="33">
+      <c r="BO146" s="32"/>
+      <c r="BP146" s="32"/>
+      <c r="BQ146" s="32"/>
+      <c r="BR146" s="32">
         <v>2017</v>
       </c>
-      <c r="BS146" s="33"/>
-      <c r="BT146" s="33"/>
-      <c r="BU146" s="33"/>
-      <c r="BV146" s="33">
+      <c r="BS146" s="32"/>
+      <c r="BT146" s="32"/>
+      <c r="BU146" s="32"/>
+      <c r="BV146" s="32">
         <v>2018</v>
       </c>
-      <c r="BW146" s="33"/>
-      <c r="BX146" s="33"/>
-      <c r="BY146" s="33"/>
-      <c r="BZ146" s="33">
+      <c r="BW146" s="32"/>
+      <c r="BX146" s="32"/>
+      <c r="BY146" s="32"/>
+      <c r="BZ146" s="32">
         <v>2019</v>
       </c>
-      <c r="CA146" s="33"/>
-      <c r="CB146" s="33"/>
-      <c r="CC146" s="33"/>
-      <c r="CD146" s="32">
+      <c r="CA146" s="32"/>
+      <c r="CB146" s="32"/>
+      <c r="CC146" s="32"/>
+      <c r="CD146" s="31">
         <v>2020</v>
       </c>
-      <c r="CE146" s="32"/>
-      <c r="CF146" s="32"/>
-      <c r="CG146" s="32"/>
-      <c r="CH146" s="32">
+      <c r="CE146" s="31"/>
+      <c r="CF146" s="31"/>
+      <c r="CG146" s="31"/>
+      <c r="CH146" s="31">
         <v>2021</v>
       </c>
-      <c r="CI146" s="32">
-        <v>0</v>
-      </c>
-      <c r="CJ146" s="32"/>
+      <c r="CI146" s="31"/>
+      <c r="CJ146" s="31"/>
+      <c r="CK146" s="31"/>
     </row>
     <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
@@ -43972,6 +44166,9 @@
       </c>
       <c r="CJ147" s="20" t="s">
         <v>10</v>
+      </c>
+      <c r="CK147" s="20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -43983,6 +44180,7 @@
       <c r="CH148" s="19"/>
       <c r="CI148" s="19"/>
       <c r="CJ148" s="19"/>
+      <c r="CK148" s="19"/>
     </row>
     <row r="149" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
@@ -44247,9 +44445,11 @@
         <v>17.908742492942569</v>
       </c>
       <c r="CJ149" s="29">
-        <v>7.6333153866636643</v>
-      </c>
-      <c r="CK149" s="9"/>
+        <v>7.4534201792506316</v>
+      </c>
+      <c r="CK149" s="29">
+        <v>9.489728297244211</v>
+      </c>
       <c r="CL149" s="9"/>
       <c r="CM149" s="9"/>
       <c r="CN149" s="9"/>
@@ -44579,9 +44779,11 @@
         <v>31.287150348847238</v>
       </c>
       <c r="CJ150" s="29">
-        <v>15.134407132865563</v>
-      </c>
-      <c r="CK150" s="9"/>
+        <v>14.769598757022329</v>
+      </c>
+      <c r="CK150" s="29">
+        <v>17.566033831718801</v>
+      </c>
       <c r="CL150" s="9"/>
       <c r="CM150" s="9"/>
       <c r="CN150" s="9"/>
@@ -44911,9 +45113,11 @@
         <v>11.697979130722738</v>
       </c>
       <c r="CJ151" s="29">
-        <v>18.767108746601508</v>
-      </c>
-      <c r="CK151" s="9"/>
+        <v>18.324822171306678</v>
+      </c>
+      <c r="CK151" s="29">
+        <v>14.784797165256199</v>
+      </c>
       <c r="CL151" s="9"/>
       <c r="CM151" s="9"/>
       <c r="CN151" s="9"/>
@@ -45243,9 +45447,11 @@
         <v>21.359530811124053</v>
       </c>
       <c r="CJ152" s="29">
-        <v>23.127841382947068</v>
-      </c>
-      <c r="CK152" s="9"/>
+        <v>24.778041400524511</v>
+      </c>
+      <c r="CK152" s="29">
+        <v>5.6680581092609454</v>
+      </c>
       <c r="CL152" s="9"/>
       <c r="CM152" s="9"/>
       <c r="CN152" s="9"/>
@@ -45575,9 +45781,11 @@
         <v>2.01423281160096</v>
       </c>
       <c r="CJ153" s="29">
-        <v>4.7222888879915317</v>
-      </c>
-      <c r="CK153" s="9"/>
+        <v>4.6109981714499755</v>
+      </c>
+      <c r="CK153" s="29">
+        <v>2.8031228084291402</v>
+      </c>
       <c r="CL153" s="9"/>
       <c r="CM153" s="9"/>
       <c r="CN153" s="9"/>
@@ -45907,9 +46115,11 @@
         <v>15.732364404762444</v>
       </c>
       <c r="CJ154" s="29">
-        <v>30.61503846293067</v>
-      </c>
-      <c r="CK154" s="9"/>
+        <v>30.063119320445875</v>
+      </c>
+      <c r="CK154" s="29">
+        <v>49.688259788090711</v>
+      </c>
       <c r="CL154" s="9"/>
       <c r="CM154" s="9"/>
       <c r="CN154" s="9"/>
@@ -46064,7 +46274,7 @@
       <c r="CH155" s="22"/>
       <c r="CI155" s="22"/>
       <c r="CJ155" s="22"/>
-      <c r="CK155" s="9"/>
+      <c r="CK155" s="22"/>
       <c r="CL155" s="9"/>
       <c r="CM155" s="9"/>
       <c r="CN155" s="9"/>
@@ -46396,7 +46606,9 @@
       <c r="CJ156" s="29">
         <v>100</v>
       </c>
-      <c r="CK156" s="9"/>
+      <c r="CK156" s="29">
+        <v>100</v>
+      </c>
       <c r="CL156" s="9"/>
       <c r="CM156" s="9"/>
       <c r="CN156" s="9"/>
@@ -46552,6 +46764,7 @@
       <c r="CH157" s="24"/>
       <c r="CI157" s="24"/>
       <c r="CJ157" s="24"/>
+      <c r="CK157" s="24"/>
     </row>
     <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
@@ -46564,6 +46777,7 @@
       <c r="CH158" s="19"/>
       <c r="CI158" s="19"/>
       <c r="CJ158" s="19"/>
+      <c r="CK158" s="19"/>
     </row>
     <row r="159" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
@@ -46638,7 +46852,6 @@
       <c r="BS159" s="9"/>
       <c r="BT159" s="9"/>
       <c r="BU159" s="9"/>
-      <c r="CK159" s="9"/>
       <c r="CL159" s="9"/>
       <c r="CM159" s="9"/>
       <c r="CN159" s="9"/>
@@ -46773,7 +46986,6 @@
       <c r="BS160" s="9"/>
       <c r="BT160" s="9"/>
       <c r="BU160" s="9"/>
-      <c r="CK160" s="9"/>
       <c r="CL160" s="9"/>
       <c r="CM160" s="9"/>
       <c r="CN160" s="9"/>
@@ -46965,13 +47177,13 @@
     <mergeCell ref="AX146:BA146"/>
     <mergeCell ref="BB146:BE146"/>
     <mergeCell ref="BF123:BI123"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH32:CJ32"/>
-    <mergeCell ref="CD55:CF55"/>
-    <mergeCell ref="CD78:CF78"/>
-    <mergeCell ref="CH100:CJ100"/>
-    <mergeCell ref="CH123:CJ123"/>
-    <mergeCell ref="CH146:CJ146"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH32:CK32"/>
+    <mergeCell ref="CD55:CG55"/>
+    <mergeCell ref="CD78:CG78"/>
+    <mergeCell ref="CH100:CK100"/>
+    <mergeCell ref="CH123:CK123"/>
+    <mergeCell ref="CH146:CK146"/>
     <mergeCell ref="B123:E123"/>
     <mergeCell ref="F123:I123"/>
     <mergeCell ref="J123:M123"/>
@@ -46991,56 +47203,71 @@
     <mergeCell ref="Z146:AC146"/>
   </mergeCells>
   <conditionalFormatting sqref="BR58:BU65 BR81:BU88 BR103:BU110">
-    <cfRule type="cellIs" dxfId="10" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="48" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV58:BY65 BV81:BY88 BV103:BY110">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA103:CC110">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="25" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ103:BZ110">
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ58:CC65">
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="24" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ81:CC88">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD103:CE110 CH103:CI110">
+  <conditionalFormatting sqref="CD103:CE110">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CF103:CG110">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH103:CI110">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH58:CJ65">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD58:CF65">
+  <conditionalFormatting sqref="CH81:CJ88">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD81:CF88">
+  <conditionalFormatting sqref="CJ103:CK110">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF103:CG110">
+  <conditionalFormatting sqref="CD58:CG65">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ103:CJ110">
+  <conditionalFormatting sqref="CD81:CG88">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -47050,9 +47277,9 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="86" man="1"/>
-    <brk id="92" max="86" man="1"/>
-    <brk id="114" max="86" man="1"/>
+    <brk id="46" max="88" man="1"/>
+    <brk id="92" max="88" man="1"/>
+    <brk id="114" max="88" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="56" max="159" man="1"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Time Series\2022\As of May 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B4200-98EA-4EEF-9CAF-2BB67E8C511A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="3" r:id="rId1"/>
@@ -322,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CK$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CL$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -629,23 +630,26 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2021</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2021</t>
+    <t>Q1 2000 to Q1 2022</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -730,9 +734,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -747,39 +751,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -793,11 +800,46 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -23476,7 +23518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -23528,7 +23570,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -23729,30 +23771,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EX160"/>
+  <dimension ref="A1:EX163"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A34" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BO1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CH68" sqref="CH68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="81" width="8" style="10" customWidth="1"/>
-    <col min="82" max="89" width="9.54296875" style="28" customWidth="1"/>
-    <col min="90" max="16384" width="7.81640625" style="10"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="77" width="8" style="10" customWidth="1"/>
+    <col min="78" max="90" width="8" style="27" customWidth="1"/>
+    <col min="91" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ1" s="19"/>
+      <c r="CA1" s="19"/>
+      <c r="CB1" s="19"/>
+      <c r="CC1" s="19"/>
       <c r="CD1" s="19"/>
       <c r="CE1" s="19"/>
       <c r="CF1" s="19"/>
@@ -23761,11 +23807,16 @@
       <c r="CI1" s="19"/>
       <c r="CJ1" s="19"/>
       <c r="CK1" s="19"/>
+      <c r="CL1" s="19"/>
     </row>
-    <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="BZ2" s="19"/>
+      <c r="CA2" s="19"/>
+      <c r="CB2" s="19"/>
+      <c r="CC2" s="19"/>
       <c r="CD2" s="19"/>
       <c r="CE2" s="19"/>
       <c r="CF2" s="19"/>
@@ -23774,11 +23825,16 @@
       <c r="CI2" s="19"/>
       <c r="CJ2" s="19"/>
       <c r="CK2" s="19"/>
+      <c r="CL2" s="19"/>
     </row>
-    <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="BZ3" s="19"/>
+      <c r="CA3" s="19"/>
+      <c r="CB3" s="19"/>
+      <c r="CC3" s="19"/>
       <c r="CD3" s="19"/>
       <c r="CE3" s="19"/>
       <c r="CF3" s="19"/>
@@ -23787,8 +23843,13 @@
       <c r="CI3" s="19"/>
       <c r="CJ3" s="19"/>
       <c r="CK3" s="19"/>
+      <c r="CL3" s="19"/>
     </row>
-    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ4" s="19"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19"/>
+      <c r="CC4" s="19"/>
       <c r="CD4" s="19"/>
       <c r="CE4" s="19"/>
       <c r="CF4" s="19"/>
@@ -23797,11 +23858,16 @@
       <c r="CI4" s="19"/>
       <c r="CJ4" s="19"/>
       <c r="CK4" s="19"/>
+      <c r="CL4" s="19"/>
     </row>
-    <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="BZ5" s="19"/>
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19"/>
+      <c r="CC5" s="19"/>
       <c r="CD5" s="19"/>
       <c r="CE5" s="19"/>
       <c r="CF5" s="19"/>
@@ -23810,11 +23876,16 @@
       <c r="CI5" s="19"/>
       <c r="CJ5" s="19"/>
       <c r="CK5" s="19"/>
+      <c r="CL5" s="19"/>
     </row>
-    <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="BZ6" s="19"/>
+      <c r="CA6" s="19"/>
+      <c r="CB6" s="19"/>
+      <c r="CC6" s="19"/>
       <c r="CD6" s="19"/>
       <c r="CE6" s="19"/>
       <c r="CF6" s="19"/>
@@ -23823,11 +23894,16 @@
       <c r="CI6" s="19"/>
       <c r="CJ6" s="19"/>
       <c r="CK6" s="19"/>
+      <c r="CL6" s="19"/>
     </row>
-    <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="BZ7" s="19"/>
+      <c r="CA7" s="19"/>
+      <c r="CB7" s="19"/>
+      <c r="CC7" s="19"/>
       <c r="CD7" s="19"/>
       <c r="CE7" s="19"/>
       <c r="CF7" s="19"/>
@@ -23836,8 +23912,13 @@
       <c r="CI7" s="19"/>
       <c r="CJ7" s="19"/>
       <c r="CK7" s="19"/>
+      <c r="CL7" s="19"/>
     </row>
-    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ8" s="19"/>
+      <c r="CA8" s="19"/>
+      <c r="CB8" s="19"/>
+      <c r="CC8" s="19"/>
       <c r="CD8" s="19"/>
       <c r="CE8" s="19"/>
       <c r="CF8" s="19"/>
@@ -23846,143 +23927,147 @@
       <c r="CI8" s="19"/>
       <c r="CJ8" s="19"/>
       <c r="CK8" s="19"/>
+      <c r="CL8" s="19"/>
     </row>
-    <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="32">
+      <c r="B9" s="33">
         <v>2000</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>2001</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>2002</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33">
         <v>2003</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32">
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33">
         <v>2004</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32">
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>2005</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33">
         <v>2006</v>
       </c>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32">
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33">
         <v>2007</v>
       </c>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33">
         <v>2008</v>
       </c>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32">
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33">
         <v>2009</v>
       </c>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32">
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33">
         <v>2011</v>
       </c>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32">
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33">
         <v>2012</v>
       </c>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32">
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33">
         <v>2013</v>
       </c>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32">
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33">
         <v>2014</v>
       </c>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32">
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33">
         <v>2015</v>
       </c>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32">
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33">
         <v>2016</v>
       </c>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32">
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33">
         <v>2017</v>
       </c>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="32"/>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="32">
+      <c r="BS9" s="33"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="33">
         <v>2018</v>
       </c>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="32"/>
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="33"/>
+      <c r="BY9" s="33"/>
       <c r="BZ9" s="32">
         <v>2019</v>
       </c>
       <c r="CA9" s="32"/>
       <c r="CB9" s="32"/>
       <c r="CC9" s="32"/>
-      <c r="CD9" s="31">
+      <c r="CD9" s="32">
         <v>2020</v>
       </c>
-      <c r="CE9" s="31"/>
-      <c r="CF9" s="31"/>
-      <c r="CG9" s="31"/>
-      <c r="CH9" s="31">
+      <c r="CE9" s="32"/>
+      <c r="CF9" s="32"/>
+      <c r="CG9" s="32"/>
+      <c r="CH9" s="32">
         <v>2021</v>
       </c>
-      <c r="CI9" s="31"/>
-      <c r="CJ9" s="31"/>
-      <c r="CK9" s="31"/>
+      <c r="CI9" s="32"/>
+      <c r="CJ9" s="32"/>
+      <c r="CK9" s="32"/>
+      <c r="CL9" s="31">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24214,16 +24299,16 @@
       <c r="BY10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="6" t="s">
+      <c r="BZ10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="6" t="s">
+      <c r="CA10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="6" t="s">
+      <c r="CB10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="6" t="s">
+      <c r="CC10" s="20" t="s">
         <v>9</v>
       </c>
       <c r="CD10" s="20" t="s">
@@ -24250,9 +24335,16 @@
       <c r="CK10" s="20" t="s">
         <v>9</v>
       </c>
+      <c r="CL10" s="20" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
+      <c r="BZ11" s="19"/>
+      <c r="CA11" s="19"/>
+      <c r="CB11" s="19"/>
+      <c r="CC11" s="19"/>
       <c r="CD11" s="19"/>
       <c r="CE11" s="19"/>
       <c r="CF11" s="19"/>
@@ -24261,8 +24353,9 @@
       <c r="CI11" s="19"/>
       <c r="CJ11" s="19"/>
       <c r="CK11" s="19"/>
+      <c r="CL11" s="19"/>
     </row>
-    <row r="12" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24494,20 +24587,20 @@
       <c r="BY12" s="8">
         <v>3413.9979416093834</v>
       </c>
-      <c r="BZ12" s="8">
+      <c r="BZ12" s="21">
         <v>4454.9919389999995</v>
       </c>
-      <c r="CA12" s="8">
+      <c r="CA12" s="21">
         <v>6211.0675205265252</v>
       </c>
-      <c r="CB12" s="8">
+      <c r="CB12" s="21">
         <v>4305.5234738111703</v>
       </c>
-      <c r="CC12" s="8">
+      <c r="CC12" s="21">
         <v>1959.7943747016132</v>
       </c>
       <c r="CD12" s="21">
-        <v>2483.890658043576</v>
+        <v>2483.8906580435751</v>
       </c>
       <c r="CE12" s="21">
         <v>4027.632455932488</v>
@@ -24516,21 +24609,23 @@
         <v>3119.4689716842854</v>
       </c>
       <c r="CG12" s="21">
-        <v>1528.6363025179619</v>
+        <v>1526.2165795598621</v>
       </c>
       <c r="CH12" s="21">
-        <v>4282.4307130630841</v>
+        <v>4298.6669128508729</v>
       </c>
       <c r="CI12" s="21">
-        <v>7397.8127227129307</v>
+        <v>7398.8928434943109</v>
       </c>
       <c r="CJ12" s="21">
-        <v>6548.8203398110809</v>
+        <v>6602.5674383594614</v>
       </c>
       <c r="CK12" s="21">
-        <v>3934.8093069781885</v>
-      </c>
-      <c r="CL12" s="9"/>
+        <v>5384.5076081224979</v>
+      </c>
+      <c r="CL12" s="21">
+        <v>19569.73985277057</v>
+      </c>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
       <c r="CO12" s="9"/>
@@ -24596,7 +24691,7 @@
       <c r="EW12" s="9"/>
       <c r="EX12" s="9"/>
     </row>
-    <row r="13" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24828,16 +24923,16 @@
       <c r="BY13" s="8">
         <v>10779.991704759663</v>
       </c>
-      <c r="BZ13" s="8">
+      <c r="BZ13" s="21">
         <v>10100.199167357752</v>
       </c>
-      <c r="CA13" s="8">
+      <c r="CA13" s="21">
         <v>10822.803328</v>
       </c>
-      <c r="CB13" s="8">
+      <c r="CB13" s="21">
         <v>7010.0687939999998</v>
       </c>
-      <c r="CC13" s="8">
+      <c r="CC13" s="21">
         <v>9369.7032996939015</v>
       </c>
       <c r="CD13" s="21">
@@ -24856,15 +24951,17 @@
         <v>7699.8596182378133</v>
       </c>
       <c r="CI13" s="21">
-        <v>7682.1898180305152</v>
+        <v>7764.587688842129</v>
       </c>
       <c r="CJ13" s="21">
-        <v>8804.3018066501972</v>
+        <v>8891.5713159023253</v>
       </c>
       <c r="CK13" s="21">
-        <v>13138.469564276311</v>
-      </c>
-      <c r="CL13" s="9"/>
+        <v>10837.160110547225</v>
+      </c>
+      <c r="CL13" s="21">
+        <v>10880.232936133716</v>
+      </c>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
       <c r="CO13" s="9"/>
@@ -24930,7 +25027,7 @@
       <c r="EW13" s="9"/>
       <c r="EX13" s="9"/>
     </row>
-    <row r="14" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -25162,43 +25259,45 @@
       <c r="BY14" s="8">
         <v>5516.228135017107</v>
       </c>
-      <c r="BZ14" s="8">
+      <c r="BZ14" s="21">
         <v>7161.2744120017987</v>
       </c>
-      <c r="CA14" s="8">
+      <c r="CA14" s="21">
         <v>7245.9516219999996</v>
       </c>
-      <c r="CB14" s="8">
+      <c r="CB14" s="21">
         <v>6865.5985869999995</v>
       </c>
-      <c r="CC14" s="8">
+      <c r="CC14" s="21">
         <v>5597.2428047479962</v>
       </c>
       <c r="CD14" s="21">
-        <v>6662.2051125622229</v>
+        <v>6662.1925986170727</v>
       </c>
       <c r="CE14" s="21">
-        <v>8223.3180168370818</v>
+        <v>8195.2215592912289</v>
       </c>
       <c r="CF14" s="21">
-        <v>8330.4194537300955</v>
+        <v>9346.121991699225</v>
       </c>
       <c r="CG14" s="21">
-        <v>8048.733835800118</v>
+        <v>8050.431997065336</v>
       </c>
       <c r="CH14" s="21">
-        <v>8218.0682822015697</v>
+        <v>8116.4528061324354</v>
       </c>
       <c r="CI14" s="21">
-        <v>8716.508025910065</v>
+        <v>10140.451415345182</v>
       </c>
       <c r="CJ14" s="21">
-        <v>8526.442525045768</v>
+        <v>9562.0237566231626</v>
       </c>
       <c r="CK14" s="21">
-        <v>7583.9953721042857</v>
-      </c>
-      <c r="CL14" s="9"/>
+        <v>9087.7522723670445</v>
+      </c>
+      <c r="CL14" s="21">
+        <v>10267.252180193067</v>
+      </c>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
@@ -25264,7 +25363,7 @@
       <c r="EW14" s="9"/>
       <c r="EX14" s="9"/>
     </row>
-    <row r="15" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -25496,43 +25595,45 @@
       <c r="BY15" s="8">
         <v>961.94272805159767</v>
       </c>
-      <c r="BZ15" s="8">
+      <c r="BZ15" s="21">
         <v>4384.275826527648</v>
       </c>
-      <c r="CA15" s="8">
+      <c r="CA15" s="21">
         <v>7976.4271108528137</v>
       </c>
-      <c r="CB15" s="8">
+      <c r="CB15" s="21">
         <v>6082.0581140000013</v>
       </c>
-      <c r="CC15" s="8">
+      <c r="CC15" s="21">
         <v>1596.8662211683732</v>
       </c>
       <c r="CD15" s="21">
-        <v>3762.8843454371536</v>
+        <v>3769.130025031528</v>
       </c>
       <c r="CE15" s="21">
-        <v>7529.439009533332</v>
+        <v>7554.4398255262113</v>
       </c>
       <c r="CF15" s="21">
-        <v>5851.1334058179018</v>
+        <v>5960.9023409646052</v>
       </c>
       <c r="CG15" s="21">
-        <v>2897.181586870423</v>
+        <v>2782.8656619720246</v>
       </c>
       <c r="CH15" s="21">
-        <v>7733.200967622688</v>
+        <v>8488.7192651800997</v>
       </c>
       <c r="CI15" s="21">
-        <v>11608.216618064422</v>
+        <v>13090.474540780364</v>
       </c>
       <c r="CJ15" s="21">
-        <v>8927.104704027648</v>
+        <v>9223.919795359312</v>
       </c>
       <c r="CK15" s="21">
-        <v>3720.176175800606</v>
-      </c>
-      <c r="CL15" s="9"/>
+        <v>2849.4849907710618</v>
+      </c>
+      <c r="CL15" s="21">
+        <v>9742.7781903281466</v>
+      </c>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
@@ -25598,7 +25699,7 @@
       <c r="EW15" s="9"/>
       <c r="EX15" s="9"/>
     </row>
-    <row r="16" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -25830,43 +25931,45 @@
       <c r="BY16" s="8">
         <v>3066.1471604327398</v>
       </c>
-      <c r="BZ16" s="8">
+      <c r="BZ16" s="21">
         <v>2669.9058449999984</v>
       </c>
-      <c r="CA16" s="8">
+      <c r="CA16" s="21">
         <v>2571.8843919999995</v>
       </c>
-      <c r="CB16" s="8">
+      <c r="CB16" s="21">
         <v>2366.3566069999997</v>
       </c>
-      <c r="CC16" s="8">
+      <c r="CC16" s="21">
         <v>2620.1412887200363</v>
       </c>
       <c r="CD16" s="21">
         <v>1381.0105285755335</v>
       </c>
       <c r="CE16" s="21">
-        <v>1819.9426058308945</v>
+        <v>1819.83522926656</v>
       </c>
       <c r="CF16" s="21">
         <v>2353.7338989024793</v>
       </c>
       <c r="CG16" s="21">
-        <v>3294.111315323451</v>
+        <v>3294.1553325200161</v>
       </c>
       <c r="CH16" s="21">
-        <v>1229.3838088797952</v>
+        <v>1246.3429581549503</v>
       </c>
       <c r="CI16" s="21">
-        <v>2147.3760604424911</v>
+        <v>2147.2493653132246</v>
       </c>
       <c r="CJ16" s="21">
         <v>2853.7049691362208</v>
       </c>
       <c r="CK16" s="21">
-        <v>3830.8461549807125</v>
-      </c>
-      <c r="CL16" s="9"/>
+        <v>4553.8486237951893</v>
+      </c>
+      <c r="CL16" s="21">
+        <v>2438.1708431438506</v>
+      </c>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
@@ -25932,7 +26035,7 @@
       <c r="EW16" s="9"/>
       <c r="EX16" s="9"/>
     </row>
-    <row r="17" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -26164,20 +26267,20 @@
       <c r="BY17" s="8">
         <v>14791.356016425587</v>
       </c>
-      <c r="BZ17" s="8">
+      <c r="BZ17" s="21">
         <v>13916.247992411645</v>
       </c>
-      <c r="CA17" s="8">
+      <c r="CA17" s="21">
         <v>10358.729522924432</v>
       </c>
-      <c r="CB17" s="8">
+      <c r="CB17" s="21">
         <v>10559.020823663737</v>
       </c>
-      <c r="CC17" s="8">
+      <c r="CC17" s="21">
         <v>15450.240006454096</v>
       </c>
       <c r="CD17" s="21">
-        <v>13215.210819108879</v>
+        <v>13214.890931823138</v>
       </c>
       <c r="CE17" s="21">
         <v>6128.0222538936814</v>
@@ -26186,21 +26289,23 @@
         <v>8639.9516950968955</v>
       </c>
       <c r="CG17" s="21">
-        <v>14207.627086029728</v>
+        <v>14216.149380776653</v>
       </c>
       <c r="CH17" s="21">
-        <v>12598.520105493759</v>
+        <v>12508.896456119282</v>
       </c>
       <c r="CI17" s="21">
-        <v>7957.0884944429436</v>
+        <v>7989.1024856563126</v>
       </c>
       <c r="CJ17" s="21">
-        <v>10333.453069522493</v>
+        <v>10374.522090799132</v>
       </c>
       <c r="CK17" s="21">
-        <v>14392.837532863046</v>
-      </c>
-      <c r="CL17" s="9"/>
+        <v>14173.260271071093</v>
+      </c>
+      <c r="CL17" s="21">
+        <v>14902.994506094863</v>
+      </c>
       <c r="CM17" s="9"/>
       <c r="CN17" s="9"/>
       <c r="CO17" s="9"/>
@@ -26266,7 +26371,7 @@
       <c r="EW17" s="9"/>
       <c r="EX17" s="9"/>
     </row>
-    <row r="18" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -26343,10 +26448,10 @@
       <c r="BW18" s="9"/>
       <c r="BX18" s="9"/>
       <c r="BY18" s="9"/>
-      <c r="BZ18" s="9"/>
-      <c r="CA18" s="9"/>
-      <c r="CB18" s="9"/>
-      <c r="CC18" s="9"/>
+      <c r="BZ18" s="22"/>
+      <c r="CA18" s="22"/>
+      <c r="CB18" s="22"/>
+      <c r="CC18" s="22"/>
       <c r="CD18" s="22"/>
       <c r="CE18" s="22"/>
       <c r="CF18" s="22"/>
@@ -26355,7 +26460,7 @@
       <c r="CI18" s="22"/>
       <c r="CJ18" s="22"/>
       <c r="CK18" s="22"/>
-      <c r="CL18" s="9"/>
+      <c r="CL18" s="22"/>
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
       <c r="CO18" s="9"/>
@@ -26421,7 +26526,7 @@
       <c r="EW18" s="9"/>
       <c r="EX18" s="9"/>
     </row>
-    <row r="19" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -26653,43 +26758,45 @@
       <c r="BY19" s="12">
         <v>38529.663686296073</v>
       </c>
-      <c r="BZ19" s="12">
+      <c r="BZ19" s="23">
         <v>42686.895182298838</v>
       </c>
-      <c r="CA19" s="12">
+      <c r="CA19" s="23">
         <v>45186.863496303769</v>
       </c>
-      <c r="CB19" s="12">
+      <c r="CB19" s="23">
         <v>37188.626399474917</v>
       </c>
-      <c r="CC19" s="12">
+      <c r="CC19" s="23">
         <v>36593.987995486015</v>
       </c>
       <c r="CD19" s="23">
-        <v>33531.531129712312</v>
+        <v>33537.444408075797</v>
       </c>
       <c r="CE19" s="23">
-        <v>32450.399630145344</v>
+        <v>32447.196612028041</v>
       </c>
       <c r="CF19" s="23">
-        <v>32904.323070578779</v>
+        <v>34029.794543694617</v>
       </c>
       <c r="CG19" s="23">
-        <v>37152.350935241127</v>
+        <v>37045.879760593336</v>
       </c>
       <c r="CH19" s="23">
-        <v>41761.463495498712</v>
+        <v>42358.938016675456</v>
       </c>
       <c r="CI19" s="23">
-        <v>45509.19173960336</v>
+        <v>48530.75833943153</v>
       </c>
       <c r="CJ19" s="23">
-        <v>45993.827414193409</v>
+        <v>47508.309366179608</v>
       </c>
       <c r="CK19" s="23">
-        <v>46601.134107003149</v>
-      </c>
-      <c r="CL19" s="9"/>
+        <v>46886.013876674115</v>
+      </c>
+      <c r="CL19" s="23">
+        <v>67801.16850866421</v>
+      </c>
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
       <c r="CO19" s="9"/>
@@ -26755,7 +26862,7 @@
       <c r="EW19" s="9"/>
       <c r="EX19" s="9"/>
     </row>
-    <row r="20" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -26833,10 +26940,10 @@
       <c r="BW20" s="13"/>
       <c r="BX20" s="13"/>
       <c r="BY20" s="13"/>
-      <c r="BZ20" s="13"/>
-      <c r="CA20" s="13"/>
-      <c r="CB20" s="13"/>
-      <c r="CC20" s="13"/>
+      <c r="BZ20" s="24"/>
+      <c r="CA20" s="24"/>
+      <c r="CB20" s="24"/>
+      <c r="CC20" s="24"/>
       <c r="CD20" s="24"/>
       <c r="CE20" s="24"/>
       <c r="CF20" s="24"/>
@@ -26845,11 +26952,16 @@
       <c r="CI20" s="24"/>
       <c r="CJ20" s="24"/>
       <c r="CK20" s="24"/>
+      <c r="CL20" s="24"/>
     </row>
-    <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="BZ21" s="19"/>
+      <c r="CA21" s="19"/>
+      <c r="CB21" s="19"/>
+      <c r="CC21" s="19"/>
       <c r="CD21" s="19"/>
       <c r="CE21" s="19"/>
       <c r="CF21" s="19"/>
@@ -26858,8 +26970,9 @@
       <c r="CI21" s="19"/>
       <c r="CJ21" s="19"/>
       <c r="CK21" s="19"/>
+      <c r="CL21" s="19"/>
     </row>
-    <row r="22" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -26936,10 +27049,10 @@
       <c r="BW22" s="9"/>
       <c r="BX22" s="9"/>
       <c r="BY22" s="9"/>
-      <c r="BZ22" s="9"/>
-      <c r="CA22" s="9"/>
-      <c r="CB22" s="9"/>
-      <c r="CC22" s="9"/>
+      <c r="BZ22" s="22"/>
+      <c r="CA22" s="22"/>
+      <c r="CB22" s="22"/>
+      <c r="CC22" s="22"/>
       <c r="CD22" s="22"/>
       <c r="CE22" s="22"/>
       <c r="CF22" s="22"/>
@@ -26948,7 +27061,7 @@
       <c r="CI22" s="22"/>
       <c r="CJ22" s="22"/>
       <c r="CK22" s="22"/>
-      <c r="CL22" s="9"/>
+      <c r="CL22" s="22"/>
       <c r="CM22" s="9"/>
       <c r="CN22" s="9"/>
       <c r="CO22" s="9"/>
@@ -27014,7 +27127,7 @@
       <c r="EW22" s="9"/>
       <c r="EX22" s="9"/>
     </row>
-    <row r="23" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -27091,10 +27204,10 @@
       <c r="BW23" s="9"/>
       <c r="BX23" s="9"/>
       <c r="BY23" s="9"/>
-      <c r="BZ23" s="9"/>
-      <c r="CA23" s="9"/>
-      <c r="CB23" s="9"/>
-      <c r="CC23" s="9"/>
+      <c r="BZ23" s="22"/>
+      <c r="CA23" s="22"/>
+      <c r="CB23" s="22"/>
+      <c r="CC23" s="22"/>
       <c r="CD23" s="22"/>
       <c r="CE23" s="22"/>
       <c r="CF23" s="22"/>
@@ -27103,7 +27216,7 @@
       <c r="CI23" s="22"/>
       <c r="CJ23" s="22"/>
       <c r="CK23" s="22"/>
-      <c r="CL23" s="9"/>
+      <c r="CL23" s="22"/>
       <c r="CM23" s="9"/>
       <c r="CN23" s="9"/>
       <c r="CO23" s="9"/>
@@ -27169,10 +27282,14 @@
       <c r="EW23" s="9"/>
       <c r="EX23" s="9"/>
     </row>
-    <row r="24" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ24" s="19"/>
+      <c r="CA24" s="19"/>
+      <c r="CB24" s="19"/>
+      <c r="CC24" s="19"/>
       <c r="CD24" s="19"/>
       <c r="CE24" s="19"/>
       <c r="CF24" s="19"/>
@@ -27181,11 +27298,16 @@
       <c r="CI24" s="19"/>
       <c r="CJ24" s="19"/>
       <c r="CK24" s="19"/>
+      <c r="CL24" s="19"/>
     </row>
-    <row r="25" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="BZ25" s="19"/>
+      <c r="CA25" s="19"/>
+      <c r="CB25" s="19"/>
+      <c r="CC25" s="19"/>
       <c r="CD25" s="19"/>
       <c r="CE25" s="19"/>
       <c r="CF25" s="19"/>
@@ -27194,11 +27316,16 @@
       <c r="CI25" s="19"/>
       <c r="CJ25" s="19"/>
       <c r="CK25" s="19"/>
+      <c r="CL25" s="19"/>
     </row>
-    <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="BZ26" s="19"/>
+      <c r="CA26" s="19"/>
+      <c r="CB26" s="19"/>
+      <c r="CC26" s="19"/>
       <c r="CD26" s="19"/>
       <c r="CE26" s="19"/>
       <c r="CF26" s="19"/>
@@ -27207,8 +27334,13 @@
       <c r="CI26" s="19"/>
       <c r="CJ26" s="19"/>
       <c r="CK26" s="19"/>
+      <c r="CL26" s="19"/>
     </row>
-    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ27" s="19"/>
+      <c r="CA27" s="19"/>
+      <c r="CB27" s="19"/>
+      <c r="CC27" s="19"/>
       <c r="CD27" s="19"/>
       <c r="CE27" s="19"/>
       <c r="CF27" s="19"/>
@@ -27217,11 +27349,16 @@
       <c r="CI27" s="19"/>
       <c r="CJ27" s="19"/>
       <c r="CK27" s="19"/>
+      <c r="CL27" s="19"/>
     </row>
-    <row r="28" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="BZ28" s="19"/>
+      <c r="CA28" s="19"/>
+      <c r="CB28" s="19"/>
+      <c r="CC28" s="19"/>
       <c r="CD28" s="19"/>
       <c r="CE28" s="19"/>
       <c r="CF28" s="19"/>
@@ -27230,11 +27367,16 @@
       <c r="CI28" s="19"/>
       <c r="CJ28" s="19"/>
       <c r="CK28" s="19"/>
+      <c r="CL28" s="19"/>
     </row>
-    <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="BZ29" s="19"/>
+      <c r="CA29" s="19"/>
+      <c r="CB29" s="19"/>
+      <c r="CC29" s="19"/>
       <c r="CD29" s="19"/>
       <c r="CE29" s="19"/>
       <c r="CF29" s="19"/>
@@ -27243,11 +27385,16 @@
       <c r="CI29" s="19"/>
       <c r="CJ29" s="19"/>
       <c r="CK29" s="19"/>
+      <c r="CL29" s="19"/>
     </row>
-    <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="BZ30" s="19"/>
+      <c r="CA30" s="19"/>
+      <c r="CB30" s="19"/>
+      <c r="CC30" s="19"/>
       <c r="CD30" s="19"/>
       <c r="CE30" s="19"/>
       <c r="CF30" s="19"/>
@@ -27256,8 +27403,13 @@
       <c r="CI30" s="19"/>
       <c r="CJ30" s="19"/>
       <c r="CK30" s="19"/>
+      <c r="CL30" s="19"/>
     </row>
-    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ31" s="19"/>
+      <c r="CA31" s="19"/>
+      <c r="CB31" s="19"/>
+      <c r="CC31" s="19"/>
       <c r="CD31" s="19"/>
       <c r="CE31" s="19"/>
       <c r="CF31" s="19"/>
@@ -27266,143 +27418,147 @@
       <c r="CI31" s="19"/>
       <c r="CJ31" s="19"/>
       <c r="CK31" s="19"/>
+      <c r="CL31" s="19"/>
     </row>
-    <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="32">
+      <c r="B32" s="33">
         <v>2000</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32">
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33">
         <v>2001</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32">
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33">
         <v>2002</v>
       </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32">
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33">
         <v>2003</v>
       </c>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32">
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33">
         <v>2004</v>
       </c>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32">
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33">
         <v>2005</v>
       </c>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32">
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33">
         <v>2006</v>
       </c>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32">
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33">
         <v>2007</v>
       </c>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32">
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="33"/>
+      <c r="AH32" s="33">
         <v>2008</v>
       </c>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32">
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="33"/>
+      <c r="AK32" s="33"/>
+      <c r="AL32" s="33">
         <v>2009</v>
       </c>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="32">
+      <c r="AM32" s="33"/>
+      <c r="AN32" s="33"/>
+      <c r="AO32" s="33"/>
+      <c r="AP32" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="32"/>
-      <c r="AS32" s="32"/>
-      <c r="AT32" s="32">
+      <c r="AQ32" s="33"/>
+      <c r="AR32" s="33"/>
+      <c r="AS32" s="33"/>
+      <c r="AT32" s="33">
         <v>2011</v>
       </c>
-      <c r="AU32" s="32"/>
-      <c r="AV32" s="32"/>
-      <c r="AW32" s="32"/>
-      <c r="AX32" s="32">
+      <c r="AU32" s="33"/>
+      <c r="AV32" s="33"/>
+      <c r="AW32" s="33"/>
+      <c r="AX32" s="33">
         <v>2012</v>
       </c>
-      <c r="AY32" s="32"/>
-      <c r="AZ32" s="32"/>
-      <c r="BA32" s="32"/>
-      <c r="BB32" s="32">
+      <c r="AY32" s="33"/>
+      <c r="AZ32" s="33"/>
+      <c r="BA32" s="33"/>
+      <c r="BB32" s="33">
         <v>2013</v>
       </c>
-      <c r="BC32" s="32"/>
-      <c r="BD32" s="32"/>
-      <c r="BE32" s="32"/>
-      <c r="BF32" s="32">
+      <c r="BC32" s="33"/>
+      <c r="BD32" s="33"/>
+      <c r="BE32" s="33"/>
+      <c r="BF32" s="33">
         <v>2014</v>
       </c>
-      <c r="BG32" s="32"/>
-      <c r="BH32" s="32"/>
-      <c r="BI32" s="32"/>
-      <c r="BJ32" s="32">
+      <c r="BG32" s="33"/>
+      <c r="BH32" s="33"/>
+      <c r="BI32" s="33"/>
+      <c r="BJ32" s="33">
         <v>2015</v>
       </c>
-      <c r="BK32" s="32"/>
-      <c r="BL32" s="32"/>
-      <c r="BM32" s="32"/>
-      <c r="BN32" s="32">
+      <c r="BK32" s="33"/>
+      <c r="BL32" s="33"/>
+      <c r="BM32" s="33"/>
+      <c r="BN32" s="33">
         <v>2016</v>
       </c>
-      <c r="BO32" s="32"/>
-      <c r="BP32" s="32"/>
-      <c r="BQ32" s="32"/>
-      <c r="BR32" s="32">
+      <c r="BO32" s="33"/>
+      <c r="BP32" s="33"/>
+      <c r="BQ32" s="33"/>
+      <c r="BR32" s="33">
         <v>2017</v>
       </c>
-      <c r="BS32" s="32"/>
-      <c r="BT32" s="32"/>
-      <c r="BU32" s="32"/>
-      <c r="BV32" s="32">
+      <c r="BS32" s="33"/>
+      <c r="BT32" s="33"/>
+      <c r="BU32" s="33"/>
+      <c r="BV32" s="33">
         <v>2018</v>
       </c>
-      <c r="BW32" s="32"/>
-      <c r="BX32" s="32"/>
-      <c r="BY32" s="32"/>
+      <c r="BW32" s="33"/>
+      <c r="BX32" s="33"/>
+      <c r="BY32" s="33"/>
       <c r="BZ32" s="32">
         <v>2019</v>
       </c>
       <c r="CA32" s="32"/>
       <c r="CB32" s="32"/>
       <c r="CC32" s="32"/>
-      <c r="CD32" s="31">
+      <c r="CD32" s="32">
         <v>2020</v>
       </c>
-      <c r="CE32" s="31"/>
-      <c r="CF32" s="31"/>
-      <c r="CG32" s="31"/>
-      <c r="CH32" s="31">
+      <c r="CE32" s="32"/>
+      <c r="CF32" s="32"/>
+      <c r="CG32" s="32"/>
+      <c r="CH32" s="32">
         <v>2021</v>
       </c>
-      <c r="CI32" s="31"/>
-      <c r="CJ32" s="31"/>
-      <c r="CK32" s="31"/>
+      <c r="CI32" s="32"/>
+      <c r="CJ32" s="32"/>
+      <c r="CK32" s="32"/>
+      <c r="CL32" s="31">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -27634,16 +27790,16 @@
       <c r="BY33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ33" s="6" t="s">
+      <c r="BZ33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CA33" s="6" t="s">
+      <c r="CA33" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="CB33" s="6" t="s">
+      <c r="CB33" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="CC33" s="6" t="s">
+      <c r="CC33" s="20" t="s">
         <v>9</v>
       </c>
       <c r="CD33" s="20" t="s">
@@ -27670,9 +27826,16 @@
       <c r="CK33" s="20" t="s">
         <v>9</v>
       </c>
+      <c r="CL33" s="20" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
+      <c r="BZ34" s="19"/>
+      <c r="CA34" s="19"/>
+      <c r="CB34" s="19"/>
+      <c r="CC34" s="19"/>
       <c r="CD34" s="19"/>
       <c r="CE34" s="19"/>
       <c r="CF34" s="19"/>
@@ -27681,8 +27844,9 @@
       <c r="CI34" s="19"/>
       <c r="CJ34" s="19"/>
       <c r="CK34" s="19"/>
+      <c r="CL34" s="19"/>
     </row>
-    <row r="35" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -27914,20 +28078,20 @@
       <c r="BY35" s="8">
         <v>5954.4905432996366</v>
       </c>
-      <c r="BZ35" s="8">
+      <c r="BZ35" s="21">
         <v>6625.6376656000239</v>
       </c>
-      <c r="CA35" s="8">
+      <c r="CA35" s="21">
         <v>8198.4844587195075</v>
       </c>
-      <c r="CB35" s="8">
+      <c r="CB35" s="21">
         <v>3389.4773479978817</v>
       </c>
-      <c r="CC35" s="8">
+      <c r="CC35" s="21">
         <v>5256.8028553051563</v>
       </c>
       <c r="CD35" s="21">
-        <v>5185.922796978819</v>
+        <v>5185.9227969788171</v>
       </c>
       <c r="CE35" s="21">
         <v>8196.1503092120402</v>
@@ -27936,21 +28100,23 @@
         <v>3202.6781512860248</v>
       </c>
       <c r="CG35" s="21">
-        <v>3731.4753926114336</v>
+        <v>3725.5687314519337</v>
       </c>
       <c r="CH35" s="21">
-        <v>7338.8001369750036</v>
+        <v>7366.6241073344327</v>
       </c>
       <c r="CI35" s="21">
-        <v>7975.185855269252</v>
+        <v>7976.3502756595108</v>
       </c>
       <c r="CJ35" s="21">
-        <v>1938.6540172117454</v>
+        <v>1954.5648260456455</v>
       </c>
       <c r="CK35" s="21">
-        <v>3198.895190396885</v>
-      </c>
-      <c r="CL35" s="9"/>
+        <v>4377.4613066335278</v>
+      </c>
+      <c r="CL35" s="21">
+        <v>10947.790012190888</v>
+      </c>
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
@@ -28016,7 +28182,7 @@
       <c r="EW35" s="9"/>
       <c r="EX35" s="9"/>
     </row>
-    <row r="36" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -28248,16 +28414,16 @@
       <c r="BY36" s="8">
         <v>8083.8618232091194</v>
       </c>
-      <c r="BZ36" s="8">
+      <c r="BZ36" s="21">
         <v>7772.7515855259871</v>
       </c>
-      <c r="CA36" s="8">
+      <c r="CA36" s="21">
         <v>20076.000130750595</v>
       </c>
-      <c r="CB36" s="8">
+      <c r="CB36" s="21">
         <v>4817.6391890854165</v>
       </c>
-      <c r="CC36" s="8">
+      <c r="CC36" s="21">
         <v>7587.4100950403681</v>
       </c>
       <c r="CD36" s="21">
@@ -28276,15 +28442,17 @@
         <v>5489.642902099733</v>
       </c>
       <c r="CI36" s="21">
-        <v>13932.906736033503</v>
+        <v>14061.606274353939</v>
       </c>
       <c r="CJ36" s="21">
-        <v>3841.6111361355879</v>
+        <v>3881.2041812060897</v>
       </c>
       <c r="CK36" s="21">
-        <v>5921.3393027229449</v>
-      </c>
-      <c r="CL36" s="9"/>
+        <v>4896.2167341823924</v>
+      </c>
+      <c r="CL36" s="21">
+        <v>5195.9345307395306</v>
+      </c>
       <c r="CM36" s="9"/>
       <c r="CN36" s="9"/>
       <c r="CO36" s="9"/>
@@ -28350,7 +28518,7 @@
       <c r="EW36" s="9"/>
       <c r="EX36" s="9"/>
     </row>
-    <row r="37" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -28582,43 +28750,45 @@
       <c r="BY37" s="8">
         <v>5917.0077994240255</v>
       </c>
-      <c r="BZ37" s="8">
+      <c r="BZ37" s="21">
         <v>7145.8169889028268</v>
       </c>
-      <c r="CA37" s="8">
+      <c r="CA37" s="21">
         <v>7135.2219951940588</v>
       </c>
-      <c r="CB37" s="8">
+      <c r="CB37" s="21">
         <v>5317.7924717972573</v>
       </c>
-      <c r="CC37" s="8">
+      <c r="CC37" s="21">
         <v>4875.2259184043169</v>
       </c>
       <c r="CD37" s="21">
-        <v>4706.4449311299277</v>
+        <v>4706.4360907846185</v>
       </c>
       <c r="CE37" s="21">
-        <v>5123.8224960383704</v>
+        <v>5096.2942159296426</v>
       </c>
       <c r="CF37" s="21">
-        <v>4114.4457767459762</v>
+        <v>4617.5723548291116</v>
       </c>
       <c r="CG37" s="21">
-        <v>4609.9079852805953</v>
+        <v>4610.8806062339672</v>
       </c>
       <c r="CH37" s="21">
-        <v>5077.3593651628134</v>
+        <v>5018.3374156152431</v>
       </c>
       <c r="CI37" s="21">
-        <v>5209.386294729502</v>
+        <v>6052.7885216024242</v>
       </c>
       <c r="CJ37" s="21">
-        <v>4766.3340134765203</v>
+        <v>5347.3605298945513</v>
       </c>
       <c r="CK37" s="21">
-        <v>4983.8114497615161</v>
-      </c>
-      <c r="CL37" s="9"/>
+        <v>5972.151005999438</v>
+      </c>
+      <c r="CL37" s="21">
+        <v>6028.5470722446707</v>
+      </c>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
@@ -28684,7 +28854,7 @@
       <c r="EW37" s="9"/>
       <c r="EX37" s="9"/>
     </row>
-    <row r="38" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -28916,43 +29086,45 @@
       <c r="BY38" s="8">
         <v>927.56556132923674</v>
       </c>
-      <c r="BZ38" s="8">
+      <c r="BZ38" s="21">
         <v>3795.5978408386472</v>
       </c>
-      <c r="CA38" s="8">
+      <c r="CA38" s="21">
         <v>9585.5898127993405</v>
       </c>
-      <c r="CB38" s="8">
+      <c r="CB38" s="21">
         <v>5433.7460649143777</v>
       </c>
-      <c r="CC38" s="8">
+      <c r="CC38" s="21">
         <v>1183.5453050465471</v>
       </c>
       <c r="CD38" s="21">
-        <v>3075.310695954744</v>
+        <v>3080.4151327369641</v>
       </c>
       <c r="CE38" s="21">
-        <v>8472.6662488210095</v>
+        <v>8500.7989648955609</v>
       </c>
       <c r="CF38" s="21">
-        <v>6020.3943366480153</v>
+        <v>6133.3386552376378</v>
       </c>
       <c r="CG38" s="21">
-        <v>1815.5618319252558</v>
+        <v>1743.9240612838362</v>
       </c>
       <c r="CH38" s="21">
-        <v>4552.1348510406633</v>
+        <v>4996.8693390372027</v>
       </c>
       <c r="CI38" s="21">
-        <v>9511.9033660344339</v>
+        <v>10383.722352801096</v>
       </c>
       <c r="CJ38" s="21">
-        <v>6444.8331563933561</v>
+        <v>6661.2455643121284</v>
       </c>
       <c r="CK38" s="21">
-        <v>1910.6473079814352</v>
-      </c>
-      <c r="CL38" s="9"/>
+        <v>1463.4685481201896</v>
+      </c>
+      <c r="CL38" s="21">
+        <v>3335.942799112102</v>
+      </c>
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
       <c r="CO38" s="9"/>
@@ -29018,7 +29190,7 @@
       <c r="EW38" s="9"/>
       <c r="EX38" s="9"/>
     </row>
-    <row r="39" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -29250,43 +29422,45 @@
       <c r="BY39" s="8">
         <v>1501.2414133075058</v>
       </c>
-      <c r="BZ39" s="8">
+      <c r="BZ39" s="21">
         <v>6495.9397345199759</v>
       </c>
-      <c r="CA39" s="8">
+      <c r="CA39" s="21">
         <v>1372.7121359653493</v>
       </c>
-      <c r="CB39" s="8">
+      <c r="CB39" s="21">
         <v>1680.9651162300061</v>
       </c>
-      <c r="CC39" s="8">
+      <c r="CC39" s="21">
         <v>1251.1146890163657</v>
       </c>
       <c r="CD39" s="21">
         <v>4057.2019465919075</v>
       </c>
       <c r="CE39" s="21">
-        <v>1173.0462737059649</v>
+        <v>1172.9770640076631</v>
       </c>
       <c r="CF39" s="21">
         <v>1245.7492765727784</v>
       </c>
       <c r="CG39" s="21">
-        <v>970.20902512150747</v>
+        <v>970.2219894318423</v>
       </c>
       <c r="CH39" s="21">
-        <v>2689.8698479113127</v>
+        <v>2726.9761640608922</v>
       </c>
       <c r="CI39" s="21">
-        <v>896.98542678971489</v>
+        <v>896.93250467388657</v>
       </c>
       <c r="CJ39" s="21">
         <v>1199.3326437335306</v>
       </c>
       <c r="CK39" s="21">
-        <v>944.90545873476117</v>
-      </c>
-      <c r="CL39" s="9"/>
+        <v>1123.2391614790699</v>
+      </c>
+      <c r="CL39" s="21">
+        <v>4364.912093966399</v>
+      </c>
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
       <c r="CO39" s="9"/>
@@ -29352,7 +29526,7 @@
       <c r="EW39" s="9"/>
       <c r="EX39" s="9"/>
     </row>
-    <row r="40" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
@@ -29584,20 +29758,20 @@
       <c r="BY40" s="8">
         <v>17297.232575483555</v>
       </c>
-      <c r="BZ40" s="8">
+      <c r="BZ40" s="21">
         <v>13754.375296152757</v>
       </c>
-      <c r="CA40" s="8">
+      <c r="CA40" s="21">
         <v>10495.448797252127</v>
       </c>
-      <c r="CB40" s="8">
+      <c r="CB40" s="21">
         <v>8394.1811227511062</v>
       </c>
-      <c r="CC40" s="8">
+      <c r="CC40" s="21">
         <v>17215.538980340767</v>
       </c>
       <c r="CD40" s="21">
-        <v>12081.160631291263</v>
+        <v>12080.868194815153</v>
       </c>
       <c r="CE40" s="21">
         <v>5620.2536243486284</v>
@@ -29606,21 +29780,23 @@
         <v>6453.2018292675884</v>
       </c>
       <c r="CG40" s="21">
-        <v>13759.586149573728</v>
+        <v>13767.839691706578</v>
       </c>
       <c r="CH40" s="21">
-        <v>11106.154475899573</v>
+        <v>11027.147252327914</v>
       </c>
       <c r="CI40" s="21">
-        <v>7005.9933085892117</v>
+        <v>7034.1807302043835</v>
       </c>
       <c r="CJ40" s="21">
-        <v>7819.4956998061134</v>
+        <v>7850.5733108531986</v>
       </c>
       <c r="CK40" s="21">
-        <v>16749.429517541848</v>
-      </c>
-      <c r="CL40" s="9"/>
+        <v>16673.0405489929</v>
+      </c>
+      <c r="CL40" s="21">
+        <v>12977.377274868835</v>
+      </c>
       <c r="CM40" s="9"/>
       <c r="CN40" s="9"/>
       <c r="CO40" s="9"/>
@@ -29686,7 +29862,7 @@
       <c r="EW40" s="9"/>
       <c r="EX40" s="9"/>
     </row>
-    <row r="41" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -29763,10 +29939,10 @@
       <c r="BW41" s="12"/>
       <c r="BX41" s="12"/>
       <c r="BY41" s="12"/>
-      <c r="BZ41" s="12"/>
-      <c r="CA41" s="12"/>
-      <c r="CB41" s="12"/>
-      <c r="CC41" s="12"/>
+      <c r="BZ41" s="23"/>
+      <c r="CA41" s="23"/>
+      <c r="CB41" s="23"/>
+      <c r="CC41" s="23"/>
       <c r="CD41" s="23"/>
       <c r="CE41" s="23"/>
       <c r="CF41" s="23"/>
@@ -29775,7 +29951,7 @@
       <c r="CI41" s="23"/>
       <c r="CJ41" s="23"/>
       <c r="CK41" s="23"/>
-      <c r="CL41" s="9"/>
+      <c r="CL41" s="23"/>
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
@@ -29841,7 +30017,7 @@
       <c r="EW41" s="9"/>
       <c r="EX41" s="9"/>
     </row>
-    <row r="42" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>15</v>
       </c>
@@ -30073,43 +30249,45 @@
       <c r="BY42" s="12">
         <v>39681.399716053085</v>
       </c>
-      <c r="BZ42" s="12">
+      <c r="BZ42" s="23">
         <v>45590.119111540218</v>
       </c>
-      <c r="CA42" s="12">
+      <c r="CA42" s="23">
         <v>56863.457330680976</v>
       </c>
-      <c r="CB42" s="12">
+      <c r="CB42" s="23">
         <v>29033.80131277605</v>
       </c>
-      <c r="CC42" s="12">
+      <c r="CC42" s="23">
         <v>37369.637843153527</v>
       </c>
       <c r="CD42" s="23">
-        <v>35894.177112313388</v>
+        <v>35898.980272274188</v>
       </c>
       <c r="CE42" s="23">
-        <v>44544.893242464459</v>
+        <v>44545.428468731974</v>
       </c>
       <c r="CF42" s="23">
-        <v>25253.232496184999</v>
+        <v>25869.303392857761</v>
       </c>
       <c r="CG42" s="23">
-        <v>31247.618303470335</v>
+        <v>31179.312999065973</v>
       </c>
       <c r="CH42" s="23">
-        <v>36253.961579089097</v>
+        <v>36625.597180475415</v>
       </c>
       <c r="CI42" s="23">
-        <v>44532.360987445616</v>
+        <v>46405.580659295236</v>
       </c>
       <c r="CJ42" s="23">
-        <v>26010.260666756854</v>
+        <v>26894.281056045147</v>
       </c>
       <c r="CK42" s="23">
-        <v>33709.028227139388</v>
-      </c>
-      <c r="CL42" s="9"/>
+        <v>34505.577305407518</v>
+      </c>
+      <c r="CL42" s="23">
+        <v>42850.503783122425</v>
+      </c>
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
@@ -30175,7 +30353,7 @@
       <c r="EW42" s="9"/>
       <c r="EX42" s="9"/>
     </row>
-    <row r="43" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -30253,10 +30431,10 @@
       <c r="BW43" s="13"/>
       <c r="BX43" s="13"/>
       <c r="BY43" s="13"/>
-      <c r="BZ43" s="13"/>
-      <c r="CA43" s="13"/>
-      <c r="CB43" s="13"/>
-      <c r="CC43" s="13"/>
+      <c r="BZ43" s="24"/>
+      <c r="CA43" s="24"/>
+      <c r="CB43" s="24"/>
+      <c r="CC43" s="24"/>
       <c r="CD43" s="24"/>
       <c r="CE43" s="24"/>
       <c r="CF43" s="24"/>
@@ -30265,11 +30443,16 @@
       <c r="CI43" s="24"/>
       <c r="CJ43" s="24"/>
       <c r="CK43" s="24"/>
+      <c r="CL43" s="24"/>
     </row>
-    <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="BZ44" s="19"/>
+      <c r="CA44" s="19"/>
+      <c r="CB44" s="19"/>
+      <c r="CC44" s="19"/>
       <c r="CD44" s="19"/>
       <c r="CE44" s="19"/>
       <c r="CF44" s="19"/>
@@ -30278,8 +30461,9 @@
       <c r="CI44" s="19"/>
       <c r="CJ44" s="19"/>
       <c r="CK44" s="19"/>
+      <c r="CL44" s="19"/>
     </row>
-    <row r="45" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -30356,10 +30540,10 @@
       <c r="BW45" s="9"/>
       <c r="BX45" s="9"/>
       <c r="BY45" s="9"/>
-      <c r="BZ45" s="9"/>
-      <c r="CA45" s="9"/>
-      <c r="CB45" s="9"/>
-      <c r="CC45" s="9"/>
+      <c r="BZ45" s="22"/>
+      <c r="CA45" s="22"/>
+      <c r="CB45" s="22"/>
+      <c r="CC45" s="22"/>
       <c r="CD45" s="22"/>
       <c r="CE45" s="22"/>
       <c r="CF45" s="22"/>
@@ -30368,7 +30552,7 @@
       <c r="CI45" s="22"/>
       <c r="CJ45" s="22"/>
       <c r="CK45" s="22"/>
-      <c r="CL45" s="9"/>
+      <c r="CL45" s="22"/>
       <c r="CM45" s="9"/>
       <c r="CN45" s="9"/>
       <c r="CO45" s="9"/>
@@ -30434,7 +30618,7 @@
       <c r="EW45" s="9"/>
       <c r="EX45" s="9"/>
     </row>
-    <row r="46" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -30511,10 +30695,10 @@
       <c r="BW46" s="9"/>
       <c r="BX46" s="9"/>
       <c r="BY46" s="9"/>
-      <c r="BZ46" s="9"/>
-      <c r="CA46" s="9"/>
-      <c r="CB46" s="9"/>
-      <c r="CC46" s="9"/>
+      <c r="BZ46" s="22"/>
+      <c r="CA46" s="22"/>
+      <c r="CB46" s="22"/>
+      <c r="CC46" s="22"/>
       <c r="CD46" s="22"/>
       <c r="CE46" s="22"/>
       <c r="CF46" s="22"/>
@@ -30523,7 +30707,7 @@
       <c r="CI46" s="22"/>
       <c r="CJ46" s="22"/>
       <c r="CK46" s="22"/>
-      <c r="CL46" s="9"/>
+      <c r="CL46" s="22"/>
       <c r="CM46" s="9"/>
       <c r="CN46" s="9"/>
       <c r="CO46" s="9"/>
@@ -30589,10 +30773,14 @@
       <c r="EW46" s="9"/>
       <c r="EX46" s="9"/>
     </row>
-    <row r="47" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ47" s="19"/>
+      <c r="CA47" s="19"/>
+      <c r="CB47" s="19"/>
+      <c r="CC47" s="19"/>
       <c r="CD47" s="19"/>
       <c r="CE47" s="19"/>
       <c r="CF47" s="19"/>
@@ -30601,11 +30789,16 @@
       <c r="CI47" s="19"/>
       <c r="CJ47" s="19"/>
       <c r="CK47" s="19"/>
+      <c r="CL47" s="19"/>
     </row>
-    <row r="48" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="BZ48" s="19"/>
+      <c r="CA48" s="19"/>
+      <c r="CB48" s="19"/>
+      <c r="CC48" s="19"/>
       <c r="CD48" s="19"/>
       <c r="CE48" s="19"/>
       <c r="CF48" s="19"/>
@@ -30614,11 +30807,16 @@
       <c r="CI48" s="19"/>
       <c r="CJ48" s="19"/>
       <c r="CK48" s="19"/>
+      <c r="CL48" s="19"/>
     </row>
-    <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="BZ49" s="19"/>
+      <c r="CA49" s="19"/>
+      <c r="CB49" s="19"/>
+      <c r="CC49" s="19"/>
       <c r="CD49" s="19"/>
       <c r="CE49" s="19"/>
       <c r="CF49" s="19"/>
@@ -30627,8 +30825,13 @@
       <c r="CI49" s="19"/>
       <c r="CJ49" s="19"/>
       <c r="CK49" s="19"/>
+      <c r="CL49" s="19"/>
     </row>
-    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ50" s="19"/>
+      <c r="CA50" s="19"/>
+      <c r="CB50" s="19"/>
+      <c r="CC50" s="19"/>
       <c r="CD50" s="19"/>
       <c r="CE50" s="19"/>
       <c r="CF50" s="19"/>
@@ -30637,11 +30840,16 @@
       <c r="CI50" s="19"/>
       <c r="CJ50" s="19"/>
       <c r="CK50" s="19"/>
+      <c r="CL50" s="19"/>
     </row>
-    <row r="51" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="BZ51" s="19"/>
+      <c r="CA51" s="19"/>
+      <c r="CB51" s="19"/>
+      <c r="CC51" s="19"/>
       <c r="CD51" s="19"/>
       <c r="CE51" s="19"/>
       <c r="CF51" s="19"/>
@@ -30650,11 +30858,16 @@
       <c r="CI51" s="19"/>
       <c r="CJ51" s="19"/>
       <c r="CK51" s="19"/>
+      <c r="CL51" s="19"/>
     </row>
-    <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="BZ52" s="19"/>
+      <c r="CA52" s="19"/>
+      <c r="CB52" s="19"/>
+      <c r="CC52" s="19"/>
       <c r="CD52" s="19"/>
       <c r="CE52" s="19"/>
       <c r="CF52" s="19"/>
@@ -30663,11 +30876,16 @@
       <c r="CI52" s="19"/>
       <c r="CJ52" s="19"/>
       <c r="CK52" s="19"/>
+      <c r="CL52" s="19"/>
     </row>
-    <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="BZ53" s="19"/>
+      <c r="CA53" s="19"/>
+      <c r="CB53" s="19"/>
+      <c r="CC53" s="19"/>
       <c r="CD53" s="19"/>
       <c r="CE53" s="19"/>
       <c r="CF53" s="19"/>
@@ -30676,8 +30894,13 @@
       <c r="CI53" s="19"/>
       <c r="CJ53" s="19"/>
       <c r="CK53" s="19"/>
+      <c r="CL53" s="19"/>
     </row>
-    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ54" s="19"/>
+      <c r="CA54" s="19"/>
+      <c r="CB54" s="19"/>
+      <c r="CC54" s="19"/>
       <c r="CD54" s="19"/>
       <c r="CE54" s="19"/>
       <c r="CF54" s="19"/>
@@ -30686,141 +30909,145 @@
       <c r="CI54" s="19"/>
       <c r="CJ54" s="19"/>
       <c r="CK54" s="19"/>
+      <c r="CL54" s="19"/>
     </row>
-    <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32" t="s">
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32" t="s">
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32" t="s">
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32" t="s">
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="32"/>
-      <c r="V55" s="32" t="s">
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="W55" s="32"/>
-      <c r="X55" s="32"/>
-      <c r="Y55" s="32"/>
-      <c r="Z55" s="32" t="s">
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AA55" s="32"/>
-      <c r="AB55" s="32"/>
-      <c r="AC55" s="32"/>
-      <c r="AD55" s="32" t="s">
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="33"/>
+      <c r="AD55" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="32"/>
-      <c r="AF55" s="32"/>
-      <c r="AG55" s="32"/>
-      <c r="AH55" s="32" t="s">
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="33"/>
+      <c r="AG55" s="33"/>
+      <c r="AH55" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="32"/>
-      <c r="AJ55" s="32"/>
-      <c r="AK55" s="32"/>
-      <c r="AL55" s="32" t="s">
+      <c r="AI55" s="33"/>
+      <c r="AJ55" s="33"/>
+      <c r="AK55" s="33"/>
+      <c r="AL55" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AM55" s="32"/>
-      <c r="AN55" s="32"/>
-      <c r="AO55" s="32"/>
-      <c r="AP55" s="32" t="s">
+      <c r="AM55" s="33"/>
+      <c r="AN55" s="33"/>
+      <c r="AO55" s="33"/>
+      <c r="AP55" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AQ55" s="32"/>
-      <c r="AR55" s="32"/>
-      <c r="AS55" s="32"/>
-      <c r="AT55" s="32" t="s">
+      <c r="AQ55" s="33"/>
+      <c r="AR55" s="33"/>
+      <c r="AS55" s="33"/>
+      <c r="AT55" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AU55" s="32"/>
-      <c r="AV55" s="32"/>
-      <c r="AW55" s="32"/>
-      <c r="AX55" s="32" t="s">
+      <c r="AU55" s="33"/>
+      <c r="AV55" s="33"/>
+      <c r="AW55" s="33"/>
+      <c r="AX55" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AY55" s="32"/>
-      <c r="AZ55" s="32"/>
-      <c r="BA55" s="32"/>
-      <c r="BB55" s="32" t="s">
+      <c r="AY55" s="33"/>
+      <c r="AZ55" s="33"/>
+      <c r="BA55" s="33"/>
+      <c r="BB55" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="BC55" s="32"/>
-      <c r="BD55" s="32"/>
-      <c r="BE55" s="32"/>
-      <c r="BF55" s="32" t="s">
+      <c r="BC55" s="33"/>
+      <c r="BD55" s="33"/>
+      <c r="BE55" s="33"/>
+      <c r="BF55" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="BG55" s="32"/>
-      <c r="BH55" s="32"/>
-      <c r="BI55" s="32"/>
-      <c r="BJ55" s="32" t="s">
+      <c r="BG55" s="33"/>
+      <c r="BH55" s="33"/>
+      <c r="BI55" s="33"/>
+      <c r="BJ55" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="BK55" s="32"/>
-      <c r="BL55" s="32"/>
-      <c r="BM55" s="32"/>
-      <c r="BN55" s="32" t="s">
+      <c r="BK55" s="33"/>
+      <c r="BL55" s="33"/>
+      <c r="BM55" s="33"/>
+      <c r="BN55" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="BO55" s="32"/>
-      <c r="BP55" s="32"/>
-      <c r="BQ55" s="32"/>
-      <c r="BR55" s="32" t="s">
+      <c r="BO55" s="33"/>
+      <c r="BP55" s="33"/>
+      <c r="BQ55" s="33"/>
+      <c r="BR55" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="BS55" s="32"/>
-      <c r="BT55" s="32"/>
-      <c r="BU55" s="32"/>
-      <c r="BV55" s="32" t="s">
+      <c r="BS55" s="33"/>
+      <c r="BT55" s="33"/>
+      <c r="BU55" s="33"/>
+      <c r="BV55" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="BW55" s="32"/>
-      <c r="BX55" s="32"/>
-      <c r="BY55" s="32"/>
+      <c r="BW55" s="33"/>
+      <c r="BX55" s="33"/>
+      <c r="BY55" s="33"/>
       <c r="BZ55" s="32" t="s">
         <v>31</v>
       </c>
       <c r="CA55" s="32"/>
       <c r="CB55" s="32"/>
       <c r="CC55" s="32"/>
-      <c r="CD55" s="31" t="s">
+      <c r="CD55" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="CE55" s="31"/>
-      <c r="CF55" s="31"/>
-      <c r="CG55" s="31"/>
-      <c r="CH55" s="25"/>
-      <c r="CI55" s="25"/>
-      <c r="CJ55" s="25"/>
-      <c r="CK55" s="25"/>
+      <c r="CE55" s="32"/>
+      <c r="CF55" s="32"/>
+      <c r="CG55" s="32"/>
+      <c r="CH55" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="CI55" s="31"/>
+      <c r="CJ55" s="31"/>
+      <c r="CK55" s="31"/>
+      <c r="CL55" s="30"/>
     </row>
-    <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>4</v>
       </c>
@@ -31052,37 +31279,44 @@
       <c r="BY56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ56" s="5" t="s">
+      <c r="BZ56" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CA56" s="5" t="s">
+      <c r="CA56" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CB56" s="5" t="s">
+      <c r="CB56" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CC56" s="5" t="s">
+      <c r="CC56" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CD56" s="30" t="s">
+      <c r="CD56" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CE56" s="30" t="s">
+      <c r="CE56" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CF56" s="30" t="s">
+      <c r="CF56" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CG56" s="30" t="s">
+      <c r="CG56" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CH56" s="26"/>
-      <c r="CI56" s="26"/>
-      <c r="CJ56" s="26"/>
-      <c r="CK56" s="26"/>
+      <c r="CH56" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI56" s="25"/>
+      <c r="CJ56" s="25"/>
+      <c r="CK56" s="25"/>
+      <c r="CL56" s="25"/>
     </row>
-    <row r="57" spans="1:149" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
+      <c r="BZ57" s="19"/>
+      <c r="CA57" s="19"/>
+      <c r="CB57" s="19"/>
+      <c r="CC57" s="19"/>
       <c r="CD57" s="19"/>
       <c r="CE57" s="19"/>
       <c r="CF57" s="19"/>
@@ -31091,8 +31325,9 @@
       <c r="CI57" s="19"/>
       <c r="CJ57" s="19"/>
       <c r="CK57" s="19"/>
+      <c r="CL57" s="19"/>
     </row>
-    <row r="58" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -31324,40 +31559,42 @@
       <c r="BY58" s="15">
         <v>-42.595326411422739</v>
       </c>
-      <c r="BZ58" s="15">
-        <v>-44.244777722288575</v>
-      </c>
-      <c r="CA58" s="15">
+      <c r="BZ58" s="26">
+        <v>-44.244777722288596</v>
+      </c>
+      <c r="CA58" s="26">
         <v>-35.153941852638923</v>
       </c>
-      <c r="CB58" s="15">
+      <c r="CB58" s="26">
         <v>-27.547277568945901</v>
       </c>
-      <c r="CC58" s="15">
-        <v>-22.000168882477624</v>
-      </c>
-      <c r="CD58" s="27">
-        <v>72.408181463032662</v>
-      </c>
-      <c r="CE58" s="27">
-        <v>83.676460145124366</v>
-      </c>
-      <c r="CF58" s="27">
-        <v>109.93381884081367</v>
-      </c>
-      <c r="CG58" s="27">
-        <v>157.40650673392952</v>
-      </c>
-      <c r="CH58" s="22"/>
+      <c r="CC58" s="26">
+        <v>-22.123637088598386</v>
+      </c>
+      <c r="CD58" s="26">
+        <v>73.061841467558708</v>
+      </c>
+      <c r="CE58" s="26">
+        <v>83.703277904520206</v>
+      </c>
+      <c r="CF58" s="26">
+        <v>111.65677550543344</v>
+      </c>
+      <c r="CG58" s="26">
+        <v>252.8010165945982</v>
+      </c>
+      <c r="CH58" s="26">
+        <v>355.25136628443568</v>
+      </c>
       <c r="CI58" s="22"/>
       <c r="CJ58" s="22"/>
       <c r="CK58" s="22"/>
-      <c r="CL58" s="9"/>
+      <c r="CL58" s="22"/>
       <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
       <c r="CO58" s="9"/>
     </row>
-    <row r="59" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
@@ -31589,35 +31826,37 @@
       <c r="BY59" s="15">
         <v>-13.082462804151135</v>
       </c>
-      <c r="BZ59" s="15">
+      <c r="BZ59" s="26">
         <v>-40.334546219038018</v>
       </c>
-      <c r="CA59" s="15">
+      <c r="CA59" s="26">
         <v>-56.369480761963715</v>
       </c>
-      <c r="CB59" s="15">
+      <c r="CB59" s="26">
         <v>-34.242932832662817</v>
       </c>
-      <c r="CC59" s="15">
+      <c r="CC59" s="26">
         <v>-23.412080626567075</v>
       </c>
-      <c r="CD59" s="27">
+      <c r="CD59" s="26">
         <v>27.770302074560391</v>
       </c>
-      <c r="CE59" s="27">
-        <v>62.687762384687062</v>
-      </c>
-      <c r="CF59" s="27">
-        <v>90.99860994998852</v>
-      </c>
-      <c r="CG59" s="27">
-        <v>83.087489285886619</v>
-      </c>
-      <c r="CH59" s="22"/>
+      <c r="CE59" s="26">
+        <v>64.432723853374227</v>
+      </c>
+      <c r="CF59" s="26">
+        <v>92.891815717376431</v>
+      </c>
+      <c r="CG59" s="26">
+        <v>51.018231303300439</v>
+      </c>
+      <c r="CH59" s="26">
+        <v>41.304302618230878</v>
+      </c>
       <c r="CI59" s="22"/>
       <c r="CJ59" s="22"/>
       <c r="CK59" s="22"/>
-      <c r="CL59" s="9"/>
+      <c r="CL59" s="22"/>
       <c r="CM59" s="9"/>
       <c r="CN59" s="9"/>
       <c r="CO59" s="9"/>
@@ -31678,7 +31917,7 @@
       <c r="ER59" s="9"/>
       <c r="ES59" s="9"/>
     </row>
-    <row r="60" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
@@ -31910,35 +32149,37 @@
       <c r="BY60" s="15">
         <v>1.4686606091689072</v>
       </c>
-      <c r="BZ60" s="15">
-        <v>-6.9690011962559453</v>
-      </c>
-      <c r="CA60" s="15">
-        <v>13.488447699121025</v>
-      </c>
-      <c r="CB60" s="15">
-        <v>21.33566138724936</v>
-      </c>
-      <c r="CC60" s="15">
-        <v>43.79818986899383</v>
-      </c>
-      <c r="CD60" s="27">
-        <v>23.353576531374244</v>
-      </c>
-      <c r="CE60" s="27">
-        <v>5.9974575720309815</v>
-      </c>
-      <c r="CF60" s="27">
-        <v>2.3530996536782993</v>
-      </c>
-      <c r="CG60" s="27">
-        <v>-5.7740568041735116</v>
-      </c>
-      <c r="CH60" s="22"/>
+      <c r="BZ60" s="26">
+        <v>-6.969175940923293</v>
+      </c>
+      <c r="CA60" s="26">
+        <v>13.100693833078836</v>
+      </c>
+      <c r="CB60" s="26">
+        <v>36.129747075456635</v>
+      </c>
+      <c r="CC60" s="26">
+        <v>43.828529115020046</v>
+      </c>
+      <c r="CD60" s="26">
+        <v>21.828552477111444</v>
+      </c>
+      <c r="CE60" s="26">
+        <v>23.736147241175857</v>
+      </c>
+      <c r="CF60" s="26">
+        <v>2.3100679096173877</v>
+      </c>
+      <c r="CG60" s="26">
+        <v>12.885274674450372</v>
+      </c>
+      <c r="CH60" s="26">
+        <v>26.499253127370892</v>
+      </c>
       <c r="CI60" s="22"/>
       <c r="CJ60" s="22"/>
       <c r="CK60" s="22"/>
-      <c r="CL60" s="9"/>
+      <c r="CL60" s="22"/>
       <c r="CM60" s="9"/>
       <c r="CN60" s="9"/>
       <c r="CO60" s="9"/>
@@ -31999,7 +32240,7 @@
       <c r="ER60" s="9"/>
       <c r="ES60" s="9"/>
     </row>
-    <row r="61" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -32231,35 +32472,37 @@
       <c r="BY61" s="15">
         <v>66.004292625903474</v>
       </c>
-      <c r="BZ61" s="15">
-        <v>-14.173184025755901</v>
-      </c>
-      <c r="CA61" s="15">
-        <v>-5.6038636736403475</v>
-      </c>
-      <c r="CB61" s="15">
-        <v>-3.7968185086976547</v>
-      </c>
-      <c r="CC61" s="15">
-        <v>81.429198543047193</v>
-      </c>
-      <c r="CD61" s="27">
-        <v>105.5125870929281</v>
-      </c>
-      <c r="CE61" s="27">
-        <v>54.17106909780108</v>
-      </c>
-      <c r="CF61" s="27">
-        <v>52.570520698626439</v>
-      </c>
-      <c r="CG61" s="27">
-        <v>28.406731309485963</v>
-      </c>
-      <c r="CH61" s="22"/>
+      <c r="BZ61" s="26">
+        <v>-14.030727669415739</v>
+      </c>
+      <c r="CA61" s="26">
+        <v>-5.2904299062978026</v>
+      </c>
+      <c r="CB61" s="26">
+        <v>-1.9920193257692347</v>
+      </c>
+      <c r="CC61" s="26">
+        <v>74.270431992474329</v>
+      </c>
+      <c r="CD61" s="26">
+        <v>125.21693889053597</v>
+      </c>
+      <c r="CE61" s="26">
+        <v>73.281869246586183</v>
+      </c>
+      <c r="CF61" s="26">
+        <v>54.740327348940923</v>
+      </c>
+      <c r="CG61" s="26">
+        <v>2.3939110575617519</v>
+      </c>
+      <c r="CH61" s="26">
+        <v>14.773240650000943</v>
+      </c>
       <c r="CI61" s="22"/>
       <c r="CJ61" s="22"/>
       <c r="CK61" s="22"/>
-      <c r="CL61" s="9"/>
+      <c r="CL61" s="22"/>
       <c r="CM61" s="9"/>
       <c r="CN61" s="9"/>
       <c r="CO61" s="9"/>
@@ -32320,7 +32563,7 @@
       <c r="ER61" s="9"/>
       <c r="ES61" s="9"/>
     </row>
-    <row r="62" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -32552,35 +32795,37 @@
       <c r="BY62" s="15">
         <v>-14.546133906037198</v>
       </c>
-      <c r="BZ62" s="15">
+      <c r="BZ62" s="26">
         <v>-48.274935194370705</v>
       </c>
-      <c r="CA62" s="15">
-        <v>-29.236997919038075</v>
-      </c>
-      <c r="CB62" s="15">
+      <c r="CA62" s="26">
+        <v>-29.241172934239714</v>
+      </c>
+      <c r="CB62" s="26">
         <v>-0.53342374772174139</v>
       </c>
-      <c r="CC62" s="15">
-        <v>25.722659671252131</v>
-      </c>
-      <c r="CD62" s="27">
-        <v>-10.9794036003575</v>
-      </c>
-      <c r="CE62" s="27">
-        <v>17.991416518440516</v>
-      </c>
-      <c r="CF62" s="27">
+      <c r="CC62" s="26">
+        <v>25.724339626327634</v>
+      </c>
+      <c r="CD62" s="26">
+        <v>-9.75137898184515</v>
+      </c>
+      <c r="CE62" s="26">
+        <v>17.991416518440559</v>
+      </c>
+      <c r="CF62" s="26">
         <v>21.24161403576133</v>
       </c>
-      <c r="CG62" s="27">
-        <v>16.293767522684917</v>
-      </c>
-      <c r="CH62" s="22"/>
+      <c r="CG62" s="26">
+        <v>38.240251722177078</v>
+      </c>
+      <c r="CH62" s="26">
+        <v>95.625997418338784</v>
+      </c>
       <c r="CI62" s="22"/>
       <c r="CJ62" s="22"/>
       <c r="CK62" s="22"/>
-      <c r="CL62" s="9"/>
+      <c r="CL62" s="22"/>
       <c r="CM62" s="9"/>
       <c r="CN62" s="9"/>
       <c r="CO62" s="9"/>
@@ -32641,7 +32886,7 @@
       <c r="ER62" s="9"/>
       <c r="ES62" s="9"/>
     </row>
-    <row r="63" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
@@ -32873,35 +33118,37 @@
       <c r="BY63" s="15">
         <v>4.4545205273730772</v>
       </c>
-      <c r="BZ63" s="15">
-        <v>-5.0375444134441523</v>
-      </c>
-      <c r="CA63" s="15">
+      <c r="BZ63" s="26">
+        <v>-5.0398430738727029</v>
+      </c>
+      <c r="CA63" s="26">
         <v>-40.841951319106897</v>
       </c>
-      <c r="CB63" s="15">
+      <c r="CB63" s="26">
         <v>-18.174688359985353</v>
       </c>
-      <c r="CC63" s="15">
-        <v>-8.0426771357939231</v>
-      </c>
-      <c r="CD63" s="27">
-        <v>-4.6665219500198987</v>
-      </c>
-      <c r="CE63" s="27">
-        <v>29.847578301255226</v>
-      </c>
-      <c r="CF63" s="27">
-        <v>19.600819937299491</v>
-      </c>
-      <c r="CG63" s="27">
-        <v>1.3035987340590793</v>
-      </c>
-      <c r="CH63" s="22"/>
+      <c r="CC63" s="26">
+        <v>-7.9875175088666737</v>
+      </c>
+      <c r="CD63" s="26">
+        <v>-5.3424162132411652</v>
+      </c>
+      <c r="CE63" s="26">
+        <v>30.369997931716398</v>
+      </c>
+      <c r="CF63" s="26">
+        <v>20.076158489249323</v>
+      </c>
+      <c r="CG63" s="26">
+        <v>-0.30169287446821613</v>
+      </c>
+      <c r="CH63" s="26">
+        <v>19.139162742085063</v>
+      </c>
       <c r="CI63" s="22"/>
       <c r="CJ63" s="22"/>
       <c r="CK63" s="22"/>
-      <c r="CL63" s="9"/>
+      <c r="CL63" s="22"/>
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
       <c r="CO63" s="9"/>
@@ -32962,7 +33209,7 @@
       <c r="ER63" s="9"/>
       <c r="ES63" s="9"/>
     </row>
-    <row r="64" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -33039,10 +33286,10 @@
       <c r="BW64" s="9"/>
       <c r="BX64" s="9"/>
       <c r="BY64" s="9"/>
-      <c r="BZ64" s="9"/>
-      <c r="CA64" s="9"/>
-      <c r="CB64" s="9"/>
-      <c r="CC64" s="9"/>
+      <c r="BZ64" s="22"/>
+      <c r="CA64" s="22"/>
+      <c r="CB64" s="22"/>
+      <c r="CC64" s="22"/>
       <c r="CD64" s="22"/>
       <c r="CE64" s="22"/>
       <c r="CF64" s="22"/>
@@ -33051,7 +33298,7 @@
       <c r="CI64" s="22"/>
       <c r="CJ64" s="22"/>
       <c r="CK64" s="22"/>
-      <c r="CL64" s="9"/>
+      <c r="CL64" s="22"/>
       <c r="CM64" s="9"/>
       <c r="CN64" s="9"/>
       <c r="CO64" s="9"/>
@@ -33112,7 +33359,7 @@
       <c r="ER64" s="9"/>
       <c r="ES64" s="9"/>
     </row>
-    <row r="65" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>15</v>
       </c>
@@ -33344,35 +33591,37 @@
       <c r="BY65" s="15">
         <v>-5.0238582578090956</v>
       </c>
-      <c r="BZ65" s="15">
-        <v>-21.447716010938706</v>
-      </c>
-      <c r="CA65" s="15">
-        <v>-28.186209178249896</v>
-      </c>
-      <c r="CB65" s="15">
-        <v>-11.52046672247252</v>
-      </c>
-      <c r="CC65" s="15">
-        <v>1.5258324395362166</v>
-      </c>
-      <c r="CD65" s="27">
-        <v>24.543860922872838</v>
-      </c>
-      <c r="CE65" s="27">
-        <v>40.242315220447495</v>
-      </c>
-      <c r="CF65" s="27">
-        <v>39.78050031765747</v>
-      </c>
-      <c r="CG65" s="27">
-        <v>25.432531007881138</v>
-      </c>
-      <c r="CH65" s="22"/>
+      <c r="BZ65" s="26">
+        <v>-21.433863332409999</v>
+      </c>
+      <c r="CA65" s="26">
+        <v>-28.193297561619474</v>
+      </c>
+      <c r="CB65" s="26">
+        <v>-8.4940804800063887</v>
+      </c>
+      <c r="CC65" s="26">
+        <v>1.2348797981872366</v>
+      </c>
+      <c r="CD65" s="26">
+        <v>26.303416268877797</v>
+      </c>
+      <c r="CE65" s="26">
+        <v>49.568417018317632</v>
+      </c>
+      <c r="CF65" s="26">
+        <v>39.607981779550386</v>
+      </c>
+      <c r="CG65" s="26">
+        <v>26.562020337138776</v>
+      </c>
+      <c r="CH65" s="26">
+        <v>60.063428601474612</v>
+      </c>
       <c r="CI65" s="22"/>
       <c r="CJ65" s="22"/>
       <c r="CK65" s="22"/>
-      <c r="CL65" s="9"/>
+      <c r="CL65" s="22"/>
       <c r="CM65" s="9"/>
       <c r="CN65" s="9"/>
       <c r="CO65" s="9"/>
@@ -33433,7 +33682,7 @@
       <c r="ER65" s="9"/>
       <c r="ES65" s="9"/>
     </row>
-    <row r="66" spans="1:149" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:149" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -33511,10 +33760,10 @@
       <c r="BW66" s="13"/>
       <c r="BX66" s="13"/>
       <c r="BY66" s="13"/>
-      <c r="BZ66" s="13"/>
-      <c r="CA66" s="13"/>
-      <c r="CB66" s="13"/>
-      <c r="CC66" s="13"/>
+      <c r="BZ66" s="24"/>
+      <c r="CA66" s="24"/>
+      <c r="CB66" s="24"/>
+      <c r="CC66" s="24"/>
       <c r="CD66" s="24"/>
       <c r="CE66" s="24"/>
       <c r="CF66" s="24"/>
@@ -33523,11 +33772,16 @@
       <c r="CI66" s="24"/>
       <c r="CJ66" s="24"/>
       <c r="CK66" s="24"/>
+      <c r="CL66" s="24"/>
     </row>
-    <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>51</v>
       </c>
+      <c r="BZ67" s="19"/>
+      <c r="CA67" s="19"/>
+      <c r="CB67" s="19"/>
+      <c r="CC67" s="19"/>
       <c r="CD67" s="19"/>
       <c r="CE67" s="19"/>
       <c r="CF67" s="19"/>
@@ -33536,8 +33790,9 @@
       <c r="CI67" s="19"/>
       <c r="CJ67" s="19"/>
       <c r="CK67" s="19"/>
+      <c r="CL67" s="19"/>
     </row>
-    <row r="68" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>0</v>
       </c>
@@ -33617,10 +33872,10 @@
       <c r="BW68" s="9"/>
       <c r="BX68" s="9"/>
       <c r="BY68" s="9"/>
-      <c r="BZ68" s="9"/>
-      <c r="CA68" s="9"/>
-      <c r="CB68" s="9"/>
-      <c r="CC68" s="9"/>
+      <c r="BZ68" s="22"/>
+      <c r="CA68" s="22"/>
+      <c r="CB68" s="22"/>
+      <c r="CC68" s="22"/>
       <c r="CD68" s="22"/>
       <c r="CE68" s="22"/>
       <c r="CF68" s="22"/>
@@ -33629,7 +33884,7 @@
       <c r="CI68" s="22"/>
       <c r="CJ68" s="22"/>
       <c r="CK68" s="22"/>
-      <c r="CL68" s="9"/>
+      <c r="CL68" s="22"/>
       <c r="CM68" s="9"/>
       <c r="CN68" s="9"/>
       <c r="CO68" s="9"/>
@@ -33690,7 +33945,7 @@
       <c r="ER68" s="9"/>
       <c r="ES68" s="9"/>
     </row>
-    <row r="69" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -33767,10 +34022,10 @@
       <c r="BW69" s="9"/>
       <c r="BX69" s="9"/>
       <c r="BY69" s="9"/>
-      <c r="BZ69" s="9"/>
-      <c r="CA69" s="9"/>
-      <c r="CB69" s="9"/>
-      <c r="CC69" s="9"/>
+      <c r="BZ69" s="22"/>
+      <c r="CA69" s="22"/>
+      <c r="CB69" s="22"/>
+      <c r="CC69" s="22"/>
       <c r="CD69" s="22"/>
       <c r="CE69" s="22"/>
       <c r="CF69" s="22"/>
@@ -33779,7 +34034,7 @@
       <c r="CI69" s="22"/>
       <c r="CJ69" s="22"/>
       <c r="CK69" s="22"/>
-      <c r="CL69" s="9"/>
+      <c r="CL69" s="22"/>
       <c r="CM69" s="9"/>
       <c r="CN69" s="9"/>
       <c r="CO69" s="9"/>
@@ -33840,10 +34095,14 @@
       <c r="ER69" s="9"/>
       <c r="ES69" s="9"/>
     </row>
-    <row r="70" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ70" s="19"/>
+      <c r="CA70" s="19"/>
+      <c r="CB70" s="19"/>
+      <c r="CC70" s="19"/>
       <c r="CD70" s="19"/>
       <c r="CE70" s="19"/>
       <c r="CF70" s="19"/>
@@ -33852,11 +34111,16 @@
       <c r="CI70" s="19"/>
       <c r="CJ70" s="19"/>
       <c r="CK70" s="19"/>
+      <c r="CL70" s="19"/>
     </row>
-    <row r="71" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="BZ71" s="19"/>
+      <c r="CA71" s="19"/>
+      <c r="CB71" s="19"/>
+      <c r="CC71" s="19"/>
       <c r="CD71" s="19"/>
       <c r="CE71" s="19"/>
       <c r="CF71" s="19"/>
@@ -33865,11 +34129,16 @@
       <c r="CI71" s="19"/>
       <c r="CJ71" s="19"/>
       <c r="CK71" s="19"/>
+      <c r="CL71" s="19"/>
     </row>
-    <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="BZ72" s="19"/>
+      <c r="CA72" s="19"/>
+      <c r="CB72" s="19"/>
+      <c r="CC72" s="19"/>
       <c r="CD72" s="19"/>
       <c r="CE72" s="19"/>
       <c r="CF72" s="19"/>
@@ -33878,8 +34147,13 @@
       <c r="CI72" s="19"/>
       <c r="CJ72" s="19"/>
       <c r="CK72" s="19"/>
+      <c r="CL72" s="19"/>
     </row>
-    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ73" s="19"/>
+      <c r="CA73" s="19"/>
+      <c r="CB73" s="19"/>
+      <c r="CC73" s="19"/>
       <c r="CD73" s="19"/>
       <c r="CE73" s="19"/>
       <c r="CF73" s="19"/>
@@ -33888,11 +34162,16 @@
       <c r="CI73" s="19"/>
       <c r="CJ73" s="19"/>
       <c r="CK73" s="19"/>
+      <c r="CL73" s="19"/>
     </row>
-    <row r="74" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="BZ74" s="19"/>
+      <c r="CA74" s="19"/>
+      <c r="CB74" s="19"/>
+      <c r="CC74" s="19"/>
       <c r="CD74" s="19"/>
       <c r="CE74" s="19"/>
       <c r="CF74" s="19"/>
@@ -33901,11 +34180,16 @@
       <c r="CI74" s="19"/>
       <c r="CJ74" s="19"/>
       <c r="CK74" s="19"/>
+      <c r="CL74" s="19"/>
     </row>
-    <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="BZ75" s="19"/>
+      <c r="CA75" s="19"/>
+      <c r="CB75" s="19"/>
+      <c r="CC75" s="19"/>
       <c r="CD75" s="19"/>
       <c r="CE75" s="19"/>
       <c r="CF75" s="19"/>
@@ -33914,11 +34198,16 @@
       <c r="CI75" s="19"/>
       <c r="CJ75" s="19"/>
       <c r="CK75" s="19"/>
+      <c r="CL75" s="19"/>
     </row>
-    <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="BZ76" s="19"/>
+      <c r="CA76" s="19"/>
+      <c r="CB76" s="19"/>
+      <c r="CC76" s="19"/>
       <c r="CD76" s="19"/>
       <c r="CE76" s="19"/>
       <c r="CF76" s="19"/>
@@ -33927,8 +34216,13 @@
       <c r="CI76" s="19"/>
       <c r="CJ76" s="19"/>
       <c r="CK76" s="19"/>
+      <c r="CL76" s="19"/>
     </row>
-    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ77" s="19"/>
+      <c r="CA77" s="19"/>
+      <c r="CB77" s="19"/>
+      <c r="CC77" s="19"/>
       <c r="CD77" s="19"/>
       <c r="CE77" s="19"/>
       <c r="CF77" s="19"/>
@@ -33937,141 +34231,145 @@
       <c r="CI77" s="19"/>
       <c r="CJ77" s="19"/>
       <c r="CK77" s="19"/>
+      <c r="CL77" s="19"/>
     </row>
-    <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="32" t="s">
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="32" t="s">
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="32" t="s">
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="O78" s="33"/>
-      <c r="P78" s="33"/>
-      <c r="Q78" s="33"/>
-      <c r="R78" s="32" t="s">
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="33"/>
-      <c r="T78" s="33"/>
-      <c r="U78" s="33"/>
-      <c r="V78" s="32" t="s">
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="W78" s="33"/>
-      <c r="X78" s="33"/>
-      <c r="Y78" s="33"/>
-      <c r="Z78" s="32" t="s">
+      <c r="W78" s="34"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AA78" s="33"/>
-      <c r="AB78" s="33"/>
-      <c r="AC78" s="33"/>
-      <c r="AD78" s="32" t="s">
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="34"/>
+      <c r="AC78" s="34"/>
+      <c r="AD78" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="33"/>
-      <c r="AF78" s="33"/>
-      <c r="AG78" s="33"/>
-      <c r="AH78" s="32" t="s">
+      <c r="AE78" s="34"/>
+      <c r="AF78" s="34"/>
+      <c r="AG78" s="34"/>
+      <c r="AH78" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AI78" s="33"/>
-      <c r="AJ78" s="33"/>
-      <c r="AK78" s="33"/>
-      <c r="AL78" s="32" t="s">
+      <c r="AI78" s="34"/>
+      <c r="AJ78" s="34"/>
+      <c r="AK78" s="34"/>
+      <c r="AL78" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AM78" s="33"/>
-      <c r="AN78" s="33"/>
-      <c r="AO78" s="33"/>
-      <c r="AP78" s="32" t="s">
+      <c r="AM78" s="34"/>
+      <c r="AN78" s="34"/>
+      <c r="AO78" s="34"/>
+      <c r="AP78" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AQ78" s="33"/>
-      <c r="AR78" s="33"/>
-      <c r="AS78" s="33"/>
-      <c r="AT78" s="32" t="s">
+      <c r="AQ78" s="34"/>
+      <c r="AR78" s="34"/>
+      <c r="AS78" s="34"/>
+      <c r="AT78" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AU78" s="33"/>
-      <c r="AV78" s="33"/>
-      <c r="AW78" s="33"/>
-      <c r="AX78" s="32" t="s">
+      <c r="AU78" s="34"/>
+      <c r="AV78" s="34"/>
+      <c r="AW78" s="34"/>
+      <c r="AX78" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AY78" s="33"/>
-      <c r="AZ78" s="33"/>
-      <c r="BA78" s="33"/>
-      <c r="BB78" s="32" t="s">
+      <c r="AY78" s="34"/>
+      <c r="AZ78" s="34"/>
+      <c r="BA78" s="34"/>
+      <c r="BB78" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="BC78" s="33"/>
-      <c r="BD78" s="33"/>
-      <c r="BE78" s="33"/>
-      <c r="BF78" s="32" t="s">
+      <c r="BC78" s="34"/>
+      <c r="BD78" s="34"/>
+      <c r="BE78" s="34"/>
+      <c r="BF78" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="BG78" s="33"/>
-      <c r="BH78" s="33"/>
-      <c r="BI78" s="33"/>
-      <c r="BJ78" s="32" t="s">
+      <c r="BG78" s="34"/>
+      <c r="BH78" s="34"/>
+      <c r="BI78" s="34"/>
+      <c r="BJ78" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="BK78" s="33"/>
-      <c r="BL78" s="33"/>
-      <c r="BM78" s="33"/>
-      <c r="BN78" s="32" t="s">
+      <c r="BK78" s="34"/>
+      <c r="BL78" s="34"/>
+      <c r="BM78" s="34"/>
+      <c r="BN78" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="BO78" s="33"/>
-      <c r="BP78" s="33"/>
-      <c r="BQ78" s="33"/>
-      <c r="BR78" s="32" t="s">
+      <c r="BO78" s="34"/>
+      <c r="BP78" s="34"/>
+      <c r="BQ78" s="34"/>
+      <c r="BR78" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="BS78" s="33"/>
-      <c r="BT78" s="33"/>
-      <c r="BU78" s="33"/>
-      <c r="BV78" s="32" t="s">
+      <c r="BS78" s="34"/>
+      <c r="BT78" s="34"/>
+      <c r="BU78" s="34"/>
+      <c r="BV78" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="BW78" s="33"/>
-      <c r="BX78" s="33"/>
-      <c r="BY78" s="33"/>
+      <c r="BW78" s="34"/>
+      <c r="BX78" s="34"/>
+      <c r="BY78" s="34"/>
       <c r="BZ78" s="32" t="s">
         <v>31</v>
       </c>
       <c r="CA78" s="32"/>
       <c r="CB78" s="32"/>
       <c r="CC78" s="32"/>
-      <c r="CD78" s="31" t="s">
+      <c r="CD78" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="CE78" s="31"/>
-      <c r="CF78" s="31"/>
-      <c r="CG78" s="31"/>
-      <c r="CH78" s="25"/>
-      <c r="CI78" s="25"/>
-      <c r="CJ78" s="25"/>
-      <c r="CK78" s="25"/>
+      <c r="CE78" s="32"/>
+      <c r="CF78" s="32"/>
+      <c r="CG78" s="32"/>
+      <c r="CH78" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="CI78" s="31"/>
+      <c r="CJ78" s="31"/>
+      <c r="CK78" s="31"/>
+      <c r="CL78" s="30"/>
     </row>
-    <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>4</v>
       </c>
@@ -34303,37 +34601,44 @@
       <c r="BY79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ79" s="5" t="s">
+      <c r="BZ79" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CA79" s="5" t="s">
+      <c r="CA79" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CB79" s="5" t="s">
+      <c r="CB79" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CC79" s="5" t="s">
+      <c r="CC79" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CD79" s="30" t="s">
+      <c r="CD79" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CE79" s="30" t="s">
+      <c r="CE79" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CF79" s="30" t="s">
+      <c r="CF79" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CG79" s="30" t="s">
+      <c r="CG79" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CH79" s="26"/>
-      <c r="CI79" s="26"/>
-      <c r="CJ79" s="26"/>
-      <c r="CK79" s="26"/>
+      <c r="CH79" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI79" s="25"/>
+      <c r="CJ79" s="25"/>
+      <c r="CK79" s="25"/>
+      <c r="CL79" s="25"/>
     </row>
-    <row r="80" spans="1:149" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
+      <c r="BZ80" s="19"/>
+      <c r="CA80" s="19"/>
+      <c r="CB80" s="19"/>
+      <c r="CC80" s="19"/>
       <c r="CD80" s="19"/>
       <c r="CE80" s="19"/>
       <c r="CF80" s="19"/>
@@ -34342,8 +34647,9 @@
       <c r="CI80" s="19"/>
       <c r="CJ80" s="19"/>
       <c r="CK80" s="19"/>
+      <c r="CL80" s="19"/>
     </row>
-    <row r="81" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -34575,35 +34881,37 @@
       <c r="BY81" s="15">
         <v>-11.717000521221109</v>
       </c>
-      <c r="BZ81" s="15">
-        <v>-21.729453696149605</v>
-      </c>
-      <c r="CA81" s="15">
+      <c r="BZ81" s="26">
+        <v>-21.729453696149633</v>
+      </c>
+      <c r="CA81" s="26">
         <v>-2.8470499873719746E-2</v>
       </c>
-      <c r="CB81" s="15">
+      <c r="CB81" s="26">
         <v>-5.5111504675550265</v>
       </c>
-      <c r="CC81" s="15">
-        <v>-29.016257688917619</v>
-      </c>
-      <c r="CD81" s="27">
-        <v>41.513871769367512</v>
-      </c>
-      <c r="CE81" s="27">
-        <v>-2.6959541444040553</v>
-      </c>
-      <c r="CF81" s="27">
-        <v>-39.467722773414323</v>
-      </c>
-      <c r="CG81" s="27">
-        <v>-14.272644093247735</v>
-      </c>
-      <c r="CH81" s="22"/>
+      <c r="CC81" s="26">
+        <v>-29.128619923570156</v>
+      </c>
+      <c r="CD81" s="26">
+        <v>42.050400588802347</v>
+      </c>
+      <c r="CE81" s="26">
+        <v>-2.6817472259566273</v>
+      </c>
+      <c r="CF81" s="26">
+        <v>-38.970925777827645</v>
+      </c>
+      <c r="CG81" s="26">
+        <v>17.497800260083721</v>
+      </c>
+      <c r="CH81" s="26">
+        <v>48.613392684051007</v>
+      </c>
       <c r="CI81" s="22"/>
       <c r="CJ81" s="22"/>
       <c r="CK81" s="22"/>
-      <c r="CL81" s="9"/>
+      <c r="CL81" s="22"/>
       <c r="CM81" s="9"/>
       <c r="CN81" s="9"/>
       <c r="CO81" s="9"/>
@@ -34664,7 +34972,7 @@
       <c r="ER81" s="9"/>
       <c r="ES81" s="9"/>
     </row>
-    <row r="82" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -34896,35 +35204,37 @@
       <c r="BY82" s="15">
         <v>-6.1412693465815664</v>
       </c>
-      <c r="BZ82" s="15">
+      <c r="BZ82" s="26">
         <v>-12.667527893117807</v>
       </c>
-      <c r="CA82" s="15">
+      <c r="CA82" s="26">
         <v>-20.50730132296637</v>
       </c>
-      <c r="CB82" s="15">
+      <c r="CB82" s="26">
         <v>-12.472417294805197</v>
       </c>
-      <c r="CC82" s="15">
+      <c r="CC82" s="26">
         <v>-16.165360257570555</v>
       </c>
-      <c r="CD82" s="27">
+      <c r="CD82" s="26">
         <v>-19.128862284949705</v>
       </c>
-      <c r="CE82" s="27">
-        <v>-12.695365356936406</v>
-      </c>
-      <c r="CF82" s="27">
-        <v>-8.8966816097809129</v>
-      </c>
-      <c r="CG82" s="27">
-        <v>-6.9100306881362883</v>
-      </c>
-      <c r="CH82" s="22"/>
+      <c r="CE82" s="26">
+        <v>-11.888924433683997</v>
+      </c>
+      <c r="CF82" s="26">
+        <v>-7.9577375929940786</v>
+      </c>
+      <c r="CG82" s="26">
+        <v>-23.026085446635918</v>
+      </c>
+      <c r="CH82" s="26">
+        <v>-5.350227266109826</v>
+      </c>
       <c r="CI82" s="22"/>
       <c r="CJ82" s="22"/>
       <c r="CK82" s="22"/>
-      <c r="CL82" s="9"/>
+      <c r="CL82" s="22"/>
       <c r="CM82" s="9"/>
       <c r="CN82" s="9"/>
       <c r="CO82" s="9"/>
@@ -34985,7 +35295,7 @@
       <c r="ER82" s="9"/>
       <c r="ES82" s="9"/>
     </row>
-    <row r="83" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -35217,35 +35527,37 @@
       <c r="BY83" s="15">
         <v>-17.606565959252549</v>
       </c>
-      <c r="BZ83" s="15">
-        <v>-34.137063145629782</v>
-      </c>
-      <c r="CA83" s="15">
-        <v>-28.189725568601361</v>
-      </c>
-      <c r="CB83" s="15">
-        <v>-22.628688528805739</v>
-      </c>
-      <c r="CC83" s="15">
-        <v>-5.4421669388105158</v>
-      </c>
-      <c r="CD83" s="27">
-        <v>7.8809895677210591</v>
-      </c>
-      <c r="CE83" s="27">
-        <v>1.6699212113083064</v>
-      </c>
-      <c r="CF83" s="27">
-        <v>15.84388936208336</v>
-      </c>
-      <c r="CG83" s="27">
-        <v>8.1108661100133048</v>
-      </c>
-      <c r="CH83" s="22"/>
+      <c r="BZ83" s="26">
+        <v>-34.137186859199872</v>
+      </c>
+      <c r="CA83" s="26">
+        <v>-28.575533888612568</v>
+      </c>
+      <c r="CB83" s="26">
+        <v>-13.167496112000237</v>
+      </c>
+      <c r="CC83" s="26">
+        <v>-5.4222166643073422</v>
+      </c>
+      <c r="CD83" s="26">
+        <v>6.627123343740692</v>
+      </c>
+      <c r="CE83" s="26">
+        <v>18.768427903613528</v>
+      </c>
+      <c r="CF83" s="26">
+        <v>15.804585591435696</v>
+      </c>
+      <c r="CG83" s="26">
+        <v>29.523002567557626</v>
+      </c>
+      <c r="CH83" s="26">
+        <v>20.13036535737956</v>
+      </c>
       <c r="CI83" s="22"/>
       <c r="CJ83" s="22"/>
       <c r="CK83" s="22"/>
-      <c r="CL83" s="9"/>
+      <c r="CL83" s="22"/>
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
       <c r="CO83" s="9"/>
@@ -35306,7 +35618,7 @@
       <c r="ER83" s="9"/>
       <c r="ES83" s="9"/>
     </row>
-    <row r="84" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
@@ -35538,35 +35850,37 @@
       <c r="BY84" s="15">
         <v>27.596943481869005</v>
       </c>
-      <c r="BZ84" s="15">
-        <v>-18.976908911001857</v>
-      </c>
-      <c r="CA84" s="15">
-        <v>-11.610381684518558</v>
-      </c>
-      <c r="CB84" s="15">
-        <v>10.79638733067813</v>
-      </c>
-      <c r="CC84" s="15">
-        <v>53.400281694654041</v>
-      </c>
-      <c r="CD84" s="27">
-        <v>48.021949685556336</v>
-      </c>
-      <c r="CE84" s="27">
-        <v>12.265762473035409</v>
-      </c>
-      <c r="CF84" s="27">
-        <v>7.0500169259951804</v>
-      </c>
-      <c r="CG84" s="27">
-        <v>5.2372480178958654</v>
-      </c>
-      <c r="CH84" s="22"/>
+      <c r="BZ84" s="26">
+        <v>-18.842425833598369</v>
+      </c>
+      <c r="CA84" s="26">
+        <v>-11.316892012792906</v>
+      </c>
+      <c r="CB84" s="26">
+        <v>12.874959226389322</v>
+      </c>
+      <c r="CC84" s="26">
+        <v>47.347469830506412</v>
+      </c>
+      <c r="CD84" s="26">
+        <v>62.214153733151534</v>
+      </c>
+      <c r="CE84" s="26">
+        <v>22.149957853151861</v>
+      </c>
+      <c r="CF84" s="26">
+        <v>8.6071703968878097</v>
+      </c>
+      <c r="CG84" s="26">
+        <v>-16.081864995725894</v>
+      </c>
+      <c r="CH84" s="26">
+        <v>-33.239343021227128</v>
+      </c>
       <c r="CI84" s="22"/>
       <c r="CJ84" s="22"/>
       <c r="CK84" s="22"/>
-      <c r="CL84" s="9"/>
+      <c r="CL84" s="22"/>
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
@@ -35627,7 +35941,7 @@
       <c r="ER84" s="9"/>
       <c r="ES84" s="9"/>
     </row>
-    <row r="85" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>14</v>
       </c>
@@ -35859,35 +36173,37 @@
       <c r="BY85" s="15">
         <v>-16.661325891620976</v>
       </c>
-      <c r="BZ85" s="15">
+      <c r="BZ85" s="26">
         <v>-37.542494043908825</v>
       </c>
-      <c r="CA85" s="15">
-        <v>-14.545355652368499</v>
-      </c>
-      <c r="CB85" s="15">
+      <c r="CA85" s="26">
+        <v>-14.550397474065022</v>
+      </c>
+      <c r="CB85" s="26">
         <v>-25.890831133563935</v>
       </c>
-      <c r="CC85" s="15">
-        <v>-22.452431128892584</v>
-      </c>
-      <c r="CD85" s="27">
-        <v>-33.701356665994112</v>
-      </c>
-      <c r="CE85" s="27">
-        <v>-23.533670674738218</v>
-      </c>
-      <c r="CF85" s="27">
+      <c r="CC85" s="26">
+        <v>-22.451394908116939</v>
+      </c>
+      <c r="CD85" s="26">
+        <v>-32.786777686736031</v>
+      </c>
+      <c r="CE85" s="26">
+        <v>-23.533670674738204</v>
+      </c>
+      <c r="CF85" s="26">
         <v>-3.7260011875701053</v>
       </c>
-      <c r="CG85" s="27">
-        <v>-2.608053082538305</v>
-      </c>
-      <c r="CH85" s="22"/>
+      <c r="CG85" s="26">
+        <v>15.771356835236631</v>
+      </c>
+      <c r="CH85" s="26">
+        <v>60.064182133017454</v>
+      </c>
       <c r="CI85" s="22"/>
       <c r="CJ85" s="22"/>
       <c r="CK85" s="22"/>
-      <c r="CL85" s="9"/>
+      <c r="CL85" s="22"/>
       <c r="CM85" s="9"/>
       <c r="CN85" s="9"/>
       <c r="CO85" s="9"/>
@@ -35948,7 +36264,7 @@
       <c r="ER85" s="9"/>
       <c r="ES85" s="9"/>
     </row>
-    <row r="86" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>27</v>
       </c>
@@ -36180,35 +36496,37 @@
       <c r="BY86" s="15">
         <v>-0.47229286411155158</v>
       </c>
-      <c r="BZ86" s="15">
-        <v>-12.164962994208167</v>
-      </c>
-      <c r="CA86" s="15">
+      <c r="BZ86" s="26">
+        <v>-12.167089128400477</v>
+      </c>
+      <c r="CA86" s="26">
         <v>-46.450564116704584</v>
       </c>
-      <c r="CB86" s="15">
+      <c r="CB86" s="26">
         <v>-23.122914136589202</v>
       </c>
-      <c r="CC86" s="15">
-        <v>-20.074613026717046</v>
-      </c>
-      <c r="CD86" s="27">
-        <v>-8.0704676077755124</v>
-      </c>
-      <c r="CE86" s="27">
-        <v>24.656177049326431</v>
-      </c>
-      <c r="CF86" s="27">
-        <v>21.172340594430068</v>
-      </c>
-      <c r="CG86" s="27">
-        <v>21.729166382382402</v>
-      </c>
-      <c r="CH86" s="22"/>
+      <c r="CC86" s="26">
+        <v>-20.02667062919889</v>
+      </c>
+      <c r="CD86" s="26">
+        <v>-8.7222286138298699</v>
+      </c>
+      <c r="CE86" s="26">
+        <v>25.157709960457964</v>
+      </c>
+      <c r="CF86" s="26">
+        <v>21.653924959359387</v>
+      </c>
+      <c r="CG86" s="26">
+        <v>21.1013559304903</v>
+      </c>
+      <c r="CH86" s="26">
+        <v>17.685716694580407</v>
+      </c>
       <c r="CI86" s="22"/>
       <c r="CJ86" s="22"/>
       <c r="CK86" s="22"/>
-      <c r="CL86" s="9"/>
+      <c r="CL86" s="22"/>
       <c r="CM86" s="9"/>
       <c r="CN86" s="9"/>
       <c r="CO86" s="9"/>
@@ -36269,7 +36587,7 @@
       <c r="ER86" s="9"/>
       <c r="ES86" s="9"/>
     </row>
-    <row r="87" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -36346,10 +36664,10 @@
       <c r="BW87" s="9"/>
       <c r="BX87" s="9"/>
       <c r="BY87" s="9"/>
-      <c r="BZ87" s="9"/>
-      <c r="CA87" s="9"/>
-      <c r="CB87" s="9"/>
-      <c r="CC87" s="9"/>
+      <c r="BZ87" s="22"/>
+      <c r="CA87" s="22"/>
+      <c r="CB87" s="22"/>
+      <c r="CC87" s="22"/>
       <c r="CD87" s="22"/>
       <c r="CE87" s="22"/>
       <c r="CF87" s="22"/>
@@ -36358,7 +36676,7 @@
       <c r="CI87" s="22"/>
       <c r="CJ87" s="22"/>
       <c r="CK87" s="22"/>
-      <c r="CL87" s="9"/>
+      <c r="CL87" s="22"/>
       <c r="CM87" s="9"/>
       <c r="CN87" s="9"/>
       <c r="CO87" s="9"/>
@@ -36419,7 +36737,7 @@
       <c r="ER87" s="9"/>
       <c r="ES87" s="9"/>
     </row>
-    <row r="88" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>15</v>
       </c>
@@ -36651,35 +36969,37 @@
       <c r="BY88" s="15">
         <v>-5.8258072785782815</v>
       </c>
-      <c r="BZ88" s="15">
-        <v>-21.267639102904866</v>
-      </c>
-      <c r="CA88" s="15">
-        <v>-21.66341032797169</v>
-      </c>
-      <c r="CB88" s="15">
-        <v>-13.021267094389898</v>
-      </c>
-      <c r="CC88" s="15">
-        <v>-16.382335749086749</v>
-      </c>
-      <c r="CD88" s="27">
-        <v>1.0023477224451653</v>
-      </c>
-      <c r="CE88" s="27">
-        <v>-2.8133988223132178E-2</v>
-      </c>
-      <c r="CF88" s="27">
-        <v>2.9977475980004442</v>
-      </c>
-      <c r="CG88" s="27">
-        <v>7.8771121042389609</v>
-      </c>
-      <c r="CH88" s="22"/>
+      <c r="BZ88" s="26">
+        <v>-21.257103574473689</v>
+      </c>
+      <c r="CA88" s="26">
+        <v>-21.662469079773572</v>
+      </c>
+      <c r="CB88" s="26">
+        <v>-10.899357909864122</v>
+      </c>
+      <c r="CC88" s="26">
+        <v>-16.565118640082517</v>
+      </c>
+      <c r="CD88" s="26">
+        <v>2.0240600225695431</v>
+      </c>
+      <c r="CE88" s="26">
+        <v>4.1758543008941302</v>
+      </c>
+      <c r="CF88" s="26">
+        <v>3.9621386305685178</v>
+      </c>
+      <c r="CG88" s="26">
+        <v>10.668177026354584</v>
+      </c>
+      <c r="CH88" s="26">
+        <v>16.99605489563298</v>
+      </c>
       <c r="CI88" s="22"/>
       <c r="CJ88" s="22"/>
       <c r="CK88" s="22"/>
-      <c r="CL88" s="9"/>
+      <c r="CL88" s="22"/>
       <c r="CM88" s="9"/>
       <c r="CN88" s="9"/>
       <c r="CO88" s="9"/>
@@ -36740,7 +37060,7 @@
       <c r="ER88" s="9"/>
       <c r="ES88" s="9"/>
     </row>
-    <row r="89" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -36818,10 +37138,10 @@
       <c r="BW89" s="13"/>
       <c r="BX89" s="13"/>
       <c r="BY89" s="13"/>
-      <c r="BZ89" s="13"/>
-      <c r="CA89" s="13"/>
-      <c r="CB89" s="13"/>
-      <c r="CC89" s="13"/>
+      <c r="BZ89" s="24"/>
+      <c r="CA89" s="24"/>
+      <c r="CB89" s="24"/>
+      <c r="CC89" s="24"/>
       <c r="CD89" s="24"/>
       <c r="CE89" s="24"/>
       <c r="CF89" s="24"/>
@@ -36830,11 +37150,16 @@
       <c r="CI89" s="24"/>
       <c r="CJ89" s="24"/>
       <c r="CK89" s="24"/>
+      <c r="CL89" s="24"/>
     </row>
-    <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>51</v>
       </c>
+      <c r="BZ90" s="19"/>
+      <c r="CA90" s="19"/>
+      <c r="CB90" s="19"/>
+      <c r="CC90" s="19"/>
       <c r="CD90" s="19"/>
       <c r="CE90" s="19"/>
       <c r="CF90" s="19"/>
@@ -36843,8 +37168,9 @@
       <c r="CI90" s="19"/>
       <c r="CJ90" s="19"/>
       <c r="CK90" s="19"/>
+      <c r="CL90" s="19"/>
     </row>
-    <row r="91" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>0</v>
       </c>
@@ -36924,10 +37250,10 @@
       <c r="BW91" s="9"/>
       <c r="BX91" s="9"/>
       <c r="BY91" s="9"/>
-      <c r="BZ91" s="9"/>
-      <c r="CA91" s="9"/>
-      <c r="CB91" s="9"/>
-      <c r="CC91" s="9"/>
+      <c r="BZ91" s="22"/>
+      <c r="CA91" s="22"/>
+      <c r="CB91" s="22"/>
+      <c r="CC91" s="22"/>
       <c r="CD91" s="22"/>
       <c r="CE91" s="22"/>
       <c r="CF91" s="22"/>
@@ -36936,7 +37262,7 @@
       <c r="CI91" s="22"/>
       <c r="CJ91" s="22"/>
       <c r="CK91" s="22"/>
-      <c r="CL91" s="9"/>
+      <c r="CL91" s="22"/>
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
@@ -36997,7 +37323,7 @@
       <c r="ER91" s="9"/>
       <c r="ES91" s="9"/>
     </row>
-    <row r="92" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -37074,10 +37400,10 @@
       <c r="BW92" s="9"/>
       <c r="BX92" s="9"/>
       <c r="BY92" s="9"/>
-      <c r="BZ92" s="9"/>
-      <c r="CA92" s="9"/>
-      <c r="CB92" s="9"/>
-      <c r="CC92" s="9"/>
+      <c r="BZ92" s="22"/>
+      <c r="CA92" s="22"/>
+      <c r="CB92" s="22"/>
+      <c r="CC92" s="22"/>
       <c r="CD92" s="22"/>
       <c r="CE92" s="22"/>
       <c r="CF92" s="22"/>
@@ -37086,7 +37412,7 @@
       <c r="CI92" s="22"/>
       <c r="CJ92" s="22"/>
       <c r="CK92" s="22"/>
-      <c r="CL92" s="9"/>
+      <c r="CL92" s="22"/>
       <c r="CM92" s="9"/>
       <c r="CN92" s="9"/>
       <c r="CO92" s="9"/>
@@ -37152,10 +37478,14 @@
       <c r="EW92" s="9"/>
       <c r="EX92" s="9"/>
     </row>
-    <row r="93" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ93" s="19"/>
+      <c r="CA93" s="19"/>
+      <c r="CB93" s="19"/>
+      <c r="CC93" s="19"/>
       <c r="CD93" s="19"/>
       <c r="CE93" s="19"/>
       <c r="CF93" s="19"/>
@@ -37164,11 +37494,16 @@
       <c r="CI93" s="19"/>
       <c r="CJ93" s="19"/>
       <c r="CK93" s="19"/>
+      <c r="CL93" s="19"/>
     </row>
-    <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="BZ94" s="19"/>
+      <c r="CA94" s="19"/>
+      <c r="CB94" s="19"/>
+      <c r="CC94" s="19"/>
       <c r="CD94" s="19"/>
       <c r="CE94" s="19"/>
       <c r="CF94" s="19"/>
@@ -37177,8 +37512,13 @@
       <c r="CI94" s="19"/>
       <c r="CJ94" s="19"/>
       <c r="CK94" s="19"/>
+      <c r="CL94" s="19"/>
     </row>
-    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ95" s="19"/>
+      <c r="CA95" s="19"/>
+      <c r="CB95" s="19"/>
+      <c r="CC95" s="19"/>
       <c r="CD95" s="19"/>
       <c r="CE95" s="19"/>
       <c r="CF95" s="19"/>
@@ -37187,11 +37527,16 @@
       <c r="CI95" s="19"/>
       <c r="CJ95" s="19"/>
       <c r="CK95" s="19"/>
+      <c r="CL95" s="19"/>
     </row>
-    <row r="96" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="BZ96" s="19"/>
+      <c r="CA96" s="19"/>
+      <c r="CB96" s="19"/>
+      <c r="CC96" s="19"/>
       <c r="CD96" s="19"/>
       <c r="CE96" s="19"/>
       <c r="CF96" s="19"/>
@@ -37200,11 +37545,16 @@
       <c r="CI96" s="19"/>
       <c r="CJ96" s="19"/>
       <c r="CK96" s="19"/>
+      <c r="CL96" s="19"/>
     </row>
-    <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="BZ97" s="19"/>
+      <c r="CA97" s="19"/>
+      <c r="CB97" s="19"/>
+      <c r="CC97" s="19"/>
       <c r="CD97" s="19"/>
       <c r="CE97" s="19"/>
       <c r="CF97" s="19"/>
@@ -37213,11 +37563,16 @@
       <c r="CI97" s="19"/>
       <c r="CJ97" s="19"/>
       <c r="CK97" s="19"/>
+      <c r="CL97" s="19"/>
     </row>
-    <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="BZ98" s="19"/>
+      <c r="CA98" s="19"/>
+      <c r="CB98" s="19"/>
+      <c r="CC98" s="19"/>
       <c r="CD98" s="19"/>
       <c r="CE98" s="19"/>
       <c r="CF98" s="19"/>
@@ -37226,8 +37581,13 @@
       <c r="CI98" s="19"/>
       <c r="CJ98" s="19"/>
       <c r="CK98" s="19"/>
+      <c r="CL98" s="19"/>
     </row>
-    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ99" s="19"/>
+      <c r="CA99" s="19"/>
+      <c r="CB99" s="19"/>
+      <c r="CC99" s="19"/>
       <c r="CD99" s="19"/>
       <c r="CE99" s="19"/>
       <c r="CF99" s="19"/>
@@ -37236,143 +37596,147 @@
       <c r="CI99" s="19"/>
       <c r="CJ99" s="19"/>
       <c r="CK99" s="19"/>
+      <c r="CL99" s="19"/>
     </row>
-    <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
-      <c r="B100" s="32">
+      <c r="B100" s="33">
         <v>2000</v>
       </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32">
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33">
         <v>2001</v>
       </c>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32">
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33">
         <v>2002</v>
       </c>
-      <c r="K100" s="32"/>
-      <c r="L100" s="32"/>
-      <c r="M100" s="32"/>
-      <c r="N100" s="32">
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="33">
         <v>2003</v>
       </c>
-      <c r="O100" s="32"/>
-      <c r="P100" s="32"/>
-      <c r="Q100" s="32"/>
-      <c r="R100" s="32">
+      <c r="O100" s="33"/>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="33">
         <v>2004</v>
       </c>
-      <c r="S100" s="32"/>
-      <c r="T100" s="32"/>
-      <c r="U100" s="32"/>
-      <c r="V100" s="32">
+      <c r="S100" s="33"/>
+      <c r="T100" s="33"/>
+      <c r="U100" s="33"/>
+      <c r="V100" s="33">
         <v>2005</v>
       </c>
-      <c r="W100" s="32"/>
-      <c r="X100" s="32"/>
-      <c r="Y100" s="32"/>
-      <c r="Z100" s="32">
+      <c r="W100" s="33"/>
+      <c r="X100" s="33"/>
+      <c r="Y100" s="33"/>
+      <c r="Z100" s="33">
         <v>2006</v>
       </c>
-      <c r="AA100" s="32"/>
-      <c r="AB100" s="32"/>
-      <c r="AC100" s="32"/>
-      <c r="AD100" s="32">
+      <c r="AA100" s="33"/>
+      <c r="AB100" s="33"/>
+      <c r="AC100" s="33"/>
+      <c r="AD100" s="33">
         <v>2007</v>
       </c>
-      <c r="AE100" s="32"/>
-      <c r="AF100" s="32"/>
-      <c r="AG100" s="32"/>
-      <c r="AH100" s="32">
+      <c r="AE100" s="33"/>
+      <c r="AF100" s="33"/>
+      <c r="AG100" s="33"/>
+      <c r="AH100" s="33">
         <v>2008</v>
       </c>
-      <c r="AI100" s="32"/>
-      <c r="AJ100" s="32"/>
-      <c r="AK100" s="32"/>
-      <c r="AL100" s="32">
+      <c r="AI100" s="33"/>
+      <c r="AJ100" s="33"/>
+      <c r="AK100" s="33"/>
+      <c r="AL100" s="33">
         <v>2009</v>
       </c>
-      <c r="AM100" s="32"/>
-      <c r="AN100" s="32"/>
-      <c r="AO100" s="32"/>
-      <c r="AP100" s="32">
+      <c r="AM100" s="33"/>
+      <c r="AN100" s="33"/>
+      <c r="AO100" s="33"/>
+      <c r="AP100" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ100" s="32"/>
-      <c r="AR100" s="32"/>
-      <c r="AS100" s="32"/>
-      <c r="AT100" s="32">
+      <c r="AQ100" s="33"/>
+      <c r="AR100" s="33"/>
+      <c r="AS100" s="33"/>
+      <c r="AT100" s="33">
         <v>2011</v>
       </c>
-      <c r="AU100" s="32"/>
-      <c r="AV100" s="32"/>
-      <c r="AW100" s="32"/>
-      <c r="AX100" s="32">
+      <c r="AU100" s="33"/>
+      <c r="AV100" s="33"/>
+      <c r="AW100" s="33"/>
+      <c r="AX100" s="33">
         <v>2012</v>
       </c>
-      <c r="AY100" s="32"/>
-      <c r="AZ100" s="32"/>
-      <c r="BA100" s="32"/>
-      <c r="BB100" s="32">
+      <c r="AY100" s="33"/>
+      <c r="AZ100" s="33"/>
+      <c r="BA100" s="33"/>
+      <c r="BB100" s="33">
         <v>2013</v>
       </c>
-      <c r="BC100" s="32"/>
-      <c r="BD100" s="32"/>
-      <c r="BE100" s="32"/>
-      <c r="BF100" s="32">
+      <c r="BC100" s="33"/>
+      <c r="BD100" s="33"/>
+      <c r="BE100" s="33"/>
+      <c r="BF100" s="33">
         <v>2014</v>
       </c>
-      <c r="BG100" s="32"/>
-      <c r="BH100" s="32"/>
-      <c r="BI100" s="32"/>
-      <c r="BJ100" s="32">
+      <c r="BG100" s="33"/>
+      <c r="BH100" s="33"/>
+      <c r="BI100" s="33"/>
+      <c r="BJ100" s="33">
         <v>2015</v>
       </c>
-      <c r="BK100" s="32"/>
-      <c r="BL100" s="32"/>
-      <c r="BM100" s="32"/>
-      <c r="BN100" s="32">
+      <c r="BK100" s="33"/>
+      <c r="BL100" s="33"/>
+      <c r="BM100" s="33"/>
+      <c r="BN100" s="33">
         <v>2016</v>
       </c>
-      <c r="BO100" s="32"/>
-      <c r="BP100" s="32"/>
-      <c r="BQ100" s="32"/>
-      <c r="BR100" s="32">
+      <c r="BO100" s="33"/>
+      <c r="BP100" s="33"/>
+      <c r="BQ100" s="33"/>
+      <c r="BR100" s="33">
         <v>2017</v>
       </c>
-      <c r="BS100" s="32"/>
-      <c r="BT100" s="32"/>
-      <c r="BU100" s="32"/>
-      <c r="BV100" s="32">
+      <c r="BS100" s="33"/>
+      <c r="BT100" s="33"/>
+      <c r="BU100" s="33"/>
+      <c r="BV100" s="33">
         <v>2018</v>
       </c>
-      <c r="BW100" s="32"/>
-      <c r="BX100" s="32"/>
-      <c r="BY100" s="32"/>
+      <c r="BW100" s="33"/>
+      <c r="BX100" s="33"/>
+      <c r="BY100" s="33"/>
       <c r="BZ100" s="32">
         <v>2019</v>
       </c>
       <c r="CA100" s="32"/>
       <c r="CB100" s="32"/>
       <c r="CC100" s="32"/>
-      <c r="CD100" s="31">
+      <c r="CD100" s="32">
         <v>2020</v>
       </c>
-      <c r="CE100" s="31"/>
-      <c r="CF100" s="31"/>
-      <c r="CG100" s="31"/>
-      <c r="CH100" s="31">
+      <c r="CE100" s="32"/>
+      <c r="CF100" s="32"/>
+      <c r="CG100" s="32"/>
+      <c r="CH100" s="32">
         <v>2021</v>
       </c>
-      <c r="CI100" s="31"/>
-      <c r="CJ100" s="31"/>
-      <c r="CK100" s="31"/>
+      <c r="CI100" s="32"/>
+      <c r="CJ100" s="32"/>
+      <c r="CK100" s="32"/>
+      <c r="CL100" s="31">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>4</v>
       </c>
@@ -37604,16 +37968,16 @@
       <c r="BY101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ101" s="6" t="s">
+      <c r="BZ101" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CA101" s="6" t="s">
+      <c r="CA101" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="CB101" s="6" t="s">
+      <c r="CB101" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="CC101" s="6" t="s">
+      <c r="CC101" s="20" t="s">
         <v>9</v>
       </c>
       <c r="CD101" s="20" t="s">
@@ -37640,9 +38004,16 @@
       <c r="CK101" s="20" t="s">
         <v>9</v>
       </c>
+      <c r="CL101" s="20" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="102" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
+      <c r="BZ102" s="19"/>
+      <c r="CA102" s="19"/>
+      <c r="CB102" s="19"/>
+      <c r="CC102" s="19"/>
       <c r="CD102" s="19"/>
       <c r="CE102" s="19"/>
       <c r="CF102" s="19"/>
@@ -37651,8 +38022,9 @@
       <c r="CI102" s="19"/>
       <c r="CJ102" s="19"/>
       <c r="CK102" s="19"/>
+      <c r="CL102" s="19"/>
     </row>
-    <row r="103" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -37884,43 +38256,45 @@
       <c r="BY103" s="15">
         <v>57.334845303449619</v>
       </c>
-      <c r="BZ103" s="15">
+      <c r="BZ103" s="26">
         <v>67.238689524633884</v>
       </c>
-      <c r="CA103" s="15">
+      <c r="CA103" s="26">
         <v>75.758727747794126</v>
       </c>
-      <c r="CB103" s="15">
+      <c r="CB103" s="26">
         <v>127.02617636180354</v>
       </c>
-      <c r="CC103" s="15">
+      <c r="CC103" s="26">
         <v>37.281108473067277</v>
       </c>
-      <c r="CD103" s="27">
+      <c r="CD103" s="26">
         <v>47.896792051949269</v>
       </c>
-      <c r="CE103" s="27">
+      <c r="CE103" s="26">
         <v>49.140539204187625</v>
       </c>
-      <c r="CF103" s="27">
+      <c r="CF103" s="26">
         <v>97.401887555628193</v>
       </c>
-      <c r="CG103" s="27">
-        <v>40.966002497156012</v>
-      </c>
-      <c r="CH103" s="27">
+      <c r="CG103" s="26">
+        <v>40.966002497155998</v>
+      </c>
+      <c r="CH103" s="26">
         <v>58.353281641871625</v>
       </c>
-      <c r="CI103" s="27">
-        <v>92.760380221423333</v>
-      </c>
-      <c r="CJ103" s="27">
-        <v>337.80242795616891</v>
-      </c>
-      <c r="CK103" s="27">
-        <v>123.00525877779694</v>
-      </c>
-      <c r="CL103" s="9"/>
+      <c r="CI103" s="26">
+        <v>92.760380221423347</v>
+      </c>
+      <c r="CJ103" s="26">
+        <v>337.80242795616897</v>
+      </c>
+      <c r="CK103" s="26">
+        <v>123.00525877779684</v>
+      </c>
+      <c r="CL103" s="26">
+        <v>178.75516274041362</v>
+      </c>
       <c r="CM103" s="9"/>
       <c r="CN103" s="9"/>
       <c r="CO103" s="9"/>
@@ -37986,7 +38360,7 @@
       <c r="EW103" s="9"/>
       <c r="EX103" s="9"/>
     </row>
-    <row r="104" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
@@ -38218,43 +38592,45 @@
       <c r="BY104" s="15">
         <v>133.35200354130049</v>
       </c>
-      <c r="BZ104" s="15">
+      <c r="BZ104" s="26">
         <v>129.94367639596018</v>
       </c>
-      <c r="CA104" s="15">
+      <c r="CA104" s="26">
         <v>53.909161473966179</v>
       </c>
-      <c r="CB104" s="15">
+      <c r="CB104" s="26">
         <v>145.50838115651402</v>
       </c>
-      <c r="CC104" s="15">
+      <c r="CC104" s="26">
         <v>123.49013935359257</v>
       </c>
-      <c r="CD104" s="27">
+      <c r="CD104" s="26">
         <v>88.777384071330559</v>
       </c>
-      <c r="CE104" s="27">
+      <c r="CE104" s="26">
         <v>29.588688595822337</v>
       </c>
-      <c r="CF104" s="27">
+      <c r="CF104" s="26">
         <v>109.31644742602396</v>
       </c>
-      <c r="CG104" s="27">
+      <c r="CG104" s="26">
         <v>112.81557200323059</v>
       </c>
-      <c r="CH104" s="27">
+      <c r="CH104" s="26">
         <v>140.26157539851445</v>
       </c>
-      <c r="CI104" s="27">
-        <v>55.137021754137741</v>
-      </c>
-      <c r="CJ104" s="27">
-        <v>229.18253552093654</v>
-      </c>
-      <c r="CK104" s="27">
-        <v>221.88341002912208</v>
-      </c>
-      <c r="CL104" s="9"/>
+      <c r="CI104" s="26">
+        <v>55.218355124929516</v>
+      </c>
+      <c r="CJ104" s="26">
+        <v>229.0931087562432</v>
+      </c>
+      <c r="CK104" s="26">
+        <v>221.33742640289591</v>
+      </c>
+      <c r="CL104" s="26">
+        <v>209.39896127954381</v>
+      </c>
       <c r="CM104" s="9"/>
       <c r="CN104" s="9"/>
       <c r="CO104" s="9"/>
@@ -38320,7 +38696,7 @@
       <c r="EW104" s="9"/>
       <c r="EX104" s="9"/>
     </row>
-    <row r="105" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>28</v>
       </c>
@@ -38552,43 +38928,45 @@
       <c r="BY105" s="15">
         <v>93.226649719036516</v>
       </c>
-      <c r="BZ105" s="15">
+      <c r="BZ105" s="26">
         <v>100.21631428740724</v>
       </c>
-      <c r="CA105" s="15">
+      <c r="CA105" s="26">
         <v>101.55187360506123</v>
       </c>
-      <c r="CB105" s="15">
+      <c r="CB105" s="26">
         <v>129.10617748645669</v>
       </c>
-      <c r="CC105" s="15">
+      <c r="CC105" s="26">
         <v>114.80991647213754</v>
       </c>
-      <c r="CD105" s="27">
-        <v>141.55493605154655</v>
-      </c>
-      <c r="CE105" s="27">
-        <v>160.49185980184083</v>
-      </c>
-      <c r="CF105" s="27">
-        <v>202.46759602014831</v>
-      </c>
-      <c r="CG105" s="27">
-        <v>174.5964097656541</v>
-      </c>
-      <c r="CH105" s="27">
-        <v>161.85713263843488</v>
-      </c>
-      <c r="CI105" s="27">
-        <v>167.32312661721454</v>
-      </c>
-      <c r="CJ105" s="27">
-        <v>178.88890079750536</v>
-      </c>
-      <c r="CK105" s="27">
-        <v>152.17259819223685</v>
-      </c>
-      <c r="CL105" s="9"/>
+      <c r="CD105" s="26">
+        <v>141.55493605154652</v>
+      </c>
+      <c r="CE105" s="26">
+        <v>160.80746542605752</v>
+      </c>
+      <c r="CF105" s="26">
+        <v>202.40336855631381</v>
+      </c>
+      <c r="CG105" s="26">
+        <v>174.59640976565416</v>
+      </c>
+      <c r="CH105" s="26">
+        <v>161.7358924666361</v>
+      </c>
+      <c r="CI105" s="26">
+        <v>167.533548861882</v>
+      </c>
+      <c r="CJ105" s="26">
+        <v>178.81763728415979</v>
+      </c>
+      <c r="CK105" s="26">
+        <v>152.1688293420205</v>
+      </c>
+      <c r="CL105" s="26">
+        <v>170.31055836759282</v>
+      </c>
       <c r="CM105" s="9"/>
       <c r="CN105" s="9"/>
       <c r="CO105" s="9"/>
@@ -38654,7 +39032,7 @@
       <c r="EW105" s="9"/>
       <c r="EX105" s="9"/>
     </row>
-    <row r="106" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>13</v>
       </c>
@@ -38886,43 +39264,45 @@
       <c r="BY106" s="15">
         <v>103.7061710951296</v>
       </c>
-      <c r="BZ106" s="15">
+      <c r="BZ106" s="26">
         <v>115.50949311212936</v>
       </c>
-      <c r="CA106" s="15">
+      <c r="CA106" s="26">
         <v>83.212689741867933</v>
       </c>
-      <c r="CB106" s="15">
+      <c r="CB106" s="26">
         <v>111.93121727332394</v>
       </c>
-      <c r="CC106" s="15">
+      <c r="CC106" s="26">
         <v>134.92227246050126</v>
       </c>
-      <c r="CD106" s="27">
-        <v>122.35785965908556</v>
-      </c>
-      <c r="CE106" s="27">
+      <c r="CD106" s="26">
+        <v>122.35785965908555</v>
+      </c>
+      <c r="CE106" s="26">
         <v>88.867409483774608</v>
       </c>
-      <c r="CF106" s="27">
-        <v>97.188540793752182</v>
-      </c>
-      <c r="CG106" s="27">
-        <v>159.57493355091066</v>
-      </c>
-      <c r="CH106" s="27">
-        <v>169.88075311202175</v>
-      </c>
-      <c r="CI106" s="27">
-        <v>122.03884092762765</v>
-      </c>
-      <c r="CJ106" s="27">
-        <v>138.51568360884326</v>
-      </c>
-      <c r="CK106" s="27">
-        <v>194.7076344367766</v>
-      </c>
-      <c r="CL106" s="9"/>
+      <c r="CF106" s="26">
+        <v>97.188540793752225</v>
+      </c>
+      <c r="CG106" s="26">
+        <v>159.57493355091069</v>
+      </c>
+      <c r="CH106" s="26">
+        <v>169.88075311202167</v>
+      </c>
+      <c r="CI106" s="26">
+        <v>126.06726274079448</v>
+      </c>
+      <c r="CJ106" s="26">
+        <v>138.47139707289588</v>
+      </c>
+      <c r="CK106" s="26">
+        <v>194.70763443677669</v>
+      </c>
+      <c r="CL106" s="26">
+        <v>292.05471367558505</v>
+      </c>
       <c r="CM106" s="9"/>
       <c r="CN106" s="9"/>
       <c r="CO106" s="9"/>
@@ -38988,7 +39368,7 @@
       <c r="EW106" s="9"/>
       <c r="EX106" s="9"/>
     </row>
-    <row r="107" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>14</v>
       </c>
@@ -39220,43 +39600,45 @@
       <c r="BY107" s="15">
         <v>204.24077921468103</v>
       </c>
-      <c r="BZ107" s="15">
+      <c r="BZ107" s="26">
         <v>41.101148626916775</v>
       </c>
-      <c r="CA107" s="15">
+      <c r="CA107" s="26">
         <v>187.35788258995331</v>
       </c>
-      <c r="CB107" s="15">
+      <c r="CB107" s="26">
         <v>140.77368912373146</v>
       </c>
-      <c r="CC107" s="15">
+      <c r="CC107" s="26">
         <v>209.4245485024245</v>
       </c>
-      <c r="CD107" s="27">
+      <c r="CD107" s="26">
         <v>34.038496154612098</v>
       </c>
-      <c r="CE107" s="27">
+      <c r="CE107" s="26">
         <v>155.14670193539871</v>
       </c>
-      <c r="CF107" s="27">
+      <c r="CF107" s="26">
         <v>188.94122141318144</v>
       </c>
-      <c r="CG107" s="27">
-        <v>339.52594029012477</v>
-      </c>
-      <c r="CH107" s="27">
-        <v>45.704211667877289</v>
-      </c>
-      <c r="CI107" s="27">
-        <v>239.3992138900058</v>
-      </c>
-      <c r="CJ107" s="27">
+      <c r="CG107" s="26">
+        <v>339.52594029012465</v>
+      </c>
+      <c r="CH107" s="26">
+        <v>45.704211667877267</v>
+      </c>
+      <c r="CI107" s="26">
+        <v>239.39921389000588</v>
+      </c>
+      <c r="CJ107" s="26">
         <v>237.94107365014412</v>
       </c>
-      <c r="CK107" s="27">
+      <c r="CK107" s="26">
         <v>405.42110531462663</v>
       </c>
-      <c r="CL107" s="9"/>
+      <c r="CL107" s="26">
+        <v>55.858418008328847</v>
+      </c>
       <c r="CM107" s="9"/>
       <c r="CN107" s="9"/>
       <c r="CO107" s="9"/>
@@ -39322,7 +39704,7 @@
       <c r="EW107" s="9"/>
       <c r="EX107" s="9"/>
     </row>
-    <row r="108" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>27</v>
       </c>
@@ -39554,43 +39936,45 @@
       <c r="BY108" s="15">
         <v>85.512846935932956</v>
       </c>
-      <c r="BZ108" s="15">
+      <c r="BZ108" s="26">
         <v>101.17688148515307</v>
       </c>
-      <c r="CA108" s="15">
+      <c r="CA108" s="26">
         <v>98.697347040905086</v>
       </c>
-      <c r="CB108" s="15">
+      <c r="CB108" s="26">
         <v>125.78976637810655</v>
       </c>
-      <c r="CC108" s="15">
+      <c r="CC108" s="26">
         <v>89.745897727032826</v>
       </c>
-      <c r="CD108" s="27">
-        <v>109.38693079603898</v>
-      </c>
-      <c r="CE108" s="27">
+      <c r="CD108" s="26">
+        <v>109.38693079603901</v>
+      </c>
+      <c r="CE108" s="26">
         <v>109.03462127305512</v>
       </c>
-      <c r="CF108" s="27">
+      <c r="CF108" s="26">
         <v>133.88627728814572</v>
       </c>
-      <c r="CG108" s="27">
+      <c r="CG108" s="26">
         <v>103.25620939166022</v>
       </c>
-      <c r="CH108" s="27">
+      <c r="CH108" s="26">
         <v>113.43728500114625</v>
       </c>
-      <c r="CI108" s="27">
+      <c r="CI108" s="26">
         <v>113.57545095979049</v>
       </c>
-      <c r="CJ108" s="27">
+      <c r="CJ108" s="26">
         <v>132.14986574874277</v>
       </c>
-      <c r="CK108" s="27">
-        <v>85.930314926781719</v>
-      </c>
-      <c r="CL108" s="9"/>
+      <c r="CK108" s="26">
+        <v>85.007052129596119</v>
+      </c>
+      <c r="CL108" s="26">
+        <v>114.83826192642989</v>
+      </c>
       <c r="CM108" s="9"/>
       <c r="CN108" s="9"/>
       <c r="CO108" s="9"/>
@@ -39656,7 +40040,7 @@
       <c r="EW108" s="9"/>
       <c r="EX108" s="9"/>
     </row>
-    <row r="109" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -39733,10 +40117,10 @@
       <c r="BW109" s="9"/>
       <c r="BX109" s="9"/>
       <c r="BY109" s="9"/>
-      <c r="BZ109" s="9"/>
-      <c r="CA109" s="9"/>
-      <c r="CB109" s="9"/>
-      <c r="CC109" s="9"/>
+      <c r="BZ109" s="22"/>
+      <c r="CA109" s="22"/>
+      <c r="CB109" s="22"/>
+      <c r="CC109" s="22"/>
       <c r="CD109" s="22"/>
       <c r="CE109" s="22"/>
       <c r="CF109" s="22"/>
@@ -39745,7 +40129,7 @@
       <c r="CI109" s="22"/>
       <c r="CJ109" s="22"/>
       <c r="CK109" s="22"/>
-      <c r="CL109" s="9"/>
+      <c r="CL109" s="22"/>
       <c r="CM109" s="9"/>
       <c r="CN109" s="9"/>
       <c r="CO109" s="9"/>
@@ -39811,7 +40195,7 @@
       <c r="EW109" s="9"/>
       <c r="EX109" s="9"/>
     </row>
-    <row r="110" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>15</v>
       </c>
@@ -40043,43 +40427,45 @@
       <c r="BY110" s="15">
         <v>97.097541825645123</v>
       </c>
-      <c r="BZ110" s="15">
+      <c r="BZ110" s="26">
         <v>93.631900978064152</v>
       </c>
-      <c r="CA110" s="15">
+      <c r="CA110" s="26">
         <v>79.465557701717444</v>
       </c>
-      <c r="CB110" s="15">
+      <c r="CB110" s="26">
         <v>128.08734894493617</v>
       </c>
-      <c r="CC110" s="15">
+      <c r="CC110" s="26">
         <v>97.924384895237566</v>
       </c>
-      <c r="CD110" s="27">
-        <v>93.417745794231962</v>
-      </c>
-      <c r="CE110" s="27">
-        <v>72.848753848197617</v>
-      </c>
-      <c r="CF110" s="27">
-        <v>130.29747013793039</v>
-      </c>
-      <c r="CG110" s="27">
-        <v>118.89658461142628</v>
-      </c>
-      <c r="CH110" s="27">
-        <v>115.19144853837513</v>
-      </c>
-      <c r="CI110" s="27">
-        <v>102.19353012168639</v>
-      </c>
-      <c r="CJ110" s="27">
-        <v>176.82955201205311</v>
-      </c>
-      <c r="CK110" s="27">
-        <v>138.24526115969203</v>
-      </c>
-      <c r="CL110" s="9"/>
+      <c r="CD110" s="26">
+        <v>93.421718816837057</v>
+      </c>
+      <c r="CE110" s="26">
+        <v>72.840688096206975</v>
+      </c>
+      <c r="CF110" s="26">
+        <v>131.54507497519194</v>
+      </c>
+      <c r="CG110" s="26">
+        <v>118.81557416516235</v>
+      </c>
+      <c r="CH110" s="26">
+        <v>115.6539176902661</v>
+      </c>
+      <c r="CI110" s="26">
+        <v>104.5795735123737</v>
+      </c>
+      <c r="CJ110" s="26">
+        <v>176.648370957293</v>
+      </c>
+      <c r="CK110" s="26">
+        <v>135.87952307445209</v>
+      </c>
+      <c r="CL110" s="26">
+        <v>158.22723777490134</v>
+      </c>
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
@@ -40145,7 +40531,7 @@
       <c r="EW110" s="9"/>
       <c r="EX110" s="9"/>
     </row>
-    <row r="111" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -40223,10 +40609,10 @@
       <c r="BW111" s="13"/>
       <c r="BX111" s="13"/>
       <c r="BY111" s="13"/>
-      <c r="BZ111" s="13"/>
-      <c r="CA111" s="13"/>
-      <c r="CB111" s="13"/>
-      <c r="CC111" s="13"/>
+      <c r="BZ111" s="24"/>
+      <c r="CA111" s="24"/>
+      <c r="CB111" s="24"/>
+      <c r="CC111" s="24"/>
       <c r="CD111" s="24"/>
       <c r="CE111" s="24"/>
       <c r="CF111" s="24"/>
@@ -40235,11 +40621,16 @@
       <c r="CI111" s="24"/>
       <c r="CJ111" s="24"/>
       <c r="CK111" s="24"/>
+      <c r="CL111" s="24"/>
     </row>
-    <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="BZ112" s="19"/>
+      <c r="CA112" s="19"/>
+      <c r="CB112" s="19"/>
+      <c r="CC112" s="19"/>
       <c r="CD112" s="19"/>
       <c r="CE112" s="19"/>
       <c r="CF112" s="19"/>
@@ -40248,11 +40639,16 @@
       <c r="CI112" s="19"/>
       <c r="CJ112" s="19"/>
       <c r="CK112" s="19"/>
+      <c r="CL112" s="19"/>
     </row>
-    <row r="115" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ115" s="19"/>
+      <c r="CA115" s="19"/>
+      <c r="CB115" s="19"/>
+      <c r="CC115" s="19"/>
       <c r="CD115" s="19"/>
       <c r="CE115" s="19"/>
       <c r="CF115" s="19"/>
@@ -40261,11 +40657,16 @@
       <c r="CI115" s="19"/>
       <c r="CJ115" s="19"/>
       <c r="CK115" s="19"/>
+      <c r="CL115" s="19"/>
     </row>
-    <row r="116" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="BZ116" s="19"/>
+      <c r="CA116" s="19"/>
+      <c r="CB116" s="19"/>
+      <c r="CC116" s="19"/>
       <c r="CD116" s="19"/>
       <c r="CE116" s="19"/>
       <c r="CF116" s="19"/>
@@ -40274,11 +40675,16 @@
       <c r="CI116" s="19"/>
       <c r="CJ116" s="19"/>
       <c r="CK116" s="19"/>
+      <c r="CL116" s="19"/>
     </row>
-    <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="BZ117" s="19"/>
+      <c r="CA117" s="19"/>
+      <c r="CB117" s="19"/>
+      <c r="CC117" s="19"/>
       <c r="CD117" s="19"/>
       <c r="CE117" s="19"/>
       <c r="CF117" s="19"/>
@@ -40287,8 +40693,13 @@
       <c r="CI117" s="19"/>
       <c r="CJ117" s="19"/>
       <c r="CK117" s="19"/>
+      <c r="CL117" s="19"/>
     </row>
-    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ118" s="19"/>
+      <c r="CA118" s="19"/>
+      <c r="CB118" s="19"/>
+      <c r="CC118" s="19"/>
       <c r="CD118" s="19"/>
       <c r="CE118" s="19"/>
       <c r="CF118" s="19"/>
@@ -40297,11 +40708,16 @@
       <c r="CI118" s="19"/>
       <c r="CJ118" s="19"/>
       <c r="CK118" s="19"/>
+      <c r="CL118" s="19"/>
     </row>
-    <row r="119" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="BZ119" s="19"/>
+      <c r="CA119" s="19"/>
+      <c r="CB119" s="19"/>
+      <c r="CC119" s="19"/>
       <c r="CD119" s="19"/>
       <c r="CE119" s="19"/>
       <c r="CF119" s="19"/>
@@ -40310,11 +40726,16 @@
       <c r="CI119" s="19"/>
       <c r="CJ119" s="19"/>
       <c r="CK119" s="19"/>
+      <c r="CL119" s="19"/>
     </row>
-    <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="BZ120" s="19"/>
+      <c r="CA120" s="19"/>
+      <c r="CB120" s="19"/>
+      <c r="CC120" s="19"/>
       <c r="CD120" s="19"/>
       <c r="CE120" s="19"/>
       <c r="CF120" s="19"/>
@@ -40323,11 +40744,16 @@
       <c r="CI120" s="19"/>
       <c r="CJ120" s="19"/>
       <c r="CK120" s="19"/>
+      <c r="CL120" s="19"/>
     </row>
-    <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="BZ121" s="19"/>
+      <c r="CA121" s="19"/>
+      <c r="CB121" s="19"/>
+      <c r="CC121" s="19"/>
       <c r="CD121" s="19"/>
       <c r="CE121" s="19"/>
       <c r="CF121" s="19"/>
@@ -40336,8 +40762,13 @@
       <c r="CI121" s="19"/>
       <c r="CJ121" s="19"/>
       <c r="CK121" s="19"/>
+      <c r="CL121" s="19"/>
     </row>
-    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ122" s="19"/>
+      <c r="CA122" s="19"/>
+      <c r="CB122" s="19"/>
+      <c r="CC122" s="19"/>
       <c r="CD122" s="19"/>
       <c r="CE122" s="19"/>
       <c r="CF122" s="19"/>
@@ -40346,143 +40777,147 @@
       <c r="CI122" s="19"/>
       <c r="CJ122" s="19"/>
       <c r="CK122" s="19"/>
+      <c r="CL122" s="19"/>
     </row>
-    <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
-      <c r="B123" s="32">
+      <c r="B123" s="33">
         <v>2000</v>
       </c>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32">
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33">
         <v>2001</v>
       </c>
-      <c r="G123" s="32"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="32"/>
-      <c r="J123" s="32">
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="33">
         <v>2002</v>
       </c>
-      <c r="K123" s="32"/>
-      <c r="L123" s="32"/>
-      <c r="M123" s="32"/>
-      <c r="N123" s="32">
+      <c r="K123" s="33"/>
+      <c r="L123" s="33"/>
+      <c r="M123" s="33"/>
+      <c r="N123" s="33">
         <v>2003</v>
       </c>
-      <c r="O123" s="32"/>
-      <c r="P123" s="32"/>
-      <c r="Q123" s="32"/>
-      <c r="R123" s="32">
+      <c r="O123" s="33"/>
+      <c r="P123" s="33"/>
+      <c r="Q123" s="33"/>
+      <c r="R123" s="33">
         <v>2004</v>
       </c>
-      <c r="S123" s="32"/>
-      <c r="T123" s="32"/>
-      <c r="U123" s="32"/>
-      <c r="V123" s="32">
+      <c r="S123" s="33"/>
+      <c r="T123" s="33"/>
+      <c r="U123" s="33"/>
+      <c r="V123" s="33">
         <v>2005</v>
       </c>
-      <c r="W123" s="32"/>
-      <c r="X123" s="32"/>
-      <c r="Y123" s="32"/>
-      <c r="Z123" s="32">
+      <c r="W123" s="33"/>
+      <c r="X123" s="33"/>
+      <c r="Y123" s="33"/>
+      <c r="Z123" s="33">
         <v>2006</v>
       </c>
-      <c r="AA123" s="32"/>
-      <c r="AB123" s="32"/>
-      <c r="AC123" s="32"/>
-      <c r="AD123" s="32">
+      <c r="AA123" s="33"/>
+      <c r="AB123" s="33"/>
+      <c r="AC123" s="33"/>
+      <c r="AD123" s="33">
         <v>2007</v>
       </c>
-      <c r="AE123" s="32"/>
-      <c r="AF123" s="32"/>
-      <c r="AG123" s="32"/>
-      <c r="AH123" s="32">
+      <c r="AE123" s="33"/>
+      <c r="AF123" s="33"/>
+      <c r="AG123" s="33"/>
+      <c r="AH123" s="33">
         <v>2008</v>
       </c>
-      <c r="AI123" s="32"/>
-      <c r="AJ123" s="32"/>
-      <c r="AK123" s="32"/>
-      <c r="AL123" s="32">
+      <c r="AI123" s="33"/>
+      <c r="AJ123" s="33"/>
+      <c r="AK123" s="33"/>
+      <c r="AL123" s="33">
         <v>2009</v>
       </c>
-      <c r="AM123" s="32"/>
-      <c r="AN123" s="32"/>
-      <c r="AO123" s="32"/>
-      <c r="AP123" s="32">
+      <c r="AM123" s="33"/>
+      <c r="AN123" s="33"/>
+      <c r="AO123" s="33"/>
+      <c r="AP123" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ123" s="32"/>
-      <c r="AR123" s="32"/>
-      <c r="AS123" s="32"/>
-      <c r="AT123" s="32">
+      <c r="AQ123" s="33"/>
+      <c r="AR123" s="33"/>
+      <c r="AS123" s="33"/>
+      <c r="AT123" s="33">
         <v>2011</v>
       </c>
-      <c r="AU123" s="32"/>
-      <c r="AV123" s="32"/>
-      <c r="AW123" s="32"/>
-      <c r="AX123" s="32">
+      <c r="AU123" s="33"/>
+      <c r="AV123" s="33"/>
+      <c r="AW123" s="33"/>
+      <c r="AX123" s="33">
         <v>2012</v>
       </c>
-      <c r="AY123" s="32"/>
-      <c r="AZ123" s="32"/>
-      <c r="BA123" s="32"/>
-      <c r="BB123" s="32">
+      <c r="AY123" s="33"/>
+      <c r="AZ123" s="33"/>
+      <c r="BA123" s="33"/>
+      <c r="BB123" s="33">
         <v>2013</v>
       </c>
-      <c r="BC123" s="32"/>
-      <c r="BD123" s="32"/>
-      <c r="BE123" s="32"/>
-      <c r="BF123" s="32">
+      <c r="BC123" s="33"/>
+      <c r="BD123" s="33"/>
+      <c r="BE123" s="33"/>
+      <c r="BF123" s="33">
         <v>2014</v>
       </c>
-      <c r="BG123" s="32"/>
-      <c r="BH123" s="32"/>
-      <c r="BI123" s="32"/>
-      <c r="BJ123" s="32">
+      <c r="BG123" s="33"/>
+      <c r="BH123" s="33"/>
+      <c r="BI123" s="33"/>
+      <c r="BJ123" s="33">
         <v>2015</v>
       </c>
-      <c r="BK123" s="32"/>
-      <c r="BL123" s="32"/>
-      <c r="BM123" s="32"/>
-      <c r="BN123" s="32">
+      <c r="BK123" s="33"/>
+      <c r="BL123" s="33"/>
+      <c r="BM123" s="33"/>
+      <c r="BN123" s="33">
         <v>2016</v>
       </c>
-      <c r="BO123" s="32"/>
-      <c r="BP123" s="32"/>
-      <c r="BQ123" s="32"/>
-      <c r="BR123" s="32">
+      <c r="BO123" s="33"/>
+      <c r="BP123" s="33"/>
+      <c r="BQ123" s="33"/>
+      <c r="BR123" s="33">
         <v>2017</v>
       </c>
-      <c r="BS123" s="32"/>
-      <c r="BT123" s="32"/>
-      <c r="BU123" s="32"/>
-      <c r="BV123" s="32">
+      <c r="BS123" s="33"/>
+      <c r="BT123" s="33"/>
+      <c r="BU123" s="33"/>
+      <c r="BV123" s="33">
         <v>2018</v>
       </c>
-      <c r="BW123" s="32"/>
-      <c r="BX123" s="32"/>
-      <c r="BY123" s="32"/>
+      <c r="BW123" s="33"/>
+      <c r="BX123" s="33"/>
+      <c r="BY123" s="33"/>
       <c r="BZ123" s="32">
         <v>2019</v>
       </c>
       <c r="CA123" s="32"/>
       <c r="CB123" s="32"/>
       <c r="CC123" s="32"/>
-      <c r="CD123" s="31">
+      <c r="CD123" s="32">
         <v>2020</v>
       </c>
-      <c r="CE123" s="31"/>
-      <c r="CF123" s="31"/>
-      <c r="CG123" s="31"/>
-      <c r="CH123" s="31">
+      <c r="CE123" s="32"/>
+      <c r="CF123" s="32"/>
+      <c r="CG123" s="32"/>
+      <c r="CH123" s="32">
         <v>2021</v>
       </c>
-      <c r="CI123" s="31"/>
-      <c r="CJ123" s="31"/>
-      <c r="CK123" s="31"/>
+      <c r="CI123" s="32"/>
+      <c r="CJ123" s="32"/>
+      <c r="CK123" s="32"/>
+      <c r="CL123" s="31">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>4</v>
       </c>
@@ -40714,16 +41149,16 @@
       <c r="BY124" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ124" s="6" t="s">
+      <c r="BZ124" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CA124" s="6" t="s">
+      <c r="CA124" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="CB124" s="6" t="s">
+      <c r="CB124" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="CC124" s="6" t="s">
+      <c r="CC124" s="20" t="s">
         <v>9</v>
       </c>
       <c r="CD124" s="20" t="s">
@@ -40750,9 +41185,16 @@
       <c r="CK124" s="20" t="s">
         <v>9</v>
       </c>
+      <c r="CL124" s="20" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="125" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
+      <c r="BZ125" s="19"/>
+      <c r="CA125" s="19"/>
+      <c r="CB125" s="19"/>
+      <c r="CC125" s="19"/>
       <c r="CD125" s="19"/>
       <c r="CE125" s="19"/>
       <c r="CF125" s="19"/>
@@ -40761,8 +41203,9 @@
       <c r="CI125" s="19"/>
       <c r="CJ125" s="19"/>
       <c r="CK125" s="19"/>
+      <c r="CL125" s="19"/>
     </row>
-    <row r="126" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
@@ -40994,43 +41437,45 @@
       <c r="BY126" s="18">
         <v>8.8607000813859873</v>
       </c>
-      <c r="BZ126" s="18">
+      <c r="BZ126" s="28">
         <v>10.436439380223113</v>
       </c>
-      <c r="CA126" s="18">
+      <c r="CA126" s="28">
         <v>13.745294627573749</v>
       </c>
-      <c r="CB126" s="18">
+      <c r="CB126" s="28">
         <v>11.577527568676111</v>
       </c>
-      <c r="CC126" s="18">
+      <c r="CC126" s="28">
         <v>5.3555091479599328</v>
       </c>
-      <c r="CD126" s="29">
-        <v>7.4076267153890836</v>
-      </c>
-      <c r="CE126" s="29">
-        <v>12.41165748908359</v>
-      </c>
-      <c r="CF126" s="29">
-        <v>9.4804228763287988</v>
-      </c>
-      <c r="CG126" s="29">
-        <v>4.1145075992161857</v>
-      </c>
-      <c r="CH126" s="29">
-        <v>10.254503445562124</v>
-      </c>
-      <c r="CI126" s="29">
-        <v>16.255645156350138</v>
-      </c>
-      <c r="CJ126" s="29">
-        <v>14.238476569554104</v>
-      </c>
-      <c r="CK126" s="29">
-        <v>8.4435913039010586</v>
-      </c>
-      <c r="CL126" s="9"/>
+      <c r="CD126" s="28">
+        <v>7.4063206123286358</v>
+      </c>
+      <c r="CE126" s="28">
+        <v>12.412882703214677</v>
+      </c>
+      <c r="CF126" s="28">
+        <v>9.1668757143944966</v>
+      </c>
+      <c r="CG126" s="28">
+        <v>4.1198011477199099</v>
+      </c>
+      <c r="CH126" s="28">
+        <v>10.14819330729825</v>
+      </c>
+      <c r="CI126" s="28">
+        <v>15.245780401256715</v>
+      </c>
+      <c r="CJ126" s="28">
+        <v>13.897710793008605</v>
+      </c>
+      <c r="CK126" s="28">
+        <v>11.48425119329946</v>
+      </c>
+      <c r="CL126" s="28">
+        <v>28.863425635901514</v>
+      </c>
       <c r="CM126" s="9"/>
       <c r="CN126" s="9"/>
       <c r="CO126" s="9"/>
@@ -41096,7 +41541,7 @@
       <c r="EW126" s="9"/>
       <c r="EX126" s="9"/>
     </row>
-    <row r="127" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>12</v>
       </c>
@@ -41328,43 +41773,45 @@
       <c r="BY127" s="18">
         <v>27.978421489813847</v>
       </c>
-      <c r="BZ127" s="18">
+      <c r="BZ127" s="28">
         <v>23.661123921577801</v>
       </c>
-      <c r="CA127" s="18">
+      <c r="CA127" s="28">
         <v>23.951216107055743</v>
       </c>
-      <c r="CB127" s="18">
+      <c r="CB127" s="28">
         <v>18.850034197818552</v>
       </c>
-      <c r="CC127" s="18">
+      <c r="CC127" s="28">
         <v>25.604488094737544</v>
       </c>
-      <c r="CD127" s="29">
-        <v>17.972127913493974</v>
-      </c>
-      <c r="CE127" s="29">
-        <v>14.551578229968079</v>
-      </c>
-      <c r="CF127" s="29">
-        <v>14.009148996803965</v>
-      </c>
-      <c r="CG127" s="29">
-        <v>19.315226703170875</v>
-      </c>
-      <c r="CH127" s="29">
-        <v>18.43771499786579</v>
-      </c>
-      <c r="CI127" s="29">
-        <v>16.880523525855683</v>
-      </c>
-      <c r="CJ127" s="29">
-        <v>19.142355184672553</v>
-      </c>
-      <c r="CK127" s="29">
-        <v>28.193454550072595</v>
-      </c>
-      <c r="CL127" s="9"/>
+      <c r="CD127" s="28">
+        <v>17.968959091390431</v>
+      </c>
+      <c r="CE127" s="28">
+        <v>14.55301468592029</v>
+      </c>
+      <c r="CF127" s="28">
+        <v>13.545822733159108</v>
+      </c>
+      <c r="CG127" s="28">
+        <v>19.370739350973142</v>
+      </c>
+      <c r="CH127" s="28">
+        <v>18.177650287659731</v>
+      </c>
+      <c r="CI127" s="28">
+        <v>15.999312507205055</v>
+      </c>
+      <c r="CJ127" s="28">
+        <v>18.715823472834607</v>
+      </c>
+      <c r="CK127" s="28">
+        <v>23.113844011249448</v>
+      </c>
+      <c r="CL127" s="28">
+        <v>16.047264634890986</v>
+      </c>
       <c r="CM127" s="9"/>
       <c r="CN127" s="9"/>
       <c r="CO127" s="9"/>
@@ -41430,7 +41877,7 @@
       <c r="EW127" s="9"/>
       <c r="EX127" s="9"/>
     </row>
-    <row r="128" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>28</v>
       </c>
@@ -41662,43 +42109,45 @@
       <c r="BY128" s="18">
         <v>14.316834374495398</v>
       </c>
-      <c r="BZ128" s="18">
+      <c r="BZ128" s="28">
         <v>16.776283169386833</v>
       </c>
-      <c r="CA128" s="18">
+      <c r="CA128" s="28">
         <v>16.035526835343884</v>
       </c>
-      <c r="CB128" s="18">
+      <c r="CB128" s="28">
         <v>18.461554651819402</v>
       </c>
-      <c r="CC128" s="18">
+      <c r="CC128" s="28">
         <v>15.295525607754021</v>
       </c>
-      <c r="CD128" s="29">
-        <v>19.868478676951433</v>
-      </c>
-      <c r="CE128" s="29">
-        <v>25.341191820632901</v>
-      </c>
-      <c r="CF128" s="29">
-        <v>25.317097196807843</v>
-      </c>
-      <c r="CG128" s="29">
-        <v>21.664130622122848</v>
-      </c>
-      <c r="CH128" s="29">
-        <v>19.678592641005888</v>
-      </c>
-      <c r="CI128" s="29">
-        <v>19.153291220342016</v>
-      </c>
-      <c r="CJ128" s="29">
-        <v>18.538232202903298</v>
-      </c>
-      <c r="CK128" s="29">
-        <v>16.274272112541944</v>
-      </c>
-      <c r="CL128" s="9"/>
+      <c r="CD128" s="28">
+        <v>19.864938179406479</v>
+      </c>
+      <c r="CE128" s="28">
+        <v>25.257102045769013</v>
+      </c>
+      <c r="CF128" s="28">
+        <v>27.464526650899124</v>
+      </c>
+      <c r="CG128" s="28">
+        <v>21.730978044227172</v>
+      </c>
+      <c r="CH128" s="28">
+        <v>19.161133838948533</v>
+      </c>
+      <c r="CI128" s="28">
+        <v>20.894895860520698</v>
+      </c>
+      <c r="CJ128" s="28">
+        <v>20.127055422919788</v>
+      </c>
+      <c r="CK128" s="28">
+        <v>19.38265064774086</v>
+      </c>
+      <c r="CL128" s="28">
+        <v>15.143178806543769</v>
+      </c>
       <c r="CM128" s="9"/>
       <c r="CN128" s="9"/>
       <c r="CO128" s="9"/>
@@ -41764,7 +42213,7 @@
       <c r="EW128" s="9"/>
       <c r="EX128" s="9"/>
     </row>
-    <row r="129" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>13</v>
       </c>
@@ -41996,43 +42445,45 @@
       <c r="BY129" s="18">
         <v>2.4966289243623319</v>
       </c>
-      <c r="BZ129" s="18">
+      <c r="BZ129" s="28">
         <v>10.270777033101472</v>
       </c>
-      <c r="CA129" s="18">
+      <c r="CA129" s="28">
         <v>17.65209287319815</v>
       </c>
-      <c r="CB129" s="18">
+      <c r="CB129" s="28">
         <v>16.354618879082548</v>
       </c>
-      <c r="CC129" s="18">
+      <c r="CC129" s="28">
         <v>4.3637392605729435</v>
       </c>
-      <c r="CD129" s="29">
-        <v>11.221928193141348</v>
-      </c>
-      <c r="CE129" s="29">
-        <v>23.202916128461894</v>
-      </c>
-      <c r="CF129" s="29">
-        <v>17.782263422552099</v>
-      </c>
-      <c r="CG129" s="29">
-        <v>7.7981110587601625</v>
-      </c>
-      <c r="CH129" s="29">
-        <v>18.517552595962584</v>
-      </c>
-      <c r="CI129" s="29">
-        <v>25.507411084083547</v>
-      </c>
-      <c r="CJ129" s="29">
-        <v>19.409353832711908</v>
-      </c>
-      <c r="CK129" s="29">
-        <v>7.9830163945335038</v>
-      </c>
-      <c r="CL129" s="9"/>
+      <c r="CD129" s="28">
+        <v>11.238572561372399</v>
+      </c>
+      <c r="CE129" s="28">
+        <v>23.28225737297074</v>
+      </c>
+      <c r="CF129" s="28">
+        <v>17.516715633738965</v>
+      </c>
+      <c r="CG129" s="28">
+        <v>7.5119437841836083</v>
+      </c>
+      <c r="CH129" s="28">
+        <v>20.039971875211656</v>
+      </c>
+      <c r="CI129" s="28">
+        <v>26.973562723301349</v>
+      </c>
+      <c r="CJ129" s="28">
+        <v>19.415382105610497</v>
+      </c>
+      <c r="CK129" s="28">
+        <v>6.0774733340867053</v>
+      </c>
+      <c r="CL129" s="28">
+        <v>14.369631681322915</v>
+      </c>
       <c r="CM129" s="9"/>
       <c r="CN129" s="9"/>
       <c r="CO129" s="9"/>
@@ -42098,7 +42549,7 @@
       <c r="EW129" s="9"/>
       <c r="EX129" s="9"/>
     </row>
-    <row r="130" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>14</v>
       </c>
@@ -42330,43 +42781,45 @@
       <c r="BY130" s="18">
         <v>7.957887162984199</v>
       </c>
-      <c r="BZ130" s="18">
+      <c r="BZ130" s="28">
         <v>6.2546264693130915</v>
       </c>
-      <c r="CA130" s="18">
+      <c r="CA130" s="28">
         <v>5.6916638885776543</v>
       </c>
-      <c r="CB130" s="18">
+      <c r="CB130" s="28">
         <v>6.363119147184773</v>
       </c>
-      <c r="CC130" s="18">
+      <c r="CC130" s="28">
         <v>7.1600321042987689</v>
       </c>
-      <c r="CD130" s="29">
-        <v>4.1185430013120374</v>
-      </c>
-      <c r="CE130" s="29">
-        <v>5.6083827212415223</v>
-      </c>
-      <c r="CF130" s="29">
-        <v>7.1532664381327384</v>
-      </c>
-      <c r="CG130" s="29">
-        <v>8.8664949388136787</v>
-      </c>
-      <c r="CH130" s="29">
-        <v>2.9438235779555599</v>
-      </c>
-      <c r="CI130" s="29">
-        <v>4.7185546004188534</v>
-      </c>
-      <c r="CJ130" s="29">
-        <v>6.2045390209373732</v>
-      </c>
-      <c r="CK130" s="29">
-        <v>8.220499840592975</v>
-      </c>
-      <c r="CL130" s="9"/>
+      <c r="CD130" s="28">
+        <v>4.1178168251931178</v>
+      </c>
+      <c r="CE130" s="28">
+        <v>5.6086054244573926</v>
+      </c>
+      <c r="CF130" s="28">
+        <v>6.9166855999681687</v>
+      </c>
+      <c r="CG130" s="28">
+        <v>8.8920963783510807</v>
+      </c>
+      <c r="CH130" s="28">
+        <v>2.942337595112281</v>
+      </c>
+      <c r="CI130" s="28">
+        <v>4.4245122861980333</v>
+      </c>
+      <c r="CJ130" s="28">
+        <v>6.0067491502186074</v>
+      </c>
+      <c r="CK130" s="28">
+        <v>9.7125949665359332</v>
+      </c>
+      <c r="CL130" s="28">
+        <v>3.596060210720823</v>
+      </c>
       <c r="CM130" s="9"/>
       <c r="CN130" s="9"/>
       <c r="CO130" s="9"/>
@@ -42432,7 +42885,7 @@
       <c r="EW130" s="9"/>
       <c r="EX130" s="9"/>
     </row>
-    <row r="131" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>27</v>
       </c>
@@ -42664,43 +43117,45 @@
       <c r="BY131" s="18">
         <v>38.389527966958248</v>
       </c>
-      <c r="BZ131" s="18">
+      <c r="BZ131" s="28">
         <v>32.600750026397698</v>
       </c>
-      <c r="CA131" s="18">
+      <c r="CA131" s="28">
         <v>22.924205668250824</v>
       </c>
-      <c r="CB131" s="18">
+      <c r="CB131" s="28">
         <v>28.393145555418592</v>
       </c>
-      <c r="CC131" s="18">
+      <c r="CC131" s="28">
         <v>42.220705784676795</v>
       </c>
-      <c r="CD131" s="29">
-        <v>39.411295499712132</v>
-      </c>
-      <c r="CE131" s="29">
-        <v>18.884273610612031</v>
-      </c>
-      <c r="CF131" s="29">
-        <v>26.257801069374565</v>
-      </c>
-      <c r="CG131" s="29">
-        <v>38.241529077916262</v>
-      </c>
-      <c r="CH131" s="29">
-        <v>30.167812741648049</v>
-      </c>
-      <c r="CI131" s="29">
-        <v>17.48457441294978</v>
-      </c>
-      <c r="CJ131" s="29">
-        <v>22.467043189220764</v>
-      </c>
-      <c r="CK131" s="29">
-        <v>30.885165798357928</v>
-      </c>
-      <c r="CL131" s="9"/>
+      <c r="CD131" s="28">
+        <v>39.403392730308937</v>
+      </c>
+      <c r="CE131" s="28">
+        <v>18.886137767667883</v>
+      </c>
+      <c r="CF131" s="28">
+        <v>25.389373667840122</v>
+      </c>
+      <c r="CG131" s="28">
+        <v>38.3744412945451</v>
+      </c>
+      <c r="CH131" s="28">
+        <v>29.530713095769546</v>
+      </c>
+      <c r="CI131" s="28">
+        <v>16.461936221518137</v>
+      </c>
+      <c r="CJ131" s="28">
+        <v>21.837279055407905</v>
+      </c>
+      <c r="CK131" s="28">
+        <v>30.229185847087585</v>
+      </c>
+      <c r="CL131" s="28">
+        <v>21.980439030619998</v>
+      </c>
       <c r="CM131" s="9"/>
       <c r="CN131" s="9"/>
       <c r="CO131" s="9"/>
@@ -42766,7 +43221,7 @@
       <c r="EW131" s="9"/>
       <c r="EX131" s="9"/>
     </row>
-    <row r="132" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
@@ -42843,10 +43298,10 @@
       <c r="BW132" s="9"/>
       <c r="BX132" s="9"/>
       <c r="BY132" s="9"/>
-      <c r="BZ132" s="9"/>
-      <c r="CA132" s="9"/>
-      <c r="CB132" s="9"/>
-      <c r="CC132" s="9"/>
+      <c r="BZ132" s="22"/>
+      <c r="CA132" s="22"/>
+      <c r="CB132" s="22"/>
+      <c r="CC132" s="22"/>
       <c r="CD132" s="22"/>
       <c r="CE132" s="22"/>
       <c r="CF132" s="22"/>
@@ -42855,7 +43310,7 @@
       <c r="CI132" s="22"/>
       <c r="CJ132" s="22"/>
       <c r="CK132" s="22"/>
-      <c r="CL132" s="9"/>
+      <c r="CL132" s="22"/>
       <c r="CM132" s="9"/>
       <c r="CN132" s="9"/>
       <c r="CO132" s="9"/>
@@ -42921,7 +43376,7 @@
       <c r="EW132" s="9"/>
       <c r="EX132" s="9"/>
     </row>
-    <row r="133" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>15</v>
       </c>
@@ -43153,43 +43608,45 @@
       <c r="BY133" s="18">
         <v>100</v>
       </c>
-      <c r="BZ133" s="18">
+      <c r="BZ133" s="28">
         <v>100</v>
       </c>
-      <c r="CA133" s="18">
+      <c r="CA133" s="28">
         <v>100</v>
       </c>
-      <c r="CB133" s="18">
+      <c r="CB133" s="28">
         <v>100</v>
       </c>
-      <c r="CC133" s="18">
+      <c r="CC133" s="28">
         <v>100</v>
       </c>
-      <c r="CD133" s="29">
+      <c r="CD133" s="28">
         <v>100</v>
       </c>
-      <c r="CE133" s="29">
+      <c r="CE133" s="28">
         <v>100</v>
       </c>
-      <c r="CF133" s="29">
+      <c r="CF133" s="28">
         <v>100</v>
       </c>
-      <c r="CG133" s="29">
+      <c r="CG133" s="28">
         <v>100</v>
       </c>
-      <c r="CH133" s="29">
+      <c r="CH133" s="28">
         <v>100</v>
       </c>
-      <c r="CI133" s="29">
+      <c r="CI133" s="28">
         <v>100</v>
       </c>
-      <c r="CJ133" s="29">
+      <c r="CJ133" s="28">
         <v>100</v>
       </c>
-      <c r="CK133" s="29">
+      <c r="CK133" s="28">
         <v>100</v>
       </c>
-      <c r="CL133" s="9"/>
+      <c r="CL133" s="28">
+        <v>100</v>
+      </c>
       <c r="CM133" s="9"/>
       <c r="CN133" s="9"/>
       <c r="CO133" s="9"/>
@@ -43255,7 +43712,7 @@
       <c r="EW133" s="9"/>
       <c r="EX133" s="9"/>
     </row>
-    <row r="134" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -43333,10 +43790,10 @@
       <c r="BW134" s="13"/>
       <c r="BX134" s="13"/>
       <c r="BY134" s="13"/>
-      <c r="BZ134" s="13"/>
-      <c r="CA134" s="13"/>
-      <c r="CB134" s="13"/>
-      <c r="CC134" s="13"/>
+      <c r="BZ134" s="24"/>
+      <c r="CA134" s="24"/>
+      <c r="CB134" s="24"/>
+      <c r="CC134" s="24"/>
       <c r="CD134" s="24"/>
       <c r="CE134" s="24"/>
       <c r="CF134" s="24"/>
@@ -43345,11 +43802,16 @@
       <c r="CI134" s="24"/>
       <c r="CJ134" s="24"/>
       <c r="CK134" s="24"/>
+      <c r="CL134" s="24"/>
     </row>
-    <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="BZ135" s="19"/>
+      <c r="CA135" s="19"/>
+      <c r="CB135" s="19"/>
+      <c r="CC135" s="19"/>
       <c r="CD135" s="19"/>
       <c r="CE135" s="19"/>
       <c r="CF135" s="19"/>
@@ -43358,8 +43820,9 @@
       <c r="CI135" s="19"/>
       <c r="CJ135" s="19"/>
       <c r="CK135" s="19"/>
+      <c r="CL135" s="19"/>
     </row>
-    <row r="136" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -43436,10 +43899,10 @@
       <c r="BW136" s="9"/>
       <c r="BX136" s="9"/>
       <c r="BY136" s="9"/>
-      <c r="BZ136" s="9"/>
-      <c r="CA136" s="9"/>
-      <c r="CB136" s="9"/>
-      <c r="CC136" s="9"/>
+      <c r="BZ136" s="22"/>
+      <c r="CA136" s="22"/>
+      <c r="CB136" s="22"/>
+      <c r="CC136" s="22"/>
       <c r="CD136" s="22"/>
       <c r="CE136" s="22"/>
       <c r="CF136" s="22"/>
@@ -43448,7 +43911,7 @@
       <c r="CI136" s="22"/>
       <c r="CJ136" s="22"/>
       <c r="CK136" s="22"/>
-      <c r="CL136" s="9"/>
+      <c r="CL136" s="22"/>
       <c r="CM136" s="9"/>
       <c r="CN136" s="9"/>
       <c r="CO136" s="9"/>
@@ -43514,7 +43977,7 @@
       <c r="EW136" s="9"/>
       <c r="EX136" s="9"/>
     </row>
-    <row r="137" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -43591,10 +44054,10 @@
       <c r="BW137" s="9"/>
       <c r="BX137" s="9"/>
       <c r="BY137" s="9"/>
-      <c r="BZ137" s="9"/>
-      <c r="CA137" s="9"/>
-      <c r="CB137" s="9"/>
-      <c r="CC137" s="9"/>
+      <c r="BZ137" s="22"/>
+      <c r="CA137" s="22"/>
+      <c r="CB137" s="22"/>
+      <c r="CC137" s="22"/>
       <c r="CD137" s="22"/>
       <c r="CE137" s="22"/>
       <c r="CF137" s="22"/>
@@ -43603,7 +44066,7 @@
       <c r="CI137" s="22"/>
       <c r="CJ137" s="22"/>
       <c r="CK137" s="22"/>
-      <c r="CL137" s="9"/>
+      <c r="CL137" s="22"/>
       <c r="CM137" s="9"/>
       <c r="CN137" s="9"/>
       <c r="CO137" s="9"/>
@@ -43669,10 +44132,14 @@
       <c r="EW137" s="9"/>
       <c r="EX137" s="9"/>
     </row>
-    <row r="138" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ138" s="19"/>
+      <c r="CA138" s="19"/>
+      <c r="CB138" s="19"/>
+      <c r="CC138" s="19"/>
       <c r="CD138" s="19"/>
       <c r="CE138" s="19"/>
       <c r="CF138" s="19"/>
@@ -43681,11 +44148,16 @@
       <c r="CI138" s="19"/>
       <c r="CJ138" s="19"/>
       <c r="CK138" s="19"/>
+      <c r="CL138" s="19"/>
     </row>
-    <row r="139" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="BZ139" s="19"/>
+      <c r="CA139" s="19"/>
+      <c r="CB139" s="19"/>
+      <c r="CC139" s="19"/>
       <c r="CD139" s="19"/>
       <c r="CE139" s="19"/>
       <c r="CF139" s="19"/>
@@ -43694,11 +44166,16 @@
       <c r="CI139" s="19"/>
       <c r="CJ139" s="19"/>
       <c r="CK139" s="19"/>
+      <c r="CL139" s="19"/>
     </row>
-    <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="BZ140" s="19"/>
+      <c r="CA140" s="19"/>
+      <c r="CB140" s="19"/>
+      <c r="CC140" s="19"/>
       <c r="CD140" s="19"/>
       <c r="CE140" s="19"/>
       <c r="CF140" s="19"/>
@@ -43707,8 +44184,13 @@
       <c r="CI140" s="19"/>
       <c r="CJ140" s="19"/>
       <c r="CK140" s="19"/>
+      <c r="CL140" s="19"/>
     </row>
-    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ141" s="19"/>
+      <c r="CA141" s="19"/>
+      <c r="CB141" s="19"/>
+      <c r="CC141" s="19"/>
       <c r="CD141" s="19"/>
       <c r="CE141" s="19"/>
       <c r="CF141" s="19"/>
@@ -43717,11 +44199,16 @@
       <c r="CI141" s="19"/>
       <c r="CJ141" s="19"/>
       <c r="CK141" s="19"/>
+      <c r="CL141" s="19"/>
     </row>
-    <row r="142" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="BZ142" s="19"/>
+      <c r="CA142" s="19"/>
+      <c r="CB142" s="19"/>
+      <c r="CC142" s="19"/>
       <c r="CD142" s="19"/>
       <c r="CE142" s="19"/>
       <c r="CF142" s="19"/>
@@ -43730,11 +44217,16 @@
       <c r="CI142" s="19"/>
       <c r="CJ142" s="19"/>
       <c r="CK142" s="19"/>
+      <c r="CL142" s="19"/>
     </row>
-    <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="BZ143" s="19"/>
+      <c r="CA143" s="19"/>
+      <c r="CB143" s="19"/>
+      <c r="CC143" s="19"/>
       <c r="CD143" s="19"/>
       <c r="CE143" s="19"/>
       <c r="CF143" s="19"/>
@@ -43743,11 +44235,16 @@
       <c r="CI143" s="19"/>
       <c r="CJ143" s="19"/>
       <c r="CK143" s="19"/>
+      <c r="CL143" s="19"/>
     </row>
-    <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="BZ144" s="19"/>
+      <c r="CA144" s="19"/>
+      <c r="CB144" s="19"/>
+      <c r="CC144" s="19"/>
       <c r="CD144" s="19"/>
       <c r="CE144" s="19"/>
       <c r="CF144" s="19"/>
@@ -43756,8 +44253,13 @@
       <c r="CI144" s="19"/>
       <c r="CJ144" s="19"/>
       <c r="CK144" s="19"/>
+      <c r="CL144" s="19"/>
     </row>
-    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ145" s="19"/>
+      <c r="CA145" s="19"/>
+      <c r="CB145" s="19"/>
+      <c r="CC145" s="19"/>
       <c r="CD145" s="19"/>
       <c r="CE145" s="19"/>
       <c r="CF145" s="19"/>
@@ -43766,143 +44268,147 @@
       <c r="CI145" s="19"/>
       <c r="CJ145" s="19"/>
       <c r="CK145" s="19"/>
+      <c r="CL145" s="19"/>
     </row>
-    <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
-      <c r="B146" s="32">
+      <c r="B146" s="33">
         <v>2000</v>
       </c>
-      <c r="C146" s="32"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32">
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33">
         <v>2001</v>
       </c>
-      <c r="G146" s="32"/>
-      <c r="H146" s="32"/>
-      <c r="I146" s="32"/>
-      <c r="J146" s="32">
+      <c r="G146" s="33"/>
+      <c r="H146" s="33"/>
+      <c r="I146" s="33"/>
+      <c r="J146" s="33">
         <v>2002</v>
       </c>
-      <c r="K146" s="32"/>
-      <c r="L146" s="32"/>
-      <c r="M146" s="32"/>
-      <c r="N146" s="32">
+      <c r="K146" s="33"/>
+      <c r="L146" s="33"/>
+      <c r="M146" s="33"/>
+      <c r="N146" s="33">
         <v>2003</v>
       </c>
-      <c r="O146" s="32"/>
-      <c r="P146" s="32"/>
-      <c r="Q146" s="32"/>
-      <c r="R146" s="32">
+      <c r="O146" s="33"/>
+      <c r="P146" s="33"/>
+      <c r="Q146" s="33"/>
+      <c r="R146" s="33">
         <v>2004</v>
       </c>
-      <c r="S146" s="32"/>
-      <c r="T146" s="32"/>
-      <c r="U146" s="32"/>
-      <c r="V146" s="32">
+      <c r="S146" s="33"/>
+      <c r="T146" s="33"/>
+      <c r="U146" s="33"/>
+      <c r="V146" s="33">
         <v>2005</v>
       </c>
-      <c r="W146" s="32"/>
-      <c r="X146" s="32"/>
-      <c r="Y146" s="32"/>
-      <c r="Z146" s="32">
+      <c r="W146" s="33"/>
+      <c r="X146" s="33"/>
+      <c r="Y146" s="33"/>
+      <c r="Z146" s="33">
         <v>2006</v>
       </c>
-      <c r="AA146" s="32"/>
-      <c r="AB146" s="32"/>
-      <c r="AC146" s="32"/>
-      <c r="AD146" s="32">
+      <c r="AA146" s="33"/>
+      <c r="AB146" s="33"/>
+      <c r="AC146" s="33"/>
+      <c r="AD146" s="33">
         <v>2007</v>
       </c>
-      <c r="AE146" s="32"/>
-      <c r="AF146" s="32"/>
-      <c r="AG146" s="32"/>
-      <c r="AH146" s="32">
+      <c r="AE146" s="33"/>
+      <c r="AF146" s="33"/>
+      <c r="AG146" s="33"/>
+      <c r="AH146" s="33">
         <v>2008</v>
       </c>
-      <c r="AI146" s="32"/>
-      <c r="AJ146" s="32"/>
-      <c r="AK146" s="32"/>
-      <c r="AL146" s="32">
+      <c r="AI146" s="33"/>
+      <c r="AJ146" s="33"/>
+      <c r="AK146" s="33"/>
+      <c r="AL146" s="33">
         <v>2009</v>
       </c>
-      <c r="AM146" s="32"/>
-      <c r="AN146" s="32"/>
-      <c r="AO146" s="32"/>
-      <c r="AP146" s="32">
+      <c r="AM146" s="33"/>
+      <c r="AN146" s="33"/>
+      <c r="AO146" s="33"/>
+      <c r="AP146" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ146" s="32"/>
-      <c r="AR146" s="32"/>
-      <c r="AS146" s="32"/>
-      <c r="AT146" s="32">
+      <c r="AQ146" s="33"/>
+      <c r="AR146" s="33"/>
+      <c r="AS146" s="33"/>
+      <c r="AT146" s="33">
         <v>2011</v>
       </c>
-      <c r="AU146" s="32"/>
-      <c r="AV146" s="32"/>
-      <c r="AW146" s="32"/>
-      <c r="AX146" s="32">
+      <c r="AU146" s="33"/>
+      <c r="AV146" s="33"/>
+      <c r="AW146" s="33"/>
+      <c r="AX146" s="33">
         <v>2012</v>
       </c>
-      <c r="AY146" s="32"/>
-      <c r="AZ146" s="32"/>
-      <c r="BA146" s="32"/>
-      <c r="BB146" s="32">
+      <c r="AY146" s="33"/>
+      <c r="AZ146" s="33"/>
+      <c r="BA146" s="33"/>
+      <c r="BB146" s="33">
         <v>2013</v>
       </c>
-      <c r="BC146" s="32"/>
-      <c r="BD146" s="32"/>
-      <c r="BE146" s="32"/>
-      <c r="BF146" s="32">
+      <c r="BC146" s="33"/>
+      <c r="BD146" s="33"/>
+      <c r="BE146" s="33"/>
+      <c r="BF146" s="33">
         <v>2014</v>
       </c>
-      <c r="BG146" s="32"/>
-      <c r="BH146" s="32"/>
-      <c r="BI146" s="32"/>
-      <c r="BJ146" s="32">
+      <c r="BG146" s="33"/>
+      <c r="BH146" s="33"/>
+      <c r="BI146" s="33"/>
+      <c r="BJ146" s="33">
         <v>2015</v>
       </c>
-      <c r="BK146" s="32"/>
-      <c r="BL146" s="32"/>
-      <c r="BM146" s="32"/>
-      <c r="BN146" s="32">
+      <c r="BK146" s="33"/>
+      <c r="BL146" s="33"/>
+      <c r="BM146" s="33"/>
+      <c r="BN146" s="33">
         <v>2016</v>
       </c>
-      <c r="BO146" s="32"/>
-      <c r="BP146" s="32"/>
-      <c r="BQ146" s="32"/>
-      <c r="BR146" s="32">
+      <c r="BO146" s="33"/>
+      <c r="BP146" s="33"/>
+      <c r="BQ146" s="33"/>
+      <c r="BR146" s="33">
         <v>2017</v>
       </c>
-      <c r="BS146" s="32"/>
-      <c r="BT146" s="32"/>
-      <c r="BU146" s="32"/>
-      <c r="BV146" s="32">
+      <c r="BS146" s="33"/>
+      <c r="BT146" s="33"/>
+      <c r="BU146" s="33"/>
+      <c r="BV146" s="33">
         <v>2018</v>
       </c>
-      <c r="BW146" s="32"/>
-      <c r="BX146" s="32"/>
-      <c r="BY146" s="32"/>
+      <c r="BW146" s="33"/>
+      <c r="BX146" s="33"/>
+      <c r="BY146" s="33"/>
       <c r="BZ146" s="32">
         <v>2019</v>
       </c>
       <c r="CA146" s="32"/>
       <c r="CB146" s="32"/>
       <c r="CC146" s="32"/>
-      <c r="CD146" s="31">
+      <c r="CD146" s="32">
         <v>2020</v>
       </c>
-      <c r="CE146" s="31"/>
-      <c r="CF146" s="31"/>
-      <c r="CG146" s="31"/>
-      <c r="CH146" s="31">
+      <c r="CE146" s="32"/>
+      <c r="CF146" s="32"/>
+      <c r="CG146" s="32"/>
+      <c r="CH146" s="32">
         <v>2021</v>
       </c>
-      <c r="CI146" s="31"/>
-      <c r="CJ146" s="31"/>
-      <c r="CK146" s="31"/>
+      <c r="CI146" s="32"/>
+      <c r="CJ146" s="32"/>
+      <c r="CK146" s="32"/>
+      <c r="CL146" s="31">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>4</v>
       </c>
@@ -44134,16 +44640,16 @@
       <c r="BY147" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ147" s="6" t="s">
+      <c r="BZ147" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CA147" s="6" t="s">
+      <c r="CA147" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="CB147" s="6" t="s">
+      <c r="CB147" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="CC147" s="6" t="s">
+      <c r="CC147" s="20" t="s">
         <v>9</v>
       </c>
       <c r="CD147" s="20" t="s">
@@ -44170,9 +44676,16 @@
       <c r="CK147" s="20" t="s">
         <v>9</v>
       </c>
+      <c r="CL147" s="20" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="148" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
+      <c r="BZ148" s="19"/>
+      <c r="CA148" s="19"/>
+      <c r="CB148" s="19"/>
+      <c r="CC148" s="19"/>
       <c r="CD148" s="19"/>
       <c r="CE148" s="19"/>
       <c r="CF148" s="19"/>
@@ -44181,8 +44694,9 @@
       <c r="CI148" s="19"/>
       <c r="CJ148" s="19"/>
       <c r="CK148" s="19"/>
+      <c r="CL148" s="19"/>
     </row>
-    <row r="149" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>11</v>
       </c>
@@ -44414,43 +44928,45 @@
       <c r="BY149" s="18">
         <v>15.005747241548919</v>
       </c>
-      <c r="BZ149" s="18">
+      <c r="BZ149" s="28">
         <v>14.533056273421488</v>
       </c>
-      <c r="CA149" s="18">
+      <c r="CA149" s="28">
         <v>14.417843802641899</v>
       </c>
-      <c r="CB149" s="18">
+      <c r="CB149" s="28">
         <v>11.674245860828337</v>
       </c>
-      <c r="CC149" s="18">
+      <c r="CC149" s="28">
         <v>14.067042547666148</v>
       </c>
-      <c r="CD149" s="29">
-        <v>14.447810798815622</v>
-      </c>
-      <c r="CE149" s="29">
-        <v>18.399752951700162</v>
-      </c>
-      <c r="CF149" s="29">
-        <v>12.682250289224767</v>
-      </c>
-      <c r="CG149" s="29">
-        <v>11.941631379301056</v>
-      </c>
-      <c r="CH149" s="29">
-        <v>20.242753666975659</v>
-      </c>
-      <c r="CI149" s="29">
-        <v>17.908742492942569</v>
-      </c>
-      <c r="CJ149" s="29">
-        <v>7.4534201792506316</v>
-      </c>
-      <c r="CK149" s="29">
-        <v>9.489728297244211</v>
-      </c>
-      <c r="CL149" s="9"/>
+      <c r="CD149" s="28">
+        <v>14.445877731474324</v>
+      </c>
+      <c r="CE149" s="28">
+        <v>18.39953187332166</v>
+      </c>
+      <c r="CF149" s="28">
+        <v>12.380225716360998</v>
+      </c>
+      <c r="CG149" s="28">
+        <v>11.948848044097506</v>
+      </c>
+      <c r="CH149" s="28">
+        <v>20.113321486704592</v>
+      </c>
+      <c r="CI149" s="28">
+        <v>17.188342786228695</v>
+      </c>
+      <c r="CJ149" s="28">
+        <v>7.2675853352336004</v>
+      </c>
+      <c r="CK149" s="28">
+        <v>12.686242771389647</v>
+      </c>
+      <c r="CL149" s="28">
+        <v>25.548801170694535</v>
+      </c>
       <c r="CM149" s="9"/>
       <c r="CN149" s="9"/>
       <c r="CO149" s="9"/>
@@ -44516,7 +45032,7 @@
       <c r="EW149" s="9"/>
       <c r="EX149" s="9"/>
     </row>
-    <row r="150" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>12</v>
       </c>
@@ -44748,43 +45264,45 @@
       <c r="BY150" s="18">
         <v>20.371917021714328</v>
       </c>
-      <c r="BZ150" s="18">
+      <c r="BZ150" s="28">
         <v>17.049202188985884</v>
       </c>
-      <c r="CA150" s="18">
+      <c r="CA150" s="28">
         <v>35.305626975865366</v>
       </c>
-      <c r="CB150" s="18">
+      <c r="CB150" s="28">
         <v>16.593208506133365</v>
       </c>
-      <c r="CC150" s="18">
+      <c r="CC150" s="28">
         <v>20.30367574576443</v>
       </c>
-      <c r="CD150" s="29">
-        <v>18.911524532590764</v>
-      </c>
-      <c r="CE150" s="29">
-        <v>35.82667535753535</v>
-      </c>
-      <c r="CF150" s="29">
-        <v>16.69791432166809</v>
-      </c>
-      <c r="CG150" s="29">
-        <v>20.356360786227924</v>
-      </c>
-      <c r="CH150" s="29">
-        <v>15.142187675473517</v>
-      </c>
-      <c r="CI150" s="29">
-        <v>31.287150348847238</v>
-      </c>
-      <c r="CJ150" s="29">
-        <v>14.769598757022329</v>
-      </c>
-      <c r="CK150" s="29">
-        <v>17.566033831718801</v>
-      </c>
-      <c r="CL150" s="9"/>
+      <c r="CD150" s="28">
+        <v>18.908994235720389</v>
+      </c>
+      <c r="CE150" s="28">
+        <v>35.826244889620057</v>
+      </c>
+      <c r="CF150" s="28">
+        <v>16.300257728736593</v>
+      </c>
+      <c r="CG150" s="28">
+        <v>20.400955977280084</v>
+      </c>
+      <c r="CH150" s="28">
+        <v>14.988541688614932</v>
+      </c>
+      <c r="CI150" s="28">
+        <v>30.301541483970933</v>
+      </c>
+      <c r="CJ150" s="28">
+        <v>14.431336435869122</v>
+      </c>
+      <c r="CK150" s="28">
+        <v>14.189638651300248</v>
+      </c>
+      <c r="CL150" s="28">
+        <v>12.125725655496398</v>
+      </c>
       <c r="CM150" s="9"/>
       <c r="CN150" s="9"/>
       <c r="CO150" s="9"/>
@@ -44850,7 +45368,7 @@
       <c r="EW150" s="9"/>
       <c r="EX150" s="9"/>
     </row>
-    <row r="151" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>28</v>
       </c>
@@ -45082,43 +45600,45 @@
       <c r="BY151" s="18">
         <v>14.911288013437449</v>
       </c>
-      <c r="BZ151" s="18">
+      <c r="BZ151" s="28">
         <v>15.674047640498504</v>
       </c>
-      <c r="CA151" s="18">
+      <c r="CA151" s="28">
         <v>12.547991856527888</v>
       </c>
-      <c r="CB151" s="18">
+      <c r="CB151" s="28">
         <v>18.315867131932233</v>
       </c>
-      <c r="CC151" s="18">
+      <c r="CC151" s="28">
         <v>13.045954415898908</v>
       </c>
-      <c r="CD151" s="29">
-        <v>13.112001192849176</v>
-      </c>
-      <c r="CE151" s="29">
-        <v>11.502603605195874</v>
-      </c>
-      <c r="CF151" s="29">
-        <v>16.292748967355148</v>
-      </c>
-      <c r="CG151" s="29">
-        <v>14.75282992934096</v>
-      </c>
-      <c r="CH151" s="29">
-        <v>14.004978060360115</v>
-      </c>
-      <c r="CI151" s="29">
-        <v>11.697979130722738</v>
-      </c>
-      <c r="CJ151" s="29">
-        <v>18.324822171306678</v>
-      </c>
-      <c r="CK151" s="29">
-        <v>14.784797165256199</v>
-      </c>
-      <c r="CL151" s="9"/>
+      <c r="CD151" s="28">
+        <v>13.110222226617211</v>
+      </c>
+      <c r="CE151" s="28">
+        <v>11.440667182058679</v>
+      </c>
+      <c r="CF151" s="28">
+        <v>17.849620009883893</v>
+      </c>
+      <c r="CG151" s="28">
+        <v>14.788268767731008</v>
+      </c>
+      <c r="CH151" s="28">
+        <v>13.701721751831114</v>
+      </c>
+      <c r="CI151" s="28">
+        <v>13.043234101608045</v>
+      </c>
+      <c r="CJ151" s="28">
+        <v>19.882890785409565</v>
+      </c>
+      <c r="CK151" s="28">
+        <v>17.307784631858677</v>
+      </c>
+      <c r="CL151" s="28">
+        <v>14.068789255679977</v>
+      </c>
       <c r="CM151" s="9"/>
       <c r="CN151" s="9"/>
       <c r="CO151" s="9"/>
@@ -45184,7 +45704,7 @@
       <c r="EW151" s="9"/>
       <c r="EX151" s="9"/>
     </row>
-    <row r="152" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>13</v>
       </c>
@@ -45416,43 +45936,45 @@
       <c r="BY152" s="18">
         <v>2.3375323652053299</v>
       </c>
-      <c r="BZ152" s="18">
+      <c r="BZ152" s="28">
         <v>8.3254834924918377</v>
       </c>
-      <c r="CA152" s="18">
+      <c r="CA152" s="28">
         <v>16.857205422905906</v>
       </c>
-      <c r="CB152" s="18">
+      <c r="CB152" s="28">
         <v>18.715241612276618</v>
       </c>
-      <c r="CC152" s="18">
+      <c r="CC152" s="28">
         <v>3.1671307868009855</v>
       </c>
-      <c r="CD152" s="29">
-        <v>8.5677147196662382</v>
-      </c>
-      <c r="CE152" s="29">
-        <v>19.020510842181238</v>
-      </c>
-      <c r="CF152" s="29">
-        <v>23.840093887218259</v>
-      </c>
-      <c r="CG152" s="29">
-        <v>5.81024068552329</v>
-      </c>
-      <c r="CH152" s="29">
-        <v>12.55624117411292</v>
-      </c>
-      <c r="CI152" s="29">
-        <v>21.359530811124053</v>
-      </c>
-      <c r="CJ152" s="29">
-        <v>24.778041400524511</v>
-      </c>
-      <c r="CK152" s="29">
-        <v>5.6680581092609454</v>
-      </c>
-      <c r="CL152" s="9"/>
+      <c r="CD152" s="28">
+        <v>8.5807872796767359</v>
+      </c>
+      <c r="CE152" s="28">
+        <v>19.083437419089087</v>
+      </c>
+      <c r="CF152" s="28">
+        <v>23.708944002454228</v>
+      </c>
+      <c r="CG152" s="28">
+        <v>5.5932087449652217</v>
+      </c>
+      <c r="CH152" s="28">
+        <v>13.643106798818186</v>
+      </c>
+      <c r="CI152" s="28">
+        <v>22.376020739913301</v>
+      </c>
+      <c r="CJ152" s="28">
+        <v>24.768260398672567</v>
+      </c>
+      <c r="CK152" s="28">
+        <v>4.2412521754587287</v>
+      </c>
+      <c r="CL152" s="28">
+        <v>7.785072530293176</v>
+      </c>
       <c r="CM152" s="9"/>
       <c r="CN152" s="9"/>
       <c r="CO152" s="9"/>
@@ -45518,7 +46040,7 @@
       <c r="EW152" s="9"/>
       <c r="EX152" s="9"/>
     </row>
-    <row r="153" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>14</v>
       </c>
@@ -45750,43 +46272,45 @@
       <c r="BY153" s="18">
         <v>3.7832370431736049</v>
       </c>
-      <c r="BZ153" s="18">
+      <c r="BZ153" s="28">
         <v>14.248569341587134</v>
       </c>
-      <c r="CA153" s="18">
+      <c r="CA153" s="28">
         <v>2.4140497261405445</v>
       </c>
-      <c r="CB153" s="18">
+      <c r="CB153" s="28">
         <v>5.7896831975987704</v>
       </c>
-      <c r="CC153" s="18">
+      <c r="CC153" s="28">
         <v>3.3479443773779622</v>
       </c>
-      <c r="CD153" s="29">
-        <v>11.303231535011557</v>
-      </c>
-      <c r="CE153" s="29">
-        <v>2.6334023685294299</v>
-      </c>
-      <c r="CF153" s="29">
-        <v>4.9330289766309061</v>
-      </c>
-      <c r="CG153" s="29">
-        <v>3.1049055185551753</v>
-      </c>
-      <c r="CH153" s="29">
-        <v>7.4195197731516362</v>
-      </c>
-      <c r="CI153" s="29">
-        <v>2.01423281160096</v>
-      </c>
-      <c r="CJ153" s="29">
-        <v>4.6109981714499755</v>
-      </c>
-      <c r="CK153" s="29">
-        <v>2.8031228084291402</v>
-      </c>
-      <c r="CL153" s="9"/>
+      <c r="CD153" s="28">
+        <v>11.301719201549023</v>
+      </c>
+      <c r="CE153" s="28">
+        <v>2.6332153586333051</v>
+      </c>
+      <c r="CF153" s="28">
+        <v>4.8155501431736134</v>
+      </c>
+      <c r="CG153" s="28">
+        <v>3.1117490929351357</v>
+      </c>
+      <c r="CH153" s="28">
+        <v>7.4455473056821706</v>
+      </c>
+      <c r="CI153" s="28">
+        <v>1.9328117263720246</v>
+      </c>
+      <c r="CJ153" s="28">
+        <v>4.4594337407058191</v>
+      </c>
+      <c r="CK153" s="28">
+        <v>3.2552394400978248</v>
+      </c>
+      <c r="CL153" s="28">
+        <v>10.186372874536918</v>
+      </c>
       <c r="CM153" s="9"/>
       <c r="CN153" s="9"/>
       <c r="CO153" s="9"/>
@@ -45852,7 +46376,7 @@
       <c r="EW153" s="9"/>
       <c r="EX153" s="9"/>
     </row>
-    <row r="154" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>27</v>
       </c>
@@ -46084,43 +46608,45 @@
       <c r="BY154" s="18">
         <v>43.590278314920354</v>
       </c>
-      <c r="BZ154" s="18">
+      <c r="BZ154" s="28">
         <v>30.169641063015153</v>
       </c>
-      <c r="CA154" s="18">
+      <c r="CA154" s="28">
         <v>18.457282215918401</v>
       </c>
-      <c r="CB154" s="18">
+      <c r="CB154" s="28">
         <v>28.911753691230661</v>
       </c>
-      <c r="CC154" s="18">
+      <c r="CC154" s="28">
         <v>46.068252126491558</v>
       </c>
-      <c r="CD154" s="29">
-        <v>33.657717221066633</v>
-      </c>
-      <c r="CE154" s="29">
-        <v>12.617054874857942</v>
-      </c>
-      <c r="CF154" s="29">
-        <v>25.553963557902826</v>
-      </c>
-      <c r="CG154" s="29">
-        <v>44.034031701051596</v>
-      </c>
-      <c r="CH154" s="29">
-        <v>30.634319649926166</v>
-      </c>
-      <c r="CI154" s="29">
-        <v>15.732364404762444</v>
-      </c>
-      <c r="CJ154" s="29">
-        <v>30.063119320445875</v>
-      </c>
-      <c r="CK154" s="29">
-        <v>49.688259788090711</v>
-      </c>
-      <c r="CL154" s="9"/>
+      <c r="CD154" s="28">
+        <v>33.652399324962317</v>
+      </c>
+      <c r="CE154" s="28">
+        <v>12.616903277277231</v>
+      </c>
+      <c r="CF154" s="28">
+        <v>24.945402399390655</v>
+      </c>
+      <c r="CG154" s="28">
+        <v>44.15696937299105</v>
+      </c>
+      <c r="CH154" s="28">
+        <v>30.107760968349012</v>
+      </c>
+      <c r="CI154" s="28">
+        <v>15.158049161907011</v>
+      </c>
+      <c r="CJ154" s="28">
+        <v>29.190493304109317</v>
+      </c>
+      <c r="CK154" s="28">
+        <v>48.319842329894868</v>
+      </c>
+      <c r="CL154" s="28">
+        <v>30.285238513298996</v>
+      </c>
       <c r="CM154" s="9"/>
       <c r="CN154" s="9"/>
       <c r="CO154" s="9"/>
@@ -46186,7 +46712,7 @@
       <c r="EW154" s="9"/>
       <c r="EX154" s="9"/>
     </row>
-    <row r="155" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -46263,10 +46789,10 @@
       <c r="BW155" s="9"/>
       <c r="BX155" s="9"/>
       <c r="BY155" s="9"/>
-      <c r="BZ155" s="9"/>
-      <c r="CA155" s="9"/>
-      <c r="CB155" s="9"/>
-      <c r="CC155" s="9"/>
+      <c r="BZ155" s="22"/>
+      <c r="CA155" s="22"/>
+      <c r="CB155" s="22"/>
+      <c r="CC155" s="22"/>
       <c r="CD155" s="22"/>
       <c r="CE155" s="22"/>
       <c r="CF155" s="22"/>
@@ -46275,7 +46801,7 @@
       <c r="CI155" s="22"/>
       <c r="CJ155" s="22"/>
       <c r="CK155" s="22"/>
-      <c r="CL155" s="9"/>
+      <c r="CL155" s="22"/>
       <c r="CM155" s="9"/>
       <c r="CN155" s="9"/>
       <c r="CO155" s="9"/>
@@ -46341,7 +46867,7 @@
       <c r="EW155" s="9"/>
       <c r="EX155" s="9"/>
     </row>
-    <row r="156" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
         <v>15</v>
       </c>
@@ -46573,43 +47099,45 @@
       <c r="BY156" s="18">
         <v>100</v>
       </c>
-      <c r="BZ156" s="18">
+      <c r="BZ156" s="28">
         <v>100</v>
       </c>
-      <c r="CA156" s="18">
+      <c r="CA156" s="28">
         <v>100</v>
       </c>
-      <c r="CB156" s="18">
+      <c r="CB156" s="28">
         <v>100</v>
       </c>
-      <c r="CC156" s="18">
+      <c r="CC156" s="28">
         <v>100</v>
       </c>
-      <c r="CD156" s="29">
+      <c r="CD156" s="28">
         <v>100</v>
       </c>
-      <c r="CE156" s="29">
+      <c r="CE156" s="28">
         <v>100</v>
       </c>
-      <c r="CF156" s="29">
+      <c r="CF156" s="28">
         <v>100</v>
       </c>
-      <c r="CG156" s="29">
+      <c r="CG156" s="28">
         <v>100</v>
       </c>
-      <c r="CH156" s="29">
+      <c r="CH156" s="28">
         <v>100</v>
       </c>
-      <c r="CI156" s="29">
+      <c r="CI156" s="28">
         <v>100</v>
       </c>
-      <c r="CJ156" s="29">
+      <c r="CJ156" s="28">
         <v>100</v>
       </c>
-      <c r="CK156" s="29">
+      <c r="CK156" s="28">
         <v>100</v>
       </c>
-      <c r="CL156" s="9"/>
+      <c r="CL156" s="28">
+        <v>100</v>
+      </c>
       <c r="CM156" s="9"/>
       <c r="CN156" s="9"/>
       <c r="CO156" s="9"/>
@@ -46675,7 +47203,7 @@
       <c r="EW156" s="9"/>
       <c r="EX156" s="9"/>
     </row>
-    <row r="157" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -46753,10 +47281,10 @@
       <c r="BW157" s="13"/>
       <c r="BX157" s="13"/>
       <c r="BY157" s="13"/>
-      <c r="BZ157" s="13"/>
-      <c r="CA157" s="13"/>
-      <c r="CB157" s="13"/>
-      <c r="CC157" s="13"/>
+      <c r="BZ157" s="24"/>
+      <c r="CA157" s="24"/>
+      <c r="CB157" s="24"/>
+      <c r="CC157" s="24"/>
       <c r="CD157" s="24"/>
       <c r="CE157" s="24"/>
       <c r="CF157" s="24"/>
@@ -46765,11 +47293,16 @@
       <c r="CI157" s="24"/>
       <c r="CJ157" s="24"/>
       <c r="CK157" s="24"/>
+      <c r="CL157" s="24"/>
     </row>
-    <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="BZ158" s="19"/>
+      <c r="CA158" s="19"/>
+      <c r="CB158" s="19"/>
+      <c r="CC158" s="19"/>
       <c r="CD158" s="19"/>
       <c r="CE158" s="19"/>
       <c r="CF158" s="19"/>
@@ -46778,8 +47311,9 @@
       <c r="CI158" s="19"/>
       <c r="CJ158" s="19"/>
       <c r="CK158" s="19"/>
+      <c r="CL158" s="19"/>
     </row>
-    <row r="159" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -46852,7 +47386,11 @@
       <c r="BS159" s="9"/>
       <c r="BT159" s="9"/>
       <c r="BU159" s="9"/>
-      <c r="CL159" s="9"/>
+      <c r="CH159" s="22"/>
+      <c r="CI159" s="22"/>
+      <c r="CJ159" s="22"/>
+      <c r="CK159" s="22"/>
+      <c r="CL159" s="22"/>
       <c r="CM159" s="9"/>
       <c r="CN159" s="9"/>
       <c r="CO159" s="9"/>
@@ -46913,7 +47451,7 @@
       <c r="ER159" s="9"/>
       <c r="ES159" s="9"/>
     </row>
-    <row r="160" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -46986,7 +47524,11 @@
       <c r="BS160" s="9"/>
       <c r="BT160" s="9"/>
       <c r="BU160" s="9"/>
-      <c r="CL160" s="9"/>
+      <c r="CH160" s="22"/>
+      <c r="CI160" s="22"/>
+      <c r="CJ160" s="22"/>
+      <c r="CK160" s="22"/>
+      <c r="CL160" s="22"/>
       <c r="CM160" s="9"/>
       <c r="CN160" s="9"/>
       <c r="CO160" s="9"/>
@@ -47047,63 +47589,102 @@
       <c r="ER160" s="9"/>
       <c r="ES160" s="9"/>
     </row>
+    <row r="161" spans="86:90" x14ac:dyDescent="0.2">
+      <c r="CH161" s="19"/>
+      <c r="CI161" s="19"/>
+      <c r="CJ161" s="19"/>
+      <c r="CK161" s="19"/>
+      <c r="CL161" s="19"/>
+    </row>
+    <row r="162" spans="86:90" x14ac:dyDescent="0.2">
+      <c r="CH162" s="19"/>
+      <c r="CI162" s="19"/>
+      <c r="CJ162" s="19"/>
+      <c r="CK162" s="19"/>
+      <c r="CL162" s="19"/>
+    </row>
+    <row r="163" spans="86:90" x14ac:dyDescent="0.2">
+      <c r="CH163" s="19"/>
+      <c r="CI163" s="19"/>
+      <c r="CJ163" s="19"/>
+      <c r="CK163" s="19"/>
+      <c r="CL163" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD146:CG146"/>
-    <mergeCell ref="CD123:CG123"/>
-    <mergeCell ref="CD100:CG100"/>
-    <mergeCell ref="CD32:CG32"/>
-    <mergeCell ref="BR32:BU32"/>
-    <mergeCell ref="BV78:BY78"/>
-    <mergeCell ref="BZ146:CC146"/>
-    <mergeCell ref="BZ100:CC100"/>
-    <mergeCell ref="BZ123:CC123"/>
-    <mergeCell ref="BR123:BU123"/>
-    <mergeCell ref="BV123:BY123"/>
-    <mergeCell ref="BV146:BY146"/>
-    <mergeCell ref="BR55:BU55"/>
-    <mergeCell ref="BV55:BY55"/>
-    <mergeCell ref="BR146:BU146"/>
-    <mergeCell ref="BR100:BU100"/>
-    <mergeCell ref="BV100:BY100"/>
-    <mergeCell ref="BR78:BU78"/>
-    <mergeCell ref="BV32:BY32"/>
-    <mergeCell ref="BZ32:CC32"/>
-    <mergeCell ref="BZ55:CC55"/>
-    <mergeCell ref="BZ78:CC78"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BB32:BE32"/>
-    <mergeCell ref="BF32:BI32"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="Z32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AH32:AK32"/>
-    <mergeCell ref="AL32:AO32"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH32:CK32"/>
+    <mergeCell ref="CD55:CG55"/>
+    <mergeCell ref="CD78:CG78"/>
+    <mergeCell ref="CH100:CK100"/>
+    <mergeCell ref="CH123:CK123"/>
+    <mergeCell ref="CH146:CK146"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="J123:M123"/>
+    <mergeCell ref="N123:Q123"/>
+    <mergeCell ref="R123:U123"/>
+    <mergeCell ref="BF146:BI146"/>
+    <mergeCell ref="BJ146:BM146"/>
+    <mergeCell ref="BN146:BQ146"/>
+    <mergeCell ref="BJ123:BM123"/>
+    <mergeCell ref="BN123:BQ123"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="J146:M146"/>
+    <mergeCell ref="N146:Q146"/>
+    <mergeCell ref="R146:U146"/>
+    <mergeCell ref="V146:Y146"/>
+    <mergeCell ref="Z146:AC146"/>
+    <mergeCell ref="BN100:BQ100"/>
+    <mergeCell ref="AL100:AO100"/>
+    <mergeCell ref="AP100:AS100"/>
+    <mergeCell ref="AT100:AW100"/>
+    <mergeCell ref="AD146:AG146"/>
+    <mergeCell ref="AH146:AK146"/>
+    <mergeCell ref="AL146:AO146"/>
+    <mergeCell ref="AP146:AS146"/>
+    <mergeCell ref="AT146:AW146"/>
+    <mergeCell ref="AX146:BA146"/>
+    <mergeCell ref="BB146:BE146"/>
+    <mergeCell ref="BF123:BI123"/>
+    <mergeCell ref="V100:Y100"/>
+    <mergeCell ref="Z100:AC100"/>
+    <mergeCell ref="AD100:AG100"/>
+    <mergeCell ref="AH100:AK100"/>
+    <mergeCell ref="AX100:BA100"/>
+    <mergeCell ref="BB100:BE100"/>
+    <mergeCell ref="BF100:BI100"/>
+    <mergeCell ref="BJ100:BM100"/>
+    <mergeCell ref="V123:Y123"/>
+    <mergeCell ref="Z123:AC123"/>
+    <mergeCell ref="AD123:AG123"/>
+    <mergeCell ref="AH123:AK123"/>
+    <mergeCell ref="AL123:AO123"/>
+    <mergeCell ref="AP123:AS123"/>
+    <mergeCell ref="AT123:AW123"/>
+    <mergeCell ref="AX123:BA123"/>
+    <mergeCell ref="BB123:BE123"/>
+    <mergeCell ref="BF55:BI55"/>
+    <mergeCell ref="BJ55:BM55"/>
+    <mergeCell ref="BN55:BQ55"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="V78:Y78"/>
+    <mergeCell ref="Z78:AC78"/>
+    <mergeCell ref="AD78:AG78"/>
+    <mergeCell ref="AH78:AK78"/>
+    <mergeCell ref="AL78:AO78"/>
+    <mergeCell ref="AP78:AS78"/>
+    <mergeCell ref="AT78:AW78"/>
+    <mergeCell ref="AX78:BA78"/>
+    <mergeCell ref="BJ78:BM78"/>
+    <mergeCell ref="BN78:BQ78"/>
+    <mergeCell ref="BB78:BE78"/>
+    <mergeCell ref="BF78:BI78"/>
     <mergeCell ref="B100:E100"/>
     <mergeCell ref="F100:I100"/>
     <mergeCell ref="J100:M100"/>
@@ -47128,131 +47709,118 @@
     <mergeCell ref="AP32:AS32"/>
     <mergeCell ref="AT32:AW32"/>
     <mergeCell ref="AX32:BA32"/>
-    <mergeCell ref="BF55:BI55"/>
-    <mergeCell ref="BJ55:BM55"/>
-    <mergeCell ref="BN55:BQ55"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="V78:Y78"/>
-    <mergeCell ref="Z78:AC78"/>
-    <mergeCell ref="AD78:AG78"/>
-    <mergeCell ref="AH78:AK78"/>
-    <mergeCell ref="AL78:AO78"/>
-    <mergeCell ref="AP78:AS78"/>
-    <mergeCell ref="AT78:AW78"/>
-    <mergeCell ref="AX78:BA78"/>
-    <mergeCell ref="BJ78:BM78"/>
-    <mergeCell ref="BN78:BQ78"/>
-    <mergeCell ref="BB78:BE78"/>
-    <mergeCell ref="BF78:BI78"/>
-    <mergeCell ref="V100:Y100"/>
-    <mergeCell ref="Z100:AC100"/>
-    <mergeCell ref="AD100:AG100"/>
-    <mergeCell ref="AH100:AK100"/>
-    <mergeCell ref="AX100:BA100"/>
-    <mergeCell ref="BB100:BE100"/>
-    <mergeCell ref="BF100:BI100"/>
-    <mergeCell ref="BJ100:BM100"/>
-    <mergeCell ref="V123:Y123"/>
-    <mergeCell ref="Z123:AC123"/>
-    <mergeCell ref="AD123:AG123"/>
-    <mergeCell ref="AH123:AK123"/>
-    <mergeCell ref="AL123:AO123"/>
-    <mergeCell ref="AP123:AS123"/>
-    <mergeCell ref="AT123:AW123"/>
-    <mergeCell ref="AX123:BA123"/>
-    <mergeCell ref="BB123:BE123"/>
-    <mergeCell ref="BN100:BQ100"/>
-    <mergeCell ref="AL100:AO100"/>
-    <mergeCell ref="AP100:AS100"/>
-    <mergeCell ref="AT100:AW100"/>
-    <mergeCell ref="AD146:AG146"/>
-    <mergeCell ref="AH146:AK146"/>
-    <mergeCell ref="AL146:AO146"/>
-    <mergeCell ref="AP146:AS146"/>
-    <mergeCell ref="AT146:AW146"/>
-    <mergeCell ref="AX146:BA146"/>
-    <mergeCell ref="BB146:BE146"/>
-    <mergeCell ref="BF123:BI123"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH32:CK32"/>
-    <mergeCell ref="CD55:CG55"/>
-    <mergeCell ref="CD78:CG78"/>
-    <mergeCell ref="CH100:CK100"/>
-    <mergeCell ref="CH123:CK123"/>
-    <mergeCell ref="CH146:CK146"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="J123:M123"/>
-    <mergeCell ref="N123:Q123"/>
-    <mergeCell ref="R123:U123"/>
-    <mergeCell ref="BF146:BI146"/>
-    <mergeCell ref="BJ146:BM146"/>
-    <mergeCell ref="BN146:BQ146"/>
-    <mergeCell ref="BJ123:BM123"/>
-    <mergeCell ref="BN123:BQ123"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="J146:M146"/>
-    <mergeCell ref="N146:Q146"/>
-    <mergeCell ref="R146:U146"/>
-    <mergeCell ref="V146:Y146"/>
-    <mergeCell ref="Z146:AC146"/>
+    <mergeCell ref="BB32:BE32"/>
+    <mergeCell ref="BF32:BI32"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="Z32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AH32:AK32"/>
+    <mergeCell ref="AL32:AO32"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD146:CG146"/>
+    <mergeCell ref="CD123:CG123"/>
+    <mergeCell ref="CD100:CG100"/>
+    <mergeCell ref="CD32:CG32"/>
+    <mergeCell ref="BR32:BU32"/>
+    <mergeCell ref="BV78:BY78"/>
+    <mergeCell ref="BZ146:CC146"/>
+    <mergeCell ref="BZ100:CC100"/>
+    <mergeCell ref="BZ123:CC123"/>
+    <mergeCell ref="BR123:BU123"/>
+    <mergeCell ref="BV123:BY123"/>
+    <mergeCell ref="BV146:BY146"/>
+    <mergeCell ref="BR55:BU55"/>
+    <mergeCell ref="BV55:BY55"/>
+    <mergeCell ref="BR146:BU146"/>
+    <mergeCell ref="BR100:BU100"/>
+    <mergeCell ref="BV100:BY100"/>
+    <mergeCell ref="BR78:BU78"/>
+    <mergeCell ref="BV32:BY32"/>
+    <mergeCell ref="BZ32:CC32"/>
+    <mergeCell ref="BZ55:CC55"/>
+    <mergeCell ref="BZ78:CC78"/>
   </mergeCells>
   <conditionalFormatting sqref="BR58:BU65 BR81:BU88 BR103:BU110">
-    <cfRule type="cellIs" dxfId="13" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="65" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV58:BY65 BV81:BY88 BV103:BY110">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="43" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA103:CC110">
-    <cfRule type="cellIs" dxfId="11" priority="25" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="CA103:CE110">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ103:BZ110">
-    <cfRule type="cellIs" dxfId="10" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ58:CC65">
-    <cfRule type="cellIs" dxfId="9" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ81:CC88">
-    <cfRule type="cellIs" dxfId="8" priority="23" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD103:CE110">
+  <conditionalFormatting sqref="CF103:CG110">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD58:CG65">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF103:CG110">
+  <conditionalFormatting sqref="CD81:CG88">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH103:CI110">
+  <conditionalFormatting sqref="CH103:CI110 CL103:CL110">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH58:CJ65">
+  <conditionalFormatting sqref="CI58:CJ65 CL58:CL65">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH81:CJ88">
+  <conditionalFormatting sqref="CI81:CJ88 CL81:CL88">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -47262,12 +47830,12 @@
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD58:CG65">
+  <conditionalFormatting sqref="CH58:CH65">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD81:CG88">
+  <conditionalFormatting sqref="CH81:CH88">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -47277,9 +47845,9 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="88" man="1"/>
-    <brk id="92" max="88" man="1"/>
-    <brk id="114" max="88" man="1"/>
+    <brk id="46" max="89" man="1"/>
+    <brk id="92" max="89" man="1"/>
+    <brk id="114" max="89" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="56" max="159" man="1"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Time Series\2022\As of May 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B4200-98EA-4EEF-9CAF-2BB67E8C511A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28C2200-0F87-4B07-87F4-C45E2AA92A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="3" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CL$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CM$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -633,13 +633,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of May 2022</t>
+    <t>As of August 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2022</t>
+    <t>Q1 2000 to Q2 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2022</t>
+    <t>Q1 2001 to Q2 2022</t>
   </si>
 </sst>
 </file>
@@ -647,9 +647,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -731,150 +731,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{3726CEC5-577F-4645-88E9-81D598AEDBEE}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{34C9E4EF-4E1D-4A0A-AFE2-00CAF31CAADD}"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -23775,299 +23694,193 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EX163"/>
+  <dimension ref="A1:EX160"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A34" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BO1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH68" sqref="CH68"/>
+      <selection pane="topRight" activeCell="CV25" sqref="CV25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="77" width="8" style="10" customWidth="1"/>
-    <col min="78" max="90" width="8" style="27" customWidth="1"/>
-    <col min="91" max="16384" width="7.77734375" style="10"/>
+    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
+    <col min="2" max="91" width="8" style="10" customWidth="1"/>
+    <col min="92" max="16384" width="7.81640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ1" s="19"/>
-      <c r="CA1" s="19"/>
-      <c r="CB1" s="19"/>
-      <c r="CC1" s="19"/>
-      <c r="CD1" s="19"/>
-      <c r="CE1" s="19"/>
-      <c r="CF1" s="19"/>
-      <c r="CG1" s="19"/>
-      <c r="CH1" s="19"/>
-      <c r="CI1" s="19"/>
-      <c r="CJ1" s="19"/>
-      <c r="CK1" s="19"/>
-      <c r="CL1" s="19"/>
     </row>
-    <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BZ2" s="19"/>
-      <c r="CA2" s="19"/>
-      <c r="CB2" s="19"/>
-      <c r="CC2" s="19"/>
-      <c r="CD2" s="19"/>
-      <c r="CE2" s="19"/>
-      <c r="CF2" s="19"/>
-      <c r="CG2" s="19"/>
-      <c r="CH2" s="19"/>
-      <c r="CI2" s="19"/>
-      <c r="CJ2" s="19"/>
-      <c r="CK2" s="19"/>
-      <c r="CL2" s="19"/>
     </row>
-    <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BZ3" s="19"/>
-      <c r="CA3" s="19"/>
-      <c r="CB3" s="19"/>
-      <c r="CC3" s="19"/>
-      <c r="CD3" s="19"/>
-      <c r="CE3" s="19"/>
-      <c r="CF3" s="19"/>
-      <c r="CG3" s="19"/>
-      <c r="CH3" s="19"/>
-      <c r="CI3" s="19"/>
-      <c r="CJ3" s="19"/>
-      <c r="CK3" s="19"/>
-      <c r="CL3" s="19"/>
     </row>
-    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ4" s="19"/>
-      <c r="CA4" s="19"/>
-      <c r="CB4" s="19"/>
-      <c r="CC4" s="19"/>
-      <c r="CD4" s="19"/>
-      <c r="CE4" s="19"/>
-      <c r="CF4" s="19"/>
-      <c r="CG4" s="19"/>
-      <c r="CH4" s="19"/>
-      <c r="CI4" s="19"/>
-      <c r="CJ4" s="19"/>
-      <c r="CK4" s="19"/>
-      <c r="CL4" s="19"/>
-    </row>
-    <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="BZ5" s="19"/>
-      <c r="CA5" s="19"/>
-      <c r="CB5" s="19"/>
-      <c r="CC5" s="19"/>
-      <c r="CD5" s="19"/>
-      <c r="CE5" s="19"/>
-      <c r="CF5" s="19"/>
-      <c r="CG5" s="19"/>
-      <c r="CH5" s="19"/>
-      <c r="CI5" s="19"/>
-      <c r="CJ5" s="19"/>
-      <c r="CK5" s="19"/>
-      <c r="CL5" s="19"/>
     </row>
-    <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BZ6" s="19"/>
-      <c r="CA6" s="19"/>
-      <c r="CB6" s="19"/>
-      <c r="CC6" s="19"/>
-      <c r="CD6" s="19"/>
-      <c r="CE6" s="19"/>
-      <c r="CF6" s="19"/>
-      <c r="CG6" s="19"/>
-      <c r="CH6" s="19"/>
-      <c r="CI6" s="19"/>
-      <c r="CJ6" s="19"/>
-      <c r="CK6" s="19"/>
-      <c r="CL6" s="19"/>
     </row>
-    <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BZ7" s="19"/>
-      <c r="CA7" s="19"/>
-      <c r="CB7" s="19"/>
-      <c r="CC7" s="19"/>
-      <c r="CD7" s="19"/>
-      <c r="CE7" s="19"/>
-      <c r="CF7" s="19"/>
-      <c r="CG7" s="19"/>
-      <c r="CH7" s="19"/>
-      <c r="CI7" s="19"/>
-      <c r="CJ7" s="19"/>
-      <c r="CK7" s="19"/>
-      <c r="CL7" s="19"/>
     </row>
-    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ8" s="19"/>
-      <c r="CA8" s="19"/>
-      <c r="CB8" s="19"/>
-      <c r="CC8" s="19"/>
-      <c r="CD8" s="19"/>
-      <c r="CE8" s="19"/>
-      <c r="CF8" s="19"/>
-      <c r="CG8" s="19"/>
-      <c r="CH8" s="19"/>
-      <c r="CI8" s="19"/>
-      <c r="CJ8" s="19"/>
-      <c r="CK8" s="19"/>
-      <c r="CL8" s="19"/>
+    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="24">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
+        <v>2001</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24">
+        <v>2002</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24">
+        <v>2003</v>
+      </c>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24">
+        <v>2004</v>
+      </c>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24">
+        <v>2005</v>
+      </c>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24">
+        <v>2006</v>
+      </c>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24">
+        <v>2007</v>
+      </c>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24">
+        <v>2008</v>
+      </c>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24">
+        <v>2009</v>
+      </c>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24">
+        <v>2010</v>
+      </c>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="24">
+        <v>2011</v>
+      </c>
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="24">
+        <v>2012</v>
+      </c>
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="24"/>
+      <c r="BB9" s="24">
+        <v>2013</v>
+      </c>
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="24">
+        <v>2014</v>
+      </c>
+      <c r="BG9" s="24"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="24"/>
+      <c r="BJ9" s="24">
+        <v>2015</v>
+      </c>
+      <c r="BK9" s="24"/>
+      <c r="BL9" s="24"/>
+      <c r="BM9" s="24"/>
+      <c r="BN9" s="24">
+        <v>2016</v>
+      </c>
+      <c r="BO9" s="24"/>
+      <c r="BP9" s="24"/>
+      <c r="BQ9" s="24"/>
+      <c r="BR9" s="24">
+        <v>2017</v>
+      </c>
+      <c r="BS9" s="24"/>
+      <c r="BT9" s="24"/>
+      <c r="BU9" s="24"/>
+      <c r="BV9" s="24">
+        <v>2018</v>
+      </c>
+      <c r="BW9" s="24"/>
+      <c r="BX9" s="24"/>
+      <c r="BY9" s="24"/>
+      <c r="BZ9" s="24">
+        <v>2019</v>
+      </c>
+      <c r="CA9" s="24"/>
+      <c r="CB9" s="24"/>
+      <c r="CC9" s="24"/>
+      <c r="CD9" s="24">
+        <v>2020</v>
+      </c>
+      <c r="CE9" s="24"/>
+      <c r="CF9" s="24"/>
+      <c r="CG9" s="24"/>
+      <c r="CH9" s="24">
+        <v>2021</v>
+      </c>
+      <c r="CI9" s="24"/>
+      <c r="CJ9" s="24"/>
+      <c r="CK9" s="24"/>
+      <c r="CL9" s="24">
+        <v>2022</v>
+      </c>
+      <c r="CM9" s="24"/>
     </row>
-    <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="33">
-        <v>2000</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33">
-        <v>2001</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33">
-        <v>2002</v>
-      </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33">
-        <v>2003</v>
-      </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33">
-        <v>2004</v>
-      </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
-        <v>2005</v>
-      </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33">
-        <v>2006</v>
-      </c>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33">
-        <v>2007</v>
-      </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33">
-        <v>2008</v>
-      </c>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33">
-        <v>2009</v>
-      </c>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33">
-        <v>2010</v>
-      </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33">
-        <v>2011</v>
-      </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33">
-        <v>2012</v>
-      </c>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33">
-        <v>2013</v>
-      </c>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33">
-        <v>2014</v>
-      </c>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33">
-        <v>2015</v>
-      </c>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="33">
-        <v>2016</v>
-      </c>
-      <c r="BO9" s="33"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="33">
-        <v>2017</v>
-      </c>
-      <c r="BS9" s="33"/>
-      <c r="BT9" s="33"/>
-      <c r="BU9" s="33"/>
-      <c r="BV9" s="33">
-        <v>2018</v>
-      </c>
-      <c r="BW9" s="33"/>
-      <c r="BX9" s="33"/>
-      <c r="BY9" s="33"/>
-      <c r="BZ9" s="32">
-        <v>2019</v>
-      </c>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="32"/>
-      <c r="CD9" s="32">
-        <v>2020</v>
-      </c>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="32"/>
-      <c r="CG9" s="32"/>
-      <c r="CH9" s="32">
-        <v>2021</v>
-      </c>
-      <c r="CI9" s="32"/>
-      <c r="CJ9" s="32"/>
-      <c r="CK9" s="32"/>
-      <c r="CL9" s="31">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24299,63 +24112,53 @@
       <c r="BY10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="20" t="s">
+      <c r="BZ10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="20" t="s">
+      <c r="CA10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="20" t="s">
+      <c r="CB10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="20" t="s">
+      <c r="CC10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD10" s="20" t="s">
+      <c r="CD10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE10" s="20" t="s">
+      <c r="CE10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="20" t="s">
+      <c r="CF10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG10" s="20" t="s">
+      <c r="CG10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH10" s="20" t="s">
+      <c r="CH10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="20" t="s">
+      <c r="CI10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="20" t="s">
+      <c r="CJ10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK10" s="20" t="s">
+      <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="20" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="BZ11" s="19"/>
-      <c r="CA11" s="19"/>
-      <c r="CB11" s="19"/>
-      <c r="CC11" s="19"/>
-      <c r="CD11" s="19"/>
-      <c r="CE11" s="19"/>
-      <c r="CF11" s="19"/>
-      <c r="CG11" s="19"/>
-      <c r="CH11" s="19"/>
-      <c r="CI11" s="19"/>
-      <c r="CJ11" s="19"/>
-      <c r="CK11" s="19"/>
-      <c r="CL11" s="19"/>
     </row>
-    <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24587,46 +24390,48 @@
       <c r="BY12" s="8">
         <v>3413.9979416093834</v>
       </c>
-      <c r="BZ12" s="21">
+      <c r="BZ12" s="8">
         <v>4454.9919389999995</v>
       </c>
-      <c r="CA12" s="21">
+      <c r="CA12" s="8">
         <v>6211.0675205265252</v>
       </c>
-      <c r="CB12" s="21">
+      <c r="CB12" s="8">
         <v>4305.5234738111703</v>
       </c>
-      <c r="CC12" s="21">
+      <c r="CC12" s="8">
         <v>1959.7943747016132</v>
       </c>
-      <c r="CD12" s="21">
+      <c r="CD12" s="8">
         <v>2483.8906580435751</v>
       </c>
-      <c r="CE12" s="21">
+      <c r="CE12" s="8">
         <v>4027.632455932488</v>
       </c>
-      <c r="CF12" s="21">
+      <c r="CF12" s="8">
         <v>3119.4689716842854</v>
       </c>
-      <c r="CG12" s="21">
+      <c r="CG12" s="8">
         <v>1526.2165795598621</v>
       </c>
-      <c r="CH12" s="21">
+      <c r="CH12" s="20">
         <v>4298.6669128508729</v>
       </c>
-      <c r="CI12" s="21">
+      <c r="CI12" s="20">
         <v>7398.8928434943109</v>
       </c>
-      <c r="CJ12" s="21">
+      <c r="CJ12" s="20">
         <v>6602.5674383594614</v>
       </c>
-      <c r="CK12" s="21">
+      <c r="CK12" s="20">
         <v>5384.5076081224979</v>
       </c>
-      <c r="CL12" s="21">
-        <v>19569.73985277057</v>
-      </c>
-      <c r="CM12" s="9"/>
+      <c r="CL12" s="20">
+        <v>19537.629570868998</v>
+      </c>
+      <c r="CM12" s="20">
+        <v>16882.3451577101</v>
+      </c>
       <c r="CN12" s="9"/>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
@@ -24691,7 +24496,7 @@
       <c r="EW12" s="9"/>
       <c r="EX12" s="9"/>
     </row>
-    <row r="13" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24923,46 +24728,48 @@
       <c r="BY13" s="8">
         <v>10779.991704759663</v>
       </c>
-      <c r="BZ13" s="21">
+      <c r="BZ13" s="8">
         <v>10100.199167357752</v>
       </c>
-      <c r="CA13" s="21">
+      <c r="CA13" s="8">
         <v>10822.803328</v>
       </c>
-      <c r="CB13" s="21">
+      <c r="CB13" s="8">
         <v>7010.0687939999998</v>
       </c>
-      <c r="CC13" s="21">
+      <c r="CC13" s="8">
         <v>9369.7032996939015</v>
       </c>
-      <c r="CD13" s="21">
+      <c r="CD13" s="8">
         <v>6026.3296659849475</v>
       </c>
-      <c r="CE13" s="21">
+      <c r="CE13" s="8">
         <v>4722.0452881178717</v>
       </c>
-      <c r="CF13" s="21">
+      <c r="CF13" s="8">
         <v>4609.6156453471231</v>
       </c>
-      <c r="CG13" s="21">
+      <c r="CG13" s="8">
         <v>7176.0608086994489</v>
       </c>
-      <c r="CH13" s="21">
+      <c r="CH13" s="20">
         <v>7699.8596182378133</v>
       </c>
-      <c r="CI13" s="21">
+      <c r="CI13" s="20">
         <v>7764.587688842129</v>
       </c>
-      <c r="CJ13" s="21">
+      <c r="CJ13" s="20">
         <v>8891.5713159023253</v>
       </c>
-      <c r="CK13" s="21">
+      <c r="CK13" s="20">
         <v>10837.160110547225</v>
       </c>
-      <c r="CL13" s="21">
-        <v>10880.232936133716</v>
-      </c>
-      <c r="CM13" s="9"/>
+      <c r="CL13" s="20">
+        <v>11476.927845447768</v>
+      </c>
+      <c r="CM13" s="20">
+        <v>15844.494288309581</v>
+      </c>
       <c r="CN13" s="9"/>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
@@ -25027,7 +24834,7 @@
       <c r="EW13" s="9"/>
       <c r="EX13" s="9"/>
     </row>
-    <row r="14" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -25259,46 +25066,48 @@
       <c r="BY14" s="8">
         <v>5516.228135017107</v>
       </c>
-      <c r="BZ14" s="21">
+      <c r="BZ14" s="8">
         <v>7161.2744120017987</v>
       </c>
-      <c r="CA14" s="21">
+      <c r="CA14" s="8">
         <v>7245.9516219999996</v>
       </c>
-      <c r="CB14" s="21">
+      <c r="CB14" s="8">
         <v>6865.5985869999995</v>
       </c>
-      <c r="CC14" s="21">
+      <c r="CC14" s="8">
         <v>5597.2428047479962</v>
       </c>
-      <c r="CD14" s="21">
+      <c r="CD14" s="8">
         <v>6662.1925986170727</v>
       </c>
-      <c r="CE14" s="21">
+      <c r="CE14" s="8">
         <v>8195.2215592912289</v>
       </c>
-      <c r="CF14" s="21">
+      <c r="CF14" s="8">
         <v>9346.121991699225</v>
       </c>
-      <c r="CG14" s="21">
+      <c r="CG14" s="8">
         <v>8050.431997065336</v>
       </c>
-      <c r="CH14" s="21">
+      <c r="CH14" s="20">
         <v>8116.4528061324354</v>
       </c>
-      <c r="CI14" s="21">
+      <c r="CI14" s="20">
         <v>10140.451415345182</v>
       </c>
-      <c r="CJ14" s="21">
+      <c r="CJ14" s="20">
         <v>9562.0237566231626</v>
       </c>
-      <c r="CK14" s="21">
+      <c r="CK14" s="20">
         <v>9087.7522723670445</v>
       </c>
-      <c r="CL14" s="21">
-        <v>10267.252180193067</v>
-      </c>
-      <c r="CM14" s="9"/>
+      <c r="CL14" s="20">
+        <v>10315.890095359502</v>
+      </c>
+      <c r="CM14" s="20">
+        <v>13950.844269837649</v>
+      </c>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
@@ -25363,7 +25172,7 @@
       <c r="EW14" s="9"/>
       <c r="EX14" s="9"/>
     </row>
-    <row r="15" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -25595,46 +25404,48 @@
       <c r="BY15" s="8">
         <v>961.94272805159767</v>
       </c>
-      <c r="BZ15" s="21">
+      <c r="BZ15" s="8">
         <v>4384.275826527648</v>
       </c>
-      <c r="CA15" s="21">
+      <c r="CA15" s="8">
         <v>7976.4271108528137</v>
       </c>
-      <c r="CB15" s="21">
+      <c r="CB15" s="8">
         <v>6082.0581140000013</v>
       </c>
-      <c r="CC15" s="21">
+      <c r="CC15" s="8">
         <v>1596.8662211683732</v>
       </c>
-      <c r="CD15" s="21">
+      <c r="CD15" s="8">
         <v>3769.130025031528</v>
       </c>
-      <c r="CE15" s="21">
+      <c r="CE15" s="8">
         <v>7554.4398255262113</v>
       </c>
-      <c r="CF15" s="21">
+      <c r="CF15" s="8">
         <v>5960.9023409646052</v>
       </c>
-      <c r="CG15" s="21">
+      <c r="CG15" s="8">
         <v>2782.8656619720246</v>
       </c>
-      <c r="CH15" s="21">
+      <c r="CH15" s="20">
         <v>8488.7192651800997</v>
       </c>
-      <c r="CI15" s="21">
+      <c r="CI15" s="20">
         <v>13090.474540780364</v>
       </c>
-      <c r="CJ15" s="21">
+      <c r="CJ15" s="20">
         <v>9223.919795359312</v>
       </c>
-      <c r="CK15" s="21">
+      <c r="CK15" s="20">
         <v>2849.4849907710618</v>
       </c>
-      <c r="CL15" s="21">
-        <v>9742.7781903281466</v>
-      </c>
-      <c r="CM15" s="9"/>
+      <c r="CL15" s="20">
+        <v>12768.986131763944</v>
+      </c>
+      <c r="CM15" s="20">
+        <v>14020.265481720771</v>
+      </c>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
@@ -25699,7 +25510,7 @@
       <c r="EW15" s="9"/>
       <c r="EX15" s="9"/>
     </row>
-    <row r="16" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -25931,46 +25742,48 @@
       <c r="BY16" s="8">
         <v>3066.1471604327398</v>
       </c>
-      <c r="BZ16" s="21">
+      <c r="BZ16" s="8">
         <v>2669.9058449999984</v>
       </c>
-      <c r="CA16" s="21">
+      <c r="CA16" s="8">
         <v>2571.8843919999995</v>
       </c>
-      <c r="CB16" s="21">
+      <c r="CB16" s="8">
         <v>2366.3566069999997</v>
       </c>
-      <c r="CC16" s="21">
+      <c r="CC16" s="8">
         <v>2620.1412887200363</v>
       </c>
-      <c r="CD16" s="21">
+      <c r="CD16" s="8">
         <v>1381.0105285755335</v>
       </c>
-      <c r="CE16" s="21">
+      <c r="CE16" s="8">
         <v>1819.83522926656</v>
       </c>
-      <c r="CF16" s="21">
+      <c r="CF16" s="8">
         <v>2353.7338989024793</v>
       </c>
-      <c r="CG16" s="21">
+      <c r="CG16" s="8">
         <v>3294.1553325200161</v>
       </c>
-      <c r="CH16" s="21">
+      <c r="CH16" s="20">
         <v>1246.3429581549503</v>
       </c>
-      <c r="CI16" s="21">
+      <c r="CI16" s="20">
         <v>2147.2493653132246</v>
       </c>
-      <c r="CJ16" s="21">
+      <c r="CJ16" s="20">
         <v>2853.7049691362208</v>
       </c>
-      <c r="CK16" s="21">
+      <c r="CK16" s="20">
         <v>4553.8486237951893</v>
       </c>
-      <c r="CL16" s="21">
+      <c r="CL16" s="20">
         <v>2438.1708431438506</v>
       </c>
-      <c r="CM16" s="9"/>
+      <c r="CM16" s="20">
+        <v>3390.1463916606108</v>
+      </c>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
@@ -26035,7 +25848,7 @@
       <c r="EW16" s="9"/>
       <c r="EX16" s="9"/>
     </row>
-    <row r="17" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -26267,46 +26080,48 @@
       <c r="BY17" s="8">
         <v>14791.356016425587</v>
       </c>
-      <c r="BZ17" s="21">
+      <c r="BZ17" s="8">
         <v>13916.247992411645</v>
       </c>
-      <c r="CA17" s="21">
+      <c r="CA17" s="8">
         <v>10358.729522924432</v>
       </c>
-      <c r="CB17" s="21">
+      <c r="CB17" s="8">
         <v>10559.020823663737</v>
       </c>
-      <c r="CC17" s="21">
+      <c r="CC17" s="8">
         <v>15450.240006454096</v>
       </c>
-      <c r="CD17" s="21">
+      <c r="CD17" s="8">
         <v>13214.890931823138</v>
       </c>
-      <c r="CE17" s="21">
+      <c r="CE17" s="8">
         <v>6128.0222538936814</v>
       </c>
-      <c r="CF17" s="21">
+      <c r="CF17" s="8">
         <v>8639.9516950968955</v>
       </c>
-      <c r="CG17" s="21">
+      <c r="CG17" s="8">
         <v>14216.149380776653</v>
       </c>
-      <c r="CH17" s="21">
+      <c r="CH17" s="20">
         <v>12508.896456119282</v>
       </c>
-      <c r="CI17" s="21">
+      <c r="CI17" s="20">
         <v>7989.1024856563126</v>
       </c>
-      <c r="CJ17" s="21">
+      <c r="CJ17" s="20">
         <v>10374.522090799132</v>
       </c>
-      <c r="CK17" s="21">
+      <c r="CK17" s="20">
         <v>14173.260271071093</v>
       </c>
-      <c r="CL17" s="21">
-        <v>14902.994506094863</v>
-      </c>
-      <c r="CM17" s="9"/>
+      <c r="CL17" s="20">
+        <v>14756.201664874417</v>
+      </c>
+      <c r="CM17" s="20">
+        <v>9597.8599261222553</v>
+      </c>
       <c r="CN17" s="9"/>
       <c r="CO17" s="9"/>
       <c r="CP17" s="9"/>
@@ -26371,7 +26186,7 @@
       <c r="EW17" s="9"/>
       <c r="EX17" s="9"/>
     </row>
-    <row r="18" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -26448,19 +26263,19 @@
       <c r="BW18" s="9"/>
       <c r="BX18" s="9"/>
       <c r="BY18" s="9"/>
-      <c r="BZ18" s="22"/>
-      <c r="CA18" s="22"/>
-      <c r="CB18" s="22"/>
-      <c r="CC18" s="22"/>
-      <c r="CD18" s="22"/>
-      <c r="CE18" s="22"/>
-      <c r="CF18" s="22"/>
-      <c r="CG18" s="22"/>
-      <c r="CH18" s="22"/>
-      <c r="CI18" s="22"/>
-      <c r="CJ18" s="22"/>
-      <c r="CK18" s="22"/>
-      <c r="CL18" s="22"/>
+      <c r="BZ18" s="9"/>
+      <c r="CA18" s="9"/>
+      <c r="CB18" s="9"/>
+      <c r="CC18" s="9"/>
+      <c r="CD18" s="9"/>
+      <c r="CE18" s="9"/>
+      <c r="CF18" s="9"/>
+      <c r="CG18" s="9"/>
+      <c r="CH18" s="9"/>
+      <c r="CI18" s="9"/>
+      <c r="CJ18" s="9"/>
+      <c r="CK18" s="9"/>
+      <c r="CL18" s="9"/>
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
       <c r="CO18" s="9"/>
@@ -26526,7 +26341,7 @@
       <c r="EW18" s="9"/>
       <c r="EX18" s="9"/>
     </row>
-    <row r="19" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -26758,46 +26573,48 @@
       <c r="BY19" s="12">
         <v>38529.663686296073</v>
       </c>
-      <c r="BZ19" s="23">
+      <c r="BZ19" s="12">
         <v>42686.895182298838</v>
       </c>
-      <c r="CA19" s="23">
+      <c r="CA19" s="12">
         <v>45186.863496303769</v>
       </c>
-      <c r="CB19" s="23">
+      <c r="CB19" s="12">
         <v>37188.626399474917</v>
       </c>
-      <c r="CC19" s="23">
+      <c r="CC19" s="12">
         <v>36593.987995486015</v>
       </c>
-      <c r="CD19" s="23">
+      <c r="CD19" s="12">
         <v>33537.444408075797</v>
       </c>
-      <c r="CE19" s="23">
+      <c r="CE19" s="12">
         <v>32447.196612028041</v>
       </c>
-      <c r="CF19" s="23">
+      <c r="CF19" s="12">
         <v>34029.794543694617</v>
       </c>
-      <c r="CG19" s="23">
+      <c r="CG19" s="12">
         <v>37045.879760593336</v>
       </c>
-      <c r="CH19" s="23">
+      <c r="CH19" s="21">
         <v>42358.938016675456</v>
       </c>
-      <c r="CI19" s="23">
+      <c r="CI19" s="21">
         <v>48530.75833943153</v>
       </c>
-      <c r="CJ19" s="23">
+      <c r="CJ19" s="21">
         <v>47508.309366179608</v>
       </c>
-      <c r="CK19" s="23">
+      <c r="CK19" s="21">
         <v>46886.013876674115</v>
       </c>
-      <c r="CL19" s="23">
-        <v>67801.16850866421</v>
-      </c>
-      <c r="CM19" s="9"/>
+      <c r="CL19" s="21">
+        <v>71293.806151458484</v>
+      </c>
+      <c r="CM19" s="21">
+        <v>73685.955515360969</v>
+      </c>
       <c r="CN19" s="9"/>
       <c r="CO19" s="9"/>
       <c r="CP19" s="9"/>
@@ -26862,7 +26679,7 @@
       <c r="EW19" s="9"/>
       <c r="EX19" s="9"/>
     </row>
-    <row r="20" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -26940,39 +26757,27 @@
       <c r="BW20" s="13"/>
       <c r="BX20" s="13"/>
       <c r="BY20" s="13"/>
-      <c r="BZ20" s="24"/>
-      <c r="CA20" s="24"/>
-      <c r="CB20" s="24"/>
-      <c r="CC20" s="24"/>
-      <c r="CD20" s="24"/>
-      <c r="CE20" s="24"/>
-      <c r="CF20" s="24"/>
-      <c r="CG20" s="24"/>
-      <c r="CH20" s="24"/>
-      <c r="CI20" s="24"/>
-      <c r="CJ20" s="24"/>
-      <c r="CK20" s="24"/>
-      <c r="CL20" s="24"/>
+      <c r="BZ20" s="13"/>
+      <c r="CA20" s="13"/>
+      <c r="CB20" s="13"/>
+      <c r="CC20" s="13"/>
+      <c r="CD20" s="13"/>
+      <c r="CE20" s="13"/>
+      <c r="CF20" s="13"/>
+      <c r="CG20" s="13"/>
+      <c r="CH20" s="13"/>
+      <c r="CI20" s="13"/>
+      <c r="CJ20" s="13"/>
+      <c r="CK20" s="13"/>
+      <c r="CL20" s="13"/>
+      <c r="CM20" s="13"/>
     </row>
-    <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BZ21" s="19"/>
-      <c r="CA21" s="19"/>
-      <c r="CB21" s="19"/>
-      <c r="CC21" s="19"/>
-      <c r="CD21" s="19"/>
-      <c r="CE21" s="19"/>
-      <c r="CF21" s="19"/>
-      <c r="CG21" s="19"/>
-      <c r="CH21" s="19"/>
-      <c r="CI21" s="19"/>
-      <c r="CJ21" s="19"/>
-      <c r="CK21" s="19"/>
-      <c r="CL21" s="19"/>
     </row>
-    <row r="22" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -27049,19 +26854,19 @@
       <c r="BW22" s="9"/>
       <c r="BX22" s="9"/>
       <c r="BY22" s="9"/>
-      <c r="BZ22" s="22"/>
-      <c r="CA22" s="22"/>
-      <c r="CB22" s="22"/>
-      <c r="CC22" s="22"/>
-      <c r="CD22" s="22"/>
-      <c r="CE22" s="22"/>
-      <c r="CF22" s="22"/>
-      <c r="CG22" s="22"/>
-      <c r="CH22" s="22"/>
-      <c r="CI22" s="22"/>
-      <c r="CJ22" s="22"/>
-      <c r="CK22" s="22"/>
-      <c r="CL22" s="22"/>
+      <c r="BZ22" s="9"/>
+      <c r="CA22" s="9"/>
+      <c r="CB22" s="9"/>
+      <c r="CC22" s="9"/>
+      <c r="CD22" s="9"/>
+      <c r="CE22" s="9"/>
+      <c r="CF22" s="9"/>
+      <c r="CG22" s="9"/>
+      <c r="CH22" s="9"/>
+      <c r="CI22" s="9"/>
+      <c r="CJ22" s="9"/>
+      <c r="CK22" s="9"/>
+      <c r="CL22" s="9"/>
       <c r="CM22" s="9"/>
       <c r="CN22" s="9"/>
       <c r="CO22" s="9"/>
@@ -27127,7 +26932,7 @@
       <c r="EW22" s="9"/>
       <c r="EX22" s="9"/>
     </row>
-    <row r="23" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -27204,19 +27009,19 @@
       <c r="BW23" s="9"/>
       <c r="BX23" s="9"/>
       <c r="BY23" s="9"/>
-      <c r="BZ23" s="22"/>
-      <c r="CA23" s="22"/>
-      <c r="CB23" s="22"/>
-      <c r="CC23" s="22"/>
-      <c r="CD23" s="22"/>
-      <c r="CE23" s="22"/>
-      <c r="CF23" s="22"/>
-      <c r="CG23" s="22"/>
-      <c r="CH23" s="22"/>
-      <c r="CI23" s="22"/>
-      <c r="CJ23" s="22"/>
-      <c r="CK23" s="22"/>
-      <c r="CL23" s="22"/>
+      <c r="BZ23" s="9"/>
+      <c r="CA23" s="9"/>
+      <c r="CB23" s="9"/>
+      <c r="CC23" s="9"/>
+      <c r="CD23" s="9"/>
+      <c r="CE23" s="9"/>
+      <c r="CF23" s="9"/>
+      <c r="CG23" s="9"/>
+      <c r="CH23" s="9"/>
+      <c r="CI23" s="9"/>
+      <c r="CJ23" s="9"/>
+      <c r="CK23" s="9"/>
+      <c r="CL23" s="9"/>
       <c r="CM23" s="9"/>
       <c r="CN23" s="9"/>
       <c r="CO23" s="9"/>
@@ -27282,283 +27087,178 @@
       <c r="EW23" s="9"/>
       <c r="EX23" s="9"/>
     </row>
-    <row r="24" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ24" s="19"/>
-      <c r="CA24" s="19"/>
-      <c r="CB24" s="19"/>
-      <c r="CC24" s="19"/>
-      <c r="CD24" s="19"/>
-      <c r="CE24" s="19"/>
-      <c r="CF24" s="19"/>
-      <c r="CG24" s="19"/>
-      <c r="CH24" s="19"/>
-      <c r="CI24" s="19"/>
-      <c r="CJ24" s="19"/>
-      <c r="CK24" s="19"/>
-      <c r="CL24" s="19"/>
     </row>
-    <row r="25" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BZ25" s="19"/>
-      <c r="CA25" s="19"/>
-      <c r="CB25" s="19"/>
-      <c r="CC25" s="19"/>
-      <c r="CD25" s="19"/>
-      <c r="CE25" s="19"/>
-      <c r="CF25" s="19"/>
-      <c r="CG25" s="19"/>
-      <c r="CH25" s="19"/>
-      <c r="CI25" s="19"/>
-      <c r="CJ25" s="19"/>
-      <c r="CK25" s="19"/>
-      <c r="CL25" s="19"/>
     </row>
-    <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BZ26" s="19"/>
-      <c r="CA26" s="19"/>
-      <c r="CB26" s="19"/>
-      <c r="CC26" s="19"/>
-      <c r="CD26" s="19"/>
-      <c r="CE26" s="19"/>
-      <c r="CF26" s="19"/>
-      <c r="CG26" s="19"/>
-      <c r="CH26" s="19"/>
-      <c r="CI26" s="19"/>
-      <c r="CJ26" s="19"/>
-      <c r="CK26" s="19"/>
-      <c r="CL26" s="19"/>
     </row>
-    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ27" s="19"/>
-      <c r="CA27" s="19"/>
-      <c r="CB27" s="19"/>
-      <c r="CC27" s="19"/>
-      <c r="CD27" s="19"/>
-      <c r="CE27" s="19"/>
-      <c r="CF27" s="19"/>
-      <c r="CG27" s="19"/>
-      <c r="CH27" s="19"/>
-      <c r="CI27" s="19"/>
-      <c r="CJ27" s="19"/>
-      <c r="CK27" s="19"/>
-      <c r="CL27" s="19"/>
-    </row>
-    <row r="28" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="BZ28" s="19"/>
-      <c r="CA28" s="19"/>
-      <c r="CB28" s="19"/>
-      <c r="CC28" s="19"/>
-      <c r="CD28" s="19"/>
-      <c r="CE28" s="19"/>
-      <c r="CF28" s="19"/>
-      <c r="CG28" s="19"/>
-      <c r="CH28" s="19"/>
-      <c r="CI28" s="19"/>
-      <c r="CJ28" s="19"/>
-      <c r="CK28" s="19"/>
-      <c r="CL28" s="19"/>
     </row>
-    <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BZ29" s="19"/>
-      <c r="CA29" s="19"/>
-      <c r="CB29" s="19"/>
-      <c r="CC29" s="19"/>
-      <c r="CD29" s="19"/>
-      <c r="CE29" s="19"/>
-      <c r="CF29" s="19"/>
-      <c r="CG29" s="19"/>
-      <c r="CH29" s="19"/>
-      <c r="CI29" s="19"/>
-      <c r="CJ29" s="19"/>
-      <c r="CK29" s="19"/>
-      <c r="CL29" s="19"/>
     </row>
-    <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BZ30" s="19"/>
-      <c r="CA30" s="19"/>
-      <c r="CB30" s="19"/>
-      <c r="CC30" s="19"/>
-      <c r="CD30" s="19"/>
-      <c r="CE30" s="19"/>
-      <c r="CF30" s="19"/>
-      <c r="CG30" s="19"/>
-      <c r="CH30" s="19"/>
-      <c r="CI30" s="19"/>
-      <c r="CJ30" s="19"/>
-      <c r="CK30" s="19"/>
-      <c r="CL30" s="19"/>
     </row>
-    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ31" s="19"/>
-      <c r="CA31" s="19"/>
-      <c r="CB31" s="19"/>
-      <c r="CC31" s="19"/>
-      <c r="CD31" s="19"/>
-      <c r="CE31" s="19"/>
-      <c r="CF31" s="19"/>
-      <c r="CG31" s="19"/>
-      <c r="CH31" s="19"/>
-      <c r="CI31" s="19"/>
-      <c r="CJ31" s="19"/>
-      <c r="CK31" s="19"/>
-      <c r="CL31" s="19"/>
+    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="24">
+        <v>2000</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24">
+        <v>2001</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24">
+        <v>2002</v>
+      </c>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24">
+        <v>2003</v>
+      </c>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24">
+        <v>2004</v>
+      </c>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24">
+        <v>2005</v>
+      </c>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24">
+        <v>2006</v>
+      </c>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24">
+        <v>2007</v>
+      </c>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="24"/>
+      <c r="AH32" s="24">
+        <v>2008</v>
+      </c>
+      <c r="AI32" s="24"/>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="24"/>
+      <c r="AL32" s="24">
+        <v>2009</v>
+      </c>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="24"/>
+      <c r="AP32" s="24">
+        <v>2010</v>
+      </c>
+      <c r="AQ32" s="24"/>
+      <c r="AR32" s="24"/>
+      <c r="AS32" s="24"/>
+      <c r="AT32" s="24">
+        <v>2011</v>
+      </c>
+      <c r="AU32" s="24"/>
+      <c r="AV32" s="24"/>
+      <c r="AW32" s="24"/>
+      <c r="AX32" s="24">
+        <v>2012</v>
+      </c>
+      <c r="AY32" s="24"/>
+      <c r="AZ32" s="24"/>
+      <c r="BA32" s="24"/>
+      <c r="BB32" s="24">
+        <v>2013</v>
+      </c>
+      <c r="BC32" s="24"/>
+      <c r="BD32" s="24"/>
+      <c r="BE32" s="24"/>
+      <c r="BF32" s="24">
+        <v>2014</v>
+      </c>
+      <c r="BG32" s="24"/>
+      <c r="BH32" s="24"/>
+      <c r="BI32" s="24"/>
+      <c r="BJ32" s="24">
+        <v>2015</v>
+      </c>
+      <c r="BK32" s="24"/>
+      <c r="BL32" s="24"/>
+      <c r="BM32" s="24"/>
+      <c r="BN32" s="24">
+        <v>2016</v>
+      </c>
+      <c r="BO32" s="24"/>
+      <c r="BP32" s="24"/>
+      <c r="BQ32" s="24"/>
+      <c r="BR32" s="24">
+        <v>2017</v>
+      </c>
+      <c r="BS32" s="24"/>
+      <c r="BT32" s="24"/>
+      <c r="BU32" s="24"/>
+      <c r="BV32" s="24">
+        <v>2018</v>
+      </c>
+      <c r="BW32" s="24"/>
+      <c r="BX32" s="24"/>
+      <c r="BY32" s="24"/>
+      <c r="BZ32" s="24">
+        <v>2019</v>
+      </c>
+      <c r="CA32" s="24"/>
+      <c r="CB32" s="24"/>
+      <c r="CC32" s="24"/>
+      <c r="CD32" s="24">
+        <v>2020</v>
+      </c>
+      <c r="CE32" s="24"/>
+      <c r="CF32" s="24"/>
+      <c r="CG32" s="24"/>
+      <c r="CH32" s="24">
+        <v>2021</v>
+      </c>
+      <c r="CI32" s="24"/>
+      <c r="CJ32" s="24"/>
+      <c r="CK32" s="24"/>
+      <c r="CL32" s="24">
+        <v>2022</v>
+      </c>
+      <c r="CM32" s="24"/>
     </row>
-    <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="33">
-        <v>2000</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33">
-        <v>2001</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33">
-        <v>2002</v>
-      </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33">
-        <v>2003</v>
-      </c>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33">
-        <v>2004</v>
-      </c>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33">
-        <v>2005</v>
-      </c>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33">
-        <v>2006</v>
-      </c>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33">
-        <v>2007</v>
-      </c>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="33">
-        <v>2008</v>
-      </c>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="33">
-        <v>2009</v>
-      </c>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="33"/>
-      <c r="AO32" s="33"/>
-      <c r="AP32" s="33">
-        <v>2010</v>
-      </c>
-      <c r="AQ32" s="33"/>
-      <c r="AR32" s="33"/>
-      <c r="AS32" s="33"/>
-      <c r="AT32" s="33">
-        <v>2011</v>
-      </c>
-      <c r="AU32" s="33"/>
-      <c r="AV32" s="33"/>
-      <c r="AW32" s="33"/>
-      <c r="AX32" s="33">
-        <v>2012</v>
-      </c>
-      <c r="AY32" s="33"/>
-      <c r="AZ32" s="33"/>
-      <c r="BA32" s="33"/>
-      <c r="BB32" s="33">
-        <v>2013</v>
-      </c>
-      <c r="BC32" s="33"/>
-      <c r="BD32" s="33"/>
-      <c r="BE32" s="33"/>
-      <c r="BF32" s="33">
-        <v>2014</v>
-      </c>
-      <c r="BG32" s="33"/>
-      <c r="BH32" s="33"/>
-      <c r="BI32" s="33"/>
-      <c r="BJ32" s="33">
-        <v>2015</v>
-      </c>
-      <c r="BK32" s="33"/>
-      <c r="BL32" s="33"/>
-      <c r="BM32" s="33"/>
-      <c r="BN32" s="33">
-        <v>2016</v>
-      </c>
-      <c r="BO32" s="33"/>
-      <c r="BP32" s="33"/>
-      <c r="BQ32" s="33"/>
-      <c r="BR32" s="33">
-        <v>2017</v>
-      </c>
-      <c r="BS32" s="33"/>
-      <c r="BT32" s="33"/>
-      <c r="BU32" s="33"/>
-      <c r="BV32" s="33">
-        <v>2018</v>
-      </c>
-      <c r="BW32" s="33"/>
-      <c r="BX32" s="33"/>
-      <c r="BY32" s="33"/>
-      <c r="BZ32" s="32">
-        <v>2019</v>
-      </c>
-      <c r="CA32" s="32"/>
-      <c r="CB32" s="32"/>
-      <c r="CC32" s="32"/>
-      <c r="CD32" s="32">
-        <v>2020</v>
-      </c>
-      <c r="CE32" s="32"/>
-      <c r="CF32" s="32"/>
-      <c r="CG32" s="32"/>
-      <c r="CH32" s="32">
-        <v>2021</v>
-      </c>
-      <c r="CI32" s="32"/>
-      <c r="CJ32" s="32"/>
-      <c r="CK32" s="32"/>
-      <c r="CL32" s="31">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -27790,63 +27490,53 @@
       <c r="BY33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ33" s="20" t="s">
+      <c r="BZ33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA33" s="20" t="s">
+      <c r="CA33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB33" s="20" t="s">
+      <c r="CB33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC33" s="20" t="s">
+      <c r="CC33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD33" s="20" t="s">
+      <c r="CD33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE33" s="20" t="s">
+      <c r="CE33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF33" s="20" t="s">
+      <c r="CF33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG33" s="20" t="s">
+      <c r="CG33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH33" s="20" t="s">
+      <c r="CH33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI33" s="20" t="s">
+      <c r="CI33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ33" s="20" t="s">
+      <c r="CJ33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK33" s="20" t="s">
+      <c r="CK33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL33" s="20" t="s">
+      <c r="CL33" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM33" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="34" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="BZ34" s="19"/>
-      <c r="CA34" s="19"/>
-      <c r="CB34" s="19"/>
-      <c r="CC34" s="19"/>
-      <c r="CD34" s="19"/>
-      <c r="CE34" s="19"/>
-      <c r="CF34" s="19"/>
-      <c r="CG34" s="19"/>
-      <c r="CH34" s="19"/>
-      <c r="CI34" s="19"/>
-      <c r="CJ34" s="19"/>
-      <c r="CK34" s="19"/>
-      <c r="CL34" s="19"/>
     </row>
-    <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -28078,46 +27768,48 @@
       <c r="BY35" s="8">
         <v>5954.4905432996366</v>
       </c>
-      <c r="BZ35" s="21">
+      <c r="BZ35" s="8">
         <v>6625.6376656000239</v>
       </c>
-      <c r="CA35" s="21">
+      <c r="CA35" s="8">
         <v>8198.4844587195075</v>
       </c>
-      <c r="CB35" s="21">
+      <c r="CB35" s="8">
         <v>3389.4773479978817</v>
       </c>
-      <c r="CC35" s="21">
+      <c r="CC35" s="8">
         <v>5256.8028553051563</v>
       </c>
-      <c r="CD35" s="21">
+      <c r="CD35" s="8">
         <v>5185.9227969788171</v>
       </c>
-      <c r="CE35" s="21">
+      <c r="CE35" s="8">
         <v>8196.1503092120402</v>
       </c>
-      <c r="CF35" s="21">
+      <c r="CF35" s="8">
         <v>3202.6781512860248</v>
       </c>
-      <c r="CG35" s="21">
+      <c r="CG35" s="8">
         <v>3725.5687314519337</v>
       </c>
-      <c r="CH35" s="21">
+      <c r="CH35" s="20">
         <v>7366.6241073344327</v>
       </c>
-      <c r="CI35" s="21">
+      <c r="CI35" s="20">
         <v>7976.3502756595108</v>
       </c>
-      <c r="CJ35" s="21">
+      <c r="CJ35" s="20">
         <v>1954.5648260456455</v>
       </c>
-      <c r="CK35" s="21">
+      <c r="CK35" s="20">
         <v>4377.4613066335278</v>
       </c>
-      <c r="CL35" s="21">
-        <v>10947.790012190888</v>
-      </c>
-      <c r="CM35" s="9"/>
+      <c r="CL35" s="20">
+        <v>10929.826736943727</v>
+      </c>
+      <c r="CM35" s="20">
+        <v>6327.0602770779406</v>
+      </c>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
@@ -28182,7 +27874,7 @@
       <c r="EW35" s="9"/>
       <c r="EX35" s="9"/>
     </row>
-    <row r="36" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -28414,46 +28106,48 @@
       <c r="BY36" s="8">
         <v>8083.8618232091194</v>
       </c>
-      <c r="BZ36" s="21">
+      <c r="BZ36" s="8">
         <v>7772.7515855259871</v>
       </c>
-      <c r="CA36" s="21">
+      <c r="CA36" s="8">
         <v>20076.000130750595</v>
       </c>
-      <c r="CB36" s="21">
+      <c r="CB36" s="8">
         <v>4817.6391890854165</v>
       </c>
-      <c r="CC36" s="21">
+      <c r="CC36" s="8">
         <v>7587.4100950403681</v>
       </c>
-      <c r="CD36" s="21">
+      <c r="CD36" s="8">
         <v>6788.1361103667259</v>
       </c>
-      <c r="CE36" s="21">
+      <c r="CE36" s="8">
         <v>15958.954290338446</v>
       </c>
-      <c r="CF36" s="21">
+      <c r="CF36" s="8">
         <v>4216.7631256646146</v>
       </c>
-      <c r="CG36" s="21">
+      <c r="CG36" s="8">
         <v>6360.8779189578154</v>
       </c>
-      <c r="CH36" s="21">
+      <c r="CH36" s="20">
         <v>5489.642902099733</v>
       </c>
-      <c r="CI36" s="21">
+      <c r="CI36" s="20">
         <v>14061.606274353939</v>
       </c>
-      <c r="CJ36" s="21">
+      <c r="CJ36" s="20">
         <v>3881.2041812060897</v>
       </c>
-      <c r="CK36" s="21">
+      <c r="CK36" s="20">
         <v>4896.2167341823924</v>
       </c>
-      <c r="CL36" s="21">
-        <v>5195.9345307395306</v>
-      </c>
-      <c r="CM36" s="9"/>
+      <c r="CL36" s="20">
+        <v>5486.7089418083433</v>
+      </c>
+      <c r="CM36" s="20">
+        <v>12545.706395806543</v>
+      </c>
       <c r="CN36" s="9"/>
       <c r="CO36" s="9"/>
       <c r="CP36" s="9"/>
@@ -28518,7 +28212,7 @@
       <c r="EW36" s="9"/>
       <c r="EX36" s="9"/>
     </row>
-    <row r="37" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -28750,46 +28444,48 @@
       <c r="BY37" s="8">
         <v>5917.0077994240255</v>
       </c>
-      <c r="BZ37" s="21">
+      <c r="BZ37" s="8">
         <v>7145.8169889028268</v>
       </c>
-      <c r="CA37" s="21">
+      <c r="CA37" s="8">
         <v>7135.2219951940588</v>
       </c>
-      <c r="CB37" s="21">
+      <c r="CB37" s="8">
         <v>5317.7924717972573</v>
       </c>
-      <c r="CC37" s="21">
+      <c r="CC37" s="8">
         <v>4875.2259184043169</v>
       </c>
-      <c r="CD37" s="21">
+      <c r="CD37" s="8">
         <v>4706.4360907846185</v>
       </c>
-      <c r="CE37" s="21">
+      <c r="CE37" s="8">
         <v>5096.2942159296426</v>
       </c>
-      <c r="CF37" s="21">
+      <c r="CF37" s="8">
         <v>4617.5723548291116</v>
       </c>
-      <c r="CG37" s="21">
+      <c r="CG37" s="8">
         <v>4610.8806062339672</v>
       </c>
-      <c r="CH37" s="21">
+      <c r="CH37" s="20">
         <v>5018.3374156152431</v>
       </c>
-      <c r="CI37" s="21">
+      <c r="CI37" s="20">
         <v>6052.7885216024242</v>
       </c>
-      <c r="CJ37" s="21">
+      <c r="CJ37" s="20">
         <v>5347.3605298945513</v>
       </c>
-      <c r="CK37" s="21">
+      <c r="CK37" s="20">
         <v>5972.151005999438</v>
       </c>
-      <c r="CL37" s="21">
-        <v>6028.5470722446707</v>
-      </c>
-      <c r="CM37" s="9"/>
+      <c r="CL37" s="20">
+        <v>6056.9627438104289</v>
+      </c>
+      <c r="CM37" s="20">
+        <v>8097.2608592890292</v>
+      </c>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
       <c r="CP37" s="9"/>
@@ -28854,7 +28550,7 @@
       <c r="EW37" s="9"/>
       <c r="EX37" s="9"/>
     </row>
-    <row r="38" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -29086,46 +28782,48 @@
       <c r="BY38" s="8">
         <v>927.56556132923674</v>
       </c>
-      <c r="BZ38" s="21">
+      <c r="BZ38" s="8">
         <v>3795.5978408386472</v>
       </c>
-      <c r="CA38" s="21">
+      <c r="CA38" s="8">
         <v>9585.5898127993405</v>
       </c>
-      <c r="CB38" s="21">
+      <c r="CB38" s="8">
         <v>5433.7460649143777</v>
       </c>
-      <c r="CC38" s="21">
+      <c r="CC38" s="8">
         <v>1183.5453050465471</v>
       </c>
-      <c r="CD38" s="21">
+      <c r="CD38" s="8">
         <v>3080.4151327369641</v>
       </c>
-      <c r="CE38" s="21">
+      <c r="CE38" s="8">
         <v>8500.7989648955609</v>
       </c>
-      <c r="CF38" s="21">
+      <c r="CF38" s="8">
         <v>6133.3386552376378</v>
       </c>
-      <c r="CG38" s="21">
+      <c r="CG38" s="8">
         <v>1743.9240612838362</v>
       </c>
-      <c r="CH38" s="21">
+      <c r="CH38" s="20">
         <v>4996.8693390372027</v>
       </c>
-      <c r="CI38" s="21">
+      <c r="CI38" s="20">
         <v>10383.722352801096</v>
       </c>
-      <c r="CJ38" s="21">
+      <c r="CJ38" s="20">
         <v>6661.2455643121284</v>
       </c>
-      <c r="CK38" s="21">
+      <c r="CK38" s="20">
         <v>1463.4685481201896</v>
       </c>
-      <c r="CL38" s="21">
-        <v>3335.942799112102</v>
-      </c>
-      <c r="CM38" s="9"/>
+      <c r="CL38" s="20">
+        <v>4372.1212272395496</v>
+      </c>
+      <c r="CM38" s="20">
+        <v>6668.3407846649989</v>
+      </c>
       <c r="CN38" s="9"/>
       <c r="CO38" s="9"/>
       <c r="CP38" s="9"/>
@@ -29190,7 +28888,7 @@
       <c r="EW38" s="9"/>
       <c r="EX38" s="9"/>
     </row>
-    <row r="39" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -29422,46 +29120,48 @@
       <c r="BY39" s="8">
         <v>1501.2414133075058</v>
       </c>
-      <c r="BZ39" s="21">
+      <c r="BZ39" s="8">
         <v>6495.9397345199759</v>
       </c>
-      <c r="CA39" s="21">
+      <c r="CA39" s="8">
         <v>1372.7121359653493</v>
       </c>
-      <c r="CB39" s="21">
+      <c r="CB39" s="8">
         <v>1680.9651162300061</v>
       </c>
-      <c r="CC39" s="21">
+      <c r="CC39" s="8">
         <v>1251.1146890163657</v>
       </c>
-      <c r="CD39" s="21">
+      <c r="CD39" s="8">
         <v>4057.2019465919075</v>
       </c>
-      <c r="CE39" s="21">
+      <c r="CE39" s="8">
         <v>1172.9770640076631</v>
       </c>
-      <c r="CF39" s="21">
+      <c r="CF39" s="8">
         <v>1245.7492765727784</v>
       </c>
-      <c r="CG39" s="21">
+      <c r="CG39" s="8">
         <v>970.2219894318423</v>
       </c>
-      <c r="CH39" s="21">
+      <c r="CH39" s="20">
         <v>2726.9761640608922</v>
       </c>
-      <c r="CI39" s="21">
+      <c r="CI39" s="20">
         <v>896.93250467388657</v>
       </c>
-      <c r="CJ39" s="21">
+      <c r="CJ39" s="20">
         <v>1199.3326437335306</v>
       </c>
-      <c r="CK39" s="21">
+      <c r="CK39" s="20">
         <v>1123.2391614790699</v>
       </c>
-      <c r="CL39" s="21">
+      <c r="CL39" s="20">
         <v>4364.912093966399</v>
       </c>
-      <c r="CM39" s="9"/>
+      <c r="CM39" s="20">
+        <v>1241.2726743256744</v>
+      </c>
       <c r="CN39" s="9"/>
       <c r="CO39" s="9"/>
       <c r="CP39" s="9"/>
@@ -29526,7 +29226,7 @@
       <c r="EW39" s="9"/>
       <c r="EX39" s="9"/>
     </row>
-    <row r="40" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
@@ -29758,46 +29458,48 @@
       <c r="BY40" s="8">
         <v>17297.232575483555</v>
       </c>
-      <c r="BZ40" s="21">
+      <c r="BZ40" s="8">
         <v>13754.375296152757</v>
       </c>
-      <c r="CA40" s="21">
+      <c r="CA40" s="8">
         <v>10495.448797252127</v>
       </c>
-      <c r="CB40" s="21">
+      <c r="CB40" s="8">
         <v>8394.1811227511062</v>
       </c>
-      <c r="CC40" s="21">
+      <c r="CC40" s="8">
         <v>17215.538980340767</v>
       </c>
-      <c r="CD40" s="21">
+      <c r="CD40" s="8">
         <v>12080.868194815153</v>
       </c>
-      <c r="CE40" s="21">
+      <c r="CE40" s="8">
         <v>5620.2536243486284</v>
       </c>
-      <c r="CF40" s="21">
+      <c r="CF40" s="8">
         <v>6453.2018292675884</v>
       </c>
-      <c r="CG40" s="21">
+      <c r="CG40" s="8">
         <v>13767.839691706578</v>
       </c>
-      <c r="CH40" s="21">
+      <c r="CH40" s="20">
         <v>11027.147252327914</v>
       </c>
-      <c r="CI40" s="21">
+      <c r="CI40" s="20">
         <v>7034.1807302043835</v>
       </c>
-      <c r="CJ40" s="21">
+      <c r="CJ40" s="20">
         <v>7850.5733108531986</v>
       </c>
-      <c r="CK40" s="21">
+      <c r="CK40" s="20">
         <v>16673.0405489929</v>
       </c>
-      <c r="CL40" s="21">
-        <v>12977.377274868835</v>
-      </c>
-      <c r="CM40" s="9"/>
+      <c r="CL40" s="20">
+        <v>12849.55154957661</v>
+      </c>
+      <c r="CM40" s="20">
+        <v>8146.5253002265435</v>
+      </c>
       <c r="CN40" s="9"/>
       <c r="CO40" s="9"/>
       <c r="CP40" s="9"/>
@@ -29862,7 +29564,7 @@
       <c r="EW40" s="9"/>
       <c r="EX40" s="9"/>
     </row>
-    <row r="41" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -29939,20 +29641,20 @@
       <c r="BW41" s="12"/>
       <c r="BX41" s="12"/>
       <c r="BY41" s="12"/>
-      <c r="BZ41" s="23"/>
-      <c r="CA41" s="23"/>
-      <c r="CB41" s="23"/>
-      <c r="CC41" s="23"/>
-      <c r="CD41" s="23"/>
-      <c r="CE41" s="23"/>
-      <c r="CF41" s="23"/>
-      <c r="CG41" s="23"/>
-      <c r="CH41" s="23"/>
-      <c r="CI41" s="23"/>
-      <c r="CJ41" s="23"/>
-      <c r="CK41" s="23"/>
-      <c r="CL41" s="23"/>
-      <c r="CM41" s="9"/>
+      <c r="BZ41" s="12"/>
+      <c r="CA41" s="12"/>
+      <c r="CB41" s="12"/>
+      <c r="CC41" s="12"/>
+      <c r="CD41" s="12"/>
+      <c r="CE41" s="12"/>
+      <c r="CF41" s="12"/>
+      <c r="CG41" s="12"/>
+      <c r="CH41" s="21"/>
+      <c r="CI41" s="21"/>
+      <c r="CJ41" s="21"/>
+      <c r="CK41" s="21"/>
+      <c r="CL41" s="21"/>
+      <c r="CM41" s="21"/>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
       <c r="CP41" s="9"/>
@@ -30017,7 +29719,7 @@
       <c r="EW41" s="9"/>
       <c r="EX41" s="9"/>
     </row>
-    <row r="42" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>15</v>
       </c>
@@ -30249,46 +29951,48 @@
       <c r="BY42" s="12">
         <v>39681.399716053085</v>
       </c>
-      <c r="BZ42" s="23">
+      <c r="BZ42" s="12">
         <v>45590.119111540218</v>
       </c>
-      <c r="CA42" s="23">
+      <c r="CA42" s="12">
         <v>56863.457330680976</v>
       </c>
-      <c r="CB42" s="23">
+      <c r="CB42" s="12">
         <v>29033.80131277605</v>
       </c>
-      <c r="CC42" s="23">
+      <c r="CC42" s="12">
         <v>37369.637843153527</v>
       </c>
-      <c r="CD42" s="23">
+      <c r="CD42" s="12">
         <v>35898.980272274188</v>
       </c>
-      <c r="CE42" s="23">
+      <c r="CE42" s="12">
         <v>44545.428468731974</v>
       </c>
-      <c r="CF42" s="23">
+      <c r="CF42" s="12">
         <v>25869.303392857761</v>
       </c>
-      <c r="CG42" s="23">
+      <c r="CG42" s="12">
         <v>31179.312999065973</v>
       </c>
-      <c r="CH42" s="23">
+      <c r="CH42" s="21">
         <v>36625.597180475415</v>
       </c>
-      <c r="CI42" s="23">
+      <c r="CI42" s="21">
         <v>46405.580659295236</v>
       </c>
-      <c r="CJ42" s="23">
+      <c r="CJ42" s="21">
         <v>26894.281056045147</v>
       </c>
-      <c r="CK42" s="23">
+      <c r="CK42" s="21">
         <v>34505.577305407518</v>
       </c>
-      <c r="CL42" s="23">
-        <v>42850.503783122425</v>
-      </c>
-      <c r="CM42" s="9"/>
+      <c r="CL42" s="21">
+        <v>44060.083293345058</v>
+      </c>
+      <c r="CM42" s="21">
+        <v>43026.166291390728</v>
+      </c>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
       <c r="CP42" s="9"/>
@@ -30353,7 +30057,7 @@
       <c r="EW42" s="9"/>
       <c r="EX42" s="9"/>
     </row>
-    <row r="43" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -30431,39 +30135,27 @@
       <c r="BW43" s="13"/>
       <c r="BX43" s="13"/>
       <c r="BY43" s="13"/>
-      <c r="BZ43" s="24"/>
-      <c r="CA43" s="24"/>
-      <c r="CB43" s="24"/>
-      <c r="CC43" s="24"/>
-      <c r="CD43" s="24"/>
-      <c r="CE43" s="24"/>
-      <c r="CF43" s="24"/>
-      <c r="CG43" s="24"/>
-      <c r="CH43" s="24"/>
-      <c r="CI43" s="24"/>
-      <c r="CJ43" s="24"/>
-      <c r="CK43" s="24"/>
-      <c r="CL43" s="24"/>
+      <c r="BZ43" s="13"/>
+      <c r="CA43" s="13"/>
+      <c r="CB43" s="13"/>
+      <c r="CC43" s="13"/>
+      <c r="CD43" s="13"/>
+      <c r="CE43" s="13"/>
+      <c r="CF43" s="13"/>
+      <c r="CG43" s="13"/>
+      <c r="CH43" s="13"/>
+      <c r="CI43" s="13"/>
+      <c r="CJ43" s="13"/>
+      <c r="CK43" s="13"/>
+      <c r="CL43" s="13"/>
+      <c r="CM43" s="13"/>
     </row>
-    <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BZ44" s="19"/>
-      <c r="CA44" s="19"/>
-      <c r="CB44" s="19"/>
-      <c r="CC44" s="19"/>
-      <c r="CD44" s="19"/>
-      <c r="CE44" s="19"/>
-      <c r="CF44" s="19"/>
-      <c r="CG44" s="19"/>
-      <c r="CH44" s="19"/>
-      <c r="CI44" s="19"/>
-      <c r="CJ44" s="19"/>
-      <c r="CK44" s="19"/>
-      <c r="CL44" s="19"/>
     </row>
-    <row r="45" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -30540,19 +30232,19 @@
       <c r="BW45" s="9"/>
       <c r="BX45" s="9"/>
       <c r="BY45" s="9"/>
-      <c r="BZ45" s="22"/>
-      <c r="CA45" s="22"/>
-      <c r="CB45" s="22"/>
-      <c r="CC45" s="22"/>
-      <c r="CD45" s="22"/>
-      <c r="CE45" s="22"/>
-      <c r="CF45" s="22"/>
-      <c r="CG45" s="22"/>
-      <c r="CH45" s="22"/>
-      <c r="CI45" s="22"/>
-      <c r="CJ45" s="22"/>
-      <c r="CK45" s="22"/>
-      <c r="CL45" s="22"/>
+      <c r="BZ45" s="9"/>
+      <c r="CA45" s="9"/>
+      <c r="CB45" s="9"/>
+      <c r="CC45" s="9"/>
+      <c r="CD45" s="9"/>
+      <c r="CE45" s="9"/>
+      <c r="CF45" s="9"/>
+      <c r="CG45" s="9"/>
+      <c r="CH45" s="9"/>
+      <c r="CI45" s="9"/>
+      <c r="CJ45" s="9"/>
+      <c r="CK45" s="9"/>
+      <c r="CL45" s="9"/>
       <c r="CM45" s="9"/>
       <c r="CN45" s="9"/>
       <c r="CO45" s="9"/>
@@ -30618,7 +30310,7 @@
       <c r="EW45" s="9"/>
       <c r="EX45" s="9"/>
     </row>
-    <row r="46" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -30695,19 +30387,19 @@
       <c r="BW46" s="9"/>
       <c r="BX46" s="9"/>
       <c r="BY46" s="9"/>
-      <c r="BZ46" s="22"/>
-      <c r="CA46" s="22"/>
-      <c r="CB46" s="22"/>
-      <c r="CC46" s="22"/>
-      <c r="CD46" s="22"/>
-      <c r="CE46" s="22"/>
-      <c r="CF46" s="22"/>
-      <c r="CG46" s="22"/>
-      <c r="CH46" s="22"/>
-      <c r="CI46" s="22"/>
-      <c r="CJ46" s="22"/>
-      <c r="CK46" s="22"/>
-      <c r="CL46" s="22"/>
+      <c r="BZ46" s="9"/>
+      <c r="CA46" s="9"/>
+      <c r="CB46" s="9"/>
+      <c r="CC46" s="9"/>
+      <c r="CD46" s="9"/>
+      <c r="CE46" s="9"/>
+      <c r="CF46" s="9"/>
+      <c r="CG46" s="9"/>
+      <c r="CH46" s="9"/>
+      <c r="CI46" s="9"/>
+      <c r="CJ46" s="9"/>
+      <c r="CK46" s="9"/>
+      <c r="CL46" s="9"/>
       <c r="CM46" s="9"/>
       <c r="CN46" s="9"/>
       <c r="CO46" s="9"/>
@@ -30773,281 +30465,176 @@
       <c r="EW46" s="9"/>
       <c r="EX46" s="9"/>
     </row>
-    <row r="47" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ47" s="19"/>
-      <c r="CA47" s="19"/>
-      <c r="CB47" s="19"/>
-      <c r="CC47" s="19"/>
-      <c r="CD47" s="19"/>
-      <c r="CE47" s="19"/>
-      <c r="CF47" s="19"/>
-      <c r="CG47" s="19"/>
-      <c r="CH47" s="19"/>
-      <c r="CI47" s="19"/>
-      <c r="CJ47" s="19"/>
-      <c r="CK47" s="19"/>
-      <c r="CL47" s="19"/>
     </row>
-    <row r="48" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BZ48" s="19"/>
-      <c r="CA48" s="19"/>
-      <c r="CB48" s="19"/>
-      <c r="CC48" s="19"/>
-      <c r="CD48" s="19"/>
-      <c r="CE48" s="19"/>
-      <c r="CF48" s="19"/>
-      <c r="CG48" s="19"/>
-      <c r="CH48" s="19"/>
-      <c r="CI48" s="19"/>
-      <c r="CJ48" s="19"/>
-      <c r="CK48" s="19"/>
-      <c r="CL48" s="19"/>
     </row>
-    <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BZ49" s="19"/>
-      <c r="CA49" s="19"/>
-      <c r="CB49" s="19"/>
-      <c r="CC49" s="19"/>
-      <c r="CD49" s="19"/>
-      <c r="CE49" s="19"/>
-      <c r="CF49" s="19"/>
-      <c r="CG49" s="19"/>
-      <c r="CH49" s="19"/>
-      <c r="CI49" s="19"/>
-      <c r="CJ49" s="19"/>
-      <c r="CK49" s="19"/>
-      <c r="CL49" s="19"/>
     </row>
-    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ50" s="19"/>
-      <c r="CA50" s="19"/>
-      <c r="CB50" s="19"/>
-      <c r="CC50" s="19"/>
-      <c r="CD50" s="19"/>
-      <c r="CE50" s="19"/>
-      <c r="CF50" s="19"/>
-      <c r="CG50" s="19"/>
-      <c r="CH50" s="19"/>
-      <c r="CI50" s="19"/>
-      <c r="CJ50" s="19"/>
-      <c r="CK50" s="19"/>
-      <c r="CL50" s="19"/>
-    </row>
-    <row r="51" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BZ51" s="19"/>
-      <c r="CA51" s="19"/>
-      <c r="CB51" s="19"/>
-      <c r="CC51" s="19"/>
-      <c r="CD51" s="19"/>
-      <c r="CE51" s="19"/>
-      <c r="CF51" s="19"/>
-      <c r="CG51" s="19"/>
-      <c r="CH51" s="19"/>
-      <c r="CI51" s="19"/>
-      <c r="CJ51" s="19"/>
-      <c r="CK51" s="19"/>
-      <c r="CL51" s="19"/>
     </row>
-    <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BZ52" s="19"/>
-      <c r="CA52" s="19"/>
-      <c r="CB52" s="19"/>
-      <c r="CC52" s="19"/>
-      <c r="CD52" s="19"/>
-      <c r="CE52" s="19"/>
-      <c r="CF52" s="19"/>
-      <c r="CG52" s="19"/>
-      <c r="CH52" s="19"/>
-      <c r="CI52" s="19"/>
-      <c r="CJ52" s="19"/>
-      <c r="CK52" s="19"/>
-      <c r="CL52" s="19"/>
     </row>
-    <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BZ53" s="19"/>
-      <c r="CA53" s="19"/>
-      <c r="CB53" s="19"/>
-      <c r="CC53" s="19"/>
-      <c r="CD53" s="19"/>
-      <c r="CE53" s="19"/>
-      <c r="CF53" s="19"/>
-      <c r="CG53" s="19"/>
-      <c r="CH53" s="19"/>
-      <c r="CI53" s="19"/>
-      <c r="CJ53" s="19"/>
-      <c r="CK53" s="19"/>
-      <c r="CL53" s="19"/>
     </row>
-    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ54" s="19"/>
-      <c r="CA54" s="19"/>
-      <c r="CB54" s="19"/>
-      <c r="CC54" s="19"/>
-      <c r="CD54" s="19"/>
-      <c r="CE54" s="19"/>
-      <c r="CF54" s="19"/>
-      <c r="CG54" s="19"/>
-      <c r="CH54" s="19"/>
-      <c r="CI54" s="19"/>
-      <c r="CJ54" s="19"/>
-      <c r="CK54" s="19"/>
-      <c r="CL54" s="19"/>
+    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="S55" s="24"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="W55" s="24"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA55" s="24"/>
+      <c r="AB55" s="24"/>
+      <c r="AC55" s="24"/>
+      <c r="AD55" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE55" s="24"/>
+      <c r="AF55" s="24"/>
+      <c r="AG55" s="24"/>
+      <c r="AH55" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI55" s="24"/>
+      <c r="AJ55" s="24"/>
+      <c r="AK55" s="24"/>
+      <c r="AL55" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM55" s="24"/>
+      <c r="AN55" s="24"/>
+      <c r="AO55" s="24"/>
+      <c r="AP55" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ55" s="24"/>
+      <c r="AR55" s="24"/>
+      <c r="AS55" s="24"/>
+      <c r="AT55" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU55" s="24"/>
+      <c r="AV55" s="24"/>
+      <c r="AW55" s="24"/>
+      <c r="AX55" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY55" s="24"/>
+      <c r="AZ55" s="24"/>
+      <c r="BA55" s="24"/>
+      <c r="BB55" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC55" s="24"/>
+      <c r="BD55" s="24"/>
+      <c r="BE55" s="24"/>
+      <c r="BF55" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="BG55" s="24"/>
+      <c r="BH55" s="24"/>
+      <c r="BI55" s="24"/>
+      <c r="BJ55" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="BK55" s="24"/>
+      <c r="BL55" s="24"/>
+      <c r="BM55" s="24"/>
+      <c r="BN55" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="BO55" s="24"/>
+      <c r="BP55" s="24"/>
+      <c r="BQ55" s="24"/>
+      <c r="BR55" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="BS55" s="24"/>
+      <c r="BT55" s="24"/>
+      <c r="BU55" s="24"/>
+      <c r="BV55" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW55" s="24"/>
+      <c r="BX55" s="24"/>
+      <c r="BY55" s="24"/>
+      <c r="BZ55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA55" s="24"/>
+      <c r="CB55" s="24"/>
+      <c r="CC55" s="24"/>
+      <c r="CD55" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="CE55" s="24"/>
+      <c r="CF55" s="24"/>
+      <c r="CG55" s="24"/>
+      <c r="CH55" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="CI55" s="24"/>
+      <c r="CJ55" s="22"/>
+      <c r="CK55" s="22"/>
+      <c r="CL55" s="19"/>
+      <c r="CM55" s="19"/>
     </row>
-    <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="33"/>
-      <c r="AD55" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="33"/>
-      <c r="AG55" s="33"/>
-      <c r="AH55" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI55" s="33"/>
-      <c r="AJ55" s="33"/>
-      <c r="AK55" s="33"/>
-      <c r="AL55" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM55" s="33"/>
-      <c r="AN55" s="33"/>
-      <c r="AO55" s="33"/>
-      <c r="AP55" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ55" s="33"/>
-      <c r="AR55" s="33"/>
-      <c r="AS55" s="33"/>
-      <c r="AT55" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU55" s="33"/>
-      <c r="AV55" s="33"/>
-      <c r="AW55" s="33"/>
-      <c r="AX55" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY55" s="33"/>
-      <c r="AZ55" s="33"/>
-      <c r="BA55" s="33"/>
-      <c r="BB55" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC55" s="33"/>
-      <c r="BD55" s="33"/>
-      <c r="BE55" s="33"/>
-      <c r="BF55" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="BG55" s="33"/>
-      <c r="BH55" s="33"/>
-      <c r="BI55" s="33"/>
-      <c r="BJ55" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="BK55" s="33"/>
-      <c r="BL55" s="33"/>
-      <c r="BM55" s="33"/>
-      <c r="BN55" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="BO55" s="33"/>
-      <c r="BP55" s="33"/>
-      <c r="BQ55" s="33"/>
-      <c r="BR55" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="BS55" s="33"/>
-      <c r="BT55" s="33"/>
-      <c r="BU55" s="33"/>
-      <c r="BV55" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="BW55" s="33"/>
-      <c r="BX55" s="33"/>
-      <c r="BY55" s="33"/>
-      <c r="BZ55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="CA55" s="32"/>
-      <c r="CB55" s="32"/>
-      <c r="CC55" s="32"/>
-      <c r="CD55" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="CE55" s="32"/>
-      <c r="CF55" s="32"/>
-      <c r="CG55" s="32"/>
-      <c r="CH55" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="CI55" s="31"/>
-      <c r="CJ55" s="31"/>
-      <c r="CK55" s="31"/>
-      <c r="CL55" s="30"/>
-    </row>
-    <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>4</v>
       </c>
@@ -31279,55 +30866,45 @@
       <c r="BY56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ56" s="29" t="s">
+      <c r="BZ56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA56" s="29" t="s">
+      <c r="CA56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB56" s="29" t="s">
+      <c r="CB56" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CC56" s="29" t="s">
+      <c r="CC56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CD56" s="29" t="s">
+      <c r="CD56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CE56" s="29" t="s">
+      <c r="CE56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF56" s="29" t="s">
+      <c r="CF56" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CG56" s="29" t="s">
+      <c r="CG56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CH56" s="29" t="s">
+      <c r="CH56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI56" s="25"/>
-      <c r="CJ56" s="25"/>
-      <c r="CK56" s="25"/>
-      <c r="CL56" s="25"/>
+      <c r="CI56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ56" s="5"/>
+      <c r="CK56" s="5"/>
+      <c r="CL56" s="5"/>
+      <c r="CM56" s="23"/>
     </row>
-    <row r="57" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:149" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="BZ57" s="19"/>
-      <c r="CA57" s="19"/>
-      <c r="CB57" s="19"/>
-      <c r="CC57" s="19"/>
-      <c r="CD57" s="19"/>
-      <c r="CE57" s="19"/>
-      <c r="CF57" s="19"/>
-      <c r="CG57" s="19"/>
-      <c r="CH57" s="19"/>
-      <c r="CI57" s="19"/>
-      <c r="CJ57" s="19"/>
-      <c r="CK57" s="19"/>
-      <c r="CL57" s="19"/>
     </row>
-    <row r="58" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -31559,42 +31136,44 @@
       <c r="BY58" s="15">
         <v>-42.595326411422739</v>
       </c>
-      <c r="BZ58" s="26">
+      <c r="BZ58" s="15">
         <v>-44.244777722288596</v>
       </c>
-      <c r="CA58" s="26">
+      <c r="CA58" s="15">
         <v>-35.153941852638923</v>
       </c>
-      <c r="CB58" s="26">
+      <c r="CB58" s="15">
         <v>-27.547277568945901</v>
       </c>
-      <c r="CC58" s="26">
+      <c r="CC58" s="15">
         <v>-22.123637088598386</v>
       </c>
-      <c r="CD58" s="26">
+      <c r="CD58" s="15">
         <v>73.061841467558708</v>
       </c>
-      <c r="CE58" s="26">
+      <c r="CE58" s="15">
         <v>83.703277904520206</v>
       </c>
-      <c r="CF58" s="26">
+      <c r="CF58" s="15">
         <v>111.65677550543344</v>
       </c>
-      <c r="CG58" s="26">
+      <c r="CG58" s="15">
         <v>252.8010165945982</v>
       </c>
-      <c r="CH58" s="26">
-        <v>355.25136628443568</v>
-      </c>
-      <c r="CI58" s="22"/>
-      <c r="CJ58" s="22"/>
-      <c r="CK58" s="22"/>
-      <c r="CL58" s="22"/>
+      <c r="CH58" s="15">
+        <v>354.50438396287961</v>
+      </c>
+      <c r="CI58" s="15">
+        <v>128.17393784198927</v>
+      </c>
+      <c r="CJ58" s="15"/>
+      <c r="CK58" s="15"/>
+      <c r="CL58" s="15"/>
       <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
       <c r="CO58" s="9"/>
     </row>
-    <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
@@ -31826,37 +31405,39 @@
       <c r="BY59" s="15">
         <v>-13.082462804151135</v>
       </c>
-      <c r="BZ59" s="26">
+      <c r="BZ59" s="15">
         <v>-40.334546219038018</v>
       </c>
-      <c r="CA59" s="26">
+      <c r="CA59" s="15">
         <v>-56.369480761963715</v>
       </c>
-      <c r="CB59" s="26">
+      <c r="CB59" s="15">
         <v>-34.242932832662817</v>
       </c>
-      <c r="CC59" s="26">
+      <c r="CC59" s="15">
         <v>-23.412080626567075</v>
       </c>
-      <c r="CD59" s="26">
+      <c r="CD59" s="15">
         <v>27.770302074560391</v>
       </c>
-      <c r="CE59" s="26">
+      <c r="CE59" s="15">
         <v>64.432723853374227</v>
       </c>
-      <c r="CF59" s="26">
+      <c r="CF59" s="15">
         <v>92.891815717376431</v>
       </c>
-      <c r="CG59" s="26">
+      <c r="CG59" s="15">
         <v>51.018231303300439</v>
       </c>
-      <c r="CH59" s="26">
-        <v>41.304302618230878</v>
-      </c>
-      <c r="CI59" s="22"/>
-      <c r="CJ59" s="22"/>
-      <c r="CK59" s="22"/>
-      <c r="CL59" s="22"/>
+      <c r="CH59" s="15">
+        <v>49.053728437640956</v>
+      </c>
+      <c r="CI59" s="15">
+        <v>104.06098718002045</v>
+      </c>
+      <c r="CJ59" s="15"/>
+      <c r="CK59" s="15"/>
+      <c r="CL59" s="15"/>
       <c r="CM59" s="9"/>
       <c r="CN59" s="9"/>
       <c r="CO59" s="9"/>
@@ -31917,7 +31498,7 @@
       <c r="ER59" s="9"/>
       <c r="ES59" s="9"/>
     </row>
-    <row r="60" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
@@ -32149,37 +31730,39 @@
       <c r="BY60" s="15">
         <v>1.4686606091689072</v>
       </c>
-      <c r="BZ60" s="26">
+      <c r="BZ60" s="15">
         <v>-6.969175940923293</v>
       </c>
-      <c r="CA60" s="26">
+      <c r="CA60" s="15">
         <v>13.100693833078836</v>
       </c>
-      <c r="CB60" s="26">
+      <c r="CB60" s="15">
         <v>36.129747075456635</v>
       </c>
-      <c r="CC60" s="26">
+      <c r="CC60" s="15">
         <v>43.828529115020046</v>
       </c>
-      <c r="CD60" s="26">
+      <c r="CD60" s="15">
         <v>21.828552477111444</v>
       </c>
-      <c r="CE60" s="26">
+      <c r="CE60" s="15">
         <v>23.736147241175857</v>
       </c>
-      <c r="CF60" s="26">
+      <c r="CF60" s="15">
         <v>2.3100679096173877</v>
       </c>
-      <c r="CG60" s="26">
+      <c r="CG60" s="15">
         <v>12.885274674450372</v>
       </c>
-      <c r="CH60" s="26">
-        <v>26.499253127370892</v>
-      </c>
-      <c r="CI60" s="22"/>
-      <c r="CJ60" s="22"/>
-      <c r="CK60" s="22"/>
-      <c r="CL60" s="22"/>
+      <c r="CH60" s="15">
+        <v>27.098504011078177</v>
+      </c>
+      <c r="CI60" s="15">
+        <v>37.576165975474595</v>
+      </c>
+      <c r="CJ60" s="15"/>
+      <c r="CK60" s="15"/>
+      <c r="CL60" s="15"/>
       <c r="CM60" s="9"/>
       <c r="CN60" s="9"/>
       <c r="CO60" s="9"/>
@@ -32240,7 +31823,7 @@
       <c r="ER60" s="9"/>
       <c r="ES60" s="9"/>
     </row>
-    <row r="61" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -32472,37 +32055,39 @@
       <c r="BY61" s="15">
         <v>66.004292625903474</v>
       </c>
-      <c r="BZ61" s="26">
+      <c r="BZ61" s="15">
         <v>-14.030727669415739</v>
       </c>
-      <c r="CA61" s="26">
+      <c r="CA61" s="15">
         <v>-5.2904299062978026</v>
       </c>
-      <c r="CB61" s="26">
+      <c r="CB61" s="15">
         <v>-1.9920193257692347</v>
       </c>
-      <c r="CC61" s="26">
+      <c r="CC61" s="15">
         <v>74.270431992474329</v>
       </c>
-      <c r="CD61" s="26">
+      <c r="CD61" s="15">
         <v>125.21693889053597</v>
       </c>
-      <c r="CE61" s="26">
+      <c r="CE61" s="15">
         <v>73.281869246586183</v>
       </c>
-      <c r="CF61" s="26">
+      <c r="CF61" s="15">
         <v>54.740327348940923</v>
       </c>
-      <c r="CG61" s="26">
+      <c r="CG61" s="15">
         <v>2.3939110575617519</v>
       </c>
-      <c r="CH61" s="26">
-        <v>14.773240650000943</v>
-      </c>
-      <c r="CI61" s="22"/>
-      <c r="CJ61" s="22"/>
-      <c r="CK61" s="22"/>
-      <c r="CL61" s="22"/>
+      <c r="CH61" s="15">
+        <v>50.422999428678054</v>
+      </c>
+      <c r="CI61" s="15">
+        <v>7.1028054639566989</v>
+      </c>
+      <c r="CJ61" s="15"/>
+      <c r="CK61" s="15"/>
+      <c r="CL61" s="15"/>
       <c r="CM61" s="9"/>
       <c r="CN61" s="9"/>
       <c r="CO61" s="9"/>
@@ -32563,7 +32148,7 @@
       <c r="ER61" s="9"/>
       <c r="ES61" s="9"/>
     </row>
-    <row r="62" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -32795,37 +32380,39 @@
       <c r="BY62" s="15">
         <v>-14.546133906037198</v>
       </c>
-      <c r="BZ62" s="26">
+      <c r="BZ62" s="15">
         <v>-48.274935194370705</v>
       </c>
-      <c r="CA62" s="26">
+      <c r="CA62" s="15">
         <v>-29.241172934239714</v>
       </c>
-      <c r="CB62" s="26">
+      <c r="CB62" s="15">
         <v>-0.53342374772174139</v>
       </c>
-      <c r="CC62" s="26">
+      <c r="CC62" s="15">
         <v>25.724339626327634</v>
       </c>
-      <c r="CD62" s="26">
+      <c r="CD62" s="15">
         <v>-9.75137898184515</v>
       </c>
-      <c r="CE62" s="26">
+      <c r="CE62" s="15">
         <v>17.991416518440559</v>
       </c>
-      <c r="CF62" s="26">
+      <c r="CF62" s="15">
         <v>21.24161403576133</v>
       </c>
-      <c r="CG62" s="26">
+      <c r="CG62" s="15">
         <v>38.240251722177078</v>
       </c>
-      <c r="CH62" s="26">
+      <c r="CH62" s="15">
         <v>95.625997418338784</v>
       </c>
-      <c r="CI62" s="22"/>
-      <c r="CJ62" s="22"/>
-      <c r="CK62" s="22"/>
-      <c r="CL62" s="22"/>
+      <c r="CI62" s="15">
+        <v>57.883217777367065</v>
+      </c>
+      <c r="CJ62" s="15"/>
+      <c r="CK62" s="15"/>
+      <c r="CL62" s="15"/>
       <c r="CM62" s="9"/>
       <c r="CN62" s="9"/>
       <c r="CO62" s="9"/>
@@ -32886,7 +32473,7 @@
       <c r="ER62" s="9"/>
       <c r="ES62" s="9"/>
     </row>
-    <row r="63" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
@@ -33118,37 +32705,39 @@
       <c r="BY63" s="15">
         <v>4.4545205273730772</v>
       </c>
-      <c r="BZ63" s="26">
+      <c r="BZ63" s="15">
         <v>-5.0398430738727029</v>
       </c>
-      <c r="CA63" s="26">
+      <c r="CA63" s="15">
         <v>-40.841951319106897</v>
       </c>
-      <c r="CB63" s="26">
+      <c r="CB63" s="15">
         <v>-18.174688359985353</v>
       </c>
-      <c r="CC63" s="26">
+      <c r="CC63" s="15">
         <v>-7.9875175088666737</v>
       </c>
-      <c r="CD63" s="26">
+      <c r="CD63" s="15">
         <v>-5.3424162132411652</v>
       </c>
-      <c r="CE63" s="26">
+      <c r="CE63" s="15">
         <v>30.369997931716398</v>
       </c>
-      <c r="CF63" s="26">
+      <c r="CF63" s="15">
         <v>20.076158489249323</v>
       </c>
-      <c r="CG63" s="26">
+      <c r="CG63" s="15">
         <v>-0.30169287446821613</v>
       </c>
-      <c r="CH63" s="26">
-        <v>19.139162742085063</v>
-      </c>
-      <c r="CI63" s="22"/>
-      <c r="CJ63" s="22"/>
-      <c r="CK63" s="22"/>
-      <c r="CL63" s="22"/>
+      <c r="CH63" s="15">
+        <v>17.965655216977723</v>
+      </c>
+      <c r="CI63" s="15">
+        <v>20.136898273045276</v>
+      </c>
+      <c r="CJ63" s="15"/>
+      <c r="CK63" s="15"/>
+      <c r="CL63" s="15"/>
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
       <c r="CO63" s="9"/>
@@ -33209,7 +32798,7 @@
       <c r="ER63" s="9"/>
       <c r="ES63" s="9"/>
     </row>
-    <row r="64" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -33286,19 +32875,19 @@
       <c r="BW64" s="9"/>
       <c r="BX64" s="9"/>
       <c r="BY64" s="9"/>
-      <c r="BZ64" s="22"/>
-      <c r="CA64" s="22"/>
-      <c r="CB64" s="22"/>
-      <c r="CC64" s="22"/>
-      <c r="CD64" s="22"/>
-      <c r="CE64" s="22"/>
-      <c r="CF64" s="22"/>
-      <c r="CG64" s="22"/>
-      <c r="CH64" s="22"/>
-      <c r="CI64" s="22"/>
-      <c r="CJ64" s="22"/>
-      <c r="CK64" s="22"/>
-      <c r="CL64" s="22"/>
+      <c r="BZ64" s="9"/>
+      <c r="CA64" s="9"/>
+      <c r="CB64" s="9"/>
+      <c r="CC64" s="9"/>
+      <c r="CD64" s="9"/>
+      <c r="CE64" s="9"/>
+      <c r="CF64" s="9"/>
+      <c r="CG64" s="9"/>
+      <c r="CH64" s="9"/>
+      <c r="CI64" s="9"/>
+      <c r="CJ64" s="9"/>
+      <c r="CK64" s="9"/>
+      <c r="CL64" s="9"/>
       <c r="CM64" s="9"/>
       <c r="CN64" s="9"/>
       <c r="CO64" s="9"/>
@@ -33359,7 +32948,7 @@
       <c r="ER64" s="9"/>
       <c r="ES64" s="9"/>
     </row>
-    <row r="65" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>15</v>
       </c>
@@ -33591,37 +33180,39 @@
       <c r="BY65" s="15">
         <v>-5.0238582578090956</v>
       </c>
-      <c r="BZ65" s="26">
+      <c r="BZ65" s="15">
         <v>-21.433863332409999</v>
       </c>
-      <c r="CA65" s="26">
+      <c r="CA65" s="15">
         <v>-28.193297561619474</v>
       </c>
-      <c r="CB65" s="26">
+      <c r="CB65" s="15">
         <v>-8.4940804800063887</v>
       </c>
-      <c r="CC65" s="26">
+      <c r="CC65" s="15">
         <v>1.2348797981872366</v>
       </c>
-      <c r="CD65" s="26">
+      <c r="CD65" s="15">
         <v>26.303416268877797</v>
       </c>
-      <c r="CE65" s="26">
+      <c r="CE65" s="15">
         <v>49.568417018317632</v>
       </c>
-      <c r="CF65" s="26">
+      <c r="CF65" s="15">
         <v>39.607981779550386</v>
       </c>
-      <c r="CG65" s="26">
+      <c r="CG65" s="15">
         <v>26.562020337138776</v>
       </c>
-      <c r="CH65" s="26">
-        <v>60.063428601474612</v>
-      </c>
-      <c r="CI65" s="22"/>
-      <c r="CJ65" s="22"/>
-      <c r="CK65" s="22"/>
-      <c r="CL65" s="22"/>
+      <c r="CH65" s="15">
+        <v>68.308766672554981</v>
+      </c>
+      <c r="CI65" s="15">
+        <v>51.833513500840326</v>
+      </c>
+      <c r="CJ65" s="15"/>
+      <c r="CK65" s="15"/>
+      <c r="CL65" s="15"/>
       <c r="CM65" s="9"/>
       <c r="CN65" s="9"/>
       <c r="CO65" s="9"/>
@@ -33682,7 +33273,7 @@
       <c r="ER65" s="9"/>
       <c r="ES65" s="9"/>
     </row>
-    <row r="66" spans="1:149" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:149" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -33760,39 +33351,27 @@
       <c r="BW66" s="13"/>
       <c r="BX66" s="13"/>
       <c r="BY66" s="13"/>
-      <c r="BZ66" s="24"/>
-      <c r="CA66" s="24"/>
-      <c r="CB66" s="24"/>
-      <c r="CC66" s="24"/>
-      <c r="CD66" s="24"/>
-      <c r="CE66" s="24"/>
-      <c r="CF66" s="24"/>
-      <c r="CG66" s="24"/>
-      <c r="CH66" s="24"/>
-      <c r="CI66" s="24"/>
-      <c r="CJ66" s="24"/>
-      <c r="CK66" s="24"/>
-      <c r="CL66" s="24"/>
+      <c r="BZ66" s="13"/>
+      <c r="CA66" s="13"/>
+      <c r="CB66" s="13"/>
+      <c r="CC66" s="13"/>
+      <c r="CD66" s="13"/>
+      <c r="CE66" s="13"/>
+      <c r="CF66" s="13"/>
+      <c r="CG66" s="13"/>
+      <c r="CH66" s="13"/>
+      <c r="CI66" s="13"/>
+      <c r="CJ66" s="13"/>
+      <c r="CK66" s="13"/>
+      <c r="CL66" s="13"/>
+      <c r="CM66" s="13"/>
     </row>
-    <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="BZ67" s="19"/>
-      <c r="CA67" s="19"/>
-      <c r="CB67" s="19"/>
-      <c r="CC67" s="19"/>
-      <c r="CD67" s="19"/>
-      <c r="CE67" s="19"/>
-      <c r="CF67" s="19"/>
-      <c r="CG67" s="19"/>
-      <c r="CH67" s="19"/>
-      <c r="CI67" s="19"/>
-      <c r="CJ67" s="19"/>
-      <c r="CK67" s="19"/>
-      <c r="CL67" s="19"/>
     </row>
-    <row r="68" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>0</v>
       </c>
@@ -33872,19 +33451,19 @@
       <c r="BW68" s="9"/>
       <c r="BX68" s="9"/>
       <c r="BY68" s="9"/>
-      <c r="BZ68" s="22"/>
-      <c r="CA68" s="22"/>
-      <c r="CB68" s="22"/>
-      <c r="CC68" s="22"/>
-      <c r="CD68" s="22"/>
-      <c r="CE68" s="22"/>
-      <c r="CF68" s="22"/>
-      <c r="CG68" s="22"/>
-      <c r="CH68" s="22"/>
-      <c r="CI68" s="22"/>
-      <c r="CJ68" s="22"/>
-      <c r="CK68" s="22"/>
-      <c r="CL68" s="22"/>
+      <c r="BZ68" s="9"/>
+      <c r="CA68" s="9"/>
+      <c r="CB68" s="9"/>
+      <c r="CC68" s="9"/>
+      <c r="CD68" s="9"/>
+      <c r="CE68" s="9"/>
+      <c r="CF68" s="9"/>
+      <c r="CG68" s="9"/>
+      <c r="CH68" s="9"/>
+      <c r="CI68" s="9"/>
+      <c r="CJ68" s="9"/>
+      <c r="CK68" s="9"/>
+      <c r="CL68" s="9"/>
       <c r="CM68" s="9"/>
       <c r="CN68" s="9"/>
       <c r="CO68" s="9"/>
@@ -33945,7 +33524,7 @@
       <c r="ER68" s="9"/>
       <c r="ES68" s="9"/>
     </row>
-    <row r="69" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -34022,19 +33601,19 @@
       <c r="BW69" s="9"/>
       <c r="BX69" s="9"/>
       <c r="BY69" s="9"/>
-      <c r="BZ69" s="22"/>
-      <c r="CA69" s="22"/>
-      <c r="CB69" s="22"/>
-      <c r="CC69" s="22"/>
-      <c r="CD69" s="22"/>
-      <c r="CE69" s="22"/>
-      <c r="CF69" s="22"/>
-      <c r="CG69" s="22"/>
-      <c r="CH69" s="22"/>
-      <c r="CI69" s="22"/>
-      <c r="CJ69" s="22"/>
-      <c r="CK69" s="22"/>
-      <c r="CL69" s="22"/>
+      <c r="BZ69" s="9"/>
+      <c r="CA69" s="9"/>
+      <c r="CB69" s="9"/>
+      <c r="CC69" s="9"/>
+      <c r="CD69" s="9"/>
+      <c r="CE69" s="9"/>
+      <c r="CF69" s="9"/>
+      <c r="CG69" s="9"/>
+      <c r="CH69" s="9"/>
+      <c r="CI69" s="9"/>
+      <c r="CJ69" s="9"/>
+      <c r="CK69" s="9"/>
+      <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
       <c r="CN69" s="9"/>
       <c r="CO69" s="9"/>
@@ -34095,281 +33674,176 @@
       <c r="ER69" s="9"/>
       <c r="ES69" s="9"/>
     </row>
-    <row r="70" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ70" s="19"/>
-      <c r="CA70" s="19"/>
-      <c r="CB70" s="19"/>
-      <c r="CC70" s="19"/>
-      <c r="CD70" s="19"/>
-      <c r="CE70" s="19"/>
-      <c r="CF70" s="19"/>
-      <c r="CG70" s="19"/>
-      <c r="CH70" s="19"/>
-      <c r="CI70" s="19"/>
-      <c r="CJ70" s="19"/>
-      <c r="CK70" s="19"/>
-      <c r="CL70" s="19"/>
     </row>
-    <row r="71" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BZ71" s="19"/>
-      <c r="CA71" s="19"/>
-      <c r="CB71" s="19"/>
-      <c r="CC71" s="19"/>
-      <c r="CD71" s="19"/>
-      <c r="CE71" s="19"/>
-      <c r="CF71" s="19"/>
-      <c r="CG71" s="19"/>
-      <c r="CH71" s="19"/>
-      <c r="CI71" s="19"/>
-      <c r="CJ71" s="19"/>
-      <c r="CK71" s="19"/>
-      <c r="CL71" s="19"/>
     </row>
-    <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BZ72" s="19"/>
-      <c r="CA72" s="19"/>
-      <c r="CB72" s="19"/>
-      <c r="CC72" s="19"/>
-      <c r="CD72" s="19"/>
-      <c r="CE72" s="19"/>
-      <c r="CF72" s="19"/>
-      <c r="CG72" s="19"/>
-      <c r="CH72" s="19"/>
-      <c r="CI72" s="19"/>
-      <c r="CJ72" s="19"/>
-      <c r="CK72" s="19"/>
-      <c r="CL72" s="19"/>
     </row>
-    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ73" s="19"/>
-      <c r="CA73" s="19"/>
-      <c r="CB73" s="19"/>
-      <c r="CC73" s="19"/>
-      <c r="CD73" s="19"/>
-      <c r="CE73" s="19"/>
-      <c r="CF73" s="19"/>
-      <c r="CG73" s="19"/>
-      <c r="CH73" s="19"/>
-      <c r="CI73" s="19"/>
-      <c r="CJ73" s="19"/>
-      <c r="CK73" s="19"/>
-      <c r="CL73" s="19"/>
-    </row>
-    <row r="74" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BZ74" s="19"/>
-      <c r="CA74" s="19"/>
-      <c r="CB74" s="19"/>
-      <c r="CC74" s="19"/>
-      <c r="CD74" s="19"/>
-      <c r="CE74" s="19"/>
-      <c r="CF74" s="19"/>
-      <c r="CG74" s="19"/>
-      <c r="CH74" s="19"/>
-      <c r="CI74" s="19"/>
-      <c r="CJ74" s="19"/>
-      <c r="CK74" s="19"/>
-      <c r="CL74" s="19"/>
     </row>
-    <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BZ75" s="19"/>
-      <c r="CA75" s="19"/>
-      <c r="CB75" s="19"/>
-      <c r="CC75" s="19"/>
-      <c r="CD75" s="19"/>
-      <c r="CE75" s="19"/>
-      <c r="CF75" s="19"/>
-      <c r="CG75" s="19"/>
-      <c r="CH75" s="19"/>
-      <c r="CI75" s="19"/>
-      <c r="CJ75" s="19"/>
-      <c r="CK75" s="19"/>
-      <c r="CL75" s="19"/>
     </row>
-    <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BZ76" s="19"/>
-      <c r="CA76" s="19"/>
-      <c r="CB76" s="19"/>
-      <c r="CC76" s="19"/>
-      <c r="CD76" s="19"/>
-      <c r="CE76" s="19"/>
-      <c r="CF76" s="19"/>
-      <c r="CG76" s="19"/>
-      <c r="CH76" s="19"/>
-      <c r="CI76" s="19"/>
-      <c r="CJ76" s="19"/>
-      <c r="CK76" s="19"/>
-      <c r="CL76" s="19"/>
     </row>
-    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ77" s="19"/>
-      <c r="CA77" s="19"/>
-      <c r="CB77" s="19"/>
-      <c r="CC77" s="19"/>
-      <c r="CD77" s="19"/>
-      <c r="CE77" s="19"/>
-      <c r="CF77" s="19"/>
-      <c r="CG77" s="19"/>
-      <c r="CH77" s="19"/>
-      <c r="CI77" s="19"/>
-      <c r="CJ77" s="19"/>
-      <c r="CK77" s="19"/>
-      <c r="CL77" s="19"/>
+    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="S78" s="25"/>
+      <c r="T78" s="25"/>
+      <c r="U78" s="25"/>
+      <c r="V78" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="W78" s="25"/>
+      <c r="X78" s="25"/>
+      <c r="Y78" s="25"/>
+      <c r="Z78" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA78" s="25"/>
+      <c r="AB78" s="25"/>
+      <c r="AC78" s="25"/>
+      <c r="AD78" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE78" s="25"/>
+      <c r="AF78" s="25"/>
+      <c r="AG78" s="25"/>
+      <c r="AH78" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI78" s="25"/>
+      <c r="AJ78" s="25"/>
+      <c r="AK78" s="25"/>
+      <c r="AL78" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM78" s="25"/>
+      <c r="AN78" s="25"/>
+      <c r="AO78" s="25"/>
+      <c r="AP78" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ78" s="25"/>
+      <c r="AR78" s="25"/>
+      <c r="AS78" s="25"/>
+      <c r="AT78" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU78" s="25"/>
+      <c r="AV78" s="25"/>
+      <c r="AW78" s="25"/>
+      <c r="AX78" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY78" s="25"/>
+      <c r="AZ78" s="25"/>
+      <c r="BA78" s="25"/>
+      <c r="BB78" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC78" s="25"/>
+      <c r="BD78" s="25"/>
+      <c r="BE78" s="25"/>
+      <c r="BF78" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="BG78" s="25"/>
+      <c r="BH78" s="25"/>
+      <c r="BI78" s="25"/>
+      <c r="BJ78" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="BK78" s="25"/>
+      <c r="BL78" s="25"/>
+      <c r="BM78" s="25"/>
+      <c r="BN78" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="BO78" s="25"/>
+      <c r="BP78" s="25"/>
+      <c r="BQ78" s="25"/>
+      <c r="BR78" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="BS78" s="25"/>
+      <c r="BT78" s="25"/>
+      <c r="BU78" s="25"/>
+      <c r="BV78" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW78" s="25"/>
+      <c r="BX78" s="25"/>
+      <c r="BY78" s="25"/>
+      <c r="BZ78" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA78" s="25"/>
+      <c r="CB78" s="25"/>
+      <c r="CC78" s="25"/>
+      <c r="CD78" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="CE78" s="25"/>
+      <c r="CF78" s="25"/>
+      <c r="CG78" s="25"/>
+      <c r="CH78" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="CI78" s="24"/>
+      <c r="CJ78" s="22"/>
+      <c r="CK78" s="22"/>
+      <c r="CL78" s="19"/>
+      <c r="CM78" s="19"/>
     </row>
-    <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="S78" s="34"/>
-      <c r="T78" s="34"/>
-      <c r="U78" s="34"/>
-      <c r="V78" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="W78" s="34"/>
-      <c r="X78" s="34"/>
-      <c r="Y78" s="34"/>
-      <c r="Z78" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA78" s="34"/>
-      <c r="AB78" s="34"/>
-      <c r="AC78" s="34"/>
-      <c r="AD78" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE78" s="34"/>
-      <c r="AF78" s="34"/>
-      <c r="AG78" s="34"/>
-      <c r="AH78" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI78" s="34"/>
-      <c r="AJ78" s="34"/>
-      <c r="AK78" s="34"/>
-      <c r="AL78" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM78" s="34"/>
-      <c r="AN78" s="34"/>
-      <c r="AO78" s="34"/>
-      <c r="AP78" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ78" s="34"/>
-      <c r="AR78" s="34"/>
-      <c r="AS78" s="34"/>
-      <c r="AT78" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU78" s="34"/>
-      <c r="AV78" s="34"/>
-      <c r="AW78" s="34"/>
-      <c r="AX78" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY78" s="34"/>
-      <c r="AZ78" s="34"/>
-      <c r="BA78" s="34"/>
-      <c r="BB78" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC78" s="34"/>
-      <c r="BD78" s="34"/>
-      <c r="BE78" s="34"/>
-      <c r="BF78" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="BG78" s="34"/>
-      <c r="BH78" s="34"/>
-      <c r="BI78" s="34"/>
-      <c r="BJ78" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="BK78" s="34"/>
-      <c r="BL78" s="34"/>
-      <c r="BM78" s="34"/>
-      <c r="BN78" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="BO78" s="34"/>
-      <c r="BP78" s="34"/>
-      <c r="BQ78" s="34"/>
-      <c r="BR78" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="BS78" s="34"/>
-      <c r="BT78" s="34"/>
-      <c r="BU78" s="34"/>
-      <c r="BV78" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="BW78" s="34"/>
-      <c r="BX78" s="34"/>
-      <c r="BY78" s="34"/>
-      <c r="BZ78" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="CA78" s="32"/>
-      <c r="CB78" s="32"/>
-      <c r="CC78" s="32"/>
-      <c r="CD78" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="CE78" s="32"/>
-      <c r="CF78" s="32"/>
-      <c r="CG78" s="32"/>
-      <c r="CH78" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="CI78" s="31"/>
-      <c r="CJ78" s="31"/>
-      <c r="CK78" s="31"/>
-      <c r="CL78" s="30"/>
-    </row>
-    <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>4</v>
       </c>
@@ -34601,55 +34075,45 @@
       <c r="BY79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ79" s="29" t="s">
+      <c r="BZ79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA79" s="29" t="s">
+      <c r="CA79" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB79" s="29" t="s">
+      <c r="CB79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CC79" s="29" t="s">
+      <c r="CC79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CD79" s="29" t="s">
+      <c r="CD79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CE79" s="29" t="s">
+      <c r="CE79" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF79" s="29" t="s">
+      <c r="CF79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CG79" s="29" t="s">
+      <c r="CG79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CH79" s="29" t="s">
+      <c r="CH79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI79" s="25"/>
-      <c r="CJ79" s="25"/>
-      <c r="CK79" s="25"/>
-      <c r="CL79" s="25"/>
+      <c r="CI79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ79" s="5"/>
+      <c r="CK79" s="5"/>
+      <c r="CL79" s="5"/>
+      <c r="CM79" s="23"/>
     </row>
-    <row r="80" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:149" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
-      <c r="BZ80" s="19"/>
-      <c r="CA80" s="19"/>
-      <c r="CB80" s="19"/>
-      <c r="CC80" s="19"/>
-      <c r="CD80" s="19"/>
-      <c r="CE80" s="19"/>
-      <c r="CF80" s="19"/>
-      <c r="CG80" s="19"/>
-      <c r="CH80" s="19"/>
-      <c r="CI80" s="19"/>
-      <c r="CJ80" s="19"/>
-      <c r="CK80" s="19"/>
-      <c r="CL80" s="19"/>
     </row>
-    <row r="81" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -34881,37 +34345,39 @@
       <c r="BY81" s="15">
         <v>-11.717000521221109</v>
       </c>
-      <c r="BZ81" s="26">
+      <c r="BZ81" s="15">
         <v>-21.729453696149633</v>
       </c>
-      <c r="CA81" s="26">
+      <c r="CA81" s="15">
         <v>-2.8470499873719746E-2</v>
       </c>
-      <c r="CB81" s="26">
+      <c r="CB81" s="15">
         <v>-5.5111504675550265</v>
       </c>
-      <c r="CC81" s="26">
+      <c r="CC81" s="15">
         <v>-29.128619923570156</v>
       </c>
-      <c r="CD81" s="26">
+      <c r="CD81" s="15">
         <v>42.050400588802347</v>
       </c>
-      <c r="CE81" s="26">
+      <c r="CE81" s="15">
         <v>-2.6817472259566273</v>
       </c>
-      <c r="CF81" s="26">
+      <c r="CF81" s="15">
         <v>-38.970925777827645</v>
       </c>
-      <c r="CG81" s="26">
+      <c r="CG81" s="15">
         <v>17.497800260083721</v>
       </c>
-      <c r="CH81" s="26">
-        <v>48.613392684051007</v>
-      </c>
-      <c r="CI81" s="22"/>
-      <c r="CJ81" s="22"/>
-      <c r="CK81" s="22"/>
-      <c r="CL81" s="22"/>
+      <c r="CH81" s="15">
+        <v>48.36954590993264</v>
+      </c>
+      <c r="CI81" s="15">
+        <v>-20.677251394218672</v>
+      </c>
+      <c r="CJ81" s="15"/>
+      <c r="CK81" s="15"/>
+      <c r="CL81" s="15"/>
       <c r="CM81" s="9"/>
       <c r="CN81" s="9"/>
       <c r="CO81" s="9"/>
@@ -34972,7 +34438,7 @@
       <c r="ER81" s="9"/>
       <c r="ES81" s="9"/>
     </row>
-    <row r="82" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -35204,37 +34670,39 @@
       <c r="BY82" s="15">
         <v>-6.1412693465815664</v>
       </c>
-      <c r="BZ82" s="26">
+      <c r="BZ82" s="15">
         <v>-12.667527893117807</v>
       </c>
-      <c r="CA82" s="26">
+      <c r="CA82" s="15">
         <v>-20.50730132296637</v>
       </c>
-      <c r="CB82" s="26">
+      <c r="CB82" s="15">
         <v>-12.472417294805197</v>
       </c>
-      <c r="CC82" s="26">
+      <c r="CC82" s="15">
         <v>-16.165360257570555</v>
       </c>
-      <c r="CD82" s="26">
+      <c r="CD82" s="15">
         <v>-19.128862284949705</v>
       </c>
-      <c r="CE82" s="26">
+      <c r="CE82" s="15">
         <v>-11.888924433683997</v>
       </c>
-      <c r="CF82" s="26">
+      <c r="CF82" s="15">
         <v>-7.9577375929940786</v>
       </c>
-      <c r="CG82" s="26">
+      <c r="CG82" s="15">
         <v>-23.026085446635918</v>
       </c>
-      <c r="CH82" s="26">
-        <v>-5.350227266109826</v>
-      </c>
-      <c r="CI82" s="22"/>
-      <c r="CJ82" s="22"/>
-      <c r="CK82" s="22"/>
-      <c r="CL82" s="22"/>
+      <c r="CH82" s="15">
+        <v>-5.3445376023773861E-2</v>
+      </c>
+      <c r="CI82" s="15">
+        <v>-10.780417606430561</v>
+      </c>
+      <c r="CJ82" s="15"/>
+      <c r="CK82" s="15"/>
+      <c r="CL82" s="15"/>
       <c r="CM82" s="9"/>
       <c r="CN82" s="9"/>
       <c r="CO82" s="9"/>
@@ -35295,7 +34763,7 @@
       <c r="ER82" s="9"/>
       <c r="ES82" s="9"/>
     </row>
-    <row r="83" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -35527,37 +34995,39 @@
       <c r="BY83" s="15">
         <v>-17.606565959252549</v>
       </c>
-      <c r="BZ83" s="26">
+      <c r="BZ83" s="15">
         <v>-34.137186859199872</v>
       </c>
-      <c r="CA83" s="26">
+      <c r="CA83" s="15">
         <v>-28.575533888612568</v>
       </c>
-      <c r="CB83" s="26">
+      <c r="CB83" s="15">
         <v>-13.167496112000237</v>
       </c>
-      <c r="CC83" s="26">
+      <c r="CC83" s="15">
         <v>-5.4222166643073422</v>
       </c>
-      <c r="CD83" s="26">
+      <c r="CD83" s="15">
         <v>6.627123343740692</v>
       </c>
-      <c r="CE83" s="26">
+      <c r="CE83" s="15">
         <v>18.768427903613528</v>
       </c>
-      <c r="CF83" s="26">
+      <c r="CF83" s="15">
         <v>15.804585591435696</v>
       </c>
-      <c r="CG83" s="26">
+      <c r="CG83" s="15">
         <v>29.523002567557626</v>
       </c>
-      <c r="CH83" s="26">
-        <v>20.13036535737956</v>
-      </c>
-      <c r="CI83" s="22"/>
-      <c r="CJ83" s="22"/>
-      <c r="CK83" s="22"/>
-      <c r="CL83" s="22"/>
+      <c r="CH83" s="15">
+        <v>20.696602124906164</v>
+      </c>
+      <c r="CI83" s="15">
+        <v>33.777362787248819</v>
+      </c>
+      <c r="CJ83" s="15"/>
+      <c r="CK83" s="15"/>
+      <c r="CL83" s="15"/>
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
       <c r="CO83" s="9"/>
@@ -35618,7 +35088,7 @@
       <c r="ER83" s="9"/>
       <c r="ES83" s="9"/>
     </row>
-    <row r="84" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
@@ -35850,37 +35320,39 @@
       <c r="BY84" s="15">
         <v>27.596943481869005</v>
       </c>
-      <c r="BZ84" s="26">
+      <c r="BZ84" s="15">
         <v>-18.842425833598369</v>
       </c>
-      <c r="CA84" s="26">
+      <c r="CA84" s="15">
         <v>-11.316892012792906</v>
       </c>
-      <c r="CB84" s="26">
+      <c r="CB84" s="15">
         <v>12.874959226389322</v>
       </c>
-      <c r="CC84" s="26">
+      <c r="CC84" s="15">
         <v>47.347469830506412</v>
       </c>
-      <c r="CD84" s="26">
+      <c r="CD84" s="15">
         <v>62.214153733151534</v>
       </c>
-      <c r="CE84" s="26">
+      <c r="CE84" s="15">
         <v>22.149957853151861</v>
       </c>
-      <c r="CF84" s="26">
+      <c r="CF84" s="15">
         <v>8.6071703968878097</v>
       </c>
-      <c r="CG84" s="26">
+      <c r="CG84" s="15">
         <v>-16.081864995725894</v>
       </c>
-      <c r="CH84" s="26">
-        <v>-33.239343021227128</v>
-      </c>
-      <c r="CI84" s="22"/>
-      <c r="CJ84" s="22"/>
-      <c r="CK84" s="22"/>
-      <c r="CL84" s="22"/>
+      <c r="CH84" s="15">
+        <v>-12.502790635666884</v>
+      </c>
+      <c r="CI84" s="15">
+        <v>-35.780825429465011</v>
+      </c>
+      <c r="CJ84" s="15"/>
+      <c r="CK84" s="15"/>
+      <c r="CL84" s="15"/>
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
@@ -35941,7 +35413,7 @@
       <c r="ER84" s="9"/>
       <c r="ES84" s="9"/>
     </row>
-    <row r="85" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>14</v>
       </c>
@@ -36173,37 +35645,39 @@
       <c r="BY85" s="15">
         <v>-16.661325891620976</v>
       </c>
-      <c r="BZ85" s="26">
+      <c r="BZ85" s="15">
         <v>-37.542494043908825</v>
       </c>
-      <c r="CA85" s="26">
+      <c r="CA85" s="15">
         <v>-14.550397474065022</v>
       </c>
-      <c r="CB85" s="26">
+      <c r="CB85" s="15">
         <v>-25.890831133563935</v>
       </c>
-      <c r="CC85" s="26">
+      <c r="CC85" s="15">
         <v>-22.451394908116939</v>
       </c>
-      <c r="CD85" s="26">
+      <c r="CD85" s="15">
         <v>-32.786777686736031</v>
       </c>
-      <c r="CE85" s="26">
+      <c r="CE85" s="15">
         <v>-23.533670674738204</v>
       </c>
-      <c r="CF85" s="26">
+      <c r="CF85" s="15">
         <v>-3.7260011875701053</v>
       </c>
-      <c r="CG85" s="26">
+      <c r="CG85" s="15">
         <v>15.771356835236631</v>
       </c>
-      <c r="CH85" s="26">
+      <c r="CH85" s="15">
         <v>60.064182133017454</v>
       </c>
-      <c r="CI85" s="22"/>
-      <c r="CJ85" s="22"/>
-      <c r="CK85" s="22"/>
-      <c r="CL85" s="22"/>
+      <c r="CI85" s="15">
+        <v>38.390867524305577</v>
+      </c>
+      <c r="CJ85" s="15"/>
+      <c r="CK85" s="15"/>
+      <c r="CL85" s="15"/>
       <c r="CM85" s="9"/>
       <c r="CN85" s="9"/>
       <c r="CO85" s="9"/>
@@ -36264,7 +35738,7 @@
       <c r="ER85" s="9"/>
       <c r="ES85" s="9"/>
     </row>
-    <row r="86" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>27</v>
       </c>
@@ -36496,37 +35970,39 @@
       <c r="BY86" s="15">
         <v>-0.47229286411155158</v>
       </c>
-      <c r="BZ86" s="26">
+      <c r="BZ86" s="15">
         <v>-12.167089128400477</v>
       </c>
-      <c r="CA86" s="26">
+      <c r="CA86" s="15">
         <v>-46.450564116704584</v>
       </c>
-      <c r="CB86" s="26">
+      <c r="CB86" s="15">
         <v>-23.122914136589202</v>
       </c>
-      <c r="CC86" s="26">
+      <c r="CC86" s="15">
         <v>-20.02667062919889</v>
       </c>
-      <c r="CD86" s="26">
+      <c r="CD86" s="15">
         <v>-8.7222286138298699</v>
       </c>
-      <c r="CE86" s="26">
+      <c r="CE86" s="15">
         <v>25.157709960457964</v>
       </c>
-      <c r="CF86" s="26">
+      <c r="CF86" s="15">
         <v>21.653924959359387</v>
       </c>
-      <c r="CG86" s="26">
+      <c r="CG86" s="15">
         <v>21.1013559304903</v>
       </c>
-      <c r="CH86" s="26">
-        <v>17.685716694580407</v>
-      </c>
-      <c r="CI86" s="22"/>
-      <c r="CJ86" s="22"/>
-      <c r="CK86" s="22"/>
-      <c r="CL86" s="22"/>
+      <c r="CH86" s="15">
+        <v>16.52652545166633</v>
+      </c>
+      <c r="CI86" s="15">
+        <v>15.81342039231113</v>
+      </c>
+      <c r="CJ86" s="15"/>
+      <c r="CK86" s="15"/>
+      <c r="CL86" s="15"/>
       <c r="CM86" s="9"/>
       <c r="CN86" s="9"/>
       <c r="CO86" s="9"/>
@@ -36587,7 +36063,7 @@
       <c r="ER86" s="9"/>
       <c r="ES86" s="9"/>
     </row>
-    <row r="87" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -36664,19 +36140,19 @@
       <c r="BW87" s="9"/>
       <c r="BX87" s="9"/>
       <c r="BY87" s="9"/>
-      <c r="BZ87" s="22"/>
-      <c r="CA87" s="22"/>
-      <c r="CB87" s="22"/>
-      <c r="CC87" s="22"/>
-      <c r="CD87" s="22"/>
-      <c r="CE87" s="22"/>
-      <c r="CF87" s="22"/>
-      <c r="CG87" s="22"/>
-      <c r="CH87" s="22"/>
-      <c r="CI87" s="22"/>
-      <c r="CJ87" s="22"/>
-      <c r="CK87" s="22"/>
-      <c r="CL87" s="22"/>
+      <c r="BZ87" s="9"/>
+      <c r="CA87" s="9"/>
+      <c r="CB87" s="9"/>
+      <c r="CC87" s="9"/>
+      <c r="CD87" s="9"/>
+      <c r="CE87" s="9"/>
+      <c r="CF87" s="9"/>
+      <c r="CG87" s="9"/>
+      <c r="CH87" s="9"/>
+      <c r="CI87" s="9"/>
+      <c r="CJ87" s="9"/>
+      <c r="CK87" s="9"/>
+      <c r="CL87" s="9"/>
       <c r="CM87" s="9"/>
       <c r="CN87" s="9"/>
       <c r="CO87" s="9"/>
@@ -36737,7 +36213,7 @@
       <c r="ER87" s="9"/>
       <c r="ES87" s="9"/>
     </row>
-    <row r="88" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>15</v>
       </c>
@@ -36969,37 +36445,39 @@
       <c r="BY88" s="15">
         <v>-5.8258072785782815</v>
       </c>
-      <c r="BZ88" s="26">
+      <c r="BZ88" s="15">
         <v>-21.257103574473689</v>
       </c>
-      <c r="CA88" s="26">
+      <c r="CA88" s="15">
         <v>-21.662469079773572</v>
       </c>
-      <c r="CB88" s="26">
+      <c r="CB88" s="15">
         <v>-10.899357909864122</v>
       </c>
-      <c r="CC88" s="26">
+      <c r="CC88" s="15">
         <v>-16.565118640082517</v>
       </c>
-      <c r="CD88" s="26">
+      <c r="CD88" s="15">
         <v>2.0240600225695431</v>
       </c>
-      <c r="CE88" s="26">
+      <c r="CE88" s="15">
         <v>4.1758543008941302</v>
       </c>
-      <c r="CF88" s="26">
+      <c r="CF88" s="15">
         <v>3.9621386305685178</v>
       </c>
-      <c r="CG88" s="26">
+      <c r="CG88" s="15">
         <v>10.668177026354584</v>
       </c>
-      <c r="CH88" s="26">
-        <v>16.99605489563298</v>
-      </c>
-      <c r="CI88" s="22"/>
-      <c r="CJ88" s="22"/>
-      <c r="CK88" s="22"/>
-      <c r="CL88" s="22"/>
+      <c r="CH88" s="15">
+        <v>20.298607217885476</v>
+      </c>
+      <c r="CI88" s="15">
+        <v>-7.2823447522740992</v>
+      </c>
+      <c r="CJ88" s="15"/>
+      <c r="CK88" s="15"/>
+      <c r="CL88" s="15"/>
       <c r="CM88" s="9"/>
       <c r="CN88" s="9"/>
       <c r="CO88" s="9"/>
@@ -37060,7 +36538,7 @@
       <c r="ER88" s="9"/>
       <c r="ES88" s="9"/>
     </row>
-    <row r="89" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -37138,39 +36616,27 @@
       <c r="BW89" s="13"/>
       <c r="BX89" s="13"/>
       <c r="BY89" s="13"/>
-      <c r="BZ89" s="24"/>
-      <c r="CA89" s="24"/>
-      <c r="CB89" s="24"/>
-      <c r="CC89" s="24"/>
-      <c r="CD89" s="24"/>
-      <c r="CE89" s="24"/>
-      <c r="CF89" s="24"/>
-      <c r="CG89" s="24"/>
-      <c r="CH89" s="24"/>
-      <c r="CI89" s="24"/>
-      <c r="CJ89" s="24"/>
-      <c r="CK89" s="24"/>
-      <c r="CL89" s="24"/>
+      <c r="BZ89" s="13"/>
+      <c r="CA89" s="13"/>
+      <c r="CB89" s="13"/>
+      <c r="CC89" s="13"/>
+      <c r="CD89" s="13"/>
+      <c r="CE89" s="13"/>
+      <c r="CF89" s="13"/>
+      <c r="CG89" s="13"/>
+      <c r="CH89" s="13"/>
+      <c r="CI89" s="13"/>
+      <c r="CJ89" s="13"/>
+      <c r="CK89" s="13"/>
+      <c r="CL89" s="13"/>
+      <c r="CM89" s="13"/>
     </row>
-    <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="BZ90" s="19"/>
-      <c r="CA90" s="19"/>
-      <c r="CB90" s="19"/>
-      <c r="CC90" s="19"/>
-      <c r="CD90" s="19"/>
-      <c r="CE90" s="19"/>
-      <c r="CF90" s="19"/>
-      <c r="CG90" s="19"/>
-      <c r="CH90" s="19"/>
-      <c r="CI90" s="19"/>
-      <c r="CJ90" s="19"/>
-      <c r="CK90" s="19"/>
-      <c r="CL90" s="19"/>
     </row>
-    <row r="91" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>0</v>
       </c>
@@ -37250,19 +36716,19 @@
       <c r="BW91" s="9"/>
       <c r="BX91" s="9"/>
       <c r="BY91" s="9"/>
-      <c r="BZ91" s="22"/>
-      <c r="CA91" s="22"/>
-      <c r="CB91" s="22"/>
-      <c r="CC91" s="22"/>
-      <c r="CD91" s="22"/>
-      <c r="CE91" s="22"/>
-      <c r="CF91" s="22"/>
-      <c r="CG91" s="22"/>
-      <c r="CH91" s="22"/>
-      <c r="CI91" s="22"/>
-      <c r="CJ91" s="22"/>
-      <c r="CK91" s="22"/>
-      <c r="CL91" s="22"/>
+      <c r="BZ91" s="9"/>
+      <c r="CA91" s="9"/>
+      <c r="CB91" s="9"/>
+      <c r="CC91" s="9"/>
+      <c r="CD91" s="9"/>
+      <c r="CE91" s="9"/>
+      <c r="CF91" s="9"/>
+      <c r="CG91" s="9"/>
+      <c r="CH91" s="9"/>
+      <c r="CI91" s="9"/>
+      <c r="CJ91" s="9"/>
+      <c r="CK91" s="9"/>
+      <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
@@ -37323,7 +36789,7 @@
       <c r="ER91" s="9"/>
       <c r="ES91" s="9"/>
     </row>
-    <row r="92" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -37400,19 +36866,19 @@
       <c r="BW92" s="9"/>
       <c r="BX92" s="9"/>
       <c r="BY92" s="9"/>
-      <c r="BZ92" s="22"/>
-      <c r="CA92" s="22"/>
-      <c r="CB92" s="22"/>
-      <c r="CC92" s="22"/>
-      <c r="CD92" s="22"/>
-      <c r="CE92" s="22"/>
-      <c r="CF92" s="22"/>
-      <c r="CG92" s="22"/>
-      <c r="CH92" s="22"/>
-      <c r="CI92" s="22"/>
-      <c r="CJ92" s="22"/>
-      <c r="CK92" s="22"/>
-      <c r="CL92" s="22"/>
+      <c r="BZ92" s="9"/>
+      <c r="CA92" s="9"/>
+      <c r="CB92" s="9"/>
+      <c r="CC92" s="9"/>
+      <c r="CD92" s="9"/>
+      <c r="CE92" s="9"/>
+      <c r="CF92" s="9"/>
+      <c r="CG92" s="9"/>
+      <c r="CH92" s="9"/>
+      <c r="CI92" s="9"/>
+      <c r="CJ92" s="9"/>
+      <c r="CK92" s="9"/>
+      <c r="CL92" s="9"/>
       <c r="CM92" s="9"/>
       <c r="CN92" s="9"/>
       <c r="CO92" s="9"/>
@@ -37478,265 +36944,173 @@
       <c r="EW92" s="9"/>
       <c r="EX92" s="9"/>
     </row>
-    <row r="93" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ93" s="19"/>
-      <c r="CA93" s="19"/>
-      <c r="CB93" s="19"/>
-      <c r="CC93" s="19"/>
-      <c r="CD93" s="19"/>
-      <c r="CE93" s="19"/>
-      <c r="CF93" s="19"/>
-      <c r="CG93" s="19"/>
-      <c r="CH93" s="19"/>
-      <c r="CI93" s="19"/>
-      <c r="CJ93" s="19"/>
-      <c r="CK93" s="19"/>
-      <c r="CL93" s="19"/>
     </row>
-    <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BZ94" s="19"/>
-      <c r="CA94" s="19"/>
-      <c r="CB94" s="19"/>
-      <c r="CC94" s="19"/>
-      <c r="CD94" s="19"/>
-      <c r="CE94" s="19"/>
-      <c r="CF94" s="19"/>
-      <c r="CG94" s="19"/>
-      <c r="CH94" s="19"/>
-      <c r="CI94" s="19"/>
-      <c r="CJ94" s="19"/>
-      <c r="CK94" s="19"/>
-      <c r="CL94" s="19"/>
     </row>
-    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ95" s="19"/>
-      <c r="CA95" s="19"/>
-      <c r="CB95" s="19"/>
-      <c r="CC95" s="19"/>
-      <c r="CD95" s="19"/>
-      <c r="CE95" s="19"/>
-      <c r="CF95" s="19"/>
-      <c r="CG95" s="19"/>
-      <c r="CH95" s="19"/>
-      <c r="CI95" s="19"/>
-      <c r="CJ95" s="19"/>
-      <c r="CK95" s="19"/>
-      <c r="CL95" s="19"/>
-    </row>
-    <row r="96" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BZ96" s="19"/>
-      <c r="CA96" s="19"/>
-      <c r="CB96" s="19"/>
-      <c r="CC96" s="19"/>
-      <c r="CD96" s="19"/>
-      <c r="CE96" s="19"/>
-      <c r="CF96" s="19"/>
-      <c r="CG96" s="19"/>
-      <c r="CH96" s="19"/>
-      <c r="CI96" s="19"/>
-      <c r="CJ96" s="19"/>
-      <c r="CK96" s="19"/>
-      <c r="CL96" s="19"/>
     </row>
-    <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BZ97" s="19"/>
-      <c r="CA97" s="19"/>
-      <c r="CB97" s="19"/>
-      <c r="CC97" s="19"/>
-      <c r="CD97" s="19"/>
-      <c r="CE97" s="19"/>
-      <c r="CF97" s="19"/>
-      <c r="CG97" s="19"/>
-      <c r="CH97" s="19"/>
-      <c r="CI97" s="19"/>
-      <c r="CJ97" s="19"/>
-      <c r="CK97" s="19"/>
-      <c r="CL97" s="19"/>
     </row>
-    <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BZ98" s="19"/>
-      <c r="CA98" s="19"/>
-      <c r="CB98" s="19"/>
-      <c r="CC98" s="19"/>
-      <c r="CD98" s="19"/>
-      <c r="CE98" s="19"/>
-      <c r="CF98" s="19"/>
-      <c r="CG98" s="19"/>
-      <c r="CH98" s="19"/>
-      <c r="CI98" s="19"/>
-      <c r="CJ98" s="19"/>
-      <c r="CK98" s="19"/>
-      <c r="CL98" s="19"/>
     </row>
-    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ99" s="19"/>
-      <c r="CA99" s="19"/>
-      <c r="CB99" s="19"/>
-      <c r="CC99" s="19"/>
-      <c r="CD99" s="19"/>
-      <c r="CE99" s="19"/>
-      <c r="CF99" s="19"/>
-      <c r="CG99" s="19"/>
-      <c r="CH99" s="19"/>
-      <c r="CI99" s="19"/>
-      <c r="CJ99" s="19"/>
-      <c r="CK99" s="19"/>
-      <c r="CL99" s="19"/>
+    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="24">
+        <v>2000</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24">
+        <v>2001</v>
+      </c>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24">
+        <v>2002</v>
+      </c>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24">
+        <v>2003</v>
+      </c>
+      <c r="O100" s="24"/>
+      <c r="P100" s="24"/>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="24">
+        <v>2004</v>
+      </c>
+      <c r="S100" s="24"/>
+      <c r="T100" s="24"/>
+      <c r="U100" s="24"/>
+      <c r="V100" s="24">
+        <v>2005</v>
+      </c>
+      <c r="W100" s="24"/>
+      <c r="X100" s="24"/>
+      <c r="Y100" s="24"/>
+      <c r="Z100" s="24">
+        <v>2006</v>
+      </c>
+      <c r="AA100" s="24"/>
+      <c r="AB100" s="24"/>
+      <c r="AC100" s="24"/>
+      <c r="AD100" s="24">
+        <v>2007</v>
+      </c>
+      <c r="AE100" s="24"/>
+      <c r="AF100" s="24"/>
+      <c r="AG100" s="24"/>
+      <c r="AH100" s="24">
+        <v>2008</v>
+      </c>
+      <c r="AI100" s="24"/>
+      <c r="AJ100" s="24"/>
+      <c r="AK100" s="24"/>
+      <c r="AL100" s="24">
+        <v>2009</v>
+      </c>
+      <c r="AM100" s="24"/>
+      <c r="AN100" s="24"/>
+      <c r="AO100" s="24"/>
+      <c r="AP100" s="24">
+        <v>2010</v>
+      </c>
+      <c r="AQ100" s="24"/>
+      <c r="AR100" s="24"/>
+      <c r="AS100" s="24"/>
+      <c r="AT100" s="24">
+        <v>2011</v>
+      </c>
+      <c r="AU100" s="24"/>
+      <c r="AV100" s="24"/>
+      <c r="AW100" s="24"/>
+      <c r="AX100" s="24">
+        <v>2012</v>
+      </c>
+      <c r="AY100" s="24"/>
+      <c r="AZ100" s="24"/>
+      <c r="BA100" s="24"/>
+      <c r="BB100" s="24">
+        <v>2013</v>
+      </c>
+      <c r="BC100" s="24"/>
+      <c r="BD100" s="24"/>
+      <c r="BE100" s="24"/>
+      <c r="BF100" s="24">
+        <v>2014</v>
+      </c>
+      <c r="BG100" s="24"/>
+      <c r="BH100" s="24"/>
+      <c r="BI100" s="24"/>
+      <c r="BJ100" s="24">
+        <v>2015</v>
+      </c>
+      <c r="BK100" s="24"/>
+      <c r="BL100" s="24"/>
+      <c r="BM100" s="24"/>
+      <c r="BN100" s="24">
+        <v>2016</v>
+      </c>
+      <c r="BO100" s="24"/>
+      <c r="BP100" s="24"/>
+      <c r="BQ100" s="24"/>
+      <c r="BR100" s="24">
+        <v>2017</v>
+      </c>
+      <c r="BS100" s="24"/>
+      <c r="BT100" s="24"/>
+      <c r="BU100" s="24"/>
+      <c r="BV100" s="24">
+        <v>2018</v>
+      </c>
+      <c r="BW100" s="24"/>
+      <c r="BX100" s="24"/>
+      <c r="BY100" s="24"/>
+      <c r="BZ100" s="24">
+        <v>2019</v>
+      </c>
+      <c r="CA100" s="24"/>
+      <c r="CB100" s="24"/>
+      <c r="CC100" s="24"/>
+      <c r="CD100" s="24">
+        <v>2020</v>
+      </c>
+      <c r="CE100" s="24"/>
+      <c r="CF100" s="24"/>
+      <c r="CG100" s="24"/>
+      <c r="CH100" s="24">
+        <v>2021</v>
+      </c>
+      <c r="CI100" s="24"/>
+      <c r="CJ100" s="24"/>
+      <c r="CK100" s="24"/>
+      <c r="CL100" s="24">
+        <v>2022</v>
+      </c>
+      <c r="CM100" s="24"/>
     </row>
-    <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4"/>
-      <c r="B100" s="33">
-        <v>2000</v>
-      </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33">
-        <v>2001</v>
-      </c>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33">
-        <v>2002</v>
-      </c>
-      <c r="K100" s="33"/>
-      <c r="L100" s="33"/>
-      <c r="M100" s="33"/>
-      <c r="N100" s="33">
-        <v>2003</v>
-      </c>
-      <c r="O100" s="33"/>
-      <c r="P100" s="33"/>
-      <c r="Q100" s="33"/>
-      <c r="R100" s="33">
-        <v>2004</v>
-      </c>
-      <c r="S100" s="33"/>
-      <c r="T100" s="33"/>
-      <c r="U100" s="33"/>
-      <c r="V100" s="33">
-        <v>2005</v>
-      </c>
-      <c r="W100" s="33"/>
-      <c r="X100" s="33"/>
-      <c r="Y100" s="33"/>
-      <c r="Z100" s="33">
-        <v>2006</v>
-      </c>
-      <c r="AA100" s="33"/>
-      <c r="AB100" s="33"/>
-      <c r="AC100" s="33"/>
-      <c r="AD100" s="33">
-        <v>2007</v>
-      </c>
-      <c r="AE100" s="33"/>
-      <c r="AF100" s="33"/>
-      <c r="AG100" s="33"/>
-      <c r="AH100" s="33">
-        <v>2008</v>
-      </c>
-      <c r="AI100" s="33"/>
-      <c r="AJ100" s="33"/>
-      <c r="AK100" s="33"/>
-      <c r="AL100" s="33">
-        <v>2009</v>
-      </c>
-      <c r="AM100" s="33"/>
-      <c r="AN100" s="33"/>
-      <c r="AO100" s="33"/>
-      <c r="AP100" s="33">
-        <v>2010</v>
-      </c>
-      <c r="AQ100" s="33"/>
-      <c r="AR100" s="33"/>
-      <c r="AS100" s="33"/>
-      <c r="AT100" s="33">
-        <v>2011</v>
-      </c>
-      <c r="AU100" s="33"/>
-      <c r="AV100" s="33"/>
-      <c r="AW100" s="33"/>
-      <c r="AX100" s="33">
-        <v>2012</v>
-      </c>
-      <c r="AY100" s="33"/>
-      <c r="AZ100" s="33"/>
-      <c r="BA100" s="33"/>
-      <c r="BB100" s="33">
-        <v>2013</v>
-      </c>
-      <c r="BC100" s="33"/>
-      <c r="BD100" s="33"/>
-      <c r="BE100" s="33"/>
-      <c r="BF100" s="33">
-        <v>2014</v>
-      </c>
-      <c r="BG100" s="33"/>
-      <c r="BH100" s="33"/>
-      <c r="BI100" s="33"/>
-      <c r="BJ100" s="33">
-        <v>2015</v>
-      </c>
-      <c r="BK100" s="33"/>
-      <c r="BL100" s="33"/>
-      <c r="BM100" s="33"/>
-      <c r="BN100" s="33">
-        <v>2016</v>
-      </c>
-      <c r="BO100" s="33"/>
-      <c r="BP100" s="33"/>
-      <c r="BQ100" s="33"/>
-      <c r="BR100" s="33">
-        <v>2017</v>
-      </c>
-      <c r="BS100" s="33"/>
-      <c r="BT100" s="33"/>
-      <c r="BU100" s="33"/>
-      <c r="BV100" s="33">
-        <v>2018</v>
-      </c>
-      <c r="BW100" s="33"/>
-      <c r="BX100" s="33"/>
-      <c r="BY100" s="33"/>
-      <c r="BZ100" s="32">
-        <v>2019</v>
-      </c>
-      <c r="CA100" s="32"/>
-      <c r="CB100" s="32"/>
-      <c r="CC100" s="32"/>
-      <c r="CD100" s="32">
-        <v>2020</v>
-      </c>
-      <c r="CE100" s="32"/>
-      <c r="CF100" s="32"/>
-      <c r="CG100" s="32"/>
-      <c r="CH100" s="32">
-        <v>2021</v>
-      </c>
-      <c r="CI100" s="32"/>
-      <c r="CJ100" s="32"/>
-      <c r="CK100" s="32"/>
-      <c r="CL100" s="31">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>4</v>
       </c>
@@ -37968,63 +37342,53 @@
       <c r="BY101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ101" s="20" t="s">
+      <c r="BZ101" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA101" s="20" t="s">
+      <c r="CA101" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB101" s="20" t="s">
+      <c r="CB101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC101" s="20" t="s">
+      <c r="CC101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD101" s="20" t="s">
+      <c r="CD101" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE101" s="20" t="s">
+      <c r="CE101" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF101" s="20" t="s">
+      <c r="CF101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG101" s="20" t="s">
+      <c r="CG101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH101" s="20" t="s">
+      <c r="CH101" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI101" s="20" t="s">
+      <c r="CI101" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ101" s="20" t="s">
+      <c r="CJ101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK101" s="20" t="s">
+      <c r="CK101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL101" s="20" t="s">
+      <c r="CL101" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM101" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="102" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
-      <c r="BZ102" s="19"/>
-      <c r="CA102" s="19"/>
-      <c r="CB102" s="19"/>
-      <c r="CC102" s="19"/>
-      <c r="CD102" s="19"/>
-      <c r="CE102" s="19"/>
-      <c r="CF102" s="19"/>
-      <c r="CG102" s="19"/>
-      <c r="CH102" s="19"/>
-      <c r="CI102" s="19"/>
-      <c r="CJ102" s="19"/>
-      <c r="CK102" s="19"/>
-      <c r="CL102" s="19"/>
     </row>
-    <row r="103" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -38256,46 +37620,48 @@
       <c r="BY103" s="15">
         <v>57.334845303449619</v>
       </c>
-      <c r="BZ103" s="26">
+      <c r="BZ103" s="15">
         <v>67.238689524633884</v>
       </c>
-      <c r="CA103" s="26">
+      <c r="CA103" s="15">
         <v>75.758727747794126</v>
       </c>
-      <c r="CB103" s="26">
+      <c r="CB103" s="15">
         <v>127.02617636180354</v>
       </c>
-      <c r="CC103" s="26">
+      <c r="CC103" s="15">
         <v>37.281108473067277</v>
       </c>
-      <c r="CD103" s="26">
+      <c r="CD103" s="15">
         <v>47.896792051949269</v>
       </c>
-      <c r="CE103" s="26">
+      <c r="CE103" s="15">
         <v>49.140539204187625</v>
       </c>
-      <c r="CF103" s="26">
+      <c r="CF103" s="15">
         <v>97.401887555628193</v>
       </c>
-      <c r="CG103" s="26">
+      <c r="CG103" s="15">
         <v>40.966002497155998</v>
       </c>
-      <c r="CH103" s="26">
+      <c r="CH103" s="15">
         <v>58.353281641871625</v>
       </c>
-      <c r="CI103" s="26">
+      <c r="CI103" s="15">
         <v>92.760380221423347</v>
       </c>
-      <c r="CJ103" s="26">
+      <c r="CJ103" s="15">
         <v>337.80242795616897</v>
       </c>
-      <c r="CK103" s="26">
+      <c r="CK103" s="15">
         <v>123.00525877779684</v>
       </c>
-      <c r="CL103" s="26">
-        <v>178.75516274041362</v>
-      </c>
-      <c r="CM103" s="9"/>
+      <c r="CL103" s="15">
+        <v>178.7551627404136</v>
+      </c>
+      <c r="CM103" s="15">
+        <v>266.82763271392383</v>
+      </c>
       <c r="CN103" s="9"/>
       <c r="CO103" s="9"/>
       <c r="CP103" s="9"/>
@@ -38360,7 +37726,7 @@
       <c r="EW103" s="9"/>
       <c r="EX103" s="9"/>
     </row>
-    <row r="104" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
@@ -38592,46 +37958,48 @@
       <c r="BY104" s="15">
         <v>133.35200354130049</v>
       </c>
-      <c r="BZ104" s="26">
+      <c r="BZ104" s="15">
         <v>129.94367639596018</v>
       </c>
-      <c r="CA104" s="26">
+      <c r="CA104" s="15">
         <v>53.909161473966179</v>
       </c>
-      <c r="CB104" s="26">
+      <c r="CB104" s="15">
         <v>145.50838115651402</v>
       </c>
-      <c r="CC104" s="26">
+      <c r="CC104" s="15">
         <v>123.49013935359257</v>
       </c>
-      <c r="CD104" s="26">
+      <c r="CD104" s="15">
         <v>88.777384071330559</v>
       </c>
-      <c r="CE104" s="26">
+      <c r="CE104" s="15">
         <v>29.588688595822337</v>
       </c>
-      <c r="CF104" s="26">
+      <c r="CF104" s="15">
         <v>109.31644742602396</v>
       </c>
-      <c r="CG104" s="26">
+      <c r="CG104" s="15">
         <v>112.81557200323059</v>
       </c>
-      <c r="CH104" s="26">
+      <c r="CH104" s="15">
         <v>140.26157539851445</v>
       </c>
-      <c r="CI104" s="26">
+      <c r="CI104" s="15">
         <v>55.218355124929516</v>
       </c>
-      <c r="CJ104" s="26">
+      <c r="CJ104" s="15">
         <v>229.0931087562432</v>
       </c>
-      <c r="CK104" s="26">
+      <c r="CK104" s="15">
         <v>221.33742640289591</v>
       </c>
-      <c r="CL104" s="26">
-        <v>209.39896127954381</v>
-      </c>
-      <c r="CM104" s="9"/>
+      <c r="CL104" s="15">
+        <v>209.17690307926432</v>
+      </c>
+      <c r="CM104" s="15">
+        <v>126.29415824369741</v>
+      </c>
       <c r="CN104" s="9"/>
       <c r="CO104" s="9"/>
       <c r="CP104" s="9"/>
@@ -38696,7 +38064,7 @@
       <c r="EW104" s="9"/>
       <c r="EX104" s="9"/>
     </row>
-    <row r="105" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>28</v>
       </c>
@@ -38928,46 +38296,48 @@
       <c r="BY105" s="15">
         <v>93.226649719036516</v>
       </c>
-      <c r="BZ105" s="26">
+      <c r="BZ105" s="15">
         <v>100.21631428740724</v>
       </c>
-      <c r="CA105" s="26">
+      <c r="CA105" s="15">
         <v>101.55187360506123</v>
       </c>
-      <c r="CB105" s="26">
+      <c r="CB105" s="15">
         <v>129.10617748645669</v>
       </c>
-      <c r="CC105" s="26">
+      <c r="CC105" s="15">
         <v>114.80991647213754</v>
       </c>
-      <c r="CD105" s="26">
+      <c r="CD105" s="15">
         <v>141.55493605154652</v>
       </c>
-      <c r="CE105" s="26">
+      <c r="CE105" s="15">
         <v>160.80746542605752</v>
       </c>
-      <c r="CF105" s="26">
+      <c r="CF105" s="15">
         <v>202.40336855631381</v>
       </c>
-      <c r="CG105" s="26">
+      <c r="CG105" s="15">
         <v>174.59640976565416</v>
       </c>
-      <c r="CH105" s="26">
+      <c r="CH105" s="15">
         <v>161.7358924666361</v>
       </c>
-      <c r="CI105" s="26">
+      <c r="CI105" s="15">
         <v>167.533548861882</v>
       </c>
-      <c r="CJ105" s="26">
+      <c r="CJ105" s="15">
         <v>178.81763728415979</v>
       </c>
-      <c r="CK105" s="26">
+      <c r="CK105" s="15">
         <v>152.1688293420205</v>
       </c>
-      <c r="CL105" s="26">
-        <v>170.31055836759282</v>
-      </c>
-      <c r="CM105" s="9"/>
+      <c r="CL105" s="15">
+        <v>170.31457071287491</v>
+      </c>
+      <c r="CM105" s="15">
+        <v>172.29090815116197</v>
+      </c>
       <c r="CN105" s="9"/>
       <c r="CO105" s="9"/>
       <c r="CP105" s="9"/>
@@ -39032,7 +38402,7 @@
       <c r="EW105" s="9"/>
       <c r="EX105" s="9"/>
     </row>
-    <row r="106" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>13</v>
       </c>
@@ -39264,46 +38634,48 @@
       <c r="BY106" s="15">
         <v>103.7061710951296</v>
       </c>
-      <c r="BZ106" s="26">
+      <c r="BZ106" s="15">
         <v>115.50949311212936</v>
       </c>
-      <c r="CA106" s="26">
+      <c r="CA106" s="15">
         <v>83.212689741867933</v>
       </c>
-      <c r="CB106" s="26">
+      <c r="CB106" s="15">
         <v>111.93121727332394</v>
       </c>
-      <c r="CC106" s="26">
+      <c r="CC106" s="15">
         <v>134.92227246050126</v>
       </c>
-      <c r="CD106" s="26">
+      <c r="CD106" s="15">
         <v>122.35785965908555</v>
       </c>
-      <c r="CE106" s="26">
+      <c r="CE106" s="15">
         <v>88.867409483774608</v>
       </c>
-      <c r="CF106" s="26">
+      <c r="CF106" s="15">
         <v>97.188540793752225</v>
       </c>
-      <c r="CG106" s="26">
+      <c r="CG106" s="15">
         <v>159.57493355091069</v>
       </c>
-      <c r="CH106" s="26">
+      <c r="CH106" s="15">
         <v>169.88075311202167</v>
       </c>
-      <c r="CI106" s="26">
+      <c r="CI106" s="15">
         <v>126.06726274079448</v>
       </c>
-      <c r="CJ106" s="26">
+      <c r="CJ106" s="15">
         <v>138.47139707289588</v>
       </c>
-      <c r="CK106" s="26">
+      <c r="CK106" s="15">
         <v>194.70763443677669</v>
       </c>
-      <c r="CL106" s="26">
-        <v>292.05471367558505</v>
-      </c>
-      <c r="CM106" s="9"/>
+      <c r="CL106" s="15">
+        <v>292.05471367558511</v>
+      </c>
+      <c r="CM106" s="15">
+        <v>210.25118443200734</v>
+      </c>
       <c r="CN106" s="9"/>
       <c r="CO106" s="9"/>
       <c r="CP106" s="9"/>
@@ -39368,7 +38740,7 @@
       <c r="EW106" s="9"/>
       <c r="EX106" s="9"/>
     </row>
-    <row r="107" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>14</v>
       </c>
@@ -39600,46 +38972,48 @@
       <c r="BY107" s="15">
         <v>204.24077921468103</v>
       </c>
-      <c r="BZ107" s="26">
+      <c r="BZ107" s="15">
         <v>41.101148626916775</v>
       </c>
-      <c r="CA107" s="26">
+      <c r="CA107" s="15">
         <v>187.35788258995331</v>
       </c>
-      <c r="CB107" s="26">
+      <c r="CB107" s="15">
         <v>140.77368912373146</v>
       </c>
-      <c r="CC107" s="26">
+      <c r="CC107" s="15">
         <v>209.4245485024245</v>
       </c>
-      <c r="CD107" s="26">
+      <c r="CD107" s="15">
         <v>34.038496154612098</v>
       </c>
-      <c r="CE107" s="26">
+      <c r="CE107" s="15">
         <v>155.14670193539871</v>
       </c>
-      <c r="CF107" s="26">
+      <c r="CF107" s="15">
         <v>188.94122141318144</v>
       </c>
-      <c r="CG107" s="26">
+      <c r="CG107" s="15">
         <v>339.52594029012465</v>
       </c>
-      <c r="CH107" s="26">
+      <c r="CH107" s="15">
         <v>45.704211667877267</v>
       </c>
-      <c r="CI107" s="26">
+      <c r="CI107" s="15">
         <v>239.39921389000588</v>
       </c>
-      <c r="CJ107" s="26">
+      <c r="CJ107" s="15">
         <v>237.94107365014412</v>
       </c>
-      <c r="CK107" s="26">
+      <c r="CK107" s="15">
         <v>405.42110531462663</v>
       </c>
-      <c r="CL107" s="26">
+      <c r="CL107" s="15">
         <v>55.858418008328847</v>
       </c>
-      <c r="CM107" s="9"/>
+      <c r="CM107" s="15">
+        <v>273.11858721955025</v>
+      </c>
       <c r="CN107" s="9"/>
       <c r="CO107" s="9"/>
       <c r="CP107" s="9"/>
@@ -39704,7 +39078,7 @@
       <c r="EW107" s="9"/>
       <c r="EX107" s="9"/>
     </row>
-    <row r="108" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>27</v>
       </c>
@@ -39936,46 +39310,48 @@
       <c r="BY108" s="15">
         <v>85.512846935932956</v>
       </c>
-      <c r="BZ108" s="26">
+      <c r="BZ108" s="15">
         <v>101.17688148515307</v>
       </c>
-      <c r="CA108" s="26">
+      <c r="CA108" s="15">
         <v>98.697347040905086</v>
       </c>
-      <c r="CB108" s="26">
+      <c r="CB108" s="15">
         <v>125.78976637810655</v>
       </c>
-      <c r="CC108" s="26">
+      <c r="CC108" s="15">
         <v>89.745897727032826</v>
       </c>
-      <c r="CD108" s="26">
+      <c r="CD108" s="15">
         <v>109.38693079603901</v>
       </c>
-      <c r="CE108" s="26">
+      <c r="CE108" s="15">
         <v>109.03462127305512</v>
       </c>
-      <c r="CF108" s="26">
+      <c r="CF108" s="15">
         <v>133.88627728814572</v>
       </c>
-      <c r="CG108" s="26">
+      <c r="CG108" s="15">
         <v>103.25620939166022</v>
       </c>
-      <c r="CH108" s="26">
+      <c r="CH108" s="15">
         <v>113.43728500114625</v>
       </c>
-      <c r="CI108" s="26">
+      <c r="CI108" s="15">
         <v>113.57545095979049</v>
       </c>
-      <c r="CJ108" s="26">
+      <c r="CJ108" s="15">
         <v>132.14986574874277</v>
       </c>
-      <c r="CK108" s="26">
+      <c r="CK108" s="15">
         <v>85.007052129596119</v>
       </c>
-      <c r="CL108" s="26">
-        <v>114.83826192642989</v>
-      </c>
-      <c r="CM108" s="9"/>
+      <c r="CL108" s="15">
+        <v>114.83826192642988</v>
+      </c>
+      <c r="CM108" s="15">
+        <v>117.81538229379036</v>
+      </c>
       <c r="CN108" s="9"/>
       <c r="CO108" s="9"/>
       <c r="CP108" s="9"/>
@@ -40040,7 +39416,7 @@
       <c r="EW108" s="9"/>
       <c r="EX108" s="9"/>
     </row>
-    <row r="109" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -40117,19 +39493,19 @@
       <c r="BW109" s="9"/>
       <c r="BX109" s="9"/>
       <c r="BY109" s="9"/>
-      <c r="BZ109" s="22"/>
-      <c r="CA109" s="22"/>
-      <c r="CB109" s="22"/>
-      <c r="CC109" s="22"/>
-      <c r="CD109" s="22"/>
-      <c r="CE109" s="22"/>
-      <c r="CF109" s="22"/>
-      <c r="CG109" s="22"/>
-      <c r="CH109" s="22"/>
-      <c r="CI109" s="22"/>
-      <c r="CJ109" s="22"/>
-      <c r="CK109" s="22"/>
-      <c r="CL109" s="22"/>
+      <c r="BZ109" s="9"/>
+      <c r="CA109" s="9"/>
+      <c r="CB109" s="9"/>
+      <c r="CC109" s="9"/>
+      <c r="CD109" s="9"/>
+      <c r="CE109" s="9"/>
+      <c r="CF109" s="9"/>
+      <c r="CG109" s="9"/>
+      <c r="CH109" s="9"/>
+      <c r="CI109" s="9"/>
+      <c r="CJ109" s="9"/>
+      <c r="CK109" s="9"/>
+      <c r="CL109" s="9"/>
       <c r="CM109" s="9"/>
       <c r="CN109" s="9"/>
       <c r="CO109" s="9"/>
@@ -40195,7 +39571,7 @@
       <c r="EW109" s="9"/>
       <c r="EX109" s="9"/>
     </row>
-    <row r="110" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>15</v>
       </c>
@@ -40427,46 +39803,48 @@
       <c r="BY110" s="15">
         <v>97.097541825645123</v>
       </c>
-      <c r="BZ110" s="26">
+      <c r="BZ110" s="15">
         <v>93.631900978064152</v>
       </c>
-      <c r="CA110" s="26">
+      <c r="CA110" s="15">
         <v>79.465557701717444</v>
       </c>
-      <c r="CB110" s="26">
+      <c r="CB110" s="15">
         <v>128.08734894493617</v>
       </c>
-      <c r="CC110" s="26">
+      <c r="CC110" s="15">
         <v>97.924384895237566</v>
       </c>
-      <c r="CD110" s="26">
+      <c r="CD110" s="15">
         <v>93.421718816837057</v>
       </c>
-      <c r="CE110" s="26">
+      <c r="CE110" s="15">
         <v>72.840688096206975</v>
       </c>
-      <c r="CF110" s="26">
+      <c r="CF110" s="15">
         <v>131.54507497519194</v>
       </c>
-      <c r="CG110" s="26">
+      <c r="CG110" s="15">
         <v>118.81557416516235</v>
       </c>
-      <c r="CH110" s="26">
+      <c r="CH110" s="15">
         <v>115.6539176902661</v>
       </c>
-      <c r="CI110" s="26">
+      <c r="CI110" s="15">
         <v>104.5795735123737</v>
       </c>
-      <c r="CJ110" s="26">
+      <c r="CJ110" s="15">
         <v>176.648370957293</v>
       </c>
-      <c r="CK110" s="26">
+      <c r="CK110" s="15">
         <v>135.87952307445209</v>
       </c>
-      <c r="CL110" s="26">
-        <v>158.22723777490134</v>
-      </c>
-      <c r="CM110" s="9"/>
+      <c r="CL110" s="15">
+        <v>161.81042073115387</v>
+      </c>
+      <c r="CM110" s="15">
+        <v>171.25847331209957</v>
+      </c>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
       <c r="CP110" s="9"/>
@@ -40531,7 +39909,7 @@
       <c r="EW110" s="9"/>
       <c r="EX110" s="9"/>
     </row>
-    <row r="111" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -40609,315 +39987,198 @@
       <c r="BW111" s="13"/>
       <c r="BX111" s="13"/>
       <c r="BY111" s="13"/>
-      <c r="BZ111" s="24"/>
-      <c r="CA111" s="24"/>
-      <c r="CB111" s="24"/>
-      <c r="CC111" s="24"/>
-      <c r="CD111" s="24"/>
-      <c r="CE111" s="24"/>
-      <c r="CF111" s="24"/>
-      <c r="CG111" s="24"/>
-      <c r="CH111" s="24"/>
-      <c r="CI111" s="24"/>
-      <c r="CJ111" s="24"/>
-      <c r="CK111" s="24"/>
-      <c r="CL111" s="24"/>
+      <c r="BZ111" s="13"/>
+      <c r="CA111" s="13"/>
+      <c r="CB111" s="13"/>
+      <c r="CC111" s="13"/>
+      <c r="CD111" s="13"/>
+      <c r="CE111" s="13"/>
+      <c r="CF111" s="13"/>
+      <c r="CG111" s="13"/>
+      <c r="CH111" s="13"/>
+      <c r="CI111" s="13"/>
+      <c r="CJ111" s="13"/>
+      <c r="CK111" s="13"/>
+      <c r="CL111" s="13"/>
+      <c r="CM111" s="13"/>
     </row>
-    <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BZ112" s="19"/>
-      <c r="CA112" s="19"/>
-      <c r="CB112" s="19"/>
-      <c r="CC112" s="19"/>
-      <c r="CD112" s="19"/>
-      <c r="CE112" s="19"/>
-      <c r="CF112" s="19"/>
-      <c r="CG112" s="19"/>
-      <c r="CH112" s="19"/>
-      <c r="CI112" s="19"/>
-      <c r="CJ112" s="19"/>
-      <c r="CK112" s="19"/>
-      <c r="CL112" s="19"/>
     </row>
-    <row r="115" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ115" s="19"/>
-      <c r="CA115" s="19"/>
-      <c r="CB115" s="19"/>
-      <c r="CC115" s="19"/>
-      <c r="CD115" s="19"/>
-      <c r="CE115" s="19"/>
-      <c r="CF115" s="19"/>
-      <c r="CG115" s="19"/>
-      <c r="CH115" s="19"/>
-      <c r="CI115" s="19"/>
-      <c r="CJ115" s="19"/>
-      <c r="CK115" s="19"/>
-      <c r="CL115" s="19"/>
     </row>
-    <row r="116" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BZ116" s="19"/>
-      <c r="CA116" s="19"/>
-      <c r="CB116" s="19"/>
-      <c r="CC116" s="19"/>
-      <c r="CD116" s="19"/>
-      <c r="CE116" s="19"/>
-      <c r="CF116" s="19"/>
-      <c r="CG116" s="19"/>
-      <c r="CH116" s="19"/>
-      <c r="CI116" s="19"/>
-      <c r="CJ116" s="19"/>
-      <c r="CK116" s="19"/>
-      <c r="CL116" s="19"/>
     </row>
-    <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BZ117" s="19"/>
-      <c r="CA117" s="19"/>
-      <c r="CB117" s="19"/>
-      <c r="CC117" s="19"/>
-      <c r="CD117" s="19"/>
-      <c r="CE117" s="19"/>
-      <c r="CF117" s="19"/>
-      <c r="CG117" s="19"/>
-      <c r="CH117" s="19"/>
-      <c r="CI117" s="19"/>
-      <c r="CJ117" s="19"/>
-      <c r="CK117" s="19"/>
-      <c r="CL117" s="19"/>
     </row>
-    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ118" s="19"/>
-      <c r="CA118" s="19"/>
-      <c r="CB118" s="19"/>
-      <c r="CC118" s="19"/>
-      <c r="CD118" s="19"/>
-      <c r="CE118" s="19"/>
-      <c r="CF118" s="19"/>
-      <c r="CG118" s="19"/>
-      <c r="CH118" s="19"/>
-      <c r="CI118" s="19"/>
-      <c r="CJ118" s="19"/>
-      <c r="CK118" s="19"/>
-      <c r="CL118" s="19"/>
-    </row>
-    <row r="119" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="BZ119" s="19"/>
-      <c r="CA119" s="19"/>
-      <c r="CB119" s="19"/>
-      <c r="CC119" s="19"/>
-      <c r="CD119" s="19"/>
-      <c r="CE119" s="19"/>
-      <c r="CF119" s="19"/>
-      <c r="CG119" s="19"/>
-      <c r="CH119" s="19"/>
-      <c r="CI119" s="19"/>
-      <c r="CJ119" s="19"/>
-      <c r="CK119" s="19"/>
-      <c r="CL119" s="19"/>
     </row>
-    <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BZ120" s="19"/>
-      <c r="CA120" s="19"/>
-      <c r="CB120" s="19"/>
-      <c r="CC120" s="19"/>
-      <c r="CD120" s="19"/>
-      <c r="CE120" s="19"/>
-      <c r="CF120" s="19"/>
-      <c r="CG120" s="19"/>
-      <c r="CH120" s="19"/>
-      <c r="CI120" s="19"/>
-      <c r="CJ120" s="19"/>
-      <c r="CK120" s="19"/>
-      <c r="CL120" s="19"/>
     </row>
-    <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BZ121" s="19"/>
-      <c r="CA121" s="19"/>
-      <c r="CB121" s="19"/>
-      <c r="CC121" s="19"/>
-      <c r="CD121" s="19"/>
-      <c r="CE121" s="19"/>
-      <c r="CF121" s="19"/>
-      <c r="CG121" s="19"/>
-      <c r="CH121" s="19"/>
-      <c r="CI121" s="19"/>
-      <c r="CJ121" s="19"/>
-      <c r="CK121" s="19"/>
-      <c r="CL121" s="19"/>
     </row>
-    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ122" s="19"/>
-      <c r="CA122" s="19"/>
-      <c r="CB122" s="19"/>
-      <c r="CC122" s="19"/>
-      <c r="CD122" s="19"/>
-      <c r="CE122" s="19"/>
-      <c r="CF122" s="19"/>
-      <c r="CG122" s="19"/>
-      <c r="CH122" s="19"/>
-      <c r="CI122" s="19"/>
-      <c r="CJ122" s="19"/>
-      <c r="CK122" s="19"/>
-      <c r="CL122" s="19"/>
+    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="24">
+        <v>2000</v>
+      </c>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24">
+        <v>2001</v>
+      </c>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24">
+        <v>2002</v>
+      </c>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="24">
+        <v>2003</v>
+      </c>
+      <c r="O123" s="24"/>
+      <c r="P123" s="24"/>
+      <c r="Q123" s="24"/>
+      <c r="R123" s="24">
+        <v>2004</v>
+      </c>
+      <c r="S123" s="24"/>
+      <c r="T123" s="24"/>
+      <c r="U123" s="24"/>
+      <c r="V123" s="24">
+        <v>2005</v>
+      </c>
+      <c r="W123" s="24"/>
+      <c r="X123" s="24"/>
+      <c r="Y123" s="24"/>
+      <c r="Z123" s="24">
+        <v>2006</v>
+      </c>
+      <c r="AA123" s="24"/>
+      <c r="AB123" s="24"/>
+      <c r="AC123" s="24"/>
+      <c r="AD123" s="24">
+        <v>2007</v>
+      </c>
+      <c r="AE123" s="24"/>
+      <c r="AF123" s="24"/>
+      <c r="AG123" s="24"/>
+      <c r="AH123" s="24">
+        <v>2008</v>
+      </c>
+      <c r="AI123" s="24"/>
+      <c r="AJ123" s="24"/>
+      <c r="AK123" s="24"/>
+      <c r="AL123" s="24">
+        <v>2009</v>
+      </c>
+      <c r="AM123" s="24"/>
+      <c r="AN123" s="24"/>
+      <c r="AO123" s="24"/>
+      <c r="AP123" s="24">
+        <v>2010</v>
+      </c>
+      <c r="AQ123" s="24"/>
+      <c r="AR123" s="24"/>
+      <c r="AS123" s="24"/>
+      <c r="AT123" s="24">
+        <v>2011</v>
+      </c>
+      <c r="AU123" s="24"/>
+      <c r="AV123" s="24"/>
+      <c r="AW123" s="24"/>
+      <c r="AX123" s="24">
+        <v>2012</v>
+      </c>
+      <c r="AY123" s="24"/>
+      <c r="AZ123" s="24"/>
+      <c r="BA123" s="24"/>
+      <c r="BB123" s="24">
+        <v>2013</v>
+      </c>
+      <c r="BC123" s="24"/>
+      <c r="BD123" s="24"/>
+      <c r="BE123" s="24"/>
+      <c r="BF123" s="24">
+        <v>2014</v>
+      </c>
+      <c r="BG123" s="24"/>
+      <c r="BH123" s="24"/>
+      <c r="BI123" s="24"/>
+      <c r="BJ123" s="24">
+        <v>2015</v>
+      </c>
+      <c r="BK123" s="24"/>
+      <c r="BL123" s="24"/>
+      <c r="BM123" s="24"/>
+      <c r="BN123" s="24">
+        <v>2016</v>
+      </c>
+      <c r="BO123" s="24"/>
+      <c r="BP123" s="24"/>
+      <c r="BQ123" s="24"/>
+      <c r="BR123" s="24">
+        <v>2017</v>
+      </c>
+      <c r="BS123" s="24"/>
+      <c r="BT123" s="24"/>
+      <c r="BU123" s="24"/>
+      <c r="BV123" s="24">
+        <v>2018</v>
+      </c>
+      <c r="BW123" s="24"/>
+      <c r="BX123" s="24"/>
+      <c r="BY123" s="24"/>
+      <c r="BZ123" s="24">
+        <v>2019</v>
+      </c>
+      <c r="CA123" s="24"/>
+      <c r="CB123" s="24"/>
+      <c r="CC123" s="24"/>
+      <c r="CD123" s="24">
+        <v>2020</v>
+      </c>
+      <c r="CE123" s="24"/>
+      <c r="CF123" s="24"/>
+      <c r="CG123" s="24"/>
+      <c r="CH123" s="24">
+        <v>2021</v>
+      </c>
+      <c r="CI123" s="24"/>
+      <c r="CJ123" s="24"/>
+      <c r="CK123" s="24"/>
+      <c r="CL123" s="24">
+        <v>2022</v>
+      </c>
+      <c r="CM123" s="24"/>
     </row>
-    <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
-      <c r="B123" s="33">
-        <v>2000</v>
-      </c>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33">
-        <v>2001</v>
-      </c>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
-      <c r="I123" s="33"/>
-      <c r="J123" s="33">
-        <v>2002</v>
-      </c>
-      <c r="K123" s="33"/>
-      <c r="L123" s="33"/>
-      <c r="M123" s="33"/>
-      <c r="N123" s="33">
-        <v>2003</v>
-      </c>
-      <c r="O123" s="33"/>
-      <c r="P123" s="33"/>
-      <c r="Q123" s="33"/>
-      <c r="R123" s="33">
-        <v>2004</v>
-      </c>
-      <c r="S123" s="33"/>
-      <c r="T123" s="33"/>
-      <c r="U123" s="33"/>
-      <c r="V123" s="33">
-        <v>2005</v>
-      </c>
-      <c r="W123" s="33"/>
-      <c r="X123" s="33"/>
-      <c r="Y123" s="33"/>
-      <c r="Z123" s="33">
-        <v>2006</v>
-      </c>
-      <c r="AA123" s="33"/>
-      <c r="AB123" s="33"/>
-      <c r="AC123" s="33"/>
-      <c r="AD123" s="33">
-        <v>2007</v>
-      </c>
-      <c r="AE123" s="33"/>
-      <c r="AF123" s="33"/>
-      <c r="AG123" s="33"/>
-      <c r="AH123" s="33">
-        <v>2008</v>
-      </c>
-      <c r="AI123" s="33"/>
-      <c r="AJ123" s="33"/>
-      <c r="AK123" s="33"/>
-      <c r="AL123" s="33">
-        <v>2009</v>
-      </c>
-      <c r="AM123" s="33"/>
-      <c r="AN123" s="33"/>
-      <c r="AO123" s="33"/>
-      <c r="AP123" s="33">
-        <v>2010</v>
-      </c>
-      <c r="AQ123" s="33"/>
-      <c r="AR123" s="33"/>
-      <c r="AS123" s="33"/>
-      <c r="AT123" s="33">
-        <v>2011</v>
-      </c>
-      <c r="AU123" s="33"/>
-      <c r="AV123" s="33"/>
-      <c r="AW123" s="33"/>
-      <c r="AX123" s="33">
-        <v>2012</v>
-      </c>
-      <c r="AY123" s="33"/>
-      <c r="AZ123" s="33"/>
-      <c r="BA123" s="33"/>
-      <c r="BB123" s="33">
-        <v>2013</v>
-      </c>
-      <c r="BC123" s="33"/>
-      <c r="BD123" s="33"/>
-      <c r="BE123" s="33"/>
-      <c r="BF123" s="33">
-        <v>2014</v>
-      </c>
-      <c r="BG123" s="33"/>
-      <c r="BH123" s="33"/>
-      <c r="BI123" s="33"/>
-      <c r="BJ123" s="33">
-        <v>2015</v>
-      </c>
-      <c r="BK123" s="33"/>
-      <c r="BL123" s="33"/>
-      <c r="BM123" s="33"/>
-      <c r="BN123" s="33">
-        <v>2016</v>
-      </c>
-      <c r="BO123" s="33"/>
-      <c r="BP123" s="33"/>
-      <c r="BQ123" s="33"/>
-      <c r="BR123" s="33">
-        <v>2017</v>
-      </c>
-      <c r="BS123" s="33"/>
-      <c r="BT123" s="33"/>
-      <c r="BU123" s="33"/>
-      <c r="BV123" s="33">
-        <v>2018</v>
-      </c>
-      <c r="BW123" s="33"/>
-      <c r="BX123" s="33"/>
-      <c r="BY123" s="33"/>
-      <c r="BZ123" s="32">
-        <v>2019</v>
-      </c>
-      <c r="CA123" s="32"/>
-      <c r="CB123" s="32"/>
-      <c r="CC123" s="32"/>
-      <c r="CD123" s="32">
-        <v>2020</v>
-      </c>
-      <c r="CE123" s="32"/>
-      <c r="CF123" s="32"/>
-      <c r="CG123" s="32"/>
-      <c r="CH123" s="32">
-        <v>2021</v>
-      </c>
-      <c r="CI123" s="32"/>
-      <c r="CJ123" s="32"/>
-      <c r="CK123" s="32"/>
-      <c r="CL123" s="31">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>4</v>
       </c>
@@ -41149,63 +40410,53 @@
       <c r="BY124" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ124" s="20" t="s">
+      <c r="BZ124" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA124" s="20" t="s">
+      <c r="CA124" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB124" s="20" t="s">
+      <c r="CB124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC124" s="20" t="s">
+      <c r="CC124" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD124" s="20" t="s">
+      <c r="CD124" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE124" s="20" t="s">
+      <c r="CE124" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF124" s="20" t="s">
+      <c r="CF124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG124" s="20" t="s">
+      <c r="CG124" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH124" s="20" t="s">
+      <c r="CH124" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI124" s="20" t="s">
+      <c r="CI124" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ124" s="20" t="s">
+      <c r="CJ124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK124" s="20" t="s">
+      <c r="CK124" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL124" s="20" t="s">
+      <c r="CL124" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM124" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="125" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
-      <c r="BZ125" s="19"/>
-      <c r="CA125" s="19"/>
-      <c r="CB125" s="19"/>
-      <c r="CC125" s="19"/>
-      <c r="CD125" s="19"/>
-      <c r="CE125" s="19"/>
-      <c r="CF125" s="19"/>
-      <c r="CG125" s="19"/>
-      <c r="CH125" s="19"/>
-      <c r="CI125" s="19"/>
-      <c r="CJ125" s="19"/>
-      <c r="CK125" s="19"/>
-      <c r="CL125" s="19"/>
     </row>
-    <row r="126" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
@@ -41437,46 +40688,48 @@
       <c r="BY126" s="18">
         <v>8.8607000813859873</v>
       </c>
-      <c r="BZ126" s="28">
+      <c r="BZ126" s="18">
         <v>10.436439380223113</v>
       </c>
-      <c r="CA126" s="28">
+      <c r="CA126" s="18">
         <v>13.745294627573749</v>
       </c>
-      <c r="CB126" s="28">
+      <c r="CB126" s="18">
         <v>11.577527568676111</v>
       </c>
-      <c r="CC126" s="28">
+      <c r="CC126" s="18">
         <v>5.3555091479599328</v>
       </c>
-      <c r="CD126" s="28">
+      <c r="CD126" s="18">
         <v>7.4063206123286358</v>
       </c>
-      <c r="CE126" s="28">
+      <c r="CE126" s="18">
         <v>12.412882703214677</v>
       </c>
-      <c r="CF126" s="28">
+      <c r="CF126" s="18">
         <v>9.1668757143944966</v>
       </c>
-      <c r="CG126" s="28">
+      <c r="CG126" s="18">
         <v>4.1198011477199099</v>
       </c>
-      <c r="CH126" s="28">
+      <c r="CH126" s="18">
         <v>10.14819330729825</v>
       </c>
-      <c r="CI126" s="28">
+      <c r="CI126" s="18">
         <v>15.245780401256715</v>
       </c>
-      <c r="CJ126" s="28">
+      <c r="CJ126" s="18">
         <v>13.897710793008605</v>
       </c>
-      <c r="CK126" s="28">
+      <c r="CK126" s="18">
         <v>11.48425119329946</v>
       </c>
-      <c r="CL126" s="28">
-        <v>28.863425635901514</v>
-      </c>
-      <c r="CM126" s="9"/>
+      <c r="CL126" s="18">
+        <v>27.40438563395357</v>
+      </c>
+      <c r="CM126" s="18">
+        <v>22.911211559427652</v>
+      </c>
       <c r="CN126" s="9"/>
       <c r="CO126" s="9"/>
       <c r="CP126" s="9"/>
@@ -41541,7 +40794,7 @@
       <c r="EW126" s="9"/>
       <c r="EX126" s="9"/>
     </row>
-    <row r="127" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>12</v>
       </c>
@@ -41773,46 +41026,48 @@
       <c r="BY127" s="18">
         <v>27.978421489813847</v>
       </c>
-      <c r="BZ127" s="28">
+      <c r="BZ127" s="18">
         <v>23.661123921577801</v>
       </c>
-      <c r="CA127" s="28">
+      <c r="CA127" s="18">
         <v>23.951216107055743</v>
       </c>
-      <c r="CB127" s="28">
+      <c r="CB127" s="18">
         <v>18.850034197818552</v>
       </c>
-      <c r="CC127" s="28">
+      <c r="CC127" s="18">
         <v>25.604488094737544</v>
       </c>
-      <c r="CD127" s="28">
+      <c r="CD127" s="18">
         <v>17.968959091390431</v>
       </c>
-      <c r="CE127" s="28">
+      <c r="CE127" s="18">
         <v>14.55301468592029</v>
       </c>
-      <c r="CF127" s="28">
+      <c r="CF127" s="18">
         <v>13.545822733159108</v>
       </c>
-      <c r="CG127" s="28">
+      <c r="CG127" s="18">
         <v>19.370739350973142</v>
       </c>
-      <c r="CH127" s="28">
+      <c r="CH127" s="18">
         <v>18.177650287659731</v>
       </c>
-      <c r="CI127" s="28">
+      <c r="CI127" s="18">
         <v>15.999312507205055</v>
       </c>
-      <c r="CJ127" s="28">
+      <c r="CJ127" s="18">
         <v>18.715823472834607</v>
       </c>
-      <c r="CK127" s="28">
+      <c r="CK127" s="18">
         <v>23.113844011249448</v>
       </c>
-      <c r="CL127" s="28">
-        <v>16.047264634890986</v>
-      </c>
-      <c r="CM127" s="9"/>
+      <c r="CL127" s="18">
+        <v>16.098071438444279</v>
+      </c>
+      <c r="CM127" s="18">
+        <v>21.502733020821793</v>
+      </c>
       <c r="CN127" s="9"/>
       <c r="CO127" s="9"/>
       <c r="CP127" s="9"/>
@@ -41877,7 +41132,7 @@
       <c r="EW127" s="9"/>
       <c r="EX127" s="9"/>
     </row>
-    <row r="128" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>28</v>
       </c>
@@ -42109,46 +41364,48 @@
       <c r="BY128" s="18">
         <v>14.316834374495398</v>
       </c>
-      <c r="BZ128" s="28">
+      <c r="BZ128" s="18">
         <v>16.776283169386833</v>
       </c>
-      <c r="CA128" s="28">
+      <c r="CA128" s="18">
         <v>16.035526835343884</v>
       </c>
-      <c r="CB128" s="28">
+      <c r="CB128" s="18">
         <v>18.461554651819402</v>
       </c>
-      <c r="CC128" s="28">
+      <c r="CC128" s="18">
         <v>15.295525607754021</v>
       </c>
-      <c r="CD128" s="28">
+      <c r="CD128" s="18">
         <v>19.864938179406479</v>
       </c>
-      <c r="CE128" s="28">
+      <c r="CE128" s="18">
         <v>25.257102045769013</v>
       </c>
-      <c r="CF128" s="28">
+      <c r="CF128" s="18">
         <v>27.464526650899124</v>
       </c>
-      <c r="CG128" s="28">
+      <c r="CG128" s="18">
         <v>21.730978044227172</v>
       </c>
-      <c r="CH128" s="28">
+      <c r="CH128" s="18">
         <v>19.161133838948533</v>
       </c>
-      <c r="CI128" s="28">
+      <c r="CI128" s="18">
         <v>20.894895860520698</v>
       </c>
-      <c r="CJ128" s="28">
+      <c r="CJ128" s="18">
         <v>20.127055422919788</v>
       </c>
-      <c r="CK128" s="28">
+      <c r="CK128" s="18">
         <v>19.38265064774086</v>
       </c>
-      <c r="CL128" s="28">
-        <v>15.143178806543769</v>
-      </c>
-      <c r="CM128" s="9"/>
+      <c r="CL128" s="18">
+        <v>14.469546026823348</v>
+      </c>
+      <c r="CM128" s="18">
+        <v>18.932840284509009</v>
+      </c>
       <c r="CN128" s="9"/>
       <c r="CO128" s="9"/>
       <c r="CP128" s="9"/>
@@ -42213,7 +41470,7 @@
       <c r="EW128" s="9"/>
       <c r="EX128" s="9"/>
     </row>
-    <row r="129" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>13</v>
       </c>
@@ -42445,46 +41702,48 @@
       <c r="BY129" s="18">
         <v>2.4966289243623319</v>
       </c>
-      <c r="BZ129" s="28">
+      <c r="BZ129" s="18">
         <v>10.270777033101472</v>
       </c>
-      <c r="CA129" s="28">
+      <c r="CA129" s="18">
         <v>17.65209287319815</v>
       </c>
-      <c r="CB129" s="28">
+      <c r="CB129" s="18">
         <v>16.354618879082548</v>
       </c>
-      <c r="CC129" s="28">
+      <c r="CC129" s="18">
         <v>4.3637392605729435</v>
       </c>
-      <c r="CD129" s="28">
+      <c r="CD129" s="18">
         <v>11.238572561372399</v>
       </c>
-      <c r="CE129" s="28">
+      <c r="CE129" s="18">
         <v>23.28225737297074</v>
       </c>
-      <c r="CF129" s="28">
+      <c r="CF129" s="18">
         <v>17.516715633738965</v>
       </c>
-      <c r="CG129" s="28">
+      <c r="CG129" s="18">
         <v>7.5119437841836083</v>
       </c>
-      <c r="CH129" s="28">
+      <c r="CH129" s="18">
         <v>20.039971875211656</v>
       </c>
-      <c r="CI129" s="28">
+      <c r="CI129" s="18">
         <v>26.973562723301349</v>
       </c>
-      <c r="CJ129" s="28">
+      <c r="CJ129" s="18">
         <v>19.415382105610497</v>
       </c>
-      <c r="CK129" s="28">
+      <c r="CK129" s="18">
         <v>6.0774733340867053</v>
       </c>
-      <c r="CL129" s="28">
-        <v>14.369631681322915</v>
-      </c>
-      <c r="CM129" s="9"/>
+      <c r="CL129" s="18">
+        <v>17.91037233253779</v>
+      </c>
+      <c r="CM129" s="18">
+        <v>19.027052555215942</v>
+      </c>
       <c r="CN129" s="9"/>
       <c r="CO129" s="9"/>
       <c r="CP129" s="9"/>
@@ -42549,7 +41808,7 @@
       <c r="EW129" s="9"/>
       <c r="EX129" s="9"/>
     </row>
-    <row r="130" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>14</v>
       </c>
@@ -42781,46 +42040,48 @@
       <c r="BY130" s="18">
         <v>7.957887162984199</v>
       </c>
-      <c r="BZ130" s="28">
+      <c r="BZ130" s="18">
         <v>6.2546264693130915</v>
       </c>
-      <c r="CA130" s="28">
+      <c r="CA130" s="18">
         <v>5.6916638885776543</v>
       </c>
-      <c r="CB130" s="28">
+      <c r="CB130" s="18">
         <v>6.363119147184773</v>
       </c>
-      <c r="CC130" s="28">
+      <c r="CC130" s="18">
         <v>7.1600321042987689</v>
       </c>
-      <c r="CD130" s="28">
+      <c r="CD130" s="18">
         <v>4.1178168251931178</v>
       </c>
-      <c r="CE130" s="28">
+      <c r="CE130" s="18">
         <v>5.6086054244573926</v>
       </c>
-      <c r="CF130" s="28">
+      <c r="CF130" s="18">
         <v>6.9166855999681687</v>
       </c>
-      <c r="CG130" s="28">
+      <c r="CG130" s="18">
         <v>8.8920963783510807</v>
       </c>
-      <c r="CH130" s="28">
+      <c r="CH130" s="18">
         <v>2.942337595112281</v>
       </c>
-      <c r="CI130" s="28">
+      <c r="CI130" s="18">
         <v>4.4245122861980333</v>
       </c>
-      <c r="CJ130" s="28">
+      <c r="CJ130" s="18">
         <v>6.0067491502186074</v>
       </c>
-      <c r="CK130" s="28">
+      <c r="CK130" s="18">
         <v>9.7125949665359332</v>
       </c>
-      <c r="CL130" s="28">
-        <v>3.596060210720823</v>
-      </c>
-      <c r="CM130" s="9"/>
+      <c r="CL130" s="18">
+        <v>3.4198915372313476</v>
+      </c>
+      <c r="CM130" s="18">
+        <v>4.6008040038971645</v>
+      </c>
       <c r="CN130" s="9"/>
       <c r="CO130" s="9"/>
       <c r="CP130" s="9"/>
@@ -42885,7 +42146,7 @@
       <c r="EW130" s="9"/>
       <c r="EX130" s="9"/>
     </row>
-    <row r="131" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>27</v>
       </c>
@@ -43117,46 +42378,48 @@
       <c r="BY131" s="18">
         <v>38.389527966958248</v>
       </c>
-      <c r="BZ131" s="28">
+      <c r="BZ131" s="18">
         <v>32.600750026397698</v>
       </c>
-      <c r="CA131" s="28">
+      <c r="CA131" s="18">
         <v>22.924205668250824</v>
       </c>
-      <c r="CB131" s="28">
+      <c r="CB131" s="18">
         <v>28.393145555418592</v>
       </c>
-      <c r="CC131" s="28">
+      <c r="CC131" s="18">
         <v>42.220705784676795</v>
       </c>
-      <c r="CD131" s="28">
+      <c r="CD131" s="18">
         <v>39.403392730308937</v>
       </c>
-      <c r="CE131" s="28">
+      <c r="CE131" s="18">
         <v>18.886137767667883</v>
       </c>
-      <c r="CF131" s="28">
+      <c r="CF131" s="18">
         <v>25.389373667840122</v>
       </c>
-      <c r="CG131" s="28">
+      <c r="CG131" s="18">
         <v>38.3744412945451</v>
       </c>
-      <c r="CH131" s="28">
+      <c r="CH131" s="18">
         <v>29.530713095769546</v>
       </c>
-      <c r="CI131" s="28">
+      <c r="CI131" s="18">
         <v>16.461936221518137</v>
       </c>
-      <c r="CJ131" s="28">
+      <c r="CJ131" s="18">
         <v>21.837279055407905</v>
       </c>
-      <c r="CK131" s="28">
+      <c r="CK131" s="18">
         <v>30.229185847087585</v>
       </c>
-      <c r="CL131" s="28">
-        <v>21.980439030619998</v>
-      </c>
-      <c r="CM131" s="9"/>
+      <c r="CL131" s="18">
+        <v>20.697733031009658</v>
+      </c>
+      <c r="CM131" s="18">
+        <v>13.025358576128438</v>
+      </c>
       <c r="CN131" s="9"/>
       <c r="CO131" s="9"/>
       <c r="CP131" s="9"/>
@@ -43221,7 +42484,7 @@
       <c r="EW131" s="9"/>
       <c r="EX131" s="9"/>
     </row>
-    <row r="132" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
@@ -43298,19 +42561,19 @@
       <c r="BW132" s="9"/>
       <c r="BX132" s="9"/>
       <c r="BY132" s="9"/>
-      <c r="BZ132" s="22"/>
-      <c r="CA132" s="22"/>
-      <c r="CB132" s="22"/>
-      <c r="CC132" s="22"/>
-      <c r="CD132" s="22"/>
-      <c r="CE132" s="22"/>
-      <c r="CF132" s="22"/>
-      <c r="CG132" s="22"/>
-      <c r="CH132" s="22"/>
-      <c r="CI132" s="22"/>
-      <c r="CJ132" s="22"/>
-      <c r="CK132" s="22"/>
-      <c r="CL132" s="22"/>
+      <c r="BZ132" s="9"/>
+      <c r="CA132" s="9"/>
+      <c r="CB132" s="9"/>
+      <c r="CC132" s="9"/>
+      <c r="CD132" s="9"/>
+      <c r="CE132" s="9"/>
+      <c r="CF132" s="9"/>
+      <c r="CG132" s="9"/>
+      <c r="CH132" s="9"/>
+      <c r="CI132" s="9"/>
+      <c r="CJ132" s="9"/>
+      <c r="CK132" s="9"/>
+      <c r="CL132" s="9"/>
       <c r="CM132" s="9"/>
       <c r="CN132" s="9"/>
       <c r="CO132" s="9"/>
@@ -43376,7 +42639,7 @@
       <c r="EW132" s="9"/>
       <c r="EX132" s="9"/>
     </row>
-    <row r="133" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>15</v>
       </c>
@@ -43608,46 +42871,48 @@
       <c r="BY133" s="18">
         <v>100</v>
       </c>
-      <c r="BZ133" s="28">
+      <c r="BZ133" s="18">
         <v>100</v>
       </c>
-      <c r="CA133" s="28">
+      <c r="CA133" s="18">
         <v>100</v>
       </c>
-      <c r="CB133" s="28">
+      <c r="CB133" s="18">
         <v>100</v>
       </c>
-      <c r="CC133" s="28">
+      <c r="CC133" s="18">
         <v>100</v>
       </c>
-      <c r="CD133" s="28">
+      <c r="CD133" s="18">
         <v>100</v>
       </c>
-      <c r="CE133" s="28">
+      <c r="CE133" s="18">
         <v>100</v>
       </c>
-      <c r="CF133" s="28">
+      <c r="CF133" s="18">
         <v>100</v>
       </c>
-      <c r="CG133" s="28">
+      <c r="CG133" s="18">
         <v>100</v>
       </c>
-      <c r="CH133" s="28">
+      <c r="CH133" s="18">
         <v>100</v>
       </c>
-      <c r="CI133" s="28">
+      <c r="CI133" s="18">
         <v>100</v>
       </c>
-      <c r="CJ133" s="28">
+      <c r="CJ133" s="18">
         <v>100</v>
       </c>
-      <c r="CK133" s="28">
+      <c r="CK133" s="18">
         <v>100</v>
       </c>
-      <c r="CL133" s="28">
+      <c r="CL133" s="18">
         <v>100</v>
       </c>
-      <c r="CM133" s="9"/>
+      <c r="CM133" s="18">
+        <v>100</v>
+      </c>
       <c r="CN133" s="9"/>
       <c r="CO133" s="9"/>
       <c r="CP133" s="9"/>
@@ -43712,7 +42977,7 @@
       <c r="EW133" s="9"/>
       <c r="EX133" s="9"/>
     </row>
-    <row r="134" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -43790,39 +43055,27 @@
       <c r="BW134" s="13"/>
       <c r="BX134" s="13"/>
       <c r="BY134" s="13"/>
-      <c r="BZ134" s="24"/>
-      <c r="CA134" s="24"/>
-      <c r="CB134" s="24"/>
-      <c r="CC134" s="24"/>
-      <c r="CD134" s="24"/>
-      <c r="CE134" s="24"/>
-      <c r="CF134" s="24"/>
-      <c r="CG134" s="24"/>
-      <c r="CH134" s="24"/>
-      <c r="CI134" s="24"/>
-      <c r="CJ134" s="24"/>
-      <c r="CK134" s="24"/>
-      <c r="CL134" s="24"/>
+      <c r="BZ134" s="13"/>
+      <c r="CA134" s="13"/>
+      <c r="CB134" s="13"/>
+      <c r="CC134" s="13"/>
+      <c r="CD134" s="13"/>
+      <c r="CE134" s="13"/>
+      <c r="CF134" s="13"/>
+      <c r="CG134" s="13"/>
+      <c r="CH134" s="13"/>
+      <c r="CI134" s="13"/>
+      <c r="CJ134" s="13"/>
+      <c r="CK134" s="13"/>
+      <c r="CL134" s="13"/>
+      <c r="CM134" s="13"/>
     </row>
-    <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BZ135" s="19"/>
-      <c r="CA135" s="19"/>
-      <c r="CB135" s="19"/>
-      <c r="CC135" s="19"/>
-      <c r="CD135" s="19"/>
-      <c r="CE135" s="19"/>
-      <c r="CF135" s="19"/>
-      <c r="CG135" s="19"/>
-      <c r="CH135" s="19"/>
-      <c r="CI135" s="19"/>
-      <c r="CJ135" s="19"/>
-      <c r="CK135" s="19"/>
-      <c r="CL135" s="19"/>
     </row>
-    <row r="136" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -43899,19 +43152,19 @@
       <c r="BW136" s="9"/>
       <c r="BX136" s="9"/>
       <c r="BY136" s="9"/>
-      <c r="BZ136" s="22"/>
-      <c r="CA136" s="22"/>
-      <c r="CB136" s="22"/>
-      <c r="CC136" s="22"/>
-      <c r="CD136" s="22"/>
-      <c r="CE136" s="22"/>
-      <c r="CF136" s="22"/>
-      <c r="CG136" s="22"/>
-      <c r="CH136" s="22"/>
-      <c r="CI136" s="22"/>
-      <c r="CJ136" s="22"/>
-      <c r="CK136" s="22"/>
-      <c r="CL136" s="22"/>
+      <c r="BZ136" s="9"/>
+      <c r="CA136" s="9"/>
+      <c r="CB136" s="9"/>
+      <c r="CC136" s="9"/>
+      <c r="CD136" s="9"/>
+      <c r="CE136" s="9"/>
+      <c r="CF136" s="9"/>
+      <c r="CG136" s="9"/>
+      <c r="CH136" s="9"/>
+      <c r="CI136" s="9"/>
+      <c r="CJ136" s="9"/>
+      <c r="CK136" s="9"/>
+      <c r="CL136" s="9"/>
       <c r="CM136" s="9"/>
       <c r="CN136" s="9"/>
       <c r="CO136" s="9"/>
@@ -43977,7 +43230,7 @@
       <c r="EW136" s="9"/>
       <c r="EX136" s="9"/>
     </row>
-    <row r="137" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -44054,19 +43307,19 @@
       <c r="BW137" s="9"/>
       <c r="BX137" s="9"/>
       <c r="BY137" s="9"/>
-      <c r="BZ137" s="22"/>
-      <c r="CA137" s="22"/>
-      <c r="CB137" s="22"/>
-      <c r="CC137" s="22"/>
-      <c r="CD137" s="22"/>
-      <c r="CE137" s="22"/>
-      <c r="CF137" s="22"/>
-      <c r="CG137" s="22"/>
-      <c r="CH137" s="22"/>
-      <c r="CI137" s="22"/>
-      <c r="CJ137" s="22"/>
-      <c r="CK137" s="22"/>
-      <c r="CL137" s="22"/>
+      <c r="BZ137" s="9"/>
+      <c r="CA137" s="9"/>
+      <c r="CB137" s="9"/>
+      <c r="CC137" s="9"/>
+      <c r="CD137" s="9"/>
+      <c r="CE137" s="9"/>
+      <c r="CF137" s="9"/>
+      <c r="CG137" s="9"/>
+      <c r="CH137" s="9"/>
+      <c r="CI137" s="9"/>
+      <c r="CJ137" s="9"/>
+      <c r="CK137" s="9"/>
+      <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
       <c r="CN137" s="9"/>
       <c r="CO137" s="9"/>
@@ -44132,283 +43385,178 @@
       <c r="EW137" s="9"/>
       <c r="EX137" s="9"/>
     </row>
-    <row r="138" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ138" s="19"/>
-      <c r="CA138" s="19"/>
-      <c r="CB138" s="19"/>
-      <c r="CC138" s="19"/>
-      <c r="CD138" s="19"/>
-      <c r="CE138" s="19"/>
-      <c r="CF138" s="19"/>
-      <c r="CG138" s="19"/>
-      <c r="CH138" s="19"/>
-      <c r="CI138" s="19"/>
-      <c r="CJ138" s="19"/>
-      <c r="CK138" s="19"/>
-      <c r="CL138" s="19"/>
     </row>
-    <row r="139" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BZ139" s="19"/>
-      <c r="CA139" s="19"/>
-      <c r="CB139" s="19"/>
-      <c r="CC139" s="19"/>
-      <c r="CD139" s="19"/>
-      <c r="CE139" s="19"/>
-      <c r="CF139" s="19"/>
-      <c r="CG139" s="19"/>
-      <c r="CH139" s="19"/>
-      <c r="CI139" s="19"/>
-      <c r="CJ139" s="19"/>
-      <c r="CK139" s="19"/>
-      <c r="CL139" s="19"/>
     </row>
-    <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BZ140" s="19"/>
-      <c r="CA140" s="19"/>
-      <c r="CB140" s="19"/>
-      <c r="CC140" s="19"/>
-      <c r="CD140" s="19"/>
-      <c r="CE140" s="19"/>
-      <c r="CF140" s="19"/>
-      <c r="CG140" s="19"/>
-      <c r="CH140" s="19"/>
-      <c r="CI140" s="19"/>
-      <c r="CJ140" s="19"/>
-      <c r="CK140" s="19"/>
-      <c r="CL140" s="19"/>
     </row>
-    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ141" s="19"/>
-      <c r="CA141" s="19"/>
-      <c r="CB141" s="19"/>
-      <c r="CC141" s="19"/>
-      <c r="CD141" s="19"/>
-      <c r="CE141" s="19"/>
-      <c r="CF141" s="19"/>
-      <c r="CG141" s="19"/>
-      <c r="CH141" s="19"/>
-      <c r="CI141" s="19"/>
-      <c r="CJ141" s="19"/>
-      <c r="CK141" s="19"/>
-      <c r="CL141" s="19"/>
-    </row>
-    <row r="142" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="BZ142" s="19"/>
-      <c r="CA142" s="19"/>
-      <c r="CB142" s="19"/>
-      <c r="CC142" s="19"/>
-      <c r="CD142" s="19"/>
-      <c r="CE142" s="19"/>
-      <c r="CF142" s="19"/>
-      <c r="CG142" s="19"/>
-      <c r="CH142" s="19"/>
-      <c r="CI142" s="19"/>
-      <c r="CJ142" s="19"/>
-      <c r="CK142" s="19"/>
-      <c r="CL142" s="19"/>
     </row>
-    <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BZ143" s="19"/>
-      <c r="CA143" s="19"/>
-      <c r="CB143" s="19"/>
-      <c r="CC143" s="19"/>
-      <c r="CD143" s="19"/>
-      <c r="CE143" s="19"/>
-      <c r="CF143" s="19"/>
-      <c r="CG143" s="19"/>
-      <c r="CH143" s="19"/>
-      <c r="CI143" s="19"/>
-      <c r="CJ143" s="19"/>
-      <c r="CK143" s="19"/>
-      <c r="CL143" s="19"/>
     </row>
-    <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="BZ144" s="19"/>
-      <c r="CA144" s="19"/>
-      <c r="CB144" s="19"/>
-      <c r="CC144" s="19"/>
-      <c r="CD144" s="19"/>
-      <c r="CE144" s="19"/>
-      <c r="CF144" s="19"/>
-      <c r="CG144" s="19"/>
-      <c r="CH144" s="19"/>
-      <c r="CI144" s="19"/>
-      <c r="CJ144" s="19"/>
-      <c r="CK144" s="19"/>
-      <c r="CL144" s="19"/>
     </row>
-    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ145" s="19"/>
-      <c r="CA145" s="19"/>
-      <c r="CB145" s="19"/>
-      <c r="CC145" s="19"/>
-      <c r="CD145" s="19"/>
-      <c r="CE145" s="19"/>
-      <c r="CF145" s="19"/>
-      <c r="CG145" s="19"/>
-      <c r="CH145" s="19"/>
-      <c r="CI145" s="19"/>
-      <c r="CJ145" s="19"/>
-      <c r="CK145" s="19"/>
-      <c r="CL145" s="19"/>
+    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="24">
+        <v>2000</v>
+      </c>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="24">
+        <v>2001</v>
+      </c>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="24"/>
+      <c r="J146" s="24">
+        <v>2002</v>
+      </c>
+      <c r="K146" s="24"/>
+      <c r="L146" s="24"/>
+      <c r="M146" s="24"/>
+      <c r="N146" s="24">
+        <v>2003</v>
+      </c>
+      <c r="O146" s="24"/>
+      <c r="P146" s="24"/>
+      <c r="Q146" s="24"/>
+      <c r="R146" s="24">
+        <v>2004</v>
+      </c>
+      <c r="S146" s="24"/>
+      <c r="T146" s="24"/>
+      <c r="U146" s="24"/>
+      <c r="V146" s="24">
+        <v>2005</v>
+      </c>
+      <c r="W146" s="24"/>
+      <c r="X146" s="24"/>
+      <c r="Y146" s="24"/>
+      <c r="Z146" s="24">
+        <v>2006</v>
+      </c>
+      <c r="AA146" s="24"/>
+      <c r="AB146" s="24"/>
+      <c r="AC146" s="24"/>
+      <c r="AD146" s="24">
+        <v>2007</v>
+      </c>
+      <c r="AE146" s="24"/>
+      <c r="AF146" s="24"/>
+      <c r="AG146" s="24"/>
+      <c r="AH146" s="24">
+        <v>2008</v>
+      </c>
+      <c r="AI146" s="24"/>
+      <c r="AJ146" s="24"/>
+      <c r="AK146" s="24"/>
+      <c r="AL146" s="24">
+        <v>2009</v>
+      </c>
+      <c r="AM146" s="24"/>
+      <c r="AN146" s="24"/>
+      <c r="AO146" s="24"/>
+      <c r="AP146" s="24">
+        <v>2010</v>
+      </c>
+      <c r="AQ146" s="24"/>
+      <c r="AR146" s="24"/>
+      <c r="AS146" s="24"/>
+      <c r="AT146" s="24">
+        <v>2011</v>
+      </c>
+      <c r="AU146" s="24"/>
+      <c r="AV146" s="24"/>
+      <c r="AW146" s="24"/>
+      <c r="AX146" s="24">
+        <v>2012</v>
+      </c>
+      <c r="AY146" s="24"/>
+      <c r="AZ146" s="24"/>
+      <c r="BA146" s="24"/>
+      <c r="BB146" s="24">
+        <v>2013</v>
+      </c>
+      <c r="BC146" s="24"/>
+      <c r="BD146" s="24"/>
+      <c r="BE146" s="24"/>
+      <c r="BF146" s="24">
+        <v>2014</v>
+      </c>
+      <c r="BG146" s="24"/>
+      <c r="BH146" s="24"/>
+      <c r="BI146" s="24"/>
+      <c r="BJ146" s="24">
+        <v>2015</v>
+      </c>
+      <c r="BK146" s="24"/>
+      <c r="BL146" s="24"/>
+      <c r="BM146" s="24"/>
+      <c r="BN146" s="24">
+        <v>2016</v>
+      </c>
+      <c r="BO146" s="24"/>
+      <c r="BP146" s="24"/>
+      <c r="BQ146" s="24"/>
+      <c r="BR146" s="24">
+        <v>2017</v>
+      </c>
+      <c r="BS146" s="24"/>
+      <c r="BT146" s="24"/>
+      <c r="BU146" s="24"/>
+      <c r="BV146" s="24">
+        <v>2018</v>
+      </c>
+      <c r="BW146" s="24"/>
+      <c r="BX146" s="24"/>
+      <c r="BY146" s="24"/>
+      <c r="BZ146" s="24">
+        <v>2019</v>
+      </c>
+      <c r="CA146" s="24"/>
+      <c r="CB146" s="24"/>
+      <c r="CC146" s="24"/>
+      <c r="CD146" s="24">
+        <v>2020</v>
+      </c>
+      <c r="CE146" s="24"/>
+      <c r="CF146" s="24"/>
+      <c r="CG146" s="24"/>
+      <c r="CH146" s="24">
+        <v>2021</v>
+      </c>
+      <c r="CI146" s="24"/>
+      <c r="CJ146" s="24"/>
+      <c r="CK146" s="24"/>
+      <c r="CL146" s="24">
+        <v>2022</v>
+      </c>
+      <c r="CM146" s="24"/>
     </row>
-    <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="4"/>
-      <c r="B146" s="33">
-        <v>2000</v>
-      </c>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33">
-        <v>2001</v>
-      </c>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
-      <c r="I146" s="33"/>
-      <c r="J146" s="33">
-        <v>2002</v>
-      </c>
-      <c r="K146" s="33"/>
-      <c r="L146" s="33"/>
-      <c r="M146" s="33"/>
-      <c r="N146" s="33">
-        <v>2003</v>
-      </c>
-      <c r="O146" s="33"/>
-      <c r="P146" s="33"/>
-      <c r="Q146" s="33"/>
-      <c r="R146" s="33">
-        <v>2004</v>
-      </c>
-      <c r="S146" s="33"/>
-      <c r="T146" s="33"/>
-      <c r="U146" s="33"/>
-      <c r="V146" s="33">
-        <v>2005</v>
-      </c>
-      <c r="W146" s="33"/>
-      <c r="X146" s="33"/>
-      <c r="Y146" s="33"/>
-      <c r="Z146" s="33">
-        <v>2006</v>
-      </c>
-      <c r="AA146" s="33"/>
-      <c r="AB146" s="33"/>
-      <c r="AC146" s="33"/>
-      <c r="AD146" s="33">
-        <v>2007</v>
-      </c>
-      <c r="AE146" s="33"/>
-      <c r="AF146" s="33"/>
-      <c r="AG146" s="33"/>
-      <c r="AH146" s="33">
-        <v>2008</v>
-      </c>
-      <c r="AI146" s="33"/>
-      <c r="AJ146" s="33"/>
-      <c r="AK146" s="33"/>
-      <c r="AL146" s="33">
-        <v>2009</v>
-      </c>
-      <c r="AM146" s="33"/>
-      <c r="AN146" s="33"/>
-      <c r="AO146" s="33"/>
-      <c r="AP146" s="33">
-        <v>2010</v>
-      </c>
-      <c r="AQ146" s="33"/>
-      <c r="AR146" s="33"/>
-      <c r="AS146" s="33"/>
-      <c r="AT146" s="33">
-        <v>2011</v>
-      </c>
-      <c r="AU146" s="33"/>
-      <c r="AV146" s="33"/>
-      <c r="AW146" s="33"/>
-      <c r="AX146" s="33">
-        <v>2012</v>
-      </c>
-      <c r="AY146" s="33"/>
-      <c r="AZ146" s="33"/>
-      <c r="BA146" s="33"/>
-      <c r="BB146" s="33">
-        <v>2013</v>
-      </c>
-      <c r="BC146" s="33"/>
-      <c r="BD146" s="33"/>
-      <c r="BE146" s="33"/>
-      <c r="BF146" s="33">
-        <v>2014</v>
-      </c>
-      <c r="BG146" s="33"/>
-      <c r="BH146" s="33"/>
-      <c r="BI146" s="33"/>
-      <c r="BJ146" s="33">
-        <v>2015</v>
-      </c>
-      <c r="BK146" s="33"/>
-      <c r="BL146" s="33"/>
-      <c r="BM146" s="33"/>
-      <c r="BN146" s="33">
-        <v>2016</v>
-      </c>
-      <c r="BO146" s="33"/>
-      <c r="BP146" s="33"/>
-      <c r="BQ146" s="33"/>
-      <c r="BR146" s="33">
-        <v>2017</v>
-      </c>
-      <c r="BS146" s="33"/>
-      <c r="BT146" s="33"/>
-      <c r="BU146" s="33"/>
-      <c r="BV146" s="33">
-        <v>2018</v>
-      </c>
-      <c r="BW146" s="33"/>
-      <c r="BX146" s="33"/>
-      <c r="BY146" s="33"/>
-      <c r="BZ146" s="32">
-        <v>2019</v>
-      </c>
-      <c r="CA146" s="32"/>
-      <c r="CB146" s="32"/>
-      <c r="CC146" s="32"/>
-      <c r="CD146" s="32">
-        <v>2020</v>
-      </c>
-      <c r="CE146" s="32"/>
-      <c r="CF146" s="32"/>
-      <c r="CG146" s="32"/>
-      <c r="CH146" s="32">
-        <v>2021</v>
-      </c>
-      <c r="CI146" s="32"/>
-      <c r="CJ146" s="32"/>
-      <c r="CK146" s="32"/>
-      <c r="CL146" s="31">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>4</v>
       </c>
@@ -44640,63 +43788,53 @@
       <c r="BY147" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ147" s="20" t="s">
+      <c r="BZ147" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA147" s="20" t="s">
+      <c r="CA147" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB147" s="20" t="s">
+      <c r="CB147" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC147" s="20" t="s">
+      <c r="CC147" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD147" s="20" t="s">
+      <c r="CD147" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE147" s="20" t="s">
+      <c r="CE147" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF147" s="20" t="s">
+      <c r="CF147" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG147" s="20" t="s">
+      <c r="CG147" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH147" s="20" t="s">
+      <c r="CH147" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI147" s="20" t="s">
+      <c r="CI147" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ147" s="20" t="s">
+      <c r="CJ147" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK147" s="20" t="s">
+      <c r="CK147" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL147" s="20" t="s">
+      <c r="CL147" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM147" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="148" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
-      <c r="BZ148" s="19"/>
-      <c r="CA148" s="19"/>
-      <c r="CB148" s="19"/>
-      <c r="CC148" s="19"/>
-      <c r="CD148" s="19"/>
-      <c r="CE148" s="19"/>
-      <c r="CF148" s="19"/>
-      <c r="CG148" s="19"/>
-      <c r="CH148" s="19"/>
-      <c r="CI148" s="19"/>
-      <c r="CJ148" s="19"/>
-      <c r="CK148" s="19"/>
-      <c r="CL148" s="19"/>
     </row>
-    <row r="149" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>11</v>
       </c>
@@ -44928,46 +44066,48 @@
       <c r="BY149" s="18">
         <v>15.005747241548919</v>
       </c>
-      <c r="BZ149" s="28">
+      <c r="BZ149" s="18">
         <v>14.533056273421488</v>
       </c>
-      <c r="CA149" s="28">
+      <c r="CA149" s="18">
         <v>14.417843802641899</v>
       </c>
-      <c r="CB149" s="28">
+      <c r="CB149" s="18">
         <v>11.674245860828337</v>
       </c>
-      <c r="CC149" s="28">
+      <c r="CC149" s="18">
         <v>14.067042547666148</v>
       </c>
-      <c r="CD149" s="28">
+      <c r="CD149" s="18">
         <v>14.445877731474324</v>
       </c>
-      <c r="CE149" s="28">
+      <c r="CE149" s="18">
         <v>18.39953187332166</v>
       </c>
-      <c r="CF149" s="28">
+      <c r="CF149" s="18">
         <v>12.380225716360998</v>
       </c>
-      <c r="CG149" s="28">
+      <c r="CG149" s="18">
         <v>11.948848044097506</v>
       </c>
-      <c r="CH149" s="28">
+      <c r="CH149" s="18">
         <v>20.113321486704592</v>
       </c>
-      <c r="CI149" s="28">
+      <c r="CI149" s="18">
         <v>17.188342786228695</v>
       </c>
-      <c r="CJ149" s="28">
+      <c r="CJ149" s="18">
         <v>7.2675853352336004</v>
       </c>
-      <c r="CK149" s="28">
+      <c r="CK149" s="18">
         <v>12.686242771389647</v>
       </c>
-      <c r="CL149" s="28">
-        <v>25.548801170694535</v>
-      </c>
-      <c r="CM149" s="9"/>
+      <c r="CL149" s="18">
+        <v>24.806641113623577</v>
+      </c>
+      <c r="CM149" s="18">
+        <v>14.705145316058395</v>
+      </c>
       <c r="CN149" s="9"/>
       <c r="CO149" s="9"/>
       <c r="CP149" s="9"/>
@@ -45032,7 +44172,7 @@
       <c r="EW149" s="9"/>
       <c r="EX149" s="9"/>
     </row>
-    <row r="150" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>12</v>
       </c>
@@ -45264,46 +44404,48 @@
       <c r="BY150" s="18">
         <v>20.371917021714328</v>
       </c>
-      <c r="BZ150" s="28">
+      <c r="BZ150" s="18">
         <v>17.049202188985884</v>
       </c>
-      <c r="CA150" s="28">
+      <c r="CA150" s="18">
         <v>35.305626975865366</v>
       </c>
-      <c r="CB150" s="28">
+      <c r="CB150" s="18">
         <v>16.593208506133365</v>
       </c>
-      <c r="CC150" s="28">
+      <c r="CC150" s="18">
         <v>20.30367574576443</v>
       </c>
-      <c r="CD150" s="28">
+      <c r="CD150" s="18">
         <v>18.908994235720389</v>
       </c>
-      <c r="CE150" s="28">
+      <c r="CE150" s="18">
         <v>35.826244889620057</v>
       </c>
-      <c r="CF150" s="28">
+      <c r="CF150" s="18">
         <v>16.300257728736593</v>
       </c>
-      <c r="CG150" s="28">
+      <c r="CG150" s="18">
         <v>20.400955977280084</v>
       </c>
-      <c r="CH150" s="28">
+      <c r="CH150" s="18">
         <v>14.988541688614932</v>
       </c>
-      <c r="CI150" s="28">
+      <c r="CI150" s="18">
         <v>30.301541483970933</v>
       </c>
-      <c r="CJ150" s="28">
+      <c r="CJ150" s="18">
         <v>14.431336435869122</v>
       </c>
-      <c r="CK150" s="28">
+      <c r="CK150" s="18">
         <v>14.189638651300248</v>
       </c>
-      <c r="CL150" s="28">
-        <v>12.125725655496398</v>
-      </c>
-      <c r="CM150" s="9"/>
+      <c r="CL150" s="18">
+        <v>12.452788400963076</v>
+      </c>
+      <c r="CM150" s="18">
+        <v>29.158318012443658</v>
+      </c>
       <c r="CN150" s="9"/>
       <c r="CO150" s="9"/>
       <c r="CP150" s="9"/>
@@ -45368,7 +44510,7 @@
       <c r="EW150" s="9"/>
       <c r="EX150" s="9"/>
     </row>
-    <row r="151" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>28</v>
       </c>
@@ -45600,46 +44742,48 @@
       <c r="BY151" s="18">
         <v>14.911288013437449</v>
       </c>
-      <c r="BZ151" s="28">
+      <c r="BZ151" s="18">
         <v>15.674047640498504</v>
       </c>
-      <c r="CA151" s="28">
+      <c r="CA151" s="18">
         <v>12.547991856527888</v>
       </c>
-      <c r="CB151" s="28">
+      <c r="CB151" s="18">
         <v>18.315867131932233</v>
       </c>
-      <c r="CC151" s="28">
+      <c r="CC151" s="18">
         <v>13.045954415898908</v>
       </c>
-      <c r="CD151" s="28">
+      <c r="CD151" s="18">
         <v>13.110222226617211</v>
       </c>
-      <c r="CE151" s="28">
+      <c r="CE151" s="18">
         <v>11.440667182058679</v>
       </c>
-      <c r="CF151" s="28">
+      <c r="CF151" s="18">
         <v>17.849620009883893</v>
       </c>
-      <c r="CG151" s="28">
+      <c r="CG151" s="18">
         <v>14.788268767731008</v>
       </c>
-      <c r="CH151" s="28">
+      <c r="CH151" s="18">
         <v>13.701721751831114</v>
       </c>
-      <c r="CI151" s="28">
+      <c r="CI151" s="18">
         <v>13.043234101608045</v>
       </c>
-      <c r="CJ151" s="28">
+      <c r="CJ151" s="18">
         <v>19.882890785409565</v>
       </c>
-      <c r="CK151" s="28">
+      <c r="CK151" s="18">
         <v>17.307784631858677</v>
       </c>
-      <c r="CL151" s="28">
-        <v>14.068789255679977</v>
-      </c>
-      <c r="CM151" s="9"/>
+      <c r="CL151" s="18">
+        <v>13.747052413596519</v>
+      </c>
+      <c r="CM151" s="18">
+        <v>18.819387264138477</v>
+      </c>
       <c r="CN151" s="9"/>
       <c r="CO151" s="9"/>
       <c r="CP151" s="9"/>
@@ -45704,7 +44848,7 @@
       <c r="EW151" s="9"/>
       <c r="EX151" s="9"/>
     </row>
-    <row r="152" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>13</v>
       </c>
@@ -45936,46 +45080,48 @@
       <c r="BY152" s="18">
         <v>2.3375323652053299</v>
       </c>
-      <c r="BZ152" s="28">
+      <c r="BZ152" s="18">
         <v>8.3254834924918377</v>
       </c>
-      <c r="CA152" s="28">
+      <c r="CA152" s="18">
         <v>16.857205422905906</v>
       </c>
-      <c r="CB152" s="28">
+      <c r="CB152" s="18">
         <v>18.715241612276618</v>
       </c>
-      <c r="CC152" s="28">
+      <c r="CC152" s="18">
         <v>3.1671307868009855</v>
       </c>
-      <c r="CD152" s="28">
+      <c r="CD152" s="18">
         <v>8.5807872796767359</v>
       </c>
-      <c r="CE152" s="28">
+      <c r="CE152" s="18">
         <v>19.083437419089087</v>
       </c>
-      <c r="CF152" s="28">
+      <c r="CF152" s="18">
         <v>23.708944002454228</v>
       </c>
-      <c r="CG152" s="28">
+      <c r="CG152" s="18">
         <v>5.5932087449652217</v>
       </c>
-      <c r="CH152" s="28">
+      <c r="CH152" s="18">
         <v>13.643106798818186</v>
       </c>
-      <c r="CI152" s="28">
+      <c r="CI152" s="18">
         <v>22.376020739913301</v>
       </c>
-      <c r="CJ152" s="28">
+      <c r="CJ152" s="18">
         <v>24.768260398672567</v>
       </c>
-      <c r="CK152" s="28">
+      <c r="CK152" s="18">
         <v>4.2412521754587287</v>
       </c>
-      <c r="CL152" s="28">
-        <v>7.785072530293176</v>
-      </c>
-      <c r="CM152" s="9"/>
+      <c r="CL152" s="18">
+        <v>9.9230888832657413</v>
+      </c>
+      <c r="CM152" s="18">
+        <v>15.498338242603996</v>
+      </c>
       <c r="CN152" s="9"/>
       <c r="CO152" s="9"/>
       <c r="CP152" s="9"/>
@@ -46040,7 +45186,7 @@
       <c r="EW152" s="9"/>
       <c r="EX152" s="9"/>
     </row>
-    <row r="153" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>14</v>
       </c>
@@ -46272,46 +45418,48 @@
       <c r="BY153" s="18">
         <v>3.7832370431736049</v>
       </c>
-      <c r="BZ153" s="28">
+      <c r="BZ153" s="18">
         <v>14.248569341587134</v>
       </c>
-      <c r="CA153" s="28">
+      <c r="CA153" s="18">
         <v>2.4140497261405445</v>
       </c>
-      <c r="CB153" s="28">
+      <c r="CB153" s="18">
         <v>5.7896831975987704</v>
       </c>
-      <c r="CC153" s="28">
+      <c r="CC153" s="18">
         <v>3.3479443773779622</v>
       </c>
-      <c r="CD153" s="28">
+      <c r="CD153" s="18">
         <v>11.301719201549023</v>
       </c>
-      <c r="CE153" s="28">
+      <c r="CE153" s="18">
         <v>2.6332153586333051</v>
       </c>
-      <c r="CF153" s="28">
+      <c r="CF153" s="18">
         <v>4.8155501431736134</v>
       </c>
-      <c r="CG153" s="28">
+      <c r="CG153" s="18">
         <v>3.1117490929351357</v>
       </c>
-      <c r="CH153" s="28">
+      <c r="CH153" s="18">
         <v>7.4455473056821706</v>
       </c>
-      <c r="CI153" s="28">
+      <c r="CI153" s="18">
         <v>1.9328117263720246</v>
       </c>
-      <c r="CJ153" s="28">
+      <c r="CJ153" s="18">
         <v>4.4594337407058191</v>
       </c>
-      <c r="CK153" s="28">
+      <c r="CK153" s="18">
         <v>3.2552394400978248</v>
       </c>
-      <c r="CL153" s="28">
-        <v>10.186372874536918</v>
-      </c>
-      <c r="CM153" s="9"/>
+      <c r="CL153" s="18">
+        <v>9.9067268323246367</v>
+      </c>
+      <c r="CM153" s="18">
+        <v>2.8849251079430833</v>
+      </c>
       <c r="CN153" s="9"/>
       <c r="CO153" s="9"/>
       <c r="CP153" s="9"/>
@@ -46376,7 +45524,7 @@
       <c r="EW153" s="9"/>
       <c r="EX153" s="9"/>
     </row>
-    <row r="154" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>27</v>
       </c>
@@ -46608,46 +45756,48 @@
       <c r="BY154" s="18">
         <v>43.590278314920354</v>
       </c>
-      <c r="BZ154" s="28">
+      <c r="BZ154" s="18">
         <v>30.169641063015153</v>
       </c>
-      <c r="CA154" s="28">
+      <c r="CA154" s="18">
         <v>18.457282215918401</v>
       </c>
-      <c r="CB154" s="28">
+      <c r="CB154" s="18">
         <v>28.911753691230661</v>
       </c>
-      <c r="CC154" s="28">
+      <c r="CC154" s="18">
         <v>46.068252126491558</v>
       </c>
-      <c r="CD154" s="28">
+      <c r="CD154" s="18">
         <v>33.652399324962317</v>
       </c>
-      <c r="CE154" s="28">
+      <c r="CE154" s="18">
         <v>12.616903277277231</v>
       </c>
-      <c r="CF154" s="28">
+      <c r="CF154" s="18">
         <v>24.945402399390655</v>
       </c>
-      <c r="CG154" s="28">
+      <c r="CG154" s="18">
         <v>44.15696937299105</v>
       </c>
-      <c r="CH154" s="28">
+      <c r="CH154" s="18">
         <v>30.107760968349012</v>
       </c>
-      <c r="CI154" s="28">
+      <c r="CI154" s="18">
         <v>15.158049161907011</v>
       </c>
-      <c r="CJ154" s="28">
+      <c r="CJ154" s="18">
         <v>29.190493304109317</v>
       </c>
-      <c r="CK154" s="28">
+      <c r="CK154" s="18">
         <v>48.319842329894868</v>
       </c>
-      <c r="CL154" s="28">
-        <v>30.285238513298996</v>
-      </c>
-      <c r="CM154" s="9"/>
+      <c r="CL154" s="18">
+        <v>29.163702356226452</v>
+      </c>
+      <c r="CM154" s="18">
+        <v>18.933886056812394</v>
+      </c>
       <c r="CN154" s="9"/>
       <c r="CO154" s="9"/>
       <c r="CP154" s="9"/>
@@ -46712,7 +45862,7 @@
       <c r="EW154" s="9"/>
       <c r="EX154" s="9"/>
     </row>
-    <row r="155" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -46789,19 +45939,19 @@
       <c r="BW155" s="9"/>
       <c r="BX155" s="9"/>
       <c r="BY155" s="9"/>
-      <c r="BZ155" s="22"/>
-      <c r="CA155" s="22"/>
-      <c r="CB155" s="22"/>
-      <c r="CC155" s="22"/>
-      <c r="CD155" s="22"/>
-      <c r="CE155" s="22"/>
-      <c r="CF155" s="22"/>
-      <c r="CG155" s="22"/>
-      <c r="CH155" s="22"/>
-      <c r="CI155" s="22"/>
-      <c r="CJ155" s="22"/>
-      <c r="CK155" s="22"/>
-      <c r="CL155" s="22"/>
+      <c r="BZ155" s="9"/>
+      <c r="CA155" s="9"/>
+      <c r="CB155" s="9"/>
+      <c r="CC155" s="9"/>
+      <c r="CD155" s="9"/>
+      <c r="CE155" s="9"/>
+      <c r="CF155" s="9"/>
+      <c r="CG155" s="9"/>
+      <c r="CH155" s="9"/>
+      <c r="CI155" s="9"/>
+      <c r="CJ155" s="9"/>
+      <c r="CK155" s="9"/>
+      <c r="CL155" s="9"/>
       <c r="CM155" s="9"/>
       <c r="CN155" s="9"/>
       <c r="CO155" s="9"/>
@@ -46867,7 +46017,7 @@
       <c r="EW155" s="9"/>
       <c r="EX155" s="9"/>
     </row>
-    <row r="156" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>15</v>
       </c>
@@ -47099,46 +46249,48 @@
       <c r="BY156" s="18">
         <v>100</v>
       </c>
-      <c r="BZ156" s="28">
+      <c r="BZ156" s="18">
         <v>100</v>
       </c>
-      <c r="CA156" s="28">
+      <c r="CA156" s="18">
         <v>100</v>
       </c>
-      <c r="CB156" s="28">
+      <c r="CB156" s="18">
         <v>100</v>
       </c>
-      <c r="CC156" s="28">
+      <c r="CC156" s="18">
         <v>100</v>
       </c>
-      <c r="CD156" s="28">
+      <c r="CD156" s="18">
         <v>100</v>
       </c>
-      <c r="CE156" s="28">
+      <c r="CE156" s="18">
         <v>100</v>
       </c>
-      <c r="CF156" s="28">
+      <c r="CF156" s="18">
         <v>100</v>
       </c>
-      <c r="CG156" s="28">
+      <c r="CG156" s="18">
         <v>100</v>
       </c>
-      <c r="CH156" s="28">
+      <c r="CH156" s="18">
         <v>100</v>
       </c>
-      <c r="CI156" s="28">
+      <c r="CI156" s="18">
         <v>100</v>
       </c>
-      <c r="CJ156" s="28">
+      <c r="CJ156" s="18">
         <v>100</v>
       </c>
-      <c r="CK156" s="28">
+      <c r="CK156" s="18">
         <v>100</v>
       </c>
-      <c r="CL156" s="28">
+      <c r="CL156" s="18">
         <v>100</v>
       </c>
-      <c r="CM156" s="9"/>
+      <c r="CM156" s="18">
+        <v>100</v>
+      </c>
       <c r="CN156" s="9"/>
       <c r="CO156" s="9"/>
       <c r="CP156" s="9"/>
@@ -47203,7 +46355,7 @@
       <c r="EW156" s="9"/>
       <c r="EX156" s="9"/>
     </row>
-    <row r="157" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -47281,39 +46433,27 @@
       <c r="BW157" s="13"/>
       <c r="BX157" s="13"/>
       <c r="BY157" s="13"/>
-      <c r="BZ157" s="24"/>
-      <c r="CA157" s="24"/>
-      <c r="CB157" s="24"/>
-      <c r="CC157" s="24"/>
-      <c r="CD157" s="24"/>
-      <c r="CE157" s="24"/>
-      <c r="CF157" s="24"/>
-      <c r="CG157" s="24"/>
-      <c r="CH157" s="24"/>
-      <c r="CI157" s="24"/>
-      <c r="CJ157" s="24"/>
-      <c r="CK157" s="24"/>
-      <c r="CL157" s="24"/>
+      <c r="BZ157" s="13"/>
+      <c r="CA157" s="13"/>
+      <c r="CB157" s="13"/>
+      <c r="CC157" s="13"/>
+      <c r="CD157" s="13"/>
+      <c r="CE157" s="13"/>
+      <c r="CF157" s="13"/>
+      <c r="CG157" s="13"/>
+      <c r="CH157" s="13"/>
+      <c r="CI157" s="13"/>
+      <c r="CJ157" s="13"/>
+      <c r="CK157" s="13"/>
+      <c r="CL157" s="13"/>
+      <c r="CM157" s="13"/>
     </row>
-    <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="BZ158" s="19"/>
-      <c r="CA158" s="19"/>
-      <c r="CB158" s="19"/>
-      <c r="CC158" s="19"/>
-      <c r="CD158" s="19"/>
-      <c r="CE158" s="19"/>
-      <c r="CF158" s="19"/>
-      <c r="CG158" s="19"/>
-      <c r="CH158" s="19"/>
-      <c r="CI158" s="19"/>
-      <c r="CJ158" s="19"/>
-      <c r="CK158" s="19"/>
-      <c r="CL158" s="19"/>
     </row>
-    <row r="159" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -47386,12 +46526,6 @@
       <c r="BS159" s="9"/>
       <c r="BT159" s="9"/>
       <c r="BU159" s="9"/>
-      <c r="CH159" s="22"/>
-      <c r="CI159" s="22"/>
-      <c r="CJ159" s="22"/>
-      <c r="CK159" s="22"/>
-      <c r="CL159" s="22"/>
-      <c r="CM159" s="9"/>
       <c r="CN159" s="9"/>
       <c r="CO159" s="9"/>
       <c r="CP159" s="9"/>
@@ -47451,7 +46585,7 @@
       <c r="ER159" s="9"/>
       <c r="ES159" s="9"/>
     </row>
-    <row r="160" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -47524,12 +46658,6 @@
       <c r="BS160" s="9"/>
       <c r="BT160" s="9"/>
       <c r="BU160" s="9"/>
-      <c r="CH160" s="22"/>
-      <c r="CI160" s="22"/>
-      <c r="CJ160" s="22"/>
-      <c r="CK160" s="22"/>
-      <c r="CL160" s="22"/>
-      <c r="CM160" s="9"/>
       <c r="CN160" s="9"/>
       <c r="CO160" s="9"/>
       <c r="CP160" s="9"/>
@@ -47589,102 +46717,58 @@
       <c r="ER160" s="9"/>
       <c r="ES160" s="9"/>
     </row>
-    <row r="161" spans="86:90" x14ac:dyDescent="0.2">
-      <c r="CH161" s="19"/>
-      <c r="CI161" s="19"/>
-      <c r="CJ161" s="19"/>
-      <c r="CK161" s="19"/>
-      <c r="CL161" s="19"/>
-    </row>
-    <row r="162" spans="86:90" x14ac:dyDescent="0.2">
-      <c r="CH162" s="19"/>
-      <c r="CI162" s="19"/>
-      <c r="CJ162" s="19"/>
-      <c r="CK162" s="19"/>
-      <c r="CL162" s="19"/>
-    </row>
-    <row r="163" spans="86:90" x14ac:dyDescent="0.2">
-      <c r="CH163" s="19"/>
-      <c r="CI163" s="19"/>
-      <c r="CJ163" s="19"/>
-      <c r="CK163" s="19"/>
-      <c r="CL163" s="19"/>
-    </row>
   </sheetData>
-  <mergeCells count="152">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH32:CK32"/>
-    <mergeCell ref="CD55:CG55"/>
-    <mergeCell ref="CD78:CG78"/>
-    <mergeCell ref="CH100:CK100"/>
-    <mergeCell ref="CH123:CK123"/>
-    <mergeCell ref="CH146:CK146"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="J123:M123"/>
-    <mergeCell ref="N123:Q123"/>
-    <mergeCell ref="R123:U123"/>
-    <mergeCell ref="BF146:BI146"/>
-    <mergeCell ref="BJ146:BM146"/>
-    <mergeCell ref="BN146:BQ146"/>
-    <mergeCell ref="BJ123:BM123"/>
-    <mergeCell ref="BN123:BQ123"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="J146:M146"/>
-    <mergeCell ref="N146:Q146"/>
-    <mergeCell ref="R146:U146"/>
-    <mergeCell ref="V146:Y146"/>
-    <mergeCell ref="Z146:AC146"/>
-    <mergeCell ref="BN100:BQ100"/>
-    <mergeCell ref="AL100:AO100"/>
-    <mergeCell ref="AP100:AS100"/>
-    <mergeCell ref="AT100:AW100"/>
-    <mergeCell ref="AD146:AG146"/>
-    <mergeCell ref="AH146:AK146"/>
-    <mergeCell ref="AL146:AO146"/>
-    <mergeCell ref="AP146:AS146"/>
-    <mergeCell ref="AT146:AW146"/>
-    <mergeCell ref="AX146:BA146"/>
-    <mergeCell ref="BB146:BE146"/>
-    <mergeCell ref="BF123:BI123"/>
-    <mergeCell ref="V100:Y100"/>
-    <mergeCell ref="Z100:AC100"/>
-    <mergeCell ref="AD100:AG100"/>
-    <mergeCell ref="AH100:AK100"/>
-    <mergeCell ref="AX100:BA100"/>
-    <mergeCell ref="BB100:BE100"/>
-    <mergeCell ref="BF100:BI100"/>
-    <mergeCell ref="BJ100:BM100"/>
-    <mergeCell ref="V123:Y123"/>
-    <mergeCell ref="Z123:AC123"/>
-    <mergeCell ref="AD123:AG123"/>
-    <mergeCell ref="AH123:AK123"/>
-    <mergeCell ref="AL123:AO123"/>
-    <mergeCell ref="AP123:AS123"/>
-    <mergeCell ref="AT123:AW123"/>
-    <mergeCell ref="AX123:BA123"/>
-    <mergeCell ref="BB123:BE123"/>
-    <mergeCell ref="BF55:BI55"/>
-    <mergeCell ref="BJ55:BM55"/>
-    <mergeCell ref="BN55:BQ55"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="V78:Y78"/>
-    <mergeCell ref="Z78:AC78"/>
-    <mergeCell ref="AD78:AG78"/>
-    <mergeCell ref="AH78:AK78"/>
-    <mergeCell ref="AL78:AO78"/>
-    <mergeCell ref="AP78:AS78"/>
-    <mergeCell ref="AT78:AW78"/>
-    <mergeCell ref="AX78:BA78"/>
-    <mergeCell ref="BJ78:BM78"/>
-    <mergeCell ref="BN78:BQ78"/>
-    <mergeCell ref="BB78:BE78"/>
-    <mergeCell ref="BF78:BI78"/>
+  <mergeCells count="159">
+    <mergeCell ref="BR32:BU32"/>
+    <mergeCell ref="BV78:BY78"/>
+    <mergeCell ref="BZ146:CC146"/>
+    <mergeCell ref="BZ100:CC100"/>
+    <mergeCell ref="BZ123:CC123"/>
+    <mergeCell ref="BR123:BU123"/>
+    <mergeCell ref="BV123:BY123"/>
+    <mergeCell ref="BV146:BY146"/>
+    <mergeCell ref="BR55:BU55"/>
+    <mergeCell ref="BV55:BY55"/>
+    <mergeCell ref="BR146:BU146"/>
+    <mergeCell ref="BR100:BU100"/>
+    <mergeCell ref="BV100:BY100"/>
+    <mergeCell ref="BR78:BU78"/>
+    <mergeCell ref="BV32:BY32"/>
+    <mergeCell ref="BZ32:CC32"/>
+    <mergeCell ref="BZ55:CC55"/>
+    <mergeCell ref="BZ78:CC78"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BB32:BE32"/>
+    <mergeCell ref="BF32:BI32"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="Z32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AH32:AK32"/>
+    <mergeCell ref="AL32:AO32"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:U32"/>
     <mergeCell ref="B100:E100"/>
     <mergeCell ref="F100:I100"/>
     <mergeCell ref="J100:M100"/>
@@ -47709,118 +46793,118 @@
     <mergeCell ref="AP32:AS32"/>
     <mergeCell ref="AT32:AW32"/>
     <mergeCell ref="AX32:BA32"/>
-    <mergeCell ref="BB32:BE32"/>
-    <mergeCell ref="BF32:BI32"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="Z32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AH32:AK32"/>
-    <mergeCell ref="AL32:AO32"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BF55:BI55"/>
+    <mergeCell ref="BJ55:BM55"/>
+    <mergeCell ref="BN55:BQ55"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="V78:Y78"/>
+    <mergeCell ref="Z78:AC78"/>
+    <mergeCell ref="AD78:AG78"/>
+    <mergeCell ref="AH78:AK78"/>
+    <mergeCell ref="AL78:AO78"/>
+    <mergeCell ref="AP78:AS78"/>
+    <mergeCell ref="AT78:AW78"/>
+    <mergeCell ref="AX78:BA78"/>
+    <mergeCell ref="BJ78:BM78"/>
+    <mergeCell ref="BN78:BQ78"/>
+    <mergeCell ref="BB78:BE78"/>
+    <mergeCell ref="BF78:BI78"/>
+    <mergeCell ref="V100:Y100"/>
+    <mergeCell ref="Z100:AC100"/>
+    <mergeCell ref="AD100:AG100"/>
+    <mergeCell ref="AH100:AK100"/>
+    <mergeCell ref="AX100:BA100"/>
+    <mergeCell ref="BB100:BE100"/>
+    <mergeCell ref="BF100:BI100"/>
+    <mergeCell ref="BJ100:BM100"/>
+    <mergeCell ref="V123:Y123"/>
+    <mergeCell ref="Z123:AC123"/>
+    <mergeCell ref="AD123:AG123"/>
+    <mergeCell ref="AH123:AK123"/>
+    <mergeCell ref="AL123:AO123"/>
+    <mergeCell ref="AP123:AS123"/>
+    <mergeCell ref="AT123:AW123"/>
+    <mergeCell ref="AX123:BA123"/>
+    <mergeCell ref="BB123:BE123"/>
+    <mergeCell ref="BN100:BQ100"/>
+    <mergeCell ref="AL100:AO100"/>
+    <mergeCell ref="AP100:AS100"/>
+    <mergeCell ref="AT100:AW100"/>
+    <mergeCell ref="AD146:AG146"/>
+    <mergeCell ref="AH146:AK146"/>
+    <mergeCell ref="AL146:AO146"/>
+    <mergeCell ref="AP146:AS146"/>
+    <mergeCell ref="AT146:AW146"/>
+    <mergeCell ref="AX146:BA146"/>
+    <mergeCell ref="BB146:BE146"/>
+    <mergeCell ref="BF123:BI123"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="J123:M123"/>
+    <mergeCell ref="N123:Q123"/>
+    <mergeCell ref="R123:U123"/>
+    <mergeCell ref="BF146:BI146"/>
+    <mergeCell ref="BJ146:BM146"/>
+    <mergeCell ref="BN146:BQ146"/>
+    <mergeCell ref="BJ123:BM123"/>
+    <mergeCell ref="BN123:BQ123"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="J146:M146"/>
+    <mergeCell ref="N146:Q146"/>
+    <mergeCell ref="R146:U146"/>
+    <mergeCell ref="V146:Y146"/>
+    <mergeCell ref="Z146:AC146"/>
+    <mergeCell ref="CD55:CG55"/>
+    <mergeCell ref="CD78:CG78"/>
+    <mergeCell ref="CH100:CK100"/>
+    <mergeCell ref="CH123:CK123"/>
+    <mergeCell ref="CH146:CK146"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD146:CG146"/>
     <mergeCell ref="CD123:CG123"/>
     <mergeCell ref="CD100:CG100"/>
     <mergeCell ref="CD32:CG32"/>
-    <mergeCell ref="BR32:BU32"/>
-    <mergeCell ref="BV78:BY78"/>
-    <mergeCell ref="BZ146:CC146"/>
-    <mergeCell ref="BZ100:CC100"/>
-    <mergeCell ref="BZ123:CC123"/>
-    <mergeCell ref="BR123:BU123"/>
-    <mergeCell ref="BV123:BY123"/>
-    <mergeCell ref="BV146:BY146"/>
-    <mergeCell ref="BR55:BU55"/>
-    <mergeCell ref="BV55:BY55"/>
-    <mergeCell ref="BR146:BU146"/>
-    <mergeCell ref="BR100:BU100"/>
-    <mergeCell ref="BV100:BY100"/>
-    <mergeCell ref="BR78:BU78"/>
-    <mergeCell ref="BV32:BY32"/>
-    <mergeCell ref="BZ32:CC32"/>
-    <mergeCell ref="BZ55:CC55"/>
-    <mergeCell ref="BZ78:CC78"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CL32:CM32"/>
+    <mergeCell ref="CH55:CI55"/>
+    <mergeCell ref="CH78:CI78"/>
+    <mergeCell ref="CL100:CM100"/>
+    <mergeCell ref="CL123:CM123"/>
+    <mergeCell ref="CL146:CM146"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH32:CK32"/>
   </mergeCells>
   <conditionalFormatting sqref="BR58:BU65 BR81:BU88 BR103:BU110">
-    <cfRule type="cellIs" dxfId="18" priority="65" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="77" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV58:BY65 BV81:BY88 BV103:BY110">
-    <cfRule type="cellIs" dxfId="17" priority="43" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="55" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA103:CE110">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ103:BZ110">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ58:CC65">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ81:CC88">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CF103:CG110">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD58:CG65">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD81:CG88">
+  <conditionalFormatting sqref="BZ58:CG65 BZ81:CG88 BZ103:CG110">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH103:CI110 CL103:CL110">
+  <conditionalFormatting sqref="CH103:CI110 CL103:CM110">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI58:CJ65 CL58:CL65">
+  <conditionalFormatting sqref="CM58:CM65">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI81:CJ88 CL81:CL88">
+  <conditionalFormatting sqref="CM81:CM88">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -47830,12 +46914,12 @@
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH58:CH65">
+  <conditionalFormatting sqref="CH58:CL65">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH81:CH88">
+  <conditionalFormatting sqref="CH81:CL88">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -47845,9 +46929,9 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="89" man="1"/>
-    <brk id="92" max="89" man="1"/>
-    <brk id="114" max="89" man="1"/>
+    <brk id="46" max="90" man="1"/>
+    <brk id="92" max="90" man="1"/>
+    <brk id="114" max="90" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="56" max="159" man="1"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28C2200-0F87-4B07-87F4-C45E2AA92A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36B1203-527F-4560-961C-8DF9CF9521F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="3" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CM$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CN$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -633,13 +633,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -647,9 +647,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -734,11 +734,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -753,32 +753,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -793,14 +787,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{34C9E4EF-4E1D-4A0A-AFE2-00CAF31CAADD}"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -23699,188 +23686,189 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CV25" sqref="CV25"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="91" width="8" style="10" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="10"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="92" width="8" style="10" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="24">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="24"/>
-      <c r="BB9" s="24">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="24">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="24"/>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="24"/>
-      <c r="BJ9" s="24">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="24"/>
-      <c r="BL9" s="24"/>
-      <c r="BM9" s="24"/>
-      <c r="BN9" s="24">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="24"/>
-      <c r="BP9" s="24"/>
-      <c r="BQ9" s="24"/>
-      <c r="BR9" s="24">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="24"/>
-      <c r="BT9" s="24"/>
-      <c r="BU9" s="24"/>
-      <c r="BV9" s="24">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="24"/>
-      <c r="BX9" s="24"/>
-      <c r="BY9" s="24"/>
-      <c r="BZ9" s="24">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="24"/>
-      <c r="CB9" s="24"/>
-      <c r="CC9" s="24"/>
-      <c r="CD9" s="24">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="24"/>
-      <c r="CF9" s="24"/>
-      <c r="CG9" s="24"/>
-      <c r="CH9" s="24">
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="24"/>
-      <c r="CJ9" s="24"/>
-      <c r="CK9" s="24"/>
-      <c r="CL9" s="24">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="24"/>
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
     </row>
-    <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24154,11 +24142,14 @@
       <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24414,25 +24405,27 @@
       <c r="CG12" s="8">
         <v>1526.2165795598621</v>
       </c>
-      <c r="CH12" s="20">
+      <c r="CH12" s="19">
         <v>4298.6669128508729</v>
       </c>
-      <c r="CI12" s="20">
+      <c r="CI12" s="19">
         <v>7398.8928434943109</v>
       </c>
-      <c r="CJ12" s="20">
+      <c r="CJ12" s="19">
         <v>6602.5674383594614</v>
       </c>
-      <c r="CK12" s="20">
+      <c r="CK12" s="19">
         <v>5384.5076081224979</v>
       </c>
-      <c r="CL12" s="20">
+      <c r="CL12" s="19">
         <v>19537.629570868998</v>
       </c>
-      <c r="CM12" s="20">
+      <c r="CM12" s="19">
         <v>16882.3451577101</v>
       </c>
-      <c r="CN12" s="9"/>
+      <c r="CN12" s="19">
+        <v>28070.984609148534</v>
+      </c>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
@@ -24496,7 +24489,7 @@
       <c r="EW12" s="9"/>
       <c r="EX12" s="9"/>
     </row>
-    <row r="13" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24752,25 +24745,27 @@
       <c r="CG13" s="8">
         <v>7176.0608086994489</v>
       </c>
-      <c r="CH13" s="20">
+      <c r="CH13" s="19">
         <v>7699.8596182378133</v>
       </c>
-      <c r="CI13" s="20">
+      <c r="CI13" s="19">
         <v>7764.587688842129</v>
       </c>
-      <c r="CJ13" s="20">
+      <c r="CJ13" s="19">
         <v>8891.5713159023253</v>
       </c>
-      <c r="CK13" s="20">
+      <c r="CK13" s="19">
         <v>10837.160110547225</v>
       </c>
-      <c r="CL13" s="20">
+      <c r="CL13" s="19">
         <v>11476.927845447768</v>
       </c>
-      <c r="CM13" s="20">
+      <c r="CM13" s="19">
         <v>15844.494288309581</v>
       </c>
-      <c r="CN13" s="9"/>
+      <c r="CN13" s="19">
+        <v>14097.565080717592</v>
+      </c>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
@@ -24834,7 +24829,7 @@
       <c r="EW13" s="9"/>
       <c r="EX13" s="9"/>
     </row>
-    <row r="14" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -25090,25 +25085,27 @@
       <c r="CG14" s="8">
         <v>8050.431997065336</v>
       </c>
-      <c r="CH14" s="20">
+      <c r="CH14" s="19">
         <v>8116.4528061324354</v>
       </c>
-      <c r="CI14" s="20">
+      <c r="CI14" s="19">
         <v>10140.451415345182</v>
       </c>
-      <c r="CJ14" s="20">
+      <c r="CJ14" s="19">
         <v>9562.0237566231626</v>
       </c>
-      <c r="CK14" s="20">
+      <c r="CK14" s="19">
         <v>9087.7522723670445</v>
       </c>
-      <c r="CL14" s="20">
+      <c r="CL14" s="19">
         <v>10315.890095359502</v>
       </c>
-      <c r="CM14" s="20">
-        <v>13950.844269837649</v>
-      </c>
-      <c r="CN14" s="9"/>
+      <c r="CM14" s="19">
+        <v>13997.514375807717</v>
+      </c>
+      <c r="CN14" s="19">
+        <v>11226.39194756233</v>
+      </c>
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
@@ -25172,7 +25169,7 @@
       <c r="EW14" s="9"/>
       <c r="EX14" s="9"/>
     </row>
-    <row r="15" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -25428,25 +25425,27 @@
       <c r="CG15" s="8">
         <v>2782.8656619720246</v>
       </c>
-      <c r="CH15" s="20">
+      <c r="CH15" s="19">
         <v>8488.7192651800997</v>
       </c>
-      <c r="CI15" s="20">
+      <c r="CI15" s="19">
         <v>13090.474540780364</v>
       </c>
-      <c r="CJ15" s="20">
+      <c r="CJ15" s="19">
         <v>9223.919795359312</v>
       </c>
-      <c r="CK15" s="20">
+      <c r="CK15" s="19">
         <v>2849.4849907710618</v>
       </c>
-      <c r="CL15" s="20">
+      <c r="CL15" s="19">
         <v>12768.986131763944</v>
       </c>
-      <c r="CM15" s="20">
-        <v>14020.265481720771</v>
-      </c>
-      <c r="CN15" s="9"/>
+      <c r="CM15" s="19">
+        <v>14388.910219422276</v>
+      </c>
+      <c r="CN15" s="19">
+        <v>8755.1515171214887</v>
+      </c>
       <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
@@ -25510,7 +25509,7 @@
       <c r="EW15" s="9"/>
       <c r="EX15" s="9"/>
     </row>
-    <row r="16" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -25766,25 +25765,27 @@
       <c r="CG16" s="8">
         <v>3294.1553325200161</v>
       </c>
-      <c r="CH16" s="20">
+      <c r="CH16" s="19">
         <v>1246.3429581549503</v>
       </c>
-      <c r="CI16" s="20">
+      <c r="CI16" s="19">
         <v>2147.2493653132246</v>
       </c>
-      <c r="CJ16" s="20">
+      <c r="CJ16" s="19">
         <v>2853.7049691362208</v>
       </c>
-      <c r="CK16" s="20">
+      <c r="CK16" s="19">
         <v>4553.8486237951893</v>
       </c>
-      <c r="CL16" s="20">
+      <c r="CL16" s="19">
         <v>2438.1708431438506</v>
       </c>
-      <c r="CM16" s="20">
+      <c r="CM16" s="19">
         <v>3390.1463916606108</v>
       </c>
-      <c r="CN16" s="9"/>
+      <c r="CN16" s="19">
+        <v>3016.3069803937592</v>
+      </c>
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
@@ -25848,7 +25849,7 @@
       <c r="EW16" s="9"/>
       <c r="EX16" s="9"/>
     </row>
-    <row r="17" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -26104,25 +26105,27 @@
       <c r="CG17" s="8">
         <v>14216.149380776653</v>
       </c>
-      <c r="CH17" s="20">
+      <c r="CH17" s="19">
         <v>12508.896456119282</v>
       </c>
-      <c r="CI17" s="20">
+      <c r="CI17" s="19">
         <v>7989.1024856563126</v>
       </c>
-      <c r="CJ17" s="20">
+      <c r="CJ17" s="19">
         <v>10374.522090799132</v>
       </c>
-      <c r="CK17" s="20">
+      <c r="CK17" s="19">
         <v>14173.260271071093</v>
       </c>
-      <c r="CL17" s="20">
+      <c r="CL17" s="19">
         <v>14756.201664874417</v>
       </c>
-      <c r="CM17" s="20">
-        <v>9597.8599261222553</v>
-      </c>
-      <c r="CN17" s="9"/>
+      <c r="CM17" s="19">
+        <v>9725.8026031911922</v>
+      </c>
+      <c r="CN17" s="19">
+        <v>12237.034534360369</v>
+      </c>
       <c r="CO17" s="9"/>
       <c r="CP17" s="9"/>
       <c r="CQ17" s="9"/>
@@ -26186,7 +26189,7 @@
       <c r="EW17" s="9"/>
       <c r="EX17" s="9"/>
     </row>
-    <row r="18" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -26341,7 +26344,7 @@
       <c r="EW18" s="9"/>
       <c r="EX18" s="9"/>
     </row>
-    <row r="19" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -26597,25 +26600,27 @@
       <c r="CG19" s="12">
         <v>37045.879760593336</v>
       </c>
-      <c r="CH19" s="21">
+      <c r="CH19" s="20">
         <v>42358.938016675456</v>
       </c>
-      <c r="CI19" s="21">
+      <c r="CI19" s="20">
         <v>48530.75833943153</v>
       </c>
-      <c r="CJ19" s="21">
+      <c r="CJ19" s="20">
         <v>47508.309366179608</v>
       </c>
-      <c r="CK19" s="21">
+      <c r="CK19" s="20">
         <v>46886.013876674115</v>
       </c>
-      <c r="CL19" s="21">
+      <c r="CL19" s="20">
         <v>71293.806151458484</v>
       </c>
-      <c r="CM19" s="21">
-        <v>73685.955515360969</v>
-      </c>
-      <c r="CN19" s="9"/>
+      <c r="CM19" s="20">
+        <v>74229.213036101472</v>
+      </c>
+      <c r="CN19" s="20">
+        <v>77403.434669304057</v>
+      </c>
       <c r="CO19" s="9"/>
       <c r="CP19" s="9"/>
       <c r="CQ19" s="9"/>
@@ -26679,7 +26684,7 @@
       <c r="EW19" s="9"/>
       <c r="EX19" s="9"/>
     </row>
-    <row r="20" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -26771,13 +26776,14 @@
       <c r="CK20" s="13"/>
       <c r="CL20" s="13"/>
       <c r="CM20" s="13"/>
+      <c r="CN20" s="13"/>
     </row>
-    <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -26932,7 +26938,7 @@
       <c r="EW22" s="9"/>
       <c r="EX22" s="9"/>
     </row>
-    <row r="23" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -27087,178 +27093,179 @@
       <c r="EW23" s="9"/>
       <c r="EX23" s="9"/>
     </row>
-    <row r="24" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="24">
+      <c r="B32" s="22">
         <v>2000</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24">
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22">
         <v>2001</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24">
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22">
         <v>2002</v>
       </c>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24">
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22">
         <v>2003</v>
       </c>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24">
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22">
         <v>2004</v>
       </c>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24">
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22">
         <v>2005</v>
       </c>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24">
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22">
         <v>2006</v>
       </c>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24">
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22">
         <v>2007</v>
       </c>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="24"/>
-      <c r="AH32" s="24">
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="22"/>
+      <c r="AH32" s="22">
         <v>2008</v>
       </c>
-      <c r="AI32" s="24"/>
-      <c r="AJ32" s="24"/>
-      <c r="AK32" s="24"/>
-      <c r="AL32" s="24">
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22">
         <v>2009</v>
       </c>
-      <c r="AM32" s="24"/>
-      <c r="AN32" s="24"/>
-      <c r="AO32" s="24"/>
-      <c r="AP32" s="24">
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="22"/>
+      <c r="AO32" s="22"/>
+      <c r="AP32" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ32" s="24"/>
-      <c r="AR32" s="24"/>
-      <c r="AS32" s="24"/>
-      <c r="AT32" s="24">
+      <c r="AQ32" s="22"/>
+      <c r="AR32" s="22"/>
+      <c r="AS32" s="22"/>
+      <c r="AT32" s="22">
         <v>2011</v>
       </c>
-      <c r="AU32" s="24"/>
-      <c r="AV32" s="24"/>
-      <c r="AW32" s="24"/>
-      <c r="AX32" s="24">
+      <c r="AU32" s="22"/>
+      <c r="AV32" s="22"/>
+      <c r="AW32" s="22"/>
+      <c r="AX32" s="22">
         <v>2012</v>
       </c>
-      <c r="AY32" s="24"/>
-      <c r="AZ32" s="24"/>
-      <c r="BA32" s="24"/>
-      <c r="BB32" s="24">
+      <c r="AY32" s="22"/>
+      <c r="AZ32" s="22"/>
+      <c r="BA32" s="22"/>
+      <c r="BB32" s="22">
         <v>2013</v>
       </c>
-      <c r="BC32" s="24"/>
-      <c r="BD32" s="24"/>
-      <c r="BE32" s="24"/>
-      <c r="BF32" s="24">
+      <c r="BC32" s="22"/>
+      <c r="BD32" s="22"/>
+      <c r="BE32" s="22"/>
+      <c r="BF32" s="22">
         <v>2014</v>
       </c>
-      <c r="BG32" s="24"/>
-      <c r="BH32" s="24"/>
-      <c r="BI32" s="24"/>
-      <c r="BJ32" s="24">
+      <c r="BG32" s="22"/>
+      <c r="BH32" s="22"/>
+      <c r="BI32" s="22"/>
+      <c r="BJ32" s="22">
         <v>2015</v>
       </c>
-      <c r="BK32" s="24"/>
-      <c r="BL32" s="24"/>
-      <c r="BM32" s="24"/>
-      <c r="BN32" s="24">
+      <c r="BK32" s="22"/>
+      <c r="BL32" s="22"/>
+      <c r="BM32" s="22"/>
+      <c r="BN32" s="22">
         <v>2016</v>
       </c>
-      <c r="BO32" s="24"/>
-      <c r="BP32" s="24"/>
-      <c r="BQ32" s="24"/>
-      <c r="BR32" s="24">
+      <c r="BO32" s="22"/>
+      <c r="BP32" s="22"/>
+      <c r="BQ32" s="22"/>
+      <c r="BR32" s="22">
         <v>2017</v>
       </c>
-      <c r="BS32" s="24"/>
-      <c r="BT32" s="24"/>
-      <c r="BU32" s="24"/>
-      <c r="BV32" s="24">
+      <c r="BS32" s="22"/>
+      <c r="BT32" s="22"/>
+      <c r="BU32" s="22"/>
+      <c r="BV32" s="22">
         <v>2018</v>
       </c>
-      <c r="BW32" s="24"/>
-      <c r="BX32" s="24"/>
-      <c r="BY32" s="24"/>
-      <c r="BZ32" s="24">
+      <c r="BW32" s="22"/>
+      <c r="BX32" s="22"/>
+      <c r="BY32" s="22"/>
+      <c r="BZ32" s="22">
         <v>2019</v>
       </c>
-      <c r="CA32" s="24"/>
-      <c r="CB32" s="24"/>
-      <c r="CC32" s="24"/>
-      <c r="CD32" s="24">
+      <c r="CA32" s="22"/>
+      <c r="CB32" s="22"/>
+      <c r="CC32" s="22"/>
+      <c r="CD32" s="22">
         <v>2020</v>
       </c>
-      <c r="CE32" s="24"/>
-      <c r="CF32" s="24"/>
-      <c r="CG32" s="24"/>
-      <c r="CH32" s="24">
+      <c r="CE32" s="22"/>
+      <c r="CF32" s="22"/>
+      <c r="CG32" s="22"/>
+      <c r="CH32" s="22">
         <v>2021</v>
       </c>
-      <c r="CI32" s="24"/>
-      <c r="CJ32" s="24"/>
-      <c r="CK32" s="24"/>
-      <c r="CL32" s="24">
+      <c r="CI32" s="22"/>
+      <c r="CJ32" s="22"/>
+      <c r="CK32" s="22"/>
+      <c r="CL32" s="22">
         <v>2022</v>
       </c>
-      <c r="CM32" s="24"/>
+      <c r="CM32" s="22"/>
+      <c r="CN32" s="22"/>
     </row>
-    <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -27532,11 +27539,14 @@
       <c r="CM33" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN33" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="34" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -27792,25 +27802,27 @@
       <c r="CG35" s="8">
         <v>3725.5687314519337</v>
       </c>
-      <c r="CH35" s="20">
+      <c r="CH35" s="19">
         <v>7366.6241073344327</v>
       </c>
-      <c r="CI35" s="20">
+      <c r="CI35" s="19">
         <v>7976.3502756595108</v>
       </c>
-      <c r="CJ35" s="20">
+      <c r="CJ35" s="19">
         <v>1954.5648260456455</v>
       </c>
-      <c r="CK35" s="20">
+      <c r="CK35" s="19">
         <v>4377.4613066335278</v>
       </c>
-      <c r="CL35" s="20">
+      <c r="CL35" s="19">
         <v>10929.826736943727</v>
       </c>
-      <c r="CM35" s="20">
+      <c r="CM35" s="19">
         <v>6327.0602770779406</v>
       </c>
-      <c r="CN35" s="9"/>
+      <c r="CN35" s="19">
+        <v>3484.1432120863074</v>
+      </c>
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
@@ -27874,7 +27886,7 @@
       <c r="EW35" s="9"/>
       <c r="EX35" s="9"/>
     </row>
-    <row r="36" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -28130,25 +28142,27 @@
       <c r="CG36" s="8">
         <v>6360.8779189578154</v>
       </c>
-      <c r="CH36" s="20">
+      <c r="CH36" s="19">
         <v>5489.642902099733</v>
       </c>
-      <c r="CI36" s="20">
+      <c r="CI36" s="19">
         <v>14061.606274353939</v>
       </c>
-      <c r="CJ36" s="20">
+      <c r="CJ36" s="19">
         <v>3881.2041812060897</v>
       </c>
-      <c r="CK36" s="20">
+      <c r="CK36" s="19">
         <v>4896.2167341823924</v>
       </c>
-      <c r="CL36" s="20">
+      <c r="CL36" s="19">
         <v>5486.7089418083433</v>
       </c>
-      <c r="CM36" s="20">
+      <c r="CM36" s="19">
         <v>12545.706395806543</v>
       </c>
-      <c r="CN36" s="9"/>
+      <c r="CN36" s="19">
+        <v>3588.5976323687337</v>
+      </c>
       <c r="CO36" s="9"/>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
@@ -28212,7 +28226,7 @@
       <c r="EW36" s="9"/>
       <c r="EX36" s="9"/>
     </row>
-    <row r="37" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -28468,25 +28482,27 @@
       <c r="CG37" s="8">
         <v>4610.8806062339672</v>
       </c>
-      <c r="CH37" s="20">
+      <c r="CH37" s="19">
         <v>5018.3374156152431</v>
       </c>
-      <c r="CI37" s="20">
+      <c r="CI37" s="19">
         <v>6052.7885216024242</v>
       </c>
-      <c r="CJ37" s="20">
+      <c r="CJ37" s="19">
         <v>5347.3605298945513</v>
       </c>
-      <c r="CK37" s="20">
+      <c r="CK37" s="19">
         <v>5972.151005999438</v>
       </c>
-      <c r="CL37" s="20">
+      <c r="CL37" s="19">
         <v>6056.9627438104289</v>
       </c>
-      <c r="CM37" s="20">
-        <v>8097.2608592890292</v>
-      </c>
-      <c r="CN37" s="9"/>
+      <c r="CM37" s="19">
+        <v>8123.8270819044064</v>
+      </c>
+      <c r="CN37" s="19">
+        <v>6536.518724267291</v>
+      </c>
       <c r="CO37" s="9"/>
       <c r="CP37" s="9"/>
       <c r="CQ37" s="9"/>
@@ -28550,7 +28566,7 @@
       <c r="EW37" s="9"/>
       <c r="EX37" s="9"/>
     </row>
-    <row r="38" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -28806,25 +28822,27 @@
       <c r="CG38" s="8">
         <v>1743.9240612838362</v>
       </c>
-      <c r="CH38" s="20">
+      <c r="CH38" s="19">
         <v>4996.8693390372027</v>
       </c>
-      <c r="CI38" s="20">
+      <c r="CI38" s="19">
         <v>10383.722352801096</v>
       </c>
-      <c r="CJ38" s="20">
+      <c r="CJ38" s="19">
         <v>6661.2455643121284</v>
       </c>
-      <c r="CK38" s="20">
+      <c r="CK38" s="19">
         <v>1463.4685481201896</v>
       </c>
-      <c r="CL38" s="20">
+      <c r="CL38" s="19">
         <v>4372.1212272395496</v>
       </c>
-      <c r="CM38" s="20">
-        <v>6668.3407846649989</v>
-      </c>
-      <c r="CN38" s="9"/>
+      <c r="CM38" s="19">
+        <v>6843.6761763287359</v>
+      </c>
+      <c r="CN38" s="19">
+        <v>5465.0856672328491</v>
+      </c>
       <c r="CO38" s="9"/>
       <c r="CP38" s="9"/>
       <c r="CQ38" s="9"/>
@@ -28888,7 +28906,7 @@
       <c r="EW38" s="9"/>
       <c r="EX38" s="9"/>
     </row>
-    <row r="39" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -29144,25 +29162,27 @@
       <c r="CG39" s="8">
         <v>970.2219894318423</v>
       </c>
-      <c r="CH39" s="20">
+      <c r="CH39" s="19">
         <v>2726.9761640608922</v>
       </c>
-      <c r="CI39" s="20">
+      <c r="CI39" s="19">
         <v>896.93250467388657</v>
       </c>
-      <c r="CJ39" s="20">
+      <c r="CJ39" s="19">
         <v>1199.3326437335306</v>
       </c>
-      <c r="CK39" s="20">
+      <c r="CK39" s="19">
         <v>1123.2391614790699</v>
       </c>
-      <c r="CL39" s="20">
+      <c r="CL39" s="19">
         <v>4364.912093966399</v>
       </c>
-      <c r="CM39" s="20">
+      <c r="CM39" s="19">
         <v>1241.2726743256744</v>
       </c>
-      <c r="CN39" s="9"/>
+      <c r="CN39" s="19">
+        <v>1532.0808593139413</v>
+      </c>
       <c r="CO39" s="9"/>
       <c r="CP39" s="9"/>
       <c r="CQ39" s="9"/>
@@ -29226,7 +29246,7 @@
       <c r="EW39" s="9"/>
       <c r="EX39" s="9"/>
     </row>
-    <row r="40" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
@@ -29482,25 +29502,27 @@
       <c r="CG40" s="8">
         <v>13767.839691706578</v>
       </c>
-      <c r="CH40" s="20">
+      <c r="CH40" s="19">
         <v>11027.147252327914</v>
       </c>
-      <c r="CI40" s="20">
+      <c r="CI40" s="19">
         <v>7034.1807302043835</v>
       </c>
-      <c r="CJ40" s="20">
+      <c r="CJ40" s="19">
         <v>7850.5733108531986</v>
       </c>
-      <c r="CK40" s="20">
+      <c r="CK40" s="19">
         <v>16673.0405489929</v>
       </c>
-      <c r="CL40" s="20">
+      <c r="CL40" s="19">
         <v>12849.55154957661</v>
       </c>
-      <c r="CM40" s="20">
-        <v>8146.5253002265435</v>
-      </c>
-      <c r="CN40" s="9"/>
+      <c r="CM40" s="19">
+        <v>8255.1212022029849</v>
+      </c>
+      <c r="CN40" s="19">
+        <v>8724.2860599119922</v>
+      </c>
       <c r="CO40" s="9"/>
       <c r="CP40" s="9"/>
       <c r="CQ40" s="9"/>
@@ -29564,7 +29586,7 @@
       <c r="EW40" s="9"/>
       <c r="EX40" s="9"/>
     </row>
-    <row r="41" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -29649,13 +29671,13 @@
       <c r="CE41" s="12"/>
       <c r="CF41" s="12"/>
       <c r="CG41" s="12"/>
-      <c r="CH41" s="21"/>
-      <c r="CI41" s="21"/>
-      <c r="CJ41" s="21"/>
-      <c r="CK41" s="21"/>
-      <c r="CL41" s="21"/>
-      <c r="CM41" s="21"/>
-      <c r="CN41" s="9"/>
+      <c r="CH41" s="20"/>
+      <c r="CI41" s="20"/>
+      <c r="CJ41" s="20"/>
+      <c r="CK41" s="20"/>
+      <c r="CL41" s="20"/>
+      <c r="CM41" s="20"/>
+      <c r="CN41" s="20"/>
       <c r="CO41" s="9"/>
       <c r="CP41" s="9"/>
       <c r="CQ41" s="9"/>
@@ -29719,7 +29741,7 @@
       <c r="EW41" s="9"/>
       <c r="EX41" s="9"/>
     </row>
-    <row r="42" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>15</v>
       </c>
@@ -29975,25 +29997,27 @@
       <c r="CG42" s="12">
         <v>31179.312999065973</v>
       </c>
-      <c r="CH42" s="21">
+      <c r="CH42" s="20">
         <v>36625.597180475415</v>
       </c>
-      <c r="CI42" s="21">
+      <c r="CI42" s="20">
         <v>46405.580659295236</v>
       </c>
-      <c r="CJ42" s="21">
+      <c r="CJ42" s="20">
         <v>26894.281056045147</v>
       </c>
-      <c r="CK42" s="21">
+      <c r="CK42" s="20">
         <v>34505.577305407518</v>
       </c>
-      <c r="CL42" s="21">
+      <c r="CL42" s="20">
         <v>44060.083293345058</v>
       </c>
-      <c r="CM42" s="21">
-        <v>43026.166291390728</v>
-      </c>
-      <c r="CN42" s="9"/>
+      <c r="CM42" s="20">
+        <v>43336.663807646284</v>
+      </c>
+      <c r="CN42" s="20">
+        <v>29330.712155181114</v>
+      </c>
       <c r="CO42" s="9"/>
       <c r="CP42" s="9"/>
       <c r="CQ42" s="9"/>
@@ -30057,7 +30081,7 @@
       <c r="EW42" s="9"/>
       <c r="EX42" s="9"/>
     </row>
-    <row r="43" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -30149,13 +30173,14 @@
       <c r="CK43" s="13"/>
       <c r="CL43" s="13"/>
       <c r="CM43" s="13"/>
+      <c r="CN43" s="13"/>
     </row>
-    <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -30310,7 +30335,7 @@
       <c r="EW45" s="9"/>
       <c r="EX45" s="9"/>
     </row>
-    <row r="46" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -30465,176 +30490,177 @@
       <c r="EW46" s="9"/>
       <c r="EX46" s="9"/>
     </row>
-    <row r="47" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24" t="s">
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24" t="s">
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24" t="s">
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24" t="s">
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
-      <c r="U55" s="24"/>
-      <c r="V55" s="24" t="s">
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="W55" s="24"/>
-      <c r="X55" s="24"/>
-      <c r="Y55" s="24"/>
-      <c r="Z55" s="24" t="s">
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AA55" s="24"/>
-      <c r="AB55" s="24"/>
-      <c r="AC55" s="24"/>
-      <c r="AD55" s="24" t="s">
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="24"/>
-      <c r="AF55" s="24"/>
-      <c r="AG55" s="24"/>
-      <c r="AH55" s="24" t="s">
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="24"/>
-      <c r="AJ55" s="24"/>
-      <c r="AK55" s="24"/>
-      <c r="AL55" s="24" t="s">
+      <c r="AI55" s="22"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="22"/>
+      <c r="AL55" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AM55" s="24"/>
-      <c r="AN55" s="24"/>
-      <c r="AO55" s="24"/>
-      <c r="AP55" s="24" t="s">
+      <c r="AM55" s="22"/>
+      <c r="AN55" s="22"/>
+      <c r="AO55" s="22"/>
+      <c r="AP55" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AQ55" s="24"/>
-      <c r="AR55" s="24"/>
-      <c r="AS55" s="24"/>
-      <c r="AT55" s="24" t="s">
+      <c r="AQ55" s="22"/>
+      <c r="AR55" s="22"/>
+      <c r="AS55" s="22"/>
+      <c r="AT55" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AU55" s="24"/>
-      <c r="AV55" s="24"/>
-      <c r="AW55" s="24"/>
-      <c r="AX55" s="24" t="s">
+      <c r="AU55" s="22"/>
+      <c r="AV55" s="22"/>
+      <c r="AW55" s="22"/>
+      <c r="AX55" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AY55" s="24"/>
-      <c r="AZ55" s="24"/>
-      <c r="BA55" s="24"/>
-      <c r="BB55" s="24" t="s">
+      <c r="AY55" s="22"/>
+      <c r="AZ55" s="22"/>
+      <c r="BA55" s="22"/>
+      <c r="BB55" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="BC55" s="24"/>
-      <c r="BD55" s="24"/>
-      <c r="BE55" s="24"/>
-      <c r="BF55" s="24" t="s">
+      <c r="BC55" s="22"/>
+      <c r="BD55" s="22"/>
+      <c r="BE55" s="22"/>
+      <c r="BF55" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="BG55" s="24"/>
-      <c r="BH55" s="24"/>
-      <c r="BI55" s="24"/>
-      <c r="BJ55" s="24" t="s">
+      <c r="BG55" s="22"/>
+      <c r="BH55" s="22"/>
+      <c r="BI55" s="22"/>
+      <c r="BJ55" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="BK55" s="24"/>
-      <c r="BL55" s="24"/>
-      <c r="BM55" s="24"/>
-      <c r="BN55" s="24" t="s">
+      <c r="BK55" s="22"/>
+      <c r="BL55" s="22"/>
+      <c r="BM55" s="22"/>
+      <c r="BN55" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="BO55" s="24"/>
-      <c r="BP55" s="24"/>
-      <c r="BQ55" s="24"/>
-      <c r="BR55" s="24" t="s">
+      <c r="BO55" s="22"/>
+      <c r="BP55" s="22"/>
+      <c r="BQ55" s="22"/>
+      <c r="BR55" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="BS55" s="24"/>
-      <c r="BT55" s="24"/>
-      <c r="BU55" s="24"/>
-      <c r="BV55" s="24" t="s">
+      <c r="BS55" s="22"/>
+      <c r="BT55" s="22"/>
+      <c r="BU55" s="22"/>
+      <c r="BV55" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="BW55" s="24"/>
-      <c r="BX55" s="24"/>
-      <c r="BY55" s="24"/>
-      <c r="BZ55" s="24" t="s">
+      <c r="BW55" s="22"/>
+      <c r="BX55" s="22"/>
+      <c r="BY55" s="22"/>
+      <c r="BZ55" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="CA55" s="24"/>
-      <c r="CB55" s="24"/>
-      <c r="CC55" s="24"/>
-      <c r="CD55" s="24" t="s">
+      <c r="CA55" s="22"/>
+      <c r="CB55" s="22"/>
+      <c r="CC55" s="22"/>
+      <c r="CD55" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="CE55" s="24"/>
-      <c r="CF55" s="24"/>
-      <c r="CG55" s="24"/>
-      <c r="CH55" s="24" t="s">
+      <c r="CE55" s="22"/>
+      <c r="CF55" s="22"/>
+      <c r="CG55" s="22"/>
+      <c r="CH55" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="CI55" s="24"/>
+      <c r="CI55" s="22"/>
       <c r="CJ55" s="22"/>
-      <c r="CK55" s="22"/>
-      <c r="CL55" s="19"/>
-      <c r="CM55" s="19"/>
+      <c r="CK55" s="21"/>
+      <c r="CL55" s="22"/>
+      <c r="CM55" s="22"/>
+      <c r="CN55" s="21"/>
     </row>
-    <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>4</v>
       </c>
@@ -30896,15 +30922,18 @@
       <c r="CI56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ56" s="5"/>
+      <c r="CJ56" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CK56" s="5"/>
       <c r="CL56" s="5"/>
-      <c r="CM56" s="23"/>
+      <c r="CM56" s="5"/>
+      <c r="CN56" s="5"/>
     </row>
-    <row r="57" spans="1:149" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -31166,14 +31195,16 @@
       <c r="CI58" s="15">
         <v>128.17393784198927</v>
       </c>
-      <c r="CJ58" s="15"/>
+      <c r="CJ58" s="15">
+        <v>325.15256180591666</v>
+      </c>
       <c r="CK58" s="15"/>
       <c r="CL58" s="15"/>
-      <c r="CM58" s="9"/>
-      <c r="CN58" s="9"/>
+      <c r="CM58" s="15"/>
+      <c r="CN58" s="15"/>
       <c r="CO58" s="9"/>
     </row>
-    <row r="59" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
@@ -31435,11 +31466,13 @@
       <c r="CI59" s="15">
         <v>104.06098718002045</v>
       </c>
-      <c r="CJ59" s="15"/>
+      <c r="CJ59" s="15">
+        <v>58.549761114826737</v>
+      </c>
       <c r="CK59" s="15"/>
       <c r="CL59" s="15"/>
-      <c r="CM59" s="9"/>
-      <c r="CN59" s="9"/>
+      <c r="CM59" s="15"/>
+      <c r="CN59" s="15"/>
       <c r="CO59" s="9"/>
       <c r="CP59" s="9"/>
       <c r="CQ59" s="9"/>
@@ -31498,7 +31531,7 @@
       <c r="ER59" s="9"/>
       <c r="ES59" s="9"/>
     </row>
-    <row r="60" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
@@ -31758,13 +31791,15 @@
         <v>27.098504011078177</v>
       </c>
       <c r="CI60" s="15">
-        <v>37.576165975474595</v>
-      </c>
-      <c r="CJ60" s="15"/>
+        <v>38.036402941843193</v>
+      </c>
+      <c r="CJ60" s="15">
+        <v>17.406024428524745</v>
+      </c>
       <c r="CK60" s="15"/>
       <c r="CL60" s="15"/>
-      <c r="CM60" s="9"/>
-      <c r="CN60" s="9"/>
+      <c r="CM60" s="15"/>
+      <c r="CN60" s="15"/>
       <c r="CO60" s="9"/>
       <c r="CP60" s="9"/>
       <c r="CQ60" s="9"/>
@@ -31823,7 +31858,7 @@
       <c r="ER60" s="9"/>
       <c r="ES60" s="9"/>
     </row>
-    <row r="61" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -32083,13 +32118,15 @@
         <v>50.422999428678054</v>
       </c>
       <c r="CI61" s="15">
-        <v>7.1028054639566989</v>
-      </c>
-      <c r="CJ61" s="15"/>
+        <v>9.9189351355975219</v>
+      </c>
+      <c r="CJ61" s="15">
+        <v>-5.0820940406882897</v>
+      </c>
       <c r="CK61" s="15"/>
       <c r="CL61" s="15"/>
-      <c r="CM61" s="9"/>
-      <c r="CN61" s="9"/>
+      <c r="CM61" s="15"/>
+      <c r="CN61" s="15"/>
       <c r="CO61" s="9"/>
       <c r="CP61" s="9"/>
       <c r="CQ61" s="9"/>
@@ -32148,7 +32185,7 @@
       <c r="ER61" s="9"/>
       <c r="ES61" s="9"/>
     </row>
-    <row r="62" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -32410,11 +32447,13 @@
       <c r="CI62" s="15">
         <v>57.883217777367065</v>
       </c>
-      <c r="CJ62" s="15"/>
+      <c r="CJ62" s="15">
+        <v>5.697926485608491</v>
+      </c>
       <c r="CK62" s="15"/>
       <c r="CL62" s="15"/>
-      <c r="CM62" s="9"/>
-      <c r="CN62" s="9"/>
+      <c r="CM62" s="15"/>
+      <c r="CN62" s="15"/>
       <c r="CO62" s="9"/>
       <c r="CP62" s="9"/>
       <c r="CQ62" s="9"/>
@@ -32473,7 +32512,7 @@
       <c r="ER62" s="9"/>
       <c r="ES62" s="9"/>
     </row>
-    <row r="63" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
@@ -32733,13 +32772,15 @@
         <v>17.965655216977723</v>
       </c>
       <c r="CI63" s="15">
-        <v>20.136898273045276</v>
-      </c>
-      <c r="CJ63" s="15"/>
+        <v>21.738363234830985</v>
+      </c>
+      <c r="CJ63" s="15">
+        <v>17.9527541342174</v>
+      </c>
       <c r="CK63" s="15"/>
       <c r="CL63" s="15"/>
-      <c r="CM63" s="9"/>
-      <c r="CN63" s="9"/>
+      <c r="CM63" s="15"/>
+      <c r="CN63" s="15"/>
       <c r="CO63" s="9"/>
       <c r="CP63" s="9"/>
       <c r="CQ63" s="9"/>
@@ -32798,7 +32839,7 @@
       <c r="ER63" s="9"/>
       <c r="ES63" s="9"/>
     </row>
-    <row r="64" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -32948,7 +32989,7 @@
       <c r="ER64" s="9"/>
       <c r="ES64" s="9"/>
     </row>
-    <row r="65" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:149" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>15</v>
       </c>
@@ -33208,13 +33249,15 @@
         <v>68.308766672554981</v>
       </c>
       <c r="CI65" s="15">
-        <v>51.833513500840326</v>
-      </c>
-      <c r="CJ65" s="15"/>
+        <v>52.952922179643338</v>
+      </c>
+      <c r="CJ65" s="15">
+        <v>62.926097985726898</v>
+      </c>
       <c r="CK65" s="15"/>
       <c r="CL65" s="15"/>
-      <c r="CM65" s="9"/>
-      <c r="CN65" s="9"/>
+      <c r="CM65" s="15"/>
+      <c r="CN65" s="15"/>
       <c r="CO65" s="9"/>
       <c r="CP65" s="9"/>
       <c r="CQ65" s="9"/>
@@ -33273,7 +33316,7 @@
       <c r="ER65" s="9"/>
       <c r="ES65" s="9"/>
     </row>
-    <row r="66" spans="1:149" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:149" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -33365,13 +33408,14 @@
       <c r="CK66" s="13"/>
       <c r="CL66" s="13"/>
       <c r="CM66" s="13"/>
+      <c r="CN66" s="13"/>
     </row>
-    <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>0</v>
       </c>
@@ -33524,7 +33568,7 @@
       <c r="ER68" s="9"/>
       <c r="ES68" s="9"/>
     </row>
-    <row r="69" spans="1:149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -33674,176 +33718,177 @@
       <c r="ER69" s="9"/>
       <c r="ES69" s="9"/>
     </row>
-    <row r="70" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="24" t="s">
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="24" t="s">
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="24" t="s">
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="O78" s="25"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="25"/>
-      <c r="R78" s="24" t="s">
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="25"/>
-      <c r="T78" s="25"/>
-      <c r="U78" s="25"/>
-      <c r="V78" s="24" t="s">
+      <c r="S78" s="23"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="W78" s="25"/>
-      <c r="X78" s="25"/>
-      <c r="Y78" s="25"/>
-      <c r="Z78" s="24" t="s">
+      <c r="W78" s="23"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="23"/>
+      <c r="Z78" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AA78" s="25"/>
-      <c r="AB78" s="25"/>
-      <c r="AC78" s="25"/>
-      <c r="AD78" s="24" t="s">
+      <c r="AA78" s="23"/>
+      <c r="AB78" s="23"/>
+      <c r="AC78" s="23"/>
+      <c r="AD78" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="25"/>
-      <c r="AF78" s="25"/>
-      <c r="AG78" s="25"/>
-      <c r="AH78" s="24" t="s">
+      <c r="AE78" s="23"/>
+      <c r="AF78" s="23"/>
+      <c r="AG78" s="23"/>
+      <c r="AH78" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AI78" s="25"/>
-      <c r="AJ78" s="25"/>
-      <c r="AK78" s="25"/>
-      <c r="AL78" s="24" t="s">
+      <c r="AI78" s="23"/>
+      <c r="AJ78" s="23"/>
+      <c r="AK78" s="23"/>
+      <c r="AL78" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AM78" s="25"/>
-      <c r="AN78" s="25"/>
-      <c r="AO78" s="25"/>
-      <c r="AP78" s="24" t="s">
+      <c r="AM78" s="23"/>
+      <c r="AN78" s="23"/>
+      <c r="AO78" s="23"/>
+      <c r="AP78" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AQ78" s="25"/>
-      <c r="AR78" s="25"/>
-      <c r="AS78" s="25"/>
-      <c r="AT78" s="24" t="s">
+      <c r="AQ78" s="23"/>
+      <c r="AR78" s="23"/>
+      <c r="AS78" s="23"/>
+      <c r="AT78" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AU78" s="25"/>
-      <c r="AV78" s="25"/>
-      <c r="AW78" s="25"/>
-      <c r="AX78" s="24" t="s">
+      <c r="AU78" s="23"/>
+      <c r="AV78" s="23"/>
+      <c r="AW78" s="23"/>
+      <c r="AX78" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AY78" s="25"/>
-      <c r="AZ78" s="25"/>
-      <c r="BA78" s="25"/>
-      <c r="BB78" s="24" t="s">
+      <c r="AY78" s="23"/>
+      <c r="AZ78" s="23"/>
+      <c r="BA78" s="23"/>
+      <c r="BB78" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="BC78" s="25"/>
-      <c r="BD78" s="25"/>
-      <c r="BE78" s="25"/>
-      <c r="BF78" s="24" t="s">
+      <c r="BC78" s="23"/>
+      <c r="BD78" s="23"/>
+      <c r="BE78" s="23"/>
+      <c r="BF78" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="BG78" s="25"/>
-      <c r="BH78" s="25"/>
-      <c r="BI78" s="25"/>
-      <c r="BJ78" s="24" t="s">
+      <c r="BG78" s="23"/>
+      <c r="BH78" s="23"/>
+      <c r="BI78" s="23"/>
+      <c r="BJ78" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="BK78" s="25"/>
-      <c r="BL78" s="25"/>
-      <c r="BM78" s="25"/>
-      <c r="BN78" s="24" t="s">
+      <c r="BK78" s="23"/>
+      <c r="BL78" s="23"/>
+      <c r="BM78" s="23"/>
+      <c r="BN78" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="BO78" s="25"/>
-      <c r="BP78" s="25"/>
-      <c r="BQ78" s="25"/>
-      <c r="BR78" s="24" t="s">
+      <c r="BO78" s="23"/>
+      <c r="BP78" s="23"/>
+      <c r="BQ78" s="23"/>
+      <c r="BR78" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="BS78" s="25"/>
-      <c r="BT78" s="25"/>
-      <c r="BU78" s="25"/>
-      <c r="BV78" s="24" t="s">
+      <c r="BS78" s="23"/>
+      <c r="BT78" s="23"/>
+      <c r="BU78" s="23"/>
+      <c r="BV78" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="BW78" s="25"/>
-      <c r="BX78" s="25"/>
-      <c r="BY78" s="25"/>
-      <c r="BZ78" s="24" t="s">
+      <c r="BW78" s="23"/>
+      <c r="BX78" s="23"/>
+      <c r="BY78" s="23"/>
+      <c r="BZ78" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="CA78" s="25"/>
-      <c r="CB78" s="25"/>
-      <c r="CC78" s="25"/>
-      <c r="CD78" s="24" t="s">
+      <c r="CA78" s="23"/>
+      <c r="CB78" s="23"/>
+      <c r="CC78" s="23"/>
+      <c r="CD78" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="CE78" s="25"/>
-      <c r="CF78" s="25"/>
-      <c r="CG78" s="25"/>
-      <c r="CH78" s="24" t="s">
+      <c r="CE78" s="23"/>
+      <c r="CF78" s="23"/>
+      <c r="CG78" s="23"/>
+      <c r="CH78" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="CI78" s="24"/>
+      <c r="CI78" s="22"/>
       <c r="CJ78" s="22"/>
-      <c r="CK78" s="22"/>
-      <c r="CL78" s="19"/>
-      <c r="CM78" s="19"/>
+      <c r="CK78" s="21"/>
+      <c r="CL78" s="22"/>
+      <c r="CM78" s="22"/>
+      <c r="CN78" s="21"/>
     </row>
-    <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>4</v>
       </c>
@@ -34105,15 +34150,18 @@
       <c r="CI79" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ79" s="5"/>
+      <c r="CJ79" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CK79" s="5"/>
       <c r="CL79" s="5"/>
-      <c r="CM79" s="23"/>
+      <c r="CM79" s="5"/>
+      <c r="CN79" s="5"/>
     </row>
-    <row r="80" spans="1:149" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -34375,11 +34423,13 @@
       <c r="CI81" s="15">
         <v>-20.677251394218672</v>
       </c>
-      <c r="CJ81" s="15"/>
+      <c r="CJ81" s="15">
+        <v>78.256723218293558</v>
+      </c>
       <c r="CK81" s="15"/>
       <c r="CL81" s="15"/>
-      <c r="CM81" s="9"/>
-      <c r="CN81" s="9"/>
+      <c r="CM81" s="15"/>
+      <c r="CN81" s="15"/>
       <c r="CO81" s="9"/>
       <c r="CP81" s="9"/>
       <c r="CQ81" s="9"/>
@@ -34438,7 +34488,7 @@
       <c r="ER81" s="9"/>
       <c r="ES81" s="9"/>
     </row>
-    <row r="82" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -34700,11 +34750,13 @@
       <c r="CI82" s="15">
         <v>-10.780417606430561</v>
       </c>
-      <c r="CJ82" s="15"/>
+      <c r="CJ82" s="15">
+        <v>-7.5390661036139619</v>
+      </c>
       <c r="CK82" s="15"/>
       <c r="CL82" s="15"/>
-      <c r="CM82" s="9"/>
-      <c r="CN82" s="9"/>
+      <c r="CM82" s="15"/>
+      <c r="CN82" s="15"/>
       <c r="CO82" s="9"/>
       <c r="CP82" s="9"/>
       <c r="CQ82" s="9"/>
@@ -34763,7 +34815,7 @@
       <c r="ER82" s="9"/>
       <c r="ES82" s="9"/>
     </row>
-    <row r="83" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -35023,13 +35075,15 @@
         <v>20.696602124906164</v>
       </c>
       <c r="CI83" s="15">
-        <v>33.777362787248819</v>
-      </c>
-      <c r="CJ83" s="15"/>
+        <v>34.216271606226428</v>
+      </c>
+      <c r="CJ83" s="15">
+        <v>22.23822739695072</v>
+      </c>
       <c r="CK83" s="15"/>
       <c r="CL83" s="15"/>
-      <c r="CM83" s="9"/>
-      <c r="CN83" s="9"/>
+      <c r="CM83" s="15"/>
+      <c r="CN83" s="15"/>
       <c r="CO83" s="9"/>
       <c r="CP83" s="9"/>
       <c r="CQ83" s="9"/>
@@ -35088,7 +35142,7 @@
       <c r="ER83" s="9"/>
       <c r="ES83" s="9"/>
     </row>
-    <row r="84" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
@@ -35348,13 +35402,15 @@
         <v>-12.502790635666884</v>
       </c>
       <c r="CI84" s="15">
-        <v>-35.780825429465011</v>
-      </c>
-      <c r="CJ84" s="15"/>
+        <v>-34.092265337944085</v>
+      </c>
+      <c r="CJ84" s="15">
+        <v>-17.957000466815856</v>
+      </c>
       <c r="CK84" s="15"/>
       <c r="CL84" s="15"/>
-      <c r="CM84" s="9"/>
-      <c r="CN84" s="9"/>
+      <c r="CM84" s="15"/>
+      <c r="CN84" s="15"/>
       <c r="CO84" s="9"/>
       <c r="CP84" s="9"/>
       <c r="CQ84" s="9"/>
@@ -35413,7 +35469,7 @@
       <c r="ER84" s="9"/>
       <c r="ES84" s="9"/>
     </row>
-    <row r="85" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>14</v>
       </c>
@@ -35675,11 +35731,13 @@
       <c r="CI85" s="15">
         <v>38.390867524305577</v>
       </c>
-      <c r="CJ85" s="15"/>
+      <c r="CJ85" s="15">
+        <v>27.744447490778128</v>
+      </c>
       <c r="CK85" s="15"/>
       <c r="CL85" s="15"/>
-      <c r="CM85" s="9"/>
-      <c r="CN85" s="9"/>
+      <c r="CM85" s="15"/>
+      <c r="CN85" s="15"/>
       <c r="CO85" s="9"/>
       <c r="CP85" s="9"/>
       <c r="CQ85" s="9"/>
@@ -35738,7 +35796,7 @@
       <c r="ER85" s="9"/>
       <c r="ES85" s="9"/>
     </row>
-    <row r="86" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>27</v>
       </c>
@@ -35998,13 +36056,15 @@
         <v>16.52652545166633</v>
       </c>
       <c r="CI86" s="15">
-        <v>15.81342039231113</v>
-      </c>
-      <c r="CJ86" s="15"/>
+        <v>17.357251950549852</v>
+      </c>
+      <c r="CJ86" s="15">
+        <v>11.129285906430681</v>
+      </c>
       <c r="CK86" s="15"/>
       <c r="CL86" s="15"/>
-      <c r="CM86" s="9"/>
-      <c r="CN86" s="9"/>
+      <c r="CM86" s="15"/>
+      <c r="CN86" s="15"/>
       <c r="CO86" s="9"/>
       <c r="CP86" s="9"/>
       <c r="CQ86" s="9"/>
@@ -36063,7 +36123,7 @@
       <c r="ER86" s="9"/>
       <c r="ES86" s="9"/>
     </row>
-    <row r="87" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -36213,7 +36273,7 @@
       <c r="ER87" s="9"/>
       <c r="ES87" s="9"/>
     </row>
-    <row r="88" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>15</v>
       </c>
@@ -36473,13 +36533,15 @@
         <v>20.298607217885476</v>
       </c>
       <c r="CI88" s="15">
-        <v>-7.2823447522740992</v>
-      </c>
-      <c r="CJ88" s="15"/>
+        <v>-6.6132495446627644</v>
+      </c>
+      <c r="CJ88" s="15">
+        <v>9.0592906873348795</v>
+      </c>
       <c r="CK88" s="15"/>
       <c r="CL88" s="15"/>
-      <c r="CM88" s="9"/>
-      <c r="CN88" s="9"/>
+      <c r="CM88" s="15"/>
+      <c r="CN88" s="15"/>
       <c r="CO88" s="9"/>
       <c r="CP88" s="9"/>
       <c r="CQ88" s="9"/>
@@ -36538,7 +36600,7 @@
       <c r="ER88" s="9"/>
       <c r="ES88" s="9"/>
     </row>
-    <row r="89" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -36630,13 +36692,14 @@
       <c r="CK89" s="13"/>
       <c r="CL89" s="13"/>
       <c r="CM89" s="13"/>
+      <c r="CN89" s="13"/>
     </row>
-    <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>0</v>
       </c>
@@ -36789,7 +36852,7 @@
       <c r="ER91" s="9"/>
       <c r="ES91" s="9"/>
     </row>
-    <row r="92" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -36944,173 +37007,174 @@
       <c r="EW92" s="9"/>
       <c r="EX92" s="9"/>
     </row>
-    <row r="93" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
-      <c r="B100" s="24">
+      <c r="B100" s="22">
         <v>2000</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24">
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22">
         <v>2001</v>
       </c>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24">
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22">
         <v>2002</v>
       </c>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="24">
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="22">
         <v>2003</v>
       </c>
-      <c r="O100" s="24"/>
-      <c r="P100" s="24"/>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="24">
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="22">
         <v>2004</v>
       </c>
-      <c r="S100" s="24"/>
-      <c r="T100" s="24"/>
-      <c r="U100" s="24"/>
-      <c r="V100" s="24">
+      <c r="S100" s="22"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
+      <c r="V100" s="22">
         <v>2005</v>
       </c>
-      <c r="W100" s="24"/>
-      <c r="X100" s="24"/>
-      <c r="Y100" s="24"/>
-      <c r="Z100" s="24">
+      <c r="W100" s="22"/>
+      <c r="X100" s="22"/>
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="22">
         <v>2006</v>
       </c>
-      <c r="AA100" s="24"/>
-      <c r="AB100" s="24"/>
-      <c r="AC100" s="24"/>
-      <c r="AD100" s="24">
+      <c r="AA100" s="22"/>
+      <c r="AB100" s="22"/>
+      <c r="AC100" s="22"/>
+      <c r="AD100" s="22">
         <v>2007</v>
       </c>
-      <c r="AE100" s="24"/>
-      <c r="AF100" s="24"/>
-      <c r="AG100" s="24"/>
-      <c r="AH100" s="24">
+      <c r="AE100" s="22"/>
+      <c r="AF100" s="22"/>
+      <c r="AG100" s="22"/>
+      <c r="AH100" s="22">
         <v>2008</v>
       </c>
-      <c r="AI100" s="24"/>
-      <c r="AJ100" s="24"/>
-      <c r="AK100" s="24"/>
-      <c r="AL100" s="24">
+      <c r="AI100" s="22"/>
+      <c r="AJ100" s="22"/>
+      <c r="AK100" s="22"/>
+      <c r="AL100" s="22">
         <v>2009</v>
       </c>
-      <c r="AM100" s="24"/>
-      <c r="AN100" s="24"/>
-      <c r="AO100" s="24"/>
-      <c r="AP100" s="24">
+      <c r="AM100" s="22"/>
+      <c r="AN100" s="22"/>
+      <c r="AO100" s="22"/>
+      <c r="AP100" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ100" s="24"/>
-      <c r="AR100" s="24"/>
-      <c r="AS100" s="24"/>
-      <c r="AT100" s="24">
+      <c r="AQ100" s="22"/>
+      <c r="AR100" s="22"/>
+      <c r="AS100" s="22"/>
+      <c r="AT100" s="22">
         <v>2011</v>
       </c>
-      <c r="AU100" s="24"/>
-      <c r="AV100" s="24"/>
-      <c r="AW100" s="24"/>
-      <c r="AX100" s="24">
+      <c r="AU100" s="22"/>
+      <c r="AV100" s="22"/>
+      <c r="AW100" s="22"/>
+      <c r="AX100" s="22">
         <v>2012</v>
       </c>
-      <c r="AY100" s="24"/>
-      <c r="AZ100" s="24"/>
-      <c r="BA100" s="24"/>
-      <c r="BB100" s="24">
+      <c r="AY100" s="22"/>
+      <c r="AZ100" s="22"/>
+      <c r="BA100" s="22"/>
+      <c r="BB100" s="22">
         <v>2013</v>
       </c>
-      <c r="BC100" s="24"/>
-      <c r="BD100" s="24"/>
-      <c r="BE100" s="24"/>
-      <c r="BF100" s="24">
+      <c r="BC100" s="22"/>
+      <c r="BD100" s="22"/>
+      <c r="BE100" s="22"/>
+      <c r="BF100" s="22">
         <v>2014</v>
       </c>
-      <c r="BG100" s="24"/>
-      <c r="BH100" s="24"/>
-      <c r="BI100" s="24"/>
-      <c r="BJ100" s="24">
+      <c r="BG100" s="22"/>
+      <c r="BH100" s="22"/>
+      <c r="BI100" s="22"/>
+      <c r="BJ100" s="22">
         <v>2015</v>
       </c>
-      <c r="BK100" s="24"/>
-      <c r="BL100" s="24"/>
-      <c r="BM100" s="24"/>
-      <c r="BN100" s="24">
+      <c r="BK100" s="22"/>
+      <c r="BL100" s="22"/>
+      <c r="BM100" s="22"/>
+      <c r="BN100" s="22">
         <v>2016</v>
       </c>
-      <c r="BO100" s="24"/>
-      <c r="BP100" s="24"/>
-      <c r="BQ100" s="24"/>
-      <c r="BR100" s="24">
+      <c r="BO100" s="22"/>
+      <c r="BP100" s="22"/>
+      <c r="BQ100" s="22"/>
+      <c r="BR100" s="22">
         <v>2017</v>
       </c>
-      <c r="BS100" s="24"/>
-      <c r="BT100" s="24"/>
-      <c r="BU100" s="24"/>
-      <c r="BV100" s="24">
+      <c r="BS100" s="22"/>
+      <c r="BT100" s="22"/>
+      <c r="BU100" s="22"/>
+      <c r="BV100" s="22">
         <v>2018</v>
       </c>
-      <c r="BW100" s="24"/>
-      <c r="BX100" s="24"/>
-      <c r="BY100" s="24"/>
-      <c r="BZ100" s="24">
+      <c r="BW100" s="22"/>
+      <c r="BX100" s="22"/>
+      <c r="BY100" s="22"/>
+      <c r="BZ100" s="22">
         <v>2019</v>
       </c>
-      <c r="CA100" s="24"/>
-      <c r="CB100" s="24"/>
-      <c r="CC100" s="24"/>
-      <c r="CD100" s="24">
+      <c r="CA100" s="22"/>
+      <c r="CB100" s="22"/>
+      <c r="CC100" s="22"/>
+      <c r="CD100" s="22">
         <v>2020</v>
       </c>
-      <c r="CE100" s="24"/>
-      <c r="CF100" s="24"/>
-      <c r="CG100" s="24"/>
-      <c r="CH100" s="24">
+      <c r="CE100" s="22"/>
+      <c r="CF100" s="22"/>
+      <c r="CG100" s="22"/>
+      <c r="CH100" s="22">
         <v>2021</v>
       </c>
-      <c r="CI100" s="24"/>
-      <c r="CJ100" s="24"/>
-      <c r="CK100" s="24"/>
-      <c r="CL100" s="24">
+      <c r="CI100" s="22"/>
+      <c r="CJ100" s="22"/>
+      <c r="CK100" s="22"/>
+      <c r="CL100" s="22">
         <v>2022</v>
       </c>
-      <c r="CM100" s="24"/>
+      <c r="CM100" s="22"/>
+      <c r="CN100" s="22"/>
     </row>
-    <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>4</v>
       </c>
@@ -37384,11 +37448,14 @@
       <c r="CM101" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN101" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="102" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
     </row>
-    <row r="103" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -37662,7 +37729,9 @@
       <c r="CM103" s="15">
         <v>266.82763271392383</v>
       </c>
-      <c r="CN103" s="9"/>
+      <c r="CN103" s="15">
+        <v>805.67826580066469</v>
+      </c>
       <c r="CO103" s="9"/>
       <c r="CP103" s="9"/>
       <c r="CQ103" s="9"/>
@@ -37726,7 +37795,7 @@
       <c r="EW103" s="9"/>
       <c r="EX103" s="9"/>
     </row>
-    <row r="104" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
@@ -38000,7 +38069,9 @@
       <c r="CM104" s="15">
         <v>126.29415824369741</v>
       </c>
-      <c r="CN104" s="9"/>
+      <c r="CN104" s="15">
+        <v>392.84329214173226</v>
+      </c>
       <c r="CO104" s="9"/>
       <c r="CP104" s="9"/>
       <c r="CQ104" s="9"/>
@@ -38064,7 +38135,7 @@
       <c r="EW104" s="9"/>
       <c r="EX104" s="9"/>
     </row>
-    <row r="105" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>28</v>
       </c>
@@ -38336,9 +38407,11 @@
         <v>170.31457071287491</v>
       </c>
       <c r="CM105" s="15">
-        <v>172.29090815116197</v>
-      </c>
-      <c r="CN105" s="9"/>
+        <v>172.30197337640016</v>
+      </c>
+      <c r="CN105" s="15">
+        <v>171.74879199662584</v>
+      </c>
       <c r="CO105" s="9"/>
       <c r="CP105" s="9"/>
       <c r="CQ105" s="9"/>
@@ -38402,7 +38475,7 @@
       <c r="EW105" s="9"/>
       <c r="EX105" s="9"/>
     </row>
-    <row r="106" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>13</v>
       </c>
@@ -38676,7 +38749,9 @@
       <c r="CM106" s="15">
         <v>210.25118443200734</v>
       </c>
-      <c r="CN106" s="9"/>
+      <c r="CN106" s="15">
+        <v>160.20154212064725</v>
+      </c>
       <c r="CO106" s="9"/>
       <c r="CP106" s="9"/>
       <c r="CQ106" s="9"/>
@@ -38740,7 +38815,7 @@
       <c r="EW106" s="9"/>
       <c r="EX106" s="9"/>
     </row>
-    <row r="107" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>14</v>
       </c>
@@ -39014,7 +39089,9 @@
       <c r="CM107" s="15">
         <v>273.11858721955025</v>
       </c>
-      <c r="CN107" s="9"/>
+      <c r="CN107" s="15">
+        <v>196.87648742928928</v>
+      </c>
       <c r="CO107" s="9"/>
       <c r="CP107" s="9"/>
       <c r="CQ107" s="9"/>
@@ -39078,7 +39155,7 @@
       <c r="EW107" s="9"/>
       <c r="EX107" s="9"/>
     </row>
-    <row r="108" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>27</v>
       </c>
@@ -39350,9 +39427,11 @@
         <v>114.83826192642988</v>
       </c>
       <c r="CM108" s="15">
-        <v>117.81538229379036</v>
-      </c>
-      <c r="CN108" s="9"/>
+        <v>117.81538229379041</v>
+      </c>
+      <c r="CN108" s="15">
+        <v>140.2640221827368</v>
+      </c>
       <c r="CO108" s="9"/>
       <c r="CP108" s="9"/>
       <c r="CQ108" s="9"/>
@@ -39416,7 +39495,7 @@
       <c r="EW108" s="9"/>
       <c r="EX108" s="9"/>
     </row>
-    <row r="109" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -39571,7 +39650,7 @@
       <c r="EW109" s="9"/>
       <c r="EX109" s="9"/>
     </row>
-    <row r="110" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>15</v>
       </c>
@@ -39843,9 +39922,11 @@
         <v>161.81042073115387</v>
       </c>
       <c r="CM110" s="15">
-        <v>171.25847331209957</v>
-      </c>
-      <c r="CN110" s="9"/>
+        <v>171.28501945967639</v>
+      </c>
+      <c r="CN110" s="15">
+        <v>263.89892703519354</v>
+      </c>
       <c r="CO110" s="9"/>
       <c r="CP110" s="9"/>
       <c r="CQ110" s="9"/>
@@ -39909,7 +39990,7 @@
       <c r="EW110" s="9"/>
       <c r="EX110" s="9"/>
     </row>
-    <row r="111" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -40001,184 +40082,186 @@
       <c r="CK111" s="13"/>
       <c r="CL111" s="13"/>
       <c r="CM111" s="13"/>
+      <c r="CN111" s="13"/>
     </row>
-    <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
-      <c r="B123" s="24">
+      <c r="B123" s="22">
         <v>2000</v>
       </c>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24">
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22">
         <v>2001</v>
       </c>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="24">
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="22">
         <v>2002</v>
       </c>
-      <c r="K123" s="24"/>
-      <c r="L123" s="24"/>
-      <c r="M123" s="24"/>
-      <c r="N123" s="24">
+      <c r="K123" s="22"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="22"/>
+      <c r="N123" s="22">
         <v>2003</v>
       </c>
-      <c r="O123" s="24"/>
-      <c r="P123" s="24"/>
-      <c r="Q123" s="24"/>
-      <c r="R123" s="24">
+      <c r="O123" s="22"/>
+      <c r="P123" s="22"/>
+      <c r="Q123" s="22"/>
+      <c r="R123" s="22">
         <v>2004</v>
       </c>
-      <c r="S123" s="24"/>
-      <c r="T123" s="24"/>
-      <c r="U123" s="24"/>
-      <c r="V123" s="24">
+      <c r="S123" s="22"/>
+      <c r="T123" s="22"/>
+      <c r="U123" s="22"/>
+      <c r="V123" s="22">
         <v>2005</v>
       </c>
-      <c r="W123" s="24"/>
-      <c r="X123" s="24"/>
-      <c r="Y123" s="24"/>
-      <c r="Z123" s="24">
+      <c r="W123" s="22"/>
+      <c r="X123" s="22"/>
+      <c r="Y123" s="22"/>
+      <c r="Z123" s="22">
         <v>2006</v>
       </c>
-      <c r="AA123" s="24"/>
-      <c r="AB123" s="24"/>
-      <c r="AC123" s="24"/>
-      <c r="AD123" s="24">
+      <c r="AA123" s="22"/>
+      <c r="AB123" s="22"/>
+      <c r="AC123" s="22"/>
+      <c r="AD123" s="22">
         <v>2007</v>
       </c>
-      <c r="AE123" s="24"/>
-      <c r="AF123" s="24"/>
-      <c r="AG123" s="24"/>
-      <c r="AH123" s="24">
+      <c r="AE123" s="22"/>
+      <c r="AF123" s="22"/>
+      <c r="AG123" s="22"/>
+      <c r="AH123" s="22">
         <v>2008</v>
       </c>
-      <c r="AI123" s="24"/>
-      <c r="AJ123" s="24"/>
-      <c r="AK123" s="24"/>
-      <c r="AL123" s="24">
+      <c r="AI123" s="22"/>
+      <c r="AJ123" s="22"/>
+      <c r="AK123" s="22"/>
+      <c r="AL123" s="22">
         <v>2009</v>
       </c>
-      <c r="AM123" s="24"/>
-      <c r="AN123" s="24"/>
-      <c r="AO123" s="24"/>
-      <c r="AP123" s="24">
+      <c r="AM123" s="22"/>
+      <c r="AN123" s="22"/>
+      <c r="AO123" s="22"/>
+      <c r="AP123" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ123" s="24"/>
-      <c r="AR123" s="24"/>
-      <c r="AS123" s="24"/>
-      <c r="AT123" s="24">
+      <c r="AQ123" s="22"/>
+      <c r="AR123" s="22"/>
+      <c r="AS123" s="22"/>
+      <c r="AT123" s="22">
         <v>2011</v>
       </c>
-      <c r="AU123" s="24"/>
-      <c r="AV123" s="24"/>
-      <c r="AW123" s="24"/>
-      <c r="AX123" s="24">
+      <c r="AU123" s="22"/>
+      <c r="AV123" s="22"/>
+      <c r="AW123" s="22"/>
+      <c r="AX123" s="22">
         <v>2012</v>
       </c>
-      <c r="AY123" s="24"/>
-      <c r="AZ123" s="24"/>
-      <c r="BA123" s="24"/>
-      <c r="BB123" s="24">
+      <c r="AY123" s="22"/>
+      <c r="AZ123" s="22"/>
+      <c r="BA123" s="22"/>
+      <c r="BB123" s="22">
         <v>2013</v>
       </c>
-      <c r="BC123" s="24"/>
-      <c r="BD123" s="24"/>
-      <c r="BE123" s="24"/>
-      <c r="BF123" s="24">
+      <c r="BC123" s="22"/>
+      <c r="BD123" s="22"/>
+      <c r="BE123" s="22"/>
+      <c r="BF123" s="22">
         <v>2014</v>
       </c>
-      <c r="BG123" s="24"/>
-      <c r="BH123" s="24"/>
-      <c r="BI123" s="24"/>
-      <c r="BJ123" s="24">
+      <c r="BG123" s="22"/>
+      <c r="BH123" s="22"/>
+      <c r="BI123" s="22"/>
+      <c r="BJ123" s="22">
         <v>2015</v>
       </c>
-      <c r="BK123" s="24"/>
-      <c r="BL123" s="24"/>
-      <c r="BM123" s="24"/>
-      <c r="BN123" s="24">
+      <c r="BK123" s="22"/>
+      <c r="BL123" s="22"/>
+      <c r="BM123" s="22"/>
+      <c r="BN123" s="22">
         <v>2016</v>
       </c>
-      <c r="BO123" s="24"/>
-      <c r="BP123" s="24"/>
-      <c r="BQ123" s="24"/>
-      <c r="BR123" s="24">
+      <c r="BO123" s="22"/>
+      <c r="BP123" s="22"/>
+      <c r="BQ123" s="22"/>
+      <c r="BR123" s="22">
         <v>2017</v>
       </c>
-      <c r="BS123" s="24"/>
-      <c r="BT123" s="24"/>
-      <c r="BU123" s="24"/>
-      <c r="BV123" s="24">
+      <c r="BS123" s="22"/>
+      <c r="BT123" s="22"/>
+      <c r="BU123" s="22"/>
+      <c r="BV123" s="22">
         <v>2018</v>
       </c>
-      <c r="BW123" s="24"/>
-      <c r="BX123" s="24"/>
-      <c r="BY123" s="24"/>
-      <c r="BZ123" s="24">
+      <c r="BW123" s="22"/>
+      <c r="BX123" s="22"/>
+      <c r="BY123" s="22"/>
+      <c r="BZ123" s="22">
         <v>2019</v>
       </c>
-      <c r="CA123" s="24"/>
-      <c r="CB123" s="24"/>
-      <c r="CC123" s="24"/>
-      <c r="CD123" s="24">
+      <c r="CA123" s="22"/>
+      <c r="CB123" s="22"/>
+      <c r="CC123" s="22"/>
+      <c r="CD123" s="22">
         <v>2020</v>
       </c>
-      <c r="CE123" s="24"/>
-      <c r="CF123" s="24"/>
-      <c r="CG123" s="24"/>
-      <c r="CH123" s="24">
+      <c r="CE123" s="22"/>
+      <c r="CF123" s="22"/>
+      <c r="CG123" s="22"/>
+      <c r="CH123" s="22">
         <v>2021</v>
       </c>
-      <c r="CI123" s="24"/>
-      <c r="CJ123" s="24"/>
-      <c r="CK123" s="24"/>
-      <c r="CL123" s="24">
+      <c r="CI123" s="22"/>
+      <c r="CJ123" s="22"/>
+      <c r="CK123" s="22"/>
+      <c r="CL123" s="22">
         <v>2022</v>
       </c>
-      <c r="CM123" s="24"/>
+      <c r="CM123" s="22"/>
+      <c r="CN123" s="22"/>
     </row>
-    <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>4</v>
       </c>
@@ -40452,11 +40535,14 @@
       <c r="CM124" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN124" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="125" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
     </row>
-    <row r="126" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
@@ -40728,9 +40814,11 @@
         <v>27.40438563395357</v>
       </c>
       <c r="CM126" s="18">
-        <v>22.911211559427652</v>
-      </c>
-      <c r="CN126" s="9"/>
+        <v>22.743532454667612</v>
+      </c>
+      <c r="CN126" s="18">
+        <v>36.265812659448649</v>
+      </c>
       <c r="CO126" s="9"/>
       <c r="CP126" s="9"/>
       <c r="CQ126" s="9"/>
@@ -40794,7 +40882,7 @@
       <c r="EW126" s="9"/>
       <c r="EX126" s="9"/>
     </row>
-    <row r="127" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>12</v>
       </c>
@@ -41066,9 +41154,11 @@
         <v>16.098071438444279</v>
       </c>
       <c r="CM127" s="18">
-        <v>21.502733020821793</v>
-      </c>
-      <c r="CN127" s="9"/>
+        <v>21.345362075445408</v>
+      </c>
+      <c r="CN127" s="18">
+        <v>18.213100156275459</v>
+      </c>
       <c r="CO127" s="9"/>
       <c r="CP127" s="9"/>
       <c r="CQ127" s="9"/>
@@ -41132,7 +41222,7 @@
       <c r="EW127" s="9"/>
       <c r="EX127" s="9"/>
     </row>
-    <row r="128" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>28</v>
       </c>
@@ -41404,9 +41494,11 @@
         <v>14.469546026823348</v>
       </c>
       <c r="CM128" s="18">
-        <v>18.932840284509009</v>
-      </c>
-      <c r="CN128" s="9"/>
+        <v>18.857150444259741</v>
+      </c>
+      <c r="CN128" s="18">
+        <v>14.503738749482636</v>
+      </c>
       <c r="CO128" s="9"/>
       <c r="CP128" s="9"/>
       <c r="CQ128" s="9"/>
@@ -41470,7 +41562,7 @@
       <c r="EW128" s="9"/>
       <c r="EX128" s="9"/>
     </row>
-    <row r="129" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>13</v>
       </c>
@@ -41742,9 +41834,11 @@
         <v>17.91037233253779</v>
       </c>
       <c r="CM129" s="18">
-        <v>19.027052555215942</v>
-      </c>
-      <c r="CN129" s="9"/>
+        <v>19.384430510430185</v>
+      </c>
+      <c r="CN129" s="18">
+        <v>11.311063332688938</v>
+      </c>
       <c r="CO129" s="9"/>
       <c r="CP129" s="9"/>
       <c r="CQ129" s="9"/>
@@ -41808,7 +41902,7 @@
       <c r="EW129" s="9"/>
       <c r="EX129" s="9"/>
     </row>
-    <row r="130" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>14</v>
       </c>
@@ -42080,9 +42174,11 @@
         <v>3.4198915372313476</v>
       </c>
       <c r="CM130" s="18">
-        <v>4.6008040038971645</v>
-      </c>
-      <c r="CN130" s="9"/>
+        <v>4.5671323364452325</v>
+      </c>
+      <c r="CN130" s="18">
+        <v>3.8968645167756861</v>
+      </c>
       <c r="CO130" s="9"/>
       <c r="CP130" s="9"/>
       <c r="CQ130" s="9"/>
@@ -42146,7 +42242,7 @@
       <c r="EW130" s="9"/>
       <c r="EX130" s="9"/>
     </row>
-    <row r="131" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>27</v>
       </c>
@@ -42418,9 +42514,11 @@
         <v>20.697733031009658</v>
       </c>
       <c r="CM131" s="18">
-        <v>13.025358576128438</v>
-      </c>
-      <c r="CN131" s="9"/>
+        <v>13.102392178751829</v>
+      </c>
+      <c r="CN131" s="18">
+        <v>15.809420585328651</v>
+      </c>
       <c r="CO131" s="9"/>
       <c r="CP131" s="9"/>
       <c r="CQ131" s="9"/>
@@ -42484,7 +42582,7 @@
       <c r="EW131" s="9"/>
       <c r="EX131" s="9"/>
     </row>
-    <row r="132" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
@@ -42639,7 +42737,7 @@
       <c r="EW132" s="9"/>
       <c r="EX132" s="9"/>
     </row>
-    <row r="133" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>15</v>
       </c>
@@ -42913,7 +43011,9 @@
       <c r="CM133" s="18">
         <v>100</v>
       </c>
-      <c r="CN133" s="9"/>
+      <c r="CN133" s="18">
+        <v>100</v>
+      </c>
       <c r="CO133" s="9"/>
       <c r="CP133" s="9"/>
       <c r="CQ133" s="9"/>
@@ -42977,7 +43077,7 @@
       <c r="EW133" s="9"/>
       <c r="EX133" s="9"/>
     </row>
-    <row r="134" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -43069,13 +43169,14 @@
       <c r="CK134" s="13"/>
       <c r="CL134" s="13"/>
       <c r="CM134" s="13"/>
+      <c r="CN134" s="13"/>
     </row>
-    <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -43230,7 +43331,7 @@
       <c r="EW136" s="9"/>
       <c r="EX136" s="9"/>
     </row>
-    <row r="137" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -43385,178 +43486,179 @@
       <c r="EW137" s="9"/>
       <c r="EX137" s="9"/>
     </row>
-    <row r="138" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
-      <c r="B146" s="24">
+      <c r="B146" s="22">
         <v>2000</v>
       </c>
-      <c r="C146" s="24"/>
-      <c r="D146" s="24"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="24">
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="22">
         <v>2001</v>
       </c>
-      <c r="G146" s="24"/>
-      <c r="H146" s="24"/>
-      <c r="I146" s="24"/>
-      <c r="J146" s="24">
+      <c r="G146" s="22"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="22"/>
+      <c r="J146" s="22">
         <v>2002</v>
       </c>
-      <c r="K146" s="24"/>
-      <c r="L146" s="24"/>
-      <c r="M146" s="24"/>
-      <c r="N146" s="24">
+      <c r="K146" s="22"/>
+      <c r="L146" s="22"/>
+      <c r="M146" s="22"/>
+      <c r="N146" s="22">
         <v>2003</v>
       </c>
-      <c r="O146" s="24"/>
-      <c r="P146" s="24"/>
-      <c r="Q146" s="24"/>
-      <c r="R146" s="24">
+      <c r="O146" s="22"/>
+      <c r="P146" s="22"/>
+      <c r="Q146" s="22"/>
+      <c r="R146" s="22">
         <v>2004</v>
       </c>
-      <c r="S146" s="24"/>
-      <c r="T146" s="24"/>
-      <c r="U146" s="24"/>
-      <c r="V146" s="24">
+      <c r="S146" s="22"/>
+      <c r="T146" s="22"/>
+      <c r="U146" s="22"/>
+      <c r="V146" s="22">
         <v>2005</v>
       </c>
-      <c r="W146" s="24"/>
-      <c r="X146" s="24"/>
-      <c r="Y146" s="24"/>
-      <c r="Z146" s="24">
+      <c r="W146" s="22"/>
+      <c r="X146" s="22"/>
+      <c r="Y146" s="22"/>
+      <c r="Z146" s="22">
         <v>2006</v>
       </c>
-      <c r="AA146" s="24"/>
-      <c r="AB146" s="24"/>
-      <c r="AC146" s="24"/>
-      <c r="AD146" s="24">
+      <c r="AA146" s="22"/>
+      <c r="AB146" s="22"/>
+      <c r="AC146" s="22"/>
+      <c r="AD146" s="22">
         <v>2007</v>
       </c>
-      <c r="AE146" s="24"/>
-      <c r="AF146" s="24"/>
-      <c r="AG146" s="24"/>
-      <c r="AH146" s="24">
+      <c r="AE146" s="22"/>
+      <c r="AF146" s="22"/>
+      <c r="AG146" s="22"/>
+      <c r="AH146" s="22">
         <v>2008</v>
       </c>
-      <c r="AI146" s="24"/>
-      <c r="AJ146" s="24"/>
-      <c r="AK146" s="24"/>
-      <c r="AL146" s="24">
+      <c r="AI146" s="22"/>
+      <c r="AJ146" s="22"/>
+      <c r="AK146" s="22"/>
+      <c r="AL146" s="22">
         <v>2009</v>
       </c>
-      <c r="AM146" s="24"/>
-      <c r="AN146" s="24"/>
-      <c r="AO146" s="24"/>
-      <c r="AP146" s="24">
+      <c r="AM146" s="22"/>
+      <c r="AN146" s="22"/>
+      <c r="AO146" s="22"/>
+      <c r="AP146" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ146" s="24"/>
-      <c r="AR146" s="24"/>
-      <c r="AS146" s="24"/>
-      <c r="AT146" s="24">
+      <c r="AQ146" s="22"/>
+      <c r="AR146" s="22"/>
+      <c r="AS146" s="22"/>
+      <c r="AT146" s="22">
         <v>2011</v>
       </c>
-      <c r="AU146" s="24"/>
-      <c r="AV146" s="24"/>
-      <c r="AW146" s="24"/>
-      <c r="AX146" s="24">
+      <c r="AU146" s="22"/>
+      <c r="AV146" s="22"/>
+      <c r="AW146" s="22"/>
+      <c r="AX146" s="22">
         <v>2012</v>
       </c>
-      <c r="AY146" s="24"/>
-      <c r="AZ146" s="24"/>
-      <c r="BA146" s="24"/>
-      <c r="BB146" s="24">
+      <c r="AY146" s="22"/>
+      <c r="AZ146" s="22"/>
+      <c r="BA146" s="22"/>
+      <c r="BB146" s="22">
         <v>2013</v>
       </c>
-      <c r="BC146" s="24"/>
-      <c r="BD146" s="24"/>
-      <c r="BE146" s="24"/>
-      <c r="BF146" s="24">
+      <c r="BC146" s="22"/>
+      <c r="BD146" s="22"/>
+      <c r="BE146" s="22"/>
+      <c r="BF146" s="22">
         <v>2014</v>
       </c>
-      <c r="BG146" s="24"/>
-      <c r="BH146" s="24"/>
-      <c r="BI146" s="24"/>
-      <c r="BJ146" s="24">
+      <c r="BG146" s="22"/>
+      <c r="BH146" s="22"/>
+      <c r="BI146" s="22"/>
+      <c r="BJ146" s="22">
         <v>2015</v>
       </c>
-      <c r="BK146" s="24"/>
-      <c r="BL146" s="24"/>
-      <c r="BM146" s="24"/>
-      <c r="BN146" s="24">
+      <c r="BK146" s="22"/>
+      <c r="BL146" s="22"/>
+      <c r="BM146" s="22"/>
+      <c r="BN146" s="22">
         <v>2016</v>
       </c>
-      <c r="BO146" s="24"/>
-      <c r="BP146" s="24"/>
-      <c r="BQ146" s="24"/>
-      <c r="BR146" s="24">
+      <c r="BO146" s="22"/>
+      <c r="BP146" s="22"/>
+      <c r="BQ146" s="22"/>
+      <c r="BR146" s="22">
         <v>2017</v>
       </c>
-      <c r="BS146" s="24"/>
-      <c r="BT146" s="24"/>
-      <c r="BU146" s="24"/>
-      <c r="BV146" s="24">
+      <c r="BS146" s="22"/>
+      <c r="BT146" s="22"/>
+      <c r="BU146" s="22"/>
+      <c r="BV146" s="22">
         <v>2018</v>
       </c>
-      <c r="BW146" s="24"/>
-      <c r="BX146" s="24"/>
-      <c r="BY146" s="24"/>
-      <c r="BZ146" s="24">
+      <c r="BW146" s="22"/>
+      <c r="BX146" s="22"/>
+      <c r="BY146" s="22"/>
+      <c r="BZ146" s="22">
         <v>2019</v>
       </c>
-      <c r="CA146" s="24"/>
-      <c r="CB146" s="24"/>
-      <c r="CC146" s="24"/>
-      <c r="CD146" s="24">
+      <c r="CA146" s="22"/>
+      <c r="CB146" s="22"/>
+      <c r="CC146" s="22"/>
+      <c r="CD146" s="22">
         <v>2020</v>
       </c>
-      <c r="CE146" s="24"/>
-      <c r="CF146" s="24"/>
-      <c r="CG146" s="24"/>
-      <c r="CH146" s="24">
+      <c r="CE146" s="22"/>
+      <c r="CF146" s="22"/>
+      <c r="CG146" s="22"/>
+      <c r="CH146" s="22">
         <v>2021</v>
       </c>
-      <c r="CI146" s="24"/>
-      <c r="CJ146" s="24"/>
-      <c r="CK146" s="24"/>
-      <c r="CL146" s="24">
+      <c r="CI146" s="22"/>
+      <c r="CJ146" s="22"/>
+      <c r="CK146" s="22"/>
+      <c r="CL146" s="22">
         <v>2022</v>
       </c>
-      <c r="CM146" s="24"/>
+      <c r="CM146" s="22"/>
+      <c r="CN146" s="22"/>
     </row>
-    <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>4</v>
       </c>
@@ -43830,11 +43932,14 @@
       <c r="CM147" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN147" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="148" spans="1:154" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
     </row>
-    <row r="149" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>11</v>
       </c>
@@ -44106,9 +44211,11 @@
         <v>24.806641113623577</v>
       </c>
       <c r="CM149" s="18">
-        <v>14.705145316058395</v>
-      </c>
-      <c r="CN149" s="9"/>
+        <v>14.599786234494589</v>
+      </c>
+      <c r="CN149" s="18">
+        <v>11.878822422219477</v>
+      </c>
       <c r="CO149" s="9"/>
       <c r="CP149" s="9"/>
       <c r="CQ149" s="9"/>
@@ -44172,7 +44279,7 @@
       <c r="EW149" s="9"/>
       <c r="EX149" s="9"/>
     </row>
-    <row r="150" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>12</v>
       </c>
@@ -44444,9 +44551,11 @@
         <v>12.452788400963076</v>
       </c>
       <c r="CM150" s="18">
-        <v>29.158318012443658</v>
-      </c>
-      <c r="CN150" s="9"/>
+        <v>28.949405176853944</v>
+      </c>
+      <c r="CN150" s="18">
+        <v>12.23494885968811</v>
+      </c>
       <c r="CO150" s="9"/>
       <c r="CP150" s="9"/>
       <c r="CQ150" s="9"/>
@@ -44510,7 +44619,7 @@
       <c r="EW150" s="9"/>
       <c r="EX150" s="9"/>
     </row>
-    <row r="151" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>28</v>
       </c>
@@ -44782,9 +44891,11 @@
         <v>13.747052413596519</v>
       </c>
       <c r="CM151" s="18">
-        <v>18.819387264138477</v>
-      </c>
-      <c r="CN151" s="9"/>
+        <v>18.745852514080802</v>
+      </c>
+      <c r="CN151" s="18">
+        <v>22.285577962390693</v>
+      </c>
       <c r="CO151" s="9"/>
       <c r="CP151" s="9"/>
       <c r="CQ151" s="9"/>
@@ -44848,7 +44959,7 @@
       <c r="EW151" s="9"/>
       <c r="EX151" s="9"/>
     </row>
-    <row r="152" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>13</v>
       </c>
@@ -45120,9 +45231,11 @@
         <v>9.9230888832657413</v>
       </c>
       <c r="CM152" s="18">
-        <v>15.498338242603996</v>
-      </c>
-      <c r="CN152" s="9"/>
+        <v>15.791885149962198</v>
+      </c>
+      <c r="CN152" s="18">
+        <v>18.632638847357381</v>
+      </c>
       <c r="CO152" s="9"/>
       <c r="CP152" s="9"/>
       <c r="CQ152" s="9"/>
@@ -45186,7 +45299,7 @@
       <c r="EW152" s="9"/>
       <c r="EX152" s="9"/>
     </row>
-    <row r="153" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>14</v>
       </c>
@@ -45458,9 +45571,11 @@
         <v>9.9067268323246367</v>
       </c>
       <c r="CM153" s="18">
-        <v>2.8849251079430833</v>
-      </c>
-      <c r="CN153" s="9"/>
+        <v>2.8642552639381194</v>
+      </c>
+      <c r="CN153" s="18">
+        <v>5.223469690091747</v>
+      </c>
       <c r="CO153" s="9"/>
       <c r="CP153" s="9"/>
       <c r="CQ153" s="9"/>
@@ -45524,7 +45639,7 @@
       <c r="EW153" s="9"/>
       <c r="EX153" s="9"/>
     </row>
-    <row r="154" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>27</v>
       </c>
@@ -45796,9 +45911,11 @@
         <v>29.163702356226452</v>
       </c>
       <c r="CM154" s="18">
-        <v>18.933886056812394</v>
-      </c>
-      <c r="CN154" s="9"/>
+        <v>19.04881566067035</v>
+      </c>
+      <c r="CN154" s="18">
+        <v>29.744542218252594</v>
+      </c>
       <c r="CO154" s="9"/>
       <c r="CP154" s="9"/>
       <c r="CQ154" s="9"/>
@@ -45862,7 +45979,7 @@
       <c r="EW154" s="9"/>
       <c r="EX154" s="9"/>
     </row>
-    <row r="155" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -46017,7 +46134,7 @@
       <c r="EW155" s="9"/>
       <c r="EX155" s="9"/>
     </row>
-    <row r="156" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
         <v>15</v>
       </c>
@@ -46291,7 +46408,9 @@
       <c r="CM156" s="18">
         <v>100</v>
       </c>
-      <c r="CN156" s="9"/>
+      <c r="CN156" s="18">
+        <v>100</v>
+      </c>
       <c r="CO156" s="9"/>
       <c r="CP156" s="9"/>
       <c r="CQ156" s="9"/>
@@ -46355,7 +46474,7 @@
       <c r="EW156" s="9"/>
       <c r="EX156" s="9"/>
     </row>
-    <row r="157" spans="1:154" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:154" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -46447,13 +46566,14 @@
       <c r="CK157" s="13"/>
       <c r="CL157" s="13"/>
       <c r="CM157" s="13"/>
+      <c r="CN157" s="13"/>
     </row>
-    <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -46526,7 +46646,6 @@
       <c r="BS159" s="9"/>
       <c r="BT159" s="9"/>
       <c r="BU159" s="9"/>
-      <c r="CN159" s="9"/>
       <c r="CO159" s="9"/>
       <c r="CP159" s="9"/>
       <c r="CQ159" s="9"/>
@@ -46585,7 +46704,7 @@
       <c r="ER159" s="9"/>
       <c r="ES159" s="9"/>
     </row>
-    <row r="160" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -46658,7 +46777,6 @@
       <c r="BS160" s="9"/>
       <c r="BT160" s="9"/>
       <c r="BU160" s="9"/>
-      <c r="CN160" s="9"/>
       <c r="CO160" s="9"/>
       <c r="CP160" s="9"/>
       <c r="CQ160" s="9"/>
@@ -46718,57 +46836,94 @@
       <c r="ES160" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="BR32:BU32"/>
-    <mergeCell ref="BV78:BY78"/>
-    <mergeCell ref="BZ146:CC146"/>
-    <mergeCell ref="BZ100:CC100"/>
-    <mergeCell ref="BZ123:CC123"/>
-    <mergeCell ref="BR123:BU123"/>
-    <mergeCell ref="BV123:BY123"/>
-    <mergeCell ref="BV146:BY146"/>
-    <mergeCell ref="BR55:BU55"/>
-    <mergeCell ref="BV55:BY55"/>
-    <mergeCell ref="BR146:BU146"/>
-    <mergeCell ref="BR100:BU100"/>
-    <mergeCell ref="BV100:BY100"/>
-    <mergeCell ref="BR78:BU78"/>
-    <mergeCell ref="BV32:BY32"/>
-    <mergeCell ref="BZ32:CC32"/>
-    <mergeCell ref="BZ55:CC55"/>
-    <mergeCell ref="BZ78:CC78"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BB32:BE32"/>
-    <mergeCell ref="BF32:BI32"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="Z32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AH32:AK32"/>
-    <mergeCell ref="AL32:AO32"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:U32"/>
+  <mergeCells count="161">
+    <mergeCell ref="CL123:CN123"/>
+    <mergeCell ref="CL146:CN146"/>
+    <mergeCell ref="CD55:CG55"/>
+    <mergeCell ref="CD78:CG78"/>
+    <mergeCell ref="CH100:CK100"/>
+    <mergeCell ref="CH123:CK123"/>
+    <mergeCell ref="CH146:CK146"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD146:CG146"/>
+    <mergeCell ref="CD123:CG123"/>
+    <mergeCell ref="CD100:CG100"/>
+    <mergeCell ref="CD32:CG32"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH32:CK32"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL32:CN32"/>
+    <mergeCell ref="CH55:CJ55"/>
+    <mergeCell ref="CL55:CM55"/>
+    <mergeCell ref="CH78:CJ78"/>
+    <mergeCell ref="CL78:CM78"/>
+    <mergeCell ref="CL100:CN100"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="J123:M123"/>
+    <mergeCell ref="N123:Q123"/>
+    <mergeCell ref="R123:U123"/>
+    <mergeCell ref="BF146:BI146"/>
+    <mergeCell ref="BJ146:BM146"/>
+    <mergeCell ref="BN146:BQ146"/>
+    <mergeCell ref="BJ123:BM123"/>
+    <mergeCell ref="BN123:BQ123"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="J146:M146"/>
+    <mergeCell ref="N146:Q146"/>
+    <mergeCell ref="R146:U146"/>
+    <mergeCell ref="V146:Y146"/>
+    <mergeCell ref="Z146:AC146"/>
+    <mergeCell ref="BN100:BQ100"/>
+    <mergeCell ref="AL100:AO100"/>
+    <mergeCell ref="AP100:AS100"/>
+    <mergeCell ref="AT100:AW100"/>
+    <mergeCell ref="AD146:AG146"/>
+    <mergeCell ref="AH146:AK146"/>
+    <mergeCell ref="AL146:AO146"/>
+    <mergeCell ref="AP146:AS146"/>
+    <mergeCell ref="AT146:AW146"/>
+    <mergeCell ref="AX146:BA146"/>
+    <mergeCell ref="BB146:BE146"/>
+    <mergeCell ref="BF123:BI123"/>
+    <mergeCell ref="V100:Y100"/>
+    <mergeCell ref="Z100:AC100"/>
+    <mergeCell ref="AD100:AG100"/>
+    <mergeCell ref="AH100:AK100"/>
+    <mergeCell ref="AX100:BA100"/>
+    <mergeCell ref="BB100:BE100"/>
+    <mergeCell ref="BF100:BI100"/>
+    <mergeCell ref="BJ100:BM100"/>
+    <mergeCell ref="V123:Y123"/>
+    <mergeCell ref="Z123:AC123"/>
+    <mergeCell ref="AD123:AG123"/>
+    <mergeCell ref="AH123:AK123"/>
+    <mergeCell ref="AL123:AO123"/>
+    <mergeCell ref="AP123:AS123"/>
+    <mergeCell ref="AT123:AW123"/>
+    <mergeCell ref="AX123:BA123"/>
+    <mergeCell ref="BB123:BE123"/>
+    <mergeCell ref="BF55:BI55"/>
+    <mergeCell ref="BJ55:BM55"/>
+    <mergeCell ref="BN55:BQ55"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="V78:Y78"/>
+    <mergeCell ref="Z78:AC78"/>
+    <mergeCell ref="AD78:AG78"/>
+    <mergeCell ref="AH78:AK78"/>
+    <mergeCell ref="AL78:AO78"/>
+    <mergeCell ref="AP78:AS78"/>
+    <mergeCell ref="AT78:AW78"/>
+    <mergeCell ref="AX78:BA78"/>
+    <mergeCell ref="BJ78:BM78"/>
+    <mergeCell ref="BN78:BQ78"/>
+    <mergeCell ref="BB78:BE78"/>
+    <mergeCell ref="BF78:BI78"/>
     <mergeCell ref="B100:E100"/>
     <mergeCell ref="F100:I100"/>
     <mergeCell ref="J100:M100"/>
@@ -46793,133 +46948,93 @@
     <mergeCell ref="AP32:AS32"/>
     <mergeCell ref="AT32:AW32"/>
     <mergeCell ref="AX32:BA32"/>
-    <mergeCell ref="BF55:BI55"/>
-    <mergeCell ref="BJ55:BM55"/>
-    <mergeCell ref="BN55:BQ55"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="V78:Y78"/>
-    <mergeCell ref="Z78:AC78"/>
-    <mergeCell ref="AD78:AG78"/>
-    <mergeCell ref="AH78:AK78"/>
-    <mergeCell ref="AL78:AO78"/>
-    <mergeCell ref="AP78:AS78"/>
-    <mergeCell ref="AT78:AW78"/>
-    <mergeCell ref="AX78:BA78"/>
-    <mergeCell ref="BJ78:BM78"/>
-    <mergeCell ref="BN78:BQ78"/>
-    <mergeCell ref="BB78:BE78"/>
-    <mergeCell ref="BF78:BI78"/>
-    <mergeCell ref="V100:Y100"/>
-    <mergeCell ref="Z100:AC100"/>
-    <mergeCell ref="AD100:AG100"/>
-    <mergeCell ref="AH100:AK100"/>
-    <mergeCell ref="AX100:BA100"/>
-    <mergeCell ref="BB100:BE100"/>
-    <mergeCell ref="BF100:BI100"/>
-    <mergeCell ref="BJ100:BM100"/>
-    <mergeCell ref="V123:Y123"/>
-    <mergeCell ref="Z123:AC123"/>
-    <mergeCell ref="AD123:AG123"/>
-    <mergeCell ref="AH123:AK123"/>
-    <mergeCell ref="AL123:AO123"/>
-    <mergeCell ref="AP123:AS123"/>
-    <mergeCell ref="AT123:AW123"/>
-    <mergeCell ref="AX123:BA123"/>
-    <mergeCell ref="BB123:BE123"/>
-    <mergeCell ref="BN100:BQ100"/>
-    <mergeCell ref="AL100:AO100"/>
-    <mergeCell ref="AP100:AS100"/>
-    <mergeCell ref="AT100:AW100"/>
-    <mergeCell ref="AD146:AG146"/>
-    <mergeCell ref="AH146:AK146"/>
-    <mergeCell ref="AL146:AO146"/>
-    <mergeCell ref="AP146:AS146"/>
-    <mergeCell ref="AT146:AW146"/>
-    <mergeCell ref="AX146:BA146"/>
-    <mergeCell ref="BB146:BE146"/>
-    <mergeCell ref="BF123:BI123"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="J123:M123"/>
-    <mergeCell ref="N123:Q123"/>
-    <mergeCell ref="R123:U123"/>
-    <mergeCell ref="BF146:BI146"/>
-    <mergeCell ref="BJ146:BM146"/>
-    <mergeCell ref="BN146:BQ146"/>
-    <mergeCell ref="BJ123:BM123"/>
-    <mergeCell ref="BN123:BQ123"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="J146:M146"/>
-    <mergeCell ref="N146:Q146"/>
-    <mergeCell ref="R146:U146"/>
-    <mergeCell ref="V146:Y146"/>
-    <mergeCell ref="Z146:AC146"/>
-    <mergeCell ref="CD55:CG55"/>
-    <mergeCell ref="CD78:CG78"/>
-    <mergeCell ref="CH100:CK100"/>
-    <mergeCell ref="CH123:CK123"/>
-    <mergeCell ref="CH146:CK146"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD146:CG146"/>
-    <mergeCell ref="CD123:CG123"/>
-    <mergeCell ref="CD100:CG100"/>
-    <mergeCell ref="CD32:CG32"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL32:CM32"/>
-    <mergeCell ref="CH55:CI55"/>
-    <mergeCell ref="CH78:CI78"/>
-    <mergeCell ref="CL100:CM100"/>
-    <mergeCell ref="CL123:CM123"/>
-    <mergeCell ref="CL146:CM146"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH32:CK32"/>
+    <mergeCell ref="BB32:BE32"/>
+    <mergeCell ref="BF32:BI32"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="Z32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AH32:AK32"/>
+    <mergeCell ref="AL32:AO32"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR32:BU32"/>
+    <mergeCell ref="BV78:BY78"/>
+    <mergeCell ref="BZ146:CC146"/>
+    <mergeCell ref="BZ100:CC100"/>
+    <mergeCell ref="BZ123:CC123"/>
+    <mergeCell ref="BR123:BU123"/>
+    <mergeCell ref="BV123:BY123"/>
+    <mergeCell ref="BV146:BY146"/>
+    <mergeCell ref="BR55:BU55"/>
+    <mergeCell ref="BV55:BY55"/>
+    <mergeCell ref="BR146:BU146"/>
+    <mergeCell ref="BR100:BU100"/>
+    <mergeCell ref="BV100:BY100"/>
+    <mergeCell ref="BR78:BU78"/>
+    <mergeCell ref="BV32:BY32"/>
+    <mergeCell ref="BZ32:CC32"/>
+    <mergeCell ref="BZ55:CC55"/>
+    <mergeCell ref="BZ78:CC78"/>
   </mergeCells>
   <conditionalFormatting sqref="BR58:BU65 BR81:BU88 BR103:BU110">
-    <cfRule type="cellIs" dxfId="8" priority="77" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="82" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV58:BY65 BV81:BY88 BV103:BY110">
-    <cfRule type="cellIs" dxfId="7" priority="55" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="60" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ58:CG65 BZ81:CG88 BZ103:CG110">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH103:CI110 CL103:CM110">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CM58:CM65">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM81:CM88">
+  <conditionalFormatting sqref="CJ103:CK110">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ103:CK110">
+  <conditionalFormatting sqref="CH58:CN65">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH58:CL65">
+  <conditionalFormatting sqref="CH81:CN88">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH81:CL88">
+  <conditionalFormatting sqref="CN103:CN110">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -46929,9 +47044,9 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="90" man="1"/>
-    <brk id="92" max="90" man="1"/>
-    <brk id="114" max="90" man="1"/>
+    <brk id="46" max="91" man="1"/>
+    <brk id="92" max="91" man="1"/>
+    <brk id="114" max="91" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="56" max="159" man="1"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36B1203-527F-4560-961C-8DF9CF9521F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C0813B-C91F-4F6E-88A1-CDB9E637B09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="4545" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="3" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CN$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CO$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -633,13 +633,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15230,7 +15230,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15253,7 +15253,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15282,7 +15282,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15345,7 +15345,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15374,7 +15374,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15405,7 +15405,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -17799,7 +17799,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17887,7 +17887,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -17908,7 +17908,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -17965,7 +17965,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -17982,7 +17982,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18023,7 +18023,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18070,7 +18070,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18099,7 +18099,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -22516,7 +22516,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -22559,7 +22559,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -22673,7 +22673,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -23670,7 +23670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23686,14 +23686,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="92" width="8" style="10" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="10"/>
+    <col min="2" max="93" width="8" style="10" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23708,7 +23708,7 @@
     </row>
     <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -23719,7 +23719,7 @@
     </row>
     <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23867,6 +23867,7 @@
       </c>
       <c r="CM9" s="22"/>
       <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
     </row>
     <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24144,6 +24145,9 @@
       </c>
       <c r="CN10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24424,9 +24428,11 @@
         <v>16882.3451577101</v>
       </c>
       <c r="CN12" s="19">
-        <v>28070.984609148534</v>
-      </c>
-      <c r="CO12" s="9"/>
+        <v>27834.037093563096</v>
+      </c>
+      <c r="CO12" s="19">
+        <v>7590.9331121738069</v>
+      </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
@@ -24766,7 +24772,9 @@
       <c r="CN13" s="19">
         <v>14097.565080717592</v>
       </c>
-      <c r="CO13" s="9"/>
+      <c r="CO13" s="19">
+        <v>13922.352938909786</v>
+      </c>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
@@ -25104,9 +25112,11 @@
         <v>13997.514375807717</v>
       </c>
       <c r="CN14" s="19">
-        <v>11226.39194756233</v>
-      </c>
-      <c r="CO14" s="9"/>
+        <v>11353.720845160364</v>
+      </c>
+      <c r="CO14" s="19">
+        <v>10772.271170308282</v>
+      </c>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
@@ -25444,9 +25454,11 @@
         <v>14388.910219422276</v>
       </c>
       <c r="CN15" s="19">
-        <v>8755.1515171214887</v>
-      </c>
-      <c r="CO15" s="9"/>
+        <v>9025.6910582665696</v>
+      </c>
+      <c r="CO15" s="19">
+        <v>3964.4680121488318</v>
+      </c>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
@@ -25786,7 +25798,9 @@
       <c r="CN16" s="19">
         <v>3016.3069803937592</v>
       </c>
-      <c r="CO16" s="9"/>
+      <c r="CO16" s="19">
+        <v>4980.1360309815809</v>
+      </c>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
@@ -26124,9 +26138,11 @@
         <v>9725.8026031911922</v>
       </c>
       <c r="CN17" s="19">
-        <v>12237.034534360369</v>
-      </c>
-      <c r="CO17" s="9"/>
+        <v>12296.307197559228</v>
+      </c>
+      <c r="CO17" s="19">
+        <v>15606.80848244323</v>
+      </c>
       <c r="CP17" s="9"/>
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
@@ -26619,9 +26635,11 @@
         <v>74229.213036101472</v>
       </c>
       <c r="CN19" s="20">
-        <v>77403.434669304057</v>
-      </c>
-      <c r="CO19" s="9"/>
+        <v>77623.628255660617</v>
+      </c>
+      <c r="CO19" s="20">
+        <v>56836.969746965515</v>
+      </c>
       <c r="CP19" s="9"/>
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
@@ -26777,6 +26795,7 @@
       <c r="CL20" s="13"/>
       <c r="CM20" s="13"/>
       <c r="CN20" s="13"/>
+      <c r="CO20" s="13"/>
     </row>
     <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -27105,7 +27124,7 @@
     </row>
     <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -27116,7 +27135,7 @@
     </row>
     <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -27264,6 +27283,7 @@
       </c>
       <c r="CM32" s="22"/>
       <c r="CN32" s="22"/>
+      <c r="CO32" s="22"/>
     </row>
     <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -27541,6 +27561,9 @@
       </c>
       <c r="CN33" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO33" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27821,9 +27844,11 @@
         <v>6327.0602770779406</v>
       </c>
       <c r="CN35" s="19">
-        <v>3484.1432120863074</v>
-      </c>
-      <c r="CO35" s="9"/>
+        <v>3454.7335177153209</v>
+      </c>
+      <c r="CO35" s="19">
+        <v>3071.1324566476301</v>
+      </c>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
@@ -28163,7 +28188,9 @@
       <c r="CN36" s="19">
         <v>3588.5976323687337</v>
       </c>
-      <c r="CO36" s="9"/>
+      <c r="CO36" s="19">
+        <v>4874.4539561299507</v>
+      </c>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
@@ -28501,9 +28528,11 @@
         <v>8123.8270819044064</v>
       </c>
       <c r="CN37" s="19">
-        <v>6536.518724267291</v>
-      </c>
-      <c r="CO37" s="9"/>
+        <v>6610.6554306265043</v>
+      </c>
+      <c r="CO37" s="19">
+        <v>7038.0395275640622</v>
+      </c>
       <c r="CP37" s="9"/>
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
@@ -28841,9 +28870,11 @@
         <v>6843.6761763287359</v>
       </c>
       <c r="CN38" s="19">
-        <v>5465.0856672328491</v>
-      </c>
-      <c r="CO38" s="9"/>
+        <v>5633.9601596777102</v>
+      </c>
+      <c r="CO38" s="19">
+        <v>1584.8087780883652</v>
+      </c>
       <c r="CP38" s="9"/>
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
@@ -29183,7 +29214,9 @@
       <c r="CN39" s="19">
         <v>1532.0808593139413</v>
       </c>
-      <c r="CO39" s="9"/>
+      <c r="CO39" s="19">
+        <v>1471.407261641421</v>
+      </c>
       <c r="CP39" s="9"/>
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
@@ -29521,9 +29554,11 @@
         <v>8255.1212022029849</v>
       </c>
       <c r="CN40" s="19">
-        <v>8724.2860599119922</v>
-      </c>
-      <c r="CO40" s="9"/>
+        <v>8766.5439834168792</v>
+      </c>
+      <c r="CO40" s="19">
+        <v>17043.238231214007</v>
+      </c>
       <c r="CP40" s="9"/>
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
@@ -29678,7 +29713,7 @@
       <c r="CL41" s="20"/>
       <c r="CM41" s="20"/>
       <c r="CN41" s="20"/>
-      <c r="CO41" s="9"/>
+      <c r="CO41" s="20"/>
       <c r="CP41" s="9"/>
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
@@ -30016,9 +30051,11 @@
         <v>43336.663807646284</v>
       </c>
       <c r="CN42" s="20">
-        <v>29330.712155181114</v>
-      </c>
-      <c r="CO42" s="9"/>
+        <v>29586.57158311909</v>
+      </c>
+      <c r="CO42" s="20">
+        <v>35083.080211285429</v>
+      </c>
       <c r="CP42" s="9"/>
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
@@ -30174,6 +30211,7 @@
       <c r="CL43" s="13"/>
       <c r="CM43" s="13"/>
       <c r="CN43" s="13"/>
+      <c r="CO43" s="13"/>
     </row>
     <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
@@ -30502,7 +30540,7 @@
     </row>
     <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -30513,7 +30551,7 @@
     </row>
     <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -30655,10 +30693,11 @@
       </c>
       <c r="CI55" s="22"/>
       <c r="CJ55" s="22"/>
-      <c r="CK55" s="21"/>
+      <c r="CK55" s="22"/>
       <c r="CL55" s="22"/>
       <c r="CM55" s="22"/>
       <c r="CN55" s="21"/>
+      <c r="CO55" s="21"/>
     </row>
     <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
@@ -30925,10 +30964,13 @@
       <c r="CJ56" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CK56" s="5"/>
+      <c r="CK56" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CL56" s="5"/>
       <c r="CM56" s="5"/>
       <c r="CN56" s="5"/>
+      <c r="CO56" s="5"/>
     </row>
     <row r="57" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
@@ -31196,13 +31238,15 @@
         <v>128.17393784198927</v>
       </c>
       <c r="CJ58" s="15">
-        <v>325.15256180591666</v>
-      </c>
-      <c r="CK58" s="15"/>
+        <v>321.56384396550771</v>
+      </c>
+      <c r="CK58" s="15">
+        <v>40.977293833198956</v>
+      </c>
       <c r="CL58" s="15"/>
       <c r="CM58" s="15"/>
       <c r="CN58" s="15"/>
-      <c r="CO58" s="9"/>
+      <c r="CO58" s="15"/>
     </row>
     <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -31469,11 +31513,13 @@
       <c r="CJ59" s="15">
         <v>58.549761114826737</v>
       </c>
-      <c r="CK59" s="15"/>
+      <c r="CK59" s="15">
+        <v>28.468646738548301</v>
+      </c>
       <c r="CL59" s="15"/>
       <c r="CM59" s="15"/>
       <c r="CN59" s="15"/>
-      <c r="CO59" s="9"/>
+      <c r="CO59" s="15"/>
       <c r="CP59" s="9"/>
       <c r="CQ59" s="9"/>
       <c r="CR59" s="9"/>
@@ -31794,13 +31840,15 @@
         <v>38.036402941843193</v>
       </c>
       <c r="CJ60" s="15">
-        <v>17.406024428524745</v>
-      </c>
-      <c r="CK60" s="15"/>
+        <v>18.737634774188635</v>
+      </c>
+      <c r="CK60" s="15">
+        <v>18.53614455428459</v>
+      </c>
       <c r="CL60" s="15"/>
       <c r="CM60" s="15"/>
       <c r="CN60" s="15"/>
-      <c r="CO60" s="9"/>
+      <c r="CO60" s="15"/>
       <c r="CP60" s="9"/>
       <c r="CQ60" s="9"/>
       <c r="CR60" s="9"/>
@@ -32121,13 +32169,15 @@
         <v>9.9189351355975219</v>
       </c>
       <c r="CJ61" s="15">
-        <v>-5.0820940406882897</v>
-      </c>
-      <c r="CK61" s="15"/>
+        <v>-2.1490726447174211</v>
+      </c>
+      <c r="CK61" s="15">
+        <v>39.129282133051674</v>
+      </c>
       <c r="CL61" s="15"/>
       <c r="CM61" s="15"/>
       <c r="CN61" s="15"/>
-      <c r="CO61" s="9"/>
+      <c r="CO61" s="15"/>
       <c r="CP61" s="9"/>
       <c r="CQ61" s="9"/>
       <c r="CR61" s="9"/>
@@ -32450,11 +32500,13 @@
       <c r="CJ62" s="15">
         <v>5.697926485608491</v>
       </c>
-      <c r="CK62" s="15"/>
+      <c r="CK62" s="15">
+        <v>9.3610359588791567</v>
+      </c>
       <c r="CL62" s="15"/>
       <c r="CM62" s="15"/>
       <c r="CN62" s="15"/>
-      <c r="CO62" s="9"/>
+      <c r="CO62" s="15"/>
       <c r="CP62" s="9"/>
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
@@ -32775,13 +32827,15 @@
         <v>21.738363234830985</v>
       </c>
       <c r="CJ63" s="15">
-        <v>17.9527541342174</v>
-      </c>
-      <c r="CK63" s="15"/>
+        <v>18.524083229476901</v>
+      </c>
+      <c r="CK63" s="15">
+        <v>10.11445626450633</v>
+      </c>
       <c r="CL63" s="15"/>
       <c r="CM63" s="15"/>
       <c r="CN63" s="15"/>
-      <c r="CO63" s="9"/>
+      <c r="CO63" s="15"/>
       <c r="CP63" s="9"/>
       <c r="CQ63" s="9"/>
       <c r="CR63" s="9"/>
@@ -33252,13 +33306,15 @@
         <v>52.952922179643338</v>
       </c>
       <c r="CJ65" s="15">
-        <v>62.926097985726898</v>
-      </c>
-      <c r="CK65" s="15"/>
+        <v>63.389582351502526</v>
+      </c>
+      <c r="CK65" s="15">
+        <v>21.223719074233401</v>
+      </c>
       <c r="CL65" s="15"/>
       <c r="CM65" s="15"/>
       <c r="CN65" s="15"/>
-      <c r="CO65" s="9"/>
+      <c r="CO65" s="15"/>
       <c r="CP65" s="9"/>
       <c r="CQ65" s="9"/>
       <c r="CR65" s="9"/>
@@ -33409,6 +33465,7 @@
       <c r="CL66" s="13"/>
       <c r="CM66" s="13"/>
       <c r="CN66" s="13"/>
+      <c r="CO66" s="13"/>
     </row>
     <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
@@ -33730,7 +33787,7 @@
     </row>
     <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -33741,7 +33798,7 @@
     </row>
     <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -33883,10 +33940,11 @@
       </c>
       <c r="CI78" s="22"/>
       <c r="CJ78" s="22"/>
-      <c r="CK78" s="21"/>
+      <c r="CK78" s="22"/>
       <c r="CL78" s="22"/>
       <c r="CM78" s="22"/>
       <c r="CN78" s="21"/>
+      <c r="CO78" s="21"/>
     </row>
     <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
@@ -34153,10 +34211,13 @@
       <c r="CJ79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CK79" s="5"/>
+      <c r="CK79" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CL79" s="5"/>
       <c r="CM79" s="5"/>
       <c r="CN79" s="5"/>
+      <c r="CO79" s="5"/>
     </row>
     <row r="80" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
@@ -34424,13 +34485,15 @@
         <v>-20.677251394218672</v>
       </c>
       <c r="CJ81" s="15">
-        <v>78.256723218293558</v>
-      </c>
-      <c r="CK81" s="15"/>
+        <v>76.752056093464233</v>
+      </c>
+      <c r="CK81" s="15">
+        <v>-29.842156411669706</v>
+      </c>
       <c r="CL81" s="15"/>
       <c r="CM81" s="15"/>
       <c r="CN81" s="15"/>
-      <c r="CO81" s="9"/>
+      <c r="CO81" s="15"/>
       <c r="CP81" s="9"/>
       <c r="CQ81" s="9"/>
       <c r="CR81" s="9"/>
@@ -34753,11 +34816,13 @@
       <c r="CJ82" s="15">
         <v>-7.5390661036139619</v>
       </c>
-      <c r="CK82" s="15"/>
+      <c r="CK82" s="15">
+        <v>-0.4444815095807968</v>
+      </c>
       <c r="CL82" s="15"/>
       <c r="CM82" s="15"/>
       <c r="CN82" s="15"/>
-      <c r="CO82" s="9"/>
+      <c r="CO82" s="15"/>
       <c r="CP82" s="9"/>
       <c r="CQ82" s="9"/>
       <c r="CR82" s="9"/>
@@ -35078,13 +35143,15 @@
         <v>34.216271606226428</v>
       </c>
       <c r="CJ83" s="15">
-        <v>22.23822739695072</v>
-      </c>
-      <c r="CK83" s="15"/>
+        <v>23.624644227174713</v>
+      </c>
+      <c r="CK83" s="15">
+        <v>17.84764853557563</v>
+      </c>
       <c r="CL83" s="15"/>
       <c r="CM83" s="15"/>
       <c r="CN83" s="15"/>
-      <c r="CO83" s="9"/>
+      <c r="CO83" s="15"/>
       <c r="CP83" s="9"/>
       <c r="CQ83" s="9"/>
       <c r="CR83" s="9"/>
@@ -35405,13 +35472,15 @@
         <v>-34.092265337944085</v>
       </c>
       <c r="CJ84" s="15">
-        <v>-17.957000466815856</v>
-      </c>
-      <c r="CK84" s="15"/>
+        <v>-15.421821560492205</v>
+      </c>
+      <c r="CK84" s="15">
+        <v>8.2912769204391878</v>
+      </c>
       <c r="CL84" s="15"/>
       <c r="CM84" s="15"/>
       <c r="CN84" s="15"/>
-      <c r="CO84" s="9"/>
+      <c r="CO84" s="15"/>
       <c r="CP84" s="9"/>
       <c r="CQ84" s="9"/>
       <c r="CR84" s="9"/>
@@ -35734,11 +35803,13 @@
       <c r="CJ85" s="15">
         <v>27.744447490778128</v>
       </c>
-      <c r="CK85" s="15"/>
+      <c r="CK85" s="15">
+        <v>30.996791431656163</v>
+      </c>
       <c r="CL85" s="15"/>
       <c r="CM85" s="15"/>
       <c r="CN85" s="15"/>
-      <c r="CO85" s="9"/>
+      <c r="CO85" s="15"/>
       <c r="CP85" s="9"/>
       <c r="CQ85" s="9"/>
       <c r="CR85" s="9"/>
@@ -36059,13 +36130,15 @@
         <v>17.357251950549852</v>
       </c>
       <c r="CJ86" s="15">
-        <v>11.129285906430681</v>
-      </c>
-      <c r="CK86" s="15"/>
+        <v>11.667564091113917</v>
+      </c>
+      <c r="CK86" s="15">
+        <v>2.2203369633349013</v>
+      </c>
       <c r="CL86" s="15"/>
       <c r="CM86" s="15"/>
       <c r="CN86" s="15"/>
-      <c r="CO86" s="9"/>
+      <c r="CO86" s="15"/>
       <c r="CP86" s="9"/>
       <c r="CQ86" s="9"/>
       <c r="CR86" s="9"/>
@@ -36536,13 +36609,15 @@
         <v>-6.6132495446627644</v>
       </c>
       <c r="CJ88" s="15">
-        <v>9.0592906873348795</v>
-      </c>
-      <c r="CK88" s="15"/>
+        <v>10.010643234758575</v>
+      </c>
+      <c r="CK88" s="15">
+        <v>1.6736509021902748</v>
+      </c>
       <c r="CL88" s="15"/>
       <c r="CM88" s="15"/>
       <c r="CN88" s="15"/>
-      <c r="CO88" s="9"/>
+      <c r="CO88" s="15"/>
       <c r="CP88" s="9"/>
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
@@ -36693,6 +36768,7 @@
       <c r="CL89" s="13"/>
       <c r="CM89" s="13"/>
       <c r="CN89" s="13"/>
+      <c r="CO89" s="13"/>
     </row>
     <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
@@ -37014,7 +37090,7 @@
     </row>
     <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -37025,7 +37101,7 @@
     </row>
     <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -37173,6 +37249,7 @@
       </c>
       <c r="CM100" s="22"/>
       <c r="CN100" s="22"/>
+      <c r="CO100" s="22"/>
     </row>
     <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
@@ -37450,6 +37527,9 @@
       </c>
       <c r="CN101" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO101" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37732,7 +37812,9 @@
       <c r="CN103" s="15">
         <v>805.67826580066469</v>
       </c>
-      <c r="CO103" s="9"/>
+      <c r="CO103" s="15">
+        <v>247.17048904038074</v>
+      </c>
       <c r="CP103" s="9"/>
       <c r="CQ103" s="9"/>
       <c r="CR103" s="9"/>
@@ -38072,7 +38154,9 @@
       <c r="CN104" s="15">
         <v>392.84329214173226</v>
       </c>
-      <c r="CO104" s="9"/>
+      <c r="CO104" s="15">
+        <v>285.6187188187817</v>
+      </c>
       <c r="CP104" s="9"/>
       <c r="CQ104" s="9"/>
       <c r="CR104" s="9"/>
@@ -38412,7 +38496,9 @@
       <c r="CN105" s="15">
         <v>171.74879199662584</v>
       </c>
-      <c r="CO105" s="9"/>
+      <c r="CO105" s="15">
+        <v>153.05783845230371</v>
+      </c>
       <c r="CP105" s="9"/>
       <c r="CQ105" s="9"/>
       <c r="CR105" s="9"/>
@@ -38750,9 +38836,11 @@
         <v>210.25118443200734</v>
       </c>
       <c r="CN106" s="15">
-        <v>160.20154212064725</v>
-      </c>
-      <c r="CO106" s="9"/>
+        <v>160.20154212064722</v>
+      </c>
+      <c r="CO106" s="15">
+        <v>250.15434461000839</v>
+      </c>
       <c r="CP106" s="9"/>
       <c r="CQ106" s="9"/>
       <c r="CR106" s="9"/>
@@ -39092,7 +39180,9 @@
       <c r="CN107" s="15">
         <v>196.87648742928928</v>
       </c>
-      <c r="CO107" s="9"/>
+      <c r="CO107" s="15">
+        <v>338.4607484827834</v>
+      </c>
       <c r="CP107" s="9"/>
       <c r="CQ107" s="9"/>
       <c r="CR107" s="9"/>
@@ -39432,7 +39522,9 @@
       <c r="CN108" s="15">
         <v>140.2640221827368</v>
       </c>
-      <c r="CO108" s="9"/>
+      <c r="CO108" s="15">
+        <v>91.571849614001081</v>
+      </c>
       <c r="CP108" s="9"/>
       <c r="CQ108" s="9"/>
       <c r="CR108" s="9"/>
@@ -39925,9 +40017,11 @@
         <v>171.28501945967639</v>
       </c>
       <c r="CN110" s="15">
-        <v>263.89892703519354</v>
-      </c>
-      <c r="CO110" s="9"/>
+        <v>262.36101076323945</v>
+      </c>
+      <c r="CO110" s="15">
+        <v>162.00678334019929</v>
+      </c>
       <c r="CP110" s="9"/>
       <c r="CQ110" s="9"/>
       <c r="CR110" s="9"/>
@@ -40083,6 +40177,7 @@
       <c r="CL111" s="13"/>
       <c r="CM111" s="13"/>
       <c r="CN111" s="13"/>
+      <c r="CO111" s="13"/>
     </row>
     <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
@@ -40101,7 +40196,7 @@
     </row>
     <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -40112,7 +40207,7 @@
     </row>
     <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -40260,6 +40355,7 @@
       </c>
       <c r="CM123" s="22"/>
       <c r="CN123" s="22"/>
+      <c r="CO123" s="22"/>
     </row>
     <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
@@ -40537,6 +40633,9 @@
       </c>
       <c r="CN124" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO124" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40817,9 +40916,11 @@
         <v>22.743532454667612</v>
       </c>
       <c r="CN126" s="18">
-        <v>36.265812659448649</v>
-      </c>
-      <c r="CO126" s="9"/>
+        <v>35.857686272907927</v>
+      </c>
+      <c r="CO126" s="18">
+        <v>13.355626005341501</v>
+      </c>
       <c r="CP126" s="9"/>
       <c r="CQ126" s="9"/>
       <c r="CR126" s="9"/>
@@ -41157,9 +41258,11 @@
         <v>21.345362075445408</v>
       </c>
       <c r="CN127" s="18">
-        <v>18.213100156275459</v>
-      </c>
-      <c r="CO127" s="9"/>
+        <v>18.161435374144009</v>
+      </c>
+      <c r="CO127" s="18">
+        <v>24.495241391107221</v>
+      </c>
       <c r="CP127" s="9"/>
       <c r="CQ127" s="9"/>
       <c r="CR127" s="9"/>
@@ -41497,9 +41600,11 @@
         <v>18.857150444259741</v>
       </c>
       <c r="CN128" s="18">
-        <v>14.503738749482636</v>
-      </c>
-      <c r="CO128" s="9"/>
+        <v>14.626629932532698</v>
+      </c>
+      <c r="CO128" s="18">
+        <v>18.952930140832159</v>
+      </c>
       <c r="CP128" s="9"/>
       <c r="CQ128" s="9"/>
       <c r="CR128" s="9"/>
@@ -41837,9 +41942,11 @@
         <v>19.384430510430185</v>
       </c>
       <c r="CN129" s="18">
-        <v>11.311063332688938</v>
-      </c>
-      <c r="CO129" s="9"/>
+        <v>11.627504744482723</v>
+      </c>
+      <c r="CO129" s="18">
+        <v>6.9751572432492175</v>
+      </c>
       <c r="CP129" s="9"/>
       <c r="CQ129" s="9"/>
       <c r="CR129" s="9"/>
@@ -42177,9 +42284,11 @@
         <v>4.5671323364452325</v>
       </c>
       <c r="CN130" s="18">
-        <v>3.8968645167756861</v>
-      </c>
-      <c r="CO130" s="9"/>
+        <v>3.8858103494715199</v>
+      </c>
+      <c r="CO130" s="18">
+        <v>8.7621420585101948</v>
+      </c>
       <c r="CP130" s="9"/>
       <c r="CQ130" s="9"/>
       <c r="CR130" s="9"/>
@@ -42517,9 +42626,11 @@
         <v>13.102392178751829</v>
       </c>
       <c r="CN131" s="18">
-        <v>15.809420585328651</v>
-      </c>
-      <c r="CO131" s="9"/>
+        <v>15.840933326461116</v>
+      </c>
+      <c r="CO131" s="18">
+        <v>27.458903160959714</v>
+      </c>
       <c r="CP131" s="9"/>
       <c r="CQ131" s="9"/>
       <c r="CR131" s="9"/>
@@ -43014,7 +43125,9 @@
       <c r="CN133" s="18">
         <v>100</v>
       </c>
-      <c r="CO133" s="9"/>
+      <c r="CO133" s="18">
+        <v>100</v>
+      </c>
       <c r="CP133" s="9"/>
       <c r="CQ133" s="9"/>
       <c r="CR133" s="9"/>
@@ -43170,6 +43283,7 @@
       <c r="CL134" s="13"/>
       <c r="CM134" s="13"/>
       <c r="CN134" s="13"/>
+      <c r="CO134" s="13"/>
     </row>
     <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
@@ -43498,7 +43612,7 @@
     </row>
     <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -43509,7 +43623,7 @@
     </row>
     <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -43657,6 +43771,7 @@
       </c>
       <c r="CM146" s="22"/>
       <c r="CN146" s="22"/>
+      <c r="CO146" s="22"/>
     </row>
     <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
@@ -43934,6 +44049,9 @@
       </c>
       <c r="CN147" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO147" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -44214,9 +44332,11 @@
         <v>14.599786234494589</v>
       </c>
       <c r="CN149" s="18">
-        <v>11.878822422219477</v>
-      </c>
-      <c r="CO149" s="9"/>
+        <v>11.676694300350951</v>
+      </c>
+      <c r="CO149" s="18">
+        <v>8.7538848873928607</v>
+      </c>
       <c r="CP149" s="9"/>
       <c r="CQ149" s="9"/>
       <c r="CR149" s="9"/>
@@ -44554,9 +44674,11 @@
         <v>28.949405176853944</v>
       </c>
       <c r="CN150" s="18">
-        <v>12.23494885968811</v>
-      </c>
-      <c r="CO150" s="9"/>
+        <v>12.129143190136444</v>
+      </c>
+      <c r="CO150" s="18">
+        <v>13.894030760052676</v>
+      </c>
       <c r="CP150" s="9"/>
       <c r="CQ150" s="9"/>
       <c r="CR150" s="9"/>
@@ -44894,9 +45016,11 @@
         <v>18.745852514080802</v>
       </c>
       <c r="CN151" s="18">
-        <v>22.285577962390693</v>
-      </c>
-      <c r="CO151" s="9"/>
+        <v>22.343431756041241</v>
+      </c>
+      <c r="CO151" s="18">
+        <v>20.061065006772367</v>
+      </c>
       <c r="CP151" s="9"/>
       <c r="CQ151" s="9"/>
       <c r="CR151" s="9"/>
@@ -45234,9 +45358,11 @@
         <v>15.791885149962198</v>
       </c>
       <c r="CN152" s="18">
-        <v>18.632638847357381</v>
-      </c>
-      <c r="CO152" s="9"/>
+        <v>19.042287964490693</v>
+      </c>
+      <c r="CO152" s="18">
+        <v>4.517302268056179</v>
+      </c>
       <c r="CP152" s="9"/>
       <c r="CQ152" s="9"/>
       <c r="CR152" s="9"/>
@@ -45574,9 +45700,11 @@
         <v>2.8642552639381194</v>
       </c>
       <c r="CN153" s="18">
-        <v>5.223469690091747</v>
-      </c>
-      <c r="CO153" s="9"/>
+        <v>5.1782980498764015</v>
+      </c>
+      <c r="CO153" s="18">
+        <v>4.1940652097249504</v>
+      </c>
       <c r="CP153" s="9"/>
       <c r="CQ153" s="9"/>
       <c r="CR153" s="9"/>
@@ -45914,9 +46042,11 @@
         <v>19.04881566067035</v>
       </c>
       <c r="CN154" s="18">
-        <v>29.744542218252594</v>
-      </c>
-      <c r="CO154" s="9"/>
+        <v>29.630144739104271</v>
+      </c>
+      <c r="CO154" s="18">
+        <v>48.579651868000987</v>
+      </c>
       <c r="CP154" s="9"/>
       <c r="CQ154" s="9"/>
       <c r="CR154" s="9"/>
@@ -46411,7 +46541,9 @@
       <c r="CN156" s="18">
         <v>100</v>
       </c>
-      <c r="CO156" s="9"/>
+      <c r="CO156" s="18">
+        <v>100</v>
+      </c>
       <c r="CP156" s="9"/>
       <c r="CQ156" s="9"/>
       <c r="CR156" s="9"/>
@@ -46567,6 +46699,7 @@
       <c r="CL157" s="13"/>
       <c r="CM157" s="13"/>
       <c r="CN157" s="13"/>
+      <c r="CO157" s="13"/>
     </row>
     <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
@@ -46646,7 +46779,6 @@
       <c r="BS159" s="9"/>
       <c r="BT159" s="9"/>
       <c r="BU159" s="9"/>
-      <c r="CO159" s="9"/>
       <c r="CP159" s="9"/>
       <c r="CQ159" s="9"/>
       <c r="CR159" s="9"/>
@@ -46777,7 +46909,6 @@
       <c r="BS160" s="9"/>
       <c r="BT160" s="9"/>
       <c r="BU160" s="9"/>
-      <c r="CO160" s="9"/>
       <c r="CP160" s="9"/>
       <c r="CQ160" s="9"/>
       <c r="CR160" s="9"/>
@@ -46837,93 +46968,56 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CL123:CN123"/>
-    <mergeCell ref="CL146:CN146"/>
-    <mergeCell ref="CD55:CG55"/>
-    <mergeCell ref="CD78:CG78"/>
-    <mergeCell ref="CH100:CK100"/>
-    <mergeCell ref="CH123:CK123"/>
-    <mergeCell ref="CH146:CK146"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD146:CG146"/>
-    <mergeCell ref="CD123:CG123"/>
-    <mergeCell ref="CD100:CG100"/>
-    <mergeCell ref="CD32:CG32"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH32:CK32"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL32:CN32"/>
-    <mergeCell ref="CH55:CJ55"/>
-    <mergeCell ref="CL55:CM55"/>
-    <mergeCell ref="CH78:CJ78"/>
-    <mergeCell ref="CL78:CM78"/>
-    <mergeCell ref="CL100:CN100"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="J123:M123"/>
-    <mergeCell ref="N123:Q123"/>
-    <mergeCell ref="R123:U123"/>
-    <mergeCell ref="BF146:BI146"/>
-    <mergeCell ref="BJ146:BM146"/>
-    <mergeCell ref="BN146:BQ146"/>
-    <mergeCell ref="BJ123:BM123"/>
-    <mergeCell ref="BN123:BQ123"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="J146:M146"/>
-    <mergeCell ref="N146:Q146"/>
-    <mergeCell ref="R146:U146"/>
-    <mergeCell ref="V146:Y146"/>
-    <mergeCell ref="Z146:AC146"/>
-    <mergeCell ref="BN100:BQ100"/>
-    <mergeCell ref="AL100:AO100"/>
-    <mergeCell ref="AP100:AS100"/>
-    <mergeCell ref="AT100:AW100"/>
-    <mergeCell ref="AD146:AG146"/>
-    <mergeCell ref="AH146:AK146"/>
-    <mergeCell ref="AL146:AO146"/>
-    <mergeCell ref="AP146:AS146"/>
-    <mergeCell ref="AT146:AW146"/>
-    <mergeCell ref="AX146:BA146"/>
-    <mergeCell ref="BB146:BE146"/>
-    <mergeCell ref="BF123:BI123"/>
-    <mergeCell ref="V100:Y100"/>
-    <mergeCell ref="Z100:AC100"/>
-    <mergeCell ref="AD100:AG100"/>
-    <mergeCell ref="AH100:AK100"/>
-    <mergeCell ref="AX100:BA100"/>
-    <mergeCell ref="BB100:BE100"/>
-    <mergeCell ref="BF100:BI100"/>
-    <mergeCell ref="BJ100:BM100"/>
-    <mergeCell ref="V123:Y123"/>
-    <mergeCell ref="Z123:AC123"/>
-    <mergeCell ref="AD123:AG123"/>
-    <mergeCell ref="AH123:AK123"/>
-    <mergeCell ref="AL123:AO123"/>
-    <mergeCell ref="AP123:AS123"/>
-    <mergeCell ref="AT123:AW123"/>
-    <mergeCell ref="AX123:BA123"/>
-    <mergeCell ref="BB123:BE123"/>
-    <mergeCell ref="BF55:BI55"/>
-    <mergeCell ref="BJ55:BM55"/>
-    <mergeCell ref="BN55:BQ55"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="V78:Y78"/>
-    <mergeCell ref="Z78:AC78"/>
-    <mergeCell ref="AD78:AG78"/>
-    <mergeCell ref="AH78:AK78"/>
-    <mergeCell ref="AL78:AO78"/>
-    <mergeCell ref="AP78:AS78"/>
-    <mergeCell ref="AT78:AW78"/>
-    <mergeCell ref="AX78:BA78"/>
-    <mergeCell ref="BJ78:BM78"/>
-    <mergeCell ref="BN78:BQ78"/>
-    <mergeCell ref="BB78:BE78"/>
-    <mergeCell ref="BF78:BI78"/>
+    <mergeCell ref="BR32:BU32"/>
+    <mergeCell ref="BV78:BY78"/>
+    <mergeCell ref="BZ146:CC146"/>
+    <mergeCell ref="BZ100:CC100"/>
+    <mergeCell ref="BZ123:CC123"/>
+    <mergeCell ref="BR123:BU123"/>
+    <mergeCell ref="BV123:BY123"/>
+    <mergeCell ref="BV146:BY146"/>
+    <mergeCell ref="BR55:BU55"/>
+    <mergeCell ref="BV55:BY55"/>
+    <mergeCell ref="BR146:BU146"/>
+    <mergeCell ref="BR100:BU100"/>
+    <mergeCell ref="BV100:BY100"/>
+    <mergeCell ref="BR78:BU78"/>
+    <mergeCell ref="BV32:BY32"/>
+    <mergeCell ref="BZ32:CC32"/>
+    <mergeCell ref="BZ55:CC55"/>
+    <mergeCell ref="BZ78:CC78"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BB32:BE32"/>
+    <mergeCell ref="BF32:BI32"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="Z32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AH32:AK32"/>
+    <mergeCell ref="AL32:AO32"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:U32"/>
     <mergeCell ref="B100:E100"/>
     <mergeCell ref="F100:I100"/>
     <mergeCell ref="J100:M100"/>
@@ -46948,69 +47042,106 @@
     <mergeCell ref="AP32:AS32"/>
     <mergeCell ref="AT32:AW32"/>
     <mergeCell ref="AX32:BA32"/>
-    <mergeCell ref="BB32:BE32"/>
-    <mergeCell ref="BF32:BI32"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="Z32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AH32:AK32"/>
-    <mergeCell ref="AL32:AO32"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BR32:BU32"/>
-    <mergeCell ref="BV78:BY78"/>
-    <mergeCell ref="BZ146:CC146"/>
-    <mergeCell ref="BZ100:CC100"/>
-    <mergeCell ref="BZ123:CC123"/>
-    <mergeCell ref="BR123:BU123"/>
-    <mergeCell ref="BV123:BY123"/>
-    <mergeCell ref="BV146:BY146"/>
-    <mergeCell ref="BR55:BU55"/>
-    <mergeCell ref="BV55:BY55"/>
-    <mergeCell ref="BR146:BU146"/>
-    <mergeCell ref="BR100:BU100"/>
-    <mergeCell ref="BV100:BY100"/>
-    <mergeCell ref="BR78:BU78"/>
-    <mergeCell ref="BV32:BY32"/>
-    <mergeCell ref="BZ32:CC32"/>
-    <mergeCell ref="BZ55:CC55"/>
-    <mergeCell ref="BZ78:CC78"/>
+    <mergeCell ref="BF55:BI55"/>
+    <mergeCell ref="BJ55:BM55"/>
+    <mergeCell ref="BN55:BQ55"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="V78:Y78"/>
+    <mergeCell ref="Z78:AC78"/>
+    <mergeCell ref="AD78:AG78"/>
+    <mergeCell ref="AH78:AK78"/>
+    <mergeCell ref="AL78:AO78"/>
+    <mergeCell ref="AP78:AS78"/>
+    <mergeCell ref="AT78:AW78"/>
+    <mergeCell ref="AX78:BA78"/>
+    <mergeCell ref="BJ78:BM78"/>
+    <mergeCell ref="BN78:BQ78"/>
+    <mergeCell ref="BB78:BE78"/>
+    <mergeCell ref="BF78:BI78"/>
+    <mergeCell ref="V100:Y100"/>
+    <mergeCell ref="Z100:AC100"/>
+    <mergeCell ref="AD100:AG100"/>
+    <mergeCell ref="AH100:AK100"/>
+    <mergeCell ref="AX100:BA100"/>
+    <mergeCell ref="BB100:BE100"/>
+    <mergeCell ref="BF100:BI100"/>
+    <mergeCell ref="BJ100:BM100"/>
+    <mergeCell ref="V123:Y123"/>
+    <mergeCell ref="Z123:AC123"/>
+    <mergeCell ref="AD123:AG123"/>
+    <mergeCell ref="AH123:AK123"/>
+    <mergeCell ref="AL123:AO123"/>
+    <mergeCell ref="AP123:AS123"/>
+    <mergeCell ref="AT123:AW123"/>
+    <mergeCell ref="AX123:BA123"/>
+    <mergeCell ref="BB123:BE123"/>
+    <mergeCell ref="BN100:BQ100"/>
+    <mergeCell ref="AL100:AO100"/>
+    <mergeCell ref="AP100:AS100"/>
+    <mergeCell ref="AT100:AW100"/>
+    <mergeCell ref="AD146:AG146"/>
+    <mergeCell ref="AH146:AK146"/>
+    <mergeCell ref="AL146:AO146"/>
+    <mergeCell ref="AP146:AS146"/>
+    <mergeCell ref="AT146:AW146"/>
+    <mergeCell ref="AX146:BA146"/>
+    <mergeCell ref="BB146:BE146"/>
+    <mergeCell ref="BF123:BI123"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="J123:M123"/>
+    <mergeCell ref="N123:Q123"/>
+    <mergeCell ref="R123:U123"/>
+    <mergeCell ref="BF146:BI146"/>
+    <mergeCell ref="BJ146:BM146"/>
+    <mergeCell ref="BN146:BQ146"/>
+    <mergeCell ref="BJ123:BM123"/>
+    <mergeCell ref="BN123:BQ123"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="J146:M146"/>
+    <mergeCell ref="N146:Q146"/>
+    <mergeCell ref="R146:U146"/>
+    <mergeCell ref="V146:Y146"/>
+    <mergeCell ref="Z146:AC146"/>
+    <mergeCell ref="CL55:CM55"/>
+    <mergeCell ref="CL78:CM78"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL32:CO32"/>
+    <mergeCell ref="CH55:CK55"/>
+    <mergeCell ref="CH100:CK100"/>
+    <mergeCell ref="CH123:CK123"/>
+    <mergeCell ref="CH146:CK146"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD146:CG146"/>
+    <mergeCell ref="CD123:CG123"/>
+    <mergeCell ref="CD100:CG100"/>
+    <mergeCell ref="CD32:CG32"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH32:CK32"/>
+    <mergeCell ref="CH78:CK78"/>
+    <mergeCell ref="CL100:CO100"/>
+    <mergeCell ref="CL123:CO123"/>
+    <mergeCell ref="CL146:CO146"/>
+    <mergeCell ref="CD55:CG55"/>
+    <mergeCell ref="CD78:CG78"/>
   </mergeCells>
   <conditionalFormatting sqref="BR58:BU65 BR81:BU88 BR103:BU110">
-    <cfRule type="cellIs" dxfId="7" priority="82" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="87" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV58:BY65 BV81:BY88 BV103:BY110">
-    <cfRule type="cellIs" dxfId="6" priority="60" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="65" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ58:CG65 BZ81:CG88 BZ103:CG110">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47024,17 +47155,17 @@
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH58:CN65">
+  <conditionalFormatting sqref="CH58:CO65">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH81:CN88">
+  <conditionalFormatting sqref="CH81:CO88">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN103:CN110">
+  <conditionalFormatting sqref="CN103:CO110">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -47044,9 +47175,9 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="91" man="1"/>
-    <brk id="92" max="91" man="1"/>
-    <brk id="114" max="91" man="1"/>
+    <brk id="46" max="92" man="1"/>
+    <brk id="92" max="92" man="1"/>
+    <brk id="114" max="92" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="56" max="159" man="1"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C0813B-C91F-4F6E-88A1-CDB9E637B09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BBF2BC-4835-454B-83CC-A72451C94923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="4545" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="3" r:id="rId1"/>
@@ -633,13 +633,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -738,7 +738,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -770,9 +770,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,56 +784,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{34C9E4EF-4E1D-4A0A-AFE2-00CAF31CAADD}"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -23670,7 +23618,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23684,9 +23632,9 @@
   <dimension ref="A1:EX160"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BU1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23708,7 +23656,7 @@
     </row>
     <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -23719,7 +23667,7 @@
     </row>
     <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23730,144 +23678,144 @@
     <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="22">
+      <c r="B9" s="19">
         <v>2000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>2001</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
         <v>2002</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19">
         <v>2003</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19">
         <v>2004</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19">
         <v>2005</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19">
         <v>2006</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19">
         <v>2007</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19">
         <v>2008</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19">
         <v>2009</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19">
         <v>2011</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19">
         <v>2012</v>
       </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19">
         <v>2013</v>
       </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19">
         <v>2014</v>
       </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19">
         <v>2015</v>
       </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19">
         <v>2016</v>
       </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19">
         <v>2017</v>
       </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
+      <c r="BS9" s="19"/>
+      <c r="BT9" s="19"/>
+      <c r="BU9" s="19"/>
+      <c r="BV9" s="19">
         <v>2018</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
+      <c r="BW9" s="19"/>
+      <c r="BX9" s="19"/>
+      <c r="BY9" s="19"/>
+      <c r="BZ9" s="19">
         <v>2019</v>
       </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
+      <c r="CA9" s="19"/>
+      <c r="CB9" s="19"/>
+      <c r="CC9" s="19"/>
+      <c r="CD9" s="19">
         <v>2020</v>
       </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22">
+      <c r="CE9" s="19"/>
+      <c r="CF9" s="19"/>
+      <c r="CG9" s="19"/>
+      <c r="CH9" s="19">
         <v>2021</v>
       </c>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="19"/>
     </row>
     <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24409,29 +24357,29 @@
       <c r="CG12" s="8">
         <v>1526.2165795598621</v>
       </c>
-      <c r="CH12" s="19">
-        <v>4298.6669128508729</v>
-      </c>
-      <c r="CI12" s="19">
+      <c r="CH12" s="8">
+        <v>4298.666912850872</v>
+      </c>
+      <c r="CI12" s="8">
         <v>7398.8928434943109</v>
       </c>
-      <c r="CJ12" s="19">
+      <c r="CJ12" s="8">
         <v>6602.5674383594614</v>
       </c>
-      <c r="CK12" s="19">
-        <v>5384.5076081224979</v>
-      </c>
-      <c r="CL12" s="19">
-        <v>19537.629570868998</v>
-      </c>
-      <c r="CM12" s="19">
-        <v>16882.3451577101</v>
-      </c>
-      <c r="CN12" s="19">
+      <c r="CK12" s="8">
+        <v>5462.4567046615093</v>
+      </c>
+      <c r="CL12" s="8">
+        <v>19588.044628616666</v>
+      </c>
+      <c r="CM12" s="8">
+        <v>16902.723128414724</v>
+      </c>
+      <c r="CN12" s="8">
         <v>27834.037093563096</v>
       </c>
-      <c r="CO12" s="19">
-        <v>7590.9331121738069</v>
+      <c r="CO12" s="8">
+        <v>7500.2176711747825</v>
       </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
@@ -24751,28 +24699,28 @@
       <c r="CG13" s="8">
         <v>7176.0608086994489</v>
       </c>
-      <c r="CH13" s="19">
+      <c r="CH13" s="8">
         <v>7699.8596182378133</v>
       </c>
-      <c r="CI13" s="19">
+      <c r="CI13" s="8">
         <v>7764.587688842129</v>
       </c>
-      <c r="CJ13" s="19">
+      <c r="CJ13" s="8">
         <v>8891.5713159023253</v>
       </c>
-      <c r="CK13" s="19">
+      <c r="CK13" s="8">
         <v>10837.160110547225</v>
       </c>
-      <c r="CL13" s="19">
+      <c r="CL13" s="8">
         <v>11476.927845447768</v>
       </c>
-      <c r="CM13" s="19">
+      <c r="CM13" s="8">
         <v>15844.494288309581</v>
       </c>
-      <c r="CN13" s="19">
+      <c r="CN13" s="8">
         <v>14097.565080717592</v>
       </c>
-      <c r="CO13" s="19">
+      <c r="CO13" s="8">
         <v>13922.352938909786</v>
       </c>
       <c r="CP13" s="9"/>
@@ -25093,29 +25041,29 @@
       <c r="CG14" s="8">
         <v>8050.431997065336</v>
       </c>
-      <c r="CH14" s="19">
+      <c r="CH14" s="8">
         <v>8116.4528061324354</v>
       </c>
-      <c r="CI14" s="19">
+      <c r="CI14" s="8">
         <v>10140.451415345182</v>
       </c>
-      <c r="CJ14" s="19">
+      <c r="CJ14" s="8">
         <v>9562.0237566231626</v>
       </c>
-      <c r="CK14" s="19">
+      <c r="CK14" s="8">
         <v>9087.7522723670445</v>
       </c>
-      <c r="CL14" s="19">
-        <v>10315.890095359502</v>
-      </c>
-      <c r="CM14" s="19">
-        <v>13997.514375807717</v>
-      </c>
-      <c r="CN14" s="19">
-        <v>11353.720845160364</v>
-      </c>
-      <c r="CO14" s="19">
-        <v>10772.271170308282</v>
+      <c r="CL14" s="8">
+        <v>10226.29325097073</v>
+      </c>
+      <c r="CM14" s="8">
+        <v>13887.111747163812</v>
+      </c>
+      <c r="CN14" s="8">
+        <v>11449.575027468945</v>
+      </c>
+      <c r="CO14" s="8">
+        <v>10795.064642611094</v>
       </c>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
@@ -25435,29 +25383,29 @@
       <c r="CG15" s="8">
         <v>2782.8656619720246</v>
       </c>
-      <c r="CH15" s="19">
+      <c r="CH15" s="8">
         <v>8488.7192651800997</v>
       </c>
-      <c r="CI15" s="19">
+      <c r="CI15" s="8">
         <v>13090.474540780364</v>
       </c>
-      <c r="CJ15" s="19">
-        <v>9223.919795359312</v>
-      </c>
-      <c r="CK15" s="19">
-        <v>2849.4849907710618</v>
-      </c>
-      <c r="CL15" s="19">
-        <v>12768.986131763944</v>
-      </c>
-      <c r="CM15" s="19">
-        <v>14388.910219422276</v>
-      </c>
-      <c r="CN15" s="19">
-        <v>9025.6910582665696</v>
-      </c>
-      <c r="CO15" s="19">
-        <v>3964.4680121488318</v>
+      <c r="CJ15" s="8">
+        <v>9237.4055028286966</v>
+      </c>
+      <c r="CK15" s="8">
+        <v>2852.2044038348649</v>
+      </c>
+      <c r="CL15" s="8">
+        <v>13006.237010883655</v>
+      </c>
+      <c r="CM15" s="8">
+        <v>14405.490735031581</v>
+      </c>
+      <c r="CN15" s="8">
+        <v>9055.8816859309791</v>
+      </c>
+      <c r="CO15" s="8">
+        <v>4012.8608015561877</v>
       </c>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
@@ -25777,29 +25725,29 @@
       <c r="CG16" s="8">
         <v>3294.1553325200161</v>
       </c>
-      <c r="CH16" s="19">
+      <c r="CH16" s="8">
         <v>1246.3429581549503</v>
       </c>
-      <c r="CI16" s="19">
+      <c r="CI16" s="8">
         <v>2147.2493653132246</v>
       </c>
-      <c r="CJ16" s="19">
+      <c r="CJ16" s="8">
         <v>2853.7049691362208</v>
       </c>
-      <c r="CK16" s="19">
+      <c r="CK16" s="8">
         <v>4553.8486237951893</v>
       </c>
-      <c r="CL16" s="19">
-        <v>2438.1708431438506</v>
-      </c>
-      <c r="CM16" s="19">
-        <v>3390.1463916606108</v>
-      </c>
-      <c r="CN16" s="19">
+      <c r="CL16" s="8">
+        <v>2419.8979528721948</v>
+      </c>
+      <c r="CM16" s="8">
+        <v>3360.5721214211781</v>
+      </c>
+      <c r="CN16" s="8">
         <v>3016.3069803937592</v>
       </c>
-      <c r="CO16" s="19">
-        <v>4980.1360309815809</v>
+      <c r="CO16" s="8">
+        <v>4995.6966942187573</v>
       </c>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
@@ -26119,29 +26067,29 @@
       <c r="CG17" s="8">
         <v>14216.149380776653</v>
       </c>
-      <c r="CH17" s="19">
+      <c r="CH17" s="8">
         <v>12508.896456119282</v>
       </c>
-      <c r="CI17" s="19">
-        <v>7989.1024856563126</v>
-      </c>
-      <c r="CJ17" s="19">
-        <v>10374.522090799132</v>
-      </c>
-      <c r="CK17" s="19">
-        <v>14173.260271071093</v>
-      </c>
-      <c r="CL17" s="19">
+      <c r="CI17" s="8">
+        <v>7988.4218366237901</v>
+      </c>
+      <c r="CJ17" s="8">
+        <v>10372.733368090756</v>
+      </c>
+      <c r="CK17" s="8">
+        <v>14168.594577918491</v>
+      </c>
+      <c r="CL17" s="8">
         <v>14756.201664874417</v>
       </c>
-      <c r="CM17" s="19">
-        <v>9725.8026031911922</v>
-      </c>
-      <c r="CN17" s="19">
-        <v>12296.307197559228</v>
-      </c>
-      <c r="CO17" s="19">
-        <v>15606.80848244323</v>
+      <c r="CM17" s="8">
+        <v>9710.7964700929115</v>
+      </c>
+      <c r="CN17" s="8">
+        <v>12276.158278382265</v>
+      </c>
+      <c r="CO17" s="8">
+        <v>15709.119194229439</v>
       </c>
       <c r="CP17" s="9"/>
       <c r="CQ17" s="9"/>
@@ -26616,29 +26564,29 @@
       <c r="CG19" s="12">
         <v>37045.879760593336</v>
       </c>
-      <c r="CH19" s="20">
+      <c r="CH19" s="12">
         <v>42358.938016675456</v>
       </c>
-      <c r="CI19" s="20">
-        <v>48530.75833943153</v>
-      </c>
-      <c r="CJ19" s="20">
-        <v>47508.309366179608</v>
-      </c>
-      <c r="CK19" s="20">
-        <v>46886.013876674115</v>
-      </c>
-      <c r="CL19" s="20">
-        <v>71293.806151458484</v>
-      </c>
-      <c r="CM19" s="20">
-        <v>74229.213036101472</v>
-      </c>
-      <c r="CN19" s="20">
-        <v>77623.628255660617</v>
-      </c>
-      <c r="CO19" s="20">
-        <v>56836.969746965515</v>
+      <c r="CI19" s="12">
+        <v>48530.077690399004</v>
+      </c>
+      <c r="CJ19" s="12">
+        <v>47520.006350940617</v>
+      </c>
+      <c r="CK19" s="12">
+        <v>46962.016693124322</v>
+      </c>
+      <c r="CL19" s="12">
+        <v>71473.602353665425</v>
+      </c>
+      <c r="CM19" s="12">
+        <v>74111.188490433793</v>
+      </c>
+      <c r="CN19" s="12">
+        <v>77729.52414645665</v>
+      </c>
+      <c r="CO19" s="12">
+        <v>56935.311942700049</v>
       </c>
       <c r="CP19" s="9"/>
       <c r="CQ19" s="9"/>
@@ -27124,7 +27072,7 @@
     </row>
     <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -27135,7 +27083,7 @@
     </row>
     <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -27146,144 +27094,144 @@
     <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="22">
+      <c r="B32" s="19">
         <v>2000</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19">
         <v>2001</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22">
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19">
         <v>2002</v>
       </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22">
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19">
         <v>2003</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22">
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19">
         <v>2004</v>
       </c>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22">
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19">
         <v>2005</v>
       </c>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22">
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19">
         <v>2006</v>
       </c>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22">
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19">
         <v>2007</v>
       </c>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
-      <c r="AH32" s="22">
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19">
         <v>2008</v>
       </c>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="22"/>
-      <c r="AL32" s="22">
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19">
         <v>2009</v>
       </c>
-      <c r="AM32" s="22"/>
-      <c r="AN32" s="22"/>
-      <c r="AO32" s="22"/>
-      <c r="AP32" s="22">
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ32" s="22"/>
-      <c r="AR32" s="22"/>
-      <c r="AS32" s="22"/>
-      <c r="AT32" s="22">
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19">
         <v>2011</v>
       </c>
-      <c r="AU32" s="22"/>
-      <c r="AV32" s="22"/>
-      <c r="AW32" s="22"/>
-      <c r="AX32" s="22">
+      <c r="AU32" s="19"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19">
         <v>2012</v>
       </c>
-      <c r="AY32" s="22"/>
-      <c r="AZ32" s="22"/>
-      <c r="BA32" s="22"/>
-      <c r="BB32" s="22">
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="19"/>
+      <c r="BA32" s="19"/>
+      <c r="BB32" s="19">
         <v>2013</v>
       </c>
-      <c r="BC32" s="22"/>
-      <c r="BD32" s="22"/>
-      <c r="BE32" s="22"/>
-      <c r="BF32" s="22">
+      <c r="BC32" s="19"/>
+      <c r="BD32" s="19"/>
+      <c r="BE32" s="19"/>
+      <c r="BF32" s="19">
         <v>2014</v>
       </c>
-      <c r="BG32" s="22"/>
-      <c r="BH32" s="22"/>
-      <c r="BI32" s="22"/>
-      <c r="BJ32" s="22">
+      <c r="BG32" s="19"/>
+      <c r="BH32" s="19"/>
+      <c r="BI32" s="19"/>
+      <c r="BJ32" s="19">
         <v>2015</v>
       </c>
-      <c r="BK32" s="22"/>
-      <c r="BL32" s="22"/>
-      <c r="BM32" s="22"/>
-      <c r="BN32" s="22">
+      <c r="BK32" s="19"/>
+      <c r="BL32" s="19"/>
+      <c r="BM32" s="19"/>
+      <c r="BN32" s="19">
         <v>2016</v>
       </c>
-      <c r="BO32" s="22"/>
-      <c r="BP32" s="22"/>
-      <c r="BQ32" s="22"/>
-      <c r="BR32" s="22">
+      <c r="BO32" s="19"/>
+      <c r="BP32" s="19"/>
+      <c r="BQ32" s="19"/>
+      <c r="BR32" s="19">
         <v>2017</v>
       </c>
-      <c r="BS32" s="22"/>
-      <c r="BT32" s="22"/>
-      <c r="BU32" s="22"/>
-      <c r="BV32" s="22">
+      <c r="BS32" s="19"/>
+      <c r="BT32" s="19"/>
+      <c r="BU32" s="19"/>
+      <c r="BV32" s="19">
         <v>2018</v>
       </c>
-      <c r="BW32" s="22"/>
-      <c r="BX32" s="22"/>
-      <c r="BY32" s="22"/>
-      <c r="BZ32" s="22">
+      <c r="BW32" s="19"/>
+      <c r="BX32" s="19"/>
+      <c r="BY32" s="19"/>
+      <c r="BZ32" s="19">
         <v>2019</v>
       </c>
-      <c r="CA32" s="22"/>
-      <c r="CB32" s="22"/>
-      <c r="CC32" s="22"/>
-      <c r="CD32" s="22">
+      <c r="CA32" s="19"/>
+      <c r="CB32" s="19"/>
+      <c r="CC32" s="19"/>
+      <c r="CD32" s="19">
         <v>2020</v>
       </c>
-      <c r="CE32" s="22"/>
-      <c r="CF32" s="22"/>
-      <c r="CG32" s="22"/>
-      <c r="CH32" s="22">
+      <c r="CE32" s="19"/>
+      <c r="CF32" s="19"/>
+      <c r="CG32" s="19"/>
+      <c r="CH32" s="19">
         <v>2021</v>
       </c>
-      <c r="CI32" s="22"/>
-      <c r="CJ32" s="22"/>
-      <c r="CK32" s="22"/>
-      <c r="CL32" s="22">
+      <c r="CI32" s="19"/>
+      <c r="CJ32" s="19"/>
+      <c r="CK32" s="19"/>
+      <c r="CL32" s="19">
         <v>2022</v>
       </c>
-      <c r="CM32" s="22"/>
-      <c r="CN32" s="22"/>
-      <c r="CO32" s="22"/>
+      <c r="CM32" s="19"/>
+      <c r="CN32" s="19"/>
+      <c r="CO32" s="19"/>
     </row>
     <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -27825,29 +27773,29 @@
       <c r="CG35" s="8">
         <v>3725.5687314519337</v>
       </c>
-      <c r="CH35" s="19">
+      <c r="CH35" s="8">
         <v>7366.6241073344327</v>
       </c>
-      <c r="CI35" s="19">
+      <c r="CI35" s="8">
         <v>7976.3502756595108</v>
       </c>
-      <c r="CJ35" s="19">
+      <c r="CJ35" s="8">
         <v>1954.5648260456455</v>
       </c>
-      <c r="CK35" s="19">
-        <v>4377.4613066335278</v>
-      </c>
-      <c r="CL35" s="19">
-        <v>10929.826736943727</v>
-      </c>
-      <c r="CM35" s="19">
-        <v>6327.0602770779406</v>
-      </c>
-      <c r="CN35" s="19">
+      <c r="CK35" s="8">
+        <v>4440.831846489732</v>
+      </c>
+      <c r="CL35" s="8">
+        <v>10958.03015047024</v>
+      </c>
+      <c r="CM35" s="8">
+        <v>6334.6974061478777</v>
+      </c>
+      <c r="CN35" s="8">
         <v>3454.7335177153209</v>
       </c>
-      <c r="CO35" s="19">
-        <v>3071.1324566476301</v>
+      <c r="CO35" s="8">
+        <v>3034.4308903112847</v>
       </c>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
@@ -28167,28 +28115,28 @@
       <c r="CG36" s="8">
         <v>6360.8779189578154</v>
       </c>
-      <c r="CH36" s="19">
+      <c r="CH36" s="8">
         <v>5489.642902099733</v>
       </c>
-      <c r="CI36" s="19">
+      <c r="CI36" s="8">
         <v>14061.606274353939</v>
       </c>
-      <c r="CJ36" s="19">
+      <c r="CJ36" s="8">
         <v>3881.2041812060897</v>
       </c>
-      <c r="CK36" s="19">
+      <c r="CK36" s="8">
         <v>4896.2167341823924</v>
       </c>
-      <c r="CL36" s="19">
+      <c r="CL36" s="8">
         <v>5486.7089418083433</v>
       </c>
-      <c r="CM36" s="19">
+      <c r="CM36" s="8">
         <v>12545.706395806543</v>
       </c>
-      <c r="CN36" s="19">
+      <c r="CN36" s="8">
         <v>3588.5976323687337</v>
       </c>
-      <c r="CO36" s="19">
+      <c r="CO36" s="8">
         <v>4874.4539561299507</v>
       </c>
       <c r="CP36" s="9"/>
@@ -28509,29 +28457,29 @@
       <c r="CG37" s="8">
         <v>4610.8806062339672</v>
       </c>
-      <c r="CH37" s="19">
+      <c r="CH37" s="8">
         <v>5018.3374156152431</v>
       </c>
-      <c r="CI37" s="19">
+      <c r="CI37" s="8">
         <v>6052.7885216024242</v>
       </c>
-      <c r="CJ37" s="19">
+      <c r="CJ37" s="8">
         <v>5347.3605298945513</v>
       </c>
-      <c r="CK37" s="19">
+      <c r="CK37" s="8">
         <v>5972.151005999438</v>
       </c>
-      <c r="CL37" s="19">
-        <v>6056.9627438104289</v>
-      </c>
-      <c r="CM37" s="19">
-        <v>8123.8270819044064</v>
-      </c>
-      <c r="CN37" s="19">
-        <v>6610.6554306265043</v>
-      </c>
-      <c r="CO37" s="19">
-        <v>7038.0395275640622</v>
+      <c r="CL37" s="8">
+        <v>6004.3560619430173</v>
+      </c>
+      <c r="CM37" s="8">
+        <v>8059.7520011142842</v>
+      </c>
+      <c r="CN37" s="8">
+        <v>6666.4661185470686</v>
+      </c>
+      <c r="CO37" s="8">
+        <v>7052.931592245819</v>
       </c>
       <c r="CP37" s="9"/>
       <c r="CQ37" s="9"/>
@@ -28851,29 +28799,29 @@
       <c r="CG38" s="8">
         <v>1743.9240612838362</v>
       </c>
-      <c r="CH38" s="19">
+      <c r="CH38" s="8">
         <v>4996.8693390372027</v>
       </c>
-      <c r="CI38" s="19">
+      <c r="CI38" s="8">
         <v>10383.722352801096</v>
       </c>
-      <c r="CJ38" s="19">
-        <v>6661.2455643121284</v>
-      </c>
-      <c r="CK38" s="19">
-        <v>1463.4685481201896</v>
-      </c>
-      <c r="CL38" s="19">
-        <v>4372.1212272395496</v>
-      </c>
-      <c r="CM38" s="19">
-        <v>6843.6761763287359</v>
-      </c>
-      <c r="CN38" s="19">
-        <v>5633.9601596777102</v>
-      </c>
-      <c r="CO38" s="19">
-        <v>1584.8087780883652</v>
+      <c r="CJ38" s="8">
+        <v>6670.9845485026926</v>
+      </c>
+      <c r="CK38" s="8">
+        <v>1464.8652129565066</v>
+      </c>
+      <c r="CL38" s="8">
+        <v>4453.3563068360563</v>
+      </c>
+      <c r="CM38" s="8">
+        <v>6851.5622273177451</v>
+      </c>
+      <c r="CN38" s="8">
+        <v>5652.805563576303</v>
+      </c>
+      <c r="CO38" s="8">
+        <v>1604.1539505589053</v>
       </c>
       <c r="CP38" s="9"/>
       <c r="CQ38" s="9"/>
@@ -29193,29 +29141,29 @@
       <c r="CG39" s="8">
         <v>970.2219894318423</v>
       </c>
-      <c r="CH39" s="19">
+      <c r="CH39" s="8">
         <v>2726.9761640608922</v>
       </c>
-      <c r="CI39" s="19">
+      <c r="CI39" s="8">
         <v>896.93250467388657</v>
       </c>
-      <c r="CJ39" s="19">
+      <c r="CJ39" s="8">
         <v>1199.3326437335306</v>
       </c>
-      <c r="CK39" s="19">
+      <c r="CK39" s="8">
         <v>1123.2391614790699</v>
       </c>
-      <c r="CL39" s="19">
-        <v>4364.912093966399</v>
-      </c>
-      <c r="CM39" s="19">
-        <v>1241.2726743256744</v>
-      </c>
-      <c r="CN39" s="19">
+      <c r="CL39" s="8">
+        <v>4332.1992264646178</v>
+      </c>
+      <c r="CM39" s="8">
+        <v>1230.4443119866219</v>
+      </c>
+      <c r="CN39" s="8">
         <v>1532.0808593139413</v>
       </c>
-      <c r="CO39" s="19">
-        <v>1471.407261641421</v>
+      <c r="CO39" s="8">
+        <v>1476.0047410557795</v>
       </c>
       <c r="CP39" s="9"/>
       <c r="CQ39" s="9"/>
@@ -29535,29 +29483,29 @@
       <c r="CG40" s="8">
         <v>13767.839691706578</v>
       </c>
-      <c r="CH40" s="19">
+      <c r="CH40" s="8">
         <v>11027.147252327914</v>
       </c>
-      <c r="CI40" s="19">
-        <v>7034.1807302043835</v>
-      </c>
-      <c r="CJ40" s="19">
-        <v>7850.5733108531986</v>
-      </c>
-      <c r="CK40" s="19">
-        <v>16673.0405489929</v>
-      </c>
-      <c r="CL40" s="19">
+      <c r="CI40" s="8">
+        <v>7033.581437816134</v>
+      </c>
+      <c r="CJ40" s="8">
+        <v>7849.21975464772</v>
+      </c>
+      <c r="CK40" s="8">
+        <v>16667.551953593211</v>
+      </c>
+      <c r="CL40" s="8">
         <v>12849.55154957661</v>
       </c>
-      <c r="CM40" s="19">
-        <v>8255.1212022029849</v>
-      </c>
-      <c r="CN40" s="19">
-        <v>8766.5439834168792</v>
-      </c>
-      <c r="CO40" s="19">
-        <v>17043.238231214007</v>
+      <c r="CM40" s="8">
+        <v>8242.9211698626095</v>
+      </c>
+      <c r="CN40" s="8">
+        <v>8752.1789888420681</v>
+      </c>
+      <c r="CO40" s="8">
+        <v>17146.413780542847</v>
       </c>
       <c r="CP40" s="9"/>
       <c r="CQ40" s="9"/>
@@ -29706,14 +29654,14 @@
       <c r="CE41" s="12"/>
       <c r="CF41" s="12"/>
       <c r="CG41" s="12"/>
-      <c r="CH41" s="20"/>
-      <c r="CI41" s="20"/>
-      <c r="CJ41" s="20"/>
-      <c r="CK41" s="20"/>
-      <c r="CL41" s="20"/>
-      <c r="CM41" s="20"/>
-      <c r="CN41" s="20"/>
-      <c r="CO41" s="20"/>
+      <c r="CH41" s="12"/>
+      <c r="CI41" s="12"/>
+      <c r="CJ41" s="12"/>
+      <c r="CK41" s="12"/>
+      <c r="CL41" s="12"/>
+      <c r="CM41" s="12"/>
+      <c r="CN41" s="12"/>
+      <c r="CO41" s="12"/>
       <c r="CP41" s="9"/>
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
@@ -30032,29 +29980,29 @@
       <c r="CG42" s="12">
         <v>31179.312999065973</v>
       </c>
-      <c r="CH42" s="20">
+      <c r="CH42" s="12">
         <v>36625.597180475415</v>
       </c>
-      <c r="CI42" s="20">
-        <v>46405.580659295236</v>
-      </c>
-      <c r="CJ42" s="20">
-        <v>26894.281056045147</v>
-      </c>
-      <c r="CK42" s="20">
-        <v>34505.577305407518</v>
-      </c>
-      <c r="CL42" s="20">
-        <v>44060.083293345058</v>
-      </c>
-      <c r="CM42" s="20">
-        <v>43336.663807646284</v>
-      </c>
-      <c r="CN42" s="20">
-        <v>29586.57158311909</v>
-      </c>
-      <c r="CO42" s="20">
-        <v>35083.080211285429</v>
+      <c r="CI42" s="12">
+        <v>46404.981366906984</v>
+      </c>
+      <c r="CJ42" s="12">
+        <v>26902.666484030233</v>
+      </c>
+      <c r="CK42" s="12">
+        <v>34564.855914700347</v>
+      </c>
+      <c r="CL42" s="12">
+        <v>44084.202237098885</v>
+      </c>
+      <c r="CM42" s="12">
+        <v>43265.08351223568</v>
+      </c>
+      <c r="CN42" s="12">
+        <v>29646.862680363436</v>
+      </c>
+      <c r="CO42" s="12">
+        <v>35188.388910844587</v>
       </c>
       <c r="CP42" s="9"/>
       <c r="CQ42" s="9"/>
@@ -30540,7 +30488,7 @@
     </row>
     <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -30551,7 +30499,7 @@
     </row>
     <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -30562,142 +30510,142 @@
     <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22" t="s">
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22" t="s">
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22" t="s">
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22" t="s">
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22" t="s">
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W55" s="22"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="22" t="s">
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="22"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="22" t="s">
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="19"/>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="22"/>
-      <c r="AF55" s="22"/>
-      <c r="AG55" s="22"/>
-      <c r="AH55" s="22" t="s">
+      <c r="AE55" s="19"/>
+      <c r="AF55" s="19"/>
+      <c r="AG55" s="19"/>
+      <c r="AH55" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="22"/>
-      <c r="AJ55" s="22"/>
-      <c r="AK55" s="22"/>
-      <c r="AL55" s="22" t="s">
+      <c r="AI55" s="19"/>
+      <c r="AJ55" s="19"/>
+      <c r="AK55" s="19"/>
+      <c r="AL55" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AM55" s="22"/>
-      <c r="AN55" s="22"/>
-      <c r="AO55" s="22"/>
-      <c r="AP55" s="22" t="s">
+      <c r="AM55" s="19"/>
+      <c r="AN55" s="19"/>
+      <c r="AO55" s="19"/>
+      <c r="AP55" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AQ55" s="22"/>
-      <c r="AR55" s="22"/>
-      <c r="AS55" s="22"/>
-      <c r="AT55" s="22" t="s">
+      <c r="AQ55" s="19"/>
+      <c r="AR55" s="19"/>
+      <c r="AS55" s="19"/>
+      <c r="AT55" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AU55" s="22"/>
-      <c r="AV55" s="22"/>
-      <c r="AW55" s="22"/>
-      <c r="AX55" s="22" t="s">
+      <c r="AU55" s="19"/>
+      <c r="AV55" s="19"/>
+      <c r="AW55" s="19"/>
+      <c r="AX55" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AY55" s="22"/>
-      <c r="AZ55" s="22"/>
-      <c r="BA55" s="22"/>
-      <c r="BB55" s="22" t="s">
+      <c r="AY55" s="19"/>
+      <c r="AZ55" s="19"/>
+      <c r="BA55" s="19"/>
+      <c r="BB55" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="BC55" s="22"/>
-      <c r="BD55" s="22"/>
-      <c r="BE55" s="22"/>
-      <c r="BF55" s="22" t="s">
+      <c r="BC55" s="19"/>
+      <c r="BD55" s="19"/>
+      <c r="BE55" s="19"/>
+      <c r="BF55" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="BG55" s="22"/>
-      <c r="BH55" s="22"/>
-      <c r="BI55" s="22"/>
-      <c r="BJ55" s="22" t="s">
+      <c r="BG55" s="19"/>
+      <c r="BH55" s="19"/>
+      <c r="BI55" s="19"/>
+      <c r="BJ55" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BK55" s="22"/>
-      <c r="BL55" s="22"/>
-      <c r="BM55" s="22"/>
-      <c r="BN55" s="22" t="s">
+      <c r="BK55" s="19"/>
+      <c r="BL55" s="19"/>
+      <c r="BM55" s="19"/>
+      <c r="BN55" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="BO55" s="22"/>
-      <c r="BP55" s="22"/>
-      <c r="BQ55" s="22"/>
-      <c r="BR55" s="22" t="s">
+      <c r="BO55" s="19"/>
+      <c r="BP55" s="19"/>
+      <c r="BQ55" s="19"/>
+      <c r="BR55" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="BS55" s="22"/>
-      <c r="BT55" s="22"/>
-      <c r="BU55" s="22"/>
-      <c r="BV55" s="22" t="s">
+      <c r="BS55" s="19"/>
+      <c r="BT55" s="19"/>
+      <c r="BU55" s="19"/>
+      <c r="BV55" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="BW55" s="22"/>
-      <c r="BX55" s="22"/>
-      <c r="BY55" s="22"/>
-      <c r="BZ55" s="22" t="s">
+      <c r="BW55" s="19"/>
+      <c r="BX55" s="19"/>
+      <c r="BY55" s="19"/>
+      <c r="BZ55" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="CA55" s="22"/>
-      <c r="CB55" s="22"/>
-      <c r="CC55" s="22"/>
-      <c r="CD55" s="22" t="s">
+      <c r="CA55" s="19"/>
+      <c r="CB55" s="19"/>
+      <c r="CC55" s="19"/>
+      <c r="CD55" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="CE55" s="22"/>
-      <c r="CF55" s="22"/>
-      <c r="CG55" s="22"/>
-      <c r="CH55" s="22" t="s">
+      <c r="CE55" s="19"/>
+      <c r="CF55" s="19"/>
+      <c r="CG55" s="19"/>
+      <c r="CH55" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="CI55" s="22"/>
-      <c r="CJ55" s="22"/>
-      <c r="CK55" s="22"/>
-      <c r="CL55" s="22"/>
-      <c r="CM55" s="22"/>
-      <c r="CN55" s="21"/>
-      <c r="CO55" s="21"/>
+      <c r="CI55" s="19"/>
+      <c r="CJ55" s="19"/>
+      <c r="CK55" s="19"/>
+      <c r="CL55" s="19"/>
+      <c r="CM55" s="19"/>
+      <c r="CN55" s="19"/>
+      <c r="CO55" s="19"/>
     </row>
     <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
@@ -31220,7 +31168,7 @@
         <v>-22.123637088598386</v>
       </c>
       <c r="CD58" s="15">
-        <v>73.061841467558708</v>
+        <v>73.061841467558679</v>
       </c>
       <c r="CE58" s="15">
         <v>83.703277904520206</v>
@@ -31229,19 +31177,19 @@
         <v>111.65677550543344</v>
       </c>
       <c r="CG58" s="15">
-        <v>252.8010165945982</v>
+        <v>257.90835834300788</v>
       </c>
       <c r="CH58" s="15">
-        <v>354.50438396287961</v>
+        <v>355.67719076019068</v>
       </c>
       <c r="CI58" s="15">
-        <v>128.17393784198927</v>
+        <v>128.44935703153112</v>
       </c>
       <c r="CJ58" s="15">
         <v>321.56384396550771</v>
       </c>
       <c r="CK58" s="15">
-        <v>40.977293833198956</v>
+        <v>37.30484426126992</v>
       </c>
       <c r="CL58" s="15"/>
       <c r="CM58" s="15"/>
@@ -31834,16 +31782,16 @@
         <v>12.885274674450372</v>
       </c>
       <c r="CH60" s="15">
-        <v>27.098504011078177</v>
+        <v>25.994612366182807</v>
       </c>
       <c r="CI60" s="15">
-        <v>38.036402941843193</v>
+        <v>36.947668090485053</v>
       </c>
       <c r="CJ60" s="15">
-        <v>18.737634774188635</v>
+        <v>19.740081377003122</v>
       </c>
       <c r="CK60" s="15">
-        <v>18.53614455428459</v>
+        <v>18.786959845235245</v>
       </c>
       <c r="CL60" s="15"/>
       <c r="CM60" s="15"/>
@@ -32157,22 +32105,22 @@
         <v>73.281869246586183</v>
       </c>
       <c r="CF61" s="15">
-        <v>54.740327348940923</v>
+        <v>54.966563356478019</v>
       </c>
       <c r="CG61" s="15">
-        <v>2.3939110575617519</v>
+        <v>2.4916309403776609</v>
       </c>
       <c r="CH61" s="15">
-        <v>50.422999428678054</v>
+        <v>53.217895474927218</v>
       </c>
       <c r="CI61" s="15">
-        <v>9.9189351355975219</v>
+        <v>10.045596056541626</v>
       </c>
       <c r="CJ61" s="15">
-        <v>-2.1490726447174211</v>
+        <v>-1.9650952514981697</v>
       </c>
       <c r="CK61" s="15">
-        <v>39.129282133051674</v>
+        <v>40.693310625311057</v>
       </c>
       <c r="CL61" s="15"/>
       <c r="CM61" s="15"/>
@@ -32492,16 +32440,16 @@
         <v>38.240251722177078</v>
       </c>
       <c r="CH62" s="15">
-        <v>95.625997418338784</v>
+        <v>94.159876865236271</v>
       </c>
       <c r="CI62" s="15">
-        <v>57.883217777367065</v>
+        <v>56.505908242798029</v>
       </c>
       <c r="CJ62" s="15">
         <v>5.697926485608491</v>
       </c>
       <c r="CK62" s="15">
-        <v>9.3610359588791567</v>
+        <v>9.702739527062505</v>
       </c>
       <c r="CL62" s="15"/>
       <c r="CM62" s="15"/>
@@ -32812,25 +32760,25 @@
         <v>-5.3424162132411652</v>
       </c>
       <c r="CE63" s="15">
-        <v>30.369997931716398</v>
+        <v>30.358890775046234</v>
       </c>
       <c r="CF63" s="15">
-        <v>20.076158489249323</v>
+        <v>20.055455564377752</v>
       </c>
       <c r="CG63" s="15">
-        <v>-0.30169287446821613</v>
+        <v>-0.33451254333655811</v>
       </c>
       <c r="CH63" s="15">
         <v>17.965655216977723</v>
       </c>
       <c r="CI63" s="15">
-        <v>21.738363234830985</v>
+        <v>21.560887352902512</v>
       </c>
       <c r="CJ63" s="15">
-        <v>18.524083229476901</v>
+        <v>18.350273189774086</v>
       </c>
       <c r="CK63" s="15">
-        <v>10.11445626450633</v>
+        <v>10.872811751645628</v>
       </c>
       <c r="CL63" s="15"/>
       <c r="CM63" s="15"/>
@@ -33291,25 +33239,25 @@
         <v>26.303416268877797</v>
       </c>
       <c r="CE65" s="15">
-        <v>49.568417018317632</v>
+        <v>49.566319305406836</v>
       </c>
       <c r="CF65" s="15">
-        <v>39.607981779550386</v>
+        <v>39.64235455469597</v>
       </c>
       <c r="CG65" s="15">
-        <v>26.562020337138776</v>
+        <v>26.767178959207854</v>
       </c>
       <c r="CH65" s="15">
-        <v>68.308766672554981</v>
+        <v>68.733225383337981</v>
       </c>
       <c r="CI65" s="15">
-        <v>52.952922179643338</v>
+        <v>52.711868633780597</v>
       </c>
       <c r="CJ65" s="15">
-        <v>63.389582351502526</v>
+        <v>63.572209086874551</v>
       </c>
       <c r="CK65" s="15">
-        <v>21.223719074233401</v>
+        <v>21.236939875786703</v>
       </c>
       <c r="CL65" s="15"/>
       <c r="CM65" s="15"/>
@@ -33787,7 +33735,7 @@
     </row>
     <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -33798,7 +33746,7 @@
     </row>
     <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -33809,142 +33757,142 @@
     <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="22" t="s">
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="22" t="s">
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="23"/>
-      <c r="N78" s="22" t="s">
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O78" s="23"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="23"/>
-      <c r="R78" s="22" t="s">
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="23"/>
-      <c r="T78" s="23"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="22" t="s">
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W78" s="23"/>
-      <c r="X78" s="23"/>
-      <c r="Y78" s="23"/>
-      <c r="Z78" s="22" t="s">
+      <c r="W78" s="20"/>
+      <c r="X78" s="20"/>
+      <c r="Y78" s="20"/>
+      <c r="Z78" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AA78" s="23"/>
-      <c r="AB78" s="23"/>
-      <c r="AC78" s="23"/>
-      <c r="AD78" s="22" t="s">
+      <c r="AA78" s="20"/>
+      <c r="AB78" s="20"/>
+      <c r="AC78" s="20"/>
+      <c r="AD78" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="23"/>
-      <c r="AF78" s="23"/>
-      <c r="AG78" s="23"/>
-      <c r="AH78" s="22" t="s">
+      <c r="AE78" s="20"/>
+      <c r="AF78" s="20"/>
+      <c r="AG78" s="20"/>
+      <c r="AH78" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AI78" s="23"/>
-      <c r="AJ78" s="23"/>
-      <c r="AK78" s="23"/>
-      <c r="AL78" s="22" t="s">
+      <c r="AI78" s="20"/>
+      <c r="AJ78" s="20"/>
+      <c r="AK78" s="20"/>
+      <c r="AL78" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AM78" s="23"/>
-      <c r="AN78" s="23"/>
-      <c r="AO78" s="23"/>
-      <c r="AP78" s="22" t="s">
+      <c r="AM78" s="20"/>
+      <c r="AN78" s="20"/>
+      <c r="AO78" s="20"/>
+      <c r="AP78" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AQ78" s="23"/>
-      <c r="AR78" s="23"/>
-      <c r="AS78" s="23"/>
-      <c r="AT78" s="22" t="s">
+      <c r="AQ78" s="20"/>
+      <c r="AR78" s="20"/>
+      <c r="AS78" s="20"/>
+      <c r="AT78" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AU78" s="23"/>
-      <c r="AV78" s="23"/>
-      <c r="AW78" s="23"/>
-      <c r="AX78" s="22" t="s">
+      <c r="AU78" s="20"/>
+      <c r="AV78" s="20"/>
+      <c r="AW78" s="20"/>
+      <c r="AX78" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AY78" s="23"/>
-      <c r="AZ78" s="23"/>
-      <c r="BA78" s="23"/>
-      <c r="BB78" s="22" t="s">
+      <c r="AY78" s="20"/>
+      <c r="AZ78" s="20"/>
+      <c r="BA78" s="20"/>
+      <c r="BB78" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="BC78" s="23"/>
-      <c r="BD78" s="23"/>
-      <c r="BE78" s="23"/>
-      <c r="BF78" s="22" t="s">
+      <c r="BC78" s="20"/>
+      <c r="BD78" s="20"/>
+      <c r="BE78" s="20"/>
+      <c r="BF78" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="BG78" s="23"/>
-      <c r="BH78" s="23"/>
-      <c r="BI78" s="23"/>
-      <c r="BJ78" s="22" t="s">
+      <c r="BG78" s="20"/>
+      <c r="BH78" s="20"/>
+      <c r="BI78" s="20"/>
+      <c r="BJ78" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BK78" s="23"/>
-      <c r="BL78" s="23"/>
-      <c r="BM78" s="23"/>
-      <c r="BN78" s="22" t="s">
+      <c r="BK78" s="20"/>
+      <c r="BL78" s="20"/>
+      <c r="BM78" s="20"/>
+      <c r="BN78" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="BO78" s="23"/>
-      <c r="BP78" s="23"/>
-      <c r="BQ78" s="23"/>
-      <c r="BR78" s="22" t="s">
+      <c r="BO78" s="20"/>
+      <c r="BP78" s="20"/>
+      <c r="BQ78" s="20"/>
+      <c r="BR78" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="BS78" s="23"/>
-      <c r="BT78" s="23"/>
-      <c r="BU78" s="23"/>
-      <c r="BV78" s="22" t="s">
+      <c r="BS78" s="20"/>
+      <c r="BT78" s="20"/>
+      <c r="BU78" s="20"/>
+      <c r="BV78" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="BW78" s="23"/>
-      <c r="BX78" s="23"/>
-      <c r="BY78" s="23"/>
-      <c r="BZ78" s="22" t="s">
+      <c r="BW78" s="20"/>
+      <c r="BX78" s="20"/>
+      <c r="BY78" s="20"/>
+      <c r="BZ78" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="CA78" s="23"/>
-      <c r="CB78" s="23"/>
-      <c r="CC78" s="23"/>
-      <c r="CD78" s="22" t="s">
+      <c r="CA78" s="20"/>
+      <c r="CB78" s="20"/>
+      <c r="CC78" s="20"/>
+      <c r="CD78" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="CE78" s="23"/>
-      <c r="CF78" s="23"/>
-      <c r="CG78" s="23"/>
-      <c r="CH78" s="22" t="s">
+      <c r="CE78" s="20"/>
+      <c r="CF78" s="20"/>
+      <c r="CG78" s="20"/>
+      <c r="CH78" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="CI78" s="22"/>
-      <c r="CJ78" s="22"/>
-      <c r="CK78" s="22"/>
-      <c r="CL78" s="22"/>
-      <c r="CM78" s="22"/>
-      <c r="CN78" s="21"/>
-      <c r="CO78" s="21"/>
+      <c r="CI78" s="20"/>
+      <c r="CJ78" s="20"/>
+      <c r="CK78" s="20"/>
+      <c r="CL78" s="19"/>
+      <c r="CM78" s="20"/>
+      <c r="CN78" s="20"/>
+      <c r="CO78" s="20"/>
     </row>
     <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
@@ -34476,19 +34424,19 @@
         <v>-38.970925777827645</v>
       </c>
       <c r="CG81" s="15">
-        <v>17.497800260083721</v>
+        <v>19.198763104258859</v>
       </c>
       <c r="CH81" s="15">
-        <v>48.36954590993264</v>
+        <v>48.752399889117385</v>
       </c>
       <c r="CI81" s="15">
-        <v>-20.677251394218672</v>
+        <v>-20.581504231594138</v>
       </c>
       <c r="CJ81" s="15">
         <v>76.752056093464233</v>
       </c>
       <c r="CK81" s="15">
-        <v>-29.842156411669706</v>
+        <v>-31.669763791892748</v>
       </c>
       <c r="CL81" s="15"/>
       <c r="CM81" s="15"/>
@@ -35137,16 +35085,16 @@
         <v>29.523002567557626</v>
       </c>
       <c r="CH83" s="15">
-        <v>20.696602124906164</v>
+        <v>19.648313069974961</v>
       </c>
       <c r="CI83" s="15">
-        <v>34.216271606226428</v>
+        <v>33.157667285896423</v>
       </c>
       <c r="CJ83" s="15">
-        <v>23.624644227174713</v>
+        <v>24.668349576917905</v>
       </c>
       <c r="CK83" s="15">
-        <v>17.84764853557563</v>
+        <v>18.097007010717945</v>
       </c>
       <c r="CL83" s="15"/>
       <c r="CM83" s="15"/>
@@ -35460,22 +35408,22 @@
         <v>22.149957853151861</v>
       </c>
       <c r="CF84" s="15">
-        <v>8.6071703968878097</v>
+        <v>8.7659580448232077</v>
       </c>
       <c r="CG84" s="15">
-        <v>-16.081864995725894</v>
+        <v>-16.001777515581324</v>
       </c>
       <c r="CH84" s="15">
-        <v>-12.502790635666884</v>
+        <v>-10.877071128417199</v>
       </c>
       <c r="CI84" s="15">
-        <v>-34.092265337944085</v>
+        <v>-34.016319056629257</v>
       </c>
       <c r="CJ84" s="15">
-        <v>-15.421821560492205</v>
+        <v>-15.262799329297223</v>
       </c>
       <c r="CK84" s="15">
-        <v>8.2912769204391878</v>
+        <v>9.508638499324789</v>
       </c>
       <c r="CL84" s="15"/>
       <c r="CM84" s="15"/>
@@ -35795,16 +35743,16 @@
         <v>15.771356835236631</v>
       </c>
       <c r="CH85" s="15">
-        <v>60.064182133017454</v>
+        <v>58.864579880056539</v>
       </c>
       <c r="CI85" s="15">
-        <v>38.390867524305577</v>
+        <v>37.18360139417581</v>
       </c>
       <c r="CJ85" s="15">
         <v>27.744447490778128</v>
       </c>
       <c r="CK85" s="15">
-        <v>30.996791431656163</v>
+        <v>31.40609690924515</v>
       </c>
       <c r="CL85" s="15"/>
       <c r="CM85" s="15"/>
@@ -36115,25 +36063,25 @@
         <v>-8.7222286138298699</v>
       </c>
       <c r="CE86" s="15">
-        <v>25.157709960457964</v>
+        <v>25.147046876043902</v>
       </c>
       <c r="CF86" s="15">
-        <v>21.653924959359387</v>
+        <v>21.632950003960659</v>
       </c>
       <c r="CG86" s="15">
-        <v>21.1013559304903</v>
+        <v>21.061490595604113</v>
       </c>
       <c r="CH86" s="15">
         <v>16.52652545166633</v>
       </c>
       <c r="CI86" s="15">
-        <v>17.357251950549852</v>
+        <v>17.193797253052992</v>
       </c>
       <c r="CJ86" s="15">
-        <v>11.667564091113917</v>
+        <v>11.503808816916901</v>
       </c>
       <c r="CK86" s="15">
-        <v>2.2203369633349013</v>
+        <v>2.8730183549624542</v>
       </c>
       <c r="CL86" s="15"/>
       <c r="CM86" s="15"/>
@@ -36594,25 +36542,25 @@
         <v>2.0240600225695431</v>
       </c>
       <c r="CE88" s="15">
-        <v>4.1758543008941302</v>
+        <v>4.1745089498472367</v>
       </c>
       <c r="CF88" s="15">
-        <v>3.9621386305685178</v>
+        <v>3.9945532180730225</v>
       </c>
       <c r="CG88" s="15">
-        <v>10.668177026354584</v>
+        <v>10.858298628118561</v>
       </c>
       <c r="CH88" s="15">
-        <v>20.298607217885476</v>
+        <v>20.364459915481035</v>
       </c>
       <c r="CI88" s="15">
-        <v>-6.6132495446627644</v>
+        <v>-6.7662948290945195</v>
       </c>
       <c r="CJ88" s="15">
-        <v>10.010643234758575</v>
+        <v>10.200461719890086</v>
       </c>
       <c r="CK88" s="15">
-        <v>1.6736509021902748</v>
+        <v>1.8039508039119312</v>
       </c>
       <c r="CL88" s="15"/>
       <c r="CM88" s="15"/>
@@ -37090,7 +37038,7 @@
     </row>
     <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -37101,7 +37049,7 @@
     </row>
     <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -37112,144 +37060,144 @@
     <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
-      <c r="B100" s="22">
+      <c r="B100" s="19">
         <v>2000</v>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22">
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19">
         <v>2001</v>
       </c>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="22"/>
-      <c r="J100" s="22">
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19">
         <v>2002</v>
       </c>
-      <c r="K100" s="22"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="22">
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19">
         <v>2003</v>
       </c>
-      <c r="O100" s="22"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="22">
+      <c r="O100" s="19"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19">
         <v>2004</v>
       </c>
-      <c r="S100" s="22"/>
-      <c r="T100" s="22"/>
-      <c r="U100" s="22"/>
-      <c r="V100" s="22">
+      <c r="S100" s="19"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="19"/>
+      <c r="V100" s="19">
         <v>2005</v>
       </c>
-      <c r="W100" s="22"/>
-      <c r="X100" s="22"/>
-      <c r="Y100" s="22"/>
-      <c r="Z100" s="22">
+      <c r="W100" s="19"/>
+      <c r="X100" s="19"/>
+      <c r="Y100" s="19"/>
+      <c r="Z100" s="19">
         <v>2006</v>
       </c>
-      <c r="AA100" s="22"/>
-      <c r="AB100" s="22"/>
-      <c r="AC100" s="22"/>
-      <c r="AD100" s="22">
+      <c r="AA100" s="19"/>
+      <c r="AB100" s="19"/>
+      <c r="AC100" s="19"/>
+      <c r="AD100" s="19">
         <v>2007</v>
       </c>
-      <c r="AE100" s="22"/>
-      <c r="AF100" s="22"/>
-      <c r="AG100" s="22"/>
-      <c r="AH100" s="22">
+      <c r="AE100" s="19"/>
+      <c r="AF100" s="19"/>
+      <c r="AG100" s="19"/>
+      <c r="AH100" s="19">
         <v>2008</v>
       </c>
-      <c r="AI100" s="22"/>
-      <c r="AJ100" s="22"/>
-      <c r="AK100" s="22"/>
-      <c r="AL100" s="22">
+      <c r="AI100" s="19"/>
+      <c r="AJ100" s="19"/>
+      <c r="AK100" s="19"/>
+      <c r="AL100" s="19">
         <v>2009</v>
       </c>
-      <c r="AM100" s="22"/>
-      <c r="AN100" s="22"/>
-      <c r="AO100" s="22"/>
-      <c r="AP100" s="22">
+      <c r="AM100" s="19"/>
+      <c r="AN100" s="19"/>
+      <c r="AO100" s="19"/>
+      <c r="AP100" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ100" s="22"/>
-      <c r="AR100" s="22"/>
-      <c r="AS100" s="22"/>
-      <c r="AT100" s="22">
+      <c r="AQ100" s="19"/>
+      <c r="AR100" s="19"/>
+      <c r="AS100" s="19"/>
+      <c r="AT100" s="19">
         <v>2011</v>
       </c>
-      <c r="AU100" s="22"/>
-      <c r="AV100" s="22"/>
-      <c r="AW100" s="22"/>
-      <c r="AX100" s="22">
+      <c r="AU100" s="19"/>
+      <c r="AV100" s="19"/>
+      <c r="AW100" s="19"/>
+      <c r="AX100" s="19">
         <v>2012</v>
       </c>
-      <c r="AY100" s="22"/>
-      <c r="AZ100" s="22"/>
-      <c r="BA100" s="22"/>
-      <c r="BB100" s="22">
+      <c r="AY100" s="19"/>
+      <c r="AZ100" s="19"/>
+      <c r="BA100" s="19"/>
+      <c r="BB100" s="19">
         <v>2013</v>
       </c>
-      <c r="BC100" s="22"/>
-      <c r="BD100" s="22"/>
-      <c r="BE100" s="22"/>
-      <c r="BF100" s="22">
+      <c r="BC100" s="19"/>
+      <c r="BD100" s="19"/>
+      <c r="BE100" s="19"/>
+      <c r="BF100" s="19">
         <v>2014</v>
       </c>
-      <c r="BG100" s="22"/>
-      <c r="BH100" s="22"/>
-      <c r="BI100" s="22"/>
-      <c r="BJ100" s="22">
+      <c r="BG100" s="19"/>
+      <c r="BH100" s="19"/>
+      <c r="BI100" s="19"/>
+      <c r="BJ100" s="19">
         <v>2015</v>
       </c>
-      <c r="BK100" s="22"/>
-      <c r="BL100" s="22"/>
-      <c r="BM100" s="22"/>
-      <c r="BN100" s="22">
+      <c r="BK100" s="19"/>
+      <c r="BL100" s="19"/>
+      <c r="BM100" s="19"/>
+      <c r="BN100" s="19">
         <v>2016</v>
       </c>
-      <c r="BO100" s="22"/>
-      <c r="BP100" s="22"/>
-      <c r="BQ100" s="22"/>
-      <c r="BR100" s="22">
+      <c r="BO100" s="19"/>
+      <c r="BP100" s="19"/>
+      <c r="BQ100" s="19"/>
+      <c r="BR100" s="19">
         <v>2017</v>
       </c>
-      <c r="BS100" s="22"/>
-      <c r="BT100" s="22"/>
-      <c r="BU100" s="22"/>
-      <c r="BV100" s="22">
+      <c r="BS100" s="19"/>
+      <c r="BT100" s="19"/>
+      <c r="BU100" s="19"/>
+      <c r="BV100" s="19">
         <v>2018</v>
       </c>
-      <c r="BW100" s="22"/>
-      <c r="BX100" s="22"/>
-      <c r="BY100" s="22"/>
-      <c r="BZ100" s="22">
+      <c r="BW100" s="19"/>
+      <c r="BX100" s="19"/>
+      <c r="BY100" s="19"/>
+      <c r="BZ100" s="19">
         <v>2019</v>
       </c>
-      <c r="CA100" s="22"/>
-      <c r="CB100" s="22"/>
-      <c r="CC100" s="22"/>
-      <c r="CD100" s="22">
+      <c r="CA100" s="19"/>
+      <c r="CB100" s="19"/>
+      <c r="CC100" s="19"/>
+      <c r="CD100" s="19">
         <v>2020</v>
       </c>
-      <c r="CE100" s="22"/>
-      <c r="CF100" s="22"/>
-      <c r="CG100" s="22"/>
-      <c r="CH100" s="22">
+      <c r="CE100" s="19"/>
+      <c r="CF100" s="19"/>
+      <c r="CG100" s="19"/>
+      <c r="CH100" s="19">
         <v>2021</v>
       </c>
-      <c r="CI100" s="22"/>
-      <c r="CJ100" s="22"/>
-      <c r="CK100" s="22"/>
-      <c r="CL100" s="22">
+      <c r="CI100" s="19"/>
+      <c r="CJ100" s="19"/>
+      <c r="CK100" s="19"/>
+      <c r="CL100" s="19">
         <v>2022</v>
       </c>
-      <c r="CM100" s="22"/>
-      <c r="CN100" s="22"/>
-      <c r="CO100" s="22"/>
+      <c r="CM100" s="19"/>
+      <c r="CN100" s="19"/>
+      <c r="CO100" s="19"/>
     </row>
     <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
@@ -37792,7 +37740,7 @@
         <v>40.966002497155998</v>
       </c>
       <c r="CH103" s="15">
-        <v>58.353281641871625</v>
+        <v>58.353281641871611</v>
       </c>
       <c r="CI103" s="15">
         <v>92.760380221423347</v>
@@ -37801,19 +37749,19 @@
         <v>337.80242795616897</v>
       </c>
       <c r="CK103" s="15">
-        <v>123.00525877779684</v>
+        <v>123.00525877779687</v>
       </c>
       <c r="CL103" s="15">
         <v>178.7551627404136</v>
       </c>
       <c r="CM103" s="15">
-        <v>266.82763271392383</v>
+        <v>266.82763271392389</v>
       </c>
       <c r="CN103" s="15">
         <v>805.67826580066469</v>
       </c>
       <c r="CO103" s="15">
-        <v>247.17048904038074</v>
+        <v>247.1704890403808</v>
       </c>
       <c r="CP103" s="9"/>
       <c r="CQ103" s="9"/>
@@ -38488,16 +38436,16 @@
         <v>152.1688293420205</v>
       </c>
       <c r="CL105" s="15">
-        <v>170.31457071287491</v>
+        <v>170.31457071287488</v>
       </c>
       <c r="CM105" s="15">
         <v>172.30197337640016</v>
       </c>
       <c r="CN105" s="15">
-        <v>171.74879199662584</v>
+        <v>171.7487919966259</v>
       </c>
       <c r="CO105" s="15">
-        <v>153.05783845230371</v>
+        <v>153.05783845230368</v>
       </c>
       <c r="CP105" s="9"/>
       <c r="CQ105" s="9"/>
@@ -38824,10 +38772,10 @@
         <v>126.06726274079448</v>
       </c>
       <c r="CJ106" s="15">
-        <v>138.47139707289588</v>
+        <v>138.47139707289594</v>
       </c>
       <c r="CK106" s="15">
-        <v>194.70763443677669</v>
+        <v>194.70763443677666</v>
       </c>
       <c r="CL106" s="15">
         <v>292.05471367558511</v>
@@ -38836,7 +38784,7 @@
         <v>210.25118443200734</v>
       </c>
       <c r="CN106" s="15">
-        <v>160.20154212064722</v>
+        <v>160.20154212064719</v>
       </c>
       <c r="CO106" s="15">
         <v>250.15434461000839</v>
@@ -39172,16 +39120,16 @@
         <v>405.42110531462663</v>
       </c>
       <c r="CL107" s="15">
-        <v>55.858418008328847</v>
+        <v>55.858418008328833</v>
       </c>
       <c r="CM107" s="15">
-        <v>273.11858721955025</v>
+        <v>273.11858721955036</v>
       </c>
       <c r="CN107" s="15">
         <v>196.87648742928928</v>
       </c>
       <c r="CO107" s="15">
-        <v>338.4607484827834</v>
+        <v>338.46074848278317</v>
       </c>
       <c r="CP107" s="9"/>
       <c r="CQ107" s="9"/>
@@ -39508,22 +39456,22 @@
         <v>113.57545095979049</v>
       </c>
       <c r="CJ108" s="15">
-        <v>132.14986574874277</v>
+        <v>132.14986574874274</v>
       </c>
       <c r="CK108" s="15">
-        <v>85.007052129596119</v>
+        <v>85.00705212959609</v>
       </c>
       <c r="CL108" s="15">
         <v>114.83826192642988</v>
       </c>
       <c r="CM108" s="15">
-        <v>117.81538229379041</v>
+        <v>117.80770760731136</v>
       </c>
       <c r="CN108" s="15">
-        <v>140.2640221827368</v>
+        <v>140.26402218273677</v>
       </c>
       <c r="CO108" s="15">
-        <v>91.571849614001081</v>
+        <v>91.617520697276063</v>
       </c>
       <c r="CP108" s="9"/>
       <c r="CQ108" s="9"/>
@@ -40002,25 +39950,25 @@
         <v>115.6539176902661</v>
       </c>
       <c r="CI110" s="15">
-        <v>104.5795735123737</v>
+        <v>104.57945733603398</v>
       </c>
       <c r="CJ110" s="15">
-        <v>176.648370957293</v>
+        <v>176.63678943925169</v>
       </c>
       <c r="CK110" s="15">
-        <v>135.87952307445209</v>
+        <v>135.86637482018693</v>
       </c>
       <c r="CL110" s="15">
-        <v>161.81042073115387</v>
+        <v>162.12973974045764</v>
       </c>
       <c r="CM110" s="15">
-        <v>171.28501945967639</v>
+        <v>171.29560947102902</v>
       </c>
       <c r="CN110" s="15">
-        <v>262.36101076323945</v>
+        <v>262.18465334593634</v>
       </c>
       <c r="CO110" s="15">
-        <v>162.00678334019929</v>
+        <v>161.80141718609161</v>
       </c>
       <c r="CP110" s="9"/>
       <c r="CQ110" s="9"/>
@@ -40196,7 +40144,7 @@
     </row>
     <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -40207,7 +40155,7 @@
     </row>
     <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -40218,144 +40166,144 @@
     <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
-      <c r="B123" s="22">
+      <c r="B123" s="19">
         <v>2000</v>
       </c>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22">
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19">
         <v>2001</v>
       </c>
-      <c r="G123" s="22"/>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22">
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19">
         <v>2002</v>
       </c>
-      <c r="K123" s="22"/>
-      <c r="L123" s="22"/>
-      <c r="M123" s="22"/>
-      <c r="N123" s="22">
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19"/>
+      <c r="N123" s="19">
         <v>2003</v>
       </c>
-      <c r="O123" s="22"/>
-      <c r="P123" s="22"/>
-      <c r="Q123" s="22"/>
-      <c r="R123" s="22">
+      <c r="O123" s="19"/>
+      <c r="P123" s="19"/>
+      <c r="Q123" s="19"/>
+      <c r="R123" s="19">
         <v>2004</v>
       </c>
-      <c r="S123" s="22"/>
-      <c r="T123" s="22"/>
-      <c r="U123" s="22"/>
-      <c r="V123" s="22">
+      <c r="S123" s="19"/>
+      <c r="T123" s="19"/>
+      <c r="U123" s="19"/>
+      <c r="V123" s="19">
         <v>2005</v>
       </c>
-      <c r="W123" s="22"/>
-      <c r="X123" s="22"/>
-      <c r="Y123" s="22"/>
-      <c r="Z123" s="22">
+      <c r="W123" s="19"/>
+      <c r="X123" s="19"/>
+      <c r="Y123" s="19"/>
+      <c r="Z123" s="19">
         <v>2006</v>
       </c>
-      <c r="AA123" s="22"/>
-      <c r="AB123" s="22"/>
-      <c r="AC123" s="22"/>
-      <c r="AD123" s="22">
+      <c r="AA123" s="19"/>
+      <c r="AB123" s="19"/>
+      <c r="AC123" s="19"/>
+      <c r="AD123" s="19">
         <v>2007</v>
       </c>
-      <c r="AE123" s="22"/>
-      <c r="AF123" s="22"/>
-      <c r="AG123" s="22"/>
-      <c r="AH123" s="22">
+      <c r="AE123" s="19"/>
+      <c r="AF123" s="19"/>
+      <c r="AG123" s="19"/>
+      <c r="AH123" s="19">
         <v>2008</v>
       </c>
-      <c r="AI123" s="22"/>
-      <c r="AJ123" s="22"/>
-      <c r="AK123" s="22"/>
-      <c r="AL123" s="22">
+      <c r="AI123" s="19"/>
+      <c r="AJ123" s="19"/>
+      <c r="AK123" s="19"/>
+      <c r="AL123" s="19">
         <v>2009</v>
       </c>
-      <c r="AM123" s="22"/>
-      <c r="AN123" s="22"/>
-      <c r="AO123" s="22"/>
-      <c r="AP123" s="22">
+      <c r="AM123" s="19"/>
+      <c r="AN123" s="19"/>
+      <c r="AO123" s="19"/>
+      <c r="AP123" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ123" s="22"/>
-      <c r="AR123" s="22"/>
-      <c r="AS123" s="22"/>
-      <c r="AT123" s="22">
+      <c r="AQ123" s="19"/>
+      <c r="AR123" s="19"/>
+      <c r="AS123" s="19"/>
+      <c r="AT123" s="19">
         <v>2011</v>
       </c>
-      <c r="AU123" s="22"/>
-      <c r="AV123" s="22"/>
-      <c r="AW123" s="22"/>
-      <c r="AX123" s="22">
+      <c r="AU123" s="19"/>
+      <c r="AV123" s="19"/>
+      <c r="AW123" s="19"/>
+      <c r="AX123" s="19">
         <v>2012</v>
       </c>
-      <c r="AY123" s="22"/>
-      <c r="AZ123" s="22"/>
-      <c r="BA123" s="22"/>
-      <c r="BB123" s="22">
+      <c r="AY123" s="19"/>
+      <c r="AZ123" s="19"/>
+      <c r="BA123" s="19"/>
+      <c r="BB123" s="19">
         <v>2013</v>
       </c>
-      <c r="BC123" s="22"/>
-      <c r="BD123" s="22"/>
-      <c r="BE123" s="22"/>
-      <c r="BF123" s="22">
+      <c r="BC123" s="19"/>
+      <c r="BD123" s="19"/>
+      <c r="BE123" s="19"/>
+      <c r="BF123" s="19">
         <v>2014</v>
       </c>
-      <c r="BG123" s="22"/>
-      <c r="BH123" s="22"/>
-      <c r="BI123" s="22"/>
-      <c r="BJ123" s="22">
+      <c r="BG123" s="19"/>
+      <c r="BH123" s="19"/>
+      <c r="BI123" s="19"/>
+      <c r="BJ123" s="19">
         <v>2015</v>
       </c>
-      <c r="BK123" s="22"/>
-      <c r="BL123" s="22"/>
-      <c r="BM123" s="22"/>
-      <c r="BN123" s="22">
+      <c r="BK123" s="19"/>
+      <c r="BL123" s="19"/>
+      <c r="BM123" s="19"/>
+      <c r="BN123" s="19">
         <v>2016</v>
       </c>
-      <c r="BO123" s="22"/>
-      <c r="BP123" s="22"/>
-      <c r="BQ123" s="22"/>
-      <c r="BR123" s="22">
+      <c r="BO123" s="19"/>
+      <c r="BP123" s="19"/>
+      <c r="BQ123" s="19"/>
+      <c r="BR123" s="19">
         <v>2017</v>
       </c>
-      <c r="BS123" s="22"/>
-      <c r="BT123" s="22"/>
-      <c r="BU123" s="22"/>
-      <c r="BV123" s="22">
+      <c r="BS123" s="19"/>
+      <c r="BT123" s="19"/>
+      <c r="BU123" s="19"/>
+      <c r="BV123" s="19">
         <v>2018</v>
       </c>
-      <c r="BW123" s="22"/>
-      <c r="BX123" s="22"/>
-      <c r="BY123" s="22"/>
-      <c r="BZ123" s="22">
+      <c r="BW123" s="19"/>
+      <c r="BX123" s="19"/>
+      <c r="BY123" s="19"/>
+      <c r="BZ123" s="19">
         <v>2019</v>
       </c>
-      <c r="CA123" s="22"/>
-      <c r="CB123" s="22"/>
-      <c r="CC123" s="22"/>
-      <c r="CD123" s="22">
+      <c r="CA123" s="19"/>
+      <c r="CB123" s="19"/>
+      <c r="CC123" s="19"/>
+      <c r="CD123" s="19">
         <v>2020</v>
       </c>
-      <c r="CE123" s="22"/>
-      <c r="CF123" s="22"/>
-      <c r="CG123" s="22"/>
-      <c r="CH123" s="22">
+      <c r="CE123" s="19"/>
+      <c r="CF123" s="19"/>
+      <c r="CG123" s="19"/>
+      <c r="CH123" s="19">
         <v>2021</v>
       </c>
-      <c r="CI123" s="22"/>
-      <c r="CJ123" s="22"/>
-      <c r="CK123" s="22"/>
-      <c r="CL123" s="22">
+      <c r="CI123" s="19"/>
+      <c r="CJ123" s="19"/>
+      <c r="CK123" s="19"/>
+      <c r="CL123" s="19">
         <v>2022</v>
       </c>
-      <c r="CM123" s="22"/>
-      <c r="CN123" s="22"/>
-      <c r="CO123" s="22"/>
+      <c r="CM123" s="19"/>
+      <c r="CN123" s="19"/>
+      <c r="CO123" s="19"/>
     </row>
     <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
@@ -40898,28 +40846,28 @@
         <v>4.1198011477199099</v>
       </c>
       <c r="CH126" s="18">
-        <v>10.14819330729825</v>
+        <v>10.148193307298248</v>
       </c>
       <c r="CI126" s="18">
-        <v>15.245780401256715</v>
+        <v>15.245994227942639</v>
       </c>
       <c r="CJ126" s="18">
-        <v>13.897710793008605</v>
+        <v>13.894289890448993</v>
       </c>
       <c r="CK126" s="18">
-        <v>11.48425119329946</v>
+        <v>11.631648488088169</v>
       </c>
       <c r="CL126" s="18">
-        <v>27.40438563395357</v>
+        <v>27.405984844154315</v>
       </c>
       <c r="CM126" s="18">
-        <v>22.743532454667612</v>
+        <v>22.807248774045114</v>
       </c>
       <c r="CN126" s="18">
-        <v>35.857686272907927</v>
+        <v>35.808835058759236</v>
       </c>
       <c r="CO126" s="18">
-        <v>13.355626005341501</v>
+        <v>13.17322662379199</v>
       </c>
       <c r="CP126" s="9"/>
       <c r="CQ126" s="9"/>
@@ -41243,25 +41191,25 @@
         <v>18.177650287659731</v>
       </c>
       <c r="CI127" s="18">
-        <v>15.999312507205055</v>
+        <v>15.999536902406906</v>
       </c>
       <c r="CJ127" s="18">
-        <v>18.715823472834607</v>
+        <v>18.711216598409237</v>
       </c>
       <c r="CK127" s="18">
-        <v>23.113844011249448</v>
+        <v>23.07643681778659</v>
       </c>
       <c r="CL127" s="18">
-        <v>16.098071438444279</v>
+        <v>16.057575758750307</v>
       </c>
       <c r="CM127" s="18">
-        <v>21.345362075445408</v>
+        <v>21.379355278258387</v>
       </c>
       <c r="CN127" s="18">
-        <v>18.161435374144009</v>
+        <v>18.136692891822157</v>
       </c>
       <c r="CO127" s="18">
-        <v>24.495241391107221</v>
+        <v>24.452931693640853</v>
       </c>
       <c r="CP127" s="9"/>
       <c r="CQ127" s="9"/>
@@ -41585,25 +41533,25 @@
         <v>19.161133838948533</v>
       </c>
       <c r="CI128" s="18">
-        <v>20.894895860520698</v>
+        <v>20.89518891776126</v>
       </c>
       <c r="CJ128" s="18">
-        <v>20.127055422919788</v>
+        <v>20.122101175674381</v>
       </c>
       <c r="CK128" s="18">
-        <v>19.38265064774086</v>
+        <v>19.351281976988812</v>
       </c>
       <c r="CL128" s="18">
-        <v>14.469546026823348</v>
+        <v>14.307790448799576</v>
       </c>
       <c r="CM128" s="18">
-        <v>18.857150444259741</v>
+        <v>18.738212178254766</v>
       </c>
       <c r="CN128" s="18">
-        <v>14.626629932532698</v>
+        <v>14.73002073947584</v>
       </c>
       <c r="CO128" s="18">
-        <v>18.952930140832159</v>
+        <v>18.9602274480823</v>
       </c>
       <c r="CP128" s="9"/>
       <c r="CQ128" s="9"/>
@@ -41927,25 +41875,25 @@
         <v>20.039971875211656</v>
       </c>
       <c r="CI129" s="18">
-        <v>26.973562723301349</v>
+        <v>26.973941035685034</v>
       </c>
       <c r="CJ129" s="18">
-        <v>19.415382105610497</v>
+        <v>19.43898204602376</v>
       </c>
       <c r="CK129" s="18">
-        <v>6.0774733340867053</v>
+        <v>6.0734282824196821</v>
       </c>
       <c r="CL129" s="18">
-        <v>17.91037233253779</v>
+        <v>18.19725966312183</v>
       </c>
       <c r="CM129" s="18">
-        <v>19.384430510430185</v>
+        <v>19.437673350618347</v>
       </c>
       <c r="CN129" s="18">
-        <v>11.627504744482723</v>
+        <v>11.650504470949855</v>
       </c>
       <c r="CO129" s="18">
-        <v>6.9751572432492175</v>
+        <v>7.048105410566202</v>
       </c>
       <c r="CP129" s="9"/>
       <c r="CQ129" s="9"/>
@@ -42269,25 +42217,25 @@
         <v>2.942337595112281</v>
       </c>
       <c r="CI130" s="18">
-        <v>4.4245122861980333</v>
+        <v>4.4245743413224075</v>
       </c>
       <c r="CJ130" s="18">
-        <v>6.0067491502186074</v>
+        <v>6.0052705971065894</v>
       </c>
       <c r="CK130" s="18">
-        <v>9.7125949665359332</v>
+        <v>9.6968762086018234</v>
       </c>
       <c r="CL130" s="18">
-        <v>3.4198915372313476</v>
+        <v>3.3857226628903696</v>
       </c>
       <c r="CM130" s="18">
-        <v>4.5671323364452325</v>
+        <v>4.5345003768964762</v>
       </c>
       <c r="CN130" s="18">
-        <v>3.8858103494715199</v>
+        <v>3.8805164620723587</v>
       </c>
       <c r="CO130" s="18">
-        <v>8.7621420585101948</v>
+        <v>8.7743379701624331</v>
       </c>
       <c r="CP130" s="9"/>
       <c r="CQ130" s="9"/>
@@ -42611,25 +42559,25 @@
         <v>29.530713095769546</v>
       </c>
       <c r="CI131" s="18">
-        <v>16.461936221518137</v>
+        <v>16.460764574881747</v>
       </c>
       <c r="CJ131" s="18">
-        <v>21.837279055407905</v>
+        <v>21.82813969233705</v>
       </c>
       <c r="CK131" s="18">
-        <v>30.229185847087585</v>
+        <v>30.170328226114929</v>
       </c>
       <c r="CL131" s="18">
-        <v>20.697733031009658</v>
+        <v>20.645666622283613</v>
       </c>
       <c r="CM131" s="18">
-        <v>13.102392178751829</v>
+        <v>13.103010041926899</v>
       </c>
       <c r="CN131" s="18">
-        <v>15.840933326461116</v>
+        <v>15.793430376920533</v>
       </c>
       <c r="CO131" s="18">
-        <v>27.458903160959714</v>
+        <v>27.591170853756218</v>
       </c>
       <c r="CP131" s="9"/>
       <c r="CQ131" s="9"/>
@@ -43612,7 +43560,7 @@
     </row>
     <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -43623,7 +43571,7 @@
     </row>
     <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -43634,144 +43582,144 @@
     <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
-      <c r="B146" s="22">
+      <c r="B146" s="19">
         <v>2000</v>
       </c>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="22">
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19">
         <v>2001</v>
       </c>
-      <c r="G146" s="22"/>
-      <c r="H146" s="22"/>
-      <c r="I146" s="22"/>
-      <c r="J146" s="22">
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19">
         <v>2002</v>
       </c>
-      <c r="K146" s="22"/>
-      <c r="L146" s="22"/>
-      <c r="M146" s="22"/>
-      <c r="N146" s="22">
+      <c r="K146" s="19"/>
+      <c r="L146" s="19"/>
+      <c r="M146" s="19"/>
+      <c r="N146" s="19">
         <v>2003</v>
       </c>
-      <c r="O146" s="22"/>
-      <c r="P146" s="22"/>
-      <c r="Q146" s="22"/>
-      <c r="R146" s="22">
+      <c r="O146" s="19"/>
+      <c r="P146" s="19"/>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="19">
         <v>2004</v>
       </c>
-      <c r="S146" s="22"/>
-      <c r="T146" s="22"/>
-      <c r="U146" s="22"/>
-      <c r="V146" s="22">
+      <c r="S146" s="19"/>
+      <c r="T146" s="19"/>
+      <c r="U146" s="19"/>
+      <c r="V146" s="19">
         <v>2005</v>
       </c>
-      <c r="W146" s="22"/>
-      <c r="X146" s="22"/>
-      <c r="Y146" s="22"/>
-      <c r="Z146" s="22">
+      <c r="W146" s="19"/>
+      <c r="X146" s="19"/>
+      <c r="Y146" s="19"/>
+      <c r="Z146" s="19">
         <v>2006</v>
       </c>
-      <c r="AA146" s="22"/>
-      <c r="AB146" s="22"/>
-      <c r="AC146" s="22"/>
-      <c r="AD146" s="22">
+      <c r="AA146" s="19"/>
+      <c r="AB146" s="19"/>
+      <c r="AC146" s="19"/>
+      <c r="AD146" s="19">
         <v>2007</v>
       </c>
-      <c r="AE146" s="22"/>
-      <c r="AF146" s="22"/>
-      <c r="AG146" s="22"/>
-      <c r="AH146" s="22">
+      <c r="AE146" s="19"/>
+      <c r="AF146" s="19"/>
+      <c r="AG146" s="19"/>
+      <c r="AH146" s="19">
         <v>2008</v>
       </c>
-      <c r="AI146" s="22"/>
-      <c r="AJ146" s="22"/>
-      <c r="AK146" s="22"/>
-      <c r="AL146" s="22">
+      <c r="AI146" s="19"/>
+      <c r="AJ146" s="19"/>
+      <c r="AK146" s="19"/>
+      <c r="AL146" s="19">
         <v>2009</v>
       </c>
-      <c r="AM146" s="22"/>
-      <c r="AN146" s="22"/>
-      <c r="AO146" s="22"/>
-      <c r="AP146" s="22">
+      <c r="AM146" s="19"/>
+      <c r="AN146" s="19"/>
+      <c r="AO146" s="19"/>
+      <c r="AP146" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ146" s="22"/>
-      <c r="AR146" s="22"/>
-      <c r="AS146" s="22"/>
-      <c r="AT146" s="22">
+      <c r="AQ146" s="19"/>
+      <c r="AR146" s="19"/>
+      <c r="AS146" s="19"/>
+      <c r="AT146" s="19">
         <v>2011</v>
       </c>
-      <c r="AU146" s="22"/>
-      <c r="AV146" s="22"/>
-      <c r="AW146" s="22"/>
-      <c r="AX146" s="22">
+      <c r="AU146" s="19"/>
+      <c r="AV146" s="19"/>
+      <c r="AW146" s="19"/>
+      <c r="AX146" s="19">
         <v>2012</v>
       </c>
-      <c r="AY146" s="22"/>
-      <c r="AZ146" s="22"/>
-      <c r="BA146" s="22"/>
-      <c r="BB146" s="22">
+      <c r="AY146" s="19"/>
+      <c r="AZ146" s="19"/>
+      <c r="BA146" s="19"/>
+      <c r="BB146" s="19">
         <v>2013</v>
       </c>
-      <c r="BC146" s="22"/>
-      <c r="BD146" s="22"/>
-      <c r="BE146" s="22"/>
-      <c r="BF146" s="22">
+      <c r="BC146" s="19"/>
+      <c r="BD146" s="19"/>
+      <c r="BE146" s="19"/>
+      <c r="BF146" s="19">
         <v>2014</v>
       </c>
-      <c r="BG146" s="22"/>
-      <c r="BH146" s="22"/>
-      <c r="BI146" s="22"/>
-      <c r="BJ146" s="22">
+      <c r="BG146" s="19"/>
+      <c r="BH146" s="19"/>
+      <c r="BI146" s="19"/>
+      <c r="BJ146" s="19">
         <v>2015</v>
       </c>
-      <c r="BK146" s="22"/>
-      <c r="BL146" s="22"/>
-      <c r="BM146" s="22"/>
-      <c r="BN146" s="22">
+      <c r="BK146" s="19"/>
+      <c r="BL146" s="19"/>
+      <c r="BM146" s="19"/>
+      <c r="BN146" s="19">
         <v>2016</v>
       </c>
-      <c r="BO146" s="22"/>
-      <c r="BP146" s="22"/>
-      <c r="BQ146" s="22"/>
-      <c r="BR146" s="22">
+      <c r="BO146" s="19"/>
+      <c r="BP146" s="19"/>
+      <c r="BQ146" s="19"/>
+      <c r="BR146" s="19">
         <v>2017</v>
       </c>
-      <c r="BS146" s="22"/>
-      <c r="BT146" s="22"/>
-      <c r="BU146" s="22"/>
-      <c r="BV146" s="22">
+      <c r="BS146" s="19"/>
+      <c r="BT146" s="19"/>
+      <c r="BU146" s="19"/>
+      <c r="BV146" s="19">
         <v>2018</v>
       </c>
-      <c r="BW146" s="22"/>
-      <c r="BX146" s="22"/>
-      <c r="BY146" s="22"/>
-      <c r="BZ146" s="22">
+      <c r="BW146" s="19"/>
+      <c r="BX146" s="19"/>
+      <c r="BY146" s="19"/>
+      <c r="BZ146" s="19">
         <v>2019</v>
       </c>
-      <c r="CA146" s="22"/>
-      <c r="CB146" s="22"/>
-      <c r="CC146" s="22"/>
-      <c r="CD146" s="22">
+      <c r="CA146" s="19"/>
+      <c r="CB146" s="19"/>
+      <c r="CC146" s="19"/>
+      <c r="CD146" s="19">
         <v>2020</v>
       </c>
-      <c r="CE146" s="22"/>
-      <c r="CF146" s="22"/>
-      <c r="CG146" s="22"/>
-      <c r="CH146" s="22">
+      <c r="CE146" s="19"/>
+      <c r="CF146" s="19"/>
+      <c r="CG146" s="19"/>
+      <c r="CH146" s="19">
         <v>2021</v>
       </c>
-      <c r="CI146" s="22"/>
-      <c r="CJ146" s="22"/>
-      <c r="CK146" s="22"/>
-      <c r="CL146" s="22">
+      <c r="CI146" s="19"/>
+      <c r="CJ146" s="19"/>
+      <c r="CK146" s="19"/>
+      <c r="CL146" s="19">
         <v>2022</v>
       </c>
-      <c r="CM146" s="22"/>
-      <c r="CN146" s="22"/>
-      <c r="CO146" s="22"/>
+      <c r="CM146" s="19"/>
+      <c r="CN146" s="19"/>
+      <c r="CO146" s="19"/>
     </row>
     <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
@@ -44317,25 +44265,25 @@
         <v>20.113321486704592</v>
       </c>
       <c r="CI149" s="18">
-        <v>17.188342786228695</v>
+        <v>17.188564763324578</v>
       </c>
       <c r="CJ149" s="18">
-        <v>7.2675853352336004</v>
+        <v>7.2653200648563967</v>
       </c>
       <c r="CK149" s="18">
-        <v>12.686242771389647</v>
+        <v>12.847823978924955</v>
       </c>
       <c r="CL149" s="18">
-        <v>24.806641113623577</v>
+        <v>24.857045368620856</v>
       </c>
       <c r="CM149" s="18">
-        <v>14.599786234494589</v>
+        <v>14.641592924133334</v>
       </c>
       <c r="CN149" s="18">
-        <v>11.676694300350951</v>
+        <v>11.652948087500535</v>
       </c>
       <c r="CO149" s="18">
-        <v>8.7538848873928607</v>
+        <v>8.6233868165987957</v>
       </c>
       <c r="CP149" s="9"/>
       <c r="CQ149" s="9"/>
@@ -44659,25 +44607,25 @@
         <v>14.988541688614932</v>
       </c>
       <c r="CI150" s="18">
-        <v>30.301541483970933</v>
+        <v>30.301932810130943</v>
       </c>
       <c r="CJ150" s="18">
-        <v>14.431336435869122</v>
+        <v>14.426838259731698</v>
       </c>
       <c r="CK150" s="18">
-        <v>14.189638651300248</v>
+        <v>14.165303469701557</v>
       </c>
       <c r="CL150" s="18">
-        <v>12.452788400963076</v>
+        <v>12.445975345769158</v>
       </c>
       <c r="CM150" s="18">
-        <v>28.949405176853944</v>
+        <v>28.997300773170874</v>
       </c>
       <c r="CN150" s="18">
-        <v>12.129143190136444</v>
+        <v>12.104476858341025</v>
       </c>
       <c r="CO150" s="18">
-        <v>13.894030760052676</v>
+        <v>13.852449933073549</v>
       </c>
       <c r="CP150" s="9"/>
       <c r="CQ150" s="9"/>
@@ -45001,25 +44949,25 @@
         <v>13.701721751831114</v>
       </c>
       <c r="CI151" s="18">
-        <v>13.043234101608045</v>
+        <v>13.043402547121547</v>
       </c>
       <c r="CJ151" s="18">
-        <v>19.882890785409565</v>
+        <v>19.876693386764515</v>
       </c>
       <c r="CK151" s="18">
-        <v>17.307784631858677</v>
+        <v>17.278101840602485</v>
       </c>
       <c r="CL151" s="18">
-        <v>13.747052413596519</v>
+        <v>13.620198976607714</v>
       </c>
       <c r="CM151" s="18">
-        <v>18.745852514080802</v>
+        <v>18.628767927455701</v>
       </c>
       <c r="CN151" s="18">
-        <v>22.343431756041241</v>
+        <v>22.486244802430967</v>
       </c>
       <c r="CO151" s="18">
-        <v>20.061065006772367</v>
+        <v>20.043348986836396</v>
       </c>
       <c r="CP151" s="9"/>
       <c r="CQ151" s="9"/>
@@ -45343,25 +45291,25 @@
         <v>13.643106798818186</v>
       </c>
       <c r="CI152" s="18">
-        <v>22.376020739913301</v>
+        <v>22.376309712745819</v>
       </c>
       <c r="CJ152" s="18">
-        <v>24.768260398672567</v>
+        <v>24.796741068260555</v>
       </c>
       <c r="CK152" s="18">
-        <v>4.2412521754587287</v>
+        <v>4.2380191503517972</v>
       </c>
       <c r="CL152" s="18">
-        <v>9.9230888832657413</v>
+        <v>10.101932394930245</v>
       </c>
       <c r="CM152" s="18">
-        <v>15.791885149962198</v>
+        <v>15.836239459424768</v>
       </c>
       <c r="CN152" s="18">
-        <v>19.042287964490693</v>
+        <v>19.06712903999934</v>
       </c>
       <c r="CO152" s="18">
-        <v>4.517302268056179</v>
+        <v>4.5587592959236813</v>
       </c>
       <c r="CP152" s="9"/>
       <c r="CQ152" s="9"/>
@@ -45685,25 +45633,25 @@
         <v>7.4455473056821706</v>
       </c>
       <c r="CI153" s="18">
-        <v>1.9328117263720246</v>
+        <v>1.9328366874714886</v>
       </c>
       <c r="CJ153" s="18">
-        <v>4.4594337407058191</v>
+        <v>4.4580437572813461</v>
       </c>
       <c r="CK153" s="18">
-        <v>3.2552394400978248</v>
+        <v>3.2496567156276184</v>
       </c>
       <c r="CL153" s="18">
-        <v>9.9067268323246367</v>
+        <v>9.8271013347699245</v>
       </c>
       <c r="CM153" s="18">
-        <v>2.8642552639381194</v>
+        <v>2.8439661086951173</v>
       </c>
       <c r="CN153" s="18">
-        <v>5.1782980498764015</v>
+        <v>5.1677672468483937</v>
       </c>
       <c r="CO153" s="18">
-        <v>4.1940652097249504</v>
+        <v>4.1945789129348139</v>
       </c>
       <c r="CP153" s="9"/>
       <c r="CQ153" s="9"/>
@@ -46027,25 +45975,25 @@
         <v>30.107760968349012</v>
       </c>
       <c r="CI154" s="18">
-        <v>15.158049161907011</v>
+        <v>15.156953479205635</v>
       </c>
       <c r="CJ154" s="18">
-        <v>29.190493304109317</v>
+        <v>29.176363463105474</v>
       </c>
       <c r="CK154" s="18">
-        <v>48.319842329894868</v>
+        <v>48.221094844791587</v>
       </c>
       <c r="CL154" s="18">
-        <v>29.163702356226452</v>
+        <v>29.147746579302101</v>
       </c>
       <c r="CM154" s="18">
-        <v>19.04881566067035</v>
+        <v>19.052132807120206</v>
       </c>
       <c r="CN154" s="18">
-        <v>29.630144739104271</v>
+        <v>29.521433964879741</v>
       </c>
       <c r="CO154" s="18">
-        <v>48.579651868000987</v>
+        <v>48.72747605463276</v>
       </c>
       <c r="CP154" s="9"/>
       <c r="CQ154" s="9"/>
@@ -47108,8 +47056,6 @@
     <mergeCell ref="R146:U146"/>
     <mergeCell ref="V146:Y146"/>
     <mergeCell ref="Z146:AC146"/>
-    <mergeCell ref="CL55:CM55"/>
-    <mergeCell ref="CL78:CM78"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL32:CO32"/>
     <mergeCell ref="CH55:CK55"/>
@@ -47129,43 +47075,10 @@
     <mergeCell ref="CL146:CO146"/>
     <mergeCell ref="CD55:CG55"/>
     <mergeCell ref="CD78:CG78"/>
+    <mergeCell ref="CL55:CO55"/>
+    <mergeCell ref="CL78:CO78"/>
   </mergeCells>
-  <conditionalFormatting sqref="BR58:BU65 BR81:BU88 BR103:BU110">
-    <cfRule type="cellIs" dxfId="7" priority="87" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV58:BY65 BV81:BY88 BV103:BY110">
-    <cfRule type="cellIs" dxfId="6" priority="65" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ58:CG65 BZ81:CG88 BZ103:CG110">
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH103:CI110 CL103:CM110">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CJ103:CK110">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH58:CO65">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH81:CO88">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CN103:CO110">
+  <conditionalFormatting sqref="BR58:CO65 BR81:CO88 BR103:CO110">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BBF2BC-4835-454B-83CC-A72451C94923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169B592F-B551-4A2C-9318-A4536AE36340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CO$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CP$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="58">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -633,13 +633,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -738,7 +741,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -773,6 +776,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -784,7 +792,14 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{34C9E4EF-4E1D-4A0A-AFE2-00CAF31CAADD}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -23634,14 +23649,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BU1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="93" width="8" style="10" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="10"/>
+    <col min="2" max="94" width="8" style="10" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23656,7 +23671,7 @@
     </row>
     <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -23667,7 +23682,7 @@
     </row>
     <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23678,144 +23693,147 @@
     <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="19">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="19"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="19">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="19"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="19"/>
-      <c r="CH9" s="19">
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="19"/>
-      <c r="CJ9" s="19"/>
-      <c r="CK9" s="19"/>
-      <c r="CL9" s="19">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
+      <c r="CP9" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24096,6 +24114,9 @@
       </c>
       <c r="CO10" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP10" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24345,43 +24366,45 @@
       <c r="CC12" s="8">
         <v>1959.7943747016132</v>
       </c>
-      <c r="CD12" s="8">
+      <c r="CD12" s="20">
         <v>2483.8906580435751</v>
       </c>
-      <c r="CE12" s="8">
+      <c r="CE12" s="20">
         <v>4027.632455932488</v>
       </c>
-      <c r="CF12" s="8">
+      <c r="CF12" s="20">
         <v>3119.4689716842854</v>
       </c>
-      <c r="CG12" s="8">
+      <c r="CG12" s="20">
         <v>1526.2165795598621</v>
       </c>
-      <c r="CH12" s="8">
+      <c r="CH12" s="20">
         <v>4298.666912850872</v>
       </c>
-      <c r="CI12" s="8">
+      <c r="CI12" s="20">
         <v>7398.8928434943109</v>
       </c>
-      <c r="CJ12" s="8">
+      <c r="CJ12" s="20">
         <v>6602.5674383594614</v>
       </c>
-      <c r="CK12" s="8">
+      <c r="CK12" s="20">
         <v>5462.4567046615093</v>
       </c>
-      <c r="CL12" s="8">
+      <c r="CL12" s="20">
         <v>19588.044628616666</v>
       </c>
-      <c r="CM12" s="8">
+      <c r="CM12" s="20">
         <v>16902.723128414724</v>
       </c>
-      <c r="CN12" s="8">
+      <c r="CN12" s="20">
         <v>27834.037093563096</v>
       </c>
-      <c r="CO12" s="8">
+      <c r="CO12" s="20">
         <v>7500.2176711747825</v>
       </c>
-      <c r="CP12" s="9"/>
+      <c r="CP12" s="20">
+        <v>15808.40949224123</v>
+      </c>
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
@@ -24687,43 +24710,45 @@
       <c r="CC13" s="8">
         <v>9369.7032996939015</v>
       </c>
-      <c r="CD13" s="8">
+      <c r="CD13" s="20">
         <v>6026.3296659849475</v>
       </c>
-      <c r="CE13" s="8">
+      <c r="CE13" s="20">
         <v>4722.0452881178717</v>
       </c>
-      <c r="CF13" s="8">
+      <c r="CF13" s="20">
         <v>4609.6156453471231</v>
       </c>
-      <c r="CG13" s="8">
+      <c r="CG13" s="20">
         <v>7176.0608086994489</v>
       </c>
-      <c r="CH13" s="8">
+      <c r="CH13" s="20">
         <v>7699.8596182378133</v>
       </c>
-      <c r="CI13" s="8">
+      <c r="CI13" s="20">
         <v>7764.587688842129</v>
       </c>
-      <c r="CJ13" s="8">
+      <c r="CJ13" s="20">
         <v>8891.5713159023253</v>
       </c>
-      <c r="CK13" s="8">
+      <c r="CK13" s="20">
         <v>10837.160110547225</v>
       </c>
-      <c r="CL13" s="8">
+      <c r="CL13" s="20">
         <v>11476.927845447768</v>
       </c>
-      <c r="CM13" s="8">
+      <c r="CM13" s="20">
         <v>15844.494288309581</v>
       </c>
-      <c r="CN13" s="8">
+      <c r="CN13" s="20">
         <v>14097.565080717592</v>
       </c>
-      <c r="CO13" s="8">
+      <c r="CO13" s="20">
         <v>13922.352938909786</v>
       </c>
-      <c r="CP13" s="9"/>
+      <c r="CP13" s="20">
+        <v>6031.8928131160264</v>
+      </c>
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
@@ -25029,43 +25054,45 @@
       <c r="CC14" s="8">
         <v>5597.2428047479962</v>
       </c>
-      <c r="CD14" s="8">
+      <c r="CD14" s="20">
         <v>6662.1925986170727</v>
       </c>
-      <c r="CE14" s="8">
+      <c r="CE14" s="20">
         <v>8195.2215592912289</v>
       </c>
-      <c r="CF14" s="8">
+      <c r="CF14" s="20">
         <v>9346.121991699225</v>
       </c>
-      <c r="CG14" s="8">
+      <c r="CG14" s="20">
         <v>8050.431997065336</v>
       </c>
-      <c r="CH14" s="8">
+      <c r="CH14" s="20">
         <v>8116.4528061324354</v>
       </c>
-      <c r="CI14" s="8">
+      <c r="CI14" s="20">
         <v>10140.451415345182</v>
       </c>
-      <c r="CJ14" s="8">
+      <c r="CJ14" s="20">
         <v>9562.0237566231626</v>
       </c>
-      <c r="CK14" s="8">
+      <c r="CK14" s="20">
         <v>9087.7522723670445</v>
       </c>
-      <c r="CL14" s="8">
+      <c r="CL14" s="20">
         <v>10226.29325097073</v>
       </c>
-      <c r="CM14" s="8">
+      <c r="CM14" s="20">
         <v>13887.111747163812</v>
       </c>
-      <c r="CN14" s="8">
+      <c r="CN14" s="20">
         <v>11449.575027468945</v>
       </c>
-      <c r="CO14" s="8">
+      <c r="CO14" s="20">
         <v>10795.064642611094</v>
       </c>
-      <c r="CP14" s="9"/>
+      <c r="CP14" s="20">
+        <v>11451.257018580403</v>
+      </c>
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
       <c r="CS14" s="9"/>
@@ -25371,43 +25398,45 @@
       <c r="CC15" s="8">
         <v>1596.8662211683732</v>
       </c>
-      <c r="CD15" s="8">
+      <c r="CD15" s="20">
         <v>3769.130025031528</v>
       </c>
-      <c r="CE15" s="8">
+      <c r="CE15" s="20">
         <v>7554.4398255262113</v>
       </c>
-      <c r="CF15" s="8">
+      <c r="CF15" s="20">
         <v>5960.9023409646052</v>
       </c>
-      <c r="CG15" s="8">
+      <c r="CG15" s="20">
         <v>2782.8656619720246</v>
       </c>
-      <c r="CH15" s="8">
+      <c r="CH15" s="20">
         <v>8488.7192651800997</v>
       </c>
-      <c r="CI15" s="8">
+      <c r="CI15" s="20">
         <v>13090.474540780364</v>
       </c>
-      <c r="CJ15" s="8">
+      <c r="CJ15" s="20">
         <v>9237.4055028286966</v>
       </c>
-      <c r="CK15" s="8">
+      <c r="CK15" s="20">
         <v>2852.2044038348649</v>
       </c>
-      <c r="CL15" s="8">
+      <c r="CL15" s="20">
         <v>13006.237010883655</v>
       </c>
-      <c r="CM15" s="8">
+      <c r="CM15" s="20">
         <v>14405.490735031581</v>
       </c>
-      <c r="CN15" s="8">
+      <c r="CN15" s="20">
         <v>9055.8816859309791</v>
       </c>
-      <c r="CO15" s="8">
+      <c r="CO15" s="20">
         <v>4012.8608015561877</v>
       </c>
-      <c r="CP15" s="9"/>
+      <c r="CP15" s="20">
+        <v>14985.133854503285</v>
+      </c>
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
       <c r="CS15" s="9"/>
@@ -25713,43 +25742,45 @@
       <c r="CC16" s="8">
         <v>2620.1412887200363</v>
       </c>
-      <c r="CD16" s="8">
+      <c r="CD16" s="20">
         <v>1381.0105285755335</v>
       </c>
-      <c r="CE16" s="8">
+      <c r="CE16" s="20">
         <v>1819.83522926656</v>
       </c>
-      <c r="CF16" s="8">
+      <c r="CF16" s="20">
         <v>2353.7338989024793</v>
       </c>
-      <c r="CG16" s="8">
+      <c r="CG16" s="20">
         <v>3294.1553325200161</v>
       </c>
-      <c r="CH16" s="8">
+      <c r="CH16" s="20">
         <v>1246.3429581549503</v>
       </c>
-      <c r="CI16" s="8">
+      <c r="CI16" s="20">
         <v>2147.2493653132246</v>
       </c>
-      <c r="CJ16" s="8">
+      <c r="CJ16" s="20">
         <v>2853.7049691362208</v>
       </c>
-      <c r="CK16" s="8">
+      <c r="CK16" s="20">
         <v>4553.8486237951893</v>
       </c>
-      <c r="CL16" s="8">
+      <c r="CL16" s="20">
         <v>2419.8979528721948</v>
       </c>
-      <c r="CM16" s="8">
+      <c r="CM16" s="20">
         <v>3360.5721214211781</v>
       </c>
-      <c r="CN16" s="8">
+      <c r="CN16" s="20">
         <v>3016.3069803937592</v>
       </c>
-      <c r="CO16" s="8">
+      <c r="CO16" s="20">
         <v>4995.6966942187573</v>
       </c>
-      <c r="CP16" s="9"/>
+      <c r="CP16" s="20">
+        <v>2339.4999124600317</v>
+      </c>
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
       <c r="CS16" s="9"/>
@@ -26055,43 +26086,45 @@
       <c r="CC17" s="8">
         <v>15450.240006454096</v>
       </c>
-      <c r="CD17" s="8">
+      <c r="CD17" s="20">
         <v>13214.890931823138</v>
       </c>
-      <c r="CE17" s="8">
+      <c r="CE17" s="20">
         <v>6128.0222538936814</v>
       </c>
-      <c r="CF17" s="8">
+      <c r="CF17" s="20">
         <v>8639.9516950968955</v>
       </c>
-      <c r="CG17" s="8">
+      <c r="CG17" s="20">
         <v>14216.149380776653</v>
       </c>
-      <c r="CH17" s="8">
+      <c r="CH17" s="20">
         <v>12508.896456119282</v>
       </c>
-      <c r="CI17" s="8">
+      <c r="CI17" s="20">
         <v>7988.4218366237901</v>
       </c>
-      <c r="CJ17" s="8">
+      <c r="CJ17" s="20">
         <v>10372.733368090756</v>
       </c>
-      <c r="CK17" s="8">
+      <c r="CK17" s="20">
         <v>14168.594577918491</v>
       </c>
-      <c r="CL17" s="8">
+      <c r="CL17" s="20">
         <v>14756.201664874417</v>
       </c>
-      <c r="CM17" s="8">
+      <c r="CM17" s="20">
         <v>9710.7964700929115</v>
       </c>
-      <c r="CN17" s="8">
+      <c r="CN17" s="20">
         <v>12276.158278382265</v>
       </c>
-      <c r="CO17" s="8">
+      <c r="CO17" s="20">
         <v>15709.119194229439</v>
       </c>
-      <c r="CP17" s="9"/>
+      <c r="CP17" s="20">
+        <v>16605.276469476201</v>
+      </c>
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
       <c r="CS17" s="9"/>
@@ -26552,43 +26585,45 @@
       <c r="CC19" s="12">
         <v>36593.987995486015</v>
       </c>
-      <c r="CD19" s="12">
+      <c r="CD19" s="21">
         <v>33537.444408075797</v>
       </c>
-      <c r="CE19" s="12">
+      <c r="CE19" s="21">
         <v>32447.196612028041</v>
       </c>
-      <c r="CF19" s="12">
+      <c r="CF19" s="21">
         <v>34029.794543694617</v>
       </c>
-      <c r="CG19" s="12">
+      <c r="CG19" s="21">
         <v>37045.879760593336</v>
       </c>
-      <c r="CH19" s="12">
+      <c r="CH19" s="21">
         <v>42358.938016675456</v>
       </c>
-      <c r="CI19" s="12">
+      <c r="CI19" s="21">
         <v>48530.077690399004</v>
       </c>
-      <c r="CJ19" s="12">
+      <c r="CJ19" s="21">
         <v>47520.006350940617</v>
       </c>
-      <c r="CK19" s="12">
+      <c r="CK19" s="21">
         <v>46962.016693124322</v>
       </c>
-      <c r="CL19" s="12">
+      <c r="CL19" s="21">
         <v>71473.602353665425</v>
       </c>
-      <c r="CM19" s="12">
+      <c r="CM19" s="21">
         <v>74111.188490433793</v>
       </c>
-      <c r="CN19" s="12">
+      <c r="CN19" s="21">
         <v>77729.52414645665</v>
       </c>
-      <c r="CO19" s="12">
+      <c r="CO19" s="21">
         <v>56935.311942700049</v>
       </c>
-      <c r="CP19" s="9"/>
+      <c r="CP19" s="21">
+        <v>67221.469560377183</v>
+      </c>
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
       <c r="CS19" s="9"/>
@@ -26744,6 +26779,7 @@
       <c r="CM20" s="13"/>
       <c r="CN20" s="13"/>
       <c r="CO20" s="13"/>
+      <c r="CP20" s="13"/>
     </row>
     <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -27072,7 +27108,7 @@
     </row>
     <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -27083,7 +27119,7 @@
     </row>
     <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -27094,144 +27130,147 @@
     <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="19">
+      <c r="B32" s="22">
         <v>2000</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19">
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22">
         <v>2001</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19">
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22">
         <v>2002</v>
       </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19">
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22">
         <v>2003</v>
       </c>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19">
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22">
         <v>2004</v>
       </c>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19">
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22">
         <v>2005</v>
       </c>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19">
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22">
         <v>2006</v>
       </c>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19">
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22">
         <v>2007</v>
       </c>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19">
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="22"/>
+      <c r="AH32" s="22">
         <v>2008</v>
       </c>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="19"/>
-      <c r="AL32" s="19">
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22">
         <v>2009</v>
       </c>
-      <c r="AM32" s="19"/>
-      <c r="AN32" s="19"/>
-      <c r="AO32" s="19"/>
-      <c r="AP32" s="19">
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="22"/>
+      <c r="AO32" s="22"/>
+      <c r="AP32" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ32" s="19"/>
-      <c r="AR32" s="19"/>
-      <c r="AS32" s="19"/>
-      <c r="AT32" s="19">
+      <c r="AQ32" s="22"/>
+      <c r="AR32" s="22"/>
+      <c r="AS32" s="22"/>
+      <c r="AT32" s="22">
         <v>2011</v>
       </c>
-      <c r="AU32" s="19"/>
-      <c r="AV32" s="19"/>
-      <c r="AW32" s="19"/>
-      <c r="AX32" s="19">
+      <c r="AU32" s="22"/>
+      <c r="AV32" s="22"/>
+      <c r="AW32" s="22"/>
+      <c r="AX32" s="22">
         <v>2012</v>
       </c>
-      <c r="AY32" s="19"/>
-      <c r="AZ32" s="19"/>
-      <c r="BA32" s="19"/>
-      <c r="BB32" s="19">
+      <c r="AY32" s="22"/>
+      <c r="AZ32" s="22"/>
+      <c r="BA32" s="22"/>
+      <c r="BB32" s="22">
         <v>2013</v>
       </c>
-      <c r="BC32" s="19"/>
-      <c r="BD32" s="19"/>
-      <c r="BE32" s="19"/>
-      <c r="BF32" s="19">
+      <c r="BC32" s="22"/>
+      <c r="BD32" s="22"/>
+      <c r="BE32" s="22"/>
+      <c r="BF32" s="22">
         <v>2014</v>
       </c>
-      <c r="BG32" s="19"/>
-      <c r="BH32" s="19"/>
-      <c r="BI32" s="19"/>
-      <c r="BJ32" s="19">
+      <c r="BG32" s="22"/>
+      <c r="BH32" s="22"/>
+      <c r="BI32" s="22"/>
+      <c r="BJ32" s="22">
         <v>2015</v>
       </c>
-      <c r="BK32" s="19"/>
-      <c r="BL32" s="19"/>
-      <c r="BM32" s="19"/>
-      <c r="BN32" s="19">
+      <c r="BK32" s="22"/>
+      <c r="BL32" s="22"/>
+      <c r="BM32" s="22"/>
+      <c r="BN32" s="22">
         <v>2016</v>
       </c>
-      <c r="BO32" s="19"/>
-      <c r="BP32" s="19"/>
-      <c r="BQ32" s="19"/>
-      <c r="BR32" s="19">
+      <c r="BO32" s="22"/>
+      <c r="BP32" s="22"/>
+      <c r="BQ32" s="22"/>
+      <c r="BR32" s="22">
         <v>2017</v>
       </c>
-      <c r="BS32" s="19"/>
-      <c r="BT32" s="19"/>
-      <c r="BU32" s="19"/>
-      <c r="BV32" s="19">
+      <c r="BS32" s="22"/>
+      <c r="BT32" s="22"/>
+      <c r="BU32" s="22"/>
+      <c r="BV32" s="22">
         <v>2018</v>
       </c>
-      <c r="BW32" s="19"/>
-      <c r="BX32" s="19"/>
-      <c r="BY32" s="19"/>
-      <c r="BZ32" s="19">
+      <c r="BW32" s="22"/>
+      <c r="BX32" s="22"/>
+      <c r="BY32" s="22"/>
+      <c r="BZ32" s="22">
         <v>2019</v>
       </c>
-      <c r="CA32" s="19"/>
-      <c r="CB32" s="19"/>
-      <c r="CC32" s="19"/>
-      <c r="CD32" s="19">
+      <c r="CA32" s="22"/>
+      <c r="CB32" s="22"/>
+      <c r="CC32" s="22"/>
+      <c r="CD32" s="22">
         <v>2020</v>
       </c>
-      <c r="CE32" s="19"/>
-      <c r="CF32" s="19"/>
-      <c r="CG32" s="19"/>
-      <c r="CH32" s="19">
+      <c r="CE32" s="22"/>
+      <c r="CF32" s="22"/>
+      <c r="CG32" s="22"/>
+      <c r="CH32" s="22">
         <v>2021</v>
       </c>
-      <c r="CI32" s="19"/>
-      <c r="CJ32" s="19"/>
-      <c r="CK32" s="19"/>
-      <c r="CL32" s="19">
+      <c r="CI32" s="22"/>
+      <c r="CJ32" s="22"/>
+      <c r="CK32" s="22"/>
+      <c r="CL32" s="22">
         <v>2022</v>
       </c>
-      <c r="CM32" s="19"/>
-      <c r="CN32" s="19"/>
-      <c r="CO32" s="19"/>
+      <c r="CM32" s="22"/>
+      <c r="CN32" s="22"/>
+      <c r="CO32" s="22"/>
+      <c r="CP32" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -27512,6 +27551,9 @@
       </c>
       <c r="CO33" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP33" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27761,43 +27803,45 @@
       <c r="CC35" s="8">
         <v>5256.8028553051563</v>
       </c>
-      <c r="CD35" s="8">
+      <c r="CD35" s="20">
         <v>5185.9227969788171</v>
       </c>
-      <c r="CE35" s="8">
+      <c r="CE35" s="20">
         <v>8196.1503092120402</v>
       </c>
-      <c r="CF35" s="8">
+      <c r="CF35" s="20">
         <v>3202.6781512860248</v>
       </c>
-      <c r="CG35" s="8">
+      <c r="CG35" s="20">
         <v>3725.5687314519337</v>
       </c>
-      <c r="CH35" s="8">
+      <c r="CH35" s="20">
         <v>7366.6241073344327</v>
       </c>
-      <c r="CI35" s="8">
+      <c r="CI35" s="20">
         <v>7976.3502756595108</v>
       </c>
-      <c r="CJ35" s="8">
+      <c r="CJ35" s="20">
         <v>1954.5648260456455</v>
       </c>
-      <c r="CK35" s="8">
+      <c r="CK35" s="20">
         <v>4440.831846489732</v>
       </c>
-      <c r="CL35" s="8">
+      <c r="CL35" s="20">
         <v>10958.03015047024</v>
       </c>
-      <c r="CM35" s="8">
+      <c r="CM35" s="20">
         <v>6334.6974061478777</v>
       </c>
-      <c r="CN35" s="8">
+      <c r="CN35" s="20">
         <v>3454.7335177153209</v>
       </c>
-      <c r="CO35" s="8">
+      <c r="CO35" s="20">
         <v>3034.4308903112847</v>
       </c>
-      <c r="CP35" s="9"/>
+      <c r="CP35" s="20">
+        <v>9902.080849591779</v>
+      </c>
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
       <c r="CS35" s="9"/>
@@ -28103,43 +28147,45 @@
       <c r="CC36" s="8">
         <v>7587.4100950403681</v>
       </c>
-      <c r="CD36" s="8">
+      <c r="CD36" s="20">
         <v>6788.1361103667259</v>
       </c>
-      <c r="CE36" s="8">
+      <c r="CE36" s="20">
         <v>15958.954290338446</v>
       </c>
-      <c r="CF36" s="8">
+      <c r="CF36" s="20">
         <v>4216.7631256646146</v>
       </c>
-      <c r="CG36" s="8">
+      <c r="CG36" s="20">
         <v>6360.8779189578154</v>
       </c>
-      <c r="CH36" s="8">
+      <c r="CH36" s="20">
         <v>5489.642902099733</v>
       </c>
-      <c r="CI36" s="8">
+      <c r="CI36" s="20">
         <v>14061.606274353939</v>
       </c>
-      <c r="CJ36" s="8">
+      <c r="CJ36" s="20">
         <v>3881.2041812060897</v>
       </c>
-      <c r="CK36" s="8">
+      <c r="CK36" s="20">
         <v>4896.2167341823924</v>
       </c>
-      <c r="CL36" s="8">
+      <c r="CL36" s="20">
         <v>5486.7089418083433</v>
       </c>
-      <c r="CM36" s="8">
+      <c r="CM36" s="20">
         <v>12545.706395806543</v>
       </c>
-      <c r="CN36" s="8">
+      <c r="CN36" s="20">
         <v>3588.5976323687337</v>
       </c>
-      <c r="CO36" s="8">
+      <c r="CO36" s="20">
         <v>4874.4539561299507</v>
       </c>
-      <c r="CP36" s="9"/>
+      <c r="CP36" s="20">
+        <v>3908.6596716646445</v>
+      </c>
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
       <c r="CS36" s="9"/>
@@ -28445,43 +28491,45 @@
       <c r="CC37" s="8">
         <v>4875.2259184043169</v>
       </c>
-      <c r="CD37" s="8">
+      <c r="CD37" s="20">
         <v>4706.4360907846185</v>
       </c>
-      <c r="CE37" s="8">
+      <c r="CE37" s="20">
         <v>5096.2942159296426</v>
       </c>
-      <c r="CF37" s="8">
+      <c r="CF37" s="20">
         <v>4617.5723548291116</v>
       </c>
-      <c r="CG37" s="8">
+      <c r="CG37" s="20">
         <v>4610.8806062339672</v>
       </c>
-      <c r="CH37" s="8">
+      <c r="CH37" s="20">
         <v>5018.3374156152431</v>
       </c>
-      <c r="CI37" s="8">
+      <c r="CI37" s="20">
         <v>6052.7885216024242</v>
       </c>
-      <c r="CJ37" s="8">
+      <c r="CJ37" s="20">
         <v>5347.3605298945513</v>
       </c>
-      <c r="CK37" s="8">
+      <c r="CK37" s="20">
         <v>5972.151005999438</v>
       </c>
-      <c r="CL37" s="8">
+      <c r="CL37" s="20">
         <v>6004.3560619430173</v>
       </c>
-      <c r="CM37" s="8">
+      <c r="CM37" s="20">
         <v>8059.7520011142842</v>
       </c>
-      <c r="CN37" s="8">
+      <c r="CN37" s="20">
         <v>6666.4661185470686</v>
       </c>
-      <c r="CO37" s="8">
+      <c r="CO37" s="20">
         <v>7052.931592245819</v>
       </c>
-      <c r="CP37" s="9"/>
+      <c r="CP37" s="20">
+        <v>6273.5363142480564</v>
+      </c>
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
       <c r="CS37" s="9"/>
@@ -28787,43 +28835,45 @@
       <c r="CC38" s="8">
         <v>1183.5453050465471</v>
       </c>
-      <c r="CD38" s="8">
+      <c r="CD38" s="20">
         <v>3080.4151327369641</v>
       </c>
-      <c r="CE38" s="8">
+      <c r="CE38" s="20">
         <v>8500.7989648955609</v>
       </c>
-      <c r="CF38" s="8">
+      <c r="CF38" s="20">
         <v>6133.3386552376378</v>
       </c>
-      <c r="CG38" s="8">
+      <c r="CG38" s="20">
         <v>1743.9240612838362</v>
       </c>
-      <c r="CH38" s="8">
+      <c r="CH38" s="20">
         <v>4996.8693390372027</v>
       </c>
-      <c r="CI38" s="8">
+      <c r="CI38" s="20">
         <v>10383.722352801096</v>
       </c>
-      <c r="CJ38" s="8">
+      <c r="CJ38" s="20">
         <v>6670.9845485026926</v>
       </c>
-      <c r="CK38" s="8">
+      <c r="CK38" s="20">
         <v>1464.8652129565066</v>
       </c>
-      <c r="CL38" s="8">
+      <c r="CL38" s="20">
         <v>4453.3563068360563</v>
       </c>
-      <c r="CM38" s="8">
+      <c r="CM38" s="20">
         <v>6851.5622273177451</v>
       </c>
-      <c r="CN38" s="8">
+      <c r="CN38" s="20">
         <v>5652.805563576303</v>
       </c>
-      <c r="CO38" s="8">
+      <c r="CO38" s="20">
         <v>1604.1539505589053</v>
       </c>
-      <c r="CP38" s="9"/>
+      <c r="CP38" s="20">
+        <v>5002.2289835130132</v>
+      </c>
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
       <c r="CS38" s="9"/>
@@ -29129,43 +29179,45 @@
       <c r="CC39" s="8">
         <v>1251.1146890163657</v>
       </c>
-      <c r="CD39" s="8">
+      <c r="CD39" s="20">
         <v>4057.2019465919075</v>
       </c>
-      <c r="CE39" s="8">
+      <c r="CE39" s="20">
         <v>1172.9770640076631</v>
       </c>
-      <c r="CF39" s="8">
+      <c r="CF39" s="20">
         <v>1245.7492765727784</v>
       </c>
-      <c r="CG39" s="8">
+      <c r="CG39" s="20">
         <v>970.2219894318423</v>
       </c>
-      <c r="CH39" s="8">
+      <c r="CH39" s="20">
         <v>2726.9761640608922</v>
       </c>
-      <c r="CI39" s="8">
+      <c r="CI39" s="20">
         <v>896.93250467388657</v>
       </c>
-      <c r="CJ39" s="8">
+      <c r="CJ39" s="20">
         <v>1199.3326437335306</v>
       </c>
-      <c r="CK39" s="8">
+      <c r="CK39" s="20">
         <v>1123.2391614790699</v>
       </c>
-      <c r="CL39" s="8">
+      <c r="CL39" s="20">
         <v>4332.1992264646178</v>
       </c>
-      <c r="CM39" s="8">
+      <c r="CM39" s="20">
         <v>1230.4443119866219</v>
       </c>
-      <c r="CN39" s="8">
+      <c r="CN39" s="20">
         <v>1532.0808593139413</v>
       </c>
-      <c r="CO39" s="8">
+      <c r="CO39" s="20">
         <v>1476.0047410557795</v>
       </c>
-      <c r="CP39" s="9"/>
+      <c r="CP39" s="20">
+        <v>4324.7906811114208</v>
+      </c>
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
       <c r="CS39" s="9"/>
@@ -29471,43 +29523,45 @@
       <c r="CC40" s="8">
         <v>17215.538980340767</v>
       </c>
-      <c r="CD40" s="8">
+      <c r="CD40" s="20">
         <v>12080.868194815153</v>
       </c>
-      <c r="CE40" s="8">
+      <c r="CE40" s="20">
         <v>5620.2536243486284</v>
       </c>
-      <c r="CF40" s="8">
+      <c r="CF40" s="20">
         <v>6453.2018292675884</v>
       </c>
-      <c r="CG40" s="8">
+      <c r="CG40" s="20">
         <v>13767.839691706578</v>
       </c>
-      <c r="CH40" s="8">
+      <c r="CH40" s="20">
         <v>11027.147252327914</v>
       </c>
-      <c r="CI40" s="8">
+      <c r="CI40" s="20">
         <v>7033.581437816134</v>
       </c>
-      <c r="CJ40" s="8">
+      <c r="CJ40" s="20">
         <v>7849.21975464772</v>
       </c>
-      <c r="CK40" s="8">
+      <c r="CK40" s="20">
         <v>16667.551953593211</v>
       </c>
-      <c r="CL40" s="8">
+      <c r="CL40" s="20">
         <v>12849.55154957661</v>
       </c>
-      <c r="CM40" s="8">
+      <c r="CM40" s="20">
         <v>8242.9211698626095</v>
       </c>
-      <c r="CN40" s="8">
+      <c r="CN40" s="20">
         <v>8752.1789888420681</v>
       </c>
-      <c r="CO40" s="8">
+      <c r="CO40" s="20">
         <v>17146.413780542847</v>
       </c>
-      <c r="CP40" s="9"/>
+      <c r="CP40" s="20">
+        <v>13715.695454284843</v>
+      </c>
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
       <c r="CS40" s="9"/>
@@ -29650,19 +29704,19 @@
       <c r="CA41" s="12"/>
       <c r="CB41" s="12"/>
       <c r="CC41" s="12"/>
-      <c r="CD41" s="12"/>
-      <c r="CE41" s="12"/>
-      <c r="CF41" s="12"/>
-      <c r="CG41" s="12"/>
-      <c r="CH41" s="12"/>
-      <c r="CI41" s="12"/>
-      <c r="CJ41" s="12"/>
-      <c r="CK41" s="12"/>
-      <c r="CL41" s="12"/>
-      <c r="CM41" s="12"/>
-      <c r="CN41" s="12"/>
-      <c r="CO41" s="12"/>
-      <c r="CP41" s="9"/>
+      <c r="CD41" s="21"/>
+      <c r="CE41" s="21"/>
+      <c r="CF41" s="21"/>
+      <c r="CG41" s="21"/>
+      <c r="CH41" s="21"/>
+      <c r="CI41" s="21"/>
+      <c r="CJ41" s="21"/>
+      <c r="CK41" s="21"/>
+      <c r="CL41" s="21"/>
+      <c r="CM41" s="21"/>
+      <c r="CN41" s="21"/>
+      <c r="CO41" s="21"/>
+      <c r="CP41" s="21"/>
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
       <c r="CS41" s="9"/>
@@ -29968,43 +30022,45 @@
       <c r="CC42" s="12">
         <v>37369.637843153527</v>
       </c>
-      <c r="CD42" s="12">
+      <c r="CD42" s="21">
         <v>35898.980272274188</v>
       </c>
-      <c r="CE42" s="12">
+      <c r="CE42" s="21">
         <v>44545.428468731974</v>
       </c>
-      <c r="CF42" s="12">
+      <c r="CF42" s="21">
         <v>25869.303392857761</v>
       </c>
-      <c r="CG42" s="12">
+      <c r="CG42" s="21">
         <v>31179.312999065973</v>
       </c>
-      <c r="CH42" s="12">
+      <c r="CH42" s="21">
         <v>36625.597180475415</v>
       </c>
-      <c r="CI42" s="12">
+      <c r="CI42" s="21">
         <v>46404.981366906984</v>
       </c>
-      <c r="CJ42" s="12">
+      <c r="CJ42" s="21">
         <v>26902.666484030233</v>
       </c>
-      <c r="CK42" s="12">
+      <c r="CK42" s="21">
         <v>34564.855914700347</v>
       </c>
-      <c r="CL42" s="12">
+      <c r="CL42" s="21">
         <v>44084.202237098885</v>
       </c>
-      <c r="CM42" s="12">
+      <c r="CM42" s="21">
         <v>43265.08351223568</v>
       </c>
-      <c r="CN42" s="12">
+      <c r="CN42" s="21">
         <v>29646.862680363436</v>
       </c>
-      <c r="CO42" s="12">
+      <c r="CO42" s="21">
         <v>35188.388910844587</v>
       </c>
-      <c r="CP42" s="9"/>
+      <c r="CP42" s="21">
+        <v>43126.991954413752</v>
+      </c>
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
       <c r="CS42" s="9"/>
@@ -30160,6 +30216,7 @@
       <c r="CM43" s="13"/>
       <c r="CN43" s="13"/>
       <c r="CO43" s="13"/>
+      <c r="CP43" s="13"/>
     </row>
     <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
@@ -30488,7 +30545,7 @@
     </row>
     <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -30499,7 +30556,7 @@
     </row>
     <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -30510,142 +30567,145 @@
     <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19" t="s">
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19" t="s">
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19" t="s">
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19" t="s">
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19" t="s">
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
-      <c r="Z55" s="19" t="s">
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AA55" s="19"/>
-      <c r="AB55" s="19"/>
-      <c r="AC55" s="19"/>
-      <c r="AD55" s="19" t="s">
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="19"/>
-      <c r="AF55" s="19"/>
-      <c r="AG55" s="19"/>
-      <c r="AH55" s="19" t="s">
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="19"/>
-      <c r="AJ55" s="19"/>
-      <c r="AK55" s="19"/>
-      <c r="AL55" s="19" t="s">
+      <c r="AI55" s="22"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="22"/>
+      <c r="AL55" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AM55" s="19"/>
-      <c r="AN55" s="19"/>
-      <c r="AO55" s="19"/>
-      <c r="AP55" s="19" t="s">
+      <c r="AM55" s="22"/>
+      <c r="AN55" s="22"/>
+      <c r="AO55" s="22"/>
+      <c r="AP55" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AQ55" s="19"/>
-      <c r="AR55" s="19"/>
-      <c r="AS55" s="19"/>
-      <c r="AT55" s="19" t="s">
+      <c r="AQ55" s="22"/>
+      <c r="AR55" s="22"/>
+      <c r="AS55" s="22"/>
+      <c r="AT55" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AU55" s="19"/>
-      <c r="AV55" s="19"/>
-      <c r="AW55" s="19"/>
-      <c r="AX55" s="19" t="s">
+      <c r="AU55" s="22"/>
+      <c r="AV55" s="22"/>
+      <c r="AW55" s="22"/>
+      <c r="AX55" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AY55" s="19"/>
-      <c r="AZ55" s="19"/>
-      <c r="BA55" s="19"/>
-      <c r="BB55" s="19" t="s">
+      <c r="AY55" s="22"/>
+      <c r="AZ55" s="22"/>
+      <c r="BA55" s="22"/>
+      <c r="BB55" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="BC55" s="19"/>
-      <c r="BD55" s="19"/>
-      <c r="BE55" s="19"/>
-      <c r="BF55" s="19" t="s">
+      <c r="BC55" s="22"/>
+      <c r="BD55" s="22"/>
+      <c r="BE55" s="22"/>
+      <c r="BF55" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="BG55" s="19"/>
-      <c r="BH55" s="19"/>
-      <c r="BI55" s="19"/>
-      <c r="BJ55" s="19" t="s">
+      <c r="BG55" s="22"/>
+      <c r="BH55" s="22"/>
+      <c r="BI55" s="22"/>
+      <c r="BJ55" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="BK55" s="19"/>
-      <c r="BL55" s="19"/>
-      <c r="BM55" s="19"/>
-      <c r="BN55" s="19" t="s">
+      <c r="BK55" s="22"/>
+      <c r="BL55" s="22"/>
+      <c r="BM55" s="22"/>
+      <c r="BN55" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="BO55" s="19"/>
-      <c r="BP55" s="19"/>
-      <c r="BQ55" s="19"/>
-      <c r="BR55" s="19" t="s">
+      <c r="BO55" s="22"/>
+      <c r="BP55" s="22"/>
+      <c r="BQ55" s="22"/>
+      <c r="BR55" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="BS55" s="19"/>
-      <c r="BT55" s="19"/>
-      <c r="BU55" s="19"/>
-      <c r="BV55" s="19" t="s">
+      <c r="BS55" s="22"/>
+      <c r="BT55" s="22"/>
+      <c r="BU55" s="22"/>
+      <c r="BV55" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="BW55" s="19"/>
-      <c r="BX55" s="19"/>
-      <c r="BY55" s="19"/>
-      <c r="BZ55" s="19" t="s">
+      <c r="BW55" s="22"/>
+      <c r="BX55" s="22"/>
+      <c r="BY55" s="22"/>
+      <c r="BZ55" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="CA55" s="19"/>
-      <c r="CB55" s="19"/>
-      <c r="CC55" s="19"/>
-      <c r="CD55" s="19" t="s">
+      <c r="CA55" s="22"/>
+      <c r="CB55" s="22"/>
+      <c r="CC55" s="22"/>
+      <c r="CD55" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="CE55" s="19"/>
-      <c r="CF55" s="19"/>
-      <c r="CG55" s="19"/>
-      <c r="CH55" s="19" t="s">
+      <c r="CE55" s="22"/>
+      <c r="CF55" s="22"/>
+      <c r="CG55" s="22"/>
+      <c r="CH55" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="CI55" s="19"/>
-      <c r="CJ55" s="19"/>
-      <c r="CK55" s="19"/>
-      <c r="CL55" s="19"/>
+      <c r="CI55" s="22"/>
+      <c r="CJ55" s="22"/>
+      <c r="CK55" s="22"/>
+      <c r="CL55" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="CM55" s="19"/>
       <c r="CN55" s="19"/>
       <c r="CO55" s="19"/>
+      <c r="CP55" s="19"/>
     </row>
     <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
@@ -30915,10 +30975,13 @@
       <c r="CK56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL56" s="5"/>
+      <c r="CL56" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM56" s="5"/>
       <c r="CN56" s="5"/>
       <c r="CO56" s="5"/>
+      <c r="CP56" s="5"/>
     </row>
     <row r="57" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
@@ -31191,10 +31254,13 @@
       <c r="CK58" s="15">
         <v>37.30484426126992</v>
       </c>
-      <c r="CL58" s="15"/>
+      <c r="CL58" s="15">
+        <v>-19.295622447447727</v>
+      </c>
       <c r="CM58" s="15"/>
       <c r="CN58" s="15"/>
       <c r="CO58" s="15"/>
+      <c r="CP58" s="15"/>
     </row>
     <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -31464,11 +31530,13 @@
       <c r="CK59" s="15">
         <v>28.468646738548301</v>
       </c>
-      <c r="CL59" s="15"/>
+      <c r="CL59" s="15">
+        <v>-47.443315019981334</v>
+      </c>
       <c r="CM59" s="15"/>
       <c r="CN59" s="15"/>
       <c r="CO59" s="15"/>
-      <c r="CP59" s="9"/>
+      <c r="CP59" s="15"/>
       <c r="CQ59" s="9"/>
       <c r="CR59" s="9"/>
       <c r="CS59" s="9"/>
@@ -31793,11 +31861,13 @@
       <c r="CK60" s="15">
         <v>18.786959845235245</v>
       </c>
-      <c r="CL60" s="15"/>
+      <c r="CL60" s="15">
+        <v>11.978570705405815</v>
+      </c>
       <c r="CM60" s="15"/>
       <c r="CN60" s="15"/>
       <c r="CO60" s="15"/>
-      <c r="CP60" s="9"/>
+      <c r="CP60" s="15"/>
       <c r="CQ60" s="9"/>
       <c r="CR60" s="9"/>
       <c r="CS60" s="9"/>
@@ -32122,11 +32192,13 @@
       <c r="CK61" s="15">
         <v>40.693310625311057</v>
       </c>
-      <c r="CL61" s="15"/>
+      <c r="CL61" s="15">
+        <v>15.214983718685772</v>
+      </c>
       <c r="CM61" s="15"/>
       <c r="CN61" s="15"/>
       <c r="CO61" s="15"/>
-      <c r="CP61" s="9"/>
+      <c r="CP61" s="15"/>
       <c r="CQ61" s="9"/>
       <c r="CR61" s="9"/>
       <c r="CS61" s="9"/>
@@ -32451,11 +32523,13 @@
       <c r="CK62" s="15">
         <v>9.702739527062505</v>
       </c>
-      <c r="CL62" s="15"/>
+      <c r="CL62" s="15">
+        <v>-3.3223731734942703</v>
+      </c>
       <c r="CM62" s="15"/>
       <c r="CN62" s="15"/>
       <c r="CO62" s="15"/>
-      <c r="CP62" s="9"/>
+      <c r="CP62" s="15"/>
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
       <c r="CS62" s="9"/>
@@ -32780,11 +32854,13 @@
       <c r="CK63" s="15">
         <v>10.872811751645628</v>
       </c>
-      <c r="CL63" s="15"/>
+      <c r="CL63" s="15">
+        <v>12.53083175871275</v>
+      </c>
       <c r="CM63" s="15"/>
       <c r="CN63" s="15"/>
       <c r="CO63" s="15"/>
-      <c r="CP63" s="9"/>
+      <c r="CP63" s="15"/>
       <c r="CQ63" s="9"/>
       <c r="CR63" s="9"/>
       <c r="CS63" s="9"/>
@@ -33259,11 +33335,13 @@
       <c r="CK65" s="15">
         <v>21.236939875786703</v>
       </c>
-      <c r="CL65" s="15"/>
+      <c r="CL65" s="15">
+        <v>-5.949235316624808</v>
+      </c>
       <c r="CM65" s="15"/>
       <c r="CN65" s="15"/>
       <c r="CO65" s="15"/>
-      <c r="CP65" s="9"/>
+      <c r="CP65" s="15"/>
       <c r="CQ65" s="9"/>
       <c r="CR65" s="9"/>
       <c r="CS65" s="9"/>
@@ -33414,6 +33492,7 @@
       <c r="CM66" s="13"/>
       <c r="CN66" s="13"/>
       <c r="CO66" s="13"/>
+      <c r="CP66" s="13"/>
     </row>
     <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
@@ -33735,7 +33814,7 @@
     </row>
     <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -33746,7 +33825,7 @@
     </row>
     <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -33757,142 +33836,145 @@
     <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="19" t="s">
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="19" t="s">
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="19" t="s">
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="19" t="s">
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="20"/>
-      <c r="T78" s="20"/>
-      <c r="U78" s="20"/>
-      <c r="V78" s="19" t="s">
+      <c r="S78" s="23"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="W78" s="20"/>
-      <c r="X78" s="20"/>
-      <c r="Y78" s="20"/>
-      <c r="Z78" s="19" t="s">
+      <c r="W78" s="23"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="23"/>
+      <c r="Z78" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AA78" s="20"/>
-      <c r="AB78" s="20"/>
-      <c r="AC78" s="20"/>
-      <c r="AD78" s="19" t="s">
+      <c r="AA78" s="23"/>
+      <c r="AB78" s="23"/>
+      <c r="AC78" s="23"/>
+      <c r="AD78" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="20"/>
-      <c r="AF78" s="20"/>
-      <c r="AG78" s="20"/>
-      <c r="AH78" s="19" t="s">
+      <c r="AE78" s="23"/>
+      <c r="AF78" s="23"/>
+      <c r="AG78" s="23"/>
+      <c r="AH78" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AI78" s="20"/>
-      <c r="AJ78" s="20"/>
-      <c r="AK78" s="20"/>
-      <c r="AL78" s="19" t="s">
+      <c r="AI78" s="23"/>
+      <c r="AJ78" s="23"/>
+      <c r="AK78" s="23"/>
+      <c r="AL78" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AM78" s="20"/>
-      <c r="AN78" s="20"/>
-      <c r="AO78" s="20"/>
-      <c r="AP78" s="19" t="s">
+      <c r="AM78" s="23"/>
+      <c r="AN78" s="23"/>
+      <c r="AO78" s="23"/>
+      <c r="AP78" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AQ78" s="20"/>
-      <c r="AR78" s="20"/>
-      <c r="AS78" s="20"/>
-      <c r="AT78" s="19" t="s">
+      <c r="AQ78" s="23"/>
+      <c r="AR78" s="23"/>
+      <c r="AS78" s="23"/>
+      <c r="AT78" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AU78" s="20"/>
-      <c r="AV78" s="20"/>
-      <c r="AW78" s="20"/>
-      <c r="AX78" s="19" t="s">
+      <c r="AU78" s="23"/>
+      <c r="AV78" s="23"/>
+      <c r="AW78" s="23"/>
+      <c r="AX78" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AY78" s="20"/>
-      <c r="AZ78" s="20"/>
-      <c r="BA78" s="20"/>
-      <c r="BB78" s="19" t="s">
+      <c r="AY78" s="23"/>
+      <c r="AZ78" s="23"/>
+      <c r="BA78" s="23"/>
+      <c r="BB78" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="BC78" s="20"/>
-      <c r="BD78" s="20"/>
-      <c r="BE78" s="20"/>
-      <c r="BF78" s="19" t="s">
+      <c r="BC78" s="23"/>
+      <c r="BD78" s="23"/>
+      <c r="BE78" s="23"/>
+      <c r="BF78" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="BG78" s="20"/>
-      <c r="BH78" s="20"/>
-      <c r="BI78" s="20"/>
-      <c r="BJ78" s="19" t="s">
+      <c r="BG78" s="23"/>
+      <c r="BH78" s="23"/>
+      <c r="BI78" s="23"/>
+      <c r="BJ78" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="BK78" s="20"/>
-      <c r="BL78" s="20"/>
-      <c r="BM78" s="20"/>
-      <c r="BN78" s="19" t="s">
+      <c r="BK78" s="23"/>
+      <c r="BL78" s="23"/>
+      <c r="BM78" s="23"/>
+      <c r="BN78" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="BO78" s="20"/>
-      <c r="BP78" s="20"/>
-      <c r="BQ78" s="20"/>
-      <c r="BR78" s="19" t="s">
+      <c r="BO78" s="23"/>
+      <c r="BP78" s="23"/>
+      <c r="BQ78" s="23"/>
+      <c r="BR78" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="BS78" s="20"/>
-      <c r="BT78" s="20"/>
-      <c r="BU78" s="20"/>
-      <c r="BV78" s="19" t="s">
+      <c r="BS78" s="23"/>
+      <c r="BT78" s="23"/>
+      <c r="BU78" s="23"/>
+      <c r="BV78" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="BW78" s="20"/>
-      <c r="BX78" s="20"/>
-      <c r="BY78" s="20"/>
-      <c r="BZ78" s="19" t="s">
+      <c r="BW78" s="23"/>
+      <c r="BX78" s="23"/>
+      <c r="BY78" s="23"/>
+      <c r="BZ78" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="CA78" s="20"/>
-      <c r="CB78" s="20"/>
-      <c r="CC78" s="20"/>
-      <c r="CD78" s="19" t="s">
+      <c r="CA78" s="23"/>
+      <c r="CB78" s="23"/>
+      <c r="CC78" s="23"/>
+      <c r="CD78" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="CE78" s="20"/>
-      <c r="CF78" s="20"/>
-      <c r="CG78" s="20"/>
-      <c r="CH78" s="19" t="s">
+      <c r="CE78" s="22"/>
+      <c r="CF78" s="22"/>
+      <c r="CG78" s="22"/>
+      <c r="CH78" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="CI78" s="20"/>
-      <c r="CJ78" s="20"/>
-      <c r="CK78" s="20"/>
-      <c r="CL78" s="19"/>
-      <c r="CM78" s="20"/>
-      <c r="CN78" s="20"/>
-      <c r="CO78" s="20"/>
+      <c r="CI78" s="22"/>
+      <c r="CJ78" s="22"/>
+      <c r="CK78" s="22"/>
+      <c r="CL78" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="CM78" s="19"/>
+      <c r="CN78" s="19"/>
+      <c r="CO78" s="19"/>
+      <c r="CP78" s="19"/>
     </row>
     <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
@@ -34162,10 +34244,13 @@
       <c r="CK79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL79" s="5"/>
+      <c r="CL79" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM79" s="5"/>
       <c r="CN79" s="5"/>
       <c r="CO79" s="5"/>
+      <c r="CP79" s="5"/>
     </row>
     <row r="80" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
@@ -34438,11 +34523,13 @@
       <c r="CK81" s="15">
         <v>-31.669763791892748</v>
       </c>
-      <c r="CL81" s="15"/>
+      <c r="CL81" s="15">
+        <v>-9.6363058540512156</v>
+      </c>
       <c r="CM81" s="15"/>
       <c r="CN81" s="15"/>
       <c r="CO81" s="15"/>
-      <c r="CP81" s="9"/>
+      <c r="CP81" s="15"/>
       <c r="CQ81" s="9"/>
       <c r="CR81" s="9"/>
       <c r="CS81" s="9"/>
@@ -34767,11 +34854,13 @@
       <c r="CK82" s="15">
         <v>-0.4444815095807968</v>
       </c>
-      <c r="CL82" s="15"/>
+      <c r="CL82" s="15">
+        <v>-28.761308224664006</v>
+      </c>
       <c r="CM82" s="15"/>
       <c r="CN82" s="15"/>
       <c r="CO82" s="15"/>
-      <c r="CP82" s="9"/>
+      <c r="CP82" s="15"/>
       <c r="CQ82" s="9"/>
       <c r="CR82" s="9"/>
       <c r="CS82" s="9"/>
@@ -35096,11 +35185,13 @@
       <c r="CK83" s="15">
         <v>18.097007010717945</v>
       </c>
-      <c r="CL83" s="15"/>
+      <c r="CL83" s="15">
+        <v>4.4830827740407528</v>
+      </c>
       <c r="CM83" s="15"/>
       <c r="CN83" s="15"/>
       <c r="CO83" s="15"/>
-      <c r="CP83" s="9"/>
+      <c r="CP83" s="15"/>
       <c r="CQ83" s="9"/>
       <c r="CR83" s="9"/>
       <c r="CS83" s="9"/>
@@ -35425,11 +35516,13 @@
       <c r="CK84" s="15">
         <v>9.508638499324789</v>
       </c>
-      <c r="CL84" s="15"/>
+      <c r="CL84" s="15">
+        <v>12.324921673893869</v>
+      </c>
       <c r="CM84" s="15"/>
       <c r="CN84" s="15"/>
       <c r="CO84" s="15"/>
-      <c r="CP84" s="9"/>
+      <c r="CP84" s="15"/>
       <c r="CQ84" s="9"/>
       <c r="CR84" s="9"/>
       <c r="CS84" s="9"/>
@@ -35754,11 +35847,13 @@
       <c r="CK85" s="15">
         <v>31.40609690924515</v>
       </c>
-      <c r="CL85" s="15"/>
+      <c r="CL85" s="15">
+        <v>-0.17101118775745761</v>
+      </c>
       <c r="CM85" s="15"/>
       <c r="CN85" s="15"/>
       <c r="CO85" s="15"/>
-      <c r="CP85" s="9"/>
+      <c r="CP85" s="15"/>
       <c r="CQ85" s="9"/>
       <c r="CR85" s="9"/>
       <c r="CS85" s="9"/>
@@ -36083,11 +36178,13 @@
       <c r="CK86" s="15">
         <v>2.8730183549624542</v>
       </c>
-      <c r="CL86" s="15"/>
+      <c r="CL86" s="15">
+        <v>6.7406547330966902</v>
+      </c>
       <c r="CM86" s="15"/>
       <c r="CN86" s="15"/>
       <c r="CO86" s="15"/>
-      <c r="CP86" s="9"/>
+      <c r="CP86" s="15"/>
       <c r="CQ86" s="9"/>
       <c r="CR86" s="9"/>
       <c r="CS86" s="9"/>
@@ -36562,11 +36659,13 @@
       <c r="CK88" s="15">
         <v>1.8039508039119312</v>
       </c>
-      <c r="CL88" s="15"/>
+      <c r="CL88" s="15">
+        <v>-2.1713226827536829</v>
+      </c>
       <c r="CM88" s="15"/>
       <c r="CN88" s="15"/>
       <c r="CO88" s="15"/>
-      <c r="CP88" s="9"/>
+      <c r="CP88" s="15"/>
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
       <c r="CS88" s="9"/>
@@ -36717,6 +36816,7 @@
       <c r="CM89" s="13"/>
       <c r="CN89" s="13"/>
       <c r="CO89" s="13"/>
+      <c r="CP89" s="13"/>
     </row>
     <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
@@ -37038,7 +37138,7 @@
     </row>
     <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -37049,7 +37149,7 @@
     </row>
     <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -37060,144 +37160,147 @@
     <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
-      <c r="B100" s="19">
+      <c r="B100" s="22">
         <v>2000</v>
       </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19">
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22">
         <v>2001</v>
       </c>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19">
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22">
         <v>2002</v>
       </c>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="19"/>
-      <c r="N100" s="19">
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="22">
         <v>2003</v>
       </c>
-      <c r="O100" s="19"/>
-      <c r="P100" s="19"/>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="19">
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="22">
         <v>2004</v>
       </c>
-      <c r="S100" s="19"/>
-      <c r="T100" s="19"/>
-      <c r="U100" s="19"/>
-      <c r="V100" s="19">
+      <c r="S100" s="22"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
+      <c r="V100" s="22">
         <v>2005</v>
       </c>
-      <c r="W100" s="19"/>
-      <c r="X100" s="19"/>
-      <c r="Y100" s="19"/>
-      <c r="Z100" s="19">
+      <c r="W100" s="22"/>
+      <c r="X100" s="22"/>
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="22">
         <v>2006</v>
       </c>
-      <c r="AA100" s="19"/>
-      <c r="AB100" s="19"/>
-      <c r="AC100" s="19"/>
-      <c r="AD100" s="19">
+      <c r="AA100" s="22"/>
+      <c r="AB100" s="22"/>
+      <c r="AC100" s="22"/>
+      <c r="AD100" s="22">
         <v>2007</v>
       </c>
-      <c r="AE100" s="19"/>
-      <c r="AF100" s="19"/>
-      <c r="AG100" s="19"/>
-      <c r="AH100" s="19">
+      <c r="AE100" s="22"/>
+      <c r="AF100" s="22"/>
+      <c r="AG100" s="22"/>
+      <c r="AH100" s="22">
         <v>2008</v>
       </c>
-      <c r="AI100" s="19"/>
-      <c r="AJ100" s="19"/>
-      <c r="AK100" s="19"/>
-      <c r="AL100" s="19">
+      <c r="AI100" s="22"/>
+      <c r="AJ100" s="22"/>
+      <c r="AK100" s="22"/>
+      <c r="AL100" s="22">
         <v>2009</v>
       </c>
-      <c r="AM100" s="19"/>
-      <c r="AN100" s="19"/>
-      <c r="AO100" s="19"/>
-      <c r="AP100" s="19">
+      <c r="AM100" s="22"/>
+      <c r="AN100" s="22"/>
+      <c r="AO100" s="22"/>
+      <c r="AP100" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ100" s="19"/>
-      <c r="AR100" s="19"/>
-      <c r="AS100" s="19"/>
-      <c r="AT100" s="19">
+      <c r="AQ100" s="22"/>
+      <c r="AR100" s="22"/>
+      <c r="AS100" s="22"/>
+      <c r="AT100" s="22">
         <v>2011</v>
       </c>
-      <c r="AU100" s="19"/>
-      <c r="AV100" s="19"/>
-      <c r="AW100" s="19"/>
-      <c r="AX100" s="19">
+      <c r="AU100" s="22"/>
+      <c r="AV100" s="22"/>
+      <c r="AW100" s="22"/>
+      <c r="AX100" s="22">
         <v>2012</v>
       </c>
-      <c r="AY100" s="19"/>
-      <c r="AZ100" s="19"/>
-      <c r="BA100" s="19"/>
-      <c r="BB100" s="19">
+      <c r="AY100" s="22"/>
+      <c r="AZ100" s="22"/>
+      <c r="BA100" s="22"/>
+      <c r="BB100" s="22">
         <v>2013</v>
       </c>
-      <c r="BC100" s="19"/>
-      <c r="BD100" s="19"/>
-      <c r="BE100" s="19"/>
-      <c r="BF100" s="19">
+      <c r="BC100" s="22"/>
+      <c r="BD100" s="22"/>
+      <c r="BE100" s="22"/>
+      <c r="BF100" s="22">
         <v>2014</v>
       </c>
-      <c r="BG100" s="19"/>
-      <c r="BH100" s="19"/>
-      <c r="BI100" s="19"/>
-      <c r="BJ100" s="19">
+      <c r="BG100" s="22"/>
+      <c r="BH100" s="22"/>
+      <c r="BI100" s="22"/>
+      <c r="BJ100" s="22">
         <v>2015</v>
       </c>
-      <c r="BK100" s="19"/>
-      <c r="BL100" s="19"/>
-      <c r="BM100" s="19"/>
-      <c r="BN100" s="19">
+      <c r="BK100" s="22"/>
+      <c r="BL100" s="22"/>
+      <c r="BM100" s="22"/>
+      <c r="BN100" s="22">
         <v>2016</v>
       </c>
-      <c r="BO100" s="19"/>
-      <c r="BP100" s="19"/>
-      <c r="BQ100" s="19"/>
-      <c r="BR100" s="19">
+      <c r="BO100" s="22"/>
+      <c r="BP100" s="22"/>
+      <c r="BQ100" s="22"/>
+      <c r="BR100" s="22">
         <v>2017</v>
       </c>
-      <c r="BS100" s="19"/>
-      <c r="BT100" s="19"/>
-      <c r="BU100" s="19"/>
-      <c r="BV100" s="19">
+      <c r="BS100" s="22"/>
+      <c r="BT100" s="22"/>
+      <c r="BU100" s="22"/>
+      <c r="BV100" s="22">
         <v>2018</v>
       </c>
-      <c r="BW100" s="19"/>
-      <c r="BX100" s="19"/>
-      <c r="BY100" s="19"/>
-      <c r="BZ100" s="19">
+      <c r="BW100" s="22"/>
+      <c r="BX100" s="22"/>
+      <c r="BY100" s="22"/>
+      <c r="BZ100" s="22">
         <v>2019</v>
       </c>
-      <c r="CA100" s="19"/>
-      <c r="CB100" s="19"/>
-      <c r="CC100" s="19"/>
-      <c r="CD100" s="19">
+      <c r="CA100" s="22"/>
+      <c r="CB100" s="22"/>
+      <c r="CC100" s="22"/>
+      <c r="CD100" s="22">
         <v>2020</v>
       </c>
-      <c r="CE100" s="19"/>
-      <c r="CF100" s="19"/>
-      <c r="CG100" s="19"/>
-      <c r="CH100" s="19">
+      <c r="CE100" s="22"/>
+      <c r="CF100" s="22"/>
+      <c r="CG100" s="22"/>
+      <c r="CH100" s="22">
         <v>2021</v>
       </c>
-      <c r="CI100" s="19"/>
-      <c r="CJ100" s="19"/>
-      <c r="CK100" s="19"/>
-      <c r="CL100" s="19">
+      <c r="CI100" s="22"/>
+      <c r="CJ100" s="22"/>
+      <c r="CK100" s="22"/>
+      <c r="CL100" s="22">
         <v>2022</v>
       </c>
-      <c r="CM100" s="19"/>
-      <c r="CN100" s="19"/>
-      <c r="CO100" s="19"/>
+      <c r="CM100" s="22"/>
+      <c r="CN100" s="22"/>
+      <c r="CO100" s="22"/>
+      <c r="CP100" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
@@ -37478,6 +37581,9 @@
       </c>
       <c r="CO101" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP101" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37763,7 +37869,9 @@
       <c r="CO103" s="15">
         <v>247.1704890403808</v>
       </c>
-      <c r="CP103" s="9"/>
+      <c r="CP103" s="15">
+        <v>159.64734819240488</v>
+      </c>
       <c r="CQ103" s="9"/>
       <c r="CR103" s="9"/>
       <c r="CS103" s="9"/>
@@ -38105,7 +38213,9 @@
       <c r="CO104" s="15">
         <v>285.6187188187817</v>
       </c>
-      <c r="CP104" s="9"/>
+      <c r="CP104" s="15">
+        <v>154.32125894314882</v>
+      </c>
       <c r="CQ104" s="9"/>
       <c r="CR104" s="9"/>
       <c r="CS104" s="9"/>
@@ -38447,7 +38557,9 @@
       <c r="CO105" s="15">
         <v>153.05783845230368</v>
       </c>
-      <c r="CP105" s="9"/>
+      <c r="CP105" s="15">
+        <v>182.53272867127649</v>
+      </c>
       <c r="CQ105" s="9"/>
       <c r="CR105" s="9"/>
       <c r="CS105" s="9"/>
@@ -38789,7 +38901,9 @@
       <c r="CO106" s="15">
         <v>250.15434461000839</v>
       </c>
-      <c r="CP106" s="9"/>
+      <c r="CP106" s="15">
+        <v>299.56913015963897</v>
+      </c>
       <c r="CQ106" s="9"/>
       <c r="CR106" s="9"/>
       <c r="CS106" s="9"/>
@@ -39131,7 +39245,9 @@
       <c r="CO107" s="15">
         <v>338.46074848278317</v>
       </c>
-      <c r="CP107" s="9"/>
+      <c r="CP107" s="15">
+        <v>54.095101589027827</v>
+      </c>
       <c r="CQ107" s="9"/>
       <c r="CR107" s="9"/>
       <c r="CS107" s="9"/>
@@ -39473,7 +39589,9 @@
       <c r="CO108" s="15">
         <v>91.617520697276063</v>
       </c>
-      <c r="CP108" s="9"/>
+      <c r="CP108" s="15">
+        <v>121.06769594602393</v>
+      </c>
       <c r="CQ108" s="9"/>
       <c r="CR108" s="9"/>
       <c r="CS108" s="9"/>
@@ -39970,7 +40088,9 @@
       <c r="CO110" s="15">
         <v>161.80141718609161</v>
       </c>
-      <c r="CP110" s="9"/>
+      <c r="CP110" s="15">
+        <v>155.86867183185848</v>
+      </c>
       <c r="CQ110" s="9"/>
       <c r="CR110" s="9"/>
       <c r="CS110" s="9"/>
@@ -40126,6 +40246,7 @@
       <c r="CM111" s="13"/>
       <c r="CN111" s="13"/>
       <c r="CO111" s="13"/>
+      <c r="CP111" s="13"/>
     </row>
     <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
@@ -40144,7 +40265,7 @@
     </row>
     <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -40155,7 +40276,7 @@
     </row>
     <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -40166,144 +40287,147 @@
     <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
-      <c r="B123" s="19">
+      <c r="B123" s="22">
         <v>2000</v>
       </c>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19">
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22">
         <v>2001</v>
       </c>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19">
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="22">
         <v>2002</v>
       </c>
-      <c r="K123" s="19"/>
-      <c r="L123" s="19"/>
-      <c r="M123" s="19"/>
-      <c r="N123" s="19">
+      <c r="K123" s="22"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="22"/>
+      <c r="N123" s="22">
         <v>2003</v>
       </c>
-      <c r="O123" s="19"/>
-      <c r="P123" s="19"/>
-      <c r="Q123" s="19"/>
-      <c r="R123" s="19">
+      <c r="O123" s="22"/>
+      <c r="P123" s="22"/>
+      <c r="Q123" s="22"/>
+      <c r="R123" s="22">
         <v>2004</v>
       </c>
-      <c r="S123" s="19"/>
-      <c r="T123" s="19"/>
-      <c r="U123" s="19"/>
-      <c r="V123" s="19">
+      <c r="S123" s="22"/>
+      <c r="T123" s="22"/>
+      <c r="U123" s="22"/>
+      <c r="V123" s="22">
         <v>2005</v>
       </c>
-      <c r="W123" s="19"/>
-      <c r="X123" s="19"/>
-      <c r="Y123" s="19"/>
-      <c r="Z123" s="19">
+      <c r="W123" s="22"/>
+      <c r="X123" s="22"/>
+      <c r="Y123" s="22"/>
+      <c r="Z123" s="22">
         <v>2006</v>
       </c>
-      <c r="AA123" s="19"/>
-      <c r="AB123" s="19"/>
-      <c r="AC123" s="19"/>
-      <c r="AD123" s="19">
+      <c r="AA123" s="22"/>
+      <c r="AB123" s="22"/>
+      <c r="AC123" s="22"/>
+      <c r="AD123" s="22">
         <v>2007</v>
       </c>
-      <c r="AE123" s="19"/>
-      <c r="AF123" s="19"/>
-      <c r="AG123" s="19"/>
-      <c r="AH123" s="19">
+      <c r="AE123" s="22"/>
+      <c r="AF123" s="22"/>
+      <c r="AG123" s="22"/>
+      <c r="AH123" s="22">
         <v>2008</v>
       </c>
-      <c r="AI123" s="19"/>
-      <c r="AJ123" s="19"/>
-      <c r="AK123" s="19"/>
-      <c r="AL123" s="19">
+      <c r="AI123" s="22"/>
+      <c r="AJ123" s="22"/>
+      <c r="AK123" s="22"/>
+      <c r="AL123" s="22">
         <v>2009</v>
       </c>
-      <c r="AM123" s="19"/>
-      <c r="AN123" s="19"/>
-      <c r="AO123" s="19"/>
-      <c r="AP123" s="19">
+      <c r="AM123" s="22"/>
+      <c r="AN123" s="22"/>
+      <c r="AO123" s="22"/>
+      <c r="AP123" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ123" s="19"/>
-      <c r="AR123" s="19"/>
-      <c r="AS123" s="19"/>
-      <c r="AT123" s="19">
+      <c r="AQ123" s="22"/>
+      <c r="AR123" s="22"/>
+      <c r="AS123" s="22"/>
+      <c r="AT123" s="22">
         <v>2011</v>
       </c>
-      <c r="AU123" s="19"/>
-      <c r="AV123" s="19"/>
-      <c r="AW123" s="19"/>
-      <c r="AX123" s="19">
+      <c r="AU123" s="22"/>
+      <c r="AV123" s="22"/>
+      <c r="AW123" s="22"/>
+      <c r="AX123" s="22">
         <v>2012</v>
       </c>
-      <c r="AY123" s="19"/>
-      <c r="AZ123" s="19"/>
-      <c r="BA123" s="19"/>
-      <c r="BB123" s="19">
+      <c r="AY123" s="22"/>
+      <c r="AZ123" s="22"/>
+      <c r="BA123" s="22"/>
+      <c r="BB123" s="22">
         <v>2013</v>
       </c>
-      <c r="BC123" s="19"/>
-      <c r="BD123" s="19"/>
-      <c r="BE123" s="19"/>
-      <c r="BF123" s="19">
+      <c r="BC123" s="22"/>
+      <c r="BD123" s="22"/>
+      <c r="BE123" s="22"/>
+      <c r="BF123" s="22">
         <v>2014</v>
       </c>
-      <c r="BG123" s="19"/>
-      <c r="BH123" s="19"/>
-      <c r="BI123" s="19"/>
-      <c r="BJ123" s="19">
+      <c r="BG123" s="22"/>
+      <c r="BH123" s="22"/>
+      <c r="BI123" s="22"/>
+      <c r="BJ123" s="22">
         <v>2015</v>
       </c>
-      <c r="BK123" s="19"/>
-      <c r="BL123" s="19"/>
-      <c r="BM123" s="19"/>
-      <c r="BN123" s="19">
+      <c r="BK123" s="22"/>
+      <c r="BL123" s="22"/>
+      <c r="BM123" s="22"/>
+      <c r="BN123" s="22">
         <v>2016</v>
       </c>
-      <c r="BO123" s="19"/>
-      <c r="BP123" s="19"/>
-      <c r="BQ123" s="19"/>
-      <c r="BR123" s="19">
+      <c r="BO123" s="22"/>
+      <c r="BP123" s="22"/>
+      <c r="BQ123" s="22"/>
+      <c r="BR123" s="22">
         <v>2017</v>
       </c>
-      <c r="BS123" s="19"/>
-      <c r="BT123" s="19"/>
-      <c r="BU123" s="19"/>
-      <c r="BV123" s="19">
+      <c r="BS123" s="22"/>
+      <c r="BT123" s="22"/>
+      <c r="BU123" s="22"/>
+      <c r="BV123" s="22">
         <v>2018</v>
       </c>
-      <c r="BW123" s="19"/>
-      <c r="BX123" s="19"/>
-      <c r="BY123" s="19"/>
-      <c r="BZ123" s="19">
+      <c r="BW123" s="22"/>
+      <c r="BX123" s="22"/>
+      <c r="BY123" s="22"/>
+      <c r="BZ123" s="22">
         <v>2019</v>
       </c>
-      <c r="CA123" s="19"/>
-      <c r="CB123" s="19"/>
-      <c r="CC123" s="19"/>
-      <c r="CD123" s="19">
+      <c r="CA123" s="22"/>
+      <c r="CB123" s="22"/>
+      <c r="CC123" s="22"/>
+      <c r="CD123" s="22">
         <v>2020</v>
       </c>
-      <c r="CE123" s="19"/>
-      <c r="CF123" s="19"/>
-      <c r="CG123" s="19"/>
-      <c r="CH123" s="19">
+      <c r="CE123" s="22"/>
+      <c r="CF123" s="22"/>
+      <c r="CG123" s="22"/>
+      <c r="CH123" s="22">
         <v>2021</v>
       </c>
-      <c r="CI123" s="19"/>
-      <c r="CJ123" s="19"/>
-      <c r="CK123" s="19"/>
-      <c r="CL123" s="19">
+      <c r="CI123" s="22"/>
+      <c r="CJ123" s="22"/>
+      <c r="CK123" s="22"/>
+      <c r="CL123" s="22">
         <v>2022</v>
       </c>
-      <c r="CM123" s="19"/>
-      <c r="CN123" s="19"/>
-      <c r="CO123" s="19"/>
+      <c r="CM123" s="22"/>
+      <c r="CN123" s="22"/>
+      <c r="CO123" s="22"/>
+      <c r="CP123" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
@@ -40584,6 +40708,9 @@
       </c>
       <c r="CO124" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP124" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40869,7 +40996,9 @@
       <c r="CO126" s="18">
         <v>13.17322662379199</v>
       </c>
-      <c r="CP126" s="9"/>
+      <c r="CP126" s="18">
+        <v>23.516905529776295</v>
+      </c>
       <c r="CQ126" s="9"/>
       <c r="CR126" s="9"/>
       <c r="CS126" s="9"/>
@@ -41211,7 +41340,9 @@
       <c r="CO127" s="18">
         <v>24.452931693640853</v>
       </c>
-      <c r="CP127" s="9"/>
+      <c r="CP127" s="18">
+        <v>8.9731641580645345</v>
+      </c>
       <c r="CQ127" s="9"/>
       <c r="CR127" s="9"/>
       <c r="CS127" s="9"/>
@@ -41553,7 +41684,9 @@
       <c r="CO128" s="18">
         <v>18.9602274480823</v>
       </c>
-      <c r="CP128" s="9"/>
+      <c r="CP128" s="18">
+        <v>17.035118532026555</v>
+      </c>
       <c r="CQ128" s="9"/>
       <c r="CR128" s="9"/>
       <c r="CS128" s="9"/>
@@ -41895,7 +42028,9 @@
       <c r="CO129" s="18">
         <v>7.048105410566202</v>
       </c>
-      <c r="CP129" s="9"/>
+      <c r="CP129" s="18">
+        <v>22.292184256763221</v>
+      </c>
       <c r="CQ129" s="9"/>
       <c r="CR129" s="9"/>
       <c r="CS129" s="9"/>
@@ -42237,7 +42372,9 @@
       <c r="CO130" s="18">
         <v>8.7743379701624331</v>
       </c>
-      <c r="CP130" s="9"/>
+      <c r="CP130" s="18">
+        <v>3.4802867711166781</v>
+      </c>
       <c r="CQ130" s="9"/>
       <c r="CR130" s="9"/>
       <c r="CS130" s="9"/>
@@ -42579,7 +42716,9 @@
       <c r="CO131" s="18">
         <v>27.591170853756218</v>
       </c>
-      <c r="CP131" s="9"/>
+      <c r="CP131" s="18">
+        <v>24.702340752252706</v>
+      </c>
       <c r="CQ131" s="9"/>
       <c r="CR131" s="9"/>
       <c r="CS131" s="9"/>
@@ -43076,7 +43215,9 @@
       <c r="CO133" s="18">
         <v>100</v>
       </c>
-      <c r="CP133" s="9"/>
+      <c r="CP133" s="18">
+        <v>100</v>
+      </c>
       <c r="CQ133" s="9"/>
       <c r="CR133" s="9"/>
       <c r="CS133" s="9"/>
@@ -43232,6 +43373,7 @@
       <c r="CM134" s="13"/>
       <c r="CN134" s="13"/>
       <c r="CO134" s="13"/>
+      <c r="CP134" s="13"/>
     </row>
     <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
@@ -43560,7 +43702,7 @@
     </row>
     <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -43571,7 +43713,7 @@
     </row>
     <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -43582,144 +43724,147 @@
     <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
-      <c r="B146" s="19">
+      <c r="B146" s="22">
         <v>2000</v>
       </c>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19">
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="22">
         <v>2001</v>
       </c>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19">
+      <c r="G146" s="22"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="22"/>
+      <c r="J146" s="22">
         <v>2002</v>
       </c>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19">
+      <c r="K146" s="22"/>
+      <c r="L146" s="22"/>
+      <c r="M146" s="22"/>
+      <c r="N146" s="22">
         <v>2003</v>
       </c>
-      <c r="O146" s="19"/>
-      <c r="P146" s="19"/>
-      <c r="Q146" s="19"/>
-      <c r="R146" s="19">
+      <c r="O146" s="22"/>
+      <c r="P146" s="22"/>
+      <c r="Q146" s="22"/>
+      <c r="R146" s="22">
         <v>2004</v>
       </c>
-      <c r="S146" s="19"/>
-      <c r="T146" s="19"/>
-      <c r="U146" s="19"/>
-      <c r="V146" s="19">
+      <c r="S146" s="22"/>
+      <c r="T146" s="22"/>
+      <c r="U146" s="22"/>
+      <c r="V146" s="22">
         <v>2005</v>
       </c>
-      <c r="W146" s="19"/>
-      <c r="X146" s="19"/>
-      <c r="Y146" s="19"/>
-      <c r="Z146" s="19">
+      <c r="W146" s="22"/>
+      <c r="X146" s="22"/>
+      <c r="Y146" s="22"/>
+      <c r="Z146" s="22">
         <v>2006</v>
       </c>
-      <c r="AA146" s="19"/>
-      <c r="AB146" s="19"/>
-      <c r="AC146" s="19"/>
-      <c r="AD146" s="19">
+      <c r="AA146" s="22"/>
+      <c r="AB146" s="22"/>
+      <c r="AC146" s="22"/>
+      <c r="AD146" s="22">
         <v>2007</v>
       </c>
-      <c r="AE146" s="19"/>
-      <c r="AF146" s="19"/>
-      <c r="AG146" s="19"/>
-      <c r="AH146" s="19">
+      <c r="AE146" s="22"/>
+      <c r="AF146" s="22"/>
+      <c r="AG146" s="22"/>
+      <c r="AH146" s="22">
         <v>2008</v>
       </c>
-      <c r="AI146" s="19"/>
-      <c r="AJ146" s="19"/>
-      <c r="AK146" s="19"/>
-      <c r="AL146" s="19">
+      <c r="AI146" s="22"/>
+      <c r="AJ146" s="22"/>
+      <c r="AK146" s="22"/>
+      <c r="AL146" s="22">
         <v>2009</v>
       </c>
-      <c r="AM146" s="19"/>
-      <c r="AN146" s="19"/>
-      <c r="AO146" s="19"/>
-      <c r="AP146" s="19">
+      <c r="AM146" s="22"/>
+      <c r="AN146" s="22"/>
+      <c r="AO146" s="22"/>
+      <c r="AP146" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ146" s="19"/>
-      <c r="AR146" s="19"/>
-      <c r="AS146" s="19"/>
-      <c r="AT146" s="19">
+      <c r="AQ146" s="22"/>
+      <c r="AR146" s="22"/>
+      <c r="AS146" s="22"/>
+      <c r="AT146" s="22">
         <v>2011</v>
       </c>
-      <c r="AU146" s="19"/>
-      <c r="AV146" s="19"/>
-      <c r="AW146" s="19"/>
-      <c r="AX146" s="19">
+      <c r="AU146" s="22"/>
+      <c r="AV146" s="22"/>
+      <c r="AW146" s="22"/>
+      <c r="AX146" s="22">
         <v>2012</v>
       </c>
-      <c r="AY146" s="19"/>
-      <c r="AZ146" s="19"/>
-      <c r="BA146" s="19"/>
-      <c r="BB146" s="19">
+      <c r="AY146" s="22"/>
+      <c r="AZ146" s="22"/>
+      <c r="BA146" s="22"/>
+      <c r="BB146" s="22">
         <v>2013</v>
       </c>
-      <c r="BC146" s="19"/>
-      <c r="BD146" s="19"/>
-      <c r="BE146" s="19"/>
-      <c r="BF146" s="19">
+      <c r="BC146" s="22"/>
+      <c r="BD146" s="22"/>
+      <c r="BE146" s="22"/>
+      <c r="BF146" s="22">
         <v>2014</v>
       </c>
-      <c r="BG146" s="19"/>
-      <c r="BH146" s="19"/>
-      <c r="BI146" s="19"/>
-      <c r="BJ146" s="19">
+      <c r="BG146" s="22"/>
+      <c r="BH146" s="22"/>
+      <c r="BI146" s="22"/>
+      <c r="BJ146" s="22">
         <v>2015</v>
       </c>
-      <c r="BK146" s="19"/>
-      <c r="BL146" s="19"/>
-      <c r="BM146" s="19"/>
-      <c r="BN146" s="19">
+      <c r="BK146" s="22"/>
+      <c r="BL146" s="22"/>
+      <c r="BM146" s="22"/>
+      <c r="BN146" s="22">
         <v>2016</v>
       </c>
-      <c r="BO146" s="19"/>
-      <c r="BP146" s="19"/>
-      <c r="BQ146" s="19"/>
-      <c r="BR146" s="19">
+      <c r="BO146" s="22"/>
+      <c r="BP146" s="22"/>
+      <c r="BQ146" s="22"/>
+      <c r="BR146" s="22">
         <v>2017</v>
       </c>
-      <c r="BS146" s="19"/>
-      <c r="BT146" s="19"/>
-      <c r="BU146" s="19"/>
-      <c r="BV146" s="19">
+      <c r="BS146" s="22"/>
+      <c r="BT146" s="22"/>
+      <c r="BU146" s="22"/>
+      <c r="BV146" s="22">
         <v>2018</v>
       </c>
-      <c r="BW146" s="19"/>
-      <c r="BX146" s="19"/>
-      <c r="BY146" s="19"/>
-      <c r="BZ146" s="19">
+      <c r="BW146" s="22"/>
+      <c r="BX146" s="22"/>
+      <c r="BY146" s="22"/>
+      <c r="BZ146" s="22">
         <v>2019</v>
       </c>
-      <c r="CA146" s="19"/>
-      <c r="CB146" s="19"/>
-      <c r="CC146" s="19"/>
-      <c r="CD146" s="19">
+      <c r="CA146" s="22"/>
+      <c r="CB146" s="22"/>
+      <c r="CC146" s="22"/>
+      <c r="CD146" s="22">
         <v>2020</v>
       </c>
-      <c r="CE146" s="19"/>
-      <c r="CF146" s="19"/>
-      <c r="CG146" s="19"/>
-      <c r="CH146" s="19">
+      <c r="CE146" s="22"/>
+      <c r="CF146" s="22"/>
+      <c r="CG146" s="22"/>
+      <c r="CH146" s="22">
         <v>2021</v>
       </c>
-      <c r="CI146" s="19"/>
-      <c r="CJ146" s="19"/>
-      <c r="CK146" s="19"/>
-      <c r="CL146" s="19">
+      <c r="CI146" s="22"/>
+      <c r="CJ146" s="22"/>
+      <c r="CK146" s="22"/>
+      <c r="CL146" s="22">
         <v>2022</v>
       </c>
-      <c r="CM146" s="19"/>
-      <c r="CN146" s="19"/>
-      <c r="CO146" s="19"/>
+      <c r="CM146" s="22"/>
+      <c r="CN146" s="22"/>
+      <c r="CO146" s="22"/>
+      <c r="CP146" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
@@ -44000,6 +44145,9 @@
       </c>
       <c r="CO147" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP147" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -44285,7 +44433,9 @@
       <c r="CO149" s="18">
         <v>8.6233868165987957</v>
       </c>
-      <c r="CP149" s="9"/>
+      <c r="CP149" s="18">
+        <v>22.960286356299815</v>
+      </c>
       <c r="CQ149" s="9"/>
       <c r="CR149" s="9"/>
       <c r="CS149" s="9"/>
@@ -44627,7 +44777,9 @@
       <c r="CO150" s="18">
         <v>13.852449933073549</v>
       </c>
-      <c r="CP150" s="9"/>
+      <c r="CP150" s="18">
+        <v>9.06314003025342</v>
+      </c>
       <c r="CQ150" s="9"/>
       <c r="CR150" s="9"/>
       <c r="CS150" s="9"/>
@@ -44969,7 +45121,9 @@
       <c r="CO151" s="18">
         <v>20.043348986836396</v>
       </c>
-      <c r="CP151" s="9"/>
+      <c r="CP151" s="18">
+        <v>14.546658670002611</v>
+      </c>
       <c r="CQ151" s="9"/>
       <c r="CR151" s="9"/>
       <c r="CS151" s="9"/>
@@ -45311,7 +45465,9 @@
       <c r="CO152" s="18">
         <v>4.5587592959236813</v>
       </c>
-      <c r="CP152" s="9"/>
+      <c r="CP152" s="18">
+        <v>11.598835802878362</v>
+      </c>
       <c r="CQ152" s="9"/>
       <c r="CR152" s="9"/>
       <c r="CS152" s="9"/>
@@ -45653,7 +45809,9 @@
       <c r="CO153" s="18">
         <v>4.1945789129348139</v>
       </c>
-      <c r="CP153" s="9"/>
+      <c r="CP153" s="18">
+        <v>10.028036932607835</v>
+      </c>
       <c r="CQ153" s="9"/>
       <c r="CR153" s="9"/>
       <c r="CS153" s="9"/>
@@ -45995,7 +46153,9 @@
       <c r="CO154" s="18">
         <v>48.72747605463276</v>
       </c>
-      <c r="CP154" s="9"/>
+      <c r="CP154" s="18">
+        <v>31.803042207957972</v>
+      </c>
       <c r="CQ154" s="9"/>
       <c r="CR154" s="9"/>
       <c r="CS154" s="9"/>
@@ -46492,7 +46652,9 @@
       <c r="CO156" s="18">
         <v>100</v>
       </c>
-      <c r="CP156" s="9"/>
+      <c r="CP156" s="18">
+        <v>100</v>
+      </c>
       <c r="CQ156" s="9"/>
       <c r="CR156" s="9"/>
       <c r="CS156" s="9"/>
@@ -46648,6 +46810,7 @@
       <c r="CM157" s="13"/>
       <c r="CN157" s="13"/>
       <c r="CO157" s="13"/>
+      <c r="CP157" s="13"/>
     </row>
     <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
@@ -46727,7 +46890,6 @@
       <c r="BS159" s="9"/>
       <c r="BT159" s="9"/>
       <c r="BU159" s="9"/>
-      <c r="CP159" s="9"/>
       <c r="CQ159" s="9"/>
       <c r="CR159" s="9"/>
       <c r="CS159" s="9"/>
@@ -46857,7 +47019,6 @@
       <c r="BS160" s="9"/>
       <c r="BT160" s="9"/>
       <c r="BU160" s="9"/>
-      <c r="CP160" s="9"/>
       <c r="CQ160" s="9"/>
       <c r="CR160" s="9"/>
       <c r="CS160" s="9"/>
@@ -46915,7 +47076,7 @@
       <c r="ES160" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
     <mergeCell ref="BR32:BU32"/>
     <mergeCell ref="BV78:BY78"/>
     <mergeCell ref="BZ146:CC146"/>
@@ -47075,10 +47236,13 @@
     <mergeCell ref="CL146:CO146"/>
     <mergeCell ref="CD55:CG55"/>
     <mergeCell ref="CD78:CG78"/>
-    <mergeCell ref="CL55:CO55"/>
-    <mergeCell ref="CL78:CO78"/>
   </mergeCells>
-  <conditionalFormatting sqref="BR58:CO65 BR81:CO88 BR103:CO110">
+  <conditionalFormatting sqref="BR58:CC65 BR81:CC88 BR103:CC110">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD58:CP65 CD81:CP88 CD103:CP110">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -47088,9 +47252,9 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="92" man="1"/>
-    <brk id="92" max="92" man="1"/>
-    <brk id="114" max="92" man="1"/>
+    <brk id="46" max="93" man="1"/>
+    <brk id="92" max="93" man="1"/>
+    <brk id="114" max="93" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="56" max="159" man="1"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169B592F-B551-4A2C-9318-A4536AE36340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33A0542-327A-4F04-A846-C7549FCA11B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="3045" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="3" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CP$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CQ$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="58">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -636,13 +636,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -773,9 +773,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -792,14 +789,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{34C9E4EF-4E1D-4A0A-AFE2-00CAF31CAADD}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -23647,16 +23637,16 @@
   <dimension ref="A1:EX160"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BU1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <selection pane="topRight" activeCell="CQ3" sqref="CQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="94" width="8" style="10" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="10"/>
+    <col min="2" max="95" width="9.5546875" style="10" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23693,147 +23683,148 @@
     <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>2000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
         <v>2001</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
         <v>2002</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21">
         <v>2003</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
         <v>2004</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21">
         <v>2005</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21">
         <v>2006</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21">
         <v>2007</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21">
         <v>2008</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21">
         <v>2009</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21">
         <v>2011</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21">
         <v>2012</v>
       </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21">
         <v>2013</v>
       </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21">
         <v>2014</v>
       </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21">
         <v>2015</v>
       </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21">
         <v>2016</v>
       </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21">
         <v>2017</v>
       </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21">
         <v>2018</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21">
         <v>2019</v>
       </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21">
         <v>2020</v>
       </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22">
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
+      <c r="CH9" s="21">
         <v>2021</v>
       </c>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="21">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
-      <c r="CP9" s="19">
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="21"/>
+      <c r="CO9" s="21"/>
+      <c r="CP9" s="21">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="22"/>
     </row>
     <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24117,6 +24108,9 @@
       </c>
       <c r="CP10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24366,46 +24360,48 @@
       <c r="CC12" s="8">
         <v>1959.7943747016132</v>
       </c>
-      <c r="CD12" s="20">
+      <c r="CD12" s="19">
         <v>2483.8906580435751</v>
       </c>
-      <c r="CE12" s="20">
+      <c r="CE12" s="19">
         <v>4027.632455932488</v>
       </c>
-      <c r="CF12" s="20">
+      <c r="CF12" s="19">
         <v>3119.4689716842854</v>
       </c>
-      <c r="CG12" s="20">
+      <c r="CG12" s="19">
         <v>1526.2165795598621</v>
       </c>
-      <c r="CH12" s="20">
+      <c r="CH12" s="19">
         <v>4298.666912850872</v>
       </c>
-      <c r="CI12" s="20">
+      <c r="CI12" s="19">
         <v>7398.8928434943109</v>
       </c>
-      <c r="CJ12" s="20">
+      <c r="CJ12" s="19">
         <v>6602.5674383594614</v>
       </c>
-      <c r="CK12" s="20">
+      <c r="CK12" s="19">
         <v>5462.4567046615093</v>
       </c>
-      <c r="CL12" s="20">
+      <c r="CL12" s="19">
         <v>19588.044628616666</v>
       </c>
-      <c r="CM12" s="20">
+      <c r="CM12" s="19">
         <v>16902.723128414724</v>
       </c>
-      <c r="CN12" s="20">
+      <c r="CN12" s="19">
         <v>27834.037093563096</v>
       </c>
-      <c r="CO12" s="20">
+      <c r="CO12" s="19">
         <v>7500.2176711747825</v>
       </c>
-      <c r="CP12" s="20">
-        <v>15808.40949224123</v>
-      </c>
-      <c r="CQ12" s="9"/>
+      <c r="CP12" s="19">
+        <v>15773.523081344836</v>
+      </c>
+      <c r="CQ12" s="19">
+        <v>6722.7553924630865</v>
+      </c>
       <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
@@ -24710,46 +24706,48 @@
       <c r="CC13" s="8">
         <v>9369.7032996939015</v>
       </c>
-      <c r="CD13" s="20">
+      <c r="CD13" s="19">
         <v>6026.3296659849475</v>
       </c>
-      <c r="CE13" s="20">
+      <c r="CE13" s="19">
         <v>4722.0452881178717</v>
       </c>
-      <c r="CF13" s="20">
+      <c r="CF13" s="19">
         <v>4609.6156453471231</v>
       </c>
-      <c r="CG13" s="20">
+      <c r="CG13" s="19">
         <v>7176.0608086994489</v>
       </c>
-      <c r="CH13" s="20">
+      <c r="CH13" s="19">
         <v>7699.8596182378133</v>
       </c>
-      <c r="CI13" s="20">
+      <c r="CI13" s="19">
         <v>7764.587688842129</v>
       </c>
-      <c r="CJ13" s="20">
+      <c r="CJ13" s="19">
         <v>8891.5713159023253</v>
       </c>
-      <c r="CK13" s="20">
+      <c r="CK13" s="19">
         <v>10837.160110547225</v>
       </c>
-      <c r="CL13" s="20">
+      <c r="CL13" s="19">
         <v>11476.927845447768</v>
       </c>
-      <c r="CM13" s="20">
+      <c r="CM13" s="19">
         <v>15844.494288309581</v>
       </c>
-      <c r="CN13" s="20">
+      <c r="CN13" s="19">
         <v>14097.565080717592</v>
       </c>
-      <c r="CO13" s="20">
+      <c r="CO13" s="19">
         <v>13922.352938909786</v>
       </c>
-      <c r="CP13" s="20">
+      <c r="CP13" s="19">
         <v>6031.8928131160264</v>
       </c>
-      <c r="CQ13" s="9"/>
+      <c r="CQ13" s="19">
+        <v>5215.5590302334695</v>
+      </c>
       <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
@@ -25054,46 +25052,48 @@
       <c r="CC14" s="8">
         <v>5597.2428047479962</v>
       </c>
-      <c r="CD14" s="20">
+      <c r="CD14" s="19">
         <v>6662.1925986170727</v>
       </c>
-      <c r="CE14" s="20">
+      <c r="CE14" s="19">
         <v>8195.2215592912289</v>
       </c>
-      <c r="CF14" s="20">
+      <c r="CF14" s="19">
         <v>9346.121991699225</v>
       </c>
-      <c r="CG14" s="20">
+      <c r="CG14" s="19">
         <v>8050.431997065336</v>
       </c>
-      <c r="CH14" s="20">
+      <c r="CH14" s="19">
         <v>8116.4528061324354</v>
       </c>
-      <c r="CI14" s="20">
+      <c r="CI14" s="19">
         <v>10140.451415345182</v>
       </c>
-      <c r="CJ14" s="20">
+      <c r="CJ14" s="19">
         <v>9562.0237566231626</v>
       </c>
-      <c r="CK14" s="20">
+      <c r="CK14" s="19">
         <v>9087.7522723670445</v>
       </c>
-      <c r="CL14" s="20">
+      <c r="CL14" s="19">
         <v>10226.29325097073</v>
       </c>
-      <c r="CM14" s="20">
+      <c r="CM14" s="19">
         <v>13887.111747163812</v>
       </c>
-      <c r="CN14" s="20">
+      <c r="CN14" s="19">
         <v>11449.575027468945</v>
       </c>
-      <c r="CO14" s="20">
+      <c r="CO14" s="19">
         <v>10795.064642611094</v>
       </c>
-      <c r="CP14" s="20">
-        <v>11451.257018580403</v>
-      </c>
-      <c r="CQ14" s="9"/>
+      <c r="CP14" s="19">
+        <v>11705.97311543867</v>
+      </c>
+      <c r="CQ14" s="19">
+        <v>15304.173008896976</v>
+      </c>
       <c r="CR14" s="9"/>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
@@ -25398,46 +25398,48 @@
       <c r="CC15" s="8">
         <v>1596.8662211683732</v>
       </c>
-      <c r="CD15" s="20">
+      <c r="CD15" s="19">
         <v>3769.130025031528</v>
       </c>
-      <c r="CE15" s="20">
+      <c r="CE15" s="19">
         <v>7554.4398255262113</v>
       </c>
-      <c r="CF15" s="20">
+      <c r="CF15" s="19">
         <v>5960.9023409646052</v>
       </c>
-      <c r="CG15" s="20">
+      <c r="CG15" s="19">
         <v>2782.8656619720246</v>
       </c>
-      <c r="CH15" s="20">
+      <c r="CH15" s="19">
         <v>8488.7192651800997</v>
       </c>
-      <c r="CI15" s="20">
+      <c r="CI15" s="19">
         <v>13090.474540780364</v>
       </c>
-      <c r="CJ15" s="20">
+      <c r="CJ15" s="19">
         <v>9237.4055028286966</v>
       </c>
-      <c r="CK15" s="20">
+      <c r="CK15" s="19">
         <v>2852.2044038348649</v>
       </c>
-      <c r="CL15" s="20">
+      <c r="CL15" s="19">
         <v>13006.237010883655</v>
       </c>
-      <c r="CM15" s="20">
+      <c r="CM15" s="19">
         <v>14405.490735031581</v>
       </c>
-      <c r="CN15" s="20">
+      <c r="CN15" s="19">
         <v>9055.8816859309791</v>
       </c>
-      <c r="CO15" s="20">
+      <c r="CO15" s="19">
         <v>4012.8608015561877</v>
       </c>
-      <c r="CP15" s="20">
-        <v>14985.133854503285</v>
-      </c>
-      <c r="CQ15" s="9"/>
+      <c r="CP15" s="19">
+        <v>15160.246416204162</v>
+      </c>
+      <c r="CQ15" s="19">
+        <v>14595.224607992026</v>
+      </c>
       <c r="CR15" s="9"/>
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
@@ -25742,46 +25744,48 @@
       <c r="CC16" s="8">
         <v>2620.1412887200363</v>
       </c>
-      <c r="CD16" s="20">
+      <c r="CD16" s="19">
         <v>1381.0105285755335</v>
       </c>
-      <c r="CE16" s="20">
+      <c r="CE16" s="19">
         <v>1819.83522926656</v>
       </c>
-      <c r="CF16" s="20">
+      <c r="CF16" s="19">
         <v>2353.7338989024793</v>
       </c>
-      <c r="CG16" s="20">
+      <c r="CG16" s="19">
         <v>3294.1553325200161</v>
       </c>
-      <c r="CH16" s="20">
+      <c r="CH16" s="19">
         <v>1246.3429581549503</v>
       </c>
-      <c r="CI16" s="20">
+      <c r="CI16" s="19">
         <v>2147.2493653132246</v>
       </c>
-      <c r="CJ16" s="20">
+      <c r="CJ16" s="19">
         <v>2853.7049691362208</v>
       </c>
-      <c r="CK16" s="20">
+      <c r="CK16" s="19">
         <v>4553.8486237951893</v>
       </c>
-      <c r="CL16" s="20">
+      <c r="CL16" s="19">
         <v>2419.8979528721948</v>
       </c>
-      <c r="CM16" s="20">
+      <c r="CM16" s="19">
         <v>3360.5721214211781</v>
       </c>
-      <c r="CN16" s="20">
+      <c r="CN16" s="19">
         <v>3016.3069803937592</v>
       </c>
-      <c r="CO16" s="20">
+      <c r="CO16" s="19">
         <v>4995.6966942187573</v>
       </c>
-      <c r="CP16" s="20">
+      <c r="CP16" s="19">
         <v>2339.4999124600317</v>
       </c>
-      <c r="CQ16" s="9"/>
+      <c r="CQ16" s="19">
+        <v>3498.8932940025416</v>
+      </c>
       <c r="CR16" s="9"/>
       <c r="CS16" s="9"/>
       <c r="CT16" s="9"/>
@@ -26086,46 +26090,48 @@
       <c r="CC17" s="8">
         <v>15450.240006454096</v>
       </c>
-      <c r="CD17" s="20">
+      <c r="CD17" s="19">
         <v>13214.890931823138</v>
       </c>
-      <c r="CE17" s="20">
+      <c r="CE17" s="19">
         <v>6128.0222538936814</v>
       </c>
-      <c r="CF17" s="20">
+      <c r="CF17" s="19">
         <v>8639.9516950968955</v>
       </c>
-      <c r="CG17" s="20">
+      <c r="CG17" s="19">
         <v>14216.149380776653</v>
       </c>
-      <c r="CH17" s="20">
+      <c r="CH17" s="19">
         <v>12508.896456119282</v>
       </c>
-      <c r="CI17" s="20">
+      <c r="CI17" s="19">
         <v>7988.4218366237901</v>
       </c>
-      <c r="CJ17" s="20">
+      <c r="CJ17" s="19">
         <v>10372.733368090756</v>
       </c>
-      <c r="CK17" s="20">
+      <c r="CK17" s="19">
         <v>14168.594577918491</v>
       </c>
-      <c r="CL17" s="20">
+      <c r="CL17" s="19">
         <v>14756.201664874417</v>
       </c>
-      <c r="CM17" s="20">
+      <c r="CM17" s="19">
         <v>9710.7964700929115</v>
       </c>
-      <c r="CN17" s="20">
+      <c r="CN17" s="19">
         <v>12276.158278382265</v>
       </c>
-      <c r="CO17" s="20">
+      <c r="CO17" s="19">
         <v>15709.119194229439</v>
       </c>
-      <c r="CP17" s="20">
-        <v>16605.276469476201</v>
-      </c>
-      <c r="CQ17" s="9"/>
+      <c r="CP17" s="19">
+        <v>16367.196458240909</v>
+      </c>
+      <c r="CQ17" s="19">
+        <v>10504.435458114091</v>
+      </c>
       <c r="CR17" s="9"/>
       <c r="CS17" s="9"/>
       <c r="CT17" s="9"/>
@@ -26585,46 +26591,48 @@
       <c r="CC19" s="12">
         <v>36593.987995486015</v>
       </c>
-      <c r="CD19" s="21">
+      <c r="CD19" s="20">
         <v>33537.444408075797</v>
       </c>
-      <c r="CE19" s="21">
+      <c r="CE19" s="20">
         <v>32447.196612028041</v>
       </c>
-      <c r="CF19" s="21">
+      <c r="CF19" s="20">
         <v>34029.794543694617</v>
       </c>
-      <c r="CG19" s="21">
+      <c r="CG19" s="20">
         <v>37045.879760593336</v>
       </c>
-      <c r="CH19" s="21">
+      <c r="CH19" s="20">
         <v>42358.938016675456</v>
       </c>
-      <c r="CI19" s="21">
+      <c r="CI19" s="20">
         <v>48530.077690399004</v>
       </c>
-      <c r="CJ19" s="21">
+      <c r="CJ19" s="20">
         <v>47520.006350940617</v>
       </c>
-      <c r="CK19" s="21">
+      <c r="CK19" s="20">
         <v>46962.016693124322</v>
       </c>
-      <c r="CL19" s="21">
+      <c r="CL19" s="20">
         <v>71473.602353665425</v>
       </c>
-      <c r="CM19" s="21">
+      <c r="CM19" s="20">
         <v>74111.188490433793</v>
       </c>
-      <c r="CN19" s="21">
+      <c r="CN19" s="20">
         <v>77729.52414645665</v>
       </c>
-      <c r="CO19" s="21">
+      <c r="CO19" s="20">
         <v>56935.311942700049</v>
       </c>
-      <c r="CP19" s="21">
-        <v>67221.469560377183</v>
-      </c>
-      <c r="CQ19" s="9"/>
+      <c r="CP19" s="20">
+        <v>67378.331796804632</v>
+      </c>
+      <c r="CQ19" s="20">
+        <v>55841.040791702195</v>
+      </c>
       <c r="CR19" s="9"/>
       <c r="CS19" s="9"/>
       <c r="CT19" s="9"/>
@@ -26780,6 +26788,7 @@
       <c r="CN20" s="13"/>
       <c r="CO20" s="13"/>
       <c r="CP20" s="13"/>
+      <c r="CQ20" s="13"/>
     </row>
     <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -27130,147 +27139,148 @@
     <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>2000</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21">
         <v>2001</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22">
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21">
         <v>2002</v>
       </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22">
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21">
         <v>2003</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22">
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21">
         <v>2004</v>
       </c>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22">
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21">
         <v>2005</v>
       </c>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22">
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21">
         <v>2006</v>
       </c>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22">
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21">
         <v>2007</v>
       </c>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
-      <c r="AH32" s="22">
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="21">
         <v>2008</v>
       </c>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="22"/>
-      <c r="AL32" s="22">
+      <c r="AI32" s="21"/>
+      <c r="AJ32" s="21"/>
+      <c r="AK32" s="21"/>
+      <c r="AL32" s="21">
         <v>2009</v>
       </c>
-      <c r="AM32" s="22"/>
-      <c r="AN32" s="22"/>
-      <c r="AO32" s="22"/>
-      <c r="AP32" s="22">
+      <c r="AM32" s="21"/>
+      <c r="AN32" s="21"/>
+      <c r="AO32" s="21"/>
+      <c r="AP32" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ32" s="22"/>
-      <c r="AR32" s="22"/>
-      <c r="AS32" s="22"/>
-      <c r="AT32" s="22">
+      <c r="AQ32" s="21"/>
+      <c r="AR32" s="21"/>
+      <c r="AS32" s="21"/>
+      <c r="AT32" s="21">
         <v>2011</v>
       </c>
-      <c r="AU32" s="22"/>
-      <c r="AV32" s="22"/>
-      <c r="AW32" s="22"/>
-      <c r="AX32" s="22">
+      <c r="AU32" s="21"/>
+      <c r="AV32" s="21"/>
+      <c r="AW32" s="21"/>
+      <c r="AX32" s="21">
         <v>2012</v>
       </c>
-      <c r="AY32" s="22"/>
-      <c r="AZ32" s="22"/>
-      <c r="BA32" s="22"/>
-      <c r="BB32" s="22">
+      <c r="AY32" s="21"/>
+      <c r="AZ32" s="21"/>
+      <c r="BA32" s="21"/>
+      <c r="BB32" s="21">
         <v>2013</v>
       </c>
-      <c r="BC32" s="22"/>
-      <c r="BD32" s="22"/>
-      <c r="BE32" s="22"/>
-      <c r="BF32" s="22">
+      <c r="BC32" s="21"/>
+      <c r="BD32" s="21"/>
+      <c r="BE32" s="21"/>
+      <c r="BF32" s="21">
         <v>2014</v>
       </c>
-      <c r="BG32" s="22"/>
-      <c r="BH32" s="22"/>
-      <c r="BI32" s="22"/>
-      <c r="BJ32" s="22">
+      <c r="BG32" s="21"/>
+      <c r="BH32" s="21"/>
+      <c r="BI32" s="21"/>
+      <c r="BJ32" s="21">
         <v>2015</v>
       </c>
-      <c r="BK32" s="22"/>
-      <c r="BL32" s="22"/>
-      <c r="BM32" s="22"/>
-      <c r="BN32" s="22">
+      <c r="BK32" s="21"/>
+      <c r="BL32" s="21"/>
+      <c r="BM32" s="21"/>
+      <c r="BN32" s="21">
         <v>2016</v>
       </c>
-      <c r="BO32" s="22"/>
-      <c r="BP32" s="22"/>
-      <c r="BQ32" s="22"/>
-      <c r="BR32" s="22">
+      <c r="BO32" s="21"/>
+      <c r="BP32" s="21"/>
+      <c r="BQ32" s="21"/>
+      <c r="BR32" s="21">
         <v>2017</v>
       </c>
-      <c r="BS32" s="22"/>
-      <c r="BT32" s="22"/>
-      <c r="BU32" s="22"/>
-      <c r="BV32" s="22">
+      <c r="BS32" s="21"/>
+      <c r="BT32" s="21"/>
+      <c r="BU32" s="21"/>
+      <c r="BV32" s="21">
         <v>2018</v>
       </c>
-      <c r="BW32" s="22"/>
-      <c r="BX32" s="22"/>
-      <c r="BY32" s="22"/>
-      <c r="BZ32" s="22">
+      <c r="BW32" s="21"/>
+      <c r="BX32" s="21"/>
+      <c r="BY32" s="21"/>
+      <c r="BZ32" s="21">
         <v>2019</v>
       </c>
-      <c r="CA32" s="22"/>
-      <c r="CB32" s="22"/>
-      <c r="CC32" s="22"/>
-      <c r="CD32" s="22">
+      <c r="CA32" s="21"/>
+      <c r="CB32" s="21"/>
+      <c r="CC32" s="21"/>
+      <c r="CD32" s="21">
         <v>2020</v>
       </c>
-      <c r="CE32" s="22"/>
-      <c r="CF32" s="22"/>
-      <c r="CG32" s="22"/>
-      <c r="CH32" s="22">
+      <c r="CE32" s="21"/>
+      <c r="CF32" s="21"/>
+      <c r="CG32" s="21"/>
+      <c r="CH32" s="21">
         <v>2021</v>
       </c>
-      <c r="CI32" s="22"/>
-      <c r="CJ32" s="22"/>
-      <c r="CK32" s="22"/>
-      <c r="CL32" s="22">
+      <c r="CI32" s="21"/>
+      <c r="CJ32" s="21"/>
+      <c r="CK32" s="21"/>
+      <c r="CL32" s="21">
         <v>2022</v>
       </c>
-      <c r="CM32" s="22"/>
-      <c r="CN32" s="22"/>
-      <c r="CO32" s="22"/>
-      <c r="CP32" s="19">
+      <c r="CM32" s="21"/>
+      <c r="CN32" s="21"/>
+      <c r="CO32" s="21"/>
+      <c r="CP32" s="21">
         <v>2023</v>
       </c>
+      <c r="CQ32" s="22"/>
     </row>
     <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -27554,6 +27564,9 @@
       </c>
       <c r="CP33" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ33" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27803,46 +27816,48 @@
       <c r="CC35" s="8">
         <v>5256.8028553051563</v>
       </c>
-      <c r="CD35" s="20">
+      <c r="CD35" s="19">
         <v>5185.9227969788171</v>
       </c>
-      <c r="CE35" s="20">
+      <c r="CE35" s="19">
         <v>8196.1503092120402</v>
       </c>
-      <c r="CF35" s="20">
+      <c r="CF35" s="19">
         <v>3202.6781512860248</v>
       </c>
-      <c r="CG35" s="20">
+      <c r="CG35" s="19">
         <v>3725.5687314519337</v>
       </c>
-      <c r="CH35" s="20">
+      <c r="CH35" s="19">
         <v>7366.6241073344327</v>
       </c>
-      <c r="CI35" s="20">
+      <c r="CI35" s="19">
         <v>7976.3502756595108</v>
       </c>
-      <c r="CJ35" s="20">
+      <c r="CJ35" s="19">
         <v>1954.5648260456455</v>
       </c>
-      <c r="CK35" s="20">
+      <c r="CK35" s="19">
         <v>4440.831846489732</v>
       </c>
-      <c r="CL35" s="20">
+      <c r="CL35" s="19">
         <v>10958.03015047024</v>
       </c>
-      <c r="CM35" s="20">
+      <c r="CM35" s="19">
         <v>6334.6974061478777</v>
       </c>
-      <c r="CN35" s="20">
+      <c r="CN35" s="19">
         <v>3454.7335177153209</v>
       </c>
-      <c r="CO35" s="20">
+      <c r="CO35" s="19">
         <v>3034.4308903112847</v>
       </c>
-      <c r="CP35" s="20">
-        <v>9902.080849591779</v>
-      </c>
-      <c r="CQ35" s="9"/>
+      <c r="CP35" s="19">
+        <v>9880.2286789848804</v>
+      </c>
+      <c r="CQ35" s="19">
+        <v>5547.0502940145998</v>
+      </c>
       <c r="CR35" s="9"/>
       <c r="CS35" s="9"/>
       <c r="CT35" s="9"/>
@@ -28147,46 +28162,48 @@
       <c r="CC36" s="8">
         <v>7587.4100950403681</v>
       </c>
-      <c r="CD36" s="20">
+      <c r="CD36" s="19">
         <v>6788.1361103667259</v>
       </c>
-      <c r="CE36" s="20">
+      <c r="CE36" s="19">
         <v>15958.954290338446</v>
       </c>
-      <c r="CF36" s="20">
+      <c r="CF36" s="19">
         <v>4216.7631256646146</v>
       </c>
-      <c r="CG36" s="20">
+      <c r="CG36" s="19">
         <v>6360.8779189578154</v>
       </c>
-      <c r="CH36" s="20">
+      <c r="CH36" s="19">
         <v>5489.642902099733</v>
       </c>
-      <c r="CI36" s="20">
+      <c r="CI36" s="19">
         <v>14061.606274353939</v>
       </c>
-      <c r="CJ36" s="20">
+      <c r="CJ36" s="19">
         <v>3881.2041812060897</v>
       </c>
-      <c r="CK36" s="20">
+      <c r="CK36" s="19">
         <v>4896.2167341823924</v>
       </c>
-      <c r="CL36" s="20">
+      <c r="CL36" s="19">
         <v>5486.7089418083433</v>
       </c>
-      <c r="CM36" s="20">
+      <c r="CM36" s="19">
         <v>12545.706395806543</v>
       </c>
-      <c r="CN36" s="20">
+      <c r="CN36" s="19">
         <v>3588.5976323687337</v>
       </c>
-      <c r="CO36" s="20">
+      <c r="CO36" s="19">
         <v>4874.4539561299507</v>
       </c>
-      <c r="CP36" s="20">
+      <c r="CP36" s="19">
         <v>3908.6596716646445</v>
       </c>
-      <c r="CQ36" s="9"/>
+      <c r="CQ36" s="19">
+        <v>9383.2506327522442</v>
+      </c>
       <c r="CR36" s="9"/>
       <c r="CS36" s="9"/>
       <c r="CT36" s="9"/>
@@ -28491,46 +28508,48 @@
       <c r="CC37" s="8">
         <v>4875.2259184043169</v>
       </c>
-      <c r="CD37" s="20">
+      <c r="CD37" s="19">
         <v>4706.4360907846185</v>
       </c>
-      <c r="CE37" s="20">
+      <c r="CE37" s="19">
         <v>5096.2942159296426</v>
       </c>
-      <c r="CF37" s="20">
+      <c r="CF37" s="19">
         <v>4617.5723548291116</v>
       </c>
-      <c r="CG37" s="20">
+      <c r="CG37" s="19">
         <v>4610.8806062339672</v>
       </c>
-      <c r="CH37" s="20">
+      <c r="CH37" s="19">
         <v>5018.3374156152431</v>
       </c>
-      <c r="CI37" s="20">
+      <c r="CI37" s="19">
         <v>6052.7885216024242</v>
       </c>
-      <c r="CJ37" s="20">
+      <c r="CJ37" s="19">
         <v>5347.3605298945513</v>
       </c>
-      <c r="CK37" s="20">
+      <c r="CK37" s="19">
         <v>5972.151005999438</v>
       </c>
-      <c r="CL37" s="20">
+      <c r="CL37" s="19">
         <v>6004.3560619430173</v>
       </c>
-      <c r="CM37" s="20">
+      <c r="CM37" s="19">
         <v>8059.7520011142842</v>
       </c>
-      <c r="CN37" s="20">
+      <c r="CN37" s="19">
         <v>6666.4661185470686</v>
       </c>
-      <c r="CO37" s="20">
+      <c r="CO37" s="19">
         <v>7052.931592245819</v>
       </c>
-      <c r="CP37" s="20">
-        <v>6273.5363142480564</v>
-      </c>
-      <c r="CQ37" s="9"/>
+      <c r="CP37" s="19">
+        <v>6413.0817528729222</v>
+      </c>
+      <c r="CQ37" s="19">
+        <v>8411.437397662834</v>
+      </c>
       <c r="CR37" s="9"/>
       <c r="CS37" s="9"/>
       <c r="CT37" s="9"/>
@@ -28835,46 +28854,48 @@
       <c r="CC38" s="8">
         <v>1183.5453050465471</v>
       </c>
-      <c r="CD38" s="20">
+      <c r="CD38" s="19">
         <v>3080.4151327369641</v>
       </c>
-      <c r="CE38" s="20">
+      <c r="CE38" s="19">
         <v>8500.7989648955609</v>
       </c>
-      <c r="CF38" s="20">
+      <c r="CF38" s="19">
         <v>6133.3386552376378</v>
       </c>
-      <c r="CG38" s="20">
+      <c r="CG38" s="19">
         <v>1743.9240612838362</v>
       </c>
-      <c r="CH38" s="20">
+      <c r="CH38" s="19">
         <v>4996.8693390372027</v>
       </c>
-      <c r="CI38" s="20">
+      <c r="CI38" s="19">
         <v>10383.722352801096</v>
       </c>
-      <c r="CJ38" s="20">
+      <c r="CJ38" s="19">
         <v>6670.9845485026926</v>
       </c>
-      <c r="CK38" s="20">
+      <c r="CK38" s="19">
         <v>1464.8652129565066</v>
       </c>
-      <c r="CL38" s="20">
+      <c r="CL38" s="19">
         <v>4453.3563068360563</v>
       </c>
-      <c r="CM38" s="20">
+      <c r="CM38" s="19">
         <v>6851.5622273177451</v>
       </c>
-      <c r="CN38" s="20">
+      <c r="CN38" s="19">
         <v>5652.805563576303</v>
       </c>
-      <c r="CO38" s="20">
+      <c r="CO38" s="19">
         <v>1604.1539505589053</v>
       </c>
-      <c r="CP38" s="20">
-        <v>5002.2289835130132</v>
-      </c>
-      <c r="CQ38" s="9"/>
+      <c r="CP38" s="19">
+        <v>5060.6837921268252</v>
+      </c>
+      <c r="CQ38" s="19">
+        <v>8502.0765037096826</v>
+      </c>
       <c r="CR38" s="9"/>
       <c r="CS38" s="9"/>
       <c r="CT38" s="9"/>
@@ -29179,46 +29200,48 @@
       <c r="CC39" s="8">
         <v>1251.1146890163657</v>
       </c>
-      <c r="CD39" s="20">
+      <c r="CD39" s="19">
         <v>4057.2019465919075</v>
       </c>
-      <c r="CE39" s="20">
+      <c r="CE39" s="19">
         <v>1172.9770640076631</v>
       </c>
-      <c r="CF39" s="20">
+      <c r="CF39" s="19">
         <v>1245.7492765727784</v>
       </c>
-      <c r="CG39" s="20">
+      <c r="CG39" s="19">
         <v>970.2219894318423</v>
       </c>
-      <c r="CH39" s="20">
+      <c r="CH39" s="19">
         <v>2726.9761640608922</v>
       </c>
-      <c r="CI39" s="20">
+      <c r="CI39" s="19">
         <v>896.93250467388657</v>
       </c>
-      <c r="CJ39" s="20">
+      <c r="CJ39" s="19">
         <v>1199.3326437335306</v>
       </c>
-      <c r="CK39" s="20">
+      <c r="CK39" s="19">
         <v>1123.2391614790699</v>
       </c>
-      <c r="CL39" s="20">
+      <c r="CL39" s="19">
         <v>4332.1992264646178</v>
       </c>
-      <c r="CM39" s="20">
+      <c r="CM39" s="19">
         <v>1230.4443119866219</v>
       </c>
-      <c r="CN39" s="20">
+      <c r="CN39" s="19">
         <v>1532.0808593139413</v>
       </c>
-      <c r="CO39" s="20">
+      <c r="CO39" s="19">
         <v>1476.0047410557795</v>
       </c>
-      <c r="CP39" s="20">
+      <c r="CP39" s="19">
         <v>4324.7906811114208</v>
       </c>
-      <c r="CQ39" s="9"/>
+      <c r="CQ39" s="19">
+        <v>1361.8322781078605</v>
+      </c>
       <c r="CR39" s="9"/>
       <c r="CS39" s="9"/>
       <c r="CT39" s="9"/>
@@ -29523,46 +29546,48 @@
       <c r="CC40" s="8">
         <v>17215.538980340767</v>
       </c>
-      <c r="CD40" s="20">
+      <c r="CD40" s="19">
         <v>12080.868194815153</v>
       </c>
-      <c r="CE40" s="20">
+      <c r="CE40" s="19">
         <v>5620.2536243486284</v>
       </c>
-      <c r="CF40" s="20">
+      <c r="CF40" s="19">
         <v>6453.2018292675884</v>
       </c>
-      <c r="CG40" s="20">
+      <c r="CG40" s="19">
         <v>13767.839691706578</v>
       </c>
-      <c r="CH40" s="20">
+      <c r="CH40" s="19">
         <v>11027.147252327914</v>
       </c>
-      <c r="CI40" s="20">
+      <c r="CI40" s="19">
         <v>7033.581437816134</v>
       </c>
-      <c r="CJ40" s="20">
+      <c r="CJ40" s="19">
         <v>7849.21975464772</v>
       </c>
-      <c r="CK40" s="20">
+      <c r="CK40" s="19">
         <v>16667.551953593211</v>
       </c>
-      <c r="CL40" s="20">
+      <c r="CL40" s="19">
         <v>12849.55154957661</v>
       </c>
-      <c r="CM40" s="20">
+      <c r="CM40" s="19">
         <v>8242.9211698626095</v>
       </c>
-      <c r="CN40" s="20">
+      <c r="CN40" s="19">
         <v>8752.1789888420681</v>
       </c>
-      <c r="CO40" s="20">
+      <c r="CO40" s="19">
         <v>17146.413780542847</v>
       </c>
-      <c r="CP40" s="20">
-        <v>13715.695454284843</v>
-      </c>
-      <c r="CQ40" s="9"/>
+      <c r="CP40" s="19">
+        <v>13519.045134498927</v>
+      </c>
+      <c r="CQ40" s="19">
+        <v>8534.1715725623435</v>
+      </c>
       <c r="CR40" s="9"/>
       <c r="CS40" s="9"/>
       <c r="CT40" s="9"/>
@@ -29704,20 +29729,20 @@
       <c r="CA41" s="12"/>
       <c r="CB41" s="12"/>
       <c r="CC41" s="12"/>
-      <c r="CD41" s="21"/>
-      <c r="CE41" s="21"/>
-      <c r="CF41" s="21"/>
-      <c r="CG41" s="21"/>
-      <c r="CH41" s="21"/>
-      <c r="CI41" s="21"/>
-      <c r="CJ41" s="21"/>
-      <c r="CK41" s="21"/>
-      <c r="CL41" s="21"/>
-      <c r="CM41" s="21"/>
-      <c r="CN41" s="21"/>
-      <c r="CO41" s="21"/>
-      <c r="CP41" s="21"/>
-      <c r="CQ41" s="9"/>
+      <c r="CD41" s="20"/>
+      <c r="CE41" s="20"/>
+      <c r="CF41" s="20"/>
+      <c r="CG41" s="20"/>
+      <c r="CH41" s="20"/>
+      <c r="CI41" s="20"/>
+      <c r="CJ41" s="20"/>
+      <c r="CK41" s="20"/>
+      <c r="CL41" s="20"/>
+      <c r="CM41" s="20"/>
+      <c r="CN41" s="20"/>
+      <c r="CO41" s="20"/>
+      <c r="CP41" s="20"/>
+      <c r="CQ41" s="20"/>
       <c r="CR41" s="9"/>
       <c r="CS41" s="9"/>
       <c r="CT41" s="9"/>
@@ -30022,46 +30047,48 @@
       <c r="CC42" s="12">
         <v>37369.637843153527</v>
       </c>
-      <c r="CD42" s="21">
+      <c r="CD42" s="20">
         <v>35898.980272274188</v>
       </c>
-      <c r="CE42" s="21">
+      <c r="CE42" s="20">
         <v>44545.428468731974</v>
       </c>
-      <c r="CF42" s="21">
+      <c r="CF42" s="20">
         <v>25869.303392857761</v>
       </c>
-      <c r="CG42" s="21">
+      <c r="CG42" s="20">
         <v>31179.312999065973</v>
       </c>
-      <c r="CH42" s="21">
+      <c r="CH42" s="20">
         <v>36625.597180475415</v>
       </c>
-      <c r="CI42" s="21">
+      <c r="CI42" s="20">
         <v>46404.981366906984</v>
       </c>
-      <c r="CJ42" s="21">
+      <c r="CJ42" s="20">
         <v>26902.666484030233</v>
       </c>
-      <c r="CK42" s="21">
+      <c r="CK42" s="20">
         <v>34564.855914700347</v>
       </c>
-      <c r="CL42" s="21">
+      <c r="CL42" s="20">
         <v>44084.202237098885</v>
       </c>
-      <c r="CM42" s="21">
+      <c r="CM42" s="20">
         <v>43265.08351223568</v>
       </c>
-      <c r="CN42" s="21">
+      <c r="CN42" s="20">
         <v>29646.862680363436</v>
       </c>
-      <c r="CO42" s="21">
+      <c r="CO42" s="20">
         <v>35188.388910844587</v>
       </c>
-      <c r="CP42" s="21">
-        <v>43126.991954413752</v>
-      </c>
-      <c r="CQ42" s="9"/>
+      <c r="CP42" s="20">
+        <v>43106.489711259623</v>
+      </c>
+      <c r="CQ42" s="20">
+        <v>41739.81867880957</v>
+      </c>
       <c r="CR42" s="9"/>
       <c r="CS42" s="9"/>
       <c r="CT42" s="9"/>
@@ -30217,6 +30244,7 @@
       <c r="CN43" s="13"/>
       <c r="CO43" s="13"/>
       <c r="CP43" s="13"/>
+      <c r="CQ43" s="13"/>
     </row>
     <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
@@ -30567,145 +30595,146 @@
     <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22" t="s">
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22" t="s">
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22" t="s">
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22" t="s">
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="W55" s="22"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="22" t="s">
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="22"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="22" t="s">
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="22"/>
-      <c r="AF55" s="22"/>
-      <c r="AG55" s="22"/>
-      <c r="AH55" s="22" t="s">
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="21"/>
+      <c r="AH55" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="22"/>
-      <c r="AJ55" s="22"/>
-      <c r="AK55" s="22"/>
-      <c r="AL55" s="22" t="s">
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="21"/>
+      <c r="AL55" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AM55" s="22"/>
-      <c r="AN55" s="22"/>
-      <c r="AO55" s="22"/>
-      <c r="AP55" s="22" t="s">
+      <c r="AM55" s="21"/>
+      <c r="AN55" s="21"/>
+      <c r="AO55" s="21"/>
+      <c r="AP55" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AQ55" s="22"/>
-      <c r="AR55" s="22"/>
-      <c r="AS55" s="22"/>
-      <c r="AT55" s="22" t="s">
+      <c r="AQ55" s="21"/>
+      <c r="AR55" s="21"/>
+      <c r="AS55" s="21"/>
+      <c r="AT55" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AU55" s="22"/>
-      <c r="AV55" s="22"/>
-      <c r="AW55" s="22"/>
-      <c r="AX55" s="22" t="s">
+      <c r="AU55" s="21"/>
+      <c r="AV55" s="21"/>
+      <c r="AW55" s="21"/>
+      <c r="AX55" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="AY55" s="22"/>
-      <c r="AZ55" s="22"/>
-      <c r="BA55" s="22"/>
-      <c r="BB55" s="22" t="s">
+      <c r="AY55" s="21"/>
+      <c r="AZ55" s="21"/>
+      <c r="BA55" s="21"/>
+      <c r="BB55" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="BC55" s="22"/>
-      <c r="BD55" s="22"/>
-      <c r="BE55" s="22"/>
-      <c r="BF55" s="22" t="s">
+      <c r="BC55" s="21"/>
+      <c r="BD55" s="21"/>
+      <c r="BE55" s="21"/>
+      <c r="BF55" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BG55" s="22"/>
-      <c r="BH55" s="22"/>
-      <c r="BI55" s="22"/>
-      <c r="BJ55" s="22" t="s">
+      <c r="BG55" s="21"/>
+      <c r="BH55" s="21"/>
+      <c r="BI55" s="21"/>
+      <c r="BJ55" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="BK55" s="22"/>
-      <c r="BL55" s="22"/>
-      <c r="BM55" s="22"/>
-      <c r="BN55" s="22" t="s">
+      <c r="BK55" s="21"/>
+      <c r="BL55" s="21"/>
+      <c r="BM55" s="21"/>
+      <c r="BN55" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="BO55" s="22"/>
-      <c r="BP55" s="22"/>
-      <c r="BQ55" s="22"/>
-      <c r="BR55" s="22" t="s">
+      <c r="BO55" s="21"/>
+      <c r="BP55" s="21"/>
+      <c r="BQ55" s="21"/>
+      <c r="BR55" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="BS55" s="22"/>
-      <c r="BT55" s="22"/>
-      <c r="BU55" s="22"/>
-      <c r="BV55" s="22" t="s">
+      <c r="BS55" s="21"/>
+      <c r="BT55" s="21"/>
+      <c r="BU55" s="21"/>
+      <c r="BV55" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="BW55" s="22"/>
-      <c r="BX55" s="22"/>
-      <c r="BY55" s="22"/>
-      <c r="BZ55" s="22" t="s">
+      <c r="BW55" s="21"/>
+      <c r="BX55" s="21"/>
+      <c r="BY55" s="21"/>
+      <c r="BZ55" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="CA55" s="22"/>
-      <c r="CB55" s="22"/>
-      <c r="CC55" s="22"/>
-      <c r="CD55" s="22" t="s">
+      <c r="CA55" s="21"/>
+      <c r="CB55" s="21"/>
+      <c r="CC55" s="21"/>
+      <c r="CD55" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="CE55" s="22"/>
-      <c r="CF55" s="22"/>
-      <c r="CG55" s="22"/>
-      <c r="CH55" s="22" t="s">
+      <c r="CE55" s="21"/>
+      <c r="CF55" s="21"/>
+      <c r="CG55" s="21"/>
+      <c r="CH55" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="CI55" s="22"/>
-      <c r="CJ55" s="22"/>
-      <c r="CK55" s="22"/>
-      <c r="CL55" s="19" t="s">
+      <c r="CI55" s="21"/>
+      <c r="CJ55" s="21"/>
+      <c r="CK55" s="21"/>
+      <c r="CL55" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="CM55" s="19"/>
-      <c r="CN55" s="19"/>
-      <c r="CO55" s="19"/>
-      <c r="CP55" s="19"/>
+      <c r="CM55" s="21"/>
+      <c r="CN55" s="21"/>
+      <c r="CO55" s="21"/>
+      <c r="CP55" s="21"/>
+      <c r="CQ55" s="22"/>
     </row>
     <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
@@ -30978,10 +31007,13 @@
       <c r="CL56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM56" s="5"/>
+      <c r="CM56" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN56" s="5"/>
       <c r="CO56" s="5"/>
       <c r="CP56" s="5"/>
+      <c r="CQ56" s="5"/>
     </row>
     <row r="57" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
@@ -31255,12 +31287,15 @@
         <v>37.30484426126992</v>
       </c>
       <c r="CL58" s="15">
-        <v>-19.295622447447727</v>
-      </c>
-      <c r="CM58" s="15"/>
+        <v>-19.473722975386224</v>
+      </c>
+      <c r="CM58" s="15">
+        <v>-60.226791024212901</v>
+      </c>
       <c r="CN58" s="15"/>
       <c r="CO58" s="15"/>
       <c r="CP58" s="15"/>
+      <c r="CQ58" s="15"/>
     </row>
     <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -31533,11 +31568,13 @@
       <c r="CL59" s="15">
         <v>-47.443315019981334</v>
       </c>
-      <c r="CM59" s="15"/>
+      <c r="CM59" s="15">
+        <v>-67.082830569848966</v>
+      </c>
       <c r="CN59" s="15"/>
       <c r="CO59" s="15"/>
       <c r="CP59" s="15"/>
-      <c r="CQ59" s="9"/>
+      <c r="CQ59" s="15"/>
       <c r="CR59" s="9"/>
       <c r="CS59" s="9"/>
       <c r="CT59" s="9"/>
@@ -31862,13 +31899,15 @@
         <v>18.786959845235245</v>
       </c>
       <c r="CL60" s="15">
-        <v>11.978570705405815</v>
-      </c>
-      <c r="CM60" s="15"/>
+        <v>14.469366642966961</v>
+      </c>
+      <c r="CM60" s="15">
+        <v>10.204146747955505</v>
+      </c>
       <c r="CN60" s="15"/>
       <c r="CO60" s="15"/>
       <c r="CP60" s="15"/>
-      <c r="CQ60" s="9"/>
+      <c r="CQ60" s="15"/>
       <c r="CR60" s="9"/>
       <c r="CS60" s="9"/>
       <c r="CT60" s="9"/>
@@ -32193,13 +32232,15 @@
         <v>40.693310625311057</v>
       </c>
       <c r="CL61" s="15">
-        <v>15.214983718685772</v>
-      </c>
-      <c r="CM61" s="15"/>
+        <v>16.561357474248894</v>
+      </c>
+      <c r="CM61" s="15">
+        <v>1.3170941306362067</v>
+      </c>
       <c r="CN61" s="15"/>
       <c r="CO61" s="15"/>
       <c r="CP61" s="15"/>
-      <c r="CQ61" s="9"/>
+      <c r="CQ61" s="15"/>
       <c r="CR61" s="9"/>
       <c r="CS61" s="9"/>
       <c r="CT61" s="9"/>
@@ -32526,11 +32567,13 @@
       <c r="CL62" s="15">
         <v>-3.3223731734942703</v>
       </c>
-      <c r="CM62" s="15"/>
+      <c r="CM62" s="15">
+        <v>4.1160007160586645</v>
+      </c>
       <c r="CN62" s="15"/>
       <c r="CO62" s="15"/>
       <c r="CP62" s="15"/>
-      <c r="CQ62" s="9"/>
+      <c r="CQ62" s="15"/>
       <c r="CR62" s="9"/>
       <c r="CS62" s="9"/>
       <c r="CT62" s="9"/>
@@ -32855,13 +32898,15 @@
         <v>10.872811751645628</v>
       </c>
       <c r="CL63" s="15">
-        <v>12.53083175871275</v>
-      </c>
-      <c r="CM63" s="15"/>
+        <v>10.917408354490661</v>
+      </c>
+      <c r="CM63" s="15">
+        <v>8.1727486562550382</v>
+      </c>
       <c r="CN63" s="15"/>
       <c r="CO63" s="15"/>
       <c r="CP63" s="15"/>
-      <c r="CQ63" s="9"/>
+      <c r="CQ63" s="15"/>
       <c r="CR63" s="9"/>
       <c r="CS63" s="9"/>
       <c r="CT63" s="9"/>
@@ -33336,13 +33381,15 @@
         <v>21.236939875786703</v>
       </c>
       <c r="CL65" s="15">
-        <v>-5.949235316624808</v>
-      </c>
-      <c r="CM65" s="15"/>
+        <v>-5.729766545971188</v>
+      </c>
+      <c r="CM65" s="15">
+        <v>-24.652347467197743</v>
+      </c>
       <c r="CN65" s="15"/>
       <c r="CO65" s="15"/>
       <c r="CP65" s="15"/>
-      <c r="CQ65" s="9"/>
+      <c r="CQ65" s="15"/>
       <c r="CR65" s="9"/>
       <c r="CS65" s="9"/>
       <c r="CT65" s="9"/>
@@ -33493,6 +33540,7 @@
       <c r="CN66" s="13"/>
       <c r="CO66" s="13"/>
       <c r="CP66" s="13"/>
+      <c r="CQ66" s="13"/>
     </row>
     <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
@@ -33836,145 +33884,146 @@
     <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="22" t="s">
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="22" t="s">
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="23"/>
-      <c r="N78" s="22" t="s">
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O78" s="23"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="23"/>
-      <c r="R78" s="22" t="s">
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="23"/>
-      <c r="T78" s="23"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="22" t="s">
+      <c r="S78" s="22"/>
+      <c r="T78" s="22"/>
+      <c r="U78" s="22"/>
+      <c r="V78" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="W78" s="23"/>
-      <c r="X78" s="23"/>
-      <c r="Y78" s="23"/>
-      <c r="Z78" s="22" t="s">
+      <c r="W78" s="22"/>
+      <c r="X78" s="22"/>
+      <c r="Y78" s="22"/>
+      <c r="Z78" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA78" s="23"/>
-      <c r="AB78" s="23"/>
-      <c r="AC78" s="23"/>
-      <c r="AD78" s="22" t="s">
+      <c r="AA78" s="22"/>
+      <c r="AB78" s="22"/>
+      <c r="AC78" s="22"/>
+      <c r="AD78" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="23"/>
-      <c r="AF78" s="23"/>
-      <c r="AG78" s="23"/>
-      <c r="AH78" s="22" t="s">
+      <c r="AE78" s="22"/>
+      <c r="AF78" s="22"/>
+      <c r="AG78" s="22"/>
+      <c r="AH78" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AI78" s="23"/>
-      <c r="AJ78" s="23"/>
-      <c r="AK78" s="23"/>
-      <c r="AL78" s="22" t="s">
+      <c r="AI78" s="22"/>
+      <c r="AJ78" s="22"/>
+      <c r="AK78" s="22"/>
+      <c r="AL78" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AM78" s="23"/>
-      <c r="AN78" s="23"/>
-      <c r="AO78" s="23"/>
-      <c r="AP78" s="22" t="s">
+      <c r="AM78" s="22"/>
+      <c r="AN78" s="22"/>
+      <c r="AO78" s="22"/>
+      <c r="AP78" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AQ78" s="23"/>
-      <c r="AR78" s="23"/>
-      <c r="AS78" s="23"/>
-      <c r="AT78" s="22" t="s">
+      <c r="AQ78" s="22"/>
+      <c r="AR78" s="22"/>
+      <c r="AS78" s="22"/>
+      <c r="AT78" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AU78" s="23"/>
-      <c r="AV78" s="23"/>
-      <c r="AW78" s="23"/>
-      <c r="AX78" s="22" t="s">
+      <c r="AU78" s="22"/>
+      <c r="AV78" s="22"/>
+      <c r="AW78" s="22"/>
+      <c r="AX78" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="AY78" s="23"/>
-      <c r="AZ78" s="23"/>
-      <c r="BA78" s="23"/>
-      <c r="BB78" s="22" t="s">
+      <c r="AY78" s="22"/>
+      <c r="AZ78" s="22"/>
+      <c r="BA78" s="22"/>
+      <c r="BB78" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="BC78" s="23"/>
-      <c r="BD78" s="23"/>
-      <c r="BE78" s="23"/>
-      <c r="BF78" s="22" t="s">
+      <c r="BC78" s="22"/>
+      <c r="BD78" s="22"/>
+      <c r="BE78" s="22"/>
+      <c r="BF78" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BG78" s="23"/>
-      <c r="BH78" s="23"/>
-      <c r="BI78" s="23"/>
-      <c r="BJ78" s="22" t="s">
+      <c r="BG78" s="22"/>
+      <c r="BH78" s="22"/>
+      <c r="BI78" s="22"/>
+      <c r="BJ78" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="BK78" s="23"/>
-      <c r="BL78" s="23"/>
-      <c r="BM78" s="23"/>
-      <c r="BN78" s="22" t="s">
+      <c r="BK78" s="22"/>
+      <c r="BL78" s="22"/>
+      <c r="BM78" s="22"/>
+      <c r="BN78" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="BO78" s="23"/>
-      <c r="BP78" s="23"/>
-      <c r="BQ78" s="23"/>
-      <c r="BR78" s="22" t="s">
+      <c r="BO78" s="22"/>
+      <c r="BP78" s="22"/>
+      <c r="BQ78" s="22"/>
+      <c r="BR78" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="BS78" s="23"/>
-      <c r="BT78" s="23"/>
-      <c r="BU78" s="23"/>
-      <c r="BV78" s="22" t="s">
+      <c r="BS78" s="22"/>
+      <c r="BT78" s="22"/>
+      <c r="BU78" s="22"/>
+      <c r="BV78" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="BW78" s="23"/>
-      <c r="BX78" s="23"/>
-      <c r="BY78" s="23"/>
-      <c r="BZ78" s="22" t="s">
+      <c r="BW78" s="22"/>
+      <c r="BX78" s="22"/>
+      <c r="BY78" s="22"/>
+      <c r="BZ78" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="CA78" s="23"/>
-      <c r="CB78" s="23"/>
-      <c r="CC78" s="23"/>
-      <c r="CD78" s="22" t="s">
+      <c r="CA78" s="22"/>
+      <c r="CB78" s="22"/>
+      <c r="CC78" s="22"/>
+      <c r="CD78" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="CE78" s="22"/>
-      <c r="CF78" s="22"/>
-      <c r="CG78" s="22"/>
-      <c r="CH78" s="22" t="s">
+      <c r="CE78" s="21"/>
+      <c r="CF78" s="21"/>
+      <c r="CG78" s="21"/>
+      <c r="CH78" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="CI78" s="22"/>
-      <c r="CJ78" s="22"/>
-      <c r="CK78" s="22"/>
-      <c r="CL78" s="19" t="s">
+      <c r="CI78" s="21"/>
+      <c r="CJ78" s="21"/>
+      <c r="CK78" s="21"/>
+      <c r="CL78" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="CM78" s="19"/>
-      <c r="CN78" s="19"/>
-      <c r="CO78" s="19"/>
-      <c r="CP78" s="19"/>
+      <c r="CM78" s="21"/>
+      <c r="CN78" s="21"/>
+      <c r="CO78" s="21"/>
+      <c r="CP78" s="21"/>
+      <c r="CQ78" s="22"/>
     </row>
     <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
@@ -34247,10 +34296,13 @@
       <c r="CL79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM79" s="5"/>
+      <c r="CM79" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN79" s="5"/>
       <c r="CO79" s="5"/>
       <c r="CP79" s="5"/>
+      <c r="CQ79" s="5"/>
     </row>
     <row r="80" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
@@ -34524,13 +34576,15 @@
         <v>-31.669763791892748</v>
       </c>
       <c r="CL81" s="15">
-        <v>-9.6363058540512156</v>
-      </c>
-      <c r="CM81" s="15"/>
+        <v>-9.8357228140963713</v>
+      </c>
+      <c r="CM81" s="15">
+        <v>-12.433855346726745</v>
+      </c>
       <c r="CN81" s="15"/>
       <c r="CO81" s="15"/>
       <c r="CP81" s="15"/>
-      <c r="CQ81" s="9"/>
+      <c r="CQ81" s="15"/>
       <c r="CR81" s="9"/>
       <c r="CS81" s="9"/>
       <c r="CT81" s="9"/>
@@ -34857,11 +34911,13 @@
       <c r="CL82" s="15">
         <v>-28.761308224664006</v>
       </c>
-      <c r="CM82" s="15"/>
+      <c r="CM82" s="15">
+        <v>-25.207474679236583</v>
+      </c>
       <c r="CN82" s="15"/>
       <c r="CO82" s="15"/>
       <c r="CP82" s="15"/>
-      <c r="CQ82" s="9"/>
+      <c r="CQ82" s="15"/>
       <c r="CR82" s="9"/>
       <c r="CS82" s="9"/>
       <c r="CT82" s="9"/>
@@ -35186,13 +35242,15 @@
         <v>18.097007010717945</v>
       </c>
       <c r="CL83" s="15">
-        <v>4.4830827740407528</v>
-      </c>
-      <c r="CM83" s="15"/>
+        <v>6.8071527856334342</v>
+      </c>
+      <c r="CM83" s="15">
+        <v>4.3634766491565529</v>
+      </c>
       <c r="CN83" s="15"/>
       <c r="CO83" s="15"/>
       <c r="CP83" s="15"/>
-      <c r="CQ83" s="9"/>
+      <c r="CQ83" s="15"/>
       <c r="CR83" s="9"/>
       <c r="CS83" s="9"/>
       <c r="CT83" s="9"/>
@@ -35517,13 +35575,15 @@
         <v>9.508638499324789</v>
       </c>
       <c r="CL84" s="15">
-        <v>12.324921673893869</v>
-      </c>
-      <c r="CM84" s="15"/>
+        <v>13.637522880405967</v>
+      </c>
+      <c r="CM84" s="15">
+        <v>24.089604992729988</v>
+      </c>
       <c r="CN84" s="15"/>
       <c r="CO84" s="15"/>
       <c r="CP84" s="15"/>
-      <c r="CQ84" s="9"/>
+      <c r="CQ84" s="15"/>
       <c r="CR84" s="9"/>
       <c r="CS84" s="9"/>
       <c r="CT84" s="9"/>
@@ -35850,11 +35910,13 @@
       <c r="CL85" s="15">
         <v>-0.17101118775745761</v>
       </c>
-      <c r="CM85" s="15"/>
+      <c r="CM85" s="15">
+        <v>10.678091226177088</v>
+      </c>
       <c r="CN85" s="15"/>
       <c r="CO85" s="15"/>
       <c r="CP85" s="15"/>
-      <c r="CQ85" s="9"/>
+      <c r="CQ85" s="15"/>
       <c r="CR85" s="9"/>
       <c r="CS85" s="9"/>
       <c r="CT85" s="9"/>
@@ -36179,13 +36241,15 @@
         <v>2.8730183549624542</v>
       </c>
       <c r="CL86" s="15">
-        <v>6.7406547330966902</v>
-      </c>
-      <c r="CM86" s="15"/>
+        <v>5.2102486405012201</v>
+      </c>
+      <c r="CM86" s="15">
+        <v>3.5333396583312009</v>
+      </c>
       <c r="CN86" s="15"/>
       <c r="CO86" s="15"/>
       <c r="CP86" s="15"/>
-      <c r="CQ86" s="9"/>
+      <c r="CQ86" s="15"/>
       <c r="CR86" s="9"/>
       <c r="CS86" s="9"/>
       <c r="CT86" s="9"/>
@@ -36660,13 +36724,15 @@
         <v>1.8039508039119312</v>
       </c>
       <c r="CL88" s="15">
-        <v>-2.1713226827536829</v>
-      </c>
-      <c r="CM88" s="15"/>
+        <v>-2.2178296900572434</v>
+      </c>
+      <c r="CM88" s="15">
+        <v>-3.5253944049241284</v>
+      </c>
       <c r="CN88" s="15"/>
       <c r="CO88" s="15"/>
       <c r="CP88" s="15"/>
-      <c r="CQ88" s="9"/>
+      <c r="CQ88" s="15"/>
       <c r="CR88" s="9"/>
       <c r="CS88" s="9"/>
       <c r="CT88" s="9"/>
@@ -36817,6 +36883,7 @@
       <c r="CN89" s="13"/>
       <c r="CO89" s="13"/>
       <c r="CP89" s="13"/>
+      <c r="CQ89" s="13"/>
     </row>
     <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
@@ -37160,147 +37227,148 @@
     <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
-      <c r="B100" s="22">
+      <c r="B100" s="21">
         <v>2000</v>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22">
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21">
         <v>2001</v>
       </c>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="22"/>
-      <c r="J100" s="22">
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21">
         <v>2002</v>
       </c>
-      <c r="K100" s="22"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="22">
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21">
         <v>2003</v>
       </c>
-      <c r="O100" s="22"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="22">
+      <c r="O100" s="21"/>
+      <c r="P100" s="21"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="21">
         <v>2004</v>
       </c>
-      <c r="S100" s="22"/>
-      <c r="T100" s="22"/>
-      <c r="U100" s="22"/>
-      <c r="V100" s="22">
+      <c r="S100" s="21"/>
+      <c r="T100" s="21"/>
+      <c r="U100" s="21"/>
+      <c r="V100" s="21">
         <v>2005</v>
       </c>
-      <c r="W100" s="22"/>
-      <c r="X100" s="22"/>
-      <c r="Y100" s="22"/>
-      <c r="Z100" s="22">
+      <c r="W100" s="21"/>
+      <c r="X100" s="21"/>
+      <c r="Y100" s="21"/>
+      <c r="Z100" s="21">
         <v>2006</v>
       </c>
-      <c r="AA100" s="22"/>
-      <c r="AB100" s="22"/>
-      <c r="AC100" s="22"/>
-      <c r="AD100" s="22">
+      <c r="AA100" s="21"/>
+      <c r="AB100" s="21"/>
+      <c r="AC100" s="21"/>
+      <c r="AD100" s="21">
         <v>2007</v>
       </c>
-      <c r="AE100" s="22"/>
-      <c r="AF100" s="22"/>
-      <c r="AG100" s="22"/>
-      <c r="AH100" s="22">
+      <c r="AE100" s="21"/>
+      <c r="AF100" s="21"/>
+      <c r="AG100" s="21"/>
+      <c r="AH100" s="21">
         <v>2008</v>
       </c>
-      <c r="AI100" s="22"/>
-      <c r="AJ100" s="22"/>
-      <c r="AK100" s="22"/>
-      <c r="AL100" s="22">
+      <c r="AI100" s="21"/>
+      <c r="AJ100" s="21"/>
+      <c r="AK100" s="21"/>
+      <c r="AL100" s="21">
         <v>2009</v>
       </c>
-      <c r="AM100" s="22"/>
-      <c r="AN100" s="22"/>
-      <c r="AO100" s="22"/>
-      <c r="AP100" s="22">
+      <c r="AM100" s="21"/>
+      <c r="AN100" s="21"/>
+      <c r="AO100" s="21"/>
+      <c r="AP100" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ100" s="22"/>
-      <c r="AR100" s="22"/>
-      <c r="AS100" s="22"/>
-      <c r="AT100" s="22">
+      <c r="AQ100" s="21"/>
+      <c r="AR100" s="21"/>
+      <c r="AS100" s="21"/>
+      <c r="AT100" s="21">
         <v>2011</v>
       </c>
-      <c r="AU100" s="22"/>
-      <c r="AV100" s="22"/>
-      <c r="AW100" s="22"/>
-      <c r="AX100" s="22">
+      <c r="AU100" s="21"/>
+      <c r="AV100" s="21"/>
+      <c r="AW100" s="21"/>
+      <c r="AX100" s="21">
         <v>2012</v>
       </c>
-      <c r="AY100" s="22"/>
-      <c r="AZ100" s="22"/>
-      <c r="BA100" s="22"/>
-      <c r="BB100" s="22">
+      <c r="AY100" s="21"/>
+      <c r="AZ100" s="21"/>
+      <c r="BA100" s="21"/>
+      <c r="BB100" s="21">
         <v>2013</v>
       </c>
-      <c r="BC100" s="22"/>
-      <c r="BD100" s="22"/>
-      <c r="BE100" s="22"/>
-      <c r="BF100" s="22">
+      <c r="BC100" s="21"/>
+      <c r="BD100" s="21"/>
+      <c r="BE100" s="21"/>
+      <c r="BF100" s="21">
         <v>2014</v>
       </c>
-      <c r="BG100" s="22"/>
-      <c r="BH100" s="22"/>
-      <c r="BI100" s="22"/>
-      <c r="BJ100" s="22">
+      <c r="BG100" s="21"/>
+      <c r="BH100" s="21"/>
+      <c r="BI100" s="21"/>
+      <c r="BJ100" s="21">
         <v>2015</v>
       </c>
-      <c r="BK100" s="22"/>
-      <c r="BL100" s="22"/>
-      <c r="BM100" s="22"/>
-      <c r="BN100" s="22">
+      <c r="BK100" s="21"/>
+      <c r="BL100" s="21"/>
+      <c r="BM100" s="21"/>
+      <c r="BN100" s="21">
         <v>2016</v>
       </c>
-      <c r="BO100" s="22"/>
-      <c r="BP100" s="22"/>
-      <c r="BQ100" s="22"/>
-      <c r="BR100" s="22">
+      <c r="BO100" s="21"/>
+      <c r="BP100" s="21"/>
+      <c r="BQ100" s="21"/>
+      <c r="BR100" s="21">
         <v>2017</v>
       </c>
-      <c r="BS100" s="22"/>
-      <c r="BT100" s="22"/>
-      <c r="BU100" s="22"/>
-      <c r="BV100" s="22">
+      <c r="BS100" s="21"/>
+      <c r="BT100" s="21"/>
+      <c r="BU100" s="21"/>
+      <c r="BV100" s="21">
         <v>2018</v>
       </c>
-      <c r="BW100" s="22"/>
-      <c r="BX100" s="22"/>
-      <c r="BY100" s="22"/>
-      <c r="BZ100" s="22">
+      <c r="BW100" s="21"/>
+      <c r="BX100" s="21"/>
+      <c r="BY100" s="21"/>
+      <c r="BZ100" s="21">
         <v>2019</v>
       </c>
-      <c r="CA100" s="22"/>
-      <c r="CB100" s="22"/>
-      <c r="CC100" s="22"/>
-      <c r="CD100" s="22">
+      <c r="CA100" s="21"/>
+      <c r="CB100" s="21"/>
+      <c r="CC100" s="21"/>
+      <c r="CD100" s="21">
         <v>2020</v>
       </c>
-      <c r="CE100" s="22"/>
-      <c r="CF100" s="22"/>
-      <c r="CG100" s="22"/>
-      <c r="CH100" s="22">
+      <c r="CE100" s="21"/>
+      <c r="CF100" s="21"/>
+      <c r="CG100" s="21"/>
+      <c r="CH100" s="21">
         <v>2021</v>
       </c>
-      <c r="CI100" s="22"/>
-      <c r="CJ100" s="22"/>
-      <c r="CK100" s="22"/>
-      <c r="CL100" s="22">
+      <c r="CI100" s="21"/>
+      <c r="CJ100" s="21"/>
+      <c r="CK100" s="21"/>
+      <c r="CL100" s="21">
         <v>2022</v>
       </c>
-      <c r="CM100" s="22"/>
-      <c r="CN100" s="22"/>
-      <c r="CO100" s="22"/>
-      <c r="CP100" s="19">
+      <c r="CM100" s="21"/>
+      <c r="CN100" s="21"/>
+      <c r="CO100" s="21"/>
+      <c r="CP100" s="21">
         <v>2023</v>
       </c>
+      <c r="CQ100" s="22"/>
     </row>
     <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
@@ -37584,6 +37652,9 @@
       </c>
       <c r="CP101" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ101" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37872,7 +37943,9 @@
       <c r="CP103" s="15">
         <v>159.64734819240488</v>
       </c>
-      <c r="CQ103" s="9"/>
+      <c r="CQ103" s="15">
+        <v>121.19514041033845</v>
+      </c>
       <c r="CR103" s="9"/>
       <c r="CS103" s="9"/>
       <c r="CT103" s="9"/>
@@ -38216,7 +38289,9 @@
       <c r="CP104" s="15">
         <v>154.32125894314882</v>
       </c>
-      <c r="CQ104" s="9"/>
+      <c r="CQ104" s="15">
+        <v>55.583712237511342</v>
+      </c>
       <c r="CR104" s="9"/>
       <c r="CS104" s="9"/>
       <c r="CT104" s="9"/>
@@ -38558,9 +38633,11 @@
         <v>153.05783845230368</v>
       </c>
       <c r="CP105" s="15">
-        <v>182.53272867127649</v>
-      </c>
-      <c r="CQ105" s="9"/>
+        <v>182.53272867127643</v>
+      </c>
+      <c r="CQ105" s="15">
+        <v>181.94480069660065</v>
+      </c>
       <c r="CR105" s="9"/>
       <c r="CS105" s="9"/>
       <c r="CT105" s="9"/>
@@ -38904,7 +38981,9 @@
       <c r="CP106" s="15">
         <v>299.56913015963897</v>
       </c>
-      <c r="CQ106" s="9"/>
+      <c r="CQ106" s="15">
+        <v>171.66658758744103</v>
+      </c>
       <c r="CR106" s="9"/>
       <c r="CS106" s="9"/>
       <c r="CT106" s="9"/>
@@ -39248,7 +39327,9 @@
       <c r="CP107" s="15">
         <v>54.095101589027827</v>
       </c>
-      <c r="CQ107" s="9"/>
+      <c r="CQ107" s="15">
+        <v>256.92541954314146</v>
+      </c>
       <c r="CR107" s="9"/>
       <c r="CS107" s="9"/>
       <c r="CT107" s="9"/>
@@ -39590,9 +39671,11 @@
         <v>91.617520697276063</v>
       </c>
       <c r="CP108" s="15">
-        <v>121.06769594602393</v>
-      </c>
-      <c r="CQ108" s="9"/>
+        <v>121.06769594602397</v>
+      </c>
+      <c r="CQ108" s="15">
+        <v>123.0867620693989</v>
+      </c>
       <c r="CR108" s="9"/>
       <c r="CS108" s="9"/>
       <c r="CT108" s="9"/>
@@ -40089,9 +40172,11 @@
         <v>161.80141718609161</v>
       </c>
       <c r="CP110" s="15">
-        <v>155.86867183185848</v>
-      </c>
-      <c r="CQ110" s="9"/>
+        <v>156.30670056440502</v>
+      </c>
+      <c r="CQ110" s="15">
+        <v>133.78362091460528</v>
+      </c>
       <c r="CR110" s="9"/>
       <c r="CS110" s="9"/>
       <c r="CT110" s="9"/>
@@ -40247,6 +40332,7 @@
       <c r="CN111" s="13"/>
       <c r="CO111" s="13"/>
       <c r="CP111" s="13"/>
+      <c r="CQ111" s="13"/>
     </row>
     <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
@@ -40287,147 +40373,148 @@
     <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
-      <c r="B123" s="22">
+      <c r="B123" s="21">
         <v>2000</v>
       </c>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22">
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21">
         <v>2001</v>
       </c>
-      <c r="G123" s="22"/>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22">
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21">
         <v>2002</v>
       </c>
-      <c r="K123" s="22"/>
-      <c r="L123" s="22"/>
-      <c r="M123" s="22"/>
-      <c r="N123" s="22">
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21">
         <v>2003</v>
       </c>
-      <c r="O123" s="22"/>
-      <c r="P123" s="22"/>
-      <c r="Q123" s="22"/>
-      <c r="R123" s="22">
+      <c r="O123" s="21"/>
+      <c r="P123" s="21"/>
+      <c r="Q123" s="21"/>
+      <c r="R123" s="21">
         <v>2004</v>
       </c>
-      <c r="S123" s="22"/>
-      <c r="T123" s="22"/>
-      <c r="U123" s="22"/>
-      <c r="V123" s="22">
+      <c r="S123" s="21"/>
+      <c r="T123" s="21"/>
+      <c r="U123" s="21"/>
+      <c r="V123" s="21">
         <v>2005</v>
       </c>
-      <c r="W123" s="22"/>
-      <c r="X123" s="22"/>
-      <c r="Y123" s="22"/>
-      <c r="Z123" s="22">
+      <c r="W123" s="21"/>
+      <c r="X123" s="21"/>
+      <c r="Y123" s="21"/>
+      <c r="Z123" s="21">
         <v>2006</v>
       </c>
-      <c r="AA123" s="22"/>
-      <c r="AB123" s="22"/>
-      <c r="AC123" s="22"/>
-      <c r="AD123" s="22">
+      <c r="AA123" s="21"/>
+      <c r="AB123" s="21"/>
+      <c r="AC123" s="21"/>
+      <c r="AD123" s="21">
         <v>2007</v>
       </c>
-      <c r="AE123" s="22"/>
-      <c r="AF123" s="22"/>
-      <c r="AG123" s="22"/>
-      <c r="AH123" s="22">
+      <c r="AE123" s="21"/>
+      <c r="AF123" s="21"/>
+      <c r="AG123" s="21"/>
+      <c r="AH123" s="21">
         <v>2008</v>
       </c>
-      <c r="AI123" s="22"/>
-      <c r="AJ123" s="22"/>
-      <c r="AK123" s="22"/>
-      <c r="AL123" s="22">
+      <c r="AI123" s="21"/>
+      <c r="AJ123" s="21"/>
+      <c r="AK123" s="21"/>
+      <c r="AL123" s="21">
         <v>2009</v>
       </c>
-      <c r="AM123" s="22"/>
-      <c r="AN123" s="22"/>
-      <c r="AO123" s="22"/>
-      <c r="AP123" s="22">
+      <c r="AM123" s="21"/>
+      <c r="AN123" s="21"/>
+      <c r="AO123" s="21"/>
+      <c r="AP123" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ123" s="22"/>
-      <c r="AR123" s="22"/>
-      <c r="AS123" s="22"/>
-      <c r="AT123" s="22">
+      <c r="AQ123" s="21"/>
+      <c r="AR123" s="21"/>
+      <c r="AS123" s="21"/>
+      <c r="AT123" s="21">
         <v>2011</v>
       </c>
-      <c r="AU123" s="22"/>
-      <c r="AV123" s="22"/>
-      <c r="AW123" s="22"/>
-      <c r="AX123" s="22">
+      <c r="AU123" s="21"/>
+      <c r="AV123" s="21"/>
+      <c r="AW123" s="21"/>
+      <c r="AX123" s="21">
         <v>2012</v>
       </c>
-      <c r="AY123" s="22"/>
-      <c r="AZ123" s="22"/>
-      <c r="BA123" s="22"/>
-      <c r="BB123" s="22">
+      <c r="AY123" s="21"/>
+      <c r="AZ123" s="21"/>
+      <c r="BA123" s="21"/>
+      <c r="BB123" s="21">
         <v>2013</v>
       </c>
-      <c r="BC123" s="22"/>
-      <c r="BD123" s="22"/>
-      <c r="BE123" s="22"/>
-      <c r="BF123" s="22">
+      <c r="BC123" s="21"/>
+      <c r="BD123" s="21"/>
+      <c r="BE123" s="21"/>
+      <c r="BF123" s="21">
         <v>2014</v>
       </c>
-      <c r="BG123" s="22"/>
-      <c r="BH123" s="22"/>
-      <c r="BI123" s="22"/>
-      <c r="BJ123" s="22">
+      <c r="BG123" s="21"/>
+      <c r="BH123" s="21"/>
+      <c r="BI123" s="21"/>
+      <c r="BJ123" s="21">
         <v>2015</v>
       </c>
-      <c r="BK123" s="22"/>
-      <c r="BL123" s="22"/>
-      <c r="BM123" s="22"/>
-      <c r="BN123" s="22">
+      <c r="BK123" s="21"/>
+      <c r="BL123" s="21"/>
+      <c r="BM123" s="21"/>
+      <c r="BN123" s="21">
         <v>2016</v>
       </c>
-      <c r="BO123" s="22"/>
-      <c r="BP123" s="22"/>
-      <c r="BQ123" s="22"/>
-      <c r="BR123" s="22">
+      <c r="BO123" s="21"/>
+      <c r="BP123" s="21"/>
+      <c r="BQ123" s="21"/>
+      <c r="BR123" s="21">
         <v>2017</v>
       </c>
-      <c r="BS123" s="22"/>
-      <c r="BT123" s="22"/>
-      <c r="BU123" s="22"/>
-      <c r="BV123" s="22">
+      <c r="BS123" s="21"/>
+      <c r="BT123" s="21"/>
+      <c r="BU123" s="21"/>
+      <c r="BV123" s="21">
         <v>2018</v>
       </c>
-      <c r="BW123" s="22"/>
-      <c r="BX123" s="22"/>
-      <c r="BY123" s="22"/>
-      <c r="BZ123" s="22">
+      <c r="BW123" s="21"/>
+      <c r="BX123" s="21"/>
+      <c r="BY123" s="21"/>
+      <c r="BZ123" s="21">
         <v>2019</v>
       </c>
-      <c r="CA123" s="22"/>
-      <c r="CB123" s="22"/>
-      <c r="CC123" s="22"/>
-      <c r="CD123" s="22">
+      <c r="CA123" s="21"/>
+      <c r="CB123" s="21"/>
+      <c r="CC123" s="21"/>
+      <c r="CD123" s="21">
         <v>2020</v>
       </c>
-      <c r="CE123" s="22"/>
-      <c r="CF123" s="22"/>
-      <c r="CG123" s="22"/>
-      <c r="CH123" s="22">
+      <c r="CE123" s="21"/>
+      <c r="CF123" s="21"/>
+      <c r="CG123" s="21"/>
+      <c r="CH123" s="21">
         <v>2021</v>
       </c>
-      <c r="CI123" s="22"/>
-      <c r="CJ123" s="22"/>
-      <c r="CK123" s="22"/>
-      <c r="CL123" s="22">
+      <c r="CI123" s="21"/>
+      <c r="CJ123" s="21"/>
+      <c r="CK123" s="21"/>
+      <c r="CL123" s="21">
         <v>2022</v>
       </c>
-      <c r="CM123" s="22"/>
-      <c r="CN123" s="22"/>
-      <c r="CO123" s="22"/>
-      <c r="CP123" s="19">
+      <c r="CM123" s="21"/>
+      <c r="CN123" s="21"/>
+      <c r="CO123" s="21"/>
+      <c r="CP123" s="21">
         <v>2023</v>
       </c>
+      <c r="CQ123" s="22"/>
     </row>
     <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
@@ -40711,6 +40798,9 @@
       </c>
       <c r="CP124" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ124" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40997,9 +41087,11 @@
         <v>13.17322662379199</v>
       </c>
       <c r="CP126" s="18">
-        <v>23.516905529776295</v>
-      </c>
-      <c r="CQ126" s="9"/>
+        <v>23.410379361889877</v>
+      </c>
+      <c r="CQ126" s="18">
+        <v>12.039094001740146</v>
+      </c>
       <c r="CR126" s="9"/>
       <c r="CS126" s="9"/>
       <c r="CT126" s="9"/>
@@ -41341,9 +41433,11 @@
         <v>24.452931693640853</v>
       </c>
       <c r="CP127" s="18">
-        <v>8.9731641580645345</v>
-      </c>
-      <c r="CQ127" s="9"/>
+        <v>8.9522739021005027</v>
+      </c>
+      <c r="CQ127" s="18">
+        <v>9.3400104229584588</v>
+      </c>
       <c r="CR127" s="9"/>
       <c r="CS127" s="9"/>
       <c r="CT127" s="9"/>
@@ -41685,9 +41779,11 @@
         <v>18.9602274480823</v>
       </c>
       <c r="CP128" s="18">
-        <v>17.035118532026555</v>
-      </c>
-      <c r="CQ128" s="9"/>
+        <v>17.373497982616744</v>
+      </c>
+      <c r="CQ128" s="18">
+        <v>27.406675792423858</v>
+      </c>
       <c r="CR128" s="9"/>
       <c r="CS128" s="9"/>
       <c r="CT128" s="9"/>
@@ -42029,9 +42125,11 @@
         <v>7.048105410566202</v>
       </c>
       <c r="CP129" s="18">
-        <v>22.292184256763221</v>
-      </c>
-      <c r="CQ129" s="9"/>
+        <v>22.500180713769353</v>
+      </c>
+      <c r="CQ129" s="18">
+        <v>26.137092720809086</v>
+      </c>
       <c r="CR129" s="9"/>
       <c r="CS129" s="9"/>
       <c r="CT129" s="9"/>
@@ -42373,9 +42471,11 @@
         <v>8.7743379701624331</v>
       </c>
       <c r="CP130" s="18">
-        <v>3.4802867711166781</v>
-      </c>
-      <c r="CQ130" s="9"/>
+        <v>3.4721843804553512</v>
+      </c>
+      <c r="CQ130" s="18">
+        <v>6.2658095988111784</v>
+      </c>
       <c r="CR130" s="9"/>
       <c r="CS130" s="9"/>
       <c r="CT130" s="9"/>
@@ -42717,9 +42817,11 @@
         <v>27.591170853756218</v>
       </c>
       <c r="CP131" s="18">
-        <v>24.702340752252706</v>
-      </c>
-      <c r="CQ131" s="9"/>
+        <v>24.291483659168168</v>
+      </c>
+      <c r="CQ131" s="18">
+        <v>18.811317463257271</v>
+      </c>
       <c r="CR131" s="9"/>
       <c r="CS131" s="9"/>
       <c r="CT131" s="9"/>
@@ -43218,7 +43320,9 @@
       <c r="CP133" s="18">
         <v>100</v>
       </c>
-      <c r="CQ133" s="9"/>
+      <c r="CQ133" s="18">
+        <v>100</v>
+      </c>
       <c r="CR133" s="9"/>
       <c r="CS133" s="9"/>
       <c r="CT133" s="9"/>
@@ -43374,6 +43478,7 @@
       <c r="CN134" s="13"/>
       <c r="CO134" s="13"/>
       <c r="CP134" s="13"/>
+      <c r="CQ134" s="13"/>
     </row>
     <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
@@ -43724,147 +43829,148 @@
     <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
-      <c r="B146" s="22">
+      <c r="B146" s="21">
         <v>2000</v>
       </c>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="22">
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21">
         <v>2001</v>
       </c>
-      <c r="G146" s="22"/>
-      <c r="H146" s="22"/>
-      <c r="I146" s="22"/>
-      <c r="J146" s="22">
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21">
         <v>2002</v>
       </c>
-      <c r="K146" s="22"/>
-      <c r="L146" s="22"/>
-      <c r="M146" s="22"/>
-      <c r="N146" s="22">
+      <c r="K146" s="21"/>
+      <c r="L146" s="21"/>
+      <c r="M146" s="21"/>
+      <c r="N146" s="21">
         <v>2003</v>
       </c>
-      <c r="O146" s="22"/>
-      <c r="P146" s="22"/>
-      <c r="Q146" s="22"/>
-      <c r="R146" s="22">
+      <c r="O146" s="21"/>
+      <c r="P146" s="21"/>
+      <c r="Q146" s="21"/>
+      <c r="R146" s="21">
         <v>2004</v>
       </c>
-      <c r="S146" s="22"/>
-      <c r="T146" s="22"/>
-      <c r="U146" s="22"/>
-      <c r="V146" s="22">
+      <c r="S146" s="21"/>
+      <c r="T146" s="21"/>
+      <c r="U146" s="21"/>
+      <c r="V146" s="21">
         <v>2005</v>
       </c>
-      <c r="W146" s="22"/>
-      <c r="X146" s="22"/>
-      <c r="Y146" s="22"/>
-      <c r="Z146" s="22">
+      <c r="W146" s="21"/>
+      <c r="X146" s="21"/>
+      <c r="Y146" s="21"/>
+      <c r="Z146" s="21">
         <v>2006</v>
       </c>
-      <c r="AA146" s="22"/>
-      <c r="AB146" s="22"/>
-      <c r="AC146" s="22"/>
-      <c r="AD146" s="22">
+      <c r="AA146" s="21"/>
+      <c r="AB146" s="21"/>
+      <c r="AC146" s="21"/>
+      <c r="AD146" s="21">
         <v>2007</v>
       </c>
-      <c r="AE146" s="22"/>
-      <c r="AF146" s="22"/>
-      <c r="AG146" s="22"/>
-      <c r="AH146" s="22">
+      <c r="AE146" s="21"/>
+      <c r="AF146" s="21"/>
+      <c r="AG146" s="21"/>
+      <c r="AH146" s="21">
         <v>2008</v>
       </c>
-      <c r="AI146" s="22"/>
-      <c r="AJ146" s="22"/>
-      <c r="AK146" s="22"/>
-      <c r="AL146" s="22">
+      <c r="AI146" s="21"/>
+      <c r="AJ146" s="21"/>
+      <c r="AK146" s="21"/>
+      <c r="AL146" s="21">
         <v>2009</v>
       </c>
-      <c r="AM146" s="22"/>
-      <c r="AN146" s="22"/>
-      <c r="AO146" s="22"/>
-      <c r="AP146" s="22">
+      <c r="AM146" s="21"/>
+      <c r="AN146" s="21"/>
+      <c r="AO146" s="21"/>
+      <c r="AP146" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ146" s="22"/>
-      <c r="AR146" s="22"/>
-      <c r="AS146" s="22"/>
-      <c r="AT146" s="22">
+      <c r="AQ146" s="21"/>
+      <c r="AR146" s="21"/>
+      <c r="AS146" s="21"/>
+      <c r="AT146" s="21">
         <v>2011</v>
       </c>
-      <c r="AU146" s="22"/>
-      <c r="AV146" s="22"/>
-      <c r="AW146" s="22"/>
-      <c r="AX146" s="22">
+      <c r="AU146" s="21"/>
+      <c r="AV146" s="21"/>
+      <c r="AW146" s="21"/>
+      <c r="AX146" s="21">
         <v>2012</v>
       </c>
-      <c r="AY146" s="22"/>
-      <c r="AZ146" s="22"/>
-      <c r="BA146" s="22"/>
-      <c r="BB146" s="22">
+      <c r="AY146" s="21"/>
+      <c r="AZ146" s="21"/>
+      <c r="BA146" s="21"/>
+      <c r="BB146" s="21">
         <v>2013</v>
       </c>
-      <c r="BC146" s="22"/>
-      <c r="BD146" s="22"/>
-      <c r="BE146" s="22"/>
-      <c r="BF146" s="22">
+      <c r="BC146" s="21"/>
+      <c r="BD146" s="21"/>
+      <c r="BE146" s="21"/>
+      <c r="BF146" s="21">
         <v>2014</v>
       </c>
-      <c r="BG146" s="22"/>
-      <c r="BH146" s="22"/>
-      <c r="BI146" s="22"/>
-      <c r="BJ146" s="22">
+      <c r="BG146" s="21"/>
+      <c r="BH146" s="21"/>
+      <c r="BI146" s="21"/>
+      <c r="BJ146" s="21">
         <v>2015</v>
       </c>
-      <c r="BK146" s="22"/>
-      <c r="BL146" s="22"/>
-      <c r="BM146" s="22"/>
-      <c r="BN146" s="22">
+      <c r="BK146" s="21"/>
+      <c r="BL146" s="21"/>
+      <c r="BM146" s="21"/>
+      <c r="BN146" s="21">
         <v>2016</v>
       </c>
-      <c r="BO146" s="22"/>
-      <c r="BP146" s="22"/>
-      <c r="BQ146" s="22"/>
-      <c r="BR146" s="22">
+      <c r="BO146" s="21"/>
+      <c r="BP146" s="21"/>
+      <c r="BQ146" s="21"/>
+      <c r="BR146" s="21">
         <v>2017</v>
       </c>
-      <c r="BS146" s="22"/>
-      <c r="BT146" s="22"/>
-      <c r="BU146" s="22"/>
-      <c r="BV146" s="22">
+      <c r="BS146" s="21"/>
+      <c r="BT146" s="21"/>
+      <c r="BU146" s="21"/>
+      <c r="BV146" s="21">
         <v>2018</v>
       </c>
-      <c r="BW146" s="22"/>
-      <c r="BX146" s="22"/>
-      <c r="BY146" s="22"/>
-      <c r="BZ146" s="22">
+      <c r="BW146" s="21"/>
+      <c r="BX146" s="21"/>
+      <c r="BY146" s="21"/>
+      <c r="BZ146" s="21">
         <v>2019</v>
       </c>
-      <c r="CA146" s="22"/>
-      <c r="CB146" s="22"/>
-      <c r="CC146" s="22"/>
-      <c r="CD146" s="22">
+      <c r="CA146" s="21"/>
+      <c r="CB146" s="21"/>
+      <c r="CC146" s="21"/>
+      <c r="CD146" s="21">
         <v>2020</v>
       </c>
-      <c r="CE146" s="22"/>
-      <c r="CF146" s="22"/>
-      <c r="CG146" s="22"/>
-      <c r="CH146" s="22">
+      <c r="CE146" s="21"/>
+      <c r="CF146" s="21"/>
+      <c r="CG146" s="21"/>
+      <c r="CH146" s="21">
         <v>2021</v>
       </c>
-      <c r="CI146" s="22"/>
-      <c r="CJ146" s="22"/>
-      <c r="CK146" s="22"/>
-      <c r="CL146" s="22">
+      <c r="CI146" s="21"/>
+      <c r="CJ146" s="21"/>
+      <c r="CK146" s="21"/>
+      <c r="CL146" s="21">
         <v>2022</v>
       </c>
-      <c r="CM146" s="22"/>
-      <c r="CN146" s="22"/>
-      <c r="CO146" s="22"/>
-      <c r="CP146" s="19">
+      <c r="CM146" s="21"/>
+      <c r="CN146" s="21"/>
+      <c r="CO146" s="21"/>
+      <c r="CP146" s="21">
         <v>2023</v>
       </c>
+      <c r="CQ146" s="22"/>
     </row>
     <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
@@ -44148,6 +44254,9 @@
       </c>
       <c r="CP147" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ147" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -44434,9 +44543,11 @@
         <v>8.6233868165987957</v>
       </c>
       <c r="CP149" s="18">
-        <v>22.960286356299815</v>
-      </c>
-      <c r="CQ149" s="9"/>
+        <v>22.920513234006425</v>
+      </c>
+      <c r="CQ149" s="18">
+        <v>13.28958886165627</v>
+      </c>
       <c r="CR149" s="9"/>
       <c r="CS149" s="9"/>
       <c r="CT149" s="9"/>
@@ -44778,9 +44889,11 @@
         <v>13.852449933073549</v>
       </c>
       <c r="CP150" s="18">
-        <v>9.06314003025342</v>
-      </c>
-      <c r="CQ150" s="9"/>
+        <v>9.0674506271469468</v>
+      </c>
+      <c r="CQ150" s="18">
+        <v>22.480333958700026</v>
+      </c>
       <c r="CR150" s="9"/>
       <c r="CS150" s="9"/>
       <c r="CT150" s="9"/>
@@ -45122,9 +45235,11 @@
         <v>20.043348986836396</v>
       </c>
       <c r="CP151" s="18">
-        <v>14.546658670002611</v>
-      </c>
-      <c r="CQ151" s="9"/>
+        <v>14.877299905025193</v>
+      </c>
+      <c r="CQ151" s="18">
+        <v>20.152069807464553</v>
+      </c>
       <c r="CR151" s="9"/>
       <c r="CS151" s="9"/>
       <c r="CT151" s="9"/>
@@ -45466,9 +45581,11 @@
         <v>4.5587592959236813</v>
       </c>
       <c r="CP152" s="18">
-        <v>11.598835802878362</v>
-      </c>
-      <c r="CQ152" s="9"/>
+        <v>11.73995801102067</v>
+      </c>
+      <c r="CQ152" s="18">
+        <v>20.369222418366682</v>
+      </c>
       <c r="CR152" s="9"/>
       <c r="CS152" s="9"/>
       <c r="CT152" s="9"/>
@@ -45810,9 +45927,11 @@
         <v>4.1945789129348139</v>
       </c>
       <c r="CP153" s="18">
-        <v>10.028036932607835</v>
-      </c>
-      <c r="CQ153" s="9"/>
+        <v>10.032806452300301</v>
+      </c>
+      <c r="CQ153" s="18">
+        <v>3.2626693675582117</v>
+      </c>
       <c r="CR153" s="9"/>
       <c r="CS153" s="9"/>
       <c r="CT153" s="9"/>
@@ -46154,9 +46273,11 @@
         <v>48.72747605463276</v>
       </c>
       <c r="CP154" s="18">
-        <v>31.803042207957972</v>
-      </c>
-      <c r="CQ154" s="9"/>
+        <v>31.361971770500457</v>
+      </c>
+      <c r="CQ154" s="18">
+        <v>20.446115586254244</v>
+      </c>
       <c r="CR154" s="9"/>
       <c r="CS154" s="9"/>
       <c r="CT154" s="9"/>
@@ -46655,7 +46776,9 @@
       <c r="CP156" s="18">
         <v>100</v>
       </c>
-      <c r="CQ156" s="9"/>
+      <c r="CQ156" s="18">
+        <v>100</v>
+      </c>
       <c r="CR156" s="9"/>
       <c r="CS156" s="9"/>
       <c r="CT156" s="9"/>
@@ -46811,6 +46934,7 @@
       <c r="CN157" s="13"/>
       <c r="CO157" s="13"/>
       <c r="CP157" s="13"/>
+      <c r="CQ157" s="13"/>
     </row>
     <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
@@ -46890,7 +47014,6 @@
       <c r="BS159" s="9"/>
       <c r="BT159" s="9"/>
       <c r="BU159" s="9"/>
-      <c r="CQ159" s="9"/>
       <c r="CR159" s="9"/>
       <c r="CS159" s="9"/>
       <c r="CT159" s="9"/>
@@ -47019,7 +47142,6 @@
       <c r="BS160" s="9"/>
       <c r="BT160" s="9"/>
       <c r="BU160" s="9"/>
-      <c r="CQ160" s="9"/>
       <c r="CR160" s="9"/>
       <c r="CS160" s="9"/>
       <c r="CT160" s="9"/>
@@ -47076,57 +47198,101 @@
       <c r="ES160" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="BR32:BU32"/>
-    <mergeCell ref="BV78:BY78"/>
-    <mergeCell ref="BZ146:CC146"/>
-    <mergeCell ref="BZ100:CC100"/>
-    <mergeCell ref="BZ123:CC123"/>
-    <mergeCell ref="BR123:BU123"/>
-    <mergeCell ref="BV123:BY123"/>
-    <mergeCell ref="BV146:BY146"/>
-    <mergeCell ref="BR55:BU55"/>
-    <mergeCell ref="BV55:BY55"/>
-    <mergeCell ref="BR146:BU146"/>
-    <mergeCell ref="BR100:BU100"/>
-    <mergeCell ref="BV100:BY100"/>
-    <mergeCell ref="BR78:BU78"/>
-    <mergeCell ref="BV32:BY32"/>
-    <mergeCell ref="BZ32:CC32"/>
-    <mergeCell ref="BZ55:CC55"/>
-    <mergeCell ref="BZ78:CC78"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BB32:BE32"/>
-    <mergeCell ref="BF32:BI32"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="Z32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AH32:AK32"/>
-    <mergeCell ref="AL32:AO32"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:U32"/>
+  <mergeCells count="168">
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP32:CQ32"/>
+    <mergeCell ref="CP100:CQ100"/>
+    <mergeCell ref="CP123:CQ123"/>
+    <mergeCell ref="CP146:CQ146"/>
+    <mergeCell ref="CL55:CO55"/>
+    <mergeCell ref="CP55:CQ55"/>
+    <mergeCell ref="CL78:CO78"/>
+    <mergeCell ref="CP78:CQ78"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL32:CO32"/>
+    <mergeCell ref="CL100:CO100"/>
+    <mergeCell ref="CL123:CO123"/>
+    <mergeCell ref="CL146:CO146"/>
+    <mergeCell ref="CH55:CK55"/>
+    <mergeCell ref="CH100:CK100"/>
+    <mergeCell ref="CH123:CK123"/>
+    <mergeCell ref="CH146:CK146"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD146:CG146"/>
+    <mergeCell ref="CD123:CG123"/>
+    <mergeCell ref="CD100:CG100"/>
+    <mergeCell ref="CD32:CG32"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH32:CK32"/>
+    <mergeCell ref="CH78:CK78"/>
+    <mergeCell ref="CD55:CG55"/>
+    <mergeCell ref="CD78:CG78"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="J123:M123"/>
+    <mergeCell ref="N123:Q123"/>
+    <mergeCell ref="R123:U123"/>
+    <mergeCell ref="BF146:BI146"/>
+    <mergeCell ref="BJ146:BM146"/>
+    <mergeCell ref="BN146:BQ146"/>
+    <mergeCell ref="BJ123:BM123"/>
+    <mergeCell ref="BN123:BQ123"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="J146:M146"/>
+    <mergeCell ref="N146:Q146"/>
+    <mergeCell ref="R146:U146"/>
+    <mergeCell ref="V146:Y146"/>
+    <mergeCell ref="Z146:AC146"/>
+    <mergeCell ref="BN100:BQ100"/>
+    <mergeCell ref="AL100:AO100"/>
+    <mergeCell ref="AP100:AS100"/>
+    <mergeCell ref="AT100:AW100"/>
+    <mergeCell ref="AD146:AG146"/>
+    <mergeCell ref="AH146:AK146"/>
+    <mergeCell ref="AL146:AO146"/>
+    <mergeCell ref="AP146:AS146"/>
+    <mergeCell ref="AT146:AW146"/>
+    <mergeCell ref="AX146:BA146"/>
+    <mergeCell ref="BB146:BE146"/>
+    <mergeCell ref="BF123:BI123"/>
+    <mergeCell ref="V100:Y100"/>
+    <mergeCell ref="Z100:AC100"/>
+    <mergeCell ref="AD100:AG100"/>
+    <mergeCell ref="AH100:AK100"/>
+    <mergeCell ref="AX100:BA100"/>
+    <mergeCell ref="BB100:BE100"/>
+    <mergeCell ref="BF100:BI100"/>
+    <mergeCell ref="BJ100:BM100"/>
+    <mergeCell ref="V123:Y123"/>
+    <mergeCell ref="Z123:AC123"/>
+    <mergeCell ref="AD123:AG123"/>
+    <mergeCell ref="AH123:AK123"/>
+    <mergeCell ref="AL123:AO123"/>
+    <mergeCell ref="AP123:AS123"/>
+    <mergeCell ref="AT123:AW123"/>
+    <mergeCell ref="AX123:BA123"/>
+    <mergeCell ref="BB123:BE123"/>
+    <mergeCell ref="BF55:BI55"/>
+    <mergeCell ref="BJ55:BM55"/>
+    <mergeCell ref="BN55:BQ55"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="V78:Y78"/>
+    <mergeCell ref="Z78:AC78"/>
+    <mergeCell ref="AD78:AG78"/>
+    <mergeCell ref="AH78:AK78"/>
+    <mergeCell ref="AL78:AO78"/>
+    <mergeCell ref="AP78:AS78"/>
+    <mergeCell ref="AT78:AW78"/>
+    <mergeCell ref="AX78:BA78"/>
+    <mergeCell ref="BJ78:BM78"/>
+    <mergeCell ref="BN78:BQ78"/>
+    <mergeCell ref="BB78:BE78"/>
+    <mergeCell ref="BF78:BI78"/>
     <mergeCell ref="B100:E100"/>
     <mergeCell ref="F100:I100"/>
     <mergeCell ref="J100:M100"/>
@@ -47151,98 +47317,58 @@
     <mergeCell ref="AP32:AS32"/>
     <mergeCell ref="AT32:AW32"/>
     <mergeCell ref="AX32:BA32"/>
-    <mergeCell ref="BF55:BI55"/>
-    <mergeCell ref="BJ55:BM55"/>
-    <mergeCell ref="BN55:BQ55"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="V78:Y78"/>
-    <mergeCell ref="Z78:AC78"/>
-    <mergeCell ref="AD78:AG78"/>
-    <mergeCell ref="AH78:AK78"/>
-    <mergeCell ref="AL78:AO78"/>
-    <mergeCell ref="AP78:AS78"/>
-    <mergeCell ref="AT78:AW78"/>
-    <mergeCell ref="AX78:BA78"/>
-    <mergeCell ref="BJ78:BM78"/>
-    <mergeCell ref="BN78:BQ78"/>
-    <mergeCell ref="BB78:BE78"/>
-    <mergeCell ref="BF78:BI78"/>
-    <mergeCell ref="V100:Y100"/>
-    <mergeCell ref="Z100:AC100"/>
-    <mergeCell ref="AD100:AG100"/>
-    <mergeCell ref="AH100:AK100"/>
-    <mergeCell ref="AX100:BA100"/>
-    <mergeCell ref="BB100:BE100"/>
-    <mergeCell ref="BF100:BI100"/>
-    <mergeCell ref="BJ100:BM100"/>
-    <mergeCell ref="V123:Y123"/>
-    <mergeCell ref="Z123:AC123"/>
-    <mergeCell ref="AD123:AG123"/>
-    <mergeCell ref="AH123:AK123"/>
-    <mergeCell ref="AL123:AO123"/>
-    <mergeCell ref="AP123:AS123"/>
-    <mergeCell ref="AT123:AW123"/>
-    <mergeCell ref="AX123:BA123"/>
-    <mergeCell ref="BB123:BE123"/>
-    <mergeCell ref="BN100:BQ100"/>
-    <mergeCell ref="AL100:AO100"/>
-    <mergeCell ref="AP100:AS100"/>
-    <mergeCell ref="AT100:AW100"/>
-    <mergeCell ref="AD146:AG146"/>
-    <mergeCell ref="AH146:AK146"/>
-    <mergeCell ref="AL146:AO146"/>
-    <mergeCell ref="AP146:AS146"/>
-    <mergeCell ref="AT146:AW146"/>
-    <mergeCell ref="AX146:BA146"/>
-    <mergeCell ref="BB146:BE146"/>
-    <mergeCell ref="BF123:BI123"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="J123:M123"/>
-    <mergeCell ref="N123:Q123"/>
-    <mergeCell ref="R123:U123"/>
-    <mergeCell ref="BF146:BI146"/>
-    <mergeCell ref="BJ146:BM146"/>
-    <mergeCell ref="BN146:BQ146"/>
-    <mergeCell ref="BJ123:BM123"/>
-    <mergeCell ref="BN123:BQ123"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="J146:M146"/>
-    <mergeCell ref="N146:Q146"/>
-    <mergeCell ref="R146:U146"/>
-    <mergeCell ref="V146:Y146"/>
-    <mergeCell ref="Z146:AC146"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL32:CO32"/>
-    <mergeCell ref="CH55:CK55"/>
-    <mergeCell ref="CH100:CK100"/>
-    <mergeCell ref="CH123:CK123"/>
-    <mergeCell ref="CH146:CK146"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD146:CG146"/>
-    <mergeCell ref="CD123:CG123"/>
-    <mergeCell ref="CD100:CG100"/>
-    <mergeCell ref="CD32:CG32"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH32:CK32"/>
-    <mergeCell ref="CH78:CK78"/>
-    <mergeCell ref="CL100:CO100"/>
-    <mergeCell ref="CL123:CO123"/>
-    <mergeCell ref="CL146:CO146"/>
-    <mergeCell ref="CD55:CG55"/>
-    <mergeCell ref="CD78:CG78"/>
+    <mergeCell ref="BB32:BE32"/>
+    <mergeCell ref="BF32:BI32"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="Z32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AH32:AK32"/>
+    <mergeCell ref="AL32:AO32"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR32:BU32"/>
+    <mergeCell ref="BV78:BY78"/>
+    <mergeCell ref="BZ146:CC146"/>
+    <mergeCell ref="BZ100:CC100"/>
+    <mergeCell ref="BZ123:CC123"/>
+    <mergeCell ref="BR123:BU123"/>
+    <mergeCell ref="BV123:BY123"/>
+    <mergeCell ref="BV146:BY146"/>
+    <mergeCell ref="BR55:BU55"/>
+    <mergeCell ref="BV55:BY55"/>
+    <mergeCell ref="BR146:BU146"/>
+    <mergeCell ref="BR100:BU100"/>
+    <mergeCell ref="BV100:BY100"/>
+    <mergeCell ref="BR78:BU78"/>
+    <mergeCell ref="BV32:BY32"/>
+    <mergeCell ref="BZ32:CC32"/>
+    <mergeCell ref="BZ55:CC55"/>
+    <mergeCell ref="BZ78:CC78"/>
   </mergeCells>
-  <conditionalFormatting sqref="BR58:CC65 BR81:CC88 BR103:CC110">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD58:CP65 CD81:CP88 CD103:CP110">
+  <conditionalFormatting sqref="BR58:CQ65 BR81:CQ88 BR103:CQ110">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -47252,9 +47378,9 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="93" man="1"/>
-    <brk id="92" max="93" man="1"/>
-    <brk id="114" max="93" man="1"/>
+    <brk id="46" max="94" man="1"/>
+    <brk id="92" max="94" man="1"/>
+    <brk id="114" max="94" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="56" max="159" man="1"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33A0542-327A-4F04-A846-C7549FCA11B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2065AEC2-8825-4BD4-B7F5-8B0D23F5B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="3045" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="3" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CQ$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CR$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="58">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -636,13 +636,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -775,6 +775,24 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23639,192 +23657,252 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CQ3" sqref="CQ3"/>
+      <selection pane="topRight" activeCell="CL1" sqref="CL1:CR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="95" width="9.5546875" style="10" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="10"/>
+    <col min="2" max="89" width="9.5546875" style="10" customWidth="1"/>
+    <col min="90" max="96" width="9.5546875" style="31" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL1" s="22"/>
+      <c r="CM1" s="22"/>
+      <c r="CN1" s="22"/>
+      <c r="CO1" s="22"/>
+      <c r="CP1" s="22"/>
+      <c r="CQ1" s="22"/>
+      <c r="CR1" s="22"/>
     </row>
     <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="CL2" s="22"/>
+      <c r="CM2" s="22"/>
+      <c r="CN2" s="22"/>
+      <c r="CO2" s="22"/>
+      <c r="CP2" s="22"/>
+      <c r="CQ2" s="22"/>
+      <c r="CR2" s="22"/>
     </row>
     <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="CL3" s="22"/>
+      <c r="CM3" s="22"/>
+      <c r="CN3" s="22"/>
+      <c r="CO3" s="22"/>
+      <c r="CP3" s="22"/>
+      <c r="CQ3" s="22"/>
+      <c r="CR3" s="22"/>
     </row>
-    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL4" s="22"/>
+      <c r="CM4" s="22"/>
+      <c r="CN4" s="22"/>
+      <c r="CO4" s="22"/>
+      <c r="CP4" s="22"/>
+      <c r="CQ4" s="22"/>
+      <c r="CR4" s="22"/>
+    </row>
     <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="CL5" s="22"/>
+      <c r="CM5" s="22"/>
+      <c r="CN5" s="22"/>
+      <c r="CO5" s="22"/>
+      <c r="CP5" s="22"/>
+      <c r="CQ5" s="22"/>
+      <c r="CR5" s="22"/>
     </row>
     <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="CL6" s="22"/>
+      <c r="CM6" s="22"/>
+      <c r="CN6" s="22"/>
+      <c r="CO6" s="22"/>
+      <c r="CP6" s="22"/>
+      <c r="CQ6" s="22"/>
+      <c r="CR6" s="22"/>
     </row>
     <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CL7" s="22"/>
+      <c r="CM7" s="22"/>
+      <c r="CN7" s="22"/>
+      <c r="CO7" s="22"/>
+      <c r="CP7" s="22"/>
+      <c r="CQ7" s="22"/>
+      <c r="CR7" s="22"/>
     </row>
-    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL8" s="22"/>
+      <c r="CM8" s="22"/>
+      <c r="CN8" s="22"/>
+      <c r="CO8" s="22"/>
+      <c r="CP8" s="22"/>
+      <c r="CQ8" s="22"/>
+      <c r="CR8" s="22"/>
+    </row>
     <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="21">
+      <c r="B9" s="33">
         <v>2000</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>2001</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>2002</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33">
         <v>2003</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21">
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33">
         <v>2004</v>
       </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21">
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>2005</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33">
         <v>2006</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21">
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33">
         <v>2007</v>
       </c>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33">
         <v>2008</v>
       </c>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21">
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33">
         <v>2009</v>
       </c>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21">
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33">
         <v>2011</v>
       </c>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21">
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33">
         <v>2012</v>
       </c>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21">
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33">
         <v>2013</v>
       </c>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21">
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33">
         <v>2014</v>
       </c>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21">
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33">
         <v>2015</v>
       </c>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21">
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33">
         <v>2016</v>
       </c>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21">
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33">
         <v>2017</v>
       </c>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21">
+      <c r="BS9" s="33"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="33">
         <v>2018</v>
       </c>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="21">
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="33"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="33">
         <v>2019</v>
       </c>
-      <c r="CA9" s="21"/>
-      <c r="CB9" s="21"/>
-      <c r="CC9" s="21"/>
-      <c r="CD9" s="21">
+      <c r="CA9" s="33"/>
+      <c r="CB9" s="33"/>
+      <c r="CC9" s="33"/>
+      <c r="CD9" s="33">
         <v>2020</v>
       </c>
-      <c r="CE9" s="21"/>
-      <c r="CF9" s="21"/>
-      <c r="CG9" s="21"/>
-      <c r="CH9" s="21">
+      <c r="CE9" s="33"/>
+      <c r="CF9" s="33"/>
+      <c r="CG9" s="33"/>
+      <c r="CH9" s="33">
         <v>2021</v>
       </c>
-      <c r="CI9" s="21"/>
-      <c r="CJ9" s="21"/>
-      <c r="CK9" s="21"/>
-      <c r="CL9" s="21">
+      <c r="CI9" s="33"/>
+      <c r="CJ9" s="33"/>
+      <c r="CK9" s="33"/>
+      <c r="CL9" s="34">
         <v>2022</v>
       </c>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="21"/>
-      <c r="CO9" s="21"/>
-      <c r="CP9" s="21">
+      <c r="CM9" s="34"/>
+      <c r="CN9" s="34"/>
+      <c r="CO9" s="34"/>
+      <c r="CP9" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="22"/>
+      <c r="CQ9" s="34"/>
+      <c r="CR9" s="34"/>
     </row>
     <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24094,27 +24172,37 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CR10" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
+      <c r="CL11" s="22"/>
+      <c r="CM11" s="22"/>
+      <c r="CN11" s="22"/>
+      <c r="CO11" s="22"/>
+      <c r="CP11" s="22"/>
+      <c r="CQ11" s="22"/>
+      <c r="CR11" s="22"/>
     </row>
     <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -24384,25 +24472,27 @@
       <c r="CK12" s="19">
         <v>5462.4567046615093</v>
       </c>
-      <c r="CL12" s="19">
+      <c r="CL12" s="24">
         <v>19588.044628616666</v>
       </c>
-      <c r="CM12" s="19">
+      <c r="CM12" s="24">
         <v>16902.723128414724</v>
       </c>
-      <c r="CN12" s="19">
+      <c r="CN12" s="24">
         <v>27834.037093563096</v>
       </c>
-      <c r="CO12" s="19">
+      <c r="CO12" s="24">
         <v>7500.2176711747825</v>
       </c>
-      <c r="CP12" s="19">
+      <c r="CP12" s="24">
         <v>15773.523081344836</v>
       </c>
-      <c r="CQ12" s="19">
+      <c r="CQ12" s="24">
         <v>6722.7553924630865</v>
       </c>
-      <c r="CR12" s="9"/>
+      <c r="CR12" s="24">
+        <v>8454.1532569653791</v>
+      </c>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
@@ -24730,25 +24820,27 @@
       <c r="CK13" s="19">
         <v>10837.160110547225</v>
       </c>
-      <c r="CL13" s="19">
+      <c r="CL13" s="24">
         <v>11476.927845447768</v>
       </c>
-      <c r="CM13" s="19">
+      <c r="CM13" s="24">
         <v>15844.494288309581</v>
       </c>
-      <c r="CN13" s="19">
+      <c r="CN13" s="24">
         <v>14097.565080717592</v>
       </c>
-      <c r="CO13" s="19">
+      <c r="CO13" s="24">
         <v>13922.352938909786</v>
       </c>
-      <c r="CP13" s="19">
+      <c r="CP13" s="24">
         <v>6031.8928131160264</v>
       </c>
-      <c r="CQ13" s="19">
+      <c r="CQ13" s="24">
         <v>5215.5590302334695</v>
       </c>
-      <c r="CR13" s="9"/>
+      <c r="CR13" s="24">
+        <v>5875.1435166697365</v>
+      </c>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
@@ -25076,25 +25168,27 @@
       <c r="CK14" s="19">
         <v>9087.7522723670445</v>
       </c>
-      <c r="CL14" s="19">
+      <c r="CL14" s="24">
         <v>10226.29325097073</v>
       </c>
-      <c r="CM14" s="19">
+      <c r="CM14" s="24">
         <v>13887.111747163812</v>
       </c>
-      <c r="CN14" s="19">
+      <c r="CN14" s="24">
         <v>11449.575027468945</v>
       </c>
-      <c r="CO14" s="19">
+      <c r="CO14" s="24">
         <v>10795.064642611094</v>
       </c>
-      <c r="CP14" s="19">
+      <c r="CP14" s="24">
         <v>11705.97311543867</v>
       </c>
-      <c r="CQ14" s="19">
+      <c r="CQ14" s="24">
         <v>15304.173008896976</v>
       </c>
-      <c r="CR14" s="9"/>
+      <c r="CR14" s="24">
+        <v>13709.835048103159</v>
+      </c>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
@@ -25422,25 +25516,27 @@
       <c r="CK15" s="19">
         <v>2852.2044038348649</v>
       </c>
-      <c r="CL15" s="19">
+      <c r="CL15" s="24">
         <v>13006.237010883655</v>
       </c>
-      <c r="CM15" s="19">
+      <c r="CM15" s="24">
         <v>14405.490735031581</v>
       </c>
-      <c r="CN15" s="19">
+      <c r="CN15" s="24">
         <v>9055.8816859309791</v>
       </c>
-      <c r="CO15" s="19">
+      <c r="CO15" s="24">
         <v>4012.8608015561877</v>
       </c>
-      <c r="CP15" s="19">
+      <c r="CP15" s="24">
         <v>15160.246416204162</v>
       </c>
-      <c r="CQ15" s="19">
-        <v>14595.224607992026</v>
-      </c>
-      <c r="CR15" s="9"/>
+      <c r="CQ15" s="24">
+        <v>15001.023227570127</v>
+      </c>
+      <c r="CR15" s="24">
+        <v>9275.5367720982376</v>
+      </c>
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
@@ -25768,25 +25864,27 @@
       <c r="CK16" s="19">
         <v>4553.8486237951893</v>
       </c>
-      <c r="CL16" s="19">
+      <c r="CL16" s="24">
         <v>2419.8979528721948</v>
       </c>
-      <c r="CM16" s="19">
+      <c r="CM16" s="24">
         <v>3360.5721214211781</v>
       </c>
-      <c r="CN16" s="19">
+      <c r="CN16" s="24">
         <v>3016.3069803937592</v>
       </c>
-      <c r="CO16" s="19">
+      <c r="CO16" s="24">
         <v>4995.6966942187573</v>
       </c>
-      <c r="CP16" s="19">
+      <c r="CP16" s="24">
         <v>2339.4999124600317</v>
       </c>
-      <c r="CQ16" s="19">
+      <c r="CQ16" s="24">
         <v>3498.8932940025416</v>
       </c>
-      <c r="CR16" s="9"/>
+      <c r="CR16" s="24">
+        <v>3054.4578392055387</v>
+      </c>
       <c r="CS16" s="9"/>
       <c r="CT16" s="9"/>
       <c r="CU16" s="9"/>
@@ -26114,25 +26212,27 @@
       <c r="CK17" s="19">
         <v>14168.594577918491</v>
       </c>
-      <c r="CL17" s="19">
+      <c r="CL17" s="24">
         <v>14756.201664874417</v>
       </c>
-      <c r="CM17" s="19">
+      <c r="CM17" s="24">
         <v>9710.7964700929115</v>
       </c>
-      <c r="CN17" s="19">
+      <c r="CN17" s="24">
         <v>12276.158278382265</v>
       </c>
-      <c r="CO17" s="19">
+      <c r="CO17" s="24">
         <v>15709.119194229439</v>
       </c>
-      <c r="CP17" s="19">
+      <c r="CP17" s="24">
         <v>16367.196458240909</v>
       </c>
-      <c r="CQ17" s="19">
-        <v>10504.435458114091</v>
-      </c>
-      <c r="CR17" s="9"/>
+      <c r="CQ17" s="24">
+        <v>10521.860348832137</v>
+      </c>
+      <c r="CR17" s="24">
+        <v>14986.844831303366</v>
+      </c>
       <c r="CS17" s="9"/>
       <c r="CT17" s="9"/>
       <c r="CU17" s="9"/>
@@ -26281,13 +26381,13 @@
       <c r="CI18" s="9"/>
       <c r="CJ18" s="9"/>
       <c r="CK18" s="9"/>
-      <c r="CL18" s="9"/>
-      <c r="CM18" s="9"/>
-      <c r="CN18" s="9"/>
-      <c r="CO18" s="9"/>
-      <c r="CP18" s="9"/>
-      <c r="CQ18" s="9"/>
-      <c r="CR18" s="9"/>
+      <c r="CL18" s="25"/>
+      <c r="CM18" s="25"/>
+      <c r="CN18" s="25"/>
+      <c r="CO18" s="25"/>
+      <c r="CP18" s="25"/>
+      <c r="CQ18" s="25"/>
+      <c r="CR18" s="25"/>
       <c r="CS18" s="9"/>
       <c r="CT18" s="9"/>
       <c r="CU18" s="9"/>
@@ -26615,25 +26715,27 @@
       <c r="CK19" s="20">
         <v>46962.016693124322</v>
       </c>
-      <c r="CL19" s="20">
+      <c r="CL19" s="26">
         <v>71473.602353665425</v>
       </c>
-      <c r="CM19" s="20">
+      <c r="CM19" s="26">
         <v>74111.188490433793</v>
       </c>
-      <c r="CN19" s="20">
+      <c r="CN19" s="26">
         <v>77729.52414645665</v>
       </c>
-      <c r="CO19" s="20">
+      <c r="CO19" s="26">
         <v>56935.311942700049</v>
       </c>
-      <c r="CP19" s="20">
+      <c r="CP19" s="26">
         <v>67378.331796804632</v>
       </c>
-      <c r="CQ19" s="20">
-        <v>55841.040791702195</v>
-      </c>
-      <c r="CR19" s="9"/>
+      <c r="CQ19" s="26">
+        <v>56264.264301998337</v>
+      </c>
+      <c r="CR19" s="26">
+        <v>55355.971264345419</v>
+      </c>
       <c r="CS19" s="9"/>
       <c r="CT19" s="9"/>
       <c r="CU19" s="9"/>
@@ -26783,17 +26885,25 @@
       <c r="CI20" s="13"/>
       <c r="CJ20" s="13"/>
       <c r="CK20" s="13"/>
-      <c r="CL20" s="13"/>
-      <c r="CM20" s="13"/>
-      <c r="CN20" s="13"/>
-      <c r="CO20" s="13"/>
-      <c r="CP20" s="13"/>
-      <c r="CQ20" s="13"/>
+      <c r="CL20" s="27"/>
+      <c r="CM20" s="27"/>
+      <c r="CN20" s="27"/>
+      <c r="CO20" s="27"/>
+      <c r="CP20" s="27"/>
+      <c r="CQ20" s="27"/>
+      <c r="CR20" s="27"/>
     </row>
     <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CL21" s="22"/>
+      <c r="CM21" s="22"/>
+      <c r="CN21" s="22"/>
+      <c r="CO21" s="22"/>
+      <c r="CP21" s="22"/>
+      <c r="CQ21" s="22"/>
+      <c r="CR21" s="22"/>
     </row>
     <row r="22" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
@@ -26884,13 +26994,13 @@
       <c r="CI22" s="9"/>
       <c r="CJ22" s="9"/>
       <c r="CK22" s="9"/>
-      <c r="CL22" s="9"/>
-      <c r="CM22" s="9"/>
-      <c r="CN22" s="9"/>
-      <c r="CO22" s="9"/>
-      <c r="CP22" s="9"/>
-      <c r="CQ22" s="9"/>
-      <c r="CR22" s="9"/>
+      <c r="CL22" s="25"/>
+      <c r="CM22" s="25"/>
+      <c r="CN22" s="25"/>
+      <c r="CO22" s="25"/>
+      <c r="CP22" s="25"/>
+      <c r="CQ22" s="25"/>
+      <c r="CR22" s="25"/>
       <c r="CS22" s="9"/>
       <c r="CT22" s="9"/>
       <c r="CU22" s="9"/>
@@ -27039,13 +27149,13 @@
       <c r="CI23" s="9"/>
       <c r="CJ23" s="9"/>
       <c r="CK23" s="9"/>
-      <c r="CL23" s="9"/>
-      <c r="CM23" s="9"/>
-      <c r="CN23" s="9"/>
-      <c r="CO23" s="9"/>
-      <c r="CP23" s="9"/>
-      <c r="CQ23" s="9"/>
-      <c r="CR23" s="9"/>
+      <c r="CL23" s="25"/>
+      <c r="CM23" s="25"/>
+      <c r="CN23" s="25"/>
+      <c r="CO23" s="25"/>
+      <c r="CP23" s="25"/>
+      <c r="CQ23" s="25"/>
+      <c r="CR23" s="25"/>
       <c r="CS23" s="9"/>
       <c r="CT23" s="9"/>
       <c r="CU23" s="9"/>
@@ -27109,178 +27219,237 @@
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL24" s="22"/>
+      <c r="CM24" s="22"/>
+      <c r="CN24" s="22"/>
+      <c r="CO24" s="22"/>
+      <c r="CP24" s="22"/>
+      <c r="CQ24" s="22"/>
+      <c r="CR24" s="22"/>
     </row>
     <row r="25" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="CL25" s="22"/>
+      <c r="CM25" s="22"/>
+      <c r="CN25" s="22"/>
+      <c r="CO25" s="22"/>
+      <c r="CP25" s="22"/>
+      <c r="CQ25" s="22"/>
+      <c r="CR25" s="22"/>
     </row>
     <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="CL26" s="22"/>
+      <c r="CM26" s="22"/>
+      <c r="CN26" s="22"/>
+      <c r="CO26" s="22"/>
+      <c r="CP26" s="22"/>
+      <c r="CQ26" s="22"/>
+      <c r="CR26" s="22"/>
     </row>
-    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL27" s="22"/>
+      <c r="CM27" s="22"/>
+      <c r="CN27" s="22"/>
+      <c r="CO27" s="22"/>
+      <c r="CP27" s="22"/>
+      <c r="CQ27" s="22"/>
+      <c r="CR27" s="22"/>
+    </row>
     <row r="28" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="CL28" s="22"/>
+      <c r="CM28" s="22"/>
+      <c r="CN28" s="22"/>
+      <c r="CO28" s="22"/>
+      <c r="CP28" s="22"/>
+      <c r="CQ28" s="22"/>
+      <c r="CR28" s="22"/>
     </row>
     <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="CL29" s="22"/>
+      <c r="CM29" s="22"/>
+      <c r="CN29" s="22"/>
+      <c r="CO29" s="22"/>
+      <c r="CP29" s="22"/>
+      <c r="CQ29" s="22"/>
+      <c r="CR29" s="22"/>
     </row>
     <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="CL30" s="22"/>
+      <c r="CM30" s="22"/>
+      <c r="CN30" s="22"/>
+      <c r="CO30" s="22"/>
+      <c r="CP30" s="22"/>
+      <c r="CQ30" s="22"/>
+      <c r="CR30" s="22"/>
     </row>
-    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL31" s="22"/>
+      <c r="CM31" s="22"/>
+      <c r="CN31" s="22"/>
+      <c r="CO31" s="22"/>
+      <c r="CP31" s="22"/>
+      <c r="CQ31" s="22"/>
+      <c r="CR31" s="22"/>
+    </row>
     <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="21">
+      <c r="B32" s="33">
         <v>2000</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21">
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33">
         <v>2001</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21">
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33">
         <v>2002</v>
       </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21">
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33">
         <v>2003</v>
       </c>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21">
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33">
         <v>2004</v>
       </c>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21">
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33">
         <v>2005</v>
       </c>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21">
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33">
         <v>2006</v>
       </c>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21">
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33">
         <v>2007</v>
       </c>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="21">
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="33"/>
+      <c r="AH32" s="33">
         <v>2008</v>
       </c>
-      <c r="AI32" s="21"/>
-      <c r="AJ32" s="21"/>
-      <c r="AK32" s="21"/>
-      <c r="AL32" s="21">
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="33"/>
+      <c r="AK32" s="33"/>
+      <c r="AL32" s="33">
         <v>2009</v>
       </c>
-      <c r="AM32" s="21"/>
-      <c r="AN32" s="21"/>
-      <c r="AO32" s="21"/>
-      <c r="AP32" s="21">
+      <c r="AM32" s="33"/>
+      <c r="AN32" s="33"/>
+      <c r="AO32" s="33"/>
+      <c r="AP32" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ32" s="21"/>
-      <c r="AR32" s="21"/>
-      <c r="AS32" s="21"/>
-      <c r="AT32" s="21">
+      <c r="AQ32" s="33"/>
+      <c r="AR32" s="33"/>
+      <c r="AS32" s="33"/>
+      <c r="AT32" s="33">
         <v>2011</v>
       </c>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="21"/>
-      <c r="AW32" s="21"/>
-      <c r="AX32" s="21">
+      <c r="AU32" s="33"/>
+      <c r="AV32" s="33"/>
+      <c r="AW32" s="33"/>
+      <c r="AX32" s="33">
         <v>2012</v>
       </c>
-      <c r="AY32" s="21"/>
-      <c r="AZ32" s="21"/>
-      <c r="BA32" s="21"/>
-      <c r="BB32" s="21">
+      <c r="AY32" s="33"/>
+      <c r="AZ32" s="33"/>
+      <c r="BA32" s="33"/>
+      <c r="BB32" s="33">
         <v>2013</v>
       </c>
-      <c r="BC32" s="21"/>
-      <c r="BD32" s="21"/>
-      <c r="BE32" s="21"/>
-      <c r="BF32" s="21">
+      <c r="BC32" s="33"/>
+      <c r="BD32" s="33"/>
+      <c r="BE32" s="33"/>
+      <c r="BF32" s="33">
         <v>2014</v>
       </c>
-      <c r="BG32" s="21"/>
-      <c r="BH32" s="21"/>
-      <c r="BI32" s="21"/>
-      <c r="BJ32" s="21">
+      <c r="BG32" s="33"/>
+      <c r="BH32" s="33"/>
+      <c r="BI32" s="33"/>
+      <c r="BJ32" s="33">
         <v>2015</v>
       </c>
-      <c r="BK32" s="21"/>
-      <c r="BL32" s="21"/>
-      <c r="BM32" s="21"/>
-      <c r="BN32" s="21">
+      <c r="BK32" s="33"/>
+      <c r="BL32" s="33"/>
+      <c r="BM32" s="33"/>
+      <c r="BN32" s="33">
         <v>2016</v>
       </c>
-      <c r="BO32" s="21"/>
-      <c r="BP32" s="21"/>
-      <c r="BQ32" s="21"/>
-      <c r="BR32" s="21">
+      <c r="BO32" s="33"/>
+      <c r="BP32" s="33"/>
+      <c r="BQ32" s="33"/>
+      <c r="BR32" s="33">
         <v>2017</v>
       </c>
-      <c r="BS32" s="21"/>
-      <c r="BT32" s="21"/>
-      <c r="BU32" s="21"/>
-      <c r="BV32" s="21">
+      <c r="BS32" s="33"/>
+      <c r="BT32" s="33"/>
+      <c r="BU32" s="33"/>
+      <c r="BV32" s="33">
         <v>2018</v>
       </c>
-      <c r="BW32" s="21"/>
-      <c r="BX32" s="21"/>
-      <c r="BY32" s="21"/>
-      <c r="BZ32" s="21">
+      <c r="BW32" s="33"/>
+      <c r="BX32" s="33"/>
+      <c r="BY32" s="33"/>
+      <c r="BZ32" s="33">
         <v>2019</v>
       </c>
-      <c r="CA32" s="21"/>
-      <c r="CB32" s="21"/>
-      <c r="CC32" s="21"/>
-      <c r="CD32" s="21">
+      <c r="CA32" s="33"/>
+      <c r="CB32" s="33"/>
+      <c r="CC32" s="33"/>
+      <c r="CD32" s="33">
         <v>2020</v>
       </c>
-      <c r="CE32" s="21"/>
-      <c r="CF32" s="21"/>
-      <c r="CG32" s="21"/>
-      <c r="CH32" s="21">
+      <c r="CE32" s="33"/>
+      <c r="CF32" s="33"/>
+      <c r="CG32" s="33"/>
+      <c r="CH32" s="33">
         <v>2021</v>
       </c>
-      <c r="CI32" s="21"/>
-      <c r="CJ32" s="21"/>
-      <c r="CK32" s="21"/>
-      <c r="CL32" s="21">
+      <c r="CI32" s="33"/>
+      <c r="CJ32" s="33"/>
+      <c r="CK32" s="33"/>
+      <c r="CL32" s="34">
         <v>2022</v>
       </c>
-      <c r="CM32" s="21"/>
-      <c r="CN32" s="21"/>
-      <c r="CO32" s="21"/>
-      <c r="CP32" s="21">
+      <c r="CM32" s="34"/>
+      <c r="CN32" s="34"/>
+      <c r="CO32" s="34"/>
+      <c r="CP32" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ32" s="22"/>
+      <c r="CQ32" s="34"/>
+      <c r="CR32" s="34"/>
     </row>
     <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -27550,27 +27719,37 @@
       <c r="CK33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL33" s="6" t="s">
+      <c r="CL33" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM33" s="6" t="s">
+      <c r="CM33" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN33" s="6" t="s">
+      <c r="CN33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO33" s="6" t="s">
+      <c r="CO33" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CP33" s="6" t="s">
+      <c r="CP33" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ33" s="6" t="s">
+      <c r="CQ33" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CR33" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
+      <c r="CL34" s="22"/>
+      <c r="CM34" s="22"/>
+      <c r="CN34" s="22"/>
+      <c r="CO34" s="22"/>
+      <c r="CP34" s="22"/>
+      <c r="CQ34" s="22"/>
+      <c r="CR34" s="22"/>
     </row>
     <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -27840,25 +28019,27 @@
       <c r="CK35" s="19">
         <v>4440.831846489732</v>
       </c>
-      <c r="CL35" s="19">
+      <c r="CL35" s="24">
         <v>10958.03015047024</v>
       </c>
-      <c r="CM35" s="19">
+      <c r="CM35" s="24">
         <v>6334.6974061478777</v>
       </c>
-      <c r="CN35" s="19">
+      <c r="CN35" s="24">
         <v>3454.7335177153209</v>
       </c>
-      <c r="CO35" s="19">
+      <c r="CO35" s="24">
         <v>3034.4308903112847</v>
       </c>
-      <c r="CP35" s="19">
+      <c r="CP35" s="24">
         <v>9880.2286789848804</v>
       </c>
-      <c r="CQ35" s="19">
+      <c r="CQ35" s="24">
         <v>5547.0502940145998</v>
       </c>
-      <c r="CR35" s="9"/>
+      <c r="CR35" s="24">
+        <v>2844.3035036145648</v>
+      </c>
       <c r="CS35" s="9"/>
       <c r="CT35" s="9"/>
       <c r="CU35" s="9"/>
@@ -28186,25 +28367,27 @@
       <c r="CK36" s="19">
         <v>4896.2167341823924</v>
       </c>
-      <c r="CL36" s="19">
+      <c r="CL36" s="24">
         <v>5486.7089418083433</v>
       </c>
-      <c r="CM36" s="19">
+      <c r="CM36" s="24">
         <v>12545.706395806543</v>
       </c>
-      <c r="CN36" s="19">
+      <c r="CN36" s="24">
         <v>3588.5976323687337</v>
       </c>
-      <c r="CO36" s="19">
+      <c r="CO36" s="24">
         <v>4874.4539561299507</v>
       </c>
-      <c r="CP36" s="19">
+      <c r="CP36" s="24">
         <v>3908.6596716646445</v>
       </c>
-      <c r="CQ36" s="19">
+      <c r="CQ36" s="24">
         <v>9383.2506327522442</v>
       </c>
-      <c r="CR36" s="9"/>
+      <c r="CR36" s="24">
+        <v>3171.137875157483</v>
+      </c>
       <c r="CS36" s="9"/>
       <c r="CT36" s="9"/>
       <c r="CU36" s="9"/>
@@ -28532,25 +28715,27 @@
       <c r="CK37" s="19">
         <v>5972.151005999438</v>
       </c>
-      <c r="CL37" s="19">
+      <c r="CL37" s="24">
         <v>6004.3560619430173</v>
       </c>
-      <c r="CM37" s="19">
+      <c r="CM37" s="24">
         <v>8059.7520011142842</v>
       </c>
-      <c r="CN37" s="19">
+      <c r="CN37" s="24">
         <v>6666.4661185470686</v>
       </c>
-      <c r="CO37" s="19">
+      <c r="CO37" s="24">
         <v>7052.931592245819</v>
       </c>
-      <c r="CP37" s="19">
+      <c r="CP37" s="24">
         <v>6413.0817528729222</v>
       </c>
-      <c r="CQ37" s="19">
+      <c r="CQ37" s="24">
         <v>8411.437397662834</v>
       </c>
-      <c r="CR37" s="9"/>
+      <c r="CR37" s="24">
+        <v>7181.88360460492</v>
+      </c>
       <c r="CS37" s="9"/>
       <c r="CT37" s="9"/>
       <c r="CU37" s="9"/>
@@ -28878,25 +29063,27 @@
       <c r="CK38" s="19">
         <v>1464.8652129565066</v>
       </c>
-      <c r="CL38" s="19">
+      <c r="CL38" s="24">
         <v>4453.3563068360563</v>
       </c>
-      <c r="CM38" s="19">
+      <c r="CM38" s="24">
         <v>6851.5622273177451</v>
       </c>
-      <c r="CN38" s="19">
+      <c r="CN38" s="24">
         <v>5652.805563576303</v>
       </c>
-      <c r="CO38" s="19">
+      <c r="CO38" s="24">
         <v>1604.1539505589053</v>
       </c>
-      <c r="CP38" s="19">
+      <c r="CP38" s="24">
         <v>5060.6837921268252</v>
       </c>
-      <c r="CQ38" s="19">
-        <v>8502.0765037096826</v>
-      </c>
-      <c r="CR38" s="9"/>
+      <c r="CQ38" s="24">
+        <v>8738.4641579883028</v>
+      </c>
+      <c r="CR38" s="24">
+        <v>6319.9804479669056</v>
+      </c>
       <c r="CS38" s="9"/>
       <c r="CT38" s="9"/>
       <c r="CU38" s="9"/>
@@ -29224,25 +29411,27 @@
       <c r="CK39" s="19">
         <v>1123.2391614790699</v>
       </c>
-      <c r="CL39" s="19">
+      <c r="CL39" s="24">
         <v>4332.1992264646178</v>
       </c>
-      <c r="CM39" s="19">
+      <c r="CM39" s="24">
         <v>1230.4443119866219</v>
       </c>
-      <c r="CN39" s="19">
+      <c r="CN39" s="24">
         <v>1532.0808593139413</v>
       </c>
-      <c r="CO39" s="19">
+      <c r="CO39" s="24">
         <v>1476.0047410557795</v>
       </c>
-      <c r="CP39" s="19">
+      <c r="CP39" s="24">
         <v>4324.7906811114208</v>
       </c>
-      <c r="CQ39" s="19">
+      <c r="CQ39" s="24">
         <v>1361.8322781078605</v>
       </c>
-      <c r="CR39" s="9"/>
+      <c r="CR39" s="24">
+        <v>1448.3810412670077</v>
+      </c>
       <c r="CS39" s="9"/>
       <c r="CT39" s="9"/>
       <c r="CU39" s="9"/>
@@ -29570,25 +29759,27 @@
       <c r="CK40" s="19">
         <v>16667.551953593211</v>
       </c>
-      <c r="CL40" s="19">
+      <c r="CL40" s="24">
         <v>12849.55154957661</v>
       </c>
-      <c r="CM40" s="19">
+      <c r="CM40" s="24">
         <v>8242.9211698626095</v>
       </c>
-      <c r="CN40" s="19">
+      <c r="CN40" s="24">
         <v>8752.1789888420681</v>
       </c>
-      <c r="CO40" s="19">
+      <c r="CO40" s="24">
         <v>17146.413780542847</v>
       </c>
-      <c r="CP40" s="19">
+      <c r="CP40" s="24">
         <v>13519.045134498927</v>
       </c>
-      <c r="CQ40" s="19">
-        <v>8534.1715725623435</v>
-      </c>
-      <c r="CR40" s="9"/>
+      <c r="CQ40" s="24">
+        <v>8548.3283997374474</v>
+      </c>
+      <c r="CR40" s="24">
+        <v>10001.862987216608</v>
+      </c>
       <c r="CS40" s="9"/>
       <c r="CT40" s="9"/>
       <c r="CU40" s="9"/>
@@ -29737,13 +29928,13 @@
       <c r="CI41" s="20"/>
       <c r="CJ41" s="20"/>
       <c r="CK41" s="20"/>
-      <c r="CL41" s="20"/>
-      <c r="CM41" s="20"/>
-      <c r="CN41" s="20"/>
-      <c r="CO41" s="20"/>
-      <c r="CP41" s="20"/>
-      <c r="CQ41" s="20"/>
-      <c r="CR41" s="9"/>
+      <c r="CL41" s="26"/>
+      <c r="CM41" s="26"/>
+      <c r="CN41" s="26"/>
+      <c r="CO41" s="26"/>
+      <c r="CP41" s="26"/>
+      <c r="CQ41" s="26"/>
+      <c r="CR41" s="26"/>
       <c r="CS41" s="9"/>
       <c r="CT41" s="9"/>
       <c r="CU41" s="9"/>
@@ -30071,25 +30262,27 @@
       <c r="CK42" s="20">
         <v>34564.855914700347</v>
       </c>
-      <c r="CL42" s="20">
+      <c r="CL42" s="26">
         <v>44084.202237098885</v>
       </c>
-      <c r="CM42" s="20">
+      <c r="CM42" s="26">
         <v>43265.08351223568</v>
       </c>
-      <c r="CN42" s="20">
+      <c r="CN42" s="26">
         <v>29646.862680363436</v>
       </c>
-      <c r="CO42" s="20">
+      <c r="CO42" s="26">
         <v>35188.388910844587</v>
       </c>
-      <c r="CP42" s="20">
+      <c r="CP42" s="26">
         <v>43106.489711259623</v>
       </c>
-      <c r="CQ42" s="20">
-        <v>41739.81867880957</v>
-      </c>
-      <c r="CR42" s="9"/>
+      <c r="CQ42" s="26">
+        <v>41990.363160263289</v>
+      </c>
+      <c r="CR42" s="26">
+        <v>30967.549459827489</v>
+      </c>
       <c r="CS42" s="9"/>
       <c r="CT42" s="9"/>
       <c r="CU42" s="9"/>
@@ -30239,17 +30432,25 @@
       <c r="CI43" s="13"/>
       <c r="CJ43" s="13"/>
       <c r="CK43" s="13"/>
-      <c r="CL43" s="13"/>
-      <c r="CM43" s="13"/>
-      <c r="CN43" s="13"/>
-      <c r="CO43" s="13"/>
-      <c r="CP43" s="13"/>
-      <c r="CQ43" s="13"/>
+      <c r="CL43" s="27"/>
+      <c r="CM43" s="27"/>
+      <c r="CN43" s="27"/>
+      <c r="CO43" s="27"/>
+      <c r="CP43" s="27"/>
+      <c r="CQ43" s="27"/>
+      <c r="CR43" s="27"/>
     </row>
     <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CL44" s="22"/>
+      <c r="CM44" s="22"/>
+      <c r="CN44" s="22"/>
+      <c r="CO44" s="22"/>
+      <c r="CP44" s="22"/>
+      <c r="CQ44" s="22"/>
+      <c r="CR44" s="22"/>
     </row>
     <row r="45" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
@@ -30340,13 +30541,13 @@
       <c r="CI45" s="9"/>
       <c r="CJ45" s="9"/>
       <c r="CK45" s="9"/>
-      <c r="CL45" s="9"/>
-      <c r="CM45" s="9"/>
-      <c r="CN45" s="9"/>
-      <c r="CO45" s="9"/>
-      <c r="CP45" s="9"/>
-      <c r="CQ45" s="9"/>
-      <c r="CR45" s="9"/>
+      <c r="CL45" s="25"/>
+      <c r="CM45" s="25"/>
+      <c r="CN45" s="25"/>
+      <c r="CO45" s="25"/>
+      <c r="CP45" s="25"/>
+      <c r="CQ45" s="25"/>
+      <c r="CR45" s="25"/>
       <c r="CS45" s="9"/>
       <c r="CT45" s="9"/>
       <c r="CU45" s="9"/>
@@ -30495,13 +30696,13 @@
       <c r="CI46" s="9"/>
       <c r="CJ46" s="9"/>
       <c r="CK46" s="9"/>
-      <c r="CL46" s="9"/>
-      <c r="CM46" s="9"/>
-      <c r="CN46" s="9"/>
-      <c r="CO46" s="9"/>
-      <c r="CP46" s="9"/>
-      <c r="CQ46" s="9"/>
-      <c r="CR46" s="9"/>
+      <c r="CL46" s="25"/>
+      <c r="CM46" s="25"/>
+      <c r="CN46" s="25"/>
+      <c r="CO46" s="25"/>
+      <c r="CP46" s="25"/>
+      <c r="CQ46" s="25"/>
+      <c r="CR46" s="25"/>
       <c r="CS46" s="9"/>
       <c r="CT46" s="9"/>
       <c r="CU46" s="9"/>
@@ -30565,176 +30766,235 @@
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL47" s="22"/>
+      <c r="CM47" s="22"/>
+      <c r="CN47" s="22"/>
+      <c r="CO47" s="22"/>
+      <c r="CP47" s="22"/>
+      <c r="CQ47" s="22"/>
+      <c r="CR47" s="22"/>
     </row>
     <row r="48" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CL48" s="22"/>
+      <c r="CM48" s="22"/>
+      <c r="CN48" s="22"/>
+      <c r="CO48" s="22"/>
+      <c r="CP48" s="22"/>
+      <c r="CQ48" s="22"/>
+      <c r="CR48" s="22"/>
     </row>
     <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="CL49" s="22"/>
+      <c r="CM49" s="22"/>
+      <c r="CN49" s="22"/>
+      <c r="CO49" s="22"/>
+      <c r="CP49" s="22"/>
+      <c r="CQ49" s="22"/>
+      <c r="CR49" s="22"/>
     </row>
-    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL50" s="22"/>
+      <c r="CM50" s="22"/>
+      <c r="CN50" s="22"/>
+      <c r="CO50" s="22"/>
+      <c r="CP50" s="22"/>
+      <c r="CQ50" s="22"/>
+      <c r="CR50" s="22"/>
+    </row>
     <row r="51" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="CL51" s="22"/>
+      <c r="CM51" s="22"/>
+      <c r="CN51" s="22"/>
+      <c r="CO51" s="22"/>
+      <c r="CP51" s="22"/>
+      <c r="CQ51" s="22"/>
+      <c r="CR51" s="22"/>
     </row>
     <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="CL52" s="22"/>
+      <c r="CM52" s="22"/>
+      <c r="CN52" s="22"/>
+      <c r="CO52" s="22"/>
+      <c r="CP52" s="22"/>
+      <c r="CQ52" s="22"/>
+      <c r="CR52" s="22"/>
     </row>
     <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CL53" s="22"/>
+      <c r="CM53" s="22"/>
+      <c r="CN53" s="22"/>
+      <c r="CO53" s="22"/>
+      <c r="CP53" s="22"/>
+      <c r="CQ53" s="22"/>
+      <c r="CR53" s="22"/>
     </row>
-    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL54" s="22"/>
+      <c r="CM54" s="22"/>
+      <c r="CN54" s="22"/>
+      <c r="CO54" s="22"/>
+      <c r="CP54" s="22"/>
+      <c r="CQ54" s="22"/>
+      <c r="CR54" s="22"/>
+    </row>
     <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21" t="s">
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21" t="s">
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21" t="s">
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21" t="s">
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21" t="s">
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21" t="s">
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AA55" s="21"/>
-      <c r="AB55" s="21"/>
-      <c r="AC55" s="21"/>
-      <c r="AD55" s="21" t="s">
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="33"/>
+      <c r="AD55" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="21"/>
-      <c r="AF55" s="21"/>
-      <c r="AG55" s="21"/>
-      <c r="AH55" s="21" t="s">
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="33"/>
+      <c r="AG55" s="33"/>
+      <c r="AH55" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="21"/>
-      <c r="AJ55" s="21"/>
-      <c r="AK55" s="21"/>
-      <c r="AL55" s="21" t="s">
+      <c r="AI55" s="33"/>
+      <c r="AJ55" s="33"/>
+      <c r="AK55" s="33"/>
+      <c r="AL55" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AM55" s="21"/>
-      <c r="AN55" s="21"/>
-      <c r="AO55" s="21"/>
-      <c r="AP55" s="21" t="s">
+      <c r="AM55" s="33"/>
+      <c r="AN55" s="33"/>
+      <c r="AO55" s="33"/>
+      <c r="AP55" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AQ55" s="21"/>
-      <c r="AR55" s="21"/>
-      <c r="AS55" s="21"/>
-      <c r="AT55" s="21" t="s">
+      <c r="AQ55" s="33"/>
+      <c r="AR55" s="33"/>
+      <c r="AS55" s="33"/>
+      <c r="AT55" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AU55" s="21"/>
-      <c r="AV55" s="21"/>
-      <c r="AW55" s="21"/>
-      <c r="AX55" s="21" t="s">
+      <c r="AU55" s="33"/>
+      <c r="AV55" s="33"/>
+      <c r="AW55" s="33"/>
+      <c r="AX55" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AY55" s="21"/>
-      <c r="AZ55" s="21"/>
-      <c r="BA55" s="21"/>
-      <c r="BB55" s="21" t="s">
+      <c r="AY55" s="33"/>
+      <c r="AZ55" s="33"/>
+      <c r="BA55" s="33"/>
+      <c r="BB55" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="BC55" s="21"/>
-      <c r="BD55" s="21"/>
-      <c r="BE55" s="21"/>
-      <c r="BF55" s="21" t="s">
+      <c r="BC55" s="33"/>
+      <c r="BD55" s="33"/>
+      <c r="BE55" s="33"/>
+      <c r="BF55" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="BG55" s="21"/>
-      <c r="BH55" s="21"/>
-      <c r="BI55" s="21"/>
-      <c r="BJ55" s="21" t="s">
+      <c r="BG55" s="33"/>
+      <c r="BH55" s="33"/>
+      <c r="BI55" s="33"/>
+      <c r="BJ55" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="BK55" s="21"/>
-      <c r="BL55" s="21"/>
-      <c r="BM55" s="21"/>
-      <c r="BN55" s="21" t="s">
+      <c r="BK55" s="33"/>
+      <c r="BL55" s="33"/>
+      <c r="BM55" s="33"/>
+      <c r="BN55" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="BO55" s="21"/>
-      <c r="BP55" s="21"/>
-      <c r="BQ55" s="21"/>
-      <c r="BR55" s="21" t="s">
+      <c r="BO55" s="33"/>
+      <c r="BP55" s="33"/>
+      <c r="BQ55" s="33"/>
+      <c r="BR55" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="BS55" s="21"/>
-      <c r="BT55" s="21"/>
-      <c r="BU55" s="21"/>
-      <c r="BV55" s="21" t="s">
+      <c r="BS55" s="33"/>
+      <c r="BT55" s="33"/>
+      <c r="BU55" s="33"/>
+      <c r="BV55" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="BW55" s="21"/>
-      <c r="BX55" s="21"/>
-      <c r="BY55" s="21"/>
-      <c r="BZ55" s="21" t="s">
+      <c r="BW55" s="33"/>
+      <c r="BX55" s="33"/>
+      <c r="BY55" s="33"/>
+      <c r="BZ55" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="CA55" s="21"/>
-      <c r="CB55" s="21"/>
-      <c r="CC55" s="21"/>
-      <c r="CD55" s="21" t="s">
+      <c r="CA55" s="33"/>
+      <c r="CB55" s="33"/>
+      <c r="CC55" s="33"/>
+      <c r="CD55" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="CE55" s="21"/>
-      <c r="CF55" s="21"/>
-      <c r="CG55" s="21"/>
-      <c r="CH55" s="21" t="s">
+      <c r="CE55" s="33"/>
+      <c r="CF55" s="33"/>
+      <c r="CG55" s="33"/>
+      <c r="CH55" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="CI55" s="21"/>
-      <c r="CJ55" s="21"/>
-      <c r="CK55" s="21"/>
-      <c r="CL55" s="21" t="s">
+      <c r="CI55" s="33"/>
+      <c r="CJ55" s="33"/>
+      <c r="CK55" s="33"/>
+      <c r="CL55" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="CM55" s="21"/>
-      <c r="CN55" s="21"/>
-      <c r="CO55" s="21"/>
+      <c r="CM55" s="34"/>
+      <c r="CN55" s="34"/>
+      <c r="CO55" s="28"/>
       <c r="CP55" s="21"/>
-      <c r="CQ55" s="22"/>
+      <c r="CQ55" s="21"/>
+      <c r="CR55" s="21"/>
     </row>
     <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
@@ -31004,19 +31264,29 @@
       <c r="CK56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL56" s="5" t="s">
+      <c r="CL56" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CM56" s="5" t="s">
+      <c r="CM56" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CN56" s="5"/>
-      <c r="CO56" s="5"/>
-      <c r="CP56" s="5"/>
-      <c r="CQ56" s="5"/>
+      <c r="CN56" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO56" s="29"/>
+      <c r="CP56" s="29"/>
+      <c r="CQ56" s="29"/>
+      <c r="CR56" s="29"/>
     </row>
     <row r="57" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
+      <c r="CL57" s="22"/>
+      <c r="CM57" s="22"/>
+      <c r="CN57" s="22"/>
+      <c r="CO57" s="22"/>
+      <c r="CP57" s="22"/>
+      <c r="CQ57" s="22"/>
+      <c r="CR57" s="22"/>
     </row>
     <row r="58" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -31286,16 +31556,19 @@
       <c r="CK58" s="15">
         <v>37.30484426126992</v>
       </c>
-      <c r="CL58" s="15">
+      <c r="CL58" s="30">
         <v>-19.473722975386224</v>
       </c>
-      <c r="CM58" s="15">
+      <c r="CM58" s="30">
         <v>-60.226791024212901</v>
       </c>
-      <c r="CN58" s="15"/>
-      <c r="CO58" s="15"/>
-      <c r="CP58" s="15"/>
-      <c r="CQ58" s="15"/>
+      <c r="CN58" s="30">
+        <v>-69.626564667758927</v>
+      </c>
+      <c r="CO58" s="30"/>
+      <c r="CP58" s="30"/>
+      <c r="CQ58" s="30"/>
+      <c r="CR58" s="30"/>
     </row>
     <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -31565,17 +31838,19 @@
       <c r="CK59" s="15">
         <v>28.468646738548301</v>
       </c>
-      <c r="CL59" s="15">
+      <c r="CL59" s="30">
         <v>-47.443315019981334</v>
       </c>
-      <c r="CM59" s="15">
+      <c r="CM59" s="30">
         <v>-67.082830569848966</v>
       </c>
-      <c r="CN59" s="15"/>
-      <c r="CO59" s="15"/>
-      <c r="CP59" s="15"/>
-      <c r="CQ59" s="15"/>
-      <c r="CR59" s="9"/>
+      <c r="CN59" s="30">
+        <v>-58.325118678078262</v>
+      </c>
+      <c r="CO59" s="30"/>
+      <c r="CP59" s="30"/>
+      <c r="CQ59" s="30"/>
+      <c r="CR59" s="30"/>
       <c r="CS59" s="9"/>
       <c r="CT59" s="9"/>
       <c r="CU59" s="9"/>
@@ -31898,17 +32173,19 @@
       <c r="CK60" s="15">
         <v>18.786959845235245</v>
       </c>
-      <c r="CL60" s="15">
+      <c r="CL60" s="30">
         <v>14.469366642966961</v>
       </c>
-      <c r="CM60" s="15">
+      <c r="CM60" s="30">
         <v>10.204146747955505</v>
       </c>
-      <c r="CN60" s="15"/>
-      <c r="CO60" s="15"/>
-      <c r="CP60" s="15"/>
-      <c r="CQ60" s="15"/>
-      <c r="CR60" s="9"/>
+      <c r="CN60" s="30">
+        <v>19.74099488593744</v>
+      </c>
+      <c r="CO60" s="30"/>
+      <c r="CP60" s="30"/>
+      <c r="CQ60" s="30"/>
+      <c r="CR60" s="30"/>
       <c r="CS60" s="9"/>
       <c r="CT60" s="9"/>
       <c r="CU60" s="9"/>
@@ -32231,17 +32508,19 @@
       <c r="CK61" s="15">
         <v>40.693310625311057</v>
       </c>
-      <c r="CL61" s="15">
+      <c r="CL61" s="30">
         <v>16.561357474248894</v>
       </c>
-      <c r="CM61" s="15">
-        <v>1.3170941306362067</v>
-      </c>
-      <c r="CN61" s="15"/>
-      <c r="CO61" s="15"/>
-      <c r="CP61" s="15"/>
-      <c r="CQ61" s="15"/>
-      <c r="CR61" s="9"/>
+      <c r="CM61" s="30">
+        <v>4.1340659856197561</v>
+      </c>
+      <c r="CN61" s="30">
+        <v>2.4255516335699241</v>
+      </c>
+      <c r="CO61" s="30"/>
+      <c r="CP61" s="30"/>
+      <c r="CQ61" s="30"/>
+      <c r="CR61" s="30"/>
       <c r="CS61" s="9"/>
       <c r="CT61" s="9"/>
       <c r="CU61" s="9"/>
@@ -32564,17 +32843,19 @@
       <c r="CK62" s="15">
         <v>9.702739527062505</v>
       </c>
-      <c r="CL62" s="15">
+      <c r="CL62" s="30">
         <v>-3.3223731734942703</v>
       </c>
-      <c r="CM62" s="15">
+      <c r="CM62" s="30">
         <v>4.1160007160586645</v>
       </c>
-      <c r="CN62" s="15"/>
-      <c r="CO62" s="15"/>
-      <c r="CP62" s="15"/>
-      <c r="CQ62" s="15"/>
-      <c r="CR62" s="9"/>
+      <c r="CN62" s="30">
+        <v>1.2648201612025218</v>
+      </c>
+      <c r="CO62" s="30"/>
+      <c r="CP62" s="30"/>
+      <c r="CQ62" s="30"/>
+      <c r="CR62" s="30"/>
       <c r="CS62" s="9"/>
       <c r="CT62" s="9"/>
       <c r="CU62" s="9"/>
@@ -32897,17 +33178,19 @@
       <c r="CK63" s="15">
         <v>10.872811751645628</v>
       </c>
-      <c r="CL63" s="15">
+      <c r="CL63" s="30">
         <v>10.917408354490661</v>
       </c>
-      <c r="CM63" s="15">
-        <v>8.1727486562550382</v>
-      </c>
-      <c r="CN63" s="15"/>
-      <c r="CO63" s="15"/>
-      <c r="CP63" s="15"/>
-      <c r="CQ63" s="15"/>
-      <c r="CR63" s="9"/>
+      <c r="CM63" s="30">
+        <v>8.3521869831905349</v>
+      </c>
+      <c r="CN63" s="30">
+        <v>22.080902603663006</v>
+      </c>
+      <c r="CO63" s="30"/>
+      <c r="CP63" s="30"/>
+      <c r="CQ63" s="30"/>
+      <c r="CR63" s="30"/>
       <c r="CS63" s="9"/>
       <c r="CT63" s="9"/>
       <c r="CU63" s="9"/>
@@ -33051,13 +33334,13 @@
       <c r="CI64" s="9"/>
       <c r="CJ64" s="9"/>
       <c r="CK64" s="9"/>
-      <c r="CL64" s="9"/>
-      <c r="CM64" s="9"/>
-      <c r="CN64" s="9"/>
-      <c r="CO64" s="9"/>
-      <c r="CP64" s="9"/>
-      <c r="CQ64" s="9"/>
-      <c r="CR64" s="9"/>
+      <c r="CL64" s="25"/>
+      <c r="CM64" s="25"/>
+      <c r="CN64" s="25"/>
+      <c r="CO64" s="25"/>
+      <c r="CP64" s="25"/>
+      <c r="CQ64" s="25"/>
+      <c r="CR64" s="25"/>
       <c r="CS64" s="9"/>
       <c r="CT64" s="9"/>
       <c r="CU64" s="9"/>
@@ -33380,17 +33663,19 @@
       <c r="CK65" s="15">
         <v>21.236939875786703</v>
       </c>
-      <c r="CL65" s="15">
+      <c r="CL65" s="30">
         <v>-5.729766545971188</v>
       </c>
-      <c r="CM65" s="15">
-        <v>-24.652347467197743</v>
-      </c>
-      <c r="CN65" s="15"/>
-      <c r="CO65" s="15"/>
-      <c r="CP65" s="15"/>
-      <c r="CQ65" s="15"/>
-      <c r="CR65" s="9"/>
+      <c r="CM65" s="30">
+        <v>-24.08128185764977</v>
+      </c>
+      <c r="CN65" s="30">
+        <v>-28.783854176124066</v>
+      </c>
+      <c r="CO65" s="30"/>
+      <c r="CP65" s="30"/>
+      <c r="CQ65" s="30"/>
+      <c r="CR65" s="30"/>
       <c r="CS65" s="9"/>
       <c r="CT65" s="9"/>
       <c r="CU65" s="9"/>
@@ -33535,17 +33820,25 @@
       <c r="CI66" s="13"/>
       <c r="CJ66" s="13"/>
       <c r="CK66" s="13"/>
-      <c r="CL66" s="13"/>
-      <c r="CM66" s="13"/>
-      <c r="CN66" s="13"/>
-      <c r="CO66" s="13"/>
-      <c r="CP66" s="13"/>
-      <c r="CQ66" s="13"/>
+      <c r="CL66" s="27"/>
+      <c r="CM66" s="27"/>
+      <c r="CN66" s="27"/>
+      <c r="CO66" s="27"/>
+      <c r="CP66" s="27"/>
+      <c r="CQ66" s="27"/>
+      <c r="CR66" s="27"/>
     </row>
     <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>51</v>
       </c>
+      <c r="CL67" s="22"/>
+      <c r="CM67" s="22"/>
+      <c r="CN67" s="22"/>
+      <c r="CO67" s="22"/>
+      <c r="CP67" s="22"/>
+      <c r="CQ67" s="22"/>
+      <c r="CR67" s="22"/>
     </row>
     <row r="68" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
@@ -33639,13 +33932,13 @@
       <c r="CI68" s="9"/>
       <c r="CJ68" s="9"/>
       <c r="CK68" s="9"/>
-      <c r="CL68" s="9"/>
-      <c r="CM68" s="9"/>
-      <c r="CN68" s="9"/>
-      <c r="CO68" s="9"/>
-      <c r="CP68" s="9"/>
-      <c r="CQ68" s="9"/>
-      <c r="CR68" s="9"/>
+      <c r="CL68" s="25"/>
+      <c r="CM68" s="25"/>
+      <c r="CN68" s="25"/>
+      <c r="CO68" s="25"/>
+      <c r="CP68" s="25"/>
+      <c r="CQ68" s="25"/>
+      <c r="CR68" s="25"/>
       <c r="CS68" s="9"/>
       <c r="CT68" s="9"/>
       <c r="CU68" s="9"/>
@@ -33789,13 +34082,13 @@
       <c r="CI69" s="9"/>
       <c r="CJ69" s="9"/>
       <c r="CK69" s="9"/>
-      <c r="CL69" s="9"/>
-      <c r="CM69" s="9"/>
-      <c r="CN69" s="9"/>
-      <c r="CO69" s="9"/>
-      <c r="CP69" s="9"/>
-      <c r="CQ69" s="9"/>
-      <c r="CR69" s="9"/>
+      <c r="CL69" s="25"/>
+      <c r="CM69" s="25"/>
+      <c r="CN69" s="25"/>
+      <c r="CO69" s="25"/>
+      <c r="CP69" s="25"/>
+      <c r="CQ69" s="25"/>
+      <c r="CR69" s="25"/>
       <c r="CS69" s="9"/>
       <c r="CT69" s="9"/>
       <c r="CU69" s="9"/>
@@ -33854,176 +34147,235 @@
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL70" s="22"/>
+      <c r="CM70" s="22"/>
+      <c r="CN70" s="22"/>
+      <c r="CO70" s="22"/>
+      <c r="CP70" s="22"/>
+      <c r="CQ70" s="22"/>
+      <c r="CR70" s="22"/>
     </row>
     <row r="71" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CL71" s="22"/>
+      <c r="CM71" s="22"/>
+      <c r="CN71" s="22"/>
+      <c r="CO71" s="22"/>
+      <c r="CP71" s="22"/>
+      <c r="CQ71" s="22"/>
+      <c r="CR71" s="22"/>
     </row>
     <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="CL72" s="22"/>
+      <c r="CM72" s="22"/>
+      <c r="CN72" s="22"/>
+      <c r="CO72" s="22"/>
+      <c r="CP72" s="22"/>
+      <c r="CQ72" s="22"/>
+      <c r="CR72" s="22"/>
     </row>
-    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL73" s="22"/>
+      <c r="CM73" s="22"/>
+      <c r="CN73" s="22"/>
+      <c r="CO73" s="22"/>
+      <c r="CP73" s="22"/>
+      <c r="CQ73" s="22"/>
+      <c r="CR73" s="22"/>
+    </row>
     <row r="74" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="CL74" s="22"/>
+      <c r="CM74" s="22"/>
+      <c r="CN74" s="22"/>
+      <c r="CO74" s="22"/>
+      <c r="CP74" s="22"/>
+      <c r="CQ74" s="22"/>
+      <c r="CR74" s="22"/>
     </row>
     <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="CL75" s="22"/>
+      <c r="CM75" s="22"/>
+      <c r="CN75" s="22"/>
+      <c r="CO75" s="22"/>
+      <c r="CP75" s="22"/>
+      <c r="CQ75" s="22"/>
+      <c r="CR75" s="22"/>
     </row>
     <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="CL76" s="22"/>
+      <c r="CM76" s="22"/>
+      <c r="CN76" s="22"/>
+      <c r="CO76" s="22"/>
+      <c r="CP76" s="22"/>
+      <c r="CQ76" s="22"/>
+      <c r="CR76" s="22"/>
     </row>
-    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL77" s="22"/>
+      <c r="CM77" s="22"/>
+      <c r="CN77" s="22"/>
+      <c r="CO77" s="22"/>
+      <c r="CP77" s="22"/>
+      <c r="CQ77" s="22"/>
+      <c r="CR77" s="22"/>
+    </row>
     <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="21" t="s">
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="21" t="s">
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="21" t="s">
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="21" t="s">
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="22"/>
-      <c r="T78" s="22"/>
-      <c r="U78" s="22"/>
-      <c r="V78" s="21" t="s">
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="W78" s="22"/>
-      <c r="X78" s="22"/>
-      <c r="Y78" s="22"/>
-      <c r="Z78" s="21" t="s">
+      <c r="W78" s="34"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AA78" s="22"/>
-      <c r="AB78" s="22"/>
-      <c r="AC78" s="22"/>
-      <c r="AD78" s="21" t="s">
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="34"/>
+      <c r="AC78" s="34"/>
+      <c r="AD78" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="22"/>
-      <c r="AF78" s="22"/>
-      <c r="AG78" s="22"/>
-      <c r="AH78" s="21" t="s">
+      <c r="AE78" s="34"/>
+      <c r="AF78" s="34"/>
+      <c r="AG78" s="34"/>
+      <c r="AH78" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AI78" s="22"/>
-      <c r="AJ78" s="22"/>
-      <c r="AK78" s="22"/>
-      <c r="AL78" s="21" t="s">
+      <c r="AI78" s="34"/>
+      <c r="AJ78" s="34"/>
+      <c r="AK78" s="34"/>
+      <c r="AL78" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AM78" s="22"/>
-      <c r="AN78" s="22"/>
-      <c r="AO78" s="22"/>
-      <c r="AP78" s="21" t="s">
+      <c r="AM78" s="34"/>
+      <c r="AN78" s="34"/>
+      <c r="AO78" s="34"/>
+      <c r="AP78" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AQ78" s="22"/>
-      <c r="AR78" s="22"/>
-      <c r="AS78" s="22"/>
-      <c r="AT78" s="21" t="s">
+      <c r="AQ78" s="34"/>
+      <c r="AR78" s="34"/>
+      <c r="AS78" s="34"/>
+      <c r="AT78" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AU78" s="22"/>
-      <c r="AV78" s="22"/>
-      <c r="AW78" s="22"/>
-      <c r="AX78" s="21" t="s">
+      <c r="AU78" s="34"/>
+      <c r="AV78" s="34"/>
+      <c r="AW78" s="34"/>
+      <c r="AX78" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AY78" s="22"/>
-      <c r="AZ78" s="22"/>
-      <c r="BA78" s="22"/>
-      <c r="BB78" s="21" t="s">
+      <c r="AY78" s="34"/>
+      <c r="AZ78" s="34"/>
+      <c r="BA78" s="34"/>
+      <c r="BB78" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="BC78" s="22"/>
-      <c r="BD78" s="22"/>
-      <c r="BE78" s="22"/>
-      <c r="BF78" s="21" t="s">
+      <c r="BC78" s="34"/>
+      <c r="BD78" s="34"/>
+      <c r="BE78" s="34"/>
+      <c r="BF78" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="BG78" s="22"/>
-      <c r="BH78" s="22"/>
-      <c r="BI78" s="22"/>
-      <c r="BJ78" s="21" t="s">
+      <c r="BG78" s="34"/>
+      <c r="BH78" s="34"/>
+      <c r="BI78" s="34"/>
+      <c r="BJ78" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="BK78" s="22"/>
-      <c r="BL78" s="22"/>
-      <c r="BM78" s="22"/>
-      <c r="BN78" s="21" t="s">
+      <c r="BK78" s="34"/>
+      <c r="BL78" s="34"/>
+      <c r="BM78" s="34"/>
+      <c r="BN78" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="BO78" s="22"/>
-      <c r="BP78" s="22"/>
-      <c r="BQ78" s="22"/>
-      <c r="BR78" s="21" t="s">
+      <c r="BO78" s="34"/>
+      <c r="BP78" s="34"/>
+      <c r="BQ78" s="34"/>
+      <c r="BR78" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="BS78" s="22"/>
-      <c r="BT78" s="22"/>
-      <c r="BU78" s="22"/>
-      <c r="BV78" s="21" t="s">
+      <c r="BS78" s="34"/>
+      <c r="BT78" s="34"/>
+      <c r="BU78" s="34"/>
+      <c r="BV78" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="BW78" s="22"/>
-      <c r="BX78" s="22"/>
-      <c r="BY78" s="22"/>
-      <c r="BZ78" s="21" t="s">
+      <c r="BW78" s="34"/>
+      <c r="BX78" s="34"/>
+      <c r="BY78" s="34"/>
+      <c r="BZ78" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="CA78" s="22"/>
-      <c r="CB78" s="22"/>
-      <c r="CC78" s="22"/>
-      <c r="CD78" s="21" t="s">
+      <c r="CA78" s="34"/>
+      <c r="CB78" s="34"/>
+      <c r="CC78" s="34"/>
+      <c r="CD78" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="CE78" s="21"/>
-      <c r="CF78" s="21"/>
-      <c r="CG78" s="21"/>
-      <c r="CH78" s="21" t="s">
+      <c r="CE78" s="33"/>
+      <c r="CF78" s="33"/>
+      <c r="CG78" s="33"/>
+      <c r="CH78" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="CI78" s="21"/>
-      <c r="CJ78" s="21"/>
-      <c r="CK78" s="21"/>
-      <c r="CL78" s="21" t="s">
+      <c r="CI78" s="33"/>
+      <c r="CJ78" s="33"/>
+      <c r="CK78" s="33"/>
+      <c r="CL78" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="CM78" s="21"/>
-      <c r="CN78" s="21"/>
-      <c r="CO78" s="21"/>
+      <c r="CM78" s="34"/>
+      <c r="CN78" s="34"/>
+      <c r="CO78" s="28"/>
       <c r="CP78" s="21"/>
-      <c r="CQ78" s="22"/>
+      <c r="CQ78" s="21"/>
+      <c r="CR78" s="21"/>
     </row>
     <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
@@ -34293,19 +34645,29 @@
       <c r="CK79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL79" s="5" t="s">
+      <c r="CL79" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CM79" s="5" t="s">
+      <c r="CM79" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CN79" s="5"/>
-      <c r="CO79" s="5"/>
-      <c r="CP79" s="5"/>
-      <c r="CQ79" s="5"/>
+      <c r="CN79" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO79" s="29"/>
+      <c r="CP79" s="29"/>
+      <c r="CQ79" s="29"/>
+      <c r="CR79" s="29"/>
     </row>
     <row r="80" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
+      <c r="CL80" s="22"/>
+      <c r="CM80" s="22"/>
+      <c r="CN80" s="22"/>
+      <c r="CO80" s="22"/>
+      <c r="CP80" s="22"/>
+      <c r="CQ80" s="22"/>
+      <c r="CR80" s="22"/>
     </row>
     <row r="81" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -34575,17 +34937,19 @@
       <c r="CK81" s="15">
         <v>-31.669763791892748</v>
       </c>
-      <c r="CL81" s="15">
+      <c r="CL81" s="30">
         <v>-9.8357228140963713</v>
       </c>
-      <c r="CM81" s="15">
+      <c r="CM81" s="30">
         <v>-12.433855346726745</v>
       </c>
-      <c r="CN81" s="15"/>
-      <c r="CO81" s="15"/>
-      <c r="CP81" s="15"/>
-      <c r="CQ81" s="15"/>
-      <c r="CR81" s="9"/>
+      <c r="CN81" s="30">
+        <v>-17.669380604048584</v>
+      </c>
+      <c r="CO81" s="30"/>
+      <c r="CP81" s="30"/>
+      <c r="CQ81" s="30"/>
+      <c r="CR81" s="30"/>
       <c r="CS81" s="9"/>
       <c r="CT81" s="9"/>
       <c r="CU81" s="9"/>
@@ -34908,17 +35272,19 @@
       <c r="CK82" s="15">
         <v>-0.4444815095807968</v>
       </c>
-      <c r="CL82" s="15">
+      <c r="CL82" s="30">
         <v>-28.761308224664006</v>
       </c>
-      <c r="CM82" s="15">
+      <c r="CM82" s="30">
         <v>-25.207474679236583</v>
       </c>
-      <c r="CN82" s="15"/>
-      <c r="CO82" s="15"/>
-      <c r="CP82" s="15"/>
-      <c r="CQ82" s="15"/>
-      <c r="CR82" s="9"/>
+      <c r="CN82" s="30">
+        <v>-11.632949691707211</v>
+      </c>
+      <c r="CO82" s="30"/>
+      <c r="CP82" s="30"/>
+      <c r="CQ82" s="30"/>
+      <c r="CR82" s="30"/>
       <c r="CS82" s="9"/>
       <c r="CT82" s="9"/>
       <c r="CU82" s="9"/>
@@ -35241,17 +35607,19 @@
       <c r="CK83" s="15">
         <v>18.097007010717945</v>
       </c>
-      <c r="CL83" s="15">
+      <c r="CL83" s="30">
         <v>6.8071527856334342</v>
       </c>
-      <c r="CM83" s="15">
+      <c r="CM83" s="30">
         <v>4.3634766491565529</v>
       </c>
-      <c r="CN83" s="15"/>
-      <c r="CO83" s="15"/>
-      <c r="CP83" s="15"/>
-      <c r="CQ83" s="15"/>
-      <c r="CR83" s="9"/>
+      <c r="CN83" s="30">
+        <v>7.7314948713814999</v>
+      </c>
+      <c r="CO83" s="30"/>
+      <c r="CP83" s="30"/>
+      <c r="CQ83" s="30"/>
+      <c r="CR83" s="30"/>
       <c r="CS83" s="9"/>
       <c r="CT83" s="9"/>
       <c r="CU83" s="9"/>
@@ -35574,17 +35942,19 @@
       <c r="CK84" s="15">
         <v>9.508638499324789</v>
       </c>
-      <c r="CL84" s="15">
+      <c r="CL84" s="30">
         <v>13.637522880405967</v>
       </c>
-      <c r="CM84" s="15">
-        <v>24.089604992729988</v>
-      </c>
-      <c r="CN84" s="15"/>
-      <c r="CO84" s="15"/>
-      <c r="CP84" s="15"/>
-      <c r="CQ84" s="15"/>
-      <c r="CR84" s="9"/>
+      <c r="CM84" s="30">
+        <v>27.539732809363144</v>
+      </c>
+      <c r="CN84" s="30">
+        <v>11.802544362918212</v>
+      </c>
+      <c r="CO84" s="30"/>
+      <c r="CP84" s="30"/>
+      <c r="CQ84" s="30"/>
+      <c r="CR84" s="30"/>
       <c r="CS84" s="9"/>
       <c r="CT84" s="9"/>
       <c r="CU84" s="9"/>
@@ -35907,17 +36277,19 @@
       <c r="CK85" s="15">
         <v>31.40609690924515</v>
       </c>
-      <c r="CL85" s="15">
+      <c r="CL85" s="30">
         <v>-0.17101118775745761</v>
       </c>
-      <c r="CM85" s="15">
+      <c r="CM85" s="30">
         <v>10.678091226177088</v>
       </c>
-      <c r="CN85" s="15"/>
-      <c r="CO85" s="15"/>
-      <c r="CP85" s="15"/>
-      <c r="CQ85" s="15"/>
-      <c r="CR85" s="9"/>
+      <c r="CN85" s="30">
+        <v>-5.4631462522424528</v>
+      </c>
+      <c r="CO85" s="30"/>
+      <c r="CP85" s="30"/>
+      <c r="CQ85" s="30"/>
+      <c r="CR85" s="30"/>
       <c r="CS85" s="9"/>
       <c r="CT85" s="9"/>
       <c r="CU85" s="9"/>
@@ -36240,17 +36612,19 @@
       <c r="CK86" s="15">
         <v>2.8730183549624542</v>
       </c>
-      <c r="CL86" s="15">
+      <c r="CL86" s="30">
         <v>5.2102486405012201</v>
       </c>
-      <c r="CM86" s="15">
-        <v>3.5333396583312009</v>
-      </c>
-      <c r="CN86" s="15"/>
-      <c r="CO86" s="15"/>
-      <c r="CP86" s="15"/>
-      <c r="CQ86" s="15"/>
-      <c r="CR86" s="9"/>
+      <c r="CM86" s="30">
+        <v>3.7050849277978415</v>
+      </c>
+      <c r="CN86" s="30">
+        <v>14.278547090590024</v>
+      </c>
+      <c r="CO86" s="30"/>
+      <c r="CP86" s="30"/>
+      <c r="CQ86" s="30"/>
+      <c r="CR86" s="30"/>
       <c r="CS86" s="9"/>
       <c r="CT86" s="9"/>
       <c r="CU86" s="9"/>
@@ -36394,13 +36768,13 @@
       <c r="CI87" s="9"/>
       <c r="CJ87" s="9"/>
       <c r="CK87" s="9"/>
-      <c r="CL87" s="9"/>
-      <c r="CM87" s="9"/>
-      <c r="CN87" s="9"/>
-      <c r="CO87" s="9"/>
-      <c r="CP87" s="9"/>
-      <c r="CQ87" s="9"/>
-      <c r="CR87" s="9"/>
+      <c r="CL87" s="25"/>
+      <c r="CM87" s="25"/>
+      <c r="CN87" s="25"/>
+      <c r="CO87" s="25"/>
+      <c r="CP87" s="25"/>
+      <c r="CQ87" s="25"/>
+      <c r="CR87" s="25"/>
       <c r="CS87" s="9"/>
       <c r="CT87" s="9"/>
       <c r="CU87" s="9"/>
@@ -36723,17 +37097,19 @@
       <c r="CK88" s="15">
         <v>1.8039508039119312</v>
       </c>
-      <c r="CL88" s="15">
+      <c r="CL88" s="30">
         <v>-2.2178296900572434</v>
       </c>
-      <c r="CM88" s="15">
-        <v>-3.5253944049241284</v>
-      </c>
-      <c r="CN88" s="15"/>
-      <c r="CO88" s="15"/>
-      <c r="CP88" s="15"/>
-      <c r="CQ88" s="15"/>
-      <c r="CR88" s="9"/>
+      <c r="CM88" s="30">
+        <v>-2.9463027653971636</v>
+      </c>
+      <c r="CN88" s="30">
+        <v>4.4547269426211642</v>
+      </c>
+      <c r="CO88" s="30"/>
+      <c r="CP88" s="30"/>
+      <c r="CQ88" s="30"/>
+      <c r="CR88" s="30"/>
       <c r="CS88" s="9"/>
       <c r="CT88" s="9"/>
       <c r="CU88" s="9"/>
@@ -36878,17 +37254,25 @@
       <c r="CI89" s="13"/>
       <c r="CJ89" s="13"/>
       <c r="CK89" s="13"/>
-      <c r="CL89" s="13"/>
-      <c r="CM89" s="13"/>
-      <c r="CN89" s="13"/>
-      <c r="CO89" s="13"/>
-      <c r="CP89" s="13"/>
-      <c r="CQ89" s="13"/>
+      <c r="CL89" s="27"/>
+      <c r="CM89" s="27"/>
+      <c r="CN89" s="27"/>
+      <c r="CO89" s="27"/>
+      <c r="CP89" s="27"/>
+      <c r="CQ89" s="27"/>
+      <c r="CR89" s="27"/>
     </row>
     <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>51</v>
       </c>
+      <c r="CL90" s="22"/>
+      <c r="CM90" s="22"/>
+      <c r="CN90" s="22"/>
+      <c r="CO90" s="22"/>
+      <c r="CP90" s="22"/>
+      <c r="CQ90" s="22"/>
+      <c r="CR90" s="22"/>
     </row>
     <row r="91" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
@@ -36982,13 +37366,13 @@
       <c r="CI91" s="9"/>
       <c r="CJ91" s="9"/>
       <c r="CK91" s="9"/>
-      <c r="CL91" s="9"/>
-      <c r="CM91" s="9"/>
-      <c r="CN91" s="9"/>
-      <c r="CO91" s="9"/>
-      <c r="CP91" s="9"/>
-      <c r="CQ91" s="9"/>
-      <c r="CR91" s="9"/>
+      <c r="CL91" s="25"/>
+      <c r="CM91" s="25"/>
+      <c r="CN91" s="25"/>
+      <c r="CO91" s="25"/>
+      <c r="CP91" s="25"/>
+      <c r="CQ91" s="25"/>
+      <c r="CR91" s="25"/>
       <c r="CS91" s="9"/>
       <c r="CT91" s="9"/>
       <c r="CU91" s="9"/>
@@ -37132,13 +37516,13 @@
       <c r="CI92" s="9"/>
       <c r="CJ92" s="9"/>
       <c r="CK92" s="9"/>
-      <c r="CL92" s="9"/>
-      <c r="CM92" s="9"/>
-      <c r="CN92" s="9"/>
-      <c r="CO92" s="9"/>
-      <c r="CP92" s="9"/>
-      <c r="CQ92" s="9"/>
-      <c r="CR92" s="9"/>
+      <c r="CL92" s="25"/>
+      <c r="CM92" s="25"/>
+      <c r="CN92" s="25"/>
+      <c r="CO92" s="25"/>
+      <c r="CP92" s="25"/>
+      <c r="CQ92" s="25"/>
+      <c r="CR92" s="25"/>
       <c r="CS92" s="9"/>
       <c r="CT92" s="9"/>
       <c r="CU92" s="9"/>
@@ -37202,173 +37586,225 @@
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL93" s="22"/>
+      <c r="CM93" s="22"/>
+      <c r="CN93" s="22"/>
+      <c r="CO93" s="22"/>
+      <c r="CP93" s="22"/>
+      <c r="CQ93" s="22"/>
+      <c r="CR93" s="22"/>
     </row>
     <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="CL94" s="22"/>
+      <c r="CM94" s="22"/>
+      <c r="CN94" s="22"/>
+      <c r="CO94" s="22"/>
+      <c r="CP94" s="22"/>
+      <c r="CQ94" s="22"/>
+      <c r="CR94" s="22"/>
     </row>
-    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL95" s="22"/>
+      <c r="CM95" s="22"/>
+      <c r="CN95" s="22"/>
+      <c r="CO95" s="22"/>
+      <c r="CP95" s="22"/>
+      <c r="CQ95" s="22"/>
+      <c r="CR95" s="22"/>
+    </row>
     <row r="96" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="CL96" s="22"/>
+      <c r="CM96" s="22"/>
+      <c r="CN96" s="22"/>
+      <c r="CO96" s="22"/>
+      <c r="CP96" s="22"/>
+      <c r="CQ96" s="22"/>
+      <c r="CR96" s="22"/>
     </row>
     <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="CL97" s="22"/>
+      <c r="CM97" s="22"/>
+      <c r="CN97" s="22"/>
+      <c r="CO97" s="22"/>
+      <c r="CP97" s="22"/>
+      <c r="CQ97" s="22"/>
+      <c r="CR97" s="22"/>
     </row>
     <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CL98" s="22"/>
+      <c r="CM98" s="22"/>
+      <c r="CN98" s="22"/>
+      <c r="CO98" s="22"/>
+      <c r="CP98" s="22"/>
+      <c r="CQ98" s="22"/>
+      <c r="CR98" s="22"/>
     </row>
-    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL99" s="22"/>
+      <c r="CM99" s="22"/>
+      <c r="CN99" s="22"/>
+      <c r="CO99" s="22"/>
+      <c r="CP99" s="22"/>
+      <c r="CQ99" s="22"/>
+      <c r="CR99" s="22"/>
+    </row>
     <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
-      <c r="B100" s="21">
+      <c r="B100" s="33">
         <v>2000</v>
       </c>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21">
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33">
         <v>2001</v>
       </c>
-      <c r="G100" s="21"/>
-      <c r="H100" s="21"/>
-      <c r="I100" s="21"/>
-      <c r="J100" s="21">
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33">
         <v>2002</v>
       </c>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21">
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="33">
         <v>2003</v>
       </c>
-      <c r="O100" s="21"/>
-      <c r="P100" s="21"/>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="21">
+      <c r="O100" s="33"/>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="33">
         <v>2004</v>
       </c>
-      <c r="S100" s="21"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="21"/>
-      <c r="V100" s="21">
+      <c r="S100" s="33"/>
+      <c r="T100" s="33"/>
+      <c r="U100" s="33"/>
+      <c r="V100" s="33">
         <v>2005</v>
       </c>
-      <c r="W100" s="21"/>
-      <c r="X100" s="21"/>
-      <c r="Y100" s="21"/>
-      <c r="Z100" s="21">
+      <c r="W100" s="33"/>
+      <c r="X100" s="33"/>
+      <c r="Y100" s="33"/>
+      <c r="Z100" s="33">
         <v>2006</v>
       </c>
-      <c r="AA100" s="21"/>
-      <c r="AB100" s="21"/>
-      <c r="AC100" s="21"/>
-      <c r="AD100" s="21">
+      <c r="AA100" s="33"/>
+      <c r="AB100" s="33"/>
+      <c r="AC100" s="33"/>
+      <c r="AD100" s="33">
         <v>2007</v>
       </c>
-      <c r="AE100" s="21"/>
-      <c r="AF100" s="21"/>
-      <c r="AG100" s="21"/>
-      <c r="AH100" s="21">
+      <c r="AE100" s="33"/>
+      <c r="AF100" s="33"/>
+      <c r="AG100" s="33"/>
+      <c r="AH100" s="33">
         <v>2008</v>
       </c>
-      <c r="AI100" s="21"/>
-      <c r="AJ100" s="21"/>
-      <c r="AK100" s="21"/>
-      <c r="AL100" s="21">
+      <c r="AI100" s="33"/>
+      <c r="AJ100" s="33"/>
+      <c r="AK100" s="33"/>
+      <c r="AL100" s="33">
         <v>2009</v>
       </c>
-      <c r="AM100" s="21"/>
-      <c r="AN100" s="21"/>
-      <c r="AO100" s="21"/>
-      <c r="AP100" s="21">
+      <c r="AM100" s="33"/>
+      <c r="AN100" s="33"/>
+      <c r="AO100" s="33"/>
+      <c r="AP100" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ100" s="21"/>
-      <c r="AR100" s="21"/>
-      <c r="AS100" s="21"/>
-      <c r="AT100" s="21">
+      <c r="AQ100" s="33"/>
+      <c r="AR100" s="33"/>
+      <c r="AS100" s="33"/>
+      <c r="AT100" s="33">
         <v>2011</v>
       </c>
-      <c r="AU100" s="21"/>
-      <c r="AV100" s="21"/>
-      <c r="AW100" s="21"/>
-      <c r="AX100" s="21">
+      <c r="AU100" s="33"/>
+      <c r="AV100" s="33"/>
+      <c r="AW100" s="33"/>
+      <c r="AX100" s="33">
         <v>2012</v>
       </c>
-      <c r="AY100" s="21"/>
-      <c r="AZ100" s="21"/>
-      <c r="BA100" s="21"/>
-      <c r="BB100" s="21">
+      <c r="AY100" s="33"/>
+      <c r="AZ100" s="33"/>
+      <c r="BA100" s="33"/>
+      <c r="BB100" s="33">
         <v>2013</v>
       </c>
-      <c r="BC100" s="21"/>
-      <c r="BD100" s="21"/>
-      <c r="BE100" s="21"/>
-      <c r="BF100" s="21">
+      <c r="BC100" s="33"/>
+      <c r="BD100" s="33"/>
+      <c r="BE100" s="33"/>
+      <c r="BF100" s="33">
         <v>2014</v>
       </c>
-      <c r="BG100" s="21"/>
-      <c r="BH100" s="21"/>
-      <c r="BI100" s="21"/>
-      <c r="BJ100" s="21">
+      <c r="BG100" s="33"/>
+      <c r="BH100" s="33"/>
+      <c r="BI100" s="33"/>
+      <c r="BJ100" s="33">
         <v>2015</v>
       </c>
-      <c r="BK100" s="21"/>
-      <c r="BL100" s="21"/>
-      <c r="BM100" s="21"/>
-      <c r="BN100" s="21">
+      <c r="BK100" s="33"/>
+      <c r="BL100" s="33"/>
+      <c r="BM100" s="33"/>
+      <c r="BN100" s="33">
         <v>2016</v>
       </c>
-      <c r="BO100" s="21"/>
-      <c r="BP100" s="21"/>
-      <c r="BQ100" s="21"/>
-      <c r="BR100" s="21">
+      <c r="BO100" s="33"/>
+      <c r="BP100" s="33"/>
+      <c r="BQ100" s="33"/>
+      <c r="BR100" s="33">
         <v>2017</v>
       </c>
-      <c r="BS100" s="21"/>
-      <c r="BT100" s="21"/>
-      <c r="BU100" s="21"/>
-      <c r="BV100" s="21">
+      <c r="BS100" s="33"/>
+      <c r="BT100" s="33"/>
+      <c r="BU100" s="33"/>
+      <c r="BV100" s="33">
         <v>2018</v>
       </c>
-      <c r="BW100" s="21"/>
-      <c r="BX100" s="21"/>
-      <c r="BY100" s="21"/>
-      <c r="BZ100" s="21">
+      <c r="BW100" s="33"/>
+      <c r="BX100" s="33"/>
+      <c r="BY100" s="33"/>
+      <c r="BZ100" s="33">
         <v>2019</v>
       </c>
-      <c r="CA100" s="21"/>
-      <c r="CB100" s="21"/>
-      <c r="CC100" s="21"/>
-      <c r="CD100" s="21">
+      <c r="CA100" s="33"/>
+      <c r="CB100" s="33"/>
+      <c r="CC100" s="33"/>
+      <c r="CD100" s="33">
         <v>2020</v>
       </c>
-      <c r="CE100" s="21"/>
-      <c r="CF100" s="21"/>
-      <c r="CG100" s="21"/>
-      <c r="CH100" s="21">
+      <c r="CE100" s="33"/>
+      <c r="CF100" s="33"/>
+      <c r="CG100" s="33"/>
+      <c r="CH100" s="33">
         <v>2021</v>
       </c>
-      <c r="CI100" s="21"/>
-      <c r="CJ100" s="21"/>
-      <c r="CK100" s="21"/>
-      <c r="CL100" s="21">
+      <c r="CI100" s="33"/>
+      <c r="CJ100" s="33"/>
+      <c r="CK100" s="33"/>
+      <c r="CL100" s="34">
         <v>2022</v>
       </c>
-      <c r="CM100" s="21"/>
-      <c r="CN100" s="21"/>
-      <c r="CO100" s="21"/>
-      <c r="CP100" s="21">
+      <c r="CM100" s="34"/>
+      <c r="CN100" s="34"/>
+      <c r="CO100" s="34"/>
+      <c r="CP100" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ100" s="22"/>
+      <c r="CQ100" s="34"/>
+      <c r="CR100" s="34"/>
     </row>
     <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
@@ -37638,27 +38074,37 @@
       <c r="CK101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL101" s="6" t="s">
+      <c r="CL101" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM101" s="6" t="s">
+      <c r="CM101" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN101" s="6" t="s">
+      <c r="CN101" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO101" s="6" t="s">
+      <c r="CO101" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CP101" s="6" t="s">
+      <c r="CP101" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ101" s="6" t="s">
+      <c r="CQ101" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CR101" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
+      <c r="CL102" s="22"/>
+      <c r="CM102" s="22"/>
+      <c r="CN102" s="22"/>
+      <c r="CO102" s="22"/>
+      <c r="CP102" s="22"/>
+      <c r="CQ102" s="22"/>
+      <c r="CR102" s="22"/>
     </row>
     <row r="103" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -37928,25 +38374,27 @@
       <c r="CK103" s="15">
         <v>123.00525877779687</v>
       </c>
-      <c r="CL103" s="15">
+      <c r="CL103" s="30">
         <v>178.7551627404136</v>
       </c>
-      <c r="CM103" s="15">
+      <c r="CM103" s="30">
         <v>266.82763271392389</v>
       </c>
-      <c r="CN103" s="15">
+      <c r="CN103" s="30">
         <v>805.67826580066469</v>
       </c>
-      <c r="CO103" s="15">
+      <c r="CO103" s="30">
         <v>247.1704890403808</v>
       </c>
-      <c r="CP103" s="15">
+      <c r="CP103" s="30">
         <v>159.64734819240488</v>
       </c>
-      <c r="CQ103" s="15">
+      <c r="CQ103" s="30">
         <v>121.19514041033845</v>
       </c>
-      <c r="CR103" s="9"/>
+      <c r="CR103" s="30">
+        <v>297.23105309337666</v>
+      </c>
       <c r="CS103" s="9"/>
       <c r="CT103" s="9"/>
       <c r="CU103" s="9"/>
@@ -38274,25 +38722,27 @@
       <c r="CK104" s="15">
         <v>221.33742640289591</v>
       </c>
-      <c r="CL104" s="15">
+      <c r="CL104" s="30">
         <v>209.17690307926432</v>
       </c>
-      <c r="CM104" s="15">
+      <c r="CM104" s="30">
         <v>126.29415824369741</v>
       </c>
-      <c r="CN104" s="15">
+      <c r="CN104" s="30">
         <v>392.84329214173226</v>
       </c>
-      <c r="CO104" s="15">
+      <c r="CO104" s="30">
         <v>285.6187188187817</v>
       </c>
-      <c r="CP104" s="15">
+      <c r="CP104" s="30">
         <v>154.32125894314882</v>
       </c>
-      <c r="CQ104" s="15">
+      <c r="CQ104" s="30">
         <v>55.583712237511342</v>
       </c>
-      <c r="CR104" s="9"/>
+      <c r="CR104" s="30">
+        <v>185.2692550108049</v>
+      </c>
       <c r="CS104" s="9"/>
       <c r="CT104" s="9"/>
       <c r="CU104" s="9"/>
@@ -38620,25 +39070,27 @@
       <c r="CK105" s="15">
         <v>152.1688293420205</v>
       </c>
-      <c r="CL105" s="15">
+      <c r="CL105" s="30">
         <v>170.31457071287488</v>
       </c>
-      <c r="CM105" s="15">
+      <c r="CM105" s="30">
         <v>172.30197337640016</v>
       </c>
-      <c r="CN105" s="15">
+      <c r="CN105" s="30">
         <v>171.7487919966259</v>
       </c>
-      <c r="CO105" s="15">
+      <c r="CO105" s="30">
         <v>153.05783845230368</v>
       </c>
-      <c r="CP105" s="15">
+      <c r="CP105" s="30">
         <v>182.53272867127643</v>
       </c>
-      <c r="CQ105" s="15">
+      <c r="CQ105" s="30">
         <v>181.94480069660065</v>
       </c>
-      <c r="CR105" s="9"/>
+      <c r="CR105" s="30">
+        <v>190.8946984230239</v>
+      </c>
       <c r="CS105" s="9"/>
       <c r="CT105" s="9"/>
       <c r="CU105" s="9"/>
@@ -38966,25 +39418,27 @@
       <c r="CK106" s="15">
         <v>194.70763443677666</v>
       </c>
-      <c r="CL106" s="15">
+      <c r="CL106" s="30">
         <v>292.05471367558511</v>
       </c>
-      <c r="CM106" s="15">
+      <c r="CM106" s="30">
         <v>210.25118443200734</v>
       </c>
-      <c r="CN106" s="15">
+      <c r="CN106" s="30">
         <v>160.20154212064719</v>
       </c>
-      <c r="CO106" s="15">
+      <c r="CO106" s="30">
         <v>250.15434461000839</v>
       </c>
-      <c r="CP106" s="15">
+      <c r="CP106" s="30">
         <v>299.56913015963897</v>
       </c>
-      <c r="CQ106" s="15">
-        <v>171.66658758744103</v>
-      </c>
-      <c r="CR106" s="9"/>
+      <c r="CQ106" s="30">
+        <v>171.66658758744097</v>
+      </c>
+      <c r="CR106" s="30">
+        <v>146.76527638755772</v>
+      </c>
       <c r="CS106" s="9"/>
       <c r="CT106" s="9"/>
       <c r="CU106" s="9"/>
@@ -39312,25 +39766,27 @@
       <c r="CK107" s="15">
         <v>405.42110531462663</v>
       </c>
-      <c r="CL107" s="15">
+      <c r="CL107" s="30">
         <v>55.858418008328833</v>
       </c>
-      <c r="CM107" s="15">
+      <c r="CM107" s="30">
         <v>273.11858721955036</v>
       </c>
-      <c r="CN107" s="15">
+      <c r="CN107" s="30">
         <v>196.87648742928928</v>
       </c>
-      <c r="CO107" s="15">
+      <c r="CO107" s="30">
         <v>338.46074848278317</v>
       </c>
-      <c r="CP107" s="15">
+      <c r="CP107" s="30">
         <v>54.095101589027827</v>
       </c>
-      <c r="CQ107" s="15">
+      <c r="CQ107" s="30">
         <v>256.92541954314146</v>
       </c>
-      <c r="CR107" s="9"/>
+      <c r="CR107" s="30">
+        <v>210.88772582479916</v>
+      </c>
       <c r="CS107" s="9"/>
       <c r="CT107" s="9"/>
       <c r="CU107" s="9"/>
@@ -39658,25 +40114,27 @@
       <c r="CK108" s="15">
         <v>85.00705212959609</v>
       </c>
-      <c r="CL108" s="15">
+      <c r="CL108" s="30">
         <v>114.83826192642988</v>
       </c>
-      <c r="CM108" s="15">
+      <c r="CM108" s="30">
         <v>117.80770760731136</v>
       </c>
-      <c r="CN108" s="15">
+      <c r="CN108" s="30">
         <v>140.26402218273677</v>
       </c>
-      <c r="CO108" s="15">
+      <c r="CO108" s="30">
         <v>91.617520697276063</v>
       </c>
-      <c r="CP108" s="15">
+      <c r="CP108" s="30">
         <v>121.06769594602397</v>
       </c>
-      <c r="CQ108" s="15">
-        <v>123.0867620693989</v>
-      </c>
-      <c r="CR108" s="9"/>
+      <c r="CQ108" s="30">
+        <v>123.08675868319827</v>
+      </c>
+      <c r="CR108" s="30">
+        <v>149.84053321324308</v>
+      </c>
       <c r="CS108" s="9"/>
       <c r="CT108" s="9"/>
       <c r="CU108" s="9"/>
@@ -39825,13 +40283,13 @@
       <c r="CI109" s="9"/>
       <c r="CJ109" s="9"/>
       <c r="CK109" s="9"/>
-      <c r="CL109" s="9"/>
-      <c r="CM109" s="9"/>
-      <c r="CN109" s="9"/>
-      <c r="CO109" s="9"/>
-      <c r="CP109" s="9"/>
-      <c r="CQ109" s="9"/>
-      <c r="CR109" s="9"/>
+      <c r="CL109" s="25"/>
+      <c r="CM109" s="25"/>
+      <c r="CN109" s="25"/>
+      <c r="CO109" s="25"/>
+      <c r="CP109" s="25"/>
+      <c r="CQ109" s="25"/>
+      <c r="CR109" s="25"/>
       <c r="CS109" s="9"/>
       <c r="CT109" s="9"/>
       <c r="CU109" s="9"/>
@@ -40159,25 +40617,27 @@
       <c r="CK110" s="15">
         <v>135.86637482018693</v>
       </c>
-      <c r="CL110" s="15">
+      <c r="CL110" s="30">
         <v>162.12973974045764</v>
       </c>
-      <c r="CM110" s="15">
+      <c r="CM110" s="30">
         <v>171.29560947102902</v>
       </c>
-      <c r="CN110" s="15">
+      <c r="CN110" s="30">
         <v>262.18465334593634</v>
       </c>
-      <c r="CO110" s="15">
+      <c r="CO110" s="30">
         <v>161.80141718609161</v>
       </c>
-      <c r="CP110" s="15">
+      <c r="CP110" s="30">
         <v>156.30670056440502</v>
       </c>
-      <c r="CQ110" s="15">
-        <v>133.78362091460528</v>
-      </c>
-      <c r="CR110" s="9"/>
+      <c r="CQ110" s="30">
+        <v>133.99327861789692</v>
+      </c>
+      <c r="CR110" s="30">
+        <v>178.7547682329714</v>
+      </c>
       <c r="CS110" s="9"/>
       <c r="CT110" s="9"/>
       <c r="CU110" s="9"/>
@@ -40327,194 +40787,261 @@
       <c r="CI111" s="13"/>
       <c r="CJ111" s="13"/>
       <c r="CK111" s="13"/>
-      <c r="CL111" s="13"/>
-      <c r="CM111" s="13"/>
-      <c r="CN111" s="13"/>
-      <c r="CO111" s="13"/>
-      <c r="CP111" s="13"/>
-      <c r="CQ111" s="13"/>
+      <c r="CL111" s="27"/>
+      <c r="CM111" s="27"/>
+      <c r="CN111" s="27"/>
+      <c r="CO111" s="27"/>
+      <c r="CP111" s="27"/>
+      <c r="CQ111" s="27"/>
+      <c r="CR111" s="27"/>
     </row>
     <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CL112" s="22"/>
+      <c r="CM112" s="22"/>
+      <c r="CN112" s="22"/>
+      <c r="CO112" s="22"/>
+      <c r="CP112" s="22"/>
+      <c r="CQ112" s="22"/>
+      <c r="CR112" s="22"/>
     </row>
     <row r="115" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL115" s="22"/>
+      <c r="CM115" s="22"/>
+      <c r="CN115" s="22"/>
+      <c r="CO115" s="22"/>
+      <c r="CP115" s="22"/>
+      <c r="CQ115" s="22"/>
+      <c r="CR115" s="22"/>
     </row>
     <row r="116" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CL116" s="22"/>
+      <c r="CM116" s="22"/>
+      <c r="CN116" s="22"/>
+      <c r="CO116" s="22"/>
+      <c r="CP116" s="22"/>
+      <c r="CQ116" s="22"/>
+      <c r="CR116" s="22"/>
     </row>
     <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="CL117" s="22"/>
+      <c r="CM117" s="22"/>
+      <c r="CN117" s="22"/>
+      <c r="CO117" s="22"/>
+      <c r="CP117" s="22"/>
+      <c r="CQ117" s="22"/>
+      <c r="CR117" s="22"/>
     </row>
-    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL118" s="22"/>
+      <c r="CM118" s="22"/>
+      <c r="CN118" s="22"/>
+      <c r="CO118" s="22"/>
+      <c r="CP118" s="22"/>
+      <c r="CQ118" s="22"/>
+      <c r="CR118" s="22"/>
+    </row>
     <row r="119" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="CL119" s="22"/>
+      <c r="CM119" s="22"/>
+      <c r="CN119" s="22"/>
+      <c r="CO119" s="22"/>
+      <c r="CP119" s="22"/>
+      <c r="CQ119" s="22"/>
+      <c r="CR119" s="22"/>
     </row>
     <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="CL120" s="22"/>
+      <c r="CM120" s="22"/>
+      <c r="CN120" s="22"/>
+      <c r="CO120" s="22"/>
+      <c r="CP120" s="22"/>
+      <c r="CQ120" s="22"/>
+      <c r="CR120" s="22"/>
     </row>
     <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="CL121" s="22"/>
+      <c r="CM121" s="22"/>
+      <c r="CN121" s="22"/>
+      <c r="CO121" s="22"/>
+      <c r="CP121" s="22"/>
+      <c r="CQ121" s="22"/>
+      <c r="CR121" s="22"/>
     </row>
-    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL122" s="22"/>
+      <c r="CM122" s="22"/>
+      <c r="CN122" s="22"/>
+      <c r="CO122" s="22"/>
+      <c r="CP122" s="22"/>
+      <c r="CQ122" s="22"/>
+      <c r="CR122" s="22"/>
+    </row>
     <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
-      <c r="B123" s="21">
+      <c r="B123" s="33">
         <v>2000</v>
       </c>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21">
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33">
         <v>2001</v>
       </c>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21">
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="33">
         <v>2002</v>
       </c>
-      <c r="K123" s="21"/>
-      <c r="L123" s="21"/>
-      <c r="M123" s="21"/>
-      <c r="N123" s="21">
+      <c r="K123" s="33"/>
+      <c r="L123" s="33"/>
+      <c r="M123" s="33"/>
+      <c r="N123" s="33">
         <v>2003</v>
       </c>
-      <c r="O123" s="21"/>
-      <c r="P123" s="21"/>
-      <c r="Q123" s="21"/>
-      <c r="R123" s="21">
+      <c r="O123" s="33"/>
+      <c r="P123" s="33"/>
+      <c r="Q123" s="33"/>
+      <c r="R123" s="33">
         <v>2004</v>
       </c>
-      <c r="S123" s="21"/>
-      <c r="T123" s="21"/>
-      <c r="U123" s="21"/>
-      <c r="V123" s="21">
+      <c r="S123" s="33"/>
+      <c r="T123" s="33"/>
+      <c r="U123" s="33"/>
+      <c r="V123" s="33">
         <v>2005</v>
       </c>
-      <c r="W123" s="21"/>
-      <c r="X123" s="21"/>
-      <c r="Y123" s="21"/>
-      <c r="Z123" s="21">
+      <c r="W123" s="33"/>
+      <c r="X123" s="33"/>
+      <c r="Y123" s="33"/>
+      <c r="Z123" s="33">
         <v>2006</v>
       </c>
-      <c r="AA123" s="21"/>
-      <c r="AB123" s="21"/>
-      <c r="AC123" s="21"/>
-      <c r="AD123" s="21">
+      <c r="AA123" s="33"/>
+      <c r="AB123" s="33"/>
+      <c r="AC123" s="33"/>
+      <c r="AD123" s="33">
         <v>2007</v>
       </c>
-      <c r="AE123" s="21"/>
-      <c r="AF123" s="21"/>
-      <c r="AG123" s="21"/>
-      <c r="AH123" s="21">
+      <c r="AE123" s="33"/>
+      <c r="AF123" s="33"/>
+      <c r="AG123" s="33"/>
+      <c r="AH123" s="33">
         <v>2008</v>
       </c>
-      <c r="AI123" s="21"/>
-      <c r="AJ123" s="21"/>
-      <c r="AK123" s="21"/>
-      <c r="AL123" s="21">
+      <c r="AI123" s="33"/>
+      <c r="AJ123" s="33"/>
+      <c r="AK123" s="33"/>
+      <c r="AL123" s="33">
         <v>2009</v>
       </c>
-      <c r="AM123" s="21"/>
-      <c r="AN123" s="21"/>
-      <c r="AO123" s="21"/>
-      <c r="AP123" s="21">
+      <c r="AM123" s="33"/>
+      <c r="AN123" s="33"/>
+      <c r="AO123" s="33"/>
+      <c r="AP123" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ123" s="21"/>
-      <c r="AR123" s="21"/>
-      <c r="AS123" s="21"/>
-      <c r="AT123" s="21">
+      <c r="AQ123" s="33"/>
+      <c r="AR123" s="33"/>
+      <c r="AS123" s="33"/>
+      <c r="AT123" s="33">
         <v>2011</v>
       </c>
-      <c r="AU123" s="21"/>
-      <c r="AV123" s="21"/>
-      <c r="AW123" s="21"/>
-      <c r="AX123" s="21">
+      <c r="AU123" s="33"/>
+      <c r="AV123" s="33"/>
+      <c r="AW123" s="33"/>
+      <c r="AX123" s="33">
         <v>2012</v>
       </c>
-      <c r="AY123" s="21"/>
-      <c r="AZ123" s="21"/>
-      <c r="BA123" s="21"/>
-      <c r="BB123" s="21">
+      <c r="AY123" s="33"/>
+      <c r="AZ123" s="33"/>
+      <c r="BA123" s="33"/>
+      <c r="BB123" s="33">
         <v>2013</v>
       </c>
-      <c r="BC123" s="21"/>
-      <c r="BD123" s="21"/>
-      <c r="BE123" s="21"/>
-      <c r="BF123" s="21">
+      <c r="BC123" s="33"/>
+      <c r="BD123" s="33"/>
+      <c r="BE123" s="33"/>
+      <c r="BF123" s="33">
         <v>2014</v>
       </c>
-      <c r="BG123" s="21"/>
-      <c r="BH123" s="21"/>
-      <c r="BI123" s="21"/>
-      <c r="BJ123" s="21">
+      <c r="BG123" s="33"/>
+      <c r="BH123" s="33"/>
+      <c r="BI123" s="33"/>
+      <c r="BJ123" s="33">
         <v>2015</v>
       </c>
-      <c r="BK123" s="21"/>
-      <c r="BL123" s="21"/>
-      <c r="BM123" s="21"/>
-      <c r="BN123" s="21">
+      <c r="BK123" s="33"/>
+      <c r="BL123" s="33"/>
+      <c r="BM123" s="33"/>
+      <c r="BN123" s="33">
         <v>2016</v>
       </c>
-      <c r="BO123" s="21"/>
-      <c r="BP123" s="21"/>
-      <c r="BQ123" s="21"/>
-      <c r="BR123" s="21">
+      <c r="BO123" s="33"/>
+      <c r="BP123" s="33"/>
+      <c r="BQ123" s="33"/>
+      <c r="BR123" s="33">
         <v>2017</v>
       </c>
-      <c r="BS123" s="21"/>
-      <c r="BT123" s="21"/>
-      <c r="BU123" s="21"/>
-      <c r="BV123" s="21">
+      <c r="BS123" s="33"/>
+      <c r="BT123" s="33"/>
+      <c r="BU123" s="33"/>
+      <c r="BV123" s="33">
         <v>2018</v>
       </c>
-      <c r="BW123" s="21"/>
-      <c r="BX123" s="21"/>
-      <c r="BY123" s="21"/>
-      <c r="BZ123" s="21">
+      <c r="BW123" s="33"/>
+      <c r="BX123" s="33"/>
+      <c r="BY123" s="33"/>
+      <c r="BZ123" s="33">
         <v>2019</v>
       </c>
-      <c r="CA123" s="21"/>
-      <c r="CB123" s="21"/>
-      <c r="CC123" s="21"/>
-      <c r="CD123" s="21">
+      <c r="CA123" s="33"/>
+      <c r="CB123" s="33"/>
+      <c r="CC123" s="33"/>
+      <c r="CD123" s="33">
         <v>2020</v>
       </c>
-      <c r="CE123" s="21"/>
-      <c r="CF123" s="21"/>
-      <c r="CG123" s="21"/>
-      <c r="CH123" s="21">
+      <c r="CE123" s="33"/>
+      <c r="CF123" s="33"/>
+      <c r="CG123" s="33"/>
+      <c r="CH123" s="33">
         <v>2021</v>
       </c>
-      <c r="CI123" s="21"/>
-      <c r="CJ123" s="21"/>
-      <c r="CK123" s="21"/>
-      <c r="CL123" s="21">
+      <c r="CI123" s="33"/>
+      <c r="CJ123" s="33"/>
+      <c r="CK123" s="33"/>
+      <c r="CL123" s="34">
         <v>2022</v>
       </c>
-      <c r="CM123" s="21"/>
-      <c r="CN123" s="21"/>
-      <c r="CO123" s="21"/>
-      <c r="CP123" s="21">
+      <c r="CM123" s="34"/>
+      <c r="CN123" s="34"/>
+      <c r="CO123" s="34"/>
+      <c r="CP123" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ123" s="22"/>
+      <c r="CQ123" s="34"/>
+      <c r="CR123" s="34"/>
     </row>
     <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
@@ -40784,27 +41311,37 @@
       <c r="CK124" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL124" s="6" t="s">
+      <c r="CL124" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM124" s="6" t="s">
+      <c r="CM124" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN124" s="6" t="s">
+      <c r="CN124" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO124" s="6" t="s">
+      <c r="CO124" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CP124" s="6" t="s">
+      <c r="CP124" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ124" s="6" t="s">
+      <c r="CQ124" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CR124" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
+      <c r="CL125" s="22"/>
+      <c r="CM125" s="22"/>
+      <c r="CN125" s="22"/>
+      <c r="CO125" s="22"/>
+      <c r="CP125" s="22"/>
+      <c r="CQ125" s="22"/>
+      <c r="CR125" s="22"/>
     </row>
     <row r="126" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -41074,25 +41611,27 @@
       <c r="CK126" s="18">
         <v>11.631648488088169</v>
       </c>
-      <c r="CL126" s="18">
+      <c r="CL126" s="32">
         <v>27.405984844154315</v>
       </c>
-      <c r="CM126" s="18">
+      <c r="CM126" s="32">
         <v>22.807248774045114</v>
       </c>
-      <c r="CN126" s="18">
+      <c r="CN126" s="32">
         <v>35.808835058759236</v>
       </c>
-      <c r="CO126" s="18">
+      <c r="CO126" s="32">
         <v>13.17322662379199</v>
       </c>
-      <c r="CP126" s="18">
+      <c r="CP126" s="32">
         <v>23.410379361889877</v>
       </c>
-      <c r="CQ126" s="18">
-        <v>12.039094001740146</v>
-      </c>
-      <c r="CR126" s="9"/>
+      <c r="CQ126" s="32">
+        <v>11.948535141913007</v>
+      </c>
+      <c r="CR126" s="32">
+        <v>15.272342014547343</v>
+      </c>
       <c r="CS126" s="9"/>
       <c r="CT126" s="9"/>
       <c r="CU126" s="9"/>
@@ -41420,25 +41959,27 @@
       <c r="CK127" s="18">
         <v>23.07643681778659</v>
       </c>
-      <c r="CL127" s="18">
+      <c r="CL127" s="32">
         <v>16.057575758750307</v>
       </c>
-      <c r="CM127" s="18">
+      <c r="CM127" s="32">
         <v>21.379355278258387</v>
       </c>
-      <c r="CN127" s="18">
+      <c r="CN127" s="32">
         <v>18.136692891822157</v>
       </c>
-      <c r="CO127" s="18">
+      <c r="CO127" s="32">
         <v>24.452931693640853</v>
       </c>
-      <c r="CP127" s="18">
+      <c r="CP127" s="32">
         <v>8.9522739021005027</v>
       </c>
-      <c r="CQ127" s="18">
-        <v>9.3400104229584588</v>
-      </c>
-      <c r="CR127" s="9"/>
+      <c r="CQ127" s="32">
+        <v>9.2697542479876134</v>
+      </c>
+      <c r="CR127" s="32">
+        <v>10.613387106178182</v>
+      </c>
       <c r="CS127" s="9"/>
       <c r="CT127" s="9"/>
       <c r="CU127" s="9"/>
@@ -41766,25 +42307,27 @@
       <c r="CK128" s="18">
         <v>19.351281976988812</v>
       </c>
-      <c r="CL128" s="18">
+      <c r="CL128" s="32">
         <v>14.307790448799576</v>
       </c>
-      <c r="CM128" s="18">
+      <c r="CM128" s="32">
         <v>18.738212178254766</v>
       </c>
-      <c r="CN128" s="18">
+      <c r="CN128" s="32">
         <v>14.73002073947584</v>
       </c>
-      <c r="CO128" s="18">
+      <c r="CO128" s="32">
         <v>18.9602274480823</v>
       </c>
-      <c r="CP128" s="18">
+      <c r="CP128" s="32">
         <v>17.373497982616744</v>
       </c>
-      <c r="CQ128" s="18">
-        <v>27.406675792423858</v>
-      </c>
-      <c r="CR128" s="9"/>
+      <c r="CQ128" s="32">
+        <v>27.200520967895102</v>
+      </c>
+      <c r="CR128" s="32">
+        <v>24.766677803616851</v>
+      </c>
       <c r="CS128" s="9"/>
       <c r="CT128" s="9"/>
       <c r="CU128" s="9"/>
@@ -42112,25 +42655,27 @@
       <c r="CK129" s="18">
         <v>6.0734282824196821</v>
       </c>
-      <c r="CL129" s="18">
+      <c r="CL129" s="32">
         <v>18.19725966312183</v>
       </c>
-      <c r="CM129" s="18">
+      <c r="CM129" s="32">
         <v>19.437673350618347</v>
       </c>
-      <c r="CN129" s="18">
+      <c r="CN129" s="32">
         <v>11.650504470949855</v>
       </c>
-      <c r="CO129" s="18">
+      <c r="CO129" s="32">
         <v>7.048105410566202</v>
       </c>
-      <c r="CP129" s="18">
+      <c r="CP129" s="32">
         <v>22.500180713769353</v>
       </c>
-      <c r="CQ129" s="18">
-        <v>26.137092720809086</v>
-      </c>
-      <c r="CR129" s="9"/>
+      <c r="CQ129" s="32">
+        <v>26.661724655373014</v>
+      </c>
+      <c r="CR129" s="32">
+        <v>16.756162994239752</v>
+      </c>
       <c r="CS129" s="9"/>
       <c r="CT129" s="9"/>
       <c r="CU129" s="9"/>
@@ -42458,25 +43003,27 @@
       <c r="CK130" s="18">
         <v>9.6968762086018234</v>
       </c>
-      <c r="CL130" s="18">
+      <c r="CL130" s="32">
         <v>3.3857226628903696</v>
       </c>
-      <c r="CM130" s="18">
+      <c r="CM130" s="32">
         <v>4.5345003768964762</v>
       </c>
-      <c r="CN130" s="18">
+      <c r="CN130" s="32">
         <v>3.8805164620723587</v>
       </c>
-      <c r="CO130" s="18">
+      <c r="CO130" s="32">
         <v>8.7743379701624331</v>
       </c>
-      <c r="CP130" s="18">
+      <c r="CP130" s="32">
         <v>3.4721843804553512</v>
       </c>
-      <c r="CQ130" s="18">
-        <v>6.2658095988111784</v>
-      </c>
-      <c r="CR130" s="9"/>
+      <c r="CQ130" s="32">
+        <v>6.2186777653791721</v>
+      </c>
+      <c r="CR130" s="32">
+        <v>5.5178470713111736</v>
+      </c>
       <c r="CS130" s="9"/>
       <c r="CT130" s="9"/>
       <c r="CU130" s="9"/>
@@ -42804,25 +43351,27 @@
       <c r="CK131" s="18">
         <v>30.170328226114929</v>
       </c>
-      <c r="CL131" s="18">
+      <c r="CL131" s="32">
         <v>20.645666622283613</v>
       </c>
-      <c r="CM131" s="18">
+      <c r="CM131" s="32">
         <v>13.103010041926899</v>
       </c>
-      <c r="CN131" s="18">
+      <c r="CN131" s="32">
         <v>15.793430376920533</v>
       </c>
-      <c r="CO131" s="18">
+      <c r="CO131" s="32">
         <v>27.591170853756218</v>
       </c>
-      <c r="CP131" s="18">
+      <c r="CP131" s="32">
         <v>24.291483659168168</v>
       </c>
-      <c r="CQ131" s="18">
-        <v>18.811317463257271</v>
-      </c>
-      <c r="CR131" s="9"/>
+      <c r="CQ131" s="32">
+        <v>18.700787221452092</v>
+      </c>
+      <c r="CR131" s="32">
+        <v>27.073583010106695</v>
+      </c>
       <c r="CS131" s="9"/>
       <c r="CT131" s="9"/>
       <c r="CU131" s="9"/>
@@ -42971,13 +43520,13 @@
       <c r="CI132" s="9"/>
       <c r="CJ132" s="9"/>
       <c r="CK132" s="9"/>
-      <c r="CL132" s="9"/>
-      <c r="CM132" s="9"/>
-      <c r="CN132" s="9"/>
-      <c r="CO132" s="9"/>
-      <c r="CP132" s="9"/>
-      <c r="CQ132" s="9"/>
-      <c r="CR132" s="9"/>
+      <c r="CL132" s="25"/>
+      <c r="CM132" s="25"/>
+      <c r="CN132" s="25"/>
+      <c r="CO132" s="25"/>
+      <c r="CP132" s="25"/>
+      <c r="CQ132" s="25"/>
+      <c r="CR132" s="25"/>
       <c r="CS132" s="9"/>
       <c r="CT132" s="9"/>
       <c r="CU132" s="9"/>
@@ -43305,25 +43854,27 @@
       <c r="CK133" s="18">
         <v>100</v>
       </c>
-      <c r="CL133" s="18">
+      <c r="CL133" s="32">
         <v>100</v>
       </c>
-      <c r="CM133" s="18">
+      <c r="CM133" s="32">
         <v>100</v>
       </c>
-      <c r="CN133" s="18">
+      <c r="CN133" s="32">
         <v>100</v>
       </c>
-      <c r="CO133" s="18">
+      <c r="CO133" s="32">
         <v>100</v>
       </c>
-      <c r="CP133" s="18">
+      <c r="CP133" s="32">
         <v>100</v>
       </c>
-      <c r="CQ133" s="18">
+      <c r="CQ133" s="32">
         <v>100</v>
       </c>
-      <c r="CR133" s="9"/>
+      <c r="CR133" s="32">
+        <v>100</v>
+      </c>
       <c r="CS133" s="9"/>
       <c r="CT133" s="9"/>
       <c r="CU133" s="9"/>
@@ -43473,17 +44024,25 @@
       <c r="CI134" s="13"/>
       <c r="CJ134" s="13"/>
       <c r="CK134" s="13"/>
-      <c r="CL134" s="13"/>
-      <c r="CM134" s="13"/>
-      <c r="CN134" s="13"/>
-      <c r="CO134" s="13"/>
-      <c r="CP134" s="13"/>
-      <c r="CQ134" s="13"/>
+      <c r="CL134" s="27"/>
+      <c r="CM134" s="27"/>
+      <c r="CN134" s="27"/>
+      <c r="CO134" s="27"/>
+      <c r="CP134" s="27"/>
+      <c r="CQ134" s="27"/>
+      <c r="CR134" s="27"/>
     </row>
     <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CL135" s="22"/>
+      <c r="CM135" s="22"/>
+      <c r="CN135" s="22"/>
+      <c r="CO135" s="22"/>
+      <c r="CP135" s="22"/>
+      <c r="CQ135" s="22"/>
+      <c r="CR135" s="22"/>
     </row>
     <row r="136" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9"/>
@@ -43574,13 +44133,13 @@
       <c r="CI136" s="9"/>
       <c r="CJ136" s="9"/>
       <c r="CK136" s="9"/>
-      <c r="CL136" s="9"/>
-      <c r="CM136" s="9"/>
-      <c r="CN136" s="9"/>
-      <c r="CO136" s="9"/>
-      <c r="CP136" s="9"/>
-      <c r="CQ136" s="9"/>
-      <c r="CR136" s="9"/>
+      <c r="CL136" s="25"/>
+      <c r="CM136" s="25"/>
+      <c r="CN136" s="25"/>
+      <c r="CO136" s="25"/>
+      <c r="CP136" s="25"/>
+      <c r="CQ136" s="25"/>
+      <c r="CR136" s="25"/>
       <c r="CS136" s="9"/>
       <c r="CT136" s="9"/>
       <c r="CU136" s="9"/>
@@ -43729,13 +44288,13 @@
       <c r="CI137" s="9"/>
       <c r="CJ137" s="9"/>
       <c r="CK137" s="9"/>
-      <c r="CL137" s="9"/>
-      <c r="CM137" s="9"/>
-      <c r="CN137" s="9"/>
-      <c r="CO137" s="9"/>
-      <c r="CP137" s="9"/>
-      <c r="CQ137" s="9"/>
-      <c r="CR137" s="9"/>
+      <c r="CL137" s="25"/>
+      <c r="CM137" s="25"/>
+      <c r="CN137" s="25"/>
+      <c r="CO137" s="25"/>
+      <c r="CP137" s="25"/>
+      <c r="CQ137" s="25"/>
+      <c r="CR137" s="25"/>
       <c r="CS137" s="9"/>
       <c r="CT137" s="9"/>
       <c r="CU137" s="9"/>
@@ -43799,178 +44358,237 @@
       <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL138" s="22"/>
+      <c r="CM138" s="22"/>
+      <c r="CN138" s="22"/>
+      <c r="CO138" s="22"/>
+      <c r="CP138" s="22"/>
+      <c r="CQ138" s="22"/>
+      <c r="CR138" s="22"/>
     </row>
     <row r="139" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CL139" s="22"/>
+      <c r="CM139" s="22"/>
+      <c r="CN139" s="22"/>
+      <c r="CO139" s="22"/>
+      <c r="CP139" s="22"/>
+      <c r="CQ139" s="22"/>
+      <c r="CR139" s="22"/>
     </row>
     <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="CL140" s="22"/>
+      <c r="CM140" s="22"/>
+      <c r="CN140" s="22"/>
+      <c r="CO140" s="22"/>
+      <c r="CP140" s="22"/>
+      <c r="CQ140" s="22"/>
+      <c r="CR140" s="22"/>
     </row>
-    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL141" s="22"/>
+      <c r="CM141" s="22"/>
+      <c r="CN141" s="22"/>
+      <c r="CO141" s="22"/>
+      <c r="CP141" s="22"/>
+      <c r="CQ141" s="22"/>
+      <c r="CR141" s="22"/>
+    </row>
     <row r="142" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CL142" s="22"/>
+      <c r="CM142" s="22"/>
+      <c r="CN142" s="22"/>
+      <c r="CO142" s="22"/>
+      <c r="CP142" s="22"/>
+      <c r="CQ142" s="22"/>
+      <c r="CR142" s="22"/>
     </row>
     <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="CL143" s="22"/>
+      <c r="CM143" s="22"/>
+      <c r="CN143" s="22"/>
+      <c r="CO143" s="22"/>
+      <c r="CP143" s="22"/>
+      <c r="CQ143" s="22"/>
+      <c r="CR143" s="22"/>
     </row>
     <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="CL144" s="22"/>
+      <c r="CM144" s="22"/>
+      <c r="CN144" s="22"/>
+      <c r="CO144" s="22"/>
+      <c r="CP144" s="22"/>
+      <c r="CQ144" s="22"/>
+      <c r="CR144" s="22"/>
     </row>
-    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL145" s="22"/>
+      <c r="CM145" s="22"/>
+      <c r="CN145" s="22"/>
+      <c r="CO145" s="22"/>
+      <c r="CP145" s="22"/>
+      <c r="CQ145" s="22"/>
+      <c r="CR145" s="22"/>
+    </row>
     <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
-      <c r="B146" s="21">
+      <c r="B146" s="33">
         <v>2000</v>
       </c>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21">
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33">
         <v>2001</v>
       </c>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21">
+      <c r="G146" s="33"/>
+      <c r="H146" s="33"/>
+      <c r="I146" s="33"/>
+      <c r="J146" s="33">
         <v>2002</v>
       </c>
-      <c r="K146" s="21"/>
-      <c r="L146" s="21"/>
-      <c r="M146" s="21"/>
-      <c r="N146" s="21">
+      <c r="K146" s="33"/>
+      <c r="L146" s="33"/>
+      <c r="M146" s="33"/>
+      <c r="N146" s="33">
         <v>2003</v>
       </c>
-      <c r="O146" s="21"/>
-      <c r="P146" s="21"/>
-      <c r="Q146" s="21"/>
-      <c r="R146" s="21">
+      <c r="O146" s="33"/>
+      <c r="P146" s="33"/>
+      <c r="Q146" s="33"/>
+      <c r="R146" s="33">
         <v>2004</v>
       </c>
-      <c r="S146" s="21"/>
-      <c r="T146" s="21"/>
-      <c r="U146" s="21"/>
-      <c r="V146" s="21">
+      <c r="S146" s="33"/>
+      <c r="T146" s="33"/>
+      <c r="U146" s="33"/>
+      <c r="V146" s="33">
         <v>2005</v>
       </c>
-      <c r="W146" s="21"/>
-      <c r="X146" s="21"/>
-      <c r="Y146" s="21"/>
-      <c r="Z146" s="21">
+      <c r="W146" s="33"/>
+      <c r="X146" s="33"/>
+      <c r="Y146" s="33"/>
+      <c r="Z146" s="33">
         <v>2006</v>
       </c>
-      <c r="AA146" s="21"/>
-      <c r="AB146" s="21"/>
-      <c r="AC146" s="21"/>
-      <c r="AD146" s="21">
+      <c r="AA146" s="33"/>
+      <c r="AB146" s="33"/>
+      <c r="AC146" s="33"/>
+      <c r="AD146" s="33">
         <v>2007</v>
       </c>
-      <c r="AE146" s="21"/>
-      <c r="AF146" s="21"/>
-      <c r="AG146" s="21"/>
-      <c r="AH146" s="21">
+      <c r="AE146" s="33"/>
+      <c r="AF146" s="33"/>
+      <c r="AG146" s="33"/>
+      <c r="AH146" s="33">
         <v>2008</v>
       </c>
-      <c r="AI146" s="21"/>
-      <c r="AJ146" s="21"/>
-      <c r="AK146" s="21"/>
-      <c r="AL146" s="21">
+      <c r="AI146" s="33"/>
+      <c r="AJ146" s="33"/>
+      <c r="AK146" s="33"/>
+      <c r="AL146" s="33">
         <v>2009</v>
       </c>
-      <c r="AM146" s="21"/>
-      <c r="AN146" s="21"/>
-      <c r="AO146" s="21"/>
-      <c r="AP146" s="21">
+      <c r="AM146" s="33"/>
+      <c r="AN146" s="33"/>
+      <c r="AO146" s="33"/>
+      <c r="AP146" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ146" s="21"/>
-      <c r="AR146" s="21"/>
-      <c r="AS146" s="21"/>
-      <c r="AT146" s="21">
+      <c r="AQ146" s="33"/>
+      <c r="AR146" s="33"/>
+      <c r="AS146" s="33"/>
+      <c r="AT146" s="33">
         <v>2011</v>
       </c>
-      <c r="AU146" s="21"/>
-      <c r="AV146" s="21"/>
-      <c r="AW146" s="21"/>
-      <c r="AX146" s="21">
+      <c r="AU146" s="33"/>
+      <c r="AV146" s="33"/>
+      <c r="AW146" s="33"/>
+      <c r="AX146" s="33">
         <v>2012</v>
       </c>
-      <c r="AY146" s="21"/>
-      <c r="AZ146" s="21"/>
-      <c r="BA146" s="21"/>
-      <c r="BB146" s="21">
+      <c r="AY146" s="33"/>
+      <c r="AZ146" s="33"/>
+      <c r="BA146" s="33"/>
+      <c r="BB146" s="33">
         <v>2013</v>
       </c>
-      <c r="BC146" s="21"/>
-      <c r="BD146" s="21"/>
-      <c r="BE146" s="21"/>
-      <c r="BF146" s="21">
+      <c r="BC146" s="33"/>
+      <c r="BD146" s="33"/>
+      <c r="BE146" s="33"/>
+      <c r="BF146" s="33">
         <v>2014</v>
       </c>
-      <c r="BG146" s="21"/>
-      <c r="BH146" s="21"/>
-      <c r="BI146" s="21"/>
-      <c r="BJ146" s="21">
+      <c r="BG146" s="33"/>
+      <c r="BH146" s="33"/>
+      <c r="BI146" s="33"/>
+      <c r="BJ146" s="33">
         <v>2015</v>
       </c>
-      <c r="BK146" s="21"/>
-      <c r="BL146" s="21"/>
-      <c r="BM146" s="21"/>
-      <c r="BN146" s="21">
+      <c r="BK146" s="33"/>
+      <c r="BL146" s="33"/>
+      <c r="BM146" s="33"/>
+      <c r="BN146" s="33">
         <v>2016</v>
       </c>
-      <c r="BO146" s="21"/>
-      <c r="BP146" s="21"/>
-      <c r="BQ146" s="21"/>
-      <c r="BR146" s="21">
+      <c r="BO146" s="33"/>
+      <c r="BP146" s="33"/>
+      <c r="BQ146" s="33"/>
+      <c r="BR146" s="33">
         <v>2017</v>
       </c>
-      <c r="BS146" s="21"/>
-      <c r="BT146" s="21"/>
-      <c r="BU146" s="21"/>
-      <c r="BV146" s="21">
+      <c r="BS146" s="33"/>
+      <c r="BT146" s="33"/>
+      <c r="BU146" s="33"/>
+      <c r="BV146" s="33">
         <v>2018</v>
       </c>
-      <c r="BW146" s="21"/>
-      <c r="BX146" s="21"/>
-      <c r="BY146" s="21"/>
-      <c r="BZ146" s="21">
+      <c r="BW146" s="33"/>
+      <c r="BX146" s="33"/>
+      <c r="BY146" s="33"/>
+      <c r="BZ146" s="33">
         <v>2019</v>
       </c>
-      <c r="CA146" s="21"/>
-      <c r="CB146" s="21"/>
-      <c r="CC146" s="21"/>
-      <c r="CD146" s="21">
+      <c r="CA146" s="33"/>
+      <c r="CB146" s="33"/>
+      <c r="CC146" s="33"/>
+      <c r="CD146" s="33">
         <v>2020</v>
       </c>
-      <c r="CE146" s="21"/>
-      <c r="CF146" s="21"/>
-      <c r="CG146" s="21"/>
-      <c r="CH146" s="21">
+      <c r="CE146" s="33"/>
+      <c r="CF146" s="33"/>
+      <c r="CG146" s="33"/>
+      <c r="CH146" s="33">
         <v>2021</v>
       </c>
-      <c r="CI146" s="21"/>
-      <c r="CJ146" s="21"/>
-      <c r="CK146" s="21"/>
-      <c r="CL146" s="21">
+      <c r="CI146" s="33"/>
+      <c r="CJ146" s="33"/>
+      <c r="CK146" s="33"/>
+      <c r="CL146" s="34">
         <v>2022</v>
       </c>
-      <c r="CM146" s="21"/>
-      <c r="CN146" s="21"/>
-      <c r="CO146" s="21"/>
-      <c r="CP146" s="21">
+      <c r="CM146" s="34"/>
+      <c r="CN146" s="34"/>
+      <c r="CO146" s="34"/>
+      <c r="CP146" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ146" s="22"/>
+      <c r="CQ146" s="34"/>
+      <c r="CR146" s="34"/>
     </row>
     <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
@@ -44240,27 +44858,37 @@
       <c r="CK147" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL147" s="6" t="s">
+      <c r="CL147" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM147" s="6" t="s">
+      <c r="CM147" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN147" s="6" t="s">
+      <c r="CN147" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO147" s="6" t="s">
+      <c r="CO147" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CP147" s="6" t="s">
+      <c r="CP147" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ147" s="6" t="s">
+      <c r="CQ147" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CR147" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
+      <c r="CL148" s="22"/>
+      <c r="CM148" s="22"/>
+      <c r="CN148" s="22"/>
+      <c r="CO148" s="22"/>
+      <c r="CP148" s="22"/>
+      <c r="CQ148" s="22"/>
+      <c r="CR148" s="22"/>
     </row>
     <row r="149" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
@@ -44530,25 +45158,27 @@
       <c r="CK149" s="18">
         <v>12.847823978924955</v>
       </c>
-      <c r="CL149" s="18">
+      <c r="CL149" s="32">
         <v>24.857045368620856</v>
       </c>
-      <c r="CM149" s="18">
+      <c r="CM149" s="32">
         <v>14.641592924133334</v>
       </c>
-      <c r="CN149" s="18">
+      <c r="CN149" s="32">
         <v>11.652948087500535</v>
       </c>
-      <c r="CO149" s="18">
+      <c r="CO149" s="32">
         <v>8.6233868165987957</v>
       </c>
-      <c r="CP149" s="18">
+      <c r="CP149" s="32">
         <v>22.920513234006425</v>
       </c>
-      <c r="CQ149" s="18">
-        <v>13.28958886165627</v>
-      </c>
-      <c r="CR149" s="9"/>
+      <c r="CQ149" s="32">
+        <v>13.210293687728655</v>
+      </c>
+      <c r="CR149" s="32">
+        <v>9.1847871505116174</v>
+      </c>
       <c r="CS149" s="9"/>
       <c r="CT149" s="9"/>
       <c r="CU149" s="9"/>
@@ -44876,25 +45506,27 @@
       <c r="CK150" s="18">
         <v>14.165303469701557</v>
       </c>
-      <c r="CL150" s="18">
+      <c r="CL150" s="32">
         <v>12.445975345769158</v>
       </c>
-      <c r="CM150" s="18">
+      <c r="CM150" s="32">
         <v>28.997300773170874</v>
       </c>
-      <c r="CN150" s="18">
+      <c r="CN150" s="32">
         <v>12.104476858341025</v>
       </c>
-      <c r="CO150" s="18">
+      <c r="CO150" s="32">
         <v>13.852449933073549</v>
       </c>
-      <c r="CP150" s="18">
+      <c r="CP150" s="32">
         <v>9.0674506271469468</v>
       </c>
-      <c r="CQ150" s="18">
-        <v>22.480333958700026</v>
-      </c>
-      <c r="CR150" s="9"/>
+      <c r="CQ150" s="32">
+        <v>22.346200238705936</v>
+      </c>
+      <c r="CR150" s="32">
+        <v>10.240196368366917</v>
+      </c>
       <c r="CS150" s="9"/>
       <c r="CT150" s="9"/>
       <c r="CU150" s="9"/>
@@ -45222,25 +45854,27 @@
       <c r="CK151" s="18">
         <v>17.278101840602485</v>
       </c>
-      <c r="CL151" s="18">
+      <c r="CL151" s="32">
         <v>13.620198976607714</v>
       </c>
-      <c r="CM151" s="18">
+      <c r="CM151" s="32">
         <v>18.628767927455701</v>
       </c>
-      <c r="CN151" s="18">
+      <c r="CN151" s="32">
         <v>22.486244802430967</v>
       </c>
-      <c r="CO151" s="18">
+      <c r="CO151" s="32">
         <v>20.043348986836396</v>
       </c>
-      <c r="CP151" s="18">
+      <c r="CP151" s="32">
         <v>14.877299905025193</v>
       </c>
-      <c r="CQ151" s="18">
-        <v>20.152069807464553</v>
-      </c>
-      <c r="CR151" s="9"/>
+      <c r="CQ151" s="32">
+        <v>20.031828173429144</v>
+      </c>
+      <c r="CR151" s="32">
+        <v>23.191643284275969</v>
+      </c>
       <c r="CS151" s="9"/>
       <c r="CT151" s="9"/>
       <c r="CU151" s="9"/>
@@ -45568,25 +46202,27 @@
       <c r="CK152" s="18">
         <v>4.2380191503517972</v>
       </c>
-      <c r="CL152" s="18">
+      <c r="CL152" s="32">
         <v>10.101932394930245</v>
       </c>
-      <c r="CM152" s="18">
+      <c r="CM152" s="32">
         <v>15.836239459424768</v>
       </c>
-      <c r="CN152" s="18">
+      <c r="CN152" s="32">
         <v>19.06712903999934</v>
       </c>
-      <c r="CO152" s="18">
+      <c r="CO152" s="32">
         <v>4.5587592959236813</v>
       </c>
-      <c r="CP152" s="18">
+      <c r="CP152" s="32">
         <v>11.73995801102067</v>
       </c>
-      <c r="CQ152" s="18">
-        <v>20.369222418366682</v>
-      </c>
-      <c r="CR152" s="9"/>
+      <c r="CQ152" s="32">
+        <v>20.810642014779638</v>
+      </c>
+      <c r="CR152" s="32">
+        <v>20.408397042089078</v>
+      </c>
       <c r="CS152" s="9"/>
       <c r="CT152" s="9"/>
       <c r="CU152" s="9"/>
@@ -45914,25 +46550,27 @@
       <c r="CK153" s="18">
         <v>3.2496567156276184</v>
       </c>
-      <c r="CL153" s="18">
+      <c r="CL153" s="32">
         <v>9.8271013347699245</v>
       </c>
-      <c r="CM153" s="18">
+      <c r="CM153" s="32">
         <v>2.8439661086951173</v>
       </c>
-      <c r="CN153" s="18">
+      <c r="CN153" s="32">
         <v>5.1677672468483937</v>
       </c>
-      <c r="CO153" s="18">
+      <c r="CO153" s="32">
         <v>4.1945789129348139</v>
       </c>
-      <c r="CP153" s="18">
+      <c r="CP153" s="32">
         <v>10.032806452300301</v>
       </c>
-      <c r="CQ153" s="18">
-        <v>3.2626693675582117</v>
-      </c>
-      <c r="CR153" s="9"/>
+      <c r="CQ153" s="32">
+        <v>3.2432019530533673</v>
+      </c>
+      <c r="CR153" s="32">
+        <v>4.6770928489059598</v>
+      </c>
       <c r="CS153" s="9"/>
       <c r="CT153" s="9"/>
       <c r="CU153" s="9"/>
@@ -46260,25 +46898,27 @@
       <c r="CK154" s="18">
         <v>48.221094844791587</v>
       </c>
-      <c r="CL154" s="18">
+      <c r="CL154" s="32">
         <v>29.147746579302101</v>
       </c>
-      <c r="CM154" s="18">
+      <c r="CM154" s="32">
         <v>19.052132807120206</v>
       </c>
-      <c r="CN154" s="18">
+      <c r="CN154" s="32">
         <v>29.521433964879741</v>
       </c>
-      <c r="CO154" s="18">
+      <c r="CO154" s="32">
         <v>48.72747605463276</v>
       </c>
-      <c r="CP154" s="18">
+      <c r="CP154" s="32">
         <v>31.361971770500457</v>
       </c>
-      <c r="CQ154" s="18">
-        <v>20.446115586254244</v>
-      </c>
-      <c r="CR154" s="9"/>
+      <c r="CQ154" s="32">
+        <v>20.357833932303258</v>
+      </c>
+      <c r="CR154" s="32">
+        <v>32.297883305850462</v>
+      </c>
       <c r="CS154" s="9"/>
       <c r="CT154" s="9"/>
       <c r="CU154" s="9"/>
@@ -46427,13 +47067,13 @@
       <c r="CI155" s="9"/>
       <c r="CJ155" s="9"/>
       <c r="CK155" s="9"/>
-      <c r="CL155" s="9"/>
-      <c r="CM155" s="9"/>
-      <c r="CN155" s="9"/>
-      <c r="CO155" s="9"/>
-      <c r="CP155" s="9"/>
-      <c r="CQ155" s="9"/>
-      <c r="CR155" s="9"/>
+      <c r="CL155" s="25"/>
+      <c r="CM155" s="25"/>
+      <c r="CN155" s="25"/>
+      <c r="CO155" s="25"/>
+      <c r="CP155" s="25"/>
+      <c r="CQ155" s="25"/>
+      <c r="CR155" s="25"/>
       <c r="CS155" s="9"/>
       <c r="CT155" s="9"/>
       <c r="CU155" s="9"/>
@@ -46761,25 +47401,27 @@
       <c r="CK156" s="18">
         <v>100</v>
       </c>
-      <c r="CL156" s="18">
+      <c r="CL156" s="32">
         <v>100</v>
       </c>
-      <c r="CM156" s="18">
+      <c r="CM156" s="32">
         <v>100</v>
       </c>
-      <c r="CN156" s="18">
+      <c r="CN156" s="32">
         <v>100</v>
       </c>
-      <c r="CO156" s="18">
+      <c r="CO156" s="32">
         <v>100</v>
       </c>
-      <c r="CP156" s="18">
+      <c r="CP156" s="32">
         <v>100</v>
       </c>
-      <c r="CQ156" s="18">
+      <c r="CQ156" s="32">
         <v>100</v>
       </c>
-      <c r="CR156" s="9"/>
+      <c r="CR156" s="32">
+        <v>100</v>
+      </c>
       <c r="CS156" s="9"/>
       <c r="CT156" s="9"/>
       <c r="CU156" s="9"/>
@@ -46929,17 +47571,25 @@
       <c r="CI157" s="13"/>
       <c r="CJ157" s="13"/>
       <c r="CK157" s="13"/>
-      <c r="CL157" s="13"/>
-      <c r="CM157" s="13"/>
-      <c r="CN157" s="13"/>
-      <c r="CO157" s="13"/>
-      <c r="CP157" s="13"/>
-      <c r="CQ157" s="13"/>
+      <c r="CL157" s="27"/>
+      <c r="CM157" s="27"/>
+      <c r="CN157" s="27"/>
+      <c r="CO157" s="27"/>
+      <c r="CP157" s="27"/>
+      <c r="CQ157" s="27"/>
+      <c r="CR157" s="27"/>
     </row>
     <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CL158" s="22"/>
+      <c r="CM158" s="22"/>
+      <c r="CN158" s="22"/>
+      <c r="CO158" s="22"/>
+      <c r="CP158" s="22"/>
+      <c r="CQ158" s="22"/>
+      <c r="CR158" s="22"/>
     </row>
     <row r="159" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9"/>
@@ -47014,7 +47664,6 @@
       <c r="BS159" s="9"/>
       <c r="BT159" s="9"/>
       <c r="BU159" s="9"/>
-      <c r="CR159" s="9"/>
       <c r="CS159" s="9"/>
       <c r="CT159" s="9"/>
       <c r="CU159" s="9"/>
@@ -47142,7 +47791,6 @@
       <c r="BS160" s="9"/>
       <c r="BT160" s="9"/>
       <c r="BU160" s="9"/>
-      <c r="CR160" s="9"/>
       <c r="CS160" s="9"/>
       <c r="CT160" s="9"/>
       <c r="CU160" s="9"/>
@@ -47198,21 +47846,19 @@
       <c r="ES160" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP32:CQ32"/>
-    <mergeCell ref="CP100:CQ100"/>
-    <mergeCell ref="CP123:CQ123"/>
-    <mergeCell ref="CP146:CQ146"/>
-    <mergeCell ref="CL55:CO55"/>
-    <mergeCell ref="CP55:CQ55"/>
-    <mergeCell ref="CL78:CO78"/>
-    <mergeCell ref="CP78:CQ78"/>
+  <mergeCells count="166">
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL32:CO32"/>
     <mergeCell ref="CL100:CO100"/>
     <mergeCell ref="CL123:CO123"/>
     <mergeCell ref="CL146:CO146"/>
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP32:CR32"/>
+    <mergeCell ref="CL55:CN55"/>
+    <mergeCell ref="CL78:CN78"/>
+    <mergeCell ref="CP100:CR100"/>
+    <mergeCell ref="CP123:CR123"/>
+    <mergeCell ref="CP146:CR146"/>
     <mergeCell ref="CH55:CK55"/>
     <mergeCell ref="CH100:CK100"/>
     <mergeCell ref="CH123:CK123"/>
@@ -47368,7 +48014,7 @@
     <mergeCell ref="BZ55:CC55"/>
     <mergeCell ref="BZ78:CC78"/>
   </mergeCells>
-  <conditionalFormatting sqref="BR58:CQ65 BR81:CQ88 BR103:CQ110">
+  <conditionalFormatting sqref="BR58:CR65 BR81:CR88 BR103:CR110">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -47378,9 +48024,9 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="94" man="1"/>
-    <brk id="92" max="94" man="1"/>
-    <brk id="114" max="94" man="1"/>
+    <brk id="46" max="95" man="1"/>
+    <brk id="92" max="95" man="1"/>
+    <brk id="114" max="95" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="56" max="159" man="1"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2065AEC2-8825-4BD4-B7F5-8B0D23F5B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5140C3C6-4A10-460E-9720-D3ACDF8CE3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="3" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CR$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CS$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="58">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -636,13 +636,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -775,24 +775,14 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23353,9 +23343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23393,7 +23383,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23499,7 +23489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23641,7 +23631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23657,252 +23647,195 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CL1" sqref="CL1:CR1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
     <col min="2" max="89" width="9.5546875" style="10" customWidth="1"/>
-    <col min="90" max="96" width="9.5546875" style="31" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="10"/>
+    <col min="90" max="97" width="8" style="10" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL1" s="22"/>
-      <c r="CM1" s="22"/>
-      <c r="CN1" s="22"/>
-      <c r="CO1" s="22"/>
-      <c r="CP1" s="22"/>
-      <c r="CQ1" s="22"/>
-      <c r="CR1" s="22"/>
     </row>
     <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="CL2" s="22"/>
-      <c r="CM2" s="22"/>
-      <c r="CN2" s="22"/>
-      <c r="CO2" s="22"/>
-      <c r="CP2" s="22"/>
-      <c r="CQ2" s="22"/>
-      <c r="CR2" s="22"/>
     </row>
     <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="CL3" s="22"/>
-      <c r="CM3" s="22"/>
-      <c r="CN3" s="22"/>
-      <c r="CO3" s="22"/>
-      <c r="CP3" s="22"/>
-      <c r="CQ3" s="22"/>
-      <c r="CR3" s="22"/>
+        <v>57</v>
+      </c>
     </row>
-    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL4" s="22"/>
-      <c r="CM4" s="22"/>
-      <c r="CN4" s="22"/>
-      <c r="CO4" s="22"/>
-      <c r="CP4" s="22"/>
-      <c r="CQ4" s="22"/>
-      <c r="CR4" s="22"/>
-    </row>
+    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="CL5" s="22"/>
-      <c r="CM5" s="22"/>
-      <c r="CN5" s="22"/>
-      <c r="CO5" s="22"/>
-      <c r="CP5" s="22"/>
-      <c r="CQ5" s="22"/>
-      <c r="CR5" s="22"/>
     </row>
     <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CL6" s="22"/>
-      <c r="CM6" s="22"/>
-      <c r="CN6" s="22"/>
-      <c r="CO6" s="22"/>
-      <c r="CP6" s="22"/>
-      <c r="CQ6" s="22"/>
-      <c r="CR6" s="22"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CL7" s="22"/>
-      <c r="CM7" s="22"/>
-      <c r="CN7" s="22"/>
-      <c r="CO7" s="22"/>
-      <c r="CP7" s="22"/>
-      <c r="CQ7" s="22"/>
-      <c r="CR7" s="22"/>
     </row>
-    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL8" s="22"/>
-      <c r="CM8" s="22"/>
-      <c r="CN8" s="22"/>
-      <c r="CO8" s="22"/>
-      <c r="CP8" s="22"/>
-      <c r="CQ8" s="22"/>
-      <c r="CR8" s="22"/>
-    </row>
+    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="33">
+      <c r="B9" s="25">
         <v>2000</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>2001</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <v>2002</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
         <v>2003</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25">
         <v>2004</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25">
         <v>2005</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33">
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25">
         <v>2006</v>
       </c>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33">
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25">
         <v>2007</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33">
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25">
         <v>2008</v>
       </c>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33">
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25">
         <v>2009</v>
       </c>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33">
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33">
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25">
         <v>2011</v>
       </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33">
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25">
         <v>2012</v>
       </c>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33">
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25">
         <v>2013</v>
       </c>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33">
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25">
         <v>2014</v>
       </c>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33">
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25">
         <v>2015</v>
       </c>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="33">
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25">
         <v>2016</v>
       </c>
-      <c r="BO9" s="33"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="33">
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25">
         <v>2017</v>
       </c>
-      <c r="BS9" s="33"/>
-      <c r="BT9" s="33"/>
-      <c r="BU9" s="33"/>
-      <c r="BV9" s="33">
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25">
         <v>2018</v>
       </c>
-      <c r="BW9" s="33"/>
-      <c r="BX9" s="33"/>
-      <c r="BY9" s="33"/>
-      <c r="BZ9" s="33">
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+      <c r="BZ9" s="25">
         <v>2019</v>
       </c>
-      <c r="CA9" s="33"/>
-      <c r="CB9" s="33"/>
-      <c r="CC9" s="33"/>
-      <c r="CD9" s="33">
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25">
         <v>2020</v>
       </c>
-      <c r="CE9" s="33"/>
-      <c r="CF9" s="33"/>
-      <c r="CG9" s="33"/>
-      <c r="CH9" s="33">
+      <c r="CE9" s="25"/>
+      <c r="CF9" s="25"/>
+      <c r="CG9" s="25"/>
+      <c r="CH9" s="25">
         <v>2021</v>
       </c>
-      <c r="CI9" s="33"/>
-      <c r="CJ9" s="33"/>
-      <c r="CK9" s="33"/>
-      <c r="CL9" s="34">
+      <c r="CI9" s="25"/>
+      <c r="CJ9" s="25"/>
+      <c r="CK9" s="25"/>
+      <c r="CL9" s="24">
         <v>2022</v>
       </c>
-      <c r="CM9" s="34"/>
-      <c r="CN9" s="34"/>
-      <c r="CO9" s="34"/>
-      <c r="CP9" s="34">
+      <c r="CM9" s="24"/>
+      <c r="CN9" s="24"/>
+      <c r="CO9" s="24"/>
+      <c r="CP9" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="34"/>
-      <c r="CR9" s="34"/>
+      <c r="CQ9" s="24"/>
+      <c r="CR9" s="24"/>
+      <c r="CS9" s="24"/>
     </row>
     <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24172,37 +24105,33 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="23" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="23" t="s">
+      <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="23" t="s">
+      <c r="CN10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="23" t="s">
+      <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="23" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="23" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="23" t="s">
+      <c r="CR10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="CL11" s="22"/>
-      <c r="CM11" s="22"/>
-      <c r="CN11" s="22"/>
-      <c r="CO11" s="22"/>
-      <c r="CP11" s="22"/>
-      <c r="CQ11" s="22"/>
-      <c r="CR11" s="22"/>
     </row>
     <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -24472,28 +24401,30 @@
       <c r="CK12" s="19">
         <v>5462.4567046615093</v>
       </c>
-      <c r="CL12" s="24">
+      <c r="CL12" s="21">
         <v>19588.044628616666</v>
       </c>
-      <c r="CM12" s="24">
+      <c r="CM12" s="21">
         <v>16902.723128414724</v>
       </c>
-      <c r="CN12" s="24">
+      <c r="CN12" s="21">
         <v>27834.037093563096</v>
       </c>
-      <c r="CO12" s="24">
+      <c r="CO12" s="21">
         <v>7500.2176711747825</v>
       </c>
-      <c r="CP12" s="24">
+      <c r="CP12" s="21">
         <v>15773.523081344836</v>
       </c>
-      <c r="CQ12" s="24">
+      <c r="CQ12" s="21">
         <v>6722.7553924630865</v>
       </c>
-      <c r="CR12" s="24">
-        <v>8454.1532569653791</v>
-      </c>
-      <c r="CS12" s="9"/>
+      <c r="CR12" s="21">
+        <v>8474.5353092460864</v>
+      </c>
+      <c r="CS12" s="21">
+        <v>6286.8786647235493</v>
+      </c>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
       <c r="CV12" s="9"/>
@@ -24820,28 +24751,30 @@
       <c r="CK13" s="19">
         <v>10837.160110547225</v>
       </c>
-      <c r="CL13" s="24">
+      <c r="CL13" s="21">
         <v>11476.927845447768</v>
       </c>
-      <c r="CM13" s="24">
+      <c r="CM13" s="21">
         <v>15844.494288309581</v>
       </c>
-      <c r="CN13" s="24">
+      <c r="CN13" s="21">
         <v>14097.565080717592</v>
       </c>
-      <c r="CO13" s="24">
+      <c r="CO13" s="21">
         <v>13922.352938909786</v>
       </c>
-      <c r="CP13" s="24">
+      <c r="CP13" s="21">
         <v>6031.8928131160264</v>
       </c>
-      <c r="CQ13" s="24">
+      <c r="CQ13" s="21">
         <v>5215.5590302334695</v>
       </c>
-      <c r="CR13" s="24">
+      <c r="CR13" s="21">
         <v>5875.1435166697365</v>
       </c>
-      <c r="CS13" s="9"/>
+      <c r="CS13" s="21">
+        <v>7305.968884430943</v>
+      </c>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
       <c r="CV13" s="9"/>
@@ -25168,28 +25101,30 @@
       <c r="CK14" s="19">
         <v>9087.7522723670445</v>
       </c>
-      <c r="CL14" s="24">
+      <c r="CL14" s="21">
         <v>10226.29325097073</v>
       </c>
-      <c r="CM14" s="24">
+      <c r="CM14" s="21">
         <v>13887.111747163812</v>
       </c>
-      <c r="CN14" s="24">
+      <c r="CN14" s="21">
         <v>11449.575027468945</v>
       </c>
-      <c r="CO14" s="24">
+      <c r="CO14" s="21">
         <v>10795.064642611094</v>
       </c>
-      <c r="CP14" s="24">
+      <c r="CP14" s="21">
         <v>11705.97311543867</v>
       </c>
-      <c r="CQ14" s="24">
+      <c r="CQ14" s="21">
         <v>15304.173008896976</v>
       </c>
-      <c r="CR14" s="24">
-        <v>13709.835048103159</v>
-      </c>
-      <c r="CS14" s="9"/>
+      <c r="CR14" s="21">
+        <v>13808.674041359101</v>
+      </c>
+      <c r="CS14" s="21">
+        <v>13199.629770556154</v>
+      </c>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
       <c r="CV14" s="9"/>
@@ -25516,28 +25451,30 @@
       <c r="CK15" s="19">
         <v>2852.2044038348649</v>
       </c>
-      <c r="CL15" s="24">
+      <c r="CL15" s="21">
         <v>13006.237010883655</v>
       </c>
-      <c r="CM15" s="24">
+      <c r="CM15" s="21">
         <v>14405.490735031581</v>
       </c>
-      <c r="CN15" s="24">
+      <c r="CN15" s="21">
         <v>9055.8816859309791</v>
       </c>
-      <c r="CO15" s="24">
+      <c r="CO15" s="21">
         <v>4012.8608015561877</v>
       </c>
-      <c r="CP15" s="24">
+      <c r="CP15" s="21">
         <v>15160.246416204162</v>
       </c>
-      <c r="CQ15" s="24">
+      <c r="CQ15" s="21">
         <v>15001.023227570127</v>
       </c>
-      <c r="CR15" s="24">
-        <v>9275.5367720982376</v>
-      </c>
-      <c r="CS15" s="9"/>
+      <c r="CR15" s="21">
+        <v>9451.129147811489</v>
+      </c>
+      <c r="CS15" s="21">
+        <v>3484.1303790643906</v>
+      </c>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
       <c r="CV15" s="9"/>
@@ -25864,28 +25801,30 @@
       <c r="CK16" s="19">
         <v>4553.8486237951893</v>
       </c>
-      <c r="CL16" s="24">
+      <c r="CL16" s="21">
         <v>2419.8979528721948</v>
       </c>
-      <c r="CM16" s="24">
+      <c r="CM16" s="21">
         <v>3360.5721214211781</v>
       </c>
-      <c r="CN16" s="24">
+      <c r="CN16" s="21">
         <v>3016.3069803937592</v>
       </c>
-      <c r="CO16" s="24">
+      <c r="CO16" s="21">
         <v>4995.6966942187573</v>
       </c>
-      <c r="CP16" s="24">
+      <c r="CP16" s="21">
         <v>2339.4999124600317</v>
       </c>
-      <c r="CQ16" s="24">
+      <c r="CQ16" s="21">
         <v>3498.8932940025416</v>
       </c>
-      <c r="CR16" s="24">
+      <c r="CR16" s="21">
         <v>3054.4578392055387</v>
       </c>
-      <c r="CS16" s="9"/>
+      <c r="CS16" s="21">
+        <v>5206.5418282330211</v>
+      </c>
       <c r="CT16" s="9"/>
       <c r="CU16" s="9"/>
       <c r="CV16" s="9"/>
@@ -26212,28 +26151,30 @@
       <c r="CK17" s="19">
         <v>14168.594577918491</v>
       </c>
-      <c r="CL17" s="24">
+      <c r="CL17" s="21">
         <v>14756.201664874417</v>
       </c>
-      <c r="CM17" s="24">
+      <c r="CM17" s="21">
         <v>9710.7964700929115</v>
       </c>
-      <c r="CN17" s="24">
+      <c r="CN17" s="21">
         <v>12276.158278382265</v>
       </c>
-      <c r="CO17" s="24">
+      <c r="CO17" s="21">
         <v>15709.119194229439</v>
       </c>
-      <c r="CP17" s="24">
+      <c r="CP17" s="21">
         <v>16367.196458240909</v>
       </c>
-      <c r="CQ17" s="24">
+      <c r="CQ17" s="21">
         <v>10521.860348832137</v>
       </c>
-      <c r="CR17" s="24">
-        <v>14986.844831303366</v>
-      </c>
-      <c r="CS17" s="9"/>
+      <c r="CR17" s="21">
+        <v>15017.758016702603</v>
+      </c>
+      <c r="CS17" s="21">
+        <v>16942.011728318706</v>
+      </c>
       <c r="CT17" s="9"/>
       <c r="CU17" s="9"/>
       <c r="CV17" s="9"/>
@@ -26381,13 +26322,13 @@
       <c r="CI18" s="9"/>
       <c r="CJ18" s="9"/>
       <c r="CK18" s="9"/>
-      <c r="CL18" s="25"/>
-      <c r="CM18" s="25"/>
-      <c r="CN18" s="25"/>
-      <c r="CO18" s="25"/>
-      <c r="CP18" s="25"/>
-      <c r="CQ18" s="25"/>
-      <c r="CR18" s="25"/>
+      <c r="CL18" s="9"/>
+      <c r="CM18" s="9"/>
+      <c r="CN18" s="9"/>
+      <c r="CO18" s="9"/>
+      <c r="CP18" s="9"/>
+      <c r="CQ18" s="9"/>
+      <c r="CR18" s="9"/>
       <c r="CS18" s="9"/>
       <c r="CT18" s="9"/>
       <c r="CU18" s="9"/>
@@ -26715,28 +26656,30 @@
       <c r="CK19" s="20">
         <v>46962.016693124322</v>
       </c>
-      <c r="CL19" s="26">
+      <c r="CL19" s="22">
         <v>71473.602353665425</v>
       </c>
-      <c r="CM19" s="26">
+      <c r="CM19" s="22">
         <v>74111.188490433793</v>
       </c>
-      <c r="CN19" s="26">
+      <c r="CN19" s="22">
         <v>77729.52414645665</v>
       </c>
-      <c r="CO19" s="26">
+      <c r="CO19" s="22">
         <v>56935.311942700049</v>
       </c>
-      <c r="CP19" s="26">
+      <c r="CP19" s="22">
         <v>67378.331796804632</v>
       </c>
-      <c r="CQ19" s="26">
+      <c r="CQ19" s="22">
         <v>56264.264301998337</v>
       </c>
-      <c r="CR19" s="26">
-        <v>55355.971264345419</v>
-      </c>
-      <c r="CS19" s="9"/>
+      <c r="CR19" s="22">
+        <v>55681.697870994554</v>
+      </c>
+      <c r="CS19" s="22">
+        <v>52425.16125532677</v>
+      </c>
       <c r="CT19" s="9"/>
       <c r="CU19" s="9"/>
       <c r="CV19" s="9"/>
@@ -26885,25 +26828,19 @@
       <c r="CI20" s="13"/>
       <c r="CJ20" s="13"/>
       <c r="CK20" s="13"/>
-      <c r="CL20" s="27"/>
-      <c r="CM20" s="27"/>
-      <c r="CN20" s="27"/>
-      <c r="CO20" s="27"/>
-      <c r="CP20" s="27"/>
-      <c r="CQ20" s="27"/>
-      <c r="CR20" s="27"/>
+      <c r="CL20" s="13"/>
+      <c r="CM20" s="13"/>
+      <c r="CN20" s="13"/>
+      <c r="CO20" s="13"/>
+      <c r="CP20" s="13"/>
+      <c r="CQ20" s="13"/>
+      <c r="CR20" s="13"/>
+      <c r="CS20" s="13"/>
     </row>
     <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="CL21" s="22"/>
-      <c r="CM21" s="22"/>
-      <c r="CN21" s="22"/>
-      <c r="CO21" s="22"/>
-      <c r="CP21" s="22"/>
-      <c r="CQ21" s="22"/>
-      <c r="CR21" s="22"/>
     </row>
     <row r="22" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
@@ -26994,13 +26931,13 @@
       <c r="CI22" s="9"/>
       <c r="CJ22" s="9"/>
       <c r="CK22" s="9"/>
-      <c r="CL22" s="25"/>
-      <c r="CM22" s="25"/>
-      <c r="CN22" s="25"/>
-      <c r="CO22" s="25"/>
-      <c r="CP22" s="25"/>
-      <c r="CQ22" s="25"/>
-      <c r="CR22" s="25"/>
+      <c r="CL22" s="9"/>
+      <c r="CM22" s="9"/>
+      <c r="CN22" s="9"/>
+      <c r="CO22" s="9"/>
+      <c r="CP22" s="9"/>
+      <c r="CQ22" s="9"/>
+      <c r="CR22" s="9"/>
       <c r="CS22" s="9"/>
       <c r="CT22" s="9"/>
       <c r="CU22" s="9"/>
@@ -27149,13 +27086,13 @@
       <c r="CI23" s="9"/>
       <c r="CJ23" s="9"/>
       <c r="CK23" s="9"/>
-      <c r="CL23" s="25"/>
-      <c r="CM23" s="25"/>
-      <c r="CN23" s="25"/>
-      <c r="CO23" s="25"/>
-      <c r="CP23" s="25"/>
-      <c r="CQ23" s="25"/>
-      <c r="CR23" s="25"/>
+      <c r="CL23" s="9"/>
+      <c r="CM23" s="9"/>
+      <c r="CN23" s="9"/>
+      <c r="CO23" s="9"/>
+      <c r="CP23" s="9"/>
+      <c r="CQ23" s="9"/>
+      <c r="CR23" s="9"/>
       <c r="CS23" s="9"/>
       <c r="CT23" s="9"/>
       <c r="CU23" s="9"/>
@@ -27219,237 +27156,180 @@
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL24" s="22"/>
-      <c r="CM24" s="22"/>
-      <c r="CN24" s="22"/>
-      <c r="CO24" s="22"/>
-      <c r="CP24" s="22"/>
-      <c r="CQ24" s="22"/>
-      <c r="CR24" s="22"/>
     </row>
     <row r="25" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="CL25" s="22"/>
-      <c r="CM25" s="22"/>
-      <c r="CN25" s="22"/>
-      <c r="CO25" s="22"/>
-      <c r="CP25" s="22"/>
-      <c r="CQ25" s="22"/>
-      <c r="CR25" s="22"/>
     </row>
     <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CL26" s="22"/>
-      <c r="CM26" s="22"/>
-      <c r="CN26" s="22"/>
-      <c r="CO26" s="22"/>
-      <c r="CP26" s="22"/>
-      <c r="CQ26" s="22"/>
-      <c r="CR26" s="22"/>
+        <v>57</v>
+      </c>
     </row>
-    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL27" s="22"/>
-      <c r="CM27" s="22"/>
-      <c r="CN27" s="22"/>
-      <c r="CO27" s="22"/>
-      <c r="CP27" s="22"/>
-      <c r="CQ27" s="22"/>
-      <c r="CR27" s="22"/>
-    </row>
+    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="CL28" s="22"/>
-      <c r="CM28" s="22"/>
-      <c r="CN28" s="22"/>
-      <c r="CO28" s="22"/>
-      <c r="CP28" s="22"/>
-      <c r="CQ28" s="22"/>
-      <c r="CR28" s="22"/>
     </row>
     <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CL29" s="22"/>
-      <c r="CM29" s="22"/>
-      <c r="CN29" s="22"/>
-      <c r="CO29" s="22"/>
-      <c r="CP29" s="22"/>
-      <c r="CQ29" s="22"/>
-      <c r="CR29" s="22"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CL30" s="22"/>
-      <c r="CM30" s="22"/>
-      <c r="CN30" s="22"/>
-      <c r="CO30" s="22"/>
-      <c r="CP30" s="22"/>
-      <c r="CQ30" s="22"/>
-      <c r="CR30" s="22"/>
     </row>
-    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL31" s="22"/>
-      <c r="CM31" s="22"/>
-      <c r="CN31" s="22"/>
-      <c r="CO31" s="22"/>
-      <c r="CP31" s="22"/>
-      <c r="CQ31" s="22"/>
-      <c r="CR31" s="22"/>
-    </row>
+    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="33">
+      <c r="B32" s="25">
         <v>2000</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33">
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25">
         <v>2001</v>
       </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33">
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25">
         <v>2002</v>
       </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33">
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25">
         <v>2003</v>
       </c>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33">
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25">
         <v>2004</v>
       </c>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33">
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25">
         <v>2005</v>
       </c>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33">
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25">
         <v>2006</v>
       </c>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33">
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25">
         <v>2007</v>
       </c>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="33">
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25">
         <v>2008</v>
       </c>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="33">
+      <c r="AI32" s="25"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="25"/>
+      <c r="AL32" s="25">
         <v>2009</v>
       </c>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="33"/>
-      <c r="AO32" s="33"/>
-      <c r="AP32" s="33">
+      <c r="AM32" s="25"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="25"/>
+      <c r="AP32" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ32" s="33"/>
-      <c r="AR32" s="33"/>
-      <c r="AS32" s="33"/>
-      <c r="AT32" s="33">
+      <c r="AQ32" s="25"/>
+      <c r="AR32" s="25"/>
+      <c r="AS32" s="25"/>
+      <c r="AT32" s="25">
         <v>2011</v>
       </c>
-      <c r="AU32" s="33"/>
-      <c r="AV32" s="33"/>
-      <c r="AW32" s="33"/>
-      <c r="AX32" s="33">
+      <c r="AU32" s="25"/>
+      <c r="AV32" s="25"/>
+      <c r="AW32" s="25"/>
+      <c r="AX32" s="25">
         <v>2012</v>
       </c>
-      <c r="AY32" s="33"/>
-      <c r="AZ32" s="33"/>
-      <c r="BA32" s="33"/>
-      <c r="BB32" s="33">
+      <c r="AY32" s="25"/>
+      <c r="AZ32" s="25"/>
+      <c r="BA32" s="25"/>
+      <c r="BB32" s="25">
         <v>2013</v>
       </c>
-      <c r="BC32" s="33"/>
-      <c r="BD32" s="33"/>
-      <c r="BE32" s="33"/>
-      <c r="BF32" s="33">
+      <c r="BC32" s="25"/>
+      <c r="BD32" s="25"/>
+      <c r="BE32" s="25"/>
+      <c r="BF32" s="25">
         <v>2014</v>
       </c>
-      <c r="BG32" s="33"/>
-      <c r="BH32" s="33"/>
-      <c r="BI32" s="33"/>
-      <c r="BJ32" s="33">
+      <c r="BG32" s="25"/>
+      <c r="BH32" s="25"/>
+      <c r="BI32" s="25"/>
+      <c r="BJ32" s="25">
         <v>2015</v>
       </c>
-      <c r="BK32" s="33"/>
-      <c r="BL32" s="33"/>
-      <c r="BM32" s="33"/>
-      <c r="BN32" s="33">
+      <c r="BK32" s="25"/>
+      <c r="BL32" s="25"/>
+      <c r="BM32" s="25"/>
+      <c r="BN32" s="25">
         <v>2016</v>
       </c>
-      <c r="BO32" s="33"/>
-      <c r="BP32" s="33"/>
-      <c r="BQ32" s="33"/>
-      <c r="BR32" s="33">
+      <c r="BO32" s="25"/>
+      <c r="BP32" s="25"/>
+      <c r="BQ32" s="25"/>
+      <c r="BR32" s="25">
         <v>2017</v>
       </c>
-      <c r="BS32" s="33"/>
-      <c r="BT32" s="33"/>
-      <c r="BU32" s="33"/>
-      <c r="BV32" s="33">
+      <c r="BS32" s="25"/>
+      <c r="BT32" s="25"/>
+      <c r="BU32" s="25"/>
+      <c r="BV32" s="25">
         <v>2018</v>
       </c>
-      <c r="BW32" s="33"/>
-      <c r="BX32" s="33"/>
-      <c r="BY32" s="33"/>
-      <c r="BZ32" s="33">
+      <c r="BW32" s="25"/>
+      <c r="BX32" s="25"/>
+      <c r="BY32" s="25"/>
+      <c r="BZ32" s="25">
         <v>2019</v>
       </c>
-      <c r="CA32" s="33"/>
-      <c r="CB32" s="33"/>
-      <c r="CC32" s="33"/>
-      <c r="CD32" s="33">
+      <c r="CA32" s="25"/>
+      <c r="CB32" s="25"/>
+      <c r="CC32" s="25"/>
+      <c r="CD32" s="25">
         <v>2020</v>
       </c>
-      <c r="CE32" s="33"/>
-      <c r="CF32" s="33"/>
-      <c r="CG32" s="33"/>
-      <c r="CH32" s="33">
+      <c r="CE32" s="25"/>
+      <c r="CF32" s="25"/>
+      <c r="CG32" s="25"/>
+      <c r="CH32" s="25">
         <v>2021</v>
       </c>
-      <c r="CI32" s="33"/>
-      <c r="CJ32" s="33"/>
-      <c r="CK32" s="33"/>
-      <c r="CL32" s="34">
+      <c r="CI32" s="25"/>
+      <c r="CJ32" s="25"/>
+      <c r="CK32" s="25"/>
+      <c r="CL32" s="24">
         <v>2022</v>
       </c>
-      <c r="CM32" s="34"/>
-      <c r="CN32" s="34"/>
-      <c r="CO32" s="34"/>
-      <c r="CP32" s="34">
+      <c r="CM32" s="24"/>
+      <c r="CN32" s="24"/>
+      <c r="CO32" s="24"/>
+      <c r="CP32" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ32" s="34"/>
-      <c r="CR32" s="34"/>
+      <c r="CQ32" s="24"/>
+      <c r="CR32" s="24"/>
+      <c r="CS32" s="24"/>
     </row>
     <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -27719,37 +27599,33 @@
       <c r="CK33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL33" s="23" t="s">
+      <c r="CL33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM33" s="23" t="s">
+      <c r="CM33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN33" s="23" t="s">
+      <c r="CN33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO33" s="23" t="s">
+      <c r="CO33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP33" s="23" t="s">
+      <c r="CP33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ33" s="23" t="s">
+      <c r="CQ33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR33" s="23" t="s">
+      <c r="CR33" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS33" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="CL34" s="22"/>
-      <c r="CM34" s="22"/>
-      <c r="CN34" s="22"/>
-      <c r="CO34" s="22"/>
-      <c r="CP34" s="22"/>
-      <c r="CQ34" s="22"/>
-      <c r="CR34" s="22"/>
     </row>
     <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -28019,28 +27895,30 @@
       <c r="CK35" s="19">
         <v>4440.831846489732</v>
       </c>
-      <c r="CL35" s="24">
+      <c r="CL35" s="21">
         <v>10958.03015047024</v>
       </c>
-      <c r="CM35" s="24">
+      <c r="CM35" s="21">
         <v>6334.6974061478777</v>
       </c>
-      <c r="CN35" s="24">
+      <c r="CN35" s="21">
         <v>3454.7335177153209</v>
       </c>
-      <c r="CO35" s="24">
+      <c r="CO35" s="21">
         <v>3034.4308903112847</v>
       </c>
-      <c r="CP35" s="24">
+      <c r="CP35" s="21">
         <v>9880.2286789848804</v>
       </c>
-      <c r="CQ35" s="24">
+      <c r="CQ35" s="21">
         <v>5547.0502940145998</v>
       </c>
-      <c r="CR35" s="24">
-        <v>2844.3035036145648</v>
-      </c>
-      <c r="CS35" s="9"/>
+      <c r="CR35" s="21">
+        <v>2851.1608127915788</v>
+      </c>
+      <c r="CS35" s="21">
+        <v>5799.2782326865126</v>
+      </c>
       <c r="CT35" s="9"/>
       <c r="CU35" s="9"/>
       <c r="CV35" s="9"/>
@@ -28367,28 +28245,30 @@
       <c r="CK36" s="19">
         <v>4896.2167341823924</v>
       </c>
-      <c r="CL36" s="24">
+      <c r="CL36" s="21">
         <v>5486.7089418083433</v>
       </c>
-      <c r="CM36" s="24">
+      <c r="CM36" s="21">
         <v>12545.706395806543</v>
       </c>
-      <c r="CN36" s="24">
+      <c r="CN36" s="21">
         <v>3588.5976323687337</v>
       </c>
-      <c r="CO36" s="24">
+      <c r="CO36" s="21">
         <v>4874.4539561299507</v>
       </c>
-      <c r="CP36" s="24">
+      <c r="CP36" s="21">
         <v>3908.6596716646445</v>
       </c>
-      <c r="CQ36" s="24">
+      <c r="CQ36" s="21">
         <v>9383.2506327522442</v>
       </c>
-      <c r="CR36" s="24">
+      <c r="CR36" s="21">
         <v>3171.137875157483</v>
       </c>
-      <c r="CS36" s="9"/>
+      <c r="CS36" s="21">
+        <v>3613.2183548600024</v>
+      </c>
       <c r="CT36" s="9"/>
       <c r="CU36" s="9"/>
       <c r="CV36" s="9"/>
@@ -28715,28 +28595,30 @@
       <c r="CK37" s="19">
         <v>5972.151005999438</v>
       </c>
-      <c r="CL37" s="24">
+      <c r="CL37" s="21">
         <v>6004.3560619430173</v>
       </c>
-      <c r="CM37" s="24">
+      <c r="CM37" s="21">
         <v>8059.7520011142842</v>
       </c>
-      <c r="CN37" s="24">
+      <c r="CN37" s="21">
         <v>6666.4661185470686</v>
       </c>
-      <c r="CO37" s="24">
+      <c r="CO37" s="21">
         <v>7052.931592245819</v>
       </c>
-      <c r="CP37" s="24">
+      <c r="CP37" s="21">
         <v>6413.0817528729222</v>
       </c>
-      <c r="CQ37" s="24">
+      <c r="CQ37" s="21">
         <v>8411.437397662834</v>
       </c>
-      <c r="CR37" s="24">
-        <v>7181.88360460492</v>
-      </c>
-      <c r="CS37" s="9"/>
+      <c r="CR37" s="21">
+        <v>7233.6603140014868</v>
+      </c>
+      <c r="CS37" s="21">
+        <v>7724.4445302819422</v>
+      </c>
       <c r="CT37" s="9"/>
       <c r="CU37" s="9"/>
       <c r="CV37" s="9"/>
@@ -29063,28 +28945,30 @@
       <c r="CK38" s="19">
         <v>1464.8652129565066</v>
       </c>
-      <c r="CL38" s="24">
+      <c r="CL38" s="21">
         <v>4453.3563068360563</v>
       </c>
-      <c r="CM38" s="24">
+      <c r="CM38" s="21">
         <v>6851.5622273177451</v>
       </c>
-      <c r="CN38" s="24">
+      <c r="CN38" s="21">
         <v>5652.805563576303</v>
       </c>
-      <c r="CO38" s="24">
+      <c r="CO38" s="21">
         <v>1604.1539505589053</v>
       </c>
-      <c r="CP38" s="24">
+      <c r="CP38" s="21">
         <v>5060.6837921268252</v>
       </c>
-      <c r="CQ38" s="24">
+      <c r="CQ38" s="21">
         <v>8738.4641579883028</v>
       </c>
-      <c r="CR38" s="24">
-        <v>6319.9804479669056</v>
-      </c>
-      <c r="CS38" s="9"/>
+      <c r="CR38" s="21">
+        <v>6439.6220825791479</v>
+      </c>
+      <c r="CS38" s="21">
+        <v>1795.2433899322018</v>
+      </c>
       <c r="CT38" s="9"/>
       <c r="CU38" s="9"/>
       <c r="CV38" s="9"/>
@@ -29411,28 +29295,30 @@
       <c r="CK39" s="19">
         <v>1123.2391614790699</v>
       </c>
-      <c r="CL39" s="24">
+      <c r="CL39" s="21">
         <v>4332.1992264646178</v>
       </c>
-      <c r="CM39" s="24">
+      <c r="CM39" s="21">
         <v>1230.4443119866219</v>
       </c>
-      <c r="CN39" s="24">
+      <c r="CN39" s="21">
         <v>1532.0808593139413</v>
       </c>
-      <c r="CO39" s="24">
+      <c r="CO39" s="21">
         <v>1476.0047410557795</v>
       </c>
-      <c r="CP39" s="24">
+      <c r="CP39" s="21">
         <v>4324.7906811114208</v>
       </c>
-      <c r="CQ39" s="24">
+      <c r="CQ39" s="21">
         <v>1361.8322781078605</v>
       </c>
-      <c r="CR39" s="24">
+      <c r="CR39" s="21">
         <v>1448.3810412670077</v>
       </c>
-      <c r="CS39" s="9"/>
+      <c r="CS39" s="21">
+        <v>1545.3697911211157</v>
+      </c>
       <c r="CT39" s="9"/>
       <c r="CU39" s="9"/>
       <c r="CV39" s="9"/>
@@ -29759,28 +29645,30 @@
       <c r="CK40" s="19">
         <v>16667.551953593211</v>
       </c>
-      <c r="CL40" s="24">
+      <c r="CL40" s="21">
         <v>12849.55154957661</v>
       </c>
-      <c r="CM40" s="24">
+      <c r="CM40" s="21">
         <v>8242.9211698626095</v>
       </c>
-      <c r="CN40" s="24">
+      <c r="CN40" s="21">
         <v>8752.1789888420681</v>
       </c>
-      <c r="CO40" s="24">
+      <c r="CO40" s="21">
         <v>17146.413780542847</v>
       </c>
-      <c r="CP40" s="24">
+      <c r="CP40" s="21">
         <v>13519.045134498927</v>
       </c>
-      <c r="CQ40" s="24">
+      <c r="CQ40" s="21">
         <v>8548.3283997374474</v>
       </c>
-      <c r="CR40" s="24">
-        <v>10001.862987216608</v>
-      </c>
-      <c r="CS40" s="9"/>
+      <c r="CR40" s="21">
+        <v>10022.493710308594</v>
+      </c>
+      <c r="CS40" s="21">
+        <v>18344.728830014647</v>
+      </c>
       <c r="CT40" s="9"/>
       <c r="CU40" s="9"/>
       <c r="CV40" s="9"/>
@@ -29928,14 +29816,14 @@
       <c r="CI41" s="20"/>
       <c r="CJ41" s="20"/>
       <c r="CK41" s="20"/>
-      <c r="CL41" s="26"/>
-      <c r="CM41" s="26"/>
-      <c r="CN41" s="26"/>
-      <c r="CO41" s="26"/>
-      <c r="CP41" s="26"/>
-      <c r="CQ41" s="26"/>
-      <c r="CR41" s="26"/>
-      <c r="CS41" s="9"/>
+      <c r="CL41" s="22"/>
+      <c r="CM41" s="22"/>
+      <c r="CN41" s="22"/>
+      <c r="CO41" s="22"/>
+      <c r="CP41" s="22"/>
+      <c r="CQ41" s="22"/>
+      <c r="CR41" s="22"/>
+      <c r="CS41" s="22"/>
       <c r="CT41" s="9"/>
       <c r="CU41" s="9"/>
       <c r="CV41" s="9"/>
@@ -30262,28 +30150,30 @@
       <c r="CK42" s="20">
         <v>34564.855914700347</v>
       </c>
-      <c r="CL42" s="26">
+      <c r="CL42" s="22">
         <v>44084.202237098885</v>
       </c>
-      <c r="CM42" s="26">
+      <c r="CM42" s="22">
         <v>43265.08351223568</v>
       </c>
-      <c r="CN42" s="26">
+      <c r="CN42" s="22">
         <v>29646.862680363436</v>
       </c>
-      <c r="CO42" s="26">
+      <c r="CO42" s="22">
         <v>35188.388910844587</v>
       </c>
-      <c r="CP42" s="26">
+      <c r="CP42" s="22">
         <v>43106.489711259623</v>
       </c>
-      <c r="CQ42" s="26">
+      <c r="CQ42" s="22">
         <v>41990.363160263289</v>
       </c>
-      <c r="CR42" s="26">
-        <v>30967.549459827489</v>
-      </c>
-      <c r="CS42" s="9"/>
+      <c r="CR42" s="22">
+        <v>31166.455836105295</v>
+      </c>
+      <c r="CS42" s="22">
+        <v>38822.283128896423</v>
+      </c>
       <c r="CT42" s="9"/>
       <c r="CU42" s="9"/>
       <c r="CV42" s="9"/>
@@ -30432,25 +30322,19 @@
       <c r="CI43" s="13"/>
       <c r="CJ43" s="13"/>
       <c r="CK43" s="13"/>
-      <c r="CL43" s="27"/>
-      <c r="CM43" s="27"/>
-      <c r="CN43" s="27"/>
-      <c r="CO43" s="27"/>
-      <c r="CP43" s="27"/>
-      <c r="CQ43" s="27"/>
-      <c r="CR43" s="27"/>
+      <c r="CL43" s="13"/>
+      <c r="CM43" s="13"/>
+      <c r="CN43" s="13"/>
+      <c r="CO43" s="13"/>
+      <c r="CP43" s="13"/>
+      <c r="CQ43" s="13"/>
+      <c r="CR43" s="13"/>
+      <c r="CS43" s="13"/>
     </row>
     <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="CL44" s="22"/>
-      <c r="CM44" s="22"/>
-      <c r="CN44" s="22"/>
-      <c r="CO44" s="22"/>
-      <c r="CP44" s="22"/>
-      <c r="CQ44" s="22"/>
-      <c r="CR44" s="22"/>
     </row>
     <row r="45" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
@@ -30541,13 +30425,13 @@
       <c r="CI45" s="9"/>
       <c r="CJ45" s="9"/>
       <c r="CK45" s="9"/>
-      <c r="CL45" s="25"/>
-      <c r="CM45" s="25"/>
-      <c r="CN45" s="25"/>
-      <c r="CO45" s="25"/>
-      <c r="CP45" s="25"/>
-      <c r="CQ45" s="25"/>
-      <c r="CR45" s="25"/>
+      <c r="CL45" s="9"/>
+      <c r="CM45" s="9"/>
+      <c r="CN45" s="9"/>
+      <c r="CO45" s="9"/>
+      <c r="CP45" s="9"/>
+      <c r="CQ45" s="9"/>
+      <c r="CR45" s="9"/>
       <c r="CS45" s="9"/>
       <c r="CT45" s="9"/>
       <c r="CU45" s="9"/>
@@ -30696,13 +30580,13 @@
       <c r="CI46" s="9"/>
       <c r="CJ46" s="9"/>
       <c r="CK46" s="9"/>
-      <c r="CL46" s="25"/>
-      <c r="CM46" s="25"/>
-      <c r="CN46" s="25"/>
-      <c r="CO46" s="25"/>
-      <c r="CP46" s="25"/>
-      <c r="CQ46" s="25"/>
-      <c r="CR46" s="25"/>
+      <c r="CL46" s="9"/>
+      <c r="CM46" s="9"/>
+      <c r="CN46" s="9"/>
+      <c r="CO46" s="9"/>
+      <c r="CP46" s="9"/>
+      <c r="CQ46" s="9"/>
+      <c r="CR46" s="9"/>
       <c r="CS46" s="9"/>
       <c r="CT46" s="9"/>
       <c r="CU46" s="9"/>
@@ -30766,235 +30650,178 @@
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL47" s="22"/>
-      <c r="CM47" s="22"/>
-      <c r="CN47" s="22"/>
-      <c r="CO47" s="22"/>
-      <c r="CP47" s="22"/>
-      <c r="CQ47" s="22"/>
-      <c r="CR47" s="22"/>
     </row>
     <row r="48" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CL48" s="22"/>
-      <c r="CM48" s="22"/>
-      <c r="CN48" s="22"/>
-      <c r="CO48" s="22"/>
-      <c r="CP48" s="22"/>
-      <c r="CQ48" s="22"/>
-      <c r="CR48" s="22"/>
     </row>
     <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CL49" s="22"/>
-      <c r="CM49" s="22"/>
-      <c r="CN49" s="22"/>
-      <c r="CO49" s="22"/>
-      <c r="CP49" s="22"/>
-      <c r="CQ49" s="22"/>
-      <c r="CR49" s="22"/>
+        <v>57</v>
+      </c>
     </row>
-    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL50" s="22"/>
-      <c r="CM50" s="22"/>
-      <c r="CN50" s="22"/>
-      <c r="CO50" s="22"/>
-      <c r="CP50" s="22"/>
-      <c r="CQ50" s="22"/>
-      <c r="CR50" s="22"/>
-    </row>
+    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="CL51" s="22"/>
-      <c r="CM51" s="22"/>
-      <c r="CN51" s="22"/>
-      <c r="CO51" s="22"/>
-      <c r="CP51" s="22"/>
-      <c r="CQ51" s="22"/>
-      <c r="CR51" s="22"/>
     </row>
     <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="CL52" s="22"/>
-      <c r="CM52" s="22"/>
-      <c r="CN52" s="22"/>
-      <c r="CO52" s="22"/>
-      <c r="CP52" s="22"/>
-      <c r="CQ52" s="22"/>
-      <c r="CR52" s="22"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CL53" s="22"/>
-      <c r="CM53" s="22"/>
-      <c r="CN53" s="22"/>
-      <c r="CO53" s="22"/>
-      <c r="CP53" s="22"/>
-      <c r="CQ53" s="22"/>
-      <c r="CR53" s="22"/>
     </row>
-    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL54" s="22"/>
-      <c r="CM54" s="22"/>
-      <c r="CN54" s="22"/>
-      <c r="CO54" s="22"/>
-      <c r="CP54" s="22"/>
-      <c r="CQ54" s="22"/>
-      <c r="CR54" s="22"/>
-    </row>
+    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33" t="s">
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33" t="s">
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33" t="s">
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33" t="s">
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33" t="s">
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33" t="s">
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="33"/>
-      <c r="AD55" s="33" t="s">
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="25"/>
+      <c r="AC55" s="25"/>
+      <c r="AD55" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="33"/>
-      <c r="AG55" s="33"/>
-      <c r="AH55" s="33" t="s">
+      <c r="AE55" s="25"/>
+      <c r="AF55" s="25"/>
+      <c r="AG55" s="25"/>
+      <c r="AH55" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="33"/>
-      <c r="AJ55" s="33"/>
-      <c r="AK55" s="33"/>
-      <c r="AL55" s="33" t="s">
+      <c r="AI55" s="25"/>
+      <c r="AJ55" s="25"/>
+      <c r="AK55" s="25"/>
+      <c r="AL55" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AM55" s="33"/>
-      <c r="AN55" s="33"/>
-      <c r="AO55" s="33"/>
-      <c r="AP55" s="33" t="s">
+      <c r="AM55" s="25"/>
+      <c r="AN55" s="25"/>
+      <c r="AO55" s="25"/>
+      <c r="AP55" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AQ55" s="33"/>
-      <c r="AR55" s="33"/>
-      <c r="AS55" s="33"/>
-      <c r="AT55" s="33" t="s">
+      <c r="AQ55" s="25"/>
+      <c r="AR55" s="25"/>
+      <c r="AS55" s="25"/>
+      <c r="AT55" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AU55" s="33"/>
-      <c r="AV55" s="33"/>
-      <c r="AW55" s="33"/>
-      <c r="AX55" s="33" t="s">
+      <c r="AU55" s="25"/>
+      <c r="AV55" s="25"/>
+      <c r="AW55" s="25"/>
+      <c r="AX55" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AY55" s="33"/>
-      <c r="AZ55" s="33"/>
-      <c r="BA55" s="33"/>
-      <c r="BB55" s="33" t="s">
+      <c r="AY55" s="25"/>
+      <c r="AZ55" s="25"/>
+      <c r="BA55" s="25"/>
+      <c r="BB55" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="BC55" s="33"/>
-      <c r="BD55" s="33"/>
-      <c r="BE55" s="33"/>
-      <c r="BF55" s="33" t="s">
+      <c r="BC55" s="25"/>
+      <c r="BD55" s="25"/>
+      <c r="BE55" s="25"/>
+      <c r="BF55" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BG55" s="33"/>
-      <c r="BH55" s="33"/>
-      <c r="BI55" s="33"/>
-      <c r="BJ55" s="33" t="s">
+      <c r="BG55" s="25"/>
+      <c r="BH55" s="25"/>
+      <c r="BI55" s="25"/>
+      <c r="BJ55" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="BK55" s="33"/>
-      <c r="BL55" s="33"/>
-      <c r="BM55" s="33"/>
-      <c r="BN55" s="33" t="s">
+      <c r="BK55" s="25"/>
+      <c r="BL55" s="25"/>
+      <c r="BM55" s="25"/>
+      <c r="BN55" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="BO55" s="33"/>
-      <c r="BP55" s="33"/>
-      <c r="BQ55" s="33"/>
-      <c r="BR55" s="33" t="s">
+      <c r="BO55" s="25"/>
+      <c r="BP55" s="25"/>
+      <c r="BQ55" s="25"/>
+      <c r="BR55" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="BS55" s="33"/>
-      <c r="BT55" s="33"/>
-      <c r="BU55" s="33"/>
-      <c r="BV55" s="33" t="s">
+      <c r="BS55" s="25"/>
+      <c r="BT55" s="25"/>
+      <c r="BU55" s="25"/>
+      <c r="BV55" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="BW55" s="33"/>
-      <c r="BX55" s="33"/>
-      <c r="BY55" s="33"/>
-      <c r="BZ55" s="33" t="s">
+      <c r="BW55" s="25"/>
+      <c r="BX55" s="25"/>
+      <c r="BY55" s="25"/>
+      <c r="BZ55" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="CA55" s="33"/>
-      <c r="CB55" s="33"/>
-      <c r="CC55" s="33"/>
-      <c r="CD55" s="33" t="s">
+      <c r="CA55" s="25"/>
+      <c r="CB55" s="25"/>
+      <c r="CC55" s="25"/>
+      <c r="CD55" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="CE55" s="33"/>
-      <c r="CF55" s="33"/>
-      <c r="CG55" s="33"/>
-      <c r="CH55" s="33" t="s">
+      <c r="CE55" s="25"/>
+      <c r="CF55" s="25"/>
+      <c r="CG55" s="25"/>
+      <c r="CH55" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="CI55" s="33"/>
-      <c r="CJ55" s="33"/>
-      <c r="CK55" s="33"/>
-      <c r="CL55" s="34" t="s">
+      <c r="CI55" s="25"/>
+      <c r="CJ55" s="25"/>
+      <c r="CK55" s="25"/>
+      <c r="CL55" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="CM55" s="34"/>
-      <c r="CN55" s="34"/>
-      <c r="CO55" s="28"/>
-      <c r="CP55" s="21"/>
-      <c r="CQ55" s="21"/>
-      <c r="CR55" s="21"/>
+      <c r="CM55" s="24"/>
+      <c r="CN55" s="24"/>
+      <c r="CO55" s="24"/>
+      <c r="CP55" s="23"/>
+      <c r="CQ55" s="23"/>
+      <c r="CR55" s="23"/>
+      <c r="CS55" s="23"/>
     </row>
     <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
@@ -31264,29 +31091,25 @@
       <c r="CK56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL56" s="29" t="s">
+      <c r="CL56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM56" s="29" t="s">
+      <c r="CM56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN56" s="29" t="s">
+      <c r="CN56" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CO56" s="29"/>
-      <c r="CP56" s="29"/>
-      <c r="CQ56" s="29"/>
-      <c r="CR56" s="29"/>
+      <c r="CO56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP56" s="5"/>
+      <c r="CQ56" s="5"/>
+      <c r="CR56" s="5"/>
+      <c r="CS56" s="5"/>
     </row>
     <row r="57" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
-      <c r="CL57" s="22"/>
-      <c r="CM57" s="22"/>
-      <c r="CN57" s="22"/>
-      <c r="CO57" s="22"/>
-      <c r="CP57" s="22"/>
-      <c r="CQ57" s="22"/>
-      <c r="CR57" s="22"/>
     </row>
     <row r="58" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -31556,19 +31379,22 @@
       <c r="CK58" s="15">
         <v>37.30484426126992</v>
       </c>
-      <c r="CL58" s="30">
+      <c r="CL58" s="15">
         <v>-19.473722975386224</v>
       </c>
-      <c r="CM58" s="30">
+      <c r="CM58" s="15">
         <v>-60.226791024212901</v>
       </c>
-      <c r="CN58" s="30">
-        <v>-69.626564667758927</v>
-      </c>
-      <c r="CO58" s="30"/>
-      <c r="CP58" s="30"/>
-      <c r="CQ58" s="30"/>
-      <c r="CR58" s="30"/>
+      <c r="CN58" s="15">
+        <v>-69.553337588941019</v>
+      </c>
+      <c r="CO58" s="15">
+        <v>-16.177383905995143</v>
+      </c>
+      <c r="CP58" s="15"/>
+      <c r="CQ58" s="15"/>
+      <c r="CR58" s="15"/>
+      <c r="CS58" s="15"/>
     </row>
     <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -31838,20 +31664,22 @@
       <c r="CK59" s="15">
         <v>28.468646738548301</v>
       </c>
-      <c r="CL59" s="30">
+      <c r="CL59" s="15">
         <v>-47.443315019981334</v>
       </c>
-      <c r="CM59" s="30">
+      <c r="CM59" s="15">
         <v>-67.082830569848966</v>
       </c>
-      <c r="CN59" s="30">
+      <c r="CN59" s="15">
         <v>-58.325118678078262</v>
       </c>
-      <c r="CO59" s="30"/>
-      <c r="CP59" s="30"/>
-      <c r="CQ59" s="30"/>
-      <c r="CR59" s="30"/>
-      <c r="CS59" s="9"/>
+      <c r="CO59" s="15">
+        <v>-47.523461612494863</v>
+      </c>
+      <c r="CP59" s="15"/>
+      <c r="CQ59" s="15"/>
+      <c r="CR59" s="15"/>
+      <c r="CS59" s="15"/>
       <c r="CT59" s="9"/>
       <c r="CU59" s="9"/>
       <c r="CV59" s="9"/>
@@ -32173,20 +32001,22 @@
       <c r="CK60" s="15">
         <v>18.786959845235245</v>
       </c>
-      <c r="CL60" s="30">
+      <c r="CL60" s="15">
         <v>14.469366642966961</v>
       </c>
-      <c r="CM60" s="30">
+      <c r="CM60" s="15">
         <v>10.204146747955505</v>
       </c>
-      <c r="CN60" s="30">
-        <v>19.74099488593744</v>
-      </c>
-      <c r="CO60" s="30"/>
-      <c r="CP60" s="30"/>
-      <c r="CQ60" s="30"/>
-      <c r="CR60" s="30"/>
-      <c r="CS60" s="9"/>
+      <c r="CN60" s="15">
+        <v>20.604249574594576</v>
+      </c>
+      <c r="CO60" s="15">
+        <v>22.274670949663218</v>
+      </c>
+      <c r="CP60" s="15"/>
+      <c r="CQ60" s="15"/>
+      <c r="CR60" s="15"/>
+      <c r="CS60" s="15"/>
       <c r="CT60" s="9"/>
       <c r="CU60" s="9"/>
       <c r="CV60" s="9"/>
@@ -32508,20 +32338,22 @@
       <c r="CK61" s="15">
         <v>40.693310625311057</v>
       </c>
-      <c r="CL61" s="30">
+      <c r="CL61" s="15">
         <v>16.561357474248894</v>
       </c>
-      <c r="CM61" s="30">
+      <c r="CM61" s="15">
         <v>4.1340659856197561</v>
       </c>
-      <c r="CN61" s="30">
-        <v>2.4255516335699241</v>
-      </c>
-      <c r="CO61" s="30"/>
-      <c r="CP61" s="30"/>
-      <c r="CQ61" s="30"/>
-      <c r="CR61" s="30"/>
-      <c r="CS61" s="9"/>
+      <c r="CN61" s="15">
+        <v>4.3645387118358485</v>
+      </c>
+      <c r="CO61" s="15">
+        <v>-13.175897411810439</v>
+      </c>
+      <c r="CP61" s="15"/>
+      <c r="CQ61" s="15"/>
+      <c r="CR61" s="15"/>
+      <c r="CS61" s="15"/>
       <c r="CT61" s="9"/>
       <c r="CU61" s="9"/>
       <c r="CV61" s="9"/>
@@ -32843,20 +32675,22 @@
       <c r="CK62" s="15">
         <v>9.702739527062505</v>
       </c>
-      <c r="CL62" s="30">
+      <c r="CL62" s="15">
         <v>-3.3223731734942703</v>
       </c>
-      <c r="CM62" s="30">
+      <c r="CM62" s="15">
         <v>4.1160007160586645</v>
       </c>
-      <c r="CN62" s="30">
+      <c r="CN62" s="15">
         <v>1.2648201612025218</v>
       </c>
-      <c r="CO62" s="30"/>
-      <c r="CP62" s="30"/>
-      <c r="CQ62" s="30"/>
-      <c r="CR62" s="30"/>
-      <c r="CS62" s="9"/>
+      <c r="CO62" s="15">
+        <v>4.2205351309310544</v>
+      </c>
+      <c r="CP62" s="15"/>
+      <c r="CQ62" s="15"/>
+      <c r="CR62" s="15"/>
+      <c r="CS62" s="15"/>
       <c r="CT62" s="9"/>
       <c r="CU62" s="9"/>
       <c r="CV62" s="9"/>
@@ -33178,20 +33012,22 @@
       <c r="CK63" s="15">
         <v>10.872811751645628</v>
       </c>
-      <c r="CL63" s="30">
+      <c r="CL63" s="15">
         <v>10.917408354490661</v>
       </c>
-      <c r="CM63" s="30">
+      <c r="CM63" s="15">
         <v>8.3521869831905349</v>
       </c>
-      <c r="CN63" s="30">
-        <v>22.080902603663006</v>
-      </c>
-      <c r="CO63" s="30"/>
-      <c r="CP63" s="30"/>
-      <c r="CQ63" s="30"/>
-      <c r="CR63" s="30"/>
-      <c r="CS63" s="9"/>
+      <c r="CN63" s="15">
+        <v>22.332717419814998</v>
+      </c>
+      <c r="CO63" s="15">
+        <v>7.8482601019550344</v>
+      </c>
+      <c r="CP63" s="15"/>
+      <c r="CQ63" s="15"/>
+      <c r="CR63" s="15"/>
+      <c r="CS63" s="15"/>
       <c r="CT63" s="9"/>
       <c r="CU63" s="9"/>
       <c r="CV63" s="9"/>
@@ -33334,13 +33170,13 @@
       <c r="CI64" s="9"/>
       <c r="CJ64" s="9"/>
       <c r="CK64" s="9"/>
-      <c r="CL64" s="25"/>
-      <c r="CM64" s="25"/>
-      <c r="CN64" s="25"/>
-      <c r="CO64" s="25"/>
-      <c r="CP64" s="25"/>
-      <c r="CQ64" s="25"/>
-      <c r="CR64" s="25"/>
+      <c r="CL64" s="9"/>
+      <c r="CM64" s="9"/>
+      <c r="CN64" s="9"/>
+      <c r="CO64" s="9"/>
+      <c r="CP64" s="9"/>
+      <c r="CQ64" s="9"/>
+      <c r="CR64" s="9"/>
       <c r="CS64" s="9"/>
       <c r="CT64" s="9"/>
       <c r="CU64" s="9"/>
@@ -33663,20 +33499,22 @@
       <c r="CK65" s="15">
         <v>21.236939875786703</v>
       </c>
-      <c r="CL65" s="30">
+      <c r="CL65" s="15">
         <v>-5.729766545971188</v>
       </c>
-      <c r="CM65" s="30">
+      <c r="CM65" s="15">
         <v>-24.08128185764977</v>
       </c>
-      <c r="CN65" s="30">
-        <v>-28.783854176124066</v>
-      </c>
-      <c r="CO65" s="30"/>
-      <c r="CP65" s="30"/>
-      <c r="CQ65" s="30"/>
-      <c r="CR65" s="30"/>
-      <c r="CS65" s="9"/>
+      <c r="CN65" s="15">
+        <v>-28.364802843665885</v>
+      </c>
+      <c r="CO65" s="15">
+        <v>-7.9215350429840754</v>
+      </c>
+      <c r="CP65" s="15"/>
+      <c r="CQ65" s="15"/>
+      <c r="CR65" s="15"/>
+      <c r="CS65" s="15"/>
       <c r="CT65" s="9"/>
       <c r="CU65" s="9"/>
       <c r="CV65" s="9"/>
@@ -33820,25 +33658,19 @@
       <c r="CI66" s="13"/>
       <c r="CJ66" s="13"/>
       <c r="CK66" s="13"/>
-      <c r="CL66" s="27"/>
-      <c r="CM66" s="27"/>
-      <c r="CN66" s="27"/>
-      <c r="CO66" s="27"/>
-      <c r="CP66" s="27"/>
-      <c r="CQ66" s="27"/>
-      <c r="CR66" s="27"/>
+      <c r="CL66" s="13"/>
+      <c r="CM66" s="13"/>
+      <c r="CN66" s="13"/>
+      <c r="CO66" s="13"/>
+      <c r="CP66" s="13"/>
+      <c r="CQ66" s="13"/>
+      <c r="CR66" s="13"/>
+      <c r="CS66" s="13"/>
     </row>
     <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="CL67" s="22"/>
-      <c r="CM67" s="22"/>
-      <c r="CN67" s="22"/>
-      <c r="CO67" s="22"/>
-      <c r="CP67" s="22"/>
-      <c r="CQ67" s="22"/>
-      <c r="CR67" s="22"/>
     </row>
     <row r="68" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
@@ -33932,13 +33764,13 @@
       <c r="CI68" s="9"/>
       <c r="CJ68" s="9"/>
       <c r="CK68" s="9"/>
-      <c r="CL68" s="25"/>
-      <c r="CM68" s="25"/>
-      <c r="CN68" s="25"/>
-      <c r="CO68" s="25"/>
-      <c r="CP68" s="25"/>
-      <c r="CQ68" s="25"/>
-      <c r="CR68" s="25"/>
+      <c r="CL68" s="9"/>
+      <c r="CM68" s="9"/>
+      <c r="CN68" s="9"/>
+      <c r="CO68" s="9"/>
+      <c r="CP68" s="9"/>
+      <c r="CQ68" s="9"/>
+      <c r="CR68" s="9"/>
       <c r="CS68" s="9"/>
       <c r="CT68" s="9"/>
       <c r="CU68" s="9"/>
@@ -34082,13 +33914,13 @@
       <c r="CI69" s="9"/>
       <c r="CJ69" s="9"/>
       <c r="CK69" s="9"/>
-      <c r="CL69" s="25"/>
-      <c r="CM69" s="25"/>
-      <c r="CN69" s="25"/>
-      <c r="CO69" s="25"/>
-      <c r="CP69" s="25"/>
-      <c r="CQ69" s="25"/>
-      <c r="CR69" s="25"/>
+      <c r="CL69" s="9"/>
+      <c r="CM69" s="9"/>
+      <c r="CN69" s="9"/>
+      <c r="CO69" s="9"/>
+      <c r="CP69" s="9"/>
+      <c r="CQ69" s="9"/>
+      <c r="CR69" s="9"/>
       <c r="CS69" s="9"/>
       <c r="CT69" s="9"/>
       <c r="CU69" s="9"/>
@@ -34147,235 +33979,178 @@
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL70" s="22"/>
-      <c r="CM70" s="22"/>
-      <c r="CN70" s="22"/>
-      <c r="CO70" s="22"/>
-      <c r="CP70" s="22"/>
-      <c r="CQ70" s="22"/>
-      <c r="CR70" s="22"/>
     </row>
     <row r="71" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CL71" s="22"/>
-      <c r="CM71" s="22"/>
-      <c r="CN71" s="22"/>
-      <c r="CO71" s="22"/>
-      <c r="CP71" s="22"/>
-      <c r="CQ71" s="22"/>
-      <c r="CR71" s="22"/>
     </row>
     <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CL72" s="22"/>
-      <c r="CM72" s="22"/>
-      <c r="CN72" s="22"/>
-      <c r="CO72" s="22"/>
-      <c r="CP72" s="22"/>
-      <c r="CQ72" s="22"/>
-      <c r="CR72" s="22"/>
+        <v>57</v>
+      </c>
     </row>
-    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL73" s="22"/>
-      <c r="CM73" s="22"/>
-      <c r="CN73" s="22"/>
-      <c r="CO73" s="22"/>
-      <c r="CP73" s="22"/>
-      <c r="CQ73" s="22"/>
-      <c r="CR73" s="22"/>
-    </row>
+    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="CL74" s="22"/>
-      <c r="CM74" s="22"/>
-      <c r="CN74" s="22"/>
-      <c r="CO74" s="22"/>
-      <c r="CP74" s="22"/>
-      <c r="CQ74" s="22"/>
-      <c r="CR74" s="22"/>
     </row>
     <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CL75" s="22"/>
-      <c r="CM75" s="22"/>
-      <c r="CN75" s="22"/>
-      <c r="CO75" s="22"/>
-      <c r="CP75" s="22"/>
-      <c r="CQ75" s="22"/>
-      <c r="CR75" s="22"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CL76" s="22"/>
-      <c r="CM76" s="22"/>
-      <c r="CN76" s="22"/>
-      <c r="CO76" s="22"/>
-      <c r="CP76" s="22"/>
-      <c r="CQ76" s="22"/>
-      <c r="CR76" s="22"/>
     </row>
-    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL77" s="22"/>
-      <c r="CM77" s="22"/>
-      <c r="CN77" s="22"/>
-      <c r="CO77" s="22"/>
-      <c r="CP77" s="22"/>
-      <c r="CQ77" s="22"/>
-      <c r="CR77" s="22"/>
-    </row>
+    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="33" t="s">
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="33" t="s">
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="33" t="s">
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="33" t="s">
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="34"/>
-      <c r="T78" s="34"/>
-      <c r="U78" s="34"/>
-      <c r="V78" s="33" t="s">
+      <c r="S78" s="26"/>
+      <c r="T78" s="26"/>
+      <c r="U78" s="26"/>
+      <c r="V78" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="W78" s="34"/>
-      <c r="X78" s="34"/>
-      <c r="Y78" s="34"/>
-      <c r="Z78" s="33" t="s">
+      <c r="W78" s="26"/>
+      <c r="X78" s="26"/>
+      <c r="Y78" s="26"/>
+      <c r="Z78" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AA78" s="34"/>
-      <c r="AB78" s="34"/>
-      <c r="AC78" s="34"/>
-      <c r="AD78" s="33" t="s">
+      <c r="AA78" s="26"/>
+      <c r="AB78" s="26"/>
+      <c r="AC78" s="26"/>
+      <c r="AD78" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="34"/>
-      <c r="AF78" s="34"/>
-      <c r="AG78" s="34"/>
-      <c r="AH78" s="33" t="s">
+      <c r="AE78" s="26"/>
+      <c r="AF78" s="26"/>
+      <c r="AG78" s="26"/>
+      <c r="AH78" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AI78" s="34"/>
-      <c r="AJ78" s="34"/>
-      <c r="AK78" s="34"/>
-      <c r="AL78" s="33" t="s">
+      <c r="AI78" s="26"/>
+      <c r="AJ78" s="26"/>
+      <c r="AK78" s="26"/>
+      <c r="AL78" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AM78" s="34"/>
-      <c r="AN78" s="34"/>
-      <c r="AO78" s="34"/>
-      <c r="AP78" s="33" t="s">
+      <c r="AM78" s="26"/>
+      <c r="AN78" s="26"/>
+      <c r="AO78" s="26"/>
+      <c r="AP78" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AQ78" s="34"/>
-      <c r="AR78" s="34"/>
-      <c r="AS78" s="34"/>
-      <c r="AT78" s="33" t="s">
+      <c r="AQ78" s="26"/>
+      <c r="AR78" s="26"/>
+      <c r="AS78" s="26"/>
+      <c r="AT78" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AU78" s="34"/>
-      <c r="AV78" s="34"/>
-      <c r="AW78" s="34"/>
-      <c r="AX78" s="33" t="s">
+      <c r="AU78" s="26"/>
+      <c r="AV78" s="26"/>
+      <c r="AW78" s="26"/>
+      <c r="AX78" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AY78" s="34"/>
-      <c r="AZ78" s="34"/>
-      <c r="BA78" s="34"/>
-      <c r="BB78" s="33" t="s">
+      <c r="AY78" s="26"/>
+      <c r="AZ78" s="26"/>
+      <c r="BA78" s="26"/>
+      <c r="BB78" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="BC78" s="34"/>
-      <c r="BD78" s="34"/>
-      <c r="BE78" s="34"/>
-      <c r="BF78" s="33" t="s">
+      <c r="BC78" s="26"/>
+      <c r="BD78" s="26"/>
+      <c r="BE78" s="26"/>
+      <c r="BF78" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BG78" s="34"/>
-      <c r="BH78" s="34"/>
-      <c r="BI78" s="34"/>
-      <c r="BJ78" s="33" t="s">
+      <c r="BG78" s="26"/>
+      <c r="BH78" s="26"/>
+      <c r="BI78" s="26"/>
+      <c r="BJ78" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="BK78" s="34"/>
-      <c r="BL78" s="34"/>
-      <c r="BM78" s="34"/>
-      <c r="BN78" s="33" t="s">
+      <c r="BK78" s="26"/>
+      <c r="BL78" s="26"/>
+      <c r="BM78" s="26"/>
+      <c r="BN78" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="BO78" s="34"/>
-      <c r="BP78" s="34"/>
-      <c r="BQ78" s="34"/>
-      <c r="BR78" s="33" t="s">
+      <c r="BO78" s="26"/>
+      <c r="BP78" s="26"/>
+      <c r="BQ78" s="26"/>
+      <c r="BR78" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="BS78" s="34"/>
-      <c r="BT78" s="34"/>
-      <c r="BU78" s="34"/>
-      <c r="BV78" s="33" t="s">
+      <c r="BS78" s="26"/>
+      <c r="BT78" s="26"/>
+      <c r="BU78" s="26"/>
+      <c r="BV78" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="BW78" s="34"/>
-      <c r="BX78" s="34"/>
-      <c r="BY78" s="34"/>
-      <c r="BZ78" s="33" t="s">
+      <c r="BW78" s="26"/>
+      <c r="BX78" s="26"/>
+      <c r="BY78" s="26"/>
+      <c r="BZ78" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="CA78" s="34"/>
-      <c r="CB78" s="34"/>
-      <c r="CC78" s="34"/>
-      <c r="CD78" s="33" t="s">
+      <c r="CA78" s="26"/>
+      <c r="CB78" s="26"/>
+      <c r="CC78" s="26"/>
+      <c r="CD78" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="CE78" s="33"/>
-      <c r="CF78" s="33"/>
-      <c r="CG78" s="33"/>
-      <c r="CH78" s="33" t="s">
+      <c r="CE78" s="25"/>
+      <c r="CF78" s="25"/>
+      <c r="CG78" s="25"/>
+      <c r="CH78" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="CI78" s="33"/>
-      <c r="CJ78" s="33"/>
-      <c r="CK78" s="33"/>
-      <c r="CL78" s="34" t="s">
+      <c r="CI78" s="25"/>
+      <c r="CJ78" s="25"/>
+      <c r="CK78" s="25"/>
+      <c r="CL78" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="CM78" s="34"/>
-      <c r="CN78" s="34"/>
-      <c r="CO78" s="28"/>
-      <c r="CP78" s="21"/>
-      <c r="CQ78" s="21"/>
-      <c r="CR78" s="21"/>
+      <c r="CM78" s="24"/>
+      <c r="CN78" s="24"/>
+      <c r="CO78" s="24"/>
+      <c r="CP78" s="23"/>
+      <c r="CQ78" s="23"/>
+      <c r="CR78" s="23"/>
+      <c r="CS78" s="23"/>
     </row>
     <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
@@ -34645,29 +34420,25 @@
       <c r="CK79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL79" s="29" t="s">
+      <c r="CL79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM79" s="29" t="s">
+      <c r="CM79" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN79" s="29" t="s">
+      <c r="CN79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CO79" s="29"/>
-      <c r="CP79" s="29"/>
-      <c r="CQ79" s="29"/>
-      <c r="CR79" s="29"/>
+      <c r="CO79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP79" s="5"/>
+      <c r="CQ79" s="5"/>
+      <c r="CR79" s="5"/>
+      <c r="CS79" s="5"/>
     </row>
     <row r="80" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
-      <c r="CL80" s="22"/>
-      <c r="CM80" s="22"/>
-      <c r="CN80" s="22"/>
-      <c r="CO80" s="22"/>
-      <c r="CP80" s="22"/>
-      <c r="CQ80" s="22"/>
-      <c r="CR80" s="22"/>
     </row>
     <row r="81" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -34937,20 +34708,22 @@
       <c r="CK81" s="15">
         <v>-31.669763791892748</v>
       </c>
-      <c r="CL81" s="30">
+      <c r="CL81" s="15">
         <v>-9.8357228140963713</v>
       </c>
-      <c r="CM81" s="30">
+      <c r="CM81" s="15">
         <v>-12.433855346726745</v>
       </c>
-      <c r="CN81" s="30">
-        <v>-17.669380604048584</v>
-      </c>
-      <c r="CO81" s="30"/>
-      <c r="CP81" s="30"/>
-      <c r="CQ81" s="30"/>
-      <c r="CR81" s="30"/>
-      <c r="CS81" s="9"/>
+      <c r="CN81" s="15">
+        <v>-17.470890354602403</v>
+      </c>
+      <c r="CO81" s="15">
+        <v>91.115844859185387</v>
+      </c>
+      <c r="CP81" s="15"/>
+      <c r="CQ81" s="15"/>
+      <c r="CR81" s="15"/>
+      <c r="CS81" s="15"/>
       <c r="CT81" s="9"/>
       <c r="CU81" s="9"/>
       <c r="CV81" s="9"/>
@@ -35272,20 +35045,22 @@
       <c r="CK82" s="15">
         <v>-0.4444815095807968</v>
       </c>
-      <c r="CL82" s="30">
+      <c r="CL82" s="15">
         <v>-28.761308224664006</v>
       </c>
-      <c r="CM82" s="30">
+      <c r="CM82" s="15">
         <v>-25.207474679236583</v>
       </c>
-      <c r="CN82" s="30">
+      <c r="CN82" s="15">
         <v>-11.632949691707211</v>
       </c>
-      <c r="CO82" s="30"/>
-      <c r="CP82" s="30"/>
-      <c r="CQ82" s="30"/>
-      <c r="CR82" s="30"/>
-      <c r="CS82" s="9"/>
+      <c r="CO82" s="15">
+        <v>-25.874397678613008</v>
+      </c>
+      <c r="CP82" s="15"/>
+      <c r="CQ82" s="15"/>
+      <c r="CR82" s="15"/>
+      <c r="CS82" s="15"/>
       <c r="CT82" s="9"/>
       <c r="CU82" s="9"/>
       <c r="CV82" s="9"/>
@@ -35607,20 +35382,22 @@
       <c r="CK83" s="15">
         <v>18.097007010717945</v>
       </c>
-      <c r="CL83" s="30">
+      <c r="CL83" s="15">
         <v>6.8071527856334342</v>
       </c>
-      <c r="CM83" s="30">
+      <c r="CM83" s="15">
         <v>4.3634766491565529</v>
       </c>
-      <c r="CN83" s="30">
-        <v>7.7314948713814999</v>
-      </c>
-      <c r="CO83" s="30"/>
-      <c r="CP83" s="30"/>
-      <c r="CQ83" s="30"/>
-      <c r="CR83" s="30"/>
-      <c r="CS83" s="9"/>
+      <c r="CN83" s="15">
+        <v>8.5081688764066854</v>
+      </c>
+      <c r="CO83" s="15">
+        <v>9.521047088765215</v>
+      </c>
+      <c r="CP83" s="15"/>
+      <c r="CQ83" s="15"/>
+      <c r="CR83" s="15"/>
+      <c r="CS83" s="15"/>
       <c r="CT83" s="9"/>
       <c r="CU83" s="9"/>
       <c r="CV83" s="9"/>
@@ -35942,20 +35719,22 @@
       <c r="CK84" s="15">
         <v>9.508638499324789</v>
       </c>
-      <c r="CL84" s="30">
+      <c r="CL84" s="15">
         <v>13.637522880405967</v>
       </c>
-      <c r="CM84" s="30">
+      <c r="CM84" s="15">
         <v>27.539732809363144</v>
       </c>
-      <c r="CN84" s="30">
-        <v>11.802544362918212</v>
-      </c>
-      <c r="CO84" s="30"/>
-      <c r="CP84" s="30"/>
-      <c r="CQ84" s="30"/>
-      <c r="CR84" s="30"/>
-      <c r="CS84" s="9"/>
+      <c r="CN84" s="15">
+        <v>13.919044448878196</v>
+      </c>
+      <c r="CO84" s="15">
+        <v>11.91216337476331</v>
+      </c>
+      <c r="CP84" s="15"/>
+      <c r="CQ84" s="15"/>
+      <c r="CR84" s="15"/>
+      <c r="CS84" s="15"/>
       <c r="CT84" s="9"/>
       <c r="CU84" s="9"/>
       <c r="CV84" s="9"/>
@@ -36277,20 +36056,22 @@
       <c r="CK85" s="15">
         <v>31.40609690924515</v>
       </c>
-      <c r="CL85" s="30">
+      <c r="CL85" s="15">
         <v>-0.17101118775745761</v>
       </c>
-      <c r="CM85" s="30">
+      <c r="CM85" s="15">
         <v>10.678091226177088</v>
       </c>
-      <c r="CN85" s="30">
+      <c r="CN85" s="15">
         <v>-5.4631462522424528</v>
       </c>
-      <c r="CO85" s="30"/>
-      <c r="CP85" s="30"/>
-      <c r="CQ85" s="30"/>
-      <c r="CR85" s="30"/>
-      <c r="CS85" s="9"/>
+      <c r="CO85" s="15">
+        <v>4.6995140419210202</v>
+      </c>
+      <c r="CP85" s="15"/>
+      <c r="CQ85" s="15"/>
+      <c r="CR85" s="15"/>
+      <c r="CS85" s="15"/>
       <c r="CT85" s="9"/>
       <c r="CU85" s="9"/>
       <c r="CV85" s="9"/>
@@ -36612,20 +36393,22 @@
       <c r="CK86" s="15">
         <v>2.8730183549624542</v>
       </c>
-      <c r="CL86" s="30">
+      <c r="CL86" s="15">
         <v>5.2102486405012201</v>
       </c>
-      <c r="CM86" s="30">
+      <c r="CM86" s="15">
         <v>3.7050849277978415</v>
       </c>
-      <c r="CN86" s="30">
-        <v>14.278547090590024</v>
-      </c>
-      <c r="CO86" s="30"/>
-      <c r="CP86" s="30"/>
-      <c r="CQ86" s="30"/>
-      <c r="CR86" s="30"/>
-      <c r="CS86" s="9"/>
+      <c r="CN86" s="15">
+        <v>14.514268082108671</v>
+      </c>
+      <c r="CO86" s="15">
+        <v>6.9887211682223978</v>
+      </c>
+      <c r="CP86" s="15"/>
+      <c r="CQ86" s="15"/>
+      <c r="CR86" s="15"/>
+      <c r="CS86" s="15"/>
       <c r="CT86" s="9"/>
       <c r="CU86" s="9"/>
       <c r="CV86" s="9"/>
@@ -36768,13 +36551,13 @@
       <c r="CI87" s="9"/>
       <c r="CJ87" s="9"/>
       <c r="CK87" s="9"/>
-      <c r="CL87" s="25"/>
-      <c r="CM87" s="25"/>
-      <c r="CN87" s="25"/>
-      <c r="CO87" s="25"/>
-      <c r="CP87" s="25"/>
-      <c r="CQ87" s="25"/>
-      <c r="CR87" s="25"/>
+      <c r="CL87" s="9"/>
+      <c r="CM87" s="9"/>
+      <c r="CN87" s="9"/>
+      <c r="CO87" s="9"/>
+      <c r="CP87" s="9"/>
+      <c r="CQ87" s="9"/>
+      <c r="CR87" s="9"/>
       <c r="CS87" s="9"/>
       <c r="CT87" s="9"/>
       <c r="CU87" s="9"/>
@@ -37097,20 +36880,22 @@
       <c r="CK88" s="15">
         <v>1.8039508039119312</v>
       </c>
-      <c r="CL88" s="30">
+      <c r="CL88" s="15">
         <v>-2.2178296900572434</v>
       </c>
-      <c r="CM88" s="30">
+      <c r="CM88" s="15">
         <v>-2.9463027653971636</v>
       </c>
-      <c r="CN88" s="30">
-        <v>4.4547269426211642</v>
-      </c>
-      <c r="CO88" s="30"/>
-      <c r="CP88" s="30"/>
-      <c r="CQ88" s="30"/>
-      <c r="CR88" s="30"/>
-      <c r="CS88" s="9"/>
+      <c r="CN88" s="15">
+        <v>5.1256457458089102</v>
+      </c>
+      <c r="CO88" s="15">
+        <v>10.326969578683702</v>
+      </c>
+      <c r="CP88" s="15"/>
+      <c r="CQ88" s="15"/>
+      <c r="CR88" s="15"/>
+      <c r="CS88" s="15"/>
       <c r="CT88" s="9"/>
       <c r="CU88" s="9"/>
       <c r="CV88" s="9"/>
@@ -37254,25 +37039,19 @@
       <c r="CI89" s="13"/>
       <c r="CJ89" s="13"/>
       <c r="CK89" s="13"/>
-      <c r="CL89" s="27"/>
-      <c r="CM89" s="27"/>
-      <c r="CN89" s="27"/>
-      <c r="CO89" s="27"/>
-      <c r="CP89" s="27"/>
-      <c r="CQ89" s="27"/>
-      <c r="CR89" s="27"/>
+      <c r="CL89" s="13"/>
+      <c r="CM89" s="13"/>
+      <c r="CN89" s="13"/>
+      <c r="CO89" s="13"/>
+      <c r="CP89" s="13"/>
+      <c r="CQ89" s="13"/>
+      <c r="CR89" s="13"/>
+      <c r="CS89" s="13"/>
     </row>
     <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="CL90" s="22"/>
-      <c r="CM90" s="22"/>
-      <c r="CN90" s="22"/>
-      <c r="CO90" s="22"/>
-      <c r="CP90" s="22"/>
-      <c r="CQ90" s="22"/>
-      <c r="CR90" s="22"/>
     </row>
     <row r="91" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
@@ -37366,13 +37145,13 @@
       <c r="CI91" s="9"/>
       <c r="CJ91" s="9"/>
       <c r="CK91" s="9"/>
-      <c r="CL91" s="25"/>
-      <c r="CM91" s="25"/>
-      <c r="CN91" s="25"/>
-      <c r="CO91" s="25"/>
-      <c r="CP91" s="25"/>
-      <c r="CQ91" s="25"/>
-      <c r="CR91" s="25"/>
+      <c r="CL91" s="9"/>
+      <c r="CM91" s="9"/>
+      <c r="CN91" s="9"/>
+      <c r="CO91" s="9"/>
+      <c r="CP91" s="9"/>
+      <c r="CQ91" s="9"/>
+      <c r="CR91" s="9"/>
       <c r="CS91" s="9"/>
       <c r="CT91" s="9"/>
       <c r="CU91" s="9"/>
@@ -37516,13 +37295,13 @@
       <c r="CI92" s="9"/>
       <c r="CJ92" s="9"/>
       <c r="CK92" s="9"/>
-      <c r="CL92" s="25"/>
-      <c r="CM92" s="25"/>
-      <c r="CN92" s="25"/>
-      <c r="CO92" s="25"/>
-      <c r="CP92" s="25"/>
-      <c r="CQ92" s="25"/>
-      <c r="CR92" s="25"/>
+      <c r="CL92" s="9"/>
+      <c r="CM92" s="9"/>
+      <c r="CN92" s="9"/>
+      <c r="CO92" s="9"/>
+      <c r="CP92" s="9"/>
+      <c r="CQ92" s="9"/>
+      <c r="CR92" s="9"/>
       <c r="CS92" s="9"/>
       <c r="CT92" s="9"/>
       <c r="CU92" s="9"/>
@@ -37586,225 +37365,175 @@
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL93" s="22"/>
-      <c r="CM93" s="22"/>
-      <c r="CN93" s="22"/>
-      <c r="CO93" s="22"/>
-      <c r="CP93" s="22"/>
-      <c r="CQ93" s="22"/>
-      <c r="CR93" s="22"/>
     </row>
     <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CL94" s="22"/>
-      <c r="CM94" s="22"/>
-      <c r="CN94" s="22"/>
-      <c r="CO94" s="22"/>
-      <c r="CP94" s="22"/>
-      <c r="CQ94" s="22"/>
-      <c r="CR94" s="22"/>
+        <v>57</v>
+      </c>
     </row>
-    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL95" s="22"/>
-      <c r="CM95" s="22"/>
-      <c r="CN95" s="22"/>
-      <c r="CO95" s="22"/>
-      <c r="CP95" s="22"/>
-      <c r="CQ95" s="22"/>
-      <c r="CR95" s="22"/>
-    </row>
+    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="96" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="CL96" s="22"/>
-      <c r="CM96" s="22"/>
-      <c r="CN96" s="22"/>
-      <c r="CO96" s="22"/>
-      <c r="CP96" s="22"/>
-      <c r="CQ96" s="22"/>
-      <c r="CR96" s="22"/>
     </row>
     <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CL97" s="22"/>
-      <c r="CM97" s="22"/>
-      <c r="CN97" s="22"/>
-      <c r="CO97" s="22"/>
-      <c r="CP97" s="22"/>
-      <c r="CQ97" s="22"/>
-      <c r="CR97" s="22"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CL98" s="22"/>
-      <c r="CM98" s="22"/>
-      <c r="CN98" s="22"/>
-      <c r="CO98" s="22"/>
-      <c r="CP98" s="22"/>
-      <c r="CQ98" s="22"/>
-      <c r="CR98" s="22"/>
     </row>
-    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL99" s="22"/>
-      <c r="CM99" s="22"/>
-      <c r="CN99" s="22"/>
-      <c r="CO99" s="22"/>
-      <c r="CP99" s="22"/>
-      <c r="CQ99" s="22"/>
-      <c r="CR99" s="22"/>
-    </row>
+    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
-      <c r="B100" s="33">
+      <c r="B100" s="25">
         <v>2000</v>
       </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33">
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25">
         <v>2001</v>
       </c>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33">
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25">
         <v>2002</v>
       </c>
-      <c r="K100" s="33"/>
-      <c r="L100" s="33"/>
-      <c r="M100" s="33"/>
-      <c r="N100" s="33">
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="25">
         <v>2003</v>
       </c>
-      <c r="O100" s="33"/>
-      <c r="P100" s="33"/>
-      <c r="Q100" s="33"/>
-      <c r="R100" s="33">
+      <c r="O100" s="25"/>
+      <c r="P100" s="25"/>
+      <c r="Q100" s="25"/>
+      <c r="R100" s="25">
         <v>2004</v>
       </c>
-      <c r="S100" s="33"/>
-      <c r="T100" s="33"/>
-      <c r="U100" s="33"/>
-      <c r="V100" s="33">
+      <c r="S100" s="25"/>
+      <c r="T100" s="25"/>
+      <c r="U100" s="25"/>
+      <c r="V100" s="25">
         <v>2005</v>
       </c>
-      <c r="W100" s="33"/>
-      <c r="X100" s="33"/>
-      <c r="Y100" s="33"/>
-      <c r="Z100" s="33">
+      <c r="W100" s="25"/>
+      <c r="X100" s="25"/>
+      <c r="Y100" s="25"/>
+      <c r="Z100" s="25">
         <v>2006</v>
       </c>
-      <c r="AA100" s="33"/>
-      <c r="AB100" s="33"/>
-      <c r="AC100" s="33"/>
-      <c r="AD100" s="33">
+      <c r="AA100" s="25"/>
+      <c r="AB100" s="25"/>
+      <c r="AC100" s="25"/>
+      <c r="AD100" s="25">
         <v>2007</v>
       </c>
-      <c r="AE100" s="33"/>
-      <c r="AF100" s="33"/>
-      <c r="AG100" s="33"/>
-      <c r="AH100" s="33">
+      <c r="AE100" s="25"/>
+      <c r="AF100" s="25"/>
+      <c r="AG100" s="25"/>
+      <c r="AH100" s="25">
         <v>2008</v>
       </c>
-      <c r="AI100" s="33"/>
-      <c r="AJ100" s="33"/>
-      <c r="AK100" s="33"/>
-      <c r="AL100" s="33">
+      <c r="AI100" s="25"/>
+      <c r="AJ100" s="25"/>
+      <c r="AK100" s="25"/>
+      <c r="AL100" s="25">
         <v>2009</v>
       </c>
-      <c r="AM100" s="33"/>
-      <c r="AN100" s="33"/>
-      <c r="AO100" s="33"/>
-      <c r="AP100" s="33">
+      <c r="AM100" s="25"/>
+      <c r="AN100" s="25"/>
+      <c r="AO100" s="25"/>
+      <c r="AP100" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ100" s="33"/>
-      <c r="AR100" s="33"/>
-      <c r="AS100" s="33"/>
-      <c r="AT100" s="33">
+      <c r="AQ100" s="25"/>
+      <c r="AR100" s="25"/>
+      <c r="AS100" s="25"/>
+      <c r="AT100" s="25">
         <v>2011</v>
       </c>
-      <c r="AU100" s="33"/>
-      <c r="AV100" s="33"/>
-      <c r="AW100" s="33"/>
-      <c r="AX100" s="33">
+      <c r="AU100" s="25"/>
+      <c r="AV100" s="25"/>
+      <c r="AW100" s="25"/>
+      <c r="AX100" s="25">
         <v>2012</v>
       </c>
-      <c r="AY100" s="33"/>
-      <c r="AZ100" s="33"/>
-      <c r="BA100" s="33"/>
-      <c r="BB100" s="33">
+      <c r="AY100" s="25"/>
+      <c r="AZ100" s="25"/>
+      <c r="BA100" s="25"/>
+      <c r="BB100" s="25">
         <v>2013</v>
       </c>
-      <c r="BC100" s="33"/>
-      <c r="BD100" s="33"/>
-      <c r="BE100" s="33"/>
-      <c r="BF100" s="33">
+      <c r="BC100" s="25"/>
+      <c r="BD100" s="25"/>
+      <c r="BE100" s="25"/>
+      <c r="BF100" s="25">
         <v>2014</v>
       </c>
-      <c r="BG100" s="33"/>
-      <c r="BH100" s="33"/>
-      <c r="BI100" s="33"/>
-      <c r="BJ100" s="33">
+      <c r="BG100" s="25"/>
+      <c r="BH100" s="25"/>
+      <c r="BI100" s="25"/>
+      <c r="BJ100" s="25">
         <v>2015</v>
       </c>
-      <c r="BK100" s="33"/>
-      <c r="BL100" s="33"/>
-      <c r="BM100" s="33"/>
-      <c r="BN100" s="33">
+      <c r="BK100" s="25"/>
+      <c r="BL100" s="25"/>
+      <c r="BM100" s="25"/>
+      <c r="BN100" s="25">
         <v>2016</v>
       </c>
-      <c r="BO100" s="33"/>
-      <c r="BP100" s="33"/>
-      <c r="BQ100" s="33"/>
-      <c r="BR100" s="33">
+      <c r="BO100" s="25"/>
+      <c r="BP100" s="25"/>
+      <c r="BQ100" s="25"/>
+      <c r="BR100" s="25">
         <v>2017</v>
       </c>
-      <c r="BS100" s="33"/>
-      <c r="BT100" s="33"/>
-      <c r="BU100" s="33"/>
-      <c r="BV100" s="33">
+      <c r="BS100" s="25"/>
+      <c r="BT100" s="25"/>
+      <c r="BU100" s="25"/>
+      <c r="BV100" s="25">
         <v>2018</v>
       </c>
-      <c r="BW100" s="33"/>
-      <c r="BX100" s="33"/>
-      <c r="BY100" s="33"/>
-      <c r="BZ100" s="33">
+      <c r="BW100" s="25"/>
+      <c r="BX100" s="25"/>
+      <c r="BY100" s="25"/>
+      <c r="BZ100" s="25">
         <v>2019</v>
       </c>
-      <c r="CA100" s="33"/>
-      <c r="CB100" s="33"/>
-      <c r="CC100" s="33"/>
-      <c r="CD100" s="33">
+      <c r="CA100" s="25"/>
+      <c r="CB100" s="25"/>
+      <c r="CC100" s="25"/>
+      <c r="CD100" s="25">
         <v>2020</v>
       </c>
-      <c r="CE100" s="33"/>
-      <c r="CF100" s="33"/>
-      <c r="CG100" s="33"/>
-      <c r="CH100" s="33">
+      <c r="CE100" s="25"/>
+      <c r="CF100" s="25"/>
+      <c r="CG100" s="25"/>
+      <c r="CH100" s="25">
         <v>2021</v>
       </c>
-      <c r="CI100" s="33"/>
-      <c r="CJ100" s="33"/>
-      <c r="CK100" s="33"/>
-      <c r="CL100" s="34">
+      <c r="CI100" s="25"/>
+      <c r="CJ100" s="25"/>
+      <c r="CK100" s="25"/>
+      <c r="CL100" s="24">
         <v>2022</v>
       </c>
-      <c r="CM100" s="34"/>
-      <c r="CN100" s="34"/>
-      <c r="CO100" s="34"/>
-      <c r="CP100" s="34">
+      <c r="CM100" s="24"/>
+      <c r="CN100" s="24"/>
+      <c r="CO100" s="24"/>
+      <c r="CP100" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ100" s="34"/>
-      <c r="CR100" s="34"/>
+      <c r="CQ100" s="24"/>
+      <c r="CR100" s="24"/>
+      <c r="CS100" s="24"/>
     </row>
     <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
@@ -38074,37 +37803,33 @@
       <c r="CK101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL101" s="23" t="s">
+      <c r="CL101" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM101" s="23" t="s">
+      <c r="CM101" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN101" s="23" t="s">
+      <c r="CN101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO101" s="23" t="s">
+      <c r="CO101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP101" s="23" t="s">
+      <c r="CP101" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ101" s="23" t="s">
+      <c r="CQ101" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR101" s="23" t="s">
+      <c r="CR101" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS101" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
-      <c r="CL102" s="22"/>
-      <c r="CM102" s="22"/>
-      <c r="CN102" s="22"/>
-      <c r="CO102" s="22"/>
-      <c r="CP102" s="22"/>
-      <c r="CQ102" s="22"/>
-      <c r="CR102" s="22"/>
     </row>
     <row r="103" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -38374,28 +38099,30 @@
       <c r="CK103" s="15">
         <v>123.00525877779687</v>
       </c>
-      <c r="CL103" s="30">
+      <c r="CL103" s="15">
         <v>178.7551627404136</v>
       </c>
-      <c r="CM103" s="30">
+      <c r="CM103" s="15">
         <v>266.82763271392389</v>
       </c>
-      <c r="CN103" s="30">
+      <c r="CN103" s="15">
         <v>805.67826580066469</v>
       </c>
-      <c r="CO103" s="30">
+      <c r="CO103" s="15">
         <v>247.1704890403808</v>
       </c>
-      <c r="CP103" s="30">
+      <c r="CP103" s="15">
         <v>159.64734819240488</v>
       </c>
-      <c r="CQ103" s="30">
+      <c r="CQ103" s="15">
         <v>121.19514041033845</v>
       </c>
-      <c r="CR103" s="30">
+      <c r="CR103" s="15">
         <v>297.23105309337666</v>
       </c>
-      <c r="CS103" s="9"/>
+      <c r="CS103" s="15">
+        <v>108.40795030817405</v>
+      </c>
       <c r="CT103" s="9"/>
       <c r="CU103" s="9"/>
       <c r="CV103" s="9"/>
@@ -38722,28 +38449,30 @@
       <c r="CK104" s="15">
         <v>221.33742640289591</v>
       </c>
-      <c r="CL104" s="30">
+      <c r="CL104" s="15">
         <v>209.17690307926432</v>
       </c>
-      <c r="CM104" s="30">
+      <c r="CM104" s="15">
         <v>126.29415824369741</v>
       </c>
-      <c r="CN104" s="30">
+      <c r="CN104" s="15">
         <v>392.84329214173226</v>
       </c>
-      <c r="CO104" s="30">
+      <c r="CO104" s="15">
         <v>285.6187188187817</v>
       </c>
-      <c r="CP104" s="30">
+      <c r="CP104" s="15">
         <v>154.32125894314882</v>
       </c>
-      <c r="CQ104" s="30">
+      <c r="CQ104" s="15">
         <v>55.583712237511342</v>
       </c>
-      <c r="CR104" s="30">
+      <c r="CR104" s="15">
         <v>185.2692550108049</v>
       </c>
-      <c r="CS104" s="9"/>
+      <c r="CS104" s="15">
+        <v>202.20114498765241</v>
+      </c>
       <c r="CT104" s="9"/>
       <c r="CU104" s="9"/>
       <c r="CV104" s="9"/>
@@ -39070,28 +38799,30 @@
       <c r="CK105" s="15">
         <v>152.1688293420205</v>
       </c>
-      <c r="CL105" s="30">
+      <c r="CL105" s="15">
         <v>170.31457071287488</v>
       </c>
-      <c r="CM105" s="30">
+      <c r="CM105" s="15">
         <v>172.30197337640016</v>
       </c>
-      <c r="CN105" s="30">
+      <c r="CN105" s="15">
         <v>171.7487919966259</v>
       </c>
-      <c r="CO105" s="30">
+      <c r="CO105" s="15">
         <v>153.05783845230368</v>
       </c>
-      <c r="CP105" s="30">
+      <c r="CP105" s="15">
         <v>182.53272867127643</v>
       </c>
-      <c r="CQ105" s="30">
+      <c r="CQ105" s="15">
         <v>181.94480069660065</v>
       </c>
-      <c r="CR105" s="30">
+      <c r="CR105" s="15">
         <v>190.8946984230239</v>
       </c>
-      <c r="CS105" s="9"/>
+      <c r="CS105" s="15">
+        <v>170.88128109160451</v>
+      </c>
       <c r="CT105" s="9"/>
       <c r="CU105" s="9"/>
       <c r="CV105" s="9"/>
@@ -39418,28 +39149,30 @@
       <c r="CK106" s="15">
         <v>194.70763443677666</v>
       </c>
-      <c r="CL106" s="30">
+      <c r="CL106" s="15">
         <v>292.05471367558511</v>
       </c>
-      <c r="CM106" s="30">
+      <c r="CM106" s="15">
         <v>210.25118443200734</v>
       </c>
-      <c r="CN106" s="30">
+      <c r="CN106" s="15">
         <v>160.20154212064719</v>
       </c>
-      <c r="CO106" s="30">
+      <c r="CO106" s="15">
         <v>250.15434461000839</v>
       </c>
-      <c r="CP106" s="30">
+      <c r="CP106" s="15">
         <v>299.56913015963897</v>
       </c>
-      <c r="CQ106" s="30">
+      <c r="CQ106" s="15">
         <v>171.66658758744097</v>
       </c>
-      <c r="CR106" s="30">
-        <v>146.76527638755772</v>
-      </c>
-      <c r="CS106" s="9"/>
+      <c r="CR106" s="15">
+        <v>146.76527638755778</v>
+      </c>
+      <c r="CS106" s="15">
+        <v>194.07565562438697</v>
+      </c>
       <c r="CT106" s="9"/>
       <c r="CU106" s="9"/>
       <c r="CV106" s="9"/>
@@ -39766,28 +39499,30 @@
       <c r="CK107" s="15">
         <v>405.42110531462663</v>
       </c>
-      <c r="CL107" s="30">
+      <c r="CL107" s="15">
         <v>55.858418008328833</v>
       </c>
-      <c r="CM107" s="30">
+      <c r="CM107" s="15">
         <v>273.11858721955036</v>
       </c>
-      <c r="CN107" s="30">
+      <c r="CN107" s="15">
         <v>196.87648742928928</v>
       </c>
-      <c r="CO107" s="30">
+      <c r="CO107" s="15">
         <v>338.46074848278317</v>
       </c>
-      <c r="CP107" s="30">
+      <c r="CP107" s="15">
         <v>54.095101589027827</v>
       </c>
-      <c r="CQ107" s="30">
+      <c r="CQ107" s="15">
         <v>256.92541954314146</v>
       </c>
-      <c r="CR107" s="30">
+      <c r="CR107" s="15">
         <v>210.88772582479916</v>
       </c>
-      <c r="CS107" s="9"/>
+      <c r="CS107" s="15">
+        <v>336.91235962726074</v>
+      </c>
       <c r="CT107" s="9"/>
       <c r="CU107" s="9"/>
       <c r="CV107" s="9"/>
@@ -40114,28 +39849,30 @@
       <c r="CK108" s="15">
         <v>85.00705212959609</v>
       </c>
-      <c r="CL108" s="30">
+      <c r="CL108" s="15">
         <v>114.83826192642988</v>
       </c>
-      <c r="CM108" s="30">
+      <c r="CM108" s="15">
         <v>117.80770760731136</v>
       </c>
-      <c r="CN108" s="30">
+      <c r="CN108" s="15">
         <v>140.26402218273677</v>
       </c>
-      <c r="CO108" s="30">
+      <c r="CO108" s="15">
         <v>91.617520697276063</v>
       </c>
-      <c r="CP108" s="30">
+      <c r="CP108" s="15">
         <v>121.06769594602397</v>
       </c>
-      <c r="CQ108" s="30">
+      <c r="CQ108" s="15">
         <v>123.08675868319827</v>
       </c>
-      <c r="CR108" s="30">
-        <v>149.84053321324308</v>
-      </c>
-      <c r="CS108" s="9"/>
+      <c r="CR108" s="15">
+        <v>149.84053321236959</v>
+      </c>
+      <c r="CS108" s="15">
+        <v>92.353568620753393</v>
+      </c>
       <c r="CT108" s="9"/>
       <c r="CU108" s="9"/>
       <c r="CV108" s="9"/>
@@ -40283,13 +40020,13 @@
       <c r="CI109" s="9"/>
       <c r="CJ109" s="9"/>
       <c r="CK109" s="9"/>
-      <c r="CL109" s="25"/>
-      <c r="CM109" s="25"/>
-      <c r="CN109" s="25"/>
-      <c r="CO109" s="25"/>
-      <c r="CP109" s="25"/>
-      <c r="CQ109" s="25"/>
-      <c r="CR109" s="25"/>
+      <c r="CL109" s="9"/>
+      <c r="CM109" s="9"/>
+      <c r="CN109" s="9"/>
+      <c r="CO109" s="9"/>
+      <c r="CP109" s="9"/>
+      <c r="CQ109" s="9"/>
+      <c r="CR109" s="9"/>
       <c r="CS109" s="9"/>
       <c r="CT109" s="9"/>
       <c r="CU109" s="9"/>
@@ -40617,28 +40354,30 @@
       <c r="CK110" s="15">
         <v>135.86637482018693</v>
       </c>
-      <c r="CL110" s="30">
+      <c r="CL110" s="15">
         <v>162.12973974045764</v>
       </c>
-      <c r="CM110" s="30">
+      <c r="CM110" s="15">
         <v>171.29560947102902</v>
       </c>
-      <c r="CN110" s="30">
+      <c r="CN110" s="15">
         <v>262.18465334593634</v>
       </c>
-      <c r="CO110" s="30">
+      <c r="CO110" s="15">
         <v>161.80141718609161</v>
       </c>
-      <c r="CP110" s="30">
+      <c r="CP110" s="15">
         <v>156.30670056440502</v>
       </c>
-      <c r="CQ110" s="30">
+      <c r="CQ110" s="15">
         <v>133.99327861789692</v>
       </c>
-      <c r="CR110" s="30">
-        <v>178.7547682329714</v>
-      </c>
-      <c r="CS110" s="9"/>
+      <c r="CR110" s="15">
+        <v>178.65906269165572</v>
+      </c>
+      <c r="CS110" s="15">
+        <v>135.03884117599816</v>
+      </c>
       <c r="CT110" s="9"/>
       <c r="CU110" s="9"/>
       <c r="CV110" s="9"/>
@@ -40787,261 +40526,198 @@
       <c r="CI111" s="13"/>
       <c r="CJ111" s="13"/>
       <c r="CK111" s="13"/>
-      <c r="CL111" s="27"/>
-      <c r="CM111" s="27"/>
-      <c r="CN111" s="27"/>
-      <c r="CO111" s="27"/>
-      <c r="CP111" s="27"/>
-      <c r="CQ111" s="27"/>
-      <c r="CR111" s="27"/>
+      <c r="CL111" s="13"/>
+      <c r="CM111" s="13"/>
+      <c r="CN111" s="13"/>
+      <c r="CO111" s="13"/>
+      <c r="CP111" s="13"/>
+      <c r="CQ111" s="13"/>
+      <c r="CR111" s="13"/>
+      <c r="CS111" s="13"/>
     </row>
     <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="CL112" s="22"/>
-      <c r="CM112" s="22"/>
-      <c r="CN112" s="22"/>
-      <c r="CO112" s="22"/>
-      <c r="CP112" s="22"/>
-      <c r="CQ112" s="22"/>
-      <c r="CR112" s="22"/>
     </row>
     <row r="115" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL115" s="22"/>
-      <c r="CM115" s="22"/>
-      <c r="CN115" s="22"/>
-      <c r="CO115" s="22"/>
-      <c r="CP115" s="22"/>
-      <c r="CQ115" s="22"/>
-      <c r="CR115" s="22"/>
     </row>
     <row r="116" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CL116" s="22"/>
-      <c r="CM116" s="22"/>
-      <c r="CN116" s="22"/>
-      <c r="CO116" s="22"/>
-      <c r="CP116" s="22"/>
-      <c r="CQ116" s="22"/>
-      <c r="CR116" s="22"/>
     </row>
     <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CL117" s="22"/>
-      <c r="CM117" s="22"/>
-      <c r="CN117" s="22"/>
-      <c r="CO117" s="22"/>
-      <c r="CP117" s="22"/>
-      <c r="CQ117" s="22"/>
-      <c r="CR117" s="22"/>
+        <v>57</v>
+      </c>
     </row>
-    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL118" s="22"/>
-      <c r="CM118" s="22"/>
-      <c r="CN118" s="22"/>
-      <c r="CO118" s="22"/>
-      <c r="CP118" s="22"/>
-      <c r="CQ118" s="22"/>
-      <c r="CR118" s="22"/>
-    </row>
+    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="119" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CL119" s="22"/>
-      <c r="CM119" s="22"/>
-      <c r="CN119" s="22"/>
-      <c r="CO119" s="22"/>
-      <c r="CP119" s="22"/>
-      <c r="CQ119" s="22"/>
-      <c r="CR119" s="22"/>
     </row>
     <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CL120" s="22"/>
-      <c r="CM120" s="22"/>
-      <c r="CN120" s="22"/>
-      <c r="CO120" s="22"/>
-      <c r="CP120" s="22"/>
-      <c r="CQ120" s="22"/>
-      <c r="CR120" s="22"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="CL121" s="22"/>
-      <c r="CM121" s="22"/>
-      <c r="CN121" s="22"/>
-      <c r="CO121" s="22"/>
-      <c r="CP121" s="22"/>
-      <c r="CQ121" s="22"/>
-      <c r="CR121" s="22"/>
     </row>
-    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL122" s="22"/>
-      <c r="CM122" s="22"/>
-      <c r="CN122" s="22"/>
-      <c r="CO122" s="22"/>
-      <c r="CP122" s="22"/>
-      <c r="CQ122" s="22"/>
-      <c r="CR122" s="22"/>
-    </row>
+    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
-      <c r="B123" s="33">
+      <c r="B123" s="25">
         <v>2000</v>
       </c>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33">
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25">
         <v>2001</v>
       </c>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
-      <c r="I123" s="33"/>
-      <c r="J123" s="33">
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="25">
         <v>2002</v>
       </c>
-      <c r="K123" s="33"/>
-      <c r="L123" s="33"/>
-      <c r="M123" s="33"/>
-      <c r="N123" s="33">
+      <c r="K123" s="25"/>
+      <c r="L123" s="25"/>
+      <c r="M123" s="25"/>
+      <c r="N123" s="25">
         <v>2003</v>
       </c>
-      <c r="O123" s="33"/>
-      <c r="P123" s="33"/>
-      <c r="Q123" s="33"/>
-      <c r="R123" s="33">
+      <c r="O123" s="25"/>
+      <c r="P123" s="25"/>
+      <c r="Q123" s="25"/>
+      <c r="R123" s="25">
         <v>2004</v>
       </c>
-      <c r="S123" s="33"/>
-      <c r="T123" s="33"/>
-      <c r="U123" s="33"/>
-      <c r="V123" s="33">
+      <c r="S123" s="25"/>
+      <c r="T123" s="25"/>
+      <c r="U123" s="25"/>
+      <c r="V123" s="25">
         <v>2005</v>
       </c>
-      <c r="W123" s="33"/>
-      <c r="X123" s="33"/>
-      <c r="Y123" s="33"/>
-      <c r="Z123" s="33">
+      <c r="W123" s="25"/>
+      <c r="X123" s="25"/>
+      <c r="Y123" s="25"/>
+      <c r="Z123" s="25">
         <v>2006</v>
       </c>
-      <c r="AA123" s="33"/>
-      <c r="AB123" s="33"/>
-      <c r="AC123" s="33"/>
-      <c r="AD123" s="33">
+      <c r="AA123" s="25"/>
+      <c r="AB123" s="25"/>
+      <c r="AC123" s="25"/>
+      <c r="AD123" s="25">
         <v>2007</v>
       </c>
-      <c r="AE123" s="33"/>
-      <c r="AF123" s="33"/>
-      <c r="AG123" s="33"/>
-      <c r="AH123" s="33">
+      <c r="AE123" s="25"/>
+      <c r="AF123" s="25"/>
+      <c r="AG123" s="25"/>
+      <c r="AH123" s="25">
         <v>2008</v>
       </c>
-      <c r="AI123" s="33"/>
-      <c r="AJ123" s="33"/>
-      <c r="AK123" s="33"/>
-      <c r="AL123" s="33">
+      <c r="AI123" s="25"/>
+      <c r="AJ123" s="25"/>
+      <c r="AK123" s="25"/>
+      <c r="AL123" s="25">
         <v>2009</v>
       </c>
-      <c r="AM123" s="33"/>
-      <c r="AN123" s="33"/>
-      <c r="AO123" s="33"/>
-      <c r="AP123" s="33">
+      <c r="AM123" s="25"/>
+      <c r="AN123" s="25"/>
+      <c r="AO123" s="25"/>
+      <c r="AP123" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ123" s="33"/>
-      <c r="AR123" s="33"/>
-      <c r="AS123" s="33"/>
-      <c r="AT123" s="33">
+      <c r="AQ123" s="25"/>
+      <c r="AR123" s="25"/>
+      <c r="AS123" s="25"/>
+      <c r="AT123" s="25">
         <v>2011</v>
       </c>
-      <c r="AU123" s="33"/>
-      <c r="AV123" s="33"/>
-      <c r="AW123" s="33"/>
-      <c r="AX123" s="33">
+      <c r="AU123" s="25"/>
+      <c r="AV123" s="25"/>
+      <c r="AW123" s="25"/>
+      <c r="AX123" s="25">
         <v>2012</v>
       </c>
-      <c r="AY123" s="33"/>
-      <c r="AZ123" s="33"/>
-      <c r="BA123" s="33"/>
-      <c r="BB123" s="33">
+      <c r="AY123" s="25"/>
+      <c r="AZ123" s="25"/>
+      <c r="BA123" s="25"/>
+      <c r="BB123" s="25">
         <v>2013</v>
       </c>
-      <c r="BC123" s="33"/>
-      <c r="BD123" s="33"/>
-      <c r="BE123" s="33"/>
-      <c r="BF123" s="33">
+      <c r="BC123" s="25"/>
+      <c r="BD123" s="25"/>
+      <c r="BE123" s="25"/>
+      <c r="BF123" s="25">
         <v>2014</v>
       </c>
-      <c r="BG123" s="33"/>
-      <c r="BH123" s="33"/>
-      <c r="BI123" s="33"/>
-      <c r="BJ123" s="33">
+      <c r="BG123" s="25"/>
+      <c r="BH123" s="25"/>
+      <c r="BI123" s="25"/>
+      <c r="BJ123" s="25">
         <v>2015</v>
       </c>
-      <c r="BK123" s="33"/>
-      <c r="BL123" s="33"/>
-      <c r="BM123" s="33"/>
-      <c r="BN123" s="33">
+      <c r="BK123" s="25"/>
+      <c r="BL123" s="25"/>
+      <c r="BM123" s="25"/>
+      <c r="BN123" s="25">
         <v>2016</v>
       </c>
-      <c r="BO123" s="33"/>
-      <c r="BP123" s="33"/>
-      <c r="BQ123" s="33"/>
-      <c r="BR123" s="33">
+      <c r="BO123" s="25"/>
+      <c r="BP123" s="25"/>
+      <c r="BQ123" s="25"/>
+      <c r="BR123" s="25">
         <v>2017</v>
       </c>
-      <c r="BS123" s="33"/>
-      <c r="BT123" s="33"/>
-      <c r="BU123" s="33"/>
-      <c r="BV123" s="33">
+      <c r="BS123" s="25"/>
+      <c r="BT123" s="25"/>
+      <c r="BU123" s="25"/>
+      <c r="BV123" s="25">
         <v>2018</v>
       </c>
-      <c r="BW123" s="33"/>
-      <c r="BX123" s="33"/>
-      <c r="BY123" s="33"/>
-      <c r="BZ123" s="33">
+      <c r="BW123" s="25"/>
+      <c r="BX123" s="25"/>
+      <c r="BY123" s="25"/>
+      <c r="BZ123" s="25">
         <v>2019</v>
       </c>
-      <c r="CA123" s="33"/>
-      <c r="CB123" s="33"/>
-      <c r="CC123" s="33"/>
-      <c r="CD123" s="33">
+      <c r="CA123" s="25"/>
+      <c r="CB123" s="25"/>
+      <c r="CC123" s="25"/>
+      <c r="CD123" s="25">
         <v>2020</v>
       </c>
-      <c r="CE123" s="33"/>
-      <c r="CF123" s="33"/>
-      <c r="CG123" s="33"/>
-      <c r="CH123" s="33">
+      <c r="CE123" s="25"/>
+      <c r="CF123" s="25"/>
+      <c r="CG123" s="25"/>
+      <c r="CH123" s="25">
         <v>2021</v>
       </c>
-      <c r="CI123" s="33"/>
-      <c r="CJ123" s="33"/>
-      <c r="CK123" s="33"/>
-      <c r="CL123" s="34">
+      <c r="CI123" s="25"/>
+      <c r="CJ123" s="25"/>
+      <c r="CK123" s="25"/>
+      <c r="CL123" s="24">
         <v>2022</v>
       </c>
-      <c r="CM123" s="34"/>
-      <c r="CN123" s="34"/>
-      <c r="CO123" s="34"/>
-      <c r="CP123" s="34">
+      <c r="CM123" s="24"/>
+      <c r="CN123" s="24"/>
+      <c r="CO123" s="24"/>
+      <c r="CP123" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ123" s="34"/>
-      <c r="CR123" s="34"/>
+      <c r="CQ123" s="24"/>
+      <c r="CR123" s="24"/>
+      <c r="CS123" s="24"/>
     </row>
     <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
@@ -41311,37 +40987,33 @@
       <c r="CK124" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL124" s="23" t="s">
+      <c r="CL124" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM124" s="23" t="s">
+      <c r="CM124" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN124" s="23" t="s">
+      <c r="CN124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO124" s="23" t="s">
+      <c r="CO124" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP124" s="23" t="s">
+      <c r="CP124" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ124" s="23" t="s">
+      <c r="CQ124" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR124" s="23" t="s">
+      <c r="CR124" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS124" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
-      <c r="CL125" s="22"/>
-      <c r="CM125" s="22"/>
-      <c r="CN125" s="22"/>
-      <c r="CO125" s="22"/>
-      <c r="CP125" s="22"/>
-      <c r="CQ125" s="22"/>
-      <c r="CR125" s="22"/>
     </row>
     <row r="126" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -41611,28 +41283,30 @@
       <c r="CK126" s="18">
         <v>11.631648488088169</v>
       </c>
-      <c r="CL126" s="32">
+      <c r="CL126" s="18">
         <v>27.405984844154315</v>
       </c>
-      <c r="CM126" s="32">
+      <c r="CM126" s="18">
         <v>22.807248774045114</v>
       </c>
-      <c r="CN126" s="32">
+      <c r="CN126" s="18">
         <v>35.808835058759236</v>
       </c>
-      <c r="CO126" s="32">
+      <c r="CO126" s="18">
         <v>13.17322662379199</v>
       </c>
-      <c r="CP126" s="32">
+      <c r="CP126" s="18">
         <v>23.410379361889877</v>
       </c>
-      <c r="CQ126" s="32">
+      <c r="CQ126" s="18">
         <v>11.948535141913007</v>
       </c>
-      <c r="CR126" s="32">
-        <v>15.272342014547343</v>
-      </c>
-      <c r="CS126" s="9"/>
+      <c r="CR126" s="18">
+        <v>15.219606501368203</v>
+      </c>
+      <c r="CS126" s="18">
+        <v>11.992101720211224</v>
+      </c>
       <c r="CT126" s="9"/>
       <c r="CU126" s="9"/>
       <c r="CV126" s="9"/>
@@ -41959,28 +41633,30 @@
       <c r="CK127" s="18">
         <v>23.07643681778659</v>
       </c>
-      <c r="CL127" s="32">
+      <c r="CL127" s="18">
         <v>16.057575758750307</v>
       </c>
-      <c r="CM127" s="32">
+      <c r="CM127" s="18">
         <v>21.379355278258387</v>
       </c>
-      <c r="CN127" s="32">
+      <c r="CN127" s="18">
         <v>18.136692891822157</v>
       </c>
-      <c r="CO127" s="32">
+      <c r="CO127" s="18">
         <v>24.452931693640853</v>
       </c>
-      <c r="CP127" s="32">
+      <c r="CP127" s="18">
         <v>8.9522739021005027</v>
       </c>
-      <c r="CQ127" s="32">
+      <c r="CQ127" s="18">
         <v>9.2697542479876134</v>
       </c>
-      <c r="CR127" s="32">
-        <v>10.613387106178182</v>
-      </c>
-      <c r="CS127" s="9"/>
+      <c r="CR127" s="18">
+        <v>10.551300950415502</v>
+      </c>
+      <c r="CS127" s="18">
+        <v>13.935996970707656</v>
+      </c>
       <c r="CT127" s="9"/>
       <c r="CU127" s="9"/>
       <c r="CV127" s="9"/>
@@ -42307,28 +41983,30 @@
       <c r="CK128" s="18">
         <v>19.351281976988812</v>
       </c>
-      <c r="CL128" s="32">
+      <c r="CL128" s="18">
         <v>14.307790448799576</v>
       </c>
-      <c r="CM128" s="32">
+      <c r="CM128" s="18">
         <v>18.738212178254766</v>
       </c>
-      <c r="CN128" s="32">
+      <c r="CN128" s="18">
         <v>14.73002073947584</v>
       </c>
-      <c r="CO128" s="32">
+      <c r="CO128" s="18">
         <v>18.9602274480823</v>
       </c>
-      <c r="CP128" s="32">
+      <c r="CP128" s="18">
         <v>17.373497982616744</v>
       </c>
-      <c r="CQ128" s="32">
+      <c r="CQ128" s="18">
         <v>27.200520967895102</v>
       </c>
-      <c r="CR128" s="32">
-        <v>24.766677803616851</v>
-      </c>
-      <c r="CS128" s="9"/>
+      <c r="CR128" s="18">
+        <v>24.799304923049501</v>
+      </c>
+      <c r="CS128" s="18">
+        <v>25.178043242003341</v>
+      </c>
       <c r="CT128" s="9"/>
       <c r="CU128" s="9"/>
       <c r="CV128" s="9"/>
@@ -42655,28 +42333,30 @@
       <c r="CK129" s="18">
         <v>6.0734282824196821</v>
       </c>
-      <c r="CL129" s="32">
+      <c r="CL129" s="18">
         <v>18.19725966312183</v>
       </c>
-      <c r="CM129" s="32">
+      <c r="CM129" s="18">
         <v>19.437673350618347</v>
       </c>
-      <c r="CN129" s="32">
+      <c r="CN129" s="18">
         <v>11.650504470949855</v>
       </c>
-      <c r="CO129" s="32">
+      <c r="CO129" s="18">
         <v>7.048105410566202</v>
       </c>
-      <c r="CP129" s="32">
+      <c r="CP129" s="18">
         <v>22.500180713769353</v>
       </c>
-      <c r="CQ129" s="32">
+      <c r="CQ129" s="18">
         <v>26.661724655373014</v>
       </c>
-      <c r="CR129" s="32">
-        <v>16.756162994239752</v>
-      </c>
-      <c r="CS129" s="9"/>
+      <c r="CR129" s="18">
+        <v>16.973493103080692</v>
+      </c>
+      <c r="CS129" s="18">
+        <v>6.6459125649525355</v>
+      </c>
       <c r="CT129" s="9"/>
       <c r="CU129" s="9"/>
       <c r="CV129" s="9"/>
@@ -43003,28 +42683,30 @@
       <c r="CK130" s="18">
         <v>9.6968762086018234</v>
       </c>
-      <c r="CL130" s="32">
+      <c r="CL130" s="18">
         <v>3.3857226628903696</v>
       </c>
-      <c r="CM130" s="32">
+      <c r="CM130" s="18">
         <v>4.5345003768964762</v>
       </c>
-      <c r="CN130" s="32">
+      <c r="CN130" s="18">
         <v>3.8805164620723587</v>
       </c>
-      <c r="CO130" s="32">
+      <c r="CO130" s="18">
         <v>8.7743379701624331</v>
       </c>
-      <c r="CP130" s="32">
+      <c r="CP130" s="18">
         <v>3.4721843804553512</v>
       </c>
-      <c r="CQ130" s="32">
+      <c r="CQ130" s="18">
         <v>6.2186777653791721</v>
       </c>
-      <c r="CR130" s="32">
-        <v>5.5178470713111736</v>
-      </c>
-      <c r="CS130" s="9"/>
+      <c r="CR130" s="18">
+        <v>5.4855687882977655</v>
+      </c>
+      <c r="CS130" s="18">
+        <v>9.9313797107376551</v>
+      </c>
       <c r="CT130" s="9"/>
       <c r="CU130" s="9"/>
       <c r="CV130" s="9"/>
@@ -43351,28 +43033,30 @@
       <c r="CK131" s="18">
         <v>30.170328226114929</v>
       </c>
-      <c r="CL131" s="32">
+      <c r="CL131" s="18">
         <v>20.645666622283613</v>
       </c>
-      <c r="CM131" s="32">
+      <c r="CM131" s="18">
         <v>13.103010041926899</v>
       </c>
-      <c r="CN131" s="32">
+      <c r="CN131" s="18">
         <v>15.793430376920533</v>
       </c>
-      <c r="CO131" s="32">
+      <c r="CO131" s="18">
         <v>27.591170853756218</v>
       </c>
-      <c r="CP131" s="32">
+      <c r="CP131" s="18">
         <v>24.291483659168168</v>
       </c>
-      <c r="CQ131" s="32">
+      <c r="CQ131" s="18">
         <v>18.700787221452092</v>
       </c>
-      <c r="CR131" s="32">
-        <v>27.073583010106695</v>
-      </c>
-      <c r="CS131" s="9"/>
+      <c r="CR131" s="18">
+        <v>26.970725733788342</v>
+      </c>
+      <c r="CS131" s="18">
+        <v>32.316565791387582</v>
+      </c>
       <c r="CT131" s="9"/>
       <c r="CU131" s="9"/>
       <c r="CV131" s="9"/>
@@ -43520,13 +43204,13 @@
       <c r="CI132" s="9"/>
       <c r="CJ132" s="9"/>
       <c r="CK132" s="9"/>
-      <c r="CL132" s="25"/>
-      <c r="CM132" s="25"/>
-      <c r="CN132" s="25"/>
-      <c r="CO132" s="25"/>
-      <c r="CP132" s="25"/>
-      <c r="CQ132" s="25"/>
-      <c r="CR132" s="25"/>
+      <c r="CL132" s="9"/>
+      <c r="CM132" s="9"/>
+      <c r="CN132" s="9"/>
+      <c r="CO132" s="9"/>
+      <c r="CP132" s="9"/>
+      <c r="CQ132" s="9"/>
+      <c r="CR132" s="9"/>
       <c r="CS132" s="9"/>
       <c r="CT132" s="9"/>
       <c r="CU132" s="9"/>
@@ -43854,28 +43538,30 @@
       <c r="CK133" s="18">
         <v>100</v>
       </c>
-      <c r="CL133" s="32">
+      <c r="CL133" s="18">
         <v>100</v>
       </c>
-      <c r="CM133" s="32">
+      <c r="CM133" s="18">
         <v>100</v>
       </c>
-      <c r="CN133" s="32">
+      <c r="CN133" s="18">
         <v>100</v>
       </c>
-      <c r="CO133" s="32">
+      <c r="CO133" s="18">
         <v>100</v>
       </c>
-      <c r="CP133" s="32">
+      <c r="CP133" s="18">
         <v>100</v>
       </c>
-      <c r="CQ133" s="32">
+      <c r="CQ133" s="18">
         <v>100</v>
       </c>
-      <c r="CR133" s="32">
+      <c r="CR133" s="18">
         <v>100</v>
       </c>
-      <c r="CS133" s="9"/>
+      <c r="CS133" s="18">
+        <v>100</v>
+      </c>
       <c r="CT133" s="9"/>
       <c r="CU133" s="9"/>
       <c r="CV133" s="9"/>
@@ -44024,25 +43710,19 @@
       <c r="CI134" s="13"/>
       <c r="CJ134" s="13"/>
       <c r="CK134" s="13"/>
-      <c r="CL134" s="27"/>
-      <c r="CM134" s="27"/>
-      <c r="CN134" s="27"/>
-      <c r="CO134" s="27"/>
-      <c r="CP134" s="27"/>
-      <c r="CQ134" s="27"/>
-      <c r="CR134" s="27"/>
+      <c r="CL134" s="13"/>
+      <c r="CM134" s="13"/>
+      <c r="CN134" s="13"/>
+      <c r="CO134" s="13"/>
+      <c r="CP134" s="13"/>
+      <c r="CQ134" s="13"/>
+      <c r="CR134" s="13"/>
+      <c r="CS134" s="13"/>
     </row>
     <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="CL135" s="22"/>
-      <c r="CM135" s="22"/>
-      <c r="CN135" s="22"/>
-      <c r="CO135" s="22"/>
-      <c r="CP135" s="22"/>
-      <c r="CQ135" s="22"/>
-      <c r="CR135" s="22"/>
     </row>
     <row r="136" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9"/>
@@ -44133,13 +43813,13 @@
       <c r="CI136" s="9"/>
       <c r="CJ136" s="9"/>
       <c r="CK136" s="9"/>
-      <c r="CL136" s="25"/>
-      <c r="CM136" s="25"/>
-      <c r="CN136" s="25"/>
-      <c r="CO136" s="25"/>
-      <c r="CP136" s="25"/>
-      <c r="CQ136" s="25"/>
-      <c r="CR136" s="25"/>
+      <c r="CL136" s="9"/>
+      <c r="CM136" s="9"/>
+      <c r="CN136" s="9"/>
+      <c r="CO136" s="9"/>
+      <c r="CP136" s="9"/>
+      <c r="CQ136" s="9"/>
+      <c r="CR136" s="9"/>
       <c r="CS136" s="9"/>
       <c r="CT136" s="9"/>
       <c r="CU136" s="9"/>
@@ -44288,13 +43968,13 @@
       <c r="CI137" s="9"/>
       <c r="CJ137" s="9"/>
       <c r="CK137" s="9"/>
-      <c r="CL137" s="25"/>
-      <c r="CM137" s="25"/>
-      <c r="CN137" s="25"/>
-      <c r="CO137" s="25"/>
-      <c r="CP137" s="25"/>
-      <c r="CQ137" s="25"/>
-      <c r="CR137" s="25"/>
+      <c r="CL137" s="9"/>
+      <c r="CM137" s="9"/>
+      <c r="CN137" s="9"/>
+      <c r="CO137" s="9"/>
+      <c r="CP137" s="9"/>
+      <c r="CQ137" s="9"/>
+      <c r="CR137" s="9"/>
       <c r="CS137" s="9"/>
       <c r="CT137" s="9"/>
       <c r="CU137" s="9"/>
@@ -44358,237 +44038,180 @@
       <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL138" s="22"/>
-      <c r="CM138" s="22"/>
-      <c r="CN138" s="22"/>
-      <c r="CO138" s="22"/>
-      <c r="CP138" s="22"/>
-      <c r="CQ138" s="22"/>
-      <c r="CR138" s="22"/>
     </row>
     <row r="139" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CL139" s="22"/>
-      <c r="CM139" s="22"/>
-      <c r="CN139" s="22"/>
-      <c r="CO139" s="22"/>
-      <c r="CP139" s="22"/>
-      <c r="CQ139" s="22"/>
-      <c r="CR139" s="22"/>
     </row>
     <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CL140" s="22"/>
-      <c r="CM140" s="22"/>
-      <c r="CN140" s="22"/>
-      <c r="CO140" s="22"/>
-      <c r="CP140" s="22"/>
-      <c r="CQ140" s="22"/>
-      <c r="CR140" s="22"/>
+        <v>57</v>
+      </c>
     </row>
-    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL141" s="22"/>
-      <c r="CM141" s="22"/>
-      <c r="CN141" s="22"/>
-      <c r="CO141" s="22"/>
-      <c r="CP141" s="22"/>
-      <c r="CQ141" s="22"/>
-      <c r="CR141" s="22"/>
-    </row>
+    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="142" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CL142" s="22"/>
-      <c r="CM142" s="22"/>
-      <c r="CN142" s="22"/>
-      <c r="CO142" s="22"/>
-      <c r="CP142" s="22"/>
-      <c r="CQ142" s="22"/>
-      <c r="CR142" s="22"/>
     </row>
     <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CL143" s="22"/>
-      <c r="CM143" s="22"/>
-      <c r="CN143" s="22"/>
-      <c r="CO143" s="22"/>
-      <c r="CP143" s="22"/>
-      <c r="CQ143" s="22"/>
-      <c r="CR143" s="22"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CL144" s="22"/>
-      <c r="CM144" s="22"/>
-      <c r="CN144" s="22"/>
-      <c r="CO144" s="22"/>
-      <c r="CP144" s="22"/>
-      <c r="CQ144" s="22"/>
-      <c r="CR144" s="22"/>
     </row>
-    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL145" s="22"/>
-      <c r="CM145" s="22"/>
-      <c r="CN145" s="22"/>
-      <c r="CO145" s="22"/>
-      <c r="CP145" s="22"/>
-      <c r="CQ145" s="22"/>
-      <c r="CR145" s="22"/>
-    </row>
+    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
-      <c r="B146" s="33">
+      <c r="B146" s="25">
         <v>2000</v>
       </c>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33">
+      <c r="C146" s="25"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
+      <c r="F146" s="25">
         <v>2001</v>
       </c>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
-      <c r="I146" s="33"/>
-      <c r="J146" s="33">
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="25">
         <v>2002</v>
       </c>
-      <c r="K146" s="33"/>
-      <c r="L146" s="33"/>
-      <c r="M146" s="33"/>
-      <c r="N146" s="33">
+      <c r="K146" s="25"/>
+      <c r="L146" s="25"/>
+      <c r="M146" s="25"/>
+      <c r="N146" s="25">
         <v>2003</v>
       </c>
-      <c r="O146" s="33"/>
-      <c r="P146" s="33"/>
-      <c r="Q146" s="33"/>
-      <c r="R146" s="33">
+      <c r="O146" s="25"/>
+      <c r="P146" s="25"/>
+      <c r="Q146" s="25"/>
+      <c r="R146" s="25">
         <v>2004</v>
       </c>
-      <c r="S146" s="33"/>
-      <c r="T146" s="33"/>
-      <c r="U146" s="33"/>
-      <c r="V146" s="33">
+      <c r="S146" s="25"/>
+      <c r="T146" s="25"/>
+      <c r="U146" s="25"/>
+      <c r="V146" s="25">
         <v>2005</v>
       </c>
-      <c r="W146" s="33"/>
-      <c r="X146" s="33"/>
-      <c r="Y146" s="33"/>
-      <c r="Z146" s="33">
+      <c r="W146" s="25"/>
+      <c r="X146" s="25"/>
+      <c r="Y146" s="25"/>
+      <c r="Z146" s="25">
         <v>2006</v>
       </c>
-      <c r="AA146" s="33"/>
-      <c r="AB146" s="33"/>
-      <c r="AC146" s="33"/>
-      <c r="AD146" s="33">
+      <c r="AA146" s="25"/>
+      <c r="AB146" s="25"/>
+      <c r="AC146" s="25"/>
+      <c r="AD146" s="25">
         <v>2007</v>
       </c>
-      <c r="AE146" s="33"/>
-      <c r="AF146" s="33"/>
-      <c r="AG146" s="33"/>
-      <c r="AH146" s="33">
+      <c r="AE146" s="25"/>
+      <c r="AF146" s="25"/>
+      <c r="AG146" s="25"/>
+      <c r="AH146" s="25">
         <v>2008</v>
       </c>
-      <c r="AI146" s="33"/>
-      <c r="AJ146" s="33"/>
-      <c r="AK146" s="33"/>
-      <c r="AL146" s="33">
+      <c r="AI146" s="25"/>
+      <c r="AJ146" s="25"/>
+      <c r="AK146" s="25"/>
+      <c r="AL146" s="25">
         <v>2009</v>
       </c>
-      <c r="AM146" s="33"/>
-      <c r="AN146" s="33"/>
-      <c r="AO146" s="33"/>
-      <c r="AP146" s="33">
+      <c r="AM146" s="25"/>
+      <c r="AN146" s="25"/>
+      <c r="AO146" s="25"/>
+      <c r="AP146" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ146" s="33"/>
-      <c r="AR146" s="33"/>
-      <c r="AS146" s="33"/>
-      <c r="AT146" s="33">
+      <c r="AQ146" s="25"/>
+      <c r="AR146" s="25"/>
+      <c r="AS146" s="25"/>
+      <c r="AT146" s="25">
         <v>2011</v>
       </c>
-      <c r="AU146" s="33"/>
-      <c r="AV146" s="33"/>
-      <c r="AW146" s="33"/>
-      <c r="AX146" s="33">
+      <c r="AU146" s="25"/>
+      <c r="AV146" s="25"/>
+      <c r="AW146" s="25"/>
+      <c r="AX146" s="25">
         <v>2012</v>
       </c>
-      <c r="AY146" s="33"/>
-      <c r="AZ146" s="33"/>
-      <c r="BA146" s="33"/>
-      <c r="BB146" s="33">
+      <c r="AY146" s="25"/>
+      <c r="AZ146" s="25"/>
+      <c r="BA146" s="25"/>
+      <c r="BB146" s="25">
         <v>2013</v>
       </c>
-      <c r="BC146" s="33"/>
-      <c r="BD146" s="33"/>
-      <c r="BE146" s="33"/>
-      <c r="BF146" s="33">
+      <c r="BC146" s="25"/>
+      <c r="BD146" s="25"/>
+      <c r="BE146" s="25"/>
+      <c r="BF146" s="25">
         <v>2014</v>
       </c>
-      <c r="BG146" s="33"/>
-      <c r="BH146" s="33"/>
-      <c r="BI146" s="33"/>
-      <c r="BJ146" s="33">
+      <c r="BG146" s="25"/>
+      <c r="BH146" s="25"/>
+      <c r="BI146" s="25"/>
+      <c r="BJ146" s="25">
         <v>2015</v>
       </c>
-      <c r="BK146" s="33"/>
-      <c r="BL146" s="33"/>
-      <c r="BM146" s="33"/>
-      <c r="BN146" s="33">
+      <c r="BK146" s="25"/>
+      <c r="BL146" s="25"/>
+      <c r="BM146" s="25"/>
+      <c r="BN146" s="25">
         <v>2016</v>
       </c>
-      <c r="BO146" s="33"/>
-      <c r="BP146" s="33"/>
-      <c r="BQ146" s="33"/>
-      <c r="BR146" s="33">
+      <c r="BO146" s="25"/>
+      <c r="BP146" s="25"/>
+      <c r="BQ146" s="25"/>
+      <c r="BR146" s="25">
         <v>2017</v>
       </c>
-      <c r="BS146" s="33"/>
-      <c r="BT146" s="33"/>
-      <c r="BU146" s="33"/>
-      <c r="BV146" s="33">
+      <c r="BS146" s="25"/>
+      <c r="BT146" s="25"/>
+      <c r="BU146" s="25"/>
+      <c r="BV146" s="25">
         <v>2018</v>
       </c>
-      <c r="BW146" s="33"/>
-      <c r="BX146" s="33"/>
-      <c r="BY146" s="33"/>
-      <c r="BZ146" s="33">
+      <c r="BW146" s="25"/>
+      <c r="BX146" s="25"/>
+      <c r="BY146" s="25"/>
+      <c r="BZ146" s="25">
         <v>2019</v>
       </c>
-      <c r="CA146" s="33"/>
-      <c r="CB146" s="33"/>
-      <c r="CC146" s="33"/>
-      <c r="CD146" s="33">
+      <c r="CA146" s="25"/>
+      <c r="CB146" s="25"/>
+      <c r="CC146" s="25"/>
+      <c r="CD146" s="25">
         <v>2020</v>
       </c>
-      <c r="CE146" s="33"/>
-      <c r="CF146" s="33"/>
-      <c r="CG146" s="33"/>
-      <c r="CH146" s="33">
+      <c r="CE146" s="25"/>
+      <c r="CF146" s="25"/>
+      <c r="CG146" s="25"/>
+      <c r="CH146" s="25">
         <v>2021</v>
       </c>
-      <c r="CI146" s="33"/>
-      <c r="CJ146" s="33"/>
-      <c r="CK146" s="33"/>
-      <c r="CL146" s="34">
+      <c r="CI146" s="25"/>
+      <c r="CJ146" s="25"/>
+      <c r="CK146" s="25"/>
+      <c r="CL146" s="24">
         <v>2022</v>
       </c>
-      <c r="CM146" s="34"/>
-      <c r="CN146" s="34"/>
-      <c r="CO146" s="34"/>
-      <c r="CP146" s="34">
+      <c r="CM146" s="24"/>
+      <c r="CN146" s="24"/>
+      <c r="CO146" s="24"/>
+      <c r="CP146" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ146" s="34"/>
-      <c r="CR146" s="34"/>
+      <c r="CQ146" s="24"/>
+      <c r="CR146" s="24"/>
+      <c r="CS146" s="24"/>
     </row>
     <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
@@ -44858,37 +44481,33 @@
       <c r="CK147" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL147" s="23" t="s">
+      <c r="CL147" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM147" s="23" t="s">
+      <c r="CM147" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN147" s="23" t="s">
+      <c r="CN147" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO147" s="23" t="s">
+      <c r="CO147" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP147" s="23" t="s">
+      <c r="CP147" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ147" s="23" t="s">
+      <c r="CQ147" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR147" s="23" t="s">
+      <c r="CR147" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS147" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
-      <c r="CL148" s="22"/>
-      <c r="CM148" s="22"/>
-      <c r="CN148" s="22"/>
-      <c r="CO148" s="22"/>
-      <c r="CP148" s="22"/>
-      <c r="CQ148" s="22"/>
-      <c r="CR148" s="22"/>
     </row>
     <row r="149" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
@@ -45158,28 +44777,30 @@
       <c r="CK149" s="18">
         <v>12.847823978924955</v>
       </c>
-      <c r="CL149" s="32">
+      <c r="CL149" s="18">
         <v>24.857045368620856</v>
       </c>
-      <c r="CM149" s="32">
+      <c r="CM149" s="18">
         <v>14.641592924133334</v>
       </c>
-      <c r="CN149" s="32">
+      <c r="CN149" s="18">
         <v>11.652948087500535</v>
       </c>
-      <c r="CO149" s="32">
+      <c r="CO149" s="18">
         <v>8.6233868165987957</v>
       </c>
-      <c r="CP149" s="32">
+      <c r="CP149" s="18">
         <v>22.920513234006425</v>
       </c>
-      <c r="CQ149" s="32">
+      <c r="CQ149" s="18">
         <v>13.210293687728655</v>
       </c>
-      <c r="CR149" s="32">
-        <v>9.1847871505116174</v>
-      </c>
-      <c r="CS149" s="9"/>
+      <c r="CR149" s="18">
+        <v>9.1481714436346167</v>
+      </c>
+      <c r="CS149" s="18">
+        <v>14.938014370334548</v>
+      </c>
       <c r="CT149" s="9"/>
       <c r="CU149" s="9"/>
       <c r="CV149" s="9"/>
@@ -45506,28 +45127,30 @@
       <c r="CK150" s="18">
         <v>14.165303469701557</v>
       </c>
-      <c r="CL150" s="32">
+      <c r="CL150" s="18">
         <v>12.445975345769158</v>
       </c>
-      <c r="CM150" s="32">
+      <c r="CM150" s="18">
         <v>28.997300773170874</v>
       </c>
-      <c r="CN150" s="32">
+      <c r="CN150" s="18">
         <v>12.104476858341025</v>
       </c>
-      <c r="CO150" s="32">
+      <c r="CO150" s="18">
         <v>13.852449933073549</v>
       </c>
-      <c r="CP150" s="32">
+      <c r="CP150" s="18">
         <v>9.0674506271469468</v>
       </c>
-      <c r="CQ150" s="32">
+      <c r="CQ150" s="18">
         <v>22.346200238705936</v>
       </c>
-      <c r="CR150" s="32">
-        <v>10.240196368366917</v>
-      </c>
-      <c r="CS150" s="9"/>
+      <c r="CR150" s="18">
+        <v>10.174842759900296</v>
+      </c>
+      <c r="CS150" s="18">
+        <v>9.3070733188553536</v>
+      </c>
       <c r="CT150" s="9"/>
       <c r="CU150" s="9"/>
       <c r="CV150" s="9"/>
@@ -45854,28 +45477,30 @@
       <c r="CK151" s="18">
         <v>17.278101840602485</v>
       </c>
-      <c r="CL151" s="32">
+      <c r="CL151" s="18">
         <v>13.620198976607714</v>
       </c>
-      <c r="CM151" s="32">
+      <c r="CM151" s="18">
         <v>18.628767927455701</v>
       </c>
-      <c r="CN151" s="32">
+      <c r="CN151" s="18">
         <v>22.486244802430967</v>
       </c>
-      <c r="CO151" s="32">
+      <c r="CO151" s="18">
         <v>20.043348986836396</v>
       </c>
-      <c r="CP151" s="32">
+      <c r="CP151" s="18">
         <v>14.877299905025193</v>
       </c>
-      <c r="CQ151" s="32">
+      <c r="CQ151" s="18">
         <v>20.031828173429144</v>
       </c>
-      <c r="CR151" s="32">
-        <v>23.191643284275969</v>
-      </c>
-      <c r="CS151" s="9"/>
+      <c r="CR151" s="18">
+        <v>23.209762290717489</v>
+      </c>
+      <c r="CS151" s="18">
+        <v>19.896935233395482</v>
+      </c>
       <c r="CT151" s="9"/>
       <c r="CU151" s="9"/>
       <c r="CV151" s="9"/>
@@ -46202,28 +45827,30 @@
       <c r="CK152" s="18">
         <v>4.2380191503517972</v>
       </c>
-      <c r="CL152" s="32">
+      <c r="CL152" s="18">
         <v>10.101932394930245</v>
       </c>
-      <c r="CM152" s="32">
+      <c r="CM152" s="18">
         <v>15.836239459424768</v>
       </c>
-      <c r="CN152" s="32">
+      <c r="CN152" s="18">
         <v>19.06712903999934</v>
       </c>
-      <c r="CO152" s="32">
+      <c r="CO152" s="18">
         <v>4.5587592959236813</v>
       </c>
-      <c r="CP152" s="32">
+      <c r="CP152" s="18">
         <v>11.73995801102067</v>
       </c>
-      <c r="CQ152" s="32">
+      <c r="CQ152" s="18">
         <v>20.810642014779638</v>
       </c>
-      <c r="CR152" s="32">
-        <v>20.408397042089078</v>
-      </c>
-      <c r="CS152" s="9"/>
+      <c r="CR152" s="18">
+        <v>20.66202880572343</v>
+      </c>
+      <c r="CS152" s="18">
+        <v>4.6242602063657507</v>
+      </c>
       <c r="CT152" s="9"/>
       <c r="CU152" s="9"/>
       <c r="CV152" s="9"/>
@@ -46550,28 +46177,30 @@
       <c r="CK153" s="18">
         <v>3.2496567156276184</v>
       </c>
-      <c r="CL153" s="32">
+      <c r="CL153" s="18">
         <v>9.8271013347699245</v>
       </c>
-      <c r="CM153" s="32">
+      <c r="CM153" s="18">
         <v>2.8439661086951173</v>
       </c>
-      <c r="CN153" s="32">
+      <c r="CN153" s="18">
         <v>5.1677672468483937</v>
       </c>
-      <c r="CO153" s="32">
+      <c r="CO153" s="18">
         <v>4.1945789129348139</v>
       </c>
-      <c r="CP153" s="32">
+      <c r="CP153" s="18">
         <v>10.032806452300301</v>
       </c>
-      <c r="CQ153" s="32">
+      <c r="CQ153" s="18">
         <v>3.2432019530533673</v>
       </c>
-      <c r="CR153" s="32">
-        <v>4.6770928489059598</v>
-      </c>
-      <c r="CS153" s="9"/>
+      <c r="CR153" s="18">
+        <v>4.6472433339343855</v>
+      </c>
+      <c r="CS153" s="18">
+        <v>3.9806257297908818</v>
+      </c>
       <c r="CT153" s="9"/>
       <c r="CU153" s="9"/>
       <c r="CV153" s="9"/>
@@ -46898,28 +46527,30 @@
       <c r="CK154" s="18">
         <v>48.221094844791587</v>
       </c>
-      <c r="CL154" s="32">
+      <c r="CL154" s="18">
         <v>29.147746579302101</v>
       </c>
-      <c r="CM154" s="32">
+      <c r="CM154" s="18">
         <v>19.052132807120206</v>
       </c>
-      <c r="CN154" s="32">
+      <c r="CN154" s="18">
         <v>29.521433964879741</v>
       </c>
-      <c r="CO154" s="32">
+      <c r="CO154" s="18">
         <v>48.72747605463276</v>
       </c>
-      <c r="CP154" s="32">
+      <c r="CP154" s="18">
         <v>31.361971770500457</v>
       </c>
-      <c r="CQ154" s="32">
+      <c r="CQ154" s="18">
         <v>20.357833932303258</v>
       </c>
-      <c r="CR154" s="32">
-        <v>32.297883305850462</v>
-      </c>
-      <c r="CS154" s="9"/>
+      <c r="CR154" s="18">
+        <v>32.15795136608979</v>
+      </c>
+      <c r="CS154" s="18">
+        <v>47.253091141257983</v>
+      </c>
       <c r="CT154" s="9"/>
       <c r="CU154" s="9"/>
       <c r="CV154" s="9"/>
@@ -47067,13 +46698,13 @@
       <c r="CI155" s="9"/>
       <c r="CJ155" s="9"/>
       <c r="CK155" s="9"/>
-      <c r="CL155" s="25"/>
-      <c r="CM155" s="25"/>
-      <c r="CN155" s="25"/>
-      <c r="CO155" s="25"/>
-      <c r="CP155" s="25"/>
-      <c r="CQ155" s="25"/>
-      <c r="CR155" s="25"/>
+      <c r="CL155" s="9"/>
+      <c r="CM155" s="9"/>
+      <c r="CN155" s="9"/>
+      <c r="CO155" s="9"/>
+      <c r="CP155" s="9"/>
+      <c r="CQ155" s="9"/>
+      <c r="CR155" s="9"/>
       <c r="CS155" s="9"/>
       <c r="CT155" s="9"/>
       <c r="CU155" s="9"/>
@@ -47401,28 +47032,30 @@
       <c r="CK156" s="18">
         <v>100</v>
       </c>
-      <c r="CL156" s="32">
+      <c r="CL156" s="18">
         <v>100</v>
       </c>
-      <c r="CM156" s="32">
+      <c r="CM156" s="18">
         <v>100</v>
       </c>
-      <c r="CN156" s="32">
+      <c r="CN156" s="18">
         <v>100</v>
       </c>
-      <c r="CO156" s="32">
+      <c r="CO156" s="18">
         <v>100</v>
       </c>
-      <c r="CP156" s="32">
+      <c r="CP156" s="18">
         <v>100</v>
       </c>
-      <c r="CQ156" s="32">
+      <c r="CQ156" s="18">
         <v>100</v>
       </c>
-      <c r="CR156" s="32">
+      <c r="CR156" s="18">
         <v>100</v>
       </c>
-      <c r="CS156" s="9"/>
+      <c r="CS156" s="18">
+        <v>100</v>
+      </c>
       <c r="CT156" s="9"/>
       <c r="CU156" s="9"/>
       <c r="CV156" s="9"/>
@@ -47571,25 +47204,19 @@
       <c r="CI157" s="13"/>
       <c r="CJ157" s="13"/>
       <c r="CK157" s="13"/>
-      <c r="CL157" s="27"/>
-      <c r="CM157" s="27"/>
-      <c r="CN157" s="27"/>
-      <c r="CO157" s="27"/>
-      <c r="CP157" s="27"/>
-      <c r="CQ157" s="27"/>
-      <c r="CR157" s="27"/>
+      <c r="CL157" s="13"/>
+      <c r="CM157" s="13"/>
+      <c r="CN157" s="13"/>
+      <c r="CO157" s="13"/>
+      <c r="CP157" s="13"/>
+      <c r="CQ157" s="13"/>
+      <c r="CR157" s="13"/>
+      <c r="CS157" s="13"/>
     </row>
     <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="CL158" s="22"/>
-      <c r="CM158" s="22"/>
-      <c r="CN158" s="22"/>
-      <c r="CO158" s="22"/>
-      <c r="CP158" s="22"/>
-      <c r="CQ158" s="22"/>
-      <c r="CR158" s="22"/>
     </row>
     <row r="159" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9"/>
@@ -47664,7 +47291,6 @@
       <c r="BS159" s="9"/>
       <c r="BT159" s="9"/>
       <c r="BU159" s="9"/>
-      <c r="CS159" s="9"/>
       <c r="CT159" s="9"/>
       <c r="CU159" s="9"/>
       <c r="CV159" s="9"/>
@@ -47791,7 +47417,6 @@
       <c r="BS160" s="9"/>
       <c r="BT160" s="9"/>
       <c r="BU160" s="9"/>
-      <c r="CS160" s="9"/>
       <c r="CT160" s="9"/>
       <c r="CU160" s="9"/>
       <c r="CV160" s="9"/>
@@ -47846,19 +47471,7 @@
       <c r="ES160" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL32:CO32"/>
-    <mergeCell ref="CL100:CO100"/>
-    <mergeCell ref="CL123:CO123"/>
-    <mergeCell ref="CL146:CO146"/>
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP32:CR32"/>
-    <mergeCell ref="CL55:CN55"/>
-    <mergeCell ref="CL78:CN78"/>
-    <mergeCell ref="CP100:CR100"/>
-    <mergeCell ref="CP123:CR123"/>
-    <mergeCell ref="CP146:CR146"/>
+  <mergeCells count="154">
     <mergeCell ref="CH55:CK55"/>
     <mergeCell ref="CH100:CK100"/>
     <mergeCell ref="CH123:CK123"/>
@@ -48014,7 +47627,7 @@
     <mergeCell ref="BZ55:CC55"/>
     <mergeCell ref="BZ78:CC78"/>
   </mergeCells>
-  <conditionalFormatting sqref="BR58:CR65 BR81:CR88 BR103:CR110">
+  <conditionalFormatting sqref="BR58:CS65 BR81:CS88 BR103:CS110">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -48024,9 +47637,9 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="95" man="1"/>
-    <brk id="92" max="95" man="1"/>
-    <brk id="114" max="95" man="1"/>
+    <brk id="46" max="96" man="1"/>
+    <brk id="92" max="96" man="1"/>
+    <brk id="114" max="96" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="56" max="159" man="1"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5140C3C6-4A10-460E-9720-D3ACDF8CE3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E0A8F-A8EE-48C5-92C5-8F8A83784EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CS$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CT$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="59">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -636,13 +636,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -741,7 +744,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -775,14 +778,29 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23645,197 +23663,244 @@
   <dimension ref="A1:EX160"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CM1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="DK11" sqref="DK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="89" width="9.5546875" style="10" customWidth="1"/>
-    <col min="90" max="97" width="8" style="10" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="10"/>
+    <col min="2" max="85" width="9.5546875" style="10" customWidth="1"/>
+    <col min="86" max="89" width="8" style="10" customWidth="1"/>
+    <col min="90" max="93" width="7.88671875" style="10" customWidth="1"/>
+    <col min="94" max="98" width="7.88671875" style="32" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP1" s="23"/>
+      <c r="CQ1" s="23"/>
+      <c r="CR1" s="23"/>
+      <c r="CS1" s="23"/>
+      <c r="CT1" s="23"/>
     </row>
     <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="CP2" s="23"/>
+      <c r="CQ2" s="23"/>
+      <c r="CR2" s="23"/>
+      <c r="CS2" s="23"/>
+      <c r="CT2" s="23"/>
     </row>
     <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="CP3" s="23"/>
+      <c r="CQ3" s="23"/>
+      <c r="CR3" s="23"/>
+      <c r="CS3" s="23"/>
+      <c r="CT3" s="23"/>
     </row>
-    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP4" s="23"/>
+      <c r="CQ4" s="23"/>
+      <c r="CR4" s="23"/>
+      <c r="CS4" s="23"/>
+      <c r="CT4" s="23"/>
+    </row>
     <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="CP5" s="23"/>
+      <c r="CQ5" s="23"/>
+      <c r="CR5" s="23"/>
+      <c r="CS5" s="23"/>
+      <c r="CT5" s="23"/>
     </row>
     <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="CP6" s="23"/>
+      <c r="CQ6" s="23"/>
+      <c r="CR6" s="23"/>
+      <c r="CS6" s="23"/>
+      <c r="CT6" s="23"/>
     </row>
     <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CP7" s="23"/>
+      <c r="CQ7" s="23"/>
+      <c r="CR7" s="23"/>
+      <c r="CS7" s="23"/>
+      <c r="CT7" s="23"/>
     </row>
-    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP8" s="23"/>
+      <c r="CQ8" s="23"/>
+      <c r="CR8" s="23"/>
+      <c r="CS8" s="23"/>
+      <c r="CT8" s="23"/>
+    </row>
     <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="25">
+      <c r="B9" s="34">
         <v>2000</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34">
         <v>2001</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34">
         <v>2002</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25">
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34">
         <v>2003</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25">
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34">
         <v>2004</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25">
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34">
         <v>2005</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25">
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34">
         <v>2006</v>
       </c>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25">
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34">
         <v>2007</v>
       </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25">
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34">
         <v>2008</v>
       </c>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25">
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34">
         <v>2009</v>
       </c>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25">
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25">
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34">
         <v>2011</v>
       </c>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25">
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34">
         <v>2012</v>
       </c>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25">
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+      <c r="BB9" s="34">
         <v>2013</v>
       </c>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25">
+      <c r="BC9" s="34"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34">
         <v>2014</v>
       </c>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25">
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="34"/>
+      <c r="BJ9" s="34">
         <v>2015</v>
       </c>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25">
+      <c r="BK9" s="34"/>
+      <c r="BL9" s="34"/>
+      <c r="BM9" s="34"/>
+      <c r="BN9" s="34">
         <v>2016</v>
       </c>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25">
+      <c r="BO9" s="34"/>
+      <c r="BP9" s="34"/>
+      <c r="BQ9" s="34"/>
+      <c r="BR9" s="34">
         <v>2017</v>
       </c>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25">
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="34"/>
+      <c r="BU9" s="34"/>
+      <c r="BV9" s="34">
         <v>2018</v>
       </c>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="25">
+      <c r="BW9" s="34"/>
+      <c r="BX9" s="34"/>
+      <c r="BY9" s="34"/>
+      <c r="BZ9" s="34">
         <v>2019</v>
       </c>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="25">
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="34"/>
+      <c r="CD9" s="34">
         <v>2020</v>
       </c>
-      <c r="CE9" s="25"/>
-      <c r="CF9" s="25"/>
-      <c r="CG9" s="25"/>
-      <c r="CH9" s="25">
+      <c r="CE9" s="34"/>
+      <c r="CF9" s="34"/>
+      <c r="CG9" s="34"/>
+      <c r="CH9" s="21">
         <v>2021</v>
       </c>
-      <c r="CI9" s="25"/>
-      <c r="CJ9" s="25"/>
-      <c r="CK9" s="25"/>
-      <c r="CL9" s="24">
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="21">
         <v>2022</v>
       </c>
-      <c r="CM9" s="24"/>
-      <c r="CN9" s="24"/>
-      <c r="CO9" s="24"/>
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="21"/>
+      <c r="CO9" s="21"/>
       <c r="CP9" s="24">
         <v>2023</v>
       </c>
       <c r="CQ9" s="24"/>
       <c r="CR9" s="24"/>
       <c r="CS9" s="24"/>
+      <c r="CT9" s="24">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24117,21 +24182,29 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="25" t="s">
         <v>9</v>
+      </c>
+      <c r="CT10" s="25" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
+      <c r="CP11" s="23"/>
+      <c r="CQ11" s="23"/>
+      <c r="CR11" s="23"/>
+      <c r="CS11" s="23"/>
+      <c r="CT11" s="23"/>
     </row>
     <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -24401,31 +24474,33 @@
       <c r="CK12" s="19">
         <v>5462.4567046615093</v>
       </c>
-      <c r="CL12" s="21">
+      <c r="CL12" s="19">
         <v>19588.044628616666</v>
       </c>
-      <c r="CM12" s="21">
+      <c r="CM12" s="19">
         <v>16902.723128414724</v>
       </c>
-      <c r="CN12" s="21">
+      <c r="CN12" s="19">
         <v>27834.037093563096</v>
       </c>
-      <c r="CO12" s="21">
+      <c r="CO12" s="19">
         <v>7500.2176711747825</v>
       </c>
-      <c r="CP12" s="21">
-        <v>15773.523081344836</v>
-      </c>
-      <c r="CQ12" s="21">
-        <v>6722.7553924630865</v>
-      </c>
-      <c r="CR12" s="21">
-        <v>8474.5353092460864</v>
-      </c>
-      <c r="CS12" s="21">
-        <v>6286.8786647235493</v>
-      </c>
-      <c r="CT12" s="9"/>
+      <c r="CP12" s="26">
+        <v>15852.731862495799</v>
+      </c>
+      <c r="CQ12" s="26">
+        <v>6783.3523445881083</v>
+      </c>
+      <c r="CR12" s="26">
+        <v>8357.4355997832154</v>
+      </c>
+      <c r="CS12" s="26">
+        <v>6344.7064266728121</v>
+      </c>
+      <c r="CT12" s="26">
+        <v>8402.3991673924829</v>
+      </c>
       <c r="CU12" s="9"/>
       <c r="CV12" s="9"/>
       <c r="CW12" s="9"/>
@@ -24751,31 +24826,33 @@
       <c r="CK13" s="19">
         <v>10837.160110547225</v>
       </c>
-      <c r="CL13" s="21">
+      <c r="CL13" s="19">
         <v>11476.927845447768</v>
       </c>
-      <c r="CM13" s="21">
+      <c r="CM13" s="19">
         <v>15844.494288309581</v>
       </c>
-      <c r="CN13" s="21">
+      <c r="CN13" s="19">
         <v>14097.565080717592</v>
       </c>
-      <c r="CO13" s="21">
+      <c r="CO13" s="19">
         <v>13922.352938909786</v>
       </c>
-      <c r="CP13" s="21">
+      <c r="CP13" s="26">
         <v>6031.8928131160264</v>
       </c>
-      <c r="CQ13" s="21">
+      <c r="CQ13" s="26">
         <v>5215.5590302334695</v>
       </c>
-      <c r="CR13" s="21">
+      <c r="CR13" s="26">
         <v>5875.1435166697365</v>
       </c>
-      <c r="CS13" s="21">
-        <v>7305.968884430943</v>
-      </c>
-      <c r="CT13" s="9"/>
+      <c r="CS13" s="26">
+        <v>7305.9688844309421</v>
+      </c>
+      <c r="CT13" s="26">
+        <v>5872.9859319981824</v>
+      </c>
       <c r="CU13" s="9"/>
       <c r="CV13" s="9"/>
       <c r="CW13" s="9"/>
@@ -25101,31 +25178,33 @@
       <c r="CK14" s="19">
         <v>9087.7522723670445</v>
       </c>
-      <c r="CL14" s="21">
+      <c r="CL14" s="19">
         <v>10226.29325097073</v>
       </c>
-      <c r="CM14" s="21">
+      <c r="CM14" s="19">
         <v>13887.111747163812</v>
       </c>
-      <c r="CN14" s="21">
+      <c r="CN14" s="19">
         <v>11449.575027468945</v>
       </c>
-      <c r="CO14" s="21">
+      <c r="CO14" s="19">
         <v>10795.064642611094</v>
       </c>
-      <c r="CP14" s="21">
-        <v>11705.97311543867</v>
-      </c>
-      <c r="CQ14" s="21">
+      <c r="CP14" s="26">
+        <v>11793.789404628102</v>
+      </c>
+      <c r="CQ14" s="26">
         <v>15304.173008896976</v>
       </c>
-      <c r="CR14" s="21">
+      <c r="CR14" s="26">
         <v>13808.674041359101</v>
       </c>
-      <c r="CS14" s="21">
-        <v>13199.629770556154</v>
-      </c>
-      <c r="CT14" s="9"/>
+      <c r="CS14" s="26">
+        <v>13219.844262433013</v>
+      </c>
+      <c r="CT14" s="26">
+        <v>12521.097737462518</v>
+      </c>
       <c r="CU14" s="9"/>
       <c r="CV14" s="9"/>
       <c r="CW14" s="9"/>
@@ -25451,31 +25530,33 @@
       <c r="CK15" s="19">
         <v>2852.2044038348649</v>
       </c>
-      <c r="CL15" s="21">
+      <c r="CL15" s="19">
         <v>13006.237010883655</v>
       </c>
-      <c r="CM15" s="21">
+      <c r="CM15" s="19">
         <v>14405.490735031581</v>
       </c>
-      <c r="CN15" s="21">
+      <c r="CN15" s="19">
         <v>9055.8816859309791</v>
       </c>
-      <c r="CO15" s="21">
+      <c r="CO15" s="19">
         <v>4012.8608015561877</v>
       </c>
-      <c r="CP15" s="21">
-        <v>15160.246416204162</v>
-      </c>
-      <c r="CQ15" s="21">
-        <v>15001.023227570127</v>
-      </c>
-      <c r="CR15" s="21">
-        <v>9451.129147811489</v>
-      </c>
-      <c r="CS15" s="21">
-        <v>3484.1303790643906</v>
-      </c>
-      <c r="CT15" s="9"/>
+      <c r="CP15" s="26">
+        <v>15189.245629313813</v>
+      </c>
+      <c r="CQ15" s="26">
+        <v>15035.2342698871</v>
+      </c>
+      <c r="CR15" s="26">
+        <v>9464.6567873225013</v>
+      </c>
+      <c r="CS15" s="26">
+        <v>3328.4627221109013</v>
+      </c>
+      <c r="CT15" s="26">
+        <v>11215.007160914389</v>
+      </c>
       <c r="CU15" s="9"/>
       <c r="CV15" s="9"/>
       <c r="CW15" s="9"/>
@@ -25801,31 +25882,33 @@
       <c r="CK16" s="19">
         <v>4553.8486237951893</v>
       </c>
-      <c r="CL16" s="21">
+      <c r="CL16" s="19">
         <v>2419.8979528721948</v>
       </c>
-      <c r="CM16" s="21">
+      <c r="CM16" s="19">
         <v>3360.5721214211781</v>
       </c>
-      <c r="CN16" s="21">
+      <c r="CN16" s="19">
         <v>3016.3069803937592</v>
       </c>
-      <c r="CO16" s="21">
+      <c r="CO16" s="19">
         <v>4995.6966942187573</v>
       </c>
-      <c r="CP16" s="21">
-        <v>2339.4999124600317</v>
-      </c>
-      <c r="CQ16" s="21">
+      <c r="CP16" s="26">
+        <v>2339.4999124600308</v>
+      </c>
+      <c r="CQ16" s="26">
         <v>3498.8932940025416</v>
       </c>
-      <c r="CR16" s="21">
-        <v>3054.4578392055387</v>
-      </c>
-      <c r="CS16" s="21">
+      <c r="CR16" s="26">
+        <v>3054.4578392055391</v>
+      </c>
+      <c r="CS16" s="26">
         <v>5206.5418282330211</v>
       </c>
-      <c r="CT16" s="9"/>
+      <c r="CT16" s="26">
+        <v>2266.0341565181925</v>
+      </c>
       <c r="CU16" s="9"/>
       <c r="CV16" s="9"/>
       <c r="CW16" s="9"/>
@@ -26151,31 +26234,33 @@
       <c r="CK17" s="19">
         <v>14168.594577918491</v>
       </c>
-      <c r="CL17" s="21">
+      <c r="CL17" s="19">
         <v>14756.201664874417</v>
       </c>
-      <c r="CM17" s="21">
-        <v>9710.7964700929115</v>
-      </c>
-      <c r="CN17" s="21">
-        <v>12276.158278382265</v>
-      </c>
-      <c r="CO17" s="21">
+      <c r="CM17" s="19">
+        <v>9706.0433405908625</v>
+      </c>
+      <c r="CN17" s="19">
+        <v>12280.660534316527</v>
+      </c>
+      <c r="CO17" s="19">
         <v>15709.119194229439</v>
       </c>
-      <c r="CP17" s="21">
-        <v>16367.196458240909</v>
-      </c>
-      <c r="CQ17" s="21">
-        <v>10521.860348832137</v>
-      </c>
-      <c r="CR17" s="21">
-        <v>15017.758016702603</v>
-      </c>
-      <c r="CS17" s="21">
+      <c r="CP17" s="26">
+        <v>16400.001704524657</v>
+      </c>
+      <c r="CQ17" s="26">
+        <v>10700.447387680118</v>
+      </c>
+      <c r="CR17" s="26">
+        <v>15027.513637342456</v>
+      </c>
+      <c r="CS17" s="26">
         <v>16942.011728318706</v>
       </c>
-      <c r="CT17" s="9"/>
+      <c r="CT17" s="26">
+        <v>17982.645519333815</v>
+      </c>
       <c r="CU17" s="9"/>
       <c r="CV17" s="9"/>
       <c r="CW17" s="9"/>
@@ -26326,11 +26411,11 @@
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
       <c r="CO18" s="9"/>
-      <c r="CP18" s="9"/>
-      <c r="CQ18" s="9"/>
-      <c r="CR18" s="9"/>
-      <c r="CS18" s="9"/>
-      <c r="CT18" s="9"/>
+      <c r="CP18" s="27"/>
+      <c r="CQ18" s="27"/>
+      <c r="CR18" s="27"/>
+      <c r="CS18" s="27"/>
+      <c r="CT18" s="27"/>
       <c r="CU18" s="9"/>
       <c r="CV18" s="9"/>
       <c r="CW18" s="9"/>
@@ -26656,31 +26741,33 @@
       <c r="CK19" s="20">
         <v>46962.016693124322</v>
       </c>
-      <c r="CL19" s="22">
+      <c r="CL19" s="20">
         <v>71473.602353665425</v>
       </c>
-      <c r="CM19" s="22">
-        <v>74111.188490433793</v>
-      </c>
-      <c r="CN19" s="22">
-        <v>77729.52414645665</v>
-      </c>
-      <c r="CO19" s="22">
+      <c r="CM19" s="20">
+        <v>74106.435360931733</v>
+      </c>
+      <c r="CN19" s="20">
+        <v>77734.026402390911</v>
+      </c>
+      <c r="CO19" s="20">
         <v>56935.311942700049</v>
       </c>
-      <c r="CP19" s="22">
-        <v>67378.331796804632</v>
-      </c>
-      <c r="CQ19" s="22">
-        <v>56264.264301998337</v>
-      </c>
-      <c r="CR19" s="22">
-        <v>55681.697870994554</v>
-      </c>
-      <c r="CS19" s="22">
-        <v>52425.16125532677</v>
-      </c>
-      <c r="CT19" s="9"/>
+      <c r="CP19" s="28">
+        <v>67607.161326538422</v>
+      </c>
+      <c r="CQ19" s="28">
+        <v>56537.659335288314</v>
+      </c>
+      <c r="CR19" s="28">
+        <v>55587.881421682549</v>
+      </c>
+      <c r="CS19" s="28">
+        <v>52347.535852199399</v>
+      </c>
+      <c r="CT19" s="28">
+        <v>58260.169673619574</v>
+      </c>
       <c r="CU19" s="9"/>
       <c r="CV19" s="9"/>
       <c r="CW19" s="9"/>
@@ -26832,15 +26919,21 @@
       <c r="CM20" s="13"/>
       <c r="CN20" s="13"/>
       <c r="CO20" s="13"/>
-      <c r="CP20" s="13"/>
-      <c r="CQ20" s="13"/>
-      <c r="CR20" s="13"/>
-      <c r="CS20" s="13"/>
+      <c r="CP20" s="29"/>
+      <c r="CQ20" s="29"/>
+      <c r="CR20" s="29"/>
+      <c r="CS20" s="29"/>
+      <c r="CT20" s="29"/>
     </row>
     <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CP21" s="23"/>
+      <c r="CQ21" s="23"/>
+      <c r="CR21" s="23"/>
+      <c r="CS21" s="23"/>
+      <c r="CT21" s="23"/>
     </row>
     <row r="22" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
@@ -26935,11 +27028,11 @@
       <c r="CM22" s="9"/>
       <c r="CN22" s="9"/>
       <c r="CO22" s="9"/>
-      <c r="CP22" s="9"/>
-      <c r="CQ22" s="9"/>
-      <c r="CR22" s="9"/>
-      <c r="CS22" s="9"/>
-      <c r="CT22" s="9"/>
+      <c r="CP22" s="27"/>
+      <c r="CQ22" s="27"/>
+      <c r="CR22" s="27"/>
+      <c r="CS22" s="27"/>
+      <c r="CT22" s="27"/>
       <c r="CU22" s="9"/>
       <c r="CV22" s="9"/>
       <c r="CW22" s="9"/>
@@ -27090,11 +27183,11 @@
       <c r="CM23" s="9"/>
       <c r="CN23" s="9"/>
       <c r="CO23" s="9"/>
-      <c r="CP23" s="9"/>
-      <c r="CQ23" s="9"/>
-      <c r="CR23" s="9"/>
-      <c r="CS23" s="9"/>
-      <c r="CT23" s="9"/>
+      <c r="CP23" s="27"/>
+      <c r="CQ23" s="27"/>
+      <c r="CR23" s="27"/>
+      <c r="CS23" s="27"/>
+      <c r="CT23" s="27"/>
       <c r="CU23" s="9"/>
       <c r="CV23" s="9"/>
       <c r="CW23" s="9"/>
@@ -27156,180 +27249,225 @@
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP24" s="23"/>
+      <c r="CQ24" s="23"/>
+      <c r="CR24" s="23"/>
+      <c r="CS24" s="23"/>
+      <c r="CT24" s="23"/>
     </row>
     <row r="25" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="CP25" s="23"/>
+      <c r="CQ25" s="23"/>
+      <c r="CR25" s="23"/>
+      <c r="CS25" s="23"/>
+      <c r="CT25" s="23"/>
     </row>
     <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="CP26" s="23"/>
+      <c r="CQ26" s="23"/>
+      <c r="CR26" s="23"/>
+      <c r="CS26" s="23"/>
+      <c r="CT26" s="23"/>
     </row>
-    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP27" s="23"/>
+      <c r="CQ27" s="23"/>
+      <c r="CR27" s="23"/>
+      <c r="CS27" s="23"/>
+      <c r="CT27" s="23"/>
+    </row>
     <row r="28" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="CP28" s="23"/>
+      <c r="CQ28" s="23"/>
+      <c r="CR28" s="23"/>
+      <c r="CS28" s="23"/>
+      <c r="CT28" s="23"/>
     </row>
     <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="CP29" s="23"/>
+      <c r="CQ29" s="23"/>
+      <c r="CR29" s="23"/>
+      <c r="CS29" s="23"/>
+      <c r="CT29" s="23"/>
     </row>
     <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="CP30" s="23"/>
+      <c r="CQ30" s="23"/>
+      <c r="CR30" s="23"/>
+      <c r="CS30" s="23"/>
+      <c r="CT30" s="23"/>
     </row>
-    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP31" s="23"/>
+      <c r="CQ31" s="23"/>
+      <c r="CR31" s="23"/>
+      <c r="CS31" s="23"/>
+      <c r="CT31" s="23"/>
+    </row>
     <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="25">
+      <c r="B32" s="34">
         <v>2000</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25">
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34">
         <v>2001</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34">
         <v>2002</v>
       </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25">
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34">
         <v>2003</v>
       </c>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25">
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34">
         <v>2004</v>
       </c>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25">
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34">
         <v>2005</v>
       </c>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25">
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34">
         <v>2006</v>
       </c>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25">
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34">
         <v>2007</v>
       </c>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="25"/>
-      <c r="AH32" s="25">
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="34"/>
+      <c r="AG32" s="34"/>
+      <c r="AH32" s="34">
         <v>2008</v>
       </c>
-      <c r="AI32" s="25"/>
-      <c r="AJ32" s="25"/>
-      <c r="AK32" s="25"/>
-      <c r="AL32" s="25">
+      <c r="AI32" s="34"/>
+      <c r="AJ32" s="34"/>
+      <c r="AK32" s="34"/>
+      <c r="AL32" s="34">
         <v>2009</v>
       </c>
-      <c r="AM32" s="25"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="25"/>
-      <c r="AP32" s="25">
+      <c r="AM32" s="34"/>
+      <c r="AN32" s="34"/>
+      <c r="AO32" s="34"/>
+      <c r="AP32" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ32" s="25"/>
-      <c r="AR32" s="25"/>
-      <c r="AS32" s="25"/>
-      <c r="AT32" s="25">
+      <c r="AQ32" s="34"/>
+      <c r="AR32" s="34"/>
+      <c r="AS32" s="34"/>
+      <c r="AT32" s="34">
         <v>2011</v>
       </c>
-      <c r="AU32" s="25"/>
-      <c r="AV32" s="25"/>
-      <c r="AW32" s="25"/>
-      <c r="AX32" s="25">
+      <c r="AU32" s="34"/>
+      <c r="AV32" s="34"/>
+      <c r="AW32" s="34"/>
+      <c r="AX32" s="34">
         <v>2012</v>
       </c>
-      <c r="AY32" s="25"/>
-      <c r="AZ32" s="25"/>
-      <c r="BA32" s="25"/>
-      <c r="BB32" s="25">
+      <c r="AY32" s="34"/>
+      <c r="AZ32" s="34"/>
+      <c r="BA32" s="34"/>
+      <c r="BB32" s="34">
         <v>2013</v>
       </c>
-      <c r="BC32" s="25"/>
-      <c r="BD32" s="25"/>
-      <c r="BE32" s="25"/>
-      <c r="BF32" s="25">
+      <c r="BC32" s="34"/>
+      <c r="BD32" s="34"/>
+      <c r="BE32" s="34"/>
+      <c r="BF32" s="34">
         <v>2014</v>
       </c>
-      <c r="BG32" s="25"/>
-      <c r="BH32" s="25"/>
-      <c r="BI32" s="25"/>
-      <c r="BJ32" s="25">
+      <c r="BG32" s="34"/>
+      <c r="BH32" s="34"/>
+      <c r="BI32" s="34"/>
+      <c r="BJ32" s="34">
         <v>2015</v>
       </c>
-      <c r="BK32" s="25"/>
-      <c r="BL32" s="25"/>
-      <c r="BM32" s="25"/>
-      <c r="BN32" s="25">
+      <c r="BK32" s="34"/>
+      <c r="BL32" s="34"/>
+      <c r="BM32" s="34"/>
+      <c r="BN32" s="34">
         <v>2016</v>
       </c>
-      <c r="BO32" s="25"/>
-      <c r="BP32" s="25"/>
-      <c r="BQ32" s="25"/>
-      <c r="BR32" s="25">
+      <c r="BO32" s="34"/>
+      <c r="BP32" s="34"/>
+      <c r="BQ32" s="34"/>
+      <c r="BR32" s="34">
         <v>2017</v>
       </c>
-      <c r="BS32" s="25"/>
-      <c r="BT32" s="25"/>
-      <c r="BU32" s="25"/>
-      <c r="BV32" s="25">
+      <c r="BS32" s="34"/>
+      <c r="BT32" s="34"/>
+      <c r="BU32" s="34"/>
+      <c r="BV32" s="34">
         <v>2018</v>
       </c>
-      <c r="BW32" s="25"/>
-      <c r="BX32" s="25"/>
-      <c r="BY32" s="25"/>
-      <c r="BZ32" s="25">
+      <c r="BW32" s="34"/>
+      <c r="BX32" s="34"/>
+      <c r="BY32" s="34"/>
+      <c r="BZ32" s="34">
         <v>2019</v>
       </c>
-      <c r="CA32" s="25"/>
-      <c r="CB32" s="25"/>
-      <c r="CC32" s="25"/>
-      <c r="CD32" s="25">
+      <c r="CA32" s="34"/>
+      <c r="CB32" s="34"/>
+      <c r="CC32" s="34"/>
+      <c r="CD32" s="34">
         <v>2020</v>
       </c>
-      <c r="CE32" s="25"/>
-      <c r="CF32" s="25"/>
-      <c r="CG32" s="25"/>
-      <c r="CH32" s="25">
+      <c r="CE32" s="34"/>
+      <c r="CF32" s="34"/>
+      <c r="CG32" s="34"/>
+      <c r="CH32" s="21">
         <v>2021</v>
       </c>
-      <c r="CI32" s="25"/>
-      <c r="CJ32" s="25"/>
-      <c r="CK32" s="25"/>
-      <c r="CL32" s="24">
+      <c r="CI32" s="21"/>
+      <c r="CJ32" s="21"/>
+      <c r="CK32" s="21"/>
+      <c r="CL32" s="21">
         <v>2022</v>
       </c>
-      <c r="CM32" s="24"/>
-      <c r="CN32" s="24"/>
-      <c r="CO32" s="24"/>
+      <c r="CM32" s="21"/>
+      <c r="CN32" s="21"/>
+      <c r="CO32" s="21"/>
       <c r="CP32" s="24">
         <v>2023</v>
       </c>
       <c r="CQ32" s="24"/>
       <c r="CR32" s="24"/>
       <c r="CS32" s="24"/>
+      <c r="CT32" s="24">
+        <v>2024</v>
+      </c>
     </row>
     <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -27611,21 +27749,29 @@
       <c r="CO33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP33" s="6" t="s">
+      <c r="CP33" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ33" s="6" t="s">
+      <c r="CQ33" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CR33" s="6" t="s">
+      <c r="CR33" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CS33" s="6" t="s">
+      <c r="CS33" s="25" t="s">
         <v>9</v>
+      </c>
+      <c r="CT33" s="25" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
+      <c r="CP34" s="23"/>
+      <c r="CQ34" s="23"/>
+      <c r="CR34" s="23"/>
+      <c r="CS34" s="23"/>
+      <c r="CT34" s="23"/>
     </row>
     <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -27895,31 +28041,33 @@
       <c r="CK35" s="19">
         <v>4440.831846489732</v>
       </c>
-      <c r="CL35" s="21">
+      <c r="CL35" s="19">
         <v>10958.03015047024</v>
       </c>
-      <c r="CM35" s="21">
+      <c r="CM35" s="19">
         <v>6334.6974061478777</v>
       </c>
-      <c r="CN35" s="21">
+      <c r="CN35" s="19">
         <v>3454.7335177153209</v>
       </c>
-      <c r="CO35" s="21">
+      <c r="CO35" s="19">
         <v>3034.4308903112847</v>
       </c>
-      <c r="CP35" s="21">
-        <v>9880.2286789848804</v>
-      </c>
-      <c r="CQ35" s="21">
-        <v>5547.0502940145998</v>
-      </c>
-      <c r="CR35" s="21">
-        <v>2851.1608127915788</v>
-      </c>
-      <c r="CS35" s="21">
-        <v>5799.2782326865126</v>
-      </c>
-      <c r="CT35" s="9"/>
+      <c r="CP35" s="26">
+        <v>9929.8435219796429</v>
+      </c>
+      <c r="CQ35" s="26">
+        <v>5597.0497840270327</v>
+      </c>
+      <c r="CR35" s="26">
+        <v>2811.763950234933</v>
+      </c>
+      <c r="CS35" s="26">
+        <v>5852.6209642711183</v>
+      </c>
+      <c r="CT35" s="26">
+        <v>8626.7272934041957</v>
+      </c>
       <c r="CU35" s="9"/>
       <c r="CV35" s="9"/>
       <c r="CW35" s="9"/>
@@ -28245,31 +28393,33 @@
       <c r="CK36" s="19">
         <v>4896.2167341823924</v>
       </c>
-      <c r="CL36" s="21">
+      <c r="CL36" s="19">
         <v>5486.7089418083433</v>
       </c>
-      <c r="CM36" s="21">
+      <c r="CM36" s="19">
         <v>12545.706395806543</v>
       </c>
-      <c r="CN36" s="21">
+      <c r="CN36" s="19">
         <v>3588.5976323687337</v>
       </c>
-      <c r="CO36" s="21">
+      <c r="CO36" s="19">
         <v>4874.4539561299507</v>
       </c>
-      <c r="CP36" s="21">
+      <c r="CP36" s="26">
         <v>3908.6596716646445</v>
       </c>
-      <c r="CQ36" s="21">
+      <c r="CQ36" s="26">
         <v>9383.2506327522442</v>
       </c>
-      <c r="CR36" s="21">
+      <c r="CR36" s="26">
         <v>3171.137875157483</v>
       </c>
-      <c r="CS36" s="21">
+      <c r="CS36" s="26">
         <v>3613.2183548600024</v>
       </c>
-      <c r="CT36" s="9"/>
+      <c r="CT36" s="26">
+        <v>4028.8949373389642</v>
+      </c>
       <c r="CU36" s="9"/>
       <c r="CV36" s="9"/>
       <c r="CW36" s="9"/>
@@ -28595,31 +28745,33 @@
       <c r="CK37" s="19">
         <v>5972.151005999438</v>
       </c>
-      <c r="CL37" s="21">
+      <c r="CL37" s="19">
         <v>6004.3560619430173</v>
       </c>
-      <c r="CM37" s="21">
+      <c r="CM37" s="19">
         <v>8059.7520011142842</v>
       </c>
-      <c r="CN37" s="21">
+      <c r="CN37" s="19">
         <v>6666.4661185470686</v>
       </c>
-      <c r="CO37" s="21">
+      <c r="CO37" s="19">
         <v>7052.931592245819</v>
       </c>
-      <c r="CP37" s="21">
-        <v>6413.0817528729222</v>
-      </c>
-      <c r="CQ37" s="21">
+      <c r="CP37" s="26">
+        <v>6409.4576311695637</v>
+      </c>
+      <c r="CQ37" s="26">
         <v>8411.437397662834</v>
       </c>
-      <c r="CR37" s="21">
+      <c r="CR37" s="26">
         <v>7233.6603140014868</v>
       </c>
-      <c r="CS37" s="21">
-        <v>7724.4445302819422</v>
-      </c>
-      <c r="CT37" s="9"/>
+      <c r="CS37" s="26">
+        <v>7736.2740833773596</v>
+      </c>
+      <c r="CT37" s="26">
+        <v>6248.4848142754427</v>
+      </c>
       <c r="CU37" s="9"/>
       <c r="CV37" s="9"/>
       <c r="CW37" s="9"/>
@@ -28945,31 +29097,33 @@
       <c r="CK38" s="19">
         <v>1464.8652129565066</v>
       </c>
-      <c r="CL38" s="21">
+      <c r="CL38" s="19">
         <v>4453.3563068360563</v>
       </c>
-      <c r="CM38" s="21">
+      <c r="CM38" s="19">
         <v>6851.5622273177451</v>
       </c>
-      <c r="CN38" s="21">
+      <c r="CN38" s="19">
         <v>5652.805563576303</v>
       </c>
-      <c r="CO38" s="21">
+      <c r="CO38" s="19">
         <v>1604.1539505589053</v>
       </c>
-      <c r="CP38" s="21">
-        <v>5060.6837921268252</v>
-      </c>
-      <c r="CQ38" s="21">
-        <v>8738.4641579883028</v>
-      </c>
-      <c r="CR38" s="21">
-        <v>6439.6220825791479</v>
-      </c>
-      <c r="CS38" s="21">
-        <v>1795.2433899322018</v>
-      </c>
-      <c r="CT38" s="9"/>
+      <c r="CP38" s="26">
+        <v>5070.3640996719305</v>
+      </c>
+      <c r="CQ38" s="26">
+        <v>8758.3929296833467</v>
+      </c>
+      <c r="CR38" s="26">
+        <v>6448.8392760761262</v>
+      </c>
+      <c r="CS38" s="26">
+        <v>1715.0336096520994</v>
+      </c>
+      <c r="CT38" s="26">
+        <v>5392.2391160498719</v>
+      </c>
       <c r="CU38" s="9"/>
       <c r="CV38" s="9"/>
       <c r="CW38" s="9"/>
@@ -29295,31 +29449,33 @@
       <c r="CK39" s="19">
         <v>1123.2391614790699</v>
       </c>
-      <c r="CL39" s="21">
+      <c r="CL39" s="19">
         <v>4332.1992264646178</v>
       </c>
-      <c r="CM39" s="21">
+      <c r="CM39" s="19">
         <v>1230.4443119866219</v>
       </c>
-      <c r="CN39" s="21">
+      <c r="CN39" s="19">
         <v>1532.0808593139413</v>
       </c>
-      <c r="CO39" s="21">
+      <c r="CO39" s="19">
         <v>1476.0047410557795</v>
       </c>
-      <c r="CP39" s="21">
-        <v>4324.7906811114208</v>
-      </c>
-      <c r="CQ39" s="21">
+      <c r="CP39" s="26">
+        <v>4324.7906811114199</v>
+      </c>
+      <c r="CQ39" s="26">
         <v>1361.8322781078605</v>
       </c>
-      <c r="CR39" s="21">
-        <v>1448.3810412670077</v>
-      </c>
-      <c r="CS39" s="21">
+      <c r="CR39" s="26">
+        <v>1448.3810412670082</v>
+      </c>
+      <c r="CS39" s="26">
         <v>1545.3697911211157</v>
       </c>
-      <c r="CT39" s="9"/>
+      <c r="CT39" s="26">
+        <v>4348.7285230057823</v>
+      </c>
       <c r="CU39" s="9"/>
       <c r="CV39" s="9"/>
       <c r="CW39" s="9"/>
@@ -29645,31 +29801,33 @@
       <c r="CK40" s="19">
         <v>16667.551953593211</v>
       </c>
-      <c r="CL40" s="21">
+      <c r="CL40" s="19">
         <v>12849.55154957661</v>
       </c>
-      <c r="CM40" s="21">
-        <v>8242.9211698626095</v>
-      </c>
-      <c r="CN40" s="21">
-        <v>8752.1789888420681</v>
-      </c>
-      <c r="CO40" s="21">
+      <c r="CM40" s="19">
+        <v>8238.349824632729</v>
+      </c>
+      <c r="CN40" s="19">
+        <v>8755.3888325811822</v>
+      </c>
+      <c r="CO40" s="19">
         <v>17146.413780542847</v>
       </c>
-      <c r="CP40" s="21">
-        <v>13519.045134498927</v>
-      </c>
-      <c r="CQ40" s="21">
-        <v>8548.3283997374474</v>
-      </c>
-      <c r="CR40" s="21">
-        <v>10022.493710308594</v>
-      </c>
-      <c r="CS40" s="21">
+      <c r="CP40" s="26">
+        <v>13520.109200472863</v>
+      </c>
+      <c r="CQ40" s="26">
+        <v>8532.368420519786</v>
+      </c>
+      <c r="CR40" s="26">
+        <v>10026.220576933645</v>
+      </c>
+      <c r="CS40" s="26">
         <v>18344.728830014647</v>
       </c>
-      <c r="CT40" s="9"/>
+      <c r="CT40" s="26">
+        <v>14633.154039158024</v>
+      </c>
       <c r="CU40" s="9"/>
       <c r="CV40" s="9"/>
       <c r="CW40" s="9"/>
@@ -29816,15 +29974,15 @@
       <c r="CI41" s="20"/>
       <c r="CJ41" s="20"/>
       <c r="CK41" s="20"/>
-      <c r="CL41" s="22"/>
-      <c r="CM41" s="22"/>
-      <c r="CN41" s="22"/>
-      <c r="CO41" s="22"/>
-      <c r="CP41" s="22"/>
-      <c r="CQ41" s="22"/>
-      <c r="CR41" s="22"/>
-      <c r="CS41" s="22"/>
-      <c r="CT41" s="9"/>
+      <c r="CL41" s="20"/>
+      <c r="CM41" s="20"/>
+      <c r="CN41" s="20"/>
+      <c r="CO41" s="20"/>
+      <c r="CP41" s="28"/>
+      <c r="CQ41" s="28"/>
+      <c r="CR41" s="28"/>
+      <c r="CS41" s="28"/>
+      <c r="CT41" s="28"/>
       <c r="CU41" s="9"/>
       <c r="CV41" s="9"/>
       <c r="CW41" s="9"/>
@@ -30150,31 +30308,33 @@
       <c r="CK42" s="20">
         <v>34564.855914700347</v>
       </c>
-      <c r="CL42" s="22">
+      <c r="CL42" s="20">
         <v>44084.202237098885</v>
       </c>
-      <c r="CM42" s="22">
-        <v>43265.08351223568</v>
-      </c>
-      <c r="CN42" s="22">
-        <v>29646.862680363436</v>
-      </c>
-      <c r="CO42" s="22">
+      <c r="CM42" s="20">
+        <v>43260.5121670058</v>
+      </c>
+      <c r="CN42" s="20">
+        <v>29650.07252410255</v>
+      </c>
+      <c r="CO42" s="20">
         <v>35188.388910844587</v>
       </c>
-      <c r="CP42" s="22">
-        <v>43106.489711259623</v>
-      </c>
-      <c r="CQ42" s="22">
-        <v>41990.363160263289</v>
-      </c>
-      <c r="CR42" s="22">
-        <v>31166.455836105295</v>
-      </c>
-      <c r="CS42" s="22">
-        <v>38822.283128896423</v>
-      </c>
-      <c r="CT42" s="9"/>
+      <c r="CP42" s="28">
+        <v>43163.224806070066</v>
+      </c>
+      <c r="CQ42" s="28">
+        <v>42044.3314427531</v>
+      </c>
+      <c r="CR42" s="28">
+        <v>31140.003033670684</v>
+      </c>
+      <c r="CS42" s="28">
+        <v>38807.245633296341</v>
+      </c>
+      <c r="CT42" s="28">
+        <v>43278.228723232285</v>
+      </c>
       <c r="CU42" s="9"/>
       <c r="CV42" s="9"/>
       <c r="CW42" s="9"/>
@@ -30326,15 +30486,21 @@
       <c r="CM43" s="13"/>
       <c r="CN43" s="13"/>
       <c r="CO43" s="13"/>
-      <c r="CP43" s="13"/>
-      <c r="CQ43" s="13"/>
-      <c r="CR43" s="13"/>
-      <c r="CS43" s="13"/>
+      <c r="CP43" s="29"/>
+      <c r="CQ43" s="29"/>
+      <c r="CR43" s="29"/>
+      <c r="CS43" s="29"/>
+      <c r="CT43" s="29"/>
     </row>
     <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CP44" s="23"/>
+      <c r="CQ44" s="23"/>
+      <c r="CR44" s="23"/>
+      <c r="CS44" s="23"/>
+      <c r="CT44" s="23"/>
     </row>
     <row r="45" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
@@ -30429,11 +30595,11 @@
       <c r="CM45" s="9"/>
       <c r="CN45" s="9"/>
       <c r="CO45" s="9"/>
-      <c r="CP45" s="9"/>
-      <c r="CQ45" s="9"/>
-      <c r="CR45" s="9"/>
-      <c r="CS45" s="9"/>
-      <c r="CT45" s="9"/>
+      <c r="CP45" s="27"/>
+      <c r="CQ45" s="27"/>
+      <c r="CR45" s="27"/>
+      <c r="CS45" s="27"/>
+      <c r="CT45" s="27"/>
       <c r="CU45" s="9"/>
       <c r="CV45" s="9"/>
       <c r="CW45" s="9"/>
@@ -30584,11 +30750,11 @@
       <c r="CM46" s="9"/>
       <c r="CN46" s="9"/>
       <c r="CO46" s="9"/>
-      <c r="CP46" s="9"/>
-      <c r="CQ46" s="9"/>
-      <c r="CR46" s="9"/>
-      <c r="CS46" s="9"/>
-      <c r="CT46" s="9"/>
+      <c r="CP46" s="27"/>
+      <c r="CQ46" s="27"/>
+      <c r="CR46" s="27"/>
+      <c r="CS46" s="27"/>
+      <c r="CT46" s="27"/>
       <c r="CU46" s="9"/>
       <c r="CV46" s="9"/>
       <c r="CW46" s="9"/>
@@ -30650,178 +30816,223 @@
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP47" s="23"/>
+      <c r="CQ47" s="23"/>
+      <c r="CR47" s="23"/>
+      <c r="CS47" s="23"/>
+      <c r="CT47" s="23"/>
     </row>
     <row r="48" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP48" s="23"/>
+      <c r="CQ48" s="23"/>
+      <c r="CR48" s="23"/>
+      <c r="CS48" s="23"/>
+      <c r="CT48" s="23"/>
     </row>
     <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="CP49" s="23"/>
+      <c r="CQ49" s="23"/>
+      <c r="CR49" s="23"/>
+      <c r="CS49" s="23"/>
+      <c r="CT49" s="23"/>
     </row>
-    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP50" s="23"/>
+      <c r="CQ50" s="23"/>
+      <c r="CR50" s="23"/>
+      <c r="CS50" s="23"/>
+      <c r="CT50" s="23"/>
+    </row>
     <row r="51" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="CP51" s="23"/>
+      <c r="CQ51" s="23"/>
+      <c r="CR51" s="23"/>
+      <c r="CS51" s="23"/>
+      <c r="CT51" s="23"/>
     </row>
     <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CP52" s="23"/>
+      <c r="CQ52" s="23"/>
+      <c r="CR52" s="23"/>
+      <c r="CS52" s="23"/>
+      <c r="CT52" s="23"/>
     </row>
     <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CP53" s="23"/>
+      <c r="CQ53" s="23"/>
+      <c r="CR53" s="23"/>
+      <c r="CS53" s="23"/>
+      <c r="CT53" s="23"/>
     </row>
-    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP54" s="23"/>
+      <c r="CQ54" s="23"/>
+      <c r="CR54" s="23"/>
+      <c r="CS54" s="23"/>
+      <c r="CT54" s="23"/>
+    </row>
     <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25" t="s">
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25" t="s">
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25" t="s">
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="25" t="s">
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="25"/>
-      <c r="T55" s="25"/>
-      <c r="U55" s="25"/>
-      <c r="V55" s="25" t="s">
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="W55" s="25"/>
-      <c r="X55" s="25"/>
-      <c r="Y55" s="25"/>
-      <c r="Z55" s="25" t="s">
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA55" s="25"/>
-      <c r="AB55" s="25"/>
-      <c r="AC55" s="25"/>
-      <c r="AD55" s="25" t="s">
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="34"/>
+      <c r="AC55" s="34"/>
+      <c r="AD55" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="25"/>
-      <c r="AF55" s="25"/>
-      <c r="AG55" s="25"/>
-      <c r="AH55" s="25" t="s">
+      <c r="AE55" s="34"/>
+      <c r="AF55" s="34"/>
+      <c r="AG55" s="34"/>
+      <c r="AH55" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="25"/>
-      <c r="AJ55" s="25"/>
-      <c r="AK55" s="25"/>
-      <c r="AL55" s="25" t="s">
+      <c r="AI55" s="34"/>
+      <c r="AJ55" s="34"/>
+      <c r="AK55" s="34"/>
+      <c r="AL55" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AM55" s="25"/>
-      <c r="AN55" s="25"/>
-      <c r="AO55" s="25"/>
-      <c r="AP55" s="25" t="s">
+      <c r="AM55" s="34"/>
+      <c r="AN55" s="34"/>
+      <c r="AO55" s="34"/>
+      <c r="AP55" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AQ55" s="25"/>
-      <c r="AR55" s="25"/>
-      <c r="AS55" s="25"/>
-      <c r="AT55" s="25" t="s">
+      <c r="AQ55" s="34"/>
+      <c r="AR55" s="34"/>
+      <c r="AS55" s="34"/>
+      <c r="AT55" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AU55" s="25"/>
-      <c r="AV55" s="25"/>
-      <c r="AW55" s="25"/>
-      <c r="AX55" s="25" t="s">
+      <c r="AU55" s="34"/>
+      <c r="AV55" s="34"/>
+      <c r="AW55" s="34"/>
+      <c r="AX55" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AY55" s="25"/>
-      <c r="AZ55" s="25"/>
-      <c r="BA55" s="25"/>
-      <c r="BB55" s="25" t="s">
+      <c r="AY55" s="34"/>
+      <c r="AZ55" s="34"/>
+      <c r="BA55" s="34"/>
+      <c r="BB55" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="BC55" s="25"/>
-      <c r="BD55" s="25"/>
-      <c r="BE55" s="25"/>
-      <c r="BF55" s="25" t="s">
+      <c r="BC55" s="34"/>
+      <c r="BD55" s="34"/>
+      <c r="BE55" s="34"/>
+      <c r="BF55" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="BG55" s="25"/>
-      <c r="BH55" s="25"/>
-      <c r="BI55" s="25"/>
-      <c r="BJ55" s="25" t="s">
+      <c r="BG55" s="34"/>
+      <c r="BH55" s="34"/>
+      <c r="BI55" s="34"/>
+      <c r="BJ55" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="BK55" s="25"/>
-      <c r="BL55" s="25"/>
-      <c r="BM55" s="25"/>
-      <c r="BN55" s="25" t="s">
+      <c r="BK55" s="34"/>
+      <c r="BL55" s="34"/>
+      <c r="BM55" s="34"/>
+      <c r="BN55" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="BO55" s="25"/>
-      <c r="BP55" s="25"/>
-      <c r="BQ55" s="25"/>
-      <c r="BR55" s="25" t="s">
+      <c r="BO55" s="34"/>
+      <c r="BP55" s="34"/>
+      <c r="BQ55" s="34"/>
+      <c r="BR55" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="BS55" s="25"/>
-      <c r="BT55" s="25"/>
-      <c r="BU55" s="25"/>
-      <c r="BV55" s="25" t="s">
+      <c r="BS55" s="34"/>
+      <c r="BT55" s="34"/>
+      <c r="BU55" s="34"/>
+      <c r="BV55" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="BW55" s="25"/>
-      <c r="BX55" s="25"/>
-      <c r="BY55" s="25"/>
-      <c r="BZ55" s="25" t="s">
+      <c r="BW55" s="34"/>
+      <c r="BX55" s="34"/>
+      <c r="BY55" s="34"/>
+      <c r="BZ55" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="CA55" s="25"/>
-      <c r="CB55" s="25"/>
-      <c r="CC55" s="25"/>
-      <c r="CD55" s="25" t="s">
+      <c r="CA55" s="34"/>
+      <c r="CB55" s="34"/>
+      <c r="CC55" s="34"/>
+      <c r="CD55" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="CE55" s="25"/>
-      <c r="CF55" s="25"/>
-      <c r="CG55" s="25"/>
-      <c r="CH55" s="25" t="s">
+      <c r="CE55" s="34"/>
+      <c r="CF55" s="34"/>
+      <c r="CG55" s="34"/>
+      <c r="CH55" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="CI55" s="25"/>
-      <c r="CJ55" s="25"/>
-      <c r="CK55" s="25"/>
-      <c r="CL55" s="24" t="s">
+      <c r="CI55" s="21"/>
+      <c r="CJ55" s="21"/>
+      <c r="CK55" s="21"/>
+      <c r="CL55" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="CM55" s="24"/>
-      <c r="CN55" s="24"/>
-      <c r="CO55" s="24"/>
-      <c r="CP55" s="23"/>
-      <c r="CQ55" s="23"/>
-      <c r="CR55" s="23"/>
-      <c r="CS55" s="23"/>
+      <c r="CM55" s="21"/>
+      <c r="CN55" s="21"/>
+      <c r="CO55" s="21"/>
+      <c r="CP55" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="CQ55" s="22"/>
+      <c r="CR55" s="22"/>
+      <c r="CS55" s="22"/>
+      <c r="CT55" s="22"/>
     </row>
     <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
@@ -31103,13 +31314,21 @@
       <c r="CO56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP56" s="5"/>
-      <c r="CQ56" s="5"/>
-      <c r="CR56" s="5"/>
-      <c r="CS56" s="5"/>
+      <c r="CP56" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ56" s="30"/>
+      <c r="CR56" s="30"/>
+      <c r="CS56" s="30"/>
+      <c r="CT56" s="30"/>
     </row>
     <row r="57" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
+      <c r="CP57" s="23"/>
+      <c r="CQ57" s="23"/>
+      <c r="CR57" s="23"/>
+      <c r="CS57" s="23"/>
+      <c r="CT57" s="23"/>
     </row>
     <row r="58" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -31380,21 +31599,24 @@
         <v>37.30484426126992</v>
       </c>
       <c r="CL58" s="15">
-        <v>-19.473722975386224</v>
+        <v>-19.069349886327373</v>
       </c>
       <c r="CM58" s="15">
-        <v>-60.226791024212901</v>
+        <v>-59.868286943748181</v>
       </c>
       <c r="CN58" s="15">
-        <v>-69.553337588941019</v>
+        <v>-69.974044470480507</v>
       </c>
       <c r="CO58" s="15">
-        <v>-16.177383905995143</v>
-      </c>
-      <c r="CP58" s="15"/>
-      <c r="CQ58" s="15"/>
-      <c r="CR58" s="15"/>
-      <c r="CS58" s="15"/>
+        <v>-15.4063694570211</v>
+      </c>
+      <c r="CP58" s="31">
+        <v>-46.997153296519336</v>
+      </c>
+      <c r="CQ58" s="31"/>
+      <c r="CR58" s="31"/>
+      <c r="CS58" s="31"/>
+      <c r="CT58" s="31"/>
     </row>
     <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -31676,11 +31898,13 @@
       <c r="CO59" s="15">
         <v>-47.523461612494863</v>
       </c>
-      <c r="CP59" s="15"/>
-      <c r="CQ59" s="15"/>
-      <c r="CR59" s="15"/>
-      <c r="CS59" s="15"/>
-      <c r="CT59" s="9"/>
+      <c r="CP59" s="31">
+        <v>-2.6344447098315413</v>
+      </c>
+      <c r="CQ59" s="31"/>
+      <c r="CR59" s="31"/>
+      <c r="CS59" s="31"/>
+      <c r="CT59" s="31"/>
       <c r="CU59" s="9"/>
       <c r="CV59" s="9"/>
       <c r="CW59" s="9"/>
@@ -32002,7 +32226,7 @@
         <v>18.786959845235245</v>
       </c>
       <c r="CL60" s="15">
-        <v>14.469366642966961</v>
+        <v>15.328097045413585</v>
       </c>
       <c r="CM60" s="15">
         <v>10.204146747955505</v>
@@ -32011,13 +32235,15 @@
         <v>20.604249574594576</v>
       </c>
       <c r="CO60" s="15">
-        <v>22.274670949663218</v>
-      </c>
-      <c r="CP60" s="15"/>
-      <c r="CQ60" s="15"/>
-      <c r="CR60" s="15"/>
-      <c r="CS60" s="15"/>
-      <c r="CT60" s="9"/>
+        <v>22.461927742893224</v>
+      </c>
+      <c r="CP60" s="31">
+        <v>6.16687569941692</v>
+      </c>
+      <c r="CQ60" s="31"/>
+      <c r="CR60" s="31"/>
+      <c r="CS60" s="31"/>
+      <c r="CT60" s="31"/>
       <c r="CU60" s="9"/>
       <c r="CV60" s="9"/>
       <c r="CW60" s="9"/>
@@ -32339,22 +32565,24 @@
         <v>40.693310625311057</v>
       </c>
       <c r="CL61" s="15">
-        <v>16.561357474248894</v>
+        <v>16.784321372918328</v>
       </c>
       <c r="CM61" s="15">
-        <v>4.1340659856197561</v>
+        <v>4.371552114667594</v>
       </c>
       <c r="CN61" s="15">
-        <v>4.3645387118358485</v>
+        <v>4.5139183082149543</v>
       </c>
       <c r="CO61" s="15">
-        <v>-13.175897411810439</v>
-      </c>
-      <c r="CP61" s="15"/>
-      <c r="CQ61" s="15"/>
-      <c r="CR61" s="15"/>
-      <c r="CS61" s="15"/>
-      <c r="CT61" s="9"/>
+        <v>-17.055116369346194</v>
+      </c>
+      <c r="CP61" s="31">
+        <v>-26.164817959948707</v>
+      </c>
+      <c r="CQ61" s="31"/>
+      <c r="CR61" s="31"/>
+      <c r="CS61" s="31"/>
+      <c r="CT61" s="31"/>
       <c r="CU61" s="9"/>
       <c r="CV61" s="9"/>
       <c r="CW61" s="9"/>
@@ -32676,22 +32904,24 @@
         <v>9.702739527062505</v>
       </c>
       <c r="CL62" s="15">
-        <v>-3.3223731734942703</v>
+        <v>-3.3223731734943129</v>
       </c>
       <c r="CM62" s="15">
         <v>4.1160007160586645</v>
       </c>
       <c r="CN62" s="15">
-        <v>1.2648201612025218</v>
+        <v>1.2648201612025503</v>
       </c>
       <c r="CO62" s="15">
         <v>4.2205351309310544</v>
       </c>
-      <c r="CP62" s="15"/>
-      <c r="CQ62" s="15"/>
-      <c r="CR62" s="15"/>
-      <c r="CS62" s="15"/>
-      <c r="CT62" s="9"/>
+      <c r="CP62" s="31">
+        <v>-3.1402333272407645</v>
+      </c>
+      <c r="CQ62" s="31"/>
+      <c r="CR62" s="31"/>
+      <c r="CS62" s="31"/>
+      <c r="CT62" s="31"/>
       <c r="CU62" s="9"/>
       <c r="CV62" s="9"/>
       <c r="CW62" s="9"/>
@@ -33004,31 +33234,33 @@
         <v>17.965655216977723</v>
       </c>
       <c r="CI63" s="15">
-        <v>21.560887352902512</v>
+        <v>21.501387121201461</v>
       </c>
       <c r="CJ63" s="15">
-        <v>18.350273189774086</v>
+        <v>18.393677910347677</v>
       </c>
       <c r="CK63" s="15">
         <v>10.872811751645628</v>
       </c>
       <c r="CL63" s="15">
-        <v>10.917408354490661</v>
+        <v>11.139723331127499</v>
       </c>
       <c r="CM63" s="15">
-        <v>8.3521869831905349</v>
+        <v>10.245205097432859</v>
       </c>
       <c r="CN63" s="15">
-        <v>22.332717419814998</v>
+        <v>22.367307486028508</v>
       </c>
       <c r="CO63" s="15">
         <v>7.8482601019550344</v>
       </c>
-      <c r="CP63" s="15"/>
-      <c r="CQ63" s="15"/>
-      <c r="CR63" s="15"/>
-      <c r="CS63" s="15"/>
-      <c r="CT63" s="9"/>
+      <c r="CP63" s="31">
+        <v>9.6502661604755531</v>
+      </c>
+      <c r="CQ63" s="31"/>
+      <c r="CR63" s="31"/>
+      <c r="CS63" s="31"/>
+      <c r="CT63" s="31"/>
       <c r="CU63" s="9"/>
       <c r="CV63" s="9"/>
       <c r="CW63" s="9"/>
@@ -33174,11 +33406,11 @@
       <c r="CM64" s="9"/>
       <c r="CN64" s="9"/>
       <c r="CO64" s="9"/>
-      <c r="CP64" s="9"/>
-      <c r="CQ64" s="9"/>
-      <c r="CR64" s="9"/>
-      <c r="CS64" s="9"/>
-      <c r="CT64" s="9"/>
+      <c r="CP64" s="27"/>
+      <c r="CQ64" s="27"/>
+      <c r="CR64" s="27"/>
+      <c r="CS64" s="27"/>
+      <c r="CT64" s="27"/>
       <c r="CU64" s="9"/>
       <c r="CV64" s="9"/>
       <c r="CW64" s="9"/>
@@ -33491,31 +33723,33 @@
         <v>68.733225383337981</v>
       </c>
       <c r="CI65" s="15">
-        <v>52.711868633780597</v>
+        <v>52.702074440718746</v>
       </c>
       <c r="CJ65" s="15">
-        <v>63.572209086874551</v>
+        <v>63.581683529914415</v>
       </c>
       <c r="CK65" s="15">
         <v>21.236939875786703</v>
       </c>
       <c r="CL65" s="15">
-        <v>-5.729766545971188</v>
+        <v>-5.4096070434439412</v>
       </c>
       <c r="CM65" s="15">
-        <v>-24.08128185764977</v>
+        <v>-23.707490368515991</v>
       </c>
       <c r="CN65" s="15">
-        <v>-28.364802843665885</v>
+        <v>-28.489640902001696</v>
       </c>
       <c r="CO65" s="15">
-        <v>-7.9215350429840754</v>
-      </c>
-      <c r="CP65" s="15"/>
-      <c r="CQ65" s="15"/>
-      <c r="CR65" s="15"/>
-      <c r="CS65" s="15"/>
-      <c r="CT65" s="9"/>
+        <v>-8.0578746896439384</v>
+      </c>
+      <c r="CP65" s="31">
+        <v>-13.825446105884339</v>
+      </c>
+      <c r="CQ65" s="31"/>
+      <c r="CR65" s="31"/>
+      <c r="CS65" s="31"/>
+      <c r="CT65" s="31"/>
       <c r="CU65" s="9"/>
       <c r="CV65" s="9"/>
       <c r="CW65" s="9"/>
@@ -33662,15 +33896,21 @@
       <c r="CM66" s="13"/>
       <c r="CN66" s="13"/>
       <c r="CO66" s="13"/>
-      <c r="CP66" s="13"/>
-      <c r="CQ66" s="13"/>
-      <c r="CR66" s="13"/>
-      <c r="CS66" s="13"/>
+      <c r="CP66" s="29"/>
+      <c r="CQ66" s="29"/>
+      <c r="CR66" s="29"/>
+      <c r="CS66" s="29"/>
+      <c r="CT66" s="29"/>
     </row>
     <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>51</v>
       </c>
+      <c r="CP67" s="23"/>
+      <c r="CQ67" s="23"/>
+      <c r="CR67" s="23"/>
+      <c r="CS67" s="23"/>
+      <c r="CT67" s="23"/>
     </row>
     <row r="68" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
@@ -33768,11 +34008,11 @@
       <c r="CM68" s="9"/>
       <c r="CN68" s="9"/>
       <c r="CO68" s="9"/>
-      <c r="CP68" s="9"/>
-      <c r="CQ68" s="9"/>
-      <c r="CR68" s="9"/>
-      <c r="CS68" s="9"/>
-      <c r="CT68" s="9"/>
+      <c r="CP68" s="27"/>
+      <c r="CQ68" s="27"/>
+      <c r="CR68" s="27"/>
+      <c r="CS68" s="27"/>
+      <c r="CT68" s="27"/>
       <c r="CU68" s="9"/>
       <c r="CV68" s="9"/>
       <c r="CW68" s="9"/>
@@ -33918,11 +34158,11 @@
       <c r="CM69" s="9"/>
       <c r="CN69" s="9"/>
       <c r="CO69" s="9"/>
-      <c r="CP69" s="9"/>
-      <c r="CQ69" s="9"/>
-      <c r="CR69" s="9"/>
-      <c r="CS69" s="9"/>
-      <c r="CT69" s="9"/>
+      <c r="CP69" s="27"/>
+      <c r="CQ69" s="27"/>
+      <c r="CR69" s="27"/>
+      <c r="CS69" s="27"/>
+      <c r="CT69" s="27"/>
       <c r="CU69" s="9"/>
       <c r="CV69" s="9"/>
       <c r="CW69" s="9"/>
@@ -33979,178 +34219,223 @@
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP70" s="23"/>
+      <c r="CQ70" s="23"/>
+      <c r="CR70" s="23"/>
+      <c r="CS70" s="23"/>
+      <c r="CT70" s="23"/>
     </row>
     <row r="71" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP71" s="23"/>
+      <c r="CQ71" s="23"/>
+      <c r="CR71" s="23"/>
+      <c r="CS71" s="23"/>
+      <c r="CT71" s="23"/>
     </row>
     <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="CP72" s="23"/>
+      <c r="CQ72" s="23"/>
+      <c r="CR72" s="23"/>
+      <c r="CS72" s="23"/>
+      <c r="CT72" s="23"/>
     </row>
-    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP73" s="23"/>
+      <c r="CQ73" s="23"/>
+      <c r="CR73" s="23"/>
+      <c r="CS73" s="23"/>
+      <c r="CT73" s="23"/>
+    </row>
     <row r="74" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="CP74" s="23"/>
+      <c r="CQ74" s="23"/>
+      <c r="CR74" s="23"/>
+      <c r="CS74" s="23"/>
+      <c r="CT74" s="23"/>
     </row>
     <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CP75" s="23"/>
+      <c r="CQ75" s="23"/>
+      <c r="CR75" s="23"/>
+      <c r="CS75" s="23"/>
+      <c r="CT75" s="23"/>
     </row>
     <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="CP76" s="23"/>
+      <c r="CQ76" s="23"/>
+      <c r="CR76" s="23"/>
+      <c r="CS76" s="23"/>
+      <c r="CT76" s="23"/>
     </row>
-    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP77" s="23"/>
+      <c r="CQ77" s="23"/>
+      <c r="CR77" s="23"/>
+      <c r="CS77" s="23"/>
+      <c r="CT77" s="23"/>
+    </row>
     <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="25" t="s">
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="25" t="s">
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="25" t="s">
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
-      <c r="Q78" s="26"/>
-      <c r="R78" s="25" t="s">
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="26"/>
-      <c r="T78" s="26"/>
-      <c r="U78" s="26"/>
-      <c r="V78" s="25" t="s">
+      <c r="S78" s="35"/>
+      <c r="T78" s="35"/>
+      <c r="U78" s="35"/>
+      <c r="V78" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="W78" s="26"/>
-      <c r="X78" s="26"/>
-      <c r="Y78" s="26"/>
-      <c r="Z78" s="25" t="s">
+      <c r="W78" s="35"/>
+      <c r="X78" s="35"/>
+      <c r="Y78" s="35"/>
+      <c r="Z78" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA78" s="26"/>
-      <c r="AB78" s="26"/>
-      <c r="AC78" s="26"/>
-      <c r="AD78" s="25" t="s">
+      <c r="AA78" s="35"/>
+      <c r="AB78" s="35"/>
+      <c r="AC78" s="35"/>
+      <c r="AD78" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="26"/>
-      <c r="AF78" s="26"/>
-      <c r="AG78" s="26"/>
-      <c r="AH78" s="25" t="s">
+      <c r="AE78" s="35"/>
+      <c r="AF78" s="35"/>
+      <c r="AG78" s="35"/>
+      <c r="AH78" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AI78" s="26"/>
-      <c r="AJ78" s="26"/>
-      <c r="AK78" s="26"/>
-      <c r="AL78" s="25" t="s">
+      <c r="AI78" s="35"/>
+      <c r="AJ78" s="35"/>
+      <c r="AK78" s="35"/>
+      <c r="AL78" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AM78" s="26"/>
-      <c r="AN78" s="26"/>
-      <c r="AO78" s="26"/>
-      <c r="AP78" s="25" t="s">
+      <c r="AM78" s="35"/>
+      <c r="AN78" s="35"/>
+      <c r="AO78" s="35"/>
+      <c r="AP78" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AQ78" s="26"/>
-      <c r="AR78" s="26"/>
-      <c r="AS78" s="26"/>
-      <c r="AT78" s="25" t="s">
+      <c r="AQ78" s="35"/>
+      <c r="AR78" s="35"/>
+      <c r="AS78" s="35"/>
+      <c r="AT78" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AU78" s="26"/>
-      <c r="AV78" s="26"/>
-      <c r="AW78" s="26"/>
-      <c r="AX78" s="25" t="s">
+      <c r="AU78" s="35"/>
+      <c r="AV78" s="35"/>
+      <c r="AW78" s="35"/>
+      <c r="AX78" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AY78" s="26"/>
-      <c r="AZ78" s="26"/>
-      <c r="BA78" s="26"/>
-      <c r="BB78" s="25" t="s">
+      <c r="AY78" s="35"/>
+      <c r="AZ78" s="35"/>
+      <c r="BA78" s="35"/>
+      <c r="BB78" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="BC78" s="26"/>
-      <c r="BD78" s="26"/>
-      <c r="BE78" s="26"/>
-      <c r="BF78" s="25" t="s">
+      <c r="BC78" s="35"/>
+      <c r="BD78" s="35"/>
+      <c r="BE78" s="35"/>
+      <c r="BF78" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="BG78" s="26"/>
-      <c r="BH78" s="26"/>
-      <c r="BI78" s="26"/>
-      <c r="BJ78" s="25" t="s">
+      <c r="BG78" s="35"/>
+      <c r="BH78" s="35"/>
+      <c r="BI78" s="35"/>
+      <c r="BJ78" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="BK78" s="26"/>
-      <c r="BL78" s="26"/>
-      <c r="BM78" s="26"/>
-      <c r="BN78" s="25" t="s">
+      <c r="BK78" s="35"/>
+      <c r="BL78" s="35"/>
+      <c r="BM78" s="35"/>
+      <c r="BN78" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="BO78" s="26"/>
-      <c r="BP78" s="26"/>
-      <c r="BQ78" s="26"/>
-      <c r="BR78" s="25" t="s">
+      <c r="BO78" s="35"/>
+      <c r="BP78" s="35"/>
+      <c r="BQ78" s="35"/>
+      <c r="BR78" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="BS78" s="26"/>
-      <c r="BT78" s="26"/>
-      <c r="BU78" s="26"/>
-      <c r="BV78" s="25" t="s">
+      <c r="BS78" s="35"/>
+      <c r="BT78" s="35"/>
+      <c r="BU78" s="35"/>
+      <c r="BV78" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="BW78" s="26"/>
-      <c r="BX78" s="26"/>
-      <c r="BY78" s="26"/>
-      <c r="BZ78" s="25" t="s">
+      <c r="BW78" s="35"/>
+      <c r="BX78" s="35"/>
+      <c r="BY78" s="35"/>
+      <c r="BZ78" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="CA78" s="26"/>
-      <c r="CB78" s="26"/>
-      <c r="CC78" s="26"/>
-      <c r="CD78" s="25" t="s">
+      <c r="CA78" s="35"/>
+      <c r="CB78" s="35"/>
+      <c r="CC78" s="35"/>
+      <c r="CD78" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="CE78" s="25"/>
-      <c r="CF78" s="25"/>
-      <c r="CG78" s="25"/>
-      <c r="CH78" s="25" t="s">
+      <c r="CE78" s="34"/>
+      <c r="CF78" s="34"/>
+      <c r="CG78" s="34"/>
+      <c r="CH78" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="CI78" s="25"/>
-      <c r="CJ78" s="25"/>
-      <c r="CK78" s="25"/>
-      <c r="CL78" s="24" t="s">
+      <c r="CI78" s="21"/>
+      <c r="CJ78" s="21"/>
+      <c r="CK78" s="21"/>
+      <c r="CL78" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="CM78" s="24"/>
-      <c r="CN78" s="24"/>
-      <c r="CO78" s="24"/>
-      <c r="CP78" s="23"/>
-      <c r="CQ78" s="23"/>
-      <c r="CR78" s="23"/>
-      <c r="CS78" s="23"/>
+      <c r="CM78" s="21"/>
+      <c r="CN78" s="21"/>
+      <c r="CO78" s="21"/>
+      <c r="CP78" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="CQ78" s="22"/>
+      <c r="CR78" s="22"/>
+      <c r="CS78" s="22"/>
+      <c r="CT78" s="22"/>
     </row>
     <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
@@ -34432,13 +34717,21 @@
       <c r="CO79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP79" s="5"/>
-      <c r="CQ79" s="5"/>
-      <c r="CR79" s="5"/>
-      <c r="CS79" s="5"/>
+      <c r="CP79" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ79" s="30"/>
+      <c r="CR79" s="30"/>
+      <c r="CS79" s="30"/>
+      <c r="CT79" s="30"/>
     </row>
     <row r="80" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
+      <c r="CP80" s="23"/>
+      <c r="CQ80" s="23"/>
+      <c r="CR80" s="23"/>
+      <c r="CS80" s="23"/>
+      <c r="CT80" s="23"/>
     </row>
     <row r="81" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -34709,22 +35002,24 @@
         <v>-31.669763791892748</v>
       </c>
       <c r="CL81" s="15">
-        <v>-9.8357228140963713</v>
+        <v>-9.3829512637951211</v>
       </c>
       <c r="CM81" s="15">
-        <v>-12.433855346726745</v>
+        <v>-11.644559713380346</v>
       </c>
       <c r="CN81" s="15">
-        <v>-17.470890354602403</v>
+        <v>-18.61126376848874</v>
       </c>
       <c r="CO81" s="15">
-        <v>91.115844859185387</v>
-      </c>
-      <c r="CP81" s="15"/>
-      <c r="CQ81" s="15"/>
-      <c r="CR81" s="15"/>
-      <c r="CS81" s="15"/>
-      <c r="CT81" s="9"/>
+        <v>92.873760379849415</v>
+      </c>
+      <c r="CP81" s="31">
+        <v>-13.123230247193803</v>
+      </c>
+      <c r="CQ81" s="31"/>
+      <c r="CR81" s="31"/>
+      <c r="CS81" s="31"/>
+      <c r="CT81" s="31"/>
       <c r="CU81" s="9"/>
       <c r="CV81" s="9"/>
       <c r="CW81" s="9"/>
@@ -35057,11 +35352,13 @@
       <c r="CO82" s="15">
         <v>-25.874397678613008</v>
       </c>
-      <c r="CP82" s="15"/>
-      <c r="CQ82" s="15"/>
-      <c r="CR82" s="15"/>
-      <c r="CS82" s="15"/>
-      <c r="CT82" s="9"/>
+      <c r="CP82" s="31">
+        <v>3.0761252136109647</v>
+      </c>
+      <c r="CQ82" s="31"/>
+      <c r="CR82" s="31"/>
+      <c r="CS82" s="31"/>
+      <c r="CT82" s="31"/>
       <c r="CU82" s="9"/>
       <c r="CV82" s="9"/>
       <c r="CW82" s="9"/>
@@ -35383,7 +35680,7 @@
         <v>18.097007010717945</v>
       </c>
       <c r="CL83" s="15">
-        <v>6.8071527856334342</v>
+        <v>6.7467945779260674</v>
       </c>
       <c r="CM83" s="15">
         <v>4.3634766491565529</v>
@@ -35392,13 +35689,15 @@
         <v>8.5081688764066854</v>
       </c>
       <c r="CO83" s="15">
-        <v>9.521047088765215</v>
-      </c>
-      <c r="CP83" s="15"/>
-      <c r="CQ83" s="15"/>
-      <c r="CR83" s="15"/>
-      <c r="CS83" s="15"/>
-      <c r="CT83" s="9"/>
+        <v>9.6887724231272188</v>
+      </c>
+      <c r="CP83" s="31">
+        <v>-2.5114888990185591</v>
+      </c>
+      <c r="CQ83" s="31"/>
+      <c r="CR83" s="31"/>
+      <c r="CS83" s="31"/>
+      <c r="CT83" s="31"/>
       <c r="CU83" s="9"/>
       <c r="CV83" s="9"/>
       <c r="CW83" s="9"/>
@@ -35720,22 +36019,24 @@
         <v>9.508638499324789</v>
       </c>
       <c r="CL84" s="15">
-        <v>13.637522880405967</v>
+        <v>13.854893934463448</v>
       </c>
       <c r="CM84" s="15">
-        <v>27.539732809363144</v>
+        <v>27.830597447731108</v>
       </c>
       <c r="CN84" s="15">
-        <v>13.919044448878196</v>
+        <v>14.082099650287731</v>
       </c>
       <c r="CO84" s="15">
-        <v>11.91216337476331</v>
-      </c>
-      <c r="CP84" s="15"/>
-      <c r="CQ84" s="15"/>
-      <c r="CR84" s="15"/>
-      <c r="CS84" s="15"/>
-      <c r="CT84" s="9"/>
+        <v>6.9120335398334021</v>
+      </c>
+      <c r="CP84" s="31">
+        <v>6.3481637620218976</v>
+      </c>
+      <c r="CQ84" s="31"/>
+      <c r="CR84" s="31"/>
+      <c r="CS84" s="31"/>
+      <c r="CT84" s="31"/>
       <c r="CU84" s="9"/>
       <c r="CV84" s="9"/>
       <c r="CW84" s="9"/>
@@ -36057,22 +36358,24 @@
         <v>31.40609690924515</v>
       </c>
       <c r="CL85" s="15">
-        <v>-0.17101118775745761</v>
+        <v>-0.17101118775748603</v>
       </c>
       <c r="CM85" s="15">
         <v>10.678091226177088</v>
       </c>
       <c r="CN85" s="15">
-        <v>-5.4631462522424528</v>
+        <v>-5.4631462522424243</v>
       </c>
       <c r="CO85" s="15">
         <v>4.6995140419210202</v>
       </c>
-      <c r="CP85" s="15"/>
-      <c r="CQ85" s="15"/>
-      <c r="CR85" s="15"/>
-      <c r="CS85" s="15"/>
-      <c r="CT85" s="9"/>
+      <c r="CP85" s="31">
+        <v>0.55350290128286872</v>
+      </c>
+      <c r="CQ85" s="31"/>
+      <c r="CR85" s="31"/>
+      <c r="CS85" s="31"/>
+      <c r="CT85" s="31"/>
       <c r="CU85" s="9"/>
       <c r="CV85" s="9"/>
       <c r="CW85" s="9"/>
@@ -36385,31 +36688,33 @@
         <v>16.52652545166633</v>
       </c>
       <c r="CI86" s="15">
-        <v>17.193797253052992</v>
+        <v>17.128804115910896</v>
       </c>
       <c r="CJ86" s="15">
-        <v>11.503808816916901</v>
+        <v>11.54470261068812</v>
       </c>
       <c r="CK86" s="15">
         <v>2.8730183549624542</v>
       </c>
       <c r="CL86" s="15">
-        <v>5.2102486405012201</v>
+        <v>5.2185295985551079</v>
       </c>
       <c r="CM86" s="15">
-        <v>3.7050849277978415</v>
+        <v>3.5689015657958549</v>
       </c>
       <c r="CN86" s="15">
-        <v>14.514268082108671</v>
+        <v>14.51485215166403</v>
       </c>
       <c r="CO86" s="15">
         <v>6.9887211682223978</v>
       </c>
-      <c r="CP86" s="15"/>
-      <c r="CQ86" s="15"/>
-      <c r="CR86" s="15"/>
-      <c r="CS86" s="15"/>
-      <c r="CT86" s="9"/>
+      <c r="CP86" s="31">
+        <v>8.2325136741220319</v>
+      </c>
+      <c r="CQ86" s="31"/>
+      <c r="CR86" s="31"/>
+      <c r="CS86" s="31"/>
+      <c r="CT86" s="31"/>
       <c r="CU86" s="9"/>
       <c r="CV86" s="9"/>
       <c r="CW86" s="9"/>
@@ -36555,11 +36860,11 @@
       <c r="CM87" s="9"/>
       <c r="CN87" s="9"/>
       <c r="CO87" s="9"/>
-      <c r="CP87" s="9"/>
-      <c r="CQ87" s="9"/>
-      <c r="CR87" s="9"/>
-      <c r="CS87" s="9"/>
-      <c r="CT87" s="9"/>
+      <c r="CP87" s="27"/>
+      <c r="CQ87" s="27"/>
+      <c r="CR87" s="27"/>
+      <c r="CS87" s="27"/>
+      <c r="CT87" s="27"/>
       <c r="CU87" s="9"/>
       <c r="CV87" s="9"/>
       <c r="CW87" s="9"/>
@@ -36872,31 +37177,33 @@
         <v>20.364459915481035</v>
       </c>
       <c r="CI88" s="15">
-        <v>-6.7662948290945195</v>
+        <v>-6.7761458086558264</v>
       </c>
       <c r="CJ88" s="15">
-        <v>10.200461719890086</v>
+        <v>10.212393041794627</v>
       </c>
       <c r="CK88" s="15">
         <v>1.8039508039119312</v>
       </c>
       <c r="CL88" s="15">
-        <v>-2.2178296900572434</v>
+        <v>-2.0891325787762014</v>
       </c>
       <c r="CM88" s="15">
-        <v>-2.9463027653971636</v>
+        <v>-2.811295251331444</v>
       </c>
       <c r="CN88" s="15">
-        <v>5.1256457458089102</v>
+        <v>5.0250484492305105</v>
       </c>
       <c r="CO88" s="15">
-        <v>10.326969578683702</v>
-      </c>
-      <c r="CP88" s="15"/>
-      <c r="CQ88" s="15"/>
-      <c r="CR88" s="15"/>
-      <c r="CS88" s="15"/>
-      <c r="CT88" s="9"/>
+        <v>10.284235324386984</v>
+      </c>
+      <c r="CP88" s="31">
+        <v>0.26643958526946676</v>
+      </c>
+      <c r="CQ88" s="31"/>
+      <c r="CR88" s="31"/>
+      <c r="CS88" s="31"/>
+      <c r="CT88" s="31"/>
       <c r="CU88" s="9"/>
       <c r="CV88" s="9"/>
       <c r="CW88" s="9"/>
@@ -37043,15 +37350,21 @@
       <c r="CM89" s="13"/>
       <c r="CN89" s="13"/>
       <c r="CO89" s="13"/>
-      <c r="CP89" s="13"/>
-      <c r="CQ89" s="13"/>
-      <c r="CR89" s="13"/>
-      <c r="CS89" s="13"/>
+      <c r="CP89" s="29"/>
+      <c r="CQ89" s="29"/>
+      <c r="CR89" s="29"/>
+      <c r="CS89" s="29"/>
+      <c r="CT89" s="29"/>
     </row>
     <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>51</v>
       </c>
+      <c r="CP90" s="23"/>
+      <c r="CQ90" s="23"/>
+      <c r="CR90" s="23"/>
+      <c r="CS90" s="23"/>
+      <c r="CT90" s="23"/>
     </row>
     <row r="91" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
@@ -37149,11 +37462,11 @@
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
-      <c r="CP91" s="9"/>
-      <c r="CQ91" s="9"/>
-      <c r="CR91" s="9"/>
-      <c r="CS91" s="9"/>
-      <c r="CT91" s="9"/>
+      <c r="CP91" s="27"/>
+      <c r="CQ91" s="27"/>
+      <c r="CR91" s="27"/>
+      <c r="CS91" s="27"/>
+      <c r="CT91" s="27"/>
       <c r="CU91" s="9"/>
       <c r="CV91" s="9"/>
       <c r="CW91" s="9"/>
@@ -37299,11 +37612,11 @@
       <c r="CM92" s="9"/>
       <c r="CN92" s="9"/>
       <c r="CO92" s="9"/>
-      <c r="CP92" s="9"/>
-      <c r="CQ92" s="9"/>
-      <c r="CR92" s="9"/>
-      <c r="CS92" s="9"/>
-      <c r="CT92" s="9"/>
+      <c r="CP92" s="27"/>
+      <c r="CQ92" s="27"/>
+      <c r="CR92" s="27"/>
+      <c r="CS92" s="27"/>
+      <c r="CT92" s="27"/>
       <c r="CU92" s="9"/>
       <c r="CV92" s="9"/>
       <c r="CW92" s="9"/>
@@ -37365,175 +37678,215 @@
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP93" s="23"/>
+      <c r="CQ93" s="23"/>
+      <c r="CR93" s="23"/>
+      <c r="CS93" s="23"/>
+      <c r="CT93" s="23"/>
     </row>
     <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="CP94" s="23"/>
+      <c r="CQ94" s="23"/>
+      <c r="CR94" s="23"/>
+      <c r="CS94" s="23"/>
+      <c r="CT94" s="23"/>
     </row>
-    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP95" s="23"/>
+      <c r="CQ95" s="23"/>
+      <c r="CR95" s="23"/>
+      <c r="CS95" s="23"/>
+      <c r="CT95" s="23"/>
+    </row>
     <row r="96" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="CP96" s="23"/>
+      <c r="CQ96" s="23"/>
+      <c r="CR96" s="23"/>
+      <c r="CS96" s="23"/>
+      <c r="CT96" s="23"/>
     </row>
     <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="CP97" s="23"/>
+      <c r="CQ97" s="23"/>
+      <c r="CR97" s="23"/>
+      <c r="CS97" s="23"/>
+      <c r="CT97" s="23"/>
     </row>
     <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CP98" s="23"/>
+      <c r="CQ98" s="23"/>
+      <c r="CR98" s="23"/>
+      <c r="CS98" s="23"/>
+      <c r="CT98" s="23"/>
     </row>
-    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP99" s="23"/>
+      <c r="CQ99" s="23"/>
+      <c r="CR99" s="23"/>
+      <c r="CS99" s="23"/>
+      <c r="CT99" s="23"/>
+    </row>
     <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
-      <c r="B100" s="25">
+      <c r="B100" s="34">
         <v>2000</v>
       </c>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25">
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34">
         <v>2001</v>
       </c>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25">
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34">
         <v>2002</v>
       </c>
-      <c r="K100" s="25"/>
-      <c r="L100" s="25"/>
-      <c r="M100" s="25"/>
-      <c r="N100" s="25">
+      <c r="K100" s="34"/>
+      <c r="L100" s="34"/>
+      <c r="M100" s="34"/>
+      <c r="N100" s="34">
         <v>2003</v>
       </c>
-      <c r="O100" s="25"/>
-      <c r="P100" s="25"/>
-      <c r="Q100" s="25"/>
-      <c r="R100" s="25">
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
+      <c r="Q100" s="34"/>
+      <c r="R100" s="34">
         <v>2004</v>
       </c>
-      <c r="S100" s="25"/>
-      <c r="T100" s="25"/>
-      <c r="U100" s="25"/>
-      <c r="V100" s="25">
+      <c r="S100" s="34"/>
+      <c r="T100" s="34"/>
+      <c r="U100" s="34"/>
+      <c r="V100" s="34">
         <v>2005</v>
       </c>
-      <c r="W100" s="25"/>
-      <c r="X100" s="25"/>
-      <c r="Y100" s="25"/>
-      <c r="Z100" s="25">
+      <c r="W100" s="34"/>
+      <c r="X100" s="34"/>
+      <c r="Y100" s="34"/>
+      <c r="Z100" s="34">
         <v>2006</v>
       </c>
-      <c r="AA100" s="25"/>
-      <c r="AB100" s="25"/>
-      <c r="AC100" s="25"/>
-      <c r="AD100" s="25">
+      <c r="AA100" s="34"/>
+      <c r="AB100" s="34"/>
+      <c r="AC100" s="34"/>
+      <c r="AD100" s="34">
         <v>2007</v>
       </c>
-      <c r="AE100" s="25"/>
-      <c r="AF100" s="25"/>
-      <c r="AG100" s="25"/>
-      <c r="AH100" s="25">
+      <c r="AE100" s="34"/>
+      <c r="AF100" s="34"/>
+      <c r="AG100" s="34"/>
+      <c r="AH100" s="34">
         <v>2008</v>
       </c>
-      <c r="AI100" s="25"/>
-      <c r="AJ100" s="25"/>
-      <c r="AK100" s="25"/>
-      <c r="AL100" s="25">
+      <c r="AI100" s="34"/>
+      <c r="AJ100" s="34"/>
+      <c r="AK100" s="34"/>
+      <c r="AL100" s="34">
         <v>2009</v>
       </c>
-      <c r="AM100" s="25"/>
-      <c r="AN100" s="25"/>
-      <c r="AO100" s="25"/>
-      <c r="AP100" s="25">
+      <c r="AM100" s="34"/>
+      <c r="AN100" s="34"/>
+      <c r="AO100" s="34"/>
+      <c r="AP100" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ100" s="25"/>
-      <c r="AR100" s="25"/>
-      <c r="AS100" s="25"/>
-      <c r="AT100" s="25">
+      <c r="AQ100" s="34"/>
+      <c r="AR100" s="34"/>
+      <c r="AS100" s="34"/>
+      <c r="AT100" s="34">
         <v>2011</v>
       </c>
-      <c r="AU100" s="25"/>
-      <c r="AV100" s="25"/>
-      <c r="AW100" s="25"/>
-      <c r="AX100" s="25">
+      <c r="AU100" s="34"/>
+      <c r="AV100" s="34"/>
+      <c r="AW100" s="34"/>
+      <c r="AX100" s="34">
         <v>2012</v>
       </c>
-      <c r="AY100" s="25"/>
-      <c r="AZ100" s="25"/>
-      <c r="BA100" s="25"/>
-      <c r="BB100" s="25">
+      <c r="AY100" s="34"/>
+      <c r="AZ100" s="34"/>
+      <c r="BA100" s="34"/>
+      <c r="BB100" s="34">
         <v>2013</v>
       </c>
-      <c r="BC100" s="25"/>
-      <c r="BD100" s="25"/>
-      <c r="BE100" s="25"/>
-      <c r="BF100" s="25">
+      <c r="BC100" s="34"/>
+      <c r="BD100" s="34"/>
+      <c r="BE100" s="34"/>
+      <c r="BF100" s="34">
         <v>2014</v>
       </c>
-      <c r="BG100" s="25"/>
-      <c r="BH100" s="25"/>
-      <c r="BI100" s="25"/>
-      <c r="BJ100" s="25">
+      <c r="BG100" s="34"/>
+      <c r="BH100" s="34"/>
+      <c r="BI100" s="34"/>
+      <c r="BJ100" s="34">
         <v>2015</v>
       </c>
-      <c r="BK100" s="25"/>
-      <c r="BL100" s="25"/>
-      <c r="BM100" s="25"/>
-      <c r="BN100" s="25">
+      <c r="BK100" s="34"/>
+      <c r="BL100" s="34"/>
+      <c r="BM100" s="34"/>
+      <c r="BN100" s="34">
         <v>2016</v>
       </c>
-      <c r="BO100" s="25"/>
-      <c r="BP100" s="25"/>
-      <c r="BQ100" s="25"/>
-      <c r="BR100" s="25">
+      <c r="BO100" s="34"/>
+      <c r="BP100" s="34"/>
+      <c r="BQ100" s="34"/>
+      <c r="BR100" s="34">
         <v>2017</v>
       </c>
-      <c r="BS100" s="25"/>
-      <c r="BT100" s="25"/>
-      <c r="BU100" s="25"/>
-      <c r="BV100" s="25">
+      <c r="BS100" s="34"/>
+      <c r="BT100" s="34"/>
+      <c r="BU100" s="34"/>
+      <c r="BV100" s="34">
         <v>2018</v>
       </c>
-      <c r="BW100" s="25"/>
-      <c r="BX100" s="25"/>
-      <c r="BY100" s="25"/>
-      <c r="BZ100" s="25">
+      <c r="BW100" s="34"/>
+      <c r="BX100" s="34"/>
+      <c r="BY100" s="34"/>
+      <c r="BZ100" s="34">
         <v>2019</v>
       </c>
-      <c r="CA100" s="25"/>
-      <c r="CB100" s="25"/>
-      <c r="CC100" s="25"/>
-      <c r="CD100" s="25">
+      <c r="CA100" s="34"/>
+      <c r="CB100" s="34"/>
+      <c r="CC100" s="34"/>
+      <c r="CD100" s="34">
         <v>2020</v>
       </c>
-      <c r="CE100" s="25"/>
-      <c r="CF100" s="25"/>
-      <c r="CG100" s="25"/>
-      <c r="CH100" s="25">
+      <c r="CE100" s="34"/>
+      <c r="CF100" s="34"/>
+      <c r="CG100" s="34"/>
+      <c r="CH100" s="21">
         <v>2021</v>
       </c>
-      <c r="CI100" s="25"/>
-      <c r="CJ100" s="25"/>
-      <c r="CK100" s="25"/>
-      <c r="CL100" s="24">
+      <c r="CI100" s="21"/>
+      <c r="CJ100" s="21"/>
+      <c r="CK100" s="21"/>
+      <c r="CL100" s="21">
         <v>2022</v>
       </c>
-      <c r="CM100" s="24"/>
-      <c r="CN100" s="24"/>
-      <c r="CO100" s="24"/>
+      <c r="CM100" s="21"/>
+      <c r="CN100" s="21"/>
+      <c r="CO100" s="21"/>
       <c r="CP100" s="24">
         <v>2023</v>
       </c>
       <c r="CQ100" s="24"/>
       <c r="CR100" s="24"/>
       <c r="CS100" s="24"/>
+      <c r="CT100" s="24">
+        <v>2024</v>
+      </c>
     </row>
     <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
@@ -37815,21 +38168,29 @@
       <c r="CO101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP101" s="6" t="s">
+      <c r="CP101" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ101" s="6" t="s">
+      <c r="CQ101" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CR101" s="6" t="s">
+      <c r="CR101" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CS101" s="6" t="s">
+      <c r="CS101" s="25" t="s">
         <v>9</v>
+      </c>
+      <c r="CT101" s="25" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
+      <c r="CP102" s="23"/>
+      <c r="CQ102" s="23"/>
+      <c r="CR102" s="23"/>
+      <c r="CS102" s="23"/>
+      <c r="CT102" s="23"/>
     </row>
     <row r="103" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -38111,19 +38472,21 @@
       <c r="CO103" s="15">
         <v>247.1704890403808</v>
       </c>
-      <c r="CP103" s="15">
+      <c r="CP103" s="31">
         <v>159.64734819240488</v>
       </c>
-      <c r="CQ103" s="15">
-        <v>121.19514041033845</v>
-      </c>
-      <c r="CR103" s="15">
-        <v>297.23105309337666</v>
-      </c>
-      <c r="CS103" s="15">
-        <v>108.40795030817405</v>
-      </c>
-      <c r="CT103" s="9"/>
+      <c r="CQ103" s="31">
+        <v>121.19514041033848</v>
+      </c>
+      <c r="CR103" s="31">
+        <v>297.23105309337654</v>
+      </c>
+      <c r="CS103" s="31">
+        <v>108.40795030817407</v>
+      </c>
+      <c r="CT103" s="31">
+        <v>97.399614959624031</v>
+      </c>
       <c r="CU103" s="9"/>
       <c r="CV103" s="9"/>
       <c r="CW103" s="9"/>
@@ -38461,19 +38824,21 @@
       <c r="CO104" s="15">
         <v>285.6187188187817</v>
       </c>
-      <c r="CP104" s="15">
+      <c r="CP104" s="31">
         <v>154.32125894314882</v>
       </c>
-      <c r="CQ104" s="15">
+      <c r="CQ104" s="31">
         <v>55.583712237511342</v>
       </c>
-      <c r="CR104" s="15">
+      <c r="CR104" s="31">
         <v>185.2692550108049</v>
       </c>
-      <c r="CS104" s="15">
+      <c r="CS104" s="31">
         <v>202.20114498765241</v>
       </c>
-      <c r="CT104" s="9"/>
+      <c r="CT104" s="31">
+        <v>145.77163275141689</v>
+      </c>
       <c r="CU104" s="9"/>
       <c r="CV104" s="9"/>
       <c r="CW104" s="9"/>
@@ -38811,19 +39176,21 @@
       <c r="CO105" s="15">
         <v>153.05783845230368</v>
       </c>
-      <c r="CP105" s="15">
-        <v>182.53272867127643</v>
-      </c>
-      <c r="CQ105" s="15">
+      <c r="CP105" s="31">
+        <v>184.00604362019993</v>
+      </c>
+      <c r="CQ105" s="31">
         <v>181.94480069660065</v>
       </c>
-      <c r="CR105" s="15">
+      <c r="CR105" s="31">
         <v>190.8946984230239</v>
       </c>
-      <c r="CS105" s="15">
-        <v>170.88128109160451</v>
-      </c>
-      <c r="CT105" s="9"/>
+      <c r="CS105" s="31">
+        <v>170.88128109160448</v>
+      </c>
+      <c r="CT105" s="31">
+        <v>200.38614335521007</v>
+      </c>
       <c r="CU105" s="9"/>
       <c r="CV105" s="9"/>
       <c r="CW105" s="9"/>
@@ -39161,19 +39528,21 @@
       <c r="CO106" s="15">
         <v>250.15434461000839</v>
       </c>
-      <c r="CP106" s="15">
+      <c r="CP106" s="31">
         <v>299.56913015963897</v>
       </c>
-      <c r="CQ106" s="15">
+      <c r="CQ106" s="31">
         <v>171.66658758744097</v>
       </c>
-      <c r="CR106" s="15">
-        <v>146.76527638755778</v>
-      </c>
-      <c r="CS106" s="15">
+      <c r="CR106" s="31">
+        <v>146.76527638755769</v>
+      </c>
+      <c r="CS106" s="31">
         <v>194.07565562438697</v>
       </c>
-      <c r="CT106" s="9"/>
+      <c r="CT106" s="31">
+        <v>207.98423288635672</v>
+      </c>
       <c r="CU106" s="9"/>
       <c r="CV106" s="9"/>
       <c r="CW106" s="9"/>
@@ -39511,19 +39880,21 @@
       <c r="CO107" s="15">
         <v>338.46074848278317</v>
       </c>
-      <c r="CP107" s="15">
-        <v>54.095101589027827</v>
-      </c>
-      <c r="CQ107" s="15">
+      <c r="CP107" s="31">
+        <v>54.09510158902782</v>
+      </c>
+      <c r="CQ107" s="31">
         <v>256.92541954314146</v>
       </c>
-      <c r="CR107" s="15">
+      <c r="CR107" s="31">
         <v>210.88772582479916</v>
       </c>
-      <c r="CS107" s="15">
+      <c r="CS107" s="31">
         <v>336.91235962726074</v>
       </c>
-      <c r="CT107" s="9"/>
+      <c r="CT107" s="31">
+        <v>52.107970054473306</v>
+      </c>
       <c r="CU107" s="9"/>
       <c r="CV107" s="9"/>
       <c r="CW107" s="9"/>
@@ -39853,7 +40224,7 @@
         <v>114.83826192642988</v>
       </c>
       <c r="CM108" s="15">
-        <v>117.80770760731136</v>
+        <v>117.81538229379042</v>
       </c>
       <c r="CN108" s="15">
         <v>140.26402218273677</v>
@@ -39861,19 +40232,21 @@
       <c r="CO108" s="15">
         <v>91.617520697276063</v>
       </c>
-      <c r="CP108" s="15">
-        <v>121.06769594602397</v>
-      </c>
-      <c r="CQ108" s="15">
-        <v>123.08675868319827</v>
-      </c>
-      <c r="CR108" s="15">
-        <v>149.84053321236959</v>
-      </c>
-      <c r="CS108" s="15">
+      <c r="CP108" s="31">
+        <v>121.30080801382188</v>
+      </c>
+      <c r="CQ108" s="31">
+        <v>125.41004865596572</v>
+      </c>
+      <c r="CR108" s="31">
+        <v>149.8821367636256</v>
+      </c>
+      <c r="CS108" s="31">
         <v>92.353568620753393</v>
       </c>
-      <c r="CT108" s="9"/>
+      <c r="CT108" s="31">
+        <v>122.88974387348497</v>
+      </c>
       <c r="CU108" s="9"/>
       <c r="CV108" s="9"/>
       <c r="CW108" s="9"/>
@@ -40024,11 +40397,11 @@
       <c r="CM109" s="9"/>
       <c r="CN109" s="9"/>
       <c r="CO109" s="9"/>
-      <c r="CP109" s="9"/>
-      <c r="CQ109" s="9"/>
-      <c r="CR109" s="9"/>
-      <c r="CS109" s="9"/>
-      <c r="CT109" s="9"/>
+      <c r="CP109" s="27"/>
+      <c r="CQ109" s="27"/>
+      <c r="CR109" s="27"/>
+      <c r="CS109" s="27"/>
+      <c r="CT109" s="27"/>
       <c r="CU109" s="9"/>
       <c r="CV109" s="9"/>
       <c r="CW109" s="9"/>
@@ -40358,27 +40731,29 @@
         <v>162.12973974045764</v>
       </c>
       <c r="CM110" s="15">
-        <v>171.29560947102902</v>
+        <v>171.30272308114672</v>
       </c>
       <c r="CN110" s="15">
-        <v>262.18465334593634</v>
+        <v>262.17145451904344</v>
       </c>
       <c r="CO110" s="15">
         <v>161.80141718609161</v>
       </c>
-      <c r="CP110" s="15">
-        <v>156.30670056440502</v>
-      </c>
-      <c r="CQ110" s="15">
-        <v>133.99327861789692</v>
-      </c>
-      <c r="CR110" s="15">
-        <v>178.65906269165572</v>
-      </c>
-      <c r="CS110" s="15">
-        <v>135.03884117599816</v>
-      </c>
-      <c r="CT110" s="9"/>
+      <c r="CP110" s="31">
+        <v>156.63139543047023</v>
+      </c>
+      <c r="CQ110" s="31">
+        <v>134.47153848139814</v>
+      </c>
+      <c r="CR110" s="31">
+        <v>178.50955686027763</v>
+      </c>
+      <c r="CS110" s="31">
+        <v>134.89113952288741</v>
+      </c>
+      <c r="CT110" s="31">
+        <v>134.61773134524054</v>
+      </c>
       <c r="CU110" s="9"/>
       <c r="CV110" s="9"/>
       <c r="CW110" s="9"/>
@@ -40530,194 +40905,245 @@
       <c r="CM111" s="13"/>
       <c r="CN111" s="13"/>
       <c r="CO111" s="13"/>
-      <c r="CP111" s="13"/>
-      <c r="CQ111" s="13"/>
-      <c r="CR111" s="13"/>
-      <c r="CS111" s="13"/>
+      <c r="CP111" s="29"/>
+      <c r="CQ111" s="29"/>
+      <c r="CR111" s="29"/>
+      <c r="CS111" s="29"/>
+      <c r="CT111" s="29"/>
     </row>
     <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CP112" s="23"/>
+      <c r="CQ112" s="23"/>
+      <c r="CR112" s="23"/>
+      <c r="CS112" s="23"/>
+      <c r="CT112" s="23"/>
     </row>
     <row r="115" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP115" s="23"/>
+      <c r="CQ115" s="23"/>
+      <c r="CR115" s="23"/>
+      <c r="CS115" s="23"/>
+      <c r="CT115" s="23"/>
     </row>
     <row r="116" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP116" s="23"/>
+      <c r="CQ116" s="23"/>
+      <c r="CR116" s="23"/>
+      <c r="CS116" s="23"/>
+      <c r="CT116" s="23"/>
     </row>
     <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="CP117" s="23"/>
+      <c r="CQ117" s="23"/>
+      <c r="CR117" s="23"/>
+      <c r="CS117" s="23"/>
+      <c r="CT117" s="23"/>
     </row>
-    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP118" s="23"/>
+      <c r="CQ118" s="23"/>
+      <c r="CR118" s="23"/>
+      <c r="CS118" s="23"/>
+      <c r="CT118" s="23"/>
+    </row>
     <row r="119" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="CP119" s="23"/>
+      <c r="CQ119" s="23"/>
+      <c r="CR119" s="23"/>
+      <c r="CS119" s="23"/>
+      <c r="CT119" s="23"/>
     </row>
     <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="CP120" s="23"/>
+      <c r="CQ120" s="23"/>
+      <c r="CR120" s="23"/>
+      <c r="CS120" s="23"/>
+      <c r="CT120" s="23"/>
     </row>
     <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="CP121" s="23"/>
+      <c r="CQ121" s="23"/>
+      <c r="CR121" s="23"/>
+      <c r="CS121" s="23"/>
+      <c r="CT121" s="23"/>
     </row>
-    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP122" s="23"/>
+      <c r="CQ122" s="23"/>
+      <c r="CR122" s="23"/>
+      <c r="CS122" s="23"/>
+      <c r="CT122" s="23"/>
+    </row>
     <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
-      <c r="B123" s="25">
+      <c r="B123" s="34">
         <v>2000</v>
       </c>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25">
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34">
         <v>2001</v>
       </c>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="25">
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="34"/>
+      <c r="J123" s="34">
         <v>2002</v>
       </c>
-      <c r="K123" s="25"/>
-      <c r="L123" s="25"/>
-      <c r="M123" s="25"/>
-      <c r="N123" s="25">
+      <c r="K123" s="34"/>
+      <c r="L123" s="34"/>
+      <c r="M123" s="34"/>
+      <c r="N123" s="34">
         <v>2003</v>
       </c>
-      <c r="O123" s="25"/>
-      <c r="P123" s="25"/>
-      <c r="Q123" s="25"/>
-      <c r="R123" s="25">
+      <c r="O123" s="34"/>
+      <c r="P123" s="34"/>
+      <c r="Q123" s="34"/>
+      <c r="R123" s="34">
         <v>2004</v>
       </c>
-      <c r="S123" s="25"/>
-      <c r="T123" s="25"/>
-      <c r="U123" s="25"/>
-      <c r="V123" s="25">
+      <c r="S123" s="34"/>
+      <c r="T123" s="34"/>
+      <c r="U123" s="34"/>
+      <c r="V123" s="34">
         <v>2005</v>
       </c>
-      <c r="W123" s="25"/>
-      <c r="X123" s="25"/>
-      <c r="Y123" s="25"/>
-      <c r="Z123" s="25">
+      <c r="W123" s="34"/>
+      <c r="X123" s="34"/>
+      <c r="Y123" s="34"/>
+      <c r="Z123" s="34">
         <v>2006</v>
       </c>
-      <c r="AA123" s="25"/>
-      <c r="AB123" s="25"/>
-      <c r="AC123" s="25"/>
-      <c r="AD123" s="25">
+      <c r="AA123" s="34"/>
+      <c r="AB123" s="34"/>
+      <c r="AC123" s="34"/>
+      <c r="AD123" s="34">
         <v>2007</v>
       </c>
-      <c r="AE123" s="25"/>
-      <c r="AF123" s="25"/>
-      <c r="AG123" s="25"/>
-      <c r="AH123" s="25">
+      <c r="AE123" s="34"/>
+      <c r="AF123" s="34"/>
+      <c r="AG123" s="34"/>
+      <c r="AH123" s="34">
         <v>2008</v>
       </c>
-      <c r="AI123" s="25"/>
-      <c r="AJ123" s="25"/>
-      <c r="AK123" s="25"/>
-      <c r="AL123" s="25">
+      <c r="AI123" s="34"/>
+      <c r="AJ123" s="34"/>
+      <c r="AK123" s="34"/>
+      <c r="AL123" s="34">
         <v>2009</v>
       </c>
-      <c r="AM123" s="25"/>
-      <c r="AN123" s="25"/>
-      <c r="AO123" s="25"/>
-      <c r="AP123" s="25">
+      <c r="AM123" s="34"/>
+      <c r="AN123" s="34"/>
+      <c r="AO123" s="34"/>
+      <c r="AP123" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ123" s="25"/>
-      <c r="AR123" s="25"/>
-      <c r="AS123" s="25"/>
-      <c r="AT123" s="25">
+      <c r="AQ123" s="34"/>
+      <c r="AR123" s="34"/>
+      <c r="AS123" s="34"/>
+      <c r="AT123" s="34">
         <v>2011</v>
       </c>
-      <c r="AU123" s="25"/>
-      <c r="AV123" s="25"/>
-      <c r="AW123" s="25"/>
-      <c r="AX123" s="25">
+      <c r="AU123" s="34"/>
+      <c r="AV123" s="34"/>
+      <c r="AW123" s="34"/>
+      <c r="AX123" s="34">
         <v>2012</v>
       </c>
-      <c r="AY123" s="25"/>
-      <c r="AZ123" s="25"/>
-      <c r="BA123" s="25"/>
-      <c r="BB123" s="25">
+      <c r="AY123" s="34"/>
+      <c r="AZ123" s="34"/>
+      <c r="BA123" s="34"/>
+      <c r="BB123" s="34">
         <v>2013</v>
       </c>
-      <c r="BC123" s="25"/>
-      <c r="BD123" s="25"/>
-      <c r="BE123" s="25"/>
-      <c r="BF123" s="25">
+      <c r="BC123" s="34"/>
+      <c r="BD123" s="34"/>
+      <c r="BE123" s="34"/>
+      <c r="BF123" s="34">
         <v>2014</v>
       </c>
-      <c r="BG123" s="25"/>
-      <c r="BH123" s="25"/>
-      <c r="BI123" s="25"/>
-      <c r="BJ123" s="25">
+      <c r="BG123" s="34"/>
+      <c r="BH123" s="34"/>
+      <c r="BI123" s="34"/>
+      <c r="BJ123" s="34">
         <v>2015</v>
       </c>
-      <c r="BK123" s="25"/>
-      <c r="BL123" s="25"/>
-      <c r="BM123" s="25"/>
-      <c r="BN123" s="25">
+      <c r="BK123" s="34"/>
+      <c r="BL123" s="34"/>
+      <c r="BM123" s="34"/>
+      <c r="BN123" s="34">
         <v>2016</v>
       </c>
-      <c r="BO123" s="25"/>
-      <c r="BP123" s="25"/>
-      <c r="BQ123" s="25"/>
-      <c r="BR123" s="25">
+      <c r="BO123" s="34"/>
+      <c r="BP123" s="34"/>
+      <c r="BQ123" s="34"/>
+      <c r="BR123" s="34">
         <v>2017</v>
       </c>
-      <c r="BS123" s="25"/>
-      <c r="BT123" s="25"/>
-      <c r="BU123" s="25"/>
-      <c r="BV123" s="25">
+      <c r="BS123" s="34"/>
+      <c r="BT123" s="34"/>
+      <c r="BU123" s="34"/>
+      <c r="BV123" s="34">
         <v>2018</v>
       </c>
-      <c r="BW123" s="25"/>
-      <c r="BX123" s="25"/>
-      <c r="BY123" s="25"/>
-      <c r="BZ123" s="25">
+      <c r="BW123" s="34"/>
+      <c r="BX123" s="34"/>
+      <c r="BY123" s="34"/>
+      <c r="BZ123" s="34">
         <v>2019</v>
       </c>
-      <c r="CA123" s="25"/>
-      <c r="CB123" s="25"/>
-      <c r="CC123" s="25"/>
-      <c r="CD123" s="25">
+      <c r="CA123" s="34"/>
+      <c r="CB123" s="34"/>
+      <c r="CC123" s="34"/>
+      <c r="CD123" s="34">
         <v>2020</v>
       </c>
-      <c r="CE123" s="25"/>
-      <c r="CF123" s="25"/>
-      <c r="CG123" s="25"/>
-      <c r="CH123" s="25">
+      <c r="CE123" s="34"/>
+      <c r="CF123" s="34"/>
+      <c r="CG123" s="34"/>
+      <c r="CH123" s="21">
         <v>2021</v>
       </c>
-      <c r="CI123" s="25"/>
-      <c r="CJ123" s="25"/>
-      <c r="CK123" s="25"/>
-      <c r="CL123" s="24">
+      <c r="CI123" s="21"/>
+      <c r="CJ123" s="21"/>
+      <c r="CK123" s="21"/>
+      <c r="CL123" s="21">
         <v>2022</v>
       </c>
-      <c r="CM123" s="24"/>
-      <c r="CN123" s="24"/>
-      <c r="CO123" s="24"/>
+      <c r="CM123" s="21"/>
+      <c r="CN123" s="21"/>
+      <c r="CO123" s="21"/>
       <c r="CP123" s="24">
         <v>2023</v>
       </c>
       <c r="CQ123" s="24"/>
       <c r="CR123" s="24"/>
       <c r="CS123" s="24"/>
+      <c r="CT123" s="24">
+        <v>2024</v>
+      </c>
     </row>
     <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
@@ -40999,21 +41425,29 @@
       <c r="CO124" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP124" s="6" t="s">
+      <c r="CP124" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ124" s="6" t="s">
+      <c r="CQ124" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CR124" s="6" t="s">
+      <c r="CR124" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CS124" s="6" t="s">
+      <c r="CS124" s="25" t="s">
         <v>9</v>
+      </c>
+      <c r="CT124" s="25" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
+      <c r="CP125" s="23"/>
+      <c r="CQ125" s="23"/>
+      <c r="CR125" s="23"/>
+      <c r="CS125" s="23"/>
+      <c r="CT125" s="23"/>
     </row>
     <row r="126" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -41287,27 +41721,29 @@
         <v>27.405984844154315</v>
       </c>
       <c r="CM126" s="18">
-        <v>22.807248774045114</v>
+        <v>22.808711613358334</v>
       </c>
       <c r="CN126" s="18">
-        <v>35.808835058759236</v>
+        <v>35.806761056580221</v>
       </c>
       <c r="CO126" s="18">
         <v>13.17322662379199</v>
       </c>
-      <c r="CP126" s="18">
-        <v>23.410379361889877</v>
-      </c>
-      <c r="CQ126" s="18">
-        <v>11.948535141913007</v>
-      </c>
-      <c r="CR126" s="18">
-        <v>15.219606501368203</v>
-      </c>
-      <c r="CS126" s="18">
-        <v>11.992101720211224</v>
-      </c>
-      <c r="CT126" s="9"/>
+      <c r="CP126" s="33">
+        <v>23.448302741078095</v>
+      </c>
+      <c r="CQ126" s="33">
+        <v>11.99793628590181</v>
+      </c>
+      <c r="CR126" s="33">
+        <v>15.034635942292493</v>
+      </c>
+      <c r="CS126" s="33">
+        <v>12.120353562747955</v>
+      </c>
+      <c r="CT126" s="33">
+        <v>14.422201676486226</v>
+      </c>
       <c r="CU126" s="9"/>
       <c r="CV126" s="9"/>
       <c r="CW126" s="9"/>
@@ -41637,27 +42073,29 @@
         <v>16.057575758750307</v>
       </c>
       <c r="CM127" s="18">
-        <v>21.379355278258387</v>
+        <v>21.380726533586124</v>
       </c>
       <c r="CN127" s="18">
-        <v>18.136692891822157</v>
+        <v>18.135642437639106</v>
       </c>
       <c r="CO127" s="18">
         <v>24.452931693640853</v>
       </c>
-      <c r="CP127" s="18">
-        <v>8.9522739021005027</v>
-      </c>
-      <c r="CQ127" s="18">
-        <v>9.2697542479876134</v>
-      </c>
-      <c r="CR127" s="18">
-        <v>10.551300950415502</v>
-      </c>
-      <c r="CS127" s="18">
-        <v>13.935996970707656</v>
-      </c>
-      <c r="CT127" s="9"/>
+      <c r="CP127" s="33">
+        <v>8.9219731974581151</v>
+      </c>
+      <c r="CQ127" s="33">
+        <v>9.2249291738509385</v>
+      </c>
+      <c r="CR127" s="33">
+        <v>10.569108529432253</v>
+      </c>
+      <c r="CS127" s="33">
+        <v>13.956662458876714</v>
+      </c>
+      <c r="CT127" s="33">
+        <v>10.080619340622162</v>
+      </c>
       <c r="CU127" s="9"/>
       <c r="CV127" s="9"/>
       <c r="CW127" s="9"/>
@@ -41987,27 +42425,29 @@
         <v>14.307790448799576</v>
       </c>
       <c r="CM128" s="18">
-        <v>18.738212178254766</v>
+        <v>18.739414032704879</v>
       </c>
       <c r="CN128" s="18">
-        <v>14.73002073947584</v>
+        <v>14.729167595410681</v>
       </c>
       <c r="CO128" s="18">
         <v>18.9602274480823</v>
       </c>
-      <c r="CP128" s="18">
-        <v>17.373497982616744</v>
-      </c>
-      <c r="CQ128" s="18">
-        <v>27.200520967895102</v>
-      </c>
-      <c r="CR128" s="18">
-        <v>24.799304923049501</v>
-      </c>
-      <c r="CS128" s="18">
-        <v>25.178043242003341</v>
-      </c>
-      <c r="CT128" s="9"/>
+      <c r="CP128" s="33">
+        <v>17.444586007190608</v>
+      </c>
+      <c r="CQ128" s="33">
+        <v>27.068989393667358</v>
+      </c>
+      <c r="CR128" s="33">
+        <v>24.841159058767268</v>
+      </c>
+      <c r="CS128" s="33">
+        <v>25.253995335632553</v>
+      </c>
+      <c r="CT128" s="33">
+        <v>21.491694596166134</v>
+      </c>
       <c r="CU128" s="9"/>
       <c r="CV128" s="9"/>
       <c r="CW128" s="9"/>
@@ -42337,27 +42777,29 @@
         <v>18.19725966312183</v>
       </c>
       <c r="CM129" s="18">
-        <v>19.437673350618347</v>
+        <v>19.43892006796758</v>
       </c>
       <c r="CN129" s="18">
-        <v>11.650504470949855</v>
+        <v>11.649829688549932</v>
       </c>
       <c r="CO129" s="18">
         <v>7.048105410566202</v>
       </c>
-      <c r="CP129" s="18">
-        <v>22.500180713769353</v>
-      </c>
-      <c r="CQ129" s="18">
-        <v>26.661724655373014</v>
-      </c>
-      <c r="CR129" s="18">
-        <v>16.973493103080692</v>
-      </c>
-      <c r="CS129" s="18">
-        <v>6.6459125649525355</v>
-      </c>
-      <c r="CT129" s="9"/>
+      <c r="CP129" s="33">
+        <v>22.466918195175644</v>
+      </c>
+      <c r="CQ129" s="33">
+        <v>26.593308684257416</v>
+      </c>
+      <c r="CR129" s="33">
+        <v>17.026475097197583</v>
+      </c>
+      <c r="CS129" s="33">
+        <v>6.3583942738176757</v>
+      </c>
+      <c r="CT129" s="33">
+        <v>19.249870406732761</v>
+      </c>
       <c r="CU129" s="9"/>
       <c r="CV129" s="9"/>
       <c r="CW129" s="9"/>
@@ -42687,27 +43129,29 @@
         <v>3.3857226628903696</v>
       </c>
       <c r="CM130" s="18">
-        <v>4.5345003768964762</v>
+        <v>4.5347912162468447</v>
       </c>
       <c r="CN130" s="18">
-        <v>3.8805164620723587</v>
+        <v>3.8802917074947567</v>
       </c>
       <c r="CO130" s="18">
         <v>8.7743379701624331</v>
       </c>
-      <c r="CP130" s="18">
-        <v>3.4721843804553512</v>
-      </c>
-      <c r="CQ130" s="18">
-        <v>6.2186777653791721</v>
-      </c>
-      <c r="CR130" s="18">
-        <v>5.4855687882977655</v>
-      </c>
-      <c r="CS130" s="18">
-        <v>9.9313797107376551</v>
-      </c>
-      <c r="CT130" s="9"/>
+      <c r="CP130" s="33">
+        <v>3.4604321000261944</v>
+      </c>
+      <c r="CQ130" s="33">
+        <v>6.1886065591305561</v>
+      </c>
+      <c r="CR130" s="33">
+        <v>5.4948268598956185</v>
+      </c>
+      <c r="CS130" s="33">
+        <v>9.9461068099431209</v>
+      </c>
+      <c r="CT130" s="33">
+        <v>3.8895083368496635</v>
+      </c>
       <c r="CU130" s="9"/>
       <c r="CV130" s="9"/>
       <c r="CW130" s="9"/>
@@ -43037,27 +43481,29 @@
         <v>20.645666622283613</v>
       </c>
       <c r="CM131" s="18">
-        <v>13.103010041926899</v>
+        <v>13.097436536136245</v>
       </c>
       <c r="CN131" s="18">
-        <v>15.793430376920533</v>
+        <v>15.798307514325288</v>
       </c>
       <c r="CO131" s="18">
         <v>27.591170853756218</v>
       </c>
-      <c r="CP131" s="18">
-        <v>24.291483659168168</v>
-      </c>
-      <c r="CQ131" s="18">
-        <v>18.700787221452092</v>
-      </c>
-      <c r="CR131" s="18">
-        <v>26.970725733788342</v>
-      </c>
-      <c r="CS131" s="18">
-        <v>32.316565791387582</v>
-      </c>
-      <c r="CT131" s="9"/>
+      <c r="CP131" s="33">
+        <v>24.257787759071352</v>
+      </c>
+      <c r="CQ131" s="33">
+        <v>18.926229903191928</v>
+      </c>
+      <c r="CR131" s="33">
+        <v>27.033794512414786</v>
+      </c>
+      <c r="CS131" s="33">
+        <v>32.364487558981978</v>
+      </c>
+      <c r="CT131" s="33">
+        <v>30.866105643143065</v>
+      </c>
       <c r="CU131" s="9"/>
       <c r="CV131" s="9"/>
       <c r="CW131" s="9"/>
@@ -43208,11 +43654,11 @@
       <c r="CM132" s="9"/>
       <c r="CN132" s="9"/>
       <c r="CO132" s="9"/>
-      <c r="CP132" s="9"/>
-      <c r="CQ132" s="9"/>
-      <c r="CR132" s="9"/>
-      <c r="CS132" s="9"/>
-      <c r="CT132" s="9"/>
+      <c r="CP132" s="27"/>
+      <c r="CQ132" s="27"/>
+      <c r="CR132" s="27"/>
+      <c r="CS132" s="27"/>
+      <c r="CT132" s="27"/>
       <c r="CU132" s="9"/>
       <c r="CV132" s="9"/>
       <c r="CW132" s="9"/>
@@ -43550,19 +43996,21 @@
       <c r="CO133" s="18">
         <v>100</v>
       </c>
-      <c r="CP133" s="18">
+      <c r="CP133" s="33">
         <v>100</v>
       </c>
-      <c r="CQ133" s="18">
+      <c r="CQ133" s="33">
         <v>100</v>
       </c>
-      <c r="CR133" s="18">
+      <c r="CR133" s="33">
         <v>100</v>
       </c>
-      <c r="CS133" s="18">
+      <c r="CS133" s="33">
         <v>100</v>
       </c>
-      <c r="CT133" s="9"/>
+      <c r="CT133" s="33">
+        <v>100</v>
+      </c>
       <c r="CU133" s="9"/>
       <c r="CV133" s="9"/>
       <c r="CW133" s="9"/>
@@ -43714,15 +44162,21 @@
       <c r="CM134" s="13"/>
       <c r="CN134" s="13"/>
       <c r="CO134" s="13"/>
-      <c r="CP134" s="13"/>
-      <c r="CQ134" s="13"/>
-      <c r="CR134" s="13"/>
-      <c r="CS134" s="13"/>
+      <c r="CP134" s="29"/>
+      <c r="CQ134" s="29"/>
+      <c r="CR134" s="29"/>
+      <c r="CS134" s="29"/>
+      <c r="CT134" s="29"/>
     </row>
     <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CP135" s="23"/>
+      <c r="CQ135" s="23"/>
+      <c r="CR135" s="23"/>
+      <c r="CS135" s="23"/>
+      <c r="CT135" s="23"/>
     </row>
     <row r="136" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9"/>
@@ -43817,11 +44271,11 @@
       <c r="CM136" s="9"/>
       <c r="CN136" s="9"/>
       <c r="CO136" s="9"/>
-      <c r="CP136" s="9"/>
-      <c r="CQ136" s="9"/>
-      <c r="CR136" s="9"/>
-      <c r="CS136" s="9"/>
-      <c r="CT136" s="9"/>
+      <c r="CP136" s="27"/>
+      <c r="CQ136" s="27"/>
+      <c r="CR136" s="27"/>
+      <c r="CS136" s="27"/>
+      <c r="CT136" s="27"/>
       <c r="CU136" s="9"/>
       <c r="CV136" s="9"/>
       <c r="CW136" s="9"/>
@@ -43972,11 +44426,11 @@
       <c r="CM137" s="9"/>
       <c r="CN137" s="9"/>
       <c r="CO137" s="9"/>
-      <c r="CP137" s="9"/>
-      <c r="CQ137" s="9"/>
-      <c r="CR137" s="9"/>
-      <c r="CS137" s="9"/>
-      <c r="CT137" s="9"/>
+      <c r="CP137" s="27"/>
+      <c r="CQ137" s="27"/>
+      <c r="CR137" s="27"/>
+      <c r="CS137" s="27"/>
+      <c r="CT137" s="27"/>
       <c r="CU137" s="9"/>
       <c r="CV137" s="9"/>
       <c r="CW137" s="9"/>
@@ -44038,180 +44492,225 @@
       <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP138" s="23"/>
+      <c r="CQ138" s="23"/>
+      <c r="CR138" s="23"/>
+      <c r="CS138" s="23"/>
+      <c r="CT138" s="23"/>
     </row>
     <row r="139" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP139" s="23"/>
+      <c r="CQ139" s="23"/>
+      <c r="CR139" s="23"/>
+      <c r="CS139" s="23"/>
+      <c r="CT139" s="23"/>
     </row>
     <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="CP140" s="23"/>
+      <c r="CQ140" s="23"/>
+      <c r="CR140" s="23"/>
+      <c r="CS140" s="23"/>
+      <c r="CT140" s="23"/>
     </row>
-    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP141" s="23"/>
+      <c r="CQ141" s="23"/>
+      <c r="CR141" s="23"/>
+      <c r="CS141" s="23"/>
+      <c r="CT141" s="23"/>
+    </row>
     <row r="142" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CP142" s="23"/>
+      <c r="CQ142" s="23"/>
+      <c r="CR142" s="23"/>
+      <c r="CS142" s="23"/>
+      <c r="CT142" s="23"/>
     </row>
     <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="CP143" s="23"/>
+      <c r="CQ143" s="23"/>
+      <c r="CR143" s="23"/>
+      <c r="CS143" s="23"/>
+      <c r="CT143" s="23"/>
     </row>
     <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="CP144" s="23"/>
+      <c r="CQ144" s="23"/>
+      <c r="CR144" s="23"/>
+      <c r="CS144" s="23"/>
+      <c r="CT144" s="23"/>
     </row>
-    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP145" s="23"/>
+      <c r="CQ145" s="23"/>
+      <c r="CR145" s="23"/>
+      <c r="CS145" s="23"/>
+      <c r="CT145" s="23"/>
+    </row>
     <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
-      <c r="B146" s="25">
+      <c r="B146" s="34">
         <v>2000</v>
       </c>
-      <c r="C146" s="25"/>
-      <c r="D146" s="25"/>
-      <c r="E146" s="25"/>
-      <c r="F146" s="25">
+      <c r="C146" s="34"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34">
         <v>2001</v>
       </c>
-      <c r="G146" s="25"/>
-      <c r="H146" s="25"/>
-      <c r="I146" s="25"/>
-      <c r="J146" s="25">
+      <c r="G146" s="34"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="34"/>
+      <c r="J146" s="34">
         <v>2002</v>
       </c>
-      <c r="K146" s="25"/>
-      <c r="L146" s="25"/>
-      <c r="M146" s="25"/>
-      <c r="N146" s="25">
+      <c r="K146" s="34"/>
+      <c r="L146" s="34"/>
+      <c r="M146" s="34"/>
+      <c r="N146" s="34">
         <v>2003</v>
       </c>
-      <c r="O146" s="25"/>
-      <c r="P146" s="25"/>
-      <c r="Q146" s="25"/>
-      <c r="R146" s="25">
+      <c r="O146" s="34"/>
+      <c r="P146" s="34"/>
+      <c r="Q146" s="34"/>
+      <c r="R146" s="34">
         <v>2004</v>
       </c>
-      <c r="S146" s="25"/>
-      <c r="T146" s="25"/>
-      <c r="U146" s="25"/>
-      <c r="V146" s="25">
+      <c r="S146" s="34"/>
+      <c r="T146" s="34"/>
+      <c r="U146" s="34"/>
+      <c r="V146" s="34">
         <v>2005</v>
       </c>
-      <c r="W146" s="25"/>
-      <c r="X146" s="25"/>
-      <c r="Y146" s="25"/>
-      <c r="Z146" s="25">
+      <c r="W146" s="34"/>
+      <c r="X146" s="34"/>
+      <c r="Y146" s="34"/>
+      <c r="Z146" s="34">
         <v>2006</v>
       </c>
-      <c r="AA146" s="25"/>
-      <c r="AB146" s="25"/>
-      <c r="AC146" s="25"/>
-      <c r="AD146" s="25">
+      <c r="AA146" s="34"/>
+      <c r="AB146" s="34"/>
+      <c r="AC146" s="34"/>
+      <c r="AD146" s="34">
         <v>2007</v>
       </c>
-      <c r="AE146" s="25"/>
-      <c r="AF146" s="25"/>
-      <c r="AG146" s="25"/>
-      <c r="AH146" s="25">
+      <c r="AE146" s="34"/>
+      <c r="AF146" s="34"/>
+      <c r="AG146" s="34"/>
+      <c r="AH146" s="34">
         <v>2008</v>
       </c>
-      <c r="AI146" s="25"/>
-      <c r="AJ146" s="25"/>
-      <c r="AK146" s="25"/>
-      <c r="AL146" s="25">
+      <c r="AI146" s="34"/>
+      <c r="AJ146" s="34"/>
+      <c r="AK146" s="34"/>
+      <c r="AL146" s="34">
         <v>2009</v>
       </c>
-      <c r="AM146" s="25"/>
-      <c r="AN146" s="25"/>
-      <c r="AO146" s="25"/>
-      <c r="AP146" s="25">
+      <c r="AM146" s="34"/>
+      <c r="AN146" s="34"/>
+      <c r="AO146" s="34"/>
+      <c r="AP146" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ146" s="25"/>
-      <c r="AR146" s="25"/>
-      <c r="AS146" s="25"/>
-      <c r="AT146" s="25">
+      <c r="AQ146" s="34"/>
+      <c r="AR146" s="34"/>
+      <c r="AS146" s="34"/>
+      <c r="AT146" s="34">
         <v>2011</v>
       </c>
-      <c r="AU146" s="25"/>
-      <c r="AV146" s="25"/>
-      <c r="AW146" s="25"/>
-      <c r="AX146" s="25">
+      <c r="AU146" s="34"/>
+      <c r="AV146" s="34"/>
+      <c r="AW146" s="34"/>
+      <c r="AX146" s="34">
         <v>2012</v>
       </c>
-      <c r="AY146" s="25"/>
-      <c r="AZ146" s="25"/>
-      <c r="BA146" s="25"/>
-      <c r="BB146" s="25">
+      <c r="AY146" s="34"/>
+      <c r="AZ146" s="34"/>
+      <c r="BA146" s="34"/>
+      <c r="BB146" s="34">
         <v>2013</v>
       </c>
-      <c r="BC146" s="25"/>
-      <c r="BD146" s="25"/>
-      <c r="BE146" s="25"/>
-      <c r="BF146" s="25">
+      <c r="BC146" s="34"/>
+      <c r="BD146" s="34"/>
+      <c r="BE146" s="34"/>
+      <c r="BF146" s="34">
         <v>2014</v>
       </c>
-      <c r="BG146" s="25"/>
-      <c r="BH146" s="25"/>
-      <c r="BI146" s="25"/>
-      <c r="BJ146" s="25">
+      <c r="BG146" s="34"/>
+      <c r="BH146" s="34"/>
+      <c r="BI146" s="34"/>
+      <c r="BJ146" s="34">
         <v>2015</v>
       </c>
-      <c r="BK146" s="25"/>
-      <c r="BL146" s="25"/>
-      <c r="BM146" s="25"/>
-      <c r="BN146" s="25">
+      <c r="BK146" s="34"/>
+      <c r="BL146" s="34"/>
+      <c r="BM146" s="34"/>
+      <c r="BN146" s="34">
         <v>2016</v>
       </c>
-      <c r="BO146" s="25"/>
-      <c r="BP146" s="25"/>
-      <c r="BQ146" s="25"/>
-      <c r="BR146" s="25">
+      <c r="BO146" s="34"/>
+      <c r="BP146" s="34"/>
+      <c r="BQ146" s="34"/>
+      <c r="BR146" s="34">
         <v>2017</v>
       </c>
-      <c r="BS146" s="25"/>
-      <c r="BT146" s="25"/>
-      <c r="BU146" s="25"/>
-      <c r="BV146" s="25">
+      <c r="BS146" s="34"/>
+      <c r="BT146" s="34"/>
+      <c r="BU146" s="34"/>
+      <c r="BV146" s="34">
         <v>2018</v>
       </c>
-      <c r="BW146" s="25"/>
-      <c r="BX146" s="25"/>
-      <c r="BY146" s="25"/>
-      <c r="BZ146" s="25">
+      <c r="BW146" s="34"/>
+      <c r="BX146" s="34"/>
+      <c r="BY146" s="34"/>
+      <c r="BZ146" s="34">
         <v>2019</v>
       </c>
-      <c r="CA146" s="25"/>
-      <c r="CB146" s="25"/>
-      <c r="CC146" s="25"/>
-      <c r="CD146" s="25">
+      <c r="CA146" s="34"/>
+      <c r="CB146" s="34"/>
+      <c r="CC146" s="34"/>
+      <c r="CD146" s="34">
         <v>2020</v>
       </c>
-      <c r="CE146" s="25"/>
-      <c r="CF146" s="25"/>
-      <c r="CG146" s="25"/>
-      <c r="CH146" s="25">
+      <c r="CE146" s="34"/>
+      <c r="CF146" s="34"/>
+      <c r="CG146" s="34"/>
+      <c r="CH146" s="21">
         <v>2021</v>
       </c>
-      <c r="CI146" s="25"/>
-      <c r="CJ146" s="25"/>
-      <c r="CK146" s="25"/>
-      <c r="CL146" s="24">
+      <c r="CI146" s="21"/>
+      <c r="CJ146" s="21"/>
+      <c r="CK146" s="21"/>
+      <c r="CL146" s="21">
         <v>2022</v>
       </c>
-      <c r="CM146" s="24"/>
-      <c r="CN146" s="24"/>
-      <c r="CO146" s="24"/>
+      <c r="CM146" s="21"/>
+      <c r="CN146" s="21"/>
+      <c r="CO146" s="21"/>
       <c r="CP146" s="24">
         <v>2023</v>
       </c>
       <c r="CQ146" s="24"/>
       <c r="CR146" s="24"/>
       <c r="CS146" s="24"/>
+      <c r="CT146" s="24">
+        <v>2024</v>
+      </c>
     </row>
     <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
@@ -44493,21 +44992,29 @@
       <c r="CO147" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP147" s="6" t="s">
+      <c r="CP147" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ147" s="6" t="s">
+      <c r="CQ147" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CR147" s="6" t="s">
+      <c r="CR147" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CS147" s="6" t="s">
+      <c r="CS147" s="25" t="s">
         <v>9</v>
+      </c>
+      <c r="CT147" s="25" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
+      <c r="CP148" s="23"/>
+      <c r="CQ148" s="23"/>
+      <c r="CR148" s="23"/>
+      <c r="CS148" s="23"/>
+      <c r="CT148" s="23"/>
     </row>
     <row r="149" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
@@ -44781,27 +45288,29 @@
         <v>24.857045368620856</v>
       </c>
       <c r="CM149" s="18">
-        <v>14.641592924133334</v>
+        <v>14.643140103596055</v>
       </c>
       <c r="CN149" s="18">
-        <v>11.652948087500535</v>
+        <v>11.651686568074892</v>
       </c>
       <c r="CO149" s="18">
         <v>8.6233868165987957</v>
       </c>
-      <c r="CP149" s="18">
-        <v>22.920513234006425</v>
-      </c>
-      <c r="CQ149" s="18">
-        <v>13.210293687728655</v>
-      </c>
-      <c r="CR149" s="18">
-        <v>9.1481714436346167</v>
-      </c>
-      <c r="CS149" s="18">
-        <v>14.938014370334548</v>
-      </c>
-      <c r="CT149" s="9"/>
+      <c r="CP149" s="33">
+        <v>23.005332818837957</v>
+      </c>
+      <c r="CQ149" s="33">
+        <v>13.312257781165787</v>
+      </c>
+      <c r="CR149" s="33">
+        <v>9.0294273484644911</v>
+      </c>
+      <c r="CS149" s="33">
+        <v>15.08125832885602</v>
+      </c>
+      <c r="CT149" s="33">
+        <v>19.933180141388878</v>
+      </c>
       <c r="CU149" s="9"/>
       <c r="CV149" s="9"/>
       <c r="CW149" s="9"/>
@@ -45131,27 +45640,29 @@
         <v>12.445975345769158</v>
       </c>
       <c r="CM150" s="18">
-        <v>28.997300773170874</v>
+        <v>29.000364922574771</v>
       </c>
       <c r="CN150" s="18">
-        <v>12.104476858341025</v>
+        <v>12.103166457524047</v>
       </c>
       <c r="CO150" s="18">
         <v>13.852449933073549</v>
       </c>
-      <c r="CP150" s="18">
-        <v>9.0674506271469468</v>
-      </c>
-      <c r="CQ150" s="18">
-        <v>22.346200238705936</v>
-      </c>
-      <c r="CR150" s="18">
-        <v>10.174842759900296</v>
-      </c>
-      <c r="CS150" s="18">
-        <v>9.3070733188553536</v>
-      </c>
-      <c r="CT150" s="9"/>
+      <c r="CP150" s="33">
+        <v>9.0555320859968926</v>
+      </c>
+      <c r="CQ150" s="33">
+        <v>22.317516561128652</v>
+      </c>
+      <c r="CR150" s="33">
+        <v>10.183486082928873</v>
+      </c>
+      <c r="CS150" s="33">
+        <v>9.3106797349201376</v>
+      </c>
+      <c r="CT150" s="33">
+        <v>9.3092879634794379</v>
+      </c>
       <c r="CU150" s="9"/>
       <c r="CV150" s="9"/>
       <c r="CW150" s="9"/>
@@ -45481,27 +45992,29 @@
         <v>13.620198976607714</v>
       </c>
       <c r="CM151" s="18">
-        <v>18.628767927455701</v>
+        <v>18.63073643233782</v>
       </c>
       <c r="CN151" s="18">
-        <v>22.486244802430967</v>
+        <v>22.483810497016144</v>
       </c>
       <c r="CO151" s="18">
         <v>20.043348986836396</v>
       </c>
-      <c r="CP151" s="18">
-        <v>14.877299905025193</v>
-      </c>
-      <c r="CQ151" s="18">
-        <v>20.031828173429144</v>
-      </c>
-      <c r="CR151" s="18">
-        <v>23.209762290717489</v>
-      </c>
-      <c r="CS151" s="18">
-        <v>19.896935233395482</v>
-      </c>
-      <c r="CT151" s="9"/>
+      <c r="CP151" s="33">
+        <v>14.84934839777819</v>
+      </c>
+      <c r="CQ151" s="33">
+        <v>20.006115233668812</v>
+      </c>
+      <c r="CR151" s="33">
+        <v>23.229478514115627</v>
+      </c>
+      <c r="CS151" s="33">
+        <v>19.935127982233531</v>
+      </c>
+      <c r="CT151" s="33">
+        <v>14.43794027300655</v>
+      </c>
       <c r="CU151" s="9"/>
       <c r="CV151" s="9"/>
       <c r="CW151" s="9"/>
@@ -45831,27 +46344,29 @@
         <v>10.101932394930245</v>
       </c>
       <c r="CM152" s="18">
-        <v>15.836239459424768</v>
+        <v>15.837912877377669</v>
       </c>
       <c r="CN152" s="18">
-        <v>19.06712903999934</v>
+        <v>19.065064879625965</v>
       </c>
       <c r="CO152" s="18">
         <v>4.5587592959236813</v>
       </c>
-      <c r="CP152" s="18">
-        <v>11.73995801102067</v>
-      </c>
-      <c r="CQ152" s="18">
-        <v>20.810642014779638</v>
-      </c>
-      <c r="CR152" s="18">
-        <v>20.66202880572343</v>
-      </c>
-      <c r="CS152" s="18">
-        <v>4.6242602063657507</v>
-      </c>
-      <c r="CT152" s="9"/>
+      <c r="CP152" s="33">
+        <v>11.746953853547296</v>
+      </c>
+      <c r="CQ152" s="33">
+        <v>20.831328812086443</v>
+      </c>
+      <c r="CR152" s="33">
+        <v>20.709179986601811</v>
+      </c>
+      <c r="CS152" s="33">
+        <v>4.4193644296688062</v>
+      </c>
+      <c r="CT152" s="33">
+        <v>12.459472753687933</v>
+      </c>
       <c r="CU152" s="9"/>
       <c r="CV152" s="9"/>
       <c r="CW152" s="9"/>
@@ -46181,27 +46696,29 @@
         <v>9.8271013347699245</v>
       </c>
       <c r="CM153" s="18">
-        <v>2.8439661086951173</v>
+        <v>2.8442666310480367</v>
       </c>
       <c r="CN153" s="18">
-        <v>5.1677672468483937</v>
+        <v>5.1672077971091381</v>
       </c>
       <c r="CO153" s="18">
         <v>4.1945789129348139</v>
       </c>
-      <c r="CP153" s="18">
-        <v>10.032806452300301</v>
-      </c>
-      <c r="CQ153" s="18">
-        <v>3.2432019530533673</v>
-      </c>
-      <c r="CR153" s="18">
-        <v>4.6472433339343855</v>
-      </c>
-      <c r="CS153" s="18">
-        <v>3.9806257297908818</v>
-      </c>
-      <c r="CT153" s="9"/>
+      <c r="CP153" s="33">
+        <v>10.019619017213056</v>
+      </c>
+      <c r="CQ153" s="33">
+        <v>3.2390389652457907</v>
+      </c>
+      <c r="CR153" s="33">
+        <v>4.6511910731059345</v>
+      </c>
+      <c r="CS153" s="33">
+        <v>3.9821681902495012</v>
+      </c>
+      <c r="CT153" s="33">
+        <v>10.048305236372419</v>
+      </c>
       <c r="CU153" s="9"/>
       <c r="CV153" s="9"/>
       <c r="CW153" s="9"/>
@@ -46531,27 +47048,29 @@
         <v>29.147746579302101</v>
       </c>
       <c r="CM154" s="18">
-        <v>19.052132807120206</v>
+        <v>19.043579033065647</v>
       </c>
       <c r="CN154" s="18">
-        <v>29.521433964879741</v>
+        <v>29.529063800649812</v>
       </c>
       <c r="CO154" s="18">
         <v>48.72747605463276</v>
       </c>
-      <c r="CP154" s="18">
-        <v>31.361971770500457</v>
-      </c>
-      <c r="CQ154" s="18">
-        <v>20.357833932303258</v>
-      </c>
-      <c r="CR154" s="18">
-        <v>32.15795136608979</v>
-      </c>
-      <c r="CS154" s="18">
-        <v>47.253091141257983</v>
-      </c>
-      <c r="CT154" s="9"/>
+      <c r="CP154" s="33">
+        <v>31.323213826626606</v>
+      </c>
+      <c r="CQ154" s="33">
+        <v>20.293742646704526</v>
+      </c>
+      <c r="CR154" s="33">
+        <v>32.197236994783253</v>
+      </c>
+      <c r="CS154" s="33">
+        <v>47.271401334072003</v>
+      </c>
+      <c r="CT154" s="33">
+        <v>33.811813632064769</v>
+      </c>
       <c r="CU154" s="9"/>
       <c r="CV154" s="9"/>
       <c r="CW154" s="9"/>
@@ -46702,11 +47221,11 @@
       <c r="CM155" s="9"/>
       <c r="CN155" s="9"/>
       <c r="CO155" s="9"/>
-      <c r="CP155" s="9"/>
-      <c r="CQ155" s="9"/>
-      <c r="CR155" s="9"/>
-      <c r="CS155" s="9"/>
-      <c r="CT155" s="9"/>
+      <c r="CP155" s="27"/>
+      <c r="CQ155" s="27"/>
+      <c r="CR155" s="27"/>
+      <c r="CS155" s="27"/>
+      <c r="CT155" s="27"/>
       <c r="CU155" s="9"/>
       <c r="CV155" s="9"/>
       <c r="CW155" s="9"/>
@@ -47044,19 +47563,21 @@
       <c r="CO156" s="18">
         <v>100</v>
       </c>
-      <c r="CP156" s="18">
+      <c r="CP156" s="33">
         <v>100</v>
       </c>
-      <c r="CQ156" s="18">
+      <c r="CQ156" s="33">
         <v>100</v>
       </c>
-      <c r="CR156" s="18">
+      <c r="CR156" s="33">
         <v>100</v>
       </c>
-      <c r="CS156" s="18">
+      <c r="CS156" s="33">
         <v>100</v>
       </c>
-      <c r="CT156" s="9"/>
+      <c r="CT156" s="33">
+        <v>100</v>
+      </c>
       <c r="CU156" s="9"/>
       <c r="CV156" s="9"/>
       <c r="CW156" s="9"/>
@@ -47208,15 +47729,21 @@
       <c r="CM157" s="13"/>
       <c r="CN157" s="13"/>
       <c r="CO157" s="13"/>
-      <c r="CP157" s="13"/>
-      <c r="CQ157" s="13"/>
-      <c r="CR157" s="13"/>
-      <c r="CS157" s="13"/>
+      <c r="CP157" s="29"/>
+      <c r="CQ157" s="29"/>
+      <c r="CR157" s="29"/>
+      <c r="CS157" s="29"/>
+      <c r="CT157" s="29"/>
     </row>
     <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CP158" s="23"/>
+      <c r="CQ158" s="23"/>
+      <c r="CR158" s="23"/>
+      <c r="CS158" s="23"/>
+      <c r="CT158" s="23"/>
     </row>
     <row r="159" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9"/>
@@ -47291,7 +47818,6 @@
       <c r="BS159" s="9"/>
       <c r="BT159" s="9"/>
       <c r="BU159" s="9"/>
-      <c r="CT159" s="9"/>
       <c r="CU159" s="9"/>
       <c r="CV159" s="9"/>
       <c r="CW159" s="9"/>
@@ -47417,7 +47943,6 @@
       <c r="BS160" s="9"/>
       <c r="BT160" s="9"/>
       <c r="BU160" s="9"/>
-      <c r="CT160" s="9"/>
       <c r="CU160" s="9"/>
       <c r="CV160" s="9"/>
       <c r="CW160" s="9"/>
@@ -47471,19 +47996,12 @@
       <c r="ES160" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="CH55:CK55"/>
-    <mergeCell ref="CH100:CK100"/>
-    <mergeCell ref="CH123:CK123"/>
-    <mergeCell ref="CH146:CK146"/>
+  <mergeCells count="147">
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD146:CG146"/>
     <mergeCell ref="CD123:CG123"/>
     <mergeCell ref="CD100:CG100"/>
     <mergeCell ref="CD32:CG32"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH32:CK32"/>
-    <mergeCell ref="CH78:CK78"/>
     <mergeCell ref="CD55:CG55"/>
     <mergeCell ref="CD78:CG78"/>
     <mergeCell ref="B123:E123"/>
@@ -47627,7 +48145,7 @@
     <mergeCell ref="BZ55:CC55"/>
     <mergeCell ref="BZ78:CC78"/>
   </mergeCells>
-  <conditionalFormatting sqref="BR58:CS65 BR81:CS88 BR103:CS110">
+  <conditionalFormatting sqref="BR58:CT65 BR81:CT88 BR103:CT110">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -47637,9 +48155,9 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="96" man="1"/>
-    <brk id="92" max="96" man="1"/>
-    <brk id="114" max="96" man="1"/>
+    <brk id="46" max="97" man="1"/>
+    <brk id="92" max="97" man="1"/>
+    <brk id="114" max="97" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="56" max="159" man="1"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E0A8F-A8EE-48C5-92C5-8F8A83784EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569E70EE-D1FD-4462-B22D-4559460F8042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="59">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -639,13 +639,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -781,26 +781,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23665,7 +23648,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CM1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="DK11" sqref="DK11"/>
+      <selection pane="topRight" activeCell="CO1" sqref="CO1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23673,213 +23656,171 @@
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
     <col min="2" max="85" width="9.5546875" style="10" customWidth="1"/>
     <col min="86" max="89" width="8" style="10" customWidth="1"/>
-    <col min="90" max="93" width="7.88671875" style="10" customWidth="1"/>
-    <col min="94" max="98" width="7.88671875" style="32" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="10"/>
+    <col min="90" max="92" width="7.88671875" style="10" customWidth="1"/>
+    <col min="93" max="99" width="8.21875" style="10" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP1" s="23"/>
-      <c r="CQ1" s="23"/>
-      <c r="CR1" s="23"/>
-      <c r="CS1" s="23"/>
-      <c r="CT1" s="23"/>
     </row>
     <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="CP2" s="23"/>
-      <c r="CQ2" s="23"/>
-      <c r="CR2" s="23"/>
-      <c r="CS2" s="23"/>
-      <c r="CT2" s="23"/>
     </row>
     <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="CP3" s="23"/>
-      <c r="CQ3" s="23"/>
-      <c r="CR3" s="23"/>
-      <c r="CS3" s="23"/>
-      <c r="CT3" s="23"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP4" s="23"/>
-      <c r="CQ4" s="23"/>
-      <c r="CR4" s="23"/>
-      <c r="CS4" s="23"/>
-      <c r="CT4" s="23"/>
-    </row>
+    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="CP5" s="23"/>
-      <c r="CQ5" s="23"/>
-      <c r="CR5" s="23"/>
-      <c r="CS5" s="23"/>
-      <c r="CT5" s="23"/>
     </row>
     <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CP6" s="23"/>
-      <c r="CQ6" s="23"/>
-      <c r="CR6" s="23"/>
-      <c r="CS6" s="23"/>
-      <c r="CT6" s="23"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CP7" s="23"/>
-      <c r="CQ7" s="23"/>
-      <c r="CR7" s="23"/>
-      <c r="CS7" s="23"/>
-      <c r="CT7" s="23"/>
     </row>
-    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP8" s="23"/>
-      <c r="CQ8" s="23"/>
-      <c r="CR8" s="23"/>
-      <c r="CS8" s="23"/>
-      <c r="CT8" s="23"/>
-    </row>
+    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="34">
+      <c r="B9" s="23">
         <v>2000</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <v>2001</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23">
         <v>2002</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34">
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23">
         <v>2003</v>
       </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34">
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23">
         <v>2004</v>
       </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34">
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23">
         <v>2005</v>
       </c>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34">
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23">
         <v>2006</v>
       </c>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34">
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23">
         <v>2007</v>
       </c>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34">
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23">
         <v>2008</v>
       </c>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34">
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="23">
         <v>2009</v>
       </c>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34">
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="34">
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="23">
         <v>2011</v>
       </c>
-      <c r="AU9" s="34"/>
-      <c r="AV9" s="34"/>
-      <c r="AW9" s="34"/>
-      <c r="AX9" s="34">
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23">
         <v>2012</v>
       </c>
-      <c r="AY9" s="34"/>
-      <c r="AZ9" s="34"/>
-      <c r="BA9" s="34"/>
-      <c r="BB9" s="34">
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23">
         <v>2013</v>
       </c>
-      <c r="BC9" s="34"/>
-      <c r="BD9" s="34"/>
-      <c r="BE9" s="34"/>
-      <c r="BF9" s="34">
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="23">
         <v>2014</v>
       </c>
-      <c r="BG9" s="34"/>
-      <c r="BH9" s="34"/>
-      <c r="BI9" s="34"/>
-      <c r="BJ9" s="34">
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="23">
         <v>2015</v>
       </c>
-      <c r="BK9" s="34"/>
-      <c r="BL9" s="34"/>
-      <c r="BM9" s="34"/>
-      <c r="BN9" s="34">
+      <c r="BK9" s="23"/>
+      <c r="BL9" s="23"/>
+      <c r="BM9" s="23"/>
+      <c r="BN9" s="23">
         <v>2016</v>
       </c>
-      <c r="BO9" s="34"/>
-      <c r="BP9" s="34"/>
-      <c r="BQ9" s="34"/>
-      <c r="BR9" s="34">
+      <c r="BO9" s="23"/>
+      <c r="BP9" s="23"/>
+      <c r="BQ9" s="23"/>
+      <c r="BR9" s="23">
         <v>2017</v>
       </c>
-      <c r="BS9" s="34"/>
-      <c r="BT9" s="34"/>
-      <c r="BU9" s="34"/>
-      <c r="BV9" s="34">
+      <c r="BS9" s="23"/>
+      <c r="BT9" s="23"/>
+      <c r="BU9" s="23"/>
+      <c r="BV9" s="23">
         <v>2018</v>
       </c>
-      <c r="BW9" s="34"/>
-      <c r="BX9" s="34"/>
-      <c r="BY9" s="34"/>
-      <c r="BZ9" s="34">
+      <c r="BW9" s="23"/>
+      <c r="BX9" s="23"/>
+      <c r="BY9" s="23"/>
+      <c r="BZ9" s="23">
         <v>2019</v>
       </c>
-      <c r="CA9" s="34"/>
-      <c r="CB9" s="34"/>
-      <c r="CC9" s="34"/>
-      <c r="CD9" s="34">
+      <c r="CA9" s="23"/>
+      <c r="CB9" s="23"/>
+      <c r="CC9" s="23"/>
+      <c r="CD9" s="23">
         <v>2020</v>
       </c>
-      <c r="CE9" s="34"/>
-      <c r="CF9" s="34"/>
-      <c r="CG9" s="34"/>
+      <c r="CE9" s="23"/>
+      <c r="CF9" s="23"/>
+      <c r="CG9" s="23"/>
       <c r="CH9" s="21">
         <v>2021</v>
       </c>
@@ -23892,15 +23833,16 @@
       <c r="CM9" s="21"/>
       <c r="CN9" s="21"/>
       <c r="CO9" s="21"/>
-      <c r="CP9" s="24">
+      <c r="CP9" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="24"/>
-      <c r="CR9" s="24"/>
-      <c r="CS9" s="24"/>
-      <c r="CT9" s="24">
+      <c r="CQ9" s="21"/>
+      <c r="CR9" s="21"/>
+      <c r="CS9" s="21"/>
+      <c r="CT9" s="21">
         <v>2024</v>
       </c>
+      <c r="CU9" s="21"/>
     </row>
     <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24182,29 +24124,27 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="25" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="25" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="25" t="s">
+      <c r="CR10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="25" t="s">
+      <c r="CS10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="25" t="s">
+      <c r="CT10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="CP11" s="23"/>
-      <c r="CQ11" s="23"/>
-      <c r="CR11" s="23"/>
-      <c r="CS11" s="23"/>
-      <c r="CT11" s="23"/>
     </row>
     <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -24486,22 +24426,24 @@
       <c r="CO12" s="19">
         <v>7500.2176711747825</v>
       </c>
-      <c r="CP12" s="26">
+      <c r="CP12" s="19">
         <v>15852.731862495799</v>
       </c>
-      <c r="CQ12" s="26">
+      <c r="CQ12" s="19">
         <v>6783.3523445881083</v>
       </c>
-      <c r="CR12" s="26">
+      <c r="CR12" s="19">
         <v>8357.4355997832154</v>
       </c>
-      <c r="CS12" s="26">
+      <c r="CS12" s="19">
         <v>6344.7064266728121</v>
       </c>
-      <c r="CT12" s="26">
+      <c r="CT12" s="19">
         <v>8402.3991673924829</v>
       </c>
-      <c r="CU12" s="9"/>
+      <c r="CU12" s="19">
+        <v>10898.837460758135</v>
+      </c>
       <c r="CV12" s="9"/>
       <c r="CW12" s="9"/>
       <c r="CX12" s="9"/>
@@ -24838,22 +24780,24 @@
       <c r="CO13" s="19">
         <v>13922.352938909786</v>
       </c>
-      <c r="CP13" s="26">
+      <c r="CP13" s="19">
         <v>6031.8928131160264</v>
       </c>
-      <c r="CQ13" s="26">
+      <c r="CQ13" s="19">
         <v>5215.5590302334695</v>
       </c>
-      <c r="CR13" s="26">
+      <c r="CR13" s="19">
         <v>5875.1435166697365</v>
       </c>
-      <c r="CS13" s="26">
+      <c r="CS13" s="19">
         <v>7305.9688844309421</v>
       </c>
-      <c r="CT13" s="26">
+      <c r="CT13" s="19">
         <v>5872.9859319981824</v>
       </c>
-      <c r="CU13" s="9"/>
+      <c r="CU13" s="19">
+        <v>5020.844745825927</v>
+      </c>
       <c r="CV13" s="9"/>
       <c r="CW13" s="9"/>
       <c r="CX13" s="9"/>
@@ -25190,22 +25134,24 @@
       <c r="CO14" s="19">
         <v>10795.064642611094</v>
       </c>
-      <c r="CP14" s="26">
+      <c r="CP14" s="19">
         <v>11793.789404628102</v>
       </c>
-      <c r="CQ14" s="26">
+      <c r="CQ14" s="19">
         <v>15304.173008896976</v>
       </c>
-      <c r="CR14" s="26">
+      <c r="CR14" s="19">
         <v>13808.674041359101</v>
       </c>
-      <c r="CS14" s="26">
+      <c r="CS14" s="19">
         <v>13219.844262433013</v>
       </c>
-      <c r="CT14" s="26">
-        <v>12521.097737462518</v>
-      </c>
-      <c r="CU14" s="9"/>
+      <c r="CT14" s="19">
+        <v>12592.375315233876</v>
+      </c>
+      <c r="CU14" s="19">
+        <v>17406.386817012615</v>
+      </c>
       <c r="CV14" s="9"/>
       <c r="CW14" s="9"/>
       <c r="CX14" s="9"/>
@@ -25542,22 +25488,24 @@
       <c r="CO15" s="19">
         <v>4012.8608015561877</v>
       </c>
-      <c r="CP15" s="26">
+      <c r="CP15" s="19">
         <v>15189.245629313813</v>
       </c>
-      <c r="CQ15" s="26">
+      <c r="CQ15" s="19">
         <v>15035.2342698871</v>
       </c>
-      <c r="CR15" s="26">
+      <c r="CR15" s="19">
         <v>9464.6567873225013</v>
       </c>
-      <c r="CS15" s="26">
+      <c r="CS15" s="19">
         <v>3328.4627221109013</v>
       </c>
-      <c r="CT15" s="26">
-        <v>11215.007160914389</v>
-      </c>
-      <c r="CU15" s="9"/>
+      <c r="CT15" s="19">
+        <v>11217.678259360942</v>
+      </c>
+      <c r="CU15" s="19">
+        <v>11379.800655166786</v>
+      </c>
       <c r="CV15" s="9"/>
       <c r="CW15" s="9"/>
       <c r="CX15" s="9"/>
@@ -25894,22 +25842,24 @@
       <c r="CO16" s="19">
         <v>4995.6966942187573</v>
       </c>
-      <c r="CP16" s="26">
+      <c r="CP16" s="19">
         <v>2339.4999124600308</v>
       </c>
-      <c r="CQ16" s="26">
+      <c r="CQ16" s="19">
         <v>3498.8932940025416</v>
       </c>
-      <c r="CR16" s="26">
+      <c r="CR16" s="19">
         <v>3054.4578392055391</v>
       </c>
-      <c r="CS16" s="26">
+      <c r="CS16" s="19">
         <v>5206.5418282330211</v>
       </c>
-      <c r="CT16" s="26">
+      <c r="CT16" s="19">
         <v>2266.0341565181925</v>
       </c>
-      <c r="CU16" s="9"/>
+      <c r="CU16" s="19">
+        <v>4311.4648018124944</v>
+      </c>
       <c r="CV16" s="9"/>
       <c r="CW16" s="9"/>
       <c r="CX16" s="9"/>
@@ -26246,22 +26196,24 @@
       <c r="CO17" s="19">
         <v>15709.119194229439</v>
       </c>
-      <c r="CP17" s="26">
+      <c r="CP17" s="19">
         <v>16400.001704524657</v>
       </c>
-      <c r="CQ17" s="26">
+      <c r="CQ17" s="19">
         <v>10700.447387680118</v>
       </c>
-      <c r="CR17" s="26">
+      <c r="CR17" s="19">
         <v>15027.513637342456</v>
       </c>
-      <c r="CS17" s="26">
+      <c r="CS17" s="19">
         <v>16942.011728318706</v>
       </c>
-      <c r="CT17" s="26">
-        <v>17982.645519333815</v>
-      </c>
-      <c r="CU17" s="9"/>
+      <c r="CT17" s="19">
+        <v>18000.852098547002</v>
+      </c>
+      <c r="CU17" s="19">
+        <v>11080.875561360495</v>
+      </c>
       <c r="CV17" s="9"/>
       <c r="CW17" s="9"/>
       <c r="CX17" s="9"/>
@@ -26411,11 +26363,11 @@
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
       <c r="CO18" s="9"/>
-      <c r="CP18" s="27"/>
-      <c r="CQ18" s="27"/>
-      <c r="CR18" s="27"/>
-      <c r="CS18" s="27"/>
-      <c r="CT18" s="27"/>
+      <c r="CP18" s="9"/>
+      <c r="CQ18" s="9"/>
+      <c r="CR18" s="9"/>
+      <c r="CS18" s="9"/>
+      <c r="CT18" s="9"/>
       <c r="CU18" s="9"/>
       <c r="CV18" s="9"/>
       <c r="CW18" s="9"/>
@@ -26753,22 +26705,24 @@
       <c r="CO19" s="20">
         <v>56935.311942700049</v>
       </c>
-      <c r="CP19" s="28">
+      <c r="CP19" s="20">
         <v>67607.161326538422</v>
       </c>
-      <c r="CQ19" s="28">
+      <c r="CQ19" s="20">
         <v>56537.659335288314</v>
       </c>
-      <c r="CR19" s="28">
+      <c r="CR19" s="20">
         <v>55587.881421682549</v>
       </c>
-      <c r="CS19" s="28">
+      <c r="CS19" s="20">
         <v>52347.535852199399</v>
       </c>
-      <c r="CT19" s="28">
-        <v>58260.169673619574</v>
-      </c>
-      <c r="CU19" s="9"/>
+      <c r="CT19" s="20">
+        <v>58352.324929050679</v>
+      </c>
+      <c r="CU19" s="20">
+        <v>60098.210041936451</v>
+      </c>
       <c r="CV19" s="9"/>
       <c r="CW19" s="9"/>
       <c r="CX19" s="9"/>
@@ -26919,21 +26873,17 @@
       <c r="CM20" s="13"/>
       <c r="CN20" s="13"/>
       <c r="CO20" s="13"/>
-      <c r="CP20" s="29"/>
-      <c r="CQ20" s="29"/>
-      <c r="CR20" s="29"/>
-      <c r="CS20" s="29"/>
-      <c r="CT20" s="29"/>
+      <c r="CP20" s="13"/>
+      <c r="CQ20" s="13"/>
+      <c r="CR20" s="13"/>
+      <c r="CS20" s="13"/>
+      <c r="CT20" s="13"/>
+      <c r="CU20" s="13"/>
     </row>
     <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="CP21" s="23"/>
-      <c r="CQ21" s="23"/>
-      <c r="CR21" s="23"/>
-      <c r="CS21" s="23"/>
-      <c r="CT21" s="23"/>
     </row>
     <row r="22" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
@@ -27028,11 +26978,11 @@
       <c r="CM22" s="9"/>
       <c r="CN22" s="9"/>
       <c r="CO22" s="9"/>
-      <c r="CP22" s="27"/>
-      <c r="CQ22" s="27"/>
-      <c r="CR22" s="27"/>
-      <c r="CS22" s="27"/>
-      <c r="CT22" s="27"/>
+      <c r="CP22" s="9"/>
+      <c r="CQ22" s="9"/>
+      <c r="CR22" s="9"/>
+      <c r="CS22" s="9"/>
+      <c r="CT22" s="9"/>
       <c r="CU22" s="9"/>
       <c r="CV22" s="9"/>
       <c r="CW22" s="9"/>
@@ -27183,11 +27133,11 @@
       <c r="CM23" s="9"/>
       <c r="CN23" s="9"/>
       <c r="CO23" s="9"/>
-      <c r="CP23" s="27"/>
-      <c r="CQ23" s="27"/>
-      <c r="CR23" s="27"/>
-      <c r="CS23" s="27"/>
-      <c r="CT23" s="27"/>
+      <c r="CP23" s="9"/>
+      <c r="CQ23" s="9"/>
+      <c r="CR23" s="9"/>
+      <c r="CS23" s="9"/>
+      <c r="CT23" s="9"/>
       <c r="CU23" s="9"/>
       <c r="CV23" s="9"/>
       <c r="CW23" s="9"/>
@@ -27249,204 +27199,162 @@
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP24" s="23"/>
-      <c r="CQ24" s="23"/>
-      <c r="CR24" s="23"/>
-      <c r="CS24" s="23"/>
-      <c r="CT24" s="23"/>
     </row>
     <row r="25" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="CP25" s="23"/>
-      <c r="CQ25" s="23"/>
-      <c r="CR25" s="23"/>
-      <c r="CS25" s="23"/>
-      <c r="CT25" s="23"/>
     </row>
     <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="CP26" s="23"/>
-      <c r="CQ26" s="23"/>
-      <c r="CR26" s="23"/>
-      <c r="CS26" s="23"/>
-      <c r="CT26" s="23"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP27" s="23"/>
-      <c r="CQ27" s="23"/>
-      <c r="CR27" s="23"/>
-      <c r="CS27" s="23"/>
-      <c r="CT27" s="23"/>
-    </row>
+    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="CP28" s="23"/>
-      <c r="CQ28" s="23"/>
-      <c r="CR28" s="23"/>
-      <c r="CS28" s="23"/>
-      <c r="CT28" s="23"/>
     </row>
     <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CP29" s="23"/>
-      <c r="CQ29" s="23"/>
-      <c r="CR29" s="23"/>
-      <c r="CS29" s="23"/>
-      <c r="CT29" s="23"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CP30" s="23"/>
-      <c r="CQ30" s="23"/>
-      <c r="CR30" s="23"/>
-      <c r="CS30" s="23"/>
-      <c r="CT30" s="23"/>
     </row>
-    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP31" s="23"/>
-      <c r="CQ31" s="23"/>
-      <c r="CR31" s="23"/>
-      <c r="CS31" s="23"/>
-      <c r="CT31" s="23"/>
-    </row>
+    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="34">
+      <c r="B32" s="23">
         <v>2000</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34">
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23">
         <v>2001</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34">
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23">
         <v>2002</v>
       </c>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34">
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23">
         <v>2003</v>
       </c>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34">
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23">
         <v>2004</v>
       </c>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34">
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23">
         <v>2005</v>
       </c>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34">
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23">
         <v>2006</v>
       </c>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34">
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23">
         <v>2007</v>
       </c>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="34">
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="23">
         <v>2008</v>
       </c>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="34">
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="23"/>
+      <c r="AL32" s="23">
         <v>2009</v>
       </c>
-      <c r="AM32" s="34"/>
-      <c r="AN32" s="34"/>
-      <c r="AO32" s="34"/>
-      <c r="AP32" s="34">
+      <c r="AM32" s="23"/>
+      <c r="AN32" s="23"/>
+      <c r="AO32" s="23"/>
+      <c r="AP32" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ32" s="34"/>
-      <c r="AR32" s="34"/>
-      <c r="AS32" s="34"/>
-      <c r="AT32" s="34">
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="23"/>
+      <c r="AS32" s="23"/>
+      <c r="AT32" s="23">
         <v>2011</v>
       </c>
-      <c r="AU32" s="34"/>
-      <c r="AV32" s="34"/>
-      <c r="AW32" s="34"/>
-      <c r="AX32" s="34">
+      <c r="AU32" s="23"/>
+      <c r="AV32" s="23"/>
+      <c r="AW32" s="23"/>
+      <c r="AX32" s="23">
         <v>2012</v>
       </c>
-      <c r="AY32" s="34"/>
-      <c r="AZ32" s="34"/>
-      <c r="BA32" s="34"/>
-      <c r="BB32" s="34">
+      <c r="AY32" s="23"/>
+      <c r="AZ32" s="23"/>
+      <c r="BA32" s="23"/>
+      <c r="BB32" s="23">
         <v>2013</v>
       </c>
-      <c r="BC32" s="34"/>
-      <c r="BD32" s="34"/>
-      <c r="BE32" s="34"/>
-      <c r="BF32" s="34">
+      <c r="BC32" s="23"/>
+      <c r="BD32" s="23"/>
+      <c r="BE32" s="23"/>
+      <c r="BF32" s="23">
         <v>2014</v>
       </c>
-      <c r="BG32" s="34"/>
-      <c r="BH32" s="34"/>
-      <c r="BI32" s="34"/>
-      <c r="BJ32" s="34">
+      <c r="BG32" s="23"/>
+      <c r="BH32" s="23"/>
+      <c r="BI32" s="23"/>
+      <c r="BJ32" s="23">
         <v>2015</v>
       </c>
-      <c r="BK32" s="34"/>
-      <c r="BL32" s="34"/>
-      <c r="BM32" s="34"/>
-      <c r="BN32" s="34">
+      <c r="BK32" s="23"/>
+      <c r="BL32" s="23"/>
+      <c r="BM32" s="23"/>
+      <c r="BN32" s="23">
         <v>2016</v>
       </c>
-      <c r="BO32" s="34"/>
-      <c r="BP32" s="34"/>
-      <c r="BQ32" s="34"/>
-      <c r="BR32" s="34">
+      <c r="BO32" s="23"/>
+      <c r="BP32" s="23"/>
+      <c r="BQ32" s="23"/>
+      <c r="BR32" s="23">
         <v>2017</v>
       </c>
-      <c r="BS32" s="34"/>
-      <c r="BT32" s="34"/>
-      <c r="BU32" s="34"/>
-      <c r="BV32" s="34">
+      <c r="BS32" s="23"/>
+      <c r="BT32" s="23"/>
+      <c r="BU32" s="23"/>
+      <c r="BV32" s="23">
         <v>2018</v>
       </c>
-      <c r="BW32" s="34"/>
-      <c r="BX32" s="34"/>
-      <c r="BY32" s="34"/>
-      <c r="BZ32" s="34">
+      <c r="BW32" s="23"/>
+      <c r="BX32" s="23"/>
+      <c r="BY32" s="23"/>
+      <c r="BZ32" s="23">
         <v>2019</v>
       </c>
-      <c r="CA32" s="34"/>
-      <c r="CB32" s="34"/>
-      <c r="CC32" s="34"/>
-      <c r="CD32" s="34">
+      <c r="CA32" s="23"/>
+      <c r="CB32" s="23"/>
+      <c r="CC32" s="23"/>
+      <c r="CD32" s="23">
         <v>2020</v>
       </c>
-      <c r="CE32" s="34"/>
-      <c r="CF32" s="34"/>
-      <c r="CG32" s="34"/>
+      <c r="CE32" s="23"/>
+      <c r="CF32" s="23"/>
+      <c r="CG32" s="23"/>
       <c r="CH32" s="21">
         <v>2021</v>
       </c>
@@ -27459,15 +27367,16 @@
       <c r="CM32" s="21"/>
       <c r="CN32" s="21"/>
       <c r="CO32" s="21"/>
-      <c r="CP32" s="24">
+      <c r="CP32" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ32" s="24"/>
-      <c r="CR32" s="24"/>
-      <c r="CS32" s="24"/>
-      <c r="CT32" s="24">
+      <c r="CQ32" s="21"/>
+      <c r="CR32" s="21"/>
+      <c r="CS32" s="21"/>
+      <c r="CT32" s="21">
         <v>2024</v>
       </c>
+      <c r="CU32" s="21"/>
     </row>
     <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -27749,29 +27658,27 @@
       <c r="CO33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP33" s="25" t="s">
+      <c r="CP33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ33" s="25" t="s">
+      <c r="CQ33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR33" s="25" t="s">
+      <c r="CR33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS33" s="25" t="s">
+      <c r="CS33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT33" s="25" t="s">
+      <c r="CT33" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU33" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="CP34" s="23"/>
-      <c r="CQ34" s="23"/>
-      <c r="CR34" s="23"/>
-      <c r="CS34" s="23"/>
-      <c r="CT34" s="23"/>
     </row>
     <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -28053,22 +27960,24 @@
       <c r="CO35" s="19">
         <v>3034.4308903112847</v>
       </c>
-      <c r="CP35" s="26">
+      <c r="CP35" s="19">
         <v>9929.8435219796429</v>
       </c>
-      <c r="CQ35" s="26">
+      <c r="CQ35" s="19">
         <v>5597.0497840270327</v>
       </c>
-      <c r="CR35" s="26">
+      <c r="CR35" s="19">
         <v>2811.763950234933</v>
       </c>
-      <c r="CS35" s="26">
+      <c r="CS35" s="19">
         <v>5852.6209642711183</v>
       </c>
-      <c r="CT35" s="26">
+      <c r="CT35" s="19">
         <v>8626.7272934041957</v>
       </c>
-      <c r="CU35" s="9"/>
+      <c r="CU35" s="19">
+        <v>9863.7211603560845</v>
+      </c>
       <c r="CV35" s="9"/>
       <c r="CW35" s="9"/>
       <c r="CX35" s="9"/>
@@ -28405,22 +28314,24 @@
       <c r="CO36" s="19">
         <v>4874.4539561299507</v>
       </c>
-      <c r="CP36" s="26">
+      <c r="CP36" s="19">
         <v>3908.6596716646445</v>
       </c>
-      <c r="CQ36" s="26">
+      <c r="CQ36" s="19">
         <v>9383.2506327522442</v>
       </c>
-      <c r="CR36" s="26">
+      <c r="CR36" s="19">
         <v>3171.137875157483</v>
       </c>
-      <c r="CS36" s="26">
+      <c r="CS36" s="19">
         <v>3613.2183548600024</v>
       </c>
-      <c r="CT36" s="26">
+      <c r="CT36" s="19">
         <v>4028.8949373389642</v>
       </c>
-      <c r="CU36" s="9"/>
+      <c r="CU36" s="19">
+        <v>8410.6507946779657</v>
+      </c>
       <c r="CV36" s="9"/>
       <c r="CW36" s="9"/>
       <c r="CX36" s="9"/>
@@ -28757,22 +28668,24 @@
       <c r="CO37" s="19">
         <v>7052.931592245819</v>
       </c>
-      <c r="CP37" s="26">
+      <c r="CP37" s="19">
         <v>6409.4576311695637</v>
       </c>
-      <c r="CQ37" s="26">
+      <c r="CQ37" s="19">
         <v>8411.437397662834</v>
       </c>
-      <c r="CR37" s="26">
+      <c r="CR37" s="19">
         <v>7233.6603140014868</v>
       </c>
-      <c r="CS37" s="26">
+      <c r="CS37" s="19">
         <v>7736.2740833773596</v>
       </c>
-      <c r="CT37" s="26">
-        <v>6248.4848142754427</v>
-      </c>
-      <c r="CU37" s="9"/>
+      <c r="CT37" s="19">
+        <v>6284.1077284259318</v>
+      </c>
+      <c r="CU37" s="19">
+        <v>7795.1739747058937</v>
+      </c>
       <c r="CV37" s="9"/>
       <c r="CW37" s="9"/>
       <c r="CX37" s="9"/>
@@ -29109,22 +29022,24 @@
       <c r="CO38" s="19">
         <v>1604.1539505589053</v>
       </c>
-      <c r="CP38" s="26">
+      <c r="CP38" s="19">
         <v>5070.3640996719305</v>
       </c>
-      <c r="CQ38" s="26">
+      <c r="CQ38" s="19">
         <v>8758.3929296833467</v>
       </c>
-      <c r="CR38" s="26">
+      <c r="CR38" s="19">
         <v>6448.8392760761262</v>
       </c>
-      <c r="CS38" s="26">
+      <c r="CS38" s="19">
         <v>1715.0336096520994</v>
       </c>
-      <c r="CT38" s="26">
-        <v>5392.2391160498719</v>
-      </c>
-      <c r="CU38" s="9"/>
+      <c r="CT38" s="19">
+        <v>5393.5233953481074</v>
+      </c>
+      <c r="CU38" s="19">
+        <v>7748.8003233474947</v>
+      </c>
       <c r="CV38" s="9"/>
       <c r="CW38" s="9"/>
       <c r="CX38" s="9"/>
@@ -29461,22 +29376,24 @@
       <c r="CO39" s="19">
         <v>1476.0047410557795</v>
       </c>
-      <c r="CP39" s="26">
+      <c r="CP39" s="19">
         <v>4324.7906811114199</v>
       </c>
-      <c r="CQ39" s="26">
+      <c r="CQ39" s="19">
         <v>1361.8322781078605</v>
       </c>
-      <c r="CR39" s="26">
+      <c r="CR39" s="19">
         <v>1448.3810412670082</v>
       </c>
-      <c r="CS39" s="26">
+      <c r="CS39" s="19">
         <v>1545.3697911211157</v>
       </c>
-      <c r="CT39" s="26">
+      <c r="CT39" s="19">
         <v>4348.7285230057823</v>
       </c>
-      <c r="CU39" s="9"/>
+      <c r="CU39" s="19">
+        <v>1403.7685951477943</v>
+      </c>
       <c r="CV39" s="9"/>
       <c r="CW39" s="9"/>
       <c r="CX39" s="9"/>
@@ -29813,22 +29730,24 @@
       <c r="CO40" s="19">
         <v>17146.413780542847</v>
       </c>
-      <c r="CP40" s="26">
+      <c r="CP40" s="19">
         <v>13520.109200472863</v>
       </c>
-      <c r="CQ40" s="26">
+      <c r="CQ40" s="19">
         <v>8532.368420519786</v>
       </c>
-      <c r="CR40" s="26">
+      <c r="CR40" s="19">
         <v>10026.220576933645</v>
       </c>
-      <c r="CS40" s="26">
+      <c r="CS40" s="19">
         <v>18344.728830014647</v>
       </c>
-      <c r="CT40" s="26">
-        <v>14633.154039158024</v>
-      </c>
-      <c r="CU40" s="9"/>
+      <c r="CT40" s="19">
+        <v>14647.969416454223</v>
+      </c>
+      <c r="CU40" s="19">
+        <v>8843.5235635719</v>
+      </c>
       <c r="CV40" s="9"/>
       <c r="CW40" s="9"/>
       <c r="CX40" s="9"/>
@@ -29978,12 +29897,12 @@
       <c r="CM41" s="20"/>
       <c r="CN41" s="20"/>
       <c r="CO41" s="20"/>
-      <c r="CP41" s="28"/>
-      <c r="CQ41" s="28"/>
-      <c r="CR41" s="28"/>
-      <c r="CS41" s="28"/>
-      <c r="CT41" s="28"/>
-      <c r="CU41" s="9"/>
+      <c r="CP41" s="20"/>
+      <c r="CQ41" s="20"/>
+      <c r="CR41" s="20"/>
+      <c r="CS41" s="20"/>
+      <c r="CT41" s="20"/>
+      <c r="CU41" s="20"/>
       <c r="CV41" s="9"/>
       <c r="CW41" s="9"/>
       <c r="CX41" s="9"/>
@@ -30320,22 +30239,24 @@
       <c r="CO42" s="20">
         <v>35188.388910844587</v>
       </c>
-      <c r="CP42" s="28">
+      <c r="CP42" s="20">
         <v>43163.224806070066</v>
       </c>
-      <c r="CQ42" s="28">
+      <c r="CQ42" s="20">
         <v>42044.3314427531</v>
       </c>
-      <c r="CR42" s="28">
+      <c r="CR42" s="20">
         <v>31140.003033670684</v>
       </c>
-      <c r="CS42" s="28">
+      <c r="CS42" s="20">
         <v>38807.245633296341</v>
       </c>
-      <c r="CT42" s="28">
-        <v>43278.228723232285</v>
-      </c>
-      <c r="CU42" s="9"/>
+      <c r="CT42" s="20">
+        <v>43329.951293977203</v>
+      </c>
+      <c r="CU42" s="20">
+        <v>44065.638411807129</v>
+      </c>
       <c r="CV42" s="9"/>
       <c r="CW42" s="9"/>
       <c r="CX42" s="9"/>
@@ -30486,21 +30407,17 @@
       <c r="CM43" s="13"/>
       <c r="CN43" s="13"/>
       <c r="CO43" s="13"/>
-      <c r="CP43" s="29"/>
-      <c r="CQ43" s="29"/>
-      <c r="CR43" s="29"/>
-      <c r="CS43" s="29"/>
-      <c r="CT43" s="29"/>
+      <c r="CP43" s="13"/>
+      <c r="CQ43" s="13"/>
+      <c r="CR43" s="13"/>
+      <c r="CS43" s="13"/>
+      <c r="CT43" s="13"/>
+      <c r="CU43" s="13"/>
     </row>
     <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="CP44" s="23"/>
-      <c r="CQ44" s="23"/>
-      <c r="CR44" s="23"/>
-      <c r="CS44" s="23"/>
-      <c r="CT44" s="23"/>
     </row>
     <row r="45" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
@@ -30595,11 +30512,11 @@
       <c r="CM45" s="9"/>
       <c r="CN45" s="9"/>
       <c r="CO45" s="9"/>
-      <c r="CP45" s="27"/>
-      <c r="CQ45" s="27"/>
-      <c r="CR45" s="27"/>
-      <c r="CS45" s="27"/>
-      <c r="CT45" s="27"/>
+      <c r="CP45" s="9"/>
+      <c r="CQ45" s="9"/>
+      <c r="CR45" s="9"/>
+      <c r="CS45" s="9"/>
+      <c r="CT45" s="9"/>
       <c r="CU45" s="9"/>
       <c r="CV45" s="9"/>
       <c r="CW45" s="9"/>
@@ -30750,11 +30667,11 @@
       <c r="CM46" s="9"/>
       <c r="CN46" s="9"/>
       <c r="CO46" s="9"/>
-      <c r="CP46" s="27"/>
-      <c r="CQ46" s="27"/>
-      <c r="CR46" s="27"/>
-      <c r="CS46" s="27"/>
-      <c r="CT46" s="27"/>
+      <c r="CP46" s="9"/>
+      <c r="CQ46" s="9"/>
+      <c r="CR46" s="9"/>
+      <c r="CS46" s="9"/>
+      <c r="CT46" s="9"/>
       <c r="CU46" s="9"/>
       <c r="CV46" s="9"/>
       <c r="CW46" s="9"/>
@@ -30816,204 +30733,162 @@
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP47" s="23"/>
-      <c r="CQ47" s="23"/>
-      <c r="CR47" s="23"/>
-      <c r="CS47" s="23"/>
-      <c r="CT47" s="23"/>
     </row>
     <row r="48" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CP48" s="23"/>
-      <c r="CQ48" s="23"/>
-      <c r="CR48" s="23"/>
-      <c r="CS48" s="23"/>
-      <c r="CT48" s="23"/>
     </row>
     <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="CP49" s="23"/>
-      <c r="CQ49" s="23"/>
-      <c r="CR49" s="23"/>
-      <c r="CS49" s="23"/>
-      <c r="CT49" s="23"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP50" s="23"/>
-      <c r="CQ50" s="23"/>
-      <c r="CR50" s="23"/>
-      <c r="CS50" s="23"/>
-      <c r="CT50" s="23"/>
-    </row>
+    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="CP51" s="23"/>
-      <c r="CQ51" s="23"/>
-      <c r="CR51" s="23"/>
-      <c r="CS51" s="23"/>
-      <c r="CT51" s="23"/>
     </row>
     <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="CP52" s="23"/>
-      <c r="CQ52" s="23"/>
-      <c r="CR52" s="23"/>
-      <c r="CS52" s="23"/>
-      <c r="CT52" s="23"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CP53" s="23"/>
-      <c r="CQ53" s="23"/>
-      <c r="CR53" s="23"/>
-      <c r="CS53" s="23"/>
-      <c r="CT53" s="23"/>
     </row>
-    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP54" s="23"/>
-      <c r="CQ54" s="23"/>
-      <c r="CR54" s="23"/>
-      <c r="CS54" s="23"/>
-      <c r="CT54" s="23"/>
-    </row>
+    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34" t="s">
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34" t="s">
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34" t="s">
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34" t="s">
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="34" t="s">
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="W55" s="34"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34" t="s">
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="23"/>
+      <c r="Z55" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA55" s="34"/>
-      <c r="AB55" s="34"/>
-      <c r="AC55" s="34"/>
-      <c r="AD55" s="34" t="s">
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="23"/>
+      <c r="AC55" s="23"/>
+      <c r="AD55" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="34"/>
-      <c r="AF55" s="34"/>
-      <c r="AG55" s="34"/>
-      <c r="AH55" s="34" t="s">
+      <c r="AE55" s="23"/>
+      <c r="AF55" s="23"/>
+      <c r="AG55" s="23"/>
+      <c r="AH55" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="34"/>
-      <c r="AJ55" s="34"/>
-      <c r="AK55" s="34"/>
-      <c r="AL55" s="34" t="s">
+      <c r="AI55" s="23"/>
+      <c r="AJ55" s="23"/>
+      <c r="AK55" s="23"/>
+      <c r="AL55" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AM55" s="34"/>
-      <c r="AN55" s="34"/>
-      <c r="AO55" s="34"/>
-      <c r="AP55" s="34" t="s">
+      <c r="AM55" s="23"/>
+      <c r="AN55" s="23"/>
+      <c r="AO55" s="23"/>
+      <c r="AP55" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AQ55" s="34"/>
-      <c r="AR55" s="34"/>
-      <c r="AS55" s="34"/>
-      <c r="AT55" s="34" t="s">
+      <c r="AQ55" s="23"/>
+      <c r="AR55" s="23"/>
+      <c r="AS55" s="23"/>
+      <c r="AT55" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AU55" s="34"/>
-      <c r="AV55" s="34"/>
-      <c r="AW55" s="34"/>
-      <c r="AX55" s="34" t="s">
+      <c r="AU55" s="23"/>
+      <c r="AV55" s="23"/>
+      <c r="AW55" s="23"/>
+      <c r="AX55" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AY55" s="34"/>
-      <c r="AZ55" s="34"/>
-      <c r="BA55" s="34"/>
-      <c r="BB55" s="34" t="s">
+      <c r="AY55" s="23"/>
+      <c r="AZ55" s="23"/>
+      <c r="BA55" s="23"/>
+      <c r="BB55" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BC55" s="34"/>
-      <c r="BD55" s="34"/>
-      <c r="BE55" s="34"/>
-      <c r="BF55" s="34" t="s">
+      <c r="BC55" s="23"/>
+      <c r="BD55" s="23"/>
+      <c r="BE55" s="23"/>
+      <c r="BF55" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="BG55" s="34"/>
-      <c r="BH55" s="34"/>
-      <c r="BI55" s="34"/>
-      <c r="BJ55" s="34" t="s">
+      <c r="BG55" s="23"/>
+      <c r="BH55" s="23"/>
+      <c r="BI55" s="23"/>
+      <c r="BJ55" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="BK55" s="34"/>
-      <c r="BL55" s="34"/>
-      <c r="BM55" s="34"/>
-      <c r="BN55" s="34" t="s">
+      <c r="BK55" s="23"/>
+      <c r="BL55" s="23"/>
+      <c r="BM55" s="23"/>
+      <c r="BN55" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="BO55" s="34"/>
-      <c r="BP55" s="34"/>
-      <c r="BQ55" s="34"/>
-      <c r="BR55" s="34" t="s">
+      <c r="BO55" s="23"/>
+      <c r="BP55" s="23"/>
+      <c r="BQ55" s="23"/>
+      <c r="BR55" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="BS55" s="34"/>
-      <c r="BT55" s="34"/>
-      <c r="BU55" s="34"/>
-      <c r="BV55" s="34" t="s">
+      <c r="BS55" s="23"/>
+      <c r="BT55" s="23"/>
+      <c r="BU55" s="23"/>
+      <c r="BV55" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="BW55" s="34"/>
-      <c r="BX55" s="34"/>
-      <c r="BY55" s="34"/>
-      <c r="BZ55" s="34" t="s">
+      <c r="BW55" s="23"/>
+      <c r="BX55" s="23"/>
+      <c r="BY55" s="23"/>
+      <c r="BZ55" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="CA55" s="34"/>
-      <c r="CB55" s="34"/>
-      <c r="CC55" s="34"/>
-      <c r="CD55" s="34" t="s">
+      <c r="CA55" s="23"/>
+      <c r="CB55" s="23"/>
+      <c r="CC55" s="23"/>
+      <c r="CD55" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="CE55" s="34"/>
-      <c r="CF55" s="34"/>
-      <c r="CG55" s="34"/>
+      <c r="CE55" s="23"/>
+      <c r="CF55" s="23"/>
+      <c r="CG55" s="23"/>
       <c r="CH55" s="21" t="s">
         <v>53</v>
       </c>
@@ -31026,13 +30901,14 @@
       <c r="CM55" s="21"/>
       <c r="CN55" s="21"/>
       <c r="CO55" s="21"/>
-      <c r="CP55" s="24" t="s">
+      <c r="CP55" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="CQ55" s="22"/>
+      <c r="CQ55" s="21"/>
       <c r="CR55" s="22"/>
       <c r="CS55" s="22"/>
-      <c r="CT55" s="22"/>
+      <c r="CT55" s="21"/>
+      <c r="CU55" s="22"/>
     </row>
     <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
@@ -31314,21 +31190,19 @@
       <c r="CO56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP56" s="30" t="s">
+      <c r="CP56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ56" s="30"/>
-      <c r="CR56" s="30"/>
-      <c r="CS56" s="30"/>
-      <c r="CT56" s="30"/>
+      <c r="CQ56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR56" s="5"/>
+      <c r="CS56" s="5"/>
+      <c r="CT56" s="5"/>
+      <c r="CU56" s="5"/>
     </row>
     <row r="57" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
-      <c r="CP57" s="23"/>
-      <c r="CQ57" s="23"/>
-      <c r="CR57" s="23"/>
-      <c r="CS57" s="23"/>
-      <c r="CT57" s="23"/>
     </row>
     <row r="58" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -31610,13 +31484,16 @@
       <c r="CO58" s="15">
         <v>-15.4063694570211</v>
       </c>
-      <c r="CP58" s="31">
+      <c r="CP58" s="15">
         <v>-46.997153296519336</v>
       </c>
-      <c r="CQ58" s="31"/>
-      <c r="CR58" s="31"/>
-      <c r="CS58" s="31"/>
-      <c r="CT58" s="31"/>
+      <c r="CQ58" s="15">
+        <v>60.670372215788603</v>
+      </c>
+      <c r="CR58" s="15"/>
+      <c r="CS58" s="15"/>
+      <c r="CT58" s="15"/>
+      <c r="CU58" s="15"/>
     </row>
     <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -31898,14 +31775,16 @@
       <c r="CO59" s="15">
         <v>-47.523461612494863</v>
       </c>
-      <c r="CP59" s="31">
+      <c r="CP59" s="15">
         <v>-2.6344447098315413</v>
       </c>
-      <c r="CQ59" s="31"/>
-      <c r="CR59" s="31"/>
-      <c r="CS59" s="31"/>
-      <c r="CT59" s="31"/>
-      <c r="CU59" s="9"/>
+      <c r="CQ59" s="15">
+        <v>-3.7333348789425145</v>
+      </c>
+      <c r="CR59" s="15"/>
+      <c r="CS59" s="15"/>
+      <c r="CT59" s="15"/>
+      <c r="CU59" s="15"/>
       <c r="CV59" s="9"/>
       <c r="CW59" s="9"/>
       <c r="CX59" s="9"/>
@@ -32237,14 +32116,16 @@
       <c r="CO60" s="15">
         <v>22.461927742893224</v>
       </c>
-      <c r="CP60" s="31">
-        <v>6.16687569941692</v>
-      </c>
-      <c r="CQ60" s="31"/>
-      <c r="CR60" s="31"/>
-      <c r="CS60" s="31"/>
-      <c r="CT60" s="31"/>
-      <c r="CU60" s="9"/>
+      <c r="CP60" s="15">
+        <v>6.7712410592340575</v>
+      </c>
+      <c r="CQ60" s="15">
+        <v>13.736213037408376</v>
+      </c>
+      <c r="CR60" s="15"/>
+      <c r="CS60" s="15"/>
+      <c r="CT60" s="15"/>
+      <c r="CU60" s="15"/>
       <c r="CV60" s="9"/>
       <c r="CW60" s="9"/>
       <c r="CX60" s="9"/>
@@ -32576,14 +32457,16 @@
       <c r="CO61" s="15">
         <v>-17.055116369346194</v>
       </c>
-      <c r="CP61" s="31">
-        <v>-26.164817959948707</v>
-      </c>
-      <c r="CQ61" s="31"/>
-      <c r="CR61" s="31"/>
-      <c r="CS61" s="31"/>
-      <c r="CT61" s="31"/>
-      <c r="CU61" s="9"/>
+      <c r="CP61" s="15">
+        <v>-26.147232501712395</v>
+      </c>
+      <c r="CQ61" s="15">
+        <v>-24.312448672924887</v>
+      </c>
+      <c r="CR61" s="15"/>
+      <c r="CS61" s="15"/>
+      <c r="CT61" s="15"/>
+      <c r="CU61" s="15"/>
       <c r="CV61" s="9"/>
       <c r="CW61" s="9"/>
       <c r="CX61" s="9"/>
@@ -32915,14 +32798,16 @@
       <c r="CO62" s="15">
         <v>4.2205351309310544</v>
       </c>
-      <c r="CP62" s="31">
+      <c r="CP62" s="15">
         <v>-3.1402333272407645</v>
       </c>
-      <c r="CQ62" s="31"/>
-      <c r="CR62" s="31"/>
-      <c r="CS62" s="31"/>
-      <c r="CT62" s="31"/>
-      <c r="CU62" s="9"/>
+      <c r="CQ62" s="15">
+        <v>23.223672159502073</v>
+      </c>
+      <c r="CR62" s="15"/>
+      <c r="CS62" s="15"/>
+      <c r="CT62" s="15"/>
+      <c r="CU62" s="15"/>
       <c r="CV62" s="9"/>
       <c r="CW62" s="9"/>
       <c r="CX62" s="9"/>
@@ -33254,14 +33139,16 @@
       <c r="CO63" s="15">
         <v>7.8482601019550344</v>
       </c>
-      <c r="CP63" s="31">
-        <v>9.6502661604755531</v>
-      </c>
-      <c r="CQ63" s="31"/>
-      <c r="CR63" s="31"/>
-      <c r="CS63" s="31"/>
-      <c r="CT63" s="31"/>
-      <c r="CU63" s="9"/>
+      <c r="CP63" s="15">
+        <v>9.7612818758468904</v>
+      </c>
+      <c r="CQ63" s="15">
+        <v>3.5552548402637711</v>
+      </c>
+      <c r="CR63" s="15"/>
+      <c r="CS63" s="15"/>
+      <c r="CT63" s="15"/>
+      <c r="CU63" s="15"/>
       <c r="CV63" s="9"/>
       <c r="CW63" s="9"/>
       <c r="CX63" s="9"/>
@@ -33406,11 +33293,11 @@
       <c r="CM64" s="9"/>
       <c r="CN64" s="9"/>
       <c r="CO64" s="9"/>
-      <c r="CP64" s="27"/>
-      <c r="CQ64" s="27"/>
-      <c r="CR64" s="27"/>
-      <c r="CS64" s="27"/>
-      <c r="CT64" s="27"/>
+      <c r="CP64" s="9"/>
+      <c r="CQ64" s="9"/>
+      <c r="CR64" s="9"/>
+      <c r="CS64" s="9"/>
+      <c r="CT64" s="9"/>
       <c r="CU64" s="9"/>
       <c r="CV64" s="9"/>
       <c r="CW64" s="9"/>
@@ -33743,14 +33630,16 @@
       <c r="CO65" s="15">
         <v>-8.0578746896439384</v>
       </c>
-      <c r="CP65" s="31">
-        <v>-13.825446105884339</v>
-      </c>
-      <c r="CQ65" s="31"/>
-      <c r="CR65" s="31"/>
-      <c r="CS65" s="31"/>
-      <c r="CT65" s="31"/>
-      <c r="CU65" s="9"/>
+      <c r="CP65" s="15">
+        <v>-13.689136203763169</v>
+      </c>
+      <c r="CQ65" s="15">
+        <v>6.2976620336063291</v>
+      </c>
+      <c r="CR65" s="15"/>
+      <c r="CS65" s="15"/>
+      <c r="CT65" s="15"/>
+      <c r="CU65" s="15"/>
       <c r="CV65" s="9"/>
       <c r="CW65" s="9"/>
       <c r="CX65" s="9"/>
@@ -33896,21 +33785,17 @@
       <c r="CM66" s="13"/>
       <c r="CN66" s="13"/>
       <c r="CO66" s="13"/>
-      <c r="CP66" s="29"/>
-      <c r="CQ66" s="29"/>
-      <c r="CR66" s="29"/>
-      <c r="CS66" s="29"/>
-      <c r="CT66" s="29"/>
+      <c r="CP66" s="13"/>
+      <c r="CQ66" s="13"/>
+      <c r="CR66" s="13"/>
+      <c r="CS66" s="13"/>
+      <c r="CT66" s="13"/>
+      <c r="CU66" s="13"/>
     </row>
     <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="CP67" s="23"/>
-      <c r="CQ67" s="23"/>
-      <c r="CR67" s="23"/>
-      <c r="CS67" s="23"/>
-      <c r="CT67" s="23"/>
     </row>
     <row r="68" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
@@ -34008,11 +33893,11 @@
       <c r="CM68" s="9"/>
       <c r="CN68" s="9"/>
       <c r="CO68" s="9"/>
-      <c r="CP68" s="27"/>
-      <c r="CQ68" s="27"/>
-      <c r="CR68" s="27"/>
-      <c r="CS68" s="27"/>
-      <c r="CT68" s="27"/>
+      <c r="CP68" s="9"/>
+      <c r="CQ68" s="9"/>
+      <c r="CR68" s="9"/>
+      <c r="CS68" s="9"/>
+      <c r="CT68" s="9"/>
       <c r="CU68" s="9"/>
       <c r="CV68" s="9"/>
       <c r="CW68" s="9"/>
@@ -34158,11 +34043,11 @@
       <c r="CM69" s="9"/>
       <c r="CN69" s="9"/>
       <c r="CO69" s="9"/>
-      <c r="CP69" s="27"/>
-      <c r="CQ69" s="27"/>
-      <c r="CR69" s="27"/>
-      <c r="CS69" s="27"/>
-      <c r="CT69" s="27"/>
+      <c r="CP69" s="9"/>
+      <c r="CQ69" s="9"/>
+      <c r="CR69" s="9"/>
+      <c r="CS69" s="9"/>
+      <c r="CT69" s="9"/>
       <c r="CU69" s="9"/>
       <c r="CV69" s="9"/>
       <c r="CW69" s="9"/>
@@ -34219,204 +34104,162 @@
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP70" s="23"/>
-      <c r="CQ70" s="23"/>
-      <c r="CR70" s="23"/>
-      <c r="CS70" s="23"/>
-      <c r="CT70" s="23"/>
     </row>
     <row r="71" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CP71" s="23"/>
-      <c r="CQ71" s="23"/>
-      <c r="CR71" s="23"/>
-      <c r="CS71" s="23"/>
-      <c r="CT71" s="23"/>
     </row>
     <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="CP72" s="23"/>
-      <c r="CQ72" s="23"/>
-      <c r="CR72" s="23"/>
-      <c r="CS72" s="23"/>
-      <c r="CT72" s="23"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP73" s="23"/>
-      <c r="CQ73" s="23"/>
-      <c r="CR73" s="23"/>
-      <c r="CS73" s="23"/>
-      <c r="CT73" s="23"/>
-    </row>
+    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="CP74" s="23"/>
-      <c r="CQ74" s="23"/>
-      <c r="CR74" s="23"/>
-      <c r="CS74" s="23"/>
-      <c r="CT74" s="23"/>
     </row>
     <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CP75" s="23"/>
-      <c r="CQ75" s="23"/>
-      <c r="CR75" s="23"/>
-      <c r="CS75" s="23"/>
-      <c r="CT75" s="23"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CP76" s="23"/>
-      <c r="CQ76" s="23"/>
-      <c r="CR76" s="23"/>
-      <c r="CS76" s="23"/>
-      <c r="CT76" s="23"/>
     </row>
-    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP77" s="23"/>
-      <c r="CQ77" s="23"/>
-      <c r="CR77" s="23"/>
-      <c r="CS77" s="23"/>
-      <c r="CT77" s="23"/>
-    </row>
+    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="34" t="s">
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="34" t="s">
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="34" t="s">
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="34" t="s">
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="35"/>
-      <c r="T78" s="35"/>
-      <c r="U78" s="35"/>
-      <c r="V78" s="34" t="s">
+      <c r="S78" s="24"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="W78" s="35"/>
-      <c r="X78" s="35"/>
-      <c r="Y78" s="35"/>
-      <c r="Z78" s="34" t="s">
+      <c r="W78" s="24"/>
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA78" s="35"/>
-      <c r="AB78" s="35"/>
-      <c r="AC78" s="35"/>
-      <c r="AD78" s="34" t="s">
+      <c r="AA78" s="24"/>
+      <c r="AB78" s="24"/>
+      <c r="AC78" s="24"/>
+      <c r="AD78" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="35"/>
-      <c r="AF78" s="35"/>
-      <c r="AG78" s="35"/>
-      <c r="AH78" s="34" t="s">
+      <c r="AE78" s="24"/>
+      <c r="AF78" s="24"/>
+      <c r="AG78" s="24"/>
+      <c r="AH78" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AI78" s="35"/>
-      <c r="AJ78" s="35"/>
-      <c r="AK78" s="35"/>
-      <c r="AL78" s="34" t="s">
+      <c r="AI78" s="24"/>
+      <c r="AJ78" s="24"/>
+      <c r="AK78" s="24"/>
+      <c r="AL78" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AM78" s="35"/>
-      <c r="AN78" s="35"/>
-      <c r="AO78" s="35"/>
-      <c r="AP78" s="34" t="s">
+      <c r="AM78" s="24"/>
+      <c r="AN78" s="24"/>
+      <c r="AO78" s="24"/>
+      <c r="AP78" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AQ78" s="35"/>
-      <c r="AR78" s="35"/>
-      <c r="AS78" s="35"/>
-      <c r="AT78" s="34" t="s">
+      <c r="AQ78" s="24"/>
+      <c r="AR78" s="24"/>
+      <c r="AS78" s="24"/>
+      <c r="AT78" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AU78" s="35"/>
-      <c r="AV78" s="35"/>
-      <c r="AW78" s="35"/>
-      <c r="AX78" s="34" t="s">
+      <c r="AU78" s="24"/>
+      <c r="AV78" s="24"/>
+      <c r="AW78" s="24"/>
+      <c r="AX78" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AY78" s="35"/>
-      <c r="AZ78" s="35"/>
-      <c r="BA78" s="35"/>
-      <c r="BB78" s="34" t="s">
+      <c r="AY78" s="24"/>
+      <c r="AZ78" s="24"/>
+      <c r="BA78" s="24"/>
+      <c r="BB78" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BC78" s="35"/>
-      <c r="BD78" s="35"/>
-      <c r="BE78" s="35"/>
-      <c r="BF78" s="34" t="s">
+      <c r="BC78" s="24"/>
+      <c r="BD78" s="24"/>
+      <c r="BE78" s="24"/>
+      <c r="BF78" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="BG78" s="35"/>
-      <c r="BH78" s="35"/>
-      <c r="BI78" s="35"/>
-      <c r="BJ78" s="34" t="s">
+      <c r="BG78" s="24"/>
+      <c r="BH78" s="24"/>
+      <c r="BI78" s="24"/>
+      <c r="BJ78" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="BK78" s="35"/>
-      <c r="BL78" s="35"/>
-      <c r="BM78" s="35"/>
-      <c r="BN78" s="34" t="s">
+      <c r="BK78" s="24"/>
+      <c r="BL78" s="24"/>
+      <c r="BM78" s="24"/>
+      <c r="BN78" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="BO78" s="35"/>
-      <c r="BP78" s="35"/>
-      <c r="BQ78" s="35"/>
-      <c r="BR78" s="34" t="s">
+      <c r="BO78" s="24"/>
+      <c r="BP78" s="24"/>
+      <c r="BQ78" s="24"/>
+      <c r="BR78" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="BS78" s="35"/>
-      <c r="BT78" s="35"/>
-      <c r="BU78" s="35"/>
-      <c r="BV78" s="34" t="s">
+      <c r="BS78" s="24"/>
+      <c r="BT78" s="24"/>
+      <c r="BU78" s="24"/>
+      <c r="BV78" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="BW78" s="35"/>
-      <c r="BX78" s="35"/>
-      <c r="BY78" s="35"/>
-      <c r="BZ78" s="34" t="s">
+      <c r="BW78" s="24"/>
+      <c r="BX78" s="24"/>
+      <c r="BY78" s="24"/>
+      <c r="BZ78" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="CA78" s="35"/>
-      <c r="CB78" s="35"/>
-      <c r="CC78" s="35"/>
-      <c r="CD78" s="34" t="s">
+      <c r="CA78" s="24"/>
+      <c r="CB78" s="24"/>
+      <c r="CC78" s="24"/>
+      <c r="CD78" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="CE78" s="34"/>
-      <c r="CF78" s="34"/>
-      <c r="CG78" s="34"/>
+      <c r="CE78" s="23"/>
+      <c r="CF78" s="23"/>
+      <c r="CG78" s="23"/>
       <c r="CH78" s="21" t="s">
         <v>53</v>
       </c>
@@ -34429,13 +34272,14 @@
       <c r="CM78" s="21"/>
       <c r="CN78" s="21"/>
       <c r="CO78" s="21"/>
-      <c r="CP78" s="24" t="s">
+      <c r="CP78" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="CQ78" s="22"/>
+      <c r="CQ78" s="21"/>
       <c r="CR78" s="22"/>
       <c r="CS78" s="22"/>
-      <c r="CT78" s="22"/>
+      <c r="CT78" s="21"/>
+      <c r="CU78" s="22"/>
     </row>
     <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
@@ -34717,21 +34561,19 @@
       <c r="CO79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP79" s="30" t="s">
+      <c r="CP79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ79" s="30"/>
-      <c r="CR79" s="30"/>
-      <c r="CS79" s="30"/>
-      <c r="CT79" s="30"/>
+      <c r="CQ79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR79" s="5"/>
+      <c r="CS79" s="5"/>
+      <c r="CT79" s="5"/>
+      <c r="CU79" s="5"/>
     </row>
     <row r="80" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
-      <c r="CP80" s="23"/>
-      <c r="CQ80" s="23"/>
-      <c r="CR80" s="23"/>
-      <c r="CS80" s="23"/>
-      <c r="CT80" s="23"/>
     </row>
     <row r="81" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -35013,14 +34855,16 @@
       <c r="CO81" s="15">
         <v>92.873760379849415</v>
       </c>
-      <c r="CP81" s="31">
+      <c r="CP81" s="15">
         <v>-13.123230247193803</v>
       </c>
-      <c r="CQ81" s="31"/>
-      <c r="CR81" s="31"/>
-      <c r="CS81" s="31"/>
-      <c r="CT81" s="31"/>
-      <c r="CU81" s="9"/>
+      <c r="CQ81" s="15">
+        <v>76.230720486091798</v>
+      </c>
+      <c r="CR81" s="15"/>
+      <c r="CS81" s="15"/>
+      <c r="CT81" s="15"/>
+      <c r="CU81" s="15"/>
       <c r="CV81" s="9"/>
       <c r="CW81" s="9"/>
       <c r="CX81" s="9"/>
@@ -35352,14 +35196,16 @@
       <c r="CO82" s="15">
         <v>-25.874397678613008</v>
       </c>
-      <c r="CP82" s="31">
+      <c r="CP82" s="15">
         <v>3.0761252136109647</v>
       </c>
-      <c r="CQ82" s="31"/>
-      <c r="CR82" s="31"/>
-      <c r="CS82" s="31"/>
-      <c r="CT82" s="31"/>
-      <c r="CU82" s="9"/>
+      <c r="CQ82" s="15">
+        <v>-10.365276130208201</v>
+      </c>
+      <c r="CR82" s="15"/>
+      <c r="CS82" s="15"/>
+      <c r="CT82" s="15"/>
+      <c r="CU82" s="15"/>
       <c r="CV82" s="9"/>
       <c r="CW82" s="9"/>
       <c r="CX82" s="9"/>
@@ -35691,14 +35537,16 @@
       <c r="CO83" s="15">
         <v>9.6887724231272188</v>
       </c>
-      <c r="CP83" s="31">
-        <v>-2.5114888990185591</v>
-      </c>
-      <c r="CQ83" s="31"/>
-      <c r="CR83" s="31"/>
-      <c r="CS83" s="31"/>
-      <c r="CT83" s="31"/>
-      <c r="CU83" s="9"/>
+      <c r="CP83" s="15">
+        <v>-1.9557021819451279</v>
+      </c>
+      <c r="CQ83" s="15">
+        <v>-7.3264936041510822</v>
+      </c>
+      <c r="CR83" s="15"/>
+      <c r="CS83" s="15"/>
+      <c r="CT83" s="15"/>
+      <c r="CU83" s="15"/>
       <c r="CV83" s="9"/>
       <c r="CW83" s="9"/>
       <c r="CX83" s="9"/>
@@ -36030,14 +35878,16 @@
       <c r="CO84" s="15">
         <v>6.9120335398334021</v>
       </c>
-      <c r="CP84" s="31">
-        <v>6.3481637620218976</v>
-      </c>
-      <c r="CQ84" s="31"/>
-      <c r="CR84" s="31"/>
-      <c r="CS84" s="31"/>
-      <c r="CT84" s="31"/>
-      <c r="CU84" s="9"/>
+      <c r="CP84" s="15">
+        <v>6.3734928956499743</v>
+      </c>
+      <c r="CQ84" s="15">
+        <v>-11.527144470924682</v>
+      </c>
+      <c r="CR84" s="15"/>
+      <c r="CS84" s="15"/>
+      <c r="CT84" s="15"/>
+      <c r="CU84" s="15"/>
       <c r="CV84" s="9"/>
       <c r="CW84" s="9"/>
       <c r="CX84" s="9"/>
@@ -36369,14 +36219,16 @@
       <c r="CO85" s="15">
         <v>4.6995140419210202</v>
       </c>
-      <c r="CP85" s="31">
+      <c r="CP85" s="15">
         <v>0.55350290128286872</v>
       </c>
-      <c r="CQ85" s="31"/>
-      <c r="CR85" s="31"/>
-      <c r="CS85" s="31"/>
-      <c r="CT85" s="31"/>
-      <c r="CU85" s="9"/>
+      <c r="CQ85" s="15">
+        <v>3.0794039555444073</v>
+      </c>
+      <c r="CR85" s="15"/>
+      <c r="CS85" s="15"/>
+      <c r="CT85" s="15"/>
+      <c r="CU85" s="15"/>
       <c r="CV85" s="9"/>
       <c r="CW85" s="9"/>
       <c r="CX85" s="9"/>
@@ -36708,14 +36560,16 @@
       <c r="CO86" s="15">
         <v>6.9887211682223978</v>
       </c>
-      <c r="CP86" s="31">
-        <v>8.2325136741220319</v>
-      </c>
-      <c r="CQ86" s="31"/>
-      <c r="CR86" s="31"/>
-      <c r="CS86" s="31"/>
-      <c r="CT86" s="31"/>
-      <c r="CU86" s="9"/>
+      <c r="CP86" s="15">
+        <v>8.3420939820657054</v>
+      </c>
+      <c r="CQ86" s="15">
+        <v>3.6467616928472779</v>
+      </c>
+      <c r="CR86" s="15"/>
+      <c r="CS86" s="15"/>
+      <c r="CT86" s="15"/>
+      <c r="CU86" s="15"/>
       <c r="CV86" s="9"/>
       <c r="CW86" s="9"/>
       <c r="CX86" s="9"/>
@@ -36860,11 +36714,11 @@
       <c r="CM87" s="9"/>
       <c r="CN87" s="9"/>
       <c r="CO87" s="9"/>
-      <c r="CP87" s="27"/>
-      <c r="CQ87" s="27"/>
-      <c r="CR87" s="27"/>
-      <c r="CS87" s="27"/>
-      <c r="CT87" s="27"/>
+      <c r="CP87" s="9"/>
+      <c r="CQ87" s="9"/>
+      <c r="CR87" s="9"/>
+      <c r="CS87" s="9"/>
+      <c r="CT87" s="9"/>
       <c r="CU87" s="9"/>
       <c r="CV87" s="9"/>
       <c r="CW87" s="9"/>
@@ -37197,14 +37051,16 @@
       <c r="CO88" s="15">
         <v>10.284235324386984</v>
       </c>
-      <c r="CP88" s="31">
-        <v>0.26643958526946676</v>
-      </c>
-      <c r="CQ88" s="31"/>
-      <c r="CR88" s="31"/>
-      <c r="CS88" s="31"/>
-      <c r="CT88" s="31"/>
-      <c r="CU88" s="9"/>
+      <c r="CP88" s="15">
+        <v>0.38626976704412641</v>
+      </c>
+      <c r="CQ88" s="15">
+        <v>4.8075612090685951</v>
+      </c>
+      <c r="CR88" s="15"/>
+      <c r="CS88" s="15"/>
+      <c r="CT88" s="15"/>
+      <c r="CU88" s="15"/>
       <c r="CV88" s="9"/>
       <c r="CW88" s="9"/>
       <c r="CX88" s="9"/>
@@ -37350,21 +37206,17 @@
       <c r="CM89" s="13"/>
       <c r="CN89" s="13"/>
       <c r="CO89" s="13"/>
-      <c r="CP89" s="29"/>
-      <c r="CQ89" s="29"/>
-      <c r="CR89" s="29"/>
-      <c r="CS89" s="29"/>
-      <c r="CT89" s="29"/>
+      <c r="CP89" s="13"/>
+      <c r="CQ89" s="13"/>
+      <c r="CR89" s="13"/>
+      <c r="CS89" s="13"/>
+      <c r="CT89" s="13"/>
+      <c r="CU89" s="13"/>
     </row>
     <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="CP90" s="23"/>
-      <c r="CQ90" s="23"/>
-      <c r="CR90" s="23"/>
-      <c r="CS90" s="23"/>
-      <c r="CT90" s="23"/>
     </row>
     <row r="91" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
@@ -37462,11 +37314,11 @@
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
-      <c r="CP91" s="27"/>
-      <c r="CQ91" s="27"/>
-      <c r="CR91" s="27"/>
-      <c r="CS91" s="27"/>
-      <c r="CT91" s="27"/>
+      <c r="CP91" s="9"/>
+      <c r="CQ91" s="9"/>
+      <c r="CR91" s="9"/>
+      <c r="CS91" s="9"/>
+      <c r="CT91" s="9"/>
       <c r="CU91" s="9"/>
       <c r="CV91" s="9"/>
       <c r="CW91" s="9"/>
@@ -37612,11 +37464,11 @@
       <c r="CM92" s="9"/>
       <c r="CN92" s="9"/>
       <c r="CO92" s="9"/>
-      <c r="CP92" s="27"/>
-      <c r="CQ92" s="27"/>
-      <c r="CR92" s="27"/>
-      <c r="CS92" s="27"/>
-      <c r="CT92" s="27"/>
+      <c r="CP92" s="9"/>
+      <c r="CQ92" s="9"/>
+      <c r="CR92" s="9"/>
+      <c r="CS92" s="9"/>
+      <c r="CT92" s="9"/>
       <c r="CU92" s="9"/>
       <c r="CV92" s="9"/>
       <c r="CW92" s="9"/>
@@ -37678,194 +37530,157 @@
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP93" s="23"/>
-      <c r="CQ93" s="23"/>
-      <c r="CR93" s="23"/>
-      <c r="CS93" s="23"/>
-      <c r="CT93" s="23"/>
     </row>
     <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="CP94" s="23"/>
-      <c r="CQ94" s="23"/>
-      <c r="CR94" s="23"/>
-      <c r="CS94" s="23"/>
-      <c r="CT94" s="23"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP95" s="23"/>
-      <c r="CQ95" s="23"/>
-      <c r="CR95" s="23"/>
-      <c r="CS95" s="23"/>
-      <c r="CT95" s="23"/>
-    </row>
+    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="96" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="CP96" s="23"/>
-      <c r="CQ96" s="23"/>
-      <c r="CR96" s="23"/>
-      <c r="CS96" s="23"/>
-      <c r="CT96" s="23"/>
     </row>
     <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CP97" s="23"/>
-      <c r="CQ97" s="23"/>
-      <c r="CR97" s="23"/>
-      <c r="CS97" s="23"/>
-      <c r="CT97" s="23"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CP98" s="23"/>
-      <c r="CQ98" s="23"/>
-      <c r="CR98" s="23"/>
-      <c r="CS98" s="23"/>
-      <c r="CT98" s="23"/>
     </row>
-    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP99" s="23"/>
-      <c r="CQ99" s="23"/>
-      <c r="CR99" s="23"/>
-      <c r="CS99" s="23"/>
-      <c r="CT99" s="23"/>
-    </row>
+    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
-      <c r="B100" s="34">
+      <c r="B100" s="23">
         <v>2000</v>
       </c>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34">
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23">
         <v>2001</v>
       </c>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34">
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23">
         <v>2002</v>
       </c>
-      <c r="K100" s="34"/>
-      <c r="L100" s="34"/>
-      <c r="M100" s="34"/>
-      <c r="N100" s="34">
+      <c r="K100" s="23"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23">
         <v>2003</v>
       </c>
-      <c r="O100" s="34"/>
-      <c r="P100" s="34"/>
-      <c r="Q100" s="34"/>
-      <c r="R100" s="34">
+      <c r="O100" s="23"/>
+      <c r="P100" s="23"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="23">
         <v>2004</v>
       </c>
-      <c r="S100" s="34"/>
-      <c r="T100" s="34"/>
-      <c r="U100" s="34"/>
-      <c r="V100" s="34">
+      <c r="S100" s="23"/>
+      <c r="T100" s="23"/>
+      <c r="U100" s="23"/>
+      <c r="V100" s="23">
         <v>2005</v>
       </c>
-      <c r="W100" s="34"/>
-      <c r="X100" s="34"/>
-      <c r="Y100" s="34"/>
-      <c r="Z100" s="34">
+      <c r="W100" s="23"/>
+      <c r="X100" s="23"/>
+      <c r="Y100" s="23"/>
+      <c r="Z100" s="23">
         <v>2006</v>
       </c>
-      <c r="AA100" s="34"/>
-      <c r="AB100" s="34"/>
-      <c r="AC100" s="34"/>
-      <c r="AD100" s="34">
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="23"/>
+      <c r="AC100" s="23"/>
+      <c r="AD100" s="23">
         <v>2007</v>
       </c>
-      <c r="AE100" s="34"/>
-      <c r="AF100" s="34"/>
-      <c r="AG100" s="34"/>
-      <c r="AH100" s="34">
+      <c r="AE100" s="23"/>
+      <c r="AF100" s="23"/>
+      <c r="AG100" s="23"/>
+      <c r="AH100" s="23">
         <v>2008</v>
       </c>
-      <c r="AI100" s="34"/>
-      <c r="AJ100" s="34"/>
-      <c r="AK100" s="34"/>
-      <c r="AL100" s="34">
+      <c r="AI100" s="23"/>
+      <c r="AJ100" s="23"/>
+      <c r="AK100" s="23"/>
+      <c r="AL100" s="23">
         <v>2009</v>
       </c>
-      <c r="AM100" s="34"/>
-      <c r="AN100" s="34"/>
-      <c r="AO100" s="34"/>
-      <c r="AP100" s="34">
+      <c r="AM100" s="23"/>
+      <c r="AN100" s="23"/>
+      <c r="AO100" s="23"/>
+      <c r="AP100" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ100" s="34"/>
-      <c r="AR100" s="34"/>
-      <c r="AS100" s="34"/>
-      <c r="AT100" s="34">
+      <c r="AQ100" s="23"/>
+      <c r="AR100" s="23"/>
+      <c r="AS100" s="23"/>
+      <c r="AT100" s="23">
         <v>2011</v>
       </c>
-      <c r="AU100" s="34"/>
-      <c r="AV100" s="34"/>
-      <c r="AW100" s="34"/>
-      <c r="AX100" s="34">
+      <c r="AU100" s="23"/>
+      <c r="AV100" s="23"/>
+      <c r="AW100" s="23"/>
+      <c r="AX100" s="23">
         <v>2012</v>
       </c>
-      <c r="AY100" s="34"/>
-      <c r="AZ100" s="34"/>
-      <c r="BA100" s="34"/>
-      <c r="BB100" s="34">
+      <c r="AY100" s="23"/>
+      <c r="AZ100" s="23"/>
+      <c r="BA100" s="23"/>
+      <c r="BB100" s="23">
         <v>2013</v>
       </c>
-      <c r="BC100" s="34"/>
-      <c r="BD100" s="34"/>
-      <c r="BE100" s="34"/>
-      <c r="BF100" s="34">
+      <c r="BC100" s="23"/>
+      <c r="BD100" s="23"/>
+      <c r="BE100" s="23"/>
+      <c r="BF100" s="23">
         <v>2014</v>
       </c>
-      <c r="BG100" s="34"/>
-      <c r="BH100" s="34"/>
-      <c r="BI100" s="34"/>
-      <c r="BJ100" s="34">
+      <c r="BG100" s="23"/>
+      <c r="BH100" s="23"/>
+      <c r="BI100" s="23"/>
+      <c r="BJ100" s="23">
         <v>2015</v>
       </c>
-      <c r="BK100" s="34"/>
-      <c r="BL100" s="34"/>
-      <c r="BM100" s="34"/>
-      <c r="BN100" s="34">
+      <c r="BK100" s="23"/>
+      <c r="BL100" s="23"/>
+      <c r="BM100" s="23"/>
+      <c r="BN100" s="23">
         <v>2016</v>
       </c>
-      <c r="BO100" s="34"/>
-      <c r="BP100" s="34"/>
-      <c r="BQ100" s="34"/>
-      <c r="BR100" s="34">
+      <c r="BO100" s="23"/>
+      <c r="BP100" s="23"/>
+      <c r="BQ100" s="23"/>
+      <c r="BR100" s="23">
         <v>2017</v>
       </c>
-      <c r="BS100" s="34"/>
-      <c r="BT100" s="34"/>
-      <c r="BU100" s="34"/>
-      <c r="BV100" s="34">
+      <c r="BS100" s="23"/>
+      <c r="BT100" s="23"/>
+      <c r="BU100" s="23"/>
+      <c r="BV100" s="23">
         <v>2018</v>
       </c>
-      <c r="BW100" s="34"/>
-      <c r="BX100" s="34"/>
-      <c r="BY100" s="34"/>
-      <c r="BZ100" s="34">
+      <c r="BW100" s="23"/>
+      <c r="BX100" s="23"/>
+      <c r="BY100" s="23"/>
+      <c r="BZ100" s="23">
         <v>2019</v>
       </c>
-      <c r="CA100" s="34"/>
-      <c r="CB100" s="34"/>
-      <c r="CC100" s="34"/>
-      <c r="CD100" s="34">
+      <c r="CA100" s="23"/>
+      <c r="CB100" s="23"/>
+      <c r="CC100" s="23"/>
+      <c r="CD100" s="23">
         <v>2020</v>
       </c>
-      <c r="CE100" s="34"/>
-      <c r="CF100" s="34"/>
-      <c r="CG100" s="34"/>
+      <c r="CE100" s="23"/>
+      <c r="CF100" s="23"/>
+      <c r="CG100" s="23"/>
       <c r="CH100" s="21">
         <v>2021</v>
       </c>
@@ -37878,15 +37693,16 @@
       <c r="CM100" s="21"/>
       <c r="CN100" s="21"/>
       <c r="CO100" s="21"/>
-      <c r="CP100" s="24">
+      <c r="CP100" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ100" s="24"/>
-      <c r="CR100" s="24"/>
-      <c r="CS100" s="24"/>
-      <c r="CT100" s="24">
+      <c r="CQ100" s="21"/>
+      <c r="CR100" s="21"/>
+      <c r="CS100" s="21"/>
+      <c r="CT100" s="21">
         <v>2024</v>
       </c>
+      <c r="CU100" s="21"/>
     </row>
     <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
@@ -38168,29 +37984,27 @@
       <c r="CO101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP101" s="25" t="s">
+      <c r="CP101" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ101" s="25" t="s">
+      <c r="CQ101" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR101" s="25" t="s">
+      <c r="CR101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS101" s="25" t="s">
+      <c r="CS101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT101" s="25" t="s">
+      <c r="CT101" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU101" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
-      <c r="CP102" s="23"/>
-      <c r="CQ102" s="23"/>
-      <c r="CR102" s="23"/>
-      <c r="CS102" s="23"/>
-      <c r="CT102" s="23"/>
     </row>
     <row r="103" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -38472,22 +38286,24 @@
       <c r="CO103" s="15">
         <v>247.1704890403808</v>
       </c>
-      <c r="CP103" s="31">
+      <c r="CP103" s="15">
         <v>159.64734819240488</v>
       </c>
-      <c r="CQ103" s="31">
+      <c r="CQ103" s="15">
         <v>121.19514041033848</v>
       </c>
-      <c r="CR103" s="31">
+      <c r="CR103" s="15">
         <v>297.23105309337654</v>
       </c>
-      <c r="CS103" s="31">
+      <c r="CS103" s="15">
         <v>108.40795030817407</v>
       </c>
-      <c r="CT103" s="31">
+      <c r="CT103" s="15">
         <v>97.399614959624031</v>
       </c>
-      <c r="CU103" s="9"/>
+      <c r="CU103" s="15">
+        <v>110.49417642260968</v>
+      </c>
       <c r="CV103" s="9"/>
       <c r="CW103" s="9"/>
       <c r="CX103" s="9"/>
@@ -38824,22 +38640,24 @@
       <c r="CO104" s="15">
         <v>285.6187188187817</v>
       </c>
-      <c r="CP104" s="31">
+      <c r="CP104" s="15">
         <v>154.32125894314882</v>
       </c>
-      <c r="CQ104" s="31">
+      <c r="CQ104" s="15">
         <v>55.583712237511342</v>
       </c>
-      <c r="CR104" s="31">
+      <c r="CR104" s="15">
         <v>185.2692550108049</v>
       </c>
-      <c r="CS104" s="31">
+      <c r="CS104" s="15">
         <v>202.20114498765241</v>
       </c>
-      <c r="CT104" s="31">
+      <c r="CT104" s="15">
         <v>145.77163275141689</v>
       </c>
-      <c r="CU104" s="9"/>
+      <c r="CU104" s="15">
+        <v>59.696269270898547</v>
+      </c>
       <c r="CV104" s="9"/>
       <c r="CW104" s="9"/>
       <c r="CX104" s="9"/>
@@ -39176,22 +38994,24 @@
       <c r="CO105" s="15">
         <v>153.05783845230368</v>
       </c>
-      <c r="CP105" s="31">
+      <c r="CP105" s="15">
         <v>184.00604362019993</v>
       </c>
-      <c r="CQ105" s="31">
+      <c r="CQ105" s="15">
         <v>181.94480069660065</v>
       </c>
-      <c r="CR105" s="31">
+      <c r="CR105" s="15">
         <v>190.8946984230239</v>
       </c>
-      <c r="CS105" s="31">
+      <c r="CS105" s="15">
         <v>170.88128109160448</v>
       </c>
-      <c r="CT105" s="31">
-        <v>200.38614335521007</v>
-      </c>
-      <c r="CU105" s="9"/>
+      <c r="CT105" s="15">
+        <v>200.38445964687597</v>
+      </c>
+      <c r="CU105" s="15">
+        <v>223.29696390989588</v>
+      </c>
       <c r="CV105" s="9"/>
       <c r="CW105" s="9"/>
       <c r="CX105" s="9"/>
@@ -39528,22 +39348,24 @@
       <c r="CO106" s="15">
         <v>250.15434461000839</v>
       </c>
-      <c r="CP106" s="31">
+      <c r="CP106" s="15">
         <v>299.56913015963897</v>
       </c>
-      <c r="CQ106" s="31">
+      <c r="CQ106" s="15">
         <v>171.66658758744097</v>
       </c>
-      <c r="CR106" s="31">
+      <c r="CR106" s="15">
         <v>146.76527638755769</v>
       </c>
-      <c r="CS106" s="31">
+      <c r="CS106" s="15">
         <v>194.07565562438697</v>
       </c>
-      <c r="CT106" s="31">
+      <c r="CT106" s="15">
         <v>207.98423288635672</v>
       </c>
-      <c r="CU106" s="9"/>
+      <c r="CU106" s="15">
+        <v>146.8588707967983</v>
+      </c>
       <c r="CV106" s="9"/>
       <c r="CW106" s="9"/>
       <c r="CX106" s="9"/>
@@ -39880,22 +39702,24 @@
       <c r="CO107" s="15">
         <v>338.46074848278317</v>
       </c>
-      <c r="CP107" s="31">
+      <c r="CP107" s="15">
         <v>54.09510158902782</v>
       </c>
-      <c r="CQ107" s="31">
+      <c r="CQ107" s="15">
         <v>256.92541954314146</v>
       </c>
-      <c r="CR107" s="31">
+      <c r="CR107" s="15">
         <v>210.88772582479916</v>
       </c>
-      <c r="CS107" s="31">
+      <c r="CS107" s="15">
         <v>336.91235962726074</v>
       </c>
-      <c r="CT107" s="31">
+      <c r="CT107" s="15">
         <v>52.107970054473306</v>
       </c>
-      <c r="CU107" s="9"/>
+      <c r="CU107" s="15">
+        <v>307.13500905457761</v>
+      </c>
       <c r="CV107" s="9"/>
       <c r="CW107" s="9"/>
       <c r="CX107" s="9"/>
@@ -40232,22 +40056,24 @@
       <c r="CO108" s="15">
         <v>91.617520697276063</v>
       </c>
-      <c r="CP108" s="31">
+      <c r="CP108" s="15">
         <v>121.30080801382188</v>
       </c>
-      <c r="CQ108" s="31">
+      <c r="CQ108" s="15">
         <v>125.41004865596572</v>
       </c>
-      <c r="CR108" s="31">
+      <c r="CR108" s="15">
         <v>149.8821367636256</v>
       </c>
-      <c r="CS108" s="31">
+      <c r="CS108" s="15">
         <v>92.353568620753393</v>
       </c>
-      <c r="CT108" s="31">
-        <v>122.88974387348497</v>
-      </c>
-      <c r="CU108" s="9"/>
+      <c r="CT108" s="15">
+        <v>122.88974387348495</v>
+      </c>
+      <c r="CU108" s="15">
+        <v>125.29932760064845</v>
+      </c>
       <c r="CV108" s="9"/>
       <c r="CW108" s="9"/>
       <c r="CX108" s="9"/>
@@ -40397,11 +40223,11 @@
       <c r="CM109" s="9"/>
       <c r="CN109" s="9"/>
       <c r="CO109" s="9"/>
-      <c r="CP109" s="27"/>
-      <c r="CQ109" s="27"/>
-      <c r="CR109" s="27"/>
-      <c r="CS109" s="27"/>
-      <c r="CT109" s="27"/>
+      <c r="CP109" s="9"/>
+      <c r="CQ109" s="9"/>
+      <c r="CR109" s="9"/>
+      <c r="CS109" s="9"/>
+      <c r="CT109" s="9"/>
       <c r="CU109" s="9"/>
       <c r="CV109" s="9"/>
       <c r="CW109" s="9"/>
@@ -40739,22 +40565,24 @@
       <c r="CO110" s="15">
         <v>161.80141718609161</v>
       </c>
-      <c r="CP110" s="31">
+      <c r="CP110" s="15">
         <v>156.63139543047023</v>
       </c>
-      <c r="CQ110" s="31">
+      <c r="CQ110" s="15">
         <v>134.47153848139814</v>
       </c>
-      <c r="CR110" s="31">
+      <c r="CR110" s="15">
         <v>178.50955686027763</v>
       </c>
-      <c r="CS110" s="31">
+      <c r="CS110" s="15">
         <v>134.89113952288741</v>
       </c>
-      <c r="CT110" s="31">
-        <v>134.61773134524054</v>
-      </c>
-      <c r="CU110" s="9"/>
+      <c r="CT110" s="15">
+        <v>134.66972195087965</v>
+      </c>
+      <c r="CU110" s="15">
+        <v>136.38338671120556</v>
+      </c>
       <c r="CV110" s="9"/>
       <c r="CW110" s="9"/>
       <c r="CX110" s="9"/>
@@ -40905,224 +40733,178 @@
       <c r="CM111" s="13"/>
       <c r="CN111" s="13"/>
       <c r="CO111" s="13"/>
-      <c r="CP111" s="29"/>
-      <c r="CQ111" s="29"/>
-      <c r="CR111" s="29"/>
-      <c r="CS111" s="29"/>
-      <c r="CT111" s="29"/>
+      <c r="CP111" s="13"/>
+      <c r="CQ111" s="13"/>
+      <c r="CR111" s="13"/>
+      <c r="CS111" s="13"/>
+      <c r="CT111" s="13"/>
+      <c r="CU111" s="13"/>
     </row>
     <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="CP112" s="23"/>
-      <c r="CQ112" s="23"/>
-      <c r="CR112" s="23"/>
-      <c r="CS112" s="23"/>
-      <c r="CT112" s="23"/>
     </row>
     <row r="115" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP115" s="23"/>
-      <c r="CQ115" s="23"/>
-      <c r="CR115" s="23"/>
-      <c r="CS115" s="23"/>
-      <c r="CT115" s="23"/>
     </row>
     <row r="116" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CP116" s="23"/>
-      <c r="CQ116" s="23"/>
-      <c r="CR116" s="23"/>
-      <c r="CS116" s="23"/>
-      <c r="CT116" s="23"/>
     </row>
     <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="CP117" s="23"/>
-      <c r="CQ117" s="23"/>
-      <c r="CR117" s="23"/>
-      <c r="CS117" s="23"/>
-      <c r="CT117" s="23"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP118" s="23"/>
-      <c r="CQ118" s="23"/>
-      <c r="CR118" s="23"/>
-      <c r="CS118" s="23"/>
-      <c r="CT118" s="23"/>
-    </row>
+    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="119" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CP119" s="23"/>
-      <c r="CQ119" s="23"/>
-      <c r="CR119" s="23"/>
-      <c r="CS119" s="23"/>
-      <c r="CT119" s="23"/>
     </row>
     <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CP120" s="23"/>
-      <c r="CQ120" s="23"/>
-      <c r="CR120" s="23"/>
-      <c r="CS120" s="23"/>
-      <c r="CT120" s="23"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="CP121" s="23"/>
-      <c r="CQ121" s="23"/>
-      <c r="CR121" s="23"/>
-      <c r="CS121" s="23"/>
-      <c r="CT121" s="23"/>
     </row>
-    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP122" s="23"/>
-      <c r="CQ122" s="23"/>
-      <c r="CR122" s="23"/>
-      <c r="CS122" s="23"/>
-      <c r="CT122" s="23"/>
-    </row>
+    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
-      <c r="B123" s="34">
+      <c r="B123" s="23">
         <v>2000</v>
       </c>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="34">
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23">
         <v>2001</v>
       </c>
-      <c r="G123" s="34"/>
-      <c r="H123" s="34"/>
-      <c r="I123" s="34"/>
-      <c r="J123" s="34">
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="23">
         <v>2002</v>
       </c>
-      <c r="K123" s="34"/>
-      <c r="L123" s="34"/>
-      <c r="M123" s="34"/>
-      <c r="N123" s="34">
+      <c r="K123" s="23"/>
+      <c r="L123" s="23"/>
+      <c r="M123" s="23"/>
+      <c r="N123" s="23">
         <v>2003</v>
       </c>
-      <c r="O123" s="34"/>
-      <c r="P123" s="34"/>
-      <c r="Q123" s="34"/>
-      <c r="R123" s="34">
+      <c r="O123" s="23"/>
+      <c r="P123" s="23"/>
+      <c r="Q123" s="23"/>
+      <c r="R123" s="23">
         <v>2004</v>
       </c>
-      <c r="S123" s="34"/>
-      <c r="T123" s="34"/>
-      <c r="U123" s="34"/>
-      <c r="V123" s="34">
+      <c r="S123" s="23"/>
+      <c r="T123" s="23"/>
+      <c r="U123" s="23"/>
+      <c r="V123" s="23">
         <v>2005</v>
       </c>
-      <c r="W123" s="34"/>
-      <c r="X123" s="34"/>
-      <c r="Y123" s="34"/>
-      <c r="Z123" s="34">
+      <c r="W123" s="23"/>
+      <c r="X123" s="23"/>
+      <c r="Y123" s="23"/>
+      <c r="Z123" s="23">
         <v>2006</v>
       </c>
-      <c r="AA123" s="34"/>
-      <c r="AB123" s="34"/>
-      <c r="AC123" s="34"/>
-      <c r="AD123" s="34">
+      <c r="AA123" s="23"/>
+      <c r="AB123" s="23"/>
+      <c r="AC123" s="23"/>
+      <c r="AD123" s="23">
         <v>2007</v>
       </c>
-      <c r="AE123" s="34"/>
-      <c r="AF123" s="34"/>
-      <c r="AG123" s="34"/>
-      <c r="AH123" s="34">
+      <c r="AE123" s="23"/>
+      <c r="AF123" s="23"/>
+      <c r="AG123" s="23"/>
+      <c r="AH123" s="23">
         <v>2008</v>
       </c>
-      <c r="AI123" s="34"/>
-      <c r="AJ123" s="34"/>
-      <c r="AK123" s="34"/>
-      <c r="AL123" s="34">
+      <c r="AI123" s="23"/>
+      <c r="AJ123" s="23"/>
+      <c r="AK123" s="23"/>
+      <c r="AL123" s="23">
         <v>2009</v>
       </c>
-      <c r="AM123" s="34"/>
-      <c r="AN123" s="34"/>
-      <c r="AO123" s="34"/>
-      <c r="AP123" s="34">
+      <c r="AM123" s="23"/>
+      <c r="AN123" s="23"/>
+      <c r="AO123" s="23"/>
+      <c r="AP123" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ123" s="34"/>
-      <c r="AR123" s="34"/>
-      <c r="AS123" s="34"/>
-      <c r="AT123" s="34">
+      <c r="AQ123" s="23"/>
+      <c r="AR123" s="23"/>
+      <c r="AS123" s="23"/>
+      <c r="AT123" s="23">
         <v>2011</v>
       </c>
-      <c r="AU123" s="34"/>
-      <c r="AV123" s="34"/>
-      <c r="AW123" s="34"/>
-      <c r="AX123" s="34">
+      <c r="AU123" s="23"/>
+      <c r="AV123" s="23"/>
+      <c r="AW123" s="23"/>
+      <c r="AX123" s="23">
         <v>2012</v>
       </c>
-      <c r="AY123" s="34"/>
-      <c r="AZ123" s="34"/>
-      <c r="BA123" s="34"/>
-      <c r="BB123" s="34">
+      <c r="AY123" s="23"/>
+      <c r="AZ123" s="23"/>
+      <c r="BA123" s="23"/>
+      <c r="BB123" s="23">
         <v>2013</v>
       </c>
-      <c r="BC123" s="34"/>
-      <c r="BD123" s="34"/>
-      <c r="BE123" s="34"/>
-      <c r="BF123" s="34">
+      <c r="BC123" s="23"/>
+      <c r="BD123" s="23"/>
+      <c r="BE123" s="23"/>
+      <c r="BF123" s="23">
         <v>2014</v>
       </c>
-      <c r="BG123" s="34"/>
-      <c r="BH123" s="34"/>
-      <c r="BI123" s="34"/>
-      <c r="BJ123" s="34">
+      <c r="BG123" s="23"/>
+      <c r="BH123" s="23"/>
+      <c r="BI123" s="23"/>
+      <c r="BJ123" s="23">
         <v>2015</v>
       </c>
-      <c r="BK123" s="34"/>
-      <c r="BL123" s="34"/>
-      <c r="BM123" s="34"/>
-      <c r="BN123" s="34">
+      <c r="BK123" s="23"/>
+      <c r="BL123" s="23"/>
+      <c r="BM123" s="23"/>
+      <c r="BN123" s="23">
         <v>2016</v>
       </c>
-      <c r="BO123" s="34"/>
-      <c r="BP123" s="34"/>
-      <c r="BQ123" s="34"/>
-      <c r="BR123" s="34">
+      <c r="BO123" s="23"/>
+      <c r="BP123" s="23"/>
+      <c r="BQ123" s="23"/>
+      <c r="BR123" s="23">
         <v>2017</v>
       </c>
-      <c r="BS123" s="34"/>
-      <c r="BT123" s="34"/>
-      <c r="BU123" s="34"/>
-      <c r="BV123" s="34">
+      <c r="BS123" s="23"/>
+      <c r="BT123" s="23"/>
+      <c r="BU123" s="23"/>
+      <c r="BV123" s="23">
         <v>2018</v>
       </c>
-      <c r="BW123" s="34"/>
-      <c r="BX123" s="34"/>
-      <c r="BY123" s="34"/>
-      <c r="BZ123" s="34">
+      <c r="BW123" s="23"/>
+      <c r="BX123" s="23"/>
+      <c r="BY123" s="23"/>
+      <c r="BZ123" s="23">
         <v>2019</v>
       </c>
-      <c r="CA123" s="34"/>
-      <c r="CB123" s="34"/>
-      <c r="CC123" s="34"/>
-      <c r="CD123" s="34">
+      <c r="CA123" s="23"/>
+      <c r="CB123" s="23"/>
+      <c r="CC123" s="23"/>
+      <c r="CD123" s="23">
         <v>2020</v>
       </c>
-      <c r="CE123" s="34"/>
-      <c r="CF123" s="34"/>
-      <c r="CG123" s="34"/>
+      <c r="CE123" s="23"/>
+      <c r="CF123" s="23"/>
+      <c r="CG123" s="23"/>
       <c r="CH123" s="21">
         <v>2021</v>
       </c>
@@ -41135,15 +40917,16 @@
       <c r="CM123" s="21"/>
       <c r="CN123" s="21"/>
       <c r="CO123" s="21"/>
-      <c r="CP123" s="24">
+      <c r="CP123" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ123" s="24"/>
-      <c r="CR123" s="24"/>
-      <c r="CS123" s="24"/>
-      <c r="CT123" s="24">
+      <c r="CQ123" s="21"/>
+      <c r="CR123" s="21"/>
+      <c r="CS123" s="21"/>
+      <c r="CT123" s="21">
         <v>2024</v>
       </c>
+      <c r="CU123" s="21"/>
     </row>
     <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
@@ -41425,29 +41208,27 @@
       <c r="CO124" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP124" s="25" t="s">
+      <c r="CP124" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ124" s="25" t="s">
+      <c r="CQ124" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR124" s="25" t="s">
+      <c r="CR124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS124" s="25" t="s">
+      <c r="CS124" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT124" s="25" t="s">
+      <c r="CT124" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU124" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
-      <c r="CP125" s="23"/>
-      <c r="CQ125" s="23"/>
-      <c r="CR125" s="23"/>
-      <c r="CS125" s="23"/>
-      <c r="CT125" s="23"/>
     </row>
     <row r="126" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -41729,22 +41510,24 @@
       <c r="CO126" s="18">
         <v>13.17322662379199</v>
       </c>
-      <c r="CP126" s="33">
+      <c r="CP126" s="18">
         <v>23.448302741078095</v>
       </c>
-      <c r="CQ126" s="33">
+      <c r="CQ126" s="18">
         <v>11.99793628590181</v>
       </c>
-      <c r="CR126" s="33">
+      <c r="CR126" s="18">
         <v>15.034635942292493</v>
       </c>
-      <c r="CS126" s="33">
+      <c r="CS126" s="18">
         <v>12.120353562747955</v>
       </c>
-      <c r="CT126" s="33">
-        <v>14.422201676486226</v>
-      </c>
-      <c r="CU126" s="9"/>
+      <c r="CT126" s="18">
+        <v>14.399424834586757</v>
+      </c>
+      <c r="CU126" s="18">
+        <v>18.135045042361398</v>
+      </c>
       <c r="CV126" s="9"/>
       <c r="CW126" s="9"/>
       <c r="CX126" s="9"/>
@@ -42081,22 +41864,24 @@
       <c r="CO127" s="18">
         <v>24.452931693640853</v>
       </c>
-      <c r="CP127" s="33">
+      <c r="CP127" s="18">
         <v>8.9219731974581151</v>
       </c>
-      <c r="CQ127" s="33">
+      <c r="CQ127" s="18">
         <v>9.2249291738509385</v>
       </c>
-      <c r="CR127" s="33">
+      <c r="CR127" s="18">
         <v>10.569108529432253</v>
       </c>
-      <c r="CS127" s="33">
+      <c r="CS127" s="18">
         <v>13.956662458876714</v>
       </c>
-      <c r="CT127" s="33">
-        <v>10.080619340622162</v>
-      </c>
-      <c r="CU127" s="9"/>
+      <c r="CT127" s="18">
+        <v>10.064699117197161</v>
+      </c>
+      <c r="CU127" s="18">
+        <v>8.3543998104475801</v>
+      </c>
       <c r="CV127" s="9"/>
       <c r="CW127" s="9"/>
       <c r="CX127" s="9"/>
@@ -42433,22 +42218,24 @@
       <c r="CO128" s="18">
         <v>18.9602274480823</v>
       </c>
-      <c r="CP128" s="33">
+      <c r="CP128" s="18">
         <v>17.444586007190608</v>
       </c>
-      <c r="CQ128" s="33">
+      <c r="CQ128" s="18">
         <v>27.068989393667358</v>
       </c>
-      <c r="CR128" s="33">
+      <c r="CR128" s="18">
         <v>24.841159058767268</v>
       </c>
-      <c r="CS128" s="33">
+      <c r="CS128" s="18">
         <v>25.253995335632553</v>
       </c>
-      <c r="CT128" s="33">
-        <v>21.491694596166134</v>
-      </c>
-      <c r="CU128" s="9"/>
+      <c r="CT128" s="18">
+        <v>21.579903338118353</v>
+      </c>
+      <c r="CU128" s="18">
+        <v>28.963236683532607</v>
+      </c>
       <c r="CV128" s="9"/>
       <c r="CW128" s="9"/>
       <c r="CX128" s="9"/>
@@ -42785,22 +42572,24 @@
       <c r="CO129" s="18">
         <v>7.048105410566202</v>
       </c>
-      <c r="CP129" s="33">
+      <c r="CP129" s="18">
         <v>22.466918195175644</v>
       </c>
-      <c r="CQ129" s="33">
+      <c r="CQ129" s="18">
         <v>26.593308684257416</v>
       </c>
-      <c r="CR129" s="33">
+      <c r="CR129" s="18">
         <v>17.026475097197583</v>
       </c>
-      <c r="CS129" s="33">
+      <c r="CS129" s="18">
         <v>6.3583942738176757</v>
       </c>
-      <c r="CT129" s="33">
-        <v>19.249870406732761</v>
-      </c>
-      <c r="CU129" s="9"/>
+      <c r="CT129" s="18">
+        <v>19.224046810474601</v>
+      </c>
+      <c r="CU129" s="18">
+        <v>18.935340415672908</v>
+      </c>
       <c r="CV129" s="9"/>
       <c r="CW129" s="9"/>
       <c r="CX129" s="9"/>
@@ -43137,22 +42926,24 @@
       <c r="CO130" s="18">
         <v>8.7743379701624331</v>
       </c>
-      <c r="CP130" s="33">
+      <c r="CP130" s="18">
         <v>3.4604321000261944</v>
       </c>
-      <c r="CQ130" s="33">
+      <c r="CQ130" s="18">
         <v>6.1886065591305561</v>
       </c>
-      <c r="CR130" s="33">
+      <c r="CR130" s="18">
         <v>5.4948268598956185</v>
       </c>
-      <c r="CS130" s="33">
+      <c r="CS130" s="18">
         <v>9.9461068099431209</v>
       </c>
-      <c r="CT130" s="33">
-        <v>3.8895083368496635</v>
-      </c>
-      <c r="CU130" s="9"/>
+      <c r="CT130" s="18">
+        <v>3.8833656744155682</v>
+      </c>
+      <c r="CU130" s="18">
+        <v>7.1740319700103559</v>
+      </c>
       <c r="CV130" s="9"/>
       <c r="CW130" s="9"/>
       <c r="CX130" s="9"/>
@@ -43489,22 +43280,24 @@
       <c r="CO131" s="18">
         <v>27.591170853756218</v>
       </c>
-      <c r="CP131" s="33">
+      <c r="CP131" s="18">
         <v>24.257787759071352</v>
       </c>
-      <c r="CQ131" s="33">
+      <c r="CQ131" s="18">
         <v>18.926229903191928</v>
       </c>
-      <c r="CR131" s="33">
+      <c r="CR131" s="18">
         <v>27.033794512414786</v>
       </c>
-      <c r="CS131" s="33">
+      <c r="CS131" s="18">
         <v>32.364487558981978</v>
       </c>
-      <c r="CT131" s="33">
-        <v>30.866105643143065</v>
-      </c>
-      <c r="CU131" s="9"/>
+      <c r="CT131" s="18">
+        <v>30.84856022520756</v>
+      </c>
+      <c r="CU131" s="18">
+        <v>18.437946077975159</v>
+      </c>
       <c r="CV131" s="9"/>
       <c r="CW131" s="9"/>
       <c r="CX131" s="9"/>
@@ -43654,11 +43447,11 @@
       <c r="CM132" s="9"/>
       <c r="CN132" s="9"/>
       <c r="CO132" s="9"/>
-      <c r="CP132" s="27"/>
-      <c r="CQ132" s="27"/>
-      <c r="CR132" s="27"/>
-      <c r="CS132" s="27"/>
-      <c r="CT132" s="27"/>
+      <c r="CP132" s="9"/>
+      <c r="CQ132" s="9"/>
+      <c r="CR132" s="9"/>
+      <c r="CS132" s="9"/>
+      <c r="CT132" s="9"/>
       <c r="CU132" s="9"/>
       <c r="CV132" s="9"/>
       <c r="CW132" s="9"/>
@@ -43996,22 +43789,24 @@
       <c r="CO133" s="18">
         <v>100</v>
       </c>
-      <c r="CP133" s="33">
+      <c r="CP133" s="18">
         <v>100</v>
       </c>
-      <c r="CQ133" s="33">
+      <c r="CQ133" s="18">
         <v>100</v>
       </c>
-      <c r="CR133" s="33">
+      <c r="CR133" s="18">
         <v>100</v>
       </c>
-      <c r="CS133" s="33">
+      <c r="CS133" s="18">
         <v>100</v>
       </c>
-      <c r="CT133" s="33">
+      <c r="CT133" s="18">
         <v>100</v>
       </c>
-      <c r="CU133" s="9"/>
+      <c r="CU133" s="18">
+        <v>100</v>
+      </c>
       <c r="CV133" s="9"/>
       <c r="CW133" s="9"/>
       <c r="CX133" s="9"/>
@@ -44162,21 +43957,17 @@
       <c r="CM134" s="13"/>
       <c r="CN134" s="13"/>
       <c r="CO134" s="13"/>
-      <c r="CP134" s="29"/>
-      <c r="CQ134" s="29"/>
-      <c r="CR134" s="29"/>
-      <c r="CS134" s="29"/>
-      <c r="CT134" s="29"/>
+      <c r="CP134" s="13"/>
+      <c r="CQ134" s="13"/>
+      <c r="CR134" s="13"/>
+      <c r="CS134" s="13"/>
+      <c r="CT134" s="13"/>
+      <c r="CU134" s="13"/>
     </row>
     <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="CP135" s="23"/>
-      <c r="CQ135" s="23"/>
-      <c r="CR135" s="23"/>
-      <c r="CS135" s="23"/>
-      <c r="CT135" s="23"/>
     </row>
     <row r="136" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9"/>
@@ -44271,11 +44062,11 @@
       <c r="CM136" s="9"/>
       <c r="CN136" s="9"/>
       <c r="CO136" s="9"/>
-      <c r="CP136" s="27"/>
-      <c r="CQ136" s="27"/>
-      <c r="CR136" s="27"/>
-      <c r="CS136" s="27"/>
-      <c r="CT136" s="27"/>
+      <c r="CP136" s="9"/>
+      <c r="CQ136" s="9"/>
+      <c r="CR136" s="9"/>
+      <c r="CS136" s="9"/>
+      <c r="CT136" s="9"/>
       <c r="CU136" s="9"/>
       <c r="CV136" s="9"/>
       <c r="CW136" s="9"/>
@@ -44426,11 +44217,11 @@
       <c r="CM137" s="9"/>
       <c r="CN137" s="9"/>
       <c r="CO137" s="9"/>
-      <c r="CP137" s="27"/>
-      <c r="CQ137" s="27"/>
-      <c r="CR137" s="27"/>
-      <c r="CS137" s="27"/>
-      <c r="CT137" s="27"/>
+      <c r="CP137" s="9"/>
+      <c r="CQ137" s="9"/>
+      <c r="CR137" s="9"/>
+      <c r="CS137" s="9"/>
+      <c r="CT137" s="9"/>
       <c r="CU137" s="9"/>
       <c r="CV137" s="9"/>
       <c r="CW137" s="9"/>
@@ -44492,204 +44283,162 @@
       <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP138" s="23"/>
-      <c r="CQ138" s="23"/>
-      <c r="CR138" s="23"/>
-      <c r="CS138" s="23"/>
-      <c r="CT138" s="23"/>
     </row>
     <row r="139" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CP139" s="23"/>
-      <c r="CQ139" s="23"/>
-      <c r="CR139" s="23"/>
-      <c r="CS139" s="23"/>
-      <c r="CT139" s="23"/>
     </row>
     <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="CP140" s="23"/>
-      <c r="CQ140" s="23"/>
-      <c r="CR140" s="23"/>
-      <c r="CS140" s="23"/>
-      <c r="CT140" s="23"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP141" s="23"/>
-      <c r="CQ141" s="23"/>
-      <c r="CR141" s="23"/>
-      <c r="CS141" s="23"/>
-      <c r="CT141" s="23"/>
-    </row>
+    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="142" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CP142" s="23"/>
-      <c r="CQ142" s="23"/>
-      <c r="CR142" s="23"/>
-      <c r="CS142" s="23"/>
-      <c r="CT142" s="23"/>
     </row>
     <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CP143" s="23"/>
-      <c r="CQ143" s="23"/>
-      <c r="CR143" s="23"/>
-      <c r="CS143" s="23"/>
-      <c r="CT143" s="23"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CP144" s="23"/>
-      <c r="CQ144" s="23"/>
-      <c r="CR144" s="23"/>
-      <c r="CS144" s="23"/>
-      <c r="CT144" s="23"/>
     </row>
-    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP145" s="23"/>
-      <c r="CQ145" s="23"/>
-      <c r="CR145" s="23"/>
-      <c r="CS145" s="23"/>
-      <c r="CT145" s="23"/>
-    </row>
+    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
-      <c r="B146" s="34">
+      <c r="B146" s="23">
         <v>2000</v>
       </c>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="34">
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23">
         <v>2001</v>
       </c>
-      <c r="G146" s="34"/>
-      <c r="H146" s="34"/>
-      <c r="I146" s="34"/>
-      <c r="J146" s="34">
+      <c r="G146" s="23"/>
+      <c r="H146" s="23"/>
+      <c r="I146" s="23"/>
+      <c r="J146" s="23">
         <v>2002</v>
       </c>
-      <c r="K146" s="34"/>
-      <c r="L146" s="34"/>
-      <c r="M146" s="34"/>
-      <c r="N146" s="34">
+      <c r="K146" s="23"/>
+      <c r="L146" s="23"/>
+      <c r="M146" s="23"/>
+      <c r="N146" s="23">
         <v>2003</v>
       </c>
-      <c r="O146" s="34"/>
-      <c r="P146" s="34"/>
-      <c r="Q146" s="34"/>
-      <c r="R146" s="34">
+      <c r="O146" s="23"/>
+      <c r="P146" s="23"/>
+      <c r="Q146" s="23"/>
+      <c r="R146" s="23">
         <v>2004</v>
       </c>
-      <c r="S146" s="34"/>
-      <c r="T146" s="34"/>
-      <c r="U146" s="34"/>
-      <c r="V146" s="34">
+      <c r="S146" s="23"/>
+      <c r="T146" s="23"/>
+      <c r="U146" s="23"/>
+      <c r="V146" s="23">
         <v>2005</v>
       </c>
-      <c r="W146" s="34"/>
-      <c r="X146" s="34"/>
-      <c r="Y146" s="34"/>
-      <c r="Z146" s="34">
+      <c r="W146" s="23"/>
+      <c r="X146" s="23"/>
+      <c r="Y146" s="23"/>
+      <c r="Z146" s="23">
         <v>2006</v>
       </c>
-      <c r="AA146" s="34"/>
-      <c r="AB146" s="34"/>
-      <c r="AC146" s="34"/>
-      <c r="AD146" s="34">
+      <c r="AA146" s="23"/>
+      <c r="AB146" s="23"/>
+      <c r="AC146" s="23"/>
+      <c r="AD146" s="23">
         <v>2007</v>
       </c>
-      <c r="AE146" s="34"/>
-      <c r="AF146" s="34"/>
-      <c r="AG146" s="34"/>
-      <c r="AH146" s="34">
+      <c r="AE146" s="23"/>
+      <c r="AF146" s="23"/>
+      <c r="AG146" s="23"/>
+      <c r="AH146" s="23">
         <v>2008</v>
       </c>
-      <c r="AI146" s="34"/>
-      <c r="AJ146" s="34"/>
-      <c r="AK146" s="34"/>
-      <c r="AL146" s="34">
+      <c r="AI146" s="23"/>
+      <c r="AJ146" s="23"/>
+      <c r="AK146" s="23"/>
+      <c r="AL146" s="23">
         <v>2009</v>
       </c>
-      <c r="AM146" s="34"/>
-      <c r="AN146" s="34"/>
-      <c r="AO146" s="34"/>
-      <c r="AP146" s="34">
+      <c r="AM146" s="23"/>
+      <c r="AN146" s="23"/>
+      <c r="AO146" s="23"/>
+      <c r="AP146" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ146" s="34"/>
-      <c r="AR146" s="34"/>
-      <c r="AS146" s="34"/>
-      <c r="AT146" s="34">
+      <c r="AQ146" s="23"/>
+      <c r="AR146" s="23"/>
+      <c r="AS146" s="23"/>
+      <c r="AT146" s="23">
         <v>2011</v>
       </c>
-      <c r="AU146" s="34"/>
-      <c r="AV146" s="34"/>
-      <c r="AW146" s="34"/>
-      <c r="AX146" s="34">
+      <c r="AU146" s="23"/>
+      <c r="AV146" s="23"/>
+      <c r="AW146" s="23"/>
+      <c r="AX146" s="23">
         <v>2012</v>
       </c>
-      <c r="AY146" s="34"/>
-      <c r="AZ146" s="34"/>
-      <c r="BA146" s="34"/>
-      <c r="BB146" s="34">
+      <c r="AY146" s="23"/>
+      <c r="AZ146" s="23"/>
+      <c r="BA146" s="23"/>
+      <c r="BB146" s="23">
         <v>2013</v>
       </c>
-      <c r="BC146" s="34"/>
-      <c r="BD146" s="34"/>
-      <c r="BE146" s="34"/>
-      <c r="BF146" s="34">
+      <c r="BC146" s="23"/>
+      <c r="BD146" s="23"/>
+      <c r="BE146" s="23"/>
+      <c r="BF146" s="23">
         <v>2014</v>
       </c>
-      <c r="BG146" s="34"/>
-      <c r="BH146" s="34"/>
-      <c r="BI146" s="34"/>
-      <c r="BJ146" s="34">
+      <c r="BG146" s="23"/>
+      <c r="BH146" s="23"/>
+      <c r="BI146" s="23"/>
+      <c r="BJ146" s="23">
         <v>2015</v>
       </c>
-      <c r="BK146" s="34"/>
-      <c r="BL146" s="34"/>
-      <c r="BM146" s="34"/>
-      <c r="BN146" s="34">
+      <c r="BK146" s="23"/>
+      <c r="BL146" s="23"/>
+      <c r="BM146" s="23"/>
+      <c r="BN146" s="23">
         <v>2016</v>
       </c>
-      <c r="BO146" s="34"/>
-      <c r="BP146" s="34"/>
-      <c r="BQ146" s="34"/>
-      <c r="BR146" s="34">
+      <c r="BO146" s="23"/>
+      <c r="BP146" s="23"/>
+      <c r="BQ146" s="23"/>
+      <c r="BR146" s="23">
         <v>2017</v>
       </c>
-      <c r="BS146" s="34"/>
-      <c r="BT146" s="34"/>
-      <c r="BU146" s="34"/>
-      <c r="BV146" s="34">
+      <c r="BS146" s="23"/>
+      <c r="BT146" s="23"/>
+      <c r="BU146" s="23"/>
+      <c r="BV146" s="23">
         <v>2018</v>
       </c>
-      <c r="BW146" s="34"/>
-      <c r="BX146" s="34"/>
-      <c r="BY146" s="34"/>
-      <c r="BZ146" s="34">
+      <c r="BW146" s="23"/>
+      <c r="BX146" s="23"/>
+      <c r="BY146" s="23"/>
+      <c r="BZ146" s="23">
         <v>2019</v>
       </c>
-      <c r="CA146" s="34"/>
-      <c r="CB146" s="34"/>
-      <c r="CC146" s="34"/>
-      <c r="CD146" s="34">
+      <c r="CA146" s="23"/>
+      <c r="CB146" s="23"/>
+      <c r="CC146" s="23"/>
+      <c r="CD146" s="23">
         <v>2020</v>
       </c>
-      <c r="CE146" s="34"/>
-      <c r="CF146" s="34"/>
-      <c r="CG146" s="34"/>
+      <c r="CE146" s="23"/>
+      <c r="CF146" s="23"/>
+      <c r="CG146" s="23"/>
       <c r="CH146" s="21">
         <v>2021</v>
       </c>
@@ -44702,15 +44451,16 @@
       <c r="CM146" s="21"/>
       <c r="CN146" s="21"/>
       <c r="CO146" s="21"/>
-      <c r="CP146" s="24">
+      <c r="CP146" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ146" s="24"/>
-      <c r="CR146" s="24"/>
-      <c r="CS146" s="24"/>
-      <c r="CT146" s="24">
+      <c r="CQ146" s="21"/>
+      <c r="CR146" s="21"/>
+      <c r="CS146" s="21"/>
+      <c r="CT146" s="21">
         <v>2024</v>
       </c>
+      <c r="CU146" s="21"/>
     </row>
     <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
@@ -44992,29 +44742,27 @@
       <c r="CO147" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP147" s="25" t="s">
+      <c r="CP147" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ147" s="25" t="s">
+      <c r="CQ147" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR147" s="25" t="s">
+      <c r="CR147" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS147" s="25" t="s">
+      <c r="CS147" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT147" s="25" t="s">
+      <c r="CT147" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU147" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
-      <c r="CP148" s="23"/>
-      <c r="CQ148" s="23"/>
-      <c r="CR148" s="23"/>
-      <c r="CS148" s="23"/>
-      <c r="CT148" s="23"/>
     </row>
     <row r="149" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
@@ -45296,22 +45044,24 @@
       <c r="CO149" s="18">
         <v>8.6233868165987957</v>
       </c>
-      <c r="CP149" s="33">
+      <c r="CP149" s="18">
         <v>23.005332818837957</v>
       </c>
-      <c r="CQ149" s="33">
+      <c r="CQ149" s="18">
         <v>13.312257781165787</v>
       </c>
-      <c r="CR149" s="33">
+      <c r="CR149" s="18">
         <v>9.0294273484644911</v>
       </c>
-      <c r="CS149" s="33">
+      <c r="CS149" s="18">
         <v>15.08125832885602</v>
       </c>
-      <c r="CT149" s="33">
-        <v>19.933180141388878</v>
-      </c>
-      <c r="CU149" s="9"/>
+      <c r="CT149" s="18">
+        <v>19.909386084639557</v>
+      </c>
+      <c r="CU149" s="18">
+        <v>22.38415580906042</v>
+      </c>
       <c r="CV149" s="9"/>
       <c r="CW149" s="9"/>
       <c r="CX149" s="9"/>
@@ -45648,22 +45398,24 @@
       <c r="CO150" s="18">
         <v>13.852449933073549</v>
       </c>
-      <c r="CP150" s="33">
+      <c r="CP150" s="18">
         <v>9.0555320859968926</v>
       </c>
-      <c r="CQ150" s="33">
+      <c r="CQ150" s="18">
         <v>22.317516561128652</v>
       </c>
-      <c r="CR150" s="33">
+      <c r="CR150" s="18">
         <v>10.183486082928873</v>
       </c>
-      <c r="CS150" s="33">
+      <c r="CS150" s="18">
         <v>9.3106797349201376</v>
       </c>
-      <c r="CT150" s="33">
-        <v>9.3092879634794379</v>
-      </c>
-      <c r="CU150" s="9"/>
+      <c r="CT150" s="18">
+        <v>9.2981755506819006</v>
+      </c>
+      <c r="CU150" s="18">
+        <v>19.086642331328125</v>
+      </c>
       <c r="CV150" s="9"/>
       <c r="CW150" s="9"/>
       <c r="CX150" s="9"/>
@@ -46000,22 +45752,24 @@
       <c r="CO151" s="18">
         <v>20.043348986836396</v>
       </c>
-      <c r="CP151" s="33">
+      <c r="CP151" s="18">
         <v>14.84934839777819</v>
       </c>
-      <c r="CQ151" s="33">
+      <c r="CQ151" s="18">
         <v>20.006115233668812</v>
       </c>
-      <c r="CR151" s="33">
+      <c r="CR151" s="18">
         <v>23.229478514115627</v>
       </c>
-      <c r="CS151" s="33">
+      <c r="CS151" s="18">
         <v>19.935127982233531</v>
       </c>
-      <c r="CT151" s="33">
-        <v>14.43794027300655</v>
-      </c>
-      <c r="CU151" s="9"/>
+      <c r="CT151" s="18">
+        <v>14.502918975815726</v>
+      </c>
+      <c r="CU151" s="18">
+        <v>17.689914989674183</v>
+      </c>
       <c r="CV151" s="9"/>
       <c r="CW151" s="9"/>
       <c r="CX151" s="9"/>
@@ -46352,22 +46106,24 @@
       <c r="CO152" s="18">
         <v>4.5587592959236813</v>
       </c>
-      <c r="CP152" s="33">
+      <c r="CP152" s="18">
         <v>11.746953853547296</v>
       </c>
-      <c r="CQ152" s="33">
+      <c r="CQ152" s="18">
         <v>20.831328812086443</v>
       </c>
-      <c r="CR152" s="33">
+      <c r="CR152" s="18">
         <v>20.709179986601811</v>
       </c>
-      <c r="CS152" s="33">
+      <c r="CS152" s="18">
         <v>4.4193644296688062</v>
       </c>
-      <c r="CT152" s="33">
-        <v>12.459472753687933</v>
-      </c>
-      <c r="CU152" s="9"/>
+      <c r="CT152" s="18">
+        <v>12.447563946599217</v>
+      </c>
+      <c r="CU152" s="18">
+        <v>17.584677319167692</v>
+      </c>
       <c r="CV152" s="9"/>
       <c r="CW152" s="9"/>
       <c r="CX152" s="9"/>
@@ -46704,22 +46460,24 @@
       <c r="CO153" s="18">
         <v>4.1945789129348139</v>
       </c>
-      <c r="CP153" s="33">
+      <c r="CP153" s="18">
         <v>10.019619017213056</v>
       </c>
-      <c r="CQ153" s="33">
+      <c r="CQ153" s="18">
         <v>3.2390389652457907</v>
       </c>
-      <c r="CR153" s="33">
+      <c r="CR153" s="18">
         <v>4.6511910731059345</v>
       </c>
-      <c r="CS153" s="33">
+      <c r="CS153" s="18">
         <v>3.9821681902495012</v>
       </c>
-      <c r="CT153" s="33">
-        <v>10.048305236372419</v>
-      </c>
-      <c r="CU153" s="9"/>
+      <c r="CT153" s="18">
+        <v>10.03631066534397</v>
+      </c>
+      <c r="CU153" s="18">
+        <v>3.185630903674058</v>
+      </c>
       <c r="CV153" s="9"/>
       <c r="CW153" s="9"/>
       <c r="CX153" s="9"/>
@@ -47056,22 +46814,24 @@
       <c r="CO154" s="18">
         <v>48.72747605463276</v>
       </c>
-      <c r="CP154" s="33">
+      <c r="CP154" s="18">
         <v>31.323213826626606</v>
       </c>
-      <c r="CQ154" s="33">
+      <c r="CQ154" s="18">
         <v>20.293742646704526</v>
       </c>
-      <c r="CR154" s="33">
+      <c r="CR154" s="18">
         <v>32.197236994783253</v>
       </c>
-      <c r="CS154" s="33">
+      <c r="CS154" s="18">
         <v>47.271401334072003</v>
       </c>
-      <c r="CT154" s="33">
-        <v>33.811813632064769</v>
-      </c>
-      <c r="CU154" s="9"/>
+      <c r="CT154" s="18">
+        <v>33.805644776919628</v>
+      </c>
+      <c r="CU154" s="18">
+        <v>20.068978647095534</v>
+      </c>
       <c r="CV154" s="9"/>
       <c r="CW154" s="9"/>
       <c r="CX154" s="9"/>
@@ -47221,11 +46981,11 @@
       <c r="CM155" s="9"/>
       <c r="CN155" s="9"/>
       <c r="CO155" s="9"/>
-      <c r="CP155" s="27"/>
-      <c r="CQ155" s="27"/>
-      <c r="CR155" s="27"/>
-      <c r="CS155" s="27"/>
-      <c r="CT155" s="27"/>
+      <c r="CP155" s="9"/>
+      <c r="CQ155" s="9"/>
+      <c r="CR155" s="9"/>
+      <c r="CS155" s="9"/>
+      <c r="CT155" s="9"/>
       <c r="CU155" s="9"/>
       <c r="CV155" s="9"/>
       <c r="CW155" s="9"/>
@@ -47563,22 +47323,24 @@
       <c r="CO156" s="18">
         <v>100</v>
       </c>
-      <c r="CP156" s="33">
+      <c r="CP156" s="18">
         <v>100</v>
       </c>
-      <c r="CQ156" s="33">
+      <c r="CQ156" s="18">
         <v>100</v>
       </c>
-      <c r="CR156" s="33">
+      <c r="CR156" s="18">
         <v>100</v>
       </c>
-      <c r="CS156" s="33">
+      <c r="CS156" s="18">
         <v>100</v>
       </c>
-      <c r="CT156" s="33">
+      <c r="CT156" s="18">
         <v>100</v>
       </c>
-      <c r="CU156" s="9"/>
+      <c r="CU156" s="18">
+        <v>100</v>
+      </c>
       <c r="CV156" s="9"/>
       <c r="CW156" s="9"/>
       <c r="CX156" s="9"/>
@@ -47729,21 +47491,17 @@
       <c r="CM157" s="13"/>
       <c r="CN157" s="13"/>
       <c r="CO157" s="13"/>
-      <c r="CP157" s="29"/>
-      <c r="CQ157" s="29"/>
-      <c r="CR157" s="29"/>
-      <c r="CS157" s="29"/>
-      <c r="CT157" s="29"/>
+      <c r="CP157" s="13"/>
+      <c r="CQ157" s="13"/>
+      <c r="CR157" s="13"/>
+      <c r="CS157" s="13"/>
+      <c r="CT157" s="13"/>
+      <c r="CU157" s="13"/>
     </row>
     <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="CP158" s="23"/>
-      <c r="CQ158" s="23"/>
-      <c r="CR158" s="23"/>
-      <c r="CS158" s="23"/>
-      <c r="CT158" s="23"/>
     </row>
     <row r="159" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9"/>
@@ -47818,7 +47576,6 @@
       <c r="BS159" s="9"/>
       <c r="BT159" s="9"/>
       <c r="BU159" s="9"/>
-      <c r="CU159" s="9"/>
       <c r="CV159" s="9"/>
       <c r="CW159" s="9"/>
       <c r="CX159" s="9"/>
@@ -47943,7 +47700,6 @@
       <c r="BS160" s="9"/>
       <c r="BT160" s="9"/>
       <c r="BU160" s="9"/>
-      <c r="CU160" s="9"/>
       <c r="CV160" s="9"/>
       <c r="CW160" s="9"/>
       <c r="CX160" s="9"/>
@@ -47997,6 +47753,129 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="BR32:BU32"/>
+    <mergeCell ref="BV78:BY78"/>
+    <mergeCell ref="BZ146:CC146"/>
+    <mergeCell ref="BZ100:CC100"/>
+    <mergeCell ref="BZ123:CC123"/>
+    <mergeCell ref="BR123:BU123"/>
+    <mergeCell ref="BV123:BY123"/>
+    <mergeCell ref="BV146:BY146"/>
+    <mergeCell ref="BR55:BU55"/>
+    <mergeCell ref="BV55:BY55"/>
+    <mergeCell ref="BR146:BU146"/>
+    <mergeCell ref="BR100:BU100"/>
+    <mergeCell ref="BV100:BY100"/>
+    <mergeCell ref="BR78:BU78"/>
+    <mergeCell ref="BV32:BY32"/>
+    <mergeCell ref="BZ32:CC32"/>
+    <mergeCell ref="BZ55:CC55"/>
+    <mergeCell ref="BZ78:CC78"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BB32:BE32"/>
+    <mergeCell ref="BF32:BI32"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="Z32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AH32:AK32"/>
+    <mergeCell ref="AL32:AO32"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="N100:Q100"/>
+    <mergeCell ref="R100:U100"/>
+    <mergeCell ref="BJ32:BM32"/>
+    <mergeCell ref="BN32:BQ32"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="Z55:AC55"/>
+    <mergeCell ref="AD55:AG55"/>
+    <mergeCell ref="AH55:AK55"/>
+    <mergeCell ref="AL55:AO55"/>
+    <mergeCell ref="AP55:AS55"/>
+    <mergeCell ref="AT55:AW55"/>
+    <mergeCell ref="AX55:BA55"/>
+    <mergeCell ref="BB55:BE55"/>
+    <mergeCell ref="AP32:AS32"/>
+    <mergeCell ref="AT32:AW32"/>
+    <mergeCell ref="AX32:BA32"/>
+    <mergeCell ref="BF55:BI55"/>
+    <mergeCell ref="BJ55:BM55"/>
+    <mergeCell ref="BN55:BQ55"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="V78:Y78"/>
+    <mergeCell ref="Z78:AC78"/>
+    <mergeCell ref="AD78:AG78"/>
+    <mergeCell ref="AH78:AK78"/>
+    <mergeCell ref="AL78:AO78"/>
+    <mergeCell ref="AP78:AS78"/>
+    <mergeCell ref="AT78:AW78"/>
+    <mergeCell ref="AX78:BA78"/>
+    <mergeCell ref="BJ78:BM78"/>
+    <mergeCell ref="BN78:BQ78"/>
+    <mergeCell ref="BB78:BE78"/>
+    <mergeCell ref="BF78:BI78"/>
+    <mergeCell ref="V100:Y100"/>
+    <mergeCell ref="Z100:AC100"/>
+    <mergeCell ref="AD100:AG100"/>
+    <mergeCell ref="AH100:AK100"/>
+    <mergeCell ref="AX100:BA100"/>
+    <mergeCell ref="BB100:BE100"/>
+    <mergeCell ref="BF100:BI100"/>
+    <mergeCell ref="BJ100:BM100"/>
+    <mergeCell ref="V123:Y123"/>
+    <mergeCell ref="Z123:AC123"/>
+    <mergeCell ref="AD123:AG123"/>
+    <mergeCell ref="AH123:AK123"/>
+    <mergeCell ref="AL123:AO123"/>
+    <mergeCell ref="AP123:AS123"/>
+    <mergeCell ref="AT123:AW123"/>
+    <mergeCell ref="AX123:BA123"/>
+    <mergeCell ref="BB123:BE123"/>
+    <mergeCell ref="BN100:BQ100"/>
+    <mergeCell ref="AL100:AO100"/>
+    <mergeCell ref="AP100:AS100"/>
+    <mergeCell ref="AT100:AW100"/>
+    <mergeCell ref="AD146:AG146"/>
+    <mergeCell ref="AH146:AK146"/>
+    <mergeCell ref="AL146:AO146"/>
+    <mergeCell ref="AP146:AS146"/>
+    <mergeCell ref="AT146:AW146"/>
+    <mergeCell ref="AX146:BA146"/>
+    <mergeCell ref="BB146:BE146"/>
+    <mergeCell ref="BF123:BI123"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD146:CG146"/>
     <mergeCell ref="CD123:CG123"/>
@@ -48021,131 +47900,8 @@
     <mergeCell ref="R146:U146"/>
     <mergeCell ref="V146:Y146"/>
     <mergeCell ref="Z146:AC146"/>
-    <mergeCell ref="BN100:BQ100"/>
-    <mergeCell ref="AL100:AO100"/>
-    <mergeCell ref="AP100:AS100"/>
-    <mergeCell ref="AT100:AW100"/>
-    <mergeCell ref="AD146:AG146"/>
-    <mergeCell ref="AH146:AK146"/>
-    <mergeCell ref="AL146:AO146"/>
-    <mergeCell ref="AP146:AS146"/>
-    <mergeCell ref="AT146:AW146"/>
-    <mergeCell ref="AX146:BA146"/>
-    <mergeCell ref="BB146:BE146"/>
-    <mergeCell ref="BF123:BI123"/>
-    <mergeCell ref="V100:Y100"/>
-    <mergeCell ref="Z100:AC100"/>
-    <mergeCell ref="AD100:AG100"/>
-    <mergeCell ref="AH100:AK100"/>
-    <mergeCell ref="AX100:BA100"/>
-    <mergeCell ref="BB100:BE100"/>
-    <mergeCell ref="BF100:BI100"/>
-    <mergeCell ref="BJ100:BM100"/>
-    <mergeCell ref="V123:Y123"/>
-    <mergeCell ref="Z123:AC123"/>
-    <mergeCell ref="AD123:AG123"/>
-    <mergeCell ref="AH123:AK123"/>
-    <mergeCell ref="AL123:AO123"/>
-    <mergeCell ref="AP123:AS123"/>
-    <mergeCell ref="AT123:AW123"/>
-    <mergeCell ref="AX123:BA123"/>
-    <mergeCell ref="BB123:BE123"/>
-    <mergeCell ref="BF55:BI55"/>
-    <mergeCell ref="BJ55:BM55"/>
-    <mergeCell ref="BN55:BQ55"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="V78:Y78"/>
-    <mergeCell ref="Z78:AC78"/>
-    <mergeCell ref="AD78:AG78"/>
-    <mergeCell ref="AH78:AK78"/>
-    <mergeCell ref="AL78:AO78"/>
-    <mergeCell ref="AP78:AS78"/>
-    <mergeCell ref="AT78:AW78"/>
-    <mergeCell ref="AX78:BA78"/>
-    <mergeCell ref="BJ78:BM78"/>
-    <mergeCell ref="BN78:BQ78"/>
-    <mergeCell ref="BB78:BE78"/>
-    <mergeCell ref="BF78:BI78"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="N100:Q100"/>
-    <mergeCell ref="R100:U100"/>
-    <mergeCell ref="BJ32:BM32"/>
-    <mergeCell ref="BN32:BQ32"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="Z55:AC55"/>
-    <mergeCell ref="AD55:AG55"/>
-    <mergeCell ref="AH55:AK55"/>
-    <mergeCell ref="AL55:AO55"/>
-    <mergeCell ref="AP55:AS55"/>
-    <mergeCell ref="AT55:AW55"/>
-    <mergeCell ref="AX55:BA55"/>
-    <mergeCell ref="BB55:BE55"/>
-    <mergeCell ref="AP32:AS32"/>
-    <mergeCell ref="AT32:AW32"/>
-    <mergeCell ref="AX32:BA32"/>
-    <mergeCell ref="BB32:BE32"/>
-    <mergeCell ref="BF32:BI32"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="Z32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AH32:AK32"/>
-    <mergeCell ref="AL32:AO32"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BR32:BU32"/>
-    <mergeCell ref="BV78:BY78"/>
-    <mergeCell ref="BZ146:CC146"/>
-    <mergeCell ref="BZ100:CC100"/>
-    <mergeCell ref="BZ123:CC123"/>
-    <mergeCell ref="BR123:BU123"/>
-    <mergeCell ref="BV123:BY123"/>
-    <mergeCell ref="BV146:BY146"/>
-    <mergeCell ref="BR55:BU55"/>
-    <mergeCell ref="BV55:BY55"/>
-    <mergeCell ref="BR146:BU146"/>
-    <mergeCell ref="BR100:BU100"/>
-    <mergeCell ref="BV100:BY100"/>
-    <mergeCell ref="BR78:BU78"/>
-    <mergeCell ref="BV32:BY32"/>
-    <mergeCell ref="BZ32:CC32"/>
-    <mergeCell ref="BZ55:CC55"/>
-    <mergeCell ref="BZ78:CC78"/>
   </mergeCells>
-  <conditionalFormatting sqref="BR58:CT65 BR81:CT88 BR103:CT110">
+  <conditionalFormatting sqref="BR58:CU65 BR81:CU88 BR103:CU110">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569E70EE-D1FD-4462-B22D-4559460F8042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5CCED4-9E66-4A8E-BD0F-554231A90502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="3" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CT$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CV$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="59">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -639,13 +639,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -781,9 +781,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23648,7 +23665,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CM1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CO1" sqref="CO1:CU1048576"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23657,170 +23674,229 @@
     <col min="2" max="85" width="9.5546875" style="10" customWidth="1"/>
     <col min="86" max="89" width="8" style="10" customWidth="1"/>
     <col min="90" max="92" width="7.88671875" style="10" customWidth="1"/>
-    <col min="93" max="99" width="8.21875" style="10" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="10"/>
+    <col min="93" max="93" width="8.21875" style="10" customWidth="1"/>
+    <col min="94" max="100" width="10.109375" style="32" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP1" s="23"/>
+      <c r="CQ1" s="23"/>
+      <c r="CR1" s="23"/>
+      <c r="CS1" s="23"/>
+      <c r="CT1" s="23"/>
+      <c r="CU1" s="23"/>
+      <c r="CV1" s="23"/>
     </row>
     <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="CP2" s="23"/>
+      <c r="CQ2" s="23"/>
+      <c r="CR2" s="23"/>
+      <c r="CS2" s="23"/>
+      <c r="CT2" s="23"/>
+      <c r="CU2" s="23"/>
+      <c r="CV2" s="23"/>
     </row>
     <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="CP3" s="23"/>
+      <c r="CQ3" s="23"/>
+      <c r="CR3" s="23"/>
+      <c r="CS3" s="23"/>
+      <c r="CT3" s="23"/>
+      <c r="CU3" s="23"/>
+      <c r="CV3" s="23"/>
     </row>
-    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP4" s="23"/>
+      <c r="CQ4" s="23"/>
+      <c r="CR4" s="23"/>
+      <c r="CS4" s="23"/>
+      <c r="CT4" s="23"/>
+      <c r="CU4" s="23"/>
+      <c r="CV4" s="23"/>
+    </row>
     <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="CP5" s="23"/>
+      <c r="CQ5" s="23"/>
+      <c r="CR5" s="23"/>
+      <c r="CS5" s="23"/>
+      <c r="CT5" s="23"/>
+      <c r="CU5" s="23"/>
+      <c r="CV5" s="23"/>
     </row>
     <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="CP6" s="23"/>
+      <c r="CQ6" s="23"/>
+      <c r="CR6" s="23"/>
+      <c r="CS6" s="23"/>
+      <c r="CT6" s="23"/>
+      <c r="CU6" s="23"/>
+      <c r="CV6" s="23"/>
     </row>
     <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CP7" s="23"/>
+      <c r="CQ7" s="23"/>
+      <c r="CR7" s="23"/>
+      <c r="CS7" s="23"/>
+      <c r="CT7" s="23"/>
+      <c r="CU7" s="23"/>
+      <c r="CV7" s="23"/>
     </row>
-    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP8" s="23"/>
+      <c r="CQ8" s="23"/>
+      <c r="CR8" s="23"/>
+      <c r="CS8" s="23"/>
+      <c r="CT8" s="23"/>
+      <c r="CU8" s="23"/>
+      <c r="CV8" s="23"/>
+    </row>
     <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="23">
+      <c r="B9" s="34">
         <v>2000</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34">
         <v>2001</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34">
         <v>2002</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23">
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34">
         <v>2003</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23">
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34">
         <v>2004</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23">
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34">
         <v>2005</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23">
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34">
         <v>2006</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23">
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34">
         <v>2007</v>
       </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23">
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34">
         <v>2008</v>
       </c>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23">
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34">
         <v>2009</v>
       </c>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="23"/>
-      <c r="AP9" s="23">
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="23">
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34">
         <v>2011</v>
       </c>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="23">
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34">
         <v>2012</v>
       </c>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
-      <c r="BA9" s="23"/>
-      <c r="BB9" s="23">
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+      <c r="BB9" s="34">
         <v>2013</v>
       </c>
-      <c r="BC9" s="23"/>
-      <c r="BD9" s="23"/>
-      <c r="BE9" s="23"/>
-      <c r="BF9" s="23">
+      <c r="BC9" s="34"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34">
         <v>2014</v>
       </c>
-      <c r="BG9" s="23"/>
-      <c r="BH9" s="23"/>
-      <c r="BI9" s="23"/>
-      <c r="BJ9" s="23">
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="34"/>
+      <c r="BJ9" s="34">
         <v>2015</v>
       </c>
-      <c r="BK9" s="23"/>
-      <c r="BL9" s="23"/>
-      <c r="BM9" s="23"/>
-      <c r="BN9" s="23">
+      <c r="BK9" s="34"/>
+      <c r="BL9" s="34"/>
+      <c r="BM9" s="34"/>
+      <c r="BN9" s="34">
         <v>2016</v>
       </c>
-      <c r="BO9" s="23"/>
-      <c r="BP9" s="23"/>
-      <c r="BQ9" s="23"/>
-      <c r="BR9" s="23">
+      <c r="BO9" s="34"/>
+      <c r="BP9" s="34"/>
+      <c r="BQ9" s="34"/>
+      <c r="BR9" s="34">
         <v>2017</v>
       </c>
-      <c r="BS9" s="23"/>
-      <c r="BT9" s="23"/>
-      <c r="BU9" s="23"/>
-      <c r="BV9" s="23">
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="34"/>
+      <c r="BU9" s="34"/>
+      <c r="BV9" s="34">
         <v>2018</v>
       </c>
-      <c r="BW9" s="23"/>
-      <c r="BX9" s="23"/>
-      <c r="BY9" s="23"/>
-      <c r="BZ9" s="23">
+      <c r="BW9" s="34"/>
+      <c r="BX9" s="34"/>
+      <c r="BY9" s="34"/>
+      <c r="BZ9" s="34">
         <v>2019</v>
       </c>
-      <c r="CA9" s="23"/>
-      <c r="CB9" s="23"/>
-      <c r="CC9" s="23"/>
-      <c r="CD9" s="23">
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="34"/>
+      <c r="CD9" s="34">
         <v>2020</v>
       </c>
-      <c r="CE9" s="23"/>
-      <c r="CF9" s="23"/>
-      <c r="CG9" s="23"/>
+      <c r="CE9" s="34"/>
+      <c r="CF9" s="34"/>
+      <c r="CG9" s="34"/>
       <c r="CH9" s="21">
         <v>2021</v>
       </c>
@@ -23833,16 +23909,17 @@
       <c r="CM9" s="21"/>
       <c r="CN9" s="21"/>
       <c r="CO9" s="21"/>
-      <c r="CP9" s="21">
+      <c r="CP9" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="21"/>
-      <c r="CR9" s="21"/>
-      <c r="CS9" s="21"/>
-      <c r="CT9" s="21">
+      <c r="CQ9" s="24"/>
+      <c r="CR9" s="24"/>
+      <c r="CS9" s="24"/>
+      <c r="CT9" s="24">
         <v>2024</v>
       </c>
-      <c r="CU9" s="21"/>
+      <c r="CU9" s="24"/>
+      <c r="CV9" s="24"/>
     </row>
     <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24124,27 +24201,37 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="6" t="s">
+      <c r="CT10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CU10" s="6" t="s">
+      <c r="CU10" s="25" t="s">
         <v>8</v>
+      </c>
+      <c r="CV10" s="25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
+      <c r="CP11" s="23"/>
+      <c r="CQ11" s="23"/>
+      <c r="CR11" s="23"/>
+      <c r="CS11" s="23"/>
+      <c r="CT11" s="23"/>
+      <c r="CU11" s="23"/>
+      <c r="CV11" s="23"/>
     </row>
     <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -24426,25 +24513,27 @@
       <c r="CO12" s="19">
         <v>7500.2176711747825</v>
       </c>
-      <c r="CP12" s="19">
+      <c r="CP12" s="26">
         <v>15852.731862495799</v>
       </c>
-      <c r="CQ12" s="19">
+      <c r="CQ12" s="26">
         <v>6783.3523445881083</v>
       </c>
-      <c r="CR12" s="19">
+      <c r="CR12" s="26">
         <v>8357.4355997832154</v>
       </c>
-      <c r="CS12" s="19">
+      <c r="CS12" s="26">
         <v>6344.7064266728121</v>
       </c>
-      <c r="CT12" s="19">
+      <c r="CT12" s="26">
         <v>8402.3991673924829</v>
       </c>
-      <c r="CU12" s="19">
-        <v>10898.837460758135</v>
-      </c>
-      <c r="CV12" s="9"/>
+      <c r="CU12" s="26">
+        <v>11399.778669157404</v>
+      </c>
+      <c r="CV12" s="26">
+        <v>10078.040217735474</v>
+      </c>
       <c r="CW12" s="9"/>
       <c r="CX12" s="9"/>
       <c r="CY12" s="9"/>
@@ -24780,25 +24869,27 @@
       <c r="CO13" s="19">
         <v>13922.352938909786</v>
       </c>
-      <c r="CP13" s="19">
+      <c r="CP13" s="26">
         <v>6031.8928131160264</v>
       </c>
-      <c r="CQ13" s="19">
+      <c r="CQ13" s="26">
         <v>5215.5590302334695</v>
       </c>
-      <c r="CR13" s="19">
+      <c r="CR13" s="26">
         <v>5875.1435166697365</v>
       </c>
-      <c r="CS13" s="19">
+      <c r="CS13" s="26">
         <v>7305.9688844309421</v>
       </c>
-      <c r="CT13" s="19">
+      <c r="CT13" s="26">
         <v>5872.9859319981824</v>
       </c>
-      <c r="CU13" s="19">
+      <c r="CU13" s="26">
         <v>5020.844745825927</v>
       </c>
-      <c r="CV13" s="9"/>
+      <c r="CV13" s="26">
+        <v>4005.2673242145211</v>
+      </c>
       <c r="CW13" s="9"/>
       <c r="CX13" s="9"/>
       <c r="CY13" s="9"/>
@@ -25134,25 +25225,27 @@
       <c r="CO14" s="19">
         <v>10795.064642611094</v>
       </c>
-      <c r="CP14" s="19">
+      <c r="CP14" s="26">
         <v>11793.789404628102</v>
       </c>
-      <c r="CQ14" s="19">
+      <c r="CQ14" s="26">
         <v>15304.173008896976</v>
       </c>
-      <c r="CR14" s="19">
+      <c r="CR14" s="26">
         <v>13808.674041359101</v>
       </c>
-      <c r="CS14" s="19">
+      <c r="CS14" s="26">
         <v>13219.844262433013</v>
       </c>
-      <c r="CT14" s="19">
+      <c r="CT14" s="26">
         <v>12592.375315233876</v>
       </c>
-      <c r="CU14" s="19">
-        <v>17406.386817012615</v>
-      </c>
-      <c r="CV14" s="9"/>
+      <c r="CU14" s="26">
+        <v>17396.165687556408</v>
+      </c>
+      <c r="CV14" s="26">
+        <v>18344.866379723717</v>
+      </c>
       <c r="CW14" s="9"/>
       <c r="CX14" s="9"/>
       <c r="CY14" s="9"/>
@@ -25488,25 +25581,27 @@
       <c r="CO15" s="19">
         <v>4012.8608015561877</v>
       </c>
-      <c r="CP15" s="19">
+      <c r="CP15" s="26">
         <v>15189.245629313813</v>
       </c>
-      <c r="CQ15" s="19">
+      <c r="CQ15" s="26">
         <v>15035.2342698871</v>
       </c>
-      <c r="CR15" s="19">
+      <c r="CR15" s="26">
         <v>9464.6567873225013</v>
       </c>
-      <c r="CS15" s="19">
+      <c r="CS15" s="26">
         <v>3328.4627221109013</v>
       </c>
-      <c r="CT15" s="19">
+      <c r="CT15" s="26">
         <v>11217.678259360942</v>
       </c>
-      <c r="CU15" s="19">
-        <v>11379.800655166786</v>
-      </c>
-      <c r="CV15" s="9"/>
+      <c r="CU15" s="26">
+        <v>11813.07977644948</v>
+      </c>
+      <c r="CV15" s="26">
+        <v>8287.0567944666873</v>
+      </c>
       <c r="CW15" s="9"/>
       <c r="CX15" s="9"/>
       <c r="CY15" s="9"/>
@@ -25842,25 +25937,27 @@
       <c r="CO16" s="19">
         <v>4995.6966942187573</v>
       </c>
-      <c r="CP16" s="19">
+      <c r="CP16" s="26">
         <v>2339.4999124600308</v>
       </c>
-      <c r="CQ16" s="19">
+      <c r="CQ16" s="26">
         <v>3498.8932940025416</v>
       </c>
-      <c r="CR16" s="19">
+      <c r="CR16" s="26">
         <v>3054.4578392055391</v>
       </c>
-      <c r="CS16" s="19">
+      <c r="CS16" s="26">
         <v>5206.5418282330211</v>
       </c>
-      <c r="CT16" s="19">
+      <c r="CT16" s="26">
         <v>2266.0341565181925</v>
       </c>
-      <c r="CU16" s="19">
-        <v>4311.4648018124944</v>
-      </c>
-      <c r="CV16" s="9"/>
+      <c r="CU16" s="26">
+        <v>4291.8263292948159</v>
+      </c>
+      <c r="CV16" s="26">
+        <v>3277.2071135840029</v>
+      </c>
       <c r="CW16" s="9"/>
       <c r="CX16" s="9"/>
       <c r="CY16" s="9"/>
@@ -26196,25 +26293,27 @@
       <c r="CO17" s="19">
         <v>15709.119194229439</v>
       </c>
-      <c r="CP17" s="19">
+      <c r="CP17" s="26">
         <v>16400.001704524657</v>
       </c>
-      <c r="CQ17" s="19">
+      <c r="CQ17" s="26">
         <v>10700.447387680118</v>
       </c>
-      <c r="CR17" s="19">
+      <c r="CR17" s="26">
         <v>15027.513637342456</v>
       </c>
-      <c r="CS17" s="19">
+      <c r="CS17" s="26">
         <v>16942.011728318706</v>
       </c>
-      <c r="CT17" s="19">
+      <c r="CT17" s="26">
         <v>18000.852098547002</v>
       </c>
-      <c r="CU17" s="19">
-        <v>11080.875561360495</v>
-      </c>
-      <c r="CV17" s="9"/>
+      <c r="CU17" s="26">
+        <v>11123.423842438364</v>
+      </c>
+      <c r="CV17" s="26">
+        <v>16060.841361162746</v>
+      </c>
       <c r="CW17" s="9"/>
       <c r="CX17" s="9"/>
       <c r="CY17" s="9"/>
@@ -26363,13 +26462,13 @@
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
       <c r="CO18" s="9"/>
-      <c r="CP18" s="9"/>
-      <c r="CQ18" s="9"/>
-      <c r="CR18" s="9"/>
-      <c r="CS18" s="9"/>
-      <c r="CT18" s="9"/>
-      <c r="CU18" s="9"/>
-      <c r="CV18" s="9"/>
+      <c r="CP18" s="27"/>
+      <c r="CQ18" s="27"/>
+      <c r="CR18" s="27"/>
+      <c r="CS18" s="27"/>
+      <c r="CT18" s="27"/>
+      <c r="CU18" s="27"/>
+      <c r="CV18" s="27"/>
       <c r="CW18" s="9"/>
       <c r="CX18" s="9"/>
       <c r="CY18" s="9"/>
@@ -26705,25 +26804,27 @@
       <c r="CO19" s="20">
         <v>56935.311942700049</v>
       </c>
-      <c r="CP19" s="20">
+      <c r="CP19" s="28">
         <v>67607.161326538422</v>
       </c>
-      <c r="CQ19" s="20">
+      <c r="CQ19" s="28">
         <v>56537.659335288314</v>
       </c>
-      <c r="CR19" s="20">
+      <c r="CR19" s="28">
         <v>55587.881421682549</v>
       </c>
-      <c r="CS19" s="20">
+      <c r="CS19" s="28">
         <v>52347.535852199399</v>
       </c>
-      <c r="CT19" s="20">
+      <c r="CT19" s="28">
         <v>58352.324929050679</v>
       </c>
-      <c r="CU19" s="20">
-        <v>60098.210041936451</v>
-      </c>
-      <c r="CV19" s="9"/>
+      <c r="CU19" s="28">
+        <v>61045.119050722402</v>
+      </c>
+      <c r="CV19" s="28">
+        <v>60053.279190887151</v>
+      </c>
       <c r="CW19" s="9"/>
       <c r="CX19" s="9"/>
       <c r="CY19" s="9"/>
@@ -26873,17 +26974,25 @@
       <c r="CM20" s="13"/>
       <c r="CN20" s="13"/>
       <c r="CO20" s="13"/>
-      <c r="CP20" s="13"/>
-      <c r="CQ20" s="13"/>
-      <c r="CR20" s="13"/>
-      <c r="CS20" s="13"/>
-      <c r="CT20" s="13"/>
-      <c r="CU20" s="13"/>
+      <c r="CP20" s="29"/>
+      <c r="CQ20" s="29"/>
+      <c r="CR20" s="29"/>
+      <c r="CS20" s="29"/>
+      <c r="CT20" s="29"/>
+      <c r="CU20" s="29"/>
+      <c r="CV20" s="29"/>
     </row>
     <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CP21" s="23"/>
+      <c r="CQ21" s="23"/>
+      <c r="CR21" s="23"/>
+      <c r="CS21" s="23"/>
+      <c r="CT21" s="23"/>
+      <c r="CU21" s="23"/>
+      <c r="CV21" s="23"/>
     </row>
     <row r="22" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
@@ -26978,13 +27087,13 @@
       <c r="CM22" s="9"/>
       <c r="CN22" s="9"/>
       <c r="CO22" s="9"/>
-      <c r="CP22" s="9"/>
-      <c r="CQ22" s="9"/>
-      <c r="CR22" s="9"/>
-      <c r="CS22" s="9"/>
-      <c r="CT22" s="9"/>
-      <c r="CU22" s="9"/>
-      <c r="CV22" s="9"/>
+      <c r="CP22" s="27"/>
+      <c r="CQ22" s="27"/>
+      <c r="CR22" s="27"/>
+      <c r="CS22" s="27"/>
+      <c r="CT22" s="27"/>
+      <c r="CU22" s="27"/>
+      <c r="CV22" s="27"/>
       <c r="CW22" s="9"/>
       <c r="CX22" s="9"/>
       <c r="CY22" s="9"/>
@@ -27133,13 +27242,13 @@
       <c r="CM23" s="9"/>
       <c r="CN23" s="9"/>
       <c r="CO23" s="9"/>
-      <c r="CP23" s="9"/>
-      <c r="CQ23" s="9"/>
-      <c r="CR23" s="9"/>
-      <c r="CS23" s="9"/>
-      <c r="CT23" s="9"/>
-      <c r="CU23" s="9"/>
-      <c r="CV23" s="9"/>
+      <c r="CP23" s="27"/>
+      <c r="CQ23" s="27"/>
+      <c r="CR23" s="27"/>
+      <c r="CS23" s="27"/>
+      <c r="CT23" s="27"/>
+      <c r="CU23" s="27"/>
+      <c r="CV23" s="27"/>
       <c r="CW23" s="9"/>
       <c r="CX23" s="9"/>
       <c r="CY23" s="9"/>
@@ -27199,162 +27308,220 @@
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP24" s="23"/>
+      <c r="CQ24" s="23"/>
+      <c r="CR24" s="23"/>
+      <c r="CS24" s="23"/>
+      <c r="CT24" s="23"/>
+      <c r="CU24" s="23"/>
+      <c r="CV24" s="23"/>
     </row>
     <row r="25" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="CP25" s="23"/>
+      <c r="CQ25" s="23"/>
+      <c r="CR25" s="23"/>
+      <c r="CS25" s="23"/>
+      <c r="CT25" s="23"/>
+      <c r="CU25" s="23"/>
+      <c r="CV25" s="23"/>
     </row>
     <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="CP26" s="23"/>
+      <c r="CQ26" s="23"/>
+      <c r="CR26" s="23"/>
+      <c r="CS26" s="23"/>
+      <c r="CT26" s="23"/>
+      <c r="CU26" s="23"/>
+      <c r="CV26" s="23"/>
     </row>
-    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP27" s="23"/>
+      <c r="CQ27" s="23"/>
+      <c r="CR27" s="23"/>
+      <c r="CS27" s="23"/>
+      <c r="CT27" s="23"/>
+      <c r="CU27" s="23"/>
+      <c r="CV27" s="23"/>
+    </row>
     <row r="28" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="CP28" s="23"/>
+      <c r="CQ28" s="23"/>
+      <c r="CR28" s="23"/>
+      <c r="CS28" s="23"/>
+      <c r="CT28" s="23"/>
+      <c r="CU28" s="23"/>
+      <c r="CV28" s="23"/>
     </row>
     <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="CP29" s="23"/>
+      <c r="CQ29" s="23"/>
+      <c r="CR29" s="23"/>
+      <c r="CS29" s="23"/>
+      <c r="CT29" s="23"/>
+      <c r="CU29" s="23"/>
+      <c r="CV29" s="23"/>
     </row>
     <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="CP30" s="23"/>
+      <c r="CQ30" s="23"/>
+      <c r="CR30" s="23"/>
+      <c r="CS30" s="23"/>
+      <c r="CT30" s="23"/>
+      <c r="CU30" s="23"/>
+      <c r="CV30" s="23"/>
     </row>
-    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP31" s="23"/>
+      <c r="CQ31" s="23"/>
+      <c r="CR31" s="23"/>
+      <c r="CS31" s="23"/>
+      <c r="CT31" s="23"/>
+      <c r="CU31" s="23"/>
+      <c r="CV31" s="23"/>
+    </row>
     <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="23">
+      <c r="B32" s="34">
         <v>2000</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23">
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34">
         <v>2001</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34">
         <v>2002</v>
       </c>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23">
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34">
         <v>2003</v>
       </c>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23">
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34">
         <v>2004</v>
       </c>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23">
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34">
         <v>2005</v>
       </c>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23">
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34">
         <v>2006</v>
       </c>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="23">
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34">
         <v>2007</v>
       </c>
-      <c r="AE32" s="23"/>
-      <c r="AF32" s="23"/>
-      <c r="AG32" s="23"/>
-      <c r="AH32" s="23">
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="34"/>
+      <c r="AG32" s="34"/>
+      <c r="AH32" s="34">
         <v>2008</v>
       </c>
-      <c r="AI32" s="23"/>
-      <c r="AJ32" s="23"/>
-      <c r="AK32" s="23"/>
-      <c r="AL32" s="23">
+      <c r="AI32" s="34"/>
+      <c r="AJ32" s="34"/>
+      <c r="AK32" s="34"/>
+      <c r="AL32" s="34">
         <v>2009</v>
       </c>
-      <c r="AM32" s="23"/>
-      <c r="AN32" s="23"/>
-      <c r="AO32" s="23"/>
-      <c r="AP32" s="23">
+      <c r="AM32" s="34"/>
+      <c r="AN32" s="34"/>
+      <c r="AO32" s="34"/>
+      <c r="AP32" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ32" s="23"/>
-      <c r="AR32" s="23"/>
-      <c r="AS32" s="23"/>
-      <c r="AT32" s="23">
+      <c r="AQ32" s="34"/>
+      <c r="AR32" s="34"/>
+      <c r="AS32" s="34"/>
+      <c r="AT32" s="34">
         <v>2011</v>
       </c>
-      <c r="AU32" s="23"/>
-      <c r="AV32" s="23"/>
-      <c r="AW32" s="23"/>
-      <c r="AX32" s="23">
+      <c r="AU32" s="34"/>
+      <c r="AV32" s="34"/>
+      <c r="AW32" s="34"/>
+      <c r="AX32" s="34">
         <v>2012</v>
       </c>
-      <c r="AY32" s="23"/>
-      <c r="AZ32" s="23"/>
-      <c r="BA32" s="23"/>
-      <c r="BB32" s="23">
+      <c r="AY32" s="34"/>
+      <c r="AZ32" s="34"/>
+      <c r="BA32" s="34"/>
+      <c r="BB32" s="34">
         <v>2013</v>
       </c>
-      <c r="BC32" s="23"/>
-      <c r="BD32" s="23"/>
-      <c r="BE32" s="23"/>
-      <c r="BF32" s="23">
+      <c r="BC32" s="34"/>
+      <c r="BD32" s="34"/>
+      <c r="BE32" s="34"/>
+      <c r="BF32" s="34">
         <v>2014</v>
       </c>
-      <c r="BG32" s="23"/>
-      <c r="BH32" s="23"/>
-      <c r="BI32" s="23"/>
-      <c r="BJ32" s="23">
+      <c r="BG32" s="34"/>
+      <c r="BH32" s="34"/>
+      <c r="BI32" s="34"/>
+      <c r="BJ32" s="34">
         <v>2015</v>
       </c>
-      <c r="BK32" s="23"/>
-      <c r="BL32" s="23"/>
-      <c r="BM32" s="23"/>
-      <c r="BN32" s="23">
+      <c r="BK32" s="34"/>
+      <c r="BL32" s="34"/>
+      <c r="BM32" s="34"/>
+      <c r="BN32" s="34">
         <v>2016</v>
       </c>
-      <c r="BO32" s="23"/>
-      <c r="BP32" s="23"/>
-      <c r="BQ32" s="23"/>
-      <c r="BR32" s="23">
+      <c r="BO32" s="34"/>
+      <c r="BP32" s="34"/>
+      <c r="BQ32" s="34"/>
+      <c r="BR32" s="34">
         <v>2017</v>
       </c>
-      <c r="BS32" s="23"/>
-      <c r="BT32" s="23"/>
-      <c r="BU32" s="23"/>
-      <c r="BV32" s="23">
+      <c r="BS32" s="34"/>
+      <c r="BT32" s="34"/>
+      <c r="BU32" s="34"/>
+      <c r="BV32" s="34">
         <v>2018</v>
       </c>
-      <c r="BW32" s="23"/>
-      <c r="BX32" s="23"/>
-      <c r="BY32" s="23"/>
-      <c r="BZ32" s="23">
+      <c r="BW32" s="34"/>
+      <c r="BX32" s="34"/>
+      <c r="BY32" s="34"/>
+      <c r="BZ32" s="34">
         <v>2019</v>
       </c>
-      <c r="CA32" s="23"/>
-      <c r="CB32" s="23"/>
-      <c r="CC32" s="23"/>
-      <c r="CD32" s="23">
+      <c r="CA32" s="34"/>
+      <c r="CB32" s="34"/>
+      <c r="CC32" s="34"/>
+      <c r="CD32" s="34">
         <v>2020</v>
       </c>
-      <c r="CE32" s="23"/>
-      <c r="CF32" s="23"/>
-      <c r="CG32" s="23"/>
+      <c r="CE32" s="34"/>
+      <c r="CF32" s="34"/>
+      <c r="CG32" s="34"/>
       <c r="CH32" s="21">
         <v>2021</v>
       </c>
@@ -27367,16 +27534,17 @@
       <c r="CM32" s="21"/>
       <c r="CN32" s="21"/>
       <c r="CO32" s="21"/>
-      <c r="CP32" s="21">
+      <c r="CP32" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ32" s="21"/>
-      <c r="CR32" s="21"/>
-      <c r="CS32" s="21"/>
-      <c r="CT32" s="21">
+      <c r="CQ32" s="24"/>
+      <c r="CR32" s="24"/>
+      <c r="CS32" s="24"/>
+      <c r="CT32" s="24">
         <v>2024</v>
       </c>
-      <c r="CU32" s="21"/>
+      <c r="CU32" s="24"/>
+      <c r="CV32" s="24"/>
     </row>
     <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -27658,27 +27826,37 @@
       <c r="CO33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP33" s="6" t="s">
+      <c r="CP33" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ33" s="6" t="s">
+      <c r="CQ33" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CR33" s="6" t="s">
+      <c r="CR33" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CS33" s="6" t="s">
+      <c r="CS33" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CT33" s="6" t="s">
+      <c r="CT33" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CU33" s="6" t="s">
+      <c r="CU33" s="25" t="s">
         <v>8</v>
+      </c>
+      <c r="CV33" s="25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
+      <c r="CP34" s="23"/>
+      <c r="CQ34" s="23"/>
+      <c r="CR34" s="23"/>
+      <c r="CS34" s="23"/>
+      <c r="CT34" s="23"/>
+      <c r="CU34" s="23"/>
+      <c r="CV34" s="23"/>
     </row>
     <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -27960,25 +28138,27 @@
       <c r="CO35" s="19">
         <v>3034.4308903112847</v>
       </c>
-      <c r="CP35" s="19">
+      <c r="CP35" s="26">
         <v>9929.8435219796429</v>
       </c>
-      <c r="CQ35" s="19">
+      <c r="CQ35" s="26">
         <v>5597.0497840270327</v>
       </c>
-      <c r="CR35" s="19">
+      <c r="CR35" s="26">
         <v>2811.763950234933</v>
       </c>
-      <c r="CS35" s="19">
+      <c r="CS35" s="26">
         <v>5852.6209642711183</v>
       </c>
-      <c r="CT35" s="19">
+      <c r="CT35" s="26">
         <v>8626.7272934041957</v>
       </c>
-      <c r="CU35" s="19">
-        <v>9863.7211603560845</v>
-      </c>
-      <c r="CV35" s="9"/>
+      <c r="CU35" s="26">
+        <v>10317.085513680284</v>
+      </c>
+      <c r="CV35" s="26">
+        <v>3396.8990292829335</v>
+      </c>
       <c r="CW35" s="9"/>
       <c r="CX35" s="9"/>
       <c r="CY35" s="9"/>
@@ -28314,25 +28494,27 @@
       <c r="CO36" s="19">
         <v>4874.4539561299507</v>
       </c>
-      <c r="CP36" s="19">
+      <c r="CP36" s="26">
         <v>3908.6596716646445</v>
       </c>
-      <c r="CQ36" s="19">
+      <c r="CQ36" s="26">
         <v>9383.2506327522442</v>
       </c>
-      <c r="CR36" s="19">
+      <c r="CR36" s="26">
         <v>3171.137875157483</v>
       </c>
-      <c r="CS36" s="19">
+      <c r="CS36" s="26">
         <v>3613.2183548600024</v>
       </c>
-      <c r="CT36" s="19">
+      <c r="CT36" s="26">
         <v>4028.8949373389642</v>
       </c>
-      <c r="CU36" s="19">
+      <c r="CU36" s="26">
         <v>8410.6507946779657</v>
       </c>
-      <c r="CV36" s="9"/>
+      <c r="CV36" s="26">
+        <v>2452.5537263063347</v>
+      </c>
       <c r="CW36" s="9"/>
       <c r="CX36" s="9"/>
       <c r="CY36" s="9"/>
@@ -28668,25 +28850,27 @@
       <c r="CO37" s="19">
         <v>7052.931592245819</v>
       </c>
-      <c r="CP37" s="19">
+      <c r="CP37" s="26">
         <v>6409.4576311695637</v>
       </c>
-      <c r="CQ37" s="19">
+      <c r="CQ37" s="26">
         <v>8411.437397662834</v>
       </c>
-      <c r="CR37" s="19">
+      <c r="CR37" s="26">
         <v>7233.6603140014868</v>
       </c>
-      <c r="CS37" s="19">
+      <c r="CS37" s="26">
         <v>7736.2740833773596</v>
       </c>
-      <c r="CT37" s="19">
+      <c r="CT37" s="26">
         <v>6284.1077284259318</v>
       </c>
-      <c r="CU37" s="19">
-        <v>7795.1739747058937</v>
-      </c>
-      <c r="CV37" s="9"/>
+      <c r="CU37" s="26">
+        <v>7790.5966041598604</v>
+      </c>
+      <c r="CV37" s="26">
+        <v>7312.4025929477448</v>
+      </c>
       <c r="CW37" s="9"/>
       <c r="CX37" s="9"/>
       <c r="CY37" s="9"/>
@@ -29022,25 +29206,27 @@
       <c r="CO38" s="19">
         <v>1604.1539505589053</v>
       </c>
-      <c r="CP38" s="19">
+      <c r="CP38" s="26">
         <v>5070.3640996719305</v>
       </c>
-      <c r="CQ38" s="19">
+      <c r="CQ38" s="26">
         <v>8758.3929296833467</v>
       </c>
-      <c r="CR38" s="19">
+      <c r="CR38" s="26">
         <v>6448.8392760761262</v>
       </c>
-      <c r="CS38" s="19">
+      <c r="CS38" s="26">
         <v>1715.0336096520994</v>
       </c>
-      <c r="CT38" s="19">
+      <c r="CT38" s="26">
         <v>5393.5233953481074</v>
       </c>
-      <c r="CU38" s="19">
-        <v>7748.8003233474947</v>
-      </c>
-      <c r="CV38" s="9"/>
+      <c r="CU38" s="26">
+        <v>8043.8312730830385</v>
+      </c>
+      <c r="CV38" s="26">
+        <v>6151.4288178526504</v>
+      </c>
       <c r="CW38" s="9"/>
       <c r="CX38" s="9"/>
       <c r="CY38" s="9"/>
@@ -29376,25 +29562,27 @@
       <c r="CO39" s="19">
         <v>1476.0047410557795</v>
       </c>
-      <c r="CP39" s="19">
+      <c r="CP39" s="26">
         <v>4324.7906811114199</v>
       </c>
-      <c r="CQ39" s="19">
+      <c r="CQ39" s="26">
         <v>1361.8322781078605</v>
       </c>
-      <c r="CR39" s="19">
+      <c r="CR39" s="26">
         <v>1448.3810412670082</v>
       </c>
-      <c r="CS39" s="19">
+      <c r="CS39" s="26">
         <v>1545.3697911211157</v>
       </c>
-      <c r="CT39" s="19">
+      <c r="CT39" s="26">
         <v>4348.7285230057823</v>
       </c>
-      <c r="CU39" s="19">
-        <v>1403.7685951477943</v>
-      </c>
-      <c r="CV39" s="9"/>
+      <c r="CU39" s="26">
+        <v>1397.374510481859</v>
+      </c>
+      <c r="CV39" s="26">
+        <v>1382.1565125134218</v>
+      </c>
       <c r="CW39" s="9"/>
       <c r="CX39" s="9"/>
       <c r="CY39" s="9"/>
@@ -29730,25 +29918,27 @@
       <c r="CO40" s="19">
         <v>17146.413780542847</v>
       </c>
-      <c r="CP40" s="19">
+      <c r="CP40" s="26">
         <v>13520.109200472863</v>
       </c>
-      <c r="CQ40" s="19">
+      <c r="CQ40" s="26">
         <v>8532.368420519786</v>
       </c>
-      <c r="CR40" s="19">
+      <c r="CR40" s="26">
         <v>10026.220576933645</v>
       </c>
-      <c r="CS40" s="19">
+      <c r="CS40" s="26">
         <v>18344.728830014647</v>
       </c>
-      <c r="CT40" s="19">
+      <c r="CT40" s="26">
         <v>14647.969416454223</v>
       </c>
-      <c r="CU40" s="19">
-        <v>8843.5235635719</v>
-      </c>
-      <c r="CV40" s="9"/>
+      <c r="CU40" s="26">
+        <v>8877.4808735532242</v>
+      </c>
+      <c r="CV40" s="26">
+        <v>10747.071632755285</v>
+      </c>
       <c r="CW40" s="9"/>
       <c r="CX40" s="9"/>
       <c r="CY40" s="9"/>
@@ -29897,13 +30087,13 @@
       <c r="CM41" s="20"/>
       <c r="CN41" s="20"/>
       <c r="CO41" s="20"/>
-      <c r="CP41" s="20"/>
-      <c r="CQ41" s="20"/>
-      <c r="CR41" s="20"/>
-      <c r="CS41" s="20"/>
-      <c r="CT41" s="20"/>
-      <c r="CU41" s="20"/>
-      <c r="CV41" s="9"/>
+      <c r="CP41" s="28"/>
+      <c r="CQ41" s="28"/>
+      <c r="CR41" s="28"/>
+      <c r="CS41" s="28"/>
+      <c r="CT41" s="28"/>
+      <c r="CU41" s="28"/>
+      <c r="CV41" s="28"/>
       <c r="CW41" s="9"/>
       <c r="CX41" s="9"/>
       <c r="CY41" s="9"/>
@@ -30239,25 +30429,27 @@
       <c r="CO42" s="20">
         <v>35188.388910844587</v>
       </c>
-      <c r="CP42" s="20">
+      <c r="CP42" s="28">
         <v>43163.224806070066</v>
       </c>
-      <c r="CQ42" s="20">
+      <c r="CQ42" s="28">
         <v>42044.3314427531</v>
       </c>
-      <c r="CR42" s="20">
+      <c r="CR42" s="28">
         <v>31140.003033670684</v>
       </c>
-      <c r="CS42" s="20">
+      <c r="CS42" s="28">
         <v>38807.245633296341</v>
       </c>
-      <c r="CT42" s="20">
+      <c r="CT42" s="28">
         <v>43329.951293977203</v>
       </c>
-      <c r="CU42" s="20">
-        <v>44065.638411807129</v>
-      </c>
-      <c r="CV42" s="9"/>
+      <c r="CU42" s="28">
+        <v>44837.019569636235</v>
+      </c>
+      <c r="CV42" s="28">
+        <v>31442.512311658371</v>
+      </c>
       <c r="CW42" s="9"/>
       <c r="CX42" s="9"/>
       <c r="CY42" s="9"/>
@@ -30407,17 +30599,25 @@
       <c r="CM43" s="13"/>
       <c r="CN43" s="13"/>
       <c r="CO43" s="13"/>
-      <c r="CP43" s="13"/>
-      <c r="CQ43" s="13"/>
-      <c r="CR43" s="13"/>
-      <c r="CS43" s="13"/>
-      <c r="CT43" s="13"/>
-      <c r="CU43" s="13"/>
+      <c r="CP43" s="29"/>
+      <c r="CQ43" s="29"/>
+      <c r="CR43" s="29"/>
+      <c r="CS43" s="29"/>
+      <c r="CT43" s="29"/>
+      <c r="CU43" s="29"/>
+      <c r="CV43" s="29"/>
     </row>
     <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CP44" s="23"/>
+      <c r="CQ44" s="23"/>
+      <c r="CR44" s="23"/>
+      <c r="CS44" s="23"/>
+      <c r="CT44" s="23"/>
+      <c r="CU44" s="23"/>
+      <c r="CV44" s="23"/>
     </row>
     <row r="45" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
@@ -30512,13 +30712,13 @@
       <c r="CM45" s="9"/>
       <c r="CN45" s="9"/>
       <c r="CO45" s="9"/>
-      <c r="CP45" s="9"/>
-      <c r="CQ45" s="9"/>
-      <c r="CR45" s="9"/>
-      <c r="CS45" s="9"/>
-      <c r="CT45" s="9"/>
-      <c r="CU45" s="9"/>
-      <c r="CV45" s="9"/>
+      <c r="CP45" s="27"/>
+      <c r="CQ45" s="27"/>
+      <c r="CR45" s="27"/>
+      <c r="CS45" s="27"/>
+      <c r="CT45" s="27"/>
+      <c r="CU45" s="27"/>
+      <c r="CV45" s="27"/>
       <c r="CW45" s="9"/>
       <c r="CX45" s="9"/>
       <c r="CY45" s="9"/>
@@ -30667,13 +30867,13 @@
       <c r="CM46" s="9"/>
       <c r="CN46" s="9"/>
       <c r="CO46" s="9"/>
-      <c r="CP46" s="9"/>
-      <c r="CQ46" s="9"/>
-      <c r="CR46" s="9"/>
-      <c r="CS46" s="9"/>
-      <c r="CT46" s="9"/>
-      <c r="CU46" s="9"/>
-      <c r="CV46" s="9"/>
+      <c r="CP46" s="27"/>
+      <c r="CQ46" s="27"/>
+      <c r="CR46" s="27"/>
+      <c r="CS46" s="27"/>
+      <c r="CT46" s="27"/>
+      <c r="CU46" s="27"/>
+      <c r="CV46" s="27"/>
       <c r="CW46" s="9"/>
       <c r="CX46" s="9"/>
       <c r="CY46" s="9"/>
@@ -30733,162 +30933,220 @@
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP47" s="23"/>
+      <c r="CQ47" s="23"/>
+      <c r="CR47" s="23"/>
+      <c r="CS47" s="23"/>
+      <c r="CT47" s="23"/>
+      <c r="CU47" s="23"/>
+      <c r="CV47" s="23"/>
     </row>
     <row r="48" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP48" s="23"/>
+      <c r="CQ48" s="23"/>
+      <c r="CR48" s="23"/>
+      <c r="CS48" s="23"/>
+      <c r="CT48" s="23"/>
+      <c r="CU48" s="23"/>
+      <c r="CV48" s="23"/>
     </row>
     <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="CP49" s="23"/>
+      <c r="CQ49" s="23"/>
+      <c r="CR49" s="23"/>
+      <c r="CS49" s="23"/>
+      <c r="CT49" s="23"/>
+      <c r="CU49" s="23"/>
+      <c r="CV49" s="23"/>
     </row>
-    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP50" s="23"/>
+      <c r="CQ50" s="23"/>
+      <c r="CR50" s="23"/>
+      <c r="CS50" s="23"/>
+      <c r="CT50" s="23"/>
+      <c r="CU50" s="23"/>
+      <c r="CV50" s="23"/>
+    </row>
     <row r="51" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="CP51" s="23"/>
+      <c r="CQ51" s="23"/>
+      <c r="CR51" s="23"/>
+      <c r="CS51" s="23"/>
+      <c r="CT51" s="23"/>
+      <c r="CU51" s="23"/>
+      <c r="CV51" s="23"/>
     </row>
     <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="CP52" s="23"/>
+      <c r="CQ52" s="23"/>
+      <c r="CR52" s="23"/>
+      <c r="CS52" s="23"/>
+      <c r="CT52" s="23"/>
+      <c r="CU52" s="23"/>
+      <c r="CV52" s="23"/>
     </row>
     <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CP53" s="23"/>
+      <c r="CQ53" s="23"/>
+      <c r="CR53" s="23"/>
+      <c r="CS53" s="23"/>
+      <c r="CT53" s="23"/>
+      <c r="CU53" s="23"/>
+      <c r="CV53" s="23"/>
     </row>
-    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP54" s="23"/>
+      <c r="CQ54" s="23"/>
+      <c r="CR54" s="23"/>
+      <c r="CS54" s="23"/>
+      <c r="CT54" s="23"/>
+      <c r="CU54" s="23"/>
+      <c r="CV54" s="23"/>
+    </row>
     <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23" t="s">
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23" t="s">
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23" t="s">
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23" t="s">
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23" t="s">
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="23" t="s">
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA55" s="23"/>
-      <c r="AB55" s="23"/>
-      <c r="AC55" s="23"/>
-      <c r="AD55" s="23" t="s">
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="34"/>
+      <c r="AC55" s="34"/>
+      <c r="AD55" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="23"/>
-      <c r="AF55" s="23"/>
-      <c r="AG55" s="23"/>
-      <c r="AH55" s="23" t="s">
+      <c r="AE55" s="34"/>
+      <c r="AF55" s="34"/>
+      <c r="AG55" s="34"/>
+      <c r="AH55" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="23"/>
-      <c r="AJ55" s="23"/>
-      <c r="AK55" s="23"/>
-      <c r="AL55" s="23" t="s">
+      <c r="AI55" s="34"/>
+      <c r="AJ55" s="34"/>
+      <c r="AK55" s="34"/>
+      <c r="AL55" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AM55" s="23"/>
-      <c r="AN55" s="23"/>
-      <c r="AO55" s="23"/>
-      <c r="AP55" s="23" t="s">
+      <c r="AM55" s="34"/>
+      <c r="AN55" s="34"/>
+      <c r="AO55" s="34"/>
+      <c r="AP55" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AQ55" s="23"/>
-      <c r="AR55" s="23"/>
-      <c r="AS55" s="23"/>
-      <c r="AT55" s="23" t="s">
+      <c r="AQ55" s="34"/>
+      <c r="AR55" s="34"/>
+      <c r="AS55" s="34"/>
+      <c r="AT55" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AU55" s="23"/>
-      <c r="AV55" s="23"/>
-      <c r="AW55" s="23"/>
-      <c r="AX55" s="23" t="s">
+      <c r="AU55" s="34"/>
+      <c r="AV55" s="34"/>
+      <c r="AW55" s="34"/>
+      <c r="AX55" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AY55" s="23"/>
-      <c r="AZ55" s="23"/>
-      <c r="BA55" s="23"/>
-      <c r="BB55" s="23" t="s">
+      <c r="AY55" s="34"/>
+      <c r="AZ55" s="34"/>
+      <c r="BA55" s="34"/>
+      <c r="BB55" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="BC55" s="23"/>
-      <c r="BD55" s="23"/>
-      <c r="BE55" s="23"/>
-      <c r="BF55" s="23" t="s">
+      <c r="BC55" s="34"/>
+      <c r="BD55" s="34"/>
+      <c r="BE55" s="34"/>
+      <c r="BF55" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="BG55" s="23"/>
-      <c r="BH55" s="23"/>
-      <c r="BI55" s="23"/>
-      <c r="BJ55" s="23" t="s">
+      <c r="BG55" s="34"/>
+      <c r="BH55" s="34"/>
+      <c r="BI55" s="34"/>
+      <c r="BJ55" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="BK55" s="23"/>
-      <c r="BL55" s="23"/>
-      <c r="BM55" s="23"/>
-      <c r="BN55" s="23" t="s">
+      <c r="BK55" s="34"/>
+      <c r="BL55" s="34"/>
+      <c r="BM55" s="34"/>
+      <c r="BN55" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="BO55" s="23"/>
-      <c r="BP55" s="23"/>
-      <c r="BQ55" s="23"/>
-      <c r="BR55" s="23" t="s">
+      <c r="BO55" s="34"/>
+      <c r="BP55" s="34"/>
+      <c r="BQ55" s="34"/>
+      <c r="BR55" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="BS55" s="23"/>
-      <c r="BT55" s="23"/>
-      <c r="BU55" s="23"/>
-      <c r="BV55" s="23" t="s">
+      <c r="BS55" s="34"/>
+      <c r="BT55" s="34"/>
+      <c r="BU55" s="34"/>
+      <c r="BV55" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="BW55" s="23"/>
-      <c r="BX55" s="23"/>
-      <c r="BY55" s="23"/>
-      <c r="BZ55" s="23" t="s">
+      <c r="BW55" s="34"/>
+      <c r="BX55" s="34"/>
+      <c r="BY55" s="34"/>
+      <c r="BZ55" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="CA55" s="23"/>
-      <c r="CB55" s="23"/>
-      <c r="CC55" s="23"/>
-      <c r="CD55" s="23" t="s">
+      <c r="CA55" s="34"/>
+      <c r="CB55" s="34"/>
+      <c r="CC55" s="34"/>
+      <c r="CD55" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="CE55" s="23"/>
-      <c r="CF55" s="23"/>
-      <c r="CG55" s="23"/>
+      <c r="CE55" s="34"/>
+      <c r="CF55" s="34"/>
+      <c r="CG55" s="34"/>
       <c r="CH55" s="21" t="s">
         <v>53</v>
       </c>
@@ -30901,14 +31159,15 @@
       <c r="CM55" s="21"/>
       <c r="CN55" s="21"/>
       <c r="CO55" s="21"/>
-      <c r="CP55" s="21" t="s">
+      <c r="CP55" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="CQ55" s="21"/>
-      <c r="CR55" s="22"/>
+      <c r="CQ55" s="24"/>
+      <c r="CR55" s="24"/>
       <c r="CS55" s="22"/>
-      <c r="CT55" s="21"/>
-      <c r="CU55" s="22"/>
+      <c r="CT55" s="24"/>
+      <c r="CU55" s="24"/>
+      <c r="CV55" s="22"/>
     </row>
     <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
@@ -31190,19 +31449,29 @@
       <c r="CO56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP56" s="5" t="s">
+      <c r="CP56" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="CQ56" s="5" t="s">
+      <c r="CQ56" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CR56" s="5"/>
-      <c r="CS56" s="5"/>
-      <c r="CT56" s="5"/>
-      <c r="CU56" s="5"/>
+      <c r="CR56" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS56" s="30"/>
+      <c r="CT56" s="30"/>
+      <c r="CU56" s="30"/>
+      <c r="CV56" s="30"/>
     </row>
     <row r="57" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
+      <c r="CP57" s="23"/>
+      <c r="CQ57" s="23"/>
+      <c r="CR57" s="23"/>
+      <c r="CS57" s="23"/>
+      <c r="CT57" s="23"/>
+      <c r="CU57" s="23"/>
+      <c r="CV57" s="23"/>
     </row>
     <row r="58" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -31484,16 +31753,19 @@
       <c r="CO58" s="15">
         <v>-15.4063694570211</v>
       </c>
-      <c r="CP58" s="15">
+      <c r="CP58" s="31">
         <v>-46.997153296519336</v>
       </c>
-      <c r="CQ58" s="15">
-        <v>60.670372215788603</v>
-      </c>
-      <c r="CR58" s="15"/>
-      <c r="CS58" s="15"/>
-      <c r="CT58" s="15"/>
-      <c r="CU58" s="15"/>
+      <c r="CQ58" s="31">
+        <v>68.055234197769067</v>
+      </c>
+      <c r="CR58" s="31">
+        <v>20.587710158327639</v>
+      </c>
+      <c r="CS58" s="31"/>
+      <c r="CT58" s="31"/>
+      <c r="CU58" s="31"/>
+      <c r="CV58" s="31"/>
     </row>
     <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -31775,17 +32047,19 @@
       <c r="CO59" s="15">
         <v>-47.523461612494863</v>
       </c>
-      <c r="CP59" s="15">
+      <c r="CP59" s="31">
         <v>-2.6344447098315413</v>
       </c>
-      <c r="CQ59" s="15">
+      <c r="CQ59" s="31">
         <v>-3.7333348789425145</v>
       </c>
-      <c r="CR59" s="15"/>
-      <c r="CS59" s="15"/>
-      <c r="CT59" s="15"/>
-      <c r="CU59" s="15"/>
-      <c r="CV59" s="9"/>
+      <c r="CR59" s="31">
+        <v>-31.826902392252293</v>
+      </c>
+      <c r="CS59" s="31"/>
+      <c r="CT59" s="31"/>
+      <c r="CU59" s="31"/>
+      <c r="CV59" s="31"/>
       <c r="CW59" s="9"/>
       <c r="CX59" s="9"/>
       <c r="CY59" s="9"/>
@@ -32116,17 +32390,19 @@
       <c r="CO60" s="15">
         <v>22.461927742893224</v>
       </c>
-      <c r="CP60" s="15">
+      <c r="CP60" s="31">
         <v>6.7712410592340575</v>
       </c>
-      <c r="CQ60" s="15">
-        <v>13.736213037408376</v>
-      </c>
-      <c r="CR60" s="15"/>
-      <c r="CS60" s="15"/>
-      <c r="CT60" s="15"/>
-      <c r="CU60" s="15"/>
-      <c r="CV60" s="9"/>
+      <c r="CQ60" s="31">
+        <v>13.669426485464228</v>
+      </c>
+      <c r="CR60" s="31">
+        <v>32.850310788552349</v>
+      </c>
+      <c r="CS60" s="31"/>
+      <c r="CT60" s="31"/>
+      <c r="CU60" s="31"/>
+      <c r="CV60" s="31"/>
       <c r="CW60" s="9"/>
       <c r="CX60" s="9"/>
       <c r="CY60" s="9"/>
@@ -32457,17 +32733,19 @@
       <c r="CO61" s="15">
         <v>-17.055116369346194</v>
       </c>
-      <c r="CP61" s="15">
+      <c r="CP61" s="31">
         <v>-26.147232501712395</v>
       </c>
-      <c r="CQ61" s="15">
-        <v>-24.312448672924887</v>
-      </c>
-      <c r="CR61" s="15"/>
-      <c r="CS61" s="15"/>
-      <c r="CT61" s="15"/>
-      <c r="CU61" s="15"/>
-      <c r="CV61" s="9"/>
+      <c r="CQ61" s="31">
+        <v>-21.430690307839257</v>
+      </c>
+      <c r="CR61" s="31">
+        <v>-12.442078136770448</v>
+      </c>
+      <c r="CS61" s="31"/>
+      <c r="CT61" s="31"/>
+      <c r="CU61" s="31"/>
+      <c r="CV61" s="31"/>
       <c r="CW61" s="9"/>
       <c r="CX61" s="9"/>
       <c r="CY61" s="9"/>
@@ -32798,17 +33076,19 @@
       <c r="CO62" s="15">
         <v>4.2205351309310544</v>
       </c>
-      <c r="CP62" s="15">
+      <c r="CP62" s="31">
         <v>-3.1402333272407645</v>
       </c>
-      <c r="CQ62" s="15">
-        <v>23.223672159502073</v>
-      </c>
-      <c r="CR62" s="15"/>
-      <c r="CS62" s="15"/>
-      <c r="CT62" s="15"/>
-      <c r="CU62" s="15"/>
-      <c r="CV62" s="9"/>
+      <c r="CQ62" s="31">
+        <v>22.662395468059643</v>
+      </c>
+      <c r="CR62" s="31">
+        <v>7.2925961366813397</v>
+      </c>
+      <c r="CS62" s="31"/>
+      <c r="CT62" s="31"/>
+      <c r="CU62" s="31"/>
+      <c r="CV62" s="31"/>
       <c r="CW62" s="9"/>
       <c r="CX62" s="9"/>
       <c r="CY62" s="9"/>
@@ -33139,17 +33419,19 @@
       <c r="CO63" s="15">
         <v>7.8482601019550344</v>
       </c>
-      <c r="CP63" s="15">
+      <c r="CP63" s="31">
         <v>9.7612818758468904</v>
       </c>
-      <c r="CQ63" s="15">
-        <v>3.5552548402637711</v>
-      </c>
-      <c r="CR63" s="15"/>
-      <c r="CS63" s="15"/>
-      <c r="CT63" s="15"/>
-      <c r="CU63" s="15"/>
-      <c r="CV63" s="9"/>
+      <c r="CQ63" s="31">
+        <v>3.9528857012580261</v>
+      </c>
+      <c r="CR63" s="31">
+        <v>6.8762388027553243</v>
+      </c>
+      <c r="CS63" s="31"/>
+      <c r="CT63" s="31"/>
+      <c r="CU63" s="31"/>
+      <c r="CV63" s="31"/>
       <c r="CW63" s="9"/>
       <c r="CX63" s="9"/>
       <c r="CY63" s="9"/>
@@ -33293,13 +33575,13 @@
       <c r="CM64" s="9"/>
       <c r="CN64" s="9"/>
       <c r="CO64" s="9"/>
-      <c r="CP64" s="9"/>
-      <c r="CQ64" s="9"/>
-      <c r="CR64" s="9"/>
-      <c r="CS64" s="9"/>
-      <c r="CT64" s="9"/>
-      <c r="CU64" s="9"/>
-      <c r="CV64" s="9"/>
+      <c r="CP64" s="27"/>
+      <c r="CQ64" s="27"/>
+      <c r="CR64" s="27"/>
+      <c r="CS64" s="27"/>
+      <c r="CT64" s="27"/>
+      <c r="CU64" s="27"/>
+      <c r="CV64" s="27"/>
       <c r="CW64" s="9"/>
       <c r="CX64" s="9"/>
       <c r="CY64" s="9"/>
@@ -33630,17 +33912,19 @@
       <c r="CO65" s="15">
         <v>-8.0578746896439384</v>
       </c>
-      <c r="CP65" s="15">
+      <c r="CP65" s="31">
         <v>-13.689136203763169</v>
       </c>
-      <c r="CQ65" s="15">
-        <v>6.2976620336063291</v>
-      </c>
-      <c r="CR65" s="15"/>
-      <c r="CS65" s="15"/>
-      <c r="CT65" s="15"/>
-      <c r="CU65" s="15"/>
-      <c r="CV65" s="9"/>
+      <c r="CQ65" s="31">
+        <v>7.9724908466819642</v>
+      </c>
+      <c r="CR65" s="31">
+        <v>8.0330418339397767</v>
+      </c>
+      <c r="CS65" s="31"/>
+      <c r="CT65" s="31"/>
+      <c r="CU65" s="31"/>
+      <c r="CV65" s="31"/>
       <c r="CW65" s="9"/>
       <c r="CX65" s="9"/>
       <c r="CY65" s="9"/>
@@ -33785,17 +34069,25 @@
       <c r="CM66" s="13"/>
       <c r="CN66" s="13"/>
       <c r="CO66" s="13"/>
-      <c r="CP66" s="13"/>
-      <c r="CQ66" s="13"/>
-      <c r="CR66" s="13"/>
-      <c r="CS66" s="13"/>
-      <c r="CT66" s="13"/>
-      <c r="CU66" s="13"/>
+      <c r="CP66" s="29"/>
+      <c r="CQ66" s="29"/>
+      <c r="CR66" s="29"/>
+      <c r="CS66" s="29"/>
+      <c r="CT66" s="29"/>
+      <c r="CU66" s="29"/>
+      <c r="CV66" s="29"/>
     </row>
     <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>51</v>
       </c>
+      <c r="CP67" s="23"/>
+      <c r="CQ67" s="23"/>
+      <c r="CR67" s="23"/>
+      <c r="CS67" s="23"/>
+      <c r="CT67" s="23"/>
+      <c r="CU67" s="23"/>
+      <c r="CV67" s="23"/>
     </row>
     <row r="68" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
@@ -33893,13 +34185,13 @@
       <c r="CM68" s="9"/>
       <c r="CN68" s="9"/>
       <c r="CO68" s="9"/>
-      <c r="CP68" s="9"/>
-      <c r="CQ68" s="9"/>
-      <c r="CR68" s="9"/>
-      <c r="CS68" s="9"/>
-      <c r="CT68" s="9"/>
-      <c r="CU68" s="9"/>
-      <c r="CV68" s="9"/>
+      <c r="CP68" s="27"/>
+      <c r="CQ68" s="27"/>
+      <c r="CR68" s="27"/>
+      <c r="CS68" s="27"/>
+      <c r="CT68" s="27"/>
+      <c r="CU68" s="27"/>
+      <c r="CV68" s="27"/>
       <c r="CW68" s="9"/>
       <c r="CX68" s="9"/>
       <c r="CY68" s="9"/>
@@ -34043,13 +34335,13 @@
       <c r="CM69" s="9"/>
       <c r="CN69" s="9"/>
       <c r="CO69" s="9"/>
-      <c r="CP69" s="9"/>
-      <c r="CQ69" s="9"/>
-      <c r="CR69" s="9"/>
-      <c r="CS69" s="9"/>
-      <c r="CT69" s="9"/>
-      <c r="CU69" s="9"/>
-      <c r="CV69" s="9"/>
+      <c r="CP69" s="27"/>
+      <c r="CQ69" s="27"/>
+      <c r="CR69" s="27"/>
+      <c r="CS69" s="27"/>
+      <c r="CT69" s="27"/>
+      <c r="CU69" s="27"/>
+      <c r="CV69" s="27"/>
       <c r="CW69" s="9"/>
       <c r="CX69" s="9"/>
       <c r="CY69" s="9"/>
@@ -34104,162 +34396,220 @@
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP70" s="23"/>
+      <c r="CQ70" s="23"/>
+      <c r="CR70" s="23"/>
+      <c r="CS70" s="23"/>
+      <c r="CT70" s="23"/>
+      <c r="CU70" s="23"/>
+      <c r="CV70" s="23"/>
     </row>
     <row r="71" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP71" s="23"/>
+      <c r="CQ71" s="23"/>
+      <c r="CR71" s="23"/>
+      <c r="CS71" s="23"/>
+      <c r="CT71" s="23"/>
+      <c r="CU71" s="23"/>
+      <c r="CV71" s="23"/>
     </row>
     <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="CP72" s="23"/>
+      <c r="CQ72" s="23"/>
+      <c r="CR72" s="23"/>
+      <c r="CS72" s="23"/>
+      <c r="CT72" s="23"/>
+      <c r="CU72" s="23"/>
+      <c r="CV72" s="23"/>
     </row>
-    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP73" s="23"/>
+      <c r="CQ73" s="23"/>
+      <c r="CR73" s="23"/>
+      <c r="CS73" s="23"/>
+      <c r="CT73" s="23"/>
+      <c r="CU73" s="23"/>
+      <c r="CV73" s="23"/>
+    </row>
     <row r="74" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="CP74" s="23"/>
+      <c r="CQ74" s="23"/>
+      <c r="CR74" s="23"/>
+      <c r="CS74" s="23"/>
+      <c r="CT74" s="23"/>
+      <c r="CU74" s="23"/>
+      <c r="CV74" s="23"/>
     </row>
     <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="CP75" s="23"/>
+      <c r="CQ75" s="23"/>
+      <c r="CR75" s="23"/>
+      <c r="CS75" s="23"/>
+      <c r="CT75" s="23"/>
+      <c r="CU75" s="23"/>
+      <c r="CV75" s="23"/>
     </row>
     <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="CP76" s="23"/>
+      <c r="CQ76" s="23"/>
+      <c r="CR76" s="23"/>
+      <c r="CS76" s="23"/>
+      <c r="CT76" s="23"/>
+      <c r="CU76" s="23"/>
+      <c r="CV76" s="23"/>
     </row>
-    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP77" s="23"/>
+      <c r="CQ77" s="23"/>
+      <c r="CR77" s="23"/>
+      <c r="CS77" s="23"/>
+      <c r="CT77" s="23"/>
+      <c r="CU77" s="23"/>
+      <c r="CV77" s="23"/>
+    </row>
     <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="23" t="s">
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="23" t="s">
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="23" t="s">
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="23" t="s">
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="24"/>
-      <c r="T78" s="24"/>
-      <c r="U78" s="24"/>
-      <c r="V78" s="23" t="s">
+      <c r="S78" s="35"/>
+      <c r="T78" s="35"/>
+      <c r="U78" s="35"/>
+      <c r="V78" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="W78" s="24"/>
-      <c r="X78" s="24"/>
-      <c r="Y78" s="24"/>
-      <c r="Z78" s="23" t="s">
+      <c r="W78" s="35"/>
+      <c r="X78" s="35"/>
+      <c r="Y78" s="35"/>
+      <c r="Z78" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA78" s="24"/>
-      <c r="AB78" s="24"/>
-      <c r="AC78" s="24"/>
-      <c r="AD78" s="23" t="s">
+      <c r="AA78" s="35"/>
+      <c r="AB78" s="35"/>
+      <c r="AC78" s="35"/>
+      <c r="AD78" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="24"/>
-      <c r="AF78" s="24"/>
-      <c r="AG78" s="24"/>
-      <c r="AH78" s="23" t="s">
+      <c r="AE78" s="35"/>
+      <c r="AF78" s="35"/>
+      <c r="AG78" s="35"/>
+      <c r="AH78" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AI78" s="24"/>
-      <c r="AJ78" s="24"/>
-      <c r="AK78" s="24"/>
-      <c r="AL78" s="23" t="s">
+      <c r="AI78" s="35"/>
+      <c r="AJ78" s="35"/>
+      <c r="AK78" s="35"/>
+      <c r="AL78" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AM78" s="24"/>
-      <c r="AN78" s="24"/>
-      <c r="AO78" s="24"/>
-      <c r="AP78" s="23" t="s">
+      <c r="AM78" s="35"/>
+      <c r="AN78" s="35"/>
+      <c r="AO78" s="35"/>
+      <c r="AP78" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AQ78" s="24"/>
-      <c r="AR78" s="24"/>
-      <c r="AS78" s="24"/>
-      <c r="AT78" s="23" t="s">
+      <c r="AQ78" s="35"/>
+      <c r="AR78" s="35"/>
+      <c r="AS78" s="35"/>
+      <c r="AT78" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AU78" s="24"/>
-      <c r="AV78" s="24"/>
-      <c r="AW78" s="24"/>
-      <c r="AX78" s="23" t="s">
+      <c r="AU78" s="35"/>
+      <c r="AV78" s="35"/>
+      <c r="AW78" s="35"/>
+      <c r="AX78" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AY78" s="24"/>
-      <c r="AZ78" s="24"/>
-      <c r="BA78" s="24"/>
-      <c r="BB78" s="23" t="s">
+      <c r="AY78" s="35"/>
+      <c r="AZ78" s="35"/>
+      <c r="BA78" s="35"/>
+      <c r="BB78" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="BC78" s="24"/>
-      <c r="BD78" s="24"/>
-      <c r="BE78" s="24"/>
-      <c r="BF78" s="23" t="s">
+      <c r="BC78" s="35"/>
+      <c r="BD78" s="35"/>
+      <c r="BE78" s="35"/>
+      <c r="BF78" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="BG78" s="24"/>
-      <c r="BH78" s="24"/>
-      <c r="BI78" s="24"/>
-      <c r="BJ78" s="23" t="s">
+      <c r="BG78" s="35"/>
+      <c r="BH78" s="35"/>
+      <c r="BI78" s="35"/>
+      <c r="BJ78" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="BK78" s="24"/>
-      <c r="BL78" s="24"/>
-      <c r="BM78" s="24"/>
-      <c r="BN78" s="23" t="s">
+      <c r="BK78" s="35"/>
+      <c r="BL78" s="35"/>
+      <c r="BM78" s="35"/>
+      <c r="BN78" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="BO78" s="24"/>
-      <c r="BP78" s="24"/>
-      <c r="BQ78" s="24"/>
-      <c r="BR78" s="23" t="s">
+      <c r="BO78" s="35"/>
+      <c r="BP78" s="35"/>
+      <c r="BQ78" s="35"/>
+      <c r="BR78" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="BS78" s="24"/>
-      <c r="BT78" s="24"/>
-      <c r="BU78" s="24"/>
-      <c r="BV78" s="23" t="s">
+      <c r="BS78" s="35"/>
+      <c r="BT78" s="35"/>
+      <c r="BU78" s="35"/>
+      <c r="BV78" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="BW78" s="24"/>
-      <c r="BX78" s="24"/>
-      <c r="BY78" s="24"/>
-      <c r="BZ78" s="23" t="s">
+      <c r="BW78" s="35"/>
+      <c r="BX78" s="35"/>
+      <c r="BY78" s="35"/>
+      <c r="BZ78" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="CA78" s="24"/>
-      <c r="CB78" s="24"/>
-      <c r="CC78" s="24"/>
-      <c r="CD78" s="23" t="s">
+      <c r="CA78" s="35"/>
+      <c r="CB78" s="35"/>
+      <c r="CC78" s="35"/>
+      <c r="CD78" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="CE78" s="23"/>
-      <c r="CF78" s="23"/>
-      <c r="CG78" s="23"/>
+      <c r="CE78" s="34"/>
+      <c r="CF78" s="34"/>
+      <c r="CG78" s="34"/>
       <c r="CH78" s="21" t="s">
         <v>53</v>
       </c>
@@ -34272,14 +34622,15 @@
       <c r="CM78" s="21"/>
       <c r="CN78" s="21"/>
       <c r="CO78" s="21"/>
-      <c r="CP78" s="21" t="s">
+      <c r="CP78" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="CQ78" s="21"/>
-      <c r="CR78" s="22"/>
+      <c r="CQ78" s="24"/>
+      <c r="CR78" s="24"/>
       <c r="CS78" s="22"/>
-      <c r="CT78" s="21"/>
-      <c r="CU78" s="22"/>
+      <c r="CT78" s="24"/>
+      <c r="CU78" s="24"/>
+      <c r="CV78" s="22"/>
     </row>
     <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
@@ -34561,19 +34912,29 @@
       <c r="CO79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP79" s="5" t="s">
+      <c r="CP79" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="CQ79" s="5" t="s">
+      <c r="CQ79" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CR79" s="5"/>
-      <c r="CS79" s="5"/>
-      <c r="CT79" s="5"/>
-      <c r="CU79" s="5"/>
+      <c r="CR79" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS79" s="30"/>
+      <c r="CT79" s="30"/>
+      <c r="CU79" s="30"/>
+      <c r="CV79" s="30"/>
     </row>
     <row r="80" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
+      <c r="CP80" s="23"/>
+      <c r="CQ80" s="23"/>
+      <c r="CR80" s="23"/>
+      <c r="CS80" s="23"/>
+      <c r="CT80" s="23"/>
+      <c r="CU80" s="23"/>
+      <c r="CV80" s="23"/>
     </row>
     <row r="81" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -34855,17 +35216,19 @@
       <c r="CO81" s="15">
         <v>92.873760379849415</v>
       </c>
-      <c r="CP81" s="15">
+      <c r="CP81" s="31">
         <v>-13.123230247193803</v>
       </c>
-      <c r="CQ81" s="15">
-        <v>76.230720486091798</v>
-      </c>
-      <c r="CR81" s="15"/>
-      <c r="CS81" s="15"/>
-      <c r="CT81" s="15"/>
-      <c r="CU81" s="15"/>
-      <c r="CV81" s="9"/>
+      <c r="CQ81" s="31">
+        <v>84.330779817670731</v>
+      </c>
+      <c r="CR81" s="31">
+        <v>20.810248989752878</v>
+      </c>
+      <c r="CS81" s="31"/>
+      <c r="CT81" s="31"/>
+      <c r="CU81" s="31"/>
+      <c r="CV81" s="31"/>
       <c r="CW81" s="9"/>
       <c r="CX81" s="9"/>
       <c r="CY81" s="9"/>
@@ -35196,17 +35559,19 @@
       <c r="CO82" s="15">
         <v>-25.874397678613008</v>
       </c>
-      <c r="CP82" s="15">
+      <c r="CP82" s="31">
         <v>3.0761252136109647</v>
       </c>
-      <c r="CQ82" s="15">
+      <c r="CQ82" s="31">
         <v>-10.365276130208201</v>
       </c>
-      <c r="CR82" s="15"/>
-      <c r="CS82" s="15"/>
-      <c r="CT82" s="15"/>
-      <c r="CU82" s="15"/>
-      <c r="CV82" s="9"/>
+      <c r="CR82" s="31">
+        <v>-22.660135797957466</v>
+      </c>
+      <c r="CS82" s="31"/>
+      <c r="CT82" s="31"/>
+      <c r="CU82" s="31"/>
+      <c r="CV82" s="31"/>
       <c r="CW82" s="9"/>
       <c r="CX82" s="9"/>
       <c r="CY82" s="9"/>
@@ -35537,17 +35902,19 @@
       <c r="CO83" s="15">
         <v>9.6887724231272188</v>
       </c>
-      <c r="CP83" s="15">
+      <c r="CP83" s="31">
         <v>-1.9557021819451279</v>
       </c>
-      <c r="CQ83" s="15">
-        <v>-7.3264936041510822</v>
-      </c>
-      <c r="CR83" s="15"/>
-      <c r="CS83" s="15"/>
-      <c r="CT83" s="15"/>
-      <c r="CU83" s="15"/>
-      <c r="CV83" s="9"/>
+      <c r="CQ83" s="31">
+        <v>-7.3809120148177954</v>
+      </c>
+      <c r="CR83" s="31">
+        <v>1.0885537269954995</v>
+      </c>
+      <c r="CS83" s="31"/>
+      <c r="CT83" s="31"/>
+      <c r="CU83" s="31"/>
+      <c r="CV83" s="31"/>
       <c r="CW83" s="9"/>
       <c r="CX83" s="9"/>
       <c r="CY83" s="9"/>
@@ -35878,17 +36245,19 @@
       <c r="CO84" s="15">
         <v>6.9120335398334021</v>
       </c>
-      <c r="CP84" s="15">
+      <c r="CP84" s="31">
         <v>6.3734928956499743</v>
       </c>
-      <c r="CQ84" s="15">
-        <v>-11.527144470924682</v>
-      </c>
-      <c r="CR84" s="15"/>
-      <c r="CS84" s="15"/>
-      <c r="CT84" s="15"/>
-      <c r="CU84" s="15"/>
-      <c r="CV84" s="9"/>
+      <c r="CQ84" s="31">
+        <v>-8.1585932754691157</v>
+      </c>
+      <c r="CR84" s="31">
+        <v>-4.6118447908417863</v>
+      </c>
+      <c r="CS84" s="31"/>
+      <c r="CT84" s="31"/>
+      <c r="CU84" s="31"/>
+      <c r="CV84" s="31"/>
       <c r="CW84" s="9"/>
       <c r="CX84" s="9"/>
       <c r="CY84" s="9"/>
@@ -36219,17 +36588,19 @@
       <c r="CO85" s="15">
         <v>4.6995140419210202</v>
       </c>
-      <c r="CP85" s="15">
+      <c r="CP85" s="31">
         <v>0.55350290128286872</v>
       </c>
-      <c r="CQ85" s="15">
-        <v>3.0794039555444073</v>
-      </c>
-      <c r="CR85" s="15"/>
-      <c r="CS85" s="15"/>
-      <c r="CT85" s="15"/>
-      <c r="CU85" s="15"/>
-      <c r="CV85" s="9"/>
+      <c r="CQ85" s="31">
+        <v>2.6098832393208795</v>
+      </c>
+      <c r="CR85" s="31">
+        <v>-4.572313974481105</v>
+      </c>
+      <c r="CS85" s="31"/>
+      <c r="CT85" s="31"/>
+      <c r="CU85" s="31"/>
+      <c r="CV85" s="31"/>
       <c r="CW85" s="9"/>
       <c r="CX85" s="9"/>
       <c r="CY85" s="9"/>
@@ -36560,17 +36931,19 @@
       <c r="CO86" s="15">
         <v>6.9887211682223978</v>
       </c>
-      <c r="CP86" s="15">
+      <c r="CP86" s="31">
         <v>8.3420939820657054</v>
       </c>
-      <c r="CQ86" s="15">
-        <v>3.6467616928472779</v>
-      </c>
-      <c r="CR86" s="15"/>
-      <c r="CS86" s="15"/>
-      <c r="CT86" s="15"/>
-      <c r="CU86" s="15"/>
-      <c r="CV86" s="9"/>
+      <c r="CQ86" s="31">
+        <v>4.0447439213180871</v>
+      </c>
+      <c r="CR86" s="31">
+        <v>7.1896588578953953</v>
+      </c>
+      <c r="CS86" s="31"/>
+      <c r="CT86" s="31"/>
+      <c r="CU86" s="31"/>
+      <c r="CV86" s="31"/>
       <c r="CW86" s="9"/>
       <c r="CX86" s="9"/>
       <c r="CY86" s="9"/>
@@ -36714,13 +37087,13 @@
       <c r="CM87" s="9"/>
       <c r="CN87" s="9"/>
       <c r="CO87" s="9"/>
-      <c r="CP87" s="9"/>
-      <c r="CQ87" s="9"/>
-      <c r="CR87" s="9"/>
-      <c r="CS87" s="9"/>
-      <c r="CT87" s="9"/>
-      <c r="CU87" s="9"/>
-      <c r="CV87" s="9"/>
+      <c r="CP87" s="27"/>
+      <c r="CQ87" s="27"/>
+      <c r="CR87" s="27"/>
+      <c r="CS87" s="27"/>
+      <c r="CT87" s="27"/>
+      <c r="CU87" s="27"/>
+      <c r="CV87" s="27"/>
       <c r="CW87" s="9"/>
       <c r="CX87" s="9"/>
       <c r="CY87" s="9"/>
@@ -37051,17 +37424,19 @@
       <c r="CO88" s="15">
         <v>10.284235324386984</v>
       </c>
-      <c r="CP88" s="15">
+      <c r="CP88" s="31">
         <v>0.38626976704412641</v>
       </c>
-      <c r="CQ88" s="15">
-        <v>4.8075612090685951</v>
-      </c>
-      <c r="CR88" s="15"/>
-      <c r="CS88" s="15"/>
-      <c r="CT88" s="15"/>
-      <c r="CU88" s="15"/>
-      <c r="CV88" s="9"/>
+      <c r="CQ88" s="31">
+        <v>6.6422464837753807</v>
+      </c>
+      <c r="CR88" s="31">
+        <v>0.97144909607295915</v>
+      </c>
+      <c r="CS88" s="31"/>
+      <c r="CT88" s="31"/>
+      <c r="CU88" s="31"/>
+      <c r="CV88" s="31"/>
       <c r="CW88" s="9"/>
       <c r="CX88" s="9"/>
       <c r="CY88" s="9"/>
@@ -37206,17 +37581,25 @@
       <c r="CM89" s="13"/>
       <c r="CN89" s="13"/>
       <c r="CO89" s="13"/>
-      <c r="CP89" s="13"/>
-      <c r="CQ89" s="13"/>
-      <c r="CR89" s="13"/>
-      <c r="CS89" s="13"/>
-      <c r="CT89" s="13"/>
-      <c r="CU89" s="13"/>
+      <c r="CP89" s="29"/>
+      <c r="CQ89" s="29"/>
+      <c r="CR89" s="29"/>
+      <c r="CS89" s="29"/>
+      <c r="CT89" s="29"/>
+      <c r="CU89" s="29"/>
+      <c r="CV89" s="29"/>
     </row>
     <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>51</v>
       </c>
+      <c r="CP90" s="23"/>
+      <c r="CQ90" s="23"/>
+      <c r="CR90" s="23"/>
+      <c r="CS90" s="23"/>
+      <c r="CT90" s="23"/>
+      <c r="CU90" s="23"/>
+      <c r="CV90" s="23"/>
     </row>
     <row r="91" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
@@ -37314,13 +37697,13 @@
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
-      <c r="CP91" s="9"/>
-      <c r="CQ91" s="9"/>
-      <c r="CR91" s="9"/>
-      <c r="CS91" s="9"/>
-      <c r="CT91" s="9"/>
-      <c r="CU91" s="9"/>
-      <c r="CV91" s="9"/>
+      <c r="CP91" s="27"/>
+      <c r="CQ91" s="27"/>
+      <c r="CR91" s="27"/>
+      <c r="CS91" s="27"/>
+      <c r="CT91" s="27"/>
+      <c r="CU91" s="27"/>
+      <c r="CV91" s="27"/>
       <c r="CW91" s="9"/>
       <c r="CX91" s="9"/>
       <c r="CY91" s="9"/>
@@ -37464,13 +37847,13 @@
       <c r="CM92" s="9"/>
       <c r="CN92" s="9"/>
       <c r="CO92" s="9"/>
-      <c r="CP92" s="9"/>
-      <c r="CQ92" s="9"/>
-      <c r="CR92" s="9"/>
-      <c r="CS92" s="9"/>
-      <c r="CT92" s="9"/>
-      <c r="CU92" s="9"/>
-      <c r="CV92" s="9"/>
+      <c r="CP92" s="27"/>
+      <c r="CQ92" s="27"/>
+      <c r="CR92" s="27"/>
+      <c r="CS92" s="27"/>
+      <c r="CT92" s="27"/>
+      <c r="CU92" s="27"/>
+      <c r="CV92" s="27"/>
       <c r="CW92" s="9"/>
       <c r="CX92" s="9"/>
       <c r="CY92" s="9"/>
@@ -37530,157 +37913,208 @@
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP93" s="23"/>
+      <c r="CQ93" s="23"/>
+      <c r="CR93" s="23"/>
+      <c r="CS93" s="23"/>
+      <c r="CT93" s="23"/>
+      <c r="CU93" s="23"/>
+      <c r="CV93" s="23"/>
     </row>
     <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="CP94" s="23"/>
+      <c r="CQ94" s="23"/>
+      <c r="CR94" s="23"/>
+      <c r="CS94" s="23"/>
+      <c r="CT94" s="23"/>
+      <c r="CU94" s="23"/>
+      <c r="CV94" s="23"/>
     </row>
-    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP95" s="23"/>
+      <c r="CQ95" s="23"/>
+      <c r="CR95" s="23"/>
+      <c r="CS95" s="23"/>
+      <c r="CT95" s="23"/>
+      <c r="CU95" s="23"/>
+      <c r="CV95" s="23"/>
+    </row>
     <row r="96" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="CP96" s="23"/>
+      <c r="CQ96" s="23"/>
+      <c r="CR96" s="23"/>
+      <c r="CS96" s="23"/>
+      <c r="CT96" s="23"/>
+      <c r="CU96" s="23"/>
+      <c r="CV96" s="23"/>
     </row>
     <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="CP97" s="23"/>
+      <c r="CQ97" s="23"/>
+      <c r="CR97" s="23"/>
+      <c r="CS97" s="23"/>
+      <c r="CT97" s="23"/>
+      <c r="CU97" s="23"/>
+      <c r="CV97" s="23"/>
     </row>
     <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CP98" s="23"/>
+      <c r="CQ98" s="23"/>
+      <c r="CR98" s="23"/>
+      <c r="CS98" s="23"/>
+      <c r="CT98" s="23"/>
+      <c r="CU98" s="23"/>
+      <c r="CV98" s="23"/>
     </row>
-    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP99" s="23"/>
+      <c r="CQ99" s="23"/>
+      <c r="CR99" s="23"/>
+      <c r="CS99" s="23"/>
+      <c r="CT99" s="23"/>
+      <c r="CU99" s="23"/>
+      <c r="CV99" s="23"/>
+    </row>
     <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
-      <c r="B100" s="23">
+      <c r="B100" s="34">
         <v>2000</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23">
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34">
         <v>2001</v>
       </c>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="23">
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34">
         <v>2002</v>
       </c>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23"/>
-      <c r="M100" s="23"/>
-      <c r="N100" s="23">
+      <c r="K100" s="34"/>
+      <c r="L100" s="34"/>
+      <c r="M100" s="34"/>
+      <c r="N100" s="34">
         <v>2003</v>
       </c>
-      <c r="O100" s="23"/>
-      <c r="P100" s="23"/>
-      <c r="Q100" s="23"/>
-      <c r="R100" s="23">
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
+      <c r="Q100" s="34"/>
+      <c r="R100" s="34">
         <v>2004</v>
       </c>
-      <c r="S100" s="23"/>
-      <c r="T100" s="23"/>
-      <c r="U100" s="23"/>
-      <c r="V100" s="23">
+      <c r="S100" s="34"/>
+      <c r="T100" s="34"/>
+      <c r="U100" s="34"/>
+      <c r="V100" s="34">
         <v>2005</v>
       </c>
-      <c r="W100" s="23"/>
-      <c r="X100" s="23"/>
-      <c r="Y100" s="23"/>
-      <c r="Z100" s="23">
+      <c r="W100" s="34"/>
+      <c r="X100" s="34"/>
+      <c r="Y100" s="34"/>
+      <c r="Z100" s="34">
         <v>2006</v>
       </c>
-      <c r="AA100" s="23"/>
-      <c r="AB100" s="23"/>
-      <c r="AC100" s="23"/>
-      <c r="AD100" s="23">
+      <c r="AA100" s="34"/>
+      <c r="AB100" s="34"/>
+      <c r="AC100" s="34"/>
+      <c r="AD100" s="34">
         <v>2007</v>
       </c>
-      <c r="AE100" s="23"/>
-      <c r="AF100" s="23"/>
-      <c r="AG100" s="23"/>
-      <c r="AH100" s="23">
+      <c r="AE100" s="34"/>
+      <c r="AF100" s="34"/>
+      <c r="AG100" s="34"/>
+      <c r="AH100" s="34">
         <v>2008</v>
       </c>
-      <c r="AI100" s="23"/>
-      <c r="AJ100" s="23"/>
-      <c r="AK100" s="23"/>
-      <c r="AL100" s="23">
+      <c r="AI100" s="34"/>
+      <c r="AJ100" s="34"/>
+      <c r="AK100" s="34"/>
+      <c r="AL100" s="34">
         <v>2009</v>
       </c>
-      <c r="AM100" s="23"/>
-      <c r="AN100" s="23"/>
-      <c r="AO100" s="23"/>
-      <c r="AP100" s="23">
+      <c r="AM100" s="34"/>
+      <c r="AN100" s="34"/>
+      <c r="AO100" s="34"/>
+      <c r="AP100" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ100" s="23"/>
-      <c r="AR100" s="23"/>
-      <c r="AS100" s="23"/>
-      <c r="AT100" s="23">
+      <c r="AQ100" s="34"/>
+      <c r="AR100" s="34"/>
+      <c r="AS100" s="34"/>
+      <c r="AT100" s="34">
         <v>2011</v>
       </c>
-      <c r="AU100" s="23"/>
-      <c r="AV100" s="23"/>
-      <c r="AW100" s="23"/>
-      <c r="AX100" s="23">
+      <c r="AU100" s="34"/>
+      <c r="AV100" s="34"/>
+      <c r="AW100" s="34"/>
+      <c r="AX100" s="34">
         <v>2012</v>
       </c>
-      <c r="AY100" s="23"/>
-      <c r="AZ100" s="23"/>
-      <c r="BA100" s="23"/>
-      <c r="BB100" s="23">
+      <c r="AY100" s="34"/>
+      <c r="AZ100" s="34"/>
+      <c r="BA100" s="34"/>
+      <c r="BB100" s="34">
         <v>2013</v>
       </c>
-      <c r="BC100" s="23"/>
-      <c r="BD100" s="23"/>
-      <c r="BE100" s="23"/>
-      <c r="BF100" s="23">
+      <c r="BC100" s="34"/>
+      <c r="BD100" s="34"/>
+      <c r="BE100" s="34"/>
+      <c r="BF100" s="34">
         <v>2014</v>
       </c>
-      <c r="BG100" s="23"/>
-      <c r="BH100" s="23"/>
-      <c r="BI100" s="23"/>
-      <c r="BJ100" s="23">
+      <c r="BG100" s="34"/>
+      <c r="BH100" s="34"/>
+      <c r="BI100" s="34"/>
+      <c r="BJ100" s="34">
         <v>2015</v>
       </c>
-      <c r="BK100" s="23"/>
-      <c r="BL100" s="23"/>
-      <c r="BM100" s="23"/>
-      <c r="BN100" s="23">
+      <c r="BK100" s="34"/>
+      <c r="BL100" s="34"/>
+      <c r="BM100" s="34"/>
+      <c r="BN100" s="34">
         <v>2016</v>
       </c>
-      <c r="BO100" s="23"/>
-      <c r="BP100" s="23"/>
-      <c r="BQ100" s="23"/>
-      <c r="BR100" s="23">
+      <c r="BO100" s="34"/>
+      <c r="BP100" s="34"/>
+      <c r="BQ100" s="34"/>
+      <c r="BR100" s="34">
         <v>2017</v>
       </c>
-      <c r="BS100" s="23"/>
-      <c r="BT100" s="23"/>
-      <c r="BU100" s="23"/>
-      <c r="BV100" s="23">
+      <c r="BS100" s="34"/>
+      <c r="BT100" s="34"/>
+      <c r="BU100" s="34"/>
+      <c r="BV100" s="34">
         <v>2018</v>
       </c>
-      <c r="BW100" s="23"/>
-      <c r="BX100" s="23"/>
-      <c r="BY100" s="23"/>
-      <c r="BZ100" s="23">
+      <c r="BW100" s="34"/>
+      <c r="BX100" s="34"/>
+      <c r="BY100" s="34"/>
+      <c r="BZ100" s="34">
         <v>2019</v>
       </c>
-      <c r="CA100" s="23"/>
-      <c r="CB100" s="23"/>
-      <c r="CC100" s="23"/>
-      <c r="CD100" s="23">
+      <c r="CA100" s="34"/>
+      <c r="CB100" s="34"/>
+      <c r="CC100" s="34"/>
+      <c r="CD100" s="34">
         <v>2020</v>
       </c>
-      <c r="CE100" s="23"/>
-      <c r="CF100" s="23"/>
-      <c r="CG100" s="23"/>
+      <c r="CE100" s="34"/>
+      <c r="CF100" s="34"/>
+      <c r="CG100" s="34"/>
       <c r="CH100" s="21">
         <v>2021</v>
       </c>
@@ -37693,16 +38127,17 @@
       <c r="CM100" s="21"/>
       <c r="CN100" s="21"/>
       <c r="CO100" s="21"/>
-      <c r="CP100" s="21">
+      <c r="CP100" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ100" s="21"/>
-      <c r="CR100" s="21"/>
-      <c r="CS100" s="21"/>
-      <c r="CT100" s="21">
+      <c r="CQ100" s="24"/>
+      <c r="CR100" s="24"/>
+      <c r="CS100" s="24"/>
+      <c r="CT100" s="24">
         <v>2024</v>
       </c>
-      <c r="CU100" s="21"/>
+      <c r="CU100" s="24"/>
+      <c r="CV100" s="24"/>
     </row>
     <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
@@ -37984,27 +38419,37 @@
       <c r="CO101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP101" s="6" t="s">
+      <c r="CP101" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ101" s="6" t="s">
+      <c r="CQ101" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CR101" s="6" t="s">
+      <c r="CR101" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CS101" s="6" t="s">
+      <c r="CS101" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CT101" s="6" t="s">
+      <c r="CT101" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CU101" s="6" t="s">
+      <c r="CU101" s="25" t="s">
         <v>8</v>
+      </c>
+      <c r="CV101" s="25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
+      <c r="CP102" s="23"/>
+      <c r="CQ102" s="23"/>
+      <c r="CR102" s="23"/>
+      <c r="CS102" s="23"/>
+      <c r="CT102" s="23"/>
+      <c r="CU102" s="23"/>
+      <c r="CV102" s="23"/>
     </row>
     <row r="103" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -38286,25 +38731,27 @@
       <c r="CO103" s="15">
         <v>247.1704890403808</v>
       </c>
-      <c r="CP103" s="15">
+      <c r="CP103" s="31">
         <v>159.64734819240488</v>
       </c>
-      <c r="CQ103" s="15">
+      <c r="CQ103" s="31">
         <v>121.19514041033848</v>
       </c>
-      <c r="CR103" s="15">
+      <c r="CR103" s="31">
         <v>297.23105309337654</v>
       </c>
-      <c r="CS103" s="15">
+      <c r="CS103" s="31">
         <v>108.40795030817407</v>
       </c>
-      <c r="CT103" s="15">
+      <c r="CT103" s="31">
         <v>97.399614959624031</v>
       </c>
-      <c r="CU103" s="15">
-        <v>110.49417642260968</v>
-      </c>
-      <c r="CV103" s="9"/>
+      <c r="CU103" s="31">
+        <v>110.49417642260973</v>
+      </c>
+      <c r="CV103" s="31">
+        <v>296.68353786373484</v>
+      </c>
       <c r="CW103" s="9"/>
       <c r="CX103" s="9"/>
       <c r="CY103" s="9"/>
@@ -38640,25 +39087,27 @@
       <c r="CO104" s="15">
         <v>285.6187188187817</v>
       </c>
-      <c r="CP104" s="15">
+      <c r="CP104" s="31">
         <v>154.32125894314882</v>
       </c>
-      <c r="CQ104" s="15">
+      <c r="CQ104" s="31">
         <v>55.583712237511342</v>
       </c>
-      <c r="CR104" s="15">
+      <c r="CR104" s="31">
         <v>185.2692550108049</v>
       </c>
-      <c r="CS104" s="15">
+      <c r="CS104" s="31">
         <v>202.20114498765241</v>
       </c>
-      <c r="CT104" s="15">
+      <c r="CT104" s="31">
         <v>145.77163275141689</v>
       </c>
-      <c r="CU104" s="15">
+      <c r="CU104" s="31">
         <v>59.696269270898547</v>
       </c>
-      <c r="CV104" s="9"/>
+      <c r="CV104" s="31">
+        <v>163.31007477037613</v>
+      </c>
       <c r="CW104" s="9"/>
       <c r="CX104" s="9"/>
       <c r="CY104" s="9"/>
@@ -38994,25 +39443,27 @@
       <c r="CO105" s="15">
         <v>153.05783845230368</v>
       </c>
-      <c r="CP105" s="15">
+      <c r="CP105" s="31">
         <v>184.00604362019993</v>
       </c>
-      <c r="CQ105" s="15">
+      <c r="CQ105" s="31">
         <v>181.94480069660065</v>
       </c>
-      <c r="CR105" s="15">
+      <c r="CR105" s="31">
         <v>190.8946984230239</v>
       </c>
-      <c r="CS105" s="15">
+      <c r="CS105" s="31">
         <v>170.88128109160448</v>
       </c>
-      <c r="CT105" s="15">
+      <c r="CT105" s="31">
         <v>200.38445964687597</v>
       </c>
-      <c r="CU105" s="15">
-        <v>223.29696390989588</v>
-      </c>
-      <c r="CV105" s="9"/>
+      <c r="CU105" s="31">
+        <v>223.29696390989574</v>
+      </c>
+      <c r="CV105" s="31">
+        <v>250.87330937462252</v>
+      </c>
       <c r="CW105" s="9"/>
       <c r="CX105" s="9"/>
       <c r="CY105" s="9"/>
@@ -39348,25 +39799,27 @@
       <c r="CO106" s="15">
         <v>250.15434461000839</v>
       </c>
-      <c r="CP106" s="15">
+      <c r="CP106" s="31">
         <v>299.56913015963897</v>
       </c>
-      <c r="CQ106" s="15">
+      <c r="CQ106" s="31">
         <v>171.66658758744097</v>
       </c>
-      <c r="CR106" s="15">
+      <c r="CR106" s="31">
         <v>146.76527638755769</v>
       </c>
-      <c r="CS106" s="15">
+      <c r="CS106" s="31">
         <v>194.07565562438697</v>
       </c>
-      <c r="CT106" s="15">
+      <c r="CT106" s="31">
         <v>207.98423288635672</v>
       </c>
-      <c r="CU106" s="15">
-        <v>146.8588707967983</v>
-      </c>
-      <c r="CV106" s="9"/>
+      <c r="CU106" s="31">
+        <v>146.85887079679836</v>
+      </c>
+      <c r="CV106" s="31">
+        <v>134.71759228386136</v>
+      </c>
       <c r="CW106" s="9"/>
       <c r="CX106" s="9"/>
       <c r="CY106" s="9"/>
@@ -39702,25 +40155,27 @@
       <c r="CO107" s="15">
         <v>338.46074848278317</v>
       </c>
-      <c r="CP107" s="15">
+      <c r="CP107" s="31">
         <v>54.09510158902782</v>
       </c>
-      <c r="CQ107" s="15">
+      <c r="CQ107" s="31">
         <v>256.92541954314146</v>
       </c>
-      <c r="CR107" s="15">
+      <c r="CR107" s="31">
         <v>210.88772582479916</v>
       </c>
-      <c r="CS107" s="15">
+      <c r="CS107" s="31">
         <v>336.91235962726074</v>
       </c>
-      <c r="CT107" s="15">
+      <c r="CT107" s="31">
         <v>52.107970054473306</v>
       </c>
-      <c r="CU107" s="15">
-        <v>307.13500905457761</v>
-      </c>
-      <c r="CV107" s="9"/>
+      <c r="CU107" s="31">
+        <v>307.13500905457749</v>
+      </c>
+      <c r="CV107" s="31">
+        <v>237.10824960224457</v>
+      </c>
       <c r="CW107" s="9"/>
       <c r="CX107" s="9"/>
       <c r="CY107" s="9"/>
@@ -40056,25 +40511,27 @@
       <c r="CO108" s="15">
         <v>91.617520697276063</v>
       </c>
-      <c r="CP108" s="15">
+      <c r="CP108" s="31">
         <v>121.30080801382188</v>
       </c>
-      <c r="CQ108" s="15">
+      <c r="CQ108" s="31">
         <v>125.41004865596572</v>
       </c>
-      <c r="CR108" s="15">
+      <c r="CR108" s="31">
         <v>149.8821367636256</v>
       </c>
-      <c r="CS108" s="15">
+      <c r="CS108" s="31">
         <v>92.353568620753393</v>
       </c>
-      <c r="CT108" s="15">
+      <c r="CT108" s="31">
         <v>122.88974387348495</v>
       </c>
-      <c r="CU108" s="15">
+      <c r="CU108" s="31">
         <v>125.29932760064845</v>
       </c>
-      <c r="CV108" s="9"/>
+      <c r="CV108" s="31">
+        <v>149.44388490174362</v>
+      </c>
       <c r="CW108" s="9"/>
       <c r="CX108" s="9"/>
       <c r="CY108" s="9"/>
@@ -40223,13 +40680,13 @@
       <c r="CM109" s="9"/>
       <c r="CN109" s="9"/>
       <c r="CO109" s="9"/>
-      <c r="CP109" s="9"/>
-      <c r="CQ109" s="9"/>
-      <c r="CR109" s="9"/>
-      <c r="CS109" s="9"/>
-      <c r="CT109" s="9"/>
-      <c r="CU109" s="9"/>
-      <c r="CV109" s="9"/>
+      <c r="CP109" s="27"/>
+      <c r="CQ109" s="27"/>
+      <c r="CR109" s="27"/>
+      <c r="CS109" s="27"/>
+      <c r="CT109" s="27"/>
+      <c r="CU109" s="27"/>
+      <c r="CV109" s="27"/>
       <c r="CW109" s="9"/>
       <c r="CX109" s="9"/>
       <c r="CY109" s="9"/>
@@ -40565,25 +41022,27 @@
       <c r="CO110" s="15">
         <v>161.80141718609161</v>
       </c>
-      <c r="CP110" s="15">
+      <c r="CP110" s="31">
         <v>156.63139543047023</v>
       </c>
-      <c r="CQ110" s="15">
+      <c r="CQ110" s="31">
         <v>134.47153848139814</v>
       </c>
-      <c r="CR110" s="15">
+      <c r="CR110" s="31">
         <v>178.50955686027763</v>
       </c>
-      <c r="CS110" s="15">
+      <c r="CS110" s="31">
         <v>134.89113952288741</v>
       </c>
-      <c r="CT110" s="15">
+      <c r="CT110" s="31">
         <v>134.66972195087965</v>
       </c>
-      <c r="CU110" s="15">
-        <v>136.38338671120556</v>
-      </c>
-      <c r="CV110" s="9"/>
+      <c r="CU110" s="31">
+        <v>136.14892255698089</v>
+      </c>
+      <c r="CV110" s="31">
+        <v>190.99389576646638</v>
+      </c>
       <c r="CW110" s="9"/>
       <c r="CX110" s="9"/>
       <c r="CY110" s="9"/>
@@ -40733,178 +41192,244 @@
       <c r="CM111" s="13"/>
       <c r="CN111" s="13"/>
       <c r="CO111" s="13"/>
-      <c r="CP111" s="13"/>
-      <c r="CQ111" s="13"/>
-      <c r="CR111" s="13"/>
-      <c r="CS111" s="13"/>
-      <c r="CT111" s="13"/>
-      <c r="CU111" s="13"/>
+      <c r="CP111" s="29"/>
+      <c r="CQ111" s="29"/>
+      <c r="CR111" s="29"/>
+      <c r="CS111" s="29"/>
+      <c r="CT111" s="29"/>
+      <c r="CU111" s="29"/>
+      <c r="CV111" s="29"/>
     </row>
     <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CP112" s="23"/>
+      <c r="CQ112" s="23"/>
+      <c r="CR112" s="23"/>
+      <c r="CS112" s="23"/>
+      <c r="CT112" s="23"/>
+      <c r="CU112" s="23"/>
+      <c r="CV112" s="23"/>
     </row>
     <row r="115" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP115" s="23"/>
+      <c r="CQ115" s="23"/>
+      <c r="CR115" s="23"/>
+      <c r="CS115" s="23"/>
+      <c r="CT115" s="23"/>
+      <c r="CU115" s="23"/>
+      <c r="CV115" s="23"/>
     </row>
     <row r="116" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP116" s="23"/>
+      <c r="CQ116" s="23"/>
+      <c r="CR116" s="23"/>
+      <c r="CS116" s="23"/>
+      <c r="CT116" s="23"/>
+      <c r="CU116" s="23"/>
+      <c r="CV116" s="23"/>
     </row>
     <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="CP117" s="23"/>
+      <c r="CQ117" s="23"/>
+      <c r="CR117" s="23"/>
+      <c r="CS117" s="23"/>
+      <c r="CT117" s="23"/>
+      <c r="CU117" s="23"/>
+      <c r="CV117" s="23"/>
     </row>
-    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP118" s="23"/>
+      <c r="CQ118" s="23"/>
+      <c r="CR118" s="23"/>
+      <c r="CS118" s="23"/>
+      <c r="CT118" s="23"/>
+      <c r="CU118" s="23"/>
+      <c r="CV118" s="23"/>
+    </row>
     <row r="119" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="CP119" s="23"/>
+      <c r="CQ119" s="23"/>
+      <c r="CR119" s="23"/>
+      <c r="CS119" s="23"/>
+      <c r="CT119" s="23"/>
+      <c r="CU119" s="23"/>
+      <c r="CV119" s="23"/>
     </row>
     <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="CP120" s="23"/>
+      <c r="CQ120" s="23"/>
+      <c r="CR120" s="23"/>
+      <c r="CS120" s="23"/>
+      <c r="CT120" s="23"/>
+      <c r="CU120" s="23"/>
+      <c r="CV120" s="23"/>
     </row>
     <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="CP121" s="23"/>
+      <c r="CQ121" s="23"/>
+      <c r="CR121" s="23"/>
+      <c r="CS121" s="23"/>
+      <c r="CT121" s="23"/>
+      <c r="CU121" s="23"/>
+      <c r="CV121" s="23"/>
     </row>
-    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP122" s="23"/>
+      <c r="CQ122" s="23"/>
+      <c r="CR122" s="23"/>
+      <c r="CS122" s="23"/>
+      <c r="CT122" s="23"/>
+      <c r="CU122" s="23"/>
+      <c r="CV122" s="23"/>
+    </row>
     <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
-      <c r="B123" s="23">
+      <c r="B123" s="34">
         <v>2000</v>
       </c>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23">
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34">
         <v>2001</v>
       </c>
-      <c r="G123" s="23"/>
-      <c r="H123" s="23"/>
-      <c r="I123" s="23"/>
-      <c r="J123" s="23">
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="34"/>
+      <c r="J123" s="34">
         <v>2002</v>
       </c>
-      <c r="K123" s="23"/>
-      <c r="L123" s="23"/>
-      <c r="M123" s="23"/>
-      <c r="N123" s="23">
+      <c r="K123" s="34"/>
+      <c r="L123" s="34"/>
+      <c r="M123" s="34"/>
+      <c r="N123" s="34">
         <v>2003</v>
       </c>
-      <c r="O123" s="23"/>
-      <c r="P123" s="23"/>
-      <c r="Q123" s="23"/>
-      <c r="R123" s="23">
+      <c r="O123" s="34"/>
+      <c r="P123" s="34"/>
+      <c r="Q123" s="34"/>
+      <c r="R123" s="34">
         <v>2004</v>
       </c>
-      <c r="S123" s="23"/>
-      <c r="T123" s="23"/>
-      <c r="U123" s="23"/>
-      <c r="V123" s="23">
+      <c r="S123" s="34"/>
+      <c r="T123" s="34"/>
+      <c r="U123" s="34"/>
+      <c r="V123" s="34">
         <v>2005</v>
       </c>
-      <c r="W123" s="23"/>
-      <c r="X123" s="23"/>
-      <c r="Y123" s="23"/>
-      <c r="Z123" s="23">
+      <c r="W123" s="34"/>
+      <c r="X123" s="34"/>
+      <c r="Y123" s="34"/>
+      <c r="Z123" s="34">
         <v>2006</v>
       </c>
-      <c r="AA123" s="23"/>
-      <c r="AB123" s="23"/>
-      <c r="AC123" s="23"/>
-      <c r="AD123" s="23">
+      <c r="AA123" s="34"/>
+      <c r="AB123" s="34"/>
+      <c r="AC123" s="34"/>
+      <c r="AD123" s="34">
         <v>2007</v>
       </c>
-      <c r="AE123" s="23"/>
-      <c r="AF123" s="23"/>
-      <c r="AG123" s="23"/>
-      <c r="AH123" s="23">
+      <c r="AE123" s="34"/>
+      <c r="AF123" s="34"/>
+      <c r="AG123" s="34"/>
+      <c r="AH123" s="34">
         <v>2008</v>
       </c>
-      <c r="AI123" s="23"/>
-      <c r="AJ123" s="23"/>
-      <c r="AK123" s="23"/>
-      <c r="AL123" s="23">
+      <c r="AI123" s="34"/>
+      <c r="AJ123" s="34"/>
+      <c r="AK123" s="34"/>
+      <c r="AL123" s="34">
         <v>2009</v>
       </c>
-      <c r="AM123" s="23"/>
-      <c r="AN123" s="23"/>
-      <c r="AO123" s="23"/>
-      <c r="AP123" s="23">
+      <c r="AM123" s="34"/>
+      <c r="AN123" s="34"/>
+      <c r="AO123" s="34"/>
+      <c r="AP123" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ123" s="23"/>
-      <c r="AR123" s="23"/>
-      <c r="AS123" s="23"/>
-      <c r="AT123" s="23">
+      <c r="AQ123" s="34"/>
+      <c r="AR123" s="34"/>
+      <c r="AS123" s="34"/>
+      <c r="AT123" s="34">
         <v>2011</v>
       </c>
-      <c r="AU123" s="23"/>
-      <c r="AV123" s="23"/>
-      <c r="AW123" s="23"/>
-      <c r="AX123" s="23">
+      <c r="AU123" s="34"/>
+      <c r="AV123" s="34"/>
+      <c r="AW123" s="34"/>
+      <c r="AX123" s="34">
         <v>2012</v>
       </c>
-      <c r="AY123" s="23"/>
-      <c r="AZ123" s="23"/>
-      <c r="BA123" s="23"/>
-      <c r="BB123" s="23">
+      <c r="AY123" s="34"/>
+      <c r="AZ123" s="34"/>
+      <c r="BA123" s="34"/>
+      <c r="BB123" s="34">
         <v>2013</v>
       </c>
-      <c r="BC123" s="23"/>
-      <c r="BD123" s="23"/>
-      <c r="BE123" s="23"/>
-      <c r="BF123" s="23">
+      <c r="BC123" s="34"/>
+      <c r="BD123" s="34"/>
+      <c r="BE123" s="34"/>
+      <c r="BF123" s="34">
         <v>2014</v>
       </c>
-      <c r="BG123" s="23"/>
-      <c r="BH123" s="23"/>
-      <c r="BI123" s="23"/>
-      <c r="BJ123" s="23">
+      <c r="BG123" s="34"/>
+      <c r="BH123" s="34"/>
+      <c r="BI123" s="34"/>
+      <c r="BJ123" s="34">
         <v>2015</v>
       </c>
-      <c r="BK123" s="23"/>
-      <c r="BL123" s="23"/>
-      <c r="BM123" s="23"/>
-      <c r="BN123" s="23">
+      <c r="BK123" s="34"/>
+      <c r="BL123" s="34"/>
+      <c r="BM123" s="34"/>
+      <c r="BN123" s="34">
         <v>2016</v>
       </c>
-      <c r="BO123" s="23"/>
-      <c r="BP123" s="23"/>
-      <c r="BQ123" s="23"/>
-      <c r="BR123" s="23">
+      <c r="BO123" s="34"/>
+      <c r="BP123" s="34"/>
+      <c r="BQ123" s="34"/>
+      <c r="BR123" s="34">
         <v>2017</v>
       </c>
-      <c r="BS123" s="23"/>
-      <c r="BT123" s="23"/>
-      <c r="BU123" s="23"/>
-      <c r="BV123" s="23">
+      <c r="BS123" s="34"/>
+      <c r="BT123" s="34"/>
+      <c r="BU123" s="34"/>
+      <c r="BV123" s="34">
         <v>2018</v>
       </c>
-      <c r="BW123" s="23"/>
-      <c r="BX123" s="23"/>
-      <c r="BY123" s="23"/>
-      <c r="BZ123" s="23">
+      <c r="BW123" s="34"/>
+      <c r="BX123" s="34"/>
+      <c r="BY123" s="34"/>
+      <c r="BZ123" s="34">
         <v>2019</v>
       </c>
-      <c r="CA123" s="23"/>
-      <c r="CB123" s="23"/>
-      <c r="CC123" s="23"/>
-      <c r="CD123" s="23">
+      <c r="CA123" s="34"/>
+      <c r="CB123" s="34"/>
+      <c r="CC123" s="34"/>
+      <c r="CD123" s="34">
         <v>2020</v>
       </c>
-      <c r="CE123" s="23"/>
-      <c r="CF123" s="23"/>
-      <c r="CG123" s="23"/>
+      <c r="CE123" s="34"/>
+      <c r="CF123" s="34"/>
+      <c r="CG123" s="34"/>
       <c r="CH123" s="21">
         <v>2021</v>
       </c>
@@ -40917,16 +41442,17 @@
       <c r="CM123" s="21"/>
       <c r="CN123" s="21"/>
       <c r="CO123" s="21"/>
-      <c r="CP123" s="21">
+      <c r="CP123" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ123" s="21"/>
-      <c r="CR123" s="21"/>
-      <c r="CS123" s="21"/>
-      <c r="CT123" s="21">
+      <c r="CQ123" s="24"/>
+      <c r="CR123" s="24"/>
+      <c r="CS123" s="24"/>
+      <c r="CT123" s="24">
         <v>2024</v>
       </c>
-      <c r="CU123" s="21"/>
+      <c r="CU123" s="24"/>
+      <c r="CV123" s="24"/>
     </row>
     <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
@@ -41208,27 +41734,37 @@
       <c r="CO124" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP124" s="6" t="s">
+      <c r="CP124" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ124" s="6" t="s">
+      <c r="CQ124" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CR124" s="6" t="s">
+      <c r="CR124" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CS124" s="6" t="s">
+      <c r="CS124" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CT124" s="6" t="s">
+      <c r="CT124" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CU124" s="6" t="s">
+      <c r="CU124" s="25" t="s">
         <v>8</v>
+      </c>
+      <c r="CV124" s="25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
+      <c r="CP125" s="23"/>
+      <c r="CQ125" s="23"/>
+      <c r="CR125" s="23"/>
+      <c r="CS125" s="23"/>
+      <c r="CT125" s="23"/>
+      <c r="CU125" s="23"/>
+      <c r="CV125" s="23"/>
     </row>
     <row r="126" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -41510,25 +42046,27 @@
       <c r="CO126" s="18">
         <v>13.17322662379199</v>
       </c>
-      <c r="CP126" s="18">
+      <c r="CP126" s="33">
         <v>23.448302741078095</v>
       </c>
-      <c r="CQ126" s="18">
+      <c r="CQ126" s="33">
         <v>11.99793628590181</v>
       </c>
-      <c r="CR126" s="18">
+      <c r="CR126" s="33">
         <v>15.034635942292493</v>
       </c>
-      <c r="CS126" s="18">
+      <c r="CS126" s="33">
         <v>12.120353562747955</v>
       </c>
-      <c r="CT126" s="18">
+      <c r="CT126" s="33">
         <v>14.399424834586757</v>
       </c>
-      <c r="CU126" s="18">
-        <v>18.135045042361398</v>
-      </c>
-      <c r="CV126" s="9"/>
+      <c r="CU126" s="33">
+        <v>18.674349147694063</v>
+      </c>
+      <c r="CV126" s="33">
+        <v>16.781831656021836</v>
+      </c>
       <c r="CW126" s="9"/>
       <c r="CX126" s="9"/>
       <c r="CY126" s="9"/>
@@ -41864,25 +42402,27 @@
       <c r="CO127" s="18">
         <v>24.452931693640853</v>
       </c>
-      <c r="CP127" s="18">
+      <c r="CP127" s="33">
         <v>8.9219731974581151</v>
       </c>
-      <c r="CQ127" s="18">
+      <c r="CQ127" s="33">
         <v>9.2249291738509385</v>
       </c>
-      <c r="CR127" s="18">
+      <c r="CR127" s="33">
         <v>10.569108529432253</v>
       </c>
-      <c r="CS127" s="18">
+      <c r="CS127" s="33">
         <v>13.956662458876714</v>
       </c>
-      <c r="CT127" s="18">
+      <c r="CT127" s="33">
         <v>10.064699117197161</v>
       </c>
-      <c r="CU127" s="18">
-        <v>8.3543998104475801</v>
-      </c>
-      <c r="CV127" s="9"/>
+      <c r="CU127" s="33">
+        <v>8.2248094915731205</v>
+      </c>
+      <c r="CV127" s="33">
+        <v>6.6695230937901968</v>
+      </c>
       <c r="CW127" s="9"/>
       <c r="CX127" s="9"/>
       <c r="CY127" s="9"/>
@@ -42218,25 +42758,27 @@
       <c r="CO128" s="18">
         <v>18.9602274480823</v>
       </c>
-      <c r="CP128" s="18">
+      <c r="CP128" s="33">
         <v>17.444586007190608</v>
       </c>
-      <c r="CQ128" s="18">
+      <c r="CQ128" s="33">
         <v>27.068989393667358</v>
       </c>
-      <c r="CR128" s="18">
+      <c r="CR128" s="33">
         <v>24.841159058767268</v>
       </c>
-      <c r="CS128" s="18">
+      <c r="CS128" s="33">
         <v>25.253995335632553</v>
       </c>
-      <c r="CT128" s="18">
+      <c r="CT128" s="33">
         <v>21.579903338118353</v>
       </c>
-      <c r="CU128" s="18">
-        <v>28.963236683532607</v>
-      </c>
-      <c r="CV128" s="9"/>
+      <c r="CU128" s="33">
+        <v>28.49722624523335</v>
+      </c>
+      <c r="CV128" s="33">
+        <v>30.547651397040575</v>
+      </c>
       <c r="CW128" s="9"/>
       <c r="CX128" s="9"/>
       <c r="CY128" s="9"/>
@@ -42572,25 +43114,27 @@
       <c r="CO129" s="18">
         <v>7.048105410566202</v>
       </c>
-      <c r="CP129" s="18">
+      <c r="CP129" s="33">
         <v>22.466918195175644</v>
       </c>
-      <c r="CQ129" s="18">
+      <c r="CQ129" s="33">
         <v>26.593308684257416</v>
       </c>
-      <c r="CR129" s="18">
+      <c r="CR129" s="33">
         <v>17.026475097197583</v>
       </c>
-      <c r="CS129" s="18">
+      <c r="CS129" s="33">
         <v>6.3583942738176757</v>
       </c>
-      <c r="CT129" s="18">
+      <c r="CT129" s="33">
         <v>19.224046810474601</v>
       </c>
-      <c r="CU129" s="18">
-        <v>18.935340415672908</v>
-      </c>
-      <c r="CV129" s="9"/>
+      <c r="CU129" s="33">
+        <v>19.351391167955605</v>
+      </c>
+      <c r="CV129" s="33">
+        <v>13.799507547498283</v>
+      </c>
       <c r="CW129" s="9"/>
       <c r="CX129" s="9"/>
       <c r="CY129" s="9"/>
@@ -42926,25 +43470,27 @@
       <c r="CO130" s="18">
         <v>8.7743379701624331</v>
       </c>
-      <c r="CP130" s="18">
+      <c r="CP130" s="33">
         <v>3.4604321000261944</v>
       </c>
-      <c r="CQ130" s="18">
+      <c r="CQ130" s="33">
         <v>6.1886065591305561</v>
       </c>
-      <c r="CR130" s="18">
+      <c r="CR130" s="33">
         <v>5.4948268598956185</v>
       </c>
-      <c r="CS130" s="18">
+      <c r="CS130" s="33">
         <v>9.9461068099431209</v>
       </c>
-      <c r="CT130" s="18">
+      <c r="CT130" s="33">
         <v>3.8833656744155682</v>
       </c>
-      <c r="CU130" s="18">
-        <v>7.1740319700103559</v>
-      </c>
-      <c r="CV130" s="9"/>
+      <c r="CU130" s="33">
+        <v>7.0305806525313459</v>
+      </c>
+      <c r="CV130" s="33">
+        <v>5.457165966186416</v>
+      </c>
       <c r="CW130" s="9"/>
       <c r="CX130" s="9"/>
       <c r="CY130" s="9"/>
@@ -43280,25 +43826,27 @@
       <c r="CO131" s="18">
         <v>27.591170853756218</v>
       </c>
-      <c r="CP131" s="18">
+      <c r="CP131" s="33">
         <v>24.257787759071352</v>
       </c>
-      <c r="CQ131" s="18">
+      <c r="CQ131" s="33">
         <v>18.926229903191928</v>
       </c>
-      <c r="CR131" s="18">
+      <c r="CR131" s="33">
         <v>27.033794512414786</v>
       </c>
-      <c r="CS131" s="18">
+      <c r="CS131" s="33">
         <v>32.364487558981978</v>
       </c>
-      <c r="CT131" s="18">
+      <c r="CT131" s="33">
         <v>30.84856022520756</v>
       </c>
-      <c r="CU131" s="18">
-        <v>18.437946077975159</v>
-      </c>
-      <c r="CV131" s="9"/>
+      <c r="CU131" s="33">
+        <v>18.221643295012512</v>
+      </c>
+      <c r="CV131" s="33">
+        <v>26.744320339462686</v>
+      </c>
       <c r="CW131" s="9"/>
       <c r="CX131" s="9"/>
       <c r="CY131" s="9"/>
@@ -43447,13 +43995,13 @@
       <c r="CM132" s="9"/>
       <c r="CN132" s="9"/>
       <c r="CO132" s="9"/>
-      <c r="CP132" s="9"/>
-      <c r="CQ132" s="9"/>
-      <c r="CR132" s="9"/>
-      <c r="CS132" s="9"/>
-      <c r="CT132" s="9"/>
-      <c r="CU132" s="9"/>
-      <c r="CV132" s="9"/>
+      <c r="CP132" s="27"/>
+      <c r="CQ132" s="27"/>
+      <c r="CR132" s="27"/>
+      <c r="CS132" s="27"/>
+      <c r="CT132" s="27"/>
+      <c r="CU132" s="27"/>
+      <c r="CV132" s="27"/>
       <c r="CW132" s="9"/>
       <c r="CX132" s="9"/>
       <c r="CY132" s="9"/>
@@ -43789,25 +44337,27 @@
       <c r="CO133" s="18">
         <v>100</v>
       </c>
-      <c r="CP133" s="18">
+      <c r="CP133" s="33">
         <v>100</v>
       </c>
-      <c r="CQ133" s="18">
+      <c r="CQ133" s="33">
         <v>100</v>
       </c>
-      <c r="CR133" s="18">
+      <c r="CR133" s="33">
         <v>100</v>
       </c>
-      <c r="CS133" s="18">
+      <c r="CS133" s="33">
         <v>100</v>
       </c>
-      <c r="CT133" s="18">
+      <c r="CT133" s="33">
         <v>100</v>
       </c>
-      <c r="CU133" s="18">
+      <c r="CU133" s="33">
         <v>100</v>
       </c>
-      <c r="CV133" s="9"/>
+      <c r="CV133" s="33">
+        <v>100</v>
+      </c>
       <c r="CW133" s="9"/>
       <c r="CX133" s="9"/>
       <c r="CY133" s="9"/>
@@ -43957,17 +44507,25 @@
       <c r="CM134" s="13"/>
       <c r="CN134" s="13"/>
       <c r="CO134" s="13"/>
-      <c r="CP134" s="13"/>
-      <c r="CQ134" s="13"/>
-      <c r="CR134" s="13"/>
-      <c r="CS134" s="13"/>
-      <c r="CT134" s="13"/>
-      <c r="CU134" s="13"/>
+      <c r="CP134" s="29"/>
+      <c r="CQ134" s="29"/>
+      <c r="CR134" s="29"/>
+      <c r="CS134" s="29"/>
+      <c r="CT134" s="29"/>
+      <c r="CU134" s="29"/>
+      <c r="CV134" s="29"/>
     </row>
     <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CP135" s="23"/>
+      <c r="CQ135" s="23"/>
+      <c r="CR135" s="23"/>
+      <c r="CS135" s="23"/>
+      <c r="CT135" s="23"/>
+      <c r="CU135" s="23"/>
+      <c r="CV135" s="23"/>
     </row>
     <row r="136" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9"/>
@@ -44062,13 +44620,13 @@
       <c r="CM136" s="9"/>
       <c r="CN136" s="9"/>
       <c r="CO136" s="9"/>
-      <c r="CP136" s="9"/>
-      <c r="CQ136" s="9"/>
-      <c r="CR136" s="9"/>
-      <c r="CS136" s="9"/>
-      <c r="CT136" s="9"/>
-      <c r="CU136" s="9"/>
-      <c r="CV136" s="9"/>
+      <c r="CP136" s="27"/>
+      <c r="CQ136" s="27"/>
+      <c r="CR136" s="27"/>
+      <c r="CS136" s="27"/>
+      <c r="CT136" s="27"/>
+      <c r="CU136" s="27"/>
+      <c r="CV136" s="27"/>
       <c r="CW136" s="9"/>
       <c r="CX136" s="9"/>
       <c r="CY136" s="9"/>
@@ -44217,13 +44775,13 @@
       <c r="CM137" s="9"/>
       <c r="CN137" s="9"/>
       <c r="CO137" s="9"/>
-      <c r="CP137" s="9"/>
-      <c r="CQ137" s="9"/>
-      <c r="CR137" s="9"/>
-      <c r="CS137" s="9"/>
-      <c r="CT137" s="9"/>
-      <c r="CU137" s="9"/>
-      <c r="CV137" s="9"/>
+      <c r="CP137" s="27"/>
+      <c r="CQ137" s="27"/>
+      <c r="CR137" s="27"/>
+      <c r="CS137" s="27"/>
+      <c r="CT137" s="27"/>
+      <c r="CU137" s="27"/>
+      <c r="CV137" s="27"/>
       <c r="CW137" s="9"/>
       <c r="CX137" s="9"/>
       <c r="CY137" s="9"/>
@@ -44283,162 +44841,220 @@
       <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP138" s="23"/>
+      <c r="CQ138" s="23"/>
+      <c r="CR138" s="23"/>
+      <c r="CS138" s="23"/>
+      <c r="CT138" s="23"/>
+      <c r="CU138" s="23"/>
+      <c r="CV138" s="23"/>
     </row>
     <row r="139" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP139" s="23"/>
+      <c r="CQ139" s="23"/>
+      <c r="CR139" s="23"/>
+      <c r="CS139" s="23"/>
+      <c r="CT139" s="23"/>
+      <c r="CU139" s="23"/>
+      <c r="CV139" s="23"/>
     </row>
     <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="CP140" s="23"/>
+      <c r="CQ140" s="23"/>
+      <c r="CR140" s="23"/>
+      <c r="CS140" s="23"/>
+      <c r="CT140" s="23"/>
+      <c r="CU140" s="23"/>
+      <c r="CV140" s="23"/>
     </row>
-    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP141" s="23"/>
+      <c r="CQ141" s="23"/>
+      <c r="CR141" s="23"/>
+      <c r="CS141" s="23"/>
+      <c r="CT141" s="23"/>
+      <c r="CU141" s="23"/>
+      <c r="CV141" s="23"/>
+    </row>
     <row r="142" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CP142" s="23"/>
+      <c r="CQ142" s="23"/>
+      <c r="CR142" s="23"/>
+      <c r="CS142" s="23"/>
+      <c r="CT142" s="23"/>
+      <c r="CU142" s="23"/>
+      <c r="CV142" s="23"/>
     </row>
     <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="CP143" s="23"/>
+      <c r="CQ143" s="23"/>
+      <c r="CR143" s="23"/>
+      <c r="CS143" s="23"/>
+      <c r="CT143" s="23"/>
+      <c r="CU143" s="23"/>
+      <c r="CV143" s="23"/>
     </row>
     <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="CP144" s="23"/>
+      <c r="CQ144" s="23"/>
+      <c r="CR144" s="23"/>
+      <c r="CS144" s="23"/>
+      <c r="CT144" s="23"/>
+      <c r="CU144" s="23"/>
+      <c r="CV144" s="23"/>
     </row>
-    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP145" s="23"/>
+      <c r="CQ145" s="23"/>
+      <c r="CR145" s="23"/>
+      <c r="CS145" s="23"/>
+      <c r="CT145" s="23"/>
+      <c r="CU145" s="23"/>
+      <c r="CV145" s="23"/>
+    </row>
     <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
-      <c r="B146" s="23">
+      <c r="B146" s="34">
         <v>2000</v>
       </c>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="23">
+      <c r="C146" s="34"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34">
         <v>2001</v>
       </c>
-      <c r="G146" s="23"/>
-      <c r="H146" s="23"/>
-      <c r="I146" s="23"/>
-      <c r="J146" s="23">
+      <c r="G146" s="34"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="34"/>
+      <c r="J146" s="34">
         <v>2002</v>
       </c>
-      <c r="K146" s="23"/>
-      <c r="L146" s="23"/>
-      <c r="M146" s="23"/>
-      <c r="N146" s="23">
+      <c r="K146" s="34"/>
+      <c r="L146" s="34"/>
+      <c r="M146" s="34"/>
+      <c r="N146" s="34">
         <v>2003</v>
       </c>
-      <c r="O146" s="23"/>
-      <c r="P146" s="23"/>
-      <c r="Q146" s="23"/>
-      <c r="R146" s="23">
+      <c r="O146" s="34"/>
+      <c r="P146" s="34"/>
+      <c r="Q146" s="34"/>
+      <c r="R146" s="34">
         <v>2004</v>
       </c>
-      <c r="S146" s="23"/>
-      <c r="T146" s="23"/>
-      <c r="U146" s="23"/>
-      <c r="V146" s="23">
+      <c r="S146" s="34"/>
+      <c r="T146" s="34"/>
+      <c r="U146" s="34"/>
+      <c r="V146" s="34">
         <v>2005</v>
       </c>
-      <c r="W146" s="23"/>
-      <c r="X146" s="23"/>
-      <c r="Y146" s="23"/>
-      <c r="Z146" s="23">
+      <c r="W146" s="34"/>
+      <c r="X146" s="34"/>
+      <c r="Y146" s="34"/>
+      <c r="Z146" s="34">
         <v>2006</v>
       </c>
-      <c r="AA146" s="23"/>
-      <c r="AB146" s="23"/>
-      <c r="AC146" s="23"/>
-      <c r="AD146" s="23">
+      <c r="AA146" s="34"/>
+      <c r="AB146" s="34"/>
+      <c r="AC146" s="34"/>
+      <c r="AD146" s="34">
         <v>2007</v>
       </c>
-      <c r="AE146" s="23"/>
-      <c r="AF146" s="23"/>
-      <c r="AG146" s="23"/>
-      <c r="AH146" s="23">
+      <c r="AE146" s="34"/>
+      <c r="AF146" s="34"/>
+      <c r="AG146" s="34"/>
+      <c r="AH146" s="34">
         <v>2008</v>
       </c>
-      <c r="AI146" s="23"/>
-      <c r="AJ146" s="23"/>
-      <c r="AK146" s="23"/>
-      <c r="AL146" s="23">
+      <c r="AI146" s="34"/>
+      <c r="AJ146" s="34"/>
+      <c r="AK146" s="34"/>
+      <c r="AL146" s="34">
         <v>2009</v>
       </c>
-      <c r="AM146" s="23"/>
-      <c r="AN146" s="23"/>
-      <c r="AO146" s="23"/>
-      <c r="AP146" s="23">
+      <c r="AM146" s="34"/>
+      <c r="AN146" s="34"/>
+      <c r="AO146" s="34"/>
+      <c r="AP146" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ146" s="23"/>
-      <c r="AR146" s="23"/>
-      <c r="AS146" s="23"/>
-      <c r="AT146" s="23">
+      <c r="AQ146" s="34"/>
+      <c r="AR146" s="34"/>
+      <c r="AS146" s="34"/>
+      <c r="AT146" s="34">
         <v>2011</v>
       </c>
-      <c r="AU146" s="23"/>
-      <c r="AV146" s="23"/>
-      <c r="AW146" s="23"/>
-      <c r="AX146" s="23">
+      <c r="AU146" s="34"/>
+      <c r="AV146" s="34"/>
+      <c r="AW146" s="34"/>
+      <c r="AX146" s="34">
         <v>2012</v>
       </c>
-      <c r="AY146" s="23"/>
-      <c r="AZ146" s="23"/>
-      <c r="BA146" s="23"/>
-      <c r="BB146" s="23">
+      <c r="AY146" s="34"/>
+      <c r="AZ146" s="34"/>
+      <c r="BA146" s="34"/>
+      <c r="BB146" s="34">
         <v>2013</v>
       </c>
-      <c r="BC146" s="23"/>
-      <c r="BD146" s="23"/>
-      <c r="BE146" s="23"/>
-      <c r="BF146" s="23">
+      <c r="BC146" s="34"/>
+      <c r="BD146" s="34"/>
+      <c r="BE146" s="34"/>
+      <c r="BF146" s="34">
         <v>2014</v>
       </c>
-      <c r="BG146" s="23"/>
-      <c r="BH146" s="23"/>
-      <c r="BI146" s="23"/>
-      <c r="BJ146" s="23">
+      <c r="BG146" s="34"/>
+      <c r="BH146" s="34"/>
+      <c r="BI146" s="34"/>
+      <c r="BJ146" s="34">
         <v>2015</v>
       </c>
-      <c r="BK146" s="23"/>
-      <c r="BL146" s="23"/>
-      <c r="BM146" s="23"/>
-      <c r="BN146" s="23">
+      <c r="BK146" s="34"/>
+      <c r="BL146" s="34"/>
+      <c r="BM146" s="34"/>
+      <c r="BN146" s="34">
         <v>2016</v>
       </c>
-      <c r="BO146" s="23"/>
-      <c r="BP146" s="23"/>
-      <c r="BQ146" s="23"/>
-      <c r="BR146" s="23">
+      <c r="BO146" s="34"/>
+      <c r="BP146" s="34"/>
+      <c r="BQ146" s="34"/>
+      <c r="BR146" s="34">
         <v>2017</v>
       </c>
-      <c r="BS146" s="23"/>
-      <c r="BT146" s="23"/>
-      <c r="BU146" s="23"/>
-      <c r="BV146" s="23">
+      <c r="BS146" s="34"/>
+      <c r="BT146" s="34"/>
+      <c r="BU146" s="34"/>
+      <c r="BV146" s="34">
         <v>2018</v>
       </c>
-      <c r="BW146" s="23"/>
-      <c r="BX146" s="23"/>
-      <c r="BY146" s="23"/>
-      <c r="BZ146" s="23">
+      <c r="BW146" s="34"/>
+      <c r="BX146" s="34"/>
+      <c r="BY146" s="34"/>
+      <c r="BZ146" s="34">
         <v>2019</v>
       </c>
-      <c r="CA146" s="23"/>
-      <c r="CB146" s="23"/>
-      <c r="CC146" s="23"/>
-      <c r="CD146" s="23">
+      <c r="CA146" s="34"/>
+      <c r="CB146" s="34"/>
+      <c r="CC146" s="34"/>
+      <c r="CD146" s="34">
         <v>2020</v>
       </c>
-      <c r="CE146" s="23"/>
-      <c r="CF146" s="23"/>
-      <c r="CG146" s="23"/>
+      <c r="CE146" s="34"/>
+      <c r="CF146" s="34"/>
+      <c r="CG146" s="34"/>
       <c r="CH146" s="21">
         <v>2021</v>
       </c>
@@ -44451,16 +45067,17 @@
       <c r="CM146" s="21"/>
       <c r="CN146" s="21"/>
       <c r="CO146" s="21"/>
-      <c r="CP146" s="21">
+      <c r="CP146" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ146" s="21"/>
-      <c r="CR146" s="21"/>
-      <c r="CS146" s="21"/>
-      <c r="CT146" s="21">
+      <c r="CQ146" s="24"/>
+      <c r="CR146" s="24"/>
+      <c r="CS146" s="24"/>
+      <c r="CT146" s="24">
         <v>2024</v>
       </c>
-      <c r="CU146" s="21"/>
+      <c r="CU146" s="24"/>
+      <c r="CV146" s="24"/>
     </row>
     <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
@@ -44742,27 +45359,37 @@
       <c r="CO147" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP147" s="6" t="s">
+      <c r="CP147" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ147" s="6" t="s">
+      <c r="CQ147" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CR147" s="6" t="s">
+      <c r="CR147" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CS147" s="6" t="s">
+      <c r="CS147" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CT147" s="6" t="s">
+      <c r="CT147" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CU147" s="6" t="s">
+      <c r="CU147" s="25" t="s">
         <v>8</v>
+      </c>
+      <c r="CV147" s="25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
+      <c r="CP148" s="23"/>
+      <c r="CQ148" s="23"/>
+      <c r="CR148" s="23"/>
+      <c r="CS148" s="23"/>
+      <c r="CT148" s="23"/>
+      <c r="CU148" s="23"/>
+      <c r="CV148" s="23"/>
     </row>
     <row r="149" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
@@ -45044,25 +45671,27 @@
       <c r="CO149" s="18">
         <v>8.6233868165987957</v>
       </c>
-      <c r="CP149" s="18">
+      <c r="CP149" s="33">
         <v>23.005332818837957</v>
       </c>
-      <c r="CQ149" s="18">
+      <c r="CQ149" s="33">
         <v>13.312257781165787</v>
       </c>
-      <c r="CR149" s="18">
+      <c r="CR149" s="33">
         <v>9.0294273484644911</v>
       </c>
-      <c r="CS149" s="18">
+      <c r="CS149" s="33">
         <v>15.08125832885602</v>
       </c>
-      <c r="CT149" s="18">
+      <c r="CT149" s="33">
         <v>19.909386084639557</v>
       </c>
-      <c r="CU149" s="18">
-        <v>22.38415580906042</v>
-      </c>
-      <c r="CV149" s="9"/>
+      <c r="CU149" s="33">
+        <v>23.010194729060547</v>
+      </c>
+      <c r="CV149" s="33">
+        <v>10.803522936121803</v>
+      </c>
       <c r="CW149" s="9"/>
       <c r="CX149" s="9"/>
       <c r="CY149" s="9"/>
@@ -45398,25 +46027,27 @@
       <c r="CO150" s="18">
         <v>13.852449933073549</v>
       </c>
-      <c r="CP150" s="18">
+      <c r="CP150" s="33">
         <v>9.0555320859968926</v>
       </c>
-      <c r="CQ150" s="18">
+      <c r="CQ150" s="33">
         <v>22.317516561128652</v>
       </c>
-      <c r="CR150" s="18">
+      <c r="CR150" s="33">
         <v>10.183486082928873</v>
       </c>
-      <c r="CS150" s="18">
+      <c r="CS150" s="33">
         <v>9.3106797349201376</v>
       </c>
-      <c r="CT150" s="18">
+      <c r="CT150" s="33">
         <v>9.2981755506819006</v>
       </c>
-      <c r="CU150" s="18">
-        <v>19.086642331328125</v>
-      </c>
-      <c r="CV150" s="9"/>
+      <c r="CU150" s="33">
+        <v>18.758273577072647</v>
+      </c>
+      <c r="CV150" s="33">
+        <v>7.8001201112576748</v>
+      </c>
       <c r="CW150" s="9"/>
       <c r="CX150" s="9"/>
       <c r="CY150" s="9"/>
@@ -45752,25 +46383,27 @@
       <c r="CO151" s="18">
         <v>20.043348986836396</v>
       </c>
-      <c r="CP151" s="18">
+      <c r="CP151" s="33">
         <v>14.84934839777819</v>
       </c>
-      <c r="CQ151" s="18">
+      <c r="CQ151" s="33">
         <v>20.006115233668812</v>
       </c>
-      <c r="CR151" s="18">
+      <c r="CR151" s="33">
         <v>23.229478514115627</v>
       </c>
-      <c r="CS151" s="18">
+      <c r="CS151" s="33">
         <v>19.935127982233531</v>
       </c>
-      <c r="CT151" s="18">
+      <c r="CT151" s="33">
         <v>14.502918975815726</v>
       </c>
-      <c r="CU151" s="18">
-        <v>17.689914989674183</v>
-      </c>
-      <c r="CV151" s="9"/>
+      <c r="CU151" s="33">
+        <v>17.37536678159508</v>
+      </c>
+      <c r="CV151" s="33">
+        <v>23.256419590353232</v>
+      </c>
       <c r="CW151" s="9"/>
       <c r="CX151" s="9"/>
       <c r="CY151" s="9"/>
@@ -46106,25 +46739,27 @@
       <c r="CO152" s="18">
         <v>4.5587592959236813</v>
       </c>
-      <c r="CP152" s="18">
+      <c r="CP152" s="33">
         <v>11.746953853547296</v>
       </c>
-      <c r="CQ152" s="18">
+      <c r="CQ152" s="33">
         <v>20.831328812086443</v>
       </c>
-      <c r="CR152" s="18">
+      <c r="CR152" s="33">
         <v>20.709179986601811</v>
       </c>
-      <c r="CS152" s="18">
+      <c r="CS152" s="33">
         <v>4.4193644296688062</v>
       </c>
-      <c r="CT152" s="18">
+      <c r="CT152" s="33">
         <v>12.447563946599217</v>
       </c>
-      <c r="CU152" s="18">
-        <v>17.584677319167692</v>
-      </c>
-      <c r="CV152" s="9"/>
+      <c r="CU152" s="33">
+        <v>17.940156036888645</v>
+      </c>
+      <c r="CV152" s="33">
+        <v>19.564049961655897</v>
+      </c>
       <c r="CW152" s="9"/>
       <c r="CX152" s="9"/>
       <c r="CY152" s="9"/>
@@ -46460,25 +47095,27 @@
       <c r="CO153" s="18">
         <v>4.1945789129348139</v>
       </c>
-      <c r="CP153" s="18">
+      <c r="CP153" s="33">
         <v>10.019619017213056</v>
       </c>
-      <c r="CQ153" s="18">
+      <c r="CQ153" s="33">
         <v>3.2390389652457907</v>
       </c>
-      <c r="CR153" s="18">
+      <c r="CR153" s="33">
         <v>4.6511910731059345</v>
       </c>
-      <c r="CS153" s="18">
+      <c r="CS153" s="33">
         <v>3.9821681902495012</v>
       </c>
-      <c r="CT153" s="18">
+      <c r="CT153" s="33">
         <v>10.03631066534397</v>
       </c>
-      <c r="CU153" s="18">
-        <v>3.185630903674058</v>
-      </c>
-      <c r="CV153" s="9"/>
+      <c r="CU153" s="33">
+        <v>3.1165642228105752</v>
+      </c>
+      <c r="CV153" s="33">
+        <v>4.3958208517610755</v>
+      </c>
       <c r="CW153" s="9"/>
       <c r="CX153" s="9"/>
       <c r="CY153" s="9"/>
@@ -46814,25 +47451,27 @@
       <c r="CO154" s="18">
         <v>48.72747605463276</v>
       </c>
-      <c r="CP154" s="18">
+      <c r="CP154" s="33">
         <v>31.323213826626606</v>
       </c>
-      <c r="CQ154" s="18">
+      <c r="CQ154" s="33">
         <v>20.293742646704526</v>
       </c>
-      <c r="CR154" s="18">
+      <c r="CR154" s="33">
         <v>32.197236994783253</v>
       </c>
-      <c r="CS154" s="18">
+      <c r="CS154" s="33">
         <v>47.271401334072003</v>
       </c>
-      <c r="CT154" s="18">
+      <c r="CT154" s="33">
         <v>33.805644776919628</v>
       </c>
-      <c r="CU154" s="18">
-        <v>20.068978647095534</v>
-      </c>
-      <c r="CV154" s="9"/>
+      <c r="CU154" s="33">
+        <v>19.799444652572493</v>
+      </c>
+      <c r="CV154" s="33">
+        <v>34.18006654885032</v>
+      </c>
       <c r="CW154" s="9"/>
       <c r="CX154" s="9"/>
       <c r="CY154" s="9"/>
@@ -46981,13 +47620,13 @@
       <c r="CM155" s="9"/>
       <c r="CN155" s="9"/>
       <c r="CO155" s="9"/>
-      <c r="CP155" s="9"/>
-      <c r="CQ155" s="9"/>
-      <c r="CR155" s="9"/>
-      <c r="CS155" s="9"/>
-      <c r="CT155" s="9"/>
-      <c r="CU155" s="9"/>
-      <c r="CV155" s="9"/>
+      <c r="CP155" s="27"/>
+      <c r="CQ155" s="27"/>
+      <c r="CR155" s="27"/>
+      <c r="CS155" s="27"/>
+      <c r="CT155" s="27"/>
+      <c r="CU155" s="27"/>
+      <c r="CV155" s="27"/>
       <c r="CW155" s="9"/>
       <c r="CX155" s="9"/>
       <c r="CY155" s="9"/>
@@ -47323,25 +47962,27 @@
       <c r="CO156" s="18">
         <v>100</v>
       </c>
-      <c r="CP156" s="18">
+      <c r="CP156" s="33">
         <v>100</v>
       </c>
-      <c r="CQ156" s="18">
+      <c r="CQ156" s="33">
         <v>100</v>
       </c>
-      <c r="CR156" s="18">
+      <c r="CR156" s="33">
         <v>100</v>
       </c>
-      <c r="CS156" s="18">
+      <c r="CS156" s="33">
         <v>100</v>
       </c>
-      <c r="CT156" s="18">
+      <c r="CT156" s="33">
         <v>100</v>
       </c>
-      <c r="CU156" s="18">
+      <c r="CU156" s="33">
         <v>100</v>
       </c>
-      <c r="CV156" s="9"/>
+      <c r="CV156" s="33">
+        <v>100</v>
+      </c>
       <c r="CW156" s="9"/>
       <c r="CX156" s="9"/>
       <c r="CY156" s="9"/>
@@ -47491,17 +48132,25 @@
       <c r="CM157" s="13"/>
       <c r="CN157" s="13"/>
       <c r="CO157" s="13"/>
-      <c r="CP157" s="13"/>
-      <c r="CQ157" s="13"/>
-      <c r="CR157" s="13"/>
-      <c r="CS157" s="13"/>
-      <c r="CT157" s="13"/>
-      <c r="CU157" s="13"/>
+      <c r="CP157" s="29"/>
+      <c r="CQ157" s="29"/>
+      <c r="CR157" s="29"/>
+      <c r="CS157" s="29"/>
+      <c r="CT157" s="29"/>
+      <c r="CU157" s="29"/>
+      <c r="CV157" s="29"/>
     </row>
     <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CP158" s="23"/>
+      <c r="CQ158" s="23"/>
+      <c r="CR158" s="23"/>
+      <c r="CS158" s="23"/>
+      <c r="CT158" s="23"/>
+      <c r="CU158" s="23"/>
+      <c r="CV158" s="23"/>
     </row>
     <row r="159" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9"/>
@@ -47576,7 +48225,6 @@
       <c r="BS159" s="9"/>
       <c r="BT159" s="9"/>
       <c r="BU159" s="9"/>
-      <c r="CV159" s="9"/>
       <c r="CW159" s="9"/>
       <c r="CX159" s="9"/>
       <c r="CY159" s="9"/>
@@ -47700,7 +48348,6 @@
       <c r="BS160" s="9"/>
       <c r="BT160" s="9"/>
       <c r="BU160" s="9"/>
-      <c r="CV160" s="9"/>
       <c r="CW160" s="9"/>
       <c r="CX160" s="9"/>
       <c r="CY160" s="9"/>
@@ -47901,7 +48548,7 @@
     <mergeCell ref="V146:Y146"/>
     <mergeCell ref="Z146:AC146"/>
   </mergeCells>
-  <conditionalFormatting sqref="BR58:CU65 BR81:CU88 BR103:CU110">
+  <conditionalFormatting sqref="BR58:CV65 BR81:CV88 BR103:CV110">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -47911,9 +48558,9 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="97" man="1"/>
-    <brk id="92" max="97" man="1"/>
-    <brk id="114" max="97" man="1"/>
+    <brk id="46" max="99" man="1"/>
+    <brk id="92" max="99" man="1"/>
+    <brk id="114" max="99" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="56" max="159" man="1"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5CCED4-9E66-4A8E-BD0F-554231A90502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A3A5B-3B97-4554-A55B-0B89537A0C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="3" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CV$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CW$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="59">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -639,13 +639,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of November 2024</t>
+    <t>Q1 2000 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2024</t>
+    <t>Q1 2001 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2024</t>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -801,6 +801,15 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23665,7 +23674,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CM1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23675,8 +23684,8 @@
     <col min="86" max="89" width="8" style="10" customWidth="1"/>
     <col min="90" max="92" width="7.88671875" style="10" customWidth="1"/>
     <col min="93" max="93" width="8.21875" style="10" customWidth="1"/>
-    <col min="94" max="100" width="10.109375" style="32" customWidth="1"/>
-    <col min="101" max="16384" width="7.77734375" style="10"/>
+    <col min="94" max="101" width="10.109375" style="32" customWidth="1"/>
+    <col min="102" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23690,6 +23699,7 @@
       <c r="CT1" s="23"/>
       <c r="CU1" s="23"/>
       <c r="CV1" s="23"/>
+      <c r="CW1" s="23"/>
     </row>
     <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -23702,10 +23712,11 @@
       <c r="CT2" s="23"/>
       <c r="CU2" s="23"/>
       <c r="CV2" s="23"/>
+      <c r="CW2" s="23"/>
     </row>
     <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="CP3" s="23"/>
       <c r="CQ3" s="23"/>
@@ -23714,6 +23725,7 @@
       <c r="CT3" s="23"/>
       <c r="CU3" s="23"/>
       <c r="CV3" s="23"/>
+      <c r="CW3" s="23"/>
     </row>
     <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP4" s="23"/>
@@ -23723,6 +23735,7 @@
       <c r="CT4" s="23"/>
       <c r="CU4" s="23"/>
       <c r="CV4" s="23"/>
+      <c r="CW4" s="23"/>
     </row>
     <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -23735,10 +23748,11 @@
       <c r="CT5" s="23"/>
       <c r="CU5" s="23"/>
       <c r="CV5" s="23"/>
+      <c r="CW5" s="23"/>
     </row>
     <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CP6" s="23"/>
       <c r="CQ6" s="23"/>
@@ -23747,6 +23761,7 @@
       <c r="CT6" s="23"/>
       <c r="CU6" s="23"/>
       <c r="CV6" s="23"/>
+      <c r="CW6" s="23"/>
     </row>
     <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23759,6 +23774,7 @@
       <c r="CT7" s="23"/>
       <c r="CU7" s="23"/>
       <c r="CV7" s="23"/>
+      <c r="CW7" s="23"/>
     </row>
     <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP8" s="23"/>
@@ -23768,135 +23784,136 @@
       <c r="CT8" s="23"/>
       <c r="CU8" s="23"/>
       <c r="CV8" s="23"/>
+      <c r="CW8" s="23"/>
     </row>
     <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="34">
+      <c r="B9" s="37">
         <v>2000</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37">
         <v>2001</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37">
         <v>2002</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34">
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37">
         <v>2003</v>
       </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34">
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37">
         <v>2004</v>
       </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34">
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37">
         <v>2005</v>
       </c>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34">
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37">
         <v>2006</v>
       </c>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34">
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37">
         <v>2007</v>
       </c>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34">
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37">
         <v>2008</v>
       </c>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34">
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37">
         <v>2009</v>
       </c>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34">
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="34">
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37">
         <v>2011</v>
       </c>
-      <c r="AU9" s="34"/>
-      <c r="AV9" s="34"/>
-      <c r="AW9" s="34"/>
-      <c r="AX9" s="34">
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37">
         <v>2012</v>
       </c>
-      <c r="AY9" s="34"/>
-      <c r="AZ9" s="34"/>
-      <c r="BA9" s="34"/>
-      <c r="BB9" s="34">
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37">
         <v>2013</v>
       </c>
-      <c r="BC9" s="34"/>
-      <c r="BD9" s="34"/>
-      <c r="BE9" s="34"/>
-      <c r="BF9" s="34">
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37">
         <v>2014</v>
       </c>
-      <c r="BG9" s="34"/>
-      <c r="BH9" s="34"/>
-      <c r="BI9" s="34"/>
-      <c r="BJ9" s="34">
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="37"/>
+      <c r="BI9" s="37"/>
+      <c r="BJ9" s="37">
         <v>2015</v>
       </c>
-      <c r="BK9" s="34"/>
-      <c r="BL9" s="34"/>
-      <c r="BM9" s="34"/>
-      <c r="BN9" s="34">
+      <c r="BK9" s="37"/>
+      <c r="BL9" s="37"/>
+      <c r="BM9" s="37"/>
+      <c r="BN9" s="37">
         <v>2016</v>
       </c>
-      <c r="BO9" s="34"/>
-      <c r="BP9" s="34"/>
-      <c r="BQ9" s="34"/>
-      <c r="BR9" s="34">
+      <c r="BO9" s="37"/>
+      <c r="BP9" s="37"/>
+      <c r="BQ9" s="37"/>
+      <c r="BR9" s="37">
         <v>2017</v>
       </c>
-      <c r="BS9" s="34"/>
-      <c r="BT9" s="34"/>
-      <c r="BU9" s="34"/>
-      <c r="BV9" s="34">
+      <c r="BS9" s="37"/>
+      <c r="BT9" s="37"/>
+      <c r="BU9" s="37"/>
+      <c r="BV9" s="37">
         <v>2018</v>
       </c>
-      <c r="BW9" s="34"/>
-      <c r="BX9" s="34"/>
-      <c r="BY9" s="34"/>
-      <c r="BZ9" s="34">
+      <c r="BW9" s="37"/>
+      <c r="BX9" s="37"/>
+      <c r="BY9" s="37"/>
+      <c r="BZ9" s="37">
         <v>2019</v>
       </c>
-      <c r="CA9" s="34"/>
-      <c r="CB9" s="34"/>
-      <c r="CC9" s="34"/>
-      <c r="CD9" s="34">
+      <c r="CA9" s="37"/>
+      <c r="CB9" s="37"/>
+      <c r="CC9" s="37"/>
+      <c r="CD9" s="37">
         <v>2020</v>
       </c>
-      <c r="CE9" s="34"/>
-      <c r="CF9" s="34"/>
-      <c r="CG9" s="34"/>
+      <c r="CE9" s="37"/>
+      <c r="CF9" s="37"/>
+      <c r="CG9" s="37"/>
       <c r="CH9" s="21">
         <v>2021</v>
       </c>
@@ -23920,6 +23937,7 @@
       </c>
       <c r="CU9" s="24"/>
       <c r="CV9" s="24"/>
+      <c r="CW9" s="24"/>
     </row>
     <row r="10" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24221,6 +24239,9 @@
       </c>
       <c r="CV10" s="25" t="s">
         <v>10</v>
+      </c>
+      <c r="CW10" s="25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24232,6 +24253,7 @@
       <c r="CT11" s="23"/>
       <c r="CU11" s="23"/>
       <c r="CV11" s="23"/>
+      <c r="CW11" s="23"/>
     </row>
     <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -24532,9 +24554,11 @@
         <v>11399.778669157404</v>
       </c>
       <c r="CV12" s="26">
-        <v>10078.040217735474</v>
-      </c>
-      <c r="CW12" s="9"/>
+        <v>10173.20910725256</v>
+      </c>
+      <c r="CW12" s="26">
+        <v>4532.9744927767988</v>
+      </c>
       <c r="CX12" s="9"/>
       <c r="CY12" s="9"/>
       <c r="CZ12" s="9"/>
@@ -24890,7 +24914,9 @@
       <c r="CV13" s="26">
         <v>4005.2673242145211</v>
       </c>
-      <c r="CW13" s="9"/>
+      <c r="CW13" s="26">
+        <v>5537.7171624746334</v>
+      </c>
       <c r="CX13" s="9"/>
       <c r="CY13" s="9"/>
       <c r="CZ13" s="9"/>
@@ -25244,9 +25270,11 @@
         <v>17396.165687556408</v>
       </c>
       <c r="CV14" s="26">
-        <v>18344.866379723717</v>
-      </c>
-      <c r="CW14" s="9"/>
+        <v>18424.068537477629</v>
+      </c>
+      <c r="CW14" s="26">
+        <v>16580.660900642277</v>
+      </c>
       <c r="CX14" s="9"/>
       <c r="CY14" s="9"/>
       <c r="CZ14" s="9"/>
@@ -25600,9 +25628,11 @@
         <v>11813.07977644948</v>
       </c>
       <c r="CV15" s="26">
-        <v>8287.0567944666873</v>
-      </c>
-      <c r="CW15" s="9"/>
+        <v>8302.2870712827826</v>
+      </c>
+      <c r="CW15" s="26">
+        <v>3251.3679321825257</v>
+      </c>
       <c r="CX15" s="9"/>
       <c r="CY15" s="9"/>
       <c r="CZ15" s="9"/>
@@ -25958,7 +25988,9 @@
       <c r="CV16" s="26">
         <v>3277.2071135840029</v>
       </c>
-      <c r="CW16" s="9"/>
+      <c r="CW16" s="26">
+        <v>7065.1663251862847</v>
+      </c>
       <c r="CX16" s="9"/>
       <c r="CY16" s="9"/>
       <c r="CZ16" s="9"/>
@@ -26314,7 +26346,9 @@
       <c r="CV17" s="26">
         <v>16060.841361162746</v>
       </c>
-      <c r="CW17" s="9"/>
+      <c r="CW17" s="26">
+        <v>18072.142269770113</v>
+      </c>
       <c r="CX17" s="9"/>
       <c r="CY17" s="9"/>
       <c r="CZ17" s="9"/>
@@ -26469,7 +26503,7 @@
       <c r="CT18" s="27"/>
       <c r="CU18" s="27"/>
       <c r="CV18" s="27"/>
-      <c r="CW18" s="9"/>
+      <c r="CW18" s="27"/>
       <c r="CX18" s="9"/>
       <c r="CY18" s="9"/>
       <c r="CZ18" s="9"/>
@@ -26823,9 +26857,11 @@
         <v>61045.119050722402</v>
       </c>
       <c r="CV19" s="28">
-        <v>60053.279190887151</v>
-      </c>
-      <c r="CW19" s="9"/>
+        <v>60242.880514974247</v>
+      </c>
+      <c r="CW19" s="28">
+        <v>55040.029083032634</v>
+      </c>
       <c r="CX19" s="9"/>
       <c r="CY19" s="9"/>
       <c r="CZ19" s="9"/>
@@ -26981,6 +27017,7 @@
       <c r="CT20" s="29"/>
       <c r="CU20" s="29"/>
       <c r="CV20" s="29"/>
+      <c r="CW20" s="29"/>
     </row>
     <row r="21" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -26993,6 +27030,7 @@
       <c r="CT21" s="23"/>
       <c r="CU21" s="23"/>
       <c r="CV21" s="23"/>
+      <c r="CW21" s="23"/>
     </row>
     <row r="22" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
@@ -27094,7 +27132,7 @@
       <c r="CT22" s="27"/>
       <c r="CU22" s="27"/>
       <c r="CV22" s="27"/>
-      <c r="CW22" s="9"/>
+      <c r="CW22" s="27"/>
       <c r="CX22" s="9"/>
       <c r="CY22" s="9"/>
       <c r="CZ22" s="9"/>
@@ -27249,7 +27287,7 @@
       <c r="CT23" s="27"/>
       <c r="CU23" s="27"/>
       <c r="CV23" s="27"/>
-      <c r="CW23" s="9"/>
+      <c r="CW23" s="27"/>
       <c r="CX23" s="9"/>
       <c r="CY23" s="9"/>
       <c r="CZ23" s="9"/>
@@ -27315,6 +27353,7 @@
       <c r="CT24" s="23"/>
       <c r="CU24" s="23"/>
       <c r="CV24" s="23"/>
+      <c r="CW24" s="23"/>
     </row>
     <row r="25" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -27327,10 +27366,11 @@
       <c r="CT25" s="23"/>
       <c r="CU25" s="23"/>
       <c r="CV25" s="23"/>
+      <c r="CW25" s="23"/>
     </row>
     <row r="26" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="CP26" s="23"/>
       <c r="CQ26" s="23"/>
@@ -27339,6 +27379,7 @@
       <c r="CT26" s="23"/>
       <c r="CU26" s="23"/>
       <c r="CV26" s="23"/>
+      <c r="CW26" s="23"/>
     </row>
     <row r="27" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP27" s="23"/>
@@ -27348,6 +27389,7 @@
       <c r="CT27" s="23"/>
       <c r="CU27" s="23"/>
       <c r="CV27" s="23"/>
+      <c r="CW27" s="23"/>
     </row>
     <row r="28" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -27360,10 +27402,11 @@
       <c r="CT28" s="23"/>
       <c r="CU28" s="23"/>
       <c r="CV28" s="23"/>
+      <c r="CW28" s="23"/>
     </row>
     <row r="29" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CP29" s="23"/>
       <c r="CQ29" s="23"/>
@@ -27372,6 +27415,7 @@
       <c r="CT29" s="23"/>
       <c r="CU29" s="23"/>
       <c r="CV29" s="23"/>
+      <c r="CW29" s="23"/>
     </row>
     <row r="30" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -27384,6 +27428,7 @@
       <c r="CT30" s="23"/>
       <c r="CU30" s="23"/>
       <c r="CV30" s="23"/>
+      <c r="CW30" s="23"/>
     </row>
     <row r="31" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP31" s="23"/>
@@ -27393,135 +27438,136 @@
       <c r="CT31" s="23"/>
       <c r="CU31" s="23"/>
       <c r="CV31" s="23"/>
+      <c r="CW31" s="23"/>
     </row>
     <row r="32" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="34">
+      <c r="B32" s="37">
         <v>2000</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34">
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37">
         <v>2001</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34">
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37">
         <v>2002</v>
       </c>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34">
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37">
         <v>2003</v>
       </c>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34">
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37">
         <v>2004</v>
       </c>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34">
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37">
         <v>2005</v>
       </c>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34">
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37">
         <v>2006</v>
       </c>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34">
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37">
         <v>2007</v>
       </c>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="34">
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37">
         <v>2008</v>
       </c>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="34">
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37">
         <v>2009</v>
       </c>
-      <c r="AM32" s="34"/>
-      <c r="AN32" s="34"/>
-      <c r="AO32" s="34"/>
-      <c r="AP32" s="34">
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
+      <c r="AO32" s="37"/>
+      <c r="AP32" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ32" s="34"/>
-      <c r="AR32" s="34"/>
-      <c r="AS32" s="34"/>
-      <c r="AT32" s="34">
+      <c r="AQ32" s="37"/>
+      <c r="AR32" s="37"/>
+      <c r="AS32" s="37"/>
+      <c r="AT32" s="37">
         <v>2011</v>
       </c>
-      <c r="AU32" s="34"/>
-      <c r="AV32" s="34"/>
-      <c r="AW32" s="34"/>
-      <c r="AX32" s="34">
+      <c r="AU32" s="37"/>
+      <c r="AV32" s="37"/>
+      <c r="AW32" s="37"/>
+      <c r="AX32" s="37">
         <v>2012</v>
       </c>
-      <c r="AY32" s="34"/>
-      <c r="AZ32" s="34"/>
-      <c r="BA32" s="34"/>
-      <c r="BB32" s="34">
+      <c r="AY32" s="37"/>
+      <c r="AZ32" s="37"/>
+      <c r="BA32" s="37"/>
+      <c r="BB32" s="37">
         <v>2013</v>
       </c>
-      <c r="BC32" s="34"/>
-      <c r="BD32" s="34"/>
-      <c r="BE32" s="34"/>
-      <c r="BF32" s="34">
+      <c r="BC32" s="37"/>
+      <c r="BD32" s="37"/>
+      <c r="BE32" s="37"/>
+      <c r="BF32" s="37">
         <v>2014</v>
       </c>
-      <c r="BG32" s="34"/>
-      <c r="BH32" s="34"/>
-      <c r="BI32" s="34"/>
-      <c r="BJ32" s="34">
+      <c r="BG32" s="37"/>
+      <c r="BH32" s="37"/>
+      <c r="BI32" s="37"/>
+      <c r="BJ32" s="37">
         <v>2015</v>
       </c>
-      <c r="BK32" s="34"/>
-      <c r="BL32" s="34"/>
-      <c r="BM32" s="34"/>
-      <c r="BN32" s="34">
+      <c r="BK32" s="37"/>
+      <c r="BL32" s="37"/>
+      <c r="BM32" s="37"/>
+      <c r="BN32" s="37">
         <v>2016</v>
       </c>
-      <c r="BO32" s="34"/>
-      <c r="BP32" s="34"/>
-      <c r="BQ32" s="34"/>
-      <c r="BR32" s="34">
+      <c r="BO32" s="37"/>
+      <c r="BP32" s="37"/>
+      <c r="BQ32" s="37"/>
+      <c r="BR32" s="37">
         <v>2017</v>
       </c>
-      <c r="BS32" s="34"/>
-      <c r="BT32" s="34"/>
-      <c r="BU32" s="34"/>
-      <c r="BV32" s="34">
+      <c r="BS32" s="37"/>
+      <c r="BT32" s="37"/>
+      <c r="BU32" s="37"/>
+      <c r="BV32" s="37">
         <v>2018</v>
       </c>
-      <c r="BW32" s="34"/>
-      <c r="BX32" s="34"/>
-      <c r="BY32" s="34"/>
-      <c r="BZ32" s="34">
+      <c r="BW32" s="37"/>
+      <c r="BX32" s="37"/>
+      <c r="BY32" s="37"/>
+      <c r="BZ32" s="37">
         <v>2019</v>
       </c>
-      <c r="CA32" s="34"/>
-      <c r="CB32" s="34"/>
-      <c r="CC32" s="34"/>
-      <c r="CD32" s="34">
+      <c r="CA32" s="37"/>
+      <c r="CB32" s="37"/>
+      <c r="CC32" s="37"/>
+      <c r="CD32" s="37">
         <v>2020</v>
       </c>
-      <c r="CE32" s="34"/>
-      <c r="CF32" s="34"/>
-      <c r="CG32" s="34"/>
+      <c r="CE32" s="37"/>
+      <c r="CF32" s="37"/>
+      <c r="CG32" s="37"/>
       <c r="CH32" s="21">
         <v>2021</v>
       </c>
@@ -27545,6 +27591,7 @@
       </c>
       <c r="CU32" s="24"/>
       <c r="CV32" s="24"/>
+      <c r="CW32" s="24"/>
     </row>
     <row r="33" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -27846,6 +27893,9 @@
       </c>
       <c r="CV33" s="25" t="s">
         <v>10</v>
+      </c>
+      <c r="CW33" s="25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27857,6 +27907,7 @@
       <c r="CT34" s="23"/>
       <c r="CU34" s="23"/>
       <c r="CV34" s="23"/>
+      <c r="CW34" s="23"/>
     </row>
     <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -28157,9 +28208,11 @@
         <v>10317.085513680284</v>
       </c>
       <c r="CV35" s="26">
-        <v>3396.8990292829335</v>
-      </c>
-      <c r="CW35" s="9"/>
+        <v>3428.976606017507</v>
+      </c>
+      <c r="CW35" s="26">
+        <v>4125.8787238671512</v>
+      </c>
       <c r="CX35" s="9"/>
       <c r="CY35" s="9"/>
       <c r="CZ35" s="9"/>
@@ -28515,7 +28568,9 @@
       <c r="CV36" s="26">
         <v>2452.5537263063347</v>
       </c>
-      <c r="CW36" s="9"/>
+      <c r="CW36" s="26">
+        <v>2982.7051268410764</v>
+      </c>
       <c r="CX36" s="9"/>
       <c r="CY36" s="9"/>
       <c r="CZ36" s="9"/>
@@ -28869,9 +28924,11 @@
         <v>7790.5966041598604</v>
       </c>
       <c r="CV37" s="26">
-        <v>7312.4025929477448</v>
-      </c>
-      <c r="CW37" s="9"/>
+        <v>7343.9731725169113</v>
+      </c>
+      <c r="CW37" s="26">
+        <v>7197.4137004769482</v>
+      </c>
       <c r="CX37" s="9"/>
       <c r="CY37" s="9"/>
       <c r="CZ37" s="9"/>
@@ -29225,9 +29282,11 @@
         <v>8043.8312730830385</v>
       </c>
       <c r="CV38" s="26">
-        <v>6151.4288178526504</v>
-      </c>
-      <c r="CW38" s="9"/>
+        <v>6162.7341541178675</v>
+      </c>
+      <c r="CW38" s="26">
+        <v>1744.0723090049928</v>
+      </c>
       <c r="CX38" s="9"/>
       <c r="CY38" s="9"/>
       <c r="CZ38" s="9"/>
@@ -29583,7 +29642,9 @@
       <c r="CV39" s="26">
         <v>1382.1565125134218</v>
       </c>
-      <c r="CW39" s="9"/>
+      <c r="CW39" s="26">
+        <v>1801.1026294579215</v>
+      </c>
       <c r="CX39" s="9"/>
       <c r="CY39" s="9"/>
       <c r="CZ39" s="9"/>
@@ -29939,7 +30000,9 @@
       <c r="CV40" s="26">
         <v>10747.071632755285</v>
       </c>
-      <c r="CW40" s="9"/>
+      <c r="CW40" s="26">
+        <v>19637.331663934758</v>
+      </c>
       <c r="CX40" s="9"/>
       <c r="CY40" s="9"/>
       <c r="CZ40" s="9"/>
@@ -30094,7 +30157,7 @@
       <c r="CT41" s="28"/>
       <c r="CU41" s="28"/>
       <c r="CV41" s="28"/>
-      <c r="CW41" s="9"/>
+      <c r="CW41" s="28"/>
       <c r="CX41" s="9"/>
       <c r="CY41" s="9"/>
       <c r="CZ41" s="9"/>
@@ -30448,9 +30511,11 @@
         <v>44837.019569636235</v>
       </c>
       <c r="CV42" s="28">
-        <v>31442.512311658371</v>
-      </c>
-      <c r="CW42" s="9"/>
+        <v>31517.465804227329</v>
+      </c>
+      <c r="CW42" s="28">
+        <v>37488.50415358285</v>
+      </c>
       <c r="CX42" s="9"/>
       <c r="CY42" s="9"/>
       <c r="CZ42" s="9"/>
@@ -30606,6 +30671,7 @@
       <c r="CT43" s="29"/>
       <c r="CU43" s="29"/>
       <c r="CV43" s="29"/>
+      <c r="CW43" s="29"/>
     </row>
     <row r="44" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
@@ -30618,6 +30684,7 @@
       <c r="CT44" s="23"/>
       <c r="CU44" s="23"/>
       <c r="CV44" s="23"/>
+      <c r="CW44" s="23"/>
     </row>
     <row r="45" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
@@ -30719,7 +30786,7 @@
       <c r="CT45" s="27"/>
       <c r="CU45" s="27"/>
       <c r="CV45" s="27"/>
-      <c r="CW45" s="9"/>
+      <c r="CW45" s="27"/>
       <c r="CX45" s="9"/>
       <c r="CY45" s="9"/>
       <c r="CZ45" s="9"/>
@@ -30874,7 +30941,7 @@
       <c r="CT46" s="27"/>
       <c r="CU46" s="27"/>
       <c r="CV46" s="27"/>
-      <c r="CW46" s="9"/>
+      <c r="CW46" s="27"/>
       <c r="CX46" s="9"/>
       <c r="CY46" s="9"/>
       <c r="CZ46" s="9"/>
@@ -30940,6 +31007,7 @@
       <c r="CT47" s="23"/>
       <c r="CU47" s="23"/>
       <c r="CV47" s="23"/>
+      <c r="CW47" s="23"/>
     </row>
     <row r="48" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -30952,10 +31020,11 @@
       <c r="CT48" s="23"/>
       <c r="CU48" s="23"/>
       <c r="CV48" s="23"/>
+      <c r="CW48" s="23"/>
     </row>
     <row r="49" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="CP49" s="23"/>
       <c r="CQ49" s="23"/>
@@ -30964,6 +31033,7 @@
       <c r="CT49" s="23"/>
       <c r="CU49" s="23"/>
       <c r="CV49" s="23"/>
+      <c r="CW49" s="23"/>
     </row>
     <row r="50" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP50" s="23"/>
@@ -30973,6 +31043,7 @@
       <c r="CT50" s="23"/>
       <c r="CU50" s="23"/>
       <c r="CV50" s="23"/>
+      <c r="CW50" s="23"/>
     </row>
     <row r="51" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -30985,10 +31056,11 @@
       <c r="CT51" s="23"/>
       <c r="CU51" s="23"/>
       <c r="CV51" s="23"/>
+      <c r="CW51" s="23"/>
     </row>
     <row r="52" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CP52" s="23"/>
       <c r="CQ52" s="23"/>
@@ -30997,6 +31069,7 @@
       <c r="CT52" s="23"/>
       <c r="CU52" s="23"/>
       <c r="CV52" s="23"/>
+      <c r="CW52" s="23"/>
     </row>
     <row r="53" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -31006,147 +31079,149 @@
       <c r="CQ53" s="23"/>
       <c r="CR53" s="23"/>
       <c r="CS53" s="23"/>
-      <c r="CT53" s="23"/>
-      <c r="CU53" s="23"/>
-      <c r="CV53" s="23"/>
+      <c r="CT53" s="34"/>
+      <c r="CU53" s="34"/>
+      <c r="CV53" s="34"/>
+      <c r="CW53" s="23"/>
     </row>
     <row r="54" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP54" s="23"/>
       <c r="CQ54" s="23"/>
       <c r="CR54" s="23"/>
       <c r="CS54" s="23"/>
-      <c r="CT54" s="23"/>
-      <c r="CU54" s="23"/>
-      <c r="CV54" s="23"/>
+      <c r="CT54" s="34"/>
+      <c r="CU54" s="34"/>
+      <c r="CV54" s="34"/>
+      <c r="CW54" s="23"/>
     </row>
     <row r="55" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34" t="s">
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34" t="s">
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34" t="s">
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34" t="s">
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="34" t="s">
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="W55" s="34"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34" t="s">
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AA55" s="34"/>
-      <c r="AB55" s="34"/>
-      <c r="AC55" s="34"/>
-      <c r="AD55" s="34" t="s">
+      <c r="AA55" s="37"/>
+      <c r="AB55" s="37"/>
+      <c r="AC55" s="37"/>
+      <c r="AD55" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="34"/>
-      <c r="AF55" s="34"/>
-      <c r="AG55" s="34"/>
-      <c r="AH55" s="34" t="s">
+      <c r="AE55" s="37"/>
+      <c r="AF55" s="37"/>
+      <c r="AG55" s="37"/>
+      <c r="AH55" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="34"/>
-      <c r="AJ55" s="34"/>
-      <c r="AK55" s="34"/>
-      <c r="AL55" s="34" t="s">
+      <c r="AI55" s="37"/>
+      <c r="AJ55" s="37"/>
+      <c r="AK55" s="37"/>
+      <c r="AL55" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AM55" s="34"/>
-      <c r="AN55" s="34"/>
-      <c r="AO55" s="34"/>
-      <c r="AP55" s="34" t="s">
+      <c r="AM55" s="37"/>
+      <c r="AN55" s="37"/>
+      <c r="AO55" s="37"/>
+      <c r="AP55" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AQ55" s="34"/>
-      <c r="AR55" s="34"/>
-      <c r="AS55" s="34"/>
-      <c r="AT55" s="34" t="s">
+      <c r="AQ55" s="37"/>
+      <c r="AR55" s="37"/>
+      <c r="AS55" s="37"/>
+      <c r="AT55" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AU55" s="34"/>
-      <c r="AV55" s="34"/>
-      <c r="AW55" s="34"/>
-      <c r="AX55" s="34" t="s">
+      <c r="AU55" s="37"/>
+      <c r="AV55" s="37"/>
+      <c r="AW55" s="37"/>
+      <c r="AX55" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AY55" s="34"/>
-      <c r="AZ55" s="34"/>
-      <c r="BA55" s="34"/>
-      <c r="BB55" s="34" t="s">
+      <c r="AY55" s="37"/>
+      <c r="AZ55" s="37"/>
+      <c r="BA55" s="37"/>
+      <c r="BB55" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="BC55" s="34"/>
-      <c r="BD55" s="34"/>
-      <c r="BE55" s="34"/>
-      <c r="BF55" s="34" t="s">
+      <c r="BC55" s="37"/>
+      <c r="BD55" s="37"/>
+      <c r="BE55" s="37"/>
+      <c r="BF55" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="BG55" s="34"/>
-      <c r="BH55" s="34"/>
-      <c r="BI55" s="34"/>
-      <c r="BJ55" s="34" t="s">
+      <c r="BG55" s="37"/>
+      <c r="BH55" s="37"/>
+      <c r="BI55" s="37"/>
+      <c r="BJ55" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="BK55" s="34"/>
-      <c r="BL55" s="34"/>
-      <c r="BM55" s="34"/>
-      <c r="BN55" s="34" t="s">
+      <c r="BK55" s="37"/>
+      <c r="BL55" s="37"/>
+      <c r="BM55" s="37"/>
+      <c r="BN55" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BO55" s="34"/>
-      <c r="BP55" s="34"/>
-      <c r="BQ55" s="34"/>
-      <c r="BR55" s="34" t="s">
+      <c r="BO55" s="37"/>
+      <c r="BP55" s="37"/>
+      <c r="BQ55" s="37"/>
+      <c r="BR55" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="BS55" s="34"/>
-      <c r="BT55" s="34"/>
-      <c r="BU55" s="34"/>
-      <c r="BV55" s="34" t="s">
+      <c r="BS55" s="37"/>
+      <c r="BT55" s="37"/>
+      <c r="BU55" s="37"/>
+      <c r="BV55" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="BW55" s="34"/>
-      <c r="BX55" s="34"/>
-      <c r="BY55" s="34"/>
-      <c r="BZ55" s="34" t="s">
+      <c r="BW55" s="37"/>
+      <c r="BX55" s="37"/>
+      <c r="BY55" s="37"/>
+      <c r="BZ55" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="CA55" s="34"/>
-      <c r="CB55" s="34"/>
-      <c r="CC55" s="34"/>
-      <c r="CD55" s="34" t="s">
+      <c r="CA55" s="37"/>
+      <c r="CB55" s="37"/>
+      <c r="CC55" s="37"/>
+      <c r="CD55" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="CE55" s="34"/>
-      <c r="CF55" s="34"/>
-      <c r="CG55" s="34"/>
+      <c r="CE55" s="37"/>
+      <c r="CF55" s="37"/>
+      <c r="CG55" s="37"/>
       <c r="CH55" s="21" t="s">
         <v>53</v>
       </c>
@@ -31164,10 +31239,11 @@
       </c>
       <c r="CQ55" s="24"/>
       <c r="CR55" s="24"/>
-      <c r="CS55" s="22"/>
-      <c r="CT55" s="24"/>
-      <c r="CU55" s="24"/>
+      <c r="CS55" s="24"/>
+      <c r="CT55" s="22"/>
+      <c r="CU55" s="22"/>
       <c r="CV55" s="22"/>
+      <c r="CW55" s="22"/>
     </row>
     <row r="56" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
@@ -31458,10 +31534,13 @@
       <c r="CR56" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="CS56" s="30"/>
+      <c r="CS56" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="CT56" s="30"/>
       <c r="CU56" s="30"/>
       <c r="CV56" s="30"/>
+      <c r="CW56" s="30"/>
     </row>
     <row r="57" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
@@ -31469,9 +31548,10 @@
       <c r="CQ57" s="23"/>
       <c r="CR57" s="23"/>
       <c r="CS57" s="23"/>
-      <c r="CT57" s="23"/>
-      <c r="CU57" s="23"/>
-      <c r="CV57" s="23"/>
+      <c r="CT57" s="34"/>
+      <c r="CU57" s="34"/>
+      <c r="CV57" s="34"/>
+      <c r="CW57" s="23"/>
     </row>
     <row r="58" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -31760,12 +31840,15 @@
         <v>68.055234197769067</v>
       </c>
       <c r="CR58" s="31">
-        <v>20.587710158327639</v>
-      </c>
-      <c r="CS58" s="31"/>
-      <c r="CT58" s="31"/>
-      <c r="CU58" s="31"/>
-      <c r="CV58" s="31"/>
+        <v>21.726443306562174</v>
+      </c>
+      <c r="CS58" s="31">
+        <v>-28.555015978037815</v>
+      </c>
+      <c r="CT58" s="35"/>
+      <c r="CU58" s="35"/>
+      <c r="CV58" s="35"/>
+      <c r="CW58" s="31"/>
     </row>
     <row r="59" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -32056,11 +32139,13 @@
       <c r="CR59" s="31">
         <v>-31.826902392252293</v>
       </c>
-      <c r="CS59" s="31"/>
-      <c r="CT59" s="31"/>
-      <c r="CU59" s="31"/>
-      <c r="CV59" s="31"/>
-      <c r="CW59" s="9"/>
+      <c r="CS59" s="31">
+        <v>-24.202836747970039</v>
+      </c>
+      <c r="CT59" s="35"/>
+      <c r="CU59" s="35"/>
+      <c r="CV59" s="35"/>
+      <c r="CW59" s="31"/>
       <c r="CX59" s="9"/>
       <c r="CY59" s="9"/>
       <c r="CZ59" s="9"/>
@@ -32397,13 +32482,15 @@
         <v>13.669426485464228</v>
       </c>
       <c r="CR60" s="31">
-        <v>32.850310788552349</v>
-      </c>
-      <c r="CS60" s="31"/>
-      <c r="CT60" s="31"/>
-      <c r="CU60" s="31"/>
-      <c r="CV60" s="31"/>
-      <c r="CW60" s="9"/>
+        <v>33.423878949526284</v>
+      </c>
+      <c r="CS60" s="31">
+        <v>25.422513090867</v>
+      </c>
+      <c r="CT60" s="35"/>
+      <c r="CU60" s="35"/>
+      <c r="CV60" s="35"/>
+      <c r="CW60" s="31"/>
       <c r="CX60" s="9"/>
       <c r="CY60" s="9"/>
       <c r="CZ60" s="9"/>
@@ -32740,13 +32827,15 @@
         <v>-21.430690307839257</v>
       </c>
       <c r="CR61" s="31">
-        <v>-12.442078136770448</v>
-      </c>
-      <c r="CS61" s="31"/>
-      <c r="CT61" s="31"/>
-      <c r="CU61" s="31"/>
-      <c r="CV61" s="31"/>
-      <c r="CW61" s="9"/>
+        <v>-12.281160766406899</v>
+      </c>
+      <c r="CS61" s="31">
+        <v>-2.3162281318711138</v>
+      </c>
+      <c r="CT61" s="35"/>
+      <c r="CU61" s="35"/>
+      <c r="CV61" s="35"/>
+      <c r="CW61" s="31"/>
       <c r="CX61" s="9"/>
       <c r="CY61" s="9"/>
       <c r="CZ61" s="9"/>
@@ -33085,11 +33174,13 @@
       <c r="CR62" s="31">
         <v>7.2925961366813397</v>
       </c>
-      <c r="CS62" s="31"/>
-      <c r="CT62" s="31"/>
-      <c r="CU62" s="31"/>
-      <c r="CV62" s="31"/>
-      <c r="CW62" s="9"/>
+      <c r="CS62" s="31">
+        <v>35.697869301167941</v>
+      </c>
+      <c r="CT62" s="35"/>
+      <c r="CU62" s="35"/>
+      <c r="CV62" s="35"/>
+      <c r="CW62" s="31"/>
       <c r="CX62" s="9"/>
       <c r="CY62" s="9"/>
       <c r="CZ62" s="9"/>
@@ -33428,11 +33519,13 @@
       <c r="CR63" s="31">
         <v>6.8762388027553243</v>
       </c>
-      <c r="CS63" s="31"/>
-      <c r="CT63" s="31"/>
-      <c r="CU63" s="31"/>
-      <c r="CV63" s="31"/>
-      <c r="CW63" s="9"/>
+      <c r="CS63" s="31">
+        <v>6.6705805637141964</v>
+      </c>
+      <c r="CT63" s="35"/>
+      <c r="CU63" s="35"/>
+      <c r="CV63" s="35"/>
+      <c r="CW63" s="31"/>
       <c r="CX63" s="9"/>
       <c r="CY63" s="9"/>
       <c r="CZ63" s="9"/>
@@ -33579,10 +33672,10 @@
       <c r="CQ64" s="27"/>
       <c r="CR64" s="27"/>
       <c r="CS64" s="27"/>
-      <c r="CT64" s="27"/>
-      <c r="CU64" s="27"/>
-      <c r="CV64" s="27"/>
-      <c r="CW64" s="9"/>
+      <c r="CT64" s="36"/>
+      <c r="CU64" s="36"/>
+      <c r="CV64" s="36"/>
+      <c r="CW64" s="27"/>
       <c r="CX64" s="9"/>
       <c r="CY64" s="9"/>
       <c r="CZ64" s="9"/>
@@ -33919,13 +34012,15 @@
         <v>7.9724908466819642</v>
       </c>
       <c r="CR65" s="31">
-        <v>8.0330418339397767</v>
-      </c>
-      <c r="CS65" s="31"/>
-      <c r="CT65" s="31"/>
-      <c r="CU65" s="31"/>
-      <c r="CV65" s="31"/>
-      <c r="CW65" s="9"/>
+        <v>8.3741257523010688</v>
+      </c>
+      <c r="CS65" s="31">
+        <v>5.143495652661386</v>
+      </c>
+      <c r="CT65" s="35"/>
+      <c r="CU65" s="35"/>
+      <c r="CV65" s="35"/>
+      <c r="CW65" s="31"/>
       <c r="CX65" s="9"/>
       <c r="CY65" s="9"/>
       <c r="CZ65" s="9"/>
@@ -34073,9 +34168,10 @@
       <c r="CQ66" s="29"/>
       <c r="CR66" s="29"/>
       <c r="CS66" s="29"/>
-      <c r="CT66" s="29"/>
-      <c r="CU66" s="29"/>
-      <c r="CV66" s="29"/>
+      <c r="CT66" s="25"/>
+      <c r="CU66" s="25"/>
+      <c r="CV66" s="25"/>
+      <c r="CW66" s="29"/>
     </row>
     <row r="67" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
@@ -34085,9 +34181,10 @@
       <c r="CQ67" s="23"/>
       <c r="CR67" s="23"/>
       <c r="CS67" s="23"/>
-      <c r="CT67" s="23"/>
-      <c r="CU67" s="23"/>
-      <c r="CV67" s="23"/>
+      <c r="CT67" s="34"/>
+      <c r="CU67" s="34"/>
+      <c r="CV67" s="34"/>
+      <c r="CW67" s="23"/>
     </row>
     <row r="68" spans="1:149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
@@ -34189,10 +34286,10 @@
       <c r="CQ68" s="27"/>
       <c r="CR68" s="27"/>
       <c r="CS68" s="27"/>
-      <c r="CT68" s="27"/>
-      <c r="CU68" s="27"/>
-      <c r="CV68" s="27"/>
-      <c r="CW68" s="9"/>
+      <c r="CT68" s="36"/>
+      <c r="CU68" s="36"/>
+      <c r="CV68" s="36"/>
+      <c r="CW68" s="27"/>
       <c r="CX68" s="9"/>
       <c r="CY68" s="9"/>
       <c r="CZ68" s="9"/>
@@ -34339,10 +34436,10 @@
       <c r="CQ69" s="27"/>
       <c r="CR69" s="27"/>
       <c r="CS69" s="27"/>
-      <c r="CT69" s="27"/>
-      <c r="CU69" s="27"/>
-      <c r="CV69" s="27"/>
-      <c r="CW69" s="9"/>
+      <c r="CT69" s="36"/>
+      <c r="CU69" s="36"/>
+      <c r="CV69" s="36"/>
+      <c r="CW69" s="27"/>
       <c r="CX69" s="9"/>
       <c r="CY69" s="9"/>
       <c r="CZ69" s="9"/>
@@ -34400,9 +34497,10 @@
       <c r="CQ70" s="23"/>
       <c r="CR70" s="23"/>
       <c r="CS70" s="23"/>
-      <c r="CT70" s="23"/>
-      <c r="CU70" s="23"/>
-      <c r="CV70" s="23"/>
+      <c r="CT70" s="34"/>
+      <c r="CU70" s="34"/>
+      <c r="CV70" s="34"/>
+      <c r="CW70" s="23"/>
     </row>
     <row r="71" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
@@ -34412,30 +34510,33 @@
       <c r="CQ71" s="23"/>
       <c r="CR71" s="23"/>
       <c r="CS71" s="23"/>
-      <c r="CT71" s="23"/>
-      <c r="CU71" s="23"/>
-      <c r="CV71" s="23"/>
+      <c r="CT71" s="34"/>
+      <c r="CU71" s="34"/>
+      <c r="CV71" s="34"/>
+      <c r="CW71" s="23"/>
     </row>
     <row r="72" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="CP72" s="23"/>
       <c r="CQ72" s="23"/>
       <c r="CR72" s="23"/>
       <c r="CS72" s="23"/>
-      <c r="CT72" s="23"/>
-      <c r="CU72" s="23"/>
-      <c r="CV72" s="23"/>
+      <c r="CT72" s="34"/>
+      <c r="CU72" s="34"/>
+      <c r="CV72" s="34"/>
+      <c r="CW72" s="23"/>
     </row>
     <row r="73" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP73" s="23"/>
       <c r="CQ73" s="23"/>
       <c r="CR73" s="23"/>
       <c r="CS73" s="23"/>
-      <c r="CT73" s="23"/>
-      <c r="CU73" s="23"/>
-      <c r="CV73" s="23"/>
+      <c r="CT73" s="34"/>
+      <c r="CU73" s="34"/>
+      <c r="CV73" s="34"/>
+      <c r="CW73" s="23"/>
     </row>
     <row r="74" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -34445,21 +34546,23 @@
       <c r="CQ74" s="23"/>
       <c r="CR74" s="23"/>
       <c r="CS74" s="23"/>
-      <c r="CT74" s="23"/>
-      <c r="CU74" s="23"/>
-      <c r="CV74" s="23"/>
+      <c r="CT74" s="34"/>
+      <c r="CU74" s="34"/>
+      <c r="CV74" s="34"/>
+      <c r="CW74" s="23"/>
     </row>
     <row r="75" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CP75" s="23"/>
       <c r="CQ75" s="23"/>
       <c r="CR75" s="23"/>
       <c r="CS75" s="23"/>
-      <c r="CT75" s="23"/>
-      <c r="CU75" s="23"/>
-      <c r="CV75" s="23"/>
+      <c r="CT75" s="34"/>
+      <c r="CU75" s="34"/>
+      <c r="CV75" s="34"/>
+      <c r="CW75" s="23"/>
     </row>
     <row r="76" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -34469,147 +34572,149 @@
       <c r="CQ76" s="23"/>
       <c r="CR76" s="23"/>
       <c r="CS76" s="23"/>
-      <c r="CT76" s="23"/>
-      <c r="CU76" s="23"/>
-      <c r="CV76" s="23"/>
+      <c r="CT76" s="34"/>
+      <c r="CU76" s="34"/>
+      <c r="CV76" s="34"/>
+      <c r="CW76" s="23"/>
     </row>
     <row r="77" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP77" s="23"/>
       <c r="CQ77" s="23"/>
       <c r="CR77" s="23"/>
       <c r="CS77" s="23"/>
-      <c r="CT77" s="23"/>
-      <c r="CU77" s="23"/>
-      <c r="CV77" s="23"/>
+      <c r="CT77" s="34"/>
+      <c r="CU77" s="34"/>
+      <c r="CV77" s="34"/>
+      <c r="CW77" s="23"/>
     </row>
     <row r="78" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="34" t="s">
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="34" t="s">
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="34" t="s">
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="34" t="s">
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="35"/>
-      <c r="T78" s="35"/>
-      <c r="U78" s="35"/>
-      <c r="V78" s="34" t="s">
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="38"/>
+      <c r="V78" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="W78" s="35"/>
-      <c r="X78" s="35"/>
-      <c r="Y78" s="35"/>
-      <c r="Z78" s="34" t="s">
+      <c r="W78" s="38"/>
+      <c r="X78" s="38"/>
+      <c r="Y78" s="38"/>
+      <c r="Z78" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AA78" s="35"/>
-      <c r="AB78" s="35"/>
-      <c r="AC78" s="35"/>
-      <c r="AD78" s="34" t="s">
+      <c r="AA78" s="38"/>
+      <c r="AB78" s="38"/>
+      <c r="AC78" s="38"/>
+      <c r="AD78" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="35"/>
-      <c r="AF78" s="35"/>
-      <c r="AG78" s="35"/>
-      <c r="AH78" s="34" t="s">
+      <c r="AE78" s="38"/>
+      <c r="AF78" s="38"/>
+      <c r="AG78" s="38"/>
+      <c r="AH78" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AI78" s="35"/>
-      <c r="AJ78" s="35"/>
-      <c r="AK78" s="35"/>
-      <c r="AL78" s="34" t="s">
+      <c r="AI78" s="38"/>
+      <c r="AJ78" s="38"/>
+      <c r="AK78" s="38"/>
+      <c r="AL78" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AM78" s="35"/>
-      <c r="AN78" s="35"/>
-      <c r="AO78" s="35"/>
-      <c r="AP78" s="34" t="s">
+      <c r="AM78" s="38"/>
+      <c r="AN78" s="38"/>
+      <c r="AO78" s="38"/>
+      <c r="AP78" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AQ78" s="35"/>
-      <c r="AR78" s="35"/>
-      <c r="AS78" s="35"/>
-      <c r="AT78" s="34" t="s">
+      <c r="AQ78" s="38"/>
+      <c r="AR78" s="38"/>
+      <c r="AS78" s="38"/>
+      <c r="AT78" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AU78" s="35"/>
-      <c r="AV78" s="35"/>
-      <c r="AW78" s="35"/>
-      <c r="AX78" s="34" t="s">
+      <c r="AU78" s="38"/>
+      <c r="AV78" s="38"/>
+      <c r="AW78" s="38"/>
+      <c r="AX78" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AY78" s="35"/>
-      <c r="AZ78" s="35"/>
-      <c r="BA78" s="35"/>
-      <c r="BB78" s="34" t="s">
+      <c r="AY78" s="38"/>
+      <c r="AZ78" s="38"/>
+      <c r="BA78" s="38"/>
+      <c r="BB78" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="BC78" s="35"/>
-      <c r="BD78" s="35"/>
-      <c r="BE78" s="35"/>
-      <c r="BF78" s="34" t="s">
+      <c r="BC78" s="38"/>
+      <c r="BD78" s="38"/>
+      <c r="BE78" s="38"/>
+      <c r="BF78" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="BG78" s="35"/>
-      <c r="BH78" s="35"/>
-      <c r="BI78" s="35"/>
-      <c r="BJ78" s="34" t="s">
+      <c r="BG78" s="38"/>
+      <c r="BH78" s="38"/>
+      <c r="BI78" s="38"/>
+      <c r="BJ78" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="BK78" s="35"/>
-      <c r="BL78" s="35"/>
-      <c r="BM78" s="35"/>
-      <c r="BN78" s="34" t="s">
+      <c r="BK78" s="38"/>
+      <c r="BL78" s="38"/>
+      <c r="BM78" s="38"/>
+      <c r="BN78" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BO78" s="35"/>
-      <c r="BP78" s="35"/>
-      <c r="BQ78" s="35"/>
-      <c r="BR78" s="34" t="s">
+      <c r="BO78" s="38"/>
+      <c r="BP78" s="38"/>
+      <c r="BQ78" s="38"/>
+      <c r="BR78" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="BS78" s="35"/>
-      <c r="BT78" s="35"/>
-      <c r="BU78" s="35"/>
-      <c r="BV78" s="34" t="s">
+      <c r="BS78" s="38"/>
+      <c r="BT78" s="38"/>
+      <c r="BU78" s="38"/>
+      <c r="BV78" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="BW78" s="35"/>
-      <c r="BX78" s="35"/>
-      <c r="BY78" s="35"/>
-      <c r="BZ78" s="34" t="s">
+      <c r="BW78" s="38"/>
+      <c r="BX78" s="38"/>
+      <c r="BY78" s="38"/>
+      <c r="BZ78" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="CA78" s="35"/>
-      <c r="CB78" s="35"/>
-      <c r="CC78" s="35"/>
-      <c r="CD78" s="34" t="s">
+      <c r="CA78" s="38"/>
+      <c r="CB78" s="38"/>
+      <c r="CC78" s="38"/>
+      <c r="CD78" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="CE78" s="34"/>
-      <c r="CF78" s="34"/>
-      <c r="CG78" s="34"/>
+      <c r="CE78" s="37"/>
+      <c r="CF78" s="37"/>
+      <c r="CG78" s="37"/>
       <c r="CH78" s="21" t="s">
         <v>53</v>
       </c>
@@ -34627,10 +34732,11 @@
       </c>
       <c r="CQ78" s="24"/>
       <c r="CR78" s="24"/>
-      <c r="CS78" s="22"/>
-      <c r="CT78" s="24"/>
-      <c r="CU78" s="24"/>
+      <c r="CS78" s="24"/>
+      <c r="CT78" s="22"/>
+      <c r="CU78" s="22"/>
       <c r="CV78" s="22"/>
+      <c r="CW78" s="22"/>
     </row>
     <row r="79" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
@@ -34921,10 +35027,13 @@
       <c r="CR79" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="CS79" s="30"/>
+      <c r="CS79" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="CT79" s="30"/>
       <c r="CU79" s="30"/>
       <c r="CV79" s="30"/>
+      <c r="CW79" s="30"/>
     </row>
     <row r="80" spans="1:149" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
@@ -34932,9 +35041,10 @@
       <c r="CQ80" s="23"/>
       <c r="CR80" s="23"/>
       <c r="CS80" s="23"/>
-      <c r="CT80" s="23"/>
-      <c r="CU80" s="23"/>
-      <c r="CV80" s="23"/>
+      <c r="CT80" s="34"/>
+      <c r="CU80" s="34"/>
+      <c r="CV80" s="34"/>
+      <c r="CW80" s="23"/>
     </row>
     <row r="81" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -35223,13 +35333,15 @@
         <v>84.330779817670731</v>
       </c>
       <c r="CR81" s="31">
-        <v>20.810248989752878</v>
-      </c>
-      <c r="CS81" s="31"/>
-      <c r="CT81" s="31"/>
-      <c r="CU81" s="31"/>
-      <c r="CV81" s="31"/>
-      <c r="CW81" s="9"/>
+        <v>21.951083615358385</v>
+      </c>
+      <c r="CS81" s="31">
+        <v>-29.503742869140595</v>
+      </c>
+      <c r="CT81" s="35"/>
+      <c r="CU81" s="35"/>
+      <c r="CV81" s="35"/>
+      <c r="CW81" s="31"/>
       <c r="CX81" s="9"/>
       <c r="CY81" s="9"/>
       <c r="CZ81" s="9"/>
@@ -35568,11 +35680,13 @@
       <c r="CR82" s="31">
         <v>-22.660135797957466</v>
       </c>
-      <c r="CS82" s="31"/>
-      <c r="CT82" s="31"/>
-      <c r="CU82" s="31"/>
-      <c r="CV82" s="31"/>
-      <c r="CW82" s="9"/>
+      <c r="CS82" s="31">
+        <v>-17.450183357195854</v>
+      </c>
+      <c r="CT82" s="35"/>
+      <c r="CU82" s="35"/>
+      <c r="CV82" s="35"/>
+      <c r="CW82" s="31"/>
       <c r="CX82" s="9"/>
       <c r="CY82" s="9"/>
       <c r="CZ82" s="9"/>
@@ -35909,13 +36023,15 @@
         <v>-7.3809120148177954</v>
       </c>
       <c r="CR83" s="31">
-        <v>1.0885537269954995</v>
-      </c>
-      <c r="CS83" s="31"/>
-      <c r="CT83" s="31"/>
-      <c r="CU83" s="31"/>
-      <c r="CV83" s="31"/>
-      <c r="CW83" s="9"/>
+        <v>1.5249936232408174</v>
+      </c>
+      <c r="CS83" s="31">
+        <v>-6.9653734742702653</v>
+      </c>
+      <c r="CT83" s="35"/>
+      <c r="CU83" s="35"/>
+      <c r="CV83" s="35"/>
+      <c r="CW83" s="31"/>
       <c r="CX83" s="9"/>
       <c r="CY83" s="9"/>
       <c r="CZ83" s="9"/>
@@ -36252,13 +36368,15 @@
         <v>-8.1585932754691157</v>
       </c>
       <c r="CR84" s="31">
-        <v>-4.6118447908417863</v>
-      </c>
-      <c r="CS84" s="31"/>
-      <c r="CT84" s="31"/>
-      <c r="CU84" s="31"/>
-      <c r="CV84" s="31"/>
-      <c r="CW84" s="9"/>
+        <v>-4.4365367116474772</v>
+      </c>
+      <c r="CS84" s="31">
+        <v>1.6931854390179524</v>
+      </c>
+      <c r="CT84" s="35"/>
+      <c r="CU84" s="35"/>
+      <c r="CV84" s="35"/>
+      <c r="CW84" s="31"/>
       <c r="CX84" s="9"/>
       <c r="CY84" s="9"/>
       <c r="CZ84" s="9"/>
@@ -36597,11 +36715,13 @@
       <c r="CR85" s="31">
         <v>-4.572313974481105</v>
       </c>
-      <c r="CS85" s="31"/>
-      <c r="CT85" s="31"/>
-      <c r="CU85" s="31"/>
-      <c r="CV85" s="31"/>
-      <c r="CW85" s="9"/>
+      <c r="CS85" s="31">
+        <v>16.548326478627473</v>
+      </c>
+      <c r="CT85" s="35"/>
+      <c r="CU85" s="35"/>
+      <c r="CV85" s="35"/>
+      <c r="CW85" s="31"/>
       <c r="CX85" s="9"/>
       <c r="CY85" s="9"/>
       <c r="CZ85" s="9"/>
@@ -36940,11 +37060,13 @@
       <c r="CR86" s="31">
         <v>7.1896588578953953</v>
       </c>
-      <c r="CS86" s="31"/>
-      <c r="CT86" s="31"/>
-      <c r="CU86" s="31"/>
-      <c r="CV86" s="31"/>
-      <c r="CW86" s="9"/>
+      <c r="CS86" s="31">
+        <v>7.046181199501973</v>
+      </c>
+      <c r="CT86" s="35"/>
+      <c r="CU86" s="35"/>
+      <c r="CV86" s="35"/>
+      <c r="CW86" s="31"/>
       <c r="CX86" s="9"/>
       <c r="CY86" s="9"/>
       <c r="CZ86" s="9"/>
@@ -37091,10 +37213,10 @@
       <c r="CQ87" s="27"/>
       <c r="CR87" s="27"/>
       <c r="CS87" s="27"/>
-      <c r="CT87" s="27"/>
-      <c r="CU87" s="27"/>
-      <c r="CV87" s="27"/>
-      <c r="CW87" s="9"/>
+      <c r="CT87" s="36"/>
+      <c r="CU87" s="36"/>
+      <c r="CV87" s="36"/>
+      <c r="CW87" s="27"/>
       <c r="CX87" s="9"/>
       <c r="CY87" s="9"/>
       <c r="CZ87" s="9"/>
@@ -37431,13 +37553,15 @@
         <v>6.6422464837753807</v>
       </c>
       <c r="CR88" s="31">
-        <v>0.97144909607295915</v>
-      </c>
-      <c r="CS88" s="31"/>
-      <c r="CT88" s="31"/>
-      <c r="CU88" s="31"/>
-      <c r="CV88" s="31"/>
-      <c r="CW88" s="9"/>
+        <v>1.2121475073348762</v>
+      </c>
+      <c r="CS88" s="31">
+        <v>-3.3981836592443528</v>
+      </c>
+      <c r="CT88" s="35"/>
+      <c r="CU88" s="35"/>
+      <c r="CV88" s="35"/>
+      <c r="CW88" s="31"/>
       <c r="CX88" s="9"/>
       <c r="CY88" s="9"/>
       <c r="CZ88" s="9"/>
@@ -37585,9 +37709,10 @@
       <c r="CQ89" s="29"/>
       <c r="CR89" s="29"/>
       <c r="CS89" s="29"/>
-      <c r="CT89" s="29"/>
-      <c r="CU89" s="29"/>
-      <c r="CV89" s="29"/>
+      <c r="CT89" s="25"/>
+      <c r="CU89" s="25"/>
+      <c r="CV89" s="25"/>
+      <c r="CW89" s="29"/>
     </row>
     <row r="90" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
@@ -37597,9 +37722,10 @@
       <c r="CQ90" s="23"/>
       <c r="CR90" s="23"/>
       <c r="CS90" s="23"/>
-      <c r="CT90" s="23"/>
-      <c r="CU90" s="23"/>
-      <c r="CV90" s="23"/>
+      <c r="CT90" s="34"/>
+      <c r="CU90" s="34"/>
+      <c r="CV90" s="34"/>
+      <c r="CW90" s="23"/>
     </row>
     <row r="91" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
@@ -37701,10 +37827,10 @@
       <c r="CQ91" s="27"/>
       <c r="CR91" s="27"/>
       <c r="CS91" s="27"/>
-      <c r="CT91" s="27"/>
-      <c r="CU91" s="27"/>
-      <c r="CV91" s="27"/>
-      <c r="CW91" s="9"/>
+      <c r="CT91" s="36"/>
+      <c r="CU91" s="36"/>
+      <c r="CV91" s="36"/>
+      <c r="CW91" s="27"/>
       <c r="CX91" s="9"/>
       <c r="CY91" s="9"/>
       <c r="CZ91" s="9"/>
@@ -37854,7 +37980,7 @@
       <c r="CT92" s="27"/>
       <c r="CU92" s="27"/>
       <c r="CV92" s="27"/>
-      <c r="CW92" s="9"/>
+      <c r="CW92" s="27"/>
       <c r="CX92" s="9"/>
       <c r="CY92" s="9"/>
       <c r="CZ92" s="9"/>
@@ -37920,10 +38046,11 @@
       <c r="CT93" s="23"/>
       <c r="CU93" s="23"/>
       <c r="CV93" s="23"/>
+      <c r="CW93" s="23"/>
     </row>
     <row r="94" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="CP94" s="23"/>
       <c r="CQ94" s="23"/>
@@ -37932,6 +38059,7 @@
       <c r="CT94" s="23"/>
       <c r="CU94" s="23"/>
       <c r="CV94" s="23"/>
+      <c r="CW94" s="23"/>
     </row>
     <row r="95" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP95" s="23"/>
@@ -37941,6 +38069,7 @@
       <c r="CT95" s="23"/>
       <c r="CU95" s="23"/>
       <c r="CV95" s="23"/>
+      <c r="CW95" s="23"/>
     </row>
     <row r="96" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -37953,10 +38082,11 @@
       <c r="CT96" s="23"/>
       <c r="CU96" s="23"/>
       <c r="CV96" s="23"/>
+      <c r="CW96" s="23"/>
     </row>
     <row r="97" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CP97" s="23"/>
       <c r="CQ97" s="23"/>
@@ -37965,6 +38095,7 @@
       <c r="CT97" s="23"/>
       <c r="CU97" s="23"/>
       <c r="CV97" s="23"/>
+      <c r="CW97" s="23"/>
     </row>
     <row r="98" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
@@ -37977,6 +38108,7 @@
       <c r="CT98" s="23"/>
       <c r="CU98" s="23"/>
       <c r="CV98" s="23"/>
+      <c r="CW98" s="23"/>
     </row>
     <row r="99" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP99" s="23"/>
@@ -37986,135 +38118,136 @@
       <c r="CT99" s="23"/>
       <c r="CU99" s="23"/>
       <c r="CV99" s="23"/>
+      <c r="CW99" s="23"/>
     </row>
     <row r="100" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
-      <c r="B100" s="34">
+      <c r="B100" s="37">
         <v>2000</v>
       </c>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34">
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37">
         <v>2001</v>
       </c>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34">
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37">
         <v>2002</v>
       </c>
-      <c r="K100" s="34"/>
-      <c r="L100" s="34"/>
-      <c r="M100" s="34"/>
-      <c r="N100" s="34">
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="37">
         <v>2003</v>
       </c>
-      <c r="O100" s="34"/>
-      <c r="P100" s="34"/>
-      <c r="Q100" s="34"/>
-      <c r="R100" s="34">
+      <c r="O100" s="37"/>
+      <c r="P100" s="37"/>
+      <c r="Q100" s="37"/>
+      <c r="R100" s="37">
         <v>2004</v>
       </c>
-      <c r="S100" s="34"/>
-      <c r="T100" s="34"/>
-      <c r="U100" s="34"/>
-      <c r="V100" s="34">
+      <c r="S100" s="37"/>
+      <c r="T100" s="37"/>
+      <c r="U100" s="37"/>
+      <c r="V100" s="37">
         <v>2005</v>
       </c>
-      <c r="W100" s="34"/>
-      <c r="X100" s="34"/>
-      <c r="Y100" s="34"/>
-      <c r="Z100" s="34">
+      <c r="W100" s="37"/>
+      <c r="X100" s="37"/>
+      <c r="Y100" s="37"/>
+      <c r="Z100" s="37">
         <v>2006</v>
       </c>
-      <c r="AA100" s="34"/>
-      <c r="AB100" s="34"/>
-      <c r="AC100" s="34"/>
-      <c r="AD100" s="34">
+      <c r="AA100" s="37"/>
+      <c r="AB100" s="37"/>
+      <c r="AC100" s="37"/>
+      <c r="AD100" s="37">
         <v>2007</v>
       </c>
-      <c r="AE100" s="34"/>
-      <c r="AF100" s="34"/>
-      <c r="AG100" s="34"/>
-      <c r="AH100" s="34">
+      <c r="AE100" s="37"/>
+      <c r="AF100" s="37"/>
+      <c r="AG100" s="37"/>
+      <c r="AH100" s="37">
         <v>2008</v>
       </c>
-      <c r="AI100" s="34"/>
-      <c r="AJ100" s="34"/>
-      <c r="AK100" s="34"/>
-      <c r="AL100" s="34">
+      <c r="AI100" s="37"/>
+      <c r="AJ100" s="37"/>
+      <c r="AK100" s="37"/>
+      <c r="AL100" s="37">
         <v>2009</v>
       </c>
-      <c r="AM100" s="34"/>
-      <c r="AN100" s="34"/>
-      <c r="AO100" s="34"/>
-      <c r="AP100" s="34">
+      <c r="AM100" s="37"/>
+      <c r="AN100" s="37"/>
+      <c r="AO100" s="37"/>
+      <c r="AP100" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ100" s="34"/>
-      <c r="AR100" s="34"/>
-      <c r="AS100" s="34"/>
-      <c r="AT100" s="34">
+      <c r="AQ100" s="37"/>
+      <c r="AR100" s="37"/>
+      <c r="AS100" s="37"/>
+      <c r="AT100" s="37">
         <v>2011</v>
       </c>
-      <c r="AU100" s="34"/>
-      <c r="AV100" s="34"/>
-      <c r="AW100" s="34"/>
-      <c r="AX100" s="34">
+      <c r="AU100" s="37"/>
+      <c r="AV100" s="37"/>
+      <c r="AW100" s="37"/>
+      <c r="AX100" s="37">
         <v>2012</v>
       </c>
-      <c r="AY100" s="34"/>
-      <c r="AZ100" s="34"/>
-      <c r="BA100" s="34"/>
-      <c r="BB100" s="34">
+      <c r="AY100" s="37"/>
+      <c r="AZ100" s="37"/>
+      <c r="BA100" s="37"/>
+      <c r="BB100" s="37">
         <v>2013</v>
       </c>
-      <c r="BC100" s="34"/>
-      <c r="BD100" s="34"/>
-      <c r="BE100" s="34"/>
-      <c r="BF100" s="34">
+      <c r="BC100" s="37"/>
+      <c r="BD100" s="37"/>
+      <c r="BE100" s="37"/>
+      <c r="BF100" s="37">
         <v>2014</v>
       </c>
-      <c r="BG100" s="34"/>
-      <c r="BH100" s="34"/>
-      <c r="BI100" s="34"/>
-      <c r="BJ100" s="34">
+      <c r="BG100" s="37"/>
+      <c r="BH100" s="37"/>
+      <c r="BI100" s="37"/>
+      <c r="BJ100" s="37">
         <v>2015</v>
       </c>
-      <c r="BK100" s="34"/>
-      <c r="BL100" s="34"/>
-      <c r="BM100" s="34"/>
-      <c r="BN100" s="34">
+      <c r="BK100" s="37"/>
+      <c r="BL100" s="37"/>
+      <c r="BM100" s="37"/>
+      <c r="BN100" s="37">
         <v>2016</v>
       </c>
-      <c r="BO100" s="34"/>
-      <c r="BP100" s="34"/>
-      <c r="BQ100" s="34"/>
-      <c r="BR100" s="34">
+      <c r="BO100" s="37"/>
+      <c r="BP100" s="37"/>
+      <c r="BQ100" s="37"/>
+      <c r="BR100" s="37">
         <v>2017</v>
       </c>
-      <c r="BS100" s="34"/>
-      <c r="BT100" s="34"/>
-      <c r="BU100" s="34"/>
-      <c r="BV100" s="34">
+      <c r="BS100" s="37"/>
+      <c r="BT100" s="37"/>
+      <c r="BU100" s="37"/>
+      <c r="BV100" s="37">
         <v>2018</v>
       </c>
-      <c r="BW100" s="34"/>
-      <c r="BX100" s="34"/>
-      <c r="BY100" s="34"/>
-      <c r="BZ100" s="34">
+      <c r="BW100" s="37"/>
+      <c r="BX100" s="37"/>
+      <c r="BY100" s="37"/>
+      <c r="BZ100" s="37">
         <v>2019</v>
       </c>
-      <c r="CA100" s="34"/>
-      <c r="CB100" s="34"/>
-      <c r="CC100" s="34"/>
-      <c r="CD100" s="34">
+      <c r="CA100" s="37"/>
+      <c r="CB100" s="37"/>
+      <c r="CC100" s="37"/>
+      <c r="CD100" s="37">
         <v>2020</v>
       </c>
-      <c r="CE100" s="34"/>
-      <c r="CF100" s="34"/>
-      <c r="CG100" s="34"/>
+      <c r="CE100" s="37"/>
+      <c r="CF100" s="37"/>
+      <c r="CG100" s="37"/>
       <c r="CH100" s="21">
         <v>2021</v>
       </c>
@@ -38138,6 +38271,7 @@
       </c>
       <c r="CU100" s="24"/>
       <c r="CV100" s="24"/>
+      <c r="CW100" s="24"/>
     </row>
     <row r="101" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
@@ -38439,6 +38573,9 @@
       </c>
       <c r="CV101" s="25" t="s">
         <v>10</v>
+      </c>
+      <c r="CW101" s="25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38450,6 +38587,7 @@
       <c r="CT102" s="23"/>
       <c r="CU102" s="23"/>
       <c r="CV102" s="23"/>
+      <c r="CW102" s="23"/>
     </row>
     <row r="103" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -38752,7 +38890,9 @@
       <c r="CV103" s="31">
         <v>296.68353786373484</v>
       </c>
-      <c r="CW103" s="9"/>
+      <c r="CW103" s="31">
+        <v>109.86688645390139</v>
+      </c>
       <c r="CX103" s="9"/>
       <c r="CY103" s="9"/>
       <c r="CZ103" s="9"/>
@@ -39108,7 +39248,9 @@
       <c r="CV104" s="31">
         <v>163.31007477037613</v>
       </c>
-      <c r="CW104" s="9"/>
+      <c r="CW104" s="31">
+        <v>185.66089931724224</v>
+      </c>
       <c r="CX104" s="9"/>
       <c r="CY104" s="9"/>
       <c r="CZ104" s="9"/>
@@ -39462,9 +39604,11 @@
         <v>223.29696390989574</v>
       </c>
       <c r="CV105" s="31">
-        <v>250.87330937462252</v>
-      </c>
-      <c r="CW105" s="9"/>
+        <v>250.87330937462249</v>
+      </c>
+      <c r="CW105" s="31">
+        <v>230.36970765684251</v>
+      </c>
       <c r="CX105" s="9"/>
       <c r="CY105" s="9"/>
       <c r="CZ105" s="9"/>
@@ -39820,7 +39964,9 @@
       <c r="CV106" s="31">
         <v>134.71759228386136</v>
       </c>
-      <c r="CW106" s="9"/>
+      <c r="CW106" s="31">
+        <v>186.42391805632514</v>
+      </c>
       <c r="CX106" s="9"/>
       <c r="CY106" s="9"/>
       <c r="CZ106" s="9"/>
@@ -40176,7 +40322,9 @@
       <c r="CV107" s="31">
         <v>237.10824960224457</v>
       </c>
-      <c r="CW107" s="9"/>
+      <c r="CW107" s="31">
+        <v>392.26894734547642</v>
+      </c>
       <c r="CX107" s="9"/>
       <c r="CY107" s="9"/>
       <c r="CZ107" s="9"/>
@@ -40532,7 +40680,9 @@
       <c r="CV108" s="31">
         <v>149.44388490174362</v>
       </c>
-      <c r="CW108" s="9"/>
+      <c r="CW108" s="31">
+        <v>92.029521011557719</v>
+      </c>
       <c r="CX108" s="9"/>
       <c r="CY108" s="9"/>
       <c r="CZ108" s="9"/>
@@ -40687,7 +40837,7 @@
       <c r="CT109" s="27"/>
       <c r="CU109" s="27"/>
       <c r="CV109" s="27"/>
-      <c r="CW109" s="9"/>
+      <c r="CW109" s="27"/>
       <c r="CX109" s="9"/>
       <c r="CY109" s="9"/>
       <c r="CZ109" s="9"/>
@@ -41041,9 +41191,11 @@
         <v>136.14892255698089</v>
       </c>
       <c r="CV110" s="31">
-        <v>190.99389576646638</v>
-      </c>
-      <c r="CW110" s="9"/>
+        <v>191.14125764164095</v>
+      </c>
+      <c r="CW110" s="31">
+        <v>146.81841894129656</v>
+      </c>
       <c r="CX110" s="9"/>
       <c r="CY110" s="9"/>
       <c r="CZ110" s="9"/>
@@ -41199,6 +41351,7 @@
       <c r="CT111" s="29"/>
       <c r="CU111" s="29"/>
       <c r="CV111" s="29"/>
+      <c r="CW111" s="29"/>
     </row>
     <row r="112" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
@@ -41211,6 +41364,7 @@
       <c r="CT112" s="23"/>
       <c r="CU112" s="23"/>
       <c r="CV112" s="23"/>
+      <c r="CW112" s="23"/>
     </row>
     <row r="115" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -41223,6 +41377,7 @@
       <c r="CT115" s="23"/>
       <c r="CU115" s="23"/>
       <c r="CV115" s="23"/>
+      <c r="CW115" s="23"/>
     </row>
     <row r="116" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
@@ -41235,10 +41390,11 @@
       <c r="CT116" s="23"/>
       <c r="CU116" s="23"/>
       <c r="CV116" s="23"/>
+      <c r="CW116" s="23"/>
     </row>
     <row r="117" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="CP117" s="23"/>
       <c r="CQ117" s="23"/>
@@ -41247,6 +41403,7 @@
       <c r="CT117" s="23"/>
       <c r="CU117" s="23"/>
       <c r="CV117" s="23"/>
+      <c r="CW117" s="23"/>
     </row>
     <row r="118" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP118" s="23"/>
@@ -41256,6 +41413,7 @@
       <c r="CT118" s="23"/>
       <c r="CU118" s="23"/>
       <c r="CV118" s="23"/>
+      <c r="CW118" s="23"/>
     </row>
     <row r="119" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
@@ -41268,10 +41426,11 @@
       <c r="CT119" s="23"/>
       <c r="CU119" s="23"/>
       <c r="CV119" s="23"/>
+      <c r="CW119" s="23"/>
     </row>
     <row r="120" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CP120" s="23"/>
       <c r="CQ120" s="23"/>
@@ -41280,6 +41439,7 @@
       <c r="CT120" s="23"/>
       <c r="CU120" s="23"/>
       <c r="CV120" s="23"/>
+      <c r="CW120" s="23"/>
     </row>
     <row r="121" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -41292,6 +41452,7 @@
       <c r="CT121" s="23"/>
       <c r="CU121" s="23"/>
       <c r="CV121" s="23"/>
+      <c r="CW121" s="23"/>
     </row>
     <row r="122" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP122" s="23"/>
@@ -41301,135 +41462,136 @@
       <c r="CT122" s="23"/>
       <c r="CU122" s="23"/>
       <c r="CV122" s="23"/>
+      <c r="CW122" s="23"/>
     </row>
     <row r="123" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
-      <c r="B123" s="34">
+      <c r="B123" s="37">
         <v>2000</v>
       </c>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="34">
+      <c r="C123" s="37"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="37"/>
+      <c r="F123" s="37">
         <v>2001</v>
       </c>
-      <c r="G123" s="34"/>
-      <c r="H123" s="34"/>
-      <c r="I123" s="34"/>
-      <c r="J123" s="34">
+      <c r="G123" s="37"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="37">
         <v>2002</v>
       </c>
-      <c r="K123" s="34"/>
-      <c r="L123" s="34"/>
-      <c r="M123" s="34"/>
-      <c r="N123" s="34">
+      <c r="K123" s="37"/>
+      <c r="L123" s="37"/>
+      <c r="M123" s="37"/>
+      <c r="N123" s="37">
         <v>2003</v>
       </c>
-      <c r="O123" s="34"/>
-      <c r="P123" s="34"/>
-      <c r="Q123" s="34"/>
-      <c r="R123" s="34">
+      <c r="O123" s="37"/>
+      <c r="P123" s="37"/>
+      <c r="Q123" s="37"/>
+      <c r="R123" s="37">
         <v>2004</v>
       </c>
-      <c r="S123" s="34"/>
-      <c r="T123" s="34"/>
-      <c r="U123" s="34"/>
-      <c r="V123" s="34">
+      <c r="S123" s="37"/>
+      <c r="T123" s="37"/>
+      <c r="U123" s="37"/>
+      <c r="V123" s="37">
         <v>2005</v>
       </c>
-      <c r="W123" s="34"/>
-      <c r="X123" s="34"/>
-      <c r="Y123" s="34"/>
-      <c r="Z123" s="34">
+      <c r="W123" s="37"/>
+      <c r="X123" s="37"/>
+      <c r="Y123" s="37"/>
+      <c r="Z123" s="37">
         <v>2006</v>
       </c>
-      <c r="AA123" s="34"/>
-      <c r="AB123" s="34"/>
-      <c r="AC123" s="34"/>
-      <c r="AD123" s="34">
+      <c r="AA123" s="37"/>
+      <c r="AB123" s="37"/>
+      <c r="AC123" s="37"/>
+      <c r="AD123" s="37">
         <v>2007</v>
       </c>
-      <c r="AE123" s="34"/>
-      <c r="AF123" s="34"/>
-      <c r="AG123" s="34"/>
-      <c r="AH123" s="34">
+      <c r="AE123" s="37"/>
+      <c r="AF123" s="37"/>
+      <c r="AG123" s="37"/>
+      <c r="AH123" s="37">
         <v>2008</v>
       </c>
-      <c r="AI123" s="34"/>
-      <c r="AJ123" s="34"/>
-      <c r="AK123" s="34"/>
-      <c r="AL123" s="34">
+      <c r="AI123" s="37"/>
+      <c r="AJ123" s="37"/>
+      <c r="AK123" s="37"/>
+      <c r="AL123" s="37">
         <v>2009</v>
       </c>
-      <c r="AM123" s="34"/>
-      <c r="AN123" s="34"/>
-      <c r="AO123" s="34"/>
-      <c r="AP123" s="34">
+      <c r="AM123" s="37"/>
+      <c r="AN123" s="37"/>
+      <c r="AO123" s="37"/>
+      <c r="AP123" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ123" s="34"/>
-      <c r="AR123" s="34"/>
-      <c r="AS123" s="34"/>
-      <c r="AT123" s="34">
+      <c r="AQ123" s="37"/>
+      <c r="AR123" s="37"/>
+      <c r="AS123" s="37"/>
+      <c r="AT123" s="37">
         <v>2011</v>
       </c>
-      <c r="AU123" s="34"/>
-      <c r="AV123" s="34"/>
-      <c r="AW123" s="34"/>
-      <c r="AX123" s="34">
+      <c r="AU123" s="37"/>
+      <c r="AV123" s="37"/>
+      <c r="AW123" s="37"/>
+      <c r="AX123" s="37">
         <v>2012</v>
       </c>
-      <c r="AY123" s="34"/>
-      <c r="AZ123" s="34"/>
-      <c r="BA123" s="34"/>
-      <c r="BB123" s="34">
+      <c r="AY123" s="37"/>
+      <c r="AZ123" s="37"/>
+      <c r="BA123" s="37"/>
+      <c r="BB123" s="37">
         <v>2013</v>
       </c>
-      <c r="BC123" s="34"/>
-      <c r="BD123" s="34"/>
-      <c r="BE123" s="34"/>
-      <c r="BF123" s="34">
+      <c r="BC123" s="37"/>
+      <c r="BD123" s="37"/>
+      <c r="BE123" s="37"/>
+      <c r="BF123" s="37">
         <v>2014</v>
       </c>
-      <c r="BG123" s="34"/>
-      <c r="BH123" s="34"/>
-      <c r="BI123" s="34"/>
-      <c r="BJ123" s="34">
+      <c r="BG123" s="37"/>
+      <c r="BH123" s="37"/>
+      <c r="BI123" s="37"/>
+      <c r="BJ123" s="37">
         <v>2015</v>
       </c>
-      <c r="BK123" s="34"/>
-      <c r="BL123" s="34"/>
-      <c r="BM123" s="34"/>
-      <c r="BN123" s="34">
+      <c r="BK123" s="37"/>
+      <c r="BL123" s="37"/>
+      <c r="BM123" s="37"/>
+      <c r="BN123" s="37">
         <v>2016</v>
       </c>
-      <c r="BO123" s="34"/>
-      <c r="BP123" s="34"/>
-      <c r="BQ123" s="34"/>
-      <c r="BR123" s="34">
+      <c r="BO123" s="37"/>
+      <c r="BP123" s="37"/>
+      <c r="BQ123" s="37"/>
+      <c r="BR123" s="37">
         <v>2017</v>
       </c>
-      <c r="BS123" s="34"/>
-      <c r="BT123" s="34"/>
-      <c r="BU123" s="34"/>
-      <c r="BV123" s="34">
+      <c r="BS123" s="37"/>
+      <c r="BT123" s="37"/>
+      <c r="BU123" s="37"/>
+      <c r="BV123" s="37">
         <v>2018</v>
       </c>
-      <c r="BW123" s="34"/>
-      <c r="BX123" s="34"/>
-      <c r="BY123" s="34"/>
-      <c r="BZ123" s="34">
+      <c r="BW123" s="37"/>
+      <c r="BX123" s="37"/>
+      <c r="BY123" s="37"/>
+      <c r="BZ123" s="37">
         <v>2019</v>
       </c>
-      <c r="CA123" s="34"/>
-      <c r="CB123" s="34"/>
-      <c r="CC123" s="34"/>
-      <c r="CD123" s="34">
+      <c r="CA123" s="37"/>
+      <c r="CB123" s="37"/>
+      <c r="CC123" s="37"/>
+      <c r="CD123" s="37">
         <v>2020</v>
       </c>
-      <c r="CE123" s="34"/>
-      <c r="CF123" s="34"/>
-      <c r="CG123" s="34"/>
+      <c r="CE123" s="37"/>
+      <c r="CF123" s="37"/>
+      <c r="CG123" s="37"/>
       <c r="CH123" s="21">
         <v>2021</v>
       </c>
@@ -41453,6 +41615,7 @@
       </c>
       <c r="CU123" s="24"/>
       <c r="CV123" s="24"/>
+      <c r="CW123" s="24"/>
     </row>
     <row r="124" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
@@ -41754,6 +41917,9 @@
       </c>
       <c r="CV124" s="25" t="s">
         <v>10</v>
+      </c>
+      <c r="CW124" s="25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41765,6 +41931,7 @@
       <c r="CT125" s="23"/>
       <c r="CU125" s="23"/>
       <c r="CV125" s="23"/>
+      <c r="CW125" s="23"/>
     </row>
     <row r="126" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -42065,9 +42232,11 @@
         <v>18.674349147694063</v>
       </c>
       <c r="CV126" s="33">
-        <v>16.781831656021836</v>
-      </c>
-      <c r="CW126" s="9"/>
+        <v>16.886989832307005</v>
+      </c>
+      <c r="CW126" s="33">
+        <v>8.2357777935371654</v>
+      </c>
       <c r="CX126" s="9"/>
       <c r="CY126" s="9"/>
       <c r="CZ126" s="9"/>
@@ -42421,9 +42590,11 @@
         <v>8.2248094915731205</v>
       </c>
       <c r="CV127" s="33">
-        <v>6.6695230937901968</v>
-      </c>
-      <c r="CW127" s="9"/>
+        <v>6.6485322248476377</v>
+      </c>
+      <c r="CW127" s="33">
+        <v>10.061254063148311</v>
+      </c>
       <c r="CX127" s="9"/>
       <c r="CY127" s="9"/>
       <c r="CZ127" s="9"/>
@@ -42777,9 +42948,11 @@
         <v>28.49722624523335</v>
       </c>
       <c r="CV128" s="33">
-        <v>30.547651397040575</v>
-      </c>
-      <c r="CW128" s="9"/>
+        <v>30.582980727321065</v>
+      </c>
+      <c r="CW128" s="33">
+        <v>30.124731358024754</v>
+      </c>
       <c r="CX128" s="9"/>
       <c r="CY128" s="9"/>
       <c r="CZ128" s="9"/>
@@ -43133,9 +43306,11 @@
         <v>19.351391167955605</v>
       </c>
       <c r="CV129" s="33">
-        <v>13.799507547498283</v>
-      </c>
-      <c r="CW129" s="9"/>
+        <v>13.781358063081209</v>
+      </c>
+      <c r="CW129" s="33">
+        <v>5.9072787321343103</v>
+      </c>
       <c r="CX129" s="9"/>
       <c r="CY129" s="9"/>
       <c r="CZ129" s="9"/>
@@ -43489,9 +43664,11 @@
         <v>7.0305806525313459</v>
       </c>
       <c r="CV130" s="33">
-        <v>5.457165966186416</v>
-      </c>
-      <c r="CW130" s="9"/>
+        <v>5.439990726820251</v>
+      </c>
+      <c r="CW130" s="33">
+        <v>12.836414592964463</v>
+      </c>
       <c r="CX130" s="9"/>
       <c r="CY130" s="9"/>
       <c r="CZ130" s="9"/>
@@ -43845,9 +44022,11 @@
         <v>18.221643295012512</v>
       </c>
       <c r="CV131" s="33">
-        <v>26.744320339462686</v>
-      </c>
-      <c r="CW131" s="9"/>
+        <v>26.660148425622825</v>
+      </c>
+      <c r="CW131" s="33">
+        <v>32.834543460190993</v>
+      </c>
       <c r="CX131" s="9"/>
       <c r="CY131" s="9"/>
       <c r="CZ131" s="9"/>
@@ -44002,7 +44181,7 @@
       <c r="CT132" s="27"/>
       <c r="CU132" s="27"/>
       <c r="CV132" s="27"/>
-      <c r="CW132" s="9"/>
+      <c r="CW132" s="27"/>
       <c r="CX132" s="9"/>
       <c r="CY132" s="9"/>
       <c r="CZ132" s="9"/>
@@ -44358,7 +44537,9 @@
       <c r="CV133" s="33">
         <v>100</v>
       </c>
-      <c r="CW133" s="9"/>
+      <c r="CW133" s="33">
+        <v>100</v>
+      </c>
       <c r="CX133" s="9"/>
       <c r="CY133" s="9"/>
       <c r="CZ133" s="9"/>
@@ -44514,6 +44695,7 @@
       <c r="CT134" s="29"/>
       <c r="CU134" s="29"/>
       <c r="CV134" s="29"/>
+      <c r="CW134" s="29"/>
     </row>
     <row r="135" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
@@ -44526,6 +44708,7 @@
       <c r="CT135" s="23"/>
       <c r="CU135" s="23"/>
       <c r="CV135" s="23"/>
+      <c r="CW135" s="23"/>
     </row>
     <row r="136" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9"/>
@@ -44627,7 +44810,7 @@
       <c r="CT136" s="27"/>
       <c r="CU136" s="27"/>
       <c r="CV136" s="27"/>
-      <c r="CW136" s="9"/>
+      <c r="CW136" s="27"/>
       <c r="CX136" s="9"/>
       <c r="CY136" s="9"/>
       <c r="CZ136" s="9"/>
@@ -44782,7 +44965,7 @@
       <c r="CT137" s="27"/>
       <c r="CU137" s="27"/>
       <c r="CV137" s="27"/>
-      <c r="CW137" s="9"/>
+      <c r="CW137" s="27"/>
       <c r="CX137" s="9"/>
       <c r="CY137" s="9"/>
       <c r="CZ137" s="9"/>
@@ -44848,6 +45031,7 @@
       <c r="CT138" s="23"/>
       <c r="CU138" s="23"/>
       <c r="CV138" s="23"/>
+      <c r="CW138" s="23"/>
     </row>
     <row r="139" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
@@ -44860,10 +45044,11 @@
       <c r="CT139" s="23"/>
       <c r="CU139" s="23"/>
       <c r="CV139" s="23"/>
+      <c r="CW139" s="23"/>
     </row>
     <row r="140" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="CP140" s="23"/>
       <c r="CQ140" s="23"/>
@@ -44872,6 +45057,7 @@
       <c r="CT140" s="23"/>
       <c r="CU140" s="23"/>
       <c r="CV140" s="23"/>
+      <c r="CW140" s="23"/>
     </row>
     <row r="141" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP141" s="23"/>
@@ -44881,6 +45067,7 @@
       <c r="CT141" s="23"/>
       <c r="CU141" s="23"/>
       <c r="CV141" s="23"/>
+      <c r="CW141" s="23"/>
     </row>
     <row r="142" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
@@ -44893,10 +45080,11 @@
       <c r="CT142" s="23"/>
       <c r="CU142" s="23"/>
       <c r="CV142" s="23"/>
+      <c r="CW142" s="23"/>
     </row>
     <row r="143" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CP143" s="23"/>
       <c r="CQ143" s="23"/>
@@ -44905,6 +45093,7 @@
       <c r="CT143" s="23"/>
       <c r="CU143" s="23"/>
       <c r="CV143" s="23"/>
+      <c r="CW143" s="23"/>
     </row>
     <row r="144" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
@@ -44917,6 +45106,7 @@
       <c r="CT144" s="23"/>
       <c r="CU144" s="23"/>
       <c r="CV144" s="23"/>
+      <c r="CW144" s="23"/>
     </row>
     <row r="145" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP145" s="23"/>
@@ -44926,135 +45116,136 @@
       <c r="CT145" s="23"/>
       <c r="CU145" s="23"/>
       <c r="CV145" s="23"/>
+      <c r="CW145" s="23"/>
     </row>
     <row r="146" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
-      <c r="B146" s="34">
+      <c r="B146" s="37">
         <v>2000</v>
       </c>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="34">
+      <c r="C146" s="37"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="37"/>
+      <c r="F146" s="37">
         <v>2001</v>
       </c>
-      <c r="G146" s="34"/>
-      <c r="H146" s="34"/>
-      <c r="I146" s="34"/>
-      <c r="J146" s="34">
+      <c r="G146" s="37"/>
+      <c r="H146" s="37"/>
+      <c r="I146" s="37"/>
+      <c r="J146" s="37">
         <v>2002</v>
       </c>
-      <c r="K146" s="34"/>
-      <c r="L146" s="34"/>
-      <c r="M146" s="34"/>
-      <c r="N146" s="34">
+      <c r="K146" s="37"/>
+      <c r="L146" s="37"/>
+      <c r="M146" s="37"/>
+      <c r="N146" s="37">
         <v>2003</v>
       </c>
-      <c r="O146" s="34"/>
-      <c r="P146" s="34"/>
-      <c r="Q146" s="34"/>
-      <c r="R146" s="34">
+      <c r="O146" s="37"/>
+      <c r="P146" s="37"/>
+      <c r="Q146" s="37"/>
+      <c r="R146" s="37">
         <v>2004</v>
       </c>
-      <c r="S146" s="34"/>
-      <c r="T146" s="34"/>
-      <c r="U146" s="34"/>
-      <c r="V146" s="34">
+      <c r="S146" s="37"/>
+      <c r="T146" s="37"/>
+      <c r="U146" s="37"/>
+      <c r="V146" s="37">
         <v>2005</v>
       </c>
-      <c r="W146" s="34"/>
-      <c r="X146" s="34"/>
-      <c r="Y146" s="34"/>
-      <c r="Z146" s="34">
+      <c r="W146" s="37"/>
+      <c r="X146" s="37"/>
+      <c r="Y146" s="37"/>
+      <c r="Z146" s="37">
         <v>2006</v>
       </c>
-      <c r="AA146" s="34"/>
-      <c r="AB146" s="34"/>
-      <c r="AC146" s="34"/>
-      <c r="AD146" s="34">
+      <c r="AA146" s="37"/>
+      <c r="AB146" s="37"/>
+      <c r="AC146" s="37"/>
+      <c r="AD146" s="37">
         <v>2007</v>
       </c>
-      <c r="AE146" s="34"/>
-      <c r="AF146" s="34"/>
-      <c r="AG146" s="34"/>
-      <c r="AH146" s="34">
+      <c r="AE146" s="37"/>
+      <c r="AF146" s="37"/>
+      <c r="AG146" s="37"/>
+      <c r="AH146" s="37">
         <v>2008</v>
       </c>
-      <c r="AI146" s="34"/>
-      <c r="AJ146" s="34"/>
-      <c r="AK146" s="34"/>
-      <c r="AL146" s="34">
+      <c r="AI146" s="37"/>
+      <c r="AJ146" s="37"/>
+      <c r="AK146" s="37"/>
+      <c r="AL146" s="37">
         <v>2009</v>
       </c>
-      <c r="AM146" s="34"/>
-      <c r="AN146" s="34"/>
-      <c r="AO146" s="34"/>
-      <c r="AP146" s="34">
+      <c r="AM146" s="37"/>
+      <c r="AN146" s="37"/>
+      <c r="AO146" s="37"/>
+      <c r="AP146" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ146" s="34"/>
-      <c r="AR146" s="34"/>
-      <c r="AS146" s="34"/>
-      <c r="AT146" s="34">
+      <c r="AQ146" s="37"/>
+      <c r="AR146" s="37"/>
+      <c r="AS146" s="37"/>
+      <c r="AT146" s="37">
         <v>2011</v>
       </c>
-      <c r="AU146" s="34"/>
-      <c r="AV146" s="34"/>
-      <c r="AW146" s="34"/>
-      <c r="AX146" s="34">
+      <c r="AU146" s="37"/>
+      <c r="AV146" s="37"/>
+      <c r="AW146" s="37"/>
+      <c r="AX146" s="37">
         <v>2012</v>
       </c>
-      <c r="AY146" s="34"/>
-      <c r="AZ146" s="34"/>
-      <c r="BA146" s="34"/>
-      <c r="BB146" s="34">
+      <c r="AY146" s="37"/>
+      <c r="AZ146" s="37"/>
+      <c r="BA146" s="37"/>
+      <c r="BB146" s="37">
         <v>2013</v>
       </c>
-      <c r="BC146" s="34"/>
-      <c r="BD146" s="34"/>
-      <c r="BE146" s="34"/>
-      <c r="BF146" s="34">
+      <c r="BC146" s="37"/>
+      <c r="BD146" s="37"/>
+      <c r="BE146" s="37"/>
+      <c r="BF146" s="37">
         <v>2014</v>
       </c>
-      <c r="BG146" s="34"/>
-      <c r="BH146" s="34"/>
-      <c r="BI146" s="34"/>
-      <c r="BJ146" s="34">
+      <c r="BG146" s="37"/>
+      <c r="BH146" s="37"/>
+      <c r="BI146" s="37"/>
+      <c r="BJ146" s="37">
         <v>2015</v>
       </c>
-      <c r="BK146" s="34"/>
-      <c r="BL146" s="34"/>
-      <c r="BM146" s="34"/>
-      <c r="BN146" s="34">
+      <c r="BK146" s="37"/>
+      <c r="BL146" s="37"/>
+      <c r="BM146" s="37"/>
+      <c r="BN146" s="37">
         <v>2016</v>
       </c>
-      <c r="BO146" s="34"/>
-      <c r="BP146" s="34"/>
-      <c r="BQ146" s="34"/>
-      <c r="BR146" s="34">
+      <c r="BO146" s="37"/>
+      <c r="BP146" s="37"/>
+      <c r="BQ146" s="37"/>
+      <c r="BR146" s="37">
         <v>2017</v>
       </c>
-      <c r="BS146" s="34"/>
-      <c r="BT146" s="34"/>
-      <c r="BU146" s="34"/>
-      <c r="BV146" s="34">
+      <c r="BS146" s="37"/>
+      <c r="BT146" s="37"/>
+      <c r="BU146" s="37"/>
+      <c r="BV146" s="37">
         <v>2018</v>
       </c>
-      <c r="BW146" s="34"/>
-      <c r="BX146" s="34"/>
-      <c r="BY146" s="34"/>
-      <c r="BZ146" s="34">
+      <c r="BW146" s="37"/>
+      <c r="BX146" s="37"/>
+      <c r="BY146" s="37"/>
+      <c r="BZ146" s="37">
         <v>2019</v>
       </c>
-      <c r="CA146" s="34"/>
-      <c r="CB146" s="34"/>
-      <c r="CC146" s="34"/>
-      <c r="CD146" s="34">
+      <c r="CA146" s="37"/>
+      <c r="CB146" s="37"/>
+      <c r="CC146" s="37"/>
+      <c r="CD146" s="37">
         <v>2020</v>
       </c>
-      <c r="CE146" s="34"/>
-      <c r="CF146" s="34"/>
-      <c r="CG146" s="34"/>
+      <c r="CE146" s="37"/>
+      <c r="CF146" s="37"/>
+      <c r="CG146" s="37"/>
       <c r="CH146" s="21">
         <v>2021</v>
       </c>
@@ -45078,6 +45269,7 @@
       </c>
       <c r="CU146" s="24"/>
       <c r="CV146" s="24"/>
+      <c r="CW146" s="24"/>
     </row>
     <row r="147" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
@@ -45379,6 +45571,9 @@
       </c>
       <c r="CV147" s="25" t="s">
         <v>10</v>
+      </c>
+      <c r="CW147" s="25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:154" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -45390,6 +45585,7 @@
       <c r="CT148" s="23"/>
       <c r="CU148" s="23"/>
       <c r="CV148" s="23"/>
+      <c r="CW148" s="23"/>
     </row>
     <row r="149" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
@@ -45690,9 +45886,11 @@
         <v>23.010194729060547</v>
       </c>
       <c r="CV149" s="33">
-        <v>10.803522936121803</v>
-      </c>
-      <c r="CW149" s="9"/>
+        <v>10.87960760334224</v>
+      </c>
+      <c r="CW149" s="33">
+        <v>11.005717131215098</v>
+      </c>
       <c r="CX149" s="9"/>
       <c r="CY149" s="9"/>
       <c r="CZ149" s="9"/>
@@ -46046,9 +46244,11 @@
         <v>18.758273577072647</v>
       </c>
       <c r="CV150" s="33">
-        <v>7.8001201112576748</v>
-      </c>
-      <c r="CW150" s="9"/>
+        <v>7.7815701983799155</v>
+      </c>
+      <c r="CW150" s="33">
+        <v>7.9563193949311355</v>
+      </c>
       <c r="CX150" s="9"/>
       <c r="CY150" s="9"/>
       <c r="CZ150" s="9"/>
@@ -46402,9 +46602,11 @@
         <v>17.37536678159508</v>
       </c>
       <c r="CV151" s="33">
-        <v>23.256419590353232</v>
-      </c>
-      <c r="CW151" s="9"/>
+        <v>23.301280687141698</v>
+      </c>
+      <c r="CW151" s="33">
+        <v>19.198988764637271</v>
+      </c>
       <c r="CX151" s="9"/>
       <c r="CY151" s="9"/>
       <c r="CZ151" s="9"/>
@@ -46758,9 +46960,11 @@
         <v>17.940156036888645</v>
       </c>
       <c r="CV152" s="33">
-        <v>19.564049961655897</v>
-      </c>
-      <c r="CW152" s="9"/>
+        <v>19.553393640205936</v>
+      </c>
+      <c r="CW152" s="33">
+        <v>4.6522856763232801</v>
+      </c>
       <c r="CX152" s="9"/>
       <c r="CY152" s="9"/>
       <c r="CZ152" s="9"/>
@@ -47114,9 +47318,11 @@
         <v>3.1165642228105752</v>
       </c>
       <c r="CV153" s="33">
-        <v>4.3958208517610755</v>
-      </c>
-      <c r="CW153" s="9"/>
+        <v>4.3853668981471152</v>
+      </c>
+      <c r="CW153" s="33">
+        <v>4.8044131664447498</v>
+      </c>
       <c r="CX153" s="9"/>
       <c r="CY153" s="9"/>
       <c r="CZ153" s="9"/>
@@ -47470,9 +47676,11 @@
         <v>19.799444652572493</v>
       </c>
       <c r="CV154" s="33">
-        <v>34.18006654885032</v>
-      </c>
-      <c r="CW154" s="9"/>
+        <v>34.098780972783089</v>
+      </c>
+      <c r="CW154" s="33">
+        <v>52.38227586644846</v>
+      </c>
       <c r="CX154" s="9"/>
       <c r="CY154" s="9"/>
       <c r="CZ154" s="9"/>
@@ -47627,7 +47835,7 @@
       <c r="CT155" s="27"/>
       <c r="CU155" s="27"/>
       <c r="CV155" s="27"/>
-      <c r="CW155" s="9"/>
+      <c r="CW155" s="27"/>
       <c r="CX155" s="9"/>
       <c r="CY155" s="9"/>
       <c r="CZ155" s="9"/>
@@ -47983,7 +48191,9 @@
       <c r="CV156" s="33">
         <v>100</v>
       </c>
-      <c r="CW156" s="9"/>
+      <c r="CW156" s="33">
+        <v>100</v>
+      </c>
       <c r="CX156" s="9"/>
       <c r="CY156" s="9"/>
       <c r="CZ156" s="9"/>
@@ -48139,6 +48349,7 @@
       <c r="CT157" s="29"/>
       <c r="CU157" s="29"/>
       <c r="CV157" s="29"/>
+      <c r="CW157" s="29"/>
     </row>
     <row r="158" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
@@ -48151,6 +48362,7 @@
       <c r="CT158" s="23"/>
       <c r="CU158" s="23"/>
       <c r="CV158" s="23"/>
+      <c r="CW158" s="23"/>
     </row>
     <row r="159" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9"/>
@@ -48225,7 +48437,6 @@
       <c r="BS159" s="9"/>
       <c r="BT159" s="9"/>
       <c r="BU159" s="9"/>
-      <c r="CW159" s="9"/>
       <c r="CX159" s="9"/>
       <c r="CY159" s="9"/>
       <c r="CZ159" s="9"/>
@@ -48348,7 +48559,6 @@
       <c r="BS160" s="9"/>
       <c r="BT160" s="9"/>
       <c r="BU160" s="9"/>
-      <c r="CW160" s="9"/>
       <c r="CX160" s="9"/>
       <c r="CY160" s="9"/>
       <c r="CZ160" s="9"/>
@@ -48400,56 +48610,79 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="BR32:BU32"/>
-    <mergeCell ref="BV78:BY78"/>
-    <mergeCell ref="BZ146:CC146"/>
-    <mergeCell ref="BZ100:CC100"/>
-    <mergeCell ref="BZ123:CC123"/>
-    <mergeCell ref="BR123:BU123"/>
-    <mergeCell ref="BV123:BY123"/>
-    <mergeCell ref="BV146:BY146"/>
-    <mergeCell ref="BR55:BU55"/>
-    <mergeCell ref="BV55:BY55"/>
-    <mergeCell ref="BR146:BU146"/>
-    <mergeCell ref="BR100:BU100"/>
-    <mergeCell ref="BV100:BY100"/>
-    <mergeCell ref="BR78:BU78"/>
-    <mergeCell ref="BV32:BY32"/>
-    <mergeCell ref="BZ32:CC32"/>
-    <mergeCell ref="BZ55:CC55"/>
-    <mergeCell ref="BZ78:CC78"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BB32:BE32"/>
-    <mergeCell ref="BF32:BI32"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="Z32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AH32:AK32"/>
-    <mergeCell ref="AL32:AO32"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD146:CG146"/>
+    <mergeCell ref="CD123:CG123"/>
+    <mergeCell ref="CD100:CG100"/>
+    <mergeCell ref="CD32:CG32"/>
+    <mergeCell ref="CD55:CG55"/>
+    <mergeCell ref="CD78:CG78"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="J123:M123"/>
+    <mergeCell ref="N123:Q123"/>
+    <mergeCell ref="R123:U123"/>
+    <mergeCell ref="BF146:BI146"/>
+    <mergeCell ref="BJ146:BM146"/>
+    <mergeCell ref="BN146:BQ146"/>
+    <mergeCell ref="BJ123:BM123"/>
+    <mergeCell ref="BN123:BQ123"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="J146:M146"/>
+    <mergeCell ref="N146:Q146"/>
+    <mergeCell ref="R146:U146"/>
+    <mergeCell ref="V146:Y146"/>
+    <mergeCell ref="Z146:AC146"/>
+    <mergeCell ref="BN100:BQ100"/>
+    <mergeCell ref="AL100:AO100"/>
+    <mergeCell ref="AP100:AS100"/>
+    <mergeCell ref="AT100:AW100"/>
+    <mergeCell ref="AD146:AG146"/>
+    <mergeCell ref="AH146:AK146"/>
+    <mergeCell ref="AL146:AO146"/>
+    <mergeCell ref="AP146:AS146"/>
+    <mergeCell ref="AT146:AW146"/>
+    <mergeCell ref="AX146:BA146"/>
+    <mergeCell ref="BB146:BE146"/>
+    <mergeCell ref="BF123:BI123"/>
+    <mergeCell ref="V100:Y100"/>
+    <mergeCell ref="Z100:AC100"/>
+    <mergeCell ref="AD100:AG100"/>
+    <mergeCell ref="AH100:AK100"/>
+    <mergeCell ref="AX100:BA100"/>
+    <mergeCell ref="BB100:BE100"/>
+    <mergeCell ref="BF100:BI100"/>
+    <mergeCell ref="BJ100:BM100"/>
+    <mergeCell ref="V123:Y123"/>
+    <mergeCell ref="Z123:AC123"/>
+    <mergeCell ref="AD123:AG123"/>
+    <mergeCell ref="AH123:AK123"/>
+    <mergeCell ref="AL123:AO123"/>
+    <mergeCell ref="AP123:AS123"/>
+    <mergeCell ref="AT123:AW123"/>
+    <mergeCell ref="AX123:BA123"/>
+    <mergeCell ref="BB123:BE123"/>
+    <mergeCell ref="BF55:BI55"/>
+    <mergeCell ref="BJ55:BM55"/>
+    <mergeCell ref="BN55:BQ55"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="V78:Y78"/>
+    <mergeCell ref="Z78:AC78"/>
+    <mergeCell ref="AD78:AG78"/>
+    <mergeCell ref="AH78:AK78"/>
+    <mergeCell ref="AL78:AO78"/>
+    <mergeCell ref="AP78:AS78"/>
+    <mergeCell ref="AT78:AW78"/>
+    <mergeCell ref="AX78:BA78"/>
+    <mergeCell ref="BJ78:BM78"/>
+    <mergeCell ref="BN78:BQ78"/>
+    <mergeCell ref="BB78:BE78"/>
+    <mergeCell ref="BF78:BI78"/>
     <mergeCell ref="B100:E100"/>
     <mergeCell ref="F100:I100"/>
     <mergeCell ref="J100:M100"/>
@@ -48474,81 +48707,58 @@
     <mergeCell ref="AP32:AS32"/>
     <mergeCell ref="AT32:AW32"/>
     <mergeCell ref="AX32:BA32"/>
-    <mergeCell ref="BF55:BI55"/>
-    <mergeCell ref="BJ55:BM55"/>
-    <mergeCell ref="BN55:BQ55"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="V78:Y78"/>
-    <mergeCell ref="Z78:AC78"/>
-    <mergeCell ref="AD78:AG78"/>
-    <mergeCell ref="AH78:AK78"/>
-    <mergeCell ref="AL78:AO78"/>
-    <mergeCell ref="AP78:AS78"/>
-    <mergeCell ref="AT78:AW78"/>
-    <mergeCell ref="AX78:BA78"/>
-    <mergeCell ref="BJ78:BM78"/>
-    <mergeCell ref="BN78:BQ78"/>
-    <mergeCell ref="BB78:BE78"/>
-    <mergeCell ref="BF78:BI78"/>
-    <mergeCell ref="V100:Y100"/>
-    <mergeCell ref="Z100:AC100"/>
-    <mergeCell ref="AD100:AG100"/>
-    <mergeCell ref="AH100:AK100"/>
-    <mergeCell ref="AX100:BA100"/>
-    <mergeCell ref="BB100:BE100"/>
-    <mergeCell ref="BF100:BI100"/>
-    <mergeCell ref="BJ100:BM100"/>
-    <mergeCell ref="V123:Y123"/>
-    <mergeCell ref="Z123:AC123"/>
-    <mergeCell ref="AD123:AG123"/>
-    <mergeCell ref="AH123:AK123"/>
-    <mergeCell ref="AL123:AO123"/>
-    <mergeCell ref="AP123:AS123"/>
-    <mergeCell ref="AT123:AW123"/>
-    <mergeCell ref="AX123:BA123"/>
-    <mergeCell ref="BB123:BE123"/>
-    <mergeCell ref="BN100:BQ100"/>
-    <mergeCell ref="AL100:AO100"/>
-    <mergeCell ref="AP100:AS100"/>
-    <mergeCell ref="AT100:AW100"/>
-    <mergeCell ref="AD146:AG146"/>
-    <mergeCell ref="AH146:AK146"/>
-    <mergeCell ref="AL146:AO146"/>
-    <mergeCell ref="AP146:AS146"/>
-    <mergeCell ref="AT146:AW146"/>
-    <mergeCell ref="AX146:BA146"/>
-    <mergeCell ref="BB146:BE146"/>
-    <mergeCell ref="BF123:BI123"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD146:CG146"/>
-    <mergeCell ref="CD123:CG123"/>
-    <mergeCell ref="CD100:CG100"/>
-    <mergeCell ref="CD32:CG32"/>
-    <mergeCell ref="CD55:CG55"/>
-    <mergeCell ref="CD78:CG78"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="J123:M123"/>
-    <mergeCell ref="N123:Q123"/>
-    <mergeCell ref="R123:U123"/>
-    <mergeCell ref="BF146:BI146"/>
-    <mergeCell ref="BJ146:BM146"/>
-    <mergeCell ref="BN146:BQ146"/>
-    <mergeCell ref="BJ123:BM123"/>
-    <mergeCell ref="BN123:BQ123"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="J146:M146"/>
-    <mergeCell ref="N146:Q146"/>
-    <mergeCell ref="R146:U146"/>
-    <mergeCell ref="V146:Y146"/>
-    <mergeCell ref="Z146:AC146"/>
+    <mergeCell ref="BB32:BE32"/>
+    <mergeCell ref="BF32:BI32"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="Z32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AH32:AK32"/>
+    <mergeCell ref="AL32:AO32"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR32:BU32"/>
+    <mergeCell ref="BV78:BY78"/>
+    <mergeCell ref="BZ146:CC146"/>
+    <mergeCell ref="BZ100:CC100"/>
+    <mergeCell ref="BZ123:CC123"/>
+    <mergeCell ref="BR123:BU123"/>
+    <mergeCell ref="BV123:BY123"/>
+    <mergeCell ref="BV146:BY146"/>
+    <mergeCell ref="BR55:BU55"/>
+    <mergeCell ref="BV55:BY55"/>
+    <mergeCell ref="BR146:BU146"/>
+    <mergeCell ref="BR100:BU100"/>
+    <mergeCell ref="BV100:BY100"/>
+    <mergeCell ref="BR78:BU78"/>
+    <mergeCell ref="BV32:BY32"/>
+    <mergeCell ref="BZ32:CC32"/>
+    <mergeCell ref="BZ55:CC55"/>
+    <mergeCell ref="BZ78:CC78"/>
   </mergeCells>
-  <conditionalFormatting sqref="BR58:CV65 BR81:CV88 BR103:CV110">
+  <conditionalFormatting sqref="BR58:CW65 BR81:CW88 BR103:CW110">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -48558,9 +48768,9 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="99" man="1"/>
-    <brk id="92" max="99" man="1"/>
-    <brk id="114" max="99" man="1"/>
+    <brk id="46" max="100" man="1"/>
+    <brk id="92" max="100" man="1"/>
+    <brk id="114" max="100" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="56" max="159" man="1"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A3A5B-3B97-4554-A55B-0B89537A0C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C84844-E6EF-4965-AE8A-796486779628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CW$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$CX$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="60">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -639,13 +639,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2024</t>
+    <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2024</t>
+    <t>Q1 2000 to Q1 2025</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>Q1 2001 to Q1 2025</t>
+  </si>
+  <si>
+    <t>As of May 2025</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -808,6 +811,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23669,12 +23675,12 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EX160"/>
+  <dimension ref="A1:EX163"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CM1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23682,16 +23688,18 @@
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
     <col min="2" max="85" width="9.5546875" style="10" customWidth="1"/>
     <col min="86" max="89" width="8" style="10" customWidth="1"/>
-    <col min="90" max="92" width="7.88671875" style="10" customWidth="1"/>
-    <col min="93" max="93" width="8.21875" style="10" customWidth="1"/>
-    <col min="94" max="101" width="10.109375" style="32" customWidth="1"/>
-    <col min="102" max="16384" width="7.77734375" style="10"/>
+    <col min="90" max="102" width="10.109375" style="32" customWidth="1"/>
+    <col min="103" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL1" s="23"/>
+      <c r="CM1" s="23"/>
+      <c r="CN1" s="23"/>
+      <c r="CO1" s="23"/>
       <c r="CP1" s="23"/>
       <c r="CQ1" s="23"/>
       <c r="CR1" s="23"/>
@@ -23700,11 +23708,16 @@
       <c r="CU1" s="23"/>
       <c r="CV1" s="23"/>
       <c r="CW1" s="23"/>
+      <c r="CX1" s="23"/>
     </row>
     <row r="2" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="CL2" s="23"/>
+      <c r="CM2" s="23"/>
+      <c r="CN2" s="23"/>
+      <c r="CO2" s="23"/>
       <c r="CP2" s="23"/>
       <c r="CQ2" s="23"/>
       <c r="CR2" s="23"/>
@@ -23713,11 +23726,16 @@
       <c r="CU2" s="23"/>
       <c r="CV2" s="23"/>
       <c r="CW2" s="23"/>
+      <c r="CX2" s="23"/>
     </row>
     <row r="3" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="CL3" s="23"/>
+      <c r="CM3" s="23"/>
+      <c r="CN3" s="23"/>
+      <c r="CO3" s="23"/>
       <c r="CP3" s="23"/>
       <c r="CQ3" s="23"/>
       <c r="CR3" s="23"/>
@@ -23726,8 +23744,13 @@
       <c r="CU3" s="23"/>
       <c r="CV3" s="23"/>
       <c r="CW3" s="23"/>
+      <c r="CX3" s="23"/>
     </row>
     <row r="4" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL4" s="23"/>
+      <c r="CM4" s="23"/>
+      <c r="CN4" s="23"/>
+      <c r="CO4" s="23"/>
       <c r="CP4" s="23"/>
       <c r="CQ4" s="23"/>
       <c r="CR4" s="23"/>
@@ -23736,11 +23759,16 @@
       <c r="CU4" s="23"/>
       <c r="CV4" s="23"/>
       <c r="CW4" s="23"/>
+      <c r="CX4" s="23"/>
     </row>
     <row r="5" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="CL5" s="23"/>
+      <c r="CM5" s="23"/>
+      <c r="CN5" s="23"/>
+      <c r="CO5" s="23"/>
       <c r="CP5" s="23"/>
       <c r="CQ5" s="23"/>
       <c r="CR5" s="23"/>
@@ -23749,11 +23777,16 @@
       <c r="CU5" s="23"/>
       <c r="CV5" s="23"/>
       <c r="CW5" s="23"/>
+      <c r="CX5" s="23"/>
     </row>
     <row r="6" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CL6" s="23"/>
+      <c r="CM6" s="23"/>
+      <c r="CN6" s="23"/>
+      <c r="CO6" s="23"/>
       <c r="CP6" s="23"/>
       <c r="CQ6" s="23"/>
       <c r="CR6" s="23"/>
@@ -23762,11 +23795,16 @@
       <c r="CU6" s="23"/>
       <c r="CV6" s="23"/>
       <c r="CW6" s="23"/>
+      <c r="CX6" s="23"/>
     </row>
     <row r="7" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CL7" s="23"/>
+      <c r="CM7" s="23"/>
+      <c r="CN7" s="23"/>
+      <c r="CO7" s="23"/>
       <c r="CP7" s="23"/>
       <c r="CQ7" s="23"/>
       <c r="CR7" s="23"/>
@@ -23775,8 +23813,13 @@
       <c r="CU7" s="23"/>
       <c r="CV7" s="23"/>
       <c r="CW7" s="23"/>
+      <c r="CX7" s="23"/>
     </row>
     <row r="8" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL8" s="23"/>
+      <c r="CM8" s="23"/>
+      <c r="CN8" s="23"/>
+      <c r="CO8" s="23"/>
       <c r="CP8" s="23"/>
       <c r="CQ8" s="23"/>
       <c r="CR8" s="23"/>
@@ -23785,147 +23828,148 @@
       <c r="CU8" s="23"/>
       <c r="CV8" s="23"/>
       <c r="CW8" s="23"/>
+      <c r="CX8" s="23"/>
     </row>
     <row r="9" spans="1:154" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="37">
+      <c r="B9" s="38">
         <v>2000</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38">
         <v>2001</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38">
         <v>2002</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38">
         <v>2003</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37">
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38">
         <v>2004</v>
       </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37">
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38">
         <v>2005</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37">
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38">
         <v>2006</v>
       </c>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37">
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38">
         <v>2007</v>
       </c>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37">
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38">
         <v>2008</v>
       </c>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37">
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38">
         <v>2009</v>
       </c>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37">
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37">
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38">
         <v>2011</v>
       </c>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="37">
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38">
         <v>2012</v>
       </c>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37">
+      <c r="AY9" s="38"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38">
         <v>2013</v>
       </c>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="37"/>
-      <c r="BE9" s="37"/>
-      <c r="BF9" s="37">
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="3